--- a/data/prespollsl2024.xlsx
+++ b/data/prespollsl2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P183"/>
+  <dimension ref="A1:O183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,7 +453,6 @@
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="8" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -520,12 +519,11 @@
           <t>SLPP</t>
         </is>
       </c>
-      <c r="P1" s="2" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01P</t>
+          <t>EC-01P</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -541,41 +539,40 @@
       <c r="D2" s="4" t="inlineStr"/>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:21</t>
+          <t>2024-08-15 12:45</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr"/>
       <c r="G2" s="4" t="n">
-        <v>39448</v>
+        <v>37630</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29947</v>
+        <v>24159</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>369</v>
+        <v>476</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>29578</v>
+        <v>23683</v>
       </c>
       <c r="K2" s="4" t="inlineStr"/>
       <c r="L2" s="4" t="n">
-        <v>7543</v>
+        <v>8854</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7436</v>
+        <v>4430</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5582</v>
+        <v>5626</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7536</v>
-      </c>
-      <c r="P2" s="4" t="inlineStr"/>
+        <v>3587</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02P</t>
+          <t>EC-02P</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -591,41 +588,40 @@
       <c r="D3" s="4" t="inlineStr"/>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:30</t>
+          <t>2024-08-15 06:16</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr"/>
       <c r="G3" s="4" t="n">
-        <v>58493</v>
+        <v>58760</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>49393</v>
+        <v>41805</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>835</v>
+        <v>1065</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>48558</v>
+        <v>40740</v>
       </c>
       <c r="K3" s="4" t="inlineStr"/>
       <c r="L3" s="4" t="n">
-        <v>12325</v>
+        <v>11773</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7314</v>
+        <v>12214</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>10419</v>
+        <v>6285</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16070</v>
-      </c>
-      <c r="P3" s="4" t="inlineStr"/>
+        <v>8429</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03P</t>
+          <t>EC-03P</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -641,41 +637,40 @@
       <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:49</t>
+          <t>2024-08-15 10:03</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="n">
-        <v>38597</v>
+        <v>39361</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26113</v>
+        <v>32922</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>482</v>
+        <v>637</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>25631</v>
+        <v>32285</v>
       </c>
       <c r="K4" s="4" t="inlineStr"/>
       <c r="L4" s="4" t="n">
-        <v>7595</v>
+        <v>7642</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6193</v>
+        <v>6588</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6799</v>
+        <v>6648</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3760</v>
-      </c>
-      <c r="P4" s="4" t="inlineStr"/>
+        <v>9790</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04P</t>
+          <t>EC-04P</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -691,41 +686,40 @@
       <c r="D5" s="4" t="inlineStr"/>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:41</t>
+          <t>2024-08-15 06:45</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr"/>
       <c r="G5" s="4" t="n">
-        <v>58773</v>
+        <v>55152</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35963</v>
+        <v>37947</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>653</v>
+        <v>1003</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>35310</v>
+        <v>36944</v>
       </c>
       <c r="K5" s="4" t="inlineStr"/>
       <c r="L5" s="4" t="n">
-        <v>7434</v>
+        <v>4772</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5357</v>
+        <v>9811</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>16047</v>
+        <v>7972</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4704</v>
-      </c>
-      <c r="P5" s="4" t="inlineStr"/>
+        <v>12540</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05P</t>
+          <t>EC-05P</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -741,41 +735,40 @@
       <c r="D6" s="4" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:01</t>
+          <t>2024-08-15 06:43</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="n">
-        <v>22524</v>
+        <v>23946</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>16965</v>
+        <v>21113</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>182</v>
+        <v>369</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>16783</v>
+        <v>20744</v>
       </c>
       <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="n">
-        <v>3471</v>
+        <v>8559</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>3480</v>
+        <v>2037</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4928</v>
+        <v>6761</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>4063</v>
-      </c>
-      <c r="P6" s="4" t="inlineStr"/>
+        <v>2348</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06P</t>
+          <t>EC-06P</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -791,41 +784,40 @@
       <c r="D7" s="4" t="inlineStr"/>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:25</t>
+          <t>2024-08-15 05:58</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr"/>
       <c r="G7" s="4" t="n">
-        <v>20393</v>
+        <v>21226</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>15345</v>
+        <v>18544</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>14970</v>
+        <v>18206</v>
       </c>
       <c r="K7" s="4" t="inlineStr"/>
       <c r="L7" s="4" t="n">
-        <v>2139</v>
+        <v>3542</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>1622</v>
+        <v>4635</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5789</v>
+        <v>4654</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>4670</v>
-      </c>
-      <c r="P7" s="4" t="inlineStr"/>
+        <v>4463</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07P</t>
+          <t>EC-07P</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -841,41 +833,40 @@
       <c r="D8" s="4" t="inlineStr"/>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:41</t>
+          <t>2024-08-15 03:18</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr"/>
       <c r="G8" s="4" t="n">
-        <v>41275</v>
+        <v>41391</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>33758</v>
+        <v>35200</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>479</v>
+        <v>598</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>33279</v>
+        <v>34602</v>
       </c>
       <c r="K8" s="4" t="inlineStr"/>
       <c r="L8" s="4" t="n">
-        <v>3853</v>
+        <v>9088</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>16093</v>
+        <v>7469</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>7753</v>
+        <v>9223</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>3915</v>
-      </c>
-      <c r="P8" s="4" t="inlineStr"/>
+        <v>7091</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08P</t>
+          <t>EC-08P</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -891,41 +882,40 @@
       <c r="D9" s="4" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:12</t>
+          <t>2024-08-15 03:18</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="n">
-        <v>31336</v>
+        <v>31486</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>19336</v>
+        <v>28049</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>544</v>
+        <v>386</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>18792</v>
+        <v>27663</v>
       </c>
       <c r="K9" s="4" t="inlineStr"/>
       <c r="L9" s="4" t="n">
-        <v>2301</v>
+        <v>2984</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>2573</v>
+        <v>6297</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>7259</v>
+        <v>6793</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>5717</v>
-      </c>
-      <c r="P9" s="4" t="inlineStr"/>
+        <v>10205</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>09P</t>
+          <t>EC-09P</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -941,41 +931,40 @@
       <c r="D10" s="4" t="inlineStr"/>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:46</t>
+          <t>2024-08-15 06:50</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="n">
-        <v>21197</v>
+        <v>21053</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>19070</v>
+        <v>14535</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>18697</v>
+        <v>14163</v>
       </c>
       <c r="K10" s="4" t="inlineStr"/>
       <c r="L10" s="4" t="n">
-        <v>5663</v>
+        <v>3550</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>4589</v>
+        <v>1388</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3374</v>
+        <v>3510</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4133</v>
-      </c>
-      <c r="P10" s="4" t="inlineStr"/>
+        <v>5006</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10P</t>
+          <t>EC-10P</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -991,41 +980,40 @@
       <c r="D11" s="4" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:02</t>
+          <t>2024-08-15 11:04</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="n">
-        <v>25246</v>
+        <v>26450</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>15781</v>
+        <v>19607</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>420</v>
+        <v>215</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>15361</v>
+        <v>19392</v>
       </c>
       <c r="K11" s="4" t="inlineStr"/>
       <c r="L11" s="4" t="n">
-        <v>4305</v>
+        <v>5160</v>
       </c>
       <c r="M11" s="4" t="n">
-        <v>4491</v>
+        <v>4214</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>2330</v>
+        <v>5111</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>3465</v>
-      </c>
-      <c r="P11" s="4" t="inlineStr"/>
+        <v>3936</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11P</t>
+          <t>EC-11P</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1041,41 +1029,40 @@
       <c r="D12" s="4" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:03</t>
+          <t>2024-08-15 08:51</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr"/>
       <c r="G12" s="4" t="n">
-        <v>13134</v>
+        <v>12992</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>9476</v>
+        <v>9582</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>9207</v>
+        <v>9342</v>
       </c>
       <c r="K12" s="4" t="inlineStr"/>
       <c r="L12" s="4" t="n">
-        <v>2949</v>
+        <v>2551</v>
       </c>
       <c r="M12" s="4" t="n">
-        <v>1312</v>
+        <v>2011</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>3570</v>
+        <v>1526</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>914</v>
-      </c>
-      <c r="P12" s="4" t="inlineStr"/>
+        <v>2785</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12P</t>
+          <t>EC-12P</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1091,41 +1078,40 @@
       <c r="D13" s="4" t="inlineStr"/>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:56</t>
+          <t>2024-08-15 09:24</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr"/>
       <c r="G13" s="4" t="n">
-        <v>13337</v>
+        <v>13644</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>10813</v>
+        <v>11646</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>10579</v>
+        <v>11420</v>
       </c>
       <c r="K13" s="4" t="inlineStr"/>
       <c r="L13" s="4" t="n">
-        <v>3186</v>
+        <v>3141</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>2700</v>
+        <v>3641</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>1119</v>
+        <v>1398</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>3043</v>
-      </c>
-      <c r="P13" s="4" t="inlineStr"/>
+        <v>2667</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13P</t>
+          <t>EC-13P</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1141,41 +1127,40 @@
       <c r="D14" s="4" t="inlineStr"/>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:09</t>
+          <t>2024-08-15 01:03</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr"/>
       <c r="G14" s="4" t="n">
-        <v>30863</v>
+        <v>29140</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>24910</v>
+        <v>20656</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>659</v>
+        <v>475</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>24251</v>
+        <v>20181</v>
       </c>
       <c r="K14" s="4" t="inlineStr"/>
       <c r="L14" s="4" t="n">
-        <v>5710</v>
+        <v>6073</v>
       </c>
       <c r="M14" s="4" t="n">
-        <v>3833</v>
+        <v>5187</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>9626</v>
+        <v>6050</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>3868</v>
-      </c>
-      <c r="P14" s="4" t="inlineStr"/>
+        <v>1860</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14P</t>
+          <t>EC-14P</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1191,41 +1176,40 @@
       <c r="D15" s="4" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:46</t>
+          <t>2024-08-15 07:18</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr"/>
       <c r="G15" s="4" t="n">
-        <v>15967</v>
+        <v>16335</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>13120</v>
+        <v>9907</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>359</v>
+        <v>193</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>12761</v>
+        <v>9714</v>
       </c>
       <c r="K15" s="4" t="inlineStr"/>
       <c r="L15" s="4" t="n">
-        <v>2918</v>
+        <v>1135</v>
       </c>
       <c r="M15" s="4" t="n">
-        <v>2541</v>
+        <v>3252</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>5068</v>
+        <v>3615</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>1595</v>
-      </c>
-      <c r="P15" s="4" t="inlineStr"/>
+        <v>1225</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15P</t>
+          <t>EC-15P</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1241,41 +1225,40 @@
       <c r="D16" s="4" t="inlineStr"/>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:07</t>
+          <t>2024-08-15 12:08</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr"/>
       <c r="G16" s="4" t="n">
-        <v>80340</v>
+        <v>76437</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>67264</v>
+        <v>59223</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>1741</v>
+        <v>1668</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>65523</v>
+        <v>57555</v>
       </c>
       <c r="K16" s="4" t="inlineStr"/>
       <c r="L16" s="4" t="n">
-        <v>12883</v>
+        <v>6605</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>23303</v>
+        <v>19768</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>12112</v>
+        <v>7952</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>13947</v>
-      </c>
-      <c r="P16" s="4" t="inlineStr"/>
+        <v>20350</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16P</t>
+          <t>EC-16P</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1291,41 +1274,40 @@
       <c r="D17" s="4" t="inlineStr"/>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:13</t>
+          <t>2024-08-15 01:58</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr"/>
       <c r="G17" s="4" t="n">
-        <v>15589</v>
+        <v>15066</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>10762</v>
+        <v>9343</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>281</v>
+        <v>116</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>10481</v>
+        <v>9227</v>
       </c>
       <c r="K17" s="4" t="inlineStr"/>
       <c r="L17" s="4" t="n">
-        <v>2241</v>
+        <v>3362</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>3241</v>
+        <v>3529</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>3084</v>
+        <v>779</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>1388</v>
-      </c>
-      <c r="P17" s="4" t="inlineStr"/>
+        <v>1093</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17P</t>
+          <t>EC-17P</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1341,41 +1323,40 @@
       <c r="D18" s="4" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:31</t>
+          <t>2024-08-15 06:17</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr"/>
       <c r="G18" s="4" t="n">
-        <v>58305</v>
+        <v>61057</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>47069</v>
+        <v>54158</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>1262</v>
+        <v>1451</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>45807</v>
+        <v>52707</v>
       </c>
       <c r="K18" s="4" t="inlineStr"/>
       <c r="L18" s="4" t="n">
-        <v>18633</v>
+        <v>5353</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>4865</v>
+        <v>18584</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>5976</v>
+        <v>18446</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>14042</v>
-      </c>
-      <c r="P18" s="4" t="inlineStr"/>
+        <v>7687</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18P</t>
+          <t>EC-18P</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1391,41 +1372,40 @@
       <c r="D19" s="4" t="inlineStr"/>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:35</t>
+          <t>2024-08-15 12:34</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr"/>
       <c r="G19" s="4" t="n">
-        <v>19721</v>
+        <v>21245</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>14818</v>
+        <v>17005</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>14600</v>
+        <v>16749</v>
       </c>
       <c r="K19" s="4" t="inlineStr"/>
       <c r="L19" s="4" t="n">
-        <v>1876</v>
+        <v>2531</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>4089</v>
+        <v>3293</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>1980</v>
+        <v>4193</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>5922</v>
-      </c>
-      <c r="P19" s="4" t="inlineStr"/>
+        <v>5893</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19P</t>
+          <t>EC-19P</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1441,41 +1421,40 @@
       <c r="D20" s="4" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:36</t>
+          <t>2024-08-15 05:48</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="n">
-        <v>44400</v>
+        <v>43693</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>30975</v>
+        <v>32826</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>593</v>
+        <v>385</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>30382</v>
+        <v>32441</v>
       </c>
       <c r="K20" s="4" t="inlineStr"/>
       <c r="L20" s="4" t="n">
-        <v>9113</v>
+        <v>7475</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>5447</v>
+        <v>4093</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>4160</v>
+        <v>9560</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>10142</v>
-      </c>
-      <c r="P20" s="4" t="inlineStr"/>
+        <v>9688</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20P</t>
+          <t>EC-20P</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1491,41 +1470,40 @@
       <c r="D21" s="4" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:19</t>
+          <t>2024-08-15 01:26</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr"/>
       <c r="G21" s="4" t="n">
-        <v>24242</v>
+        <v>24358</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>17484</v>
+        <v>15161</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>17187</v>
+        <v>14931</v>
       </c>
       <c r="K21" s="4" t="inlineStr"/>
       <c r="L21" s="4" t="n">
-        <v>5343</v>
+        <v>2286</v>
       </c>
       <c r="M21" s="4" t="n">
-        <v>2949</v>
+        <v>1956</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>4670</v>
+        <v>5490</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>3363</v>
-      </c>
-      <c r="P21" s="4" t="inlineStr"/>
+        <v>4450</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21P</t>
+          <t>EC-21P</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1541,41 +1519,40 @@
       <c r="D22" s="4" t="inlineStr"/>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:06</t>
+          <t>2024-08-15 05:25</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr"/>
       <c r="G22" s="4" t="n">
-        <v>34604</v>
+        <v>33330</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>30257</v>
+        <v>25067</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>316</v>
+        <v>407</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>29941</v>
+        <v>24660</v>
       </c>
       <c r="K22" s="4" t="inlineStr"/>
       <c r="L22" s="4" t="n">
-        <v>7663</v>
+        <v>3977</v>
       </c>
       <c r="M22" s="4" t="n">
-        <v>8658</v>
+        <v>5461</v>
       </c>
       <c r="N22" s="4" t="n">
-        <v>5484</v>
+        <v>9880</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>6638</v>
-      </c>
-      <c r="P22" s="4" t="inlineStr"/>
+        <v>4107</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22P</t>
+          <t>EC-22P</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1591,41 +1568,40 @@
       <c r="D23" s="4" t="inlineStr"/>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:46</t>
+          <t>2024-08-15 02:03</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr"/>
       <c r="G23" s="4" t="n">
-        <v>35805</v>
+        <v>35044</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>30775</v>
+        <v>22458</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>694</v>
+        <v>564</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>30081</v>
+        <v>21894</v>
       </c>
       <c r="K23" s="4" t="inlineStr"/>
       <c r="L23" s="4" t="n">
-        <v>4392</v>
+        <v>6535</v>
       </c>
       <c r="M23" s="4" t="n">
-        <v>4547</v>
+        <v>1654</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>10839</v>
+        <v>7708</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>8796</v>
-      </c>
-      <c r="P23" s="4" t="inlineStr"/>
+        <v>4901</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01A</t>
+          <t>EC-01A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1641,41 +1617,40 @@
       <c r="D24" s="4" t="inlineStr"/>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:46</t>
+          <t>2024-08-15 01:33</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr"/>
       <c r="G24" s="4" t="n">
-        <v>100949</v>
+        <v>102448</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>72375</v>
+        <v>63907</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>1533</v>
+        <v>723</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>70842</v>
+        <v>63184</v>
       </c>
       <c r="K24" s="4" t="inlineStr"/>
       <c r="L24" s="4" t="n">
-        <v>17356</v>
+        <v>17253</v>
       </c>
       <c r="M24" s="4" t="n">
-        <v>24289</v>
+        <v>18674</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>9135</v>
+        <v>17986</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>16518</v>
-      </c>
-      <c r="P24" s="4" t="inlineStr"/>
+        <v>6110</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01B</t>
+          <t>EC-01B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1691,41 +1666,40 @@
       <c r="D25" s="4" t="inlineStr"/>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:25</t>
+          <t>2024-08-15 11:14</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr"/>
       <c r="G25" s="4" t="n">
-        <v>128489</v>
+        <v>138170</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>89406</v>
+        <v>100503</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>955</v>
+        <v>1969</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>88451</v>
+        <v>98534</v>
       </c>
       <c r="K25" s="4" t="inlineStr"/>
       <c r="L25" s="4" t="n">
-        <v>25485</v>
+        <v>22729</v>
       </c>
       <c r="M25" s="4" t="n">
-        <v>7333</v>
+        <v>32473</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>19952</v>
+        <v>26970</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>31256</v>
-      </c>
-      <c r="P25" s="4" t="inlineStr"/>
+        <v>11434</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01C</t>
+          <t>EC-01C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1741,41 +1715,40 @@
       <c r="D26" s="4" t="inlineStr"/>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:35</t>
+          <t>2024-08-15 03:58</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr"/>
       <c r="G26" s="4" t="n">
-        <v>63936</v>
+        <v>64808</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>39673</v>
+        <v>39188</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>551</v>
+        <v>452</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>39122</v>
+        <v>38736</v>
       </c>
       <c r="K26" s="4" t="inlineStr"/>
       <c r="L26" s="4" t="n">
-        <v>8777</v>
+        <v>8181</v>
       </c>
       <c r="M26" s="4" t="n">
-        <v>14063</v>
+        <v>8672</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>11065</v>
+        <v>10264</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>3259</v>
-      </c>
-      <c r="P26" s="4" t="inlineStr"/>
+        <v>9681</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01D</t>
+          <t>EC-01D</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1791,41 +1764,40 @@
       <c r="D27" s="4" t="inlineStr"/>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:20</t>
+          <t>2024-08-15 03:21</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr"/>
       <c r="G27" s="4" t="n">
-        <v>67968</v>
+        <v>69217</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>54916</v>
+        <v>54274</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>54248</v>
+        <v>53615</v>
       </c>
       <c r="K27" s="4" t="inlineStr"/>
       <c r="L27" s="4" t="n">
-        <v>19772</v>
+        <v>7189</v>
       </c>
       <c r="M27" s="4" t="n">
-        <v>7306</v>
+        <v>15251</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>5754</v>
+        <v>11704</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>18701</v>
-      </c>
-      <c r="P27" s="4" t="inlineStr"/>
+        <v>16788</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01E</t>
+          <t>EC-01E</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1841,41 +1813,40 @@
       <c r="D28" s="4" t="inlineStr"/>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:07</t>
+          <t>2024-08-15 12:24</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr"/>
       <c r="G28" s="4" t="n">
-        <v>42105</v>
+        <v>43846</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>36865</v>
+        <v>31628</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>979</v>
+        <v>320</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>35886</v>
+        <v>31308</v>
       </c>
       <c r="K28" s="4" t="inlineStr"/>
       <c r="L28" s="4" t="n">
-        <v>8200</v>
+        <v>9048</v>
       </c>
       <c r="M28" s="4" t="n">
-        <v>5257</v>
+        <v>6094</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>8190</v>
+        <v>4608</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>12442</v>
-      </c>
-      <c r="P28" s="4" t="inlineStr"/>
+        <v>9990</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01F</t>
+          <t>EC-01F</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1891,41 +1862,40 @@
       <c r="D29" s="4" t="inlineStr"/>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:04</t>
+          <t>2024-08-15 04:14</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr"/>
       <c r="G29" s="4" t="n">
-        <v>66701</v>
+        <v>64284</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>51584</v>
+        <v>55195</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>1207</v>
+        <v>648</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>50377</v>
+        <v>54547</v>
       </c>
       <c r="K29" s="4" t="inlineStr"/>
       <c r="L29" s="4" t="n">
-        <v>12525</v>
+        <v>13807</v>
       </c>
       <c r="M29" s="4" t="n">
-        <v>20927</v>
+        <v>23135</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>4767</v>
+        <v>8620</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>9636</v>
-      </c>
-      <c r="P29" s="4" t="inlineStr"/>
+        <v>6256</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>01G</t>
+          <t>EC-01G</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1941,41 +1911,40 @@
       <c r="D30" s="4" t="inlineStr"/>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:41</t>
+          <t>2024-08-15 05:02</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr"/>
       <c r="G30" s="4" t="n">
-        <v>74548</v>
+        <v>70765</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>45667</v>
+        <v>48118</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>727</v>
+        <v>1059</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>44940</v>
+        <v>47059</v>
       </c>
       <c r="K30" s="4" t="inlineStr"/>
       <c r="L30" s="4" t="n">
-        <v>12165</v>
+        <v>12517</v>
       </c>
       <c r="M30" s="4" t="n">
-        <v>6119</v>
+        <v>9604</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>12178</v>
+        <v>10672</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>12230</v>
-      </c>
-      <c r="P30" s="4" t="inlineStr"/>
+        <v>11911</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01H</t>
+          <t>EC-01H</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1991,41 +1960,40 @@
       <c r="D31" s="4" t="inlineStr"/>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:42</t>
+          <t>2024-08-15 03:12</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr"/>
       <c r="G31" s="4" t="n">
-        <v>147639</v>
+        <v>145074</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>129880</v>
+        <v>110343</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>1851</v>
+        <v>1397</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>128029</v>
+        <v>108946</v>
       </c>
       <c r="K31" s="4" t="inlineStr"/>
       <c r="L31" s="4" t="n">
-        <v>15307</v>
+        <v>31012</v>
       </c>
       <c r="M31" s="4" t="n">
-        <v>50263</v>
+        <v>28325</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>23367</v>
+        <v>23961</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>32689</v>
-      </c>
-      <c r="P31" s="4" t="inlineStr"/>
+        <v>20199</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01I</t>
+          <t>EC-01I</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2041,41 +2009,40 @@
       <c r="D32" s="4" t="inlineStr"/>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:20</t>
+          <t>2024-08-15 02:00</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr"/>
       <c r="G32" s="4" t="n">
-        <v>78525</v>
+        <v>82559</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>61799</v>
+        <v>69518</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>60804</v>
+        <v>68527</v>
       </c>
       <c r="K32" s="4" t="inlineStr"/>
       <c r="L32" s="4" t="n">
-        <v>16477</v>
+        <v>17091</v>
       </c>
       <c r="M32" s="4" t="n">
-        <v>4576</v>
+        <v>18732</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>16425</v>
+        <v>20942</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>20284</v>
-      </c>
-      <c r="P32" s="4" t="inlineStr"/>
+        <v>8333</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01J</t>
+          <t>EC-01J</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2091,41 +2058,40 @@
       <c r="D33" s="4" t="inlineStr"/>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:20</t>
+          <t>2024-08-15 01:04</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr"/>
       <c r="G33" s="4" t="n">
-        <v>196278</v>
+        <v>201124</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>174098</v>
+        <v>168512</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>4810</v>
+        <v>3728</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>169288</v>
+        <v>164784</v>
       </c>
       <c r="K33" s="4" t="inlineStr"/>
       <c r="L33" s="4" t="n">
-        <v>29112</v>
+        <v>50974</v>
       </c>
       <c r="M33" s="4" t="n">
-        <v>57069</v>
+        <v>19837</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>26673</v>
+        <v>32791</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>47968</v>
-      </c>
-      <c r="P33" s="4" t="inlineStr"/>
+        <v>52941</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01K</t>
+          <t>EC-01K</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2141,41 +2107,40 @@
       <c r="D34" s="4" t="inlineStr"/>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:23</t>
+          <t>2024-08-15 10:36</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr"/>
       <c r="G34" s="4" t="n">
-        <v>123214</v>
+        <v>131915</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>97920</v>
+        <v>107327</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>1919</v>
+        <v>2906</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>96001</v>
+        <v>104421</v>
       </c>
       <c r="K34" s="4" t="inlineStr"/>
       <c r="L34" s="4" t="n">
-        <v>26026</v>
+        <v>20892</v>
       </c>
       <c r="M34" s="4" t="n">
-        <v>14351</v>
+        <v>22106</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>25153</v>
+        <v>26969</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>25669</v>
-      </c>
-      <c r="P34" s="4" t="inlineStr"/>
+        <v>29230</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>01L</t>
+          <t>EC-01L</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2191,41 +2156,40 @@
       <c r="D35" s="4" t="inlineStr"/>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:49</t>
+          <t>2024-08-15 07:30</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr"/>
       <c r="G35" s="4" t="n">
-        <v>207903</v>
+        <v>195858</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>184842</v>
+        <v>150522</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>2793</v>
+        <v>3173</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>182049</v>
+        <v>147349</v>
       </c>
       <c r="K35" s="4" t="inlineStr"/>
       <c r="L35" s="4" t="n">
-        <v>40980</v>
+        <v>41569</v>
       </c>
       <c r="M35" s="4" t="n">
-        <v>52586</v>
+        <v>42564</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>39034</v>
+        <v>19469</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>40344</v>
-      </c>
-      <c r="P35" s="4" t="inlineStr"/>
+        <v>36378</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>01M</t>
+          <t>EC-01M</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2241,41 +2205,40 @@
       <c r="D36" s="4" t="inlineStr"/>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:12</t>
+          <t>2024-08-15 11:49</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr"/>
       <c r="G36" s="4" t="n">
-        <v>144476</v>
+        <v>139201</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>93309</v>
+        <v>113006</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>1977</v>
+        <v>1292</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>91332</v>
+        <v>111714</v>
       </c>
       <c r="K36" s="4" t="inlineStr"/>
       <c r="L36" s="4" t="n">
-        <v>25620</v>
+        <v>13065</v>
       </c>
       <c r="M36" s="4" t="n">
-        <v>23450</v>
+        <v>28166</v>
       </c>
       <c r="N36" s="4" t="n">
-        <v>10308</v>
+        <v>41482</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>27386</v>
-      </c>
-      <c r="P36" s="4" t="inlineStr"/>
+        <v>23412</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>01N</t>
+          <t>EC-01N</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2291,41 +2254,40 @@
       <c r="D37" s="4" t="inlineStr"/>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:44</t>
+          <t>2024-08-15 07:47</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr"/>
       <c r="G37" s="4" t="n">
-        <v>194016</v>
+        <v>195698</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>139334</v>
+        <v>151738</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>3251</v>
+        <v>4474</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>136083</v>
+        <v>147264</v>
       </c>
       <c r="K37" s="4" t="inlineStr"/>
       <c r="L37" s="4" t="n">
-        <v>19097</v>
+        <v>18925</v>
       </c>
       <c r="M37" s="4" t="n">
-        <v>26789</v>
+        <v>34746</v>
       </c>
       <c r="N37" s="4" t="n">
-        <v>46528</v>
+        <v>66261</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>36863</v>
-      </c>
-      <c r="P37" s="4" t="inlineStr"/>
+        <v>19967</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01O</t>
+          <t>EC-01O</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2341,41 +2303,40 @@
       <c r="D38" s="4" t="inlineStr"/>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:34</t>
+          <t>2024-08-15 01:18</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr"/>
       <c r="G38" s="4" t="n">
-        <v>130769</v>
+        <v>131551</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>105746</v>
+        <v>86659</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1515</v>
+        <v>2233</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>104231</v>
+        <v>84426</v>
       </c>
       <c r="K38" s="4" t="inlineStr"/>
       <c r="L38" s="4" t="n">
-        <v>25841</v>
+        <v>14908</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>25015</v>
+        <v>22374</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>26960</v>
+        <v>19698</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>21202</v>
-      </c>
-      <c r="P38" s="4" t="inlineStr"/>
+        <v>23222</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>02A</t>
+          <t>EC-02A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2391,41 +2352,40 @@
       <c r="D39" s="4" t="inlineStr"/>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:00</t>
+          <t>2024-08-15 11:14</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr"/>
       <c r="G39" s="4" t="n">
-        <v>135957</v>
+        <v>136063</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>96407</v>
+        <v>121480</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1784</v>
+        <v>1226</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>94623</v>
+        <v>120254</v>
       </c>
       <c r="K39" s="4" t="inlineStr"/>
       <c r="L39" s="4" t="n">
-        <v>19367</v>
+        <v>37218</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>20078</v>
+        <v>22525</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>28529</v>
+        <v>24845</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>21916</v>
-      </c>
-      <c r="P39" s="4" t="inlineStr"/>
+        <v>29652</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>02B</t>
+          <t>EC-02B</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2441,41 +2401,40 @@
       <c r="D40" s="4" t="inlineStr"/>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:07</t>
+          <t>2024-08-15 09:39</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr"/>
       <c r="G40" s="4" t="n">
-        <v>112085</v>
+        <v>120977</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>87384</v>
+        <v>89309</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>2129</v>
+        <v>2456</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>85255</v>
+        <v>86853</v>
       </c>
       <c r="K40" s="4" t="inlineStr"/>
       <c r="L40" s="4" t="n">
-        <v>18976</v>
+        <v>10052</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>20711</v>
+        <v>19156</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>15527</v>
+        <v>24827</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>25777</v>
-      </c>
-      <c r="P40" s="4" t="inlineStr"/>
+        <v>28473</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>02C</t>
+          <t>EC-02C</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2491,41 +2450,40 @@
       <c r="D41" s="4" t="inlineStr"/>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:56</t>
+          <t>2024-08-15 02:59</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr"/>
       <c r="G41" s="4" t="n">
-        <v>170994</v>
+        <v>168205</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>127784</v>
+        <v>150729</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>3832</v>
+        <v>3170</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>123952</v>
+        <v>147559</v>
       </c>
       <c r="K41" s="4" t="inlineStr"/>
       <c r="L41" s="4" t="n">
-        <v>11941</v>
+        <v>20670</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>20175</v>
+        <v>39420</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>44011</v>
+        <v>50888</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>41626</v>
-      </c>
-      <c r="P41" s="4" t="inlineStr"/>
+        <v>29201</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>02D</t>
+          <t>EC-02D</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2541,41 +2499,40 @@
       <c r="D42" s="4" t="inlineStr"/>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:29</t>
+          <t>2024-08-15 02:49</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr"/>
       <c r="G42" s="4" t="n">
-        <v>119766</v>
+        <v>115684</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>83755</v>
+        <v>94934</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1836</v>
+        <v>2222</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>81919</v>
+        <v>92712</v>
       </c>
       <c r="K42" s="4" t="inlineStr"/>
       <c r="L42" s="4" t="n">
-        <v>26261</v>
+        <v>20011</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>9396</v>
+        <v>19131</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>21213</v>
+        <v>24622</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>20950</v>
-      </c>
-      <c r="P42" s="4" t="inlineStr"/>
+        <v>24310</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>02E</t>
+          <t>EC-02E</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2591,41 +2548,40 @@
       <c r="D43" s="4" t="inlineStr"/>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 00:49</t>
+          <t>2024-08-15 02:32</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr"/>
       <c r="G43" s="4" t="n">
-        <v>129194</v>
+        <v>128401</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>109356</v>
+        <v>101894</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1595</v>
+        <v>1931</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>107761</v>
+        <v>99963</v>
       </c>
       <c r="K43" s="4" t="inlineStr"/>
       <c r="L43" s="4" t="n">
-        <v>26999</v>
+        <v>30108</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>28687</v>
+        <v>30044</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>29391</v>
+        <v>17933</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>17295</v>
-      </c>
-      <c r="P43" s="4" t="inlineStr"/>
+        <v>16877</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>02F</t>
+          <t>EC-02F</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2641,41 +2597,40 @@
       <c r="D44" s="4" t="inlineStr"/>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 00:54</t>
+          <t>2024-08-15 07:31</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr"/>
       <c r="G44" s="4" t="n">
-        <v>144778</v>
+        <v>141346</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>124186</v>
+        <v>97260</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1951</v>
+        <v>1621</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>122235</v>
+        <v>95639</v>
       </c>
       <c r="K44" s="4" t="inlineStr"/>
       <c r="L44" s="4" t="n">
-        <v>49054</v>
+        <v>11662</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>11853</v>
+        <v>33165</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>30555</v>
+        <v>20783</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>24659</v>
-      </c>
-      <c r="P44" s="4" t="inlineStr"/>
+        <v>25245</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>02G</t>
+          <t>EC-02G</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2691,41 +2646,40 @@
       <c r="D45" s="4" t="inlineStr"/>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:58</t>
+          <t>2024-08-15 06:44</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr"/>
       <c r="G45" s="4" t="n">
-        <v>145141</v>
+        <v>145278</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>99879</v>
+        <v>102710</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1914</v>
+        <v>2619</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>97965</v>
+        <v>100091</v>
       </c>
       <c r="K45" s="4" t="inlineStr"/>
       <c r="L45" s="4" t="n">
-        <v>11967</v>
+        <v>37467</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>12409</v>
+        <v>14661</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>30242</v>
+        <v>22039</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>38447</v>
-      </c>
-      <c r="P45" s="4" t="inlineStr"/>
+        <v>20918</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>02H</t>
+          <t>EC-02H</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2741,41 +2695,40 @@
       <c r="D46" s="4" t="inlineStr"/>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:07</t>
+          <t>2024-08-15 12:02</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr"/>
       <c r="G46" s="4" t="n">
-        <v>166299</v>
+        <v>164487</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>109131</v>
+        <v>136946</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>2308</v>
+        <v>2800</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>106823</v>
+        <v>134146</v>
       </c>
       <c r="K46" s="4" t="inlineStr"/>
       <c r="L46" s="4" t="n">
-        <v>16671</v>
+        <v>36029</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>15221</v>
+        <v>44702</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>17904</v>
+        <v>19032</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>51684</v>
-      </c>
-      <c r="P46" s="4" t="inlineStr"/>
+        <v>27673</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>02I</t>
+          <t>EC-02I</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2791,41 +2744,40 @@
       <c r="D47" s="4" t="inlineStr"/>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:46</t>
+          <t>2024-08-15 06:26</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr"/>
       <c r="G47" s="4" t="n">
-        <v>165671</v>
+        <v>158707</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>106410</v>
+        <v>113788</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>2584</v>
+        <v>2727</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>103826</v>
+        <v>111061</v>
       </c>
       <c r="K47" s="4" t="inlineStr"/>
       <c r="L47" s="4" t="n">
-        <v>44721</v>
+        <v>36926</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>13850</v>
+        <v>40577</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>22939</v>
+        <v>11247</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>17123</v>
-      </c>
-      <c r="P47" s="4" t="inlineStr"/>
+        <v>16756</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>02J</t>
+          <t>EC-02J</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2841,41 +2793,40 @@
       <c r="D48" s="4" t="inlineStr"/>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:56</t>
+          <t>2024-08-15 05:42</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr"/>
       <c r="G48" s="4" t="n">
-        <v>160166</v>
+        <v>174712</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>98970</v>
+        <v>146158</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1873</v>
+        <v>4129</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>97097</v>
+        <v>142029</v>
       </c>
       <c r="K48" s="4" t="inlineStr"/>
       <c r="L48" s="4" t="n">
-        <v>20388</v>
+        <v>55837</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>22090</v>
+        <v>32308</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>28091</v>
+        <v>21289</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>21671</v>
-      </c>
-      <c r="P48" s="4" t="inlineStr"/>
+        <v>25491</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>02K</t>
+          <t>EC-02K</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2891,41 +2842,40 @@
       <c r="D49" s="4" t="inlineStr"/>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:52</t>
+          <t>2024-08-15 09:21</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr"/>
       <c r="G49" s="4" t="n">
-        <v>128353</v>
+        <v>129612</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>84580</v>
+        <v>99445</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1117</v>
+        <v>1365</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>83463</v>
+        <v>98080</v>
       </c>
       <c r="K49" s="4" t="inlineStr"/>
       <c r="L49" s="4" t="n">
-        <v>11074</v>
+        <v>24422</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>33594</v>
+        <v>17134</v>
       </c>
       <c r="N49" s="4" t="n">
-        <v>14628</v>
+        <v>25220</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>19992</v>
-      </c>
-      <c r="P49" s="4" t="inlineStr"/>
+        <v>26398</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>02L</t>
+          <t>EC-02L</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2941,41 +2891,40 @@
       <c r="D50" s="4" t="inlineStr"/>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:12</t>
+          <t>2024-08-15 00:58</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr"/>
       <c r="G50" s="4" t="n">
-        <v>142843</v>
+        <v>133472</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>100196</v>
+        <v>117985</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>2459</v>
+        <v>2092</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>97737</v>
+        <v>115893</v>
       </c>
       <c r="K50" s="4" t="inlineStr"/>
       <c r="L50" s="4" t="n">
-        <v>26947</v>
+        <v>22204</v>
       </c>
       <c r="M50" s="4" t="n">
-        <v>20394</v>
+        <v>28579</v>
       </c>
       <c r="N50" s="4" t="n">
-        <v>29995</v>
+        <v>29165</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>15511</v>
-      </c>
-      <c r="P50" s="4" t="inlineStr"/>
+        <v>30149</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>02M</t>
+          <t>EC-02M</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2991,41 +2940,40 @@
       <c r="D51" s="4" t="inlineStr"/>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:51</t>
+          <t>2024-08-15 02:29</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr"/>
       <c r="G51" s="4" t="n">
-        <v>101792</v>
+        <v>99897</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>91502</v>
+        <v>82459</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>2501</v>
+        <v>1886</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>89001</v>
+        <v>80573</v>
       </c>
       <c r="K51" s="4" t="inlineStr"/>
       <c r="L51" s="4" t="n">
-        <v>12364</v>
+        <v>25233</v>
       </c>
       <c r="M51" s="4" t="n">
-        <v>24840</v>
+        <v>16647</v>
       </c>
       <c r="N51" s="4" t="n">
-        <v>22007</v>
+        <v>21603</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>25338</v>
-      </c>
-      <c r="P51" s="4" t="inlineStr"/>
+        <v>13059</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>03A</t>
+          <t>EC-03A</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3041,41 +2989,40 @@
       <c r="D52" s="4" t="inlineStr"/>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:53</t>
+          <t>2024-08-15 07:41</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr"/>
       <c r="G52" s="4" t="n">
-        <v>127552</v>
+        <v>127470</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>81654</v>
+        <v>95517</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1179</v>
+        <v>2836</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>80475</v>
+        <v>92681</v>
       </c>
       <c r="K52" s="4" t="inlineStr"/>
       <c r="L52" s="4" t="n">
-        <v>27912</v>
+        <v>11445</v>
       </c>
       <c r="M52" s="4" t="n">
-        <v>9848</v>
+        <v>23671</v>
       </c>
       <c r="N52" s="4" t="n">
-        <v>8438</v>
+        <v>33812</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>30251</v>
-      </c>
-      <c r="P52" s="4" t="inlineStr"/>
+        <v>19116</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>03B</t>
+          <t>EC-03B</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3091,41 +3038,40 @@
       <c r="D53" s="4" t="inlineStr"/>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:02</t>
+          <t>2024-08-15 08:06</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr"/>
       <c r="G53" s="4" t="n">
-        <v>145922</v>
+        <v>155068</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>102483</v>
+        <v>105167</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>2555</v>
+        <v>2801</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>99928</v>
+        <v>102366</v>
       </c>
       <c r="K53" s="4" t="inlineStr"/>
       <c r="L53" s="4" t="n">
-        <v>15340</v>
+        <v>20789</v>
       </c>
       <c r="M53" s="4" t="n">
-        <v>33206</v>
+        <v>31390</v>
       </c>
       <c r="N53" s="4" t="n">
-        <v>24156</v>
+        <v>35096</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>22228</v>
-      </c>
-      <c r="P53" s="4" t="inlineStr"/>
+        <v>9971</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>03C</t>
+          <t>EC-03C</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3141,41 +3087,40 @@
       <c r="D54" s="4" t="inlineStr"/>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:10</t>
+          <t>2024-08-15 05:52</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr"/>
       <c r="G54" s="4" t="n">
-        <v>137463</v>
+        <v>135105</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>96823</v>
+        <v>96768</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>1279</v>
+        <v>1181</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>95544</v>
+        <v>95587</v>
       </c>
       <c r="K54" s="4" t="inlineStr"/>
       <c r="L54" s="4" t="n">
-        <v>11187</v>
+        <v>35692</v>
       </c>
       <c r="M54" s="4" t="n">
-        <v>17650</v>
+        <v>34061</v>
       </c>
       <c r="N54" s="4" t="n">
-        <v>27070</v>
+        <v>7997</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>34858</v>
-      </c>
-      <c r="P54" s="4" t="inlineStr"/>
+        <v>13056</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>03D</t>
+          <t>EC-03D</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3191,41 +3136,40 @@
       <c r="D55" s="4" t="inlineStr"/>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:07</t>
+          <t>2024-08-15 02:56</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr"/>
       <c r="G55" s="4" t="n">
-        <v>84380</v>
+        <v>86541</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>61406</v>
+        <v>52809</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>1272</v>
+        <v>610</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>60134</v>
+        <v>52199</v>
       </c>
       <c r="K55" s="4" t="inlineStr"/>
       <c r="L55" s="4" t="n">
-        <v>7179</v>
+        <v>18007</v>
       </c>
       <c r="M55" s="4" t="n">
-        <v>17604</v>
+        <v>10513</v>
       </c>
       <c r="N55" s="4" t="n">
-        <v>12388</v>
+        <v>10717</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>19954</v>
-      </c>
-      <c r="P55" s="4" t="inlineStr"/>
+        <v>10350</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>03E</t>
+          <t>EC-03E</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3241,41 +3185,40 @@
       <c r="D56" s="4" t="inlineStr"/>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:07</t>
+          <t>2024-08-15 09:10</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr"/>
       <c r="G56" s="4" t="n">
-        <v>116841</v>
+        <v>116214</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>100146</v>
+        <v>103730</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>2922</v>
+        <v>1314</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>97224</v>
+        <v>102416</v>
       </c>
       <c r="K56" s="4" t="inlineStr"/>
       <c r="L56" s="4" t="n">
-        <v>25278</v>
+        <v>32647</v>
       </c>
       <c r="M56" s="4" t="n">
-        <v>10425</v>
+        <v>23931</v>
       </c>
       <c r="N56" s="4" t="n">
-        <v>25637</v>
+        <v>8734</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>31021</v>
-      </c>
-      <c r="P56" s="4" t="inlineStr"/>
+        <v>31981</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>03F</t>
+          <t>EC-03F</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3291,41 +3234,40 @@
       <c r="D57" s="4" t="inlineStr"/>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 00:35</t>
+          <t>2024-08-15 06:33</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr"/>
       <c r="G57" s="4" t="n">
-        <v>129988</v>
+        <v>122995</v>
       </c>
       <c r="H57" s="4" t="n">
-        <v>97831</v>
+        <v>108854</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>2282</v>
+        <v>1409</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>95549</v>
+        <v>107445</v>
       </c>
       <c r="K57" s="4" t="inlineStr"/>
       <c r="L57" s="4" t="n">
-        <v>35204</v>
+        <v>9947</v>
       </c>
       <c r="M57" s="4" t="n">
-        <v>14093</v>
+        <v>30162</v>
       </c>
       <c r="N57" s="4" t="n">
-        <v>8637</v>
+        <v>29390</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>32836</v>
-      </c>
-      <c r="P57" s="4" t="inlineStr"/>
+        <v>32571</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>03G</t>
+          <t>EC-03G</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3341,41 +3283,40 @@
       <c r="D58" s="4" t="inlineStr"/>
       <c r="E58" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:44</t>
+          <t>2024-08-15 09:42</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr"/>
       <c r="G58" s="4" t="n">
-        <v>126460</v>
+        <v>123711</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>94259</v>
+        <v>93422</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>1068</v>
+        <v>2116</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>93191</v>
+        <v>91306</v>
       </c>
       <c r="K58" s="4" t="inlineStr"/>
       <c r="L58" s="4" t="n">
-        <v>41311</v>
+        <v>25886</v>
       </c>
       <c r="M58" s="4" t="n">
-        <v>11695</v>
+        <v>19611</v>
       </c>
       <c r="N58" s="4" t="n">
-        <v>19578</v>
+        <v>24217</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>15946</v>
-      </c>
-      <c r="P58" s="4" t="inlineStr"/>
+        <v>17025</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>03H</t>
+          <t>EC-03H</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3391,41 +3332,40 @@
       <c r="D59" s="4" t="inlineStr"/>
       <c r="E59" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:59</t>
+          <t>2024-08-15 09:26</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr"/>
       <c r="G59" s="4" t="n">
-        <v>104116</v>
+        <v>102829</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>66471</v>
+        <v>84897</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>1604</v>
+        <v>1115</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>64867</v>
+        <v>83782</v>
       </c>
       <c r="K59" s="4" t="inlineStr"/>
       <c r="L59" s="4" t="n">
-        <v>9689</v>
+        <v>14285</v>
       </c>
       <c r="M59" s="4" t="n">
-        <v>8790</v>
+        <v>22648</v>
       </c>
       <c r="N59" s="4" t="n">
-        <v>25717</v>
+        <v>31605</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>17425</v>
-      </c>
-      <c r="P59" s="4" t="inlineStr"/>
+        <v>11052</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>04A</t>
+          <t>EC-04A</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3441,41 +3381,40 @@
       <c r="D60" s="4" t="inlineStr"/>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 00:41</t>
+          <t>2024-08-15 04:21</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr"/>
       <c r="G60" s="4" t="n">
-        <v>55348</v>
+        <v>54126</v>
       </c>
       <c r="H60" s="4" t="n">
-        <v>43730</v>
+        <v>34873</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>1151</v>
+        <v>816</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>42579</v>
+        <v>34057</v>
       </c>
       <c r="K60" s="4" t="inlineStr"/>
       <c r="L60" s="4" t="n">
-        <v>12165</v>
+        <v>8428</v>
       </c>
       <c r="M60" s="4" t="n">
-        <v>6554</v>
+        <v>8969</v>
       </c>
       <c r="N60" s="4" t="n">
-        <v>9769</v>
+        <v>4760</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>11960</v>
-      </c>
-      <c r="P60" s="4" t="inlineStr"/>
+        <v>10196</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>04B</t>
+          <t>EC-04B</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3491,41 +3430,40 @@
       <c r="D61" s="4" t="inlineStr"/>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:08</t>
+          <t>2024-08-15 04:16</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr"/>
       <c r="G61" s="4" t="n">
-        <v>172997</v>
+        <v>178700</v>
       </c>
       <c r="H61" s="4" t="n">
-        <v>154128</v>
+        <v>133410</v>
       </c>
       <c r="I61" s="4" t="n">
-        <v>3132</v>
+        <v>3575</v>
       </c>
       <c r="J61" s="4" t="n">
-        <v>150996</v>
+        <v>129835</v>
       </c>
       <c r="K61" s="4" t="inlineStr"/>
       <c r="L61" s="4" t="n">
-        <v>40546</v>
+        <v>23227</v>
       </c>
       <c r="M61" s="4" t="n">
-        <v>30451</v>
+        <v>23630</v>
       </c>
       <c r="N61" s="4" t="n">
-        <v>53958</v>
+        <v>36194</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>18490</v>
-      </c>
-      <c r="P61" s="4" t="inlineStr"/>
+        <v>40290</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>04C</t>
+          <t>EC-04C</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3541,41 +3479,40 @@
       <c r="D62" s="4" t="inlineStr"/>
       <c r="E62" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:39</t>
+          <t>2024-08-15 01:22</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr"/>
       <c r="G62" s="4" t="n">
-        <v>89790</v>
+        <v>92916</v>
       </c>
       <c r="H62" s="4" t="n">
-        <v>53903</v>
+        <v>59979</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>1447</v>
+        <v>611</v>
       </c>
       <c r="J62" s="4" t="n">
-        <v>52456</v>
+        <v>59368</v>
       </c>
       <c r="K62" s="4" t="inlineStr"/>
       <c r="L62" s="4" t="n">
-        <v>9701</v>
+        <v>16965</v>
       </c>
       <c r="M62" s="4" t="n">
-        <v>16183</v>
+        <v>13830</v>
       </c>
       <c r="N62" s="4" t="n">
-        <v>6258</v>
+        <v>11730</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>17689</v>
-      </c>
-      <c r="P62" s="4" t="inlineStr"/>
+        <v>13873</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>04D</t>
+          <t>EC-04D</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3591,41 +3528,40 @@
       <c r="D63" s="4" t="inlineStr"/>
       <c r="E63" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:02</t>
+          <t>2024-08-15 06:31</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr"/>
       <c r="G63" s="4" t="n">
-        <v>59270</v>
+        <v>60455</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>41541</v>
+        <v>38555</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>474</v>
+        <v>997</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>41067</v>
+        <v>37558</v>
       </c>
       <c r="K63" s="4" t="inlineStr"/>
       <c r="L63" s="4" t="n">
-        <v>12240</v>
+        <v>5987</v>
       </c>
       <c r="M63" s="4" t="n">
-        <v>4855</v>
+        <v>10483</v>
       </c>
       <c r="N63" s="4" t="n">
-        <v>11551</v>
+        <v>10218</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>10366</v>
-      </c>
-      <c r="P63" s="4" t="inlineStr"/>
+        <v>8990</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>04E</t>
+          <t>EC-04E</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3641,41 +3577,40 @@
       <c r="D64" s="4" t="inlineStr"/>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:00</t>
+          <t>2024-08-15 05:20</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr"/>
       <c r="G64" s="4" t="n">
-        <v>52805</v>
+        <v>49184</v>
       </c>
       <c r="H64" s="4" t="n">
-        <v>41402</v>
+        <v>40394</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>874</v>
+        <v>524</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>40528</v>
+        <v>39870</v>
       </c>
       <c r="K64" s="4" t="inlineStr"/>
       <c r="L64" s="4" t="n">
-        <v>11130</v>
+        <v>9426</v>
       </c>
       <c r="M64" s="4" t="n">
-        <v>4973</v>
+        <v>9717</v>
       </c>
       <c r="N64" s="4" t="n">
-        <v>9603</v>
+        <v>11372</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>12794</v>
-      </c>
-      <c r="P64" s="4" t="inlineStr"/>
+        <v>7359</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>04F</t>
+          <t>EC-04F</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3691,41 +3626,40 @@
       <c r="D65" s="4" t="inlineStr"/>
       <c r="E65" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:26</t>
+          <t>2024-08-15 04:43</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr"/>
       <c r="G65" s="4" t="n">
-        <v>100702</v>
+        <v>109269</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>68896</v>
+        <v>96684</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>1523</v>
+        <v>1180</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>67373</v>
+        <v>95504</v>
       </c>
       <c r="K65" s="4" t="inlineStr"/>
       <c r="L65" s="4" t="n">
-        <v>19722</v>
+        <v>22357</v>
       </c>
       <c r="M65" s="4" t="n">
-        <v>14651</v>
+        <v>26722</v>
       </c>
       <c r="N65" s="4" t="n">
-        <v>11300</v>
+        <v>32930</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>18329</v>
-      </c>
-      <c r="P65" s="4" t="inlineStr"/>
+        <v>8717</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>04G</t>
+          <t>EC-04G</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3741,41 +3675,40 @@
       <c r="D66" s="4" t="inlineStr"/>
       <c r="E66" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:46</t>
+          <t>2024-08-15 03:00</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr"/>
       <c r="G66" s="4" t="n">
-        <v>72599</v>
+        <v>70957</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>52028</v>
+        <v>56143</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>690</v>
+        <v>1348</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>51338</v>
+        <v>54795</v>
       </c>
       <c r="K66" s="4" t="inlineStr"/>
       <c r="L66" s="4" t="n">
-        <v>10395</v>
+        <v>15852</v>
       </c>
       <c r="M66" s="4" t="n">
-        <v>16500</v>
+        <v>14881</v>
       </c>
       <c r="N66" s="4" t="n">
-        <v>8753</v>
+        <v>15873</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>13121</v>
-      </c>
-      <c r="P66" s="4" t="inlineStr"/>
+        <v>5448</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>04H</t>
+          <t>EC-04H</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3791,41 +3724,40 @@
       <c r="D67" s="4" t="inlineStr"/>
       <c r="E67" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:42</t>
+          <t>2024-08-15 08:32</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr"/>
       <c r="G67" s="4" t="n">
-        <v>85309</v>
+        <v>89808</v>
       </c>
       <c r="H67" s="4" t="n">
-        <v>75615</v>
+        <v>63118</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>1669</v>
+        <v>1019</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>73946</v>
+        <v>62099</v>
       </c>
       <c r="K67" s="4" t="inlineStr"/>
       <c r="L67" s="4" t="n">
-        <v>9961</v>
+        <v>14375</v>
       </c>
       <c r="M67" s="4" t="n">
-        <v>27205</v>
+        <v>7998</v>
       </c>
       <c r="N67" s="4" t="n">
-        <v>15969</v>
+        <v>12352</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>17112</v>
-      </c>
-      <c r="P67" s="4" t="inlineStr"/>
+        <v>24267</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>04I</t>
+          <t>EC-04I</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3841,41 +3773,40 @@
       <c r="D68" s="4" t="inlineStr"/>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:52</t>
+          <t>2024-08-15 05:02</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr"/>
       <c r="G68" s="4" t="n">
-        <v>44077</v>
+        <v>44167</v>
       </c>
       <c r="H68" s="4" t="n">
-        <v>30240</v>
+        <v>28487</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>337</v>
+        <v>535</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>29903</v>
+        <v>27952</v>
       </c>
       <c r="K68" s="4" t="inlineStr"/>
       <c r="L68" s="4" t="n">
-        <v>8849</v>
+        <v>3071</v>
       </c>
       <c r="M68" s="4" t="n">
-        <v>3537</v>
+        <v>11600</v>
       </c>
       <c r="N68" s="4" t="n">
-        <v>8245</v>
+        <v>2489</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>7775</v>
-      </c>
-      <c r="P68" s="4" t="inlineStr"/>
+        <v>9393</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>04J</t>
+          <t>EC-04J</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3891,41 +3822,40 @@
       <c r="D69" s="4" t="inlineStr"/>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:38</t>
+          <t>2024-08-15 01:25</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr"/>
       <c r="G69" s="4" t="n">
-        <v>87606</v>
+        <v>85500</v>
       </c>
       <c r="H69" s="4" t="n">
-        <v>68204</v>
+        <v>72740</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>1103</v>
+        <v>1487</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>67101</v>
+        <v>71253</v>
       </c>
       <c r="K69" s="4" t="inlineStr"/>
       <c r="L69" s="4" t="n">
-        <v>18430</v>
+        <v>22924</v>
       </c>
       <c r="M69" s="4" t="n">
-        <v>10030</v>
+        <v>10848</v>
       </c>
       <c r="N69" s="4" t="n">
-        <v>15473</v>
+        <v>23634</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>19810</v>
-      </c>
-      <c r="P69" s="4" t="inlineStr"/>
+        <v>10283</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>04K</t>
+          <t>EC-04K</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3941,41 +3871,40 @@
       <c r="D70" s="4" t="inlineStr"/>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:05</t>
+          <t>2024-08-15 08:26</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr"/>
       <c r="G70" s="4" t="n">
-        <v>84869</v>
+        <v>91642</v>
       </c>
       <c r="H70" s="4" t="n">
-        <v>56064</v>
+        <v>62651</v>
       </c>
       <c r="I70" s="4" t="n">
-        <v>827</v>
+        <v>1527</v>
       </c>
       <c r="J70" s="4" t="n">
-        <v>55237</v>
+        <v>61124</v>
       </c>
       <c r="K70" s="4" t="inlineStr"/>
       <c r="L70" s="4" t="n">
-        <v>14526</v>
+        <v>6747</v>
       </c>
       <c r="M70" s="4" t="n">
-        <v>4904</v>
+        <v>11416</v>
       </c>
       <c r="N70" s="4" t="n">
-        <v>19247</v>
+        <v>13468</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>13796</v>
-      </c>
-      <c r="P70" s="4" t="inlineStr"/>
+        <v>26435</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>04L</t>
+          <t>EC-04L</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3991,41 +3920,40 @@
       <c r="D71" s="4" t="inlineStr"/>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:03</t>
+          <t>2024-08-15 05:17</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr"/>
       <c r="G71" s="4" t="n">
-        <v>115422</v>
+        <v>112954</v>
       </c>
       <c r="H71" s="4" t="n">
-        <v>89039</v>
+        <v>72388</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>1634</v>
+        <v>1579</v>
       </c>
       <c r="J71" s="4" t="n">
-        <v>87405</v>
+        <v>70809</v>
       </c>
       <c r="K71" s="4" t="inlineStr"/>
       <c r="L71" s="4" t="n">
-        <v>9802</v>
+        <v>23556</v>
       </c>
       <c r="M71" s="4" t="n">
-        <v>37253</v>
+        <v>18829</v>
       </c>
       <c r="N71" s="4" t="n">
-        <v>22962</v>
+        <v>17127</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>13016</v>
-      </c>
-      <c r="P71" s="4" t="inlineStr"/>
+        <v>7754</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>04M</t>
+          <t>EC-04M</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4041,41 +3969,40 @@
       <c r="D72" s="4" t="inlineStr"/>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:53</t>
+          <t>2024-08-15 03:57</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr"/>
       <c r="G72" s="4" t="n">
-        <v>105856</v>
+        <v>107521</v>
       </c>
       <c r="H72" s="4" t="n">
-        <v>71494</v>
+        <v>80386</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>1474</v>
+        <v>2305</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>70020</v>
+        <v>78081</v>
       </c>
       <c r="K72" s="4" t="inlineStr"/>
       <c r="L72" s="4" t="n">
-        <v>19845</v>
+        <v>22710</v>
       </c>
       <c r="M72" s="4" t="n">
-        <v>17140</v>
+        <v>20698</v>
       </c>
       <c r="N72" s="4" t="n">
-        <v>15297</v>
+        <v>13669</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>14235</v>
-      </c>
-      <c r="P72" s="4" t="inlineStr"/>
+        <v>17098</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>05A</t>
+          <t>EC-05A</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4091,41 +4018,40 @@
       <c r="D73" s="4" t="inlineStr"/>
       <c r="E73" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:09</t>
+          <t>2024-08-15 04:17</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr"/>
       <c r="G73" s="4" t="n">
-        <v>141284</v>
+        <v>141513</v>
       </c>
       <c r="H73" s="4" t="n">
-        <v>100268</v>
+        <v>100845</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>2798</v>
+        <v>1137</v>
       </c>
       <c r="J73" s="4" t="n">
-        <v>97470</v>
+        <v>99708</v>
       </c>
       <c r="K73" s="4" t="inlineStr"/>
       <c r="L73" s="4" t="n">
-        <v>21469</v>
+        <v>20900</v>
       </c>
       <c r="M73" s="4" t="n">
-        <v>12659</v>
+        <v>16383</v>
       </c>
       <c r="N73" s="4" t="n">
-        <v>38436</v>
+        <v>28706</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>20031</v>
-      </c>
-      <c r="P73" s="4" t="inlineStr"/>
+        <v>28732</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>05B</t>
+          <t>EC-05B</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4141,41 +4067,40 @@
       <c r="D74" s="4" t="inlineStr"/>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:04</t>
+          <t>2024-08-15 11:05</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr"/>
       <c r="G74" s="4" t="n">
-        <v>77265</v>
+        <v>76498</v>
       </c>
       <c r="H74" s="4" t="n">
-        <v>49787</v>
+        <v>53639</v>
       </c>
       <c r="I74" s="4" t="n">
-        <v>567</v>
+        <v>847</v>
       </c>
       <c r="J74" s="4" t="n">
-        <v>49220</v>
+        <v>52792</v>
       </c>
       <c r="K74" s="4" t="inlineStr"/>
       <c r="L74" s="4" t="n">
-        <v>9173</v>
+        <v>21155</v>
       </c>
       <c r="M74" s="4" t="n">
-        <v>10054</v>
+        <v>5827</v>
       </c>
       <c r="N74" s="4" t="n">
-        <v>20984</v>
+        <v>13775</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>6547</v>
-      </c>
-      <c r="P74" s="4" t="inlineStr"/>
+        <v>9393</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>05C</t>
+          <t>EC-05C</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4191,41 +4116,40 @@
       <c r="D75" s="4" t="inlineStr"/>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:04</t>
+          <t>2024-08-15 09:24</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr"/>
       <c r="G75" s="4" t="n">
-        <v>94520</v>
+        <v>88311</v>
       </c>
       <c r="H75" s="4" t="n">
-        <v>84336</v>
+        <v>54007</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>2200</v>
+        <v>872</v>
       </c>
       <c r="J75" s="4" t="n">
-        <v>82136</v>
+        <v>53135</v>
       </c>
       <c r="K75" s="4" t="inlineStr"/>
       <c r="L75" s="4" t="n">
-        <v>28190</v>
+        <v>10636</v>
       </c>
       <c r="M75" s="4" t="n">
-        <v>27208</v>
+        <v>10689</v>
       </c>
       <c r="N75" s="4" t="n">
-        <v>11416</v>
+        <v>18262</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>11214</v>
-      </c>
-      <c r="P75" s="4" t="inlineStr"/>
+        <v>10889</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>05D</t>
+          <t>EC-05D</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4241,41 +4165,40 @@
       <c r="D76" s="4" t="inlineStr"/>
       <c r="E76" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:52</t>
+          <t>2024-08-15 06:09</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr"/>
       <c r="G76" s="4" t="n">
-        <v>102187</v>
+        <v>95528</v>
       </c>
       <c r="H76" s="4" t="n">
-        <v>68520</v>
+        <v>59510</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>940</v>
+        <v>1763</v>
       </c>
       <c r="J76" s="4" t="n">
-        <v>67580</v>
+        <v>57747</v>
       </c>
       <c r="K76" s="4" t="inlineStr"/>
       <c r="L76" s="4" t="n">
-        <v>10563</v>
+        <v>10541</v>
       </c>
       <c r="M76" s="4" t="n">
-        <v>14622</v>
+        <v>16582</v>
       </c>
       <c r="N76" s="4" t="n">
-        <v>19646</v>
+        <v>11352</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>19367</v>
-      </c>
-      <c r="P76" s="4" t="inlineStr"/>
+        <v>16382</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>06A</t>
+          <t>EC-06A</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4291,41 +4214,40 @@
       <c r="D77" s="4" t="inlineStr"/>
       <c r="E77" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:45</t>
+          <t>2024-08-15 03:43</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr"/>
       <c r="G77" s="4" t="n">
-        <v>343555</v>
+        <v>332840</v>
       </c>
       <c r="H77" s="4" t="n">
-        <v>266793</v>
+        <v>299469</v>
       </c>
       <c r="I77" s="4" t="n">
-        <v>4602</v>
+        <v>5501</v>
       </c>
       <c r="J77" s="4" t="n">
-        <v>262191</v>
+        <v>293968</v>
       </c>
       <c r="K77" s="4" t="inlineStr"/>
       <c r="L77" s="4" t="n">
-        <v>45672</v>
+        <v>83473</v>
       </c>
       <c r="M77" s="4" t="n">
-        <v>40269</v>
+        <v>67407</v>
       </c>
       <c r="N77" s="4" t="n">
-        <v>103815</v>
+        <v>85811</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>59323</v>
-      </c>
-      <c r="P77" s="4" t="inlineStr"/>
+        <v>42577</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>06B</t>
+          <t>EC-06B</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4341,41 +4263,40 @@
       <c r="D78" s="4" t="inlineStr"/>
       <c r="E78" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:01</t>
+          <t>2024-08-15 05:21</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr"/>
       <c r="G78" s="4" t="n">
-        <v>83195</v>
+        <v>81647</v>
       </c>
       <c r="H78" s="4" t="n">
-        <v>61583</v>
+        <v>68147</v>
       </c>
       <c r="I78" s="4" t="n">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J78" s="4" t="n">
-        <v>60683</v>
+        <v>67248</v>
       </c>
       <c r="K78" s="4" t="inlineStr"/>
       <c r="L78" s="4" t="n">
-        <v>6954</v>
+        <v>15039</v>
       </c>
       <c r="M78" s="4" t="n">
-        <v>8935</v>
+        <v>17020</v>
       </c>
       <c r="N78" s="4" t="n">
-        <v>21978</v>
+        <v>17862</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>19779</v>
-      </c>
-      <c r="P78" s="4" t="inlineStr"/>
+        <v>13962</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>06C</t>
+          <t>EC-06C</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4391,41 +4312,40 @@
       <c r="D79" s="4" t="inlineStr"/>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:22</t>
+          <t>2024-08-15 08:08</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr"/>
       <c r="G79" s="4" t="n">
-        <v>70930</v>
+        <v>70891</v>
       </c>
       <c r="H79" s="4" t="n">
-        <v>57754</v>
+        <v>43694</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>1647</v>
+        <v>938</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>56107</v>
+        <v>42756</v>
       </c>
       <c r="K79" s="4" t="inlineStr"/>
       <c r="L79" s="4" t="n">
-        <v>10950</v>
+        <v>6602</v>
       </c>
       <c r="M79" s="4" t="n">
-        <v>20513</v>
+        <v>10617</v>
       </c>
       <c r="N79" s="4" t="n">
-        <v>16755</v>
+        <v>13249</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>5081</v>
-      </c>
-      <c r="P79" s="4" t="inlineStr"/>
+        <v>10148</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>06D</t>
+          <t>EC-06D</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4441,41 +4361,40 @@
       <c r="D80" s="4" t="inlineStr"/>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:26</t>
+          <t>2024-08-15 09:27</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr"/>
       <c r="G80" s="4" t="n">
-        <v>84617</v>
+        <v>85295</v>
       </c>
       <c r="H80" s="4" t="n">
-        <v>50991</v>
+        <v>61947</v>
       </c>
       <c r="I80" s="4" t="n">
-        <v>573</v>
+        <v>952</v>
       </c>
       <c r="J80" s="4" t="n">
-        <v>50418</v>
+        <v>60995</v>
       </c>
       <c r="K80" s="4" t="inlineStr"/>
       <c r="L80" s="4" t="n">
-        <v>14606</v>
+        <v>10001</v>
       </c>
       <c r="M80" s="4" t="n">
-        <v>16389</v>
+        <v>18422</v>
       </c>
       <c r="N80" s="4" t="n">
-        <v>6708</v>
+        <v>14300</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>10192</v>
-      </c>
-      <c r="P80" s="4" t="inlineStr"/>
+        <v>15221</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>07A</t>
+          <t>EC-07A</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4491,41 +4410,40 @@
       <c r="D81" s="4" t="inlineStr"/>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:43</t>
+          <t>2024-08-15 09:40</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr"/>
       <c r="G81" s="4" t="n">
-        <v>56471</v>
+        <v>54090</v>
       </c>
       <c r="H81" s="4" t="n">
-        <v>37944</v>
+        <v>47793</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>936</v>
+        <v>606</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>37008</v>
+        <v>47187</v>
       </c>
       <c r="K81" s="4" t="inlineStr"/>
       <c r="L81" s="4" t="n">
-        <v>7128</v>
+        <v>11673</v>
       </c>
       <c r="M81" s="4" t="n">
-        <v>10600</v>
+        <v>12116</v>
       </c>
       <c r="N81" s="4" t="n">
-        <v>3458</v>
+        <v>12098</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>13970</v>
-      </c>
-      <c r="P81" s="4" t="inlineStr"/>
+        <v>8939</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>07B</t>
+          <t>EC-07B</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4541,41 +4459,40 @@
       <c r="D82" s="4" t="inlineStr"/>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:29</t>
+          <t>2024-08-15 12:47</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr"/>
       <c r="G82" s="4" t="n">
-        <v>82213</v>
+        <v>81978</v>
       </c>
       <c r="H82" s="4" t="n">
-        <v>62533</v>
+        <v>73206</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1612</v>
+        <v>797</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>60921</v>
+        <v>72409</v>
       </c>
       <c r="K82" s="4" t="inlineStr"/>
       <c r="L82" s="4" t="n">
-        <v>10080</v>
+        <v>19318</v>
       </c>
       <c r="M82" s="4" t="n">
-        <v>10047</v>
+        <v>15168</v>
       </c>
       <c r="N82" s="4" t="n">
-        <v>21170</v>
+        <v>20526</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>16577</v>
-      </c>
-      <c r="P82" s="4" t="inlineStr"/>
+        <v>13774</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>07C</t>
+          <t>EC-07C</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4591,41 +4508,40 @@
       <c r="D83" s="4" t="inlineStr"/>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:31</t>
+          <t>2024-08-15 07:22</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr"/>
       <c r="G83" s="4" t="n">
-        <v>80213</v>
+        <v>79957</v>
       </c>
       <c r="H83" s="4" t="n">
-        <v>59682</v>
+        <v>70995</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1102</v>
+        <v>1169</v>
       </c>
       <c r="J83" s="4" t="n">
-        <v>58580</v>
+        <v>69826</v>
       </c>
       <c r="K83" s="4" t="inlineStr"/>
       <c r="L83" s="4" t="n">
-        <v>16988</v>
+        <v>12835</v>
       </c>
       <c r="M83" s="4" t="n">
-        <v>18521</v>
+        <v>28862</v>
       </c>
       <c r="N83" s="4" t="n">
-        <v>13562</v>
+        <v>15165</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>6578</v>
-      </c>
-      <c r="P83" s="4" t="inlineStr"/>
+        <v>9470</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>07D</t>
+          <t>EC-07D</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4641,41 +4557,40 @@
       <c r="D84" s="4" t="inlineStr"/>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:02</t>
+          <t>2024-08-15 12:54</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr"/>
       <c r="G84" s="4" t="n">
-        <v>91939</v>
+        <v>95758</v>
       </c>
       <c r="H84" s="4" t="n">
-        <v>67640</v>
+        <v>60390</v>
       </c>
       <c r="I84" s="4" t="n">
-        <v>863</v>
+        <v>616</v>
       </c>
       <c r="J84" s="4" t="n">
-        <v>66777</v>
+        <v>59774</v>
       </c>
       <c r="K84" s="4" t="inlineStr"/>
       <c r="L84" s="4" t="n">
-        <v>16241</v>
+        <v>7859</v>
       </c>
       <c r="M84" s="4" t="n">
-        <v>22713</v>
+        <v>18641</v>
       </c>
       <c r="N84" s="4" t="n">
-        <v>11265</v>
+        <v>13810</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>13217</v>
-      </c>
-      <c r="P84" s="4" t="inlineStr"/>
+        <v>16474</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>07E</t>
+          <t>EC-07E</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4691,41 +4606,40 @@
       <c r="D85" s="4" t="inlineStr"/>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:49</t>
+          <t>2024-08-15 01:12</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr"/>
       <c r="G85" s="4" t="n">
-        <v>101370</v>
+        <v>102824</v>
       </c>
       <c r="H85" s="4" t="n">
-        <v>62544</v>
+        <v>85633</v>
       </c>
       <c r="I85" s="4" t="n">
-        <v>904</v>
+        <v>1357</v>
       </c>
       <c r="J85" s="4" t="n">
-        <v>61640</v>
+        <v>84276</v>
       </c>
       <c r="K85" s="4" t="inlineStr"/>
       <c r="L85" s="4" t="n">
-        <v>16122</v>
+        <v>12552</v>
       </c>
       <c r="M85" s="4" t="n">
-        <v>19970</v>
+        <v>29543</v>
       </c>
       <c r="N85" s="4" t="n">
-        <v>6837</v>
+        <v>19847</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>15628</v>
-      </c>
-      <c r="P85" s="4" t="inlineStr"/>
+        <v>18118</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>07F</t>
+          <t>EC-07F</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4741,41 +4655,40 @@
       <c r="D86" s="4" t="inlineStr"/>
       <c r="E86" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:30</t>
+          <t>2024-08-15 09:53</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr"/>
       <c r="G86" s="4" t="n">
-        <v>105735</v>
+        <v>101177</v>
       </c>
       <c r="H86" s="4" t="n">
-        <v>79885</v>
+        <v>73929</v>
       </c>
       <c r="I86" s="4" t="n">
-        <v>2239</v>
+        <v>1383</v>
       </c>
       <c r="J86" s="4" t="n">
-        <v>77646</v>
+        <v>72546</v>
       </c>
       <c r="K86" s="4" t="inlineStr"/>
       <c r="L86" s="4" t="n">
-        <v>10678</v>
+        <v>19322</v>
       </c>
       <c r="M86" s="4" t="n">
-        <v>16193</v>
+        <v>19680</v>
       </c>
       <c r="N86" s="4" t="n">
-        <v>13265</v>
+        <v>18598</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>33627</v>
-      </c>
-      <c r="P86" s="4" t="inlineStr"/>
+        <v>11317</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>07G</t>
+          <t>EC-07G</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4791,41 +4704,40 @@
       <c r="D87" s="4" t="inlineStr"/>
       <c r="E87" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:27</t>
+          <t>2024-08-15 11:44</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr"/>
       <c r="G87" s="4" t="n">
-        <v>82456</v>
+        <v>78446</v>
       </c>
       <c r="H87" s="4" t="n">
-        <v>59226</v>
+        <v>62194</v>
       </c>
       <c r="I87" s="4" t="n">
-        <v>951</v>
+        <v>1462</v>
       </c>
       <c r="J87" s="4" t="n">
-        <v>58275</v>
+        <v>60732</v>
       </c>
       <c r="K87" s="4" t="inlineStr"/>
       <c r="L87" s="4" t="n">
-        <v>8127</v>
+        <v>10130</v>
       </c>
       <c r="M87" s="4" t="n">
-        <v>13035</v>
+        <v>15449</v>
       </c>
       <c r="N87" s="4" t="n">
-        <v>17674</v>
+        <v>15469</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>16523</v>
-      </c>
-      <c r="P87" s="4" t="inlineStr"/>
+        <v>16646</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>07H</t>
+          <t>EC-07H</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4841,41 +4753,40 @@
       <c r="D88" s="4" t="inlineStr"/>
       <c r="E88" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:28</t>
+          <t>2024-08-15 03:17</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr"/>
       <c r="G88" s="4" t="n">
-        <v>85665</v>
+        <v>82237</v>
       </c>
       <c r="H88" s="4" t="n">
-        <v>62486</v>
+        <v>73742</v>
       </c>
       <c r="I88" s="4" t="n">
-        <v>959</v>
+        <v>1875</v>
       </c>
       <c r="J88" s="4" t="n">
-        <v>61527</v>
+        <v>71867</v>
       </c>
       <c r="K88" s="4" t="inlineStr"/>
       <c r="L88" s="4" t="n">
-        <v>7531</v>
+        <v>9893</v>
       </c>
       <c r="M88" s="4" t="n">
-        <v>8328</v>
+        <v>23058</v>
       </c>
       <c r="N88" s="4" t="n">
-        <v>20403</v>
+        <v>16638</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>22188</v>
-      </c>
-      <c r="P88" s="4" t="inlineStr"/>
+        <v>18683</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>07I</t>
+          <t>EC-07I</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4891,41 +4802,40 @@
       <c r="D89" s="4" t="inlineStr"/>
       <c r="E89" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 00:37</t>
+          <t>2024-08-15 03:08</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr"/>
       <c r="G89" s="4" t="n">
-        <v>102027</v>
+        <v>99888</v>
       </c>
       <c r="H89" s="4" t="n">
-        <v>88849</v>
+        <v>81553</v>
       </c>
       <c r="I89" s="4" t="n">
-        <v>2126</v>
+        <v>1707</v>
       </c>
       <c r="J89" s="4" t="n">
-        <v>86723</v>
+        <v>79846</v>
       </c>
       <c r="K89" s="4" t="inlineStr"/>
       <c r="L89" s="4" t="n">
-        <v>19021</v>
+        <v>25204</v>
       </c>
       <c r="M89" s="4" t="n">
-        <v>25116</v>
+        <v>23425</v>
       </c>
       <c r="N89" s="4" t="n">
-        <v>13668</v>
+        <v>15767</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>24580</v>
-      </c>
-      <c r="P89" s="4" t="inlineStr"/>
+        <v>11456</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>07J</t>
+          <t>EC-07J</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4941,41 +4851,40 @@
       <c r="D90" s="4" t="inlineStr"/>
       <c r="E90" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:28</t>
+          <t>2024-08-15 06:58</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr"/>
       <c r="G90" s="4" t="n">
-        <v>82376</v>
+        <v>87259</v>
       </c>
       <c r="H90" s="4" t="n">
-        <v>58612</v>
+        <v>67700</v>
       </c>
       <c r="I90" s="4" t="n">
-        <v>1301</v>
+        <v>1443</v>
       </c>
       <c r="J90" s="4" t="n">
-        <v>57311</v>
+        <v>66257</v>
       </c>
       <c r="K90" s="4" t="inlineStr"/>
       <c r="L90" s="4" t="n">
-        <v>11990</v>
+        <v>16887</v>
       </c>
       <c r="M90" s="4" t="n">
-        <v>20477</v>
+        <v>23202</v>
       </c>
       <c r="N90" s="4" t="n">
-        <v>9071</v>
+        <v>9456</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>12905</v>
-      </c>
-      <c r="P90" s="4" t="inlineStr"/>
+        <v>13397</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>08A</t>
+          <t>EC-08A</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4991,41 +4900,40 @@
       <c r="D91" s="4" t="inlineStr"/>
       <c r="E91" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:10</t>
+          <t>2024-08-15 12:41</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr"/>
       <c r="G91" s="4" t="n">
-        <v>108333</v>
+        <v>103528</v>
       </c>
       <c r="H91" s="4" t="n">
-        <v>90102</v>
+        <v>80721</v>
       </c>
       <c r="I91" s="4" t="n">
-        <v>2576</v>
+        <v>2045</v>
       </c>
       <c r="J91" s="4" t="n">
-        <v>87526</v>
+        <v>78676</v>
       </c>
       <c r="K91" s="4" t="inlineStr"/>
       <c r="L91" s="4" t="n">
-        <v>19836</v>
+        <v>16259</v>
       </c>
       <c r="M91" s="4" t="n">
-        <v>9887</v>
+        <v>30651</v>
       </c>
       <c r="N91" s="4" t="n">
-        <v>21049</v>
+        <v>12496</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>32376</v>
-      </c>
-      <c r="P91" s="4" t="inlineStr"/>
+        <v>15334</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>08B</t>
+          <t>EC-08B</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5041,41 +4949,40 @@
       <c r="D92" s="4" t="inlineStr"/>
       <c r="E92" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:06</t>
+          <t>2024-08-15 05:10</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr"/>
       <c r="G92" s="4" t="n">
-        <v>93383</v>
+        <v>99073</v>
       </c>
       <c r="H92" s="4" t="n">
-        <v>76703</v>
+        <v>62028</v>
       </c>
       <c r="I92" s="4" t="n">
-        <v>1594</v>
+        <v>951</v>
       </c>
       <c r="J92" s="4" t="n">
-        <v>75109</v>
+        <v>61077</v>
       </c>
       <c r="K92" s="4" t="inlineStr"/>
       <c r="L92" s="4" t="n">
-        <v>24324</v>
+        <v>20581</v>
       </c>
       <c r="M92" s="4" t="n">
-        <v>13176</v>
+        <v>10269</v>
       </c>
       <c r="N92" s="4" t="n">
-        <v>20480</v>
+        <v>8414</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>13371</v>
-      </c>
-      <c r="P92" s="4" t="inlineStr"/>
+        <v>18757</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>08C</t>
+          <t>EC-08C</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5091,41 +4998,40 @@
       <c r="D93" s="4" t="inlineStr"/>
       <c r="E93" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:28</t>
+          <t>2024-08-15 06:18</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr"/>
       <c r="G93" s="4" t="n">
-        <v>100345</v>
+        <v>100855</v>
       </c>
       <c r="H93" s="4" t="n">
-        <v>63193</v>
+        <v>78776</v>
       </c>
       <c r="I93" s="4" t="n">
-        <v>1002</v>
+        <v>1103</v>
       </c>
       <c r="J93" s="4" t="n">
-        <v>62191</v>
+        <v>77673</v>
       </c>
       <c r="K93" s="4" t="inlineStr"/>
       <c r="L93" s="4" t="n">
-        <v>14472</v>
+        <v>14436</v>
       </c>
       <c r="M93" s="4" t="n">
-        <v>22285</v>
+        <v>11505</v>
       </c>
       <c r="N93" s="4" t="n">
-        <v>15081</v>
+        <v>35034</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>7242</v>
-      </c>
-      <c r="P93" s="4" t="inlineStr"/>
+        <v>12812</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>08D</t>
+          <t>EC-08D</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5141,41 +5047,40 @@
       <c r="D94" s="4" t="inlineStr"/>
       <c r="E94" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:10</t>
+          <t>2024-08-15 08:25</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr"/>
       <c r="G94" s="4" t="n">
-        <v>86185</v>
+        <v>81403</v>
       </c>
       <c r="H94" s="4" t="n">
-        <v>69727</v>
+        <v>50634</v>
       </c>
       <c r="I94" s="4" t="n">
-        <v>1913</v>
+        <v>566</v>
       </c>
       <c r="J94" s="4" t="n">
-        <v>67814</v>
+        <v>50068</v>
       </c>
       <c r="K94" s="4" t="inlineStr"/>
       <c r="L94" s="4" t="n">
-        <v>10304</v>
+        <v>8144</v>
       </c>
       <c r="M94" s="4" t="n">
-        <v>19902</v>
+        <v>9152</v>
       </c>
       <c r="N94" s="4" t="n">
-        <v>21919</v>
+        <v>14583</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>12296</v>
-      </c>
-      <c r="P94" s="4" t="inlineStr"/>
+        <v>15683</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>08E</t>
+          <t>EC-08E</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5191,41 +5096,40 @@
       <c r="D95" s="4" t="inlineStr"/>
       <c r="E95" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:59</t>
+          <t>2024-08-15 08:51</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr"/>
       <c r="G95" s="4" t="n">
-        <v>81328</v>
+        <v>79731</v>
       </c>
       <c r="H95" s="4" t="n">
-        <v>67858</v>
+        <v>52855</v>
       </c>
       <c r="I95" s="4" t="n">
-        <v>1641</v>
+        <v>546</v>
       </c>
       <c r="J95" s="4" t="n">
-        <v>66217</v>
+        <v>52309</v>
       </c>
       <c r="K95" s="4" t="inlineStr"/>
       <c r="L95" s="4" t="n">
-        <v>16830</v>
+        <v>12077</v>
       </c>
       <c r="M95" s="4" t="n">
-        <v>14708</v>
+        <v>8440</v>
       </c>
       <c r="N95" s="4" t="n">
-        <v>8813</v>
+        <v>16861</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>22554</v>
-      </c>
-      <c r="P95" s="4" t="inlineStr"/>
+        <v>12313</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>08F</t>
+          <t>EC-08F</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5241,41 +5145,40 @@
       <c r="D96" s="4" t="inlineStr"/>
       <c r="E96" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:57</t>
+          <t>2024-08-15 06:15</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr"/>
       <c r="G96" s="4" t="n">
-        <v>90227</v>
+        <v>89138</v>
       </c>
       <c r="H96" s="4" t="n">
-        <v>63373</v>
+        <v>63923</v>
       </c>
       <c r="I96" s="4" t="n">
-        <v>711</v>
+        <v>763</v>
       </c>
       <c r="J96" s="4" t="n">
-        <v>62662</v>
+        <v>63160</v>
       </c>
       <c r="K96" s="4" t="inlineStr"/>
       <c r="L96" s="4" t="n">
-        <v>20802</v>
+        <v>18392</v>
       </c>
       <c r="M96" s="4" t="n">
-        <v>8853</v>
+        <v>9426</v>
       </c>
       <c r="N96" s="4" t="n">
-        <v>7818</v>
+        <v>15636</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>22054</v>
-      </c>
-      <c r="P96" s="4" t="inlineStr"/>
+        <v>16545</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>08G</t>
+          <t>EC-08G</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5291,41 +5194,40 @@
       <c r="D97" s="4" t="inlineStr"/>
       <c r="E97" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:57</t>
+          <t>2024-08-15 01:06</t>
         </is>
       </c>
       <c r="F97" s="4" t="inlineStr"/>
       <c r="G97" s="4" t="n">
-        <v>105088</v>
+        <v>101485</v>
       </c>
       <c r="H97" s="4" t="n">
-        <v>79818</v>
+        <v>73388</v>
       </c>
       <c r="I97" s="4" t="n">
-        <v>2282</v>
+        <v>1092</v>
       </c>
       <c r="J97" s="4" t="n">
-        <v>77536</v>
+        <v>72296</v>
       </c>
       <c r="K97" s="4" t="inlineStr"/>
       <c r="L97" s="4" t="n">
-        <v>10025</v>
+        <v>9001</v>
       </c>
       <c r="M97" s="4" t="n">
-        <v>18109</v>
+        <v>18039</v>
       </c>
       <c r="N97" s="4" t="n">
-        <v>13476</v>
+        <v>11224</v>
       </c>
       <c r="O97" s="4" t="n">
-        <v>32048</v>
-      </c>
-      <c r="P97" s="4" t="inlineStr"/>
+        <v>30415</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>09A</t>
+          <t>EC-09A</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5341,41 +5243,40 @@
       <c r="D98" s="4" t="inlineStr"/>
       <c r="E98" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:26</t>
+          <t>2024-08-15 01:04</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr"/>
       <c r="G98" s="4" t="n">
-        <v>110360</v>
+        <v>101125</v>
       </c>
       <c r="H98" s="4" t="n">
-        <v>76974</v>
+        <v>84087</v>
       </c>
       <c r="I98" s="4" t="n">
-        <v>1400</v>
+        <v>1529</v>
       </c>
       <c r="J98" s="4" t="n">
-        <v>75574</v>
+        <v>82558</v>
       </c>
       <c r="K98" s="4" t="inlineStr"/>
       <c r="L98" s="4" t="n">
-        <v>16268</v>
+        <v>13806</v>
       </c>
       <c r="M98" s="4" t="n">
-        <v>14028</v>
+        <v>21159</v>
       </c>
       <c r="N98" s="4" t="n">
-        <v>21370</v>
+        <v>28098</v>
       </c>
       <c r="O98" s="4" t="n">
-        <v>20127</v>
-      </c>
-      <c r="P98" s="4" t="inlineStr"/>
+        <v>15366</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>09B</t>
+          <t>EC-09B</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5391,41 +5292,40 @@
       <c r="D99" s="4" t="inlineStr"/>
       <c r="E99" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:39</t>
+          <t>2024-08-15 01:24</t>
         </is>
       </c>
       <c r="F99" s="4" t="inlineStr"/>
       <c r="G99" s="4" t="n">
-        <v>84045</v>
+        <v>80598</v>
       </c>
       <c r="H99" s="4" t="n">
-        <v>51782</v>
+        <v>63138</v>
       </c>
       <c r="I99" s="4" t="n">
-        <v>630</v>
+        <v>934</v>
       </c>
       <c r="J99" s="4" t="n">
-        <v>51152</v>
+        <v>62204</v>
       </c>
       <c r="K99" s="4" t="inlineStr"/>
       <c r="L99" s="4" t="n">
-        <v>14959</v>
+        <v>14435</v>
       </c>
       <c r="M99" s="4" t="n">
-        <v>10725</v>
+        <v>13316</v>
       </c>
       <c r="N99" s="4" t="n">
-        <v>8967</v>
+        <v>19661</v>
       </c>
       <c r="O99" s="4" t="n">
-        <v>13941</v>
-      </c>
-      <c r="P99" s="4" t="inlineStr"/>
+        <v>11680</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>09C</t>
+          <t>EC-09C</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5441,41 +5341,40 @@
       <c r="D100" s="4" t="inlineStr"/>
       <c r="E100" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:27</t>
+          <t>2024-08-15 07:51</t>
         </is>
       </c>
       <c r="F100" s="4" t="inlineStr"/>
       <c r="G100" s="4" t="n">
-        <v>131195</v>
+        <v>125313</v>
       </c>
       <c r="H100" s="4" t="n">
-        <v>92855</v>
+        <v>103259</v>
       </c>
       <c r="I100" s="4" t="n">
-        <v>1403</v>
+        <v>1245</v>
       </c>
       <c r="J100" s="4" t="n">
-        <v>91452</v>
+        <v>102014</v>
       </c>
       <c r="K100" s="4" t="inlineStr"/>
       <c r="L100" s="4" t="n">
-        <v>29374</v>
+        <v>9495</v>
       </c>
       <c r="M100" s="4" t="n">
-        <v>25514</v>
+        <v>31060</v>
       </c>
       <c r="N100" s="4" t="n">
-        <v>12776</v>
+        <v>36514</v>
       </c>
       <c r="O100" s="4" t="n">
-        <v>19214</v>
-      </c>
-      <c r="P100" s="4" t="inlineStr"/>
+        <v>19842</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>09D</t>
+          <t>EC-09D</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5491,41 +5390,40 @@
       <c r="D101" s="4" t="inlineStr"/>
       <c r="E101" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:14</t>
+          <t>2024-08-15 07:07</t>
         </is>
       </c>
       <c r="F101" s="4" t="inlineStr"/>
       <c r="G101" s="4" t="n">
-        <v>175015</v>
+        <v>186160</v>
       </c>
       <c r="H101" s="4" t="n">
-        <v>118696</v>
+        <v>113357</v>
       </c>
       <c r="I101" s="4" t="n">
-        <v>2701</v>
+        <v>2009</v>
       </c>
       <c r="J101" s="4" t="n">
-        <v>115995</v>
+        <v>111348</v>
       </c>
       <c r="K101" s="4" t="inlineStr"/>
       <c r="L101" s="4" t="n">
-        <v>25600</v>
+        <v>42302</v>
       </c>
       <c r="M101" s="4" t="n">
-        <v>32294</v>
+        <v>10567</v>
       </c>
       <c r="N101" s="4" t="n">
-        <v>18049</v>
+        <v>19750</v>
       </c>
       <c r="O101" s="4" t="n">
-        <v>34250</v>
-      </c>
-      <c r="P101" s="4" t="inlineStr"/>
+        <v>33160</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>10A</t>
+          <t>EC-10A</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5541,41 +5439,40 @@
       <c r="D102" s="4" t="inlineStr"/>
       <c r="E102" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:26</t>
+          <t>2024-08-15 03:18</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr"/>
       <c r="G102" s="4" t="n">
-        <v>24661</v>
+        <v>24686</v>
       </c>
       <c r="H102" s="4" t="n">
-        <v>17185</v>
+        <v>21594</v>
       </c>
       <c r="I102" s="4" t="n">
-        <v>466</v>
+        <v>366</v>
       </c>
       <c r="J102" s="4" t="n">
-        <v>16719</v>
+        <v>21228</v>
       </c>
       <c r="K102" s="4" t="inlineStr"/>
       <c r="L102" s="4" t="n">
-        <v>4726</v>
+        <v>5608</v>
       </c>
       <c r="M102" s="4" t="n">
-        <v>4620</v>
+        <v>4137</v>
       </c>
       <c r="N102" s="4" t="n">
-        <v>3134</v>
+        <v>3384</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>3401</v>
-      </c>
-      <c r="P102" s="4" t="inlineStr"/>
+        <v>7036</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>10B</t>
+          <t>EC-10B</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5591,41 +5488,40 @@
       <c r="D103" s="4" t="inlineStr"/>
       <c r="E103" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:09</t>
+          <t>2024-08-15 08:35</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr"/>
       <c r="G103" s="4" t="n">
-        <v>51703</v>
+        <v>52151</v>
       </c>
       <c r="H103" s="4" t="n">
-        <v>34209</v>
+        <v>35729</v>
       </c>
       <c r="I103" s="4" t="n">
-        <v>425</v>
+        <v>753</v>
       </c>
       <c r="J103" s="4" t="n">
-        <v>33784</v>
+        <v>34976</v>
       </c>
       <c r="K103" s="4" t="inlineStr"/>
       <c r="L103" s="4" t="n">
-        <v>10765</v>
+        <v>9102</v>
       </c>
       <c r="M103" s="4" t="n">
-        <v>4040</v>
+        <v>7844</v>
       </c>
       <c r="N103" s="4" t="n">
-        <v>11463</v>
+        <v>7979</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>5826</v>
-      </c>
-      <c r="P103" s="4" t="inlineStr"/>
+        <v>8300</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>10C</t>
+          <t>EC-10C</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5641,41 +5537,40 @@
       <c r="D104" s="4" t="inlineStr"/>
       <c r="E104" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:29</t>
+          <t>2024-08-15 09:13</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr"/>
       <c r="G104" s="4" t="n">
-        <v>67364</v>
+        <v>66092</v>
       </c>
       <c r="H104" s="4" t="n">
-        <v>57706</v>
+        <v>45900</v>
       </c>
       <c r="I104" s="4" t="n">
-        <v>594</v>
+        <v>670</v>
       </c>
       <c r="J104" s="4" t="n">
-        <v>57112</v>
+        <v>45230</v>
       </c>
       <c r="K104" s="4" t="inlineStr"/>
       <c r="L104" s="4" t="n">
-        <v>10918</v>
+        <v>4760</v>
       </c>
       <c r="M104" s="4" t="n">
-        <v>16711</v>
+        <v>8413</v>
       </c>
       <c r="N104" s="4" t="n">
-        <v>20017</v>
+        <v>15178</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>6608</v>
-      </c>
-      <c r="P104" s="4" t="inlineStr"/>
+        <v>14616</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>10D</t>
+          <t>EC-10D</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5691,41 +5586,40 @@
       <c r="D105" s="4" t="inlineStr"/>
       <c r="E105" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:57</t>
+          <t>2024-08-15 01:55</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr"/>
       <c r="G105" s="4" t="n">
-        <v>56196</v>
+        <v>59159</v>
       </c>
       <c r="H105" s="4" t="n">
-        <v>48562</v>
+        <v>49171</v>
       </c>
       <c r="I105" s="4" t="n">
-        <v>725</v>
+        <v>1117</v>
       </c>
       <c r="J105" s="4" t="n">
-        <v>47837</v>
+        <v>48054</v>
       </c>
       <c r="K105" s="4" t="inlineStr"/>
       <c r="L105" s="4" t="n">
-        <v>9968</v>
+        <v>13914</v>
       </c>
       <c r="M105" s="4" t="n">
-        <v>7947</v>
+        <v>6919</v>
       </c>
       <c r="N105" s="4" t="n">
-        <v>16761</v>
+        <v>11008</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>10768</v>
-      </c>
-      <c r="P105" s="4" t="inlineStr"/>
+        <v>13809</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>10E</t>
+          <t>EC-10E</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5741,41 +5635,40 @@
       <c r="D106" s="4" t="inlineStr"/>
       <c r="E106" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:58</t>
+          <t>2024-08-15 10:30</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr"/>
       <c r="G106" s="4" t="n">
-        <v>63127</v>
+        <v>62842</v>
       </c>
       <c r="H106" s="4" t="n">
-        <v>41018</v>
+        <v>51997</v>
       </c>
       <c r="I106" s="4" t="n">
-        <v>619</v>
+        <v>1397</v>
       </c>
       <c r="J106" s="4" t="n">
-        <v>40399</v>
+        <v>50600</v>
       </c>
       <c r="K106" s="4" t="inlineStr"/>
       <c r="L106" s="4" t="n">
-        <v>7580</v>
+        <v>11309</v>
       </c>
       <c r="M106" s="4" t="n">
-        <v>8589</v>
+        <v>16081</v>
       </c>
       <c r="N106" s="4" t="n">
-        <v>12536</v>
+        <v>16395</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>9673</v>
-      </c>
-      <c r="P106" s="4" t="inlineStr"/>
+        <v>4283</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>10F</t>
+          <t>EC-10F</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5791,41 +5684,40 @@
       <c r="D107" s="4" t="inlineStr"/>
       <c r="E107" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:24</t>
+          <t>2024-08-15 01:21</t>
         </is>
       </c>
       <c r="F107" s="4" t="inlineStr"/>
       <c r="G107" s="4" t="n">
-        <v>40933</v>
+        <v>40358</v>
       </c>
       <c r="H107" s="4" t="n">
-        <v>29360</v>
+        <v>33082</v>
       </c>
       <c r="I107" s="4" t="n">
-        <v>867</v>
+        <v>404</v>
       </c>
       <c r="J107" s="4" t="n">
-        <v>28493</v>
+        <v>32678</v>
       </c>
       <c r="K107" s="4" t="inlineStr"/>
       <c r="L107" s="4" t="n">
-        <v>4445</v>
+        <v>13109</v>
       </c>
       <c r="M107" s="4" t="n">
-        <v>3463</v>
+        <v>5592</v>
       </c>
       <c r="N107" s="4" t="n">
-        <v>7744</v>
+        <v>4450</v>
       </c>
       <c r="O107" s="4" t="n">
-        <v>11415</v>
-      </c>
-      <c r="P107" s="4" t="inlineStr"/>
+        <v>7892</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>10G</t>
+          <t>EC-10G</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5841,41 +5733,40 @@
       <c r="D108" s="4" t="inlineStr"/>
       <c r="E108" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:21</t>
+          <t>2024-08-15 10:32</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr"/>
       <c r="G108" s="4" t="n">
-        <v>38626</v>
+        <v>38946</v>
       </c>
       <c r="H108" s="4" t="n">
-        <v>31711</v>
+        <v>24876</v>
       </c>
       <c r="I108" s="4" t="n">
-        <v>884</v>
+        <v>687</v>
       </c>
       <c r="J108" s="4" t="n">
-        <v>30827</v>
+        <v>24189</v>
       </c>
       <c r="K108" s="4" t="inlineStr"/>
       <c r="L108" s="4" t="n">
-        <v>5446</v>
+        <v>5368</v>
       </c>
       <c r="M108" s="4" t="n">
-        <v>8072</v>
+        <v>7508</v>
       </c>
       <c r="N108" s="4" t="n">
-        <v>6315</v>
+        <v>4659</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>9451</v>
-      </c>
-      <c r="P108" s="4" t="inlineStr"/>
+        <v>5442</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>10H</t>
+          <t>EC-10H</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5891,41 +5782,40 @@
       <c r="D109" s="4" t="inlineStr"/>
       <c r="E109" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:24</t>
+          <t>2024-08-15 05:34</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr"/>
       <c r="G109" s="4" t="n">
-        <v>57372</v>
+        <v>54405</v>
       </c>
       <c r="H109" s="4" t="n">
-        <v>39262</v>
+        <v>38530</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>502</v>
+        <v>853</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>38760</v>
+        <v>37677</v>
       </c>
       <c r="K109" s="4" t="inlineStr"/>
       <c r="L109" s="4" t="n">
-        <v>5775</v>
+        <v>4268</v>
       </c>
       <c r="M109" s="4" t="n">
-        <v>8491</v>
+        <v>10806</v>
       </c>
       <c r="N109" s="4" t="n">
-        <v>13880</v>
+        <v>16354</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>8674</v>
-      </c>
-      <c r="P109" s="4" t="inlineStr"/>
+        <v>4364</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>10I</t>
+          <t>EC-10I</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5941,41 +5831,40 @@
       <c r="D110" s="4" t="inlineStr"/>
       <c r="E110" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:01</t>
+          <t>2024-08-15 02:14</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr"/>
       <c r="G110" s="4" t="n">
-        <v>47898</v>
+        <v>47859</v>
       </c>
       <c r="H110" s="4" t="n">
-        <v>29203</v>
+        <v>38960</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>428</v>
+        <v>862</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>28775</v>
+        <v>38098</v>
       </c>
       <c r="K110" s="4" t="inlineStr"/>
       <c r="L110" s="4" t="n">
-        <v>7371</v>
+        <v>9029</v>
       </c>
       <c r="M110" s="4" t="n">
-        <v>7319</v>
+        <v>5560</v>
       </c>
       <c r="N110" s="4" t="n">
-        <v>9166</v>
+        <v>14499</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>3479</v>
-      </c>
-      <c r="P110" s="4" t="inlineStr"/>
+        <v>7103</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>10J</t>
+          <t>EC-10J</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5991,41 +5880,40 @@
       <c r="D111" s="4" t="inlineStr"/>
       <c r="E111" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:51</t>
+          <t>2024-08-15 09:46</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr"/>
       <c r="G111" s="4" t="n">
-        <v>34456</v>
+        <v>37005</v>
       </c>
       <c r="H111" s="4" t="n">
-        <v>21341</v>
+        <v>28863</v>
       </c>
       <c r="I111" s="4" t="n">
-        <v>495</v>
+        <v>751</v>
       </c>
       <c r="J111" s="4" t="n">
-        <v>20846</v>
+        <v>28112</v>
       </c>
       <c r="K111" s="4" t="inlineStr"/>
       <c r="L111" s="4" t="n">
-        <v>7927</v>
+        <v>8343</v>
       </c>
       <c r="M111" s="4" t="n">
-        <v>4658</v>
+        <v>4283</v>
       </c>
       <c r="N111" s="4" t="n">
-        <v>2413</v>
+        <v>4447</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>4803</v>
-      </c>
-      <c r="P111" s="4" t="inlineStr"/>
+        <v>9632</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>EC-10K</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6041,41 +5929,40 @@
       <c r="D112" s="4" t="inlineStr"/>
       <c r="E112" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:21</t>
+          <t>2024-08-15 08:00</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr"/>
       <c r="G112" s="4" t="n">
-        <v>94851</v>
+        <v>90872</v>
       </c>
       <c r="H112" s="4" t="n">
-        <v>64668</v>
+        <v>58834</v>
       </c>
       <c r="I112" s="4" t="n">
-        <v>1471</v>
+        <v>1338</v>
       </c>
       <c r="J112" s="4" t="n">
-        <v>63197</v>
+        <v>57496</v>
       </c>
       <c r="K112" s="4" t="inlineStr"/>
       <c r="L112" s="4" t="n">
-        <v>20835</v>
+        <v>18497</v>
       </c>
       <c r="M112" s="4" t="n">
-        <v>21072</v>
+        <v>12313</v>
       </c>
       <c r="N112" s="4" t="n">
-        <v>8919</v>
+        <v>12792</v>
       </c>
       <c r="O112" s="4" t="n">
-        <v>9209</v>
-      </c>
-      <c r="P112" s="4" t="inlineStr"/>
+        <v>11017</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>11A</t>
+          <t>EC-11A</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6091,41 +5978,40 @@
       <c r="D113" s="4" t="inlineStr"/>
       <c r="E113" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:24</t>
+          <t>2024-08-15 01:21</t>
         </is>
       </c>
       <c r="F113" s="4" t="inlineStr"/>
       <c r="G113" s="4" t="n">
-        <v>84823</v>
+        <v>81143</v>
       </c>
       <c r="H113" s="4" t="n">
-        <v>66534</v>
+        <v>71951</v>
       </c>
       <c r="I113" s="4" t="n">
-        <v>1763</v>
+        <v>1405</v>
       </c>
       <c r="J113" s="4" t="n">
-        <v>64771</v>
+        <v>70546</v>
       </c>
       <c r="K113" s="4" t="inlineStr"/>
       <c r="L113" s="4" t="n">
-        <v>10639</v>
+        <v>15506</v>
       </c>
       <c r="M113" s="4" t="n">
-        <v>16033</v>
+        <v>24156</v>
       </c>
       <c r="N113" s="4" t="n">
-        <v>27575</v>
+        <v>19945</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>7284</v>
-      </c>
-      <c r="P113" s="4" t="inlineStr"/>
+        <v>7410</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>11B</t>
+          <t>EC-11B</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6141,41 +6027,40 @@
       <c r="D114" s="4" t="inlineStr"/>
       <c r="E114" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:29</t>
+          <t>2024-08-15 11:32</t>
         </is>
       </c>
       <c r="F114" s="4" t="inlineStr"/>
       <c r="G114" s="4" t="n">
-        <v>118813</v>
+        <v>116285</v>
       </c>
       <c r="H114" s="4" t="n">
-        <v>83324</v>
+        <v>102567</v>
       </c>
       <c r="I114" s="4" t="n">
-        <v>1583</v>
+        <v>1059</v>
       </c>
       <c r="J114" s="4" t="n">
-        <v>81741</v>
+        <v>101508</v>
       </c>
       <c r="K114" s="4" t="inlineStr"/>
       <c r="L114" s="4" t="n">
-        <v>13474</v>
+        <v>25745</v>
       </c>
       <c r="M114" s="4" t="n">
-        <v>25294</v>
+        <v>28372</v>
       </c>
       <c r="N114" s="4" t="n">
-        <v>16409</v>
+        <v>19180</v>
       </c>
       <c r="O114" s="4" t="n">
-        <v>22474</v>
-      </c>
-      <c r="P114" s="4" t="inlineStr"/>
+        <v>23134</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>11C</t>
+          <t>EC-11C</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6191,41 +6076,40 @@
       <c r="D115" s="4" t="inlineStr"/>
       <c r="E115" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:58</t>
+          <t>2024-08-15 12:15</t>
         </is>
       </c>
       <c r="F115" s="4" t="inlineStr"/>
       <c r="G115" s="4" t="n">
-        <v>75434</v>
+        <v>77156</v>
       </c>
       <c r="H115" s="4" t="n">
-        <v>58057</v>
+        <v>58806</v>
       </c>
       <c r="I115" s="4" t="n">
-        <v>1560</v>
+        <v>1312</v>
       </c>
       <c r="J115" s="4" t="n">
-        <v>56497</v>
+        <v>57494</v>
       </c>
       <c r="K115" s="4" t="inlineStr"/>
       <c r="L115" s="4" t="n">
-        <v>15797</v>
+        <v>7354</v>
       </c>
       <c r="M115" s="4" t="n">
-        <v>10502</v>
+        <v>17156</v>
       </c>
       <c r="N115" s="4" t="n">
-        <v>17744</v>
+        <v>13565</v>
       </c>
       <c r="O115" s="4" t="n">
-        <v>9628</v>
-      </c>
-      <c r="P115" s="4" t="inlineStr"/>
+        <v>16543</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>12A</t>
+          <t>EC-12A</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6241,41 +6125,40 @@
       <c r="D116" s="4" t="inlineStr"/>
       <c r="E116" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:38</t>
+          <t>2024-08-15 04:52</t>
         </is>
       </c>
       <c r="F116" s="4" t="inlineStr"/>
       <c r="G116" s="4" t="n">
-        <v>124175</v>
+        <v>127892</v>
       </c>
       <c r="H116" s="4" t="n">
-        <v>83315</v>
+        <v>97968</v>
       </c>
       <c r="I116" s="4" t="n">
-        <v>1813</v>
+        <v>1242</v>
       </c>
       <c r="J116" s="4" t="n">
-        <v>81502</v>
+        <v>96726</v>
       </c>
       <c r="K116" s="4" t="inlineStr"/>
       <c r="L116" s="4" t="n">
-        <v>7847</v>
+        <v>31813</v>
       </c>
       <c r="M116" s="4" t="n">
-        <v>13796</v>
+        <v>22113</v>
       </c>
       <c r="N116" s="4" t="n">
-        <v>22644</v>
+        <v>16226</v>
       </c>
       <c r="O116" s="4" t="n">
-        <v>33138</v>
-      </c>
-      <c r="P116" s="4" t="inlineStr"/>
+        <v>21735</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>12B</t>
+          <t>EC-12B</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6291,41 +6174,40 @@
       <c r="D117" s="4" t="inlineStr"/>
       <c r="E117" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:51</t>
+          <t>2024-08-15 06:53</t>
         </is>
       </c>
       <c r="F117" s="4" t="inlineStr"/>
       <c r="G117" s="4" t="n">
-        <v>188317</v>
+        <v>192518</v>
       </c>
       <c r="H117" s="4" t="n">
-        <v>113102</v>
+        <v>172847</v>
       </c>
       <c r="I117" s="4" t="n">
-        <v>2572</v>
+        <v>3621</v>
       </c>
       <c r="J117" s="4" t="n">
-        <v>110530</v>
+        <v>169226</v>
       </c>
       <c r="K117" s="4" t="inlineStr"/>
       <c r="L117" s="4" t="n">
-        <v>18957</v>
+        <v>40481</v>
       </c>
       <c r="M117" s="4" t="n">
-        <v>13174</v>
+        <v>27985</v>
       </c>
       <c r="N117" s="4" t="n">
-        <v>38397</v>
+        <v>23354</v>
       </c>
       <c r="O117" s="4" t="n">
-        <v>34474</v>
-      </c>
-      <c r="P117" s="4" t="inlineStr"/>
+        <v>68943</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>12C</t>
+          <t>EC-12C</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6341,41 +6223,40 @@
       <c r="D118" s="4" t="inlineStr"/>
       <c r="E118" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:52</t>
+          <t>2024-08-15 04:12</t>
         </is>
       </c>
       <c r="F118" s="4" t="inlineStr"/>
       <c r="G118" s="4" t="n">
-        <v>98734</v>
+        <v>94478</v>
       </c>
       <c r="H118" s="4" t="n">
-        <v>87142</v>
+        <v>78069</v>
       </c>
       <c r="I118" s="4" t="n">
-        <v>2130</v>
+        <v>1647</v>
       </c>
       <c r="J118" s="4" t="n">
-        <v>85012</v>
+        <v>76422</v>
       </c>
       <c r="K118" s="4" t="inlineStr"/>
       <c r="L118" s="4" t="n">
-        <v>21192</v>
+        <v>32031</v>
       </c>
       <c r="M118" s="4" t="n">
-        <v>22624</v>
+        <v>17344</v>
       </c>
       <c r="N118" s="4" t="n">
-        <v>21092</v>
+        <v>11661</v>
       </c>
       <c r="O118" s="4" t="n">
-        <v>15852</v>
-      </c>
-      <c r="P118" s="4" t="inlineStr"/>
+        <v>11563</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>13A</t>
+          <t>EC-13A</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6391,41 +6272,40 @@
       <c r="D119" s="4" t="inlineStr"/>
       <c r="E119" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:30</t>
+          <t>2024-08-15 11:06</t>
         </is>
       </c>
       <c r="F119" s="4" t="inlineStr"/>
       <c r="G119" s="4" t="n">
-        <v>164854</v>
+        <v>175259</v>
       </c>
       <c r="H119" s="4" t="n">
-        <v>116379</v>
+        <v>128882</v>
       </c>
       <c r="I119" s="4" t="n">
-        <v>3237</v>
+        <v>2109</v>
       </c>
       <c r="J119" s="4" t="n">
-        <v>113142</v>
+        <v>126773</v>
       </c>
       <c r="K119" s="4" t="inlineStr"/>
       <c r="L119" s="4" t="n">
-        <v>8499</v>
+        <v>18312</v>
       </c>
       <c r="M119" s="4" t="n">
-        <v>22784</v>
+        <v>36476</v>
       </c>
       <c r="N119" s="4" t="n">
-        <v>39407</v>
+        <v>38056</v>
       </c>
       <c r="O119" s="4" t="n">
-        <v>36793</v>
-      </c>
-      <c r="P119" s="4" t="inlineStr"/>
+        <v>27589</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>13B</t>
+          <t>EC-13B</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6441,41 +6321,40 @@
       <c r="D120" s="4" t="inlineStr"/>
       <c r="E120" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:42</t>
+          <t>2024-08-15 09:23</t>
         </is>
       </c>
       <c r="F120" s="4" t="inlineStr"/>
       <c r="G120" s="4" t="n">
-        <v>96045</v>
+        <v>90021</v>
       </c>
       <c r="H120" s="4" t="n">
-        <v>78276</v>
+        <v>54646</v>
       </c>
       <c r="I120" s="4" t="n">
-        <v>2070</v>
+        <v>622</v>
       </c>
       <c r="J120" s="4" t="n">
-        <v>76206</v>
+        <v>54024</v>
       </c>
       <c r="K120" s="4" t="inlineStr"/>
       <c r="L120" s="4" t="n">
-        <v>16492</v>
+        <v>15140</v>
       </c>
       <c r="M120" s="4" t="n">
-        <v>13002</v>
+        <v>15429</v>
       </c>
       <c r="N120" s="4" t="n">
-        <v>22472</v>
+        <v>10316</v>
       </c>
       <c r="O120" s="4" t="n">
-        <v>20428</v>
-      </c>
-      <c r="P120" s="4" t="inlineStr"/>
+        <v>10436</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>EC-13C</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6491,41 +6370,40 @@
       <c r="D121" s="4" t="inlineStr"/>
       <c r="E121" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:27</t>
+          <t>2024-08-15 11:28</t>
         </is>
       </c>
       <c r="F121" s="4" t="inlineStr"/>
       <c r="G121" s="4" t="n">
-        <v>75933</v>
+        <v>79561</v>
       </c>
       <c r="H121" s="4" t="n">
-        <v>48342</v>
+        <v>68778</v>
       </c>
       <c r="I121" s="4" t="n">
-        <v>1281</v>
+        <v>1115</v>
       </c>
       <c r="J121" s="4" t="n">
-        <v>47061</v>
+        <v>67663</v>
       </c>
       <c r="K121" s="4" t="inlineStr"/>
       <c r="L121" s="4" t="n">
-        <v>14771</v>
+        <v>9118</v>
       </c>
       <c r="M121" s="4" t="n">
-        <v>7054</v>
+        <v>9288</v>
       </c>
       <c r="N121" s="4" t="n">
-        <v>6343</v>
+        <v>28487</v>
       </c>
       <c r="O121" s="4" t="n">
-        <v>16537</v>
-      </c>
-      <c r="P121" s="4" t="inlineStr"/>
+        <v>17385</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>EC-13D</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6541,41 +6419,40 @@
       <c r="D122" s="4" t="inlineStr"/>
       <c r="E122" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:00</t>
+          <t>2024-08-15 01:49</t>
         </is>
       </c>
       <c r="F122" s="4" t="inlineStr"/>
       <c r="G122" s="4" t="n">
-        <v>163995</v>
+        <v>172740</v>
       </c>
       <c r="H122" s="4" t="n">
-        <v>110402</v>
+        <v>121579</v>
       </c>
       <c r="I122" s="4" t="n">
-        <v>1128</v>
+        <v>3062</v>
       </c>
       <c r="J122" s="4" t="n">
-        <v>109274</v>
+        <v>118517</v>
       </c>
       <c r="K122" s="4" t="inlineStr"/>
       <c r="L122" s="4" t="n">
-        <v>25057</v>
+        <v>12087</v>
       </c>
       <c r="M122" s="4" t="n">
-        <v>32267</v>
+        <v>23818</v>
       </c>
       <c r="N122" s="4" t="n">
-        <v>15619</v>
+        <v>39014</v>
       </c>
       <c r="O122" s="4" t="n">
-        <v>30866</v>
-      </c>
-      <c r="P122" s="4" t="inlineStr"/>
+        <v>37671</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>14A</t>
+          <t>EC-14A</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6591,41 +6468,40 @@
       <c r="D123" s="4" t="inlineStr"/>
       <c r="E123" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:02</t>
+          <t>2024-08-15 10:16</t>
         </is>
       </c>
       <c r="F123" s="4" t="inlineStr"/>
       <c r="G123" s="4" t="n">
-        <v>80303</v>
+        <v>75848</v>
       </c>
       <c r="H123" s="4" t="n">
-        <v>48831</v>
+        <v>66908</v>
       </c>
       <c r="I123" s="4" t="n">
-        <v>997</v>
+        <v>1577</v>
       </c>
       <c r="J123" s="4" t="n">
-        <v>47834</v>
+        <v>65331</v>
       </c>
       <c r="K123" s="4" t="inlineStr"/>
       <c r="L123" s="4" t="n">
-        <v>8990</v>
+        <v>16575</v>
       </c>
       <c r="M123" s="4" t="n">
-        <v>14390</v>
+        <v>16043</v>
       </c>
       <c r="N123" s="4" t="n">
-        <v>6475</v>
+        <v>13256</v>
       </c>
       <c r="O123" s="4" t="n">
-        <v>15585</v>
-      </c>
-      <c r="P123" s="4" t="inlineStr"/>
+        <v>16189</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>14B</t>
+          <t>EC-14B</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6641,41 +6517,40 @@
       <c r="D124" s="4" t="inlineStr"/>
       <c r="E124" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:54</t>
+          <t>2024-08-15 05:19</t>
         </is>
       </c>
       <c r="F124" s="4" t="inlineStr"/>
       <c r="G124" s="4" t="n">
-        <v>94528</v>
+        <v>94846</v>
       </c>
       <c r="H124" s="4" t="n">
-        <v>75085</v>
+        <v>67243</v>
       </c>
       <c r="I124" s="4" t="n">
-        <v>1325</v>
+        <v>1619</v>
       </c>
       <c r="J124" s="4" t="n">
-        <v>73760</v>
+        <v>65624</v>
       </c>
       <c r="K124" s="4" t="inlineStr"/>
       <c r="L124" s="4" t="n">
-        <v>19101</v>
+        <v>6834</v>
       </c>
       <c r="M124" s="4" t="n">
-        <v>16710</v>
+        <v>10267</v>
       </c>
       <c r="N124" s="4" t="n">
-        <v>18607</v>
+        <v>16690</v>
       </c>
       <c r="O124" s="4" t="n">
-        <v>15652</v>
-      </c>
-      <c r="P124" s="4" t="inlineStr"/>
+        <v>28550</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>14C</t>
+          <t>EC-14C</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6691,41 +6566,40 @@
       <c r="D125" s="4" t="inlineStr"/>
       <c r="E125" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:30</t>
+          <t>2024-08-15 12:27</t>
         </is>
       </c>
       <c r="F125" s="4" t="inlineStr"/>
       <c r="G125" s="4" t="n">
-        <v>113697</v>
+        <v>117074</v>
       </c>
       <c r="H125" s="4" t="n">
-        <v>95653</v>
+        <v>70266</v>
       </c>
       <c r="I125" s="4" t="n">
-        <v>2282</v>
+        <v>1968</v>
       </c>
       <c r="J125" s="4" t="n">
-        <v>93371</v>
+        <v>68298</v>
       </c>
       <c r="K125" s="4" t="inlineStr"/>
       <c r="L125" s="4" t="n">
-        <v>34170</v>
+        <v>11368</v>
       </c>
       <c r="M125" s="4" t="n">
-        <v>12215</v>
+        <v>24749</v>
       </c>
       <c r="N125" s="4" t="n">
-        <v>25614</v>
+        <v>14153</v>
       </c>
       <c r="O125" s="4" t="n">
-        <v>16701</v>
-      </c>
-      <c r="P125" s="4" t="inlineStr"/>
+        <v>14611</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>15A</t>
+          <t>EC-15A</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6741,41 +6615,40 @@
       <c r="D126" s="4" t="inlineStr"/>
       <c r="E126" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:42</t>
+          <t>2024-08-15 02:24</t>
         </is>
       </c>
       <c r="F126" s="4" t="inlineStr"/>
       <c r="G126" s="4" t="n">
-        <v>108177</v>
+        <v>107765</v>
       </c>
       <c r="H126" s="4" t="n">
-        <v>70999</v>
+        <v>84820</v>
       </c>
       <c r="I126" s="4" t="n">
-        <v>1978</v>
+        <v>2441</v>
       </c>
       <c r="J126" s="4" t="n">
-        <v>69021</v>
+        <v>82379</v>
       </c>
       <c r="K126" s="4" t="inlineStr"/>
       <c r="L126" s="4" t="n">
-        <v>14106</v>
+        <v>28473</v>
       </c>
       <c r="M126" s="4" t="n">
-        <v>12923</v>
+        <v>17154</v>
       </c>
       <c r="N126" s="4" t="n">
-        <v>24990</v>
+        <v>17261</v>
       </c>
       <c r="O126" s="4" t="n">
-        <v>13549</v>
-      </c>
-      <c r="P126" s="4" t="inlineStr"/>
+        <v>15370</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>15B</t>
+          <t>EC-15B</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6791,41 +6664,40 @@
       <c r="D127" s="4" t="inlineStr"/>
       <c r="E127" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:19</t>
+          <t>2024-08-15 07:00</t>
         </is>
       </c>
       <c r="F127" s="4" t="inlineStr"/>
       <c r="G127" s="4" t="n">
-        <v>102706</v>
+        <v>102584</v>
       </c>
       <c r="H127" s="4" t="n">
-        <v>72518</v>
+        <v>84266</v>
       </c>
       <c r="I127" s="4" t="n">
-        <v>1282</v>
+        <v>1800</v>
       </c>
       <c r="J127" s="4" t="n">
-        <v>71236</v>
+        <v>82466</v>
       </c>
       <c r="K127" s="4" t="inlineStr"/>
       <c r="L127" s="4" t="n">
-        <v>13275</v>
+        <v>25434</v>
       </c>
       <c r="M127" s="4" t="n">
-        <v>27574</v>
+        <v>10379</v>
       </c>
       <c r="N127" s="4" t="n">
-        <v>12005</v>
+        <v>30896</v>
       </c>
       <c r="O127" s="4" t="n">
-        <v>14818</v>
-      </c>
-      <c r="P127" s="4" t="inlineStr"/>
+        <v>11631</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>15C</t>
+          <t>EC-15C</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6841,41 +6713,40 @@
       <c r="D128" s="4" t="inlineStr"/>
       <c r="E128" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:55</t>
+          <t>2024-08-15 05:34</t>
         </is>
       </c>
       <c r="F128" s="4" t="inlineStr"/>
       <c r="G128" s="4" t="n">
-        <v>123634</v>
+        <v>117425</v>
       </c>
       <c r="H128" s="4" t="n">
-        <v>77935</v>
+        <v>78399</v>
       </c>
       <c r="I128" s="4" t="n">
-        <v>1441</v>
+        <v>1858</v>
       </c>
       <c r="J128" s="4" t="n">
-        <v>76494</v>
+        <v>76541</v>
       </c>
       <c r="K128" s="4" t="inlineStr"/>
       <c r="L128" s="4" t="n">
-        <v>6832</v>
+        <v>23342</v>
       </c>
       <c r="M128" s="4" t="n">
-        <v>25599</v>
+        <v>17410</v>
       </c>
       <c r="N128" s="4" t="n">
-        <v>15843</v>
+        <v>23817</v>
       </c>
       <c r="O128" s="4" t="n">
-        <v>24393</v>
-      </c>
-      <c r="P128" s="4" t="inlineStr"/>
+        <v>8143</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>15D</t>
+          <t>EC-15D</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6891,41 +6762,40 @@
       <c r="D129" s="4" t="inlineStr"/>
       <c r="E129" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:21</t>
+          <t>2024-08-15 03:41</t>
         </is>
       </c>
       <c r="F129" s="4" t="inlineStr"/>
       <c r="G129" s="4" t="n">
-        <v>103372</v>
+        <v>100551</v>
       </c>
       <c r="H129" s="4" t="n">
-        <v>92205</v>
+        <v>88371</v>
       </c>
       <c r="I129" s="4" t="n">
-        <v>965</v>
+        <v>920</v>
       </c>
       <c r="J129" s="4" t="n">
-        <v>91240</v>
+        <v>87451</v>
       </c>
       <c r="K129" s="4" t="inlineStr"/>
       <c r="L129" s="4" t="n">
-        <v>10611</v>
+        <v>10116</v>
       </c>
       <c r="M129" s="4" t="n">
-        <v>29120</v>
+        <v>24199</v>
       </c>
       <c r="N129" s="4" t="n">
-        <v>21748</v>
+        <v>29748</v>
       </c>
       <c r="O129" s="4" t="n">
-        <v>25197</v>
-      </c>
-      <c r="P129" s="4" t="inlineStr"/>
+        <v>19013</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>15E</t>
+          <t>EC-15E</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6941,41 +6811,40 @@
       <c r="D130" s="4" t="inlineStr"/>
       <c r="E130" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:56</t>
+          <t>2024-08-15 00:54</t>
         </is>
       </c>
       <c r="F130" s="4" t="inlineStr"/>
       <c r="G130" s="4" t="n">
-        <v>80326</v>
+        <v>83658</v>
       </c>
       <c r="H130" s="4" t="n">
-        <v>50342</v>
+        <v>55858</v>
       </c>
       <c r="I130" s="4" t="n">
-        <v>969</v>
+        <v>1279</v>
       </c>
       <c r="J130" s="4" t="n">
-        <v>49373</v>
+        <v>54579</v>
       </c>
       <c r="K130" s="4" t="inlineStr"/>
       <c r="L130" s="4" t="n">
-        <v>7468</v>
+        <v>8208</v>
       </c>
       <c r="M130" s="4" t="n">
-        <v>11600</v>
+        <v>12741</v>
       </c>
       <c r="N130" s="4" t="n">
-        <v>21213</v>
+        <v>15284</v>
       </c>
       <c r="O130" s="4" t="n">
-        <v>6621</v>
-      </c>
-      <c r="P130" s="4" t="inlineStr"/>
+        <v>15616</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>15F</t>
+          <t>EC-15F</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6991,41 +6860,40 @@
       <c r="D131" s="4" t="inlineStr"/>
       <c r="E131" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 00:57</t>
+          <t>2024-08-15 07:07</t>
         </is>
       </c>
       <c r="F131" s="4" t="inlineStr"/>
       <c r="G131" s="4" t="n">
-        <v>77629</v>
+        <v>78226</v>
       </c>
       <c r="H131" s="4" t="n">
-        <v>65891</v>
+        <v>63996</v>
       </c>
       <c r="I131" s="4" t="n">
-        <v>1517</v>
+        <v>655</v>
       </c>
       <c r="J131" s="4" t="n">
-        <v>64374</v>
+        <v>63341</v>
       </c>
       <c r="K131" s="4" t="inlineStr"/>
       <c r="L131" s="4" t="n">
-        <v>14675</v>
+        <v>21869</v>
       </c>
       <c r="M131" s="4" t="n">
-        <v>9574</v>
+        <v>7658</v>
       </c>
       <c r="N131" s="4" t="n">
-        <v>6489</v>
+        <v>17247</v>
       </c>
       <c r="O131" s="4" t="n">
-        <v>30415</v>
-      </c>
-      <c r="P131" s="4" t="inlineStr"/>
+        <v>13398</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>15G</t>
+          <t>EC-15G</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -7041,41 +6909,40 @@
       <c r="D132" s="4" t="inlineStr"/>
       <c r="E132" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:13</t>
+          <t>2024-08-15 09:33</t>
         </is>
       </c>
       <c r="F132" s="4" t="inlineStr"/>
       <c r="G132" s="4" t="n">
-        <v>99301</v>
+        <v>93936</v>
       </c>
       <c r="H132" s="4" t="n">
-        <v>63990</v>
+        <v>67195</v>
       </c>
       <c r="I132" s="4" t="n">
-        <v>785</v>
+        <v>1030</v>
       </c>
       <c r="J132" s="4" t="n">
-        <v>63205</v>
+        <v>66165</v>
       </c>
       <c r="K132" s="4" t="inlineStr"/>
       <c r="L132" s="4" t="n">
-        <v>18546</v>
+        <v>10521</v>
       </c>
       <c r="M132" s="4" t="n">
-        <v>7756</v>
+        <v>19126</v>
       </c>
       <c r="N132" s="4" t="n">
-        <v>23787</v>
+        <v>7248</v>
       </c>
       <c r="O132" s="4" t="n">
-        <v>9953</v>
-      </c>
-      <c r="P132" s="4" t="inlineStr"/>
+        <v>25960</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>15H</t>
+          <t>EC-15H</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7091,41 +6958,40 @@
       <c r="D133" s="4" t="inlineStr"/>
       <c r="E133" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:15</t>
+          <t>2024-08-15 04:13</t>
         </is>
       </c>
       <c r="F133" s="4" t="inlineStr"/>
       <c r="G133" s="4" t="n">
-        <v>102683</v>
+        <v>99066</v>
       </c>
       <c r="H133" s="4" t="n">
-        <v>88105</v>
+        <v>68907</v>
       </c>
       <c r="I133" s="4" t="n">
-        <v>1880</v>
+        <v>787</v>
       </c>
       <c r="J133" s="4" t="n">
-        <v>86225</v>
+        <v>68120</v>
       </c>
       <c r="K133" s="4" t="inlineStr"/>
       <c r="L133" s="4" t="n">
-        <v>18249</v>
+        <v>8796</v>
       </c>
       <c r="M133" s="4" t="n">
-        <v>23892</v>
+        <v>11059</v>
       </c>
       <c r="N133" s="4" t="n">
-        <v>18304</v>
+        <v>23485</v>
       </c>
       <c r="O133" s="4" t="n">
-        <v>21467</v>
-      </c>
-      <c r="P133" s="4" t="inlineStr"/>
+        <v>21373</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>15I</t>
+          <t>EC-15I</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7141,41 +7007,40 @@
       <c r="D134" s="4" t="inlineStr"/>
       <c r="E134" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:31</t>
+          <t>2024-08-15 09:03</t>
         </is>
       </c>
       <c r="F134" s="4" t="inlineStr"/>
       <c r="G134" s="4" t="n">
-        <v>105880</v>
+        <v>104290</v>
       </c>
       <c r="H134" s="4" t="n">
-        <v>80587</v>
+        <v>90322</v>
       </c>
       <c r="I134" s="4" t="n">
-        <v>965</v>
+        <v>2249</v>
       </c>
       <c r="J134" s="4" t="n">
-        <v>79622</v>
+        <v>88073</v>
       </c>
       <c r="K134" s="4" t="inlineStr"/>
       <c r="L134" s="4" t="n">
-        <v>14373</v>
+        <v>6602</v>
       </c>
       <c r="M134" s="4" t="n">
-        <v>29489</v>
+        <v>28383</v>
       </c>
       <c r="N134" s="4" t="n">
-        <v>24167</v>
+        <v>20097</v>
       </c>
       <c r="O134" s="4" t="n">
-        <v>7611</v>
-      </c>
-      <c r="P134" s="4" t="inlineStr"/>
+        <v>28586</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>15J</t>
+          <t>EC-15J</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7191,41 +7056,40 @@
       <c r="D135" s="4" t="inlineStr"/>
       <c r="E135" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:35</t>
+          <t>2024-08-15 09:00</t>
         </is>
       </c>
       <c r="F135" s="4" t="inlineStr"/>
       <c r="G135" s="4" t="n">
-        <v>95034</v>
+        <v>102275</v>
       </c>
       <c r="H135" s="4" t="n">
-        <v>59637</v>
+        <v>79160</v>
       </c>
       <c r="I135" s="4" t="n">
-        <v>1689</v>
+        <v>1373</v>
       </c>
       <c r="J135" s="4" t="n">
-        <v>57948</v>
+        <v>77787</v>
       </c>
       <c r="K135" s="4" t="inlineStr"/>
       <c r="L135" s="4" t="n">
-        <v>9470</v>
+        <v>17740</v>
       </c>
       <c r="M135" s="4" t="n">
-        <v>12881</v>
+        <v>27523</v>
       </c>
       <c r="N135" s="4" t="n">
-        <v>8950</v>
+        <v>9298</v>
       </c>
       <c r="O135" s="4" t="n">
-        <v>23747</v>
-      </c>
-      <c r="P135" s="4" t="inlineStr"/>
+        <v>19334</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>EC-15K</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7241,41 +7105,40 @@
       <c r="D136" s="4" t="inlineStr"/>
       <c r="E136" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:47</t>
+          <t>2024-08-15 06:52</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr"/>
       <c r="G136" s="4" t="n">
-        <v>77806</v>
+        <v>83828</v>
       </c>
       <c r="H136" s="4" t="n">
-        <v>55769</v>
+        <v>54156</v>
       </c>
       <c r="I136" s="4" t="n">
-        <v>1358</v>
+        <v>1250</v>
       </c>
       <c r="J136" s="4" t="n">
-        <v>54411</v>
+        <v>52906</v>
       </c>
       <c r="K136" s="4" t="inlineStr"/>
       <c r="L136" s="4" t="n">
-        <v>10167</v>
+        <v>7013</v>
       </c>
       <c r="M136" s="4" t="n">
-        <v>9372</v>
+        <v>9156</v>
       </c>
       <c r="N136" s="4" t="n">
-        <v>15837</v>
+        <v>13125</v>
       </c>
       <c r="O136" s="4" t="n">
-        <v>16312</v>
-      </c>
-      <c r="P136" s="4" t="inlineStr"/>
+        <v>20964</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>15L</t>
+          <t>EC-15L</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7291,41 +7154,40 @@
       <c r="D137" s="4" t="inlineStr"/>
       <c r="E137" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:33</t>
+          <t>2024-08-15 03:47</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr"/>
       <c r="G137" s="4" t="n">
-        <v>96516</v>
+        <v>98323</v>
       </c>
       <c r="H137" s="4" t="n">
-        <v>63467</v>
+        <v>86254</v>
       </c>
       <c r="I137" s="4" t="n">
-        <v>982</v>
+        <v>1403</v>
       </c>
       <c r="J137" s="4" t="n">
-        <v>62485</v>
+        <v>84851</v>
       </c>
       <c r="K137" s="4" t="inlineStr"/>
       <c r="L137" s="4" t="n">
-        <v>16760</v>
+        <v>14682</v>
       </c>
       <c r="M137" s="4" t="n">
-        <v>15620</v>
+        <v>31898</v>
       </c>
       <c r="N137" s="4" t="n">
-        <v>14669</v>
+        <v>15041</v>
       </c>
       <c r="O137" s="4" t="n">
-        <v>12309</v>
-      </c>
-      <c r="P137" s="4" t="inlineStr"/>
+        <v>18986</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>15M</t>
+          <t>EC-15M</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7341,41 +7203,40 @@
       <c r="D138" s="4" t="inlineStr"/>
       <c r="E138" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 00:36</t>
+          <t>2024-08-15 03:54</t>
         </is>
       </c>
       <c r="F138" s="4" t="inlineStr"/>
       <c r="G138" s="4" t="n">
-        <v>101907</v>
+        <v>100655</v>
       </c>
       <c r="H138" s="4" t="n">
-        <v>73536</v>
+        <v>75192</v>
       </c>
       <c r="I138" s="4" t="n">
-        <v>1640</v>
+        <v>2109</v>
       </c>
       <c r="J138" s="4" t="n">
-        <v>71896</v>
+        <v>73083</v>
       </c>
       <c r="K138" s="4" t="inlineStr"/>
       <c r="L138" s="4" t="n">
-        <v>9997</v>
+        <v>20508</v>
       </c>
       <c r="M138" s="4" t="n">
-        <v>13823</v>
+        <v>20056</v>
       </c>
       <c r="N138" s="4" t="n">
-        <v>27525</v>
+        <v>18977</v>
       </c>
       <c r="O138" s="4" t="n">
-        <v>16954</v>
-      </c>
-      <c r="P138" s="4" t="inlineStr"/>
+        <v>9886</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>15N</t>
+          <t>EC-15N</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7391,41 +7252,40 @@
       <c r="D139" s="4" t="inlineStr"/>
       <c r="E139" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:22</t>
+          <t>2024-08-15 05:35</t>
         </is>
       </c>
       <c r="F139" s="4" t="inlineStr"/>
       <c r="G139" s="4" t="n">
-        <v>73519</v>
+        <v>71435</v>
       </c>
       <c r="H139" s="4" t="n">
-        <v>49201</v>
+        <v>50000</v>
       </c>
       <c r="I139" s="4" t="n">
-        <v>838</v>
+        <v>1203</v>
       </c>
       <c r="J139" s="4" t="n">
-        <v>48363</v>
+        <v>48797</v>
       </c>
       <c r="K139" s="4" t="inlineStr"/>
       <c r="L139" s="4" t="n">
-        <v>11363</v>
+        <v>11464</v>
       </c>
       <c r="M139" s="4" t="n">
-        <v>10380</v>
+        <v>15863</v>
       </c>
       <c r="N139" s="4" t="n">
-        <v>16798</v>
+        <v>14979</v>
       </c>
       <c r="O139" s="4" t="n">
-        <v>7402</v>
-      </c>
-      <c r="P139" s="4" t="inlineStr"/>
+        <v>4049</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>16A</t>
+          <t>EC-16A</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7441,41 +7301,40 @@
       <c r="D140" s="4" t="inlineStr"/>
       <c r="E140" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:21</t>
+          <t>2024-08-15 01:51</t>
         </is>
       </c>
       <c r="F140" s="4" t="inlineStr"/>
       <c r="G140" s="4" t="n">
-        <v>151800</v>
+        <v>151436</v>
       </c>
       <c r="H140" s="4" t="n">
-        <v>112898</v>
+        <v>133243</v>
       </c>
       <c r="I140" s="4" t="n">
-        <v>1896</v>
+        <v>2948</v>
       </c>
       <c r="J140" s="4" t="n">
-        <v>111002</v>
+        <v>130295</v>
       </c>
       <c r="K140" s="4" t="inlineStr"/>
       <c r="L140" s="4" t="n">
-        <v>33633</v>
+        <v>47610</v>
       </c>
       <c r="M140" s="4" t="n">
-        <v>17705</v>
+        <v>25472</v>
       </c>
       <c r="N140" s="4" t="n">
-        <v>16907</v>
+        <v>32054</v>
       </c>
       <c r="O140" s="4" t="n">
-        <v>37205</v>
-      </c>
-      <c r="P140" s="4" t="inlineStr"/>
+        <v>18643</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>16B</t>
+          <t>EC-16B</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7491,41 +7350,40 @@
       <c r="D141" s="4" t="inlineStr"/>
       <c r="E141" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:21</t>
+          <t>2024-08-15 05:44</t>
         </is>
       </c>
       <c r="F141" s="4" t="inlineStr"/>
       <c r="G141" s="4" t="n">
-        <v>128115</v>
+        <v>129184</v>
       </c>
       <c r="H141" s="4" t="n">
-        <v>79760</v>
+        <v>106189</v>
       </c>
       <c r="I141" s="4" t="n">
-        <v>2203</v>
+        <v>1893</v>
       </c>
       <c r="J141" s="4" t="n">
-        <v>77557</v>
+        <v>104296</v>
       </c>
       <c r="K141" s="4" t="inlineStr"/>
       <c r="L141" s="4" t="n">
-        <v>23855</v>
+        <v>20841</v>
       </c>
       <c r="M141" s="4" t="n">
-        <v>18670</v>
+        <v>22217</v>
       </c>
       <c r="N141" s="4" t="n">
-        <v>7354</v>
+        <v>31407</v>
       </c>
       <c r="O141" s="4" t="n">
-        <v>23797</v>
-      </c>
-      <c r="P141" s="4" t="inlineStr"/>
+        <v>24613</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>16C</t>
+          <t>EC-16C</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7541,41 +7399,40 @@
       <c r="D142" s="4" t="inlineStr"/>
       <c r="E142" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:47</t>
+          <t>2024-08-15 06:17</t>
         </is>
       </c>
       <c r="F142" s="4" t="inlineStr"/>
       <c r="G142" s="4" t="n">
-        <v>129024</v>
+        <v>127947</v>
       </c>
       <c r="H142" s="4" t="n">
-        <v>85333</v>
+        <v>102230</v>
       </c>
       <c r="I142" s="4" t="n">
-        <v>937</v>
+        <v>1165</v>
       </c>
       <c r="J142" s="4" t="n">
-        <v>84396</v>
+        <v>101065</v>
       </c>
       <c r="K142" s="4" t="inlineStr"/>
       <c r="L142" s="4" t="n">
-        <v>23144</v>
+        <v>23910</v>
       </c>
       <c r="M142" s="4" t="n">
-        <v>17718</v>
+        <v>23041</v>
       </c>
       <c r="N142" s="4" t="n">
-        <v>24781</v>
+        <v>26017</v>
       </c>
       <c r="O142" s="4" t="n">
-        <v>14530</v>
-      </c>
-      <c r="P142" s="4" t="inlineStr"/>
+        <v>23041</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>16D</t>
+          <t>EC-16D</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7591,41 +7448,40 @@
       <c r="D143" s="4" t="inlineStr"/>
       <c r="E143" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:14</t>
+          <t>2024-08-15 01:46</t>
         </is>
       </c>
       <c r="F143" s="4" t="inlineStr"/>
       <c r="G143" s="4" t="n">
-        <v>96732</v>
+        <v>102461</v>
       </c>
       <c r="H143" s="4" t="n">
-        <v>85025</v>
+        <v>78965</v>
       </c>
       <c r="I143" s="4" t="n">
-        <v>1140</v>
+        <v>2052</v>
       </c>
       <c r="J143" s="4" t="n">
-        <v>83885</v>
+        <v>76913</v>
       </c>
       <c r="K143" s="4" t="inlineStr"/>
       <c r="L143" s="4" t="n">
-        <v>24461</v>
+        <v>9878</v>
       </c>
       <c r="M143" s="4" t="n">
-        <v>17265</v>
+        <v>20159</v>
       </c>
       <c r="N143" s="4" t="n">
-        <v>17214</v>
+        <v>24647</v>
       </c>
       <c r="O143" s="4" t="n">
-        <v>20749</v>
-      </c>
-      <c r="P143" s="4" t="inlineStr"/>
+        <v>18382</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>16E</t>
+          <t>EC-16E</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7641,41 +7497,40 @@
       <c r="D144" s="4" t="inlineStr"/>
       <c r="E144" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:30</t>
+          <t>2024-08-15 07:31</t>
         </is>
       </c>
       <c r="F144" s="4" t="inlineStr"/>
       <c r="G144" s="4" t="n">
-        <v>121189</v>
+        <v>115672</v>
       </c>
       <c r="H144" s="4" t="n">
-        <v>80855</v>
+        <v>85577</v>
       </c>
       <c r="I144" s="4" t="n">
-        <v>2269</v>
+        <v>2395</v>
       </c>
       <c r="J144" s="4" t="n">
-        <v>78586</v>
+        <v>83182</v>
       </c>
       <c r="K144" s="4" t="inlineStr"/>
       <c r="L144" s="4" t="n">
-        <v>9959</v>
+        <v>21044</v>
       </c>
       <c r="M144" s="4" t="n">
-        <v>25801</v>
+        <v>23852</v>
       </c>
       <c r="N144" s="4" t="n">
-        <v>23807</v>
+        <v>18468</v>
       </c>
       <c r="O144" s="4" t="n">
-        <v>15088</v>
-      </c>
-      <c r="P144" s="4" t="inlineStr"/>
+        <v>15656</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>17A</t>
+          <t>EC-17A</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7691,41 +7546,40 @@
       <c r="D145" s="4" t="inlineStr"/>
       <c r="E145" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:16</t>
+          <t>2024-08-15 03:31</t>
         </is>
       </c>
       <c r="F145" s="4" t="inlineStr"/>
       <c r="G145" s="4" t="n">
-        <v>87830</v>
+        <v>88222</v>
       </c>
       <c r="H145" s="4" t="n">
-        <v>62369</v>
+        <v>63936</v>
       </c>
       <c r="I145" s="4" t="n">
-        <v>1336</v>
+        <v>1673</v>
       </c>
       <c r="J145" s="4" t="n">
-        <v>61033</v>
+        <v>62263</v>
       </c>
       <c r="K145" s="4" t="inlineStr"/>
       <c r="L145" s="4" t="n">
-        <v>15820</v>
+        <v>11796</v>
       </c>
       <c r="M145" s="4" t="n">
-        <v>6923</v>
+        <v>21334</v>
       </c>
       <c r="N145" s="4" t="n">
-        <v>16903</v>
+        <v>7008</v>
       </c>
       <c r="O145" s="4" t="n">
-        <v>18333</v>
-      </c>
-      <c r="P145" s="4" t="inlineStr"/>
+        <v>19009</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>17B</t>
+          <t>EC-17B</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7741,41 +7595,40 @@
       <c r="D146" s="4" t="inlineStr"/>
       <c r="E146" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 00:38</t>
+          <t>2024-08-15 11:54</t>
         </is>
       </c>
       <c r="F146" s="4" t="inlineStr"/>
       <c r="G146" s="4" t="n">
-        <v>80207</v>
+        <v>87053</v>
       </c>
       <c r="H146" s="4" t="n">
-        <v>65690</v>
+        <v>60885</v>
       </c>
       <c r="I146" s="4" t="n">
-        <v>967</v>
+        <v>1711</v>
       </c>
       <c r="J146" s="4" t="n">
-        <v>64723</v>
+        <v>59174</v>
       </c>
       <c r="K146" s="4" t="inlineStr"/>
       <c r="L146" s="4" t="n">
-        <v>14454</v>
+        <v>14471</v>
       </c>
       <c r="M146" s="4" t="n">
-        <v>20260</v>
+        <v>18466</v>
       </c>
       <c r="N146" s="4" t="n">
-        <v>7484</v>
+        <v>13148</v>
       </c>
       <c r="O146" s="4" t="n">
-        <v>19287</v>
-      </c>
-      <c r="P146" s="4" t="inlineStr"/>
+        <v>10128</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>17C</t>
+          <t>EC-17C</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7791,41 +7644,40 @@
       <c r="D147" s="4" t="inlineStr"/>
       <c r="E147" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:07</t>
+          <t>2024-08-15 04:10</t>
         </is>
       </c>
       <c r="F147" s="4" t="inlineStr"/>
       <c r="G147" s="4" t="n">
-        <v>104719</v>
+        <v>104799</v>
       </c>
       <c r="H147" s="4" t="n">
-        <v>86410</v>
+        <v>78387</v>
       </c>
       <c r="I147" s="4" t="n">
-        <v>2218</v>
+        <v>2113</v>
       </c>
       <c r="J147" s="4" t="n">
-        <v>84192</v>
+        <v>76274</v>
       </c>
       <c r="K147" s="4" t="inlineStr"/>
       <c r="L147" s="4" t="n">
-        <v>11477</v>
+        <v>16650</v>
       </c>
       <c r="M147" s="4" t="n">
-        <v>22727</v>
+        <v>27295</v>
       </c>
       <c r="N147" s="4" t="n">
-        <v>25683</v>
+        <v>11490</v>
       </c>
       <c r="O147" s="4" t="n">
-        <v>20093</v>
-      </c>
-      <c r="P147" s="4" t="inlineStr"/>
+        <v>17024</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>17D</t>
+          <t>EC-17D</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7841,41 +7693,40 @@
       <c r="D148" s="4" t="inlineStr"/>
       <c r="E148" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:25</t>
+          <t>2024-08-15 12:30</t>
         </is>
       </c>
       <c r="F148" s="4" t="inlineStr"/>
       <c r="G148" s="4" t="n">
-        <v>113069</v>
+        <v>105833</v>
       </c>
       <c r="H148" s="4" t="n">
-        <v>83153</v>
+        <v>74725</v>
       </c>
       <c r="I148" s="4" t="n">
-        <v>1834</v>
+        <v>1259</v>
       </c>
       <c r="J148" s="4" t="n">
-        <v>81319</v>
+        <v>73466</v>
       </c>
       <c r="K148" s="4" t="inlineStr"/>
       <c r="L148" s="4" t="n">
-        <v>9370</v>
+        <v>28308</v>
       </c>
       <c r="M148" s="4" t="n">
-        <v>22119</v>
+        <v>12531</v>
       </c>
       <c r="N148" s="4" t="n">
-        <v>21265</v>
+        <v>21613</v>
       </c>
       <c r="O148" s="4" t="n">
-        <v>24496</v>
-      </c>
-      <c r="P148" s="4" t="inlineStr"/>
+        <v>7339</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>17E</t>
+          <t>EC-17E</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7891,41 +7742,40 @@
       <c r="D149" s="4" t="inlineStr"/>
       <c r="E149" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:22</t>
+          <t>2024-08-15 07:35</t>
         </is>
       </c>
       <c r="F149" s="4" t="inlineStr"/>
       <c r="G149" s="4" t="n">
-        <v>127305</v>
+        <v>127486</v>
       </c>
       <c r="H149" s="4" t="n">
-        <v>91993</v>
+        <v>96641</v>
       </c>
       <c r="I149" s="4" t="n">
-        <v>1481</v>
+        <v>1684</v>
       </c>
       <c r="J149" s="4" t="n">
-        <v>90512</v>
+        <v>94957</v>
       </c>
       <c r="K149" s="4" t="inlineStr"/>
       <c r="L149" s="4" t="n">
-        <v>9995</v>
+        <v>15836</v>
       </c>
       <c r="M149" s="4" t="n">
-        <v>35403</v>
+        <v>26228</v>
       </c>
       <c r="N149" s="4" t="n">
-        <v>27469</v>
+        <v>35876</v>
       </c>
       <c r="O149" s="4" t="n">
-        <v>13118</v>
-      </c>
-      <c r="P149" s="4" t="inlineStr"/>
+        <v>12267</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>17F</t>
+          <t>EC-17F</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7941,41 +7791,40 @@
       <c r="D150" s="4" t="inlineStr"/>
       <c r="E150" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:34</t>
+          <t>2024-08-15 07:17</t>
         </is>
       </c>
       <c r="F150" s="4" t="inlineStr"/>
       <c r="G150" s="4" t="n">
-        <v>69791</v>
+        <v>66734</v>
       </c>
       <c r="H150" s="4" t="n">
-        <v>53316</v>
+        <v>53992</v>
       </c>
       <c r="I150" s="4" t="n">
-        <v>846</v>
+        <v>887</v>
       </c>
       <c r="J150" s="4" t="n">
-        <v>52470</v>
+        <v>53105</v>
       </c>
       <c r="K150" s="4" t="inlineStr"/>
       <c r="L150" s="4" t="n">
-        <v>6366</v>
+        <v>14914</v>
       </c>
       <c r="M150" s="4" t="n">
-        <v>13260</v>
+        <v>8727</v>
       </c>
       <c r="N150" s="4" t="n">
-        <v>16368</v>
+        <v>10744</v>
       </c>
       <c r="O150" s="4" t="n">
-        <v>13851</v>
-      </c>
-      <c r="P150" s="4" t="inlineStr"/>
+        <v>16064</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>17G</t>
+          <t>EC-17G</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7991,41 +7840,40 @@
       <c r="D151" s="4" t="inlineStr"/>
       <c r="E151" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:06</t>
+          <t>2024-08-15 10:33</t>
         </is>
       </c>
       <c r="F151" s="4" t="inlineStr"/>
       <c r="G151" s="4" t="n">
-        <v>89775</v>
+        <v>91395</v>
       </c>
       <c r="H151" s="4" t="n">
-        <v>70470</v>
+        <v>60987</v>
       </c>
       <c r="I151" s="4" t="n">
-        <v>1816</v>
+        <v>1806</v>
       </c>
       <c r="J151" s="4" t="n">
-        <v>68654</v>
+        <v>59181</v>
       </c>
       <c r="K151" s="4" t="inlineStr"/>
       <c r="L151" s="4" t="n">
-        <v>8287</v>
+        <v>9511</v>
       </c>
       <c r="M151" s="4" t="n">
-        <v>15972</v>
+        <v>21280</v>
       </c>
       <c r="N151" s="4" t="n">
-        <v>20654</v>
+        <v>13036</v>
       </c>
       <c r="O151" s="4" t="n">
-        <v>20306</v>
-      </c>
-      <c r="P151" s="4" t="inlineStr"/>
+        <v>12393</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>18A</t>
+          <t>EC-18A</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8041,41 +7889,40 @@
       <c r="D152" s="4" t="inlineStr"/>
       <c r="E152" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:57</t>
+          <t>2024-08-15 06:57</t>
         </is>
       </c>
       <c r="F152" s="4" t="inlineStr"/>
       <c r="G152" s="4" t="n">
-        <v>86237</v>
+        <v>86941</v>
       </c>
       <c r="H152" s="4" t="n">
-        <v>63794</v>
+        <v>64876</v>
       </c>
       <c r="I152" s="4" t="n">
-        <v>1846</v>
+        <v>866</v>
       </c>
       <c r="J152" s="4" t="n">
-        <v>61948</v>
+        <v>64010</v>
       </c>
       <c r="K152" s="4" t="inlineStr"/>
       <c r="L152" s="4" t="n">
-        <v>9734</v>
+        <v>27142</v>
       </c>
       <c r="M152" s="4" t="n">
-        <v>15265</v>
+        <v>9574</v>
       </c>
       <c r="N152" s="4" t="n">
-        <v>18342</v>
+        <v>13383</v>
       </c>
       <c r="O152" s="4" t="n">
-        <v>15507</v>
-      </c>
-      <c r="P152" s="4" t="inlineStr"/>
+        <v>10708</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>18B</t>
+          <t>EC-18B</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8091,41 +7938,40 @@
       <c r="D153" s="4" t="inlineStr"/>
       <c r="E153" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:10</t>
+          <t>2024-08-15 07:45</t>
         </is>
       </c>
       <c r="F153" s="4" t="inlineStr"/>
       <c r="G153" s="4" t="n">
-        <v>83249</v>
+        <v>85462</v>
       </c>
       <c r="H153" s="4" t="n">
-        <v>69673</v>
+        <v>63989</v>
       </c>
       <c r="I153" s="4" t="n">
-        <v>1983</v>
+        <v>1760</v>
       </c>
       <c r="J153" s="4" t="n">
-        <v>67690</v>
+        <v>62229</v>
       </c>
       <c r="K153" s="4" t="inlineStr"/>
       <c r="L153" s="4" t="n">
-        <v>14290</v>
+        <v>25436</v>
       </c>
       <c r="M153" s="4" t="n">
-        <v>17888</v>
+        <v>13467</v>
       </c>
       <c r="N153" s="4" t="n">
-        <v>15222</v>
+        <v>12448</v>
       </c>
       <c r="O153" s="4" t="n">
-        <v>16904</v>
-      </c>
-      <c r="P153" s="4" t="inlineStr"/>
+        <v>7764</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>18C</t>
+          <t>EC-18C</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8141,41 +7987,40 @@
       <c r="D154" s="4" t="inlineStr"/>
       <c r="E154" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:56</t>
+          <t>2024-08-15 01:46</t>
         </is>
       </c>
       <c r="F154" s="4" t="inlineStr"/>
       <c r="G154" s="4" t="n">
-        <v>163018</v>
+        <v>151520</v>
       </c>
       <c r="H154" s="4" t="n">
-        <v>135921</v>
+        <v>107017</v>
       </c>
       <c r="I154" s="4" t="n">
-        <v>3846</v>
+        <v>1207</v>
       </c>
       <c r="J154" s="4" t="n">
-        <v>132075</v>
+        <v>105810</v>
       </c>
       <c r="K154" s="4" t="inlineStr"/>
       <c r="L154" s="4" t="n">
-        <v>14060</v>
+        <v>13371</v>
       </c>
       <c r="M154" s="4" t="n">
-        <v>21402</v>
+        <v>35222</v>
       </c>
       <c r="N154" s="4" t="n">
-        <v>41124</v>
+        <v>33374</v>
       </c>
       <c r="O154" s="4" t="n">
-        <v>48883</v>
-      </c>
-      <c r="P154" s="4" t="inlineStr"/>
+        <v>18550</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>19A</t>
+          <t>EC-19A</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8191,41 +8036,40 @@
       <c r="D155" s="4" t="inlineStr"/>
       <c r="E155" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:59</t>
+          <t>2024-08-15 07:42</t>
         </is>
       </c>
       <c r="F155" s="4" t="inlineStr"/>
       <c r="G155" s="4" t="n">
-        <v>106894</v>
+        <v>99441</v>
       </c>
       <c r="H155" s="4" t="n">
-        <v>88298</v>
+        <v>83013</v>
       </c>
       <c r="I155" s="4" t="n">
-        <v>2144</v>
+        <v>2473</v>
       </c>
       <c r="J155" s="4" t="n">
-        <v>86154</v>
+        <v>80540</v>
       </c>
       <c r="K155" s="4" t="inlineStr"/>
       <c r="L155" s="4" t="n">
-        <v>23985</v>
+        <v>8408</v>
       </c>
       <c r="M155" s="4" t="n">
-        <v>26060</v>
+        <v>39880</v>
       </c>
       <c r="N155" s="4" t="n">
-        <v>14682</v>
+        <v>15723</v>
       </c>
       <c r="O155" s="4" t="n">
-        <v>17117</v>
-      </c>
-      <c r="P155" s="4" t="inlineStr"/>
+        <v>12500</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>19B</t>
+          <t>EC-19B</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8241,41 +8085,40 @@
       <c r="D156" s="4" t="inlineStr"/>
       <c r="E156" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:53</t>
+          <t>2024-08-15 12:35</t>
         </is>
       </c>
       <c r="F156" s="4" t="inlineStr"/>
       <c r="G156" s="4" t="n">
-        <v>51814</v>
+        <v>54362</v>
       </c>
       <c r="H156" s="4" t="n">
-        <v>42871</v>
+        <v>42889</v>
       </c>
       <c r="I156" s="4" t="n">
-        <v>1264</v>
+        <v>826</v>
       </c>
       <c r="J156" s="4" t="n">
-        <v>41607</v>
+        <v>42063</v>
       </c>
       <c r="K156" s="4" t="inlineStr"/>
       <c r="L156" s="4" t="n">
-        <v>4799</v>
+        <v>13249</v>
       </c>
       <c r="M156" s="4" t="n">
-        <v>9650</v>
+        <v>7246</v>
       </c>
       <c r="N156" s="4" t="n">
-        <v>11329</v>
+        <v>9809</v>
       </c>
       <c r="O156" s="4" t="n">
-        <v>13747</v>
-      </c>
-      <c r="P156" s="4" t="inlineStr"/>
+        <v>9654</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>19C</t>
+          <t>EC-19C</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8291,41 +8134,40 @@
       <c r="D157" s="4" t="inlineStr"/>
       <c r="E157" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:19</t>
+          <t>2024-08-15 05:01</t>
         </is>
       </c>
       <c r="F157" s="4" t="inlineStr"/>
       <c r="G157" s="4" t="n">
-        <v>64531</v>
+        <v>66407</v>
       </c>
       <c r="H157" s="4" t="n">
-        <v>42625</v>
+        <v>57121</v>
       </c>
       <c r="I157" s="4" t="n">
-        <v>1277</v>
+        <v>1224</v>
       </c>
       <c r="J157" s="4" t="n">
-        <v>41348</v>
+        <v>55897</v>
       </c>
       <c r="K157" s="4" t="inlineStr"/>
       <c r="L157" s="4" t="n">
-        <v>7354</v>
+        <v>19300</v>
       </c>
       <c r="M157" s="4" t="n">
-        <v>8906</v>
+        <v>10414</v>
       </c>
       <c r="N157" s="4" t="n">
-        <v>10215</v>
+        <v>12680</v>
       </c>
       <c r="O157" s="4" t="n">
-        <v>12804</v>
-      </c>
-      <c r="P157" s="4" t="inlineStr"/>
+        <v>10705</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>19D</t>
+          <t>EC-19D</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8341,41 +8183,40 @@
       <c r="D158" s="4" t="inlineStr"/>
       <c r="E158" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:13</t>
+          <t>2024-08-15 09:57</t>
         </is>
       </c>
       <c r="F158" s="4" t="inlineStr"/>
       <c r="G158" s="4" t="n">
-        <v>57347</v>
+        <v>54002</v>
       </c>
       <c r="H158" s="4" t="n">
-        <v>40224</v>
+        <v>43591</v>
       </c>
       <c r="I158" s="4" t="n">
-        <v>907</v>
+        <v>562</v>
       </c>
       <c r="J158" s="4" t="n">
-        <v>39317</v>
+        <v>43029</v>
       </c>
       <c r="K158" s="4" t="inlineStr"/>
       <c r="L158" s="4" t="n">
-        <v>5743</v>
+        <v>7299</v>
       </c>
       <c r="M158" s="4" t="n">
-        <v>7248</v>
+        <v>6264</v>
       </c>
       <c r="N158" s="4" t="n">
-        <v>10268</v>
+        <v>16309</v>
       </c>
       <c r="O158" s="4" t="n">
-        <v>14090</v>
-      </c>
-      <c r="P158" s="4" t="inlineStr"/>
+        <v>11003</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>19E</t>
+          <t>EC-19E</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8391,41 +8232,40 @@
       <c r="D159" s="4" t="inlineStr"/>
       <c r="E159" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:00</t>
+          <t>2024-08-15 11:23</t>
         </is>
       </c>
       <c r="F159" s="4" t="inlineStr"/>
       <c r="G159" s="4" t="n">
-        <v>72289</v>
+        <v>75123</v>
       </c>
       <c r="H159" s="4" t="n">
-        <v>43934</v>
+        <v>64542</v>
       </c>
       <c r="I159" s="4" t="n">
-        <v>1297</v>
+        <v>842</v>
       </c>
       <c r="J159" s="4" t="n">
-        <v>42637</v>
+        <v>63700</v>
       </c>
       <c r="K159" s="4" t="inlineStr"/>
       <c r="L159" s="4" t="n">
-        <v>9400</v>
+        <v>10603</v>
       </c>
       <c r="M159" s="4" t="n">
-        <v>6938</v>
+        <v>15822</v>
       </c>
       <c r="N159" s="4" t="n">
-        <v>9342</v>
+        <v>26619</v>
       </c>
       <c r="O159" s="4" t="n">
-        <v>14823</v>
-      </c>
-      <c r="P159" s="4" t="inlineStr"/>
+        <v>7469</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>19F</t>
+          <t>EC-19F</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8441,41 +8281,40 @@
       <c r="D160" s="4" t="inlineStr"/>
       <c r="E160" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:59</t>
+          <t>2024-08-15 11:25</t>
         </is>
       </c>
       <c r="F160" s="4" t="inlineStr"/>
       <c r="G160" s="4" t="n">
-        <v>62479</v>
+        <v>65786</v>
       </c>
       <c r="H160" s="4" t="n">
-        <v>49089</v>
+        <v>44257</v>
       </c>
       <c r="I160" s="4" t="n">
-        <v>974</v>
+        <v>767</v>
       </c>
       <c r="J160" s="4" t="n">
-        <v>48115</v>
+        <v>43490</v>
       </c>
       <c r="K160" s="4" t="inlineStr"/>
       <c r="L160" s="4" t="n">
-        <v>14061</v>
+        <v>10012</v>
       </c>
       <c r="M160" s="4" t="n">
-        <v>5699</v>
+        <v>12550</v>
       </c>
       <c r="N160" s="4" t="n">
-        <v>10768</v>
+        <v>12348</v>
       </c>
       <c r="O160" s="4" t="n">
-        <v>15180</v>
-      </c>
-      <c r="P160" s="4" t="inlineStr"/>
+        <v>6403</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>19G</t>
+          <t>EC-19G</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8491,41 +8330,40 @@
       <c r="D161" s="4" t="inlineStr"/>
       <c r="E161" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:32</t>
+          <t>2024-08-15 05:28</t>
         </is>
       </c>
       <c r="F161" s="4" t="inlineStr"/>
       <c r="G161" s="4" t="n">
-        <v>81299</v>
+        <v>80713</v>
       </c>
       <c r="H161" s="4" t="n">
-        <v>54468</v>
+        <v>71192</v>
       </c>
       <c r="I161" s="4" t="n">
-        <v>1617</v>
+        <v>1305</v>
       </c>
       <c r="J161" s="4" t="n">
-        <v>52851</v>
+        <v>69887</v>
       </c>
       <c r="K161" s="4" t="inlineStr"/>
       <c r="L161" s="4" t="n">
-        <v>10526</v>
+        <v>17286</v>
       </c>
       <c r="M161" s="4" t="n">
-        <v>16094</v>
+        <v>21637</v>
       </c>
       <c r="N161" s="4" t="n">
-        <v>17733</v>
+        <v>15662</v>
       </c>
       <c r="O161" s="4" t="n">
-        <v>5853</v>
-      </c>
-      <c r="P161" s="4" t="inlineStr"/>
+        <v>11806</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>19H</t>
+          <t>EC-19H</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8541,41 +8379,40 @@
       <c r="D162" s="4" t="inlineStr"/>
       <c r="E162" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:09</t>
+          <t>2024-08-15 03:25</t>
         </is>
       </c>
       <c r="F162" s="4" t="inlineStr"/>
       <c r="G162" s="4" t="n">
-        <v>90903</v>
+        <v>91471</v>
       </c>
       <c r="H162" s="4" t="n">
-        <v>79817</v>
+        <v>81902</v>
       </c>
       <c r="I162" s="4" t="n">
-        <v>1090</v>
+        <v>1214</v>
       </c>
       <c r="J162" s="4" t="n">
-        <v>78727</v>
+        <v>80688</v>
       </c>
       <c r="K162" s="4" t="inlineStr"/>
       <c r="L162" s="4" t="n">
-        <v>7380</v>
+        <v>34615</v>
       </c>
       <c r="M162" s="4" t="n">
-        <v>27296</v>
+        <v>10289</v>
       </c>
       <c r="N162" s="4" t="n">
-        <v>22657</v>
+        <v>10343</v>
       </c>
       <c r="O162" s="4" t="n">
-        <v>17457</v>
-      </c>
-      <c r="P162" s="4" t="inlineStr"/>
+        <v>21405</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>19I</t>
+          <t>EC-19I</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8591,41 +8428,40 @@
       <c r="D163" s="4" t="inlineStr"/>
       <c r="E163" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:55</t>
+          <t>2024-08-15 01:38</t>
         </is>
       </c>
       <c r="F163" s="4" t="inlineStr"/>
       <c r="G163" s="4" t="n">
-        <v>72057</v>
+        <v>66189</v>
       </c>
       <c r="H163" s="4" t="n">
-        <v>52357</v>
+        <v>41922</v>
       </c>
       <c r="I163" s="4" t="n">
-        <v>841</v>
+        <v>1047</v>
       </c>
       <c r="J163" s="4" t="n">
-        <v>51516</v>
+        <v>40875</v>
       </c>
       <c r="K163" s="4" t="inlineStr"/>
       <c r="L163" s="4" t="n">
-        <v>14566</v>
+        <v>10326</v>
       </c>
       <c r="M163" s="4" t="n">
-        <v>9504</v>
+        <v>10030</v>
       </c>
       <c r="N163" s="4" t="n">
-        <v>18497</v>
+        <v>10162</v>
       </c>
       <c r="O163" s="4" t="n">
-        <v>6371</v>
-      </c>
-      <c r="P163" s="4" t="inlineStr"/>
+        <v>8311</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20A</t>
+          <t>EC-20A</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8641,41 +8477,40 @@
       <c r="D164" s="4" t="inlineStr"/>
       <c r="E164" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:02</t>
+          <t>2024-08-15 10:51</t>
         </is>
       </c>
       <c r="F164" s="4" t="inlineStr"/>
       <c r="G164" s="4" t="n">
-        <v>82830</v>
+        <v>83834</v>
       </c>
       <c r="H164" s="4" t="n">
-        <v>50557</v>
+        <v>58299</v>
       </c>
       <c r="I164" s="4" t="n">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="J164" s="4" t="n">
-        <v>49521</v>
+        <v>57275</v>
       </c>
       <c r="K164" s="4" t="inlineStr"/>
       <c r="L164" s="4" t="n">
-        <v>14185</v>
+        <v>14148</v>
       </c>
       <c r="M164" s="4" t="n">
-        <v>5455</v>
+        <v>9610</v>
       </c>
       <c r="N164" s="4" t="n">
-        <v>12576</v>
+        <v>16334</v>
       </c>
       <c r="O164" s="4" t="n">
-        <v>14827</v>
-      </c>
-      <c r="P164" s="4" t="inlineStr"/>
+        <v>14318</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20B</t>
+          <t>EC-20B</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8691,41 +8526,40 @@
       <c r="D165" s="4" t="inlineStr"/>
       <c r="E165" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:35</t>
+          <t>2024-08-15 02:38</t>
         </is>
       </c>
       <c r="F165" s="4" t="inlineStr"/>
       <c r="G165" s="4" t="n">
-        <v>115993</v>
+        <v>118714</v>
       </c>
       <c r="H165" s="4" t="n">
-        <v>100436</v>
+        <v>96195</v>
       </c>
       <c r="I165" s="4" t="n">
-        <v>1698</v>
+        <v>1372</v>
       </c>
       <c r="J165" s="4" t="n">
-        <v>98738</v>
+        <v>94823</v>
       </c>
       <c r="K165" s="4" t="inlineStr"/>
       <c r="L165" s="4" t="n">
-        <v>14298</v>
+        <v>15780</v>
       </c>
       <c r="M165" s="4" t="n">
-        <v>36254</v>
+        <v>21853</v>
       </c>
       <c r="N165" s="4" t="n">
-        <v>13444</v>
+        <v>17549</v>
       </c>
       <c r="O165" s="4" t="n">
-        <v>29803</v>
-      </c>
-      <c r="P165" s="4" t="inlineStr"/>
+        <v>34898</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20C</t>
+          <t>EC-20C</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8741,41 +8575,40 @@
       <c r="D166" s="4" t="inlineStr"/>
       <c r="E166" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:03</t>
+          <t>2024-08-15 03:50</t>
         </is>
       </c>
       <c r="F166" s="4" t="inlineStr"/>
       <c r="G166" s="4" t="n">
-        <v>171881</v>
+        <v>168116</v>
       </c>
       <c r="H166" s="4" t="n">
-        <v>129954</v>
+        <v>115095</v>
       </c>
       <c r="I166" s="4" t="n">
-        <v>1805</v>
+        <v>1455</v>
       </c>
       <c r="J166" s="4" t="n">
-        <v>128149</v>
+        <v>113640</v>
       </c>
       <c r="K166" s="4" t="inlineStr"/>
       <c r="L166" s="4" t="n">
-        <v>14416</v>
+        <v>20296</v>
       </c>
       <c r="M166" s="4" t="n">
-        <v>53401</v>
+        <v>27798</v>
       </c>
       <c r="N166" s="4" t="n">
-        <v>25677</v>
+        <v>47628</v>
       </c>
       <c r="O166" s="4" t="n">
-        <v>28245</v>
-      </c>
-      <c r="P166" s="4" t="inlineStr"/>
+        <v>12234</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>21A</t>
+          <t>EC-21A</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8791,41 +8624,40 @@
       <c r="D167" s="4" t="inlineStr"/>
       <c r="E167" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:48</t>
+          <t>2024-08-15 12:41</t>
         </is>
       </c>
       <c r="F167" s="4" t="inlineStr"/>
       <c r="G167" s="4" t="n">
-        <v>107604</v>
+        <v>102506</v>
       </c>
       <c r="H167" s="4" t="n">
-        <v>81422</v>
+        <v>74721</v>
       </c>
       <c r="I167" s="4" t="n">
-        <v>1734</v>
+        <v>1602</v>
       </c>
       <c r="J167" s="4" t="n">
-        <v>79688</v>
+        <v>73119</v>
       </c>
       <c r="K167" s="4" t="inlineStr"/>
       <c r="L167" s="4" t="n">
-        <v>18349</v>
+        <v>12170</v>
       </c>
       <c r="M167" s="4" t="n">
-        <v>22242</v>
+        <v>19651</v>
       </c>
       <c r="N167" s="4" t="n">
-        <v>10939</v>
+        <v>17335</v>
       </c>
       <c r="O167" s="4" t="n">
-        <v>24171</v>
-      </c>
-      <c r="P167" s="4" t="inlineStr"/>
+        <v>20306</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>21B</t>
+          <t>EC-21B</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8841,41 +8673,40 @@
       <c r="D168" s="4" t="inlineStr"/>
       <c r="E168" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:10</t>
+          <t>2024-08-15 01:04</t>
         </is>
       </c>
       <c r="F168" s="4" t="inlineStr"/>
       <c r="G168" s="4" t="n">
-        <v>130044</v>
+        <v>125291</v>
       </c>
       <c r="H168" s="4" t="n">
-        <v>94373</v>
+        <v>97008</v>
       </c>
       <c r="I168" s="4" t="n">
-        <v>1424</v>
+        <v>1639</v>
       </c>
       <c r="J168" s="4" t="n">
-        <v>92949</v>
+        <v>95369</v>
       </c>
       <c r="K168" s="4" t="inlineStr"/>
       <c r="L168" s="4" t="n">
-        <v>34100</v>
+        <v>13306</v>
       </c>
       <c r="M168" s="4" t="n">
-        <v>18649</v>
+        <v>28754</v>
       </c>
       <c r="N168" s="4" t="n">
-        <v>22819</v>
+        <v>19095</v>
       </c>
       <c r="O168" s="4" t="n">
-        <v>12731</v>
-      </c>
-      <c r="P168" s="4" t="inlineStr"/>
+        <v>29444</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>21C</t>
+          <t>EC-21C</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8891,41 +8722,40 @@
       <c r="D169" s="4" t="inlineStr"/>
       <c r="E169" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:30</t>
+          <t>2024-08-15 05:49</t>
         </is>
       </c>
       <c r="F169" s="4" t="inlineStr"/>
       <c r="G169" s="4" t="n">
-        <v>90673</v>
+        <v>96579</v>
       </c>
       <c r="H169" s="4" t="n">
-        <v>60669</v>
+        <v>79914</v>
       </c>
       <c r="I169" s="4" t="n">
-        <v>1621</v>
+        <v>1680</v>
       </c>
       <c r="J169" s="4" t="n">
-        <v>59048</v>
+        <v>78234</v>
       </c>
       <c r="K169" s="4" t="inlineStr"/>
       <c r="L169" s="4" t="n">
-        <v>20336</v>
+        <v>15529</v>
       </c>
       <c r="M169" s="4" t="n">
-        <v>19731</v>
+        <v>12714</v>
       </c>
       <c r="N169" s="4" t="n">
-        <v>11358</v>
+        <v>22740</v>
       </c>
       <c r="O169" s="4" t="n">
-        <v>4668</v>
-      </c>
-      <c r="P169" s="4" t="inlineStr"/>
+        <v>23337</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>21D</t>
+          <t>EC-21D</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8941,41 +8771,40 @@
       <c r="D170" s="4" t="inlineStr"/>
       <c r="E170" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:42</t>
+          <t>2024-08-15 02:37</t>
         </is>
       </c>
       <c r="F170" s="4" t="inlineStr"/>
       <c r="G170" s="4" t="n">
-        <v>118810</v>
+        <v>115821</v>
       </c>
       <c r="H170" s="4" t="n">
-        <v>105983</v>
+        <v>102001</v>
       </c>
       <c r="I170" s="4" t="n">
-        <v>1282</v>
+        <v>2872</v>
       </c>
       <c r="J170" s="4" t="n">
-        <v>104701</v>
+        <v>99129</v>
       </c>
       <c r="K170" s="4" t="inlineStr"/>
       <c r="L170" s="4" t="n">
-        <v>32621</v>
+        <v>18162</v>
       </c>
       <c r="M170" s="4" t="n">
-        <v>17644</v>
+        <v>24274</v>
       </c>
       <c r="N170" s="4" t="n">
-        <v>33608</v>
+        <v>22652</v>
       </c>
       <c r="O170" s="4" t="n">
-        <v>15590</v>
-      </c>
-      <c r="P170" s="4" t="inlineStr"/>
+        <v>29083</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>21E</t>
+          <t>EC-21E</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8991,41 +8820,40 @@
       <c r="D171" s="4" t="inlineStr"/>
       <c r="E171" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:02</t>
+          <t>2024-08-15 05:30</t>
         </is>
       </c>
       <c r="F171" s="4" t="inlineStr"/>
       <c r="G171" s="4" t="n">
-        <v>117716</v>
+        <v>115886</v>
       </c>
       <c r="H171" s="4" t="n">
-        <v>74256</v>
+        <v>100878</v>
       </c>
       <c r="I171" s="4" t="n">
-        <v>938</v>
+        <v>1380</v>
       </c>
       <c r="J171" s="4" t="n">
-        <v>73318</v>
+        <v>99498</v>
       </c>
       <c r="K171" s="4" t="inlineStr"/>
       <c r="L171" s="4" t="n">
-        <v>16524</v>
+        <v>27952</v>
       </c>
       <c r="M171" s="4" t="n">
-        <v>26943</v>
+        <v>23691</v>
       </c>
       <c r="N171" s="4" t="n">
-        <v>17715</v>
+        <v>32428</v>
       </c>
       <c r="O171" s="4" t="n">
-        <v>8468</v>
-      </c>
-      <c r="P171" s="4" t="inlineStr"/>
+        <v>10450</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>21F</t>
+          <t>EC-21F</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -9041,41 +8869,40 @@
       <c r="D172" s="4" t="inlineStr"/>
       <c r="E172" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:08</t>
+          <t>2024-08-15 08:44</t>
         </is>
       </c>
       <c r="F172" s="4" t="inlineStr"/>
       <c r="G172" s="4" t="n">
-        <v>110111</v>
+        <v>110444</v>
       </c>
       <c r="H172" s="4" t="n">
-        <v>81249</v>
+        <v>78572</v>
       </c>
       <c r="I172" s="4" t="n">
-        <v>2344</v>
+        <v>1374</v>
       </c>
       <c r="J172" s="4" t="n">
-        <v>78905</v>
+        <v>77198</v>
       </c>
       <c r="K172" s="4" t="inlineStr"/>
       <c r="L172" s="4" t="n">
-        <v>23258</v>
+        <v>14917</v>
       </c>
       <c r="M172" s="4" t="n">
-        <v>25574</v>
+        <v>13670</v>
       </c>
       <c r="N172" s="4" t="n">
-        <v>18546</v>
+        <v>19990</v>
       </c>
       <c r="O172" s="4" t="n">
-        <v>7580</v>
-      </c>
-      <c r="P172" s="4" t="inlineStr"/>
+        <v>24759</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>21G</t>
+          <t>EC-21G</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -9091,41 +8918,40 @@
       <c r="D173" s="4" t="inlineStr"/>
       <c r="E173" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:01</t>
+          <t>2024-08-15 09:04</t>
         </is>
       </c>
       <c r="F173" s="4" t="inlineStr"/>
       <c r="G173" s="4" t="n">
-        <v>66438</v>
+        <v>69366</v>
       </c>
       <c r="H173" s="4" t="n">
-        <v>55700</v>
+        <v>53182</v>
       </c>
       <c r="I173" s="4" t="n">
-        <v>841</v>
+        <v>975</v>
       </c>
       <c r="J173" s="4" t="n">
-        <v>54859</v>
+        <v>52207</v>
       </c>
       <c r="K173" s="4" t="inlineStr"/>
       <c r="L173" s="4" t="n">
-        <v>3906</v>
+        <v>17193</v>
       </c>
       <c r="M173" s="4" t="n">
-        <v>15527</v>
+        <v>5313</v>
       </c>
       <c r="N173" s="4" t="n">
-        <v>15318</v>
+        <v>19256</v>
       </c>
       <c r="O173" s="4" t="n">
-        <v>17364</v>
-      </c>
-      <c r="P173" s="4" t="inlineStr"/>
+        <v>7833</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>21H</t>
+          <t>EC-21H</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9141,41 +8967,40 @@
       <c r="D174" s="4" t="inlineStr"/>
       <c r="E174" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:57</t>
+          <t>2024-08-15 08:02</t>
         </is>
       </c>
       <c r="F174" s="4" t="inlineStr"/>
       <c r="G174" s="4" t="n">
-        <v>150916</v>
+        <v>151057</v>
       </c>
       <c r="H174" s="4" t="n">
-        <v>105691</v>
+        <v>92112</v>
       </c>
       <c r="I174" s="4" t="n">
-        <v>2458</v>
+        <v>1096</v>
       </c>
       <c r="J174" s="4" t="n">
-        <v>103233</v>
+        <v>91016</v>
       </c>
       <c r="K174" s="4" t="inlineStr"/>
       <c r="L174" s="4" t="n">
-        <v>16536</v>
+        <v>22168</v>
       </c>
       <c r="M174" s="4" t="n">
-        <v>27302</v>
+        <v>12258</v>
       </c>
       <c r="N174" s="4" t="n">
-        <v>27099</v>
+        <v>22603</v>
       </c>
       <c r="O174" s="4" t="n">
-        <v>27132</v>
-      </c>
-      <c r="P174" s="4" t="inlineStr"/>
+        <v>29435</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>22A</t>
+          <t>EC-22A</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9191,41 +9016,40 @@
       <c r="D175" s="4" t="inlineStr"/>
       <c r="E175" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:57</t>
+          <t>2024-08-15 04:52</t>
         </is>
       </c>
       <c r="F175" s="4" t="inlineStr"/>
       <c r="G175" s="4" t="n">
-        <v>88159</v>
+        <v>88683</v>
       </c>
       <c r="H175" s="4" t="n">
-        <v>61849</v>
+        <v>70975</v>
       </c>
       <c r="I175" s="4" t="n">
-        <v>1303</v>
+        <v>1994</v>
       </c>
       <c r="J175" s="4" t="n">
-        <v>60546</v>
+        <v>68981</v>
       </c>
       <c r="K175" s="4" t="inlineStr"/>
       <c r="L175" s="4" t="n">
-        <v>16071</v>
+        <v>19889</v>
       </c>
       <c r="M175" s="4" t="n">
-        <v>20829</v>
+        <v>17112</v>
       </c>
       <c r="N175" s="4" t="n">
-        <v>9417</v>
+        <v>16014</v>
       </c>
       <c r="O175" s="4" t="n">
-        <v>11200</v>
-      </c>
-      <c r="P175" s="4" t="inlineStr"/>
+        <v>12515</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>22B</t>
+          <t>EC-22B</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9241,41 +9065,40 @@
       <c r="D176" s="4" t="inlineStr"/>
       <c r="E176" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:56</t>
+          <t>2024-08-15 01:19</t>
         </is>
       </c>
       <c r="F176" s="4" t="inlineStr"/>
       <c r="G176" s="4" t="n">
-        <v>70804</v>
+        <v>68755</v>
       </c>
       <c r="H176" s="4" t="n">
-        <v>55495</v>
+        <v>42529</v>
       </c>
       <c r="I176" s="4" t="n">
-        <v>1635</v>
+        <v>619</v>
       </c>
       <c r="J176" s="4" t="n">
-        <v>53860</v>
+        <v>41910</v>
       </c>
       <c r="K176" s="4" t="inlineStr"/>
       <c r="L176" s="4" t="n">
-        <v>16226</v>
+        <v>14573</v>
       </c>
       <c r="M176" s="4" t="n">
-        <v>14711</v>
+        <v>15266</v>
       </c>
       <c r="N176" s="4" t="n">
-        <v>11398</v>
+        <v>5581</v>
       </c>
       <c r="O176" s="4" t="n">
-        <v>8830</v>
-      </c>
-      <c r="P176" s="4" t="inlineStr"/>
+        <v>4393</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>22C</t>
+          <t>EC-22C</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9291,41 +9114,40 @@
       <c r="D177" s="4" t="inlineStr"/>
       <c r="E177" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:17</t>
+          <t>2024-08-15 06:33</t>
         </is>
       </c>
       <c r="F177" s="4" t="inlineStr"/>
       <c r="G177" s="4" t="n">
-        <v>70271</v>
+        <v>72308</v>
       </c>
       <c r="H177" s="4" t="n">
-        <v>62229</v>
+        <v>44057</v>
       </c>
       <c r="I177" s="4" t="n">
-        <v>940</v>
+        <v>1311</v>
       </c>
       <c r="J177" s="4" t="n">
-        <v>61289</v>
+        <v>42746</v>
       </c>
       <c r="K177" s="4" t="inlineStr"/>
       <c r="L177" s="4" t="n">
-        <v>14972</v>
+        <v>11077</v>
       </c>
       <c r="M177" s="4" t="n">
-        <v>20572</v>
+        <v>8938</v>
       </c>
       <c r="N177" s="4" t="n">
-        <v>10751</v>
+        <v>9623</v>
       </c>
       <c r="O177" s="4" t="n">
-        <v>11928</v>
-      </c>
-      <c r="P177" s="4" t="inlineStr"/>
+        <v>10969</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>22D</t>
+          <t>EC-22D</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9341,41 +9163,40 @@
       <c r="D178" s="4" t="inlineStr"/>
       <c r="E178" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:12</t>
+          <t>2024-08-15 12:21</t>
         </is>
       </c>
       <c r="F178" s="4" t="inlineStr"/>
       <c r="G178" s="4" t="n">
-        <v>69767</v>
+        <v>69713</v>
       </c>
       <c r="H178" s="4" t="n">
-        <v>62564</v>
+        <v>43193</v>
       </c>
       <c r="I178" s="4" t="n">
-        <v>1195</v>
+        <v>444</v>
       </c>
       <c r="J178" s="4" t="n">
-        <v>61369</v>
+        <v>42749</v>
       </c>
       <c r="K178" s="4" t="inlineStr"/>
       <c r="L178" s="4" t="n">
-        <v>20104</v>
+        <v>7690</v>
       </c>
       <c r="M178" s="4" t="n">
-        <v>18973</v>
+        <v>11046</v>
       </c>
       <c r="N178" s="4" t="n">
-        <v>11203</v>
+        <v>12420</v>
       </c>
       <c r="O178" s="4" t="n">
-        <v>8018</v>
-      </c>
-      <c r="P178" s="4" t="inlineStr"/>
+        <v>9453</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>22E</t>
+          <t>EC-22E</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9391,41 +9212,40 @@
       <c r="D179" s="4" t="inlineStr"/>
       <c r="E179" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:29</t>
+          <t>2024-08-15 07:51</t>
         </is>
       </c>
       <c r="F179" s="4" t="inlineStr"/>
       <c r="G179" s="4" t="n">
-        <v>96500</v>
+        <v>100139</v>
       </c>
       <c r="H179" s="4" t="n">
-        <v>84895</v>
+        <v>89877</v>
       </c>
       <c r="I179" s="4" t="n">
-        <v>2430</v>
+        <v>2366</v>
       </c>
       <c r="J179" s="4" t="n">
-        <v>82465</v>
+        <v>87511</v>
       </c>
       <c r="K179" s="4" t="inlineStr"/>
       <c r="L179" s="4" t="n">
-        <v>29593</v>
+        <v>9177</v>
       </c>
       <c r="M179" s="4" t="n">
-        <v>16963</v>
+        <v>22756</v>
       </c>
       <c r="N179" s="4" t="n">
-        <v>12553</v>
+        <v>29610</v>
       </c>
       <c r="O179" s="4" t="n">
-        <v>19230</v>
-      </c>
-      <c r="P179" s="4" t="inlineStr"/>
+        <v>21591</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>22F</t>
+          <t>EC-22F</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9441,41 +9261,40 @@
       <c r="D180" s="4" t="inlineStr"/>
       <c r="E180" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 00:50</t>
+          <t>2024-08-15 01:40</t>
         </is>
       </c>
       <c r="F180" s="4" t="inlineStr"/>
       <c r="G180" s="4" t="n">
-        <v>53872</v>
+        <v>52763</v>
       </c>
       <c r="H180" s="4" t="n">
-        <v>40666</v>
+        <v>38997</v>
       </c>
       <c r="I180" s="4" t="n">
-        <v>1024</v>
+        <v>1115</v>
       </c>
       <c r="J180" s="4" t="n">
-        <v>39642</v>
+        <v>37882</v>
       </c>
       <c r="K180" s="4" t="inlineStr"/>
       <c r="L180" s="4" t="n">
-        <v>8898</v>
+        <v>9355</v>
       </c>
       <c r="M180" s="4" t="n">
-        <v>5125</v>
+        <v>12738</v>
       </c>
       <c r="N180" s="4" t="n">
-        <v>15973</v>
+        <v>6362</v>
       </c>
       <c r="O180" s="4" t="n">
-        <v>7662</v>
-      </c>
-      <c r="P180" s="4" t="inlineStr"/>
+        <v>7532</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>22G</t>
+          <t>EC-22G</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9491,41 +9310,40 @@
       <c r="D181" s="4" t="inlineStr"/>
       <c r="E181" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:56</t>
+          <t>2024-08-15 12:15</t>
         </is>
       </c>
       <c r="F181" s="4" t="inlineStr"/>
       <c r="G181" s="4" t="n">
-        <v>78320</v>
+        <v>76659</v>
       </c>
       <c r="H181" s="4" t="n">
-        <v>65245</v>
+        <v>57468</v>
       </c>
       <c r="I181" s="4" t="n">
-        <v>1867</v>
+        <v>947</v>
       </c>
       <c r="J181" s="4" t="n">
-        <v>63378</v>
+        <v>56521</v>
       </c>
       <c r="K181" s="4" t="inlineStr"/>
       <c r="L181" s="4" t="n">
-        <v>8610</v>
+        <v>18634</v>
       </c>
       <c r="M181" s="4" t="n">
-        <v>18024</v>
+        <v>14020</v>
       </c>
       <c r="N181" s="4" t="n">
-        <v>14265</v>
+        <v>13117</v>
       </c>
       <c r="O181" s="4" t="n">
-        <v>19308</v>
-      </c>
-      <c r="P181" s="4" t="inlineStr"/>
+        <v>7923</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>22H</t>
+          <t>EC-22H</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9541,41 +9359,40 @@
       <c r="D182" s="4" t="inlineStr"/>
       <c r="E182" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:55</t>
+          <t>2024-08-15 01:49</t>
         </is>
       </c>
       <c r="F182" s="4" t="inlineStr"/>
       <c r="G182" s="4" t="n">
-        <v>78056</v>
+        <v>78828</v>
       </c>
       <c r="H182" s="4" t="n">
-        <v>48133</v>
+        <v>51640</v>
       </c>
       <c r="I182" s="4" t="n">
-        <v>573</v>
+        <v>993</v>
       </c>
       <c r="J182" s="4" t="n">
-        <v>47560</v>
+        <v>50647</v>
       </c>
       <c r="K182" s="4" t="inlineStr"/>
       <c r="L182" s="4" t="n">
-        <v>12810</v>
+        <v>11140</v>
       </c>
       <c r="M182" s="4" t="n">
-        <v>14401</v>
+        <v>16422</v>
       </c>
       <c r="N182" s="4" t="n">
-        <v>5875</v>
+        <v>16537</v>
       </c>
       <c r="O182" s="4" t="n">
-        <v>12095</v>
-      </c>
-      <c r="P182" s="4" t="inlineStr"/>
+        <v>4013</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>22I</t>
+          <t>EC-22I</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9591,36 +9408,35 @@
       <c r="D183" s="4" t="inlineStr"/>
       <c r="E183" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:30</t>
+          <t>2024-08-15 07:18</t>
         </is>
       </c>
       <c r="F183" s="4" t="inlineStr"/>
       <c r="G183" s="4" t="n">
-        <v>75496</v>
+        <v>68952</v>
       </c>
       <c r="H183" s="4" t="n">
-        <v>62575</v>
+        <v>45919</v>
       </c>
       <c r="I183" s="4" t="n">
-        <v>1857</v>
+        <v>928</v>
       </c>
       <c r="J183" s="4" t="n">
-        <v>60718</v>
+        <v>44991</v>
       </c>
       <c r="K183" s="4" t="inlineStr"/>
       <c r="L183" s="4" t="n">
-        <v>21397</v>
+        <v>11226</v>
       </c>
       <c r="M183" s="4" t="n">
-        <v>10698</v>
+        <v>13015</v>
       </c>
       <c r="N183" s="4" t="n">
-        <v>9660</v>
+        <v>6343</v>
       </c>
       <c r="O183" s="4" t="n">
-        <v>15926</v>
-      </c>
-      <c r="P183" s="4" t="inlineStr"/>
+        <v>12155</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/prespollsl2024.xlsx
+++ b/data/prespollsl2024.xlsx
@@ -539,34 +539,34 @@
       <c r="D2" s="4" t="inlineStr"/>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:45</t>
+          <t>2024-08-15 06:44</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr"/>
       <c r="G2" s="4" t="n">
-        <v>37630</v>
+        <v>37989</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24159</v>
+        <v>33839</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>476</v>
+        <v>704</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>23683</v>
+        <v>33135</v>
       </c>
       <c r="K2" s="4" t="inlineStr"/>
       <c r="L2" s="4" t="n">
-        <v>8854</v>
+        <v>11255</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4430</v>
+        <v>3568</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5626</v>
+        <v>10997</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3587</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="3">
@@ -588,34 +588,34 @@
       <c r="D3" s="4" t="inlineStr"/>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:16</t>
+          <t>2024-08-15 10:29</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr"/>
       <c r="G3" s="4" t="n">
-        <v>58760</v>
+        <v>59233</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>41805</v>
+        <v>50239</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1065</v>
+        <v>1136</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>40740</v>
+        <v>49103</v>
       </c>
       <c r="K3" s="4" t="inlineStr"/>
       <c r="L3" s="4" t="n">
-        <v>11773</v>
+        <v>7920</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12214</v>
+        <v>14735</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6285</v>
+        <v>9608</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8429</v>
+        <v>14383</v>
       </c>
     </row>
     <row r="4">
@@ -637,34 +637,34 @@
       <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:03</t>
+          <t>2024-08-15 04:54</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="n">
-        <v>39361</v>
+        <v>38172</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>32922</v>
+        <v>26647</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>32285</v>
+        <v>26039</v>
       </c>
       <c r="K4" s="4" t="inlineStr"/>
       <c r="L4" s="4" t="n">
-        <v>7642</v>
+        <v>7217</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6588</v>
+        <v>8759</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6648</v>
+        <v>2449</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9790</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="5">
@@ -686,34 +686,34 @@
       <c r="D5" s="4" t="inlineStr"/>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:45</t>
+          <t>2024-08-15 03:06</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr"/>
       <c r="G5" s="4" t="n">
-        <v>55152</v>
+        <v>55388</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>37947</v>
+        <v>49074</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1003</v>
+        <v>691</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>36944</v>
+        <v>48383</v>
       </c>
       <c r="K5" s="4" t="inlineStr"/>
       <c r="L5" s="4" t="n">
-        <v>4772</v>
+        <v>10179</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9811</v>
+        <v>7740</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>7972</v>
+        <v>14635</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12540</v>
+        <v>13407</v>
       </c>
     </row>
     <row r="6">
@@ -735,34 +735,34 @@
       <c r="D6" s="4" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:43</t>
+          <t>2024-08-15 09:24</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="n">
-        <v>23946</v>
+        <v>23412</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>21113</v>
+        <v>19088</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>20744</v>
+        <v>18666</v>
       </c>
       <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="n">
-        <v>8559</v>
+        <v>7503</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2037</v>
+        <v>2550</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>6761</v>
+        <v>2497</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2348</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="7">
@@ -784,34 +784,34 @@
       <c r="D7" s="4" t="inlineStr"/>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:58</t>
+          <t>2024-08-15 04:40</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr"/>
       <c r="G7" s="4" t="n">
-        <v>21226</v>
+        <v>21474</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>18544</v>
+        <v>17959</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>338</v>
+        <v>510</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>18206</v>
+        <v>17449</v>
       </c>
       <c r="K7" s="4" t="inlineStr"/>
       <c r="L7" s="4" t="n">
-        <v>3542</v>
+        <v>5543</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>4635</v>
+        <v>2551</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4654</v>
+        <v>6503</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>4463</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="8">
@@ -833,34 +833,34 @@
       <c r="D8" s="4" t="inlineStr"/>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:18</t>
+          <t>2024-08-15 01:33</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr"/>
       <c r="G8" s="4" t="n">
-        <v>41391</v>
+        <v>42116</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>35200</v>
+        <v>33985</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>598</v>
+        <v>1019</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>34602</v>
+        <v>32966</v>
       </c>
       <c r="K8" s="4" t="inlineStr"/>
       <c r="L8" s="4" t="n">
-        <v>9088</v>
+        <v>5552</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>7469</v>
+        <v>4462</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>9223</v>
+        <v>10703</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>7091</v>
+        <v>10598</v>
       </c>
     </row>
     <row r="9">
@@ -882,34 +882,34 @@
       <c r="D9" s="4" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:18</t>
+          <t>2024-08-15 07:13</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="n">
-        <v>31486</v>
+        <v>30642</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>28049</v>
+        <v>23708</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>386</v>
+        <v>632</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>27663</v>
+        <v>23076</v>
       </c>
       <c r="K9" s="4" t="inlineStr"/>
       <c r="L9" s="4" t="n">
-        <v>2984</v>
+        <v>6383</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>6297</v>
+        <v>5493</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>6793</v>
+        <v>6552</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10205</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="10">
@@ -931,34 +931,34 @@
       <c r="D10" s="4" t="inlineStr"/>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:50</t>
+          <t>2024-08-15 12:56</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="n">
-        <v>21053</v>
+        <v>22264</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>14535</v>
+        <v>18720</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>372</v>
+        <v>480</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>14163</v>
+        <v>18240</v>
       </c>
       <c r="K10" s="4" t="inlineStr"/>
       <c r="L10" s="4" t="n">
-        <v>3550</v>
+        <v>4339</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>1388</v>
+        <v>2039</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3510</v>
+        <v>5121</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>5006</v>
+        <v>5828</v>
       </c>
     </row>
     <row r="11">
@@ -980,34 +980,34 @@
       <c r="D11" s="4" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:04</t>
+          <t>2024-08-15 11:27</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="n">
-        <v>26450</v>
+        <v>25706</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>19607</v>
+        <v>17576</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>215</v>
+        <v>504</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>19392</v>
+        <v>17072</v>
       </c>
       <c r="K11" s="4" t="inlineStr"/>
       <c r="L11" s="4" t="n">
-        <v>5160</v>
+        <v>4997</v>
       </c>
       <c r="M11" s="4" t="n">
-        <v>4214</v>
+        <v>3764</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>5111</v>
+        <v>1880</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>3936</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="12">
@@ -1029,34 +1029,34 @@
       <c r="D12" s="4" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:51</t>
+          <t>2024-08-15 05:21</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr"/>
       <c r="G12" s="4" t="n">
-        <v>12992</v>
+        <v>13382</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>9582</v>
+        <v>8192</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>9342</v>
+        <v>8004</v>
       </c>
       <c r="K12" s="4" t="inlineStr"/>
       <c r="L12" s="4" t="n">
-        <v>2551</v>
+        <v>1834</v>
       </c>
       <c r="M12" s="4" t="n">
-        <v>2011</v>
+        <v>2221</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>1526</v>
+        <v>2302</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>2785</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="13">
@@ -1078,34 +1078,34 @@
       <c r="D13" s="4" t="inlineStr"/>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:24</t>
+          <t>2024-08-15 01:13</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr"/>
       <c r="G13" s="4" t="n">
-        <v>13644</v>
+        <v>13875</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>11646</v>
+        <v>11751</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>11420</v>
+        <v>11473</v>
       </c>
       <c r="K13" s="4" t="inlineStr"/>
       <c r="L13" s="4" t="n">
-        <v>3141</v>
+        <v>2049</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>3641</v>
+        <v>2654</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>1398</v>
+        <v>1601</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>2667</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="14">
@@ -1127,34 +1127,34 @@
       <c r="D14" s="4" t="inlineStr"/>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:03</t>
+          <t>2024-08-15 02:12</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr"/>
       <c r="G14" s="4" t="n">
-        <v>29140</v>
+        <v>29765</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>20656</v>
+        <v>19520</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>475</v>
+        <v>324</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>20181</v>
+        <v>19196</v>
       </c>
       <c r="K14" s="4" t="inlineStr"/>
       <c r="L14" s="4" t="n">
-        <v>6073</v>
+        <v>6727</v>
       </c>
       <c r="M14" s="4" t="n">
-        <v>5187</v>
+        <v>6065</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>6050</v>
+        <v>2136</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>1860</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="15">
@@ -1176,34 +1176,34 @@
       <c r="D15" s="4" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:18</t>
+          <t>2024-08-15 05:36</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr"/>
       <c r="G15" s="4" t="n">
-        <v>16335</v>
+        <v>16700</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>9907</v>
+        <v>10391</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>9714</v>
+        <v>10265</v>
       </c>
       <c r="K15" s="4" t="inlineStr"/>
       <c r="L15" s="4" t="n">
-        <v>1135</v>
+        <v>3718</v>
       </c>
       <c r="M15" s="4" t="n">
-        <v>3252</v>
+        <v>2262</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>3615</v>
+        <v>1298</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>1225</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="16">
@@ -1225,34 +1225,34 @@
       <c r="D16" s="4" t="inlineStr"/>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:08</t>
+          <t>2024-08-15 07:16</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr"/>
       <c r="G16" s="4" t="n">
-        <v>76437</v>
+        <v>75134</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>59223</v>
+        <v>60309</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>1668</v>
+        <v>1748</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>57555</v>
+        <v>58561</v>
       </c>
       <c r="K16" s="4" t="inlineStr"/>
       <c r="L16" s="4" t="n">
-        <v>6605</v>
+        <v>5274</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>19768</v>
+        <v>15442</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>7952</v>
+        <v>14604</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>20350</v>
+        <v>20311</v>
       </c>
     </row>
     <row r="17">
@@ -1274,34 +1274,34 @@
       <c r="D17" s="4" t="inlineStr"/>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:58</t>
+          <t>2024-08-15 03:00</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr"/>
       <c r="G17" s="4" t="n">
-        <v>15066</v>
+        <v>15571</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>9343</v>
+        <v>10590</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>116</v>
+        <v>280</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>9227</v>
+        <v>10310</v>
       </c>
       <c r="K17" s="4" t="inlineStr"/>
       <c r="L17" s="4" t="n">
-        <v>3362</v>
+        <v>2129</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>3529</v>
+        <v>2107</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>779</v>
+        <v>2860</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>1093</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="18">
@@ -1323,34 +1323,34 @@
       <c r="D18" s="4" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:17</t>
+          <t>2024-08-15 01:34</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr"/>
       <c r="G18" s="4" t="n">
-        <v>61057</v>
+        <v>61904</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>54158</v>
+        <v>50459</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>1451</v>
+        <v>543</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>52707</v>
+        <v>49916</v>
       </c>
       <c r="K18" s="4" t="inlineStr"/>
       <c r="L18" s="4" t="n">
-        <v>5353</v>
+        <v>4967</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>18584</v>
+        <v>10800</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>18446</v>
+        <v>20183</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>7687</v>
+        <v>11469</v>
       </c>
     </row>
     <row r="19">
@@ -1372,34 +1372,34 @@
       <c r="D19" s="4" t="inlineStr"/>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:34</t>
+          <t>2024-08-15 12:20</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr"/>
       <c r="G19" s="4" t="n">
-        <v>21245</v>
+        <v>20811</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>17005</v>
+        <v>13101</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>16749</v>
+        <v>12866</v>
       </c>
       <c r="K19" s="4" t="inlineStr"/>
       <c r="L19" s="4" t="n">
-        <v>2531</v>
+        <v>3274</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>3293</v>
+        <v>1176</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>4193</v>
+        <v>2528</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>5893</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="20">
@@ -1421,34 +1421,34 @@
       <c r="D20" s="4" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:48</t>
+          <t>2024-08-15 03:13</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="n">
-        <v>43693</v>
+        <v>45433</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>32826</v>
+        <v>36399</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>385</v>
+        <v>567</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>32441</v>
+        <v>35832</v>
       </c>
       <c r="K20" s="4" t="inlineStr"/>
       <c r="L20" s="4" t="n">
-        <v>7475</v>
+        <v>9382</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>4093</v>
+        <v>4059</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>9560</v>
+        <v>11421</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>9688</v>
+        <v>9177</v>
       </c>
     </row>
     <row r="21">
@@ -1470,34 +1470,34 @@
       <c r="D21" s="4" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:26</t>
+          <t>2024-08-15 06:47</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr"/>
       <c r="G21" s="4" t="n">
-        <v>24358</v>
+        <v>24350</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>15161</v>
+        <v>18202</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>14931</v>
+        <v>17898</v>
       </c>
       <c r="K21" s="4" t="inlineStr"/>
       <c r="L21" s="4" t="n">
-        <v>2286</v>
+        <v>5416</v>
       </c>
       <c r="M21" s="4" t="n">
-        <v>1956</v>
+        <v>2275</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>5490</v>
+        <v>4632</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>4450</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="22">
@@ -1519,34 +1519,34 @@
       <c r="D22" s="4" t="inlineStr"/>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:25</t>
+          <t>2024-08-15 03:12</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr"/>
       <c r="G22" s="4" t="n">
-        <v>33330</v>
+        <v>32345</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>25067</v>
+        <v>21235</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>407</v>
+        <v>590</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>24660</v>
+        <v>20645</v>
       </c>
       <c r="K22" s="4" t="inlineStr"/>
       <c r="L22" s="4" t="n">
-        <v>3977</v>
+        <v>3717</v>
       </c>
       <c r="M22" s="4" t="n">
-        <v>5461</v>
+        <v>5817</v>
       </c>
       <c r="N22" s="4" t="n">
-        <v>9880</v>
+        <v>6766</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>4107</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="23">
@@ -1568,34 +1568,34 @@
       <c r="D23" s="4" t="inlineStr"/>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:03</t>
+          <t>2024-08-15 05:53</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr"/>
       <c r="G23" s="4" t="n">
-        <v>35044</v>
+        <v>35586</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>22458</v>
+        <v>30760</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>564</v>
+        <v>402</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>21894</v>
+        <v>30358</v>
       </c>
       <c r="K23" s="4" t="inlineStr"/>
       <c r="L23" s="4" t="n">
-        <v>6535</v>
+        <v>9470</v>
       </c>
       <c r="M23" s="4" t="n">
-        <v>1654</v>
+        <v>7436</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>7708</v>
+        <v>9627</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>4901</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="24">
@@ -1617,34 +1617,34 @@
       <c r="D24" s="4" t="inlineStr"/>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:33</t>
+          <t>2024-08-15 03:28</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr"/>
       <c r="G24" s="4" t="n">
-        <v>102448</v>
+        <v>99300</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>63907</v>
+        <v>86176</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>723</v>
+        <v>1285</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>63184</v>
+        <v>84891</v>
       </c>
       <c r="K24" s="4" t="inlineStr"/>
       <c r="L24" s="4" t="n">
-        <v>17253</v>
+        <v>20940</v>
       </c>
       <c r="M24" s="4" t="n">
-        <v>18674</v>
+        <v>14538</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>17986</v>
+        <v>25387</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>6110</v>
+        <v>19779</v>
       </c>
     </row>
     <row r="25">
@@ -1666,34 +1666,34 @@
       <c r="D25" s="4" t="inlineStr"/>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:14</t>
+          <t>2024-08-15 04:50</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr"/>
       <c r="G25" s="4" t="n">
-        <v>138170</v>
+        <v>132498</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>100503</v>
+        <v>103039</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>1969</v>
+        <v>1617</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>98534</v>
+        <v>101422</v>
       </c>
       <c r="K25" s="4" t="inlineStr"/>
       <c r="L25" s="4" t="n">
-        <v>22729</v>
+        <v>12344</v>
       </c>
       <c r="M25" s="4" t="n">
-        <v>32473</v>
+        <v>31284</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>26970</v>
+        <v>25336</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>11434</v>
+        <v>27385</v>
       </c>
     </row>
     <row r="26">
@@ -1715,34 +1715,34 @@
       <c r="D26" s="4" t="inlineStr"/>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:58</t>
+          <t>2024-08-15 11:38</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr"/>
       <c r="G26" s="4" t="n">
-        <v>64808</v>
+        <v>66280</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>39188</v>
+        <v>43745</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>452</v>
+        <v>1222</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>38736</v>
+        <v>42523</v>
       </c>
       <c r="K26" s="4" t="inlineStr"/>
       <c r="L26" s="4" t="n">
-        <v>8181</v>
+        <v>5694</v>
       </c>
       <c r="M26" s="4" t="n">
-        <v>8672</v>
+        <v>16823</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>10264</v>
+        <v>8421</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>9681</v>
+        <v>9456</v>
       </c>
     </row>
     <row r="27">
@@ -1764,34 +1764,34 @@
       <c r="D27" s="4" t="inlineStr"/>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:21</t>
+          <t>2024-08-15 03:20</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr"/>
       <c r="G27" s="4" t="n">
-        <v>69217</v>
+        <v>72428</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>54274</v>
+        <v>44934</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>659</v>
+        <v>715</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>53615</v>
+        <v>44219</v>
       </c>
       <c r="K27" s="4" t="inlineStr"/>
       <c r="L27" s="4" t="n">
-        <v>7189</v>
+        <v>12148</v>
       </c>
       <c r="M27" s="4" t="n">
-        <v>15251</v>
+        <v>8654</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>11704</v>
+        <v>9183</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>16788</v>
+        <v>12021</v>
       </c>
     </row>
     <row r="28">
@@ -1813,34 +1813,34 @@
       <c r="D28" s="4" t="inlineStr"/>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:24</t>
+          <t>2024-08-15 08:19</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr"/>
       <c r="G28" s="4" t="n">
-        <v>43846</v>
+        <v>43987</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>31628</v>
+        <v>37648</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>320</v>
+        <v>567</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>31308</v>
+        <v>37081</v>
       </c>
       <c r="K28" s="4" t="inlineStr"/>
       <c r="L28" s="4" t="n">
-        <v>9048</v>
+        <v>9567</v>
       </c>
       <c r="M28" s="4" t="n">
-        <v>6094</v>
+        <v>9887</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>4608</v>
+        <v>9733</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>9990</v>
+        <v>6038</v>
       </c>
     </row>
     <row r="29">
@@ -1862,34 +1862,34 @@
       <c r="D29" s="4" t="inlineStr"/>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:14</t>
+          <t>2024-08-15 11:21</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr"/>
       <c r="G29" s="4" t="n">
-        <v>64284</v>
+        <v>68495</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>55195</v>
+        <v>47218</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>648</v>
+        <v>1274</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>54547</v>
+        <v>45944</v>
       </c>
       <c r="K29" s="4" t="inlineStr"/>
       <c r="L29" s="4" t="n">
-        <v>13807</v>
+        <v>18727</v>
       </c>
       <c r="M29" s="4" t="n">
-        <v>23135</v>
+        <v>8970</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>8620</v>
+        <v>5296</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>6256</v>
+        <v>10651</v>
       </c>
     </row>
     <row r="30">
@@ -1911,34 +1911,34 @@
       <c r="D30" s="4" t="inlineStr"/>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:02</t>
+          <t>2024-08-15 09:55</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr"/>
       <c r="G30" s="4" t="n">
-        <v>70765</v>
+        <v>74293</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>48118</v>
+        <v>62033</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>1059</v>
+        <v>744</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>47059</v>
+        <v>61289</v>
       </c>
       <c r="K30" s="4" t="inlineStr"/>
       <c r="L30" s="4" t="n">
-        <v>12517</v>
+        <v>14226</v>
       </c>
       <c r="M30" s="4" t="n">
-        <v>9604</v>
+        <v>17361</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>10672</v>
+        <v>9802</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>11911</v>
+        <v>16833</v>
       </c>
     </row>
     <row r="31">
@@ -1960,34 +1960,34 @@
       <c r="D31" s="4" t="inlineStr"/>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:12</t>
+          <t>2024-08-15 10:04</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr"/>
       <c r="G31" s="4" t="n">
-        <v>145074</v>
+        <v>146448</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>110343</v>
+        <v>106308</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>1397</v>
+        <v>1457</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>108946</v>
+        <v>104851</v>
       </c>
       <c r="K31" s="4" t="inlineStr"/>
       <c r="L31" s="4" t="n">
-        <v>31012</v>
+        <v>27202</v>
       </c>
       <c r="M31" s="4" t="n">
-        <v>28325</v>
+        <v>31053</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>23961</v>
+        <v>17829</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>20199</v>
+        <v>23524</v>
       </c>
     </row>
     <row r="32">
@@ -2009,34 +2009,34 @@
       <c r="D32" s="4" t="inlineStr"/>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:00</t>
+          <t>2024-08-15 08:31</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr"/>
       <c r="G32" s="4" t="n">
-        <v>82559</v>
+        <v>78420</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>69518</v>
+        <v>54190</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>991</v>
+        <v>694</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>68527</v>
+        <v>53496</v>
       </c>
       <c r="K32" s="4" t="inlineStr"/>
       <c r="L32" s="4" t="n">
-        <v>17091</v>
+        <v>12665</v>
       </c>
       <c r="M32" s="4" t="n">
-        <v>18732</v>
+        <v>12781</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>20942</v>
+        <v>13999</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>8333</v>
+        <v>11374</v>
       </c>
     </row>
     <row r="33">
@@ -2058,34 +2058,34 @@
       <c r="D33" s="4" t="inlineStr"/>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:04</t>
+          <t>2024-08-15 08:20</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr"/>
       <c r="G33" s="4" t="n">
-        <v>201124</v>
+        <v>203299</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>168512</v>
+        <v>174605</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>3728</v>
+        <v>2465</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>164784</v>
+        <v>172140</v>
       </c>
       <c r="K33" s="4" t="inlineStr"/>
       <c r="L33" s="4" t="n">
-        <v>50974</v>
+        <v>30663</v>
       </c>
       <c r="M33" s="4" t="n">
-        <v>19837</v>
+        <v>41233</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>32791</v>
+        <v>48196</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>52941</v>
+        <v>43439</v>
       </c>
     </row>
     <row r="34">
@@ -2107,34 +2107,34 @@
       <c r="D34" s="4" t="inlineStr"/>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:36</t>
+          <t>2024-08-15 10:24</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr"/>
       <c r="G34" s="4" t="n">
-        <v>131915</v>
+        <v>128390</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>107327</v>
+        <v>82264</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>2906</v>
+        <v>1787</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>104421</v>
+        <v>80477</v>
       </c>
       <c r="K34" s="4" t="inlineStr"/>
       <c r="L34" s="4" t="n">
-        <v>20892</v>
+        <v>16080</v>
       </c>
       <c r="M34" s="4" t="n">
-        <v>22106</v>
+        <v>20901</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>26969</v>
+        <v>15007</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>29230</v>
+        <v>24463</v>
       </c>
     </row>
     <row r="35">
@@ -2156,34 +2156,34 @@
       <c r="D35" s="4" t="inlineStr"/>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:30</t>
+          <t>2024-08-15 03:38</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr"/>
       <c r="G35" s="4" t="n">
-        <v>195858</v>
+        <v>205213</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>150522</v>
+        <v>142736</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>3173</v>
+        <v>4173</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>147349</v>
+        <v>138563</v>
       </c>
       <c r="K35" s="4" t="inlineStr"/>
       <c r="L35" s="4" t="n">
-        <v>41569</v>
+        <v>25901</v>
       </c>
       <c r="M35" s="4" t="n">
-        <v>42564</v>
+        <v>29214</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>19469</v>
+        <v>24391</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>36378</v>
+        <v>52126</v>
       </c>
     </row>
     <row r="36">
@@ -2205,34 +2205,34 @@
       <c r="D36" s="4" t="inlineStr"/>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:49</t>
+          <t>2024-08-15 04:52</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr"/>
       <c r="G36" s="4" t="n">
-        <v>139201</v>
+        <v>147597</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>113006</v>
+        <v>100766</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>1292</v>
+        <v>1252</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>111714</v>
+        <v>99514</v>
       </c>
       <c r="K36" s="4" t="inlineStr"/>
       <c r="L36" s="4" t="n">
-        <v>13065</v>
+        <v>20902</v>
       </c>
       <c r="M36" s="4" t="n">
-        <v>28166</v>
+        <v>32256</v>
       </c>
       <c r="N36" s="4" t="n">
-        <v>41482</v>
+        <v>27752</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>23412</v>
+        <v>13626</v>
       </c>
     </row>
     <row r="37">
@@ -2254,34 +2254,34 @@
       <c r="D37" s="4" t="inlineStr"/>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:47</t>
+          <t>2024-08-15 11:20</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr"/>
       <c r="G37" s="4" t="n">
-        <v>195698</v>
+        <v>184925</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>151738</v>
+        <v>127469</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>4474</v>
+        <v>1832</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>147264</v>
+        <v>125637</v>
       </c>
       <c r="K37" s="4" t="inlineStr"/>
       <c r="L37" s="4" t="n">
-        <v>18925</v>
+        <v>16906</v>
       </c>
       <c r="M37" s="4" t="n">
-        <v>34746</v>
+        <v>42731</v>
       </c>
       <c r="N37" s="4" t="n">
-        <v>66261</v>
+        <v>30788</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>19967</v>
+        <v>28929</v>
       </c>
     </row>
     <row r="38">
@@ -2303,34 +2303,34 @@
       <c r="D38" s="4" t="inlineStr"/>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:18</t>
+          <t>2024-08-15 08:31</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr"/>
       <c r="G38" s="4" t="n">
-        <v>131551</v>
+        <v>120641</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>86659</v>
+        <v>80253</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>2233</v>
+        <v>944</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>84426</v>
+        <v>79309</v>
       </c>
       <c r="K38" s="4" t="inlineStr"/>
       <c r="L38" s="4" t="n">
-        <v>14908</v>
+        <v>29339</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>22374</v>
+        <v>23935</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>19698</v>
+        <v>13278</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>23222</v>
+        <v>8789</v>
       </c>
     </row>
     <row r="39">
@@ -2352,34 +2352,34 @@
       <c r="D39" s="4" t="inlineStr"/>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:14</t>
+          <t>2024-08-15 07:47</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr"/>
       <c r="G39" s="4" t="n">
-        <v>136063</v>
+        <v>134358</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>121480</v>
+        <v>106907</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1226</v>
+        <v>3028</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>120254</v>
+        <v>103879</v>
       </c>
       <c r="K39" s="4" t="inlineStr"/>
       <c r="L39" s="4" t="n">
-        <v>37218</v>
+        <v>14923</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>22525</v>
+        <v>25477</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>24845</v>
+        <v>42419</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>29652</v>
+        <v>15864</v>
       </c>
     </row>
     <row r="40">
@@ -2401,34 +2401,34 @@
       <c r="D40" s="4" t="inlineStr"/>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:39</t>
+          <t>2024-08-15 03:53</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr"/>
       <c r="G40" s="4" t="n">
-        <v>120977</v>
+        <v>115276</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>89309</v>
+        <v>89742</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>2456</v>
+        <v>1266</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>86853</v>
+        <v>88476</v>
       </c>
       <c r="K40" s="4" t="inlineStr"/>
       <c r="L40" s="4" t="n">
-        <v>10052</v>
+        <v>11485</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>19156</v>
+        <v>18284</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>24827</v>
+        <v>14055</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>28473</v>
+        <v>40226</v>
       </c>
     </row>
     <row r="41">
@@ -2450,34 +2450,34 @@
       <c r="D41" s="4" t="inlineStr"/>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:59</t>
+          <t>2024-08-15 10:17</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr"/>
       <c r="G41" s="4" t="n">
-        <v>168205</v>
+        <v>156916</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>150729</v>
+        <v>131156</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>3170</v>
+        <v>1927</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>147559</v>
+        <v>129229</v>
       </c>
       <c r="K41" s="4" t="inlineStr"/>
       <c r="L41" s="4" t="n">
-        <v>20670</v>
+        <v>36395</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>39420</v>
+        <v>36288</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>50888</v>
+        <v>32497</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>29201</v>
+        <v>17586</v>
       </c>
     </row>
     <row r="42">
@@ -2499,34 +2499,34 @@
       <c r="D42" s="4" t="inlineStr"/>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:49</t>
+          <t>2024-08-15 08:59</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr"/>
       <c r="G42" s="4" t="n">
-        <v>115684</v>
+        <v>119218</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>94934</v>
+        <v>78572</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>2222</v>
+        <v>1823</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>92712</v>
+        <v>76749</v>
       </c>
       <c r="K42" s="4" t="inlineStr"/>
       <c r="L42" s="4" t="n">
-        <v>20011</v>
+        <v>16470</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>19131</v>
+        <v>12188</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>24622</v>
+        <v>25366</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>24310</v>
+        <v>18885</v>
       </c>
     </row>
     <row r="43">
@@ -2548,34 +2548,34 @@
       <c r="D43" s="4" t="inlineStr"/>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:32</t>
+          <t>2024-08-15 04:47</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr"/>
       <c r="G43" s="4" t="n">
-        <v>128401</v>
+        <v>137075</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>101894</v>
+        <v>116178</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1931</v>
+        <v>2300</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>99963</v>
+        <v>113878</v>
       </c>
       <c r="K43" s="4" t="inlineStr"/>
       <c r="L43" s="4" t="n">
-        <v>30108</v>
+        <v>22847</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>30044</v>
+        <v>24986</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>17933</v>
+        <v>43910</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>16877</v>
+        <v>16439</v>
       </c>
     </row>
     <row r="44">
@@ -2597,34 +2597,34 @@
       <c r="D44" s="4" t="inlineStr"/>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:31</t>
+          <t>2024-08-15 07:14</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr"/>
       <c r="G44" s="4" t="n">
-        <v>141346</v>
+        <v>152939</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>97260</v>
+        <v>136144</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1621</v>
+        <v>3957</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>95639</v>
+        <v>132187</v>
       </c>
       <c r="K44" s="4" t="inlineStr"/>
       <c r="L44" s="4" t="n">
-        <v>11662</v>
+        <v>17165</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>33165</v>
+        <v>60446</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>20783</v>
+        <v>19098</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>25245</v>
+        <v>28866</v>
       </c>
     </row>
     <row r="45">
@@ -2646,34 +2646,34 @@
       <c r="D45" s="4" t="inlineStr"/>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:44</t>
+          <t>2024-08-15 05:00</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr"/>
       <c r="G45" s="4" t="n">
-        <v>145278</v>
+        <v>145635</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>102710</v>
+        <v>125421</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>2619</v>
+        <v>2531</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>100091</v>
+        <v>122890</v>
       </c>
       <c r="K45" s="4" t="inlineStr"/>
       <c r="L45" s="4" t="n">
-        <v>37467</v>
+        <v>32897</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>14661</v>
+        <v>19255</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>22039</v>
+        <v>25827</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>20918</v>
+        <v>38766</v>
       </c>
     </row>
     <row r="46">
@@ -2695,34 +2695,34 @@
       <c r="D46" s="4" t="inlineStr"/>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:02</t>
+          <t>2024-08-15 06:03</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr"/>
       <c r="G46" s="4" t="n">
-        <v>164487</v>
+        <v>155600</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>136946</v>
+        <v>139883</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>2800</v>
+        <v>2121</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>134146</v>
+        <v>137762</v>
       </c>
       <c r="K46" s="4" t="inlineStr"/>
       <c r="L46" s="4" t="n">
-        <v>36029</v>
+        <v>42730</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>44702</v>
+        <v>29250</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>19032</v>
+        <v>34780</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>27673</v>
+        <v>24112</v>
       </c>
     </row>
     <row r="47">
@@ -2744,34 +2744,34 @@
       <c r="D47" s="4" t="inlineStr"/>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:26</t>
+          <t>2024-08-15 05:55</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr"/>
       <c r="G47" s="4" t="n">
-        <v>158707</v>
+        <v>166312</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>113788</v>
+        <v>130575</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>2727</v>
+        <v>1945</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>111061</v>
+        <v>128630</v>
       </c>
       <c r="K47" s="4" t="inlineStr"/>
       <c r="L47" s="4" t="n">
-        <v>36926</v>
+        <v>41966</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>40577</v>
+        <v>42213</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>11247</v>
+        <v>23386</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>16756</v>
+        <v>14633</v>
       </c>
     </row>
     <row r="48">
@@ -2793,34 +2793,34 @@
       <c r="D48" s="4" t="inlineStr"/>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:42</t>
+          <t>2024-08-15 05:43</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr"/>
       <c r="G48" s="4" t="n">
-        <v>174712</v>
+        <v>171630</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>146158</v>
+        <v>134385</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>4129</v>
+        <v>1909</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>142029</v>
+        <v>132476</v>
       </c>
       <c r="K48" s="4" t="inlineStr"/>
       <c r="L48" s="4" t="n">
-        <v>55837</v>
+        <v>11474</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>32308</v>
+        <v>40298</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>21289</v>
+        <v>37163</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>25491</v>
+        <v>36915</v>
       </c>
     </row>
     <row r="49">
@@ -2842,34 +2842,34 @@
       <c r="D49" s="4" t="inlineStr"/>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:21</t>
+          <t>2024-08-15 07:38</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr"/>
       <c r="G49" s="4" t="n">
-        <v>129612</v>
+        <v>125515</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>99445</v>
+        <v>75661</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1365</v>
+        <v>1917</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>98080</v>
+        <v>73744</v>
       </c>
       <c r="K49" s="4" t="inlineStr"/>
       <c r="L49" s="4" t="n">
-        <v>24422</v>
+        <v>14676</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>17134</v>
+        <v>20869</v>
       </c>
       <c r="N49" s="4" t="n">
-        <v>25220</v>
+        <v>13123</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>26398</v>
+        <v>21386</v>
       </c>
     </row>
     <row r="50">
@@ -2891,34 +2891,34 @@
       <c r="D50" s="4" t="inlineStr"/>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 00:58</t>
+          <t>2024-08-15 10:21</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr"/>
       <c r="G50" s="4" t="n">
-        <v>133472</v>
+        <v>135049</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>117985</v>
+        <v>115926</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>2092</v>
+        <v>1502</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>115893</v>
+        <v>114424</v>
       </c>
       <c r="K50" s="4" t="inlineStr"/>
       <c r="L50" s="4" t="n">
-        <v>22204</v>
+        <v>38247</v>
       </c>
       <c r="M50" s="4" t="n">
-        <v>28579</v>
+        <v>29720</v>
       </c>
       <c r="N50" s="4" t="n">
-        <v>29165</v>
+        <v>29774</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>30149</v>
+        <v>10960</v>
       </c>
     </row>
     <row r="51">
@@ -2940,34 +2940,34 @@
       <c r="D51" s="4" t="inlineStr"/>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:29</t>
+          <t>2024-08-15 07:40</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr"/>
       <c r="G51" s="4" t="n">
-        <v>99897</v>
+        <v>96214</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>82459</v>
+        <v>69647</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1886</v>
+        <v>1925</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>80573</v>
+        <v>67722</v>
       </c>
       <c r="K51" s="4" t="inlineStr"/>
       <c r="L51" s="4" t="n">
-        <v>25233</v>
+        <v>8625</v>
       </c>
       <c r="M51" s="4" t="n">
-        <v>16647</v>
+        <v>19827</v>
       </c>
       <c r="N51" s="4" t="n">
-        <v>21603</v>
+        <v>13957</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>13059</v>
+        <v>21925</v>
       </c>
     </row>
     <row r="52">
@@ -2989,34 +2989,34 @@
       <c r="D52" s="4" t="inlineStr"/>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:41</t>
+          <t>2024-08-15 11:20</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr"/>
       <c r="G52" s="4" t="n">
-        <v>127470</v>
+        <v>126120</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>95517</v>
+        <v>87928</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>2836</v>
+        <v>953</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>92681</v>
+        <v>86975</v>
       </c>
       <c r="K52" s="4" t="inlineStr"/>
       <c r="L52" s="4" t="n">
-        <v>11445</v>
+        <v>38713</v>
       </c>
       <c r="M52" s="4" t="n">
-        <v>23671</v>
+        <v>20950</v>
       </c>
       <c r="N52" s="4" t="n">
-        <v>33812</v>
+        <v>13726</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>19116</v>
+        <v>9235</v>
       </c>
     </row>
     <row r="53">
@@ -3038,34 +3038,34 @@
       <c r="D53" s="4" t="inlineStr"/>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:06</t>
+          <t>2024-08-15 12:18</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr"/>
       <c r="G53" s="4" t="n">
-        <v>155068</v>
+        <v>146420</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>105167</v>
+        <v>117830</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>2801</v>
+        <v>3120</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>102366</v>
+        <v>114710</v>
       </c>
       <c r="K53" s="4" t="inlineStr"/>
       <c r="L53" s="4" t="n">
-        <v>20789</v>
+        <v>19859</v>
       </c>
       <c r="M53" s="4" t="n">
-        <v>31390</v>
+        <v>16331</v>
       </c>
       <c r="N53" s="4" t="n">
-        <v>35096</v>
+        <v>37067</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>9971</v>
+        <v>35716</v>
       </c>
     </row>
     <row r="54">
@@ -3087,34 +3087,34 @@
       <c r="D54" s="4" t="inlineStr"/>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:52</t>
+          <t>2024-08-15 02:43</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr"/>
       <c r="G54" s="4" t="n">
-        <v>135105</v>
+        <v>136437</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>96768</v>
+        <v>94708</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>1181</v>
+        <v>2019</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>95587</v>
+        <v>92689</v>
       </c>
       <c r="K54" s="4" t="inlineStr"/>
       <c r="L54" s="4" t="n">
-        <v>35692</v>
+        <v>25175</v>
       </c>
       <c r="M54" s="4" t="n">
-        <v>34061</v>
+        <v>17258</v>
       </c>
       <c r="N54" s="4" t="n">
-        <v>7997</v>
+        <v>22856</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>13056</v>
+        <v>22763</v>
       </c>
     </row>
     <row r="55">
@@ -3136,34 +3136,34 @@
       <c r="D55" s="4" t="inlineStr"/>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:56</t>
+          <t>2024-08-15 07:59</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr"/>
       <c r="G55" s="4" t="n">
-        <v>86541</v>
+        <v>88336</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>52809</v>
+        <v>57508</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>610</v>
+        <v>1243</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>52199</v>
+        <v>56265</v>
       </c>
       <c r="K55" s="4" t="inlineStr"/>
       <c r="L55" s="4" t="n">
-        <v>18007</v>
+        <v>11659</v>
       </c>
       <c r="M55" s="4" t="n">
-        <v>10513</v>
+        <v>20628</v>
       </c>
       <c r="N55" s="4" t="n">
-        <v>10717</v>
+        <v>14907</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>10350</v>
+        <v>6256</v>
       </c>
     </row>
     <row r="56">
@@ -3185,34 +3185,34 @@
       <c r="D56" s="4" t="inlineStr"/>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:10</t>
+          <t>2024-08-15 12:18</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr"/>
       <c r="G56" s="4" t="n">
-        <v>116214</v>
+        <v>120593</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>103730</v>
+        <v>95977</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>1314</v>
+        <v>993</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>102416</v>
+        <v>94984</v>
       </c>
       <c r="K56" s="4" t="inlineStr"/>
       <c r="L56" s="4" t="n">
-        <v>32647</v>
+        <v>21147</v>
       </c>
       <c r="M56" s="4" t="n">
-        <v>23931</v>
+        <v>29485</v>
       </c>
       <c r="N56" s="4" t="n">
-        <v>8734</v>
+        <v>10384</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>31981</v>
+        <v>29217</v>
       </c>
     </row>
     <row r="57">
@@ -3234,34 +3234,34 @@
       <c r="D57" s="4" t="inlineStr"/>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:33</t>
+          <t>2024-08-15 08:38</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr"/>
       <c r="G57" s="4" t="n">
-        <v>122995</v>
+        <v>122195</v>
       </c>
       <c r="H57" s="4" t="n">
-        <v>108854</v>
+        <v>105819</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>1409</v>
+        <v>2519</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>107445</v>
+        <v>103300</v>
       </c>
       <c r="K57" s="4" t="inlineStr"/>
       <c r="L57" s="4" t="n">
-        <v>9947</v>
+        <v>25481</v>
       </c>
       <c r="M57" s="4" t="n">
-        <v>30162</v>
+        <v>37935</v>
       </c>
       <c r="N57" s="4" t="n">
-        <v>29390</v>
+        <v>11759</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>32571</v>
+        <v>22958</v>
       </c>
     </row>
     <row r="58">
@@ -3283,34 +3283,34 @@
       <c r="D58" s="4" t="inlineStr"/>
       <c r="E58" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:42</t>
+          <t>2024-08-15 10:35</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr"/>
       <c r="G58" s="4" t="n">
-        <v>123711</v>
+        <v>124990</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>93422</v>
+        <v>87724</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>2116</v>
+        <v>1730</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>91306</v>
+        <v>85994</v>
       </c>
       <c r="K58" s="4" t="inlineStr"/>
       <c r="L58" s="4" t="n">
-        <v>25886</v>
+        <v>10690</v>
       </c>
       <c r="M58" s="4" t="n">
-        <v>19611</v>
+        <v>23291</v>
       </c>
       <c r="N58" s="4" t="n">
-        <v>24217</v>
+        <v>21396</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>17025</v>
+        <v>26315</v>
       </c>
     </row>
     <row r="59">
@@ -3332,34 +3332,34 @@
       <c r="D59" s="4" t="inlineStr"/>
       <c r="E59" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:26</t>
+          <t>2024-08-15 04:45</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr"/>
       <c r="G59" s="4" t="n">
-        <v>102829</v>
+        <v>101199</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>84897</v>
+        <v>61074</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>1115</v>
+        <v>1295</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>83782</v>
+        <v>59779</v>
       </c>
       <c r="K59" s="4" t="inlineStr"/>
       <c r="L59" s="4" t="n">
-        <v>14285</v>
+        <v>10865</v>
       </c>
       <c r="M59" s="4" t="n">
-        <v>22648</v>
+        <v>12867</v>
       </c>
       <c r="N59" s="4" t="n">
-        <v>31605</v>
+        <v>13849</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>11052</v>
+        <v>19207</v>
       </c>
     </row>
     <row r="60">
@@ -3381,34 +3381,34 @@
       <c r="D60" s="4" t="inlineStr"/>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:21</t>
+          <t>2024-08-15 01:24</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr"/>
       <c r="G60" s="4" t="n">
-        <v>54126</v>
+        <v>53179</v>
       </c>
       <c r="H60" s="4" t="n">
-        <v>34873</v>
+        <v>43398</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>816</v>
+        <v>500</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>34057</v>
+        <v>42898</v>
       </c>
       <c r="K60" s="4" t="inlineStr"/>
       <c r="L60" s="4" t="n">
-        <v>8428</v>
+        <v>5458</v>
       </c>
       <c r="M60" s="4" t="n">
-        <v>8969</v>
+        <v>9379</v>
       </c>
       <c r="N60" s="4" t="n">
-        <v>4760</v>
+        <v>17347</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>10196</v>
+        <v>8568</v>
       </c>
     </row>
     <row r="61">
@@ -3430,34 +3430,34 @@
       <c r="D61" s="4" t="inlineStr"/>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:16</t>
+          <t>2024-08-15 02:31</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr"/>
       <c r="G61" s="4" t="n">
-        <v>178700</v>
+        <v>166326</v>
       </c>
       <c r="H61" s="4" t="n">
-        <v>133410</v>
+        <v>145597</v>
       </c>
       <c r="I61" s="4" t="n">
-        <v>3575</v>
+        <v>2394</v>
       </c>
       <c r="J61" s="4" t="n">
-        <v>129835</v>
+        <v>143203</v>
       </c>
       <c r="K61" s="4" t="inlineStr"/>
       <c r="L61" s="4" t="n">
-        <v>23227</v>
+        <v>27906</v>
       </c>
       <c r="M61" s="4" t="n">
-        <v>23630</v>
+        <v>45539</v>
       </c>
       <c r="N61" s="4" t="n">
-        <v>36194</v>
+        <v>24542</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>40290</v>
+        <v>38053</v>
       </c>
     </row>
     <row r="62">
@@ -3479,34 +3479,34 @@
       <c r="D62" s="4" t="inlineStr"/>
       <c r="E62" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:22</t>
+          <t>2024-08-15 08:54</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr"/>
       <c r="G62" s="4" t="n">
-        <v>92916</v>
+        <v>92966</v>
       </c>
       <c r="H62" s="4" t="n">
-        <v>59979</v>
+        <v>81180</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>611</v>
+        <v>1807</v>
       </c>
       <c r="J62" s="4" t="n">
-        <v>59368</v>
+        <v>79373</v>
       </c>
       <c r="K62" s="4" t="inlineStr"/>
       <c r="L62" s="4" t="n">
-        <v>16965</v>
+        <v>25766</v>
       </c>
       <c r="M62" s="4" t="n">
-        <v>13830</v>
+        <v>15913</v>
       </c>
       <c r="N62" s="4" t="n">
-        <v>11730</v>
+        <v>15130</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>13873</v>
+        <v>18593</v>
       </c>
     </row>
     <row r="63">
@@ -3528,34 +3528,34 @@
       <c r="D63" s="4" t="inlineStr"/>
       <c r="E63" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:31</t>
+          <t>2024-08-15 07:15</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr"/>
       <c r="G63" s="4" t="n">
-        <v>60455</v>
+        <v>62428</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>38555</v>
+        <v>55318</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>997</v>
+        <v>1605</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>37558</v>
+        <v>53713</v>
       </c>
       <c r="K63" s="4" t="inlineStr"/>
       <c r="L63" s="4" t="n">
-        <v>5987</v>
+        <v>22032</v>
       </c>
       <c r="M63" s="4" t="n">
-        <v>10483</v>
+        <v>6051</v>
       </c>
       <c r="N63" s="4" t="n">
-        <v>10218</v>
+        <v>8805</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>8990</v>
+        <v>14137</v>
       </c>
     </row>
     <row r="64">
@@ -3577,34 +3577,34 @@
       <c r="D64" s="4" t="inlineStr"/>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:20</t>
+          <t>2024-08-15 10:37</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr"/>
       <c r="G64" s="4" t="n">
-        <v>49184</v>
+        <v>50863</v>
       </c>
       <c r="H64" s="4" t="n">
-        <v>40394</v>
+        <v>37889</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>524</v>
+        <v>899</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>39870</v>
+        <v>36990</v>
       </c>
       <c r="K64" s="4" t="inlineStr"/>
       <c r="L64" s="4" t="n">
-        <v>9426</v>
+        <v>11275</v>
       </c>
       <c r="M64" s="4" t="n">
-        <v>9717</v>
+        <v>5421</v>
       </c>
       <c r="N64" s="4" t="n">
-        <v>11372</v>
+        <v>7917</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>7359</v>
+        <v>10525</v>
       </c>
     </row>
     <row r="65">
@@ -3626,34 +3626,34 @@
       <c r="D65" s="4" t="inlineStr"/>
       <c r="E65" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:43</t>
+          <t>2024-08-15 04:26</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr"/>
       <c r="G65" s="4" t="n">
-        <v>109269</v>
+        <v>107980</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>96684</v>
+        <v>93125</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>1180</v>
+        <v>2071</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>95504</v>
+        <v>91054</v>
       </c>
       <c r="K65" s="4" t="inlineStr"/>
       <c r="L65" s="4" t="n">
-        <v>22357</v>
+        <v>17051</v>
       </c>
       <c r="M65" s="4" t="n">
-        <v>26722</v>
+        <v>35584</v>
       </c>
       <c r="N65" s="4" t="n">
-        <v>32930</v>
+        <v>10675</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>8717</v>
+        <v>23189</v>
       </c>
     </row>
     <row r="66">
@@ -3675,34 +3675,34 @@
       <c r="D66" s="4" t="inlineStr"/>
       <c r="E66" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:00</t>
+          <t>2024-08-15 01:53</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr"/>
       <c r="G66" s="4" t="n">
-        <v>70957</v>
+        <v>73287</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>56143</v>
+        <v>45671</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>1348</v>
+        <v>1234</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>54795</v>
+        <v>44437</v>
       </c>
       <c r="K66" s="4" t="inlineStr"/>
       <c r="L66" s="4" t="n">
-        <v>15852</v>
+        <v>13279</v>
       </c>
       <c r="M66" s="4" t="n">
-        <v>14881</v>
+        <v>14717</v>
       </c>
       <c r="N66" s="4" t="n">
-        <v>15873</v>
+        <v>7705</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>5448</v>
+        <v>6512</v>
       </c>
     </row>
     <row r="67">
@@ -3724,34 +3724,34 @@
       <c r="D67" s="4" t="inlineStr"/>
       <c r="E67" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:32</t>
+          <t>2024-08-15 06:29</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr"/>
       <c r="G67" s="4" t="n">
-        <v>89808</v>
+        <v>87469</v>
       </c>
       <c r="H67" s="4" t="n">
-        <v>63118</v>
+        <v>57970</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>1019</v>
+        <v>1101</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>62099</v>
+        <v>56869</v>
       </c>
       <c r="K67" s="4" t="inlineStr"/>
       <c r="L67" s="4" t="n">
-        <v>14375</v>
+        <v>13761</v>
       </c>
       <c r="M67" s="4" t="n">
-        <v>7998</v>
+        <v>12985</v>
       </c>
       <c r="N67" s="4" t="n">
-        <v>12352</v>
+        <v>10927</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>24267</v>
+        <v>16350</v>
       </c>
     </row>
     <row r="68">
@@ -3773,34 +3773,34 @@
       <c r="D68" s="4" t="inlineStr"/>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:02</t>
+          <t>2024-08-15 09:08</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr"/>
       <c r="G68" s="4" t="n">
-        <v>44167</v>
+        <v>40963</v>
       </c>
       <c r="H68" s="4" t="n">
-        <v>28487</v>
+        <v>31338</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>535</v>
+        <v>869</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>27952</v>
+        <v>30469</v>
       </c>
       <c r="K68" s="4" t="inlineStr"/>
       <c r="L68" s="4" t="n">
-        <v>3071</v>
+        <v>7558</v>
       </c>
       <c r="M68" s="4" t="n">
-        <v>11600</v>
+        <v>6526</v>
       </c>
       <c r="N68" s="4" t="n">
-        <v>2489</v>
+        <v>8681</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>9393</v>
+        <v>6178</v>
       </c>
     </row>
     <row r="69">
@@ -3822,34 +3822,34 @@
       <c r="D69" s="4" t="inlineStr"/>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:25</t>
+          <t>2024-08-15 09:30</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr"/>
       <c r="G69" s="4" t="n">
-        <v>85500</v>
+        <v>85995</v>
       </c>
       <c r="H69" s="4" t="n">
-        <v>72740</v>
+        <v>60117</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>1487</v>
+        <v>976</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>71253</v>
+        <v>59141</v>
       </c>
       <c r="K69" s="4" t="inlineStr"/>
       <c r="L69" s="4" t="n">
-        <v>22924</v>
+        <v>13235</v>
       </c>
       <c r="M69" s="4" t="n">
-        <v>10848</v>
+        <v>12553</v>
       </c>
       <c r="N69" s="4" t="n">
-        <v>23634</v>
+        <v>9114</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>10283</v>
+        <v>21280</v>
       </c>
     </row>
     <row r="70">
@@ -3871,34 +3871,34 @@
       <c r="D70" s="4" t="inlineStr"/>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:26</t>
+          <t>2024-08-15 11:40</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr"/>
       <c r="G70" s="4" t="n">
-        <v>91642</v>
+        <v>85851</v>
       </c>
       <c r="H70" s="4" t="n">
-        <v>62651</v>
+        <v>74455</v>
       </c>
       <c r="I70" s="4" t="n">
-        <v>1527</v>
+        <v>774</v>
       </c>
       <c r="J70" s="4" t="n">
-        <v>61124</v>
+        <v>73681</v>
       </c>
       <c r="K70" s="4" t="inlineStr"/>
       <c r="L70" s="4" t="n">
-        <v>6747</v>
+        <v>19269</v>
       </c>
       <c r="M70" s="4" t="n">
-        <v>11416</v>
+        <v>18041</v>
       </c>
       <c r="N70" s="4" t="n">
-        <v>13468</v>
+        <v>19215</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>26435</v>
+        <v>13470</v>
       </c>
     </row>
     <row r="71">
@@ -3920,34 +3920,34 @@
       <c r="D71" s="4" t="inlineStr"/>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:17</t>
+          <t>2024-08-15 04:49</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr"/>
       <c r="G71" s="4" t="n">
-        <v>112954</v>
+        <v>116218</v>
       </c>
       <c r="H71" s="4" t="n">
-        <v>72388</v>
+        <v>80153</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>1579</v>
+        <v>924</v>
       </c>
       <c r="J71" s="4" t="n">
-        <v>70809</v>
+        <v>79229</v>
       </c>
       <c r="K71" s="4" t="inlineStr"/>
       <c r="L71" s="4" t="n">
-        <v>23556</v>
+        <v>22004</v>
       </c>
       <c r="M71" s="4" t="n">
-        <v>18829</v>
+        <v>9995</v>
       </c>
       <c r="N71" s="4" t="n">
-        <v>17127</v>
+        <v>24666</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>7754</v>
+        <v>18601</v>
       </c>
     </row>
     <row r="72">
@@ -3969,34 +3969,34 @@
       <c r="D72" s="4" t="inlineStr"/>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:57</t>
+          <t>2024-08-15 05:06</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr"/>
       <c r="G72" s="4" t="n">
-        <v>107521</v>
+        <v>107478</v>
       </c>
       <c r="H72" s="4" t="n">
-        <v>80386</v>
+        <v>90273</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>2305</v>
+        <v>1616</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>78081</v>
+        <v>88657</v>
       </c>
       <c r="K72" s="4" t="inlineStr"/>
       <c r="L72" s="4" t="n">
-        <v>22710</v>
+        <v>17581</v>
       </c>
       <c r="M72" s="4" t="n">
-        <v>20698</v>
+        <v>20482</v>
       </c>
       <c r="N72" s="4" t="n">
-        <v>13669</v>
+        <v>27285</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>17098</v>
+        <v>18874</v>
       </c>
     </row>
     <row r="73">
@@ -4018,34 +4018,34 @@
       <c r="D73" s="4" t="inlineStr"/>
       <c r="E73" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:17</t>
+          <t>2024-08-15 09:00</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr"/>
       <c r="G73" s="4" t="n">
-        <v>141513</v>
+        <v>138235</v>
       </c>
       <c r="H73" s="4" t="n">
-        <v>100845</v>
+        <v>98135</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>1137</v>
+        <v>2476</v>
       </c>
       <c r="J73" s="4" t="n">
-        <v>99708</v>
+        <v>95659</v>
       </c>
       <c r="K73" s="4" t="inlineStr"/>
       <c r="L73" s="4" t="n">
-        <v>20900</v>
+        <v>30883</v>
       </c>
       <c r="M73" s="4" t="n">
-        <v>16383</v>
+        <v>14551</v>
       </c>
       <c r="N73" s="4" t="n">
-        <v>28706</v>
+        <v>22290</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>28732</v>
+        <v>23150</v>
       </c>
     </row>
     <row r="74">
@@ -4067,34 +4067,34 @@
       <c r="D74" s="4" t="inlineStr"/>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:05</t>
+          <t>2024-08-15 03:17</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr"/>
       <c r="G74" s="4" t="n">
-        <v>76498</v>
+        <v>73187</v>
       </c>
       <c r="H74" s="4" t="n">
-        <v>53639</v>
+        <v>46778</v>
       </c>
       <c r="I74" s="4" t="n">
-        <v>847</v>
+        <v>1189</v>
       </c>
       <c r="J74" s="4" t="n">
-        <v>52792</v>
+        <v>45589</v>
       </c>
       <c r="K74" s="4" t="inlineStr"/>
       <c r="L74" s="4" t="n">
-        <v>21155</v>
+        <v>14331</v>
       </c>
       <c r="M74" s="4" t="n">
-        <v>5827</v>
+        <v>6335</v>
       </c>
       <c r="N74" s="4" t="n">
-        <v>13775</v>
+        <v>15969</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>9393</v>
+        <v>6672</v>
       </c>
     </row>
     <row r="75">
@@ -4116,34 +4116,34 @@
       <c r="D75" s="4" t="inlineStr"/>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:24</t>
+          <t>2024-08-15 08:45</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr"/>
       <c r="G75" s="4" t="n">
-        <v>88311</v>
+        <v>87298</v>
       </c>
       <c r="H75" s="4" t="n">
-        <v>54007</v>
+        <v>75411</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>872</v>
+        <v>1236</v>
       </c>
       <c r="J75" s="4" t="n">
-        <v>53135</v>
+        <v>74175</v>
       </c>
       <c r="K75" s="4" t="inlineStr"/>
       <c r="L75" s="4" t="n">
-        <v>10636</v>
+        <v>20211</v>
       </c>
       <c r="M75" s="4" t="n">
-        <v>10689</v>
+        <v>23069</v>
       </c>
       <c r="N75" s="4" t="n">
-        <v>18262</v>
+        <v>15169</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>10889</v>
+        <v>12015</v>
       </c>
     </row>
     <row r="76">
@@ -4165,34 +4165,34 @@
       <c r="D76" s="4" t="inlineStr"/>
       <c r="E76" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:09</t>
+          <t>2024-08-15 10:28</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr"/>
       <c r="G76" s="4" t="n">
-        <v>95528</v>
+        <v>99369</v>
       </c>
       <c r="H76" s="4" t="n">
-        <v>59510</v>
+        <v>89407</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1763</v>
+        <v>2445</v>
       </c>
       <c r="J76" s="4" t="n">
-        <v>57747</v>
+        <v>86962</v>
       </c>
       <c r="K76" s="4" t="inlineStr"/>
       <c r="L76" s="4" t="n">
-        <v>10541</v>
+        <v>28813</v>
       </c>
       <c r="M76" s="4" t="n">
-        <v>16582</v>
+        <v>24628</v>
       </c>
       <c r="N76" s="4" t="n">
-        <v>11352</v>
+        <v>11565</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>16382</v>
+        <v>17605</v>
       </c>
     </row>
     <row r="77">
@@ -4214,34 +4214,34 @@
       <c r="D77" s="4" t="inlineStr"/>
       <c r="E77" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:43</t>
+          <t>2024-08-15 06:21</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr"/>
       <c r="G77" s="4" t="n">
-        <v>332840</v>
+        <v>352242</v>
       </c>
       <c r="H77" s="4" t="n">
-        <v>299469</v>
+        <v>242921</v>
       </c>
       <c r="I77" s="4" t="n">
-        <v>5501</v>
+        <v>5575</v>
       </c>
       <c r="J77" s="4" t="n">
-        <v>293968</v>
+        <v>237346</v>
       </c>
       <c r="K77" s="4" t="inlineStr"/>
       <c r="L77" s="4" t="n">
-        <v>83473</v>
+        <v>92474</v>
       </c>
       <c r="M77" s="4" t="n">
-        <v>67407</v>
+        <v>23815</v>
       </c>
       <c r="N77" s="4" t="n">
-        <v>85811</v>
+        <v>35046</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>42577</v>
+        <v>74143</v>
       </c>
     </row>
     <row r="78">
@@ -4263,34 +4263,34 @@
       <c r="D78" s="4" t="inlineStr"/>
       <c r="E78" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:21</t>
+          <t>2024-08-15 12:42</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr"/>
       <c r="G78" s="4" t="n">
-        <v>81647</v>
+        <v>85585</v>
       </c>
       <c r="H78" s="4" t="n">
-        <v>68147</v>
+        <v>61105</v>
       </c>
       <c r="I78" s="4" t="n">
-        <v>899</v>
+        <v>1747</v>
       </c>
       <c r="J78" s="4" t="n">
-        <v>67248</v>
+        <v>59358</v>
       </c>
       <c r="K78" s="4" t="inlineStr"/>
       <c r="L78" s="4" t="n">
-        <v>15039</v>
+        <v>13173</v>
       </c>
       <c r="M78" s="4" t="n">
-        <v>17020</v>
+        <v>10907</v>
       </c>
       <c r="N78" s="4" t="n">
-        <v>17862</v>
+        <v>14616</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>13962</v>
+        <v>17692</v>
       </c>
     </row>
     <row r="79">
@@ -4312,34 +4312,34 @@
       <c r="D79" s="4" t="inlineStr"/>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:08</t>
+          <t>2024-08-15 06:52</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr"/>
       <c r="G79" s="4" t="n">
-        <v>70891</v>
+        <v>76853</v>
       </c>
       <c r="H79" s="4" t="n">
-        <v>43694</v>
+        <v>58359</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>938</v>
+        <v>606</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>42756</v>
+        <v>57753</v>
       </c>
       <c r="K79" s="4" t="inlineStr"/>
       <c r="L79" s="4" t="n">
-        <v>6602</v>
+        <v>8848</v>
       </c>
       <c r="M79" s="4" t="n">
-        <v>10617</v>
+        <v>16206</v>
       </c>
       <c r="N79" s="4" t="n">
-        <v>13249</v>
+        <v>15225</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>10148</v>
+        <v>14584</v>
       </c>
     </row>
     <row r="80">
@@ -4361,34 +4361,34 @@
       <c r="D80" s="4" t="inlineStr"/>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:27</t>
+          <t>2024-08-15 04:16</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr"/>
       <c r="G80" s="4" t="n">
-        <v>85295</v>
+        <v>85556</v>
       </c>
       <c r="H80" s="4" t="n">
-        <v>61947</v>
+        <v>54776</v>
       </c>
       <c r="I80" s="4" t="n">
-        <v>952</v>
+        <v>764</v>
       </c>
       <c r="J80" s="4" t="n">
-        <v>60995</v>
+        <v>54012</v>
       </c>
       <c r="K80" s="4" t="inlineStr"/>
       <c r="L80" s="4" t="n">
-        <v>10001</v>
+        <v>16836</v>
       </c>
       <c r="M80" s="4" t="n">
-        <v>18422</v>
+        <v>20505</v>
       </c>
       <c r="N80" s="4" t="n">
-        <v>14300</v>
+        <v>8030</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>15221</v>
+        <v>5938</v>
       </c>
     </row>
     <row r="81">
@@ -4410,34 +4410,34 @@
       <c r="D81" s="4" t="inlineStr"/>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:40</t>
+          <t>2024-08-15 09:04</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr"/>
       <c r="G81" s="4" t="n">
-        <v>54090</v>
+        <v>57544</v>
       </c>
       <c r="H81" s="4" t="n">
-        <v>47793</v>
+        <v>48492</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>606</v>
+        <v>1121</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>47187</v>
+        <v>47371</v>
       </c>
       <c r="K81" s="4" t="inlineStr"/>
       <c r="L81" s="4" t="n">
-        <v>11673</v>
+        <v>10114</v>
       </c>
       <c r="M81" s="4" t="n">
-        <v>12116</v>
+        <v>10902</v>
       </c>
       <c r="N81" s="4" t="n">
-        <v>12098</v>
+        <v>9051</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>8939</v>
+        <v>14934</v>
       </c>
     </row>
     <row r="82">
@@ -4459,34 +4459,34 @@
       <c r="D82" s="4" t="inlineStr"/>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:47</t>
+          <t>2024-08-15 11:12</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr"/>
       <c r="G82" s="4" t="n">
-        <v>81978</v>
+        <v>77406</v>
       </c>
       <c r="H82" s="4" t="n">
-        <v>73206</v>
+        <v>50005</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>797</v>
+        <v>1449</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>72409</v>
+        <v>48556</v>
       </c>
       <c r="K82" s="4" t="inlineStr"/>
       <c r="L82" s="4" t="n">
-        <v>19318</v>
+        <v>6009</v>
       </c>
       <c r="M82" s="4" t="n">
-        <v>15168</v>
+        <v>13930</v>
       </c>
       <c r="N82" s="4" t="n">
-        <v>20526</v>
+        <v>9344</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>13774</v>
+        <v>16843</v>
       </c>
     </row>
     <row r="83">
@@ -4508,34 +4508,34 @@
       <c r="D83" s="4" t="inlineStr"/>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:22</t>
+          <t>2024-08-15 11:54</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr"/>
       <c r="G83" s="4" t="n">
-        <v>79957</v>
+        <v>74785</v>
       </c>
       <c r="H83" s="4" t="n">
-        <v>70995</v>
+        <v>55310</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1169</v>
+        <v>1197</v>
       </c>
       <c r="J83" s="4" t="n">
-        <v>69826</v>
+        <v>54113</v>
       </c>
       <c r="K83" s="4" t="inlineStr"/>
       <c r="L83" s="4" t="n">
-        <v>12835</v>
+        <v>20350</v>
       </c>
       <c r="M83" s="4" t="n">
-        <v>28862</v>
+        <v>10909</v>
       </c>
       <c r="N83" s="4" t="n">
-        <v>15165</v>
+        <v>11087</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>9470</v>
+        <v>9058</v>
       </c>
     </row>
     <row r="84">
@@ -4557,34 +4557,34 @@
       <c r="D84" s="4" t="inlineStr"/>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:54</t>
+          <t>2024-08-15 08:45</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr"/>
       <c r="G84" s="4" t="n">
-        <v>95758</v>
+        <v>96046</v>
       </c>
       <c r="H84" s="4" t="n">
-        <v>60390</v>
+        <v>66325</v>
       </c>
       <c r="I84" s="4" t="n">
-        <v>616</v>
+        <v>1720</v>
       </c>
       <c r="J84" s="4" t="n">
-        <v>59774</v>
+        <v>64605</v>
       </c>
       <c r="K84" s="4" t="inlineStr"/>
       <c r="L84" s="4" t="n">
-        <v>7859</v>
+        <v>11927</v>
       </c>
       <c r="M84" s="4" t="n">
-        <v>18641</v>
+        <v>18716</v>
       </c>
       <c r="N84" s="4" t="n">
-        <v>13810</v>
+        <v>19970</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>16474</v>
+        <v>10759</v>
       </c>
     </row>
     <row r="85">
@@ -4606,34 +4606,34 @@
       <c r="D85" s="4" t="inlineStr"/>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:12</t>
+          <t>2024-08-15 05:02</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr"/>
       <c r="G85" s="4" t="n">
-        <v>102824</v>
+        <v>100878</v>
       </c>
       <c r="H85" s="4" t="n">
-        <v>85633</v>
+        <v>82213</v>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1357</v>
+        <v>1726</v>
       </c>
       <c r="J85" s="4" t="n">
-        <v>84276</v>
+        <v>80487</v>
       </c>
       <c r="K85" s="4" t="inlineStr"/>
       <c r="L85" s="4" t="n">
-        <v>12552</v>
+        <v>23918</v>
       </c>
       <c r="M85" s="4" t="n">
-        <v>29543</v>
+        <v>25278</v>
       </c>
       <c r="N85" s="4" t="n">
-        <v>19847</v>
+        <v>8960</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>18118</v>
+        <v>18305</v>
       </c>
     </row>
     <row r="86">
@@ -4655,34 +4655,34 @@
       <c r="D86" s="4" t="inlineStr"/>
       <c r="E86" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:53</t>
+          <t>2024-08-15 02:21</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr"/>
       <c r="G86" s="4" t="n">
-        <v>101177</v>
+        <v>99098</v>
       </c>
       <c r="H86" s="4" t="n">
-        <v>73929</v>
+        <v>64169</v>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1383</v>
+        <v>875</v>
       </c>
       <c r="J86" s="4" t="n">
-        <v>72546</v>
+        <v>63294</v>
       </c>
       <c r="K86" s="4" t="inlineStr"/>
       <c r="L86" s="4" t="n">
-        <v>19322</v>
+        <v>15095</v>
       </c>
       <c r="M86" s="4" t="n">
-        <v>19680</v>
+        <v>10614</v>
       </c>
       <c r="N86" s="4" t="n">
-        <v>18598</v>
+        <v>19445</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>11317</v>
+        <v>14973</v>
       </c>
     </row>
     <row r="87">
@@ -4704,34 +4704,34 @@
       <c r="D87" s="4" t="inlineStr"/>
       <c r="E87" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:44</t>
+          <t>2024-08-15 11:28</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr"/>
       <c r="G87" s="4" t="n">
-        <v>78446</v>
+        <v>80170</v>
       </c>
       <c r="H87" s="4" t="n">
-        <v>62194</v>
+        <v>59163</v>
       </c>
       <c r="I87" s="4" t="n">
-        <v>1462</v>
+        <v>1004</v>
       </c>
       <c r="J87" s="4" t="n">
-        <v>60732</v>
+        <v>58159</v>
       </c>
       <c r="K87" s="4" t="inlineStr"/>
       <c r="L87" s="4" t="n">
-        <v>10130</v>
+        <v>14078</v>
       </c>
       <c r="M87" s="4" t="n">
-        <v>15449</v>
+        <v>13502</v>
       </c>
       <c r="N87" s="4" t="n">
-        <v>15469</v>
+        <v>10213</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>16646</v>
+        <v>17456</v>
       </c>
     </row>
     <row r="88">
@@ -4753,34 +4753,34 @@
       <c r="D88" s="4" t="inlineStr"/>
       <c r="E88" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:17</t>
+          <t>2024-08-15 03:25</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr"/>
       <c r="G88" s="4" t="n">
-        <v>82237</v>
+        <v>84653</v>
       </c>
       <c r="H88" s="4" t="n">
-        <v>73742</v>
+        <v>55265</v>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1875</v>
+        <v>577</v>
       </c>
       <c r="J88" s="4" t="n">
-        <v>71867</v>
+        <v>54688</v>
       </c>
       <c r="K88" s="4" t="inlineStr"/>
       <c r="L88" s="4" t="n">
-        <v>9893</v>
+        <v>19815</v>
       </c>
       <c r="M88" s="4" t="n">
-        <v>23058</v>
+        <v>12557</v>
       </c>
       <c r="N88" s="4" t="n">
-        <v>16638</v>
+        <v>7629</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>18683</v>
+        <v>11951</v>
       </c>
     </row>
     <row r="89">
@@ -4802,34 +4802,34 @@
       <c r="D89" s="4" t="inlineStr"/>
       <c r="E89" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:08</t>
+          <t>2024-08-15 06:56</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr"/>
       <c r="G89" s="4" t="n">
-        <v>99888</v>
+        <v>101716</v>
       </c>
       <c r="H89" s="4" t="n">
-        <v>81553</v>
+        <v>69154</v>
       </c>
       <c r="I89" s="4" t="n">
-        <v>1707</v>
+        <v>739</v>
       </c>
       <c r="J89" s="4" t="n">
-        <v>79846</v>
+        <v>68415</v>
       </c>
       <c r="K89" s="4" t="inlineStr"/>
       <c r="L89" s="4" t="n">
-        <v>25204</v>
+        <v>23510</v>
       </c>
       <c r="M89" s="4" t="n">
-        <v>23425</v>
+        <v>11735</v>
       </c>
       <c r="N89" s="4" t="n">
-        <v>15767</v>
+        <v>14745</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>11456</v>
+        <v>15003</v>
       </c>
     </row>
     <row r="90">
@@ -4851,34 +4851,34 @@
       <c r="D90" s="4" t="inlineStr"/>
       <c r="E90" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:58</t>
+          <t>2024-08-15 07:06</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr"/>
       <c r="G90" s="4" t="n">
-        <v>87259</v>
+        <v>85215</v>
       </c>
       <c r="H90" s="4" t="n">
-        <v>67700</v>
+        <v>56639</v>
       </c>
       <c r="I90" s="4" t="n">
-        <v>1443</v>
+        <v>1297</v>
       </c>
       <c r="J90" s="4" t="n">
-        <v>66257</v>
+        <v>55342</v>
       </c>
       <c r="K90" s="4" t="inlineStr"/>
       <c r="L90" s="4" t="n">
-        <v>16887</v>
+        <v>21131</v>
       </c>
       <c r="M90" s="4" t="n">
-        <v>23202</v>
+        <v>13062</v>
       </c>
       <c r="N90" s="4" t="n">
-        <v>9456</v>
+        <v>10002</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>13397</v>
+        <v>8378</v>
       </c>
     </row>
     <row r="91">
@@ -4900,34 +4900,34 @@
       <c r="D91" s="4" t="inlineStr"/>
       <c r="E91" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:41</t>
+          <t>2024-08-15 02:15</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr"/>
       <c r="G91" s="4" t="n">
-        <v>103528</v>
+        <v>102792</v>
       </c>
       <c r="H91" s="4" t="n">
-        <v>80721</v>
+        <v>80985</v>
       </c>
       <c r="I91" s="4" t="n">
-        <v>2045</v>
+        <v>1963</v>
       </c>
       <c r="J91" s="4" t="n">
-        <v>78676</v>
+        <v>79022</v>
       </c>
       <c r="K91" s="4" t="inlineStr"/>
       <c r="L91" s="4" t="n">
-        <v>16259</v>
+        <v>23815</v>
       </c>
       <c r="M91" s="4" t="n">
-        <v>30651</v>
+        <v>22440</v>
       </c>
       <c r="N91" s="4" t="n">
-        <v>12496</v>
+        <v>14782</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>15334</v>
+        <v>14032</v>
       </c>
     </row>
     <row r="92">
@@ -4949,34 +4949,34 @@
       <c r="D92" s="4" t="inlineStr"/>
       <c r="E92" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:10</t>
+          <t>2024-08-15 09:36</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr"/>
       <c r="G92" s="4" t="n">
-        <v>99073</v>
+        <v>95792</v>
       </c>
       <c r="H92" s="4" t="n">
-        <v>62028</v>
+        <v>65270</v>
       </c>
       <c r="I92" s="4" t="n">
-        <v>951</v>
+        <v>1837</v>
       </c>
       <c r="J92" s="4" t="n">
-        <v>61077</v>
+        <v>63433</v>
       </c>
       <c r="K92" s="4" t="inlineStr"/>
       <c r="L92" s="4" t="n">
-        <v>20581</v>
+        <v>7315</v>
       </c>
       <c r="M92" s="4" t="n">
-        <v>10269</v>
+        <v>18846</v>
       </c>
       <c r="N92" s="4" t="n">
-        <v>8414</v>
+        <v>16481</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>18757</v>
+        <v>17617</v>
       </c>
     </row>
     <row r="93">
@@ -4998,34 +4998,34 @@
       <c r="D93" s="4" t="inlineStr"/>
       <c r="E93" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:18</t>
+          <t>2024-08-15 05:03</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr"/>
       <c r="G93" s="4" t="n">
-        <v>100855</v>
+        <v>99005</v>
       </c>
       <c r="H93" s="4" t="n">
-        <v>78776</v>
+        <v>82220</v>
       </c>
       <c r="I93" s="4" t="n">
-        <v>1103</v>
+        <v>1614</v>
       </c>
       <c r="J93" s="4" t="n">
-        <v>77673</v>
+        <v>80606</v>
       </c>
       <c r="K93" s="4" t="inlineStr"/>
       <c r="L93" s="4" t="n">
-        <v>14436</v>
+        <v>19168</v>
       </c>
       <c r="M93" s="4" t="n">
-        <v>11505</v>
+        <v>14574</v>
       </c>
       <c r="N93" s="4" t="n">
-        <v>35034</v>
+        <v>22578</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>12812</v>
+        <v>20253</v>
       </c>
     </row>
     <row r="94">
@@ -5047,34 +5047,34 @@
       <c r="D94" s="4" t="inlineStr"/>
       <c r="E94" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:25</t>
+          <t>2024-08-15 09:05</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr"/>
       <c r="G94" s="4" t="n">
-        <v>81403</v>
+        <v>86839</v>
       </c>
       <c r="H94" s="4" t="n">
-        <v>50634</v>
+        <v>71702</v>
       </c>
       <c r="I94" s="4" t="n">
-        <v>566</v>
+        <v>2015</v>
       </c>
       <c r="J94" s="4" t="n">
-        <v>50068</v>
+        <v>69687</v>
       </c>
       <c r="K94" s="4" t="inlineStr"/>
       <c r="L94" s="4" t="n">
-        <v>8144</v>
+        <v>13040</v>
       </c>
       <c r="M94" s="4" t="n">
-        <v>9152</v>
+        <v>11042</v>
       </c>
       <c r="N94" s="4" t="n">
-        <v>14583</v>
+        <v>31971</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>15683</v>
+        <v>10147</v>
       </c>
     </row>
     <row r="95">
@@ -5096,34 +5096,34 @@
       <c r="D95" s="4" t="inlineStr"/>
       <c r="E95" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:51</t>
+          <t>2024-08-15 12:33</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr"/>
       <c r="G95" s="4" t="n">
-        <v>79731</v>
+        <v>85525</v>
       </c>
       <c r="H95" s="4" t="n">
-        <v>52855</v>
+        <v>61854</v>
       </c>
       <c r="I95" s="4" t="n">
-        <v>546</v>
+        <v>1377</v>
       </c>
       <c r="J95" s="4" t="n">
-        <v>52309</v>
+        <v>60477</v>
       </c>
       <c r="K95" s="4" t="inlineStr"/>
       <c r="L95" s="4" t="n">
-        <v>12077</v>
+        <v>15422</v>
       </c>
       <c r="M95" s="4" t="n">
-        <v>8440</v>
+        <v>11079</v>
       </c>
       <c r="N95" s="4" t="n">
-        <v>16861</v>
+        <v>20642</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>12313</v>
+        <v>10308</v>
       </c>
     </row>
     <row r="96">
@@ -5145,34 +5145,34 @@
       <c r="D96" s="4" t="inlineStr"/>
       <c r="E96" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:15</t>
+          <t>2024-08-15 12:06</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr"/>
       <c r="G96" s="4" t="n">
-        <v>89138</v>
+        <v>95676</v>
       </c>
       <c r="H96" s="4" t="n">
-        <v>63923</v>
+        <v>74358</v>
       </c>
       <c r="I96" s="4" t="n">
-        <v>763</v>
+        <v>1403</v>
       </c>
       <c r="J96" s="4" t="n">
-        <v>63160</v>
+        <v>72955</v>
       </c>
       <c r="K96" s="4" t="inlineStr"/>
       <c r="L96" s="4" t="n">
-        <v>18392</v>
+        <v>17219</v>
       </c>
       <c r="M96" s="4" t="n">
-        <v>9426</v>
+        <v>12998</v>
       </c>
       <c r="N96" s="4" t="n">
-        <v>15636</v>
+        <v>24386</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>16545</v>
+        <v>14702</v>
       </c>
     </row>
     <row r="97">
@@ -5194,34 +5194,34 @@
       <c r="D97" s="4" t="inlineStr"/>
       <c r="E97" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:06</t>
+          <t>2024-08-15 05:43</t>
         </is>
       </c>
       <c r="F97" s="4" t="inlineStr"/>
       <c r="G97" s="4" t="n">
-        <v>101485</v>
+        <v>99524</v>
       </c>
       <c r="H97" s="4" t="n">
-        <v>73388</v>
+        <v>82786</v>
       </c>
       <c r="I97" s="4" t="n">
-        <v>1092</v>
+        <v>1985</v>
       </c>
       <c r="J97" s="4" t="n">
-        <v>72296</v>
+        <v>80801</v>
       </c>
       <c r="K97" s="4" t="inlineStr"/>
       <c r="L97" s="4" t="n">
-        <v>9001</v>
+        <v>10733</v>
       </c>
       <c r="M97" s="4" t="n">
-        <v>18039</v>
+        <v>24680</v>
       </c>
       <c r="N97" s="4" t="n">
-        <v>11224</v>
+        <v>27487</v>
       </c>
       <c r="O97" s="4" t="n">
-        <v>30415</v>
+        <v>13859</v>
       </c>
     </row>
     <row r="98">
@@ -5243,34 +5243,34 @@
       <c r="D98" s="4" t="inlineStr"/>
       <c r="E98" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:04</t>
+          <t>2024-08-15 03:18</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr"/>
       <c r="G98" s="4" t="n">
-        <v>101125</v>
+        <v>110264</v>
       </c>
       <c r="H98" s="4" t="n">
-        <v>84087</v>
+        <v>98100</v>
       </c>
       <c r="I98" s="4" t="n">
-        <v>1529</v>
+        <v>2286</v>
       </c>
       <c r="J98" s="4" t="n">
-        <v>82558</v>
+        <v>95814</v>
       </c>
       <c r="K98" s="4" t="inlineStr"/>
       <c r="L98" s="4" t="n">
-        <v>13806</v>
+        <v>18383</v>
       </c>
       <c r="M98" s="4" t="n">
-        <v>21159</v>
+        <v>17939</v>
       </c>
       <c r="N98" s="4" t="n">
-        <v>28098</v>
+        <v>33883</v>
       </c>
       <c r="O98" s="4" t="n">
-        <v>15366</v>
+        <v>20816</v>
       </c>
     </row>
     <row r="99">
@@ -5292,34 +5292,34 @@
       <c r="D99" s="4" t="inlineStr"/>
       <c r="E99" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:24</t>
+          <t>2024-08-15 02:16</t>
         </is>
       </c>
       <c r="F99" s="4" t="inlineStr"/>
       <c r="G99" s="4" t="n">
-        <v>80598</v>
+        <v>76690</v>
       </c>
       <c r="H99" s="4" t="n">
-        <v>63138</v>
+        <v>59956</v>
       </c>
       <c r="I99" s="4" t="n">
-        <v>934</v>
+        <v>1312</v>
       </c>
       <c r="J99" s="4" t="n">
-        <v>62204</v>
+        <v>58644</v>
       </c>
       <c r="K99" s="4" t="inlineStr"/>
       <c r="L99" s="4" t="n">
-        <v>14435</v>
+        <v>21402</v>
       </c>
       <c r="M99" s="4" t="n">
-        <v>13316</v>
+        <v>7850</v>
       </c>
       <c r="N99" s="4" t="n">
-        <v>19661</v>
+        <v>14125</v>
       </c>
       <c r="O99" s="4" t="n">
-        <v>11680</v>
+        <v>12333</v>
       </c>
     </row>
     <row r="100">
@@ -5341,34 +5341,34 @@
       <c r="D100" s="4" t="inlineStr"/>
       <c r="E100" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:51</t>
+          <t>2024-08-15 05:20</t>
         </is>
       </c>
       <c r="F100" s="4" t="inlineStr"/>
       <c r="G100" s="4" t="n">
-        <v>125313</v>
+        <v>133378</v>
       </c>
       <c r="H100" s="4" t="n">
-        <v>103259</v>
+        <v>90405</v>
       </c>
       <c r="I100" s="4" t="n">
-        <v>1245</v>
+        <v>2680</v>
       </c>
       <c r="J100" s="4" t="n">
-        <v>102014</v>
+        <v>87725</v>
       </c>
       <c r="K100" s="4" t="inlineStr"/>
       <c r="L100" s="4" t="n">
-        <v>9495</v>
+        <v>26499</v>
       </c>
       <c r="M100" s="4" t="n">
-        <v>31060</v>
+        <v>16134</v>
       </c>
       <c r="N100" s="4" t="n">
-        <v>36514</v>
+        <v>25133</v>
       </c>
       <c r="O100" s="4" t="n">
-        <v>19842</v>
+        <v>15571</v>
       </c>
     </row>
     <row r="101">
@@ -5390,34 +5390,34 @@
       <c r="D101" s="4" t="inlineStr"/>
       <c r="E101" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:07</t>
+          <t>2024-08-15 01:06</t>
         </is>
       </c>
       <c r="F101" s="4" t="inlineStr"/>
       <c r="G101" s="4" t="n">
-        <v>186160</v>
+        <v>173263</v>
       </c>
       <c r="H101" s="4" t="n">
-        <v>113357</v>
+        <v>143371</v>
       </c>
       <c r="I101" s="4" t="n">
-        <v>2009</v>
+        <v>2260</v>
       </c>
       <c r="J101" s="4" t="n">
-        <v>111348</v>
+        <v>141111</v>
       </c>
       <c r="K101" s="4" t="inlineStr"/>
       <c r="L101" s="4" t="n">
-        <v>42302</v>
+        <v>10640</v>
       </c>
       <c r="M101" s="4" t="n">
-        <v>10567</v>
+        <v>36909</v>
       </c>
       <c r="N101" s="4" t="n">
-        <v>19750</v>
+        <v>42051</v>
       </c>
       <c r="O101" s="4" t="n">
-        <v>33160</v>
+        <v>44452</v>
       </c>
     </row>
     <row r="102">
@@ -5439,34 +5439,34 @@
       <c r="D102" s="4" t="inlineStr"/>
       <c r="E102" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:18</t>
+          <t>2024-08-15 03:29</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr"/>
       <c r="G102" s="4" t="n">
-        <v>24686</v>
+        <v>24939</v>
       </c>
       <c r="H102" s="4" t="n">
-        <v>21594</v>
+        <v>17576</v>
       </c>
       <c r="I102" s="4" t="n">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="J102" s="4" t="n">
-        <v>21228</v>
+        <v>17230</v>
       </c>
       <c r="K102" s="4" t="inlineStr"/>
       <c r="L102" s="4" t="n">
-        <v>5608</v>
+        <v>2556</v>
       </c>
       <c r="M102" s="4" t="n">
-        <v>4137</v>
+        <v>3717</v>
       </c>
       <c r="N102" s="4" t="n">
-        <v>3384</v>
+        <v>7367</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>7036</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="103">
@@ -5488,34 +5488,34 @@
       <c r="D103" s="4" t="inlineStr"/>
       <c r="E103" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:35</t>
+          <t>2024-08-15 08:30</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr"/>
       <c r="G103" s="4" t="n">
-        <v>52151</v>
+        <v>48993</v>
       </c>
       <c r="H103" s="4" t="n">
-        <v>35729</v>
+        <v>30771</v>
       </c>
       <c r="I103" s="4" t="n">
-        <v>753</v>
+        <v>320</v>
       </c>
       <c r="J103" s="4" t="n">
-        <v>34976</v>
+        <v>30451</v>
       </c>
       <c r="K103" s="4" t="inlineStr"/>
       <c r="L103" s="4" t="n">
-        <v>9102</v>
+        <v>9797</v>
       </c>
       <c r="M103" s="4" t="n">
-        <v>7844</v>
+        <v>2930</v>
       </c>
       <c r="N103" s="4" t="n">
-        <v>7979</v>
+        <v>6519</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>8300</v>
+        <v>9680</v>
       </c>
     </row>
     <row r="104">
@@ -5537,34 +5537,34 @@
       <c r="D104" s="4" t="inlineStr"/>
       <c r="E104" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:13</t>
+          <t>2024-08-15 12:17</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr"/>
       <c r="G104" s="4" t="n">
-        <v>66092</v>
+        <v>67156</v>
       </c>
       <c r="H104" s="4" t="n">
-        <v>45900</v>
+        <v>40886</v>
       </c>
       <c r="I104" s="4" t="n">
-        <v>670</v>
+        <v>1011</v>
       </c>
       <c r="J104" s="4" t="n">
-        <v>45230</v>
+        <v>39875</v>
       </c>
       <c r="K104" s="4" t="inlineStr"/>
       <c r="L104" s="4" t="n">
-        <v>4760</v>
+        <v>7375</v>
       </c>
       <c r="M104" s="4" t="n">
-        <v>8413</v>
+        <v>14232</v>
       </c>
       <c r="N104" s="4" t="n">
-        <v>15178</v>
+        <v>10061</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>14616</v>
+        <v>6211</v>
       </c>
     </row>
     <row r="105">
@@ -5586,34 +5586,34 @@
       <c r="D105" s="4" t="inlineStr"/>
       <c r="E105" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:55</t>
+          <t>2024-08-15 05:08</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr"/>
       <c r="G105" s="4" t="n">
-        <v>59159</v>
+        <v>56952</v>
       </c>
       <c r="H105" s="4" t="n">
-        <v>49171</v>
+        <v>39951</v>
       </c>
       <c r="I105" s="4" t="n">
-        <v>1117</v>
+        <v>783</v>
       </c>
       <c r="J105" s="4" t="n">
-        <v>48054</v>
+        <v>39168</v>
       </c>
       <c r="K105" s="4" t="inlineStr"/>
       <c r="L105" s="4" t="n">
-        <v>13914</v>
+        <v>5554</v>
       </c>
       <c r="M105" s="4" t="n">
-        <v>6919</v>
+        <v>12251</v>
       </c>
       <c r="N105" s="4" t="n">
-        <v>11008</v>
+        <v>4515</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>13809</v>
+        <v>14887</v>
       </c>
     </row>
     <row r="106">
@@ -5635,34 +5635,34 @@
       <c r="D106" s="4" t="inlineStr"/>
       <c r="E106" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:30</t>
+          <t>2024-08-15 03:34</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr"/>
       <c r="G106" s="4" t="n">
-        <v>62842</v>
+        <v>62237</v>
       </c>
       <c r="H106" s="4" t="n">
-        <v>51997</v>
+        <v>40161</v>
       </c>
       <c r="I106" s="4" t="n">
-        <v>1397</v>
+        <v>548</v>
       </c>
       <c r="J106" s="4" t="n">
-        <v>50600</v>
+        <v>39613</v>
       </c>
       <c r="K106" s="4" t="inlineStr"/>
       <c r="L106" s="4" t="n">
-        <v>11309</v>
+        <v>7323</v>
       </c>
       <c r="M106" s="4" t="n">
-        <v>16081</v>
+        <v>9395</v>
       </c>
       <c r="N106" s="4" t="n">
-        <v>16395</v>
+        <v>8280</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>4283</v>
+        <v>12632</v>
       </c>
     </row>
     <row r="107">
@@ -5684,34 +5684,34 @@
       <c r="D107" s="4" t="inlineStr"/>
       <c r="E107" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:21</t>
+          <t>2024-08-15 05:17</t>
         </is>
       </c>
       <c r="F107" s="4" t="inlineStr"/>
       <c r="G107" s="4" t="n">
-        <v>40358</v>
+        <v>40055</v>
       </c>
       <c r="H107" s="4" t="n">
-        <v>33082</v>
+        <v>30971</v>
       </c>
       <c r="I107" s="4" t="n">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="J107" s="4" t="n">
-        <v>32678</v>
+        <v>30542</v>
       </c>
       <c r="K107" s="4" t="inlineStr"/>
       <c r="L107" s="4" t="n">
-        <v>13109</v>
+        <v>3666</v>
       </c>
       <c r="M107" s="4" t="n">
-        <v>5592</v>
+        <v>8846</v>
       </c>
       <c r="N107" s="4" t="n">
-        <v>4450</v>
+        <v>10851</v>
       </c>
       <c r="O107" s="4" t="n">
-        <v>7892</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="108">
@@ -5733,34 +5733,34 @@
       <c r="D108" s="4" t="inlineStr"/>
       <c r="E108" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:32</t>
+          <t>2024-08-15 03:07</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr"/>
       <c r="G108" s="4" t="n">
-        <v>38946</v>
+        <v>39948</v>
       </c>
       <c r="H108" s="4" t="n">
-        <v>24876</v>
+        <v>35153</v>
       </c>
       <c r="I108" s="4" t="n">
-        <v>687</v>
+        <v>808</v>
       </c>
       <c r="J108" s="4" t="n">
-        <v>24189</v>
+        <v>34345</v>
       </c>
       <c r="K108" s="4" t="inlineStr"/>
       <c r="L108" s="4" t="n">
-        <v>5368</v>
+        <v>8567</v>
       </c>
       <c r="M108" s="4" t="n">
-        <v>7508</v>
+        <v>3653</v>
       </c>
       <c r="N108" s="4" t="n">
-        <v>4659</v>
+        <v>10367</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>5442</v>
+        <v>10039</v>
       </c>
     </row>
     <row r="109">
@@ -5782,34 +5782,34 @@
       <c r="D109" s="4" t="inlineStr"/>
       <c r="E109" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:34</t>
+          <t>2024-08-15 03:25</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr"/>
       <c r="G109" s="4" t="n">
-        <v>54405</v>
+        <v>55189</v>
       </c>
       <c r="H109" s="4" t="n">
-        <v>38530</v>
+        <v>46890</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>853</v>
+        <v>533</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>37677</v>
+        <v>46357</v>
       </c>
       <c r="K109" s="4" t="inlineStr"/>
       <c r="L109" s="4" t="n">
-        <v>4268</v>
+        <v>10133</v>
       </c>
       <c r="M109" s="4" t="n">
-        <v>10806</v>
+        <v>8491</v>
       </c>
       <c r="N109" s="4" t="n">
-        <v>16354</v>
+        <v>9465</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>4364</v>
+        <v>15948</v>
       </c>
     </row>
     <row r="110">
@@ -5831,34 +5831,34 @@
       <c r="D110" s="4" t="inlineStr"/>
       <c r="E110" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:14</t>
+          <t>2024-08-15 04:45</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr"/>
       <c r="G110" s="4" t="n">
-        <v>47859</v>
+        <v>50676</v>
       </c>
       <c r="H110" s="4" t="n">
-        <v>38960</v>
+        <v>43606</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>862</v>
+        <v>915</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>38098</v>
+        <v>42691</v>
       </c>
       <c r="K110" s="4" t="inlineStr"/>
       <c r="L110" s="4" t="n">
-        <v>9029</v>
+        <v>12697</v>
       </c>
       <c r="M110" s="4" t="n">
-        <v>5560</v>
+        <v>4892</v>
       </c>
       <c r="N110" s="4" t="n">
-        <v>14499</v>
+        <v>11052</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>7103</v>
+        <v>11913</v>
       </c>
     </row>
     <row r="111">
@@ -5880,34 +5880,34 @@
       <c r="D111" s="4" t="inlineStr"/>
       <c r="E111" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:46</t>
+          <t>2024-08-15 07:22</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr"/>
       <c r="G111" s="4" t="n">
-        <v>37005</v>
+        <v>36021</v>
       </c>
       <c r="H111" s="4" t="n">
-        <v>28863</v>
+        <v>22670</v>
       </c>
       <c r="I111" s="4" t="n">
-        <v>751</v>
+        <v>612</v>
       </c>
       <c r="J111" s="4" t="n">
-        <v>28112</v>
+        <v>22058</v>
       </c>
       <c r="K111" s="4" t="inlineStr"/>
       <c r="L111" s="4" t="n">
-        <v>8343</v>
+        <v>4220</v>
       </c>
       <c r="M111" s="4" t="n">
-        <v>4283</v>
+        <v>7470</v>
       </c>
       <c r="N111" s="4" t="n">
-        <v>4447</v>
+        <v>7412</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>9632</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="112">
@@ -5929,34 +5929,34 @@
       <c r="D112" s="4" t="inlineStr"/>
       <c r="E112" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:00</t>
+          <t>2024-08-15 04:51</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr"/>
       <c r="G112" s="4" t="n">
-        <v>90872</v>
+        <v>91304</v>
       </c>
       <c r="H112" s="4" t="n">
-        <v>58834</v>
+        <v>64747</v>
       </c>
       <c r="I112" s="4" t="n">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="J112" s="4" t="n">
-        <v>57496</v>
+        <v>63410</v>
       </c>
       <c r="K112" s="4" t="inlineStr"/>
       <c r="L112" s="4" t="n">
-        <v>18497</v>
+        <v>5419</v>
       </c>
       <c r="M112" s="4" t="n">
-        <v>12313</v>
+        <v>16321</v>
       </c>
       <c r="N112" s="4" t="n">
-        <v>12792</v>
+        <v>20176</v>
       </c>
       <c r="O112" s="4" t="n">
-        <v>11017</v>
+        <v>18321</v>
       </c>
     </row>
     <row r="113">
@@ -5978,34 +5978,34 @@
       <c r="D113" s="4" t="inlineStr"/>
       <c r="E113" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:21</t>
+          <t>2024-08-15 07:19</t>
         </is>
       </c>
       <c r="F113" s="4" t="inlineStr"/>
       <c r="G113" s="4" t="n">
-        <v>81143</v>
+        <v>78907</v>
       </c>
       <c r="H113" s="4" t="n">
-        <v>71951</v>
+        <v>59611</v>
       </c>
       <c r="I113" s="4" t="n">
-        <v>1405</v>
+        <v>1041</v>
       </c>
       <c r="J113" s="4" t="n">
-        <v>70546</v>
+        <v>58570</v>
       </c>
       <c r="K113" s="4" t="inlineStr"/>
       <c r="L113" s="4" t="n">
-        <v>15506</v>
+        <v>7744</v>
       </c>
       <c r="M113" s="4" t="n">
-        <v>24156</v>
+        <v>19717</v>
       </c>
       <c r="N113" s="4" t="n">
-        <v>19945</v>
+        <v>11672</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>7410</v>
+        <v>16507</v>
       </c>
     </row>
     <row r="114">
@@ -6027,34 +6027,34 @@
       <c r="D114" s="4" t="inlineStr"/>
       <c r="E114" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:32</t>
+          <t>2024-08-15 04:21</t>
         </is>
       </c>
       <c r="F114" s="4" t="inlineStr"/>
       <c r="G114" s="4" t="n">
-        <v>116285</v>
+        <v>120615</v>
       </c>
       <c r="H114" s="4" t="n">
-        <v>102567</v>
+        <v>92156</v>
       </c>
       <c r="I114" s="4" t="n">
-        <v>1059</v>
+        <v>1982</v>
       </c>
       <c r="J114" s="4" t="n">
-        <v>101508</v>
+        <v>90174</v>
       </c>
       <c r="K114" s="4" t="inlineStr"/>
       <c r="L114" s="4" t="n">
-        <v>25745</v>
+        <v>26532</v>
       </c>
       <c r="M114" s="4" t="n">
-        <v>28372</v>
+        <v>30757</v>
       </c>
       <c r="N114" s="4" t="n">
-        <v>19180</v>
+        <v>10704</v>
       </c>
       <c r="O114" s="4" t="n">
-        <v>23134</v>
+        <v>17670</v>
       </c>
     </row>
     <row r="115">
@@ -6076,34 +6076,34 @@
       <c r="D115" s="4" t="inlineStr"/>
       <c r="E115" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:15</t>
+          <t>2024-08-15 05:06</t>
         </is>
       </c>
       <c r="F115" s="4" t="inlineStr"/>
       <c r="G115" s="4" t="n">
-        <v>77156</v>
+        <v>74979</v>
       </c>
       <c r="H115" s="4" t="n">
-        <v>58806</v>
+        <v>57246</v>
       </c>
       <c r="I115" s="4" t="n">
-        <v>1312</v>
+        <v>789</v>
       </c>
       <c r="J115" s="4" t="n">
-        <v>57494</v>
+        <v>56457</v>
       </c>
       <c r="K115" s="4" t="inlineStr"/>
       <c r="L115" s="4" t="n">
-        <v>7354</v>
+        <v>6442</v>
       </c>
       <c r="M115" s="4" t="n">
-        <v>17156</v>
+        <v>20482</v>
       </c>
       <c r="N115" s="4" t="n">
-        <v>13565</v>
+        <v>8873</v>
       </c>
       <c r="O115" s="4" t="n">
-        <v>16543</v>
+        <v>17834</v>
       </c>
     </row>
     <row r="116">
@@ -6125,34 +6125,34 @@
       <c r="D116" s="4" t="inlineStr"/>
       <c r="E116" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:52</t>
+          <t>2024-08-15 05:50</t>
         </is>
       </c>
       <c r="F116" s="4" t="inlineStr"/>
       <c r="G116" s="4" t="n">
-        <v>127892</v>
+        <v>122329</v>
       </c>
       <c r="H116" s="4" t="n">
-        <v>97968</v>
+        <v>74240</v>
       </c>
       <c r="I116" s="4" t="n">
-        <v>1242</v>
+        <v>1486</v>
       </c>
       <c r="J116" s="4" t="n">
-        <v>96726</v>
+        <v>72754</v>
       </c>
       <c r="K116" s="4" t="inlineStr"/>
       <c r="L116" s="4" t="n">
-        <v>31813</v>
+        <v>12387</v>
       </c>
       <c r="M116" s="4" t="n">
-        <v>22113</v>
+        <v>18138</v>
       </c>
       <c r="N116" s="4" t="n">
-        <v>16226</v>
+        <v>14745</v>
       </c>
       <c r="O116" s="4" t="n">
-        <v>21735</v>
+        <v>23844</v>
       </c>
     </row>
     <row r="117">
@@ -6174,34 +6174,34 @@
       <c r="D117" s="4" t="inlineStr"/>
       <c r="E117" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:53</t>
+          <t>2024-08-15 01:47</t>
         </is>
       </c>
       <c r="F117" s="4" t="inlineStr"/>
       <c r="G117" s="4" t="n">
-        <v>192518</v>
+        <v>203243</v>
       </c>
       <c r="H117" s="4" t="n">
-        <v>172847</v>
+        <v>180190</v>
       </c>
       <c r="I117" s="4" t="n">
-        <v>3621</v>
+        <v>5163</v>
       </c>
       <c r="J117" s="4" t="n">
-        <v>169226</v>
+        <v>175027</v>
       </c>
       <c r="K117" s="4" t="inlineStr"/>
       <c r="L117" s="4" t="n">
-        <v>40481</v>
+        <v>46496</v>
       </c>
       <c r="M117" s="4" t="n">
-        <v>27985</v>
+        <v>45886</v>
       </c>
       <c r="N117" s="4" t="n">
-        <v>23354</v>
+        <v>38929</v>
       </c>
       <c r="O117" s="4" t="n">
-        <v>68943</v>
+        <v>34962</v>
       </c>
     </row>
     <row r="118">
@@ -6223,34 +6223,34 @@
       <c r="D118" s="4" t="inlineStr"/>
       <c r="E118" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:12</t>
+          <t>2024-08-15 08:54</t>
         </is>
       </c>
       <c r="F118" s="4" t="inlineStr"/>
       <c r="G118" s="4" t="n">
-        <v>94478</v>
+        <v>100074</v>
       </c>
       <c r="H118" s="4" t="n">
-        <v>78069</v>
+        <v>81539</v>
       </c>
       <c r="I118" s="4" t="n">
-        <v>1647</v>
+        <v>827</v>
       </c>
       <c r="J118" s="4" t="n">
-        <v>76422</v>
+        <v>80712</v>
       </c>
       <c r="K118" s="4" t="inlineStr"/>
       <c r="L118" s="4" t="n">
-        <v>32031</v>
+        <v>21010</v>
       </c>
       <c r="M118" s="4" t="n">
-        <v>17344</v>
+        <v>24815</v>
       </c>
       <c r="N118" s="4" t="n">
-        <v>11661</v>
+        <v>7277</v>
       </c>
       <c r="O118" s="4" t="n">
-        <v>11563</v>
+        <v>23573</v>
       </c>
     </row>
     <row r="119">
@@ -6272,34 +6272,34 @@
       <c r="D119" s="4" t="inlineStr"/>
       <c r="E119" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:06</t>
+          <t>2024-08-15 10:03</t>
         </is>
       </c>
       <c r="F119" s="4" t="inlineStr"/>
       <c r="G119" s="4" t="n">
-        <v>175259</v>
+        <v>170587</v>
       </c>
       <c r="H119" s="4" t="n">
-        <v>128882</v>
+        <v>109248</v>
       </c>
       <c r="I119" s="4" t="n">
-        <v>2109</v>
+        <v>2347</v>
       </c>
       <c r="J119" s="4" t="n">
-        <v>126773</v>
+        <v>106901</v>
       </c>
       <c r="K119" s="4" t="inlineStr"/>
       <c r="L119" s="4" t="n">
-        <v>18312</v>
+        <v>31420</v>
       </c>
       <c r="M119" s="4" t="n">
-        <v>36476</v>
+        <v>21205</v>
       </c>
       <c r="N119" s="4" t="n">
-        <v>38056</v>
+        <v>29088</v>
       </c>
       <c r="O119" s="4" t="n">
-        <v>27589</v>
+        <v>19840</v>
       </c>
     </row>
     <row r="120">
@@ -6321,34 +6321,34 @@
       <c r="D120" s="4" t="inlineStr"/>
       <c r="E120" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:23</t>
+          <t>2024-08-15 11:44</t>
         </is>
       </c>
       <c r="F120" s="4" t="inlineStr"/>
       <c r="G120" s="4" t="n">
-        <v>90021</v>
+        <v>93367</v>
       </c>
       <c r="H120" s="4" t="n">
-        <v>54646</v>
+        <v>57651</v>
       </c>
       <c r="I120" s="4" t="n">
-        <v>622</v>
+        <v>1161</v>
       </c>
       <c r="J120" s="4" t="n">
-        <v>54024</v>
+        <v>56490</v>
       </c>
       <c r="K120" s="4" t="inlineStr"/>
       <c r="L120" s="4" t="n">
-        <v>15140</v>
+        <v>13387</v>
       </c>
       <c r="M120" s="4" t="n">
-        <v>15429</v>
+        <v>8131</v>
       </c>
       <c r="N120" s="4" t="n">
-        <v>10316</v>
+        <v>16757</v>
       </c>
       <c r="O120" s="4" t="n">
-        <v>10436</v>
+        <v>15389</v>
       </c>
     </row>
     <row r="121">
@@ -6370,34 +6370,34 @@
       <c r="D121" s="4" t="inlineStr"/>
       <c r="E121" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:28</t>
+          <t>2024-08-15 03:57</t>
         </is>
       </c>
       <c r="F121" s="4" t="inlineStr"/>
       <c r="G121" s="4" t="n">
-        <v>79561</v>
+        <v>77015</v>
       </c>
       <c r="H121" s="4" t="n">
-        <v>68778</v>
+        <v>46637</v>
       </c>
       <c r="I121" s="4" t="n">
-        <v>1115</v>
+        <v>1032</v>
       </c>
       <c r="J121" s="4" t="n">
-        <v>67663</v>
+        <v>45605</v>
       </c>
       <c r="K121" s="4" t="inlineStr"/>
       <c r="L121" s="4" t="n">
-        <v>9118</v>
+        <v>10849</v>
       </c>
       <c r="M121" s="4" t="n">
-        <v>9288</v>
+        <v>5410</v>
       </c>
       <c r="N121" s="4" t="n">
-        <v>28487</v>
+        <v>12760</v>
       </c>
       <c r="O121" s="4" t="n">
-        <v>17385</v>
+        <v>14303</v>
       </c>
     </row>
     <row r="122">
@@ -6419,34 +6419,34 @@
       <c r="D122" s="4" t="inlineStr"/>
       <c r="E122" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:49</t>
+          <t>2024-08-15 03:13</t>
         </is>
       </c>
       <c r="F122" s="4" t="inlineStr"/>
       <c r="G122" s="4" t="n">
-        <v>172740</v>
+        <v>170121</v>
       </c>
       <c r="H122" s="4" t="n">
-        <v>121579</v>
+        <v>114516</v>
       </c>
       <c r="I122" s="4" t="n">
-        <v>3062</v>
+        <v>1232</v>
       </c>
       <c r="J122" s="4" t="n">
-        <v>118517</v>
+        <v>113284</v>
       </c>
       <c r="K122" s="4" t="inlineStr"/>
       <c r="L122" s="4" t="n">
-        <v>12087</v>
+        <v>14760</v>
       </c>
       <c r="M122" s="4" t="n">
-        <v>23818</v>
+        <v>40708</v>
       </c>
       <c r="N122" s="4" t="n">
-        <v>39014</v>
+        <v>18255</v>
       </c>
       <c r="O122" s="4" t="n">
-        <v>37671</v>
+        <v>33895</v>
       </c>
     </row>
     <row r="123">
@@ -6468,34 +6468,34 @@
       <c r="D123" s="4" t="inlineStr"/>
       <c r="E123" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:16</t>
+          <t>2024-08-15 09:22</t>
         </is>
       </c>
       <c r="F123" s="4" t="inlineStr"/>
       <c r="G123" s="4" t="n">
-        <v>75848</v>
+        <v>75820</v>
       </c>
       <c r="H123" s="4" t="n">
-        <v>66908</v>
+        <v>66517</v>
       </c>
       <c r="I123" s="4" t="n">
-        <v>1577</v>
+        <v>1194</v>
       </c>
       <c r="J123" s="4" t="n">
-        <v>65331</v>
+        <v>65323</v>
       </c>
       <c r="K123" s="4" t="inlineStr"/>
       <c r="L123" s="4" t="n">
-        <v>16575</v>
+        <v>14008</v>
       </c>
       <c r="M123" s="4" t="n">
-        <v>16043</v>
+        <v>11953</v>
       </c>
       <c r="N123" s="4" t="n">
-        <v>13256</v>
+        <v>11310</v>
       </c>
       <c r="O123" s="4" t="n">
-        <v>16189</v>
+        <v>24784</v>
       </c>
     </row>
     <row r="124">
@@ -6517,34 +6517,34 @@
       <c r="D124" s="4" t="inlineStr"/>
       <c r="E124" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:19</t>
+          <t>2024-08-15 05:11</t>
         </is>
       </c>
       <c r="F124" s="4" t="inlineStr"/>
       <c r="G124" s="4" t="n">
-        <v>94846</v>
+        <v>95261</v>
       </c>
       <c r="H124" s="4" t="n">
-        <v>67243</v>
+        <v>63284</v>
       </c>
       <c r="I124" s="4" t="n">
-        <v>1619</v>
+        <v>1191</v>
       </c>
       <c r="J124" s="4" t="n">
-        <v>65624</v>
+        <v>62093</v>
       </c>
       <c r="K124" s="4" t="inlineStr"/>
       <c r="L124" s="4" t="n">
-        <v>6834</v>
+        <v>14126</v>
       </c>
       <c r="M124" s="4" t="n">
-        <v>10267</v>
+        <v>8316</v>
       </c>
       <c r="N124" s="4" t="n">
-        <v>16690</v>
+        <v>12069</v>
       </c>
       <c r="O124" s="4" t="n">
-        <v>28550</v>
+        <v>24476</v>
       </c>
     </row>
     <row r="125">
@@ -6566,34 +6566,34 @@
       <c r="D125" s="4" t="inlineStr"/>
       <c r="E125" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:27</t>
+          <t>2024-08-15 06:20</t>
         </is>
       </c>
       <c r="F125" s="4" t="inlineStr"/>
       <c r="G125" s="4" t="n">
-        <v>117074</v>
+        <v>111121</v>
       </c>
       <c r="H125" s="4" t="n">
-        <v>70266</v>
+        <v>72960</v>
       </c>
       <c r="I125" s="4" t="n">
-        <v>1968</v>
+        <v>1995</v>
       </c>
       <c r="J125" s="4" t="n">
-        <v>68298</v>
+        <v>70965</v>
       </c>
       <c r="K125" s="4" t="inlineStr"/>
       <c r="L125" s="4" t="n">
-        <v>11368</v>
+        <v>20868</v>
       </c>
       <c r="M125" s="4" t="n">
-        <v>24749</v>
+        <v>7932</v>
       </c>
       <c r="N125" s="4" t="n">
-        <v>14153</v>
+        <v>15228</v>
       </c>
       <c r="O125" s="4" t="n">
-        <v>14611</v>
+        <v>23386</v>
       </c>
     </row>
     <row r="126">
@@ -6615,34 +6615,34 @@
       <c r="D126" s="4" t="inlineStr"/>
       <c r="E126" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:24</t>
+          <t>2024-08-15 04:28</t>
         </is>
       </c>
       <c r="F126" s="4" t="inlineStr"/>
       <c r="G126" s="4" t="n">
-        <v>107765</v>
+        <v>109369</v>
       </c>
       <c r="H126" s="4" t="n">
-        <v>84820</v>
+        <v>90243</v>
       </c>
       <c r="I126" s="4" t="n">
-        <v>2441</v>
+        <v>1556</v>
       </c>
       <c r="J126" s="4" t="n">
-        <v>82379</v>
+        <v>88687</v>
       </c>
       <c r="K126" s="4" t="inlineStr"/>
       <c r="L126" s="4" t="n">
-        <v>28473</v>
+        <v>19355</v>
       </c>
       <c r="M126" s="4" t="n">
-        <v>17154</v>
+        <v>12672</v>
       </c>
       <c r="N126" s="4" t="n">
-        <v>17261</v>
+        <v>22469</v>
       </c>
       <c r="O126" s="4" t="n">
-        <v>15370</v>
+        <v>29754</v>
       </c>
     </row>
     <row r="127">
@@ -6664,34 +6664,34 @@
       <c r="D127" s="4" t="inlineStr"/>
       <c r="E127" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:00</t>
+          <t>2024-08-15 07:10</t>
         </is>
       </c>
       <c r="F127" s="4" t="inlineStr"/>
       <c r="G127" s="4" t="n">
-        <v>102584</v>
+        <v>98435</v>
       </c>
       <c r="H127" s="4" t="n">
-        <v>84266</v>
+        <v>67987</v>
       </c>
       <c r="I127" s="4" t="n">
-        <v>1800</v>
+        <v>1238</v>
       </c>
       <c r="J127" s="4" t="n">
-        <v>82466</v>
+        <v>66749</v>
       </c>
       <c r="K127" s="4" t="inlineStr"/>
       <c r="L127" s="4" t="n">
-        <v>25434</v>
+        <v>27399</v>
       </c>
       <c r="M127" s="4" t="n">
-        <v>10379</v>
+        <v>13595</v>
       </c>
       <c r="N127" s="4" t="n">
-        <v>30896</v>
+        <v>9999</v>
       </c>
       <c r="O127" s="4" t="n">
-        <v>11631</v>
+        <v>12416</v>
       </c>
     </row>
     <row r="128">
@@ -6713,34 +6713,34 @@
       <c r="D128" s="4" t="inlineStr"/>
       <c r="E128" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:34</t>
+          <t>2024-08-15 02:32</t>
         </is>
       </c>
       <c r="F128" s="4" t="inlineStr"/>
       <c r="G128" s="4" t="n">
-        <v>117425</v>
+        <v>118762</v>
       </c>
       <c r="H128" s="4" t="n">
-        <v>78399</v>
+        <v>94686</v>
       </c>
       <c r="I128" s="4" t="n">
-        <v>1858</v>
+        <v>2239</v>
       </c>
       <c r="J128" s="4" t="n">
-        <v>76541</v>
+        <v>92447</v>
       </c>
       <c r="K128" s="4" t="inlineStr"/>
       <c r="L128" s="4" t="n">
-        <v>23342</v>
+        <v>21535</v>
       </c>
       <c r="M128" s="4" t="n">
-        <v>17410</v>
+        <v>23119</v>
       </c>
       <c r="N128" s="4" t="n">
-        <v>23817</v>
+        <v>17448</v>
       </c>
       <c r="O128" s="4" t="n">
-        <v>8143</v>
+        <v>25721</v>
       </c>
     </row>
     <row r="129">
@@ -6762,34 +6762,34 @@
       <c r="D129" s="4" t="inlineStr"/>
       <c r="E129" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:41</t>
+          <t>2024-08-15 05:50</t>
         </is>
       </c>
       <c r="F129" s="4" t="inlineStr"/>
       <c r="G129" s="4" t="n">
-        <v>100551</v>
+        <v>101777</v>
       </c>
       <c r="H129" s="4" t="n">
-        <v>88371</v>
+        <v>84349</v>
       </c>
       <c r="I129" s="4" t="n">
-        <v>920</v>
+        <v>1674</v>
       </c>
       <c r="J129" s="4" t="n">
-        <v>87451</v>
+        <v>82675</v>
       </c>
       <c r="K129" s="4" t="inlineStr"/>
       <c r="L129" s="4" t="n">
-        <v>10116</v>
+        <v>14066</v>
       </c>
       <c r="M129" s="4" t="n">
-        <v>24199</v>
+        <v>12598</v>
       </c>
       <c r="N129" s="4" t="n">
-        <v>29748</v>
+        <v>31053</v>
       </c>
       <c r="O129" s="4" t="n">
-        <v>19013</v>
+        <v>20822</v>
       </c>
     </row>
     <row r="130">
@@ -6811,34 +6811,34 @@
       <c r="D130" s="4" t="inlineStr"/>
       <c r="E130" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 00:54</t>
+          <t>2024-08-15 09:07</t>
         </is>
       </c>
       <c r="F130" s="4" t="inlineStr"/>
       <c r="G130" s="4" t="n">
-        <v>83658</v>
+        <v>80545</v>
       </c>
       <c r="H130" s="4" t="n">
-        <v>55858</v>
+        <v>52052</v>
       </c>
       <c r="I130" s="4" t="n">
-        <v>1279</v>
+        <v>555</v>
       </c>
       <c r="J130" s="4" t="n">
-        <v>54579</v>
+        <v>51497</v>
       </c>
       <c r="K130" s="4" t="inlineStr"/>
       <c r="L130" s="4" t="n">
-        <v>8208</v>
+        <v>10336</v>
       </c>
       <c r="M130" s="4" t="n">
-        <v>12741</v>
+        <v>14722</v>
       </c>
       <c r="N130" s="4" t="n">
-        <v>15284</v>
+        <v>8921</v>
       </c>
       <c r="O130" s="4" t="n">
-        <v>15616</v>
+        <v>14941</v>
       </c>
     </row>
     <row r="131">
@@ -6860,34 +6860,34 @@
       <c r="D131" s="4" t="inlineStr"/>
       <c r="E131" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:07</t>
+          <t>2024-08-15 07:55</t>
         </is>
       </c>
       <c r="F131" s="4" t="inlineStr"/>
       <c r="G131" s="4" t="n">
-        <v>78226</v>
+        <v>80874</v>
       </c>
       <c r="H131" s="4" t="n">
-        <v>63996</v>
+        <v>50364</v>
       </c>
       <c r="I131" s="4" t="n">
-        <v>655</v>
+        <v>1463</v>
       </c>
       <c r="J131" s="4" t="n">
-        <v>63341</v>
+        <v>48901</v>
       </c>
       <c r="K131" s="4" t="inlineStr"/>
       <c r="L131" s="4" t="n">
-        <v>21869</v>
+        <v>14266</v>
       </c>
       <c r="M131" s="4" t="n">
-        <v>7658</v>
+        <v>12457</v>
       </c>
       <c r="N131" s="4" t="n">
-        <v>17247</v>
+        <v>4714</v>
       </c>
       <c r="O131" s="4" t="n">
-        <v>13398</v>
+        <v>15018</v>
       </c>
     </row>
     <row r="132">
@@ -6909,34 +6909,34 @@
       <c r="D132" s="4" t="inlineStr"/>
       <c r="E132" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:33</t>
+          <t>2024-08-15 11:44</t>
         </is>
       </c>
       <c r="F132" s="4" t="inlineStr"/>
       <c r="G132" s="4" t="n">
-        <v>93936</v>
+        <v>99811</v>
       </c>
       <c r="H132" s="4" t="n">
-        <v>67195</v>
+        <v>81009</v>
       </c>
       <c r="I132" s="4" t="n">
-        <v>1030</v>
+        <v>1954</v>
       </c>
       <c r="J132" s="4" t="n">
-        <v>66165</v>
+        <v>79055</v>
       </c>
       <c r="K132" s="4" t="inlineStr"/>
       <c r="L132" s="4" t="n">
-        <v>10521</v>
+        <v>30088</v>
       </c>
       <c r="M132" s="4" t="n">
-        <v>19126</v>
+        <v>16053</v>
       </c>
       <c r="N132" s="4" t="n">
-        <v>7248</v>
+        <v>17151</v>
       </c>
       <c r="O132" s="4" t="n">
-        <v>25960</v>
+        <v>11809</v>
       </c>
     </row>
     <row r="133">
@@ -6958,34 +6958,34 @@
       <c r="D133" s="4" t="inlineStr"/>
       <c r="E133" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:13</t>
+          <t>2024-08-15 08:11</t>
         </is>
       </c>
       <c r="F133" s="4" t="inlineStr"/>
       <c r="G133" s="4" t="n">
-        <v>99066</v>
+        <v>97470</v>
       </c>
       <c r="H133" s="4" t="n">
-        <v>68907</v>
+        <v>81321</v>
       </c>
       <c r="I133" s="4" t="n">
-        <v>787</v>
+        <v>1874</v>
       </c>
       <c r="J133" s="4" t="n">
-        <v>68120</v>
+        <v>79447</v>
       </c>
       <c r="K133" s="4" t="inlineStr"/>
       <c r="L133" s="4" t="n">
-        <v>8796</v>
+        <v>11883</v>
       </c>
       <c r="M133" s="4" t="n">
-        <v>11059</v>
+        <v>27035</v>
       </c>
       <c r="N133" s="4" t="n">
-        <v>23485</v>
+        <v>28366</v>
       </c>
       <c r="O133" s="4" t="n">
-        <v>21373</v>
+        <v>8189</v>
       </c>
     </row>
     <row r="134">
@@ -7007,34 +7007,34 @@
       <c r="D134" s="4" t="inlineStr"/>
       <c r="E134" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:03</t>
+          <t>2024-08-15 07:26</t>
         </is>
       </c>
       <c r="F134" s="4" t="inlineStr"/>
       <c r="G134" s="4" t="n">
-        <v>104290</v>
+        <v>105324</v>
       </c>
       <c r="H134" s="4" t="n">
-        <v>90322</v>
+        <v>84213</v>
       </c>
       <c r="I134" s="4" t="n">
-        <v>2249</v>
+        <v>1868</v>
       </c>
       <c r="J134" s="4" t="n">
-        <v>88073</v>
+        <v>82345</v>
       </c>
       <c r="K134" s="4" t="inlineStr"/>
       <c r="L134" s="4" t="n">
-        <v>6602</v>
+        <v>15586</v>
       </c>
       <c r="M134" s="4" t="n">
-        <v>28383</v>
+        <v>10636</v>
       </c>
       <c r="N134" s="4" t="n">
-        <v>20097</v>
+        <v>20789</v>
       </c>
       <c r="O134" s="4" t="n">
-        <v>28586</v>
+        <v>31215</v>
       </c>
     </row>
     <row r="135">
@@ -7056,34 +7056,34 @@
       <c r="D135" s="4" t="inlineStr"/>
       <c r="E135" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:00</t>
+          <t>2024-08-15 04:01</t>
         </is>
       </c>
       <c r="F135" s="4" t="inlineStr"/>
       <c r="G135" s="4" t="n">
-        <v>102275</v>
+        <v>100226</v>
       </c>
       <c r="H135" s="4" t="n">
-        <v>79160</v>
+        <v>77222</v>
       </c>
       <c r="I135" s="4" t="n">
-        <v>1373</v>
+        <v>1168</v>
       </c>
       <c r="J135" s="4" t="n">
-        <v>77787</v>
+        <v>76054</v>
       </c>
       <c r="K135" s="4" t="inlineStr"/>
       <c r="L135" s="4" t="n">
-        <v>17740</v>
+        <v>24243</v>
       </c>
       <c r="M135" s="4" t="n">
-        <v>27523</v>
+        <v>16421</v>
       </c>
       <c r="N135" s="4" t="n">
-        <v>9298</v>
+        <v>22813</v>
       </c>
       <c r="O135" s="4" t="n">
-        <v>19334</v>
+        <v>8772</v>
       </c>
     </row>
     <row r="136">
@@ -7105,34 +7105,34 @@
       <c r="D136" s="4" t="inlineStr"/>
       <c r="E136" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:52</t>
+          <t>2024-08-15 03:48</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr"/>
       <c r="G136" s="4" t="n">
-        <v>83828</v>
+        <v>77163</v>
       </c>
       <c r="H136" s="4" t="n">
-        <v>54156</v>
+        <v>57525</v>
       </c>
       <c r="I136" s="4" t="n">
-        <v>1250</v>
+        <v>1370</v>
       </c>
       <c r="J136" s="4" t="n">
-        <v>52906</v>
+        <v>56155</v>
       </c>
       <c r="K136" s="4" t="inlineStr"/>
       <c r="L136" s="4" t="n">
-        <v>7013</v>
+        <v>8745</v>
       </c>
       <c r="M136" s="4" t="n">
-        <v>9156</v>
+        <v>8396</v>
       </c>
       <c r="N136" s="4" t="n">
-        <v>13125</v>
+        <v>20114</v>
       </c>
       <c r="O136" s="4" t="n">
-        <v>20964</v>
+        <v>16090</v>
       </c>
     </row>
     <row r="137">
@@ -7154,34 +7154,34 @@
       <c r="D137" s="4" t="inlineStr"/>
       <c r="E137" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:47</t>
+          <t>2024-08-15 08:00</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr"/>
       <c r="G137" s="4" t="n">
-        <v>98323</v>
+        <v>100528</v>
       </c>
       <c r="H137" s="4" t="n">
-        <v>86254</v>
+        <v>62666</v>
       </c>
       <c r="I137" s="4" t="n">
-        <v>1403</v>
+        <v>1493</v>
       </c>
       <c r="J137" s="4" t="n">
-        <v>84851</v>
+        <v>61173</v>
       </c>
       <c r="K137" s="4" t="inlineStr"/>
       <c r="L137" s="4" t="n">
-        <v>14682</v>
+        <v>14591</v>
       </c>
       <c r="M137" s="4" t="n">
-        <v>31898</v>
+        <v>17993</v>
       </c>
       <c r="N137" s="4" t="n">
-        <v>15041</v>
+        <v>16519</v>
       </c>
       <c r="O137" s="4" t="n">
-        <v>18986</v>
+        <v>9010</v>
       </c>
     </row>
     <row r="138">
@@ -7203,34 +7203,34 @@
       <c r="D138" s="4" t="inlineStr"/>
       <c r="E138" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:54</t>
+          <t>2024-08-15 06:31</t>
         </is>
       </c>
       <c r="F138" s="4" t="inlineStr"/>
       <c r="G138" s="4" t="n">
-        <v>100655</v>
+        <v>96927</v>
       </c>
       <c r="H138" s="4" t="n">
-        <v>75192</v>
+        <v>84385</v>
       </c>
       <c r="I138" s="4" t="n">
-        <v>2109</v>
+        <v>850</v>
       </c>
       <c r="J138" s="4" t="n">
-        <v>73083</v>
+        <v>83535</v>
       </c>
       <c r="K138" s="4" t="inlineStr"/>
       <c r="L138" s="4" t="n">
-        <v>20508</v>
+        <v>21770</v>
       </c>
       <c r="M138" s="4" t="n">
-        <v>20056</v>
+        <v>19489</v>
       </c>
       <c r="N138" s="4" t="n">
-        <v>18977</v>
+        <v>7045</v>
       </c>
       <c r="O138" s="4" t="n">
-        <v>9886</v>
+        <v>31052</v>
       </c>
     </row>
     <row r="139">
@@ -7252,34 +7252,34 @@
       <c r="D139" s="4" t="inlineStr"/>
       <c r="E139" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:35</t>
+          <t>2024-08-15 01:44</t>
         </is>
       </c>
       <c r="F139" s="4" t="inlineStr"/>
       <c r="G139" s="4" t="n">
-        <v>71435</v>
+        <v>77355</v>
       </c>
       <c r="H139" s="4" t="n">
-        <v>50000</v>
+        <v>68926</v>
       </c>
       <c r="I139" s="4" t="n">
-        <v>1203</v>
+        <v>1292</v>
       </c>
       <c r="J139" s="4" t="n">
-        <v>48797</v>
+        <v>67634</v>
       </c>
       <c r="K139" s="4" t="inlineStr"/>
       <c r="L139" s="4" t="n">
-        <v>11464</v>
+        <v>20856</v>
       </c>
       <c r="M139" s="4" t="n">
-        <v>15863</v>
+        <v>15574</v>
       </c>
       <c r="N139" s="4" t="n">
-        <v>14979</v>
+        <v>12079</v>
       </c>
       <c r="O139" s="4" t="n">
-        <v>4049</v>
+        <v>15742</v>
       </c>
     </row>
     <row r="140">
@@ -7301,34 +7301,34 @@
       <c r="D140" s="4" t="inlineStr"/>
       <c r="E140" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:51</t>
+          <t>2024-08-15 01:44</t>
         </is>
       </c>
       <c r="F140" s="4" t="inlineStr"/>
       <c r="G140" s="4" t="n">
-        <v>151436</v>
+        <v>158742</v>
       </c>
       <c r="H140" s="4" t="n">
-        <v>133243</v>
+        <v>113787</v>
       </c>
       <c r="I140" s="4" t="n">
-        <v>2948</v>
+        <v>3219</v>
       </c>
       <c r="J140" s="4" t="n">
-        <v>130295</v>
+        <v>110568</v>
       </c>
       <c r="K140" s="4" t="inlineStr"/>
       <c r="L140" s="4" t="n">
-        <v>47610</v>
+        <v>12809</v>
       </c>
       <c r="M140" s="4" t="n">
-        <v>25472</v>
+        <v>40457</v>
       </c>
       <c r="N140" s="4" t="n">
-        <v>32054</v>
+        <v>19782</v>
       </c>
       <c r="O140" s="4" t="n">
-        <v>18643</v>
+        <v>31989</v>
       </c>
     </row>
     <row r="141">
@@ -7350,34 +7350,34 @@
       <c r="D141" s="4" t="inlineStr"/>
       <c r="E141" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:44</t>
+          <t>2024-08-15 11:26</t>
         </is>
       </c>
       <c r="F141" s="4" t="inlineStr"/>
       <c r="G141" s="4" t="n">
-        <v>129184</v>
+        <v>123778</v>
       </c>
       <c r="H141" s="4" t="n">
-        <v>106189</v>
+        <v>83008</v>
       </c>
       <c r="I141" s="4" t="n">
-        <v>1893</v>
+        <v>2213</v>
       </c>
       <c r="J141" s="4" t="n">
-        <v>104296</v>
+        <v>80795</v>
       </c>
       <c r="K141" s="4" t="inlineStr"/>
       <c r="L141" s="4" t="n">
-        <v>20841</v>
+        <v>22788</v>
       </c>
       <c r="M141" s="4" t="n">
-        <v>22217</v>
+        <v>22568</v>
       </c>
       <c r="N141" s="4" t="n">
-        <v>31407</v>
+        <v>18517</v>
       </c>
       <c r="O141" s="4" t="n">
-        <v>24613</v>
+        <v>12881</v>
       </c>
     </row>
     <row r="142">
@@ -7399,34 +7399,34 @@
       <c r="D142" s="4" t="inlineStr"/>
       <c r="E142" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:17</t>
+          <t>2024-08-15 05:49</t>
         </is>
       </c>
       <c r="F142" s="4" t="inlineStr"/>
       <c r="G142" s="4" t="n">
-        <v>127947</v>
+        <v>125408</v>
       </c>
       <c r="H142" s="4" t="n">
-        <v>102230</v>
+        <v>76527</v>
       </c>
       <c r="I142" s="4" t="n">
-        <v>1165</v>
+        <v>1825</v>
       </c>
       <c r="J142" s="4" t="n">
-        <v>101065</v>
+        <v>74702</v>
       </c>
       <c r="K142" s="4" t="inlineStr"/>
       <c r="L142" s="4" t="n">
-        <v>23910</v>
+        <v>11864</v>
       </c>
       <c r="M142" s="4" t="n">
-        <v>23041</v>
+        <v>18334</v>
       </c>
       <c r="N142" s="4" t="n">
-        <v>26017</v>
+        <v>17017</v>
       </c>
       <c r="O142" s="4" t="n">
-        <v>23041</v>
+        <v>23749</v>
       </c>
     </row>
     <row r="143">
@@ -7448,34 +7448,34 @@
       <c r="D143" s="4" t="inlineStr"/>
       <c r="E143" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:46</t>
+          <t>2024-08-15 09:11</t>
         </is>
       </c>
       <c r="F143" s="4" t="inlineStr"/>
       <c r="G143" s="4" t="n">
-        <v>102461</v>
+        <v>103870</v>
       </c>
       <c r="H143" s="4" t="n">
-        <v>78965</v>
+        <v>67067</v>
       </c>
       <c r="I143" s="4" t="n">
-        <v>2052</v>
+        <v>1291</v>
       </c>
       <c r="J143" s="4" t="n">
-        <v>76913</v>
+        <v>65776</v>
       </c>
       <c r="K143" s="4" t="inlineStr"/>
       <c r="L143" s="4" t="n">
-        <v>9878</v>
+        <v>20791</v>
       </c>
       <c r="M143" s="4" t="n">
-        <v>20159</v>
+        <v>8697</v>
       </c>
       <c r="N143" s="4" t="n">
-        <v>24647</v>
+        <v>19140</v>
       </c>
       <c r="O143" s="4" t="n">
-        <v>18382</v>
+        <v>13857</v>
       </c>
     </row>
     <row r="144">
@@ -7497,34 +7497,34 @@
       <c r="D144" s="4" t="inlineStr"/>
       <c r="E144" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:31</t>
+          <t>2024-08-15 09:51</t>
         </is>
       </c>
       <c r="F144" s="4" t="inlineStr"/>
       <c r="G144" s="4" t="n">
-        <v>115672</v>
+        <v>121382</v>
       </c>
       <c r="H144" s="4" t="n">
-        <v>85577</v>
+        <v>92401</v>
       </c>
       <c r="I144" s="4" t="n">
-        <v>2395</v>
+        <v>1258</v>
       </c>
       <c r="J144" s="4" t="n">
-        <v>83182</v>
+        <v>91143</v>
       </c>
       <c r="K144" s="4" t="inlineStr"/>
       <c r="L144" s="4" t="n">
-        <v>21044</v>
+        <v>9599</v>
       </c>
       <c r="M144" s="4" t="n">
-        <v>23852</v>
+        <v>20135</v>
       </c>
       <c r="N144" s="4" t="n">
-        <v>18468</v>
+        <v>25530</v>
       </c>
       <c r="O144" s="4" t="n">
-        <v>15656</v>
+        <v>31320</v>
       </c>
     </row>
     <row r="145">
@@ -7546,34 +7546,34 @@
       <c r="D145" s="4" t="inlineStr"/>
       <c r="E145" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:31</t>
+          <t>2024-08-15 10:01</t>
         </is>
       </c>
       <c r="F145" s="4" t="inlineStr"/>
       <c r="G145" s="4" t="n">
-        <v>88222</v>
+        <v>88085</v>
       </c>
       <c r="H145" s="4" t="n">
-        <v>63936</v>
+        <v>53713</v>
       </c>
       <c r="I145" s="4" t="n">
-        <v>1673</v>
+        <v>1410</v>
       </c>
       <c r="J145" s="4" t="n">
-        <v>62263</v>
+        <v>52303</v>
       </c>
       <c r="K145" s="4" t="inlineStr"/>
       <c r="L145" s="4" t="n">
-        <v>11796</v>
+        <v>19045</v>
       </c>
       <c r="M145" s="4" t="n">
-        <v>21334</v>
+        <v>9092</v>
       </c>
       <c r="N145" s="4" t="n">
-        <v>7008</v>
+        <v>4822</v>
       </c>
       <c r="O145" s="4" t="n">
-        <v>19009</v>
+        <v>16727</v>
       </c>
     </row>
     <row r="146">
@@ -7595,34 +7595,34 @@
       <c r="D146" s="4" t="inlineStr"/>
       <c r="E146" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:54</t>
+          <t>2024-08-15 01:06</t>
         </is>
       </c>
       <c r="F146" s="4" t="inlineStr"/>
       <c r="G146" s="4" t="n">
-        <v>87053</v>
+        <v>82082</v>
       </c>
       <c r="H146" s="4" t="n">
-        <v>60885</v>
+        <v>53543</v>
       </c>
       <c r="I146" s="4" t="n">
-        <v>1711</v>
+        <v>1064</v>
       </c>
       <c r="J146" s="4" t="n">
-        <v>59174</v>
+        <v>52479</v>
       </c>
       <c r="K146" s="4" t="inlineStr"/>
       <c r="L146" s="4" t="n">
-        <v>14471</v>
+        <v>12584</v>
       </c>
       <c r="M146" s="4" t="n">
-        <v>18466</v>
+        <v>13428</v>
       </c>
       <c r="N146" s="4" t="n">
-        <v>13148</v>
+        <v>19350</v>
       </c>
       <c r="O146" s="4" t="n">
-        <v>10128</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="147">
@@ -7644,34 +7644,34 @@
       <c r="D147" s="4" t="inlineStr"/>
       <c r="E147" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:10</t>
+          <t>2024-08-15 06:22</t>
         </is>
       </c>
       <c r="F147" s="4" t="inlineStr"/>
       <c r="G147" s="4" t="n">
-        <v>104799</v>
+        <v>98676</v>
       </c>
       <c r="H147" s="4" t="n">
-        <v>78387</v>
+        <v>59675</v>
       </c>
       <c r="I147" s="4" t="n">
-        <v>2113</v>
+        <v>1698</v>
       </c>
       <c r="J147" s="4" t="n">
-        <v>76274</v>
+        <v>57977</v>
       </c>
       <c r="K147" s="4" t="inlineStr"/>
       <c r="L147" s="4" t="n">
-        <v>16650</v>
+        <v>14340</v>
       </c>
       <c r="M147" s="4" t="n">
-        <v>27295</v>
+        <v>12729</v>
       </c>
       <c r="N147" s="4" t="n">
-        <v>11490</v>
+        <v>6982</v>
       </c>
       <c r="O147" s="4" t="n">
-        <v>17024</v>
+        <v>21026</v>
       </c>
     </row>
     <row r="148">
@@ -7693,34 +7693,34 @@
       <c r="D148" s="4" t="inlineStr"/>
       <c r="E148" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:30</t>
+          <t>2024-08-15 02:17</t>
         </is>
       </c>
       <c r="F148" s="4" t="inlineStr"/>
       <c r="G148" s="4" t="n">
-        <v>105833</v>
+        <v>105040</v>
       </c>
       <c r="H148" s="4" t="n">
-        <v>74725</v>
+        <v>88657</v>
       </c>
       <c r="I148" s="4" t="n">
-        <v>1259</v>
+        <v>1801</v>
       </c>
       <c r="J148" s="4" t="n">
-        <v>73466</v>
+        <v>86856</v>
       </c>
       <c r="K148" s="4" t="inlineStr"/>
       <c r="L148" s="4" t="n">
-        <v>28308</v>
+        <v>25724</v>
       </c>
       <c r="M148" s="4" t="n">
-        <v>12531</v>
+        <v>21546</v>
       </c>
       <c r="N148" s="4" t="n">
-        <v>21613</v>
+        <v>12130</v>
       </c>
       <c r="O148" s="4" t="n">
-        <v>7339</v>
+        <v>23112</v>
       </c>
     </row>
     <row r="149">
@@ -7742,34 +7742,34 @@
       <c r="D149" s="4" t="inlineStr"/>
       <c r="E149" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:35</t>
+          <t>2024-08-15 11:53</t>
         </is>
       </c>
       <c r="F149" s="4" t="inlineStr"/>
       <c r="G149" s="4" t="n">
-        <v>127486</v>
+        <v>134469</v>
       </c>
       <c r="H149" s="4" t="n">
-        <v>96641</v>
+        <v>116329</v>
       </c>
       <c r="I149" s="4" t="n">
-        <v>1684</v>
+        <v>2364</v>
       </c>
       <c r="J149" s="4" t="n">
-        <v>94957</v>
+        <v>113965</v>
       </c>
       <c r="K149" s="4" t="inlineStr"/>
       <c r="L149" s="4" t="n">
-        <v>15836</v>
+        <v>18745</v>
       </c>
       <c r="M149" s="4" t="n">
-        <v>26228</v>
+        <v>17971</v>
       </c>
       <c r="N149" s="4" t="n">
-        <v>35876</v>
+        <v>37961</v>
       </c>
       <c r="O149" s="4" t="n">
-        <v>12267</v>
+        <v>33588</v>
       </c>
     </row>
     <row r="150">
@@ -7791,34 +7791,34 @@
       <c r="D150" s="4" t="inlineStr"/>
       <c r="E150" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:17</t>
+          <t>2024-08-15 06:17</t>
         </is>
       </c>
       <c r="F150" s="4" t="inlineStr"/>
       <c r="G150" s="4" t="n">
-        <v>66734</v>
+        <v>67494</v>
       </c>
       <c r="H150" s="4" t="n">
-        <v>53992</v>
+        <v>48336</v>
       </c>
       <c r="I150" s="4" t="n">
-        <v>887</v>
+        <v>537</v>
       </c>
       <c r="J150" s="4" t="n">
-        <v>53105</v>
+        <v>47799</v>
       </c>
       <c r="K150" s="4" t="inlineStr"/>
       <c r="L150" s="4" t="n">
-        <v>14914</v>
+        <v>8837</v>
       </c>
       <c r="M150" s="4" t="n">
-        <v>8727</v>
+        <v>12833</v>
       </c>
       <c r="N150" s="4" t="n">
-        <v>10744</v>
+        <v>9730</v>
       </c>
       <c r="O150" s="4" t="n">
-        <v>16064</v>
+        <v>14007</v>
       </c>
     </row>
     <row r="151">
@@ -7840,34 +7840,34 @@
       <c r="D151" s="4" t="inlineStr"/>
       <c r="E151" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:33</t>
+          <t>2024-08-15 02:28</t>
         </is>
       </c>
       <c r="F151" s="4" t="inlineStr"/>
       <c r="G151" s="4" t="n">
-        <v>91395</v>
+        <v>87598</v>
       </c>
       <c r="H151" s="4" t="n">
-        <v>60987</v>
+        <v>59952</v>
       </c>
       <c r="I151" s="4" t="n">
-        <v>1806</v>
+        <v>1666</v>
       </c>
       <c r="J151" s="4" t="n">
-        <v>59181</v>
+        <v>58286</v>
       </c>
       <c r="K151" s="4" t="inlineStr"/>
       <c r="L151" s="4" t="n">
-        <v>9511</v>
+        <v>12985</v>
       </c>
       <c r="M151" s="4" t="n">
-        <v>21280</v>
+        <v>14540</v>
       </c>
       <c r="N151" s="4" t="n">
-        <v>13036</v>
+        <v>13384</v>
       </c>
       <c r="O151" s="4" t="n">
-        <v>12393</v>
+        <v>14460</v>
       </c>
     </row>
     <row r="152">
@@ -7889,34 +7889,34 @@
       <c r="D152" s="4" t="inlineStr"/>
       <c r="E152" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:57</t>
+          <t>2024-08-15 12:59</t>
         </is>
       </c>
       <c r="F152" s="4" t="inlineStr"/>
       <c r="G152" s="4" t="n">
-        <v>86941</v>
+        <v>84549</v>
       </c>
       <c r="H152" s="4" t="n">
-        <v>64876</v>
+        <v>76052</v>
       </c>
       <c r="I152" s="4" t="n">
-        <v>866</v>
+        <v>2256</v>
       </c>
       <c r="J152" s="4" t="n">
-        <v>64010</v>
+        <v>73796</v>
       </c>
       <c r="K152" s="4" t="inlineStr"/>
       <c r="L152" s="4" t="n">
-        <v>27142</v>
+        <v>18159</v>
       </c>
       <c r="M152" s="4" t="n">
-        <v>9574</v>
+        <v>26438</v>
       </c>
       <c r="N152" s="4" t="n">
-        <v>13383</v>
+        <v>11096</v>
       </c>
       <c r="O152" s="4" t="n">
-        <v>10708</v>
+        <v>14411</v>
       </c>
     </row>
     <row r="153">
@@ -7938,34 +7938,34 @@
       <c r="D153" s="4" t="inlineStr"/>
       <c r="E153" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:45</t>
+          <t>2024-08-15 02:06</t>
         </is>
       </c>
       <c r="F153" s="4" t="inlineStr"/>
       <c r="G153" s="4" t="n">
-        <v>85462</v>
+        <v>83041</v>
       </c>
       <c r="H153" s="4" t="n">
-        <v>63989</v>
+        <v>52736</v>
       </c>
       <c r="I153" s="4" t="n">
-        <v>1760</v>
+        <v>810</v>
       </c>
       <c r="J153" s="4" t="n">
-        <v>62229</v>
+        <v>51926</v>
       </c>
       <c r="K153" s="4" t="inlineStr"/>
       <c r="L153" s="4" t="n">
-        <v>25436</v>
+        <v>14902</v>
       </c>
       <c r="M153" s="4" t="n">
-        <v>13467</v>
+        <v>19327</v>
       </c>
       <c r="N153" s="4" t="n">
-        <v>12448</v>
+        <v>5378</v>
       </c>
       <c r="O153" s="4" t="n">
-        <v>7764</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="154">
@@ -7987,34 +7987,34 @@
       <c r="D154" s="4" t="inlineStr"/>
       <c r="E154" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:46</t>
+          <t>2024-08-15 10:33</t>
         </is>
       </c>
       <c r="F154" s="4" t="inlineStr"/>
       <c r="G154" s="4" t="n">
-        <v>151520</v>
+        <v>163095</v>
       </c>
       <c r="H154" s="4" t="n">
-        <v>107017</v>
+        <v>99738</v>
       </c>
       <c r="I154" s="4" t="n">
-        <v>1207</v>
+        <v>1112</v>
       </c>
       <c r="J154" s="4" t="n">
-        <v>105810</v>
+        <v>98626</v>
       </c>
       <c r="K154" s="4" t="inlineStr"/>
       <c r="L154" s="4" t="n">
-        <v>13371</v>
+        <v>22689</v>
       </c>
       <c r="M154" s="4" t="n">
-        <v>35222</v>
+        <v>44493</v>
       </c>
       <c r="N154" s="4" t="n">
-        <v>33374</v>
+        <v>11003</v>
       </c>
       <c r="O154" s="4" t="n">
-        <v>18550</v>
+        <v>15509</v>
       </c>
     </row>
     <row r="155">
@@ -8036,34 +8036,34 @@
       <c r="D155" s="4" t="inlineStr"/>
       <c r="E155" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:42</t>
+          <t>2024-08-15 12:09</t>
         </is>
       </c>
       <c r="F155" s="4" t="inlineStr"/>
       <c r="G155" s="4" t="n">
-        <v>99441</v>
+        <v>107519</v>
       </c>
       <c r="H155" s="4" t="n">
-        <v>83013</v>
+        <v>69548</v>
       </c>
       <c r="I155" s="4" t="n">
-        <v>2473</v>
+        <v>2085</v>
       </c>
       <c r="J155" s="4" t="n">
-        <v>80540</v>
+        <v>67463</v>
       </c>
       <c r="K155" s="4" t="inlineStr"/>
       <c r="L155" s="4" t="n">
-        <v>8408</v>
+        <v>16989</v>
       </c>
       <c r="M155" s="4" t="n">
-        <v>39880</v>
+        <v>18602</v>
       </c>
       <c r="N155" s="4" t="n">
-        <v>15723</v>
+        <v>15387</v>
       </c>
       <c r="O155" s="4" t="n">
-        <v>12500</v>
+        <v>13110</v>
       </c>
     </row>
     <row r="156">
@@ -8085,34 +8085,34 @@
       <c r="D156" s="4" t="inlineStr"/>
       <c r="E156" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:35</t>
+          <t>2024-08-15 01:37</t>
         </is>
       </c>
       <c r="F156" s="4" t="inlineStr"/>
       <c r="G156" s="4" t="n">
-        <v>54362</v>
+        <v>56043</v>
       </c>
       <c r="H156" s="4" t="n">
-        <v>42889</v>
+        <v>42680</v>
       </c>
       <c r="I156" s="4" t="n">
-        <v>826</v>
+        <v>467</v>
       </c>
       <c r="J156" s="4" t="n">
-        <v>42063</v>
+        <v>42213</v>
       </c>
       <c r="K156" s="4" t="inlineStr"/>
       <c r="L156" s="4" t="n">
-        <v>13249</v>
+        <v>16553</v>
       </c>
       <c r="M156" s="4" t="n">
-        <v>7246</v>
+        <v>7273</v>
       </c>
       <c r="N156" s="4" t="n">
-        <v>9809</v>
+        <v>10918</v>
       </c>
       <c r="O156" s="4" t="n">
-        <v>9654</v>
+        <v>5356</v>
       </c>
     </row>
     <row r="157">
@@ -8134,34 +8134,34 @@
       <c r="D157" s="4" t="inlineStr"/>
       <c r="E157" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:01</t>
+          <t>2024-08-15 03:14</t>
         </is>
       </c>
       <c r="F157" s="4" t="inlineStr"/>
       <c r="G157" s="4" t="n">
-        <v>66407</v>
+        <v>69316</v>
       </c>
       <c r="H157" s="4" t="n">
-        <v>57121</v>
+        <v>53279</v>
       </c>
       <c r="I157" s="4" t="n">
-        <v>1224</v>
+        <v>1281</v>
       </c>
       <c r="J157" s="4" t="n">
-        <v>55897</v>
+        <v>51998</v>
       </c>
       <c r="K157" s="4" t="inlineStr"/>
       <c r="L157" s="4" t="n">
-        <v>19300</v>
+        <v>7878</v>
       </c>
       <c r="M157" s="4" t="n">
-        <v>10414</v>
+        <v>15764</v>
       </c>
       <c r="N157" s="4" t="n">
-        <v>12680</v>
+        <v>6160</v>
       </c>
       <c r="O157" s="4" t="n">
-        <v>10705</v>
+        <v>19594</v>
       </c>
     </row>
     <row r="158">
@@ -8183,34 +8183,34 @@
       <c r="D158" s="4" t="inlineStr"/>
       <c r="E158" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:57</t>
+          <t>2024-08-15 05:54</t>
         </is>
       </c>
       <c r="F158" s="4" t="inlineStr"/>
       <c r="G158" s="4" t="n">
-        <v>54002</v>
+        <v>54920</v>
       </c>
       <c r="H158" s="4" t="n">
-        <v>43591</v>
+        <v>35981</v>
       </c>
       <c r="I158" s="4" t="n">
-        <v>562</v>
+        <v>945</v>
       </c>
       <c r="J158" s="4" t="n">
-        <v>43029</v>
+        <v>35036</v>
       </c>
       <c r="K158" s="4" t="inlineStr"/>
       <c r="L158" s="4" t="n">
-        <v>7299</v>
+        <v>3962</v>
       </c>
       <c r="M158" s="4" t="n">
-        <v>6264</v>
+        <v>11578</v>
       </c>
       <c r="N158" s="4" t="n">
-        <v>16309</v>
+        <v>10038</v>
       </c>
       <c r="O158" s="4" t="n">
-        <v>11003</v>
+        <v>7704</v>
       </c>
     </row>
     <row r="159">
@@ -8232,34 +8232,34 @@
       <c r="D159" s="4" t="inlineStr"/>
       <c r="E159" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:23</t>
+          <t>2024-08-15 08:05</t>
         </is>
       </c>
       <c r="F159" s="4" t="inlineStr"/>
       <c r="G159" s="4" t="n">
-        <v>75123</v>
+        <v>76404</v>
       </c>
       <c r="H159" s="4" t="n">
-        <v>64542</v>
+        <v>62743</v>
       </c>
       <c r="I159" s="4" t="n">
-        <v>842</v>
+        <v>1541</v>
       </c>
       <c r="J159" s="4" t="n">
-        <v>63700</v>
+        <v>61202</v>
       </c>
       <c r="K159" s="4" t="inlineStr"/>
       <c r="L159" s="4" t="n">
-        <v>10603</v>
+        <v>7560</v>
       </c>
       <c r="M159" s="4" t="n">
-        <v>15822</v>
+        <v>9504</v>
       </c>
       <c r="N159" s="4" t="n">
-        <v>26619</v>
+        <v>23079</v>
       </c>
       <c r="O159" s="4" t="n">
-        <v>7469</v>
+        <v>17997</v>
       </c>
     </row>
     <row r="160">
@@ -8281,34 +8281,34 @@
       <c r="D160" s="4" t="inlineStr"/>
       <c r="E160" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 11:25</t>
+          <t>2024-08-15 02:20</t>
         </is>
       </c>
       <c r="F160" s="4" t="inlineStr"/>
       <c r="G160" s="4" t="n">
-        <v>65786</v>
+        <v>65983</v>
       </c>
       <c r="H160" s="4" t="n">
-        <v>44257</v>
+        <v>45629</v>
       </c>
       <c r="I160" s="4" t="n">
-        <v>767</v>
+        <v>1080</v>
       </c>
       <c r="J160" s="4" t="n">
-        <v>43490</v>
+        <v>44549</v>
       </c>
       <c r="K160" s="4" t="inlineStr"/>
       <c r="L160" s="4" t="n">
-        <v>10012</v>
+        <v>9789</v>
       </c>
       <c r="M160" s="4" t="n">
-        <v>12550</v>
+        <v>4438</v>
       </c>
       <c r="N160" s="4" t="n">
-        <v>12348</v>
+        <v>15904</v>
       </c>
       <c r="O160" s="4" t="n">
-        <v>6403</v>
+        <v>12189</v>
       </c>
     </row>
     <row r="161">
@@ -8330,34 +8330,34 @@
       <c r="D161" s="4" t="inlineStr"/>
       <c r="E161" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:28</t>
+          <t>2024-08-15 10:22</t>
         </is>
       </c>
       <c r="F161" s="4" t="inlineStr"/>
       <c r="G161" s="4" t="n">
-        <v>80713</v>
+        <v>76864</v>
       </c>
       <c r="H161" s="4" t="n">
-        <v>71192</v>
+        <v>58240</v>
       </c>
       <c r="I161" s="4" t="n">
-        <v>1305</v>
+        <v>1733</v>
       </c>
       <c r="J161" s="4" t="n">
-        <v>69887</v>
+        <v>56507</v>
       </c>
       <c r="K161" s="4" t="inlineStr"/>
       <c r="L161" s="4" t="n">
-        <v>17286</v>
+        <v>10147</v>
       </c>
       <c r="M161" s="4" t="n">
-        <v>21637</v>
+        <v>11643</v>
       </c>
       <c r="N161" s="4" t="n">
-        <v>15662</v>
+        <v>12877</v>
       </c>
       <c r="O161" s="4" t="n">
-        <v>11806</v>
+        <v>19012</v>
       </c>
     </row>
     <row r="162">
@@ -8379,34 +8379,34 @@
       <c r="D162" s="4" t="inlineStr"/>
       <c r="E162" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:25</t>
+          <t>2024-08-15 03:11</t>
         </is>
       </c>
       <c r="F162" s="4" t="inlineStr"/>
       <c r="G162" s="4" t="n">
-        <v>91471</v>
+        <v>90211</v>
       </c>
       <c r="H162" s="4" t="n">
-        <v>81902</v>
+        <v>57077</v>
       </c>
       <c r="I162" s="4" t="n">
-        <v>1214</v>
+        <v>1572</v>
       </c>
       <c r="J162" s="4" t="n">
-        <v>80688</v>
+        <v>55505</v>
       </c>
       <c r="K162" s="4" t="inlineStr"/>
       <c r="L162" s="4" t="n">
-        <v>34615</v>
+        <v>16629</v>
       </c>
       <c r="M162" s="4" t="n">
-        <v>10289</v>
+        <v>12996</v>
       </c>
       <c r="N162" s="4" t="n">
-        <v>10343</v>
+        <v>16675</v>
       </c>
       <c r="O162" s="4" t="n">
-        <v>21405</v>
+        <v>6428</v>
       </c>
     </row>
     <row r="163">
@@ -8428,34 +8428,34 @@
       <c r="D163" s="4" t="inlineStr"/>
       <c r="E163" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:38</t>
+          <t>2024-08-15 05:55</t>
         </is>
       </c>
       <c r="F163" s="4" t="inlineStr"/>
       <c r="G163" s="4" t="n">
-        <v>66189</v>
+        <v>67051</v>
       </c>
       <c r="H163" s="4" t="n">
-        <v>41922</v>
+        <v>54667</v>
       </c>
       <c r="I163" s="4" t="n">
-        <v>1047</v>
+        <v>588</v>
       </c>
       <c r="J163" s="4" t="n">
-        <v>40875</v>
+        <v>54079</v>
       </c>
       <c r="K163" s="4" t="inlineStr"/>
       <c r="L163" s="4" t="n">
-        <v>10326</v>
+        <v>13258</v>
       </c>
       <c r="M163" s="4" t="n">
-        <v>10030</v>
+        <v>8230</v>
       </c>
       <c r="N163" s="4" t="n">
-        <v>10162</v>
+        <v>12720</v>
       </c>
       <c r="O163" s="4" t="n">
-        <v>8311</v>
+        <v>17165</v>
       </c>
     </row>
     <row r="164">
@@ -8477,34 +8477,34 @@
       <c r="D164" s="4" t="inlineStr"/>
       <c r="E164" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 10:51</t>
+          <t>2024-08-15 08:42</t>
         </is>
       </c>
       <c r="F164" s="4" t="inlineStr"/>
       <c r="G164" s="4" t="n">
-        <v>83834</v>
+        <v>86025</v>
       </c>
       <c r="H164" s="4" t="n">
-        <v>58299</v>
+        <v>75491</v>
       </c>
       <c r="I164" s="4" t="n">
-        <v>1024</v>
+        <v>950</v>
       </c>
       <c r="J164" s="4" t="n">
-        <v>57275</v>
+        <v>74541</v>
       </c>
       <c r="K164" s="4" t="inlineStr"/>
       <c r="L164" s="4" t="n">
-        <v>14148</v>
+        <v>21875</v>
       </c>
       <c r="M164" s="4" t="n">
-        <v>9610</v>
+        <v>20505</v>
       </c>
       <c r="N164" s="4" t="n">
-        <v>16334</v>
+        <v>10790</v>
       </c>
       <c r="O164" s="4" t="n">
-        <v>14318</v>
+        <v>17642</v>
       </c>
     </row>
     <row r="165">
@@ -8526,34 +8526,34 @@
       <c r="D165" s="4" t="inlineStr"/>
       <c r="E165" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:38</t>
+          <t>2024-08-15 06:11</t>
         </is>
       </c>
       <c r="F165" s="4" t="inlineStr"/>
       <c r="G165" s="4" t="n">
-        <v>118714</v>
+        <v>111021</v>
       </c>
       <c r="H165" s="4" t="n">
-        <v>96195</v>
+        <v>75676</v>
       </c>
       <c r="I165" s="4" t="n">
-        <v>1372</v>
+        <v>2042</v>
       </c>
       <c r="J165" s="4" t="n">
-        <v>94823</v>
+        <v>73634</v>
       </c>
       <c r="K165" s="4" t="inlineStr"/>
       <c r="L165" s="4" t="n">
-        <v>15780</v>
+        <v>7017</v>
       </c>
       <c r="M165" s="4" t="n">
-        <v>21853</v>
+        <v>15825</v>
       </c>
       <c r="N165" s="4" t="n">
-        <v>17549</v>
+        <v>26560</v>
       </c>
       <c r="O165" s="4" t="n">
-        <v>34898</v>
+        <v>20548</v>
       </c>
     </row>
     <row r="166">
@@ -8575,34 +8575,34 @@
       <c r="D166" s="4" t="inlineStr"/>
       <c r="E166" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 03:50</t>
+          <t>2024-08-15 07:14</t>
         </is>
       </c>
       <c r="F166" s="4" t="inlineStr"/>
       <c r="G166" s="4" t="n">
-        <v>168116</v>
+        <v>163340</v>
       </c>
       <c r="H166" s="4" t="n">
-        <v>115095</v>
+        <v>131646</v>
       </c>
       <c r="I166" s="4" t="n">
-        <v>1455</v>
+        <v>3265</v>
       </c>
       <c r="J166" s="4" t="n">
-        <v>113640</v>
+        <v>128381</v>
       </c>
       <c r="K166" s="4" t="inlineStr"/>
       <c r="L166" s="4" t="n">
-        <v>20296</v>
+        <v>21844</v>
       </c>
       <c r="M166" s="4" t="n">
-        <v>27798</v>
+        <v>28344</v>
       </c>
       <c r="N166" s="4" t="n">
-        <v>47628</v>
+        <v>32620</v>
       </c>
       <c r="O166" s="4" t="n">
-        <v>12234</v>
+        <v>39152</v>
       </c>
     </row>
     <row r="167">
@@ -8624,34 +8624,34 @@
       <c r="D167" s="4" t="inlineStr"/>
       <c r="E167" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:41</t>
+          <t>2024-08-15 06:36</t>
         </is>
       </c>
       <c r="F167" s="4" t="inlineStr"/>
       <c r="G167" s="4" t="n">
-        <v>102506</v>
+        <v>105224</v>
       </c>
       <c r="H167" s="4" t="n">
-        <v>74721</v>
+        <v>79967</v>
       </c>
       <c r="I167" s="4" t="n">
-        <v>1602</v>
+        <v>1942</v>
       </c>
       <c r="J167" s="4" t="n">
-        <v>73119</v>
+        <v>78025</v>
       </c>
       <c r="K167" s="4" t="inlineStr"/>
       <c r="L167" s="4" t="n">
-        <v>12170</v>
+        <v>18009</v>
       </c>
       <c r="M167" s="4" t="n">
-        <v>19651</v>
+        <v>20468</v>
       </c>
       <c r="N167" s="4" t="n">
-        <v>17335</v>
+        <v>18910</v>
       </c>
       <c r="O167" s="4" t="n">
-        <v>20306</v>
+        <v>16735</v>
       </c>
     </row>
     <row r="168">
@@ -8673,34 +8673,34 @@
       <c r="D168" s="4" t="inlineStr"/>
       <c r="E168" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:04</t>
+          <t>2024-08-15 03:06</t>
         </is>
       </c>
       <c r="F168" s="4" t="inlineStr"/>
       <c r="G168" s="4" t="n">
-        <v>125291</v>
+        <v>128833</v>
       </c>
       <c r="H168" s="4" t="n">
-        <v>97008</v>
+        <v>87425</v>
       </c>
       <c r="I168" s="4" t="n">
-        <v>1639</v>
+        <v>2526</v>
       </c>
       <c r="J168" s="4" t="n">
-        <v>95369</v>
+        <v>84899</v>
       </c>
       <c r="K168" s="4" t="inlineStr"/>
       <c r="L168" s="4" t="n">
-        <v>13306</v>
+        <v>15922</v>
       </c>
       <c r="M168" s="4" t="n">
-        <v>28754</v>
+        <v>16035</v>
       </c>
       <c r="N168" s="4" t="n">
-        <v>19095</v>
+        <v>24481</v>
       </c>
       <c r="O168" s="4" t="n">
-        <v>29444</v>
+        <v>24214</v>
       </c>
     </row>
     <row r="169">
@@ -8722,34 +8722,34 @@
       <c r="D169" s="4" t="inlineStr"/>
       <c r="E169" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:49</t>
+          <t>2024-08-15 09:02</t>
         </is>
       </c>
       <c r="F169" s="4" t="inlineStr"/>
       <c r="G169" s="4" t="n">
-        <v>96579</v>
+        <v>94958</v>
       </c>
       <c r="H169" s="4" t="n">
-        <v>79914</v>
+        <v>59628</v>
       </c>
       <c r="I169" s="4" t="n">
-        <v>1680</v>
+        <v>1344</v>
       </c>
       <c r="J169" s="4" t="n">
-        <v>78234</v>
+        <v>58284</v>
       </c>
       <c r="K169" s="4" t="inlineStr"/>
       <c r="L169" s="4" t="n">
-        <v>15529</v>
+        <v>6723</v>
       </c>
       <c r="M169" s="4" t="n">
-        <v>12714</v>
+        <v>21705</v>
       </c>
       <c r="N169" s="4" t="n">
-        <v>22740</v>
+        <v>12888</v>
       </c>
       <c r="O169" s="4" t="n">
-        <v>23337</v>
+        <v>14052</v>
       </c>
     </row>
     <row r="170">
@@ -8771,34 +8771,34 @@
       <c r="D170" s="4" t="inlineStr"/>
       <c r="E170" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 02:37</t>
+          <t>2024-08-15 10:37</t>
         </is>
       </c>
       <c r="F170" s="4" t="inlineStr"/>
       <c r="G170" s="4" t="n">
-        <v>115821</v>
+        <v>111918</v>
       </c>
       <c r="H170" s="4" t="n">
-        <v>102001</v>
+        <v>88837</v>
       </c>
       <c r="I170" s="4" t="n">
-        <v>2872</v>
+        <v>2378</v>
       </c>
       <c r="J170" s="4" t="n">
-        <v>99129</v>
+        <v>86459</v>
       </c>
       <c r="K170" s="4" t="inlineStr"/>
       <c r="L170" s="4" t="n">
-        <v>18162</v>
+        <v>22294</v>
       </c>
       <c r="M170" s="4" t="n">
-        <v>24274</v>
+        <v>15922</v>
       </c>
       <c r="N170" s="4" t="n">
-        <v>22652</v>
+        <v>31712</v>
       </c>
       <c r="O170" s="4" t="n">
-        <v>29083</v>
+        <v>12206</v>
       </c>
     </row>
     <row r="171">
@@ -8820,34 +8820,34 @@
       <c r="D171" s="4" t="inlineStr"/>
       <c r="E171" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 05:30</t>
+          <t>2024-08-15 11:27</t>
         </is>
       </c>
       <c r="F171" s="4" t="inlineStr"/>
       <c r="G171" s="4" t="n">
-        <v>115886</v>
+        <v>108071</v>
       </c>
       <c r="H171" s="4" t="n">
-        <v>100878</v>
+        <v>86292</v>
       </c>
       <c r="I171" s="4" t="n">
-        <v>1380</v>
+        <v>1547</v>
       </c>
       <c r="J171" s="4" t="n">
-        <v>99498</v>
+        <v>84745</v>
       </c>
       <c r="K171" s="4" t="inlineStr"/>
       <c r="L171" s="4" t="n">
-        <v>27952</v>
+        <v>23767</v>
       </c>
       <c r="M171" s="4" t="n">
-        <v>23691</v>
+        <v>11540</v>
       </c>
       <c r="N171" s="4" t="n">
-        <v>32428</v>
+        <v>33375</v>
       </c>
       <c r="O171" s="4" t="n">
-        <v>10450</v>
+        <v>11824</v>
       </c>
     </row>
     <row r="172">
@@ -8869,34 +8869,34 @@
       <c r="D172" s="4" t="inlineStr"/>
       <c r="E172" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:44</t>
+          <t>2024-08-15 11:06</t>
         </is>
       </c>
       <c r="F172" s="4" t="inlineStr"/>
       <c r="G172" s="4" t="n">
-        <v>110444</v>
+        <v>104521</v>
       </c>
       <c r="H172" s="4" t="n">
-        <v>78572</v>
+        <v>75332</v>
       </c>
       <c r="I172" s="4" t="n">
-        <v>1374</v>
+        <v>1189</v>
       </c>
       <c r="J172" s="4" t="n">
-        <v>77198</v>
+        <v>74143</v>
       </c>
       <c r="K172" s="4" t="inlineStr"/>
       <c r="L172" s="4" t="n">
-        <v>14917</v>
+        <v>13819</v>
       </c>
       <c r="M172" s="4" t="n">
-        <v>13670</v>
+        <v>11133</v>
       </c>
       <c r="N172" s="4" t="n">
-        <v>19990</v>
+        <v>32137</v>
       </c>
       <c r="O172" s="4" t="n">
-        <v>24759</v>
+        <v>13345</v>
       </c>
     </row>
     <row r="173">
@@ -8918,34 +8918,34 @@
       <c r="D173" s="4" t="inlineStr"/>
       <c r="E173" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 09:04</t>
+          <t>2024-08-15 03:14</t>
         </is>
       </c>
       <c r="F173" s="4" t="inlineStr"/>
       <c r="G173" s="4" t="n">
-        <v>69366</v>
+        <v>70294</v>
       </c>
       <c r="H173" s="4" t="n">
-        <v>53182</v>
+        <v>46252</v>
       </c>
       <c r="I173" s="4" t="n">
-        <v>975</v>
+        <v>1145</v>
       </c>
       <c r="J173" s="4" t="n">
-        <v>52207</v>
+        <v>45107</v>
       </c>
       <c r="K173" s="4" t="inlineStr"/>
       <c r="L173" s="4" t="n">
-        <v>17193</v>
+        <v>7901</v>
       </c>
       <c r="M173" s="4" t="n">
-        <v>5313</v>
+        <v>5567</v>
       </c>
       <c r="N173" s="4" t="n">
-        <v>19256</v>
+        <v>14618</v>
       </c>
       <c r="O173" s="4" t="n">
-        <v>7833</v>
+        <v>14764</v>
       </c>
     </row>
     <row r="174">
@@ -8967,34 +8967,34 @@
       <c r="D174" s="4" t="inlineStr"/>
       <c r="E174" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 08:02</t>
+          <t>2024-08-15 03:16</t>
         </is>
       </c>
       <c r="F174" s="4" t="inlineStr"/>
       <c r="G174" s="4" t="n">
-        <v>151057</v>
+        <v>150746</v>
       </c>
       <c r="H174" s="4" t="n">
-        <v>92112</v>
+        <v>91538</v>
       </c>
       <c r="I174" s="4" t="n">
-        <v>1096</v>
+        <v>1969</v>
       </c>
       <c r="J174" s="4" t="n">
-        <v>91016</v>
+        <v>89569</v>
       </c>
       <c r="K174" s="4" t="inlineStr"/>
       <c r="L174" s="4" t="n">
-        <v>22168</v>
+        <v>14611</v>
       </c>
       <c r="M174" s="4" t="n">
-        <v>12258</v>
+        <v>33565</v>
       </c>
       <c r="N174" s="4" t="n">
-        <v>22603</v>
+        <v>8323</v>
       </c>
       <c r="O174" s="4" t="n">
-        <v>29435</v>
+        <v>28591</v>
       </c>
     </row>
     <row r="175">
@@ -9016,34 +9016,34 @@
       <c r="D175" s="4" t="inlineStr"/>
       <c r="E175" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 04:52</t>
+          <t>2024-08-15 12:40</t>
         </is>
       </c>
       <c r="F175" s="4" t="inlineStr"/>
       <c r="G175" s="4" t="n">
-        <v>88683</v>
+        <v>91948</v>
       </c>
       <c r="H175" s="4" t="n">
-        <v>70975</v>
+        <v>76359</v>
       </c>
       <c r="I175" s="4" t="n">
-        <v>1994</v>
+        <v>1836</v>
       </c>
       <c r="J175" s="4" t="n">
-        <v>68981</v>
+        <v>74523</v>
       </c>
       <c r="K175" s="4" t="inlineStr"/>
       <c r="L175" s="4" t="n">
-        <v>19889</v>
+        <v>15955</v>
       </c>
       <c r="M175" s="4" t="n">
-        <v>17112</v>
+        <v>24023</v>
       </c>
       <c r="N175" s="4" t="n">
-        <v>16014</v>
+        <v>14677</v>
       </c>
       <c r="O175" s="4" t="n">
-        <v>12515</v>
+        <v>16140</v>
       </c>
     </row>
     <row r="176">
@@ -9065,34 +9065,34 @@
       <c r="D176" s="4" t="inlineStr"/>
       <c r="E176" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:19</t>
+          <t>2024-08-15 07:02</t>
         </is>
       </c>
       <c r="F176" s="4" t="inlineStr"/>
       <c r="G176" s="4" t="n">
-        <v>68755</v>
+        <v>67867</v>
       </c>
       <c r="H176" s="4" t="n">
-        <v>42529</v>
+        <v>57132</v>
       </c>
       <c r="I176" s="4" t="n">
-        <v>619</v>
+        <v>724</v>
       </c>
       <c r="J176" s="4" t="n">
-        <v>41910</v>
+        <v>56408</v>
       </c>
       <c r="K176" s="4" t="inlineStr"/>
       <c r="L176" s="4" t="n">
-        <v>14573</v>
+        <v>5135</v>
       </c>
       <c r="M176" s="4" t="n">
-        <v>15266</v>
+        <v>16333</v>
       </c>
       <c r="N176" s="4" t="n">
-        <v>5581</v>
+        <v>15877</v>
       </c>
       <c r="O176" s="4" t="n">
-        <v>4393</v>
+        <v>16240</v>
       </c>
     </row>
     <row r="177">
@@ -9114,34 +9114,34 @@
       <c r="D177" s="4" t="inlineStr"/>
       <c r="E177" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 06:33</t>
+          <t>2024-08-15 08:05</t>
         </is>
       </c>
       <c r="F177" s="4" t="inlineStr"/>
       <c r="G177" s="4" t="n">
-        <v>72308</v>
+        <v>75208</v>
       </c>
       <c r="H177" s="4" t="n">
-        <v>44057</v>
+        <v>60318</v>
       </c>
       <c r="I177" s="4" t="n">
-        <v>1311</v>
+        <v>999</v>
       </c>
       <c r="J177" s="4" t="n">
-        <v>42746</v>
+        <v>59319</v>
       </c>
       <c r="K177" s="4" t="inlineStr"/>
       <c r="L177" s="4" t="n">
-        <v>11077</v>
+        <v>15035</v>
       </c>
       <c r="M177" s="4" t="n">
-        <v>8938</v>
+        <v>17591</v>
       </c>
       <c r="N177" s="4" t="n">
-        <v>9623</v>
+        <v>7644</v>
       </c>
       <c r="O177" s="4" t="n">
-        <v>10969</v>
+        <v>16081</v>
       </c>
     </row>
     <row r="178">
@@ -9163,34 +9163,34 @@
       <c r="D178" s="4" t="inlineStr"/>
       <c r="E178" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:21</t>
+          <t>2024-08-15 08:54</t>
         </is>
       </c>
       <c r="F178" s="4" t="inlineStr"/>
       <c r="G178" s="4" t="n">
-        <v>69713</v>
+        <v>65638</v>
       </c>
       <c r="H178" s="4" t="n">
-        <v>43193</v>
+        <v>44830</v>
       </c>
       <c r="I178" s="4" t="n">
-        <v>444</v>
+        <v>1127</v>
       </c>
       <c r="J178" s="4" t="n">
-        <v>42749</v>
+        <v>43703</v>
       </c>
       <c r="K178" s="4" t="inlineStr"/>
       <c r="L178" s="4" t="n">
-        <v>7690</v>
+        <v>16087</v>
       </c>
       <c r="M178" s="4" t="n">
-        <v>11046</v>
+        <v>10107</v>
       </c>
       <c r="N178" s="4" t="n">
-        <v>12420</v>
+        <v>5664</v>
       </c>
       <c r="O178" s="4" t="n">
-        <v>9453</v>
+        <v>9658</v>
       </c>
     </row>
     <row r="179">
@@ -9212,34 +9212,34 @@
       <c r="D179" s="4" t="inlineStr"/>
       <c r="E179" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:51</t>
+          <t>2024-08-15 12:51</t>
         </is>
       </c>
       <c r="F179" s="4" t="inlineStr"/>
       <c r="G179" s="4" t="n">
-        <v>100139</v>
+        <v>93793</v>
       </c>
       <c r="H179" s="4" t="n">
-        <v>89877</v>
+        <v>60022</v>
       </c>
       <c r="I179" s="4" t="n">
-        <v>2366</v>
+        <v>937</v>
       </c>
       <c r="J179" s="4" t="n">
-        <v>87511</v>
+        <v>59085</v>
       </c>
       <c r="K179" s="4" t="inlineStr"/>
       <c r="L179" s="4" t="n">
-        <v>9177</v>
+        <v>17935</v>
       </c>
       <c r="M179" s="4" t="n">
-        <v>22756</v>
+        <v>14262</v>
       </c>
       <c r="N179" s="4" t="n">
-        <v>29610</v>
+        <v>15804</v>
       </c>
       <c r="O179" s="4" t="n">
-        <v>21591</v>
+        <v>8129</v>
       </c>
     </row>
     <row r="180">
@@ -9261,34 +9261,34 @@
       <c r="D180" s="4" t="inlineStr"/>
       <c r="E180" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:40</t>
+          <t>2024-08-15 11:16</t>
         </is>
       </c>
       <c r="F180" s="4" t="inlineStr"/>
       <c r="G180" s="4" t="n">
-        <v>52763</v>
+        <v>51226</v>
       </c>
       <c r="H180" s="4" t="n">
-        <v>38997</v>
+        <v>41115</v>
       </c>
       <c r="I180" s="4" t="n">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="J180" s="4" t="n">
-        <v>37882</v>
+        <v>40002</v>
       </c>
       <c r="K180" s="4" t="inlineStr"/>
       <c r="L180" s="4" t="n">
-        <v>9355</v>
+        <v>4955</v>
       </c>
       <c r="M180" s="4" t="n">
-        <v>12738</v>
+        <v>13504</v>
       </c>
       <c r="N180" s="4" t="n">
-        <v>6362</v>
+        <v>6410</v>
       </c>
       <c r="O180" s="4" t="n">
-        <v>7532</v>
+        <v>13131</v>
       </c>
     </row>
     <row r="181">
@@ -9310,34 +9310,34 @@
       <c r="D181" s="4" t="inlineStr"/>
       <c r="E181" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 12:15</t>
+          <t>2024-08-15 09:49</t>
         </is>
       </c>
       <c r="F181" s="4" t="inlineStr"/>
       <c r="G181" s="4" t="n">
-        <v>76659</v>
+        <v>77700</v>
       </c>
       <c r="H181" s="4" t="n">
-        <v>57468</v>
+        <v>60684</v>
       </c>
       <c r="I181" s="4" t="n">
-        <v>947</v>
+        <v>737</v>
       </c>
       <c r="J181" s="4" t="n">
-        <v>56521</v>
+        <v>59947</v>
       </c>
       <c r="K181" s="4" t="inlineStr"/>
       <c r="L181" s="4" t="n">
-        <v>18634</v>
+        <v>14399</v>
       </c>
       <c r="M181" s="4" t="n">
-        <v>14020</v>
+        <v>19096</v>
       </c>
       <c r="N181" s="4" t="n">
-        <v>13117</v>
+        <v>19247</v>
       </c>
       <c r="O181" s="4" t="n">
-        <v>7923</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="182">
@@ -9359,34 +9359,34 @@
       <c r="D182" s="4" t="inlineStr"/>
       <c r="E182" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 01:49</t>
+          <t>2024-08-15 04:01</t>
         </is>
       </c>
       <c r="F182" s="4" t="inlineStr"/>
       <c r="G182" s="4" t="n">
-        <v>78828</v>
+        <v>78946</v>
       </c>
       <c r="H182" s="4" t="n">
-        <v>51640</v>
+        <v>57059</v>
       </c>
       <c r="I182" s="4" t="n">
-        <v>993</v>
+        <v>1038</v>
       </c>
       <c r="J182" s="4" t="n">
-        <v>50647</v>
+        <v>56021</v>
       </c>
       <c r="K182" s="4" t="inlineStr"/>
       <c r="L182" s="4" t="n">
-        <v>11140</v>
+        <v>6341</v>
       </c>
       <c r="M182" s="4" t="n">
-        <v>16422</v>
+        <v>15048</v>
       </c>
       <c r="N182" s="4" t="n">
-        <v>16537</v>
+        <v>16134</v>
       </c>
       <c r="O182" s="4" t="n">
-        <v>4013</v>
+        <v>15695</v>
       </c>
     </row>
     <row r="183">
@@ -9408,34 +9408,34 @@
       <c r="D183" s="4" t="inlineStr"/>
       <c r="E183" s="5" t="inlineStr">
         <is>
-          <t>2024-08-15 07:18</t>
+          <t>2024-08-15 09:42</t>
         </is>
       </c>
       <c r="F183" s="4" t="inlineStr"/>
       <c r="G183" s="4" t="n">
-        <v>68952</v>
+        <v>71296</v>
       </c>
       <c r="H183" s="4" t="n">
-        <v>45919</v>
+        <v>50723</v>
       </c>
       <c r="I183" s="4" t="n">
-        <v>928</v>
+        <v>729</v>
       </c>
       <c r="J183" s="4" t="n">
-        <v>44991</v>
+        <v>49994</v>
       </c>
       <c r="K183" s="4" t="inlineStr"/>
       <c r="L183" s="4" t="n">
-        <v>11226</v>
+        <v>7239</v>
       </c>
       <c r="M183" s="4" t="n">
-        <v>13015</v>
+        <v>16644</v>
       </c>
       <c r="N183" s="4" t="n">
-        <v>6343</v>
+        <v>14822</v>
       </c>
       <c r="O183" s="4" t="n">
-        <v>12155</v>
+        <v>8787</v>
       </c>
     </row>
   </sheetData>

--- a/data/prespollsl2024.xlsx
+++ b/data/prespollsl2024.xlsx
@@ -533,36 +533,34 @@
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr"/>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 07:58</t>
-        </is>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="n">
-        <v>36609</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>23914</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>23295</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3" t="inlineStr"/>
       <c r="L2" s="3" t="n">
-        <v>12058</v>
+        <v>0</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>5067</v>
+        <v>0</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>3716</v>
+        <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -582,36 +580,34 @@
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 12:51</t>
-        </is>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="n">
-        <v>54452</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>38152</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>37435</v>
+        <v>0</v>
       </c>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="n">
-        <v>18286</v>
+        <v>0</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>4457</v>
+        <v>0</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>4418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -631,34 +627,36 @@
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="n">
-        <v>0</v>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 13:25</t>
+        </is>
       </c>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="n">
-        <v>0</v>
+        <v>40628</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>0</v>
+        <v>25909</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0</v>
+        <v>25276</v>
       </c>
       <c r="K4" s="3" t="inlineStr"/>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>12197</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0</v>
+        <v>4614</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0</v>
+        <v>2906</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="5">
@@ -678,36 +676,34 @@
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 04:18</t>
-        </is>
+      <c r="E5" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="n">
-        <v>58800</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>47189</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>884</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>46305</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="n">
-        <v>26728</v>
+        <v>0</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>5435</v>
+        <v>0</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>5082</v>
+        <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>6743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -729,34 +725,34 @@
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 08:22</t>
+          <t>2024-08-18 17:56</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="n">
-        <v>23698</v>
+        <v>22431</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>19486</v>
+        <v>17384</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>19099</v>
+        <v>17016</v>
       </c>
       <c r="K6" s="3" t="inlineStr"/>
       <c r="L6" s="3" t="n">
-        <v>10692</v>
+        <v>8754</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>4010</v>
+        <v>2936</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>2398</v>
+        <v>3443</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="7">
@@ -778,34 +774,34 @@
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 11:16</t>
+          <t>2024-08-18 09:03</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="n">
-        <v>21474</v>
+        <v>20544</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>13683</v>
+        <v>18115</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>322</v>
+        <v>217</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>13361</v>
+        <v>17898</v>
       </c>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="n">
-        <v>7603</v>
+        <v>11105</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>1796</v>
+        <v>2367</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>2146</v>
+        <v>2126</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>1147</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="8">
@@ -825,36 +821,34 @@
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr"/>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 13:23</t>
-        </is>
+      <c r="E8" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="n">
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>32572</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>754</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>31818</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="inlineStr"/>
       <c r="L8" s="3" t="n">
-        <v>15072</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>8266</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>4889</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>1997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -876,34 +870,34 @@
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 14:33</t>
+          <t>2024-08-18 11:03</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="n">
-        <v>31255</v>
+        <v>29209</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>20540</v>
+        <v>19757</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>20173</v>
+        <v>19381</v>
       </c>
       <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="n">
-        <v>10142</v>
+        <v>9879</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>4405</v>
+        <v>3134</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>2449</v>
+        <v>2977</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>2166</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="10">
@@ -923,36 +917,34 @@
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr"/>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 12:31</t>
-        </is>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="n">
-        <v>22010</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>16212</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>15939</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="inlineStr"/>
       <c r="L10" s="3" t="n">
-        <v>6971</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>3634</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>1853</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>2682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1019,36 +1011,34 @@
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr"/>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 10:58</t>
-        </is>
+      <c r="E12" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="n">
-        <v>13370</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>10551</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>10369</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="inlineStr"/>
       <c r="L12" s="3" t="n">
-        <v>5287</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>1542</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>1298</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>1721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1068,36 +1058,34 @@
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr"/>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 13:43</t>
-        </is>
+      <c r="E13" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="n">
-        <v>13358</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>9857</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>9630</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3" t="inlineStr"/>
       <c r="L13" s="3" t="n">
-        <v>4233</v>
+        <v>0</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>1667</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>1528</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>1719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1119,34 +1107,34 @@
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 11:29</t>
+          <t>2024-08-18 08:25</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="n">
-        <v>29588</v>
+        <v>31508</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>21220</v>
+        <v>20551</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>20678</v>
+        <v>19998</v>
       </c>
       <c r="K14" s="3" t="inlineStr"/>
       <c r="L14" s="3" t="n">
-        <v>9829</v>
+        <v>12555</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>3638</v>
+        <v>2934</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>3155</v>
+        <v>2900</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>3020</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15">
@@ -1260,36 +1248,34 @@
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr"/>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 10:55</t>
-        </is>
+      <c r="E17" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="n">
-        <v>15235</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>10012</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>9809</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="n">
-        <v>5446</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="n">
-        <v>1480</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>1104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1309,36 +1295,34 @@
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 04:57</t>
-        </is>
+      <c r="E18" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="n">
-        <v>61737</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>39128</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>467</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>38661</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="n">
-        <v>19007</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>6856</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>4176</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>6686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1360,34 +1344,34 @@
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 12:07</t>
+          <t>2024-08-18 19:15</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="n">
-        <v>20792</v>
+        <v>19601</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>17619</v>
+        <v>16727</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>267</v>
+        <v>493</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>17352</v>
+        <v>16234</v>
       </c>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="n">
-        <v>9703</v>
+        <v>9790</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>3629</v>
+        <v>3003</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>2839</v>
+        <v>1266</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>311</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="20">
@@ -1454,36 +1438,34 @@
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 10:29</t>
-        </is>
+      <c r="E21" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="n">
-        <v>24342</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>20905</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>20329</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="inlineStr"/>
       <c r="L21" s="3" t="n">
-        <v>10384</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>2746</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>4384</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>1797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1503,36 +1485,34 @@
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 03:43</t>
-        </is>
+      <c r="E22" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="n">
-        <v>32970</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>24802</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>24441</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="inlineStr"/>
       <c r="L22" s="3" t="n">
-        <v>12620</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>5226</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="n">
-        <v>3719</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>1651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1601,34 +1581,34 @@
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 06:09</t>
+          <t>2024-08-18 15:04</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="n">
-        <v>96215</v>
+        <v>96385</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>58100</v>
+        <v>63041</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>1321</v>
+        <v>1856</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>56779</v>
+        <v>61185</v>
       </c>
       <c r="K24" s="3" t="inlineStr"/>
       <c r="L24" s="3" t="n">
-        <v>28866</v>
+        <v>30830</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>8055</v>
+        <v>5096</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>10092</v>
+        <v>12713</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>6925</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="25">
@@ -1648,34 +1628,36 @@
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr"/>
-      <c r="E25" s="3" t="n">
-        <v>0</v>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 08:47</t>
+        </is>
       </c>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="n">
-        <v>0</v>
+        <v>131513</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>0</v>
+        <v>96540</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>0</v>
+        <v>1853</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>0</v>
+        <v>94687</v>
       </c>
       <c r="K25" s="3" t="inlineStr"/>
       <c r="L25" s="3" t="n">
-        <v>0</v>
+        <v>49726</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>0</v>
+        <v>18912</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>0</v>
+        <v>13241</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>0</v>
+        <v>8072</v>
       </c>
     </row>
     <row r="26">
@@ -1695,36 +1677,34 @@
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr"/>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 07:17</t>
-        </is>
+      <c r="E26" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="n">
-        <v>65527</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>51843</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>51076</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="inlineStr"/>
       <c r="L26" s="3" t="n">
-        <v>21661</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>10084</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>8452</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>8324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1744,36 +1724,34 @@
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr"/>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 06:46</t>
-        </is>
+      <c r="E27" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="n">
-        <v>72378</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>57472</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>1618</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>55854</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="inlineStr"/>
       <c r="L27" s="3" t="n">
-        <v>31934</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>7421</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>5016</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>8688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1795,34 +1773,34 @@
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 02:54</t>
+          <t>2024-08-18 16:37</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="n">
-        <v>44955</v>
+        <v>41955</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>32738</v>
+        <v>25578</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>332</v>
+        <v>452</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>32406</v>
+        <v>25126</v>
       </c>
       <c r="K28" s="3" t="inlineStr"/>
       <c r="L28" s="3" t="n">
-        <v>15393</v>
+        <v>13104</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>7203</v>
+        <v>3094</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>3993</v>
+        <v>5186</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>4196</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="29">
@@ -1889,34 +1867,36 @@
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr"/>
-      <c r="E30" s="3" t="n">
-        <v>0</v>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:43</t>
+        </is>
       </c>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="n">
-        <v>0</v>
+        <v>71720</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>0</v>
+        <v>54073</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>0</v>
+        <v>52863</v>
       </c>
       <c r="K30" s="3" t="inlineStr"/>
       <c r="L30" s="3" t="n">
-        <v>0</v>
+        <v>29421</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>0</v>
+        <v>9968</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>0</v>
+        <v>6074</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>0</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="31">
@@ -1936,36 +1916,34 @@
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr"/>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 08:54</t>
-        </is>
+      <c r="E31" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="n">
-        <v>136404</v>
+        <v>0</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>107516</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>1917</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>105599</v>
+        <v>0</v>
       </c>
       <c r="K31" s="3" t="inlineStr"/>
       <c r="L31" s="3" t="n">
-        <v>54069</v>
+        <v>0</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>16042</v>
+        <v>0</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>23232</v>
+        <v>0</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>6974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2034,34 +2012,34 @@
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 10:12</t>
+          <t>2024-08-18 15:19</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="n">
-        <v>192332</v>
+        <v>201268</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>139264</v>
+        <v>125496</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>3189</v>
+        <v>3090</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>136075</v>
+        <v>122406</v>
       </c>
       <c r="K33" s="3" t="inlineStr"/>
       <c r="L33" s="3" t="n">
-        <v>80759</v>
+        <v>60175</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>16434</v>
+        <v>26877</v>
       </c>
       <c r="N33" s="3" t="n">
-        <v>21683</v>
+        <v>19136</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>10393</v>
+        <v>10096</v>
       </c>
     </row>
     <row r="34">
@@ -2081,34 +2059,36 @@
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="3" t="n">
-        <v>0</v>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 09:03</t>
+        </is>
       </c>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="n">
-        <v>0</v>
+        <v>126402</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>0</v>
+        <v>81456</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>0</v>
+        <v>1216</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>0</v>
+        <v>80240</v>
       </c>
       <c r="K34" s="3" t="inlineStr"/>
       <c r="L34" s="3" t="n">
-        <v>0</v>
+        <v>36915</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>0</v>
+        <v>18361</v>
       </c>
       <c r="N34" s="3" t="n">
-        <v>0</v>
+        <v>8411</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>0</v>
+        <v>12539</v>
       </c>
     </row>
     <row r="35">
@@ -2128,36 +2108,34 @@
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr"/>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 06:45</t>
-        </is>
+      <c r="E35" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="n">
-        <v>191711</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>136118</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>2866</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>133252</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="inlineStr"/>
       <c r="L35" s="3" t="n">
-        <v>76177</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>13879</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="n">
-        <v>14645</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>21886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2179,34 +2157,34 @@
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 10:02</t>
+          <t>2024-08-18 16:34</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="n">
-        <v>138819</v>
+        <v>148533</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>122912</v>
+        <v>109684</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>3470</v>
+        <v>1923</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>119442</v>
+        <v>107761</v>
       </c>
       <c r="K36" s="3" t="inlineStr"/>
       <c r="L36" s="3" t="n">
-        <v>72875</v>
+        <v>54590</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>19723</v>
+        <v>16855</v>
       </c>
       <c r="N36" s="3" t="n">
-        <v>9264</v>
+        <v>17701</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>11606</v>
+        <v>13224</v>
       </c>
     </row>
     <row r="37">
@@ -2226,36 +2204,34 @@
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr"/>
-      <c r="E37" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 09:27</t>
-        </is>
+      <c r="E37" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="n">
-        <v>180981</v>
+        <v>0</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>155437</v>
+        <v>0</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>3049</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>152388</v>
+        <v>0</v>
       </c>
       <c r="K37" s="3" t="inlineStr"/>
       <c r="L37" s="3" t="n">
-        <v>73734</v>
+        <v>0</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>35146</v>
+        <v>0</v>
       </c>
       <c r="N37" s="3" t="n">
-        <v>22755</v>
+        <v>0</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>13131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2277,34 +2253,34 @@
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 07:46</t>
+          <t>2024-08-18 16:16</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="n">
-        <v>131398</v>
+        <v>130406</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>114136</v>
+        <v>92534</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>1840</v>
+        <v>1618</v>
       </c>
       <c r="J38" s="3" t="n">
-        <v>112296</v>
+        <v>90916</v>
       </c>
       <c r="K38" s="3" t="inlineStr"/>
       <c r="L38" s="3" t="n">
-        <v>66885</v>
+        <v>39739</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>14226</v>
+        <v>17295</v>
       </c>
       <c r="N38" s="3" t="n">
-        <v>8981</v>
+        <v>12677</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>16587</v>
+        <v>16658</v>
       </c>
     </row>
     <row r="39">
@@ -2324,36 +2300,34 @@
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr"/>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 03:59</t>
-        </is>
+      <c r="E39" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="n">
-        <v>133702</v>
+        <v>0</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>99486</v>
+        <v>0</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>2377</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>97109</v>
+        <v>0</v>
       </c>
       <c r="K39" s="3" t="inlineStr"/>
       <c r="L39" s="3" t="n">
-        <v>53287</v>
+        <v>0</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>9538</v>
+        <v>0</v>
       </c>
       <c r="N39" s="3" t="n">
-        <v>15649</v>
+        <v>0</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>13777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2375,34 +2349,34 @@
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 05:31</t>
+          <t>2024-08-18 15:58</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="n">
-        <v>119294</v>
+        <v>113593</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>101025</v>
+        <v>89441</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>1759</v>
+        <v>2156</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>99266</v>
+        <v>87285</v>
       </c>
       <c r="K40" s="3" t="inlineStr"/>
       <c r="L40" s="3" t="n">
-        <v>57152</v>
+        <v>53901</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>15665</v>
+        <v>9472</v>
       </c>
       <c r="N40" s="3" t="n">
-        <v>12539</v>
+        <v>17607</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>8945</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="41">
@@ -2422,36 +2396,34 @@
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 03:24</t>
-        </is>
+      <c r="E41" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="n">
-        <v>163836</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>134659</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>3006</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>131653</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="inlineStr"/>
       <c r="L41" s="3" t="n">
-        <v>57277</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>17028</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="n">
-        <v>28630</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>22133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2471,34 +2443,36 @@
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr"/>
-      <c r="E42" s="3" t="n">
-        <v>0</v>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 10:52</t>
+        </is>
       </c>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="n">
-        <v>0</v>
+        <v>120064</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>0</v>
+        <v>81515</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>0</v>
+        <v>2165</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>0</v>
+        <v>79350</v>
       </c>
       <c r="K42" s="3" t="inlineStr"/>
       <c r="L42" s="3" t="n">
-        <v>0</v>
+        <v>42200</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>0</v>
+        <v>19955</v>
       </c>
       <c r="N42" s="3" t="n">
-        <v>0</v>
+        <v>7348</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>0</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="43">
@@ -2565,36 +2539,34 @@
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr"/>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 10:59</t>
-        </is>
+      <c r="E44" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="n">
-        <v>149210</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>117256</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>115540</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="inlineStr"/>
       <c r="L44" s="3" t="n">
-        <v>72460</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>16560</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="n">
-        <v>15224</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>5518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2614,36 +2586,34 @@
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr"/>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 09:56</t>
-        </is>
+      <c r="E45" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="n">
-        <v>141107</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>120926</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>3422</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="n">
-        <v>117504</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="inlineStr"/>
       <c r="L45" s="3" t="n">
-        <v>67477</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>18899</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="n">
-        <v>20979</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>4271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2757,36 +2727,34 @@
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr"/>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 06:16</t>
-        </is>
+      <c r="E48" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="n">
-        <v>170988</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>138507</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="n">
-        <v>136527</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="inlineStr"/>
       <c r="L48" s="3" t="n">
-        <v>70415</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>22624</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="n">
-        <v>12899</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>23761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2808,34 +2776,34 @@
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 04:55</t>
+          <t>2024-08-18 15:14</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="n">
-        <v>128380</v>
+        <v>125973</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>88255</v>
+        <v>104938</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>1548</v>
+        <v>2482</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>86707</v>
+        <v>102456</v>
       </c>
       <c r="K49" s="3" t="inlineStr"/>
       <c r="L49" s="3" t="n">
-        <v>41852</v>
+        <v>45094</v>
       </c>
       <c r="M49" s="3" t="n">
-        <v>14512</v>
+        <v>20084</v>
       </c>
       <c r="N49" s="3" t="n">
-        <v>15451</v>
+        <v>15823</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>10555</v>
+        <v>16331</v>
       </c>
     </row>
     <row r="50">
@@ -2855,36 +2823,34 @@
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr"/>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 13:55</t>
-        </is>
+      <c r="E50" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="n">
-        <v>131184</v>
+        <v>0</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>112858</v>
+        <v>0</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>1613</v>
+        <v>0</v>
       </c>
       <c r="J50" s="3" t="n">
-        <v>111245</v>
+        <v>0</v>
       </c>
       <c r="K50" s="3" t="inlineStr"/>
       <c r="L50" s="3" t="n">
-        <v>49983</v>
+        <v>0</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>21990</v>
+        <v>0</v>
       </c>
       <c r="N50" s="3" t="n">
-        <v>16743</v>
+        <v>0</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>16965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3045,36 +3011,34 @@
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr"/>
-      <c r="E54" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 06:13</t>
-        </is>
+      <c r="E54" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F54" s="3" t="inlineStr"/>
       <c r="G54" s="3" t="n">
-        <v>139367</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>111055</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>1246</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3" t="n">
-        <v>109809</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3" t="inlineStr"/>
       <c r="L54" s="3" t="n">
-        <v>47941</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3" t="n">
-        <v>27427</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3" t="n">
-        <v>23825</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>5123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -3096,34 +3060,34 @@
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 13:51</t>
+          <t>2024-08-18 16:24</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr"/>
       <c r="G55" s="3" t="n">
-        <v>85259</v>
+        <v>87629</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>75015</v>
+        <v>54785</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>2170</v>
+        <v>1027</v>
       </c>
       <c r="J55" s="3" t="n">
-        <v>72845</v>
+        <v>53758</v>
       </c>
       <c r="K55" s="3" t="inlineStr"/>
       <c r="L55" s="3" t="n">
-        <v>42197</v>
+        <v>28548</v>
       </c>
       <c r="M55" s="3" t="n">
-        <v>7373</v>
+        <v>8249</v>
       </c>
       <c r="N55" s="3" t="n">
-        <v>13015</v>
+        <v>5889</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>6615</v>
+        <v>8383</v>
       </c>
     </row>
     <row r="56">
@@ -3143,36 +3107,34 @@
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr"/>
-      <c r="E56" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 12:13</t>
-        </is>
+      <c r="E56" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="n">
-        <v>117611</v>
+        <v>0</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>70576</v>
+        <v>0</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>2092</v>
+        <v>0</v>
       </c>
       <c r="J56" s="3" t="n">
-        <v>68484</v>
+        <v>0</v>
       </c>
       <c r="K56" s="3" t="inlineStr"/>
       <c r="L56" s="3" t="n">
-        <v>28292</v>
+        <v>0</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>16874</v>
+        <v>0</v>
       </c>
       <c r="N56" s="3" t="n">
-        <v>9118</v>
+        <v>0</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>10774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3194,34 +3156,34 @@
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 08:30</t>
+          <t>2024-08-18 08:37</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr"/>
       <c r="G57" s="3" t="n">
-        <v>127082</v>
+        <v>130159</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>91485</v>
+        <v>109089</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>2446</v>
+        <v>1865</v>
       </c>
       <c r="J57" s="3" t="n">
-        <v>89039</v>
+        <v>107224</v>
       </c>
       <c r="K57" s="3" t="inlineStr"/>
       <c r="L57" s="3" t="n">
-        <v>41675</v>
+        <v>54465</v>
       </c>
       <c r="M57" s="3" t="n">
-        <v>21074</v>
+        <v>28968</v>
       </c>
       <c r="N57" s="3" t="n">
-        <v>18647</v>
+        <v>16088</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>3189</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="58">
@@ -3241,36 +3203,34 @@
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr"/>
-      <c r="E58" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 12:19</t>
-        </is>
+      <c r="E58" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="n">
-        <v>130004</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>109478</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>1913</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="n">
-        <v>107565</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="inlineStr"/>
       <c r="L58" s="3" t="n">
-        <v>53419</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="n">
-        <v>25337</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="n">
-        <v>8795</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>14634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3290,34 +3250,36 @@
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr"/>
-      <c r="E59" s="3" t="n">
-        <v>0</v>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:08</t>
+        </is>
       </c>
       <c r="F59" s="3" t="inlineStr"/>
       <c r="G59" s="3" t="n">
-        <v>0</v>
+        <v>102150</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>0</v>
+        <v>91746</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>0</v>
+        <v>2059</v>
       </c>
       <c r="J59" s="3" t="n">
-        <v>0</v>
+        <v>89687</v>
       </c>
       <c r="K59" s="3" t="inlineStr"/>
       <c r="L59" s="3" t="n">
-        <v>0</v>
+        <v>54232</v>
       </c>
       <c r="M59" s="3" t="n">
-        <v>0</v>
+        <v>11636</v>
       </c>
       <c r="N59" s="3" t="n">
-        <v>0</v>
+        <v>17281</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>0</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="60">
@@ -3433,34 +3395,34 @@
       <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 09:30</t>
+          <t>2024-08-18 18:38</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr"/>
       <c r="G62" s="3" t="n">
-        <v>93926</v>
+        <v>94701</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>72381</v>
+        <v>62554</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>1453</v>
+        <v>1621</v>
       </c>
       <c r="J62" s="3" t="n">
-        <v>70928</v>
+        <v>60933</v>
       </c>
       <c r="K62" s="3" t="inlineStr"/>
       <c r="L62" s="3" t="n">
-        <v>42060</v>
+        <v>29065</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>7453</v>
+        <v>13860</v>
       </c>
       <c r="N62" s="3" t="n">
-        <v>4828</v>
+        <v>5135</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>13039</v>
+        <v>9824</v>
       </c>
     </row>
     <row r="63">
@@ -3480,36 +3442,34 @@
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr"/>
-      <c r="E63" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 08:41</t>
-        </is>
+      <c r="E63" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F63" s="3" t="inlineStr"/>
       <c r="G63" s="3" t="n">
-        <v>63680</v>
+        <v>0</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>55659</v>
+        <v>0</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>1077</v>
+        <v>0</v>
       </c>
       <c r="J63" s="3" t="n">
-        <v>54582</v>
+        <v>0</v>
       </c>
       <c r="K63" s="3" t="inlineStr"/>
       <c r="L63" s="3" t="n">
-        <v>26421</v>
+        <v>0</v>
       </c>
       <c r="M63" s="3" t="n">
-        <v>10184</v>
+        <v>0</v>
       </c>
       <c r="N63" s="3" t="n">
-        <v>10735</v>
+        <v>0</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>4511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3529,36 +3489,34 @@
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr"/>
-      <c r="E64" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 04:44</t>
-        </is>
+      <c r="E64" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F64" s="3" t="inlineStr"/>
       <c r="G64" s="3" t="n">
-        <v>48671</v>
+        <v>0</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>34592</v>
+        <v>0</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="J64" s="3" t="n">
-        <v>34009</v>
+        <v>0</v>
       </c>
       <c r="K64" s="3" t="inlineStr"/>
       <c r="L64" s="3" t="n">
-        <v>17925</v>
+        <v>0</v>
       </c>
       <c r="M64" s="3" t="n">
-        <v>6885</v>
+        <v>0</v>
       </c>
       <c r="N64" s="3" t="n">
-        <v>6608</v>
+        <v>0</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3580,34 +3538,34 @@
       <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 10:42</t>
+          <t>2024-08-18 15:55</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr"/>
       <c r="G65" s="3" t="n">
-        <v>109254</v>
+        <v>105351</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>76242</v>
+        <v>81154</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>2075</v>
+        <v>2156</v>
       </c>
       <c r="J65" s="3" t="n">
-        <v>74167</v>
+        <v>78998</v>
       </c>
       <c r="K65" s="3" t="inlineStr"/>
       <c r="L65" s="3" t="n">
-        <v>39504</v>
+        <v>46575</v>
       </c>
       <c r="M65" s="3" t="n">
-        <v>12343</v>
+        <v>13938</v>
       </c>
       <c r="N65" s="3" t="n">
-        <v>15625</v>
+        <v>9918</v>
       </c>
       <c r="O65" s="3" t="n">
-        <v>2983</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="66">
@@ -3627,36 +3585,34 @@
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr"/>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 14:16</t>
-        </is>
+      <c r="E66" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="n">
-        <v>71651</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>45657</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>797</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3" t="n">
-        <v>44860</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="inlineStr"/>
       <c r="L66" s="3" t="n">
-        <v>25607</v>
+        <v>0</v>
       </c>
       <c r="M66" s="3" t="n">
-        <v>10513</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3" t="n">
-        <v>5075</v>
+        <v>0</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>1421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3676,36 +3632,34 @@
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr"/>
-      <c r="E67" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 13:16</t>
-        </is>
+      <c r="E67" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F67" s="3" t="inlineStr"/>
       <c r="G67" s="3" t="n">
-        <v>87855</v>
+        <v>0</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>65951</v>
+        <v>0</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>838</v>
+        <v>0</v>
       </c>
       <c r="J67" s="3" t="n">
-        <v>65113</v>
+        <v>0</v>
       </c>
       <c r="K67" s="3" t="inlineStr"/>
       <c r="L67" s="3" t="n">
-        <v>33475</v>
+        <v>0</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>13412</v>
+        <v>0</v>
       </c>
       <c r="N67" s="3" t="n">
-        <v>4125</v>
+        <v>0</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>10843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3774,34 +3728,34 @@
       <c r="D69" s="3" t="inlineStr"/>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 03:41</t>
+          <t>2024-08-18 14:14</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr"/>
       <c r="G69" s="3" t="n">
-        <v>88554</v>
+        <v>87217</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>65846</v>
+        <v>66059</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>1538</v>
+        <v>1616</v>
       </c>
       <c r="J69" s="3" t="n">
-        <v>64308</v>
+        <v>64443</v>
       </c>
       <c r="K69" s="3" t="inlineStr"/>
       <c r="L69" s="3" t="n">
-        <v>34015</v>
+        <v>34048</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>13145</v>
+        <v>10677</v>
       </c>
       <c r="N69" s="3" t="n">
-        <v>6446</v>
+        <v>6718</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>7484</v>
+        <v>9776</v>
       </c>
     </row>
     <row r="70">
@@ -3868,36 +3822,34 @@
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr"/>
-      <c r="E71" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 03:51</t>
-        </is>
+      <c r="E71" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F71" s="3" t="inlineStr"/>
       <c r="G71" s="3" t="n">
-        <v>109479</v>
+        <v>0</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>91261</v>
+        <v>0</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>2633</v>
+        <v>0</v>
       </c>
       <c r="J71" s="3" t="n">
-        <v>88628</v>
+        <v>0</v>
       </c>
       <c r="K71" s="3" t="inlineStr"/>
       <c r="L71" s="3" t="n">
-        <v>43491</v>
+        <v>0</v>
       </c>
       <c r="M71" s="3" t="n">
-        <v>17732</v>
+        <v>0</v>
       </c>
       <c r="N71" s="3" t="n">
-        <v>8461</v>
+        <v>0</v>
       </c>
       <c r="O71" s="3" t="n">
-        <v>14510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3919,34 +3871,34 @@
       <c r="D72" s="3" t="inlineStr"/>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 13:54</t>
+          <t>2024-08-18 08:52</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr"/>
       <c r="G72" s="3" t="n">
-        <v>105015</v>
+        <v>107874</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>94226</v>
+        <v>82394</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>2283</v>
+        <v>1143</v>
       </c>
       <c r="J72" s="3" t="n">
-        <v>91943</v>
+        <v>81251</v>
       </c>
       <c r="K72" s="3" t="inlineStr"/>
       <c r="L72" s="3" t="n">
-        <v>45987</v>
+        <v>42377</v>
       </c>
       <c r="M72" s="3" t="n">
-        <v>16296</v>
+        <v>16519</v>
       </c>
       <c r="N72" s="3" t="n">
-        <v>11252</v>
+        <v>9684</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>13809</v>
+        <v>8606</v>
       </c>
     </row>
     <row r="73">
@@ -3966,36 +3918,34 @@
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr"/>
-      <c r="E73" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 03:27</t>
-        </is>
+      <c r="E73" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F73" s="3" t="inlineStr"/>
       <c r="G73" s="3" t="n">
-        <v>142278</v>
+        <v>0</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>124563</v>
+        <v>0</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>3348</v>
+        <v>0</v>
       </c>
       <c r="J73" s="3" t="n">
-        <v>121215</v>
+        <v>0</v>
       </c>
       <c r="K73" s="3" t="inlineStr"/>
       <c r="L73" s="3" t="n">
-        <v>70421</v>
+        <v>0</v>
       </c>
       <c r="M73" s="3" t="n">
-        <v>15669</v>
+        <v>0</v>
       </c>
       <c r="N73" s="3" t="n">
-        <v>18055</v>
+        <v>0</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>11008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -4015,36 +3965,34 @@
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr"/>
-      <c r="E74" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 06:34</t>
-        </is>
+      <c r="E74" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F74" s="3" t="inlineStr"/>
       <c r="G74" s="3" t="n">
-        <v>72427</v>
+        <v>0</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>50670</v>
+        <v>0</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="J74" s="3" t="n">
-        <v>49957</v>
+        <v>0</v>
       </c>
       <c r="K74" s="3" t="inlineStr"/>
       <c r="L74" s="3" t="n">
-        <v>24585</v>
+        <v>0</v>
       </c>
       <c r="M74" s="3" t="n">
-        <v>7482</v>
+        <v>0</v>
       </c>
       <c r="N74" s="3" t="n">
-        <v>7771</v>
+        <v>0</v>
       </c>
       <c r="O74" s="3" t="n">
-        <v>7619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4066,34 +4014,34 @@
       <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 11:03</t>
+          <t>2024-08-18 15:50</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr"/>
       <c r="G75" s="3" t="n">
-        <v>91089</v>
+        <v>90214</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>78743</v>
+        <v>57191</v>
       </c>
       <c r="I75" s="3" t="n">
-        <v>1896</v>
+        <v>931</v>
       </c>
       <c r="J75" s="3" t="n">
-        <v>76847</v>
+        <v>56260</v>
       </c>
       <c r="K75" s="3" t="inlineStr"/>
       <c r="L75" s="3" t="n">
-        <v>37470</v>
+        <v>28716</v>
       </c>
       <c r="M75" s="3" t="n">
-        <v>15788</v>
+        <v>11596</v>
       </c>
       <c r="N75" s="3" t="n">
-        <v>10661</v>
+        <v>6219</v>
       </c>
       <c r="O75" s="3" t="n">
-        <v>9084</v>
+        <v>6915</v>
       </c>
     </row>
     <row r="76">
@@ -4162,34 +4110,34 @@
       <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 07:15</t>
+          <t>2024-08-18 13:32</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="n">
-        <v>348941</v>
+        <v>338824</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>268918</v>
+        <v>229390</v>
       </c>
       <c r="I77" s="3" t="n">
-        <v>3598</v>
+        <v>6750</v>
       </c>
       <c r="J77" s="3" t="n">
-        <v>265320</v>
+        <v>222640</v>
       </c>
       <c r="K77" s="3" t="inlineStr"/>
       <c r="L77" s="3" t="n">
-        <v>157734</v>
+        <v>116202</v>
       </c>
       <c r="M77" s="3" t="n">
-        <v>40466</v>
+        <v>48572</v>
       </c>
       <c r="N77" s="3" t="n">
-        <v>33957</v>
+        <v>24812</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>19895</v>
+        <v>21920</v>
       </c>
     </row>
     <row r="78">
@@ -4211,34 +4159,34 @@
       <c r="D78" s="3" t="inlineStr"/>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 10:41</t>
+          <t>2024-08-18 10:55</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr"/>
       <c r="G78" s="3" t="n">
-        <v>83880</v>
+        <v>81950</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>57173</v>
+        <v>70791</v>
       </c>
       <c r="I78" s="3" t="n">
-        <v>672</v>
+        <v>898</v>
       </c>
       <c r="J78" s="3" t="n">
-        <v>56501</v>
+        <v>69893</v>
       </c>
       <c r="K78" s="3" t="inlineStr"/>
       <c r="L78" s="3" t="n">
-        <v>27798</v>
+        <v>32877</v>
       </c>
       <c r="M78" s="3" t="n">
-        <v>13810</v>
+        <v>19047</v>
       </c>
       <c r="N78" s="3" t="n">
-        <v>6039</v>
+        <v>6470</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>6027</v>
+        <v>8003</v>
       </c>
     </row>
     <row r="79">
@@ -4258,36 +4206,34 @@
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr"/>
-      <c r="E79" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 09:32</t>
-        </is>
+      <c r="E79" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F79" s="3" t="inlineStr"/>
       <c r="G79" s="3" t="n">
-        <v>74775</v>
+        <v>0</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>54175</v>
+        <v>0</v>
       </c>
       <c r="I79" s="3" t="n">
-        <v>1483</v>
+        <v>0</v>
       </c>
       <c r="J79" s="3" t="n">
-        <v>52692</v>
+        <v>0</v>
       </c>
       <c r="K79" s="3" t="inlineStr"/>
       <c r="L79" s="3" t="n">
-        <v>25932</v>
+        <v>0</v>
       </c>
       <c r="M79" s="3" t="n">
-        <v>11618</v>
+        <v>0</v>
       </c>
       <c r="N79" s="3" t="n">
-        <v>10194</v>
+        <v>0</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>2312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4309,34 +4255,34 @@
       <c r="D80" s="3" t="inlineStr"/>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 10:23</t>
+          <t>2024-08-18 16:06</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr"/>
       <c r="G80" s="3" t="n">
-        <v>86335</v>
+        <v>85930</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>72606</v>
+        <v>53290</v>
       </c>
       <c r="I80" s="3" t="n">
-        <v>1790</v>
+        <v>1524</v>
       </c>
       <c r="J80" s="3" t="n">
-        <v>70816</v>
+        <v>51766</v>
       </c>
       <c r="K80" s="3" t="inlineStr"/>
       <c r="L80" s="3" t="n">
-        <v>31305</v>
+        <v>25655</v>
       </c>
       <c r="M80" s="3" t="n">
-        <v>17992</v>
+        <v>8022</v>
       </c>
       <c r="N80" s="3" t="n">
-        <v>11933</v>
+        <v>11540</v>
       </c>
       <c r="O80" s="3" t="n">
-        <v>6043</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="81">
@@ -4403,36 +4349,34 @@
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr"/>
-      <c r="E82" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 08:20</t>
-        </is>
+      <c r="E82" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F82" s="3" t="inlineStr"/>
       <c r="G82" s="3" t="n">
-        <v>78836</v>
+        <v>0</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>70790</v>
+        <v>0</v>
       </c>
       <c r="I82" s="3" t="n">
-        <v>1143</v>
+        <v>0</v>
       </c>
       <c r="J82" s="3" t="n">
-        <v>69647</v>
+        <v>0</v>
       </c>
       <c r="K82" s="3" t="inlineStr"/>
       <c r="L82" s="3" t="n">
-        <v>37783</v>
+        <v>0</v>
       </c>
       <c r="M82" s="3" t="n">
-        <v>12719</v>
+        <v>0</v>
       </c>
       <c r="N82" s="3" t="n">
-        <v>8097</v>
+        <v>0</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>7564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -4499,34 +4443,36 @@
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr"/>
-      <c r="E84" s="3" t="n">
-        <v>0</v>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:59</t>
+        </is>
       </c>
       <c r="F84" s="3" t="inlineStr"/>
       <c r="G84" s="3" t="n">
-        <v>0</v>
+        <v>90495</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>0</v>
+        <v>79121</v>
       </c>
       <c r="I84" s="3" t="n">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="J84" s="3" t="n">
-        <v>0</v>
+        <v>77680</v>
       </c>
       <c r="K84" s="3" t="inlineStr"/>
       <c r="L84" s="3" t="n">
-        <v>0</v>
+        <v>41457</v>
       </c>
       <c r="M84" s="3" t="n">
-        <v>0</v>
+        <v>10710</v>
       </c>
       <c r="N84" s="3" t="n">
-        <v>0</v>
+        <v>14899</v>
       </c>
       <c r="O84" s="3" t="n">
-        <v>0</v>
+        <v>6728</v>
       </c>
     </row>
     <row r="85">
@@ -4546,34 +4492,36 @@
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr"/>
-      <c r="E85" s="3" t="n">
-        <v>0</v>
+      <c r="E85" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 16:40</t>
+        </is>
       </c>
       <c r="F85" s="3" t="inlineStr"/>
       <c r="G85" s="3" t="n">
-        <v>0</v>
+        <v>100676</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>0</v>
+        <v>80922</v>
       </c>
       <c r="I85" s="3" t="n">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="J85" s="3" t="n">
-        <v>0</v>
+        <v>79930</v>
       </c>
       <c r="K85" s="3" t="inlineStr"/>
       <c r="L85" s="3" t="n">
-        <v>0</v>
+        <v>45333</v>
       </c>
       <c r="M85" s="3" t="n">
-        <v>0</v>
+        <v>7904</v>
       </c>
       <c r="N85" s="3" t="n">
-        <v>0</v>
+        <v>6710</v>
       </c>
       <c r="O85" s="3" t="n">
-        <v>0</v>
+        <v>15983</v>
       </c>
     </row>
     <row r="86">
@@ -4595,34 +4543,34 @@
       <c r="D86" s="3" t="inlineStr"/>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 06:18</t>
+          <t>2024-08-18 17:17</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr"/>
       <c r="G86" s="3" t="n">
-        <v>96942</v>
+        <v>96830</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>64481</v>
+        <v>60124</v>
       </c>
       <c r="I86" s="3" t="n">
-        <v>1236</v>
+        <v>1136</v>
       </c>
       <c r="J86" s="3" t="n">
-        <v>63245</v>
+        <v>58988</v>
       </c>
       <c r="K86" s="3" t="inlineStr"/>
       <c r="L86" s="3" t="n">
-        <v>32671</v>
+        <v>23109</v>
       </c>
       <c r="M86" s="3" t="n">
-        <v>14968</v>
+        <v>12554</v>
       </c>
       <c r="N86" s="3" t="n">
-        <v>8306</v>
+        <v>11381</v>
       </c>
       <c r="O86" s="3" t="n">
-        <v>4136</v>
+        <v>8993</v>
       </c>
     </row>
     <row r="87">
@@ -4644,34 +4592,34 @@
       <c r="D87" s="3" t="inlineStr"/>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 06:17</t>
+          <t>2024-08-18 16:24</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr"/>
       <c r="G87" s="3" t="n">
-        <v>78512</v>
+        <v>77677</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>64788</v>
+        <v>58144</v>
       </c>
       <c r="I87" s="3" t="n">
-        <v>1483</v>
+        <v>1266</v>
       </c>
       <c r="J87" s="3" t="n">
-        <v>63305</v>
+        <v>56878</v>
       </c>
       <c r="K87" s="3" t="inlineStr"/>
       <c r="L87" s="3" t="n">
-        <v>30814</v>
+        <v>27750</v>
       </c>
       <c r="M87" s="3" t="n">
-        <v>8481</v>
+        <v>8688</v>
       </c>
       <c r="N87" s="3" t="n">
-        <v>10992</v>
+        <v>10739</v>
       </c>
       <c r="O87" s="3" t="n">
-        <v>9851</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="88">
@@ -4691,36 +4639,34 @@
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr"/>
-      <c r="E88" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 06:07</t>
-        </is>
+      <c r="E88" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F88" s="3" t="inlineStr"/>
       <c r="G88" s="3" t="n">
-        <v>82820</v>
+        <v>0</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>59348</v>
+        <v>0</v>
       </c>
       <c r="I88" s="3" t="n">
-        <v>1441</v>
+        <v>0</v>
       </c>
       <c r="J88" s="3" t="n">
-        <v>57907</v>
+        <v>0</v>
       </c>
       <c r="K88" s="3" t="inlineStr"/>
       <c r="L88" s="3" t="n">
-        <v>32458</v>
+        <v>0</v>
       </c>
       <c r="M88" s="3" t="n">
-        <v>15531</v>
+        <v>0</v>
       </c>
       <c r="N88" s="3" t="n">
-        <v>5093</v>
+        <v>0</v>
       </c>
       <c r="O88" s="3" t="n">
-        <v>1929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -4740,36 +4686,34 @@
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr"/>
-      <c r="E89" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 05:11</t>
-        </is>
+      <c r="E89" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F89" s="3" t="inlineStr"/>
       <c r="G89" s="3" t="n">
-        <v>105582</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>71415</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="n">
-        <v>70128</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="inlineStr"/>
       <c r="L89" s="3" t="n">
-        <v>38831</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="n">
-        <v>6448</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="n">
-        <v>9225</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="n">
-        <v>12117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -4789,36 +4733,34 @@
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr"/>
-      <c r="E90" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 07:37</t>
-        </is>
+      <c r="E90" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F90" s="3" t="inlineStr"/>
       <c r="G90" s="3" t="n">
-        <v>89949</v>
+        <v>0</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>62605</v>
+        <v>0</v>
       </c>
       <c r="I90" s="3" t="n">
-        <v>1443</v>
+        <v>0</v>
       </c>
       <c r="J90" s="3" t="n">
-        <v>61162</v>
+        <v>0</v>
       </c>
       <c r="K90" s="3" t="inlineStr"/>
       <c r="L90" s="3" t="n">
-        <v>41196</v>
+        <v>0</v>
       </c>
       <c r="M90" s="3" t="n">
-        <v>11486</v>
+        <v>0</v>
       </c>
       <c r="N90" s="3" t="n">
-        <v>4371</v>
+        <v>0</v>
       </c>
       <c r="O90" s="3" t="n">
-        <v>1048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4840,34 +4782,34 @@
       <c r="D91" s="3" t="inlineStr"/>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 04:58</t>
+          <t>2024-08-18 08:10</t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr"/>
       <c r="G91" s="3" t="n">
-        <v>110707</v>
+        <v>103353</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>68949</v>
+        <v>75626</v>
       </c>
       <c r="I91" s="3" t="n">
-        <v>909</v>
+        <v>2001</v>
       </c>
       <c r="J91" s="3" t="n">
-        <v>68040</v>
+        <v>73625</v>
       </c>
       <c r="K91" s="3" t="inlineStr"/>
       <c r="L91" s="3" t="n">
-        <v>36162</v>
+        <v>37789</v>
       </c>
       <c r="M91" s="3" t="n">
-        <v>13261</v>
+        <v>15606</v>
       </c>
       <c r="N91" s="3" t="n">
-        <v>5573</v>
+        <v>6564</v>
       </c>
       <c r="O91" s="3" t="n">
-        <v>9640</v>
+        <v>9982</v>
       </c>
     </row>
     <row r="92">
@@ -4887,36 +4829,34 @@
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr"/>
-      <c r="E92" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 02:58</t>
-        </is>
+      <c r="E92" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F92" s="3" t="inlineStr"/>
       <c r="G92" s="3" t="n">
-        <v>98920</v>
+        <v>0</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>59444</v>
+        <v>0</v>
       </c>
       <c r="I92" s="3" t="n">
-        <v>854</v>
+        <v>0</v>
       </c>
       <c r="J92" s="3" t="n">
-        <v>58590</v>
+        <v>0</v>
       </c>
       <c r="K92" s="3" t="inlineStr"/>
       <c r="L92" s="3" t="n">
-        <v>31504</v>
+        <v>0</v>
       </c>
       <c r="M92" s="3" t="n">
-        <v>7554</v>
+        <v>0</v>
       </c>
       <c r="N92" s="3" t="n">
-        <v>14747</v>
+        <v>0</v>
       </c>
       <c r="O92" s="3" t="n">
-        <v>1853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4983,36 +4923,34 @@
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr"/>
-      <c r="E94" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 09:15</t>
-        </is>
+      <c r="E94" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="inlineStr"/>
       <c r="G94" s="3" t="n">
-        <v>85735</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>70535</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="n">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="n">
-        <v>69770</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="inlineStr"/>
       <c r="L94" s="3" t="n">
-        <v>36622</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="n">
-        <v>11357</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="n">
-        <v>10638</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="n">
-        <v>7662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -5034,34 +4972,34 @@
       <c r="D95" s="3" t="inlineStr"/>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 14:12</t>
+          <t>2024-08-18 10:57</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr"/>
       <c r="G95" s="3" t="n">
-        <v>82941</v>
+        <v>79347</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>58322</v>
+        <v>62951</v>
       </c>
       <c r="I95" s="3" t="n">
-        <v>1020</v>
+        <v>1203</v>
       </c>
       <c r="J95" s="3" t="n">
-        <v>57302</v>
+        <v>61748</v>
       </c>
       <c r="K95" s="3" t="inlineStr"/>
       <c r="L95" s="3" t="n">
-        <v>28505</v>
+        <v>34379</v>
       </c>
       <c r="M95" s="3" t="n">
-        <v>13227</v>
+        <v>8792</v>
       </c>
       <c r="N95" s="3" t="n">
-        <v>8228</v>
+        <v>7577</v>
       </c>
       <c r="O95" s="3" t="n">
-        <v>4475</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="96">
@@ -5083,34 +5021,34 @@
       <c r="D96" s="3" t="inlineStr"/>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 08:58</t>
+          <t>2024-08-18 09:20</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr"/>
       <c r="G96" s="3" t="n">
-        <v>89870</v>
+        <v>94951</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>59685</v>
+        <v>78810</v>
       </c>
       <c r="I96" s="3" t="n">
-        <v>754</v>
+        <v>896</v>
       </c>
       <c r="J96" s="3" t="n">
-        <v>58931</v>
+        <v>77914</v>
       </c>
       <c r="K96" s="3" t="inlineStr"/>
       <c r="L96" s="3" t="n">
-        <v>26730</v>
+        <v>33488</v>
       </c>
       <c r="M96" s="3" t="n">
-        <v>12461</v>
+        <v>12582</v>
       </c>
       <c r="N96" s="3" t="n">
-        <v>14435</v>
+        <v>17659</v>
       </c>
       <c r="O96" s="3" t="n">
-        <v>2356</v>
+        <v>10287</v>
       </c>
     </row>
     <row r="97">
@@ -5130,34 +5068,36 @@
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr"/>
-      <c r="E97" s="3" t="n">
-        <v>0</v>
+      <c r="E97" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 09:17</t>
+        </is>
       </c>
       <c r="F97" s="3" t="inlineStr"/>
       <c r="G97" s="3" t="n">
-        <v>0</v>
+        <v>102723</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>0</v>
+        <v>72955</v>
       </c>
       <c r="I97" s="3" t="n">
-        <v>0</v>
+        <v>1405</v>
       </c>
       <c r="J97" s="3" t="n">
-        <v>0</v>
+        <v>71550</v>
       </c>
       <c r="K97" s="3" t="inlineStr"/>
       <c r="L97" s="3" t="n">
-        <v>0</v>
+        <v>43895</v>
       </c>
       <c r="M97" s="3" t="n">
-        <v>0</v>
+        <v>9456</v>
       </c>
       <c r="N97" s="3" t="n">
-        <v>0</v>
+        <v>10979</v>
       </c>
       <c r="O97" s="3" t="n">
-        <v>0</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="98">
@@ -5179,34 +5119,34 @@
       <c r="D98" s="3" t="inlineStr"/>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 11:01</t>
+          <t>2024-08-18 13:54</t>
         </is>
       </c>
       <c r="F98" s="3" t="inlineStr"/>
       <c r="G98" s="3" t="n">
-        <v>105546</v>
+        <v>111095</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>74273</v>
+        <v>72392</v>
       </c>
       <c r="I98" s="3" t="n">
-        <v>1635</v>
+        <v>2073</v>
       </c>
       <c r="J98" s="3" t="n">
-        <v>72638</v>
+        <v>70319</v>
       </c>
       <c r="K98" s="3" t="inlineStr"/>
       <c r="L98" s="3" t="n">
-        <v>37780</v>
+        <v>29615</v>
       </c>
       <c r="M98" s="3" t="n">
-        <v>15339</v>
+        <v>15674</v>
       </c>
       <c r="N98" s="3" t="n">
-        <v>8489</v>
+        <v>13573</v>
       </c>
       <c r="O98" s="3" t="n">
-        <v>7396</v>
+        <v>7939</v>
       </c>
     </row>
     <row r="99">
@@ -5228,34 +5168,34 @@
       <c r="D99" s="3" t="inlineStr"/>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 14:00</t>
+          <t>2024-08-18 08:42</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr"/>
       <c r="G99" s="3" t="n">
-        <v>79675</v>
+        <v>80052</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>52677</v>
+        <v>56159</v>
       </c>
       <c r="I99" s="3" t="n">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="J99" s="3" t="n">
-        <v>51604</v>
+        <v>55098</v>
       </c>
       <c r="K99" s="3" t="inlineStr"/>
       <c r="L99" s="3" t="n">
-        <v>27840</v>
+        <v>25974</v>
       </c>
       <c r="M99" s="3" t="n">
-        <v>10641</v>
+        <v>8647</v>
       </c>
       <c r="N99" s="3" t="n">
-        <v>8885</v>
+        <v>11730</v>
       </c>
       <c r="O99" s="3" t="n">
-        <v>1655</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="100">
@@ -5277,34 +5217,34 @@
       <c r="D100" s="3" t="inlineStr"/>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 11:35</t>
+          <t>2024-08-18 13:32</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr"/>
       <c r="G100" s="3" t="n">
-        <v>124708</v>
+        <v>128103</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>93344</v>
+        <v>83883</v>
       </c>
       <c r="I100" s="3" t="n">
-        <v>980</v>
+        <v>1239</v>
       </c>
       <c r="J100" s="3" t="n">
-        <v>92364</v>
+        <v>82644</v>
       </c>
       <c r="K100" s="3" t="inlineStr"/>
       <c r="L100" s="3" t="n">
-        <v>48745</v>
+        <v>43775</v>
       </c>
       <c r="M100" s="3" t="n">
-        <v>11078</v>
+        <v>18007</v>
       </c>
       <c r="N100" s="3" t="n">
-        <v>11192</v>
+        <v>15259</v>
       </c>
       <c r="O100" s="3" t="n">
-        <v>16729</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="101">
@@ -5324,34 +5264,36 @@
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr"/>
-      <c r="E101" s="3" t="n">
-        <v>0</v>
+      <c r="E101" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 09:20</t>
+        </is>
       </c>
       <c r="F101" s="3" t="inlineStr"/>
       <c r="G101" s="3" t="n">
-        <v>0</v>
+        <v>174872</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>0</v>
+        <v>109169</v>
       </c>
       <c r="I101" s="3" t="n">
-        <v>0</v>
+        <v>2751</v>
       </c>
       <c r="J101" s="3" t="n">
-        <v>0</v>
+        <v>106418</v>
       </c>
       <c r="K101" s="3" t="inlineStr"/>
       <c r="L101" s="3" t="n">
-        <v>0</v>
+        <v>43842</v>
       </c>
       <c r="M101" s="3" t="n">
-        <v>0</v>
+        <v>21072</v>
       </c>
       <c r="N101" s="3" t="n">
-        <v>0</v>
+        <v>20213</v>
       </c>
       <c r="O101" s="3" t="n">
-        <v>0</v>
+        <v>15968</v>
       </c>
     </row>
     <row r="102">
@@ -5373,34 +5315,34 @@
       <c r="D102" s="3" t="inlineStr"/>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 12:08</t>
+          <t>2024-08-18 19:40</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr"/>
       <c r="G102" s="3" t="n">
-        <v>23986</v>
+        <v>24339</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>17349</v>
+        <v>18283</v>
       </c>
       <c r="I102" s="3" t="n">
-        <v>256</v>
+        <v>424</v>
       </c>
       <c r="J102" s="3" t="n">
-        <v>17093</v>
+        <v>17859</v>
       </c>
       <c r="K102" s="3" t="inlineStr"/>
       <c r="L102" s="3" t="n">
-        <v>8913</v>
+        <v>9606</v>
       </c>
       <c r="M102" s="3" t="n">
-        <v>2483</v>
+        <v>2687</v>
       </c>
       <c r="N102" s="3" t="n">
-        <v>4062</v>
+        <v>1688</v>
       </c>
       <c r="O102" s="3" t="n">
-        <v>779</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="103">
@@ -5420,36 +5362,34 @@
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr"/>
-      <c r="E103" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 07:20</t>
-        </is>
+      <c r="E103" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F103" s="3" t="inlineStr"/>
       <c r="G103" s="3" t="n">
-        <v>51577</v>
+        <v>0</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>37550</v>
+        <v>0</v>
       </c>
       <c r="I103" s="3" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="J103" s="3" t="n">
-        <v>36902</v>
+        <v>0</v>
       </c>
       <c r="K103" s="3" t="inlineStr"/>
       <c r="L103" s="3" t="n">
-        <v>19674</v>
+        <v>0</v>
       </c>
       <c r="M103" s="3" t="n">
-        <v>4717</v>
+        <v>0</v>
       </c>
       <c r="N103" s="3" t="n">
-        <v>3383</v>
+        <v>0</v>
       </c>
       <c r="O103" s="3" t="n">
-        <v>7281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -5469,36 +5409,34 @@
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr"/>
-      <c r="E104" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 06:50</t>
-        </is>
+      <c r="E104" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F104" s="3" t="inlineStr"/>
       <c r="G104" s="3" t="n">
-        <v>62141</v>
+        <v>0</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>53959</v>
+        <v>0</v>
       </c>
       <c r="I104" s="3" t="n">
-        <v>741</v>
+        <v>0</v>
       </c>
       <c r="J104" s="3" t="n">
-        <v>53218</v>
+        <v>0</v>
       </c>
       <c r="K104" s="3" t="inlineStr"/>
       <c r="L104" s="3" t="n">
-        <v>28486</v>
+        <v>0</v>
       </c>
       <c r="M104" s="3" t="n">
-        <v>13002</v>
+        <v>0</v>
       </c>
       <c r="N104" s="3" t="n">
-        <v>6322</v>
+        <v>0</v>
       </c>
       <c r="O104" s="3" t="n">
-        <v>2745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -5567,34 +5505,34 @@
       <c r="D106" s="3" t="inlineStr"/>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 14:49</t>
+          <t>2024-08-18 17:49</t>
         </is>
       </c>
       <c r="F106" s="3" t="inlineStr"/>
       <c r="G106" s="3" t="n">
-        <v>61771</v>
+        <v>61593</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>45822</v>
+        <v>48493</v>
       </c>
       <c r="I106" s="3" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="J106" s="3" t="n">
-        <v>45282</v>
+        <v>47952</v>
       </c>
       <c r="K106" s="3" t="inlineStr"/>
       <c r="L106" s="3" t="n">
-        <v>21306</v>
+        <v>22699</v>
       </c>
       <c r="M106" s="3" t="n">
-        <v>12428</v>
+        <v>8267</v>
       </c>
       <c r="N106" s="3" t="n">
-        <v>5832</v>
+        <v>11323</v>
       </c>
       <c r="O106" s="3" t="n">
-        <v>3450</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="107">
@@ -5616,34 +5554,34 @@
       <c r="D107" s="3" t="inlineStr"/>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 04:43</t>
+          <t>2024-08-18 15:54</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr"/>
       <c r="G107" s="3" t="n">
-        <v>40198</v>
+        <v>40361</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>28082</v>
+        <v>27221</v>
       </c>
       <c r="I107" s="3" t="n">
-        <v>472</v>
+        <v>616</v>
       </c>
       <c r="J107" s="3" t="n">
-        <v>27610</v>
+        <v>26605</v>
       </c>
       <c r="K107" s="3" t="inlineStr"/>
       <c r="L107" s="3" t="n">
-        <v>13080</v>
+        <v>12942</v>
       </c>
       <c r="M107" s="3" t="n">
-        <v>4499</v>
+        <v>4665</v>
       </c>
       <c r="N107" s="3" t="n">
-        <v>4831</v>
+        <v>4739</v>
       </c>
       <c r="O107" s="3" t="n">
-        <v>3817</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="108">
@@ -5665,34 +5603,34 @@
       <c r="D108" s="3" t="inlineStr"/>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 12:42</t>
+          <t>2024-08-18 19:25</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr"/>
       <c r="G108" s="3" t="n">
-        <v>39702</v>
+        <v>39693</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>24582</v>
+        <v>25097</v>
       </c>
       <c r="I108" s="3" t="n">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="J108" s="3" t="n">
-        <v>24009</v>
+        <v>24509</v>
       </c>
       <c r="K108" s="3" t="inlineStr"/>
       <c r="L108" s="3" t="n">
-        <v>10333</v>
+        <v>11370</v>
       </c>
       <c r="M108" s="3" t="n">
-        <v>5745</v>
+        <v>2817</v>
       </c>
       <c r="N108" s="3" t="n">
-        <v>5017</v>
+        <v>4490</v>
       </c>
       <c r="O108" s="3" t="n">
-        <v>1711</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="109">
@@ -5712,36 +5650,34 @@
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr"/>
-      <c r="E109" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 09:08</t>
-        </is>
+      <c r="E109" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F109" s="3" t="inlineStr"/>
       <c r="G109" s="3" t="n">
-        <v>57218</v>
+        <v>0</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>39605</v>
+        <v>0</v>
       </c>
       <c r="I109" s="3" t="n">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="J109" s="3" t="n">
-        <v>39083</v>
+        <v>0</v>
       </c>
       <c r="K109" s="3" t="inlineStr"/>
       <c r="L109" s="3" t="n">
-        <v>16964</v>
+        <v>0</v>
       </c>
       <c r="M109" s="3" t="n">
-        <v>8084</v>
+        <v>0</v>
       </c>
       <c r="N109" s="3" t="n">
-        <v>5765</v>
+        <v>0</v>
       </c>
       <c r="O109" s="3" t="n">
-        <v>6314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -5808,36 +5744,34 @@
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr"/>
-      <c r="E111" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 07:58</t>
-        </is>
+      <c r="E111" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F111" s="3" t="inlineStr"/>
       <c r="G111" s="3" t="n">
-        <v>36385</v>
+        <v>0</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>24863</v>
+        <v>0</v>
       </c>
       <c r="I111" s="3" t="n">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="J111" s="3" t="n">
-        <v>24244</v>
+        <v>0</v>
       </c>
       <c r="K111" s="3" t="inlineStr"/>
       <c r="L111" s="3" t="n">
-        <v>12551</v>
+        <v>0</v>
       </c>
       <c r="M111" s="3" t="n">
-        <v>5320</v>
+        <v>0</v>
       </c>
       <c r="N111" s="3" t="n">
-        <v>2974</v>
+        <v>0</v>
       </c>
       <c r="O111" s="3" t="n">
-        <v>2185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -5859,34 +5793,34 @@
       <c r="D112" s="3" t="inlineStr"/>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 06:00</t>
+          <t>2024-08-18 17:07</t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr"/>
       <c r="G112" s="3" t="n">
-        <v>94629</v>
+        <v>92541</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>57675</v>
+        <v>81095</v>
       </c>
       <c r="I112" s="3" t="n">
-        <v>1454</v>
+        <v>1105</v>
       </c>
       <c r="J112" s="3" t="n">
-        <v>56221</v>
+        <v>79990</v>
       </c>
       <c r="K112" s="3" t="inlineStr"/>
       <c r="L112" s="3" t="n">
-        <v>28510</v>
+        <v>43509</v>
       </c>
       <c r="M112" s="3" t="n">
-        <v>8081</v>
+        <v>12773</v>
       </c>
       <c r="N112" s="3" t="n">
-        <v>6708</v>
+        <v>11685</v>
       </c>
       <c r="O112" s="3" t="n">
-        <v>10108</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="113">
@@ -5906,36 +5840,34 @@
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr"/>
-      <c r="E113" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 14:43</t>
-        </is>
+      <c r="E113" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F113" s="3" t="inlineStr"/>
       <c r="G113" s="3" t="n">
-        <v>83387</v>
+        <v>0</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>56363</v>
+        <v>0</v>
       </c>
       <c r="I113" s="3" t="n">
-        <v>1078</v>
+        <v>0</v>
       </c>
       <c r="J113" s="3" t="n">
-        <v>55285</v>
+        <v>0</v>
       </c>
       <c r="K113" s="3" t="inlineStr"/>
       <c r="L113" s="3" t="n">
-        <v>32352</v>
+        <v>0</v>
       </c>
       <c r="M113" s="3" t="n">
-        <v>5781</v>
+        <v>0</v>
       </c>
       <c r="N113" s="3" t="n">
-        <v>11287</v>
+        <v>0</v>
       </c>
       <c r="O113" s="3" t="n">
-        <v>3099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -6004,34 +5936,34 @@
       <c r="D115" s="3" t="inlineStr"/>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 05:28</t>
+          <t>2024-08-18 11:37</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr"/>
       <c r="G115" s="3" t="n">
-        <v>81530</v>
+        <v>75260</v>
       </c>
       <c r="H115" s="3" t="n">
-        <v>62005</v>
+        <v>59506</v>
       </c>
       <c r="I115" s="3" t="n">
-        <v>962</v>
+        <v>1538</v>
       </c>
       <c r="J115" s="3" t="n">
-        <v>61043</v>
+        <v>57968</v>
       </c>
       <c r="K115" s="3" t="inlineStr"/>
       <c r="L115" s="3" t="n">
-        <v>29147</v>
+        <v>25503</v>
       </c>
       <c r="M115" s="3" t="n">
-        <v>13441</v>
+        <v>11138</v>
       </c>
       <c r="N115" s="3" t="n">
-        <v>11616</v>
+        <v>10689</v>
       </c>
       <c r="O115" s="3" t="n">
-        <v>3784</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="116">
@@ -6053,34 +5985,34 @@
       <c r="D116" s="3" t="inlineStr"/>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 09:02</t>
+          <t>2024-08-18 18:47</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr"/>
       <c r="G116" s="3" t="n">
-        <v>122727</v>
+        <v>119694</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>86536</v>
+        <v>80430</v>
       </c>
       <c r="I116" s="3" t="n">
-        <v>2486</v>
+        <v>2073</v>
       </c>
       <c r="J116" s="3" t="n">
-        <v>84050</v>
+        <v>78357</v>
       </c>
       <c r="K116" s="3" t="inlineStr"/>
       <c r="L116" s="3" t="n">
-        <v>45159</v>
+        <v>39722</v>
       </c>
       <c r="M116" s="3" t="n">
-        <v>9628</v>
+        <v>16681</v>
       </c>
       <c r="N116" s="3" t="n">
-        <v>12742</v>
+        <v>10208</v>
       </c>
       <c r="O116" s="3" t="n">
-        <v>12317</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="117">
@@ -6102,34 +6034,34 @@
       <c r="D117" s="3" t="inlineStr"/>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 10:04</t>
+          <t>2024-08-18 17:04</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr"/>
       <c r="G117" s="3" t="n">
-        <v>202472</v>
+        <v>190423</v>
       </c>
       <c r="H117" s="3" t="n">
-        <v>149289</v>
+        <v>147770</v>
       </c>
       <c r="I117" s="3" t="n">
-        <v>3364</v>
+        <v>4157</v>
       </c>
       <c r="J117" s="3" t="n">
-        <v>145925</v>
+        <v>143613</v>
       </c>
       <c r="K117" s="3" t="inlineStr"/>
       <c r="L117" s="3" t="n">
-        <v>80527</v>
+        <v>66318</v>
       </c>
       <c r="M117" s="3" t="n">
-        <v>17464</v>
+        <v>30169</v>
       </c>
       <c r="N117" s="3" t="n">
-        <v>21085</v>
+        <v>25947</v>
       </c>
       <c r="O117" s="3" t="n">
-        <v>19550</v>
+        <v>13996</v>
       </c>
     </row>
     <row r="118">
@@ -6149,36 +6081,34 @@
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr"/>
-      <c r="E118" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 08:04</t>
-        </is>
+      <c r="E118" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F118" s="3" t="inlineStr"/>
       <c r="G118" s="3" t="n">
-        <v>99449</v>
+        <v>0</v>
       </c>
       <c r="H118" s="3" t="n">
-        <v>76908</v>
+        <v>0</v>
       </c>
       <c r="I118" s="3" t="n">
-        <v>1706</v>
+        <v>0</v>
       </c>
       <c r="J118" s="3" t="n">
-        <v>75202</v>
+        <v>0</v>
       </c>
       <c r="K118" s="3" t="inlineStr"/>
       <c r="L118" s="3" t="n">
-        <v>38781</v>
+        <v>0</v>
       </c>
       <c r="M118" s="3" t="n">
-        <v>16362</v>
+        <v>0</v>
       </c>
       <c r="N118" s="3" t="n">
-        <v>4372</v>
+        <v>0</v>
       </c>
       <c r="O118" s="3" t="n">
-        <v>11925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -6198,36 +6128,34 @@
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr"/>
-      <c r="E119" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 11:00</t>
-        </is>
+      <c r="E119" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F119" s="3" t="inlineStr"/>
       <c r="G119" s="3" t="n">
-        <v>161269</v>
+        <v>0</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>105946</v>
+        <v>0</v>
       </c>
       <c r="I119" s="3" t="n">
-        <v>2901</v>
+        <v>0</v>
       </c>
       <c r="J119" s="3" t="n">
-        <v>103045</v>
+        <v>0</v>
       </c>
       <c r="K119" s="3" t="inlineStr"/>
       <c r="L119" s="3" t="n">
-        <v>58669</v>
+        <v>0</v>
       </c>
       <c r="M119" s="3" t="n">
-        <v>17507</v>
+        <v>0</v>
       </c>
       <c r="N119" s="3" t="n">
-        <v>19079</v>
+        <v>0</v>
       </c>
       <c r="O119" s="3" t="n">
-        <v>2635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -6247,36 +6175,34 @@
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr"/>
-      <c r="E120" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 11:17</t>
-        </is>
+      <c r="E120" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F120" s="3" t="inlineStr"/>
       <c r="G120" s="3" t="n">
-        <v>94736</v>
+        <v>0</v>
       </c>
       <c r="H120" s="3" t="n">
-        <v>74072</v>
+        <v>0</v>
       </c>
       <c r="I120" s="3" t="n">
-        <v>1394</v>
+        <v>0</v>
       </c>
       <c r="J120" s="3" t="n">
-        <v>72678</v>
+        <v>0</v>
       </c>
       <c r="K120" s="3" t="inlineStr"/>
       <c r="L120" s="3" t="n">
-        <v>32140</v>
+        <v>0</v>
       </c>
       <c r="M120" s="3" t="n">
-        <v>14310</v>
+        <v>0</v>
       </c>
       <c r="N120" s="3" t="n">
-        <v>15596</v>
+        <v>0</v>
       </c>
       <c r="O120" s="3" t="n">
-        <v>6996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -6296,36 +6222,34 @@
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr"/>
-      <c r="E121" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 04:50</t>
-        </is>
+      <c r="E121" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F121" s="3" t="inlineStr"/>
       <c r="G121" s="3" t="n">
-        <v>78312</v>
+        <v>0</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>63411</v>
+        <v>0</v>
       </c>
       <c r="I121" s="3" t="n">
-        <v>1534</v>
+        <v>0</v>
       </c>
       <c r="J121" s="3" t="n">
-        <v>61877</v>
+        <v>0</v>
       </c>
       <c r="K121" s="3" t="inlineStr"/>
       <c r="L121" s="3" t="n">
-        <v>29662</v>
+        <v>0</v>
       </c>
       <c r="M121" s="3" t="n">
-        <v>14913</v>
+        <v>0</v>
       </c>
       <c r="N121" s="3" t="n">
-        <v>8079</v>
+        <v>0</v>
       </c>
       <c r="O121" s="3" t="n">
-        <v>6127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -6392,34 +6316,36 @@
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr"/>
-      <c r="E123" s="3" t="n">
-        <v>0</v>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:40</t>
+        </is>
       </c>
       <c r="F123" s="3" t="inlineStr"/>
       <c r="G123" s="3" t="n">
-        <v>0</v>
+        <v>76403</v>
       </c>
       <c r="H123" s="3" t="n">
-        <v>0</v>
+        <v>48531</v>
       </c>
       <c r="I123" s="3" t="n">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="J123" s="3" t="n">
-        <v>0</v>
+        <v>47651</v>
       </c>
       <c r="K123" s="3" t="inlineStr"/>
       <c r="L123" s="3" t="n">
-        <v>0</v>
+        <v>27292</v>
       </c>
       <c r="M123" s="3" t="n">
-        <v>0</v>
+        <v>7674</v>
       </c>
       <c r="N123" s="3" t="n">
-        <v>0</v>
+        <v>5066</v>
       </c>
       <c r="O123" s="3" t="n">
-        <v>0</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="124">
@@ -6439,36 +6365,34 @@
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr"/>
-      <c r="E124" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 08:06</t>
-        </is>
+      <c r="E124" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F124" s="3" t="inlineStr"/>
       <c r="G124" s="3" t="n">
-        <v>95306</v>
+        <v>0</v>
       </c>
       <c r="H124" s="3" t="n">
-        <v>82462</v>
+        <v>0</v>
       </c>
       <c r="I124" s="3" t="n">
-        <v>1793</v>
+        <v>0</v>
       </c>
       <c r="J124" s="3" t="n">
-        <v>80669</v>
+        <v>0</v>
       </c>
       <c r="K124" s="3" t="inlineStr"/>
       <c r="L124" s="3" t="n">
-        <v>41613</v>
+        <v>0</v>
       </c>
       <c r="M124" s="3" t="n">
-        <v>14096</v>
+        <v>0</v>
       </c>
       <c r="N124" s="3" t="n">
-        <v>19435</v>
+        <v>0</v>
       </c>
       <c r="O124" s="3" t="n">
-        <v>1490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -6537,34 +6461,34 @@
       <c r="D126" s="3" t="inlineStr"/>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 10:12</t>
+          <t>2024-08-18 10:24</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr"/>
       <c r="G126" s="3" t="n">
-        <v>111013</v>
+        <v>106469</v>
       </c>
       <c r="H126" s="3" t="n">
-        <v>81144</v>
+        <v>67448</v>
       </c>
       <c r="I126" s="3" t="n">
-        <v>1909</v>
+        <v>955</v>
       </c>
       <c r="J126" s="3" t="n">
-        <v>79235</v>
+        <v>66493</v>
       </c>
       <c r="K126" s="3" t="inlineStr"/>
       <c r="L126" s="3" t="n">
-        <v>46949</v>
+        <v>36209</v>
       </c>
       <c r="M126" s="3" t="n">
-        <v>9557</v>
+        <v>10550</v>
       </c>
       <c r="N126" s="3" t="n">
-        <v>6359</v>
+        <v>8040</v>
       </c>
       <c r="O126" s="3" t="n">
-        <v>12406</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="127">
@@ -6584,36 +6508,34 @@
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr"/>
-      <c r="E127" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 05:56</t>
-        </is>
+      <c r="E127" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F127" s="3" t="inlineStr"/>
       <c r="G127" s="3" t="n">
-        <v>103891</v>
+        <v>0</v>
       </c>
       <c r="H127" s="3" t="n">
-        <v>91361</v>
+        <v>0</v>
       </c>
       <c r="I127" s="3" t="n">
-        <v>2161</v>
+        <v>0</v>
       </c>
       <c r="J127" s="3" t="n">
-        <v>89200</v>
+        <v>0</v>
       </c>
       <c r="K127" s="3" t="inlineStr"/>
       <c r="L127" s="3" t="n">
-        <v>36358</v>
+        <v>0</v>
       </c>
       <c r="M127" s="3" t="n">
-        <v>15704</v>
+        <v>0</v>
       </c>
       <c r="N127" s="3" t="n">
-        <v>19675</v>
+        <v>0</v>
       </c>
       <c r="O127" s="3" t="n">
-        <v>13001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -6680,36 +6602,34 @@
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr"/>
-      <c r="E129" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 09:20</t>
-        </is>
+      <c r="E129" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F129" s="3" t="inlineStr"/>
       <c r="G129" s="3" t="n">
-        <v>101632</v>
+        <v>0</v>
       </c>
       <c r="H129" s="3" t="n">
-        <v>80737</v>
+        <v>0</v>
       </c>
       <c r="I129" s="3" t="n">
-        <v>1619</v>
+        <v>0</v>
       </c>
       <c r="J129" s="3" t="n">
-        <v>79118</v>
+        <v>0</v>
       </c>
       <c r="K129" s="3" t="inlineStr"/>
       <c r="L129" s="3" t="n">
-        <v>39439</v>
+        <v>0</v>
       </c>
       <c r="M129" s="3" t="n">
-        <v>17798</v>
+        <v>0</v>
       </c>
       <c r="N129" s="3" t="n">
-        <v>15859</v>
+        <v>0</v>
       </c>
       <c r="O129" s="3" t="n">
-        <v>2064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -6776,36 +6696,34 @@
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr"/>
-      <c r="E131" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 04:43</t>
-        </is>
+      <c r="E131" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F131" s="3" t="inlineStr"/>
       <c r="G131" s="3" t="n">
-        <v>79642</v>
+        <v>0</v>
       </c>
       <c r="H131" s="3" t="n">
-        <v>54600</v>
+        <v>0</v>
       </c>
       <c r="I131" s="3" t="n">
-        <v>1336</v>
+        <v>0</v>
       </c>
       <c r="J131" s="3" t="n">
-        <v>53264</v>
+        <v>0</v>
       </c>
       <c r="K131" s="3" t="inlineStr"/>
       <c r="L131" s="3" t="n">
-        <v>29343</v>
+        <v>0</v>
       </c>
       <c r="M131" s="3" t="n">
-        <v>9792</v>
+        <v>0</v>
       </c>
       <c r="N131" s="3" t="n">
-        <v>7043</v>
+        <v>0</v>
       </c>
       <c r="O131" s="3" t="n">
-        <v>4421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -6825,36 +6743,34 @@
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr"/>
-      <c r="E132" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 05:26</t>
-        </is>
+      <c r="E132" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F132" s="3" t="inlineStr"/>
       <c r="G132" s="3" t="n">
-        <v>97762</v>
+        <v>0</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>62455</v>
+        <v>0</v>
       </c>
       <c r="I132" s="3" t="n">
-        <v>751</v>
+        <v>0</v>
       </c>
       <c r="J132" s="3" t="n">
-        <v>61704</v>
+        <v>0</v>
       </c>
       <c r="K132" s="3" t="inlineStr"/>
       <c r="L132" s="3" t="n">
-        <v>30351</v>
+        <v>0</v>
       </c>
       <c r="M132" s="3" t="n">
-        <v>14549</v>
+        <v>0</v>
       </c>
       <c r="N132" s="3" t="n">
-        <v>5144</v>
+        <v>0</v>
       </c>
       <c r="O132" s="3" t="n">
-        <v>8572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -6876,34 +6792,34 @@
       <c r="D133" s="3" t="inlineStr"/>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 04:53</t>
+          <t>2024-08-18 11:01</t>
         </is>
       </c>
       <c r="F133" s="3" t="inlineStr"/>
       <c r="G133" s="3" t="n">
-        <v>103153</v>
+        <v>100342</v>
       </c>
       <c r="H133" s="3" t="n">
-        <v>73838</v>
+        <v>71087</v>
       </c>
       <c r="I133" s="3" t="n">
-        <v>1290</v>
+        <v>782</v>
       </c>
       <c r="J133" s="3" t="n">
-        <v>72548</v>
+        <v>70305</v>
       </c>
       <c r="K133" s="3" t="inlineStr"/>
       <c r="L133" s="3" t="n">
-        <v>43125</v>
+        <v>33232</v>
       </c>
       <c r="M133" s="3" t="n">
-        <v>13021</v>
+        <v>15222</v>
       </c>
       <c r="N133" s="3" t="n">
-        <v>9617</v>
+        <v>9288</v>
       </c>
       <c r="O133" s="3" t="n">
-        <v>3156</v>
+        <v>9045</v>
       </c>
     </row>
     <row r="134">
@@ -6923,36 +6839,34 @@
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr"/>
-      <c r="E134" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 11:58</t>
-        </is>
+      <c r="E134" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F134" s="3" t="inlineStr"/>
       <c r="G134" s="3" t="n">
-        <v>107575</v>
+        <v>0</v>
       </c>
       <c r="H134" s="3" t="n">
-        <v>92993</v>
+        <v>0</v>
       </c>
       <c r="I134" s="3" t="n">
-        <v>1765</v>
+        <v>0</v>
       </c>
       <c r="J134" s="3" t="n">
-        <v>91228</v>
+        <v>0</v>
       </c>
       <c r="K134" s="3" t="inlineStr"/>
       <c r="L134" s="3" t="n">
-        <v>48066</v>
+        <v>0</v>
       </c>
       <c r="M134" s="3" t="n">
-        <v>15905</v>
+        <v>0</v>
       </c>
       <c r="N134" s="3" t="n">
-        <v>10824</v>
+        <v>0</v>
       </c>
       <c r="O134" s="3" t="n">
-        <v>11870</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -6972,34 +6886,36 @@
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr"/>
-      <c r="E135" s="3" t="n">
-        <v>0</v>
+      <c r="E135" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:57</t>
+        </is>
       </c>
       <c r="F135" s="3" t="inlineStr"/>
       <c r="G135" s="3" t="n">
-        <v>0</v>
+        <v>98375</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>0</v>
+        <v>64547</v>
       </c>
       <c r="I135" s="3" t="n">
-        <v>0</v>
+        <v>1775</v>
       </c>
       <c r="J135" s="3" t="n">
-        <v>0</v>
+        <v>62772</v>
       </c>
       <c r="K135" s="3" t="inlineStr"/>
       <c r="L135" s="3" t="n">
-        <v>0</v>
+        <v>33995</v>
       </c>
       <c r="M135" s="3" t="n">
-        <v>0</v>
+        <v>7466</v>
       </c>
       <c r="N135" s="3" t="n">
-        <v>0</v>
+        <v>10885</v>
       </c>
       <c r="O135" s="3" t="n">
-        <v>0</v>
+        <v>7286</v>
       </c>
     </row>
     <row r="136">
@@ -7021,34 +6937,34 @@
       <c r="D136" s="3" t="inlineStr"/>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 10:29</t>
+          <t>2024-08-18 14:37</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr"/>
       <c r="G136" s="3" t="n">
-        <v>77043</v>
+        <v>82914</v>
       </c>
       <c r="H136" s="3" t="n">
-        <v>55953</v>
+        <v>54709</v>
       </c>
       <c r="I136" s="3" t="n">
-        <v>1148</v>
+        <v>883</v>
       </c>
       <c r="J136" s="3" t="n">
-        <v>54805</v>
+        <v>53826</v>
       </c>
       <c r="K136" s="3" t="inlineStr"/>
       <c r="L136" s="3" t="n">
-        <v>27488</v>
+        <v>31014</v>
       </c>
       <c r="M136" s="3" t="n">
-        <v>11311</v>
+        <v>11572</v>
       </c>
       <c r="N136" s="3" t="n">
-        <v>10104</v>
+        <v>7368</v>
       </c>
       <c r="O136" s="3" t="n">
-        <v>3159</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="137">
@@ -7070,34 +6986,34 @@
       <c r="D137" s="3" t="inlineStr"/>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 08:00</t>
+          <t>2024-08-18 16:50</t>
         </is>
       </c>
       <c r="F137" s="3" t="inlineStr"/>
       <c r="G137" s="3" t="n">
-        <v>98769</v>
+        <v>100865</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>74977</v>
+        <v>70575</v>
       </c>
       <c r="I137" s="3" t="n">
-        <v>1090</v>
+        <v>1764</v>
       </c>
       <c r="J137" s="3" t="n">
-        <v>73887</v>
+        <v>68811</v>
       </c>
       <c r="K137" s="3" t="inlineStr"/>
       <c r="L137" s="3" t="n">
-        <v>39891</v>
+        <v>46926</v>
       </c>
       <c r="M137" s="3" t="n">
-        <v>7791</v>
+        <v>7245</v>
       </c>
       <c r="N137" s="3" t="n">
-        <v>19017</v>
+        <v>5465</v>
       </c>
       <c r="O137" s="3" t="n">
-        <v>3491</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="138">
@@ -7119,34 +7035,34 @@
       <c r="D138" s="3" t="inlineStr"/>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 09:53</t>
+          <t>2024-08-18 08:18</t>
         </is>
       </c>
       <c r="F138" s="3" t="inlineStr"/>
       <c r="G138" s="3" t="n">
-        <v>98049</v>
+        <v>98476</v>
       </c>
       <c r="H138" s="3" t="n">
-        <v>67733</v>
+        <v>87474</v>
       </c>
       <c r="I138" s="3" t="n">
-        <v>1792</v>
+        <v>975</v>
       </c>
       <c r="J138" s="3" t="n">
-        <v>65941</v>
+        <v>86499</v>
       </c>
       <c r="K138" s="3" t="inlineStr"/>
       <c r="L138" s="3" t="n">
-        <v>30102</v>
+        <v>42576</v>
       </c>
       <c r="M138" s="3" t="n">
-        <v>10129</v>
+        <v>10850</v>
       </c>
       <c r="N138" s="3" t="n">
-        <v>12895</v>
+        <v>17696</v>
       </c>
       <c r="O138" s="3" t="n">
-        <v>9516</v>
+        <v>11050</v>
       </c>
     </row>
     <row r="139">
@@ -7166,36 +7082,34 @@
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr"/>
-      <c r="E139" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 03:21</t>
-        </is>
+      <c r="E139" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F139" s="3" t="inlineStr"/>
       <c r="G139" s="3" t="n">
-        <v>73804</v>
+        <v>0</v>
       </c>
       <c r="H139" s="3" t="n">
-        <v>54216</v>
+        <v>0</v>
       </c>
       <c r="I139" s="3" t="n">
-        <v>1503</v>
+        <v>0</v>
       </c>
       <c r="J139" s="3" t="n">
-        <v>52713</v>
+        <v>0</v>
       </c>
       <c r="K139" s="3" t="inlineStr"/>
       <c r="L139" s="3" t="n">
-        <v>26679</v>
+        <v>0</v>
       </c>
       <c r="M139" s="3" t="n">
-        <v>6224</v>
+        <v>0</v>
       </c>
       <c r="N139" s="3" t="n">
-        <v>5954</v>
+        <v>0</v>
       </c>
       <c r="O139" s="3" t="n">
-        <v>11218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -7217,34 +7131,34 @@
       <c r="D140" s="3" t="inlineStr"/>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 09:37</t>
+          <t>2024-08-18 16:08</t>
         </is>
       </c>
       <c r="F140" s="3" t="inlineStr"/>
       <c r="G140" s="3" t="n">
-        <v>163130</v>
+        <v>153242</v>
       </c>
       <c r="H140" s="3" t="n">
-        <v>146193</v>
+        <v>130924</v>
       </c>
       <c r="I140" s="3" t="n">
-        <v>1471</v>
+        <v>1330</v>
       </c>
       <c r="J140" s="3" t="n">
-        <v>144722</v>
+        <v>129594</v>
       </c>
       <c r="K140" s="3" t="inlineStr"/>
       <c r="L140" s="3" t="n">
-        <v>75726</v>
+        <v>68596</v>
       </c>
       <c r="M140" s="3" t="n">
-        <v>32844</v>
+        <v>15917</v>
       </c>
       <c r="N140" s="3" t="n">
-        <v>8327</v>
+        <v>30809</v>
       </c>
       <c r="O140" s="3" t="n">
-        <v>20588</v>
+        <v>7791</v>
       </c>
     </row>
     <row r="141">
@@ -7264,36 +7178,34 @@
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr"/>
-      <c r="E141" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 12:02</t>
-        </is>
+      <c r="E141" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F141" s="3" t="inlineStr"/>
       <c r="G141" s="3" t="n">
-        <v>121643</v>
+        <v>0</v>
       </c>
       <c r="H141" s="3" t="n">
-        <v>100689</v>
+        <v>0</v>
       </c>
       <c r="I141" s="3" t="n">
-        <v>2535</v>
+        <v>0</v>
       </c>
       <c r="J141" s="3" t="n">
-        <v>98154</v>
+        <v>0</v>
       </c>
       <c r="K141" s="3" t="inlineStr"/>
       <c r="L141" s="3" t="n">
-        <v>51499</v>
+        <v>0</v>
       </c>
       <c r="M141" s="3" t="n">
-        <v>11312</v>
+        <v>0</v>
       </c>
       <c r="N141" s="3" t="n">
-        <v>18468</v>
+        <v>0</v>
       </c>
       <c r="O141" s="3" t="n">
-        <v>11966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -7313,36 +7225,34 @@
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr"/>
-      <c r="E142" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 11:27</t>
-        </is>
+      <c r="E142" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F142" s="3" t="inlineStr"/>
       <c r="G142" s="3" t="n">
-        <v>126064</v>
+        <v>0</v>
       </c>
       <c r="H142" s="3" t="n">
-        <v>84937</v>
+        <v>0</v>
       </c>
       <c r="I142" s="3" t="n">
-        <v>1765</v>
+        <v>0</v>
       </c>
       <c r="J142" s="3" t="n">
-        <v>83172</v>
+        <v>0</v>
       </c>
       <c r="K142" s="3" t="inlineStr"/>
       <c r="L142" s="3" t="n">
-        <v>39370</v>
+        <v>0</v>
       </c>
       <c r="M142" s="3" t="n">
-        <v>9552</v>
+        <v>0</v>
       </c>
       <c r="N142" s="3" t="n">
-        <v>15332</v>
+        <v>0</v>
       </c>
       <c r="O142" s="3" t="n">
-        <v>14757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -7362,36 +7272,34 @@
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr"/>
-      <c r="E143" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 07:55</t>
-        </is>
+      <c r="E143" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F143" s="3" t="inlineStr"/>
       <c r="G143" s="3" t="n">
-        <v>102533</v>
+        <v>0</v>
       </c>
       <c r="H143" s="3" t="n">
-        <v>89548</v>
+        <v>0</v>
       </c>
       <c r="I143" s="3" t="n">
-        <v>2134</v>
+        <v>0</v>
       </c>
       <c r="J143" s="3" t="n">
-        <v>87414</v>
+        <v>0</v>
       </c>
       <c r="K143" s="3" t="inlineStr"/>
       <c r="L143" s="3" t="n">
-        <v>42257</v>
+        <v>0</v>
       </c>
       <c r="M143" s="3" t="n">
-        <v>20753</v>
+        <v>0</v>
       </c>
       <c r="N143" s="3" t="n">
-        <v>12961</v>
+        <v>0</v>
       </c>
       <c r="O143" s="3" t="n">
-        <v>7071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -7411,36 +7319,34 @@
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr"/>
-      <c r="E144" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 12:38</t>
-        </is>
+      <c r="E144" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F144" s="3" t="inlineStr"/>
       <c r="G144" s="3" t="n">
-        <v>119530</v>
+        <v>0</v>
       </c>
       <c r="H144" s="3" t="n">
-        <v>102718</v>
+        <v>0</v>
       </c>
       <c r="I144" s="3" t="n">
-        <v>1761</v>
+        <v>0</v>
       </c>
       <c r="J144" s="3" t="n">
-        <v>100957</v>
+        <v>0</v>
       </c>
       <c r="K144" s="3" t="inlineStr"/>
       <c r="L144" s="3" t="n">
-        <v>55068</v>
+        <v>0</v>
       </c>
       <c r="M144" s="3" t="n">
-        <v>11785</v>
+        <v>0</v>
       </c>
       <c r="N144" s="3" t="n">
-        <v>27044</v>
+        <v>0</v>
       </c>
       <c r="O144" s="3" t="n">
-        <v>2010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -7462,34 +7368,34 @@
       <c r="D145" s="3" t="inlineStr"/>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 07:33</t>
+          <t>2024-08-18 17:38</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr"/>
       <c r="G145" s="3" t="n">
-        <v>90903</v>
+        <v>88491</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>69881</v>
+        <v>72393</v>
       </c>
       <c r="I145" s="3" t="n">
-        <v>1463</v>
+        <v>1768</v>
       </c>
       <c r="J145" s="3" t="n">
-        <v>68418</v>
+        <v>70625</v>
       </c>
       <c r="K145" s="3" t="inlineStr"/>
       <c r="L145" s="3" t="n">
-        <v>29481</v>
+        <v>36655</v>
       </c>
       <c r="M145" s="3" t="n">
-        <v>14734</v>
+        <v>12669</v>
       </c>
       <c r="N145" s="3" t="n">
-        <v>9151</v>
+        <v>14866</v>
       </c>
       <c r="O145" s="3" t="n">
-        <v>11629</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="146">
@@ -7509,36 +7415,34 @@
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr"/>
-      <c r="E146" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 13:00</t>
-        </is>
+      <c r="E146" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F146" s="3" t="inlineStr"/>
       <c r="G146" s="3" t="n">
-        <v>86139</v>
+        <v>0</v>
       </c>
       <c r="H146" s="3" t="n">
-        <v>69652</v>
+        <v>0</v>
       </c>
       <c r="I146" s="3" t="n">
-        <v>1124</v>
+        <v>0</v>
       </c>
       <c r="J146" s="3" t="n">
-        <v>68528</v>
+        <v>0</v>
       </c>
       <c r="K146" s="3" t="inlineStr"/>
       <c r="L146" s="3" t="n">
-        <v>32992</v>
+        <v>0</v>
       </c>
       <c r="M146" s="3" t="n">
-        <v>14611</v>
+        <v>0</v>
       </c>
       <c r="N146" s="3" t="n">
-        <v>7236</v>
+        <v>0</v>
       </c>
       <c r="O146" s="3" t="n">
-        <v>10261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -7558,36 +7462,34 @@
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr"/>
-      <c r="E147" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 09:15</t>
-        </is>
+      <c r="E147" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F147" s="3" t="inlineStr"/>
       <c r="G147" s="3" t="n">
-        <v>100708</v>
+        <v>0</v>
       </c>
       <c r="H147" s="3" t="n">
-        <v>84640</v>
+        <v>0</v>
       </c>
       <c r="I147" s="3" t="n">
-        <v>1371</v>
+        <v>0</v>
       </c>
       <c r="J147" s="3" t="n">
-        <v>83269</v>
+        <v>0</v>
       </c>
       <c r="K147" s="3" t="inlineStr"/>
       <c r="L147" s="3" t="n">
-        <v>38969</v>
+        <v>0</v>
       </c>
       <c r="M147" s="3" t="n">
-        <v>15703</v>
+        <v>0</v>
       </c>
       <c r="N147" s="3" t="n">
-        <v>13982</v>
+        <v>0</v>
       </c>
       <c r="O147" s="3" t="n">
-        <v>10450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -7607,36 +7509,34 @@
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr"/>
-      <c r="E148" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 04:55</t>
-        </is>
+      <c r="E148" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F148" s="3" t="inlineStr"/>
       <c r="G148" s="3" t="n">
-        <v>111826</v>
+        <v>0</v>
       </c>
       <c r="H148" s="3" t="n">
-        <v>79613</v>
+        <v>0</v>
       </c>
       <c r="I148" s="3" t="n">
-        <v>2142</v>
+        <v>0</v>
       </c>
       <c r="J148" s="3" t="n">
-        <v>77471</v>
+        <v>0</v>
       </c>
       <c r="K148" s="3" t="inlineStr"/>
       <c r="L148" s="3" t="n">
-        <v>39123</v>
+        <v>0</v>
       </c>
       <c r="M148" s="3" t="n">
-        <v>16678</v>
+        <v>0</v>
       </c>
       <c r="N148" s="3" t="n">
-        <v>7083</v>
+        <v>0</v>
       </c>
       <c r="O148" s="3" t="n">
-        <v>10712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -7656,36 +7556,34 @@
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr"/>
-      <c r="E149" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 07:25</t>
-        </is>
+      <c r="E149" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F149" s="3" t="inlineStr"/>
       <c r="G149" s="3" t="n">
-        <v>126249</v>
+        <v>0</v>
       </c>
       <c r="H149" s="3" t="n">
-        <v>109329</v>
+        <v>0</v>
       </c>
       <c r="I149" s="3" t="n">
-        <v>1399</v>
+        <v>0</v>
       </c>
       <c r="J149" s="3" t="n">
-        <v>107930</v>
+        <v>0</v>
       </c>
       <c r="K149" s="3" t="inlineStr"/>
       <c r="L149" s="3" t="n">
-        <v>51473</v>
+        <v>0</v>
       </c>
       <c r="M149" s="3" t="n">
-        <v>26783</v>
+        <v>0</v>
       </c>
       <c r="N149" s="3" t="n">
-        <v>22396</v>
+        <v>0</v>
       </c>
       <c r="O149" s="3" t="n">
-        <v>1879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -7705,36 +7603,34 @@
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr"/>
-      <c r="E150" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 11:45</t>
-        </is>
+      <c r="E150" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F150" s="3" t="inlineStr"/>
       <c r="G150" s="3" t="n">
-        <v>66186</v>
+        <v>0</v>
       </c>
       <c r="H150" s="3" t="n">
-        <v>44443</v>
+        <v>0</v>
       </c>
       <c r="I150" s="3" t="n">
-        <v>1151</v>
+        <v>0</v>
       </c>
       <c r="J150" s="3" t="n">
-        <v>43292</v>
+        <v>0</v>
       </c>
       <c r="K150" s="3" t="inlineStr"/>
       <c r="L150" s="3" t="n">
-        <v>24109</v>
+        <v>0</v>
       </c>
       <c r="M150" s="3" t="n">
-        <v>8802</v>
+        <v>0</v>
       </c>
       <c r="N150" s="3" t="n">
-        <v>3362</v>
+        <v>0</v>
       </c>
       <c r="O150" s="3" t="n">
-        <v>4852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -7801,34 +7697,36 @@
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr"/>
-      <c r="E152" s="3" t="n">
-        <v>0</v>
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 13:02</t>
+        </is>
       </c>
       <c r="F152" s="3" t="inlineStr"/>
       <c r="G152" s="3" t="n">
-        <v>0</v>
+        <v>89100</v>
       </c>
       <c r="H152" s="3" t="n">
-        <v>0</v>
+        <v>75332</v>
       </c>
       <c r="I152" s="3" t="n">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="J152" s="3" t="n">
-        <v>0</v>
+        <v>74565</v>
       </c>
       <c r="K152" s="3" t="inlineStr"/>
       <c r="L152" s="3" t="n">
-        <v>0</v>
+        <v>44080</v>
       </c>
       <c r="M152" s="3" t="n">
-        <v>0</v>
+        <v>18916</v>
       </c>
       <c r="N152" s="3" t="n">
-        <v>0</v>
+        <v>6219</v>
       </c>
       <c r="O152" s="3" t="n">
-        <v>0</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="153">
@@ -7848,34 +7746,36 @@
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr"/>
-      <c r="E153" s="3" t="n">
-        <v>0</v>
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 17:01</t>
+        </is>
       </c>
       <c r="F153" s="3" t="inlineStr"/>
       <c r="G153" s="3" t="n">
-        <v>0</v>
+        <v>82712</v>
       </c>
       <c r="H153" s="3" t="n">
-        <v>0</v>
+        <v>70402</v>
       </c>
       <c r="I153" s="3" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="J153" s="3" t="n">
-        <v>0</v>
+        <v>69002</v>
       </c>
       <c r="K153" s="3" t="inlineStr"/>
       <c r="L153" s="3" t="n">
-        <v>0</v>
+        <v>37327</v>
       </c>
       <c r="M153" s="3" t="n">
-        <v>0</v>
+        <v>13085</v>
       </c>
       <c r="N153" s="3" t="n">
-        <v>0</v>
+        <v>7186</v>
       </c>
       <c r="O153" s="3" t="n">
-        <v>0</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="154">
@@ -7895,34 +7795,36 @@
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr"/>
-      <c r="E154" s="3" t="n">
-        <v>0</v>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 17:02</t>
+        </is>
       </c>
       <c r="F154" s="3" t="inlineStr"/>
       <c r="G154" s="3" t="n">
-        <v>0</v>
+        <v>159215</v>
       </c>
       <c r="H154" s="3" t="n">
-        <v>0</v>
+        <v>115355</v>
       </c>
       <c r="I154" s="3" t="n">
-        <v>0</v>
+        <v>1936</v>
       </c>
       <c r="J154" s="3" t="n">
-        <v>0</v>
+        <v>113419</v>
       </c>
       <c r="K154" s="3" t="inlineStr"/>
       <c r="L154" s="3" t="n">
-        <v>0</v>
+        <v>56730</v>
       </c>
       <c r="M154" s="3" t="n">
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="N154" s="3" t="n">
-        <v>0</v>
+        <v>23139</v>
       </c>
       <c r="O154" s="3" t="n">
-        <v>0</v>
+        <v>13176</v>
       </c>
     </row>
     <row r="155">
@@ -7942,36 +7844,34 @@
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr"/>
-      <c r="E155" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 14:01</t>
-        </is>
+      <c r="E155" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F155" s="3" t="inlineStr"/>
       <c r="G155" s="3" t="n">
-        <v>101787</v>
+        <v>0</v>
       </c>
       <c r="H155" s="3" t="n">
-        <v>70168</v>
+        <v>0</v>
       </c>
       <c r="I155" s="3" t="n">
-        <v>1160</v>
+        <v>0</v>
       </c>
       <c r="J155" s="3" t="n">
-        <v>69008</v>
+        <v>0</v>
       </c>
       <c r="K155" s="3" t="inlineStr"/>
       <c r="L155" s="3" t="n">
-        <v>33396</v>
+        <v>0</v>
       </c>
       <c r="M155" s="3" t="n">
-        <v>6775</v>
+        <v>0</v>
       </c>
       <c r="N155" s="3" t="n">
-        <v>12668</v>
+        <v>0</v>
       </c>
       <c r="O155" s="3" t="n">
-        <v>12715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -7993,34 +7893,34 @@
       <c r="D156" s="3" t="inlineStr"/>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 08:18</t>
+          <t>2024-08-18 16:38</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr"/>
       <c r="G156" s="3" t="n">
-        <v>55600</v>
+        <v>54481</v>
       </c>
       <c r="H156" s="3" t="n">
-        <v>35692</v>
+        <v>34223</v>
       </c>
       <c r="I156" s="3" t="n">
-        <v>560</v>
+        <v>343</v>
       </c>
       <c r="J156" s="3" t="n">
-        <v>35132</v>
+        <v>33880</v>
       </c>
       <c r="K156" s="3" t="inlineStr"/>
       <c r="L156" s="3" t="n">
-        <v>20461</v>
+        <v>20753</v>
       </c>
       <c r="M156" s="3" t="n">
-        <v>5456</v>
+        <v>4294</v>
       </c>
       <c r="N156" s="3" t="n">
-        <v>5926</v>
+        <v>5804</v>
       </c>
       <c r="O156" s="3" t="n">
-        <v>1531</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="157">
@@ -8042,34 +7942,34 @@
       <c r="D157" s="3" t="inlineStr"/>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 03:34</t>
+          <t>2024-08-18 08:52</t>
         </is>
       </c>
       <c r="F157" s="3" t="inlineStr"/>
       <c r="G157" s="3" t="n">
-        <v>68482</v>
+        <v>67437</v>
       </c>
       <c r="H157" s="3" t="n">
-        <v>57639</v>
+        <v>50231</v>
       </c>
       <c r="I157" s="3" t="n">
-        <v>1426</v>
+        <v>1253</v>
       </c>
       <c r="J157" s="3" t="n">
-        <v>56213</v>
+        <v>48978</v>
       </c>
       <c r="K157" s="3" t="inlineStr"/>
       <c r="L157" s="3" t="n">
-        <v>29262</v>
+        <v>24515</v>
       </c>
       <c r="M157" s="3" t="n">
-        <v>12755</v>
+        <v>9692</v>
       </c>
       <c r="N157" s="3" t="n">
-        <v>9702</v>
+        <v>4465</v>
       </c>
       <c r="O157" s="3" t="n">
-        <v>1681</v>
+        <v>7855</v>
       </c>
     </row>
     <row r="158">
@@ -8089,34 +7989,36 @@
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr"/>
-      <c r="E158" s="3" t="n">
-        <v>0</v>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:20</t>
+        </is>
       </c>
       <c r="F158" s="3" t="inlineStr"/>
       <c r="G158" s="3" t="n">
-        <v>0</v>
+        <v>57064</v>
       </c>
       <c r="H158" s="3" t="n">
-        <v>0</v>
+        <v>38552</v>
       </c>
       <c r="I158" s="3" t="n">
-        <v>0</v>
+        <v>913</v>
       </c>
       <c r="J158" s="3" t="n">
-        <v>0</v>
+        <v>37639</v>
       </c>
       <c r="K158" s="3" t="inlineStr"/>
       <c r="L158" s="3" t="n">
-        <v>0</v>
+        <v>17418</v>
       </c>
       <c r="M158" s="3" t="n">
-        <v>0</v>
+        <v>5616</v>
       </c>
       <c r="N158" s="3" t="n">
-        <v>0</v>
+        <v>7110</v>
       </c>
       <c r="O158" s="3" t="n">
-        <v>0</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="159">
@@ -8138,34 +8040,34 @@
       <c r="D159" s="3" t="inlineStr"/>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 02:55</t>
+          <t>2024-08-18 16:05</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr"/>
       <c r="G159" s="3" t="n">
-        <v>72440</v>
+        <v>76165</v>
       </c>
       <c r="H159" s="3" t="n">
-        <v>55345</v>
+        <v>60540</v>
       </c>
       <c r="I159" s="3" t="n">
-        <v>722</v>
+        <v>656</v>
       </c>
       <c r="J159" s="3" t="n">
-        <v>54623</v>
+        <v>59884</v>
       </c>
       <c r="K159" s="3" t="inlineStr"/>
       <c r="L159" s="3" t="n">
-        <v>30374</v>
+        <v>31911</v>
       </c>
       <c r="M159" s="3" t="n">
-        <v>6301</v>
+        <v>11874</v>
       </c>
       <c r="N159" s="3" t="n">
-        <v>9271</v>
+        <v>7258</v>
       </c>
       <c r="O159" s="3" t="n">
-        <v>5943</v>
+        <v>5845</v>
       </c>
     </row>
     <row r="160">
@@ -8187,34 +8089,34 @@
       <c r="D160" s="3" t="inlineStr"/>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 09:02</t>
+          <t>2024-08-18 16:09</t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr"/>
       <c r="G160" s="3" t="n">
-        <v>67663</v>
+        <v>67520</v>
       </c>
       <c r="H160" s="3" t="n">
-        <v>42992</v>
+        <v>42013</v>
       </c>
       <c r="I160" s="3" t="n">
-        <v>432</v>
+        <v>1085</v>
       </c>
       <c r="J160" s="3" t="n">
-        <v>42560</v>
+        <v>40928</v>
       </c>
       <c r="K160" s="3" t="inlineStr"/>
       <c r="L160" s="3" t="n">
-        <v>20761</v>
+        <v>22850</v>
       </c>
       <c r="M160" s="3" t="n">
-        <v>11592</v>
+        <v>5644</v>
       </c>
       <c r="N160" s="3" t="n">
-        <v>2792</v>
+        <v>6019</v>
       </c>
       <c r="O160" s="3" t="n">
-        <v>5285</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="161">
@@ -8236,34 +8138,34 @@
       <c r="D161" s="3" t="inlineStr"/>
       <c r="E161" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 14:00</t>
+          <t>2024-08-18 13:11</t>
         </is>
       </c>
       <c r="F161" s="3" t="inlineStr"/>
       <c r="G161" s="3" t="n">
-        <v>82950</v>
+        <v>81585</v>
       </c>
       <c r="H161" s="3" t="n">
-        <v>67601</v>
+        <v>67923</v>
       </c>
       <c r="I161" s="3" t="n">
-        <v>1056</v>
+        <v>1931</v>
       </c>
       <c r="J161" s="3" t="n">
-        <v>66545</v>
+        <v>65992</v>
       </c>
       <c r="K161" s="3" t="inlineStr"/>
       <c r="L161" s="3" t="n">
-        <v>34868</v>
+        <v>40491</v>
       </c>
       <c r="M161" s="3" t="n">
-        <v>13079</v>
+        <v>8710</v>
       </c>
       <c r="N161" s="3" t="n">
-        <v>13884</v>
+        <v>6556</v>
       </c>
       <c r="O161" s="3" t="n">
-        <v>1385</v>
+        <v>6933</v>
       </c>
     </row>
     <row r="162">
@@ -8285,34 +8187,34 @@
       <c r="D162" s="3" t="inlineStr"/>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 06:01</t>
+          <t>2024-08-18 19:45</t>
         </is>
       </c>
       <c r="F162" s="3" t="inlineStr"/>
       <c r="G162" s="3" t="n">
-        <v>89061</v>
+        <v>86962</v>
       </c>
       <c r="H162" s="3" t="n">
-        <v>61597</v>
+        <v>77329</v>
       </c>
       <c r="I162" s="3" t="n">
-        <v>1134</v>
+        <v>2101</v>
       </c>
       <c r="J162" s="3" t="n">
-        <v>60463</v>
+        <v>75228</v>
       </c>
       <c r="K162" s="3" t="inlineStr"/>
       <c r="L162" s="3" t="n">
-        <v>30248</v>
+        <v>41136</v>
       </c>
       <c r="M162" s="3" t="n">
-        <v>10983</v>
+        <v>13695</v>
       </c>
       <c r="N162" s="3" t="n">
-        <v>13722</v>
+        <v>5383</v>
       </c>
       <c r="O162" s="3" t="n">
-        <v>2484</v>
+        <v>11251</v>
       </c>
     </row>
     <row r="163">
@@ -8332,36 +8234,34 @@
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr"/>
-      <c r="E163" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 07:51</t>
-        </is>
+      <c r="E163" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F163" s="3" t="inlineStr"/>
       <c r="G163" s="3" t="n">
-        <v>69184</v>
+        <v>0</v>
       </c>
       <c r="H163" s="3" t="n">
-        <v>59211</v>
+        <v>0</v>
       </c>
       <c r="I163" s="3" t="n">
-        <v>1391</v>
+        <v>0</v>
       </c>
       <c r="J163" s="3" t="n">
-        <v>57820</v>
+        <v>0</v>
       </c>
       <c r="K163" s="3" t="inlineStr"/>
       <c r="L163" s="3" t="n">
-        <v>27756</v>
+        <v>0</v>
       </c>
       <c r="M163" s="3" t="n">
-        <v>6398</v>
+        <v>0</v>
       </c>
       <c r="N163" s="3" t="n">
-        <v>10610</v>
+        <v>0</v>
       </c>
       <c r="O163" s="3" t="n">
-        <v>10164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -8383,34 +8283,34 @@
       <c r="D164" s="3" t="inlineStr"/>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 07:58</t>
+          <t>2024-08-18 12:38</t>
         </is>
       </c>
       <c r="F164" s="3" t="inlineStr"/>
       <c r="G164" s="3" t="n">
-        <v>85059</v>
+        <v>89787</v>
       </c>
       <c r="H164" s="3" t="n">
-        <v>72536</v>
+        <v>80295</v>
       </c>
       <c r="I164" s="3" t="n">
-        <v>837</v>
+        <v>1514</v>
       </c>
       <c r="J164" s="3" t="n">
-        <v>71699</v>
+        <v>78781</v>
       </c>
       <c r="K164" s="3" t="inlineStr"/>
       <c r="L164" s="3" t="n">
-        <v>33482</v>
+        <v>43270</v>
       </c>
       <c r="M164" s="3" t="n">
-        <v>12708</v>
+        <v>10053</v>
       </c>
       <c r="N164" s="3" t="n">
-        <v>11252</v>
+        <v>13683</v>
       </c>
       <c r="O164" s="3" t="n">
-        <v>10669</v>
+        <v>7833</v>
       </c>
     </row>
     <row r="165">
@@ -8432,34 +8332,34 @@
       <c r="D165" s="3" t="inlineStr"/>
       <c r="E165" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 14:34</t>
+          <t>2024-08-18 10:32</t>
         </is>
       </c>
       <c r="F165" s="3" t="inlineStr"/>
       <c r="G165" s="3" t="n">
-        <v>118085</v>
+        <v>116160</v>
       </c>
       <c r="H165" s="3" t="n">
-        <v>86202</v>
+        <v>71857</v>
       </c>
       <c r="I165" s="3" t="n">
-        <v>2583</v>
+        <v>1951</v>
       </c>
       <c r="J165" s="3" t="n">
-        <v>83619</v>
+        <v>69906</v>
       </c>
       <c r="K165" s="3" t="inlineStr"/>
       <c r="L165" s="3" t="n">
-        <v>43472</v>
+        <v>37898</v>
       </c>
       <c r="M165" s="3" t="n">
-        <v>16879</v>
+        <v>9061</v>
       </c>
       <c r="N165" s="3" t="n">
-        <v>10628</v>
+        <v>4889</v>
       </c>
       <c r="O165" s="3" t="n">
-        <v>8456</v>
+        <v>14561</v>
       </c>
     </row>
     <row r="166">
@@ -8479,36 +8379,34 @@
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr"/>
-      <c r="E166" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 08:08</t>
-        </is>
+      <c r="E166" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F166" s="3" t="inlineStr"/>
       <c r="G166" s="3" t="n">
-        <v>161619</v>
+        <v>0</v>
       </c>
       <c r="H166" s="3" t="n">
-        <v>120055</v>
+        <v>0</v>
       </c>
       <c r="I166" s="3" t="n">
-        <v>2399</v>
+        <v>0</v>
       </c>
       <c r="J166" s="3" t="n">
-        <v>117656</v>
+        <v>0</v>
       </c>
       <c r="K166" s="3" t="inlineStr"/>
       <c r="L166" s="3" t="n">
-        <v>57616</v>
+        <v>0</v>
       </c>
       <c r="M166" s="3" t="n">
-        <v>23300</v>
+        <v>0</v>
       </c>
       <c r="N166" s="3" t="n">
-        <v>26251</v>
+        <v>0</v>
       </c>
       <c r="O166" s="3" t="n">
-        <v>4603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -8530,34 +8428,34 @@
       <c r="D167" s="3" t="inlineStr"/>
       <c r="E167" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 03:42</t>
+          <t>2024-08-18 09:19</t>
         </is>
       </c>
       <c r="F167" s="3" t="inlineStr"/>
       <c r="G167" s="3" t="n">
-        <v>100082</v>
+        <v>100993</v>
       </c>
       <c r="H167" s="3" t="n">
-        <v>67304</v>
+        <v>88173</v>
       </c>
       <c r="I167" s="3" t="n">
-        <v>996</v>
+        <v>2616</v>
       </c>
       <c r="J167" s="3" t="n">
-        <v>66308</v>
+        <v>85557</v>
       </c>
       <c r="K167" s="3" t="inlineStr"/>
       <c r="L167" s="3" t="n">
-        <v>31000</v>
+        <v>53826</v>
       </c>
       <c r="M167" s="3" t="n">
-        <v>14513</v>
+        <v>10900</v>
       </c>
       <c r="N167" s="3" t="n">
-        <v>12706</v>
+        <v>8108</v>
       </c>
       <c r="O167" s="3" t="n">
-        <v>4772</v>
+        <v>8443</v>
       </c>
     </row>
     <row r="168">
@@ -8579,34 +8477,34 @@
       <c r="D168" s="3" t="inlineStr"/>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 04:47</t>
+          <t>2024-08-18 13:23</t>
         </is>
       </c>
       <c r="F168" s="3" t="inlineStr"/>
       <c r="G168" s="3" t="n">
-        <v>129994</v>
+        <v>125195</v>
       </c>
       <c r="H168" s="3" t="n">
-        <v>94810</v>
+        <v>80447</v>
       </c>
       <c r="I168" s="3" t="n">
-        <v>2326</v>
+        <v>1747</v>
       </c>
       <c r="J168" s="3" t="n">
-        <v>92484</v>
+        <v>78700</v>
       </c>
       <c r="K168" s="3" t="inlineStr"/>
       <c r="L168" s="3" t="n">
-        <v>46186</v>
+        <v>38975</v>
       </c>
       <c r="M168" s="3" t="n">
-        <v>17252</v>
+        <v>16011</v>
       </c>
       <c r="N168" s="3" t="n">
-        <v>12692</v>
+        <v>7824</v>
       </c>
       <c r="O168" s="3" t="n">
-        <v>11728</v>
+        <v>11953</v>
       </c>
     </row>
     <row r="169">
@@ -8626,36 +8524,34 @@
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr"/>
-      <c r="E169" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 08:35</t>
-        </is>
+      <c r="E169" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F169" s="3" t="inlineStr"/>
       <c r="G169" s="3" t="n">
-        <v>91556</v>
+        <v>0</v>
       </c>
       <c r="H169" s="3" t="n">
-        <v>78775</v>
+        <v>0</v>
       </c>
       <c r="I169" s="3" t="n">
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J169" s="3" t="n">
-        <v>77644</v>
+        <v>0</v>
       </c>
       <c r="K169" s="3" t="inlineStr"/>
       <c r="L169" s="3" t="n">
-        <v>45567</v>
+        <v>0</v>
       </c>
       <c r="M169" s="3" t="n">
-        <v>9833</v>
+        <v>0</v>
       </c>
       <c r="N169" s="3" t="n">
-        <v>15168</v>
+        <v>0</v>
       </c>
       <c r="O169" s="3" t="n">
-        <v>3192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -8722,34 +8618,36 @@
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr"/>
-      <c r="E171" s="3" t="n">
-        <v>0</v>
+      <c r="E171" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 08:54</t>
+        </is>
       </c>
       <c r="F171" s="3" t="inlineStr"/>
       <c r="G171" s="3" t="n">
-        <v>0</v>
+        <v>115146</v>
       </c>
       <c r="H171" s="3" t="n">
-        <v>0</v>
+        <v>74346</v>
       </c>
       <c r="I171" s="3" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="J171" s="3" t="n">
-        <v>0</v>
+        <v>72446</v>
       </c>
       <c r="K171" s="3" t="inlineStr"/>
       <c r="L171" s="3" t="n">
-        <v>0</v>
+        <v>41086</v>
       </c>
       <c r="M171" s="3" t="n">
-        <v>0</v>
+        <v>11852</v>
       </c>
       <c r="N171" s="3" t="n">
-        <v>0</v>
+        <v>12367</v>
       </c>
       <c r="O171" s="3" t="n">
-        <v>0</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="172">
@@ -8769,34 +8667,36 @@
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr"/>
-      <c r="E172" s="3" t="n">
-        <v>0</v>
+      <c r="E172" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 17:19</t>
+        </is>
       </c>
       <c r="F172" s="3" t="inlineStr"/>
       <c r="G172" s="3" t="n">
-        <v>0</v>
+        <v>105994</v>
       </c>
       <c r="H172" s="3" t="n">
-        <v>0</v>
+        <v>78040</v>
       </c>
       <c r="I172" s="3" t="n">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="J172" s="3" t="n">
-        <v>0</v>
+        <v>77205</v>
       </c>
       <c r="K172" s="3" t="inlineStr"/>
       <c r="L172" s="3" t="n">
-        <v>0</v>
+        <v>41400</v>
       </c>
       <c r="M172" s="3" t="n">
-        <v>0</v>
+        <v>13149</v>
       </c>
       <c r="N172" s="3" t="n">
-        <v>0</v>
+        <v>6992</v>
       </c>
       <c r="O172" s="3" t="n">
-        <v>0</v>
+        <v>11801</v>
       </c>
     </row>
     <row r="173">
@@ -8816,36 +8716,34 @@
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr"/>
-      <c r="E173" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 06:00</t>
-        </is>
+      <c r="E173" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F173" s="3" t="inlineStr"/>
       <c r="G173" s="3" t="n">
-        <v>70098</v>
+        <v>0</v>
       </c>
       <c r="H173" s="3" t="n">
-        <v>44796</v>
+        <v>0</v>
       </c>
       <c r="I173" s="3" t="n">
-        <v>873</v>
+        <v>0</v>
       </c>
       <c r="J173" s="3" t="n">
-        <v>43923</v>
+        <v>0</v>
       </c>
       <c r="K173" s="3" t="inlineStr"/>
       <c r="L173" s="3" t="n">
-        <v>23399</v>
+        <v>0</v>
       </c>
       <c r="M173" s="3" t="n">
-        <v>8642</v>
+        <v>0</v>
       </c>
       <c r="N173" s="3" t="n">
-        <v>7646</v>
+        <v>0</v>
       </c>
       <c r="O173" s="3" t="n">
-        <v>2037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -8867,34 +8765,34 @@
       <c r="D174" s="3" t="inlineStr"/>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 07:22</t>
+          <t>2024-08-18 12:28</t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr"/>
       <c r="G174" s="3" t="n">
-        <v>148579</v>
+        <v>153029</v>
       </c>
       <c r="H174" s="3" t="n">
-        <v>89682</v>
+        <v>104242</v>
       </c>
       <c r="I174" s="3" t="n">
-        <v>1618</v>
+        <v>2750</v>
       </c>
       <c r="J174" s="3" t="n">
-        <v>88064</v>
+        <v>101492</v>
       </c>
       <c r="K174" s="3" t="inlineStr"/>
       <c r="L174" s="3" t="n">
-        <v>49207</v>
+        <v>51941</v>
       </c>
       <c r="M174" s="3" t="n">
-        <v>17360</v>
+        <v>23960</v>
       </c>
       <c r="N174" s="3" t="n">
-        <v>8536</v>
+        <v>18295</v>
       </c>
       <c r="O174" s="3" t="n">
-        <v>8555</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="175">
@@ -8916,34 +8814,34 @@
       <c r="D175" s="3" t="inlineStr"/>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 14:21</t>
+          <t>2024-08-18 09:59</t>
         </is>
       </c>
       <c r="F175" s="3" t="inlineStr"/>
       <c r="G175" s="3" t="n">
-        <v>92597</v>
+        <v>92880</v>
       </c>
       <c r="H175" s="3" t="n">
-        <v>64567</v>
+        <v>74084</v>
       </c>
       <c r="I175" s="3" t="n">
-        <v>1507</v>
+        <v>1341</v>
       </c>
       <c r="J175" s="3" t="n">
-        <v>63060</v>
+        <v>72743</v>
       </c>
       <c r="K175" s="3" t="inlineStr"/>
       <c r="L175" s="3" t="n">
-        <v>31099</v>
+        <v>31793</v>
       </c>
       <c r="M175" s="3" t="n">
-        <v>7563</v>
+        <v>18330</v>
       </c>
       <c r="N175" s="3" t="n">
-        <v>7631</v>
+        <v>11276</v>
       </c>
       <c r="O175" s="3" t="n">
-        <v>13613</v>
+        <v>7706</v>
       </c>
     </row>
     <row r="176">
@@ -8963,36 +8861,34 @@
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr"/>
-      <c r="E176" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 13:54</t>
-        </is>
+      <c r="E176" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F176" s="3" t="inlineStr"/>
       <c r="G176" s="3" t="n">
-        <v>67479</v>
+        <v>0</v>
       </c>
       <c r="H176" s="3" t="n">
-        <v>41144</v>
+        <v>0</v>
       </c>
       <c r="I176" s="3" t="n">
-        <v>1204</v>
+        <v>0</v>
       </c>
       <c r="J176" s="3" t="n">
-        <v>39940</v>
+        <v>0</v>
       </c>
       <c r="K176" s="3" t="inlineStr"/>
       <c r="L176" s="3" t="n">
-        <v>21781</v>
+        <v>0</v>
       </c>
       <c r="M176" s="3" t="n">
-        <v>5021</v>
+        <v>0</v>
       </c>
       <c r="N176" s="3" t="n">
-        <v>3383</v>
+        <v>0</v>
       </c>
       <c r="O176" s="3" t="n">
-        <v>7757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -9014,34 +8910,34 @@
       <c r="D177" s="3" t="inlineStr"/>
       <c r="E177" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 04:25</t>
+          <t>2024-08-18 18:58</t>
         </is>
       </c>
       <c r="F177" s="3" t="inlineStr"/>
       <c r="G177" s="3" t="n">
-        <v>74316</v>
+        <v>74997</v>
       </c>
       <c r="H177" s="3" t="n">
-        <v>50667</v>
+        <v>66264</v>
       </c>
       <c r="I177" s="3" t="n">
-        <v>706</v>
+        <v>1508</v>
       </c>
       <c r="J177" s="3" t="n">
-        <v>49961</v>
+        <v>64756</v>
       </c>
       <c r="K177" s="3" t="inlineStr"/>
       <c r="L177" s="3" t="n">
-        <v>28037</v>
+        <v>28250</v>
       </c>
       <c r="M177" s="3" t="n">
-        <v>8503</v>
+        <v>13724</v>
       </c>
       <c r="N177" s="3" t="n">
-        <v>6774</v>
+        <v>9539</v>
       </c>
       <c r="O177" s="3" t="n">
-        <v>4147</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="178">
@@ -9061,36 +8957,34 @@
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr"/>
-      <c r="E178" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-15 07:13</t>
-        </is>
+      <c r="E178" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F178" s="3" t="inlineStr"/>
       <c r="G178" s="3" t="n">
-        <v>69319</v>
+        <v>0</v>
       </c>
       <c r="H178" s="3" t="n">
-        <v>48540</v>
+        <v>0</v>
       </c>
       <c r="I178" s="3" t="n">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="J178" s="3" t="n">
-        <v>47788</v>
+        <v>0</v>
       </c>
       <c r="K178" s="3" t="inlineStr"/>
       <c r="L178" s="3" t="n">
-        <v>25561</v>
+        <v>0</v>
       </c>
       <c r="M178" s="3" t="n">
-        <v>6950</v>
+        <v>0</v>
       </c>
       <c r="N178" s="3" t="n">
-        <v>4089</v>
+        <v>0</v>
       </c>
       <c r="O178" s="3" t="n">
-        <v>8796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -9112,34 +9006,34 @@
       <c r="D179" s="3" t="inlineStr"/>
       <c r="E179" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 12:15</t>
+          <t>2024-08-18 08:30</t>
         </is>
       </c>
       <c r="F179" s="3" t="inlineStr"/>
       <c r="G179" s="3" t="n">
-        <v>95773</v>
+        <v>95563</v>
       </c>
       <c r="H179" s="3" t="n">
-        <v>76316</v>
+        <v>84021</v>
       </c>
       <c r="I179" s="3" t="n">
-        <v>1086</v>
+        <v>2160</v>
       </c>
       <c r="J179" s="3" t="n">
-        <v>75230</v>
+        <v>81861</v>
       </c>
       <c r="K179" s="3" t="inlineStr"/>
       <c r="L179" s="3" t="n">
-        <v>35547</v>
+        <v>40315</v>
       </c>
       <c r="M179" s="3" t="n">
-        <v>15037</v>
+        <v>15275</v>
       </c>
       <c r="N179" s="3" t="n">
-        <v>14969</v>
+        <v>17576</v>
       </c>
       <c r="O179" s="3" t="n">
-        <v>5914</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="180">
@@ -9161,34 +9055,34 @@
       <c r="D180" s="3" t="inlineStr"/>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 11:33</t>
+          <t>2024-08-18 08:55</t>
         </is>
       </c>
       <c r="F180" s="3" t="inlineStr"/>
       <c r="G180" s="3" t="n">
-        <v>52828</v>
+        <v>52415</v>
       </c>
       <c r="H180" s="3" t="n">
-        <v>32900</v>
+        <v>39496</v>
       </c>
       <c r="I180" s="3" t="n">
-        <v>725</v>
+        <v>588</v>
       </c>
       <c r="J180" s="3" t="n">
-        <v>32175</v>
+        <v>38908</v>
       </c>
       <c r="K180" s="3" t="inlineStr"/>
       <c r="L180" s="3" t="n">
-        <v>14374</v>
+        <v>22343</v>
       </c>
       <c r="M180" s="3" t="n">
-        <v>7235</v>
+        <v>3722</v>
       </c>
       <c r="N180" s="3" t="n">
-        <v>4098</v>
+        <v>3827</v>
       </c>
       <c r="O180" s="3" t="n">
-        <v>4857</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="181">
@@ -9257,34 +9151,34 @@
       <c r="D182" s="3" t="inlineStr"/>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 05:29</t>
+          <t>2024-08-18 16:12</t>
         </is>
       </c>
       <c r="F182" s="3" t="inlineStr"/>
       <c r="G182" s="3" t="n">
-        <v>77560</v>
+        <v>79446</v>
       </c>
       <c r="H182" s="3" t="n">
-        <v>49298</v>
+        <v>69701</v>
       </c>
       <c r="I182" s="3" t="n">
-        <v>1176</v>
+        <v>1485</v>
       </c>
       <c r="J182" s="3" t="n">
-        <v>48122</v>
+        <v>68216</v>
       </c>
       <c r="K182" s="3" t="inlineStr"/>
       <c r="L182" s="3" t="n">
-        <v>29191</v>
+        <v>43961</v>
       </c>
       <c r="M182" s="3" t="n">
-        <v>6945</v>
+        <v>6721</v>
       </c>
       <c r="N182" s="3" t="n">
-        <v>5162</v>
+        <v>8039</v>
       </c>
       <c r="O182" s="3" t="n">
-        <v>4417</v>
+        <v>6082</v>
       </c>
     </row>
     <row r="183">
@@ -9306,34 +9200,34 @@
       <c r="D183" s="3" t="inlineStr"/>
       <c r="E183" s="3" t="inlineStr">
         <is>
-          <t>2024-08-15 06:27</t>
+          <t>2024-08-18 12:06</t>
         </is>
       </c>
       <c r="F183" s="3" t="inlineStr"/>
       <c r="G183" s="3" t="n">
-        <v>72015</v>
+        <v>69281</v>
       </c>
       <c r="H183" s="3" t="n">
-        <v>48251</v>
+        <v>43207</v>
       </c>
       <c r="I183" s="3" t="n">
-        <v>1403</v>
+        <v>899</v>
       </c>
       <c r="J183" s="3" t="n">
-        <v>46848</v>
+        <v>42308</v>
       </c>
       <c r="K183" s="3" t="inlineStr"/>
       <c r="L183" s="3" t="n">
-        <v>29311</v>
+        <v>20909</v>
       </c>
       <c r="M183" s="3" t="n">
-        <v>6436</v>
+        <v>6258</v>
       </c>
       <c r="N183" s="3" t="n">
-        <v>3463</v>
+        <v>7105</v>
       </c>
       <c r="O183" s="3" t="n">
-        <v>5294</v>
+        <v>5919</v>
       </c>
     </row>
   </sheetData>

--- a/data/prespollsl2024.xlsx
+++ b/data/prespollsl2024.xlsx
@@ -533,34 +533,36 @@
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr"/>
-      <c r="E2" s="3" t="n">
-        <v>0</v>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 13:43</t>
+        </is>
       </c>
       <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="n">
-        <v>0</v>
+        <v>36787</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>0</v>
+        <v>30877</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0</v>
+        <v>30259</v>
       </c>
       <c r="K2" s="3" t="inlineStr"/>
       <c r="L2" s="3" t="n">
-        <v>0</v>
+        <v>16084</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>0</v>
+        <v>4378</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>0</v>
+        <v>6271</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>0</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="3">
@@ -580,34 +582,36 @@
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 17:41</t>
+        </is>
       </c>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="n">
-        <v>0</v>
+        <v>55859</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>0</v>
+        <v>49117</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0</v>
+        <v>1253</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0</v>
+        <v>47864</v>
       </c>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>26738</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>0</v>
+        <v>5843</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>0</v>
+        <v>7676</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>0</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="4">
@@ -627,36 +631,34 @@
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 13:25</t>
-        </is>
+      <c r="E4" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="n">
-        <v>40628</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>25909</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>25276</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3" t="inlineStr"/>
       <c r="L4" s="3" t="n">
-        <v>12197</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>4614</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>2906</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>4294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -725,34 +727,34 @@
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:56</t>
+          <t>2024-08-18 14:33</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="n">
-        <v>22431</v>
+        <v>23829</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>17384</v>
+        <v>14668</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>368</v>
+        <v>262</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>17016</v>
+        <v>14406</v>
       </c>
       <c r="K6" s="3" t="inlineStr"/>
       <c r="L6" s="3" t="n">
-        <v>8754</v>
+        <v>7516</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>2936</v>
+        <v>1980</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>3443</v>
+        <v>2111</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>1030</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="7">
@@ -772,36 +774,34 @@
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 09:03</t>
-        </is>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="n">
-        <v>20544</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>18115</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>17898</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="n">
-        <v>11105</v>
+        <v>0</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>2367</v>
+        <v>0</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>2126</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>1404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -868,36 +868,34 @@
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 11:03</t>
-        </is>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="n">
-        <v>29209</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>19757</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>19381</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="n">
-        <v>9879</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>3134</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>2977</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>2420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1107,34 +1105,34 @@
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 08:25</t>
+          <t>2024-08-18 14:10</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="n">
-        <v>31508</v>
+        <v>29725</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>20551</v>
+        <v>20654</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>553</v>
+        <v>308</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>19998</v>
+        <v>20346</v>
       </c>
       <c r="K14" s="3" t="inlineStr"/>
       <c r="L14" s="3" t="n">
-        <v>12555</v>
+        <v>10193</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>2934</v>
+        <v>2571</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>2900</v>
+        <v>3643</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>607</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="15">
@@ -1344,34 +1342,34 @@
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 19:15</t>
+          <t>2024-08-18 18:15</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="n">
-        <v>19601</v>
+        <v>21281</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>16727</v>
+        <v>16461</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>493</v>
+        <v>425</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>16234</v>
+        <v>16036</v>
       </c>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="n">
-        <v>9790</v>
+        <v>8527</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>3003</v>
+        <v>1649</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>1266</v>
+        <v>3417</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>1361</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="20">
@@ -1391,34 +1389,36 @@
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr"/>
-      <c r="E20" s="3" t="n">
-        <v>0</v>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:53</t>
+        </is>
       </c>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="n">
-        <v>0</v>
+        <v>44719</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>0</v>
+        <v>28986</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>0</v>
+        <v>28122</v>
       </c>
       <c r="K20" s="3" t="inlineStr"/>
       <c r="L20" s="3" t="n">
-        <v>0</v>
+        <v>11952</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>0</v>
+        <v>5681</v>
       </c>
       <c r="N20" s="3" t="n">
-        <v>0</v>
+        <v>5013</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>0</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="21">
@@ -1581,34 +1581,34 @@
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 15:04</t>
+          <t>2024-08-18 19:24</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="n">
-        <v>96385</v>
+        <v>93817</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>63041</v>
+        <v>82797</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>1856</v>
+        <v>1077</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>61185</v>
+        <v>81720</v>
       </c>
       <c r="K24" s="3" t="inlineStr"/>
       <c r="L24" s="3" t="n">
-        <v>30830</v>
+        <v>39521</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>5096</v>
+        <v>13850</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>12713</v>
+        <v>16956</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>9485</v>
+        <v>7306</v>
       </c>
     </row>
     <row r="25">
@@ -1628,36 +1628,34 @@
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr"/>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 08:47</t>
-        </is>
+      <c r="E25" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="n">
-        <v>131513</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>96540</v>
+        <v>0</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>1853</v>
+        <v>0</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>94687</v>
+        <v>0</v>
       </c>
       <c r="K25" s="3" t="inlineStr"/>
       <c r="L25" s="3" t="n">
-        <v>49726</v>
+        <v>0</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>18912</v>
+        <v>0</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>13241</v>
+        <v>0</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>8072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1677,34 +1675,36 @@
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr"/>
-      <c r="E26" s="3" t="n">
-        <v>0</v>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:07</t>
+        </is>
       </c>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="n">
-        <v>0</v>
+        <v>63571</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>0</v>
+        <v>50161</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>0</v>
+        <v>49137</v>
       </c>
       <c r="K26" s="3" t="inlineStr"/>
       <c r="L26" s="3" t="n">
-        <v>0</v>
+        <v>22364</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>0</v>
+        <v>11622</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>0</v>
+        <v>9745</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>0</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="27">
@@ -1724,34 +1724,36 @@
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr"/>
-      <c r="E27" s="3" t="n">
-        <v>0</v>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:26</t>
+        </is>
       </c>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="n">
-        <v>0</v>
+        <v>70794</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>0</v>
+        <v>62428</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>0</v>
+        <v>1406</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>0</v>
+        <v>61022</v>
       </c>
       <c r="K27" s="3" t="inlineStr"/>
       <c r="L27" s="3" t="n">
-        <v>0</v>
+        <v>25731</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>0</v>
+        <v>10959</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>0</v>
+        <v>11525</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>0</v>
+        <v>9754</v>
       </c>
     </row>
     <row r="28">
@@ -1773,34 +1775,34 @@
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 16:37</t>
+          <t>2024-08-18 09:49</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="n">
-        <v>41955</v>
+        <v>43706</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>25578</v>
+        <v>34397</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>452</v>
+        <v>748</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>25126</v>
+        <v>33649</v>
       </c>
       <c r="K28" s="3" t="inlineStr"/>
       <c r="L28" s="3" t="n">
-        <v>13104</v>
+        <v>16495</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>3094</v>
+        <v>6405</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>5186</v>
+        <v>5142</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>2483</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="29">
@@ -1867,36 +1869,34 @@
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr"/>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:43</t>
-        </is>
+      <c r="E30" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="n">
-        <v>71720</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>54073</v>
+        <v>0</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>1210</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>52863</v>
+        <v>0</v>
       </c>
       <c r="K30" s="3" t="inlineStr"/>
       <c r="L30" s="3" t="n">
-        <v>29421</v>
+        <v>0</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>9968</v>
+        <v>0</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>6074</v>
+        <v>0</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>4754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1916,34 +1916,36 @@
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr"/>
-      <c r="E31" s="3" t="n">
-        <v>0</v>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:29</t>
+        </is>
       </c>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="n">
-        <v>0</v>
+        <v>142541</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>0</v>
+        <v>88431</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>0</v>
+        <v>1658</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>0</v>
+        <v>86773</v>
       </c>
       <c r="K31" s="3" t="inlineStr"/>
       <c r="L31" s="3" t="n">
-        <v>0</v>
+        <v>42428</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>0</v>
+        <v>21522</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>0</v>
+        <v>14972</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>0</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="32">
@@ -2012,34 +2014,34 @@
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 15:19</t>
+          <t>2024-08-18 12:19</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="n">
-        <v>201268</v>
+        <v>192255</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>125496</v>
+        <v>152137</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>3090</v>
+        <v>1858</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>122406</v>
+        <v>150279</v>
       </c>
       <c r="K33" s="3" t="inlineStr"/>
       <c r="L33" s="3" t="n">
-        <v>60175</v>
+        <v>65692</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>26877</v>
+        <v>24225</v>
       </c>
       <c r="N33" s="3" t="n">
-        <v>19136</v>
+        <v>27240</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>10096</v>
+        <v>25606</v>
       </c>
     </row>
     <row r="34">
@@ -2059,36 +2061,34 @@
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 09:03</t>
-        </is>
+      <c r="E34" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="n">
-        <v>126402</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>81456</v>
+        <v>0</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>1216</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>80240</v>
+        <v>0</v>
       </c>
       <c r="K34" s="3" t="inlineStr"/>
       <c r="L34" s="3" t="n">
-        <v>36915</v>
+        <v>0</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>18361</v>
+        <v>0</v>
       </c>
       <c r="N34" s="3" t="n">
-        <v>8411</v>
+        <v>0</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>12539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2155,36 +2155,34 @@
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr"/>
-      <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:34</t>
-        </is>
+      <c r="E36" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="n">
-        <v>148533</v>
+        <v>0</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>109684</v>
+        <v>0</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>1923</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>107761</v>
+        <v>0</v>
       </c>
       <c r="K36" s="3" t="inlineStr"/>
       <c r="L36" s="3" t="n">
-        <v>54590</v>
+        <v>0</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>16855</v>
+        <v>0</v>
       </c>
       <c r="N36" s="3" t="n">
-        <v>17701</v>
+        <v>0</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>13224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2251,36 +2249,34 @@
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr"/>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:16</t>
-        </is>
+      <c r="E38" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="n">
-        <v>130406</v>
+        <v>0</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>92534</v>
+        <v>0</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>1618</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3" t="n">
-        <v>90916</v>
+        <v>0</v>
       </c>
       <c r="K38" s="3" t="inlineStr"/>
       <c r="L38" s="3" t="n">
-        <v>39739</v>
+        <v>0</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>17295</v>
+        <v>0</v>
       </c>
       <c r="N38" s="3" t="n">
-        <v>12677</v>
+        <v>0</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>16658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2347,36 +2343,34 @@
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr"/>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:58</t>
-        </is>
+      <c r="E40" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="n">
-        <v>113593</v>
+        <v>0</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>89441</v>
+        <v>0</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>2156</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>87285</v>
+        <v>0</v>
       </c>
       <c r="K40" s="3" t="inlineStr"/>
       <c r="L40" s="3" t="n">
-        <v>53901</v>
+        <v>0</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>9472</v>
+        <v>0</v>
       </c>
       <c r="N40" s="3" t="n">
-        <v>17607</v>
+        <v>0</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>1938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2445,34 +2439,34 @@
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 10:52</t>
+          <t>2024-08-18 12:50</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="n">
-        <v>120064</v>
+        <v>117680</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>81515</v>
+        <v>74540</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>2165</v>
+        <v>2109</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>79350</v>
+        <v>72431</v>
       </c>
       <c r="K42" s="3" t="inlineStr"/>
       <c r="L42" s="3" t="n">
-        <v>42200</v>
+        <v>38027</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>19955</v>
+        <v>11989</v>
       </c>
       <c r="N42" s="3" t="n">
-        <v>7348</v>
+        <v>15755</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>5878</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="43">
@@ -2539,34 +2533,36 @@
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr"/>
-      <c r="E44" s="3" t="n">
-        <v>0</v>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:42</t>
+        </is>
       </c>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="n">
-        <v>0</v>
+        <v>150859</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>0</v>
+        <v>126385</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>0</v>
+        <v>3554</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>0</v>
+        <v>122831</v>
       </c>
       <c r="K44" s="3" t="inlineStr"/>
       <c r="L44" s="3" t="n">
-        <v>0</v>
+        <v>56021</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>0</v>
+        <v>25756</v>
       </c>
       <c r="N44" s="3" t="n">
-        <v>0</v>
+        <v>15620</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>0</v>
+        <v>19290</v>
       </c>
     </row>
     <row r="45">
@@ -2774,36 +2770,34 @@
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr"/>
-      <c r="E49" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:14</t>
-        </is>
+      <c r="E49" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="n">
-        <v>125973</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>104938</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>2482</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>102456</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="inlineStr"/>
       <c r="L49" s="3" t="n">
-        <v>45094</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="n">
-        <v>20084</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="n">
-        <v>15823</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>16331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2823,34 +2817,36 @@
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr"/>
-      <c r="E50" s="3" t="n">
-        <v>0</v>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 16:05</t>
+        </is>
       </c>
       <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="n">
-        <v>0</v>
+        <v>132981</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>0</v>
+        <v>92093</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="J50" s="3" t="n">
-        <v>0</v>
+        <v>90613</v>
       </c>
       <c r="K50" s="3" t="inlineStr"/>
       <c r="L50" s="3" t="n">
-        <v>0</v>
+        <v>46725</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>0</v>
+        <v>20879</v>
       </c>
       <c r="N50" s="3" t="n">
-        <v>0</v>
+        <v>8847</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>0</v>
+        <v>9629</v>
       </c>
     </row>
     <row r="51">
@@ -2870,34 +2866,36 @@
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr"/>
-      <c r="E51" s="3" t="n">
-        <v>0</v>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 11:56</t>
+        </is>
       </c>
       <c r="F51" s="3" t="inlineStr"/>
       <c r="G51" s="3" t="n">
-        <v>0</v>
+        <v>99534</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>0</v>
+        <v>83662</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>0</v>
+        <v>1517</v>
       </c>
       <c r="J51" s="3" t="n">
-        <v>0</v>
+        <v>82145</v>
       </c>
       <c r="K51" s="3" t="inlineStr"/>
       <c r="L51" s="3" t="n">
-        <v>0</v>
+        <v>44955</v>
       </c>
       <c r="M51" s="3" t="n">
-        <v>0</v>
+        <v>23090</v>
       </c>
       <c r="N51" s="3" t="n">
-        <v>0</v>
+        <v>8345</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>0</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="52">
@@ -3058,36 +3056,34 @@
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr"/>
-      <c r="E55" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:24</t>
-        </is>
+      <c r="E55" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F55" s="3" t="inlineStr"/>
       <c r="G55" s="3" t="n">
-        <v>87629</v>
+        <v>0</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>54785</v>
+        <v>0</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>1027</v>
+        <v>0</v>
       </c>
       <c r="J55" s="3" t="n">
-        <v>53758</v>
+        <v>0</v>
       </c>
       <c r="K55" s="3" t="inlineStr"/>
       <c r="L55" s="3" t="n">
-        <v>28548</v>
+        <v>0</v>
       </c>
       <c r="M55" s="3" t="n">
-        <v>8249</v>
+        <v>0</v>
       </c>
       <c r="N55" s="3" t="n">
-        <v>5889</v>
+        <v>0</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>8383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3107,34 +3103,36 @@
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr"/>
-      <c r="E56" s="3" t="n">
-        <v>0</v>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:26</t>
+        </is>
       </c>
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="n">
-        <v>0</v>
+        <v>111850</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>0</v>
+        <v>89982</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>0</v>
+        <v>2279</v>
       </c>
       <c r="J56" s="3" t="n">
-        <v>0</v>
+        <v>87703</v>
       </c>
       <c r="K56" s="3" t="inlineStr"/>
       <c r="L56" s="3" t="n">
-        <v>0</v>
+        <v>36685</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>0</v>
+        <v>16242</v>
       </c>
       <c r="N56" s="3" t="n">
-        <v>0</v>
+        <v>19233</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>0</v>
+        <v>11157</v>
       </c>
     </row>
     <row r="57">
@@ -3156,34 +3154,34 @@
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 08:37</t>
+          <t>2024-08-18 11:00</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr"/>
       <c r="G57" s="3" t="n">
-        <v>130159</v>
+        <v>121033</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>109089</v>
+        <v>102595</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>1865</v>
+        <v>1280</v>
       </c>
       <c r="J57" s="3" t="n">
-        <v>107224</v>
+        <v>101315</v>
       </c>
       <c r="K57" s="3" t="inlineStr"/>
       <c r="L57" s="3" t="n">
-        <v>54465</v>
+        <v>46913</v>
       </c>
       <c r="M57" s="3" t="n">
-        <v>28968</v>
+        <v>18844</v>
       </c>
       <c r="N57" s="3" t="n">
-        <v>16088</v>
+        <v>16326</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>2340</v>
+        <v>14164</v>
       </c>
     </row>
     <row r="58">
@@ -3203,34 +3201,36 @@
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr"/>
-      <c r="E58" s="3" t="n">
-        <v>0</v>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:09</t>
+        </is>
       </c>
       <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="n">
-        <v>0</v>
+        <v>129513</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>0</v>
+        <v>87710</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>0</v>
+        <v>2151</v>
       </c>
       <c r="J58" s="3" t="n">
-        <v>0</v>
+        <v>85559</v>
       </c>
       <c r="K58" s="3" t="inlineStr"/>
       <c r="L58" s="3" t="n">
-        <v>0</v>
+        <v>42435</v>
       </c>
       <c r="M58" s="3" t="n">
-        <v>0</v>
+        <v>17325</v>
       </c>
       <c r="N58" s="3" t="n">
-        <v>0</v>
+        <v>6894</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>0</v>
+        <v>14625</v>
       </c>
     </row>
     <row r="59">
@@ -3250,36 +3250,34 @@
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr"/>
-      <c r="E59" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:08</t>
-        </is>
+      <c r="E59" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F59" s="3" t="inlineStr"/>
       <c r="G59" s="3" t="n">
-        <v>102150</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>91746</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>2059</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="n">
-        <v>89687</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="inlineStr"/>
       <c r="L59" s="3" t="n">
-        <v>54232</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="n">
-        <v>11636</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="n">
-        <v>17281</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>2052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3393,36 +3391,34 @@
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr"/>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:38</t>
-        </is>
+      <c r="E62" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="inlineStr"/>
       <c r="G62" s="3" t="n">
-        <v>94701</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>62554</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>1621</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="n">
-        <v>60933</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="inlineStr"/>
       <c r="L62" s="3" t="n">
-        <v>29065</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>13860</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="n">
-        <v>5135</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>9824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3536,36 +3532,34 @@
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr"/>
-      <c r="E65" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:55</t>
-        </is>
+      <c r="E65" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F65" s="3" t="inlineStr"/>
       <c r="G65" s="3" t="n">
-        <v>105351</v>
+        <v>0</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>81154</v>
+        <v>0</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>2156</v>
+        <v>0</v>
       </c>
       <c r="J65" s="3" t="n">
-        <v>78998</v>
+        <v>0</v>
       </c>
       <c r="K65" s="3" t="inlineStr"/>
       <c r="L65" s="3" t="n">
-        <v>46575</v>
+        <v>0</v>
       </c>
       <c r="M65" s="3" t="n">
-        <v>13938</v>
+        <v>0</v>
       </c>
       <c r="N65" s="3" t="n">
-        <v>9918</v>
+        <v>0</v>
       </c>
       <c r="O65" s="3" t="n">
-        <v>4615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3585,34 +3579,36 @@
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr"/>
-      <c r="E66" s="3" t="n">
-        <v>0</v>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:29</t>
+        </is>
       </c>
       <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="n">
-        <v>0</v>
+        <v>73312</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>0</v>
+        <v>64953</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="J66" s="3" t="n">
-        <v>0</v>
+        <v>64090</v>
       </c>
       <c r="K66" s="3" t="inlineStr"/>
       <c r="L66" s="3" t="n">
-        <v>0</v>
+        <v>34324</v>
       </c>
       <c r="M66" s="3" t="n">
-        <v>0</v>
+        <v>9648</v>
       </c>
       <c r="N66" s="3" t="n">
-        <v>0</v>
+        <v>8224</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>0</v>
+        <v>8688</v>
       </c>
     </row>
     <row r="67">
@@ -3728,34 +3724,34 @@
       <c r="D69" s="3" t="inlineStr"/>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 14:14</t>
+          <t>2024-08-18 14:53</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr"/>
       <c r="G69" s="3" t="n">
-        <v>87217</v>
+        <v>85569</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>66059</v>
+        <v>76573</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>1616</v>
+        <v>2089</v>
       </c>
       <c r="J69" s="3" t="n">
-        <v>64443</v>
+        <v>74484</v>
       </c>
       <c r="K69" s="3" t="inlineStr"/>
       <c r="L69" s="3" t="n">
-        <v>34048</v>
+        <v>43582</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>10677</v>
+        <v>13805</v>
       </c>
       <c r="N69" s="3" t="n">
-        <v>6718</v>
+        <v>7918</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>9776</v>
+        <v>5452</v>
       </c>
     </row>
     <row r="70">
@@ -3871,34 +3867,34 @@
       <c r="D72" s="3" t="inlineStr"/>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 08:52</t>
+          <t>2024-08-18 09:54</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr"/>
       <c r="G72" s="3" t="n">
-        <v>107874</v>
+        <v>103109</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>82394</v>
+        <v>69264</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>1143</v>
+        <v>1377</v>
       </c>
       <c r="J72" s="3" t="n">
-        <v>81251</v>
+        <v>67887</v>
       </c>
       <c r="K72" s="3" t="inlineStr"/>
       <c r="L72" s="3" t="n">
-        <v>42377</v>
+        <v>36677</v>
       </c>
       <c r="M72" s="3" t="n">
-        <v>16519</v>
+        <v>11512</v>
       </c>
       <c r="N72" s="3" t="n">
-        <v>9684</v>
+        <v>4703</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>8606</v>
+        <v>11598</v>
       </c>
     </row>
     <row r="73">
@@ -4012,36 +4008,34 @@
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr"/>
-      <c r="E75" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:50</t>
-        </is>
+      <c r="E75" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F75" s="3" t="inlineStr"/>
       <c r="G75" s="3" t="n">
-        <v>90214</v>
+        <v>0</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>57191</v>
+        <v>0</v>
       </c>
       <c r="I75" s="3" t="n">
-        <v>931</v>
+        <v>0</v>
       </c>
       <c r="J75" s="3" t="n">
-        <v>56260</v>
+        <v>0</v>
       </c>
       <c r="K75" s="3" t="inlineStr"/>
       <c r="L75" s="3" t="n">
-        <v>28716</v>
+        <v>0</v>
       </c>
       <c r="M75" s="3" t="n">
-        <v>11596</v>
+        <v>0</v>
       </c>
       <c r="N75" s="3" t="n">
-        <v>6219</v>
+        <v>0</v>
       </c>
       <c r="O75" s="3" t="n">
-        <v>6915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4110,34 +4104,34 @@
       <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:32</t>
+          <t>2024-08-18 19:40</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="n">
-        <v>338824</v>
+        <v>348915</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>229390</v>
+        <v>312477</v>
       </c>
       <c r="I77" s="3" t="n">
-        <v>6750</v>
+        <v>6005</v>
       </c>
       <c r="J77" s="3" t="n">
-        <v>222640</v>
+        <v>306472</v>
       </c>
       <c r="K77" s="3" t="inlineStr"/>
       <c r="L77" s="3" t="n">
-        <v>116202</v>
+        <v>158726</v>
       </c>
       <c r="M77" s="3" t="n">
-        <v>48572</v>
+        <v>75804</v>
       </c>
       <c r="N77" s="3" t="n">
-        <v>24812</v>
+        <v>37030</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>21920</v>
+        <v>19587</v>
       </c>
     </row>
     <row r="78">
@@ -4159,34 +4153,34 @@
       <c r="D78" s="3" t="inlineStr"/>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 10:55</t>
+          <t>2024-08-18 13:20</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr"/>
       <c r="G78" s="3" t="n">
-        <v>81950</v>
+        <v>86063</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>70791</v>
+        <v>63330</v>
       </c>
       <c r="I78" s="3" t="n">
-        <v>898</v>
+        <v>1134</v>
       </c>
       <c r="J78" s="3" t="n">
-        <v>69893</v>
+        <v>62196</v>
       </c>
       <c r="K78" s="3" t="inlineStr"/>
       <c r="L78" s="3" t="n">
-        <v>32877</v>
+        <v>34075</v>
       </c>
       <c r="M78" s="3" t="n">
-        <v>19047</v>
+        <v>7227</v>
       </c>
       <c r="N78" s="3" t="n">
-        <v>6470</v>
+        <v>16127</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>8003</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="79">
@@ -4253,36 +4247,34 @@
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr"/>
-      <c r="E80" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:06</t>
-        </is>
+      <c r="E80" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F80" s="3" t="inlineStr"/>
       <c r="G80" s="3" t="n">
-        <v>85930</v>
+        <v>0</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>53290</v>
+        <v>0</v>
       </c>
       <c r="I80" s="3" t="n">
-        <v>1524</v>
+        <v>0</v>
       </c>
       <c r="J80" s="3" t="n">
-        <v>51766</v>
+        <v>0</v>
       </c>
       <c r="K80" s="3" t="inlineStr"/>
       <c r="L80" s="3" t="n">
-        <v>25655</v>
+        <v>0</v>
       </c>
       <c r="M80" s="3" t="n">
-        <v>8022</v>
+        <v>0</v>
       </c>
       <c r="N80" s="3" t="n">
-        <v>11540</v>
+        <v>0</v>
       </c>
       <c r="O80" s="3" t="n">
-        <v>3959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -4396,34 +4388,36 @@
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr"/>
-      <c r="E83" s="3" t="n">
-        <v>0</v>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:54</t>
+        </is>
       </c>
       <c r="F83" s="3" t="inlineStr"/>
       <c r="G83" s="3" t="n">
-        <v>0</v>
+        <v>81921</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>0</v>
+        <v>63187</v>
       </c>
       <c r="I83" s="3" t="n">
-        <v>0</v>
+        <v>1577</v>
       </c>
       <c r="J83" s="3" t="n">
-        <v>0</v>
+        <v>61610</v>
       </c>
       <c r="K83" s="3" t="inlineStr"/>
       <c r="L83" s="3" t="n">
-        <v>0</v>
+        <v>31714</v>
       </c>
       <c r="M83" s="3" t="n">
-        <v>0</v>
+        <v>11436</v>
       </c>
       <c r="N83" s="3" t="n">
-        <v>0</v>
+        <v>12279</v>
       </c>
       <c r="O83" s="3" t="n">
-        <v>0</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="84">
@@ -4443,36 +4437,34 @@
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr"/>
-      <c r="E84" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:59</t>
-        </is>
+      <c r="E84" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F84" s="3" t="inlineStr"/>
       <c r="G84" s="3" t="n">
-        <v>90495</v>
+        <v>0</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>79121</v>
+        <v>0</v>
       </c>
       <c r="I84" s="3" t="n">
-        <v>1441</v>
+        <v>0</v>
       </c>
       <c r="J84" s="3" t="n">
-        <v>77680</v>
+        <v>0</v>
       </c>
       <c r="K84" s="3" t="inlineStr"/>
       <c r="L84" s="3" t="n">
-        <v>41457</v>
+        <v>0</v>
       </c>
       <c r="M84" s="3" t="n">
-        <v>10710</v>
+        <v>0</v>
       </c>
       <c r="N84" s="3" t="n">
-        <v>14899</v>
+        <v>0</v>
       </c>
       <c r="O84" s="3" t="n">
-        <v>6728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4492,36 +4484,34 @@
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr"/>
-      <c r="E85" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:40</t>
-        </is>
+      <c r="E85" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F85" s="3" t="inlineStr"/>
       <c r="G85" s="3" t="n">
-        <v>100676</v>
+        <v>0</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>80922</v>
+        <v>0</v>
       </c>
       <c r="I85" s="3" t="n">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="J85" s="3" t="n">
-        <v>79930</v>
+        <v>0</v>
       </c>
       <c r="K85" s="3" t="inlineStr"/>
       <c r="L85" s="3" t="n">
-        <v>45333</v>
+        <v>0</v>
       </c>
       <c r="M85" s="3" t="n">
-        <v>7904</v>
+        <v>0</v>
       </c>
       <c r="N85" s="3" t="n">
-        <v>6710</v>
+        <v>0</v>
       </c>
       <c r="O85" s="3" t="n">
-        <v>15983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4541,36 +4531,34 @@
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr"/>
-      <c r="E86" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 17:17</t>
-        </is>
+      <c r="E86" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F86" s="3" t="inlineStr"/>
       <c r="G86" s="3" t="n">
-        <v>96830</v>
+        <v>0</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>60124</v>
+        <v>0</v>
       </c>
       <c r="I86" s="3" t="n">
-        <v>1136</v>
+        <v>0</v>
       </c>
       <c r="J86" s="3" t="n">
-        <v>58988</v>
+        <v>0</v>
       </c>
       <c r="K86" s="3" t="inlineStr"/>
       <c r="L86" s="3" t="n">
-        <v>23109</v>
+        <v>0</v>
       </c>
       <c r="M86" s="3" t="n">
-        <v>12554</v>
+        <v>0</v>
       </c>
       <c r="N86" s="3" t="n">
-        <v>11381</v>
+        <v>0</v>
       </c>
       <c r="O86" s="3" t="n">
-        <v>8993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -4590,36 +4578,34 @@
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr"/>
-      <c r="E87" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:24</t>
-        </is>
+      <c r="E87" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F87" s="3" t="inlineStr"/>
       <c r="G87" s="3" t="n">
-        <v>77677</v>
+        <v>0</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>58144</v>
+        <v>0</v>
       </c>
       <c r="I87" s="3" t="n">
-        <v>1266</v>
+        <v>0</v>
       </c>
       <c r="J87" s="3" t="n">
-        <v>56878</v>
+        <v>0</v>
       </c>
       <c r="K87" s="3" t="inlineStr"/>
       <c r="L87" s="3" t="n">
-        <v>27750</v>
+        <v>0</v>
       </c>
       <c r="M87" s="3" t="n">
-        <v>8688</v>
+        <v>0</v>
       </c>
       <c r="N87" s="3" t="n">
-        <v>10739</v>
+        <v>0</v>
       </c>
       <c r="O87" s="3" t="n">
-        <v>6855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4780,36 +4766,34 @@
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr"/>
-      <c r="E91" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 08:10</t>
-        </is>
+      <c r="E91" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="inlineStr"/>
       <c r="G91" s="3" t="n">
-        <v>103353</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>75626</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="n">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="n">
-        <v>73625</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="inlineStr"/>
       <c r="L91" s="3" t="n">
-        <v>37789</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="n">
-        <v>15606</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="n">
-        <v>6564</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="n">
-        <v>9982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4876,34 +4860,36 @@
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr"/>
-      <c r="E93" s="3" t="n">
-        <v>0</v>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:41</t>
+        </is>
       </c>
       <c r="F93" s="3" t="inlineStr"/>
       <c r="G93" s="3" t="n">
-        <v>0</v>
+        <v>97880</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>0</v>
+        <v>86306</v>
       </c>
       <c r="I93" s="3" t="n">
-        <v>0</v>
+        <v>1675</v>
       </c>
       <c r="J93" s="3" t="n">
-        <v>0</v>
+        <v>84631</v>
       </c>
       <c r="K93" s="3" t="inlineStr"/>
       <c r="L93" s="3" t="n">
-        <v>0</v>
+        <v>39829</v>
       </c>
       <c r="M93" s="3" t="n">
-        <v>0</v>
+        <v>16398</v>
       </c>
       <c r="N93" s="3" t="n">
-        <v>0</v>
+        <v>15050</v>
       </c>
       <c r="O93" s="3" t="n">
-        <v>0</v>
+        <v>9120</v>
       </c>
     </row>
     <row r="94">
@@ -4923,34 +4909,36 @@
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr"/>
-      <c r="E94" s="3" t="n">
-        <v>0</v>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 17:55</t>
+        </is>
       </c>
       <c r="F94" s="3" t="inlineStr"/>
       <c r="G94" s="3" t="n">
-        <v>0</v>
+        <v>80493</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>0</v>
+        <v>53933</v>
       </c>
       <c r="I94" s="3" t="n">
-        <v>0</v>
+        <v>1182</v>
       </c>
       <c r="J94" s="3" t="n">
-        <v>0</v>
+        <v>52751</v>
       </c>
       <c r="K94" s="3" t="inlineStr"/>
       <c r="L94" s="3" t="n">
-        <v>0</v>
+        <v>30419</v>
       </c>
       <c r="M94" s="3" t="n">
-        <v>0</v>
+        <v>6824</v>
       </c>
       <c r="N94" s="3" t="n">
-        <v>0</v>
+        <v>3636</v>
       </c>
       <c r="O94" s="3" t="n">
-        <v>0</v>
+        <v>9234</v>
       </c>
     </row>
     <row r="95">
@@ -4970,36 +4958,34 @@
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr"/>
-      <c r="E95" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 10:57</t>
-        </is>
+      <c r="E95" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F95" s="3" t="inlineStr"/>
       <c r="G95" s="3" t="n">
-        <v>79347</v>
+        <v>0</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>62951</v>
+        <v>0</v>
       </c>
       <c r="I95" s="3" t="n">
-        <v>1203</v>
+        <v>0</v>
       </c>
       <c r="J95" s="3" t="n">
-        <v>61748</v>
+        <v>0</v>
       </c>
       <c r="K95" s="3" t="inlineStr"/>
       <c r="L95" s="3" t="n">
-        <v>34379</v>
+        <v>0</v>
       </c>
       <c r="M95" s="3" t="n">
-        <v>8792</v>
+        <v>0</v>
       </c>
       <c r="N95" s="3" t="n">
-        <v>7577</v>
+        <v>0</v>
       </c>
       <c r="O95" s="3" t="n">
-        <v>7910</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -5019,36 +5005,34 @@
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr"/>
-      <c r="E96" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 09:20</t>
-        </is>
+      <c r="E96" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F96" s="3" t="inlineStr"/>
       <c r="G96" s="3" t="n">
-        <v>94951</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>78810</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3" t="n">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3" t="n">
-        <v>77914</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3" t="inlineStr"/>
       <c r="L96" s="3" t="n">
-        <v>33488</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3" t="n">
-        <v>12582</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3" t="n">
-        <v>17659</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3" t="n">
-        <v>10287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -5070,34 +5054,34 @@
       <c r="D97" s="3" t="inlineStr"/>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 09:17</t>
+          <t>2024-08-18 18:35</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr"/>
       <c r="G97" s="3" t="n">
-        <v>102723</v>
+        <v>96678</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>72955</v>
+        <v>77086</v>
       </c>
       <c r="I97" s="3" t="n">
-        <v>1405</v>
+        <v>1127</v>
       </c>
       <c r="J97" s="3" t="n">
-        <v>71550</v>
+        <v>75959</v>
       </c>
       <c r="K97" s="3" t="inlineStr"/>
       <c r="L97" s="3" t="n">
-        <v>43895</v>
+        <v>35431</v>
       </c>
       <c r="M97" s="3" t="n">
-        <v>9456</v>
+        <v>13258</v>
       </c>
       <c r="N97" s="3" t="n">
-        <v>10979</v>
+        <v>13396</v>
       </c>
       <c r="O97" s="3" t="n">
-        <v>3640</v>
+        <v>10074</v>
       </c>
     </row>
     <row r="98">
@@ -5117,36 +5101,34 @@
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr"/>
-      <c r="E98" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 13:54</t>
-        </is>
+      <c r="E98" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F98" s="3" t="inlineStr"/>
       <c r="G98" s="3" t="n">
-        <v>111095</v>
+        <v>0</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>72392</v>
+        <v>0</v>
       </c>
       <c r="I98" s="3" t="n">
-        <v>2073</v>
+        <v>0</v>
       </c>
       <c r="J98" s="3" t="n">
-        <v>70319</v>
+        <v>0</v>
       </c>
       <c r="K98" s="3" t="inlineStr"/>
       <c r="L98" s="3" t="n">
-        <v>29615</v>
+        <v>0</v>
       </c>
       <c r="M98" s="3" t="n">
-        <v>15674</v>
+        <v>0</v>
       </c>
       <c r="N98" s="3" t="n">
-        <v>13573</v>
+        <v>0</v>
       </c>
       <c r="O98" s="3" t="n">
-        <v>7939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -5166,36 +5148,34 @@
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr"/>
-      <c r="E99" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 08:42</t>
-        </is>
+      <c r="E99" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F99" s="3" t="inlineStr"/>
       <c r="G99" s="3" t="n">
-        <v>80052</v>
+        <v>0</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>56159</v>
+        <v>0</v>
       </c>
       <c r="I99" s="3" t="n">
-        <v>1061</v>
+        <v>0</v>
       </c>
       <c r="J99" s="3" t="n">
-        <v>55098</v>
+        <v>0</v>
       </c>
       <c r="K99" s="3" t="inlineStr"/>
       <c r="L99" s="3" t="n">
-        <v>25974</v>
+        <v>0</v>
       </c>
       <c r="M99" s="3" t="n">
-        <v>8647</v>
+        <v>0</v>
       </c>
       <c r="N99" s="3" t="n">
-        <v>11730</v>
+        <v>0</v>
       </c>
       <c r="O99" s="3" t="n">
-        <v>5990</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5215,36 +5195,34 @@
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr"/>
-      <c r="E100" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 13:32</t>
-        </is>
+      <c r="E100" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="inlineStr"/>
       <c r="G100" s="3" t="n">
-        <v>128103</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>83883</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="n">
-        <v>1239</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="n">
-        <v>82644</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="inlineStr"/>
       <c r="L100" s="3" t="n">
-        <v>43775</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="n">
-        <v>18007</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="n">
-        <v>15259</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="n">
-        <v>1469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5264,36 +5242,34 @@
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr"/>
-      <c r="E101" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 09:20</t>
-        </is>
+      <c r="E101" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="inlineStr"/>
       <c r="G101" s="3" t="n">
-        <v>174872</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>109169</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="n">
-        <v>2751</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="n">
-        <v>106418</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="inlineStr"/>
       <c r="L101" s="3" t="n">
-        <v>43842</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="n">
-        <v>21072</v>
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="n">
-        <v>20213</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="n">
-        <v>15968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -5313,36 +5289,34 @@
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr"/>
-      <c r="E102" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:40</t>
-        </is>
+      <c r="E102" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F102" s="3" t="inlineStr"/>
       <c r="G102" s="3" t="n">
-        <v>24339</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>18283</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="n">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="n">
-        <v>17859</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="inlineStr"/>
       <c r="L102" s="3" t="n">
-        <v>9606</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="n">
-        <v>2687</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="n">
-        <v>1688</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="n">
-        <v>2983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -5503,36 +5477,34 @@
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr"/>
-      <c r="E106" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 17:49</t>
-        </is>
+      <c r="E106" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F106" s="3" t="inlineStr"/>
       <c r="G106" s="3" t="n">
-        <v>61593</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>48493</v>
+        <v>0</v>
       </c>
       <c r="I106" s="3" t="n">
-        <v>541</v>
+        <v>0</v>
       </c>
       <c r="J106" s="3" t="n">
-        <v>47952</v>
+        <v>0</v>
       </c>
       <c r="K106" s="3" t="inlineStr"/>
       <c r="L106" s="3" t="n">
-        <v>22699</v>
+        <v>0</v>
       </c>
       <c r="M106" s="3" t="n">
-        <v>8267</v>
+        <v>0</v>
       </c>
       <c r="N106" s="3" t="n">
-        <v>11323</v>
+        <v>0</v>
       </c>
       <c r="O106" s="3" t="n">
-        <v>3264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -5552,36 +5524,34 @@
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr"/>
-      <c r="E107" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:54</t>
-        </is>
+      <c r="E107" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F107" s="3" t="inlineStr"/>
       <c r="G107" s="3" t="n">
-        <v>40361</v>
+        <v>0</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>27221</v>
+        <v>0</v>
       </c>
       <c r="I107" s="3" t="n">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="J107" s="3" t="n">
-        <v>26605</v>
+        <v>0</v>
       </c>
       <c r="K107" s="3" t="inlineStr"/>
       <c r="L107" s="3" t="n">
-        <v>12942</v>
+        <v>0</v>
       </c>
       <c r="M107" s="3" t="n">
-        <v>4665</v>
+        <v>0</v>
       </c>
       <c r="N107" s="3" t="n">
-        <v>4739</v>
+        <v>0</v>
       </c>
       <c r="O107" s="3" t="n">
-        <v>2927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -5601,36 +5571,34 @@
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr"/>
-      <c r="E108" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:25</t>
-        </is>
+      <c r="E108" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F108" s="3" t="inlineStr"/>
       <c r="G108" s="3" t="n">
-        <v>39693</v>
+        <v>0</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>25097</v>
+        <v>0</v>
       </c>
       <c r="I108" s="3" t="n">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="J108" s="3" t="n">
-        <v>24509</v>
+        <v>0</v>
       </c>
       <c r="K108" s="3" t="inlineStr"/>
       <c r="L108" s="3" t="n">
-        <v>11370</v>
+        <v>0</v>
       </c>
       <c r="M108" s="3" t="n">
-        <v>2817</v>
+        <v>0</v>
       </c>
       <c r="N108" s="3" t="n">
-        <v>4490</v>
+        <v>0</v>
       </c>
       <c r="O108" s="3" t="n">
-        <v>4604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -5791,36 +5759,34 @@
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr"/>
-      <c r="E112" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 17:07</t>
-        </is>
+      <c r="E112" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F112" s="3" t="inlineStr"/>
       <c r="G112" s="3" t="n">
-        <v>92541</v>
+        <v>0</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>81095</v>
+        <v>0</v>
       </c>
       <c r="I112" s="3" t="n">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="J112" s="3" t="n">
-        <v>79990</v>
+        <v>0</v>
       </c>
       <c r="K112" s="3" t="inlineStr"/>
       <c r="L112" s="3" t="n">
-        <v>43509</v>
+        <v>0</v>
       </c>
       <c r="M112" s="3" t="n">
-        <v>12773</v>
+        <v>0</v>
       </c>
       <c r="N112" s="3" t="n">
-        <v>11685</v>
+        <v>0</v>
       </c>
       <c r="O112" s="3" t="n">
-        <v>8021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -5840,34 +5806,36 @@
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr"/>
-      <c r="E113" s="3" t="n">
-        <v>0</v>
+      <c r="E113" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 13:57</t>
+        </is>
       </c>
       <c r="F113" s="3" t="inlineStr"/>
       <c r="G113" s="3" t="n">
-        <v>0</v>
+        <v>82389</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>0</v>
+        <v>60509</v>
       </c>
       <c r="I113" s="3" t="n">
-        <v>0</v>
+        <v>1432</v>
       </c>
       <c r="J113" s="3" t="n">
-        <v>0</v>
+        <v>59077</v>
       </c>
       <c r="K113" s="3" t="inlineStr"/>
       <c r="L113" s="3" t="n">
-        <v>0</v>
+        <v>29212</v>
       </c>
       <c r="M113" s="3" t="n">
-        <v>0</v>
+        <v>13646</v>
       </c>
       <c r="N113" s="3" t="n">
-        <v>0</v>
+        <v>9257</v>
       </c>
       <c r="O113" s="3" t="n">
-        <v>0</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="114">
@@ -5887,34 +5855,36 @@
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr"/>
-      <c r="E114" s="3" t="n">
-        <v>0</v>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:20</t>
+        </is>
       </c>
       <c r="F114" s="3" t="inlineStr"/>
       <c r="G114" s="3" t="n">
-        <v>0</v>
+        <v>115199</v>
       </c>
       <c r="H114" s="3" t="n">
-        <v>0</v>
+        <v>101503</v>
       </c>
       <c r="I114" s="3" t="n">
-        <v>0</v>
+        <v>2429</v>
       </c>
       <c r="J114" s="3" t="n">
-        <v>0</v>
+        <v>99074</v>
       </c>
       <c r="K114" s="3" t="inlineStr"/>
       <c r="L114" s="3" t="n">
-        <v>0</v>
+        <v>42949</v>
       </c>
       <c r="M114" s="3" t="n">
-        <v>0</v>
+        <v>19382</v>
       </c>
       <c r="N114" s="3" t="n">
-        <v>0</v>
+        <v>16889</v>
       </c>
       <c r="O114" s="3" t="n">
-        <v>0</v>
+        <v>14899</v>
       </c>
     </row>
     <row r="115">
@@ -5936,34 +5906,34 @@
       <c r="D115" s="3" t="inlineStr"/>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 11:37</t>
+          <t>2024-08-18 15:36</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr"/>
       <c r="G115" s="3" t="n">
-        <v>75260</v>
+        <v>78290</v>
       </c>
       <c r="H115" s="3" t="n">
-        <v>59506</v>
+        <v>66306</v>
       </c>
       <c r="I115" s="3" t="n">
-        <v>1538</v>
+        <v>949</v>
       </c>
       <c r="J115" s="3" t="n">
-        <v>57968</v>
+        <v>65357</v>
       </c>
       <c r="K115" s="3" t="inlineStr"/>
       <c r="L115" s="3" t="n">
-        <v>25503</v>
+        <v>41122</v>
       </c>
       <c r="M115" s="3" t="n">
-        <v>11138</v>
+        <v>9434</v>
       </c>
       <c r="N115" s="3" t="n">
-        <v>10689</v>
+        <v>6000</v>
       </c>
       <c r="O115" s="3" t="n">
-        <v>7738</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="116">
@@ -5983,36 +5953,34 @@
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr"/>
-      <c r="E116" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:47</t>
-        </is>
+      <c r="E116" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F116" s="3" t="inlineStr"/>
       <c r="G116" s="3" t="n">
-        <v>119694</v>
+        <v>0</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>80430</v>
+        <v>0</v>
       </c>
       <c r="I116" s="3" t="n">
-        <v>2073</v>
+        <v>0</v>
       </c>
       <c r="J116" s="3" t="n">
-        <v>78357</v>
+        <v>0</v>
       </c>
       <c r="K116" s="3" t="inlineStr"/>
       <c r="L116" s="3" t="n">
-        <v>39722</v>
+        <v>0</v>
       </c>
       <c r="M116" s="3" t="n">
-        <v>16681</v>
+        <v>0</v>
       </c>
       <c r="N116" s="3" t="n">
-        <v>10208</v>
+        <v>0</v>
       </c>
       <c r="O116" s="3" t="n">
-        <v>7827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -6032,36 +6000,34 @@
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr"/>
-      <c r="E117" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 17:04</t>
-        </is>
+      <c r="E117" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F117" s="3" t="inlineStr"/>
       <c r="G117" s="3" t="n">
-        <v>190423</v>
+        <v>0</v>
       </c>
       <c r="H117" s="3" t="n">
-        <v>147770</v>
+        <v>0</v>
       </c>
       <c r="I117" s="3" t="n">
-        <v>4157</v>
+        <v>0</v>
       </c>
       <c r="J117" s="3" t="n">
-        <v>143613</v>
+        <v>0</v>
       </c>
       <c r="K117" s="3" t="inlineStr"/>
       <c r="L117" s="3" t="n">
-        <v>66318</v>
+        <v>0</v>
       </c>
       <c r="M117" s="3" t="n">
-        <v>30169</v>
+        <v>0</v>
       </c>
       <c r="N117" s="3" t="n">
-        <v>25947</v>
+        <v>0</v>
       </c>
       <c r="O117" s="3" t="n">
-        <v>13996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -6128,34 +6094,36 @@
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr"/>
-      <c r="E119" s="3" t="n">
-        <v>0</v>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:04</t>
+        </is>
       </c>
       <c r="F119" s="3" t="inlineStr"/>
       <c r="G119" s="3" t="n">
-        <v>0</v>
+        <v>170733</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>0</v>
+        <v>130755</v>
       </c>
       <c r="I119" s="3" t="n">
-        <v>0</v>
+        <v>2598</v>
       </c>
       <c r="J119" s="3" t="n">
-        <v>0</v>
+        <v>128157</v>
       </c>
       <c r="K119" s="3" t="inlineStr"/>
       <c r="L119" s="3" t="n">
-        <v>0</v>
+        <v>66809</v>
       </c>
       <c r="M119" s="3" t="n">
-        <v>0</v>
+        <v>22177</v>
       </c>
       <c r="N119" s="3" t="n">
-        <v>0</v>
+        <v>27273</v>
       </c>
       <c r="O119" s="3" t="n">
-        <v>0</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="120">
@@ -6175,34 +6143,36 @@
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr"/>
-      <c r="E120" s="3" t="n">
-        <v>0</v>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 13:54</t>
+        </is>
       </c>
       <c r="F120" s="3" t="inlineStr"/>
       <c r="G120" s="3" t="n">
-        <v>0</v>
+        <v>94485</v>
       </c>
       <c r="H120" s="3" t="n">
-        <v>0</v>
+        <v>73362</v>
       </c>
       <c r="I120" s="3" t="n">
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="J120" s="3" t="n">
-        <v>0</v>
+        <v>72426</v>
       </c>
       <c r="K120" s="3" t="inlineStr"/>
       <c r="L120" s="3" t="n">
-        <v>0</v>
+        <v>38493</v>
       </c>
       <c r="M120" s="3" t="n">
-        <v>0</v>
+        <v>18521</v>
       </c>
       <c r="N120" s="3" t="n">
-        <v>0</v>
+        <v>6687</v>
       </c>
       <c r="O120" s="3" t="n">
-        <v>0</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="121">
@@ -6222,34 +6192,36 @@
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr"/>
-      <c r="E121" s="3" t="n">
-        <v>0</v>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:19</t>
+        </is>
       </c>
       <c r="F121" s="3" t="inlineStr"/>
       <c r="G121" s="3" t="n">
-        <v>0</v>
+        <v>80726</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>0</v>
+        <v>53164</v>
       </c>
       <c r="I121" s="3" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="J121" s="3" t="n">
-        <v>0</v>
+        <v>51914</v>
       </c>
       <c r="K121" s="3" t="inlineStr"/>
       <c r="L121" s="3" t="n">
-        <v>0</v>
+        <v>25202</v>
       </c>
       <c r="M121" s="3" t="n">
-        <v>0</v>
+        <v>13722</v>
       </c>
       <c r="N121" s="3" t="n">
-        <v>0</v>
+        <v>8008</v>
       </c>
       <c r="O121" s="3" t="n">
-        <v>0</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="122">
@@ -6316,36 +6288,34 @@
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr"/>
-      <c r="E123" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:40</t>
-        </is>
+      <c r="E123" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F123" s="3" t="inlineStr"/>
       <c r="G123" s="3" t="n">
-        <v>76403</v>
+        <v>0</v>
       </c>
       <c r="H123" s="3" t="n">
-        <v>48531</v>
+        <v>0</v>
       </c>
       <c r="I123" s="3" t="n">
-        <v>880</v>
+        <v>0</v>
       </c>
       <c r="J123" s="3" t="n">
-        <v>47651</v>
+        <v>0</v>
       </c>
       <c r="K123" s="3" t="inlineStr"/>
       <c r="L123" s="3" t="n">
-        <v>27292</v>
+        <v>0</v>
       </c>
       <c r="M123" s="3" t="n">
-        <v>7674</v>
+        <v>0</v>
       </c>
       <c r="N123" s="3" t="n">
-        <v>5066</v>
+        <v>0</v>
       </c>
       <c r="O123" s="3" t="n">
-        <v>5235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -6412,34 +6382,36 @@
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr"/>
-      <c r="E125" s="3" t="n">
-        <v>0</v>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 13:23</t>
+        </is>
       </c>
       <c r="F125" s="3" t="inlineStr"/>
       <c r="G125" s="3" t="n">
-        <v>0</v>
+        <v>111932</v>
       </c>
       <c r="H125" s="3" t="n">
-        <v>0</v>
+        <v>85312</v>
       </c>
       <c r="I125" s="3" t="n">
-        <v>0</v>
+        <v>1613</v>
       </c>
       <c r="J125" s="3" t="n">
-        <v>0</v>
+        <v>83699</v>
       </c>
       <c r="K125" s="3" t="inlineStr"/>
       <c r="L125" s="3" t="n">
-        <v>0</v>
+        <v>43199</v>
       </c>
       <c r="M125" s="3" t="n">
-        <v>0</v>
+        <v>14788</v>
       </c>
       <c r="N125" s="3" t="n">
-        <v>0</v>
+        <v>11708</v>
       </c>
       <c r="O125" s="3" t="n">
-        <v>0</v>
+        <v>9817</v>
       </c>
     </row>
     <row r="126">
@@ -6459,36 +6431,34 @@
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr"/>
-      <c r="E126" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 10:24</t>
-        </is>
+      <c r="E126" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F126" s="3" t="inlineStr"/>
       <c r="G126" s="3" t="n">
-        <v>106469</v>
+        <v>0</v>
       </c>
       <c r="H126" s="3" t="n">
-        <v>67448</v>
+        <v>0</v>
       </c>
       <c r="I126" s="3" t="n">
-        <v>955</v>
+        <v>0</v>
       </c>
       <c r="J126" s="3" t="n">
-        <v>66493</v>
+        <v>0</v>
       </c>
       <c r="K126" s="3" t="inlineStr"/>
       <c r="L126" s="3" t="n">
-        <v>36209</v>
+        <v>0</v>
       </c>
       <c r="M126" s="3" t="n">
-        <v>10550</v>
+        <v>0</v>
       </c>
       <c r="N126" s="3" t="n">
-        <v>8040</v>
+        <v>0</v>
       </c>
       <c r="O126" s="3" t="n">
-        <v>8366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -6743,34 +6713,36 @@
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr"/>
-      <c r="E132" s="3" t="n">
-        <v>0</v>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:13</t>
+        </is>
       </c>
       <c r="F132" s="3" t="inlineStr"/>
       <c r="G132" s="3" t="n">
-        <v>0</v>
+        <v>92090</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>0</v>
+        <v>73985</v>
       </c>
       <c r="I132" s="3" t="n">
-        <v>0</v>
+        <v>1174</v>
       </c>
       <c r="J132" s="3" t="n">
-        <v>0</v>
+        <v>72811</v>
       </c>
       <c r="K132" s="3" t="inlineStr"/>
       <c r="L132" s="3" t="n">
-        <v>0</v>
+        <v>38179</v>
       </c>
       <c r="M132" s="3" t="n">
-        <v>0</v>
+        <v>14294</v>
       </c>
       <c r="N132" s="3" t="n">
-        <v>0</v>
+        <v>10474</v>
       </c>
       <c r="O132" s="3" t="n">
-        <v>0</v>
+        <v>6222</v>
       </c>
     </row>
     <row r="133">
@@ -6792,34 +6764,34 @@
       <c r="D133" s="3" t="inlineStr"/>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 11:01</t>
+          <t>2024-08-18 08:56</t>
         </is>
       </c>
       <c r="F133" s="3" t="inlineStr"/>
       <c r="G133" s="3" t="n">
-        <v>100342</v>
+        <v>97196</v>
       </c>
       <c r="H133" s="3" t="n">
-        <v>71087</v>
+        <v>64176</v>
       </c>
       <c r="I133" s="3" t="n">
-        <v>782</v>
+        <v>741</v>
       </c>
       <c r="J133" s="3" t="n">
-        <v>70305</v>
+        <v>63435</v>
       </c>
       <c r="K133" s="3" t="inlineStr"/>
       <c r="L133" s="3" t="n">
-        <v>33232</v>
+        <v>31002</v>
       </c>
       <c r="M133" s="3" t="n">
-        <v>15222</v>
+        <v>12550</v>
       </c>
       <c r="N133" s="3" t="n">
-        <v>9288</v>
+        <v>11434</v>
       </c>
       <c r="O133" s="3" t="n">
-        <v>9045</v>
+        <v>5276</v>
       </c>
     </row>
     <row r="134">
@@ -6839,34 +6811,36 @@
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr"/>
-      <c r="E134" s="3" t="n">
-        <v>0</v>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 09:51</t>
+        </is>
       </c>
       <c r="F134" s="3" t="inlineStr"/>
       <c r="G134" s="3" t="n">
-        <v>0</v>
+        <v>107821</v>
       </c>
       <c r="H134" s="3" t="n">
-        <v>0</v>
+        <v>86600</v>
       </c>
       <c r="I134" s="3" t="n">
-        <v>0</v>
+        <v>1812</v>
       </c>
       <c r="J134" s="3" t="n">
-        <v>0</v>
+        <v>84788</v>
       </c>
       <c r="K134" s="3" t="inlineStr"/>
       <c r="L134" s="3" t="n">
-        <v>0</v>
+        <v>45174</v>
       </c>
       <c r="M134" s="3" t="n">
-        <v>0</v>
+        <v>11125</v>
       </c>
       <c r="N134" s="3" t="n">
-        <v>0</v>
+        <v>9443</v>
       </c>
       <c r="O134" s="3" t="n">
-        <v>0</v>
+        <v>14804</v>
       </c>
     </row>
     <row r="135">
@@ -6888,34 +6862,34 @@
       <c r="D135" s="3" t="inlineStr"/>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 15:57</t>
+          <t>2024-08-18 14:26</t>
         </is>
       </c>
       <c r="F135" s="3" t="inlineStr"/>
       <c r="G135" s="3" t="n">
-        <v>98375</v>
+        <v>101148</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>64547</v>
+        <v>78700</v>
       </c>
       <c r="I135" s="3" t="n">
-        <v>1775</v>
+        <v>2302</v>
       </c>
       <c r="J135" s="3" t="n">
-        <v>62772</v>
+        <v>76398</v>
       </c>
       <c r="K135" s="3" t="inlineStr"/>
       <c r="L135" s="3" t="n">
-        <v>33995</v>
+        <v>39254</v>
       </c>
       <c r="M135" s="3" t="n">
-        <v>7466</v>
+        <v>11529</v>
       </c>
       <c r="N135" s="3" t="n">
-        <v>10885</v>
+        <v>12328</v>
       </c>
       <c r="O135" s="3" t="n">
-        <v>7286</v>
+        <v>9465</v>
       </c>
     </row>
     <row r="136">
@@ -6937,34 +6911,34 @@
       <c r="D136" s="3" t="inlineStr"/>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 14:37</t>
+          <t>2024-08-18 19:24</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr"/>
       <c r="G136" s="3" t="n">
-        <v>82914</v>
+        <v>84468</v>
       </c>
       <c r="H136" s="3" t="n">
-        <v>54709</v>
+        <v>65349</v>
       </c>
       <c r="I136" s="3" t="n">
-        <v>883</v>
+        <v>1562</v>
       </c>
       <c r="J136" s="3" t="n">
-        <v>53826</v>
+        <v>63787</v>
       </c>
       <c r="K136" s="3" t="inlineStr"/>
       <c r="L136" s="3" t="n">
-        <v>31014</v>
+        <v>36280</v>
       </c>
       <c r="M136" s="3" t="n">
-        <v>11572</v>
+        <v>8743</v>
       </c>
       <c r="N136" s="3" t="n">
-        <v>7368</v>
+        <v>5762</v>
       </c>
       <c r="O136" s="3" t="n">
-        <v>1179</v>
+        <v>9811</v>
       </c>
     </row>
     <row r="137">
@@ -6984,36 +6958,34 @@
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr"/>
-      <c r="E137" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:50</t>
-        </is>
+      <c r="E137" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F137" s="3" t="inlineStr"/>
       <c r="G137" s="3" t="n">
-        <v>100865</v>
+        <v>0</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>70575</v>
+        <v>0</v>
       </c>
       <c r="I137" s="3" t="n">
-        <v>1764</v>
+        <v>0</v>
       </c>
       <c r="J137" s="3" t="n">
-        <v>68811</v>
+        <v>0</v>
       </c>
       <c r="K137" s="3" t="inlineStr"/>
       <c r="L137" s="3" t="n">
-        <v>46926</v>
+        <v>0</v>
       </c>
       <c r="M137" s="3" t="n">
-        <v>7245</v>
+        <v>0</v>
       </c>
       <c r="N137" s="3" t="n">
-        <v>5465</v>
+        <v>0</v>
       </c>
       <c r="O137" s="3" t="n">
-        <v>5733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -7033,36 +7005,34 @@
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr"/>
-      <c r="E138" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 08:18</t>
-        </is>
+      <c r="E138" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F138" s="3" t="inlineStr"/>
       <c r="G138" s="3" t="n">
-        <v>98476</v>
+        <v>0</v>
       </c>
       <c r="H138" s="3" t="n">
-        <v>87474</v>
+        <v>0</v>
       </c>
       <c r="I138" s="3" t="n">
-        <v>975</v>
+        <v>0</v>
       </c>
       <c r="J138" s="3" t="n">
-        <v>86499</v>
+        <v>0</v>
       </c>
       <c r="K138" s="3" t="inlineStr"/>
       <c r="L138" s="3" t="n">
-        <v>42576</v>
+        <v>0</v>
       </c>
       <c r="M138" s="3" t="n">
-        <v>10850</v>
+        <v>0</v>
       </c>
       <c r="N138" s="3" t="n">
-        <v>17696</v>
+        <v>0</v>
       </c>
       <c r="O138" s="3" t="n">
-        <v>11050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -7131,34 +7101,34 @@
       <c r="D140" s="3" t="inlineStr"/>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 16:08</t>
+          <t>2024-08-18 08:23</t>
         </is>
       </c>
       <c r="F140" s="3" t="inlineStr"/>
       <c r="G140" s="3" t="n">
-        <v>153242</v>
+        <v>152274</v>
       </c>
       <c r="H140" s="3" t="n">
-        <v>130924</v>
+        <v>127693</v>
       </c>
       <c r="I140" s="3" t="n">
-        <v>1330</v>
+        <v>2633</v>
       </c>
       <c r="J140" s="3" t="n">
-        <v>129594</v>
+        <v>125060</v>
       </c>
       <c r="K140" s="3" t="inlineStr"/>
       <c r="L140" s="3" t="n">
-        <v>68596</v>
+        <v>67722</v>
       </c>
       <c r="M140" s="3" t="n">
-        <v>15917</v>
+        <v>16924</v>
       </c>
       <c r="N140" s="3" t="n">
-        <v>30809</v>
+        <v>17147</v>
       </c>
       <c r="O140" s="3" t="n">
-        <v>7791</v>
+        <v>17012</v>
       </c>
     </row>
     <row r="141">
@@ -7319,34 +7289,36 @@
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr"/>
-      <c r="E144" s="3" t="n">
-        <v>0</v>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 08:11</t>
+        </is>
       </c>
       <c r="F144" s="3" t="inlineStr"/>
       <c r="G144" s="3" t="n">
-        <v>0</v>
+        <v>116359</v>
       </c>
       <c r="H144" s="3" t="n">
-        <v>0</v>
+        <v>80320</v>
       </c>
       <c r="I144" s="3" t="n">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="J144" s="3" t="n">
-        <v>0</v>
+        <v>79514</v>
       </c>
       <c r="K144" s="3" t="inlineStr"/>
       <c r="L144" s="3" t="n">
-        <v>0</v>
+        <v>42765</v>
       </c>
       <c r="M144" s="3" t="n">
-        <v>0</v>
+        <v>15221</v>
       </c>
       <c r="N144" s="3" t="n">
-        <v>0</v>
+        <v>6047</v>
       </c>
       <c r="O144" s="3" t="n">
-        <v>0</v>
+        <v>11504</v>
       </c>
     </row>
     <row r="145">
@@ -7368,34 +7340,34 @@
       <c r="D145" s="3" t="inlineStr"/>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:38</t>
+          <t>2024-08-18 17:27</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr"/>
       <c r="G145" s="3" t="n">
-        <v>88491</v>
+        <v>90133</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>72393</v>
+        <v>77700</v>
       </c>
       <c r="I145" s="3" t="n">
-        <v>1768</v>
+        <v>1179</v>
       </c>
       <c r="J145" s="3" t="n">
-        <v>70625</v>
+        <v>76521</v>
       </c>
       <c r="K145" s="3" t="inlineStr"/>
       <c r="L145" s="3" t="n">
-        <v>36655</v>
+        <v>36680</v>
       </c>
       <c r="M145" s="3" t="n">
-        <v>12669</v>
+        <v>10323</v>
       </c>
       <c r="N145" s="3" t="n">
-        <v>14866</v>
+        <v>13256</v>
       </c>
       <c r="O145" s="3" t="n">
-        <v>2901</v>
+        <v>12433</v>
       </c>
     </row>
     <row r="146">
@@ -7509,34 +7481,36 @@
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr"/>
-      <c r="E148" s="3" t="n">
-        <v>0</v>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:11</t>
+        </is>
       </c>
       <c r="F148" s="3" t="inlineStr"/>
       <c r="G148" s="3" t="n">
-        <v>0</v>
+        <v>107730</v>
       </c>
       <c r="H148" s="3" t="n">
-        <v>0</v>
+        <v>96681</v>
       </c>
       <c r="I148" s="3" t="n">
-        <v>0</v>
+        <v>2817</v>
       </c>
       <c r="J148" s="3" t="n">
-        <v>0</v>
+        <v>93864</v>
       </c>
       <c r="K148" s="3" t="inlineStr"/>
       <c r="L148" s="3" t="n">
-        <v>0</v>
+        <v>51187</v>
       </c>
       <c r="M148" s="3" t="n">
-        <v>0</v>
+        <v>12265</v>
       </c>
       <c r="N148" s="3" t="n">
-        <v>0</v>
+        <v>11128</v>
       </c>
       <c r="O148" s="3" t="n">
-        <v>0</v>
+        <v>14589</v>
       </c>
     </row>
     <row r="149">
@@ -7650,34 +7624,36 @@
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr"/>
-      <c r="E151" s="3" t="n">
-        <v>0</v>
+      <c r="E151" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:31</t>
+        </is>
       </c>
       <c r="F151" s="3" t="inlineStr"/>
       <c r="G151" s="3" t="n">
-        <v>0</v>
+        <v>85707</v>
       </c>
       <c r="H151" s="3" t="n">
-        <v>0</v>
+        <v>60954</v>
       </c>
       <c r="I151" s="3" t="n">
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="J151" s="3" t="n">
-        <v>0</v>
+        <v>59614</v>
       </c>
       <c r="K151" s="3" t="inlineStr"/>
       <c r="L151" s="3" t="n">
-        <v>0</v>
+        <v>26014</v>
       </c>
       <c r="M151" s="3" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="N151" s="3" t="n">
-        <v>0</v>
+        <v>11462</v>
       </c>
       <c r="O151" s="3" t="n">
-        <v>0</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="152">
@@ -7697,36 +7673,34 @@
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr"/>
-      <c r="E152" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 13:02</t>
-        </is>
+      <c r="E152" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F152" s="3" t="inlineStr"/>
       <c r="G152" s="3" t="n">
-        <v>89100</v>
+        <v>0</v>
       </c>
       <c r="H152" s="3" t="n">
-        <v>75332</v>
+        <v>0</v>
       </c>
       <c r="I152" s="3" t="n">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="J152" s="3" t="n">
-        <v>74565</v>
+        <v>0</v>
       </c>
       <c r="K152" s="3" t="inlineStr"/>
       <c r="L152" s="3" t="n">
-        <v>44080</v>
+        <v>0</v>
       </c>
       <c r="M152" s="3" t="n">
-        <v>18916</v>
+        <v>0</v>
       </c>
       <c r="N152" s="3" t="n">
-        <v>6219</v>
+        <v>0</v>
       </c>
       <c r="O152" s="3" t="n">
-        <v>1620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -7748,34 +7722,34 @@
       <c r="D153" s="3" t="inlineStr"/>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:01</t>
+          <t>2024-08-18 11:10</t>
         </is>
       </c>
       <c r="F153" s="3" t="inlineStr"/>
       <c r="G153" s="3" t="n">
-        <v>82712</v>
+        <v>78361</v>
       </c>
       <c r="H153" s="3" t="n">
-        <v>70402</v>
+        <v>58200</v>
       </c>
       <c r="I153" s="3" t="n">
-        <v>1400</v>
+        <v>595</v>
       </c>
       <c r="J153" s="3" t="n">
-        <v>69002</v>
+        <v>57605</v>
       </c>
       <c r="K153" s="3" t="inlineStr"/>
       <c r="L153" s="3" t="n">
-        <v>37327</v>
+        <v>26791</v>
       </c>
       <c r="M153" s="3" t="n">
-        <v>13085</v>
+        <v>13652</v>
       </c>
       <c r="N153" s="3" t="n">
-        <v>7186</v>
+        <v>9727</v>
       </c>
       <c r="O153" s="3" t="n">
-        <v>7952</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="154">
@@ -7795,36 +7769,34 @@
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr"/>
-      <c r="E154" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 17:02</t>
-        </is>
+      <c r="E154" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F154" s="3" t="inlineStr"/>
       <c r="G154" s="3" t="n">
-        <v>159215</v>
+        <v>0</v>
       </c>
       <c r="H154" s="3" t="n">
-        <v>115355</v>
+        <v>0</v>
       </c>
       <c r="I154" s="3" t="n">
-        <v>1936</v>
+        <v>0</v>
       </c>
       <c r="J154" s="3" t="n">
-        <v>113419</v>
+        <v>0</v>
       </c>
       <c r="K154" s="3" t="inlineStr"/>
       <c r="L154" s="3" t="n">
-        <v>56730</v>
+        <v>0</v>
       </c>
       <c r="M154" s="3" t="n">
-        <v>14700</v>
+        <v>0</v>
       </c>
       <c r="N154" s="3" t="n">
-        <v>23139</v>
+        <v>0</v>
       </c>
       <c r="O154" s="3" t="n">
-        <v>13176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -7891,36 +7863,34 @@
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr"/>
-      <c r="E156" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:38</t>
-        </is>
+      <c r="E156" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F156" s="3" t="inlineStr"/>
       <c r="G156" s="3" t="n">
-        <v>54481</v>
+        <v>0</v>
       </c>
       <c r="H156" s="3" t="n">
-        <v>34223</v>
+        <v>0</v>
       </c>
       <c r="I156" s="3" t="n">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="J156" s="3" t="n">
-        <v>33880</v>
+        <v>0</v>
       </c>
       <c r="K156" s="3" t="inlineStr"/>
       <c r="L156" s="3" t="n">
-        <v>20753</v>
+        <v>0</v>
       </c>
       <c r="M156" s="3" t="n">
-        <v>4294</v>
+        <v>0</v>
       </c>
       <c r="N156" s="3" t="n">
-        <v>5804</v>
+        <v>0</v>
       </c>
       <c r="O156" s="3" t="n">
-        <v>1333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -7940,36 +7910,34 @@
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr"/>
-      <c r="E157" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 08:52</t>
-        </is>
+      <c r="E157" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F157" s="3" t="inlineStr"/>
       <c r="G157" s="3" t="n">
-        <v>67437</v>
+        <v>0</v>
       </c>
       <c r="H157" s="3" t="n">
-        <v>50231</v>
+        <v>0</v>
       </c>
       <c r="I157" s="3" t="n">
-        <v>1253</v>
+        <v>0</v>
       </c>
       <c r="J157" s="3" t="n">
-        <v>48978</v>
+        <v>0</v>
       </c>
       <c r="K157" s="3" t="inlineStr"/>
       <c r="L157" s="3" t="n">
-        <v>24515</v>
+        <v>0</v>
       </c>
       <c r="M157" s="3" t="n">
-        <v>9692</v>
+        <v>0</v>
       </c>
       <c r="N157" s="3" t="n">
-        <v>4465</v>
+        <v>0</v>
       </c>
       <c r="O157" s="3" t="n">
-        <v>7855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -7991,34 +7959,34 @@
       <c r="D158" s="3" t="inlineStr"/>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 12:20</t>
+          <t>2024-08-18 09:14</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr"/>
       <c r="G158" s="3" t="n">
-        <v>57064</v>
+        <v>58342</v>
       </c>
       <c r="H158" s="3" t="n">
-        <v>38552</v>
+        <v>44698</v>
       </c>
       <c r="I158" s="3" t="n">
-        <v>913</v>
+        <v>847</v>
       </c>
       <c r="J158" s="3" t="n">
-        <v>37639</v>
+        <v>43851</v>
       </c>
       <c r="K158" s="3" t="inlineStr"/>
       <c r="L158" s="3" t="n">
-        <v>17418</v>
+        <v>23541</v>
       </c>
       <c r="M158" s="3" t="n">
-        <v>5616</v>
+        <v>8203</v>
       </c>
       <c r="N158" s="3" t="n">
-        <v>7110</v>
+        <v>3825</v>
       </c>
       <c r="O158" s="3" t="n">
-        <v>5610</v>
+        <v>6088</v>
       </c>
     </row>
     <row r="159">
@@ -8040,34 +8008,34 @@
       <c r="D159" s="3" t="inlineStr"/>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 16:05</t>
+          <t>2024-08-18 11:58</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr"/>
       <c r="G159" s="3" t="n">
-        <v>76165</v>
+        <v>76511</v>
       </c>
       <c r="H159" s="3" t="n">
-        <v>60540</v>
+        <v>58719</v>
       </c>
       <c r="I159" s="3" t="n">
-        <v>656</v>
+        <v>1668</v>
       </c>
       <c r="J159" s="3" t="n">
-        <v>59884</v>
+        <v>57051</v>
       </c>
       <c r="K159" s="3" t="inlineStr"/>
       <c r="L159" s="3" t="n">
-        <v>31911</v>
+        <v>33057</v>
       </c>
       <c r="M159" s="3" t="n">
-        <v>11874</v>
+        <v>6082</v>
       </c>
       <c r="N159" s="3" t="n">
-        <v>7258</v>
+        <v>7286</v>
       </c>
       <c r="O159" s="3" t="n">
-        <v>5845</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="160">
@@ -8087,36 +8055,34 @@
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr"/>
-      <c r="E160" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:09</t>
-        </is>
+      <c r="E160" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F160" s="3" t="inlineStr"/>
       <c r="G160" s="3" t="n">
-        <v>67520</v>
+        <v>0</v>
       </c>
       <c r="H160" s="3" t="n">
-        <v>42013</v>
+        <v>0</v>
       </c>
       <c r="I160" s="3" t="n">
-        <v>1085</v>
+        <v>0</v>
       </c>
       <c r="J160" s="3" t="n">
-        <v>40928</v>
+        <v>0</v>
       </c>
       <c r="K160" s="3" t="inlineStr"/>
       <c r="L160" s="3" t="n">
-        <v>22850</v>
+        <v>0</v>
       </c>
       <c r="M160" s="3" t="n">
-        <v>5644</v>
+        <v>0</v>
       </c>
       <c r="N160" s="3" t="n">
-        <v>6019</v>
+        <v>0</v>
       </c>
       <c r="O160" s="3" t="n">
-        <v>4367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -8138,34 +8104,34 @@
       <c r="D161" s="3" t="inlineStr"/>
       <c r="E161" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:11</t>
+          <t>2024-08-18 15:31</t>
         </is>
       </c>
       <c r="F161" s="3" t="inlineStr"/>
       <c r="G161" s="3" t="n">
-        <v>81585</v>
+        <v>76780</v>
       </c>
       <c r="H161" s="3" t="n">
-        <v>67923</v>
+        <v>68098</v>
       </c>
       <c r="I161" s="3" t="n">
-        <v>1931</v>
+        <v>688</v>
       </c>
       <c r="J161" s="3" t="n">
-        <v>65992</v>
+        <v>67410</v>
       </c>
       <c r="K161" s="3" t="inlineStr"/>
       <c r="L161" s="3" t="n">
-        <v>40491</v>
+        <v>36227</v>
       </c>
       <c r="M161" s="3" t="n">
-        <v>8710</v>
+        <v>15700</v>
       </c>
       <c r="N161" s="3" t="n">
-        <v>6556</v>
+        <v>7296</v>
       </c>
       <c r="O161" s="3" t="n">
-        <v>6933</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="162">
@@ -8187,34 +8153,34 @@
       <c r="D162" s="3" t="inlineStr"/>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 19:45</t>
+          <t>2024-08-18 18:26</t>
         </is>
       </c>
       <c r="F162" s="3" t="inlineStr"/>
       <c r="G162" s="3" t="n">
-        <v>86962</v>
+        <v>91624</v>
       </c>
       <c r="H162" s="3" t="n">
-        <v>77329</v>
+        <v>64577</v>
       </c>
       <c r="I162" s="3" t="n">
-        <v>2101</v>
+        <v>737</v>
       </c>
       <c r="J162" s="3" t="n">
-        <v>75228</v>
+        <v>63840</v>
       </c>
       <c r="K162" s="3" t="inlineStr"/>
       <c r="L162" s="3" t="n">
-        <v>41136</v>
+        <v>30594</v>
       </c>
       <c r="M162" s="3" t="n">
-        <v>13695</v>
+        <v>15435</v>
       </c>
       <c r="N162" s="3" t="n">
-        <v>5383</v>
+        <v>10316</v>
       </c>
       <c r="O162" s="3" t="n">
-        <v>11251</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="163">
@@ -8234,34 +8200,36 @@
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr"/>
-      <c r="E163" s="3" t="n">
-        <v>0</v>
+      <c r="E163" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 20:00</t>
+        </is>
       </c>
       <c r="F163" s="3" t="inlineStr"/>
       <c r="G163" s="3" t="n">
-        <v>0</v>
+        <v>71190</v>
       </c>
       <c r="H163" s="3" t="n">
-        <v>0</v>
+        <v>43432</v>
       </c>
       <c r="I163" s="3" t="n">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="J163" s="3" t="n">
-        <v>0</v>
+        <v>42657</v>
       </c>
       <c r="K163" s="3" t="inlineStr"/>
       <c r="L163" s="3" t="n">
-        <v>0</v>
+        <v>20231</v>
       </c>
       <c r="M163" s="3" t="n">
-        <v>0</v>
+        <v>8555</v>
       </c>
       <c r="N163" s="3" t="n">
-        <v>0</v>
+        <v>6026</v>
       </c>
       <c r="O163" s="3" t="n">
-        <v>0</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="164">
@@ -8281,36 +8249,34 @@
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr"/>
-      <c r="E164" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 12:38</t>
-        </is>
+      <c r="E164" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F164" s="3" t="inlineStr"/>
       <c r="G164" s="3" t="n">
-        <v>89787</v>
+        <v>0</v>
       </c>
       <c r="H164" s="3" t="n">
-        <v>80295</v>
+        <v>0</v>
       </c>
       <c r="I164" s="3" t="n">
-        <v>1514</v>
+        <v>0</v>
       </c>
       <c r="J164" s="3" t="n">
-        <v>78781</v>
+        <v>0</v>
       </c>
       <c r="K164" s="3" t="inlineStr"/>
       <c r="L164" s="3" t="n">
-        <v>43270</v>
+        <v>0</v>
       </c>
       <c r="M164" s="3" t="n">
-        <v>10053</v>
+        <v>0</v>
       </c>
       <c r="N164" s="3" t="n">
-        <v>13683</v>
+        <v>0</v>
       </c>
       <c r="O164" s="3" t="n">
-        <v>7833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -8330,36 +8296,34 @@
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr"/>
-      <c r="E165" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 10:32</t>
-        </is>
+      <c r="E165" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F165" s="3" t="inlineStr"/>
       <c r="G165" s="3" t="n">
-        <v>116160</v>
+        <v>0</v>
       </c>
       <c r="H165" s="3" t="n">
-        <v>71857</v>
+        <v>0</v>
       </c>
       <c r="I165" s="3" t="n">
-        <v>1951</v>
+        <v>0</v>
       </c>
       <c r="J165" s="3" t="n">
-        <v>69906</v>
+        <v>0</v>
       </c>
       <c r="K165" s="3" t="inlineStr"/>
       <c r="L165" s="3" t="n">
-        <v>37898</v>
+        <v>0</v>
       </c>
       <c r="M165" s="3" t="n">
-        <v>9061</v>
+        <v>0</v>
       </c>
       <c r="N165" s="3" t="n">
-        <v>4889</v>
+        <v>0</v>
       </c>
       <c r="O165" s="3" t="n">
-        <v>14561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -8428,34 +8392,34 @@
       <c r="D167" s="3" t="inlineStr"/>
       <c r="E167" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 09:19</t>
+          <t>2024-08-18 18:03</t>
         </is>
       </c>
       <c r="F167" s="3" t="inlineStr"/>
       <c r="G167" s="3" t="n">
-        <v>100993</v>
+        <v>104933</v>
       </c>
       <c r="H167" s="3" t="n">
-        <v>88173</v>
+        <v>84573</v>
       </c>
       <c r="I167" s="3" t="n">
-        <v>2616</v>
+        <v>2212</v>
       </c>
       <c r="J167" s="3" t="n">
-        <v>85557</v>
+        <v>82361</v>
       </c>
       <c r="K167" s="3" t="inlineStr"/>
       <c r="L167" s="3" t="n">
-        <v>53826</v>
+        <v>37471</v>
       </c>
       <c r="M167" s="3" t="n">
-        <v>10900</v>
+        <v>10433</v>
       </c>
       <c r="N167" s="3" t="n">
-        <v>8108</v>
+        <v>17686</v>
       </c>
       <c r="O167" s="3" t="n">
-        <v>8443</v>
+        <v>12651</v>
       </c>
     </row>
     <row r="168">
@@ -8477,34 +8441,34 @@
       <c r="D168" s="3" t="inlineStr"/>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:23</t>
+          <t>2024-08-18 10:40</t>
         </is>
       </c>
       <c r="F168" s="3" t="inlineStr"/>
       <c r="G168" s="3" t="n">
-        <v>125195</v>
+        <v>127814</v>
       </c>
       <c r="H168" s="3" t="n">
-        <v>80447</v>
+        <v>102178</v>
       </c>
       <c r="I168" s="3" t="n">
-        <v>1747</v>
+        <v>2032</v>
       </c>
       <c r="J168" s="3" t="n">
-        <v>78700</v>
+        <v>100146</v>
       </c>
       <c r="K168" s="3" t="inlineStr"/>
       <c r="L168" s="3" t="n">
-        <v>38975</v>
+        <v>55945</v>
       </c>
       <c r="M168" s="3" t="n">
-        <v>16011</v>
+        <v>22546</v>
       </c>
       <c r="N168" s="3" t="n">
-        <v>7824</v>
+        <v>8807</v>
       </c>
       <c r="O168" s="3" t="n">
-        <v>11953</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="169">
@@ -8620,34 +8584,34 @@
       <c r="D171" s="3" t="inlineStr"/>
       <c r="E171" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 08:54</t>
+          <t>2024-08-18 14:17</t>
         </is>
       </c>
       <c r="F171" s="3" t="inlineStr"/>
       <c r="G171" s="3" t="n">
-        <v>115146</v>
+        <v>117198</v>
       </c>
       <c r="H171" s="3" t="n">
-        <v>74346</v>
+        <v>95480</v>
       </c>
       <c r="I171" s="3" t="n">
-        <v>1900</v>
+        <v>1320</v>
       </c>
       <c r="J171" s="3" t="n">
-        <v>72446</v>
+        <v>94160</v>
       </c>
       <c r="K171" s="3" t="inlineStr"/>
       <c r="L171" s="3" t="n">
-        <v>41086</v>
+        <v>47740</v>
       </c>
       <c r="M171" s="3" t="n">
-        <v>11852</v>
+        <v>20962</v>
       </c>
       <c r="N171" s="3" t="n">
-        <v>12367</v>
+        <v>8256</v>
       </c>
       <c r="O171" s="3" t="n">
-        <v>3517</v>
+        <v>12491</v>
       </c>
     </row>
     <row r="172">
@@ -8669,34 +8633,34 @@
       <c r="D172" s="3" t="inlineStr"/>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:19</t>
+          <t>2024-08-18 12:35</t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr"/>
       <c r="G172" s="3" t="n">
-        <v>105994</v>
+        <v>107031</v>
       </c>
       <c r="H172" s="3" t="n">
-        <v>78040</v>
+        <v>66333</v>
       </c>
       <c r="I172" s="3" t="n">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="J172" s="3" t="n">
-        <v>77205</v>
+        <v>65508</v>
       </c>
       <c r="K172" s="3" t="inlineStr"/>
       <c r="L172" s="3" t="n">
-        <v>41400</v>
+        <v>37885</v>
       </c>
       <c r="M172" s="3" t="n">
-        <v>13149</v>
+        <v>10689</v>
       </c>
       <c r="N172" s="3" t="n">
-        <v>6992</v>
+        <v>8116</v>
       </c>
       <c r="O172" s="3" t="n">
-        <v>11801</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="173">
@@ -8716,34 +8680,36 @@
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr"/>
-      <c r="E173" s="3" t="n">
-        <v>0</v>
+      <c r="E173" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:47</t>
+        </is>
       </c>
       <c r="F173" s="3" t="inlineStr"/>
       <c r="G173" s="3" t="n">
-        <v>0</v>
+        <v>66282</v>
       </c>
       <c r="H173" s="3" t="n">
-        <v>0</v>
+        <v>57454</v>
       </c>
       <c r="I173" s="3" t="n">
-        <v>0</v>
+        <v>1073</v>
       </c>
       <c r="J173" s="3" t="n">
-        <v>0</v>
+        <v>56381</v>
       </c>
       <c r="K173" s="3" t="inlineStr"/>
       <c r="L173" s="3" t="n">
-        <v>0</v>
+        <v>24101</v>
       </c>
       <c r="M173" s="3" t="n">
-        <v>0</v>
+        <v>12242</v>
       </c>
       <c r="N173" s="3" t="n">
-        <v>0</v>
+        <v>7597</v>
       </c>
       <c r="O173" s="3" t="n">
-        <v>0</v>
+        <v>9619</v>
       </c>
     </row>
     <row r="174">
@@ -8763,36 +8729,34 @@
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr"/>
-      <c r="E174" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 12:28</t>
-        </is>
+      <c r="E174" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F174" s="3" t="inlineStr"/>
       <c r="G174" s="3" t="n">
-        <v>153029</v>
+        <v>0</v>
       </c>
       <c r="H174" s="3" t="n">
-        <v>104242</v>
+        <v>0</v>
       </c>
       <c r="I174" s="3" t="n">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="J174" s="3" t="n">
-        <v>101492</v>
+        <v>0</v>
       </c>
       <c r="K174" s="3" t="inlineStr"/>
       <c r="L174" s="3" t="n">
-        <v>51941</v>
+        <v>0</v>
       </c>
       <c r="M174" s="3" t="n">
-        <v>23960</v>
+        <v>0</v>
       </c>
       <c r="N174" s="3" t="n">
-        <v>18295</v>
+        <v>0</v>
       </c>
       <c r="O174" s="3" t="n">
-        <v>2218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -8812,36 +8776,34 @@
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr"/>
-      <c r="E175" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 09:59</t>
-        </is>
+      <c r="E175" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F175" s="3" t="inlineStr"/>
       <c r="G175" s="3" t="n">
-        <v>92880</v>
+        <v>0</v>
       </c>
       <c r="H175" s="3" t="n">
-        <v>74084</v>
+        <v>0</v>
       </c>
       <c r="I175" s="3" t="n">
-        <v>1341</v>
+        <v>0</v>
       </c>
       <c r="J175" s="3" t="n">
-        <v>72743</v>
+        <v>0</v>
       </c>
       <c r="K175" s="3" t="inlineStr"/>
       <c r="L175" s="3" t="n">
-        <v>31793</v>
+        <v>0</v>
       </c>
       <c r="M175" s="3" t="n">
-        <v>18330</v>
+        <v>0</v>
       </c>
       <c r="N175" s="3" t="n">
-        <v>11276</v>
+        <v>0</v>
       </c>
       <c r="O175" s="3" t="n">
-        <v>7706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -8908,36 +8870,34 @@
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr"/>
-      <c r="E177" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:58</t>
-        </is>
+      <c r="E177" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F177" s="3" t="inlineStr"/>
       <c r="G177" s="3" t="n">
-        <v>74997</v>
+        <v>0</v>
       </c>
       <c r="H177" s="3" t="n">
-        <v>66264</v>
+        <v>0</v>
       </c>
       <c r="I177" s="3" t="n">
-        <v>1508</v>
+        <v>0</v>
       </c>
       <c r="J177" s="3" t="n">
-        <v>64756</v>
+        <v>0</v>
       </c>
       <c r="K177" s="3" t="inlineStr"/>
       <c r="L177" s="3" t="n">
-        <v>28250</v>
+        <v>0</v>
       </c>
       <c r="M177" s="3" t="n">
-        <v>13724</v>
+        <v>0</v>
       </c>
       <c r="N177" s="3" t="n">
-        <v>9539</v>
+        <v>0</v>
       </c>
       <c r="O177" s="3" t="n">
-        <v>10003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -8957,34 +8917,36 @@
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr"/>
-      <c r="E178" s="3" t="n">
-        <v>0</v>
+      <c r="E178" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 16:34</t>
+        </is>
       </c>
       <c r="F178" s="3" t="inlineStr"/>
       <c r="G178" s="3" t="n">
-        <v>0</v>
+        <v>68723</v>
       </c>
       <c r="H178" s="3" t="n">
-        <v>0</v>
+        <v>57037</v>
       </c>
       <c r="I178" s="3" t="n">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="J178" s="3" t="n">
-        <v>0</v>
+        <v>56239</v>
       </c>
       <c r="K178" s="3" t="inlineStr"/>
       <c r="L178" s="3" t="n">
-        <v>0</v>
+        <v>26037</v>
       </c>
       <c r="M178" s="3" t="n">
-        <v>0</v>
+        <v>8938</v>
       </c>
       <c r="N178" s="3" t="n">
-        <v>0</v>
+        <v>9697</v>
       </c>
       <c r="O178" s="3" t="n">
-        <v>0</v>
+        <v>8753</v>
       </c>
     </row>
     <row r="179">
@@ -9004,36 +8966,34 @@
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr"/>
-      <c r="E179" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 08:30</t>
-        </is>
+      <c r="E179" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F179" s="3" t="inlineStr"/>
       <c r="G179" s="3" t="n">
-        <v>95563</v>
+        <v>0</v>
       </c>
       <c r="H179" s="3" t="n">
-        <v>84021</v>
+        <v>0</v>
       </c>
       <c r="I179" s="3" t="n">
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="J179" s="3" t="n">
-        <v>81861</v>
+        <v>0</v>
       </c>
       <c r="K179" s="3" t="inlineStr"/>
       <c r="L179" s="3" t="n">
-        <v>40315</v>
+        <v>0</v>
       </c>
       <c r="M179" s="3" t="n">
-        <v>15275</v>
+        <v>0</v>
       </c>
       <c r="N179" s="3" t="n">
-        <v>17576</v>
+        <v>0</v>
       </c>
       <c r="O179" s="3" t="n">
-        <v>4600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -9053,36 +9013,34 @@
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr"/>
-      <c r="E180" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 08:55</t>
-        </is>
+      <c r="E180" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F180" s="3" t="inlineStr"/>
       <c r="G180" s="3" t="n">
-        <v>52415</v>
+        <v>0</v>
       </c>
       <c r="H180" s="3" t="n">
-        <v>39496</v>
+        <v>0</v>
       </c>
       <c r="I180" s="3" t="n">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="J180" s="3" t="n">
-        <v>38908</v>
+        <v>0</v>
       </c>
       <c r="K180" s="3" t="inlineStr"/>
       <c r="L180" s="3" t="n">
-        <v>22343</v>
+        <v>0</v>
       </c>
       <c r="M180" s="3" t="n">
-        <v>3722</v>
+        <v>0</v>
       </c>
       <c r="N180" s="3" t="n">
-        <v>3827</v>
+        <v>0</v>
       </c>
       <c r="O180" s="3" t="n">
-        <v>7068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -9102,34 +9060,36 @@
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr"/>
-      <c r="E181" s="3" t="n">
-        <v>0</v>
+      <c r="E181" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:01</t>
+        </is>
       </c>
       <c r="F181" s="3" t="inlineStr"/>
       <c r="G181" s="3" t="n">
-        <v>0</v>
+        <v>80397</v>
       </c>
       <c r="H181" s="3" t="n">
-        <v>0</v>
+        <v>53004</v>
       </c>
       <c r="I181" s="3" t="n">
-        <v>0</v>
+        <v>1372</v>
       </c>
       <c r="J181" s="3" t="n">
-        <v>0</v>
+        <v>51632</v>
       </c>
       <c r="K181" s="3" t="inlineStr"/>
       <c r="L181" s="3" t="n">
-        <v>0</v>
+        <v>26143</v>
       </c>
       <c r="M181" s="3" t="n">
-        <v>0</v>
+        <v>7922</v>
       </c>
       <c r="N181" s="3" t="n">
-        <v>0</v>
+        <v>7195</v>
       </c>
       <c r="O181" s="3" t="n">
-        <v>0</v>
+        <v>7789</v>
       </c>
     </row>
     <row r="182">
@@ -9149,36 +9109,34 @@
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr"/>
-      <c r="E182" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:12</t>
-        </is>
+      <c r="E182" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F182" s="3" t="inlineStr"/>
       <c r="G182" s="3" t="n">
-        <v>79446</v>
+        <v>0</v>
       </c>
       <c r="H182" s="3" t="n">
-        <v>69701</v>
+        <v>0</v>
       </c>
       <c r="I182" s="3" t="n">
-        <v>1485</v>
+        <v>0</v>
       </c>
       <c r="J182" s="3" t="n">
-        <v>68216</v>
+        <v>0</v>
       </c>
       <c r="K182" s="3" t="inlineStr"/>
       <c r="L182" s="3" t="n">
-        <v>43961</v>
+        <v>0</v>
       </c>
       <c r="M182" s="3" t="n">
-        <v>6721</v>
+        <v>0</v>
       </c>
       <c r="N182" s="3" t="n">
-        <v>8039</v>
+        <v>0</v>
       </c>
       <c r="O182" s="3" t="n">
-        <v>6082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -9198,36 +9156,34 @@
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr"/>
-      <c r="E183" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 12:06</t>
-        </is>
+      <c r="E183" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F183" s="3" t="inlineStr"/>
       <c r="G183" s="3" t="n">
-        <v>69281</v>
+        <v>0</v>
       </c>
       <c r="H183" s="3" t="n">
-        <v>43207</v>
+        <v>0</v>
       </c>
       <c r="I183" s="3" t="n">
-        <v>899</v>
+        <v>0</v>
       </c>
       <c r="J183" s="3" t="n">
-        <v>42308</v>
+        <v>0</v>
       </c>
       <c r="K183" s="3" t="inlineStr"/>
       <c r="L183" s="3" t="n">
-        <v>20909</v>
+        <v>0</v>
       </c>
       <c r="M183" s="3" t="n">
-        <v>6258</v>
+        <v>0</v>
       </c>
       <c r="N183" s="3" t="n">
-        <v>7105</v>
+        <v>0</v>
       </c>
       <c r="O183" s="3" t="n">
-        <v>5919</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/prespollsl2024.xlsx
+++ b/data/prespollsl2024.xlsx
@@ -535,34 +535,34 @@
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:43</t>
+          <t>2024-08-18 18:41</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="n">
-        <v>36787</v>
+        <v>38319</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>30877</v>
+        <v>23006</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>618</v>
+        <v>563</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>30259</v>
+        <v>22443</v>
       </c>
       <c r="K2" s="3" t="inlineStr"/>
       <c r="L2" s="3" t="n">
-        <v>16084</v>
+        <v>11676</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>4378</v>
+        <v>4290</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>6271</v>
+        <v>2441</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>2011</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="3">
@@ -582,36 +582,34 @@
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 17:41</t>
-        </is>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="n">
-        <v>55859</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>49117</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>1253</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>47864</v>
+        <v>0</v>
       </c>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="n">
-        <v>26738</v>
+        <v>0</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>5843</v>
+        <v>0</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>7676</v>
+        <v>0</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>5211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -631,34 +629,36 @@
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="n">
-        <v>0</v>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:33</t>
+        </is>
       </c>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="n">
-        <v>0</v>
+        <v>40190</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>0</v>
+        <v>30770</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0</v>
+        <v>29958</v>
       </c>
       <c r="K4" s="3" t="inlineStr"/>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>13055</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0</v>
+        <v>6542</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0</v>
+        <v>6014</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="5">
@@ -727,34 +727,34 @@
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 14:33</t>
+          <t>2024-08-18 11:07</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="n">
-        <v>23829</v>
+        <v>23371</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>14668</v>
+        <v>17635</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>14406</v>
+        <v>17304</v>
       </c>
       <c r="K6" s="3" t="inlineStr"/>
       <c r="L6" s="3" t="n">
-        <v>7516</v>
+        <v>8098</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>1980</v>
+        <v>2570</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>2111</v>
+        <v>3930</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>2077</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="7">
@@ -774,34 +774,36 @@
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="n">
-        <v>0</v>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 10:34</t>
+        </is>
       </c>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="n">
-        <v>0</v>
+        <v>20220</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>0</v>
+        <v>17854</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>0</v>
+        <v>17347</v>
       </c>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="n">
-        <v>0</v>
+        <v>7652</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0</v>
+        <v>4161</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>0</v>
+        <v>3399</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>0</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="8">
@@ -821,34 +823,36 @@
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr"/>
-      <c r="E8" s="3" t="n">
-        <v>0</v>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 10:22</t>
+        </is>
       </c>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="n">
-        <v>0</v>
+        <v>44707</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>0</v>
+        <v>37369</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0</v>
+        <v>1063</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0</v>
+        <v>36306</v>
       </c>
       <c r="K8" s="3" t="inlineStr"/>
       <c r="L8" s="3" t="n">
-        <v>0</v>
+        <v>15029</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>0</v>
+        <v>7371</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>0</v>
+        <v>6627</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>0</v>
+        <v>5461</v>
       </c>
     </row>
     <row r="9">
@@ -868,34 +872,36 @@
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="n">
-        <v>0</v>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:07</t>
+        </is>
       </c>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="n">
-        <v>0</v>
+        <v>29288</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>0</v>
+        <v>18938</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>0</v>
+        <v>18732</v>
       </c>
       <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="n">
-        <v>0</v>
+        <v>11659</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>0</v>
+        <v>2376</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>0</v>
+        <v>1411</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>0</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="10">
@@ -1056,34 +1062,36 @@
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr"/>
-      <c r="E13" s="3" t="n">
-        <v>0</v>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 11:29</t>
+        </is>
       </c>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="n">
-        <v>0</v>
+        <v>13859</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>0</v>
+        <v>11995</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="K13" s="3" t="inlineStr"/>
       <c r="L13" s="3" t="n">
-        <v>0</v>
+        <v>7398</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>0</v>
+        <v>1585</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>0</v>
+        <v>1790</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>0</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14">
@@ -1103,36 +1111,34 @@
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 14:10</t>
-        </is>
+      <c r="E14" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="n">
-        <v>29725</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>20654</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>20346</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="inlineStr"/>
       <c r="L14" s="3" t="n">
-        <v>10193</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>2571</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>3643</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>2919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1199,34 +1205,36 @@
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr"/>
-      <c r="E16" s="3" t="n">
-        <v>0</v>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:47</t>
+        </is>
       </c>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="n">
-        <v>0</v>
+        <v>77238</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>0</v>
+        <v>63279</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0</v>
+        <v>1046</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0</v>
+        <v>62233</v>
       </c>
       <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="n">
-        <v>0</v>
+        <v>24719</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>0</v>
+        <v>12870</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v>0</v>
+        <v>11965</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>0</v>
+        <v>9565</v>
       </c>
     </row>
     <row r="17">
@@ -1246,34 +1254,36 @@
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr"/>
-      <c r="E17" s="3" t="n">
-        <v>0</v>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:49</t>
+        </is>
       </c>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="n">
-        <v>0</v>
+        <v>15027</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>0</v>
+        <v>9123</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>0</v>
+        <v>8991</v>
       </c>
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="n">
-        <v>0</v>
+        <v>5205</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="N17" s="3" t="n">
-        <v>0</v>
+        <v>1582</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>0</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18">
@@ -1293,34 +1303,36 @@
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="n">
-        <v>0</v>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:56</t>
+        </is>
       </c>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="n">
-        <v>0</v>
+        <v>59067</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>0</v>
+        <v>48015</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0</v>
+        <v>46912</v>
       </c>
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="n">
-        <v>0</v>
+        <v>20194</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>0</v>
+        <v>10864</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>0</v>
+        <v>10065</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>0</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="19">
@@ -1340,36 +1352,34 @@
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:15</t>
-        </is>
+      <c r="E19" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="n">
-        <v>21281</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>16461</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>16036</v>
+        <v>0</v>
       </c>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="n">
-        <v>8527</v>
+        <v>0</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>3417</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>1640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1391,34 +1401,34 @@
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 12:53</t>
+          <t>2024-08-18 19:17</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="n">
-        <v>44719</v>
+        <v>46886</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>28986</v>
+        <v>33327</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>864</v>
+        <v>456</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>28122</v>
+        <v>32871</v>
       </c>
       <c r="K20" s="3" t="inlineStr"/>
       <c r="L20" s="3" t="n">
-        <v>11952</v>
+        <v>15839</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>5681</v>
+        <v>6842</v>
       </c>
       <c r="N20" s="3" t="n">
-        <v>5013</v>
+        <v>2109</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>4068</v>
+        <v>6436</v>
       </c>
     </row>
     <row r="21">
@@ -1438,34 +1448,36 @@
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="n">
-        <v>0</v>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 10:11</t>
+        </is>
       </c>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="n">
-        <v>0</v>
+        <v>24819</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>0</v>
+        <v>21765</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>0</v>
+        <v>21353</v>
       </c>
       <c r="K21" s="3" t="inlineStr"/>
       <c r="L21" s="3" t="n">
-        <v>0</v>
+        <v>14060</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>0</v>
+        <v>4107</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>0</v>
+        <v>1613</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22">
@@ -1532,34 +1544,36 @@
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr"/>
-      <c r="E23" s="3" t="n">
-        <v>0</v>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:30</t>
+        </is>
       </c>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="n">
-        <v>0</v>
+        <v>34295</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>0</v>
+        <v>27374</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>0</v>
+        <v>26596</v>
       </c>
       <c r="K23" s="3" t="inlineStr"/>
       <c r="L23" s="3" t="n">
-        <v>0</v>
+        <v>14714</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>0</v>
+        <v>4060</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>0</v>
+        <v>5807</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>0</v>
+        <v>683</v>
       </c>
     </row>
     <row r="24">
@@ -1579,36 +1593,34 @@
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:24</t>
-        </is>
+      <c r="E24" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="n">
-        <v>93817</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>82797</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>1077</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>81720</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="inlineStr"/>
       <c r="L24" s="3" t="n">
-        <v>39521</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>13850</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>16956</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>7306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1628,34 +1640,36 @@
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr"/>
-      <c r="E25" s="3" t="n">
-        <v>0</v>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:24</t>
+        </is>
       </c>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="n">
-        <v>0</v>
+        <v>135698</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>0</v>
+        <v>117682</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>0</v>
+        <v>3518</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>0</v>
+        <v>114164</v>
       </c>
       <c r="K25" s="3" t="inlineStr"/>
       <c r="L25" s="3" t="n">
-        <v>0</v>
+        <v>58132</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>0</v>
+        <v>17373</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>0</v>
+        <v>25398</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>0</v>
+        <v>7551</v>
       </c>
     </row>
     <row r="26">
@@ -1675,36 +1689,34 @@
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr"/>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:07</t>
-        </is>
+      <c r="E26" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="n">
-        <v>63571</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>50161</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>49137</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="inlineStr"/>
       <c r="L26" s="3" t="n">
-        <v>22364</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>11622</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>9745</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>2947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1724,36 +1736,34 @@
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr"/>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:26</t>
-        </is>
+      <c r="E27" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="n">
-        <v>70794</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>62428</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>1406</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>61022</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="inlineStr"/>
       <c r="L27" s="3" t="n">
-        <v>25731</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>10959</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>9754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1775,34 +1785,34 @@
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 09:49</t>
+          <t>2024-08-18 15:32</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="n">
-        <v>43706</v>
+        <v>44963</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>34397</v>
+        <v>40098</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>748</v>
+        <v>489</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>33649</v>
+        <v>39609</v>
       </c>
       <c r="K28" s="3" t="inlineStr"/>
       <c r="L28" s="3" t="n">
-        <v>16495</v>
+        <v>20734</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>6405</v>
+        <v>3811</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>5142</v>
+        <v>7712</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>3923</v>
+        <v>5369</v>
       </c>
     </row>
     <row r="29">
@@ -1822,34 +1832,36 @@
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr"/>
-      <c r="E29" s="3" t="n">
-        <v>0</v>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:45</t>
+        </is>
       </c>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="n">
-        <v>0</v>
+        <v>66561</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>0</v>
+        <v>45809</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>0</v>
+        <v>907</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>0</v>
+        <v>44902</v>
       </c>
       <c r="K29" s="3" t="inlineStr"/>
       <c r="L29" s="3" t="n">
-        <v>0</v>
+        <v>18503</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>0</v>
+        <v>10298</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>0</v>
+        <v>7071</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>0</v>
+        <v>6782</v>
       </c>
     </row>
     <row r="30">
@@ -1916,36 +1928,34 @@
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr"/>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:29</t>
-        </is>
+      <c r="E31" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="n">
-        <v>142541</v>
+        <v>0</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>88431</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>1658</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>86773</v>
+        <v>0</v>
       </c>
       <c r="K31" s="3" t="inlineStr"/>
       <c r="L31" s="3" t="n">
-        <v>42428</v>
+        <v>0</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>21522</v>
+        <v>0</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>14972</v>
+        <v>0</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>3511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1965,34 +1975,36 @@
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr"/>
-      <c r="E32" s="3" t="n">
-        <v>0</v>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 17:08</t>
+        </is>
       </c>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="n">
-        <v>0</v>
+        <v>77316</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>0</v>
+        <v>61320</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>0</v>
+        <v>1274</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>0</v>
+        <v>60046</v>
       </c>
       <c r="K32" s="3" t="inlineStr"/>
       <c r="L32" s="3" t="n">
-        <v>0</v>
+        <v>30515</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>0</v>
+        <v>8794</v>
       </c>
       <c r="N32" s="3" t="n">
-        <v>0</v>
+        <v>11512</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>0</v>
+        <v>6222</v>
       </c>
     </row>
     <row r="33">
@@ -2012,36 +2024,34 @@
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr"/>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 12:19</t>
-        </is>
+      <c r="E33" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="n">
-        <v>192255</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>152137</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>1858</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>150279</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="inlineStr"/>
       <c r="L33" s="3" t="n">
-        <v>65692</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>24225</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="n">
-        <v>27240</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>25606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2108,34 +2118,36 @@
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr"/>
-      <c r="E35" s="3" t="n">
-        <v>0</v>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 11:19</t>
+        </is>
       </c>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="n">
-        <v>0</v>
+        <v>206082</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>0</v>
+        <v>180682</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>0</v>
+        <v>3595</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>0</v>
+        <v>177087</v>
       </c>
       <c r="K35" s="3" t="inlineStr"/>
       <c r="L35" s="3" t="n">
-        <v>0</v>
+        <v>109169</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>0</v>
+        <v>22410</v>
       </c>
       <c r="N35" s="3" t="n">
-        <v>0</v>
+        <v>24428</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>0</v>
+        <v>12223</v>
       </c>
     </row>
     <row r="36">
@@ -2155,34 +2167,36 @@
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr"/>
-      <c r="E36" s="3" t="n">
-        <v>0</v>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:04</t>
+        </is>
       </c>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="n">
-        <v>0</v>
+        <v>142845</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>0</v>
+        <v>107332</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>0</v>
+        <v>2458</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>0</v>
+        <v>104874</v>
       </c>
       <c r="K36" s="3" t="inlineStr"/>
       <c r="L36" s="3" t="n">
-        <v>0</v>
+        <v>55180</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>0</v>
+        <v>15143</v>
       </c>
       <c r="N36" s="3" t="n">
-        <v>0</v>
+        <v>13731</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>0</v>
+        <v>15574</v>
       </c>
     </row>
     <row r="37">
@@ -2249,34 +2263,36 @@
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr"/>
-      <c r="E38" s="3" t="n">
-        <v>0</v>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 11:20</t>
+        </is>
       </c>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="n">
-        <v>0</v>
+        <v>122325</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>0</v>
+        <v>98749</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>0</v>
+        <v>1083</v>
       </c>
       <c r="J38" s="3" t="n">
-        <v>0</v>
+        <v>97666</v>
       </c>
       <c r="K38" s="3" t="inlineStr"/>
       <c r="L38" s="3" t="n">
-        <v>0</v>
+        <v>46283</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>0</v>
+        <v>19945</v>
       </c>
       <c r="N38" s="3" t="n">
-        <v>0</v>
+        <v>13666</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>0</v>
+        <v>12887</v>
       </c>
     </row>
     <row r="39">
@@ -2437,36 +2453,34 @@
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr"/>
-      <c r="E42" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 12:50</t>
-        </is>
+      <c r="E42" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="n">
-        <v>117680</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>74540</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>2109</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>72431</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="inlineStr"/>
       <c r="L42" s="3" t="n">
-        <v>38027</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>11989</v>
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="n">
-        <v>15755</v>
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>3037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2533,36 +2547,34 @@
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr"/>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:42</t>
-        </is>
+      <c r="E44" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="n">
-        <v>150859</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>126385</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>3554</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>122831</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="inlineStr"/>
       <c r="L44" s="3" t="n">
-        <v>56021</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>25756</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="n">
-        <v>15620</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>19290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2582,34 +2594,36 @@
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr"/>
-      <c r="E45" s="3" t="n">
-        <v>0</v>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:42</t>
+        </is>
       </c>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="n">
-        <v>0</v>
+        <v>137518</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>0</v>
+        <v>105905</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>0</v>
+        <v>2735</v>
       </c>
       <c r="J45" s="3" t="n">
-        <v>0</v>
+        <v>103170</v>
       </c>
       <c r="K45" s="3" t="inlineStr"/>
       <c r="L45" s="3" t="n">
-        <v>0</v>
+        <v>46393</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>0</v>
+        <v>15706</v>
       </c>
       <c r="N45" s="3" t="n">
-        <v>0</v>
+        <v>20124</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>0</v>
+        <v>15787</v>
       </c>
     </row>
     <row r="46">
@@ -2676,34 +2690,36 @@
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr"/>
-      <c r="E47" s="3" t="n">
-        <v>0</v>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:59</t>
+        </is>
       </c>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="n">
-        <v>0</v>
+        <v>164651</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>0</v>
+        <v>122040</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>0</v>
+        <v>2960</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>0</v>
+        <v>119080</v>
       </c>
       <c r="K47" s="3" t="inlineStr"/>
       <c r="L47" s="3" t="n">
-        <v>0</v>
+        <v>63606</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>0</v>
+        <v>22389</v>
       </c>
       <c r="N47" s="3" t="n">
-        <v>0</v>
+        <v>17977</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>0</v>
+        <v>9151</v>
       </c>
     </row>
     <row r="48">
@@ -2723,34 +2739,36 @@
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr"/>
-      <c r="E48" s="3" t="n">
-        <v>0</v>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 20:02</t>
+        </is>
       </c>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="n">
-        <v>0</v>
+        <v>167069</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>0</v>
+        <v>114664</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>0</v>
+        <v>3109</v>
       </c>
       <c r="J48" s="3" t="n">
-        <v>0</v>
+        <v>111555</v>
       </c>
       <c r="K48" s="3" t="inlineStr"/>
       <c r="L48" s="3" t="n">
-        <v>0</v>
+        <v>65349</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>0</v>
+        <v>20875</v>
       </c>
       <c r="N48" s="3" t="n">
-        <v>0</v>
+        <v>10963</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>0</v>
+        <v>8788</v>
       </c>
     </row>
     <row r="49">
@@ -2770,34 +2788,36 @@
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr"/>
-      <c r="E49" s="3" t="n">
-        <v>0</v>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:14</t>
+        </is>
       </c>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="n">
-        <v>0</v>
+        <v>130239</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>0</v>
+        <v>96189</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>0</v>
+        <v>94789</v>
       </c>
       <c r="K49" s="3" t="inlineStr"/>
       <c r="L49" s="3" t="n">
-        <v>0</v>
+        <v>42783</v>
       </c>
       <c r="M49" s="3" t="n">
-        <v>0</v>
+        <v>14193</v>
       </c>
       <c r="N49" s="3" t="n">
-        <v>0</v>
+        <v>17666</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>0</v>
+        <v>15406</v>
       </c>
     </row>
     <row r="50">
@@ -2819,34 +2839,34 @@
       <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 16:05</t>
+          <t>2024-08-18 10:38</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="n">
-        <v>132981</v>
+        <v>143507</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>92093</v>
+        <v>88980</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>1480</v>
+        <v>1406</v>
       </c>
       <c r="J50" s="3" t="n">
-        <v>90613</v>
+        <v>87574</v>
       </c>
       <c r="K50" s="3" t="inlineStr"/>
       <c r="L50" s="3" t="n">
-        <v>46725</v>
+        <v>53760</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>20879</v>
+        <v>10802</v>
       </c>
       <c r="N50" s="3" t="n">
-        <v>8847</v>
+        <v>11042</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>9629</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="51">
@@ -2866,36 +2886,34 @@
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr"/>
-      <c r="E51" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 11:56</t>
-        </is>
+      <c r="E51" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F51" s="3" t="inlineStr"/>
       <c r="G51" s="3" t="n">
-        <v>99534</v>
+        <v>0</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>83662</v>
+        <v>0</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>1517</v>
+        <v>0</v>
       </c>
       <c r="J51" s="3" t="n">
-        <v>82145</v>
+        <v>0</v>
       </c>
       <c r="K51" s="3" t="inlineStr"/>
       <c r="L51" s="3" t="n">
-        <v>44955</v>
+        <v>0</v>
       </c>
       <c r="M51" s="3" t="n">
-        <v>23090</v>
+        <v>0</v>
       </c>
       <c r="N51" s="3" t="n">
-        <v>8345</v>
+        <v>0</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>1646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3103,36 +3121,34 @@
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr"/>
-      <c r="E56" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:26</t>
-        </is>
+      <c r="E56" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="n">
-        <v>111850</v>
+        <v>0</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>89982</v>
+        <v>0</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>2279</v>
+        <v>0</v>
       </c>
       <c r="J56" s="3" t="n">
-        <v>87703</v>
+        <v>0</v>
       </c>
       <c r="K56" s="3" t="inlineStr"/>
       <c r="L56" s="3" t="n">
-        <v>36685</v>
+        <v>0</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>16242</v>
+        <v>0</v>
       </c>
       <c r="N56" s="3" t="n">
-        <v>19233</v>
+        <v>0</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>11157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3152,36 +3168,34 @@
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr"/>
-      <c r="E57" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 11:00</t>
-        </is>
+      <c r="E57" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="inlineStr"/>
       <c r="G57" s="3" t="n">
-        <v>121033</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>102595</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>1280</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="n">
-        <v>101315</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="inlineStr"/>
       <c r="L57" s="3" t="n">
-        <v>46913</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="n">
-        <v>18844</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="n">
-        <v>16326</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>14164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3203,34 +3217,34 @@
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 15:09</t>
+          <t>2024-08-18 15:44</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="n">
-        <v>129513</v>
+        <v>135358</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>87710</v>
+        <v>83695</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>2151</v>
+        <v>2506</v>
       </c>
       <c r="J58" s="3" t="n">
-        <v>85559</v>
+        <v>81189</v>
       </c>
       <c r="K58" s="3" t="inlineStr"/>
       <c r="L58" s="3" t="n">
-        <v>42435</v>
+        <v>47296</v>
       </c>
       <c r="M58" s="3" t="n">
-        <v>17325</v>
+        <v>11737</v>
       </c>
       <c r="N58" s="3" t="n">
-        <v>6894</v>
+        <v>6806</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>14625</v>
+        <v>11288</v>
       </c>
     </row>
     <row r="59">
@@ -3297,34 +3311,36 @@
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr"/>
-      <c r="E60" s="3" t="n">
-        <v>0</v>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 13:44</t>
+        </is>
       </c>
       <c r="F60" s="3" t="inlineStr"/>
       <c r="G60" s="3" t="n">
-        <v>0</v>
+        <v>53063</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>0</v>
+        <v>31881</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="J60" s="3" t="n">
-        <v>0</v>
+        <v>31459</v>
       </c>
       <c r="K60" s="3" t="inlineStr"/>
       <c r="L60" s="3" t="n">
-        <v>0</v>
+        <v>15891</v>
       </c>
       <c r="M60" s="3" t="n">
-        <v>0</v>
+        <v>6218</v>
       </c>
       <c r="N60" s="3" t="n">
-        <v>0</v>
+        <v>4729</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>0</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="61">
@@ -3391,34 +3407,36 @@
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr"/>
-      <c r="E62" s="3" t="n">
-        <v>0</v>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 17:36</t>
+        </is>
       </c>
       <c r="F62" s="3" t="inlineStr"/>
       <c r="G62" s="3" t="n">
-        <v>0</v>
+        <v>95294</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>0</v>
+        <v>72241</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>0</v>
+        <v>956</v>
       </c>
       <c r="J62" s="3" t="n">
-        <v>0</v>
+        <v>71285</v>
       </c>
       <c r="K62" s="3" t="inlineStr"/>
       <c r="L62" s="3" t="n">
-        <v>0</v>
+        <v>36080</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>0</v>
+        <v>8503</v>
       </c>
       <c r="N62" s="3" t="n">
-        <v>0</v>
+        <v>12790</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>0</v>
+        <v>10345</v>
       </c>
     </row>
     <row r="63">
@@ -3485,34 +3503,36 @@
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr"/>
-      <c r="E64" s="3" t="n">
-        <v>0</v>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:36</t>
+        </is>
       </c>
       <c r="F64" s="3" t="inlineStr"/>
       <c r="G64" s="3" t="n">
-        <v>0</v>
+        <v>49178</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>0</v>
+        <v>35664</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="J64" s="3" t="n">
-        <v>0</v>
+        <v>34889</v>
       </c>
       <c r="K64" s="3" t="inlineStr"/>
       <c r="L64" s="3" t="n">
-        <v>0</v>
+        <v>19392</v>
       </c>
       <c r="M64" s="3" t="n">
-        <v>0</v>
+        <v>3335</v>
       </c>
       <c r="N64" s="3" t="n">
-        <v>0</v>
+        <v>5366</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>0</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="65">
@@ -3581,34 +3601,34 @@
       <c r="D66" s="3" t="inlineStr"/>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 15:29</t>
+          <t>2024-08-18 19:31</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="n">
-        <v>73312</v>
+        <v>75751</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>64953</v>
+        <v>62146</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>863</v>
+        <v>663</v>
       </c>
       <c r="J66" s="3" t="n">
-        <v>64090</v>
+        <v>61483</v>
       </c>
       <c r="K66" s="3" t="inlineStr"/>
       <c r="L66" s="3" t="n">
-        <v>34324</v>
+        <v>30823</v>
       </c>
       <c r="M66" s="3" t="n">
-        <v>9648</v>
+        <v>11545</v>
       </c>
       <c r="N66" s="3" t="n">
-        <v>8224</v>
+        <v>5913</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>8688</v>
+        <v>10126</v>
       </c>
     </row>
     <row r="67">
@@ -3675,34 +3695,36 @@
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr"/>
-      <c r="E68" s="3" t="n">
-        <v>0</v>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:28</t>
+        </is>
       </c>
       <c r="F68" s="3" t="inlineStr"/>
       <c r="G68" s="3" t="n">
-        <v>0</v>
+        <v>41842</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>0</v>
+        <v>36421</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="J68" s="3" t="n">
-        <v>0</v>
+        <v>35492</v>
       </c>
       <c r="K68" s="3" t="inlineStr"/>
       <c r="L68" s="3" t="n">
-        <v>0</v>
+        <v>17415</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>0</v>
+        <v>5710</v>
       </c>
       <c r="N68" s="3" t="n">
-        <v>0</v>
+        <v>6310</v>
       </c>
       <c r="O68" s="3" t="n">
-        <v>0</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="69">
@@ -3724,34 +3746,34 @@
       <c r="D69" s="3" t="inlineStr"/>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 14:53</t>
+          <t>2024-08-18 12:57</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr"/>
       <c r="G69" s="3" t="n">
-        <v>85569</v>
+        <v>86004</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>76573</v>
+        <v>61336</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>2089</v>
+        <v>1525</v>
       </c>
       <c r="J69" s="3" t="n">
-        <v>74484</v>
+        <v>59811</v>
       </c>
       <c r="K69" s="3" t="inlineStr"/>
       <c r="L69" s="3" t="n">
-        <v>43582</v>
+        <v>29981</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>13805</v>
+        <v>12472</v>
       </c>
       <c r="N69" s="3" t="n">
-        <v>7918</v>
+        <v>10505</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>5452</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="70">
@@ -3771,34 +3793,36 @@
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr"/>
-      <c r="E70" s="3" t="n">
-        <v>0</v>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:44</t>
+        </is>
       </c>
       <c r="F70" s="3" t="inlineStr"/>
       <c r="G70" s="3" t="n">
-        <v>0</v>
+        <v>92854</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>0</v>
+        <v>81037</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>0</v>
+        <v>1509</v>
       </c>
       <c r="J70" s="3" t="n">
-        <v>0</v>
+        <v>79528</v>
       </c>
       <c r="K70" s="3" t="inlineStr"/>
       <c r="L70" s="3" t="n">
-        <v>0</v>
+        <v>44227</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>0</v>
+        <v>15364</v>
       </c>
       <c r="N70" s="3" t="n">
-        <v>0</v>
+        <v>6482</v>
       </c>
       <c r="O70" s="3" t="n">
-        <v>0</v>
+        <v>9476</v>
       </c>
     </row>
     <row r="71">
@@ -3867,34 +3891,34 @@
       <c r="D72" s="3" t="inlineStr"/>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 09:54</t>
+          <t>2024-08-18 09:18</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr"/>
       <c r="G72" s="3" t="n">
-        <v>103109</v>
+        <v>105019</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>69264</v>
+        <v>78032</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>1377</v>
+        <v>1078</v>
       </c>
       <c r="J72" s="3" t="n">
-        <v>67887</v>
+        <v>76954</v>
       </c>
       <c r="K72" s="3" t="inlineStr"/>
       <c r="L72" s="3" t="n">
-        <v>36677</v>
+        <v>49104</v>
       </c>
       <c r="M72" s="3" t="n">
-        <v>11512</v>
+        <v>15052</v>
       </c>
       <c r="N72" s="3" t="n">
-        <v>4703</v>
+        <v>5022</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>11598</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="73">
@@ -3914,34 +3938,36 @@
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr"/>
-      <c r="E73" s="3" t="n">
-        <v>0</v>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:19</t>
+        </is>
       </c>
       <c r="F73" s="3" t="inlineStr"/>
       <c r="G73" s="3" t="n">
-        <v>0</v>
+        <v>136288</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>0</v>
+        <v>83499</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>0</v>
+        <v>2120</v>
       </c>
       <c r="J73" s="3" t="n">
-        <v>0</v>
+        <v>81379</v>
       </c>
       <c r="K73" s="3" t="inlineStr"/>
       <c r="L73" s="3" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="M73" s="3" t="n">
-        <v>0</v>
+        <v>15455</v>
       </c>
       <c r="N73" s="3" t="n">
-        <v>0</v>
+        <v>10282</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>0</v>
+        <v>11528</v>
       </c>
     </row>
     <row r="74">
@@ -4104,34 +4130,34 @@
       <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 19:40</t>
+          <t>2024-08-18 17:22</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="n">
-        <v>348915</v>
+        <v>343682</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>312477</v>
+        <v>267161</v>
       </c>
       <c r="I77" s="3" t="n">
-        <v>6005</v>
+        <v>5993</v>
       </c>
       <c r="J77" s="3" t="n">
-        <v>306472</v>
+        <v>261168</v>
       </c>
       <c r="K77" s="3" t="inlineStr"/>
       <c r="L77" s="3" t="n">
-        <v>158726</v>
+        <v>129205</v>
       </c>
       <c r="M77" s="3" t="n">
-        <v>75804</v>
+        <v>52558</v>
       </c>
       <c r="N77" s="3" t="n">
-        <v>37030</v>
+        <v>44507</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>19587</v>
+        <v>21839</v>
       </c>
     </row>
     <row r="78">
@@ -4151,36 +4177,34 @@
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr"/>
-      <c r="E78" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 13:20</t>
-        </is>
+      <c r="E78" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F78" s="3" t="inlineStr"/>
       <c r="G78" s="3" t="n">
-        <v>86063</v>
+        <v>0</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>63330</v>
+        <v>0</v>
       </c>
       <c r="I78" s="3" t="n">
-        <v>1134</v>
+        <v>0</v>
       </c>
       <c r="J78" s="3" t="n">
-        <v>62196</v>
+        <v>0</v>
       </c>
       <c r="K78" s="3" t="inlineStr"/>
       <c r="L78" s="3" t="n">
-        <v>34075</v>
+        <v>0</v>
       </c>
       <c r="M78" s="3" t="n">
-        <v>7227</v>
+        <v>0</v>
       </c>
       <c r="N78" s="3" t="n">
-        <v>16127</v>
+        <v>0</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>1656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -4200,34 +4224,36 @@
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr"/>
-      <c r="E79" s="3" t="n">
-        <v>0</v>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:17</t>
+        </is>
       </c>
       <c r="F79" s="3" t="inlineStr"/>
       <c r="G79" s="3" t="n">
-        <v>0</v>
+        <v>72401</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>0</v>
+        <v>54393</v>
       </c>
       <c r="I79" s="3" t="n">
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="J79" s="3" t="n">
-        <v>0</v>
+        <v>53159</v>
       </c>
       <c r="K79" s="3" t="inlineStr"/>
       <c r="L79" s="3" t="n">
-        <v>0</v>
+        <v>31993</v>
       </c>
       <c r="M79" s="3" t="n">
-        <v>0</v>
+        <v>6586</v>
       </c>
       <c r="N79" s="3" t="n">
-        <v>0</v>
+        <v>4192</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>0</v>
+        <v>7728</v>
       </c>
     </row>
     <row r="80">
@@ -4388,36 +4414,34 @@
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr"/>
-      <c r="E83" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 14:54</t>
-        </is>
+      <c r="E83" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="inlineStr"/>
       <c r="G83" s="3" t="n">
-        <v>81921</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>63187</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="n">
-        <v>1577</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="n">
-        <v>61610</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="inlineStr"/>
       <c r="L83" s="3" t="n">
-        <v>31714</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="n">
-        <v>11436</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="n">
-        <v>12279</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="n">
-        <v>3099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -4437,34 +4461,36 @@
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr"/>
-      <c r="E84" s="3" t="n">
-        <v>0</v>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:19</t>
+        </is>
       </c>
       <c r="F84" s="3" t="inlineStr"/>
       <c r="G84" s="3" t="n">
-        <v>0</v>
+        <v>97998</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>0</v>
+        <v>71296</v>
       </c>
       <c r="I84" s="3" t="n">
-        <v>0</v>
+        <v>1880</v>
       </c>
       <c r="J84" s="3" t="n">
-        <v>0</v>
+        <v>69416</v>
       </c>
       <c r="K84" s="3" t="inlineStr"/>
       <c r="L84" s="3" t="n">
-        <v>0</v>
+        <v>37835</v>
       </c>
       <c r="M84" s="3" t="n">
-        <v>0</v>
+        <v>15896</v>
       </c>
       <c r="N84" s="3" t="n">
-        <v>0</v>
+        <v>7131</v>
       </c>
       <c r="O84" s="3" t="n">
-        <v>0</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="85">
@@ -4578,34 +4604,36 @@
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr"/>
-      <c r="E87" s="3" t="n">
-        <v>0</v>
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 10:18</t>
+        </is>
       </c>
       <c r="F87" s="3" t="inlineStr"/>
       <c r="G87" s="3" t="n">
-        <v>0</v>
+        <v>80808</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>0</v>
+        <v>62924</v>
       </c>
       <c r="I87" s="3" t="n">
-        <v>0</v>
+        <v>1764</v>
       </c>
       <c r="J87" s="3" t="n">
-        <v>0</v>
+        <v>61160</v>
       </c>
       <c r="K87" s="3" t="inlineStr"/>
       <c r="L87" s="3" t="n">
-        <v>0</v>
+        <v>35484</v>
       </c>
       <c r="M87" s="3" t="n">
-        <v>0</v>
+        <v>7407</v>
       </c>
       <c r="N87" s="3" t="n">
-        <v>0</v>
+        <v>7227</v>
       </c>
       <c r="O87" s="3" t="n">
-        <v>0</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="88">
@@ -4625,34 +4653,36 @@
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr"/>
-      <c r="E88" s="3" t="n">
-        <v>0</v>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:36</t>
+        </is>
       </c>
       <c r="F88" s="3" t="inlineStr"/>
       <c r="G88" s="3" t="n">
-        <v>0</v>
+        <v>85813</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>0</v>
+        <v>53740</v>
       </c>
       <c r="I88" s="3" t="n">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="J88" s="3" t="n">
-        <v>0</v>
+        <v>53079</v>
       </c>
       <c r="K88" s="3" t="inlineStr"/>
       <c r="L88" s="3" t="n">
-        <v>0</v>
+        <v>28127</v>
       </c>
       <c r="M88" s="3" t="n">
-        <v>0</v>
+        <v>12772</v>
       </c>
       <c r="N88" s="3" t="n">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="O88" s="3" t="n">
-        <v>0</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="89">
@@ -4860,36 +4890,34 @@
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr"/>
-      <c r="E93" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:41</t>
-        </is>
+      <c r="E93" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F93" s="3" t="inlineStr"/>
       <c r="G93" s="3" t="n">
-        <v>97880</v>
+        <v>0</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>86306</v>
+        <v>0</v>
       </c>
       <c r="I93" s="3" t="n">
-        <v>1675</v>
+        <v>0</v>
       </c>
       <c r="J93" s="3" t="n">
-        <v>84631</v>
+        <v>0</v>
       </c>
       <c r="K93" s="3" t="inlineStr"/>
       <c r="L93" s="3" t="n">
-        <v>39829</v>
+        <v>0</v>
       </c>
       <c r="M93" s="3" t="n">
-        <v>16398</v>
+        <v>0</v>
       </c>
       <c r="N93" s="3" t="n">
-        <v>15050</v>
+        <v>0</v>
       </c>
       <c r="O93" s="3" t="n">
-        <v>9120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4911,34 +4939,34 @@
       <c r="D94" s="3" t="inlineStr"/>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:55</t>
+          <t>2024-08-18 12:09</t>
         </is>
       </c>
       <c r="F94" s="3" t="inlineStr"/>
       <c r="G94" s="3" t="n">
-        <v>80493</v>
+        <v>82820</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>53933</v>
+        <v>53676</v>
       </c>
       <c r="I94" s="3" t="n">
-        <v>1182</v>
+        <v>1223</v>
       </c>
       <c r="J94" s="3" t="n">
-        <v>52751</v>
+        <v>52453</v>
       </c>
       <c r="K94" s="3" t="inlineStr"/>
       <c r="L94" s="3" t="n">
-        <v>30419</v>
+        <v>24104</v>
       </c>
       <c r="M94" s="3" t="n">
-        <v>6824</v>
+        <v>10868</v>
       </c>
       <c r="N94" s="3" t="n">
-        <v>3636</v>
+        <v>4214</v>
       </c>
       <c r="O94" s="3" t="n">
-        <v>9234</v>
+        <v>10642</v>
       </c>
     </row>
     <row r="95">
@@ -5005,34 +5033,36 @@
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr"/>
-      <c r="E96" s="3" t="n">
-        <v>0</v>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:15</t>
+        </is>
       </c>
       <c r="F96" s="3" t="inlineStr"/>
       <c r="G96" s="3" t="n">
-        <v>0</v>
+        <v>90013</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>0</v>
+        <v>68825</v>
       </c>
       <c r="I96" s="3" t="n">
-        <v>0</v>
+        <v>1799</v>
       </c>
       <c r="J96" s="3" t="n">
-        <v>0</v>
+        <v>67026</v>
       </c>
       <c r="K96" s="3" t="inlineStr"/>
       <c r="L96" s="3" t="n">
-        <v>0</v>
+        <v>36059</v>
       </c>
       <c r="M96" s="3" t="n">
-        <v>0</v>
+        <v>13166</v>
       </c>
       <c r="N96" s="3" t="n">
-        <v>0</v>
+        <v>7642</v>
       </c>
       <c r="O96" s="3" t="n">
-        <v>0</v>
+        <v>6805</v>
       </c>
     </row>
     <row r="97">
@@ -5052,36 +5082,34 @@
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr"/>
-      <c r="E97" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:35</t>
-        </is>
+      <c r="E97" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F97" s="3" t="inlineStr"/>
       <c r="G97" s="3" t="n">
-        <v>96678</v>
+        <v>0</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>77086</v>
+        <v>0</v>
       </c>
       <c r="I97" s="3" t="n">
-        <v>1127</v>
+        <v>0</v>
       </c>
       <c r="J97" s="3" t="n">
-        <v>75959</v>
+        <v>0</v>
       </c>
       <c r="K97" s="3" t="inlineStr"/>
       <c r="L97" s="3" t="n">
-        <v>35431</v>
+        <v>0</v>
       </c>
       <c r="M97" s="3" t="n">
-        <v>13258</v>
+        <v>0</v>
       </c>
       <c r="N97" s="3" t="n">
-        <v>13396</v>
+        <v>0</v>
       </c>
       <c r="O97" s="3" t="n">
-        <v>10074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -5336,34 +5364,36 @@
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr"/>
-      <c r="E103" s="3" t="n">
-        <v>0</v>
+      <c r="E103" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:08</t>
+        </is>
       </c>
       <c r="F103" s="3" t="inlineStr"/>
       <c r="G103" s="3" t="n">
-        <v>0</v>
+        <v>53144</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>0</v>
+        <v>37785</v>
       </c>
       <c r="I103" s="3" t="n">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="J103" s="3" t="n">
-        <v>0</v>
+        <v>37193</v>
       </c>
       <c r="K103" s="3" t="inlineStr"/>
       <c r="L103" s="3" t="n">
-        <v>0</v>
+        <v>16507</v>
       </c>
       <c r="M103" s="3" t="n">
-        <v>0</v>
+        <v>7907</v>
       </c>
       <c r="N103" s="3" t="n">
-        <v>0</v>
+        <v>6125</v>
       </c>
       <c r="O103" s="3" t="n">
-        <v>0</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="104">
@@ -5759,34 +5789,36 @@
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr"/>
-      <c r="E112" s="3" t="n">
-        <v>0</v>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:19</t>
+        </is>
       </c>
       <c r="F112" s="3" t="inlineStr"/>
       <c r="G112" s="3" t="n">
-        <v>0</v>
+        <v>94637</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>0</v>
+        <v>62103</v>
       </c>
       <c r="I112" s="3" t="n">
-        <v>0</v>
+        <v>1488</v>
       </c>
       <c r="J112" s="3" t="n">
-        <v>0</v>
+        <v>60615</v>
       </c>
       <c r="K112" s="3" t="inlineStr"/>
       <c r="L112" s="3" t="n">
-        <v>0</v>
+        <v>30233</v>
       </c>
       <c r="M112" s="3" t="n">
-        <v>0</v>
+        <v>15982</v>
       </c>
       <c r="N112" s="3" t="n">
-        <v>0</v>
+        <v>5043</v>
       </c>
       <c r="O112" s="3" t="n">
-        <v>0</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="113">
@@ -5808,34 +5840,34 @@
       <c r="D113" s="3" t="inlineStr"/>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:57</t>
+          <t>2024-08-18 09:32</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr"/>
       <c r="G113" s="3" t="n">
-        <v>82389</v>
+        <v>85694</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>60509</v>
+        <v>69813</v>
       </c>
       <c r="I113" s="3" t="n">
-        <v>1432</v>
+        <v>1180</v>
       </c>
       <c r="J113" s="3" t="n">
-        <v>59077</v>
+        <v>68633</v>
       </c>
       <c r="K113" s="3" t="inlineStr"/>
       <c r="L113" s="3" t="n">
-        <v>29212</v>
+        <v>33534</v>
       </c>
       <c r="M113" s="3" t="n">
-        <v>13646</v>
+        <v>14909</v>
       </c>
       <c r="N113" s="3" t="n">
-        <v>9257</v>
+        <v>7217</v>
       </c>
       <c r="O113" s="3" t="n">
-        <v>4007</v>
+        <v>9539</v>
       </c>
     </row>
     <row r="114">
@@ -5857,34 +5889,34 @@
       <c r="D114" s="3" t="inlineStr"/>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 18:20</t>
+          <t>2024-08-18 16:55</t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr"/>
       <c r="G114" s="3" t="n">
-        <v>115199</v>
+        <v>123982</v>
       </c>
       <c r="H114" s="3" t="n">
-        <v>101503</v>
+        <v>74499</v>
       </c>
       <c r="I114" s="3" t="n">
-        <v>2429</v>
+        <v>1529</v>
       </c>
       <c r="J114" s="3" t="n">
-        <v>99074</v>
+        <v>72970</v>
       </c>
       <c r="K114" s="3" t="inlineStr"/>
       <c r="L114" s="3" t="n">
-        <v>42949</v>
+        <v>44860</v>
       </c>
       <c r="M114" s="3" t="n">
-        <v>19382</v>
+        <v>6889</v>
       </c>
       <c r="N114" s="3" t="n">
-        <v>16889</v>
+        <v>9686</v>
       </c>
       <c r="O114" s="3" t="n">
-        <v>14899</v>
+        <v>7885</v>
       </c>
     </row>
     <row r="115">
@@ -5906,34 +5938,34 @@
       <c r="D115" s="3" t="inlineStr"/>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 15:36</t>
+          <t>2024-08-18 13:31</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr"/>
       <c r="G115" s="3" t="n">
-        <v>78290</v>
+        <v>80574</v>
       </c>
       <c r="H115" s="3" t="n">
-        <v>66306</v>
+        <v>62235</v>
       </c>
       <c r="I115" s="3" t="n">
-        <v>949</v>
+        <v>1075</v>
       </c>
       <c r="J115" s="3" t="n">
-        <v>65357</v>
+        <v>61160</v>
       </c>
       <c r="K115" s="3" t="inlineStr"/>
       <c r="L115" s="3" t="n">
-        <v>41122</v>
+        <v>29475</v>
       </c>
       <c r="M115" s="3" t="n">
-        <v>9434</v>
+        <v>10747</v>
       </c>
       <c r="N115" s="3" t="n">
-        <v>6000</v>
+        <v>8403</v>
       </c>
       <c r="O115" s="3" t="n">
-        <v>5532</v>
+        <v>9475</v>
       </c>
     </row>
     <row r="116">
@@ -5953,34 +5985,36 @@
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr"/>
-      <c r="E116" s="3" t="n">
-        <v>0</v>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 16:29</t>
+        </is>
       </c>
       <c r="F116" s="3" t="inlineStr"/>
       <c r="G116" s="3" t="n">
-        <v>0</v>
+        <v>124780</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>0</v>
+        <v>90583</v>
       </c>
       <c r="I116" s="3" t="n">
-        <v>0</v>
+        <v>1834</v>
       </c>
       <c r="J116" s="3" t="n">
-        <v>0</v>
+        <v>88749</v>
       </c>
       <c r="K116" s="3" t="inlineStr"/>
       <c r="L116" s="3" t="n">
-        <v>0</v>
+        <v>43326</v>
       </c>
       <c r="M116" s="3" t="n">
-        <v>0</v>
+        <v>9841</v>
       </c>
       <c r="N116" s="3" t="n">
-        <v>0</v>
+        <v>16923</v>
       </c>
       <c r="O116" s="3" t="n">
-        <v>0</v>
+        <v>14220</v>
       </c>
     </row>
     <row r="117">
@@ -6000,34 +6034,36 @@
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr"/>
-      <c r="E117" s="3" t="n">
-        <v>0</v>
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:46</t>
+        </is>
       </c>
       <c r="F117" s="3" t="inlineStr"/>
       <c r="G117" s="3" t="n">
-        <v>0</v>
+        <v>199028</v>
       </c>
       <c r="H117" s="3" t="n">
-        <v>0</v>
+        <v>161630</v>
       </c>
       <c r="I117" s="3" t="n">
-        <v>0</v>
+        <v>4438</v>
       </c>
       <c r="J117" s="3" t="n">
-        <v>0</v>
+        <v>157192</v>
       </c>
       <c r="K117" s="3" t="inlineStr"/>
       <c r="L117" s="3" t="n">
-        <v>0</v>
+        <v>69744</v>
       </c>
       <c r="M117" s="3" t="n">
-        <v>0</v>
+        <v>36751</v>
       </c>
       <c r="N117" s="3" t="n">
-        <v>0</v>
+        <v>20332</v>
       </c>
       <c r="O117" s="3" t="n">
-        <v>0</v>
+        <v>22503</v>
       </c>
     </row>
     <row r="118">
@@ -6096,34 +6132,34 @@
       <c r="D119" s="3" t="inlineStr"/>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 12:04</t>
+          <t>2024-08-18 08:36</t>
         </is>
       </c>
       <c r="F119" s="3" t="inlineStr"/>
       <c r="G119" s="3" t="n">
-        <v>170733</v>
+        <v>163241</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>130755</v>
+        <v>139471</v>
       </c>
       <c r="I119" s="3" t="n">
-        <v>2598</v>
+        <v>3872</v>
       </c>
       <c r="J119" s="3" t="n">
-        <v>128157</v>
+        <v>135599</v>
       </c>
       <c r="K119" s="3" t="inlineStr"/>
       <c r="L119" s="3" t="n">
-        <v>66809</v>
+        <v>66159</v>
       </c>
       <c r="M119" s="3" t="n">
-        <v>22177</v>
+        <v>15587</v>
       </c>
       <c r="N119" s="3" t="n">
-        <v>27273</v>
+        <v>19150</v>
       </c>
       <c r="O119" s="3" t="n">
-        <v>5488</v>
+        <v>27921</v>
       </c>
     </row>
     <row r="120">
@@ -6145,34 +6181,34 @@
       <c r="D120" s="3" t="inlineStr"/>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:54</t>
+          <t>2024-08-18 17:32</t>
         </is>
       </c>
       <c r="F120" s="3" t="inlineStr"/>
       <c r="G120" s="3" t="n">
-        <v>94485</v>
+        <v>94808</v>
       </c>
       <c r="H120" s="3" t="n">
-        <v>73362</v>
+        <v>83677</v>
       </c>
       <c r="I120" s="3" t="n">
-        <v>936</v>
+        <v>1114</v>
       </c>
       <c r="J120" s="3" t="n">
-        <v>72426</v>
+        <v>82563</v>
       </c>
       <c r="K120" s="3" t="inlineStr"/>
       <c r="L120" s="3" t="n">
-        <v>38493</v>
+        <v>38970</v>
       </c>
       <c r="M120" s="3" t="n">
-        <v>18521</v>
+        <v>16127</v>
       </c>
       <c r="N120" s="3" t="n">
-        <v>6687</v>
+        <v>10945</v>
       </c>
       <c r="O120" s="3" t="n">
-        <v>5102</v>
+        <v>12390</v>
       </c>
     </row>
     <row r="121">
@@ -6194,34 +6230,34 @@
       <c r="D121" s="3" t="inlineStr"/>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 19:19</t>
+          <t>2024-08-18 11:46</t>
         </is>
       </c>
       <c r="F121" s="3" t="inlineStr"/>
       <c r="G121" s="3" t="n">
-        <v>80726</v>
+        <v>79593</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>53164</v>
+        <v>61596</v>
       </c>
       <c r="I121" s="3" t="n">
-        <v>1250</v>
+        <v>659</v>
       </c>
       <c r="J121" s="3" t="n">
-        <v>51914</v>
+        <v>60937</v>
       </c>
       <c r="K121" s="3" t="inlineStr"/>
       <c r="L121" s="3" t="n">
-        <v>25202</v>
+        <v>30396</v>
       </c>
       <c r="M121" s="3" t="n">
-        <v>13722</v>
+        <v>12876</v>
       </c>
       <c r="N121" s="3" t="n">
-        <v>8008</v>
+        <v>12337</v>
       </c>
       <c r="O121" s="3" t="n">
-        <v>2385</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="122">
@@ -6288,34 +6324,36 @@
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr"/>
-      <c r="E123" s="3" t="n">
-        <v>0</v>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:06</t>
+        </is>
       </c>
       <c r="F123" s="3" t="inlineStr"/>
       <c r="G123" s="3" t="n">
-        <v>0</v>
+        <v>78406</v>
       </c>
       <c r="H123" s="3" t="n">
-        <v>0</v>
+        <v>69412</v>
       </c>
       <c r="I123" s="3" t="n">
-        <v>0</v>
+        <v>1705</v>
       </c>
       <c r="J123" s="3" t="n">
-        <v>0</v>
+        <v>67707</v>
       </c>
       <c r="K123" s="3" t="inlineStr"/>
       <c r="L123" s="3" t="n">
-        <v>0</v>
+        <v>32079</v>
       </c>
       <c r="M123" s="3" t="n">
-        <v>0</v>
+        <v>12358</v>
       </c>
       <c r="N123" s="3" t="n">
-        <v>0</v>
+        <v>11415</v>
       </c>
       <c r="O123" s="3" t="n">
-        <v>0</v>
+        <v>8468</v>
       </c>
     </row>
     <row r="124">
@@ -6382,36 +6420,34 @@
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr"/>
-      <c r="E125" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 13:23</t>
-        </is>
+      <c r="E125" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F125" s="3" t="inlineStr"/>
       <c r="G125" s="3" t="n">
-        <v>111932</v>
+        <v>0</v>
       </c>
       <c r="H125" s="3" t="n">
-        <v>85312</v>
+        <v>0</v>
       </c>
       <c r="I125" s="3" t="n">
-        <v>1613</v>
+        <v>0</v>
       </c>
       <c r="J125" s="3" t="n">
-        <v>83699</v>
+        <v>0</v>
       </c>
       <c r="K125" s="3" t="inlineStr"/>
       <c r="L125" s="3" t="n">
-        <v>43199</v>
+        <v>0</v>
       </c>
       <c r="M125" s="3" t="n">
-        <v>14788</v>
+        <v>0</v>
       </c>
       <c r="N125" s="3" t="n">
-        <v>11708</v>
+        <v>0</v>
       </c>
       <c r="O125" s="3" t="n">
-        <v>9817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -6431,34 +6467,36 @@
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr"/>
-      <c r="E126" s="3" t="n">
-        <v>0</v>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 11:29</t>
+        </is>
       </c>
       <c r="F126" s="3" t="inlineStr"/>
       <c r="G126" s="3" t="n">
-        <v>0</v>
+        <v>109464</v>
       </c>
       <c r="H126" s="3" t="n">
-        <v>0</v>
+        <v>98174</v>
       </c>
       <c r="I126" s="3" t="n">
-        <v>0</v>
+        <v>1570</v>
       </c>
       <c r="J126" s="3" t="n">
-        <v>0</v>
+        <v>96604</v>
       </c>
       <c r="K126" s="3" t="inlineStr"/>
       <c r="L126" s="3" t="n">
-        <v>0</v>
+        <v>45554</v>
       </c>
       <c r="M126" s="3" t="n">
-        <v>0</v>
+        <v>26334</v>
       </c>
       <c r="N126" s="3" t="n">
-        <v>0</v>
+        <v>15470</v>
       </c>
       <c r="O126" s="3" t="n">
-        <v>0</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="127">
@@ -6478,34 +6516,36 @@
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr"/>
-      <c r="E127" s="3" t="n">
-        <v>0</v>
+      <c r="E127" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 08:20</t>
+        </is>
       </c>
       <c r="F127" s="3" t="inlineStr"/>
       <c r="G127" s="3" t="n">
-        <v>0</v>
+        <v>94592</v>
       </c>
       <c r="H127" s="3" t="n">
-        <v>0</v>
+        <v>71907</v>
       </c>
       <c r="I127" s="3" t="n">
-        <v>0</v>
+        <v>1261</v>
       </c>
       <c r="J127" s="3" t="n">
-        <v>0</v>
+        <v>70646</v>
       </c>
       <c r="K127" s="3" t="inlineStr"/>
       <c r="L127" s="3" t="n">
-        <v>0</v>
+        <v>31155</v>
       </c>
       <c r="M127" s="3" t="n">
-        <v>0</v>
+        <v>13584</v>
       </c>
       <c r="N127" s="3" t="n">
-        <v>0</v>
+        <v>11103</v>
       </c>
       <c r="O127" s="3" t="n">
-        <v>0</v>
+        <v>11269</v>
       </c>
     </row>
     <row r="128">
@@ -6525,34 +6565,36 @@
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr"/>
-      <c r="E128" s="3" t="n">
-        <v>0</v>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:13</t>
+        </is>
       </c>
       <c r="F128" s="3" t="inlineStr"/>
       <c r="G128" s="3" t="n">
-        <v>0</v>
+        <v>113718</v>
       </c>
       <c r="H128" s="3" t="n">
-        <v>0</v>
+        <v>89722</v>
       </c>
       <c r="I128" s="3" t="n">
-        <v>0</v>
+        <v>1415</v>
       </c>
       <c r="J128" s="3" t="n">
-        <v>0</v>
+        <v>88307</v>
       </c>
       <c r="K128" s="3" t="inlineStr"/>
       <c r="L128" s="3" t="n">
-        <v>0</v>
+        <v>44351</v>
       </c>
       <c r="M128" s="3" t="n">
-        <v>0</v>
+        <v>17132</v>
       </c>
       <c r="N128" s="3" t="n">
-        <v>0</v>
+        <v>9515</v>
       </c>
       <c r="O128" s="3" t="n">
-        <v>0</v>
+        <v>12893</v>
       </c>
     </row>
     <row r="129">
@@ -6619,34 +6661,36 @@
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr"/>
-      <c r="E130" s="3" t="n">
-        <v>0</v>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:22</t>
+        </is>
       </c>
       <c r="F130" s="3" t="inlineStr"/>
       <c r="G130" s="3" t="n">
-        <v>0</v>
+        <v>80317</v>
       </c>
       <c r="H130" s="3" t="n">
-        <v>0</v>
+        <v>70089</v>
       </c>
       <c r="I130" s="3" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="J130" s="3" t="n">
-        <v>0</v>
+        <v>69100</v>
       </c>
       <c r="K130" s="3" t="inlineStr"/>
       <c r="L130" s="3" t="n">
-        <v>0</v>
+        <v>34424</v>
       </c>
       <c r="M130" s="3" t="n">
-        <v>0</v>
+        <v>12582</v>
       </c>
       <c r="N130" s="3" t="n">
-        <v>0</v>
+        <v>13607</v>
       </c>
       <c r="O130" s="3" t="n">
-        <v>0</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="131">
@@ -6715,34 +6759,34 @@
       <c r="D132" s="3" t="inlineStr"/>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 14:13</t>
+          <t>2024-08-18 12:37</t>
         </is>
       </c>
       <c r="F132" s="3" t="inlineStr"/>
       <c r="G132" s="3" t="n">
-        <v>92090</v>
+        <v>95119</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>73985</v>
+        <v>64558</v>
       </c>
       <c r="I132" s="3" t="n">
-        <v>1174</v>
+        <v>1034</v>
       </c>
       <c r="J132" s="3" t="n">
-        <v>72811</v>
+        <v>63524</v>
       </c>
       <c r="K132" s="3" t="inlineStr"/>
       <c r="L132" s="3" t="n">
-        <v>38179</v>
+        <v>28642</v>
       </c>
       <c r="M132" s="3" t="n">
-        <v>14294</v>
+        <v>14611</v>
       </c>
       <c r="N132" s="3" t="n">
-        <v>10474</v>
+        <v>12324</v>
       </c>
       <c r="O132" s="3" t="n">
-        <v>6222</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="133">
@@ -6764,34 +6808,34 @@
       <c r="D133" s="3" t="inlineStr"/>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 08:56</t>
+          <t>2024-08-18 19:07</t>
         </is>
       </c>
       <c r="F133" s="3" t="inlineStr"/>
       <c r="G133" s="3" t="n">
-        <v>97196</v>
+        <v>103717</v>
       </c>
       <c r="H133" s="3" t="n">
-        <v>64176</v>
+        <v>92058</v>
       </c>
       <c r="I133" s="3" t="n">
-        <v>741</v>
+        <v>1404</v>
       </c>
       <c r="J133" s="3" t="n">
-        <v>63435</v>
+        <v>90654</v>
       </c>
       <c r="K133" s="3" t="inlineStr"/>
       <c r="L133" s="3" t="n">
-        <v>31002</v>
+        <v>45856</v>
       </c>
       <c r="M133" s="3" t="n">
-        <v>12550</v>
+        <v>22475</v>
       </c>
       <c r="N133" s="3" t="n">
-        <v>11434</v>
+        <v>12087</v>
       </c>
       <c r="O133" s="3" t="n">
-        <v>5276</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="134">
@@ -6811,36 +6855,34 @@
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr"/>
-      <c r="E134" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 09:51</t>
-        </is>
+      <c r="E134" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F134" s="3" t="inlineStr"/>
       <c r="G134" s="3" t="n">
-        <v>107821</v>
+        <v>0</v>
       </c>
       <c r="H134" s="3" t="n">
-        <v>86600</v>
+        <v>0</v>
       </c>
       <c r="I134" s="3" t="n">
-        <v>1812</v>
+        <v>0</v>
       </c>
       <c r="J134" s="3" t="n">
-        <v>84788</v>
+        <v>0</v>
       </c>
       <c r="K134" s="3" t="inlineStr"/>
       <c r="L134" s="3" t="n">
-        <v>45174</v>
+        <v>0</v>
       </c>
       <c r="M134" s="3" t="n">
-        <v>11125</v>
+        <v>0</v>
       </c>
       <c r="N134" s="3" t="n">
-        <v>9443</v>
+        <v>0</v>
       </c>
       <c r="O134" s="3" t="n">
-        <v>14804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -6860,36 +6902,34 @@
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr"/>
-      <c r="E135" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 14:26</t>
-        </is>
+      <c r="E135" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F135" s="3" t="inlineStr"/>
       <c r="G135" s="3" t="n">
-        <v>101148</v>
+        <v>0</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>78700</v>
+        <v>0</v>
       </c>
       <c r="I135" s="3" t="n">
-        <v>2302</v>
+        <v>0</v>
       </c>
       <c r="J135" s="3" t="n">
-        <v>76398</v>
+        <v>0</v>
       </c>
       <c r="K135" s="3" t="inlineStr"/>
       <c r="L135" s="3" t="n">
-        <v>39254</v>
+        <v>0</v>
       </c>
       <c r="M135" s="3" t="n">
-        <v>11529</v>
+        <v>0</v>
       </c>
       <c r="N135" s="3" t="n">
-        <v>12328</v>
+        <v>0</v>
       </c>
       <c r="O135" s="3" t="n">
-        <v>9465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -6909,36 +6949,34 @@
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr"/>
-      <c r="E136" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:24</t>
-        </is>
+      <c r="E136" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F136" s="3" t="inlineStr"/>
       <c r="G136" s="3" t="n">
-        <v>84468</v>
+        <v>0</v>
       </c>
       <c r="H136" s="3" t="n">
-        <v>65349</v>
+        <v>0</v>
       </c>
       <c r="I136" s="3" t="n">
-        <v>1562</v>
+        <v>0</v>
       </c>
       <c r="J136" s="3" t="n">
-        <v>63787</v>
+        <v>0</v>
       </c>
       <c r="K136" s="3" t="inlineStr"/>
       <c r="L136" s="3" t="n">
-        <v>36280</v>
+        <v>0</v>
       </c>
       <c r="M136" s="3" t="n">
-        <v>8743</v>
+        <v>0</v>
       </c>
       <c r="N136" s="3" t="n">
-        <v>5762</v>
+        <v>0</v>
       </c>
       <c r="O136" s="3" t="n">
-        <v>9811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -6958,34 +6996,36 @@
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr"/>
-      <c r="E137" s="3" t="n">
-        <v>0</v>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 09:48</t>
+        </is>
       </c>
       <c r="F137" s="3" t="inlineStr"/>
       <c r="G137" s="3" t="n">
-        <v>0</v>
+        <v>93793</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>0</v>
+        <v>66510</v>
       </c>
       <c r="I137" s="3" t="n">
-        <v>0</v>
+        <v>1763</v>
       </c>
       <c r="J137" s="3" t="n">
-        <v>0</v>
+        <v>64747</v>
       </c>
       <c r="K137" s="3" t="inlineStr"/>
       <c r="L137" s="3" t="n">
-        <v>0</v>
+        <v>33736</v>
       </c>
       <c r="M137" s="3" t="n">
-        <v>0</v>
+        <v>7468</v>
       </c>
       <c r="N137" s="3" t="n">
-        <v>0</v>
+        <v>11260</v>
       </c>
       <c r="O137" s="3" t="n">
-        <v>0</v>
+        <v>9044</v>
       </c>
     </row>
     <row r="138">
@@ -7099,36 +7139,34 @@
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr"/>
-      <c r="E140" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 08:23</t>
-        </is>
+      <c r="E140" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F140" s="3" t="inlineStr"/>
       <c r="G140" s="3" t="n">
-        <v>152274</v>
+        <v>0</v>
       </c>
       <c r="H140" s="3" t="n">
-        <v>127693</v>
+        <v>0</v>
       </c>
       <c r="I140" s="3" t="n">
-        <v>2633</v>
+        <v>0</v>
       </c>
       <c r="J140" s="3" t="n">
-        <v>125060</v>
+        <v>0</v>
       </c>
       <c r="K140" s="3" t="inlineStr"/>
       <c r="L140" s="3" t="n">
-        <v>67722</v>
+        <v>0</v>
       </c>
       <c r="M140" s="3" t="n">
-        <v>16924</v>
+        <v>0</v>
       </c>
       <c r="N140" s="3" t="n">
-        <v>17147</v>
+        <v>0</v>
       </c>
       <c r="O140" s="3" t="n">
-        <v>17012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -7289,36 +7327,34 @@
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr"/>
-      <c r="E144" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 08:11</t>
-        </is>
+      <c r="E144" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F144" s="3" t="inlineStr"/>
       <c r="G144" s="3" t="n">
-        <v>116359</v>
+        <v>0</v>
       </c>
       <c r="H144" s="3" t="n">
-        <v>80320</v>
+        <v>0</v>
       </c>
       <c r="I144" s="3" t="n">
-        <v>806</v>
+        <v>0</v>
       </c>
       <c r="J144" s="3" t="n">
-        <v>79514</v>
+        <v>0</v>
       </c>
       <c r="K144" s="3" t="inlineStr"/>
       <c r="L144" s="3" t="n">
-        <v>42765</v>
+        <v>0</v>
       </c>
       <c r="M144" s="3" t="n">
-        <v>15221</v>
+        <v>0</v>
       </c>
       <c r="N144" s="3" t="n">
-        <v>6047</v>
+        <v>0</v>
       </c>
       <c r="O144" s="3" t="n">
-        <v>11504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -7340,34 +7376,34 @@
       <c r="D145" s="3" t="inlineStr"/>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:27</t>
+          <t>2024-08-18 15:00</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr"/>
       <c r="G145" s="3" t="n">
-        <v>90133</v>
+        <v>88612</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>77700</v>
+        <v>62541</v>
       </c>
       <c r="I145" s="3" t="n">
-        <v>1179</v>
+        <v>1446</v>
       </c>
       <c r="J145" s="3" t="n">
-        <v>76521</v>
+        <v>61095</v>
       </c>
       <c r="K145" s="3" t="inlineStr"/>
       <c r="L145" s="3" t="n">
-        <v>36680</v>
+        <v>27297</v>
       </c>
       <c r="M145" s="3" t="n">
-        <v>10323</v>
+        <v>11717</v>
       </c>
       <c r="N145" s="3" t="n">
-        <v>13256</v>
+        <v>8043</v>
       </c>
       <c r="O145" s="3" t="n">
-        <v>12433</v>
+        <v>10982</v>
       </c>
     </row>
     <row r="146">
@@ -7434,34 +7470,36 @@
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr"/>
-      <c r="E147" s="3" t="n">
-        <v>0</v>
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:55</t>
+        </is>
       </c>
       <c r="F147" s="3" t="inlineStr"/>
       <c r="G147" s="3" t="n">
-        <v>0</v>
+        <v>104571</v>
       </c>
       <c r="H147" s="3" t="n">
-        <v>0</v>
+        <v>78749</v>
       </c>
       <c r="I147" s="3" t="n">
-        <v>0</v>
+        <v>1977</v>
       </c>
       <c r="J147" s="3" t="n">
-        <v>0</v>
+        <v>76772</v>
       </c>
       <c r="K147" s="3" t="inlineStr"/>
       <c r="L147" s="3" t="n">
-        <v>0</v>
+        <v>34526</v>
       </c>
       <c r="M147" s="3" t="n">
-        <v>0</v>
+        <v>15682</v>
       </c>
       <c r="N147" s="3" t="n">
-        <v>0</v>
+        <v>13467</v>
       </c>
       <c r="O147" s="3" t="n">
-        <v>0</v>
+        <v>9256</v>
       </c>
     </row>
     <row r="148">
@@ -7481,36 +7519,34 @@
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr"/>
-      <c r="E148" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 12:11</t>
-        </is>
+      <c r="E148" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F148" s="3" t="inlineStr"/>
       <c r="G148" s="3" t="n">
-        <v>107730</v>
+        <v>0</v>
       </c>
       <c r="H148" s="3" t="n">
-        <v>96681</v>
+        <v>0</v>
       </c>
       <c r="I148" s="3" t="n">
-        <v>2817</v>
+        <v>0</v>
       </c>
       <c r="J148" s="3" t="n">
-        <v>93864</v>
+        <v>0</v>
       </c>
       <c r="K148" s="3" t="inlineStr"/>
       <c r="L148" s="3" t="n">
-        <v>51187</v>
+        <v>0</v>
       </c>
       <c r="M148" s="3" t="n">
-        <v>12265</v>
+        <v>0</v>
       </c>
       <c r="N148" s="3" t="n">
-        <v>11128</v>
+        <v>0</v>
       </c>
       <c r="O148" s="3" t="n">
-        <v>14589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -7624,36 +7660,34 @@
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr"/>
-      <c r="E151" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:31</t>
-        </is>
+      <c r="E151" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F151" s="3" t="inlineStr"/>
       <c r="G151" s="3" t="n">
-        <v>85707</v>
+        <v>0</v>
       </c>
       <c r="H151" s="3" t="n">
-        <v>60954</v>
+        <v>0</v>
       </c>
       <c r="I151" s="3" t="n">
-        <v>1340</v>
+        <v>0</v>
       </c>
       <c r="J151" s="3" t="n">
-        <v>59614</v>
+        <v>0</v>
       </c>
       <c r="K151" s="3" t="inlineStr"/>
       <c r="L151" s="3" t="n">
-        <v>26014</v>
+        <v>0</v>
       </c>
       <c r="M151" s="3" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="N151" s="3" t="n">
-        <v>11462</v>
+        <v>0</v>
       </c>
       <c r="O151" s="3" t="n">
-        <v>6656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -7673,34 +7707,36 @@
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr"/>
-      <c r="E152" s="3" t="n">
-        <v>0</v>
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 17:58</t>
+        </is>
       </c>
       <c r="F152" s="3" t="inlineStr"/>
       <c r="G152" s="3" t="n">
-        <v>0</v>
+        <v>90434</v>
       </c>
       <c r="H152" s="3" t="n">
-        <v>0</v>
+        <v>76308</v>
       </c>
       <c r="I152" s="3" t="n">
-        <v>0</v>
+        <v>1941</v>
       </c>
       <c r="J152" s="3" t="n">
-        <v>0</v>
+        <v>74367</v>
       </c>
       <c r="K152" s="3" t="inlineStr"/>
       <c r="L152" s="3" t="n">
-        <v>0</v>
+        <v>40962</v>
       </c>
       <c r="M152" s="3" t="n">
-        <v>0</v>
+        <v>7569</v>
       </c>
       <c r="N152" s="3" t="n">
-        <v>0</v>
+        <v>13186</v>
       </c>
       <c r="O152" s="3" t="n">
-        <v>0</v>
+        <v>8930</v>
       </c>
     </row>
     <row r="153">
@@ -7720,36 +7756,34 @@
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr"/>
-      <c r="E153" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 11:10</t>
-        </is>
+      <c r="E153" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F153" s="3" t="inlineStr"/>
       <c r="G153" s="3" t="n">
-        <v>78361</v>
+        <v>0</v>
       </c>
       <c r="H153" s="3" t="n">
-        <v>58200</v>
+        <v>0</v>
       </c>
       <c r="I153" s="3" t="n">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="J153" s="3" t="n">
-        <v>57605</v>
+        <v>0</v>
       </c>
       <c r="K153" s="3" t="inlineStr"/>
       <c r="L153" s="3" t="n">
-        <v>26791</v>
+        <v>0</v>
       </c>
       <c r="M153" s="3" t="n">
-        <v>13652</v>
+        <v>0</v>
       </c>
       <c r="N153" s="3" t="n">
-        <v>9727</v>
+        <v>0</v>
       </c>
       <c r="O153" s="3" t="n">
-        <v>4553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -7863,34 +7897,36 @@
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr"/>
-      <c r="E156" s="3" t="n">
-        <v>0</v>
+      <c r="E156" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 13:02</t>
+        </is>
       </c>
       <c r="F156" s="3" t="inlineStr"/>
       <c r="G156" s="3" t="n">
-        <v>0</v>
+        <v>52867</v>
       </c>
       <c r="H156" s="3" t="n">
-        <v>0</v>
+        <v>40917</v>
       </c>
       <c r="I156" s="3" t="n">
-        <v>0</v>
+        <v>1204</v>
       </c>
       <c r="J156" s="3" t="n">
-        <v>0</v>
+        <v>39713</v>
       </c>
       <c r="K156" s="3" t="inlineStr"/>
       <c r="L156" s="3" t="n">
-        <v>0</v>
+        <v>21601</v>
       </c>
       <c r="M156" s="3" t="n">
-        <v>0</v>
+        <v>11096</v>
       </c>
       <c r="N156" s="3" t="n">
-        <v>0</v>
+        <v>3656</v>
       </c>
       <c r="O156" s="3" t="n">
-        <v>0</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="157">
@@ -7910,34 +7946,36 @@
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr"/>
-      <c r="E157" s="3" t="n">
-        <v>0</v>
+      <c r="E157" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:19</t>
+        </is>
       </c>
       <c r="F157" s="3" t="inlineStr"/>
       <c r="G157" s="3" t="n">
-        <v>0</v>
+        <v>69443</v>
       </c>
       <c r="H157" s="3" t="n">
-        <v>0</v>
+        <v>51673</v>
       </c>
       <c r="I157" s="3" t="n">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="J157" s="3" t="n">
-        <v>0</v>
+        <v>50448</v>
       </c>
       <c r="K157" s="3" t="inlineStr"/>
       <c r="L157" s="3" t="n">
-        <v>0</v>
+        <v>26632</v>
       </c>
       <c r="M157" s="3" t="n">
-        <v>0</v>
+        <v>12063</v>
       </c>
       <c r="N157" s="3" t="n">
-        <v>0</v>
+        <v>7532</v>
       </c>
       <c r="O157" s="3" t="n">
-        <v>0</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="158">
@@ -7959,34 +7997,34 @@
       <c r="D158" s="3" t="inlineStr"/>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 09:14</t>
+          <t>2024-08-18 13:33</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr"/>
       <c r="G158" s="3" t="n">
-        <v>58342</v>
+        <v>56823</v>
       </c>
       <c r="H158" s="3" t="n">
-        <v>44698</v>
+        <v>36595</v>
       </c>
       <c r="I158" s="3" t="n">
-        <v>847</v>
+        <v>771</v>
       </c>
       <c r="J158" s="3" t="n">
-        <v>43851</v>
+        <v>35824</v>
       </c>
       <c r="K158" s="3" t="inlineStr"/>
       <c r="L158" s="3" t="n">
-        <v>23541</v>
+        <v>21565</v>
       </c>
       <c r="M158" s="3" t="n">
-        <v>8203</v>
+        <v>4121</v>
       </c>
       <c r="N158" s="3" t="n">
-        <v>3825</v>
+        <v>3658</v>
       </c>
       <c r="O158" s="3" t="n">
-        <v>6088</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="159">
@@ -8008,34 +8046,34 @@
       <c r="D159" s="3" t="inlineStr"/>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 11:58</t>
+          <t>2024-08-18 15:16</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr"/>
       <c r="G159" s="3" t="n">
-        <v>76511</v>
+        <v>74389</v>
       </c>
       <c r="H159" s="3" t="n">
-        <v>58719</v>
+        <v>65887</v>
       </c>
       <c r="I159" s="3" t="n">
-        <v>1668</v>
+        <v>1790</v>
       </c>
       <c r="J159" s="3" t="n">
-        <v>57051</v>
+        <v>64097</v>
       </c>
       <c r="K159" s="3" t="inlineStr"/>
       <c r="L159" s="3" t="n">
-        <v>33057</v>
+        <v>29748</v>
       </c>
       <c r="M159" s="3" t="n">
-        <v>6082</v>
+        <v>13524</v>
       </c>
       <c r="N159" s="3" t="n">
-        <v>7286</v>
+        <v>9417</v>
       </c>
       <c r="O159" s="3" t="n">
-        <v>7770</v>
+        <v>8202</v>
       </c>
     </row>
     <row r="160">
@@ -8104,34 +8142,34 @@
       <c r="D161" s="3" t="inlineStr"/>
       <c r="E161" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 15:31</t>
+          <t>2024-08-18 17:05</t>
         </is>
       </c>
       <c r="F161" s="3" t="inlineStr"/>
       <c r="G161" s="3" t="n">
-        <v>76780</v>
+        <v>76596</v>
       </c>
       <c r="H161" s="3" t="n">
-        <v>68098</v>
+        <v>64832</v>
       </c>
       <c r="I161" s="3" t="n">
-        <v>688</v>
+        <v>1860</v>
       </c>
       <c r="J161" s="3" t="n">
-        <v>67410</v>
+        <v>62972</v>
       </c>
       <c r="K161" s="3" t="inlineStr"/>
       <c r="L161" s="3" t="n">
-        <v>36227</v>
+        <v>38643</v>
       </c>
       <c r="M161" s="3" t="n">
-        <v>15700</v>
+        <v>10317</v>
       </c>
       <c r="N161" s="3" t="n">
-        <v>7296</v>
+        <v>8779</v>
       </c>
       <c r="O161" s="3" t="n">
-        <v>4814</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="162">
@@ -8151,36 +8189,34 @@
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr"/>
-      <c r="E162" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:26</t>
-        </is>
+      <c r="E162" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F162" s="3" t="inlineStr"/>
       <c r="G162" s="3" t="n">
-        <v>91624</v>
+        <v>0</v>
       </c>
       <c r="H162" s="3" t="n">
-        <v>64577</v>
+        <v>0</v>
       </c>
       <c r="I162" s="3" t="n">
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="J162" s="3" t="n">
-        <v>63840</v>
+        <v>0</v>
       </c>
       <c r="K162" s="3" t="inlineStr"/>
       <c r="L162" s="3" t="n">
-        <v>30594</v>
+        <v>0</v>
       </c>
       <c r="M162" s="3" t="n">
-        <v>15435</v>
+        <v>0</v>
       </c>
       <c r="N162" s="3" t="n">
-        <v>10316</v>
+        <v>0</v>
       </c>
       <c r="O162" s="3" t="n">
-        <v>4301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -8202,34 +8238,34 @@
       <c r="D163" s="3" t="inlineStr"/>
       <c r="E163" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 20:00</t>
+          <t>2024-08-18 12:51</t>
         </is>
       </c>
       <c r="F163" s="3" t="inlineStr"/>
       <c r="G163" s="3" t="n">
-        <v>71190</v>
+        <v>67785</v>
       </c>
       <c r="H163" s="3" t="n">
-        <v>43432</v>
+        <v>45407</v>
       </c>
       <c r="I163" s="3" t="n">
-        <v>775</v>
+        <v>1242</v>
       </c>
       <c r="J163" s="3" t="n">
-        <v>42657</v>
+        <v>44165</v>
       </c>
       <c r="K163" s="3" t="inlineStr"/>
       <c r="L163" s="3" t="n">
-        <v>20231</v>
+        <v>24608</v>
       </c>
       <c r="M163" s="3" t="n">
-        <v>8555</v>
+        <v>10510</v>
       </c>
       <c r="N163" s="3" t="n">
-        <v>6026</v>
+        <v>5317</v>
       </c>
       <c r="O163" s="3" t="n">
-        <v>5711</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="164">
@@ -8296,34 +8332,36 @@
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr"/>
-      <c r="E165" s="3" t="n">
-        <v>0</v>
+      <c r="E165" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:51</t>
+        </is>
       </c>
       <c r="F165" s="3" t="inlineStr"/>
       <c r="G165" s="3" t="n">
-        <v>0</v>
+        <v>110889</v>
       </c>
       <c r="H165" s="3" t="n">
-        <v>0</v>
+        <v>88024</v>
       </c>
       <c r="I165" s="3" t="n">
-        <v>0</v>
+        <v>2344</v>
       </c>
       <c r="J165" s="3" t="n">
-        <v>0</v>
+        <v>85680</v>
       </c>
       <c r="K165" s="3" t="inlineStr"/>
       <c r="L165" s="3" t="n">
-        <v>0</v>
+        <v>37507</v>
       </c>
       <c r="M165" s="3" t="n">
-        <v>0</v>
+        <v>9251</v>
       </c>
       <c r="N165" s="3" t="n">
-        <v>0</v>
+        <v>18379</v>
       </c>
       <c r="O165" s="3" t="n">
-        <v>0</v>
+        <v>16257</v>
       </c>
     </row>
     <row r="166">
@@ -8343,34 +8381,36 @@
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr"/>
-      <c r="E166" s="3" t="n">
-        <v>0</v>
+      <c r="E166" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 08:17</t>
+        </is>
       </c>
       <c r="F166" s="3" t="inlineStr"/>
       <c r="G166" s="3" t="n">
-        <v>0</v>
+        <v>164676</v>
       </c>
       <c r="H166" s="3" t="n">
-        <v>0</v>
+        <v>109630</v>
       </c>
       <c r="I166" s="3" t="n">
-        <v>0</v>
+        <v>1377</v>
       </c>
       <c r="J166" s="3" t="n">
-        <v>0</v>
+        <v>108253</v>
       </c>
       <c r="K166" s="3" t="inlineStr"/>
       <c r="L166" s="3" t="n">
-        <v>0</v>
+        <v>44700</v>
       </c>
       <c r="M166" s="3" t="n">
-        <v>0</v>
+        <v>17394</v>
       </c>
       <c r="N166" s="3" t="n">
-        <v>0</v>
+        <v>24540</v>
       </c>
       <c r="O166" s="3" t="n">
-        <v>0</v>
+        <v>16204</v>
       </c>
     </row>
     <row r="167">
@@ -8390,36 +8430,34 @@
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr"/>
-      <c r="E167" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:03</t>
-        </is>
+      <c r="E167" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F167" s="3" t="inlineStr"/>
       <c r="G167" s="3" t="n">
-        <v>104933</v>
+        <v>0</v>
       </c>
       <c r="H167" s="3" t="n">
-        <v>84573</v>
+        <v>0</v>
       </c>
       <c r="I167" s="3" t="n">
-        <v>2212</v>
+        <v>0</v>
       </c>
       <c r="J167" s="3" t="n">
-        <v>82361</v>
+        <v>0</v>
       </c>
       <c r="K167" s="3" t="inlineStr"/>
       <c r="L167" s="3" t="n">
-        <v>37471</v>
+        <v>0</v>
       </c>
       <c r="M167" s="3" t="n">
-        <v>10433</v>
+        <v>0</v>
       </c>
       <c r="N167" s="3" t="n">
-        <v>17686</v>
+        <v>0</v>
       </c>
       <c r="O167" s="3" t="n">
-        <v>12651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -8439,36 +8477,34 @@
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr"/>
-      <c r="E168" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 10:40</t>
-        </is>
+      <c r="E168" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F168" s="3" t="inlineStr"/>
       <c r="G168" s="3" t="n">
-        <v>127814</v>
+        <v>0</v>
       </c>
       <c r="H168" s="3" t="n">
-        <v>102178</v>
+        <v>0</v>
       </c>
       <c r="I168" s="3" t="n">
-        <v>2032</v>
+        <v>0</v>
       </c>
       <c r="J168" s="3" t="n">
-        <v>100146</v>
+        <v>0</v>
       </c>
       <c r="K168" s="3" t="inlineStr"/>
       <c r="L168" s="3" t="n">
-        <v>55945</v>
+        <v>0</v>
       </c>
       <c r="M168" s="3" t="n">
-        <v>22546</v>
+        <v>0</v>
       </c>
       <c r="N168" s="3" t="n">
-        <v>8807</v>
+        <v>0</v>
       </c>
       <c r="O168" s="3" t="n">
-        <v>7838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -8582,36 +8618,34 @@
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr"/>
-      <c r="E171" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 14:17</t>
-        </is>
+      <c r="E171" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F171" s="3" t="inlineStr"/>
       <c r="G171" s="3" t="n">
-        <v>117198</v>
+        <v>0</v>
       </c>
       <c r="H171" s="3" t="n">
-        <v>95480</v>
+        <v>0</v>
       </c>
       <c r="I171" s="3" t="n">
-        <v>1320</v>
+        <v>0</v>
       </c>
       <c r="J171" s="3" t="n">
-        <v>94160</v>
+        <v>0</v>
       </c>
       <c r="K171" s="3" t="inlineStr"/>
       <c r="L171" s="3" t="n">
-        <v>47740</v>
+        <v>0</v>
       </c>
       <c r="M171" s="3" t="n">
-        <v>20962</v>
+        <v>0</v>
       </c>
       <c r="N171" s="3" t="n">
-        <v>8256</v>
+        <v>0</v>
       </c>
       <c r="O171" s="3" t="n">
-        <v>12491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -8631,36 +8665,34 @@
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr"/>
-      <c r="E172" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 12:35</t>
-        </is>
+      <c r="E172" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F172" s="3" t="inlineStr"/>
       <c r="G172" s="3" t="n">
-        <v>107031</v>
+        <v>0</v>
       </c>
       <c r="H172" s="3" t="n">
-        <v>66333</v>
+        <v>0</v>
       </c>
       <c r="I172" s="3" t="n">
-        <v>825</v>
+        <v>0</v>
       </c>
       <c r="J172" s="3" t="n">
-        <v>65508</v>
+        <v>0</v>
       </c>
       <c r="K172" s="3" t="inlineStr"/>
       <c r="L172" s="3" t="n">
-        <v>37885</v>
+        <v>0</v>
       </c>
       <c r="M172" s="3" t="n">
-        <v>10689</v>
+        <v>0</v>
       </c>
       <c r="N172" s="3" t="n">
-        <v>8116</v>
+        <v>0</v>
       </c>
       <c r="O172" s="3" t="n">
-        <v>5541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -8680,36 +8712,34 @@
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr"/>
-      <c r="E173" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:47</t>
-        </is>
+      <c r="E173" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F173" s="3" t="inlineStr"/>
       <c r="G173" s="3" t="n">
-        <v>66282</v>
+        <v>0</v>
       </c>
       <c r="H173" s="3" t="n">
-        <v>57454</v>
+        <v>0</v>
       </c>
       <c r="I173" s="3" t="n">
-        <v>1073</v>
+        <v>0</v>
       </c>
       <c r="J173" s="3" t="n">
-        <v>56381</v>
+        <v>0</v>
       </c>
       <c r="K173" s="3" t="inlineStr"/>
       <c r="L173" s="3" t="n">
-        <v>24101</v>
+        <v>0</v>
       </c>
       <c r="M173" s="3" t="n">
-        <v>12242</v>
+        <v>0</v>
       </c>
       <c r="N173" s="3" t="n">
-        <v>7597</v>
+        <v>0</v>
       </c>
       <c r="O173" s="3" t="n">
-        <v>9619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -8729,34 +8759,36 @@
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr"/>
-      <c r="E174" s="3" t="n">
-        <v>0</v>
+      <c r="E174" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 17:06</t>
+        </is>
       </c>
       <c r="F174" s="3" t="inlineStr"/>
       <c r="G174" s="3" t="n">
-        <v>0</v>
+        <v>150122</v>
       </c>
       <c r="H174" s="3" t="n">
-        <v>0</v>
+        <v>91683</v>
       </c>
       <c r="I174" s="3" t="n">
-        <v>0</v>
+        <v>1464</v>
       </c>
       <c r="J174" s="3" t="n">
-        <v>0</v>
+        <v>90219</v>
       </c>
       <c r="K174" s="3" t="inlineStr"/>
       <c r="L174" s="3" t="n">
-        <v>0</v>
+        <v>53704</v>
       </c>
       <c r="M174" s="3" t="n">
-        <v>0</v>
+        <v>15480</v>
       </c>
       <c r="N174" s="3" t="n">
-        <v>0</v>
+        <v>9904</v>
       </c>
       <c r="O174" s="3" t="n">
-        <v>0</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="175">
@@ -8823,34 +8855,36 @@
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr"/>
-      <c r="E176" s="3" t="n">
-        <v>0</v>
+      <c r="E176" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 17:08</t>
+        </is>
       </c>
       <c r="F176" s="3" t="inlineStr"/>
       <c r="G176" s="3" t="n">
-        <v>0</v>
+        <v>66417</v>
       </c>
       <c r="H176" s="3" t="n">
-        <v>0</v>
+        <v>43829</v>
       </c>
       <c r="I176" s="3" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="J176" s="3" t="n">
-        <v>0</v>
+        <v>43085</v>
       </c>
       <c r="K176" s="3" t="inlineStr"/>
       <c r="L176" s="3" t="n">
-        <v>0</v>
+        <v>21586</v>
       </c>
       <c r="M176" s="3" t="n">
-        <v>0</v>
+        <v>7663</v>
       </c>
       <c r="N176" s="3" t="n">
-        <v>0</v>
+        <v>7099</v>
       </c>
       <c r="O176" s="3" t="n">
-        <v>0</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="177">
@@ -8870,34 +8904,36 @@
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr"/>
-      <c r="E177" s="3" t="n">
-        <v>0</v>
+      <c r="E177" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:07</t>
+        </is>
       </c>
       <c r="F177" s="3" t="inlineStr"/>
       <c r="G177" s="3" t="n">
-        <v>0</v>
+        <v>70834</v>
       </c>
       <c r="H177" s="3" t="n">
-        <v>0</v>
+        <v>52306</v>
       </c>
       <c r="I177" s="3" t="n">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="J177" s="3" t="n">
-        <v>0</v>
+        <v>51360</v>
       </c>
       <c r="K177" s="3" t="inlineStr"/>
       <c r="L177" s="3" t="n">
-        <v>0</v>
+        <v>31540</v>
       </c>
       <c r="M177" s="3" t="n">
-        <v>0</v>
+        <v>5753</v>
       </c>
       <c r="N177" s="3" t="n">
-        <v>0</v>
+        <v>7337</v>
       </c>
       <c r="O177" s="3" t="n">
-        <v>0</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="178">
@@ -8917,36 +8953,34 @@
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr"/>
-      <c r="E178" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:34</t>
-        </is>
+      <c r="E178" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F178" s="3" t="inlineStr"/>
       <c r="G178" s="3" t="n">
-        <v>68723</v>
+        <v>0</v>
       </c>
       <c r="H178" s="3" t="n">
-        <v>57037</v>
+        <v>0</v>
       </c>
       <c r="I178" s="3" t="n">
-        <v>798</v>
+        <v>0</v>
       </c>
       <c r="J178" s="3" t="n">
-        <v>56239</v>
+        <v>0</v>
       </c>
       <c r="K178" s="3" t="inlineStr"/>
       <c r="L178" s="3" t="n">
-        <v>26037</v>
+        <v>0</v>
       </c>
       <c r="M178" s="3" t="n">
-        <v>8938</v>
+        <v>0</v>
       </c>
       <c r="N178" s="3" t="n">
-        <v>9697</v>
+        <v>0</v>
       </c>
       <c r="O178" s="3" t="n">
-        <v>8753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -8966,34 +9000,36 @@
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr"/>
-      <c r="E179" s="3" t="n">
-        <v>0</v>
+      <c r="E179" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:15</t>
+        </is>
       </c>
       <c r="F179" s="3" t="inlineStr"/>
       <c r="G179" s="3" t="n">
-        <v>0</v>
+        <v>101375</v>
       </c>
       <c r="H179" s="3" t="n">
-        <v>0</v>
+        <v>87474</v>
       </c>
       <c r="I179" s="3" t="n">
-        <v>0</v>
+        <v>1434</v>
       </c>
       <c r="J179" s="3" t="n">
-        <v>0</v>
+        <v>86040</v>
       </c>
       <c r="K179" s="3" t="inlineStr"/>
       <c r="L179" s="3" t="n">
-        <v>0</v>
+        <v>40495</v>
       </c>
       <c r="M179" s="3" t="n">
-        <v>0</v>
+        <v>16297</v>
       </c>
       <c r="N179" s="3" t="n">
-        <v>0</v>
+        <v>12783</v>
       </c>
       <c r="O179" s="3" t="n">
-        <v>0</v>
+        <v>12161</v>
       </c>
     </row>
     <row r="180">
@@ -9062,34 +9098,34 @@
       <c r="D181" s="3" t="inlineStr"/>
       <c r="E181" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 12:01</t>
+          <t>2024-08-18 19:08</t>
         </is>
       </c>
       <c r="F181" s="3" t="inlineStr"/>
       <c r="G181" s="3" t="n">
-        <v>80397</v>
+        <v>80131</v>
       </c>
       <c r="H181" s="3" t="n">
-        <v>53004</v>
+        <v>63822</v>
       </c>
       <c r="I181" s="3" t="n">
-        <v>1372</v>
+        <v>941</v>
       </c>
       <c r="J181" s="3" t="n">
-        <v>51632</v>
+        <v>62881</v>
       </c>
       <c r="K181" s="3" t="inlineStr"/>
       <c r="L181" s="3" t="n">
-        <v>26143</v>
+        <v>29813</v>
       </c>
       <c r="M181" s="3" t="n">
-        <v>7922</v>
+        <v>14075</v>
       </c>
       <c r="N181" s="3" t="n">
-        <v>7195</v>
+        <v>7301</v>
       </c>
       <c r="O181" s="3" t="n">
-        <v>7789</v>
+        <v>8546</v>
       </c>
     </row>
     <row r="182">
@@ -9109,34 +9145,36 @@
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr"/>
-      <c r="E182" s="3" t="n">
-        <v>0</v>
+      <c r="E182" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 11:31</t>
+        </is>
       </c>
       <c r="F182" s="3" t="inlineStr"/>
       <c r="G182" s="3" t="n">
-        <v>0</v>
+        <v>81825</v>
       </c>
       <c r="H182" s="3" t="n">
-        <v>0</v>
+        <v>53455</v>
       </c>
       <c r="I182" s="3" t="n">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="J182" s="3" t="n">
-        <v>0</v>
+        <v>52856</v>
       </c>
       <c r="K182" s="3" t="inlineStr"/>
       <c r="L182" s="3" t="n">
-        <v>0</v>
+        <v>28226</v>
       </c>
       <c r="M182" s="3" t="n">
-        <v>0</v>
+        <v>5325</v>
       </c>
       <c r="N182" s="3" t="n">
-        <v>0</v>
+        <v>12987</v>
       </c>
       <c r="O182" s="3" t="n">
-        <v>0</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="183">
@@ -9156,34 +9194,36 @@
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr"/>
-      <c r="E183" s="3" t="n">
-        <v>0</v>
+      <c r="E183" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:08</t>
+        </is>
       </c>
       <c r="F183" s="3" t="inlineStr"/>
       <c r="G183" s="3" t="n">
-        <v>0</v>
+        <v>70592</v>
       </c>
       <c r="H183" s="3" t="n">
-        <v>0</v>
+        <v>60298</v>
       </c>
       <c r="I183" s="3" t="n">
-        <v>0</v>
+        <v>1787</v>
       </c>
       <c r="J183" s="3" t="n">
-        <v>0</v>
+        <v>58511</v>
       </c>
       <c r="K183" s="3" t="inlineStr"/>
       <c r="L183" s="3" t="n">
-        <v>0</v>
+        <v>38364</v>
       </c>
       <c r="M183" s="3" t="n">
-        <v>0</v>
+        <v>6657</v>
       </c>
       <c r="N183" s="3" t="n">
-        <v>0</v>
+        <v>3843</v>
       </c>
       <c r="O183" s="3" t="n">
-        <v>0</v>
+        <v>6720</v>
       </c>
     </row>
   </sheetData>

--- a/data/prespollsl2024.xlsx
+++ b/data/prespollsl2024.xlsx
@@ -533,36 +533,34 @@
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr"/>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:41</t>
-        </is>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="n">
-        <v>38319</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>23006</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>22443</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3" t="inlineStr"/>
       <c r="L2" s="3" t="n">
-        <v>11676</v>
+        <v>0</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>4290</v>
+        <v>0</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>2441</v>
+        <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>2912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -631,34 +629,34 @@
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 15:33</t>
+          <t>2024-08-18 08:46</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="n">
-        <v>40190</v>
+        <v>39077</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>30770</v>
+        <v>32141</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>812</v>
+        <v>426</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>29958</v>
+        <v>31715</v>
       </c>
       <c r="K4" s="3" t="inlineStr"/>
       <c r="L4" s="3" t="n">
-        <v>13055</v>
+        <v>10003</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>6542</v>
+        <v>7259</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>6014</v>
+        <v>10131</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>2847</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="5">
@@ -727,34 +725,34 @@
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 11:07</t>
+          <t>2024-08-18 11:24</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="n">
-        <v>23371</v>
+        <v>22917</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>17635</v>
+        <v>19801</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>331</v>
+        <v>413</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>17304</v>
+        <v>19388</v>
       </c>
       <c r="K6" s="3" t="inlineStr"/>
       <c r="L6" s="3" t="n">
-        <v>8098</v>
+        <v>7354</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>2570</v>
+        <v>4740</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>3930</v>
+        <v>2344</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>1838</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="7">
@@ -776,34 +774,34 @@
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 10:34</t>
+          <t>2024-08-18 15:06</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="n">
-        <v>20220</v>
+        <v>21098</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>17854</v>
+        <v>12992</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>507</v>
+        <v>320</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>17347</v>
+        <v>12672</v>
       </c>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="n">
-        <v>7652</v>
+        <v>3031</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>4161</v>
+        <v>3675</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>3399</v>
+        <v>4264</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>1266</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="8">
@@ -825,34 +823,34 @@
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 10:22</t>
+          <t>2024-08-18 12:16</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="n">
-        <v>44707</v>
+        <v>43553</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>37369</v>
+        <v>28133</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>1063</v>
+        <v>729</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>36306</v>
+        <v>27404</v>
       </c>
       <c r="K8" s="3" t="inlineStr"/>
       <c r="L8" s="3" t="n">
-        <v>15029</v>
+        <v>11354</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>7371</v>
+        <v>4652</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>6627</v>
+        <v>8216</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>5461</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="9">
@@ -872,36 +870,34 @@
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 14:07</t>
-        </is>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="n">
-        <v>29288</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>18938</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>18732</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="n">
-        <v>11659</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>2376</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>1411</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>2348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -921,34 +917,36 @@
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr"/>
-      <c r="E10" s="3" t="n">
-        <v>0</v>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 10:37</t>
+        </is>
       </c>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="n">
-        <v>0</v>
+        <v>20833</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>0</v>
+        <v>12685</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0</v>
+        <v>12367</v>
       </c>
       <c r="K10" s="3" t="inlineStr"/>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>4474</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0</v>
+        <v>3265</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>0</v>
+        <v>2416</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="11">
@@ -968,34 +966,36 @@
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr"/>
-      <c r="E11" s="3" t="n">
-        <v>0</v>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 09:17</t>
+        </is>
       </c>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="n">
-        <v>0</v>
+        <v>27176</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>0</v>
+        <v>23362</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>0</v>
+        <v>22932</v>
       </c>
       <c r="K11" s="3" t="inlineStr"/>
       <c r="L11" s="3" t="n">
-        <v>0</v>
+        <v>5585</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>0</v>
+        <v>6148</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>0</v>
+        <v>5995</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>0</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="12">
@@ -1062,36 +1062,34 @@
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr"/>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 11:29</t>
-        </is>
+      <c r="E13" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="n">
-        <v>13859</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>11995</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3" t="inlineStr"/>
       <c r="L13" s="3" t="n">
-        <v>7398</v>
+        <v>0</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>1585</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>1790</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1111,34 +1109,36 @@
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="n">
-        <v>0</v>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:10</t>
+        </is>
       </c>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="n">
-        <v>0</v>
+        <v>30685</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>0</v>
+        <v>24113</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0</v>
+        <v>23446</v>
       </c>
       <c r="K14" s="3" t="inlineStr"/>
       <c r="L14" s="3" t="n">
-        <v>0</v>
+        <v>5719</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>0</v>
+        <v>5698</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>0</v>
+        <v>6565</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>0</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="15">
@@ -1205,36 +1205,34 @@
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr"/>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:47</t>
-        </is>
+      <c r="E16" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="n">
-        <v>77238</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>63279</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>1046</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>62233</v>
+        <v>0</v>
       </c>
       <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="n">
-        <v>24719</v>
+        <v>0</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>12870</v>
+        <v>0</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v>11965</v>
+        <v>0</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>9565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1254,36 +1252,34 @@
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr"/>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 14:49</t>
-        </is>
+      <c r="E17" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="n">
-        <v>15027</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>9123</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>8991</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="n">
-        <v>5205</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>1041</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="n">
-        <v>1582</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1303,36 +1299,34 @@
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:56</t>
-        </is>
+      <c r="E18" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="n">
-        <v>59067</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>48015</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>1103</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="n">
-        <v>20194</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>10864</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>10065</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>3441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1352,34 +1346,36 @@
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="n">
-        <v>0</v>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:25</t>
+        </is>
       </c>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="n">
-        <v>0</v>
+        <v>20231</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>0</v>
+        <v>12281</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>0</v>
+        <v>12006</v>
       </c>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="n">
-        <v>0</v>
+        <v>4421</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>0</v>
+        <v>4082</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>0</v>
+        <v>2359</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>0</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20">
@@ -1399,36 +1395,34 @@
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr"/>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:17</t>
-        </is>
+      <c r="E20" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="n">
-        <v>46886</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>33327</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>32871</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="inlineStr"/>
       <c r="L20" s="3" t="n">
-        <v>15839</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>6842</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="n">
-        <v>2109</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>6436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1450,34 +1444,34 @@
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 10:11</t>
+          <t>2024-08-18 08:19</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="n">
-        <v>24819</v>
+        <v>23656</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>21765</v>
+        <v>16464</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>412</v>
+        <v>231</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>21353</v>
+        <v>16233</v>
       </c>
       <c r="K21" s="3" t="inlineStr"/>
       <c r="L21" s="3" t="n">
-        <v>14060</v>
+        <v>7053</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>4107</v>
+        <v>4204</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>1613</v>
+        <v>1757</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>504</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="22">
@@ -1497,34 +1491,36 @@
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="n">
-        <v>0</v>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 09:44</t>
+        </is>
       </c>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="n">
-        <v>0</v>
+        <v>32987</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>0</v>
+        <v>28150</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>0</v>
+        <v>27549</v>
       </c>
       <c r="K22" s="3" t="inlineStr"/>
       <c r="L22" s="3" t="n">
-        <v>0</v>
+        <v>7903</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>0</v>
+        <v>9561</v>
       </c>
       <c r="N22" s="3" t="n">
-        <v>0</v>
+        <v>4275</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>0</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="23">
@@ -1544,36 +1540,34 @@
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr"/>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 12:30</t>
-        </is>
+      <c r="E23" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="n">
-        <v>34295</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>27374</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>26596</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="inlineStr"/>
       <c r="L23" s="3" t="n">
-        <v>14714</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>4060</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>5807</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1640,36 +1634,34 @@
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr"/>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 14:24</t>
-        </is>
+      <c r="E25" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="n">
-        <v>135698</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>117682</v>
+        <v>0</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>3518</v>
+        <v>0</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>114164</v>
+        <v>0</v>
       </c>
       <c r="K25" s="3" t="inlineStr"/>
       <c r="L25" s="3" t="n">
-        <v>58132</v>
+        <v>0</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>17373</v>
+        <v>0</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>25398</v>
+        <v>0</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>7551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1783,36 +1775,34 @@
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr"/>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:32</t>
-        </is>
+      <c r="E28" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="n">
-        <v>44963</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>40098</v>
+        <v>0</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>39609</v>
+        <v>0</v>
       </c>
       <c r="K28" s="3" t="inlineStr"/>
       <c r="L28" s="3" t="n">
-        <v>20734</v>
+        <v>0</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>3811</v>
+        <v>0</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>7712</v>
+        <v>0</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>5369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1834,34 +1824,34 @@
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 15:45</t>
+          <t>2024-08-18 12:15</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="n">
-        <v>66561</v>
+        <v>62778</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>45809</v>
+        <v>49163</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>907</v>
+        <v>1353</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>44902</v>
+        <v>47810</v>
       </c>
       <c r="K29" s="3" t="inlineStr"/>
       <c r="L29" s="3" t="n">
-        <v>18503</v>
+        <v>18870</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>10298</v>
+        <v>13437</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>7071</v>
+        <v>9298</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>6782</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="30">
@@ -1975,36 +1965,34 @@
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr"/>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 17:08</t>
-        </is>
+      <c r="E32" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="n">
-        <v>77316</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>61320</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>60046</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="inlineStr"/>
       <c r="L32" s="3" t="n">
-        <v>30515</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>8794</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="n">
-        <v>11512</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>6222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2120,34 +2108,34 @@
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 11:19</t>
+          <t>2024-08-18 14:35</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="n">
-        <v>206082</v>
+        <v>197653</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>180682</v>
+        <v>165623</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>3595</v>
+        <v>3323</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>177087</v>
+        <v>162300</v>
       </c>
       <c r="K35" s="3" t="inlineStr"/>
       <c r="L35" s="3" t="n">
-        <v>109169</v>
+        <v>35563</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>22410</v>
+        <v>55172</v>
       </c>
       <c r="N35" s="3" t="n">
-        <v>24428</v>
+        <v>38628</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>12223</v>
+        <v>24820</v>
       </c>
     </row>
     <row r="36">
@@ -2167,36 +2155,34 @@
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr"/>
-      <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:04</t>
-        </is>
+      <c r="E36" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="n">
-        <v>142845</v>
+        <v>0</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>107332</v>
+        <v>0</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>2458</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>104874</v>
+        <v>0</v>
       </c>
       <c r="K36" s="3" t="inlineStr"/>
       <c r="L36" s="3" t="n">
-        <v>55180</v>
+        <v>0</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>15143</v>
+        <v>0</v>
       </c>
       <c r="N36" s="3" t="n">
-        <v>13731</v>
+        <v>0</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>15574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2216,34 +2202,36 @@
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr"/>
-      <c r="E37" s="3" t="n">
-        <v>0</v>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 16:54</t>
+        </is>
       </c>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="n">
-        <v>0</v>
+        <v>184136</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>0</v>
+        <v>155891</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>0</v>
+        <v>4138</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>0</v>
+        <v>151753</v>
       </c>
       <c r="K37" s="3" t="inlineStr"/>
       <c r="L37" s="3" t="n">
-        <v>0</v>
+        <v>33863</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>0</v>
+        <v>48867</v>
       </c>
       <c r="N37" s="3" t="n">
-        <v>0</v>
+        <v>55280</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>0</v>
+        <v>6153</v>
       </c>
     </row>
     <row r="38">
@@ -2263,36 +2251,34 @@
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr"/>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 11:20</t>
-        </is>
+      <c r="E38" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="n">
-        <v>122325</v>
+        <v>0</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>98749</v>
+        <v>0</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>1083</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3" t="n">
-        <v>97666</v>
+        <v>0</v>
       </c>
       <c r="K38" s="3" t="inlineStr"/>
       <c r="L38" s="3" t="n">
-        <v>46283</v>
+        <v>0</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>19945</v>
+        <v>0</v>
       </c>
       <c r="N38" s="3" t="n">
-        <v>13666</v>
+        <v>0</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>12887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2312,34 +2298,36 @@
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr"/>
-      <c r="E39" s="3" t="n">
-        <v>0</v>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 20:09</t>
+        </is>
       </c>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="n">
-        <v>0</v>
+        <v>143296</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>0</v>
+        <v>123340</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>0</v>
+        <v>1519</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>0</v>
+        <v>121821</v>
       </c>
       <c r="K39" s="3" t="inlineStr"/>
       <c r="L39" s="3" t="n">
-        <v>0</v>
+        <v>48626</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>0</v>
+        <v>22490</v>
       </c>
       <c r="N39" s="3" t="n">
-        <v>0</v>
+        <v>25949</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>0</v>
+        <v>18663</v>
       </c>
     </row>
     <row r="40">
@@ -2596,34 +2584,34 @@
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 15:42</t>
+          <t>2024-08-18 19:02</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="n">
-        <v>137518</v>
+        <v>148097</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>105905</v>
+        <v>125659</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>2735</v>
+        <v>3624</v>
       </c>
       <c r="J45" s="3" t="n">
-        <v>103170</v>
+        <v>122035</v>
       </c>
       <c r="K45" s="3" t="inlineStr"/>
       <c r="L45" s="3" t="n">
-        <v>46393</v>
+        <v>43363</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>15706</v>
+        <v>36375</v>
       </c>
       <c r="N45" s="3" t="n">
-        <v>20124</v>
+        <v>28402</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>15787</v>
+        <v>7791</v>
       </c>
     </row>
     <row r="46">
@@ -2643,34 +2631,36 @@
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr"/>
-      <c r="E46" s="3" t="n">
-        <v>0</v>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 11:39</t>
+        </is>
       </c>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="n">
-        <v>0</v>
+        <v>156975</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>0</v>
+        <v>135165</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>0</v>
+        <v>4015</v>
       </c>
       <c r="J46" s="3" t="n">
-        <v>0</v>
+        <v>131150</v>
       </c>
       <c r="K46" s="3" t="inlineStr"/>
       <c r="L46" s="3" t="n">
-        <v>0</v>
+        <v>47915</v>
       </c>
       <c r="M46" s="3" t="n">
-        <v>0</v>
+        <v>20742</v>
       </c>
       <c r="N46" s="3" t="n">
-        <v>0</v>
+        <v>34744</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>0</v>
+        <v>21190</v>
       </c>
     </row>
     <row r="47">
@@ -2690,36 +2680,34 @@
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr"/>
-      <c r="E47" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:59</t>
-        </is>
+      <c r="E47" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="n">
-        <v>164651</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>122040</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>2960</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>119080</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="inlineStr"/>
       <c r="L47" s="3" t="n">
-        <v>63606</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>22389</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="n">
-        <v>17977</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>9151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2741,34 +2729,34 @@
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 20:02</t>
+          <t>2024-08-18 14:26</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="n">
-        <v>167069</v>
+        <v>165283</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>114664</v>
+        <v>99324</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>3109</v>
+        <v>2429</v>
       </c>
       <c r="J48" s="3" t="n">
-        <v>111555</v>
+        <v>96895</v>
       </c>
       <c r="K48" s="3" t="inlineStr"/>
       <c r="L48" s="3" t="n">
-        <v>65349</v>
+        <v>26724</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>20875</v>
+        <v>30619</v>
       </c>
       <c r="N48" s="3" t="n">
-        <v>10963</v>
+        <v>14228</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>8788</v>
+        <v>20477</v>
       </c>
     </row>
     <row r="49">
@@ -2790,34 +2778,34 @@
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 18:14</t>
+          <t>2024-08-18 09:48</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="n">
-        <v>130239</v>
+        <v>122761</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>96189</v>
+        <v>79738</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>1400</v>
+        <v>2276</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>94789</v>
+        <v>77462</v>
       </c>
       <c r="K49" s="3" t="inlineStr"/>
       <c r="L49" s="3" t="n">
-        <v>42783</v>
+        <v>26639</v>
       </c>
       <c r="M49" s="3" t="n">
-        <v>14193</v>
+        <v>14755</v>
       </c>
       <c r="N49" s="3" t="n">
-        <v>17666</v>
+        <v>16685</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>15406</v>
+        <v>15508</v>
       </c>
     </row>
     <row r="50">
@@ -2837,36 +2825,34 @@
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr"/>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 10:38</t>
-        </is>
+      <c r="E50" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="n">
-        <v>143507</v>
+        <v>0</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>88980</v>
+        <v>0</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>1406</v>
+        <v>0</v>
       </c>
       <c r="J50" s="3" t="n">
-        <v>87574</v>
+        <v>0</v>
       </c>
       <c r="K50" s="3" t="inlineStr"/>
       <c r="L50" s="3" t="n">
-        <v>53760</v>
+        <v>0</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>10802</v>
+        <v>0</v>
       </c>
       <c r="N50" s="3" t="n">
-        <v>11042</v>
+        <v>0</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>7589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2886,34 +2872,36 @@
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr"/>
-      <c r="E51" s="3" t="n">
-        <v>0</v>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:47</t>
+        </is>
       </c>
       <c r="F51" s="3" t="inlineStr"/>
       <c r="G51" s="3" t="n">
-        <v>0</v>
+        <v>100864</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>0</v>
+        <v>77694</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>0</v>
+        <v>2138</v>
       </c>
       <c r="J51" s="3" t="n">
-        <v>0</v>
+        <v>75556</v>
       </c>
       <c r="K51" s="3" t="inlineStr"/>
       <c r="L51" s="3" t="n">
-        <v>0</v>
+        <v>30572</v>
       </c>
       <c r="M51" s="3" t="n">
-        <v>0</v>
+        <v>23941</v>
       </c>
       <c r="N51" s="3" t="n">
-        <v>0</v>
+        <v>13340</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>0</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="52">
@@ -2980,34 +2968,36 @@
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr"/>
-      <c r="E53" s="3" t="n">
-        <v>0</v>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 09:02</t>
+        </is>
       </c>
       <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="n">
-        <v>0</v>
+        <v>148862</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>0</v>
+        <v>95882</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>0</v>
+        <v>2799</v>
       </c>
       <c r="J53" s="3" t="n">
-        <v>0</v>
+        <v>93083</v>
       </c>
       <c r="K53" s="3" t="inlineStr"/>
       <c r="L53" s="3" t="n">
-        <v>0</v>
+        <v>25969</v>
       </c>
       <c r="M53" s="3" t="n">
-        <v>0</v>
+        <v>24540</v>
       </c>
       <c r="N53" s="3" t="n">
-        <v>0</v>
+        <v>21782</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>0</v>
+        <v>16135</v>
       </c>
     </row>
     <row r="54">
@@ -3027,34 +3017,36 @@
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr"/>
-      <c r="E54" s="3" t="n">
-        <v>0</v>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 08:27</t>
+        </is>
       </c>
       <c r="F54" s="3" t="inlineStr"/>
       <c r="G54" s="3" t="n">
-        <v>0</v>
+        <v>135531</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>0</v>
+        <v>105279</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>0</v>
+        <v>2297</v>
       </c>
       <c r="J54" s="3" t="n">
-        <v>0</v>
+        <v>102982</v>
       </c>
       <c r="K54" s="3" t="inlineStr"/>
       <c r="L54" s="3" t="n">
-        <v>0</v>
+        <v>32505</v>
       </c>
       <c r="M54" s="3" t="n">
-        <v>0</v>
+        <v>30714</v>
       </c>
       <c r="N54" s="3" t="n">
-        <v>0</v>
+        <v>22775</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>0</v>
+        <v>11837</v>
       </c>
     </row>
     <row r="55">
@@ -3121,34 +3113,36 @@
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr"/>
-      <c r="E56" s="3" t="n">
-        <v>0</v>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:18</t>
+        </is>
       </c>
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="n">
-        <v>0</v>
+        <v>122242</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>0</v>
+        <v>94256</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>0</v>
+        <v>2477</v>
       </c>
       <c r="J56" s="3" t="n">
-        <v>0</v>
+        <v>91779</v>
       </c>
       <c r="K56" s="3" t="inlineStr"/>
       <c r="L56" s="3" t="n">
-        <v>0</v>
+        <v>18445</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>0</v>
+        <v>31011</v>
       </c>
       <c r="N56" s="3" t="n">
-        <v>0</v>
+        <v>25469</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>0</v>
+        <v>12263</v>
       </c>
     </row>
     <row r="57">
@@ -3217,34 +3211,34 @@
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 15:44</t>
+          <t>2024-08-18 15:56</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="n">
-        <v>135358</v>
+        <v>132077</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>83695</v>
+        <v>103086</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>2506</v>
+        <v>2061</v>
       </c>
       <c r="J58" s="3" t="n">
-        <v>81189</v>
+        <v>101025</v>
       </c>
       <c r="K58" s="3" t="inlineStr"/>
       <c r="L58" s="3" t="n">
-        <v>47296</v>
+        <v>45289</v>
       </c>
       <c r="M58" s="3" t="n">
-        <v>11737</v>
+        <v>23265</v>
       </c>
       <c r="N58" s="3" t="n">
-        <v>6806</v>
+        <v>19154</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>11288</v>
+        <v>8263</v>
       </c>
     </row>
     <row r="59">
@@ -3311,36 +3305,34 @@
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr"/>
-      <c r="E60" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 13:44</t>
-        </is>
+      <c r="E60" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F60" s="3" t="inlineStr"/>
       <c r="G60" s="3" t="n">
-        <v>53063</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>31881</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3" t="n">
-        <v>31459</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3" t="inlineStr"/>
       <c r="L60" s="3" t="n">
-        <v>15891</v>
+        <v>0</v>
       </c>
       <c r="M60" s="3" t="n">
-        <v>6218</v>
+        <v>0</v>
       </c>
       <c r="N60" s="3" t="n">
-        <v>4729</v>
+        <v>0</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>3046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3407,36 +3399,34 @@
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr"/>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 17:36</t>
-        </is>
+      <c r="E62" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="inlineStr"/>
       <c r="G62" s="3" t="n">
-        <v>95294</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>72241</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>956</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="n">
-        <v>71285</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="inlineStr"/>
       <c r="L62" s="3" t="n">
-        <v>36080</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>8503</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="n">
-        <v>12790</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>10345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3503,36 +3493,34 @@
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr"/>
-      <c r="E64" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 12:36</t>
-        </is>
+      <c r="E64" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F64" s="3" t="inlineStr"/>
       <c r="G64" s="3" t="n">
-        <v>49178</v>
+        <v>0</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>35664</v>
+        <v>0</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="J64" s="3" t="n">
-        <v>34889</v>
+        <v>0</v>
       </c>
       <c r="K64" s="3" t="inlineStr"/>
       <c r="L64" s="3" t="n">
-        <v>19392</v>
+        <v>0</v>
       </c>
       <c r="M64" s="3" t="n">
-        <v>3335</v>
+        <v>0</v>
       </c>
       <c r="N64" s="3" t="n">
-        <v>5366</v>
+        <v>0</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>5049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3552,34 +3540,36 @@
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr"/>
-      <c r="E65" s="3" t="n">
-        <v>0</v>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 16:34</t>
+        </is>
       </c>
       <c r="F65" s="3" t="inlineStr"/>
       <c r="G65" s="3" t="n">
-        <v>0</v>
+        <v>104765</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>0</v>
+        <v>67468</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="J65" s="3" t="n">
-        <v>0</v>
+        <v>66447</v>
       </c>
       <c r="K65" s="3" t="inlineStr"/>
       <c r="L65" s="3" t="n">
-        <v>0</v>
+        <v>19062</v>
       </c>
       <c r="M65" s="3" t="n">
-        <v>0</v>
+        <v>30944</v>
       </c>
       <c r="N65" s="3" t="n">
-        <v>0</v>
+        <v>10393</v>
       </c>
       <c r="O65" s="3" t="n">
-        <v>0</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="66">
@@ -3599,36 +3589,34 @@
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr"/>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:31</t>
-        </is>
+      <c r="E66" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="n">
-        <v>75751</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>62146</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3" t="n">
-        <v>61483</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="inlineStr"/>
       <c r="L66" s="3" t="n">
-        <v>30823</v>
+        <v>0</v>
       </c>
       <c r="M66" s="3" t="n">
-        <v>11545</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3" t="n">
-        <v>5913</v>
+        <v>0</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>10126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3648,34 +3636,36 @@
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr"/>
-      <c r="E67" s="3" t="n">
-        <v>0</v>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:13</t>
+        </is>
       </c>
       <c r="F67" s="3" t="inlineStr"/>
       <c r="G67" s="3" t="n">
-        <v>0</v>
+        <v>89975</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>0</v>
+        <v>65749</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="J67" s="3" t="n">
-        <v>0</v>
+        <v>65004</v>
       </c>
       <c r="K67" s="3" t="inlineStr"/>
       <c r="L67" s="3" t="n">
-        <v>0</v>
+        <v>27874</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>0</v>
+        <v>21826</v>
       </c>
       <c r="N67" s="3" t="n">
-        <v>0</v>
+        <v>7457</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>0</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="68">
@@ -3695,36 +3685,34 @@
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr"/>
-      <c r="E68" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:28</t>
-        </is>
+      <c r="E68" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F68" s="3" t="inlineStr"/>
       <c r="G68" s="3" t="n">
-        <v>41842</v>
+        <v>0</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>36421</v>
+        <v>0</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="J68" s="3" t="n">
-        <v>35492</v>
+        <v>0</v>
       </c>
       <c r="K68" s="3" t="inlineStr"/>
       <c r="L68" s="3" t="n">
-        <v>17415</v>
+        <v>0</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>5710</v>
+        <v>0</v>
       </c>
       <c r="N68" s="3" t="n">
-        <v>6310</v>
+        <v>0</v>
       </c>
       <c r="O68" s="3" t="n">
-        <v>4281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3744,36 +3732,34 @@
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr"/>
-      <c r="E69" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 12:57</t>
-        </is>
+      <c r="E69" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F69" s="3" t="inlineStr"/>
       <c r="G69" s="3" t="n">
-        <v>86004</v>
+        <v>0</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>61336</v>
+        <v>0</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>1525</v>
+        <v>0</v>
       </c>
       <c r="J69" s="3" t="n">
-        <v>59811</v>
+        <v>0</v>
       </c>
       <c r="K69" s="3" t="inlineStr"/>
       <c r="L69" s="3" t="n">
-        <v>29981</v>
+        <v>0</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>12472</v>
+        <v>0</v>
       </c>
       <c r="N69" s="3" t="n">
-        <v>10505</v>
+        <v>0</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>3860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3793,36 +3779,34 @@
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr"/>
-      <c r="E70" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:44</t>
-        </is>
+      <c r="E70" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F70" s="3" t="inlineStr"/>
       <c r="G70" s="3" t="n">
-        <v>92854</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>81037</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>1509</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3" t="n">
-        <v>79528</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3" t="inlineStr"/>
       <c r="L70" s="3" t="n">
-        <v>44227</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>15364</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3" t="n">
-        <v>6482</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3" t="n">
-        <v>9476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3842,34 +3826,36 @@
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr"/>
-      <c r="E71" s="3" t="n">
-        <v>0</v>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 09:37</t>
+        </is>
       </c>
       <c r="F71" s="3" t="inlineStr"/>
       <c r="G71" s="3" t="n">
-        <v>0</v>
+        <v>114061</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>0</v>
+        <v>90819</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>0</v>
+        <v>2529</v>
       </c>
       <c r="J71" s="3" t="n">
-        <v>0</v>
+        <v>88290</v>
       </c>
       <c r="K71" s="3" t="inlineStr"/>
       <c r="L71" s="3" t="n">
-        <v>0</v>
+        <v>29416</v>
       </c>
       <c r="M71" s="3" t="n">
-        <v>0</v>
+        <v>24298</v>
       </c>
       <c r="N71" s="3" t="n">
-        <v>0</v>
+        <v>20229</v>
       </c>
       <c r="O71" s="3" t="n">
-        <v>0</v>
+        <v>9931</v>
       </c>
     </row>
     <row r="72">
@@ -3889,36 +3875,34 @@
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr"/>
-      <c r="E72" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 09:18</t>
-        </is>
+      <c r="E72" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F72" s="3" t="inlineStr"/>
       <c r="G72" s="3" t="n">
-        <v>105019</v>
+        <v>0</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>78032</v>
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>1078</v>
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="n">
-        <v>76954</v>
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="inlineStr"/>
       <c r="L72" s="3" t="n">
-        <v>49104</v>
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="n">
-        <v>15052</v>
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="n">
-        <v>5022</v>
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>3926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3940,34 +3924,34 @@
       <c r="D73" s="3" t="inlineStr"/>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 19:19</t>
+          <t>2024-08-18 09:55</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr"/>
       <c r="G73" s="3" t="n">
-        <v>136288</v>
+        <v>141896</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>83499</v>
+        <v>106614</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>2120</v>
+        <v>2233</v>
       </c>
       <c r="J73" s="3" t="n">
-        <v>81379</v>
+        <v>104381</v>
       </c>
       <c r="K73" s="3" t="inlineStr"/>
       <c r="L73" s="3" t="n">
-        <v>40042</v>
+        <v>33009</v>
       </c>
       <c r="M73" s="3" t="n">
-        <v>15455</v>
+        <v>29961</v>
       </c>
       <c r="N73" s="3" t="n">
-        <v>10282</v>
+        <v>12198</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>11528</v>
+        <v>23992</v>
       </c>
     </row>
     <row r="74">
@@ -3987,34 +3971,36 @@
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr"/>
-      <c r="E74" s="3" t="n">
-        <v>0</v>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:04</t>
+        </is>
       </c>
       <c r="F74" s="3" t="inlineStr"/>
       <c r="G74" s="3" t="n">
-        <v>0</v>
+        <v>76666</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>0</v>
+        <v>55885</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>0</v>
+        <v>1293</v>
       </c>
       <c r="J74" s="3" t="n">
-        <v>0</v>
+        <v>54592</v>
       </c>
       <c r="K74" s="3" t="inlineStr"/>
       <c r="L74" s="3" t="n">
-        <v>0</v>
+        <v>14497</v>
       </c>
       <c r="M74" s="3" t="n">
-        <v>0</v>
+        <v>12355</v>
       </c>
       <c r="N74" s="3" t="n">
-        <v>0</v>
+        <v>12831</v>
       </c>
       <c r="O74" s="3" t="n">
-        <v>0</v>
+        <v>12177</v>
       </c>
     </row>
     <row r="75">
@@ -4081,34 +4067,36 @@
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr"/>
-      <c r="E76" s="3" t="n">
-        <v>0</v>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:14</t>
+        </is>
       </c>
       <c r="F76" s="3" t="inlineStr"/>
       <c r="G76" s="3" t="n">
-        <v>0</v>
+        <v>101439</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>0</v>
+        <v>82211</v>
       </c>
       <c r="I76" s="3" t="n">
-        <v>0</v>
+        <v>1938</v>
       </c>
       <c r="J76" s="3" t="n">
-        <v>0</v>
+        <v>80273</v>
       </c>
       <c r="K76" s="3" t="inlineStr"/>
       <c r="L76" s="3" t="n">
-        <v>0</v>
+        <v>24819</v>
       </c>
       <c r="M76" s="3" t="n">
-        <v>0</v>
+        <v>9342</v>
       </c>
       <c r="N76" s="3" t="n">
-        <v>0</v>
+        <v>23394</v>
       </c>
       <c r="O76" s="3" t="n">
-        <v>0</v>
+        <v>18703</v>
       </c>
     </row>
     <row r="77">
@@ -4130,34 +4118,34 @@
       <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:22</t>
+          <t>2024-08-18 09:23</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="n">
-        <v>343682</v>
+        <v>324231</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>267161</v>
+        <v>241218</v>
       </c>
       <c r="I77" s="3" t="n">
-        <v>5993</v>
+        <v>4087</v>
       </c>
       <c r="J77" s="3" t="n">
-        <v>261168</v>
+        <v>237131</v>
       </c>
       <c r="K77" s="3" t="inlineStr"/>
       <c r="L77" s="3" t="n">
-        <v>129205</v>
+        <v>67942</v>
       </c>
       <c r="M77" s="3" t="n">
-        <v>52558</v>
+        <v>63708</v>
       </c>
       <c r="N77" s="3" t="n">
-        <v>44507</v>
+        <v>51045</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>21839</v>
+        <v>42577</v>
       </c>
     </row>
     <row r="78">
@@ -4226,34 +4214,34 @@
       <c r="D79" s="3" t="inlineStr"/>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 12:17</t>
+          <t>2024-08-18 20:06</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr"/>
       <c r="G79" s="3" t="n">
-        <v>72401</v>
+        <v>72626</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>54393</v>
+        <v>47994</v>
       </c>
       <c r="I79" s="3" t="n">
-        <v>1234</v>
+        <v>1050</v>
       </c>
       <c r="J79" s="3" t="n">
-        <v>53159</v>
+        <v>46944</v>
       </c>
       <c r="K79" s="3" t="inlineStr"/>
       <c r="L79" s="3" t="n">
-        <v>31993</v>
+        <v>15665</v>
       </c>
       <c r="M79" s="3" t="n">
-        <v>6586</v>
+        <v>10344</v>
       </c>
       <c r="N79" s="3" t="n">
-        <v>4192</v>
+        <v>11504</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>7728</v>
+        <v>7083</v>
       </c>
     </row>
     <row r="80">
@@ -4367,34 +4355,36 @@
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr"/>
-      <c r="E82" s="3" t="n">
-        <v>0</v>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 09:08</t>
+        </is>
       </c>
       <c r="F82" s="3" t="inlineStr"/>
       <c r="G82" s="3" t="n">
-        <v>0</v>
+        <v>79964</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>0</v>
+        <v>49389</v>
       </c>
       <c r="I82" s="3" t="n">
-        <v>0</v>
+        <v>1111</v>
       </c>
       <c r="J82" s="3" t="n">
-        <v>0</v>
+        <v>48278</v>
       </c>
       <c r="K82" s="3" t="inlineStr"/>
       <c r="L82" s="3" t="n">
-        <v>0</v>
+        <v>16091</v>
       </c>
       <c r="M82" s="3" t="n">
-        <v>0</v>
+        <v>14261</v>
       </c>
       <c r="N82" s="3" t="n">
-        <v>0</v>
+        <v>9003</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>0</v>
+        <v>6507</v>
       </c>
     </row>
     <row r="83">
@@ -4463,34 +4453,34 @@
       <c r="D84" s="3" t="inlineStr"/>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 12:19</t>
+          <t>2024-08-18 14:04</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr"/>
       <c r="G84" s="3" t="n">
-        <v>97998</v>
+        <v>98057</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>71296</v>
+        <v>80596</v>
       </c>
       <c r="I84" s="3" t="n">
-        <v>1880</v>
+        <v>864</v>
       </c>
       <c r="J84" s="3" t="n">
-        <v>69416</v>
+        <v>79732</v>
       </c>
       <c r="K84" s="3" t="inlineStr"/>
       <c r="L84" s="3" t="n">
-        <v>37835</v>
+        <v>29110</v>
       </c>
       <c r="M84" s="3" t="n">
-        <v>15896</v>
+        <v>19896</v>
       </c>
       <c r="N84" s="3" t="n">
-        <v>7131</v>
+        <v>13965</v>
       </c>
       <c r="O84" s="3" t="n">
-        <v>5081</v>
+        <v>12772</v>
       </c>
     </row>
     <row r="85">
@@ -4557,34 +4547,36 @@
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr"/>
-      <c r="E86" s="3" t="n">
-        <v>0</v>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:02</t>
+        </is>
       </c>
       <c r="F86" s="3" t="inlineStr"/>
       <c r="G86" s="3" t="n">
-        <v>0</v>
+        <v>101947</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>0</v>
+        <v>77297</v>
       </c>
       <c r="I86" s="3" t="n">
-        <v>0</v>
+        <v>2254</v>
       </c>
       <c r="J86" s="3" t="n">
-        <v>0</v>
+        <v>75043</v>
       </c>
       <c r="K86" s="3" t="inlineStr"/>
       <c r="L86" s="3" t="n">
-        <v>0</v>
+        <v>20383</v>
       </c>
       <c r="M86" s="3" t="n">
-        <v>0</v>
+        <v>25233</v>
       </c>
       <c r="N86" s="3" t="n">
-        <v>0</v>
+        <v>18184</v>
       </c>
       <c r="O86" s="3" t="n">
-        <v>0</v>
+        <v>7489</v>
       </c>
     </row>
     <row r="87">
@@ -4604,36 +4596,34 @@
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr"/>
-      <c r="E87" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 10:18</t>
-        </is>
+      <c r="E87" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F87" s="3" t="inlineStr"/>
       <c r="G87" s="3" t="n">
-        <v>80808</v>
+        <v>0</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>62924</v>
+        <v>0</v>
       </c>
       <c r="I87" s="3" t="n">
-        <v>1764</v>
+        <v>0</v>
       </c>
       <c r="J87" s="3" t="n">
-        <v>61160</v>
+        <v>0</v>
       </c>
       <c r="K87" s="3" t="inlineStr"/>
       <c r="L87" s="3" t="n">
-        <v>35484</v>
+        <v>0</v>
       </c>
       <c r="M87" s="3" t="n">
-        <v>7407</v>
+        <v>0</v>
       </c>
       <c r="N87" s="3" t="n">
-        <v>7227</v>
+        <v>0</v>
       </c>
       <c r="O87" s="3" t="n">
-        <v>7982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4653,36 +4643,34 @@
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr"/>
-      <c r="E88" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:36</t>
-        </is>
+      <c r="E88" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F88" s="3" t="inlineStr"/>
       <c r="G88" s="3" t="n">
-        <v>85813</v>
+        <v>0</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>53740</v>
+        <v>0</v>
       </c>
       <c r="I88" s="3" t="n">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="J88" s="3" t="n">
-        <v>53079</v>
+        <v>0</v>
       </c>
       <c r="K88" s="3" t="inlineStr"/>
       <c r="L88" s="3" t="n">
-        <v>28127</v>
+        <v>0</v>
       </c>
       <c r="M88" s="3" t="n">
-        <v>12772</v>
+        <v>0</v>
       </c>
       <c r="N88" s="3" t="n">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="O88" s="3" t="n">
-        <v>5743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -4749,34 +4737,36 @@
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr"/>
-      <c r="E90" s="3" t="n">
-        <v>0</v>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:02</t>
+        </is>
       </c>
       <c r="F90" s="3" t="inlineStr"/>
       <c r="G90" s="3" t="n">
-        <v>0</v>
+        <v>84787</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>0</v>
+        <v>51486</v>
       </c>
       <c r="I90" s="3" t="n">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="J90" s="3" t="n">
-        <v>0</v>
+        <v>50716</v>
       </c>
       <c r="K90" s="3" t="inlineStr"/>
       <c r="L90" s="3" t="n">
-        <v>0</v>
+        <v>14826</v>
       </c>
       <c r="M90" s="3" t="n">
-        <v>0</v>
+        <v>9230</v>
       </c>
       <c r="N90" s="3" t="n">
-        <v>0</v>
+        <v>18157</v>
       </c>
       <c r="O90" s="3" t="n">
-        <v>0</v>
+        <v>5965</v>
       </c>
     </row>
     <row r="91">
@@ -4796,34 +4786,36 @@
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr"/>
-      <c r="E91" s="3" t="n">
-        <v>0</v>
+      <c r="E91" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 11:23</t>
+        </is>
       </c>
       <c r="F91" s="3" t="inlineStr"/>
       <c r="G91" s="3" t="n">
-        <v>0</v>
+        <v>106220</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>0</v>
+        <v>78959</v>
       </c>
       <c r="I91" s="3" t="n">
-        <v>0</v>
+        <v>2309</v>
       </c>
       <c r="J91" s="3" t="n">
-        <v>0</v>
+        <v>76650</v>
       </c>
       <c r="K91" s="3" t="inlineStr"/>
       <c r="L91" s="3" t="n">
-        <v>0</v>
+        <v>27648</v>
       </c>
       <c r="M91" s="3" t="n">
-        <v>0</v>
+        <v>18924</v>
       </c>
       <c r="N91" s="3" t="n">
-        <v>0</v>
+        <v>12462</v>
       </c>
       <c r="O91" s="3" t="n">
-        <v>0</v>
+        <v>13781</v>
       </c>
     </row>
     <row r="92">
@@ -4890,34 +4882,36 @@
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr"/>
-      <c r="E93" s="3" t="n">
-        <v>0</v>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 09:34</t>
+        </is>
       </c>
       <c r="F93" s="3" t="inlineStr"/>
       <c r="G93" s="3" t="n">
-        <v>0</v>
+        <v>94614</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>0</v>
+        <v>81596</v>
       </c>
       <c r="I93" s="3" t="n">
-        <v>0</v>
+        <v>1057</v>
       </c>
       <c r="J93" s="3" t="n">
-        <v>0</v>
+        <v>80539</v>
       </c>
       <c r="K93" s="3" t="inlineStr"/>
       <c r="L93" s="3" t="n">
-        <v>0</v>
+        <v>24992</v>
       </c>
       <c r="M93" s="3" t="n">
-        <v>0</v>
+        <v>10702</v>
       </c>
       <c r="N93" s="3" t="n">
-        <v>0</v>
+        <v>24588</v>
       </c>
       <c r="O93" s="3" t="n">
-        <v>0</v>
+        <v>16229</v>
       </c>
     </row>
     <row r="94">
@@ -4939,34 +4933,34 @@
       <c r="D94" s="3" t="inlineStr"/>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 12:09</t>
+          <t>2024-08-18 18:38</t>
         </is>
       </c>
       <c r="F94" s="3" t="inlineStr"/>
       <c r="G94" s="3" t="n">
-        <v>82820</v>
+        <v>83176</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>53676</v>
+        <v>52441</v>
       </c>
       <c r="I94" s="3" t="n">
-        <v>1223</v>
+        <v>718</v>
       </c>
       <c r="J94" s="3" t="n">
-        <v>52453</v>
+        <v>51723</v>
       </c>
       <c r="K94" s="3" t="inlineStr"/>
       <c r="L94" s="3" t="n">
-        <v>24104</v>
+        <v>22198</v>
       </c>
       <c r="M94" s="3" t="n">
-        <v>10868</v>
+        <v>13395</v>
       </c>
       <c r="N94" s="3" t="n">
-        <v>4214</v>
+        <v>10209</v>
       </c>
       <c r="O94" s="3" t="n">
-        <v>10642</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="95">
@@ -4986,34 +4980,36 @@
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr"/>
-      <c r="E95" s="3" t="n">
-        <v>0</v>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:25</t>
+        </is>
       </c>
       <c r="F95" s="3" t="inlineStr"/>
       <c r="G95" s="3" t="n">
-        <v>0</v>
+        <v>78875</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>0</v>
+        <v>52941</v>
       </c>
       <c r="I95" s="3" t="n">
-        <v>0</v>
+        <v>1508</v>
       </c>
       <c r="J95" s="3" t="n">
-        <v>0</v>
+        <v>51433</v>
       </c>
       <c r="K95" s="3" t="inlineStr"/>
       <c r="L95" s="3" t="n">
-        <v>0</v>
+        <v>16966</v>
       </c>
       <c r="M95" s="3" t="n">
-        <v>0</v>
+        <v>11231</v>
       </c>
       <c r="N95" s="3" t="n">
-        <v>0</v>
+        <v>12869</v>
       </c>
       <c r="O95" s="3" t="n">
-        <v>0</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="96">
@@ -5033,36 +5029,34 @@
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr"/>
-      <c r="E96" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 12:15</t>
-        </is>
+      <c r="E96" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F96" s="3" t="inlineStr"/>
       <c r="G96" s="3" t="n">
-        <v>90013</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>68825</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3" t="n">
-        <v>1799</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3" t="n">
-        <v>67026</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3" t="inlineStr"/>
       <c r="L96" s="3" t="n">
-        <v>36059</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3" t="n">
-        <v>13166</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3" t="n">
-        <v>7642</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3" t="n">
-        <v>6805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -5317,34 +5311,36 @@
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr"/>
-      <c r="E102" s="3" t="n">
-        <v>0</v>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:27</t>
+        </is>
       </c>
       <c r="F102" s="3" t="inlineStr"/>
       <c r="G102" s="3" t="n">
-        <v>0</v>
+        <v>24595</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>0</v>
+        <v>21079</v>
       </c>
       <c r="I102" s="3" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="J102" s="3" t="n">
-        <v>0</v>
+        <v>20494</v>
       </c>
       <c r="K102" s="3" t="inlineStr"/>
       <c r="L102" s="3" t="n">
-        <v>0</v>
+        <v>6619</v>
       </c>
       <c r="M102" s="3" t="n">
-        <v>0</v>
+        <v>4546</v>
       </c>
       <c r="N102" s="3" t="n">
-        <v>0</v>
+        <v>5251</v>
       </c>
       <c r="O102" s="3" t="n">
-        <v>0</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="103">
@@ -5364,36 +5360,34 @@
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr"/>
-      <c r="E103" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 12:08</t>
-        </is>
+      <c r="E103" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F103" s="3" t="inlineStr"/>
       <c r="G103" s="3" t="n">
-        <v>53144</v>
+        <v>0</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>37785</v>
+        <v>0</v>
       </c>
       <c r="I103" s="3" t="n">
-        <v>592</v>
+        <v>0</v>
       </c>
       <c r="J103" s="3" t="n">
-        <v>37193</v>
+        <v>0</v>
       </c>
       <c r="K103" s="3" t="inlineStr"/>
       <c r="L103" s="3" t="n">
-        <v>16507</v>
+        <v>0</v>
       </c>
       <c r="M103" s="3" t="n">
-        <v>7907</v>
+        <v>0</v>
       </c>
       <c r="N103" s="3" t="n">
-        <v>6125</v>
+        <v>0</v>
       </c>
       <c r="O103" s="3" t="n">
-        <v>4792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -5413,34 +5407,36 @@
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr"/>
-      <c r="E104" s="3" t="n">
-        <v>0</v>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 11:57</t>
+        </is>
       </c>
       <c r="F104" s="3" t="inlineStr"/>
       <c r="G104" s="3" t="n">
-        <v>0</v>
+        <v>67472</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>0</v>
+        <v>54636</v>
       </c>
       <c r="I104" s="3" t="n">
-        <v>0</v>
+        <v>1315</v>
       </c>
       <c r="J104" s="3" t="n">
-        <v>0</v>
+        <v>53321</v>
       </c>
       <c r="K104" s="3" t="inlineStr"/>
       <c r="L104" s="3" t="n">
-        <v>0</v>
+        <v>19303</v>
       </c>
       <c r="M104" s="3" t="n">
-        <v>0</v>
+        <v>9422</v>
       </c>
       <c r="N104" s="3" t="n">
-        <v>0</v>
+        <v>10364</v>
       </c>
       <c r="O104" s="3" t="n">
-        <v>0</v>
+        <v>11564</v>
       </c>
     </row>
     <row r="105">
@@ -5460,34 +5456,36 @@
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr"/>
-      <c r="E105" s="3" t="n">
-        <v>0</v>
+      <c r="E105" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 08:24</t>
+        </is>
       </c>
       <c r="F105" s="3" t="inlineStr"/>
       <c r="G105" s="3" t="n">
-        <v>0</v>
+        <v>59232</v>
       </c>
       <c r="H105" s="3" t="n">
-        <v>0</v>
+        <v>36584</v>
       </c>
       <c r="I105" s="3" t="n">
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="J105" s="3" t="n">
-        <v>0</v>
+        <v>35779</v>
       </c>
       <c r="K105" s="3" t="inlineStr"/>
       <c r="L105" s="3" t="n">
-        <v>0</v>
+        <v>11510</v>
       </c>
       <c r="M105" s="3" t="n">
-        <v>0</v>
+        <v>5962</v>
       </c>
       <c r="N105" s="3" t="n">
-        <v>0</v>
+        <v>9550</v>
       </c>
       <c r="O105" s="3" t="n">
-        <v>0</v>
+        <v>6966</v>
       </c>
     </row>
     <row r="106">
@@ -5507,34 +5505,36 @@
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr"/>
-      <c r="E106" s="3" t="n">
-        <v>0</v>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:29</t>
+        </is>
       </c>
       <c r="F106" s="3" t="inlineStr"/>
       <c r="G106" s="3" t="n">
-        <v>0</v>
+        <v>61054</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>0</v>
+        <v>43388</v>
       </c>
       <c r="I106" s="3" t="n">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="J106" s="3" t="n">
-        <v>0</v>
+        <v>42663</v>
       </c>
       <c r="K106" s="3" t="inlineStr"/>
       <c r="L106" s="3" t="n">
-        <v>0</v>
+        <v>11324</v>
       </c>
       <c r="M106" s="3" t="n">
-        <v>0</v>
+        <v>6895</v>
       </c>
       <c r="N106" s="3" t="n">
-        <v>0</v>
+        <v>13695</v>
       </c>
       <c r="O106" s="3" t="n">
-        <v>0</v>
+        <v>8613</v>
       </c>
     </row>
     <row r="107">
@@ -5554,34 +5554,36 @@
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr"/>
-      <c r="E107" s="3" t="n">
-        <v>0</v>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 13:01</t>
+        </is>
       </c>
       <c r="F107" s="3" t="inlineStr"/>
       <c r="G107" s="3" t="n">
-        <v>0</v>
+        <v>41284</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>0</v>
+        <v>27866</v>
       </c>
       <c r="I107" s="3" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="J107" s="3" t="n">
-        <v>0</v>
+        <v>27286</v>
       </c>
       <c r="K107" s="3" t="inlineStr"/>
       <c r="L107" s="3" t="n">
-        <v>0</v>
+        <v>7461</v>
       </c>
       <c r="M107" s="3" t="n">
-        <v>0</v>
+        <v>6715</v>
       </c>
       <c r="N107" s="3" t="n">
-        <v>0</v>
+        <v>4435</v>
       </c>
       <c r="O107" s="3" t="n">
-        <v>0</v>
+        <v>7308</v>
       </c>
     </row>
     <row r="108">
@@ -5601,34 +5603,36 @@
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr"/>
-      <c r="E108" s="3" t="n">
-        <v>0</v>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 20:06</t>
+        </is>
       </c>
       <c r="F108" s="3" t="inlineStr"/>
       <c r="G108" s="3" t="n">
-        <v>0</v>
+        <v>38382</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>0</v>
+        <v>26322</v>
       </c>
       <c r="I108" s="3" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="J108" s="3" t="n">
-        <v>0</v>
+        <v>26028</v>
       </c>
       <c r="K108" s="3" t="inlineStr"/>
       <c r="L108" s="3" t="n">
-        <v>0</v>
+        <v>5691</v>
       </c>
       <c r="M108" s="3" t="n">
-        <v>0</v>
+        <v>8290</v>
       </c>
       <c r="N108" s="3" t="n">
-        <v>0</v>
+        <v>6325</v>
       </c>
       <c r="O108" s="3" t="n">
-        <v>0</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="109">
@@ -5742,34 +5746,36 @@
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr"/>
-      <c r="E111" s="3" t="n">
-        <v>0</v>
+      <c r="E111" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:43</t>
+        </is>
       </c>
       <c r="F111" s="3" t="inlineStr"/>
       <c r="G111" s="3" t="n">
-        <v>0</v>
+        <v>35807</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>0</v>
+        <v>31161</v>
       </c>
       <c r="I111" s="3" t="n">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="J111" s="3" t="n">
-        <v>0</v>
+        <v>30796</v>
       </c>
       <c r="K111" s="3" t="inlineStr"/>
       <c r="L111" s="3" t="n">
-        <v>0</v>
+        <v>5637</v>
       </c>
       <c r="M111" s="3" t="n">
-        <v>0</v>
+        <v>7169</v>
       </c>
       <c r="N111" s="3" t="n">
-        <v>0</v>
+        <v>9273</v>
       </c>
       <c r="O111" s="3" t="n">
-        <v>0</v>
+        <v>7175</v>
       </c>
     </row>
     <row r="112">
@@ -5789,36 +5795,34 @@
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr"/>
-      <c r="E112" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 14:19</t>
-        </is>
+      <c r="E112" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F112" s="3" t="inlineStr"/>
       <c r="G112" s="3" t="n">
-        <v>94637</v>
+        <v>0</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>62103</v>
+        <v>0</v>
       </c>
       <c r="I112" s="3" t="n">
-        <v>1488</v>
+        <v>0</v>
       </c>
       <c r="J112" s="3" t="n">
-        <v>60615</v>
+        <v>0</v>
       </c>
       <c r="K112" s="3" t="inlineStr"/>
       <c r="L112" s="3" t="n">
-        <v>30233</v>
+        <v>0</v>
       </c>
       <c r="M112" s="3" t="n">
-        <v>15982</v>
+        <v>0</v>
       </c>
       <c r="N112" s="3" t="n">
-        <v>5043</v>
+        <v>0</v>
       </c>
       <c r="O112" s="3" t="n">
-        <v>6324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -5838,36 +5842,34 @@
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr"/>
-      <c r="E113" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 09:32</t>
-        </is>
+      <c r="E113" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F113" s="3" t="inlineStr"/>
       <c r="G113" s="3" t="n">
-        <v>85694</v>
+        <v>0</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>69813</v>
+        <v>0</v>
       </c>
       <c r="I113" s="3" t="n">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="J113" s="3" t="n">
-        <v>68633</v>
+        <v>0</v>
       </c>
       <c r="K113" s="3" t="inlineStr"/>
       <c r="L113" s="3" t="n">
-        <v>33534</v>
+        <v>0</v>
       </c>
       <c r="M113" s="3" t="n">
-        <v>14909</v>
+        <v>0</v>
       </c>
       <c r="N113" s="3" t="n">
-        <v>7217</v>
+        <v>0</v>
       </c>
       <c r="O113" s="3" t="n">
-        <v>9539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -5887,36 +5889,34 @@
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr"/>
-      <c r="E114" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:55</t>
-        </is>
+      <c r="E114" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F114" s="3" t="inlineStr"/>
       <c r="G114" s="3" t="n">
-        <v>123982</v>
+        <v>0</v>
       </c>
       <c r="H114" s="3" t="n">
-        <v>74499</v>
+        <v>0</v>
       </c>
       <c r="I114" s="3" t="n">
-        <v>1529</v>
+        <v>0</v>
       </c>
       <c r="J114" s="3" t="n">
-        <v>72970</v>
+        <v>0</v>
       </c>
       <c r="K114" s="3" t="inlineStr"/>
       <c r="L114" s="3" t="n">
-        <v>44860</v>
+        <v>0</v>
       </c>
       <c r="M114" s="3" t="n">
-        <v>6889</v>
+        <v>0</v>
       </c>
       <c r="N114" s="3" t="n">
-        <v>9686</v>
+        <v>0</v>
       </c>
       <c r="O114" s="3" t="n">
-        <v>7885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -5936,36 +5936,34 @@
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr"/>
-      <c r="E115" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 13:31</t>
-        </is>
+      <c r="E115" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F115" s="3" t="inlineStr"/>
       <c r="G115" s="3" t="n">
-        <v>80574</v>
+        <v>0</v>
       </c>
       <c r="H115" s="3" t="n">
-        <v>62235</v>
+        <v>0</v>
       </c>
       <c r="I115" s="3" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="J115" s="3" t="n">
-        <v>61160</v>
+        <v>0</v>
       </c>
       <c r="K115" s="3" t="inlineStr"/>
       <c r="L115" s="3" t="n">
-        <v>29475</v>
+        <v>0</v>
       </c>
       <c r="M115" s="3" t="n">
-        <v>10747</v>
+        <v>0</v>
       </c>
       <c r="N115" s="3" t="n">
-        <v>8403</v>
+        <v>0</v>
       </c>
       <c r="O115" s="3" t="n">
-        <v>9475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -5985,36 +5983,34 @@
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr"/>
-      <c r="E116" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:29</t>
-        </is>
+      <c r="E116" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F116" s="3" t="inlineStr"/>
       <c r="G116" s="3" t="n">
-        <v>124780</v>
+        <v>0</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>90583</v>
+        <v>0</v>
       </c>
       <c r="I116" s="3" t="n">
-        <v>1834</v>
+        <v>0</v>
       </c>
       <c r="J116" s="3" t="n">
-        <v>88749</v>
+        <v>0</v>
       </c>
       <c r="K116" s="3" t="inlineStr"/>
       <c r="L116" s="3" t="n">
-        <v>43326</v>
+        <v>0</v>
       </c>
       <c r="M116" s="3" t="n">
-        <v>9841</v>
+        <v>0</v>
       </c>
       <c r="N116" s="3" t="n">
-        <v>16923</v>
+        <v>0</v>
       </c>
       <c r="O116" s="3" t="n">
-        <v>14220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -6034,36 +6030,34 @@
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr"/>
-      <c r="E117" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:46</t>
-        </is>
+      <c r="E117" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F117" s="3" t="inlineStr"/>
       <c r="G117" s="3" t="n">
-        <v>199028</v>
+        <v>0</v>
       </c>
       <c r="H117" s="3" t="n">
-        <v>161630</v>
+        <v>0</v>
       </c>
       <c r="I117" s="3" t="n">
-        <v>4438</v>
+        <v>0</v>
       </c>
       <c r="J117" s="3" t="n">
-        <v>157192</v>
+        <v>0</v>
       </c>
       <c r="K117" s="3" t="inlineStr"/>
       <c r="L117" s="3" t="n">
-        <v>69744</v>
+        <v>0</v>
       </c>
       <c r="M117" s="3" t="n">
-        <v>36751</v>
+        <v>0</v>
       </c>
       <c r="N117" s="3" t="n">
-        <v>20332</v>
+        <v>0</v>
       </c>
       <c r="O117" s="3" t="n">
-        <v>22503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -6130,36 +6124,34 @@
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr"/>
-      <c r="E119" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 08:36</t>
-        </is>
+      <c r="E119" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F119" s="3" t="inlineStr"/>
       <c r="G119" s="3" t="n">
-        <v>163241</v>
+        <v>0</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>139471</v>
+        <v>0</v>
       </c>
       <c r="I119" s="3" t="n">
-        <v>3872</v>
+        <v>0</v>
       </c>
       <c r="J119" s="3" t="n">
-        <v>135599</v>
+        <v>0</v>
       </c>
       <c r="K119" s="3" t="inlineStr"/>
       <c r="L119" s="3" t="n">
-        <v>66159</v>
+        <v>0</v>
       </c>
       <c r="M119" s="3" t="n">
-        <v>15587</v>
+        <v>0</v>
       </c>
       <c r="N119" s="3" t="n">
-        <v>19150</v>
+        <v>0</v>
       </c>
       <c r="O119" s="3" t="n">
-        <v>27921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -6179,36 +6171,34 @@
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr"/>
-      <c r="E120" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 17:32</t>
-        </is>
+      <c r="E120" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F120" s="3" t="inlineStr"/>
       <c r="G120" s="3" t="n">
-        <v>94808</v>
+        <v>0</v>
       </c>
       <c r="H120" s="3" t="n">
-        <v>83677</v>
+        <v>0</v>
       </c>
       <c r="I120" s="3" t="n">
-        <v>1114</v>
+        <v>0</v>
       </c>
       <c r="J120" s="3" t="n">
-        <v>82563</v>
+        <v>0</v>
       </c>
       <c r="K120" s="3" t="inlineStr"/>
       <c r="L120" s="3" t="n">
-        <v>38970</v>
+        <v>0</v>
       </c>
       <c r="M120" s="3" t="n">
-        <v>16127</v>
+        <v>0</v>
       </c>
       <c r="N120" s="3" t="n">
-        <v>10945</v>
+        <v>0</v>
       </c>
       <c r="O120" s="3" t="n">
-        <v>12390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -6230,34 +6220,34 @@
       <c r="D121" s="3" t="inlineStr"/>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 11:46</t>
+          <t>2024-08-18 16:38</t>
         </is>
       </c>
       <c r="F121" s="3" t="inlineStr"/>
       <c r="G121" s="3" t="n">
-        <v>79593</v>
+        <v>79366</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>61596</v>
+        <v>66472</v>
       </c>
       <c r="I121" s="3" t="n">
-        <v>659</v>
+        <v>1143</v>
       </c>
       <c r="J121" s="3" t="n">
-        <v>60937</v>
+        <v>65329</v>
       </c>
       <c r="K121" s="3" t="inlineStr"/>
       <c r="L121" s="3" t="n">
-        <v>30396</v>
+        <v>20855</v>
       </c>
       <c r="M121" s="3" t="n">
-        <v>12876</v>
+        <v>16867</v>
       </c>
       <c r="N121" s="3" t="n">
-        <v>12337</v>
+        <v>18819</v>
       </c>
       <c r="O121" s="3" t="n">
-        <v>2279</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="122">
@@ -6277,34 +6267,36 @@
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr"/>
-      <c r="E122" s="3" t="n">
-        <v>0</v>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:19</t>
+        </is>
       </c>
       <c r="F122" s="3" t="inlineStr"/>
       <c r="G122" s="3" t="n">
-        <v>0</v>
+        <v>166328</v>
       </c>
       <c r="H122" s="3" t="n">
-        <v>0</v>
+        <v>105782</v>
       </c>
       <c r="I122" s="3" t="n">
-        <v>0</v>
+        <v>1292</v>
       </c>
       <c r="J122" s="3" t="n">
-        <v>0</v>
+        <v>104490</v>
       </c>
       <c r="K122" s="3" t="inlineStr"/>
       <c r="L122" s="3" t="n">
-        <v>0</v>
+        <v>43784</v>
       </c>
       <c r="M122" s="3" t="n">
-        <v>0</v>
+        <v>15813</v>
       </c>
       <c r="N122" s="3" t="n">
-        <v>0</v>
+        <v>21582</v>
       </c>
       <c r="O122" s="3" t="n">
-        <v>0</v>
+        <v>18085</v>
       </c>
     </row>
     <row r="123">
@@ -6326,34 +6318,34 @@
       <c r="D123" s="3" t="inlineStr"/>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 12:06</t>
+          <t>2024-08-18 18:57</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr"/>
       <c r="G123" s="3" t="n">
-        <v>78406</v>
+        <v>81084</v>
       </c>
       <c r="H123" s="3" t="n">
-        <v>69412</v>
+        <v>69552</v>
       </c>
       <c r="I123" s="3" t="n">
-        <v>1705</v>
+        <v>1918</v>
       </c>
       <c r="J123" s="3" t="n">
-        <v>67707</v>
+        <v>67634</v>
       </c>
       <c r="K123" s="3" t="inlineStr"/>
       <c r="L123" s="3" t="n">
-        <v>32079</v>
+        <v>23046</v>
       </c>
       <c r="M123" s="3" t="n">
-        <v>12358</v>
+        <v>22542</v>
       </c>
       <c r="N123" s="3" t="n">
-        <v>11415</v>
+        <v>14552</v>
       </c>
       <c r="O123" s="3" t="n">
-        <v>8468</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="124">
@@ -6420,34 +6412,36 @@
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr"/>
-      <c r="E125" s="3" t="n">
-        <v>0</v>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 11:10</t>
+        </is>
       </c>
       <c r="F125" s="3" t="inlineStr"/>
       <c r="G125" s="3" t="n">
-        <v>0</v>
+        <v>109228</v>
       </c>
       <c r="H125" s="3" t="n">
-        <v>0</v>
+        <v>91031</v>
       </c>
       <c r="I125" s="3" t="n">
-        <v>0</v>
+        <v>1757</v>
       </c>
       <c r="J125" s="3" t="n">
-        <v>0</v>
+        <v>89274</v>
       </c>
       <c r="K125" s="3" t="inlineStr"/>
       <c r="L125" s="3" t="n">
-        <v>0</v>
+        <v>19608</v>
       </c>
       <c r="M125" s="3" t="n">
-        <v>0</v>
+        <v>33755</v>
       </c>
       <c r="N125" s="3" t="n">
-        <v>0</v>
+        <v>15873</v>
       </c>
       <c r="O125" s="3" t="n">
-        <v>0</v>
+        <v>15572</v>
       </c>
     </row>
     <row r="126">
@@ -6467,36 +6461,34 @@
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr"/>
-      <c r="E126" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 11:29</t>
-        </is>
+      <c r="E126" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F126" s="3" t="inlineStr"/>
       <c r="G126" s="3" t="n">
-        <v>109464</v>
+        <v>0</v>
       </c>
       <c r="H126" s="3" t="n">
-        <v>98174</v>
+        <v>0</v>
       </c>
       <c r="I126" s="3" t="n">
-        <v>1570</v>
+        <v>0</v>
       </c>
       <c r="J126" s="3" t="n">
-        <v>96604</v>
+        <v>0</v>
       </c>
       <c r="K126" s="3" t="inlineStr"/>
       <c r="L126" s="3" t="n">
-        <v>45554</v>
+        <v>0</v>
       </c>
       <c r="M126" s="3" t="n">
-        <v>26334</v>
+        <v>0</v>
       </c>
       <c r="N126" s="3" t="n">
-        <v>15470</v>
+        <v>0</v>
       </c>
       <c r="O126" s="3" t="n">
-        <v>4414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -6518,34 +6510,34 @@
       <c r="D127" s="3" t="inlineStr"/>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 08:20</t>
+          <t>2024-08-18 08:49</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr"/>
       <c r="G127" s="3" t="n">
-        <v>94592</v>
+        <v>102827</v>
       </c>
       <c r="H127" s="3" t="n">
-        <v>71907</v>
+        <v>76280</v>
       </c>
       <c r="I127" s="3" t="n">
-        <v>1261</v>
+        <v>1131</v>
       </c>
       <c r="J127" s="3" t="n">
-        <v>70646</v>
+        <v>75149</v>
       </c>
       <c r="K127" s="3" t="inlineStr"/>
       <c r="L127" s="3" t="n">
-        <v>31155</v>
+        <v>21563</v>
       </c>
       <c r="M127" s="3" t="n">
-        <v>13584</v>
+        <v>13507</v>
       </c>
       <c r="N127" s="3" t="n">
-        <v>11103</v>
+        <v>25024</v>
       </c>
       <c r="O127" s="3" t="n">
-        <v>11269</v>
+        <v>11296</v>
       </c>
     </row>
     <row r="128">
@@ -6565,36 +6557,34 @@
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr"/>
-      <c r="E128" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:13</t>
-        </is>
+      <c r="E128" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F128" s="3" t="inlineStr"/>
       <c r="G128" s="3" t="n">
-        <v>113718</v>
+        <v>0</v>
       </c>
       <c r="H128" s="3" t="n">
-        <v>89722</v>
+        <v>0</v>
       </c>
       <c r="I128" s="3" t="n">
-        <v>1415</v>
+        <v>0</v>
       </c>
       <c r="J128" s="3" t="n">
-        <v>88307</v>
+        <v>0</v>
       </c>
       <c r="K128" s="3" t="inlineStr"/>
       <c r="L128" s="3" t="n">
-        <v>44351</v>
+        <v>0</v>
       </c>
       <c r="M128" s="3" t="n">
-        <v>17132</v>
+        <v>0</v>
       </c>
       <c r="N128" s="3" t="n">
-        <v>9515</v>
+        <v>0</v>
       </c>
       <c r="O128" s="3" t="n">
-        <v>12893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -6661,36 +6651,34 @@
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr"/>
-      <c r="E130" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:22</t>
-        </is>
+      <c r="E130" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F130" s="3" t="inlineStr"/>
       <c r="G130" s="3" t="n">
-        <v>80317</v>
+        <v>0</v>
       </c>
       <c r="H130" s="3" t="n">
-        <v>70089</v>
+        <v>0</v>
       </c>
       <c r="I130" s="3" t="n">
-        <v>989</v>
+        <v>0</v>
       </c>
       <c r="J130" s="3" t="n">
-        <v>69100</v>
+        <v>0</v>
       </c>
       <c r="K130" s="3" t="inlineStr"/>
       <c r="L130" s="3" t="n">
-        <v>34424</v>
+        <v>0</v>
       </c>
       <c r="M130" s="3" t="n">
-        <v>12582</v>
+        <v>0</v>
       </c>
       <c r="N130" s="3" t="n">
-        <v>13607</v>
+        <v>0</v>
       </c>
       <c r="O130" s="3" t="n">
-        <v>5030</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -6759,34 +6747,34 @@
       <c r="D132" s="3" t="inlineStr"/>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 12:37</t>
+          <t>2024-08-18 08:50</t>
         </is>
       </c>
       <c r="F132" s="3" t="inlineStr"/>
       <c r="G132" s="3" t="n">
-        <v>95119</v>
+        <v>95546</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>64558</v>
+        <v>81158</v>
       </c>
       <c r="I132" s="3" t="n">
-        <v>1034</v>
+        <v>1124</v>
       </c>
       <c r="J132" s="3" t="n">
-        <v>63524</v>
+        <v>80034</v>
       </c>
       <c r="K132" s="3" t="inlineStr"/>
       <c r="L132" s="3" t="n">
-        <v>28642</v>
+        <v>25174</v>
       </c>
       <c r="M132" s="3" t="n">
-        <v>14611</v>
+        <v>23972</v>
       </c>
       <c r="N132" s="3" t="n">
-        <v>12324</v>
+        <v>11156</v>
       </c>
       <c r="O132" s="3" t="n">
-        <v>4769</v>
+        <v>15728</v>
       </c>
     </row>
     <row r="133">
@@ -6806,36 +6794,34 @@
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr"/>
-      <c r="E133" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:07</t>
-        </is>
+      <c r="E133" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F133" s="3" t="inlineStr"/>
       <c r="G133" s="3" t="n">
-        <v>103717</v>
+        <v>0</v>
       </c>
       <c r="H133" s="3" t="n">
-        <v>92058</v>
+        <v>0</v>
       </c>
       <c r="I133" s="3" t="n">
-        <v>1404</v>
+        <v>0</v>
       </c>
       <c r="J133" s="3" t="n">
-        <v>90654</v>
+        <v>0</v>
       </c>
       <c r="K133" s="3" t="inlineStr"/>
       <c r="L133" s="3" t="n">
-        <v>45856</v>
+        <v>0</v>
       </c>
       <c r="M133" s="3" t="n">
-        <v>22475</v>
+        <v>0</v>
       </c>
       <c r="N133" s="3" t="n">
-        <v>12087</v>
+        <v>0</v>
       </c>
       <c r="O133" s="3" t="n">
-        <v>5702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -6855,34 +6841,36 @@
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr"/>
-      <c r="E134" s="3" t="n">
-        <v>0</v>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 17:49</t>
+        </is>
       </c>
       <c r="F134" s="3" t="inlineStr"/>
       <c r="G134" s="3" t="n">
-        <v>0</v>
+        <v>107872</v>
       </c>
       <c r="H134" s="3" t="n">
-        <v>0</v>
+        <v>95547</v>
       </c>
       <c r="I134" s="3" t="n">
-        <v>0</v>
+        <v>2403</v>
       </c>
       <c r="J134" s="3" t="n">
-        <v>0</v>
+        <v>93144</v>
       </c>
       <c r="K134" s="3" t="inlineStr"/>
       <c r="L134" s="3" t="n">
-        <v>0</v>
+        <v>22427</v>
       </c>
       <c r="M134" s="3" t="n">
-        <v>0</v>
+        <v>19197</v>
       </c>
       <c r="N134" s="3" t="n">
-        <v>0</v>
+        <v>28511</v>
       </c>
       <c r="O134" s="3" t="n">
-        <v>0</v>
+        <v>18351</v>
       </c>
     </row>
     <row r="135">
@@ -6996,36 +6984,34 @@
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr"/>
-      <c r="E137" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 09:48</t>
-        </is>
+      <c r="E137" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F137" s="3" t="inlineStr"/>
       <c r="G137" s="3" t="n">
-        <v>93793</v>
+        <v>0</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>66510</v>
+        <v>0</v>
       </c>
       <c r="I137" s="3" t="n">
-        <v>1763</v>
+        <v>0</v>
       </c>
       <c r="J137" s="3" t="n">
-        <v>64747</v>
+        <v>0</v>
       </c>
       <c r="K137" s="3" t="inlineStr"/>
       <c r="L137" s="3" t="n">
-        <v>33736</v>
+        <v>0</v>
       </c>
       <c r="M137" s="3" t="n">
-        <v>7468</v>
+        <v>0</v>
       </c>
       <c r="N137" s="3" t="n">
-        <v>11260</v>
+        <v>0</v>
       </c>
       <c r="O137" s="3" t="n">
-        <v>9044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -7092,34 +7078,36 @@
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr"/>
-      <c r="E139" s="3" t="n">
-        <v>0</v>
+      <c r="E139" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:48</t>
+        </is>
       </c>
       <c r="F139" s="3" t="inlineStr"/>
       <c r="G139" s="3" t="n">
-        <v>0</v>
+        <v>74757</v>
       </c>
       <c r="H139" s="3" t="n">
-        <v>0</v>
+        <v>62898</v>
       </c>
       <c r="I139" s="3" t="n">
-        <v>0</v>
+        <v>1459</v>
       </c>
       <c r="J139" s="3" t="n">
-        <v>0</v>
+        <v>61439</v>
       </c>
       <c r="K139" s="3" t="inlineStr"/>
       <c r="L139" s="3" t="n">
-        <v>0</v>
+        <v>23629</v>
       </c>
       <c r="M139" s="3" t="n">
-        <v>0</v>
+        <v>11321</v>
       </c>
       <c r="N139" s="3" t="n">
-        <v>0</v>
+        <v>11620</v>
       </c>
       <c r="O139" s="3" t="n">
-        <v>0</v>
+        <v>11795</v>
       </c>
     </row>
     <row r="140">
@@ -7374,36 +7362,34 @@
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr"/>
-      <c r="E145" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:00</t>
-        </is>
+      <c r="E145" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F145" s="3" t="inlineStr"/>
       <c r="G145" s="3" t="n">
-        <v>88612</v>
+        <v>0</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>62541</v>
+        <v>0</v>
       </c>
       <c r="I145" s="3" t="n">
-        <v>1446</v>
+        <v>0</v>
       </c>
       <c r="J145" s="3" t="n">
-        <v>61095</v>
+        <v>0</v>
       </c>
       <c r="K145" s="3" t="inlineStr"/>
       <c r="L145" s="3" t="n">
-        <v>27297</v>
+        <v>0</v>
       </c>
       <c r="M145" s="3" t="n">
-        <v>11717</v>
+        <v>0</v>
       </c>
       <c r="N145" s="3" t="n">
-        <v>8043</v>
+        <v>0</v>
       </c>
       <c r="O145" s="3" t="n">
-        <v>10982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -7423,34 +7409,36 @@
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr"/>
-      <c r="E146" s="3" t="n">
-        <v>0</v>
+      <c r="E146" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:46</t>
+        </is>
       </c>
       <c r="F146" s="3" t="inlineStr"/>
       <c r="G146" s="3" t="n">
-        <v>0</v>
+        <v>80223</v>
       </c>
       <c r="H146" s="3" t="n">
-        <v>0</v>
+        <v>67897</v>
       </c>
       <c r="I146" s="3" t="n">
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="J146" s="3" t="n">
-        <v>0</v>
+        <v>66900</v>
       </c>
       <c r="K146" s="3" t="inlineStr"/>
       <c r="L146" s="3" t="n">
-        <v>0</v>
+        <v>17016</v>
       </c>
       <c r="M146" s="3" t="n">
-        <v>0</v>
+        <v>16772</v>
       </c>
       <c r="N146" s="3" t="n">
-        <v>0</v>
+        <v>15206</v>
       </c>
       <c r="O146" s="3" t="n">
-        <v>0</v>
+        <v>14559</v>
       </c>
     </row>
     <row r="147">
@@ -7472,34 +7460,34 @@
       <c r="D147" s="3" t="inlineStr"/>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 14:55</t>
+          <t>2024-08-18 14:13</t>
         </is>
       </c>
       <c r="F147" s="3" t="inlineStr"/>
       <c r="G147" s="3" t="n">
-        <v>104571</v>
+        <v>105832</v>
       </c>
       <c r="H147" s="3" t="n">
-        <v>78749</v>
+        <v>73521</v>
       </c>
       <c r="I147" s="3" t="n">
-        <v>1977</v>
+        <v>754</v>
       </c>
       <c r="J147" s="3" t="n">
-        <v>76772</v>
+        <v>72767</v>
       </c>
       <c r="K147" s="3" t="inlineStr"/>
       <c r="L147" s="3" t="n">
-        <v>34526</v>
+        <v>26048</v>
       </c>
       <c r="M147" s="3" t="n">
-        <v>15682</v>
+        <v>14632</v>
       </c>
       <c r="N147" s="3" t="n">
-        <v>13467</v>
+        <v>8173</v>
       </c>
       <c r="O147" s="3" t="n">
-        <v>9256</v>
+        <v>20274</v>
       </c>
     </row>
     <row r="148">
@@ -7519,34 +7507,36 @@
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr"/>
-      <c r="E148" s="3" t="n">
-        <v>0</v>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 10:23</t>
+        </is>
       </c>
       <c r="F148" s="3" t="inlineStr"/>
       <c r="G148" s="3" t="n">
-        <v>0</v>
+        <v>105426</v>
       </c>
       <c r="H148" s="3" t="n">
-        <v>0</v>
+        <v>67817</v>
       </c>
       <c r="I148" s="3" t="n">
-        <v>0</v>
+        <v>1640</v>
       </c>
       <c r="J148" s="3" t="n">
-        <v>0</v>
+        <v>66177</v>
       </c>
       <c r="K148" s="3" t="inlineStr"/>
       <c r="L148" s="3" t="n">
-        <v>0</v>
+        <v>24563</v>
       </c>
       <c r="M148" s="3" t="n">
-        <v>0</v>
+        <v>14194</v>
       </c>
       <c r="N148" s="3" t="n">
-        <v>0</v>
+        <v>16494</v>
       </c>
       <c r="O148" s="3" t="n">
-        <v>0</v>
+        <v>7615</v>
       </c>
     </row>
     <row r="149">
@@ -7566,34 +7556,36 @@
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr"/>
-      <c r="E149" s="3" t="n">
-        <v>0</v>
+      <c r="E149" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 16:29</t>
+        </is>
       </c>
       <c r="F149" s="3" t="inlineStr"/>
       <c r="G149" s="3" t="n">
-        <v>0</v>
+        <v>130575</v>
       </c>
       <c r="H149" s="3" t="n">
-        <v>0</v>
+        <v>103093</v>
       </c>
       <c r="I149" s="3" t="n">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="J149" s="3" t="n">
-        <v>0</v>
+        <v>102038</v>
       </c>
       <c r="K149" s="3" t="inlineStr"/>
       <c r="L149" s="3" t="n">
-        <v>0</v>
+        <v>28976</v>
       </c>
       <c r="M149" s="3" t="n">
-        <v>0</v>
+        <v>32846</v>
       </c>
       <c r="N149" s="3" t="n">
-        <v>0</v>
+        <v>25971</v>
       </c>
       <c r="O149" s="3" t="n">
-        <v>0</v>
+        <v>9141</v>
       </c>
     </row>
     <row r="150">
@@ -7613,34 +7605,36 @@
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr"/>
-      <c r="E150" s="3" t="n">
-        <v>0</v>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 10:34</t>
+        </is>
       </c>
       <c r="F150" s="3" t="inlineStr"/>
       <c r="G150" s="3" t="n">
-        <v>0</v>
+        <v>67244</v>
       </c>
       <c r="H150" s="3" t="n">
-        <v>0</v>
+        <v>47300</v>
       </c>
       <c r="I150" s="3" t="n">
-        <v>0</v>
+        <v>1066</v>
       </c>
       <c r="J150" s="3" t="n">
-        <v>0</v>
+        <v>46234</v>
       </c>
       <c r="K150" s="3" t="inlineStr"/>
       <c r="L150" s="3" t="n">
-        <v>0</v>
+        <v>17518</v>
       </c>
       <c r="M150" s="3" t="n">
-        <v>0</v>
+        <v>13234</v>
       </c>
       <c r="N150" s="3" t="n">
-        <v>0</v>
+        <v>11844</v>
       </c>
       <c r="O150" s="3" t="n">
-        <v>0</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="151">
@@ -7707,36 +7701,34 @@
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr"/>
-      <c r="E152" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 17:58</t>
-        </is>
+      <c r="E152" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F152" s="3" t="inlineStr"/>
       <c r="G152" s="3" t="n">
-        <v>90434</v>
+        <v>0</v>
       </c>
       <c r="H152" s="3" t="n">
-        <v>76308</v>
+        <v>0</v>
       </c>
       <c r="I152" s="3" t="n">
-        <v>1941</v>
+        <v>0</v>
       </c>
       <c r="J152" s="3" t="n">
-        <v>74367</v>
+        <v>0</v>
       </c>
       <c r="K152" s="3" t="inlineStr"/>
       <c r="L152" s="3" t="n">
-        <v>40962</v>
+        <v>0</v>
       </c>
       <c r="M152" s="3" t="n">
-        <v>7569</v>
+        <v>0</v>
       </c>
       <c r="N152" s="3" t="n">
-        <v>13186</v>
+        <v>0</v>
       </c>
       <c r="O152" s="3" t="n">
-        <v>8930</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -7897,36 +7889,34 @@
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr"/>
-      <c r="E156" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 13:02</t>
-        </is>
+      <c r="E156" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F156" s="3" t="inlineStr"/>
       <c r="G156" s="3" t="n">
-        <v>52867</v>
+        <v>0</v>
       </c>
       <c r="H156" s="3" t="n">
-        <v>40917</v>
+        <v>0</v>
       </c>
       <c r="I156" s="3" t="n">
-        <v>1204</v>
+        <v>0</v>
       </c>
       <c r="J156" s="3" t="n">
-        <v>39713</v>
+        <v>0</v>
       </c>
       <c r="K156" s="3" t="inlineStr"/>
       <c r="L156" s="3" t="n">
-        <v>21601</v>
+        <v>0</v>
       </c>
       <c r="M156" s="3" t="n">
-        <v>11096</v>
+        <v>0</v>
       </c>
       <c r="N156" s="3" t="n">
-        <v>3656</v>
+        <v>0</v>
       </c>
       <c r="O156" s="3" t="n">
-        <v>1373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -7946,36 +7936,34 @@
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr"/>
-      <c r="E157" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:19</t>
-        </is>
+      <c r="E157" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F157" s="3" t="inlineStr"/>
       <c r="G157" s="3" t="n">
-        <v>69443</v>
+        <v>0</v>
       </c>
       <c r="H157" s="3" t="n">
-        <v>51673</v>
+        <v>0</v>
       </c>
       <c r="I157" s="3" t="n">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="J157" s="3" t="n">
-        <v>50448</v>
+        <v>0</v>
       </c>
       <c r="K157" s="3" t="inlineStr"/>
       <c r="L157" s="3" t="n">
-        <v>26632</v>
+        <v>0</v>
       </c>
       <c r="M157" s="3" t="n">
-        <v>12063</v>
+        <v>0</v>
       </c>
       <c r="N157" s="3" t="n">
-        <v>7532</v>
+        <v>0</v>
       </c>
       <c r="O157" s="3" t="n">
-        <v>1696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -7995,36 +7983,34 @@
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr"/>
-      <c r="E158" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 13:33</t>
-        </is>
+      <c r="E158" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F158" s="3" t="inlineStr"/>
       <c r="G158" s="3" t="n">
-        <v>56823</v>
+        <v>0</v>
       </c>
       <c r="H158" s="3" t="n">
-        <v>36595</v>
+        <v>0</v>
       </c>
       <c r="I158" s="3" t="n">
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="J158" s="3" t="n">
-        <v>35824</v>
+        <v>0</v>
       </c>
       <c r="K158" s="3" t="inlineStr"/>
       <c r="L158" s="3" t="n">
-        <v>21565</v>
+        <v>0</v>
       </c>
       <c r="M158" s="3" t="n">
-        <v>4121</v>
+        <v>0</v>
       </c>
       <c r="N158" s="3" t="n">
-        <v>3658</v>
+        <v>0</v>
       </c>
       <c r="O158" s="3" t="n">
-        <v>4687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -8044,36 +8030,34 @@
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr"/>
-      <c r="E159" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:16</t>
-        </is>
+      <c r="E159" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F159" s="3" t="inlineStr"/>
       <c r="G159" s="3" t="n">
-        <v>74389</v>
+        <v>0</v>
       </c>
       <c r="H159" s="3" t="n">
-        <v>65887</v>
+        <v>0</v>
       </c>
       <c r="I159" s="3" t="n">
-        <v>1790</v>
+        <v>0</v>
       </c>
       <c r="J159" s="3" t="n">
-        <v>64097</v>
+        <v>0</v>
       </c>
       <c r="K159" s="3" t="inlineStr"/>
       <c r="L159" s="3" t="n">
-        <v>29748</v>
+        <v>0</v>
       </c>
       <c r="M159" s="3" t="n">
-        <v>13524</v>
+        <v>0</v>
       </c>
       <c r="N159" s="3" t="n">
-        <v>9417</v>
+        <v>0</v>
       </c>
       <c r="O159" s="3" t="n">
-        <v>8202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -8093,34 +8077,36 @@
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr"/>
-      <c r="E160" s="3" t="n">
-        <v>0</v>
+      <c r="E160" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 10:16</t>
+        </is>
       </c>
       <c r="F160" s="3" t="inlineStr"/>
       <c r="G160" s="3" t="n">
-        <v>0</v>
+        <v>64350</v>
       </c>
       <c r="H160" s="3" t="n">
-        <v>0</v>
+        <v>49582</v>
       </c>
       <c r="I160" s="3" t="n">
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="J160" s="3" t="n">
-        <v>0</v>
+        <v>48817</v>
       </c>
       <c r="K160" s="3" t="inlineStr"/>
       <c r="L160" s="3" t="n">
-        <v>0</v>
+        <v>15357</v>
       </c>
       <c r="M160" s="3" t="n">
-        <v>0</v>
+        <v>8495</v>
       </c>
       <c r="N160" s="3" t="n">
-        <v>0</v>
+        <v>7993</v>
       </c>
       <c r="O160" s="3" t="n">
-        <v>0</v>
+        <v>14530</v>
       </c>
     </row>
     <row r="161">
@@ -8140,36 +8126,34 @@
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr"/>
-      <c r="E161" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 17:05</t>
-        </is>
+      <c r="E161" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F161" s="3" t="inlineStr"/>
       <c r="G161" s="3" t="n">
-        <v>76596</v>
+        <v>0</v>
       </c>
       <c r="H161" s="3" t="n">
-        <v>64832</v>
+        <v>0</v>
       </c>
       <c r="I161" s="3" t="n">
-        <v>1860</v>
+        <v>0</v>
       </c>
       <c r="J161" s="3" t="n">
-        <v>62972</v>
+        <v>0</v>
       </c>
       <c r="K161" s="3" t="inlineStr"/>
       <c r="L161" s="3" t="n">
-        <v>38643</v>
+        <v>0</v>
       </c>
       <c r="M161" s="3" t="n">
-        <v>10317</v>
+        <v>0</v>
       </c>
       <c r="N161" s="3" t="n">
-        <v>8779</v>
+        <v>0</v>
       </c>
       <c r="O161" s="3" t="n">
-        <v>2083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -8238,34 +8222,34 @@
       <c r="D163" s="3" t="inlineStr"/>
       <c r="E163" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 12:51</t>
+          <t>2024-08-18 19:45</t>
         </is>
       </c>
       <c r="F163" s="3" t="inlineStr"/>
       <c r="G163" s="3" t="n">
-        <v>67785</v>
+        <v>69421</v>
       </c>
       <c r="H163" s="3" t="n">
-        <v>45407</v>
+        <v>44240</v>
       </c>
       <c r="I163" s="3" t="n">
-        <v>1242</v>
+        <v>548</v>
       </c>
       <c r="J163" s="3" t="n">
-        <v>44165</v>
+        <v>43692</v>
       </c>
       <c r="K163" s="3" t="inlineStr"/>
       <c r="L163" s="3" t="n">
-        <v>24608</v>
+        <v>19102</v>
       </c>
       <c r="M163" s="3" t="n">
-        <v>10510</v>
+        <v>11957</v>
       </c>
       <c r="N163" s="3" t="n">
-        <v>5317</v>
+        <v>5922</v>
       </c>
       <c r="O163" s="3" t="n">
-        <v>1521</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="164">
@@ -8332,36 +8316,34 @@
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr"/>
-      <c r="E165" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:51</t>
-        </is>
+      <c r="E165" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F165" s="3" t="inlineStr"/>
       <c r="G165" s="3" t="n">
-        <v>110889</v>
+        <v>0</v>
       </c>
       <c r="H165" s="3" t="n">
-        <v>88024</v>
+        <v>0</v>
       </c>
       <c r="I165" s="3" t="n">
-        <v>2344</v>
+        <v>0</v>
       </c>
       <c r="J165" s="3" t="n">
-        <v>85680</v>
+        <v>0</v>
       </c>
       <c r="K165" s="3" t="inlineStr"/>
       <c r="L165" s="3" t="n">
-        <v>37507</v>
+        <v>0</v>
       </c>
       <c r="M165" s="3" t="n">
-        <v>9251</v>
+        <v>0</v>
       </c>
       <c r="N165" s="3" t="n">
-        <v>18379</v>
+        <v>0</v>
       </c>
       <c r="O165" s="3" t="n">
-        <v>16257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -8381,36 +8363,34 @@
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr"/>
-      <c r="E166" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 08:17</t>
-        </is>
+      <c r="E166" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F166" s="3" t="inlineStr"/>
       <c r="G166" s="3" t="n">
-        <v>164676</v>
+        <v>0</v>
       </c>
       <c r="H166" s="3" t="n">
-        <v>109630</v>
+        <v>0</v>
       </c>
       <c r="I166" s="3" t="n">
-        <v>1377</v>
+        <v>0</v>
       </c>
       <c r="J166" s="3" t="n">
-        <v>108253</v>
+        <v>0</v>
       </c>
       <c r="K166" s="3" t="inlineStr"/>
       <c r="L166" s="3" t="n">
-        <v>44700</v>
+        <v>0</v>
       </c>
       <c r="M166" s="3" t="n">
-        <v>17394</v>
+        <v>0</v>
       </c>
       <c r="N166" s="3" t="n">
-        <v>24540</v>
+        <v>0</v>
       </c>
       <c r="O166" s="3" t="n">
-        <v>16204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -8477,34 +8457,36 @@
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr"/>
-      <c r="E168" s="3" t="n">
-        <v>0</v>
+      <c r="E168" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 16:51</t>
+        </is>
       </c>
       <c r="F168" s="3" t="inlineStr"/>
       <c r="G168" s="3" t="n">
-        <v>0</v>
+        <v>129146</v>
       </c>
       <c r="H168" s="3" t="n">
-        <v>0</v>
+        <v>115116</v>
       </c>
       <c r="I168" s="3" t="n">
-        <v>0</v>
+        <v>1246</v>
       </c>
       <c r="J168" s="3" t="n">
-        <v>0</v>
+        <v>113870</v>
       </c>
       <c r="K168" s="3" t="inlineStr"/>
       <c r="L168" s="3" t="n">
-        <v>0</v>
+        <v>31763</v>
       </c>
       <c r="M168" s="3" t="n">
-        <v>0</v>
+        <v>32736</v>
       </c>
       <c r="N168" s="3" t="n">
-        <v>0</v>
+        <v>27606</v>
       </c>
       <c r="O168" s="3" t="n">
-        <v>0</v>
+        <v>16070</v>
       </c>
     </row>
     <row r="169">
@@ -8665,34 +8647,36 @@
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr"/>
-      <c r="E172" s="3" t="n">
-        <v>0</v>
+      <c r="E172" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 11:51</t>
+        </is>
       </c>
       <c r="F172" s="3" t="inlineStr"/>
       <c r="G172" s="3" t="n">
-        <v>0</v>
+        <v>110604</v>
       </c>
       <c r="H172" s="3" t="n">
-        <v>0</v>
+        <v>86278</v>
       </c>
       <c r="I172" s="3" t="n">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="J172" s="3" t="n">
-        <v>0</v>
+        <v>84837</v>
       </c>
       <c r="K172" s="3" t="inlineStr"/>
       <c r="L172" s="3" t="n">
-        <v>0</v>
+        <v>14963</v>
       </c>
       <c r="M172" s="3" t="n">
-        <v>0</v>
+        <v>24054</v>
       </c>
       <c r="N172" s="3" t="n">
-        <v>0</v>
+        <v>22068</v>
       </c>
       <c r="O172" s="3" t="n">
-        <v>0</v>
+        <v>19507</v>
       </c>
     </row>
     <row r="173">
@@ -8712,34 +8696,36 @@
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr"/>
-      <c r="E173" s="3" t="n">
-        <v>0</v>
+      <c r="E173" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 16:20</t>
+        </is>
       </c>
       <c r="F173" s="3" t="inlineStr"/>
       <c r="G173" s="3" t="n">
-        <v>0</v>
+        <v>70647</v>
       </c>
       <c r="H173" s="3" t="n">
-        <v>0</v>
+        <v>44757</v>
       </c>
       <c r="I173" s="3" t="n">
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="J173" s="3" t="n">
-        <v>0</v>
+        <v>43868</v>
       </c>
       <c r="K173" s="3" t="inlineStr"/>
       <c r="L173" s="3" t="n">
-        <v>0</v>
+        <v>15379</v>
       </c>
       <c r="M173" s="3" t="n">
-        <v>0</v>
+        <v>6667</v>
       </c>
       <c r="N173" s="3" t="n">
-        <v>0</v>
+        <v>8990</v>
       </c>
       <c r="O173" s="3" t="n">
-        <v>0</v>
+        <v>10636</v>
       </c>
     </row>
     <row r="174">
@@ -8759,36 +8745,34 @@
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr"/>
-      <c r="E174" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 17:06</t>
-        </is>
+      <c r="E174" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F174" s="3" t="inlineStr"/>
       <c r="G174" s="3" t="n">
-        <v>150122</v>
+        <v>0</v>
       </c>
       <c r="H174" s="3" t="n">
-        <v>91683</v>
+        <v>0</v>
       </c>
       <c r="I174" s="3" t="n">
-        <v>1464</v>
+        <v>0</v>
       </c>
       <c r="J174" s="3" t="n">
-        <v>90219</v>
+        <v>0</v>
       </c>
       <c r="K174" s="3" t="inlineStr"/>
       <c r="L174" s="3" t="n">
-        <v>53704</v>
+        <v>0</v>
       </c>
       <c r="M174" s="3" t="n">
-        <v>15480</v>
+        <v>0</v>
       </c>
       <c r="N174" s="3" t="n">
-        <v>9904</v>
+        <v>0</v>
       </c>
       <c r="O174" s="3" t="n">
-        <v>6619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -8857,34 +8841,34 @@
       <c r="D176" s="3" t="inlineStr"/>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:08</t>
+          <t>2024-08-18 11:46</t>
         </is>
       </c>
       <c r="F176" s="3" t="inlineStr"/>
       <c r="G176" s="3" t="n">
-        <v>66417</v>
+        <v>66201</v>
       </c>
       <c r="H176" s="3" t="n">
-        <v>43829</v>
+        <v>59007</v>
       </c>
       <c r="I176" s="3" t="n">
-        <v>744</v>
+        <v>1532</v>
       </c>
       <c r="J176" s="3" t="n">
-        <v>43085</v>
+        <v>57475</v>
       </c>
       <c r="K176" s="3" t="inlineStr"/>
       <c r="L176" s="3" t="n">
-        <v>21586</v>
+        <v>15074</v>
       </c>
       <c r="M176" s="3" t="n">
-        <v>7663</v>
+        <v>18378</v>
       </c>
       <c r="N176" s="3" t="n">
-        <v>7099</v>
+        <v>9607</v>
       </c>
       <c r="O176" s="3" t="n">
-        <v>4581</v>
+        <v>11540</v>
       </c>
     </row>
     <row r="177">
@@ -8904,36 +8888,34 @@
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr"/>
-      <c r="E177" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 12:07</t>
-        </is>
+      <c r="E177" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F177" s="3" t="inlineStr"/>
       <c r="G177" s="3" t="n">
-        <v>70834</v>
+        <v>0</v>
       </c>
       <c r="H177" s="3" t="n">
-        <v>52306</v>
+        <v>0</v>
       </c>
       <c r="I177" s="3" t="n">
-        <v>946</v>
+        <v>0</v>
       </c>
       <c r="J177" s="3" t="n">
-        <v>51360</v>
+        <v>0</v>
       </c>
       <c r="K177" s="3" t="inlineStr"/>
       <c r="L177" s="3" t="n">
-        <v>31540</v>
+        <v>0</v>
       </c>
       <c r="M177" s="3" t="n">
-        <v>5753</v>
+        <v>0</v>
       </c>
       <c r="N177" s="3" t="n">
-        <v>7337</v>
+        <v>0</v>
       </c>
       <c r="O177" s="3" t="n">
-        <v>4160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -9000,36 +8982,34 @@
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr"/>
-      <c r="E179" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:15</t>
-        </is>
+      <c r="E179" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F179" s="3" t="inlineStr"/>
       <c r="G179" s="3" t="n">
-        <v>101375</v>
+        <v>0</v>
       </c>
       <c r="H179" s="3" t="n">
-        <v>87474</v>
+        <v>0</v>
       </c>
       <c r="I179" s="3" t="n">
-        <v>1434</v>
+        <v>0</v>
       </c>
       <c r="J179" s="3" t="n">
-        <v>86040</v>
+        <v>0</v>
       </c>
       <c r="K179" s="3" t="inlineStr"/>
       <c r="L179" s="3" t="n">
-        <v>40495</v>
+        <v>0</v>
       </c>
       <c r="M179" s="3" t="n">
-        <v>16297</v>
+        <v>0</v>
       </c>
       <c r="N179" s="3" t="n">
-        <v>12783</v>
+        <v>0</v>
       </c>
       <c r="O179" s="3" t="n">
-        <v>12161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -9049,34 +9029,36 @@
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr"/>
-      <c r="E180" s="3" t="n">
-        <v>0</v>
+      <c r="E180" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:54</t>
+        </is>
       </c>
       <c r="F180" s="3" t="inlineStr"/>
       <c r="G180" s="3" t="n">
-        <v>0</v>
+        <v>54984</v>
       </c>
       <c r="H180" s="3" t="n">
-        <v>0</v>
+        <v>42186</v>
       </c>
       <c r="I180" s="3" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J180" s="3" t="n">
-        <v>0</v>
+        <v>41727</v>
       </c>
       <c r="K180" s="3" t="inlineStr"/>
       <c r="L180" s="3" t="n">
-        <v>0</v>
+        <v>13461</v>
       </c>
       <c r="M180" s="3" t="n">
-        <v>0</v>
+        <v>16694</v>
       </c>
       <c r="N180" s="3" t="n">
-        <v>0</v>
+        <v>7750</v>
       </c>
       <c r="O180" s="3" t="n">
-        <v>0</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="181">
@@ -9098,34 +9080,34 @@
       <c r="D181" s="3" t="inlineStr"/>
       <c r="E181" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 19:08</t>
+          <t>2024-08-18 10:35</t>
         </is>
       </c>
       <c r="F181" s="3" t="inlineStr"/>
       <c r="G181" s="3" t="n">
-        <v>80131</v>
+        <v>78721</v>
       </c>
       <c r="H181" s="3" t="n">
-        <v>63822</v>
+        <v>54318</v>
       </c>
       <c r="I181" s="3" t="n">
-        <v>941</v>
+        <v>1442</v>
       </c>
       <c r="J181" s="3" t="n">
-        <v>62881</v>
+        <v>52876</v>
       </c>
       <c r="K181" s="3" t="inlineStr"/>
       <c r="L181" s="3" t="n">
-        <v>29813</v>
+        <v>16842</v>
       </c>
       <c r="M181" s="3" t="n">
-        <v>14075</v>
+        <v>11650</v>
       </c>
       <c r="N181" s="3" t="n">
-        <v>7301</v>
+        <v>12594</v>
       </c>
       <c r="O181" s="3" t="n">
-        <v>8546</v>
+        <v>9144</v>
       </c>
     </row>
     <row r="182">
@@ -9147,34 +9129,34 @@
       <c r="D182" s="3" t="inlineStr"/>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 11:31</t>
+          <t>2024-08-18 09:52</t>
         </is>
       </c>
       <c r="F182" s="3" t="inlineStr"/>
       <c r="G182" s="3" t="n">
-        <v>81825</v>
+        <v>81099</v>
       </c>
       <c r="H182" s="3" t="n">
-        <v>53455</v>
+        <v>69127</v>
       </c>
       <c r="I182" s="3" t="n">
-        <v>599</v>
+        <v>1732</v>
       </c>
       <c r="J182" s="3" t="n">
-        <v>52856</v>
+        <v>67395</v>
       </c>
       <c r="K182" s="3" t="inlineStr"/>
       <c r="L182" s="3" t="n">
-        <v>28226</v>
+        <v>21509</v>
       </c>
       <c r="M182" s="3" t="n">
-        <v>5325</v>
+        <v>14943</v>
       </c>
       <c r="N182" s="3" t="n">
-        <v>12987</v>
+        <v>22444</v>
       </c>
       <c r="O182" s="3" t="n">
-        <v>3672</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="183">
@@ -9196,34 +9178,34 @@
       <c r="D183" s="3" t="inlineStr"/>
       <c r="E183" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 14:08</t>
+          <t>2024-08-18 09:07</t>
         </is>
       </c>
       <c r="F183" s="3" t="inlineStr"/>
       <c r="G183" s="3" t="n">
-        <v>70592</v>
+        <v>74852</v>
       </c>
       <c r="H183" s="3" t="n">
-        <v>60298</v>
+        <v>65294</v>
       </c>
       <c r="I183" s="3" t="n">
-        <v>1787</v>
+        <v>947</v>
       </c>
       <c r="J183" s="3" t="n">
-        <v>58511</v>
+        <v>64347</v>
       </c>
       <c r="K183" s="3" t="inlineStr"/>
       <c r="L183" s="3" t="n">
-        <v>38364</v>
+        <v>22025</v>
       </c>
       <c r="M183" s="3" t="n">
-        <v>6657</v>
+        <v>17460</v>
       </c>
       <c r="N183" s="3" t="n">
-        <v>3843</v>
+        <v>7681</v>
       </c>
       <c r="O183" s="3" t="n">
-        <v>6720</v>
+        <v>13962</v>
       </c>
     </row>
   </sheetData>

--- a/data/prespollsl2024.xlsx
+++ b/data/prespollsl2024.xlsx
@@ -634,29 +634,29 @@
       </c>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="n">
-        <v>39077</v>
+        <v>41488</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>32141</v>
+        <v>30863</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>426</v>
+        <v>351</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>31715</v>
+        <v>30512</v>
       </c>
       <c r="K4" s="3" t="inlineStr"/>
       <c r="L4" s="3" t="n">
-        <v>10003</v>
+        <v>15715</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>7259</v>
+        <v>6009</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>10131</v>
+        <v>6021</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>2733</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="5">
@@ -676,34 +676,36 @@
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="n">
-        <v>0</v>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:56</t>
+        </is>
       </c>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="n">
-        <v>0</v>
+        <v>58636</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>0</v>
+        <v>46326</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0</v>
+        <v>897</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>0</v>
+        <v>45429</v>
       </c>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>16802</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>0</v>
+        <v>7009</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>0</v>
+        <v>14235</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>0</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="6">
@@ -723,36 +725,34 @@
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr"/>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 11:24</t>
-        </is>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="n">
-        <v>22917</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>19801</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>413</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>19388</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3" t="inlineStr"/>
       <c r="L6" s="3" t="n">
-        <v>7354</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>4740</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>2344</v>
+        <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>3978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -774,34 +774,34 @@
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 15:06</t>
+          <t>2024-08-18 14:50</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="n">
-        <v>21098</v>
+        <v>19743</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>12992</v>
+        <v>13802</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>320</v>
+        <v>167</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>12672</v>
+        <v>13635</v>
       </c>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="n">
-        <v>3031</v>
+        <v>4194</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>3675</v>
+        <v>4506</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>4264</v>
+        <v>1939</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>1067</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="8">
@@ -823,34 +823,34 @@
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 12:16</t>
+          <t>2024-08-18 16:29</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="n">
-        <v>43553</v>
+        <v>43181</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>28133</v>
+        <v>38778</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>729</v>
+        <v>612</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>27404</v>
+        <v>38166</v>
       </c>
       <c r="K8" s="3" t="inlineStr"/>
       <c r="L8" s="3" t="n">
-        <v>11354</v>
+        <v>10628</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>4652</v>
+        <v>9907</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>8216</v>
+        <v>14575</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>1809</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="9">
@@ -870,34 +870,36 @@
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="n">
-        <v>0</v>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:29</t>
+        </is>
       </c>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="n">
-        <v>0</v>
+        <v>30649</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>0</v>
+        <v>18601</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>0</v>
+        <v>18325</v>
       </c>
       <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="n">
-        <v>0</v>
+        <v>5950</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>0</v>
+        <v>4211</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>0</v>
+        <v>3321</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>0</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="10">
@@ -919,34 +921,34 @@
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 10:37</t>
+          <t>2024-08-18 17:03</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="n">
-        <v>20833</v>
+        <v>20771</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>12685</v>
+        <v>13807</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>318</v>
+        <v>391</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>12367</v>
+        <v>13416</v>
       </c>
       <c r="K10" s="3" t="inlineStr"/>
       <c r="L10" s="3" t="n">
-        <v>4474</v>
+        <v>5003</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>3265</v>
+        <v>3734</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>2416</v>
+        <v>1985</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>1591</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="11">
@@ -966,36 +968,34 @@
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr"/>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 09:17</t>
-        </is>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="n">
-        <v>27176</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>23362</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>22932</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3" t="inlineStr"/>
       <c r="L11" s="3" t="n">
-        <v>5585</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>6148</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>5995</v>
+        <v>0</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>4055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1109,36 +1109,34 @@
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:10</t>
-        </is>
+      <c r="E14" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="n">
-        <v>30685</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>24113</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>23446</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="inlineStr"/>
       <c r="L14" s="3" t="n">
-        <v>5719</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>5698</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>6565</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>4289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1252,34 +1250,36 @@
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr"/>
-      <c r="E17" s="3" t="n">
-        <v>0</v>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 13:44</t>
+        </is>
       </c>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="n">
-        <v>0</v>
+        <v>14477</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>0</v>
+        <v>12610</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>0</v>
+        <v>12411</v>
       </c>
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="n">
-        <v>0</v>
+        <v>3652</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>0</v>
+        <v>3994</v>
       </c>
       <c r="N17" s="3" t="n">
-        <v>0</v>
+        <v>1817</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>0</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="18">
@@ -1299,34 +1299,36 @@
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="n">
-        <v>0</v>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 16:27</t>
+        </is>
       </c>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="n">
-        <v>0</v>
+        <v>57602</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>0</v>
+        <v>44618</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0</v>
+        <v>43906</v>
       </c>
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="n">
-        <v>0</v>
+        <v>18001</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>0</v>
+        <v>15975</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>0</v>
+        <v>5639</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>0</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="19">
@@ -1346,36 +1348,34 @@
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:25</t>
-        </is>
+      <c r="E19" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="n">
-        <v>20231</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>12281</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>12006</v>
+        <v>0</v>
       </c>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="n">
-        <v>4421</v>
+        <v>0</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>4082</v>
+        <v>0</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>2359</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1442,36 +1442,34 @@
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 08:19</t>
-        </is>
+      <c r="E21" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="n">
-        <v>23656</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>16464</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>16233</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="inlineStr"/>
       <c r="L21" s="3" t="n">
-        <v>7053</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>4204</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>1757</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>2405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1491,36 +1489,34 @@
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 09:44</t>
-        </is>
+      <c r="E22" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="n">
-        <v>32987</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>28150</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>601</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>27549</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="inlineStr"/>
       <c r="L22" s="3" t="n">
-        <v>7903</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>9561</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="n">
-        <v>4275</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>4430</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1587,34 +1583,36 @@
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="n">
-        <v>0</v>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 16:45</t>
+        </is>
       </c>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="n">
-        <v>0</v>
+        <v>97142</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>0</v>
+        <v>64784</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>0</v>
+        <v>1882</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>0</v>
+        <v>62902</v>
       </c>
       <c r="K24" s="3" t="inlineStr"/>
       <c r="L24" s="3" t="n">
-        <v>0</v>
+        <v>29980</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>0</v>
+        <v>9691</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>0</v>
+        <v>13977</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>0</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="25">
@@ -1681,34 +1679,36 @@
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr"/>
-      <c r="E26" s="3" t="n">
-        <v>0</v>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 17:51</t>
+        </is>
       </c>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="n">
-        <v>0</v>
+        <v>67006</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>0</v>
+        <v>45715</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>0</v>
+        <v>44921</v>
       </c>
       <c r="K26" s="3" t="inlineStr"/>
       <c r="L26" s="3" t="n">
-        <v>0</v>
+        <v>21932</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>0</v>
+        <v>7622</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>0</v>
+        <v>4780</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>0</v>
+        <v>8338</v>
       </c>
     </row>
     <row r="27">
@@ -1822,36 +1822,34 @@
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr"/>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 12:15</t>
-        </is>
+      <c r="E29" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="n">
-        <v>62778</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>49163</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>1353</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>47810</v>
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="inlineStr"/>
       <c r="L29" s="3" t="n">
-        <v>18870</v>
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>13437</v>
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>9298</v>
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>3812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2106,36 +2104,34 @@
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr"/>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 14:35</t>
-        </is>
+      <c r="E35" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="n">
-        <v>197653</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>165623</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>3323</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>162300</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="inlineStr"/>
       <c r="L35" s="3" t="n">
-        <v>35563</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>55172</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="n">
-        <v>38628</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>24820</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2204,34 +2200,34 @@
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 16:54</t>
+          <t>2024-08-18 10:33</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="n">
-        <v>184136</v>
+        <v>192374</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>155891</v>
+        <v>163316</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>4138</v>
+        <v>1926</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>151753</v>
+        <v>161390</v>
       </c>
       <c r="K37" s="3" t="inlineStr"/>
       <c r="L37" s="3" t="n">
-        <v>33863</v>
+        <v>45507</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>48867</v>
+        <v>44885</v>
       </c>
       <c r="N37" s="3" t="n">
-        <v>55280</v>
+        <v>28921</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>6153</v>
+        <v>34004</v>
       </c>
     </row>
     <row r="38">
@@ -2300,34 +2296,34 @@
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 20:09</t>
+          <t>2024-08-18 13:58</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="n">
-        <v>143296</v>
+        <v>140033</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>123340</v>
+        <v>103274</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>1519</v>
+        <v>1701</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>121821</v>
+        <v>101573</v>
       </c>
       <c r="K39" s="3" t="inlineStr"/>
       <c r="L39" s="3" t="n">
-        <v>48626</v>
+        <v>43581</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>22490</v>
+        <v>30807</v>
       </c>
       <c r="N39" s="3" t="n">
-        <v>25949</v>
+        <v>19494</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>18663</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="40">
@@ -2394,34 +2390,36 @@
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="3" t="n">
-        <v>0</v>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 08:24</t>
+        </is>
       </c>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="n">
-        <v>0</v>
+        <v>171433</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>0</v>
+        <v>132773</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>0</v>
+        <v>1754</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>0</v>
+        <v>131019</v>
       </c>
       <c r="K41" s="3" t="inlineStr"/>
       <c r="L41" s="3" t="n">
-        <v>0</v>
+        <v>47656</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>0</v>
+        <v>27680</v>
       </c>
       <c r="N41" s="3" t="n">
-        <v>0</v>
+        <v>27617</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>0</v>
+        <v>21513</v>
       </c>
     </row>
     <row r="42">
@@ -2535,34 +2533,36 @@
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr"/>
-      <c r="E44" s="3" t="n">
-        <v>0</v>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 09:39</t>
+        </is>
       </c>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="n">
-        <v>0</v>
+        <v>140237</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>0</v>
+        <v>103670</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>0</v>
+        <v>1318</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>0</v>
+        <v>102352</v>
       </c>
       <c r="K44" s="3" t="inlineStr"/>
       <c r="L44" s="3" t="n">
-        <v>0</v>
+        <v>27375</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>0</v>
+        <v>26076</v>
       </c>
       <c r="N44" s="3" t="n">
-        <v>0</v>
+        <v>32526</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>0</v>
+        <v>11256</v>
       </c>
     </row>
     <row r="45">
@@ -2582,36 +2582,34 @@
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr"/>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:02</t>
-        </is>
+      <c r="E45" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="n">
-        <v>148097</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>125659</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>3624</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="n">
-        <v>122035</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="inlineStr"/>
       <c r="L45" s="3" t="n">
-        <v>43363</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>36375</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="n">
-        <v>28402</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>7791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2633,34 +2631,34 @@
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 11:39</t>
+          <t>2024-08-18 13:43</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="n">
-        <v>156975</v>
+        <v>164921</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>135165</v>
+        <v>123490</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>4015</v>
+        <v>2564</v>
       </c>
       <c r="J46" s="3" t="n">
-        <v>131150</v>
+        <v>120926</v>
       </c>
       <c r="K46" s="3" t="inlineStr"/>
       <c r="L46" s="3" t="n">
-        <v>47915</v>
+        <v>45728</v>
       </c>
       <c r="M46" s="3" t="n">
-        <v>20742</v>
+        <v>18499</v>
       </c>
       <c r="N46" s="3" t="n">
-        <v>34744</v>
+        <v>22173</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>21190</v>
+        <v>28478</v>
       </c>
     </row>
     <row r="47">
@@ -2727,36 +2725,34 @@
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr"/>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 14:26</t>
-        </is>
+      <c r="E48" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="n">
-        <v>165283</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>99324</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>2429</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="n">
-        <v>96895</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="inlineStr"/>
       <c r="L48" s="3" t="n">
-        <v>26724</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>30619</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="n">
-        <v>14228</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>20477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2776,36 +2772,34 @@
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr"/>
-      <c r="E49" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 09:48</t>
-        </is>
+      <c r="E49" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="n">
-        <v>122761</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>79738</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>2276</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>77462</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="inlineStr"/>
       <c r="L49" s="3" t="n">
-        <v>26639</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="n">
-        <v>14755</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="n">
-        <v>16685</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>15508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2872,36 +2866,34 @@
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr"/>
-      <c r="E51" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:47</t>
-        </is>
+      <c r="E51" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F51" s="3" t="inlineStr"/>
       <c r="G51" s="3" t="n">
-        <v>100864</v>
+        <v>0</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>77694</v>
+        <v>0</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>2138</v>
+        <v>0</v>
       </c>
       <c r="J51" s="3" t="n">
-        <v>75556</v>
+        <v>0</v>
       </c>
       <c r="K51" s="3" t="inlineStr"/>
       <c r="L51" s="3" t="n">
-        <v>30572</v>
+        <v>0</v>
       </c>
       <c r="M51" s="3" t="n">
-        <v>23941</v>
+        <v>0</v>
       </c>
       <c r="N51" s="3" t="n">
-        <v>13340</v>
+        <v>0</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>3924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2921,34 +2913,36 @@
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr"/>
-      <c r="E52" s="3" t="n">
-        <v>0</v>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 15:07</t>
+        </is>
       </c>
       <c r="F52" s="3" t="inlineStr"/>
       <c r="G52" s="3" t="n">
-        <v>0</v>
+        <v>131116</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>0</v>
+        <v>100880</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>0</v>
+        <v>2574</v>
       </c>
       <c r="J52" s="3" t="n">
-        <v>0</v>
+        <v>98306</v>
       </c>
       <c r="K52" s="3" t="inlineStr"/>
       <c r="L52" s="3" t="n">
-        <v>0</v>
+        <v>37030</v>
       </c>
       <c r="M52" s="3" t="n">
-        <v>0</v>
+        <v>20424</v>
       </c>
       <c r="N52" s="3" t="n">
-        <v>0</v>
+        <v>26908</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>0</v>
+        <v>9028</v>
       </c>
     </row>
     <row r="53">
@@ -2970,34 +2964,34 @@
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 09:02</t>
+          <t>2024-08-18 14:25</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="n">
-        <v>148862</v>
+        <v>149907</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>95882</v>
+        <v>117913</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>2799</v>
+        <v>3031</v>
       </c>
       <c r="J53" s="3" t="n">
-        <v>93083</v>
+        <v>114882</v>
       </c>
       <c r="K53" s="3" t="inlineStr"/>
       <c r="L53" s="3" t="n">
-        <v>25969</v>
+        <v>39336</v>
       </c>
       <c r="M53" s="3" t="n">
-        <v>24540</v>
+        <v>23679</v>
       </c>
       <c r="N53" s="3" t="n">
-        <v>21782</v>
+        <v>39214</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>16135</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="54">
@@ -3019,34 +3013,34 @@
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 08:27</t>
+          <t>2024-08-18 16:38</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr"/>
       <c r="G54" s="3" t="n">
-        <v>135531</v>
+        <v>136928</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>105279</v>
+        <v>119847</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>2297</v>
+        <v>2991</v>
       </c>
       <c r="J54" s="3" t="n">
-        <v>102982</v>
+        <v>116856</v>
       </c>
       <c r="K54" s="3" t="inlineStr"/>
       <c r="L54" s="3" t="n">
-        <v>32505</v>
+        <v>43525</v>
       </c>
       <c r="M54" s="3" t="n">
-        <v>30714</v>
+        <v>17515</v>
       </c>
       <c r="N54" s="3" t="n">
-        <v>22775</v>
+        <v>38898</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>11837</v>
+        <v>11073</v>
       </c>
     </row>
     <row r="55">
@@ -3113,36 +3107,34 @@
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr"/>
-      <c r="E56" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 14:18</t>
-        </is>
+      <c r="E56" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="n">
-        <v>122242</v>
+        <v>0</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>94256</v>
+        <v>0</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>2477</v>
+        <v>0</v>
       </c>
       <c r="J56" s="3" t="n">
-        <v>91779</v>
+        <v>0</v>
       </c>
       <c r="K56" s="3" t="inlineStr"/>
       <c r="L56" s="3" t="n">
-        <v>18445</v>
+        <v>0</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>31011</v>
+        <v>0</v>
       </c>
       <c r="N56" s="3" t="n">
-        <v>25469</v>
+        <v>0</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>12263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3209,36 +3201,34 @@
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr"/>
-      <c r="E58" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:56</t>
-        </is>
+      <c r="E58" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="n">
-        <v>132077</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>103086</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>2061</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="n">
-        <v>101025</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="inlineStr"/>
       <c r="L58" s="3" t="n">
-        <v>45289</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="n">
-        <v>23265</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="n">
-        <v>19154</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>8263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3258,34 +3248,36 @@
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr"/>
-      <c r="E59" s="3" t="n">
-        <v>0</v>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 13:19</t>
+        </is>
       </c>
       <c r="F59" s="3" t="inlineStr"/>
       <c r="G59" s="3" t="n">
-        <v>0</v>
+        <v>102911</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>0</v>
+        <v>62620</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>0</v>
+        <v>1293</v>
       </c>
       <c r="J59" s="3" t="n">
-        <v>0</v>
+        <v>61327</v>
       </c>
       <c r="K59" s="3" t="inlineStr"/>
       <c r="L59" s="3" t="n">
-        <v>0</v>
+        <v>22814</v>
       </c>
       <c r="M59" s="3" t="n">
-        <v>0</v>
+        <v>19898</v>
       </c>
       <c r="N59" s="3" t="n">
-        <v>0</v>
+        <v>12027</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>0</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="60">
@@ -3352,34 +3344,36 @@
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr"/>
-      <c r="E61" s="3" t="n">
-        <v>0</v>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:31</t>
+        </is>
       </c>
       <c r="F61" s="3" t="inlineStr"/>
       <c r="G61" s="3" t="n">
-        <v>0</v>
+        <v>164559</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>0</v>
+        <v>102013</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>0</v>
+        <v>1130</v>
       </c>
       <c r="J61" s="3" t="n">
-        <v>0</v>
+        <v>100883</v>
       </c>
       <c r="K61" s="3" t="inlineStr"/>
       <c r="L61" s="3" t="n">
-        <v>0</v>
+        <v>49537</v>
       </c>
       <c r="M61" s="3" t="n">
-        <v>0</v>
+        <v>21344</v>
       </c>
       <c r="N61" s="3" t="n">
-        <v>0</v>
+        <v>11766</v>
       </c>
       <c r="O61" s="3" t="n">
-        <v>0</v>
+        <v>13189</v>
       </c>
     </row>
     <row r="62">
@@ -3399,34 +3393,36 @@
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr"/>
-      <c r="E62" s="3" t="n">
-        <v>0</v>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:38</t>
+        </is>
       </c>
       <c r="F62" s="3" t="inlineStr"/>
       <c r="G62" s="3" t="n">
-        <v>0</v>
+        <v>88541</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>0</v>
+        <v>63759</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="J62" s="3" t="n">
-        <v>0</v>
+        <v>63085</v>
       </c>
       <c r="K62" s="3" t="inlineStr"/>
       <c r="L62" s="3" t="n">
-        <v>0</v>
+        <v>21246</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>0</v>
+        <v>12889</v>
       </c>
       <c r="N62" s="3" t="n">
-        <v>0</v>
+        <v>13349</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>0</v>
+        <v>12445</v>
       </c>
     </row>
     <row r="63">
@@ -3493,34 +3489,36 @@
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr"/>
-      <c r="E64" s="3" t="n">
-        <v>0</v>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 17:56</t>
+        </is>
       </c>
       <c r="F64" s="3" t="inlineStr"/>
       <c r="G64" s="3" t="n">
-        <v>0</v>
+        <v>50514</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>0</v>
+        <v>33010</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="J64" s="3" t="n">
-        <v>0</v>
+        <v>32618</v>
       </c>
       <c r="K64" s="3" t="inlineStr"/>
       <c r="L64" s="3" t="n">
-        <v>0</v>
+        <v>11375</v>
       </c>
       <c r="M64" s="3" t="n">
-        <v>0</v>
+        <v>5237</v>
       </c>
       <c r="N64" s="3" t="n">
-        <v>0</v>
+        <v>9202</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>0</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="65">
@@ -3540,36 +3538,34 @@
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr"/>
-      <c r="E65" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:34</t>
-        </is>
+      <c r="E65" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F65" s="3" t="inlineStr"/>
       <c r="G65" s="3" t="n">
-        <v>104765</v>
+        <v>0</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>67468</v>
+        <v>0</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>1021</v>
+        <v>0</v>
       </c>
       <c r="J65" s="3" t="n">
-        <v>66447</v>
+        <v>0</v>
       </c>
       <c r="K65" s="3" t="inlineStr"/>
       <c r="L65" s="3" t="n">
-        <v>19062</v>
+        <v>0</v>
       </c>
       <c r="M65" s="3" t="n">
-        <v>30944</v>
+        <v>0</v>
       </c>
       <c r="N65" s="3" t="n">
-        <v>10393</v>
+        <v>0</v>
       </c>
       <c r="O65" s="3" t="n">
-        <v>2724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3589,34 +3585,36 @@
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr"/>
-      <c r="E66" s="3" t="n">
-        <v>0</v>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:51</t>
+        </is>
       </c>
       <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="n">
-        <v>0</v>
+        <v>76186</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>0</v>
+        <v>66650</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>0</v>
+        <v>1337</v>
       </c>
       <c r="J66" s="3" t="n">
-        <v>0</v>
+        <v>65313</v>
       </c>
       <c r="K66" s="3" t="inlineStr"/>
       <c r="L66" s="3" t="n">
-        <v>0</v>
+        <v>20176</v>
       </c>
       <c r="M66" s="3" t="n">
-        <v>0</v>
+        <v>22540</v>
       </c>
       <c r="N66" s="3" t="n">
-        <v>0</v>
+        <v>7630</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>0</v>
+        <v>11699</v>
       </c>
     </row>
     <row r="67">
@@ -3636,36 +3634,34 @@
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr"/>
-      <c r="E67" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 14:13</t>
-        </is>
+      <c r="E67" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F67" s="3" t="inlineStr"/>
       <c r="G67" s="3" t="n">
-        <v>89975</v>
+        <v>0</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>65749</v>
+        <v>0</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="J67" s="3" t="n">
-        <v>65004</v>
+        <v>0</v>
       </c>
       <c r="K67" s="3" t="inlineStr"/>
       <c r="L67" s="3" t="n">
-        <v>27874</v>
+        <v>0</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>21826</v>
+        <v>0</v>
       </c>
       <c r="N67" s="3" t="n">
-        <v>7457</v>
+        <v>0</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>4594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3685,34 +3681,36 @@
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr"/>
-      <c r="E68" s="3" t="n">
-        <v>0</v>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:42</t>
+        </is>
       </c>
       <c r="F68" s="3" t="inlineStr"/>
       <c r="G68" s="3" t="n">
-        <v>0</v>
+        <v>42829</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>0</v>
+        <v>27511</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="J68" s="3" t="n">
-        <v>0</v>
+        <v>26700</v>
       </c>
       <c r="K68" s="3" t="inlineStr"/>
       <c r="L68" s="3" t="n">
-        <v>0</v>
+        <v>6703</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>0</v>
+        <v>8547</v>
       </c>
       <c r="N68" s="3" t="n">
-        <v>0</v>
+        <v>3395</v>
       </c>
       <c r="O68" s="3" t="n">
-        <v>0</v>
+        <v>6718</v>
       </c>
     </row>
     <row r="69">
@@ -3732,34 +3730,36 @@
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr"/>
-      <c r="E69" s="3" t="n">
-        <v>0</v>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 17:20</t>
+        </is>
       </c>
       <c r="F69" s="3" t="inlineStr"/>
       <c r="G69" s="3" t="n">
-        <v>0</v>
+        <v>81812</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>0</v>
+        <v>55562</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>0</v>
+        <v>839</v>
       </c>
       <c r="J69" s="3" t="n">
-        <v>0</v>
+        <v>54723</v>
       </c>
       <c r="K69" s="3" t="inlineStr"/>
       <c r="L69" s="3" t="n">
-        <v>0</v>
+        <v>20705</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>0</v>
+        <v>8609</v>
       </c>
       <c r="N69" s="3" t="n">
-        <v>0</v>
+        <v>10718</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>0</v>
+        <v>11953</v>
       </c>
     </row>
     <row r="70">
@@ -3779,34 +3779,36 @@
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr"/>
-      <c r="E70" s="3" t="n">
-        <v>0</v>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 08:31</t>
+        </is>
       </c>
       <c r="F70" s="3" t="inlineStr"/>
       <c r="G70" s="3" t="n">
-        <v>0</v>
+        <v>91672</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>0</v>
+        <v>78948</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>0</v>
+        <v>1636</v>
       </c>
       <c r="J70" s="3" t="n">
-        <v>0</v>
+        <v>77312</v>
       </c>
       <c r="K70" s="3" t="inlineStr"/>
       <c r="L70" s="3" t="n">
-        <v>0</v>
+        <v>23010</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>0</v>
+        <v>19049</v>
       </c>
       <c r="N70" s="3" t="n">
-        <v>0</v>
+        <v>19505</v>
       </c>
       <c r="O70" s="3" t="n">
-        <v>0</v>
+        <v>11880</v>
       </c>
     </row>
     <row r="71">
@@ -3828,34 +3830,34 @@
       <c r="D71" s="3" t="inlineStr"/>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 09:37</t>
+          <t>2024-08-18 17:02</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr"/>
       <c r="G71" s="3" t="n">
-        <v>114061</v>
+        <v>108771</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>90819</v>
+        <v>77728</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>2529</v>
+        <v>851</v>
       </c>
       <c r="J71" s="3" t="n">
-        <v>88290</v>
+        <v>76877</v>
       </c>
       <c r="K71" s="3" t="inlineStr"/>
       <c r="L71" s="3" t="n">
-        <v>29416</v>
+        <v>19161</v>
       </c>
       <c r="M71" s="3" t="n">
-        <v>24298</v>
+        <v>19828</v>
       </c>
       <c r="N71" s="3" t="n">
-        <v>20229</v>
+        <v>20070</v>
       </c>
       <c r="O71" s="3" t="n">
-        <v>9931</v>
+        <v>13972</v>
       </c>
     </row>
     <row r="72">
@@ -3924,34 +3926,34 @@
       <c r="D73" s="3" t="inlineStr"/>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 09:55</t>
+          <t>2024-08-18 15:45</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr"/>
       <c r="G73" s="3" t="n">
-        <v>141896</v>
+        <v>137379</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>106614</v>
+        <v>88023</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>2233</v>
+        <v>1785</v>
       </c>
       <c r="J73" s="3" t="n">
-        <v>104381</v>
+        <v>86238</v>
       </c>
       <c r="K73" s="3" t="inlineStr"/>
       <c r="L73" s="3" t="n">
-        <v>33009</v>
+        <v>28025</v>
       </c>
       <c r="M73" s="3" t="n">
-        <v>29961</v>
+        <v>25455</v>
       </c>
       <c r="N73" s="3" t="n">
-        <v>12198</v>
+        <v>18929</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>23992</v>
+        <v>9515</v>
       </c>
     </row>
     <row r="74">
@@ -3973,34 +3975,34 @@
       <c r="D74" s="3" t="inlineStr"/>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 18:04</t>
+          <t>2024-08-18 08:35</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr"/>
       <c r="G74" s="3" t="n">
-        <v>76666</v>
+        <v>72580</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>55885</v>
+        <v>55655</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>1293</v>
+        <v>1156</v>
       </c>
       <c r="J74" s="3" t="n">
-        <v>54592</v>
+        <v>54499</v>
       </c>
       <c r="K74" s="3" t="inlineStr"/>
       <c r="L74" s="3" t="n">
-        <v>14497</v>
+        <v>16578</v>
       </c>
       <c r="M74" s="3" t="n">
-        <v>12355</v>
+        <v>9932</v>
       </c>
       <c r="N74" s="3" t="n">
-        <v>12831</v>
+        <v>14663</v>
       </c>
       <c r="O74" s="3" t="n">
-        <v>12177</v>
+        <v>10599</v>
       </c>
     </row>
     <row r="75">
@@ -4020,34 +4022,36 @@
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr"/>
-      <c r="E75" s="3" t="n">
-        <v>0</v>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 09:22</t>
+        </is>
       </c>
       <c r="F75" s="3" t="inlineStr"/>
       <c r="G75" s="3" t="n">
-        <v>0</v>
+        <v>87077</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>0</v>
+        <v>66065</v>
       </c>
       <c r="I75" s="3" t="n">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="J75" s="3" t="n">
-        <v>0</v>
+        <v>64945</v>
       </c>
       <c r="K75" s="3" t="inlineStr"/>
       <c r="L75" s="3" t="n">
-        <v>0</v>
+        <v>16723</v>
       </c>
       <c r="M75" s="3" t="n">
-        <v>0</v>
+        <v>14035</v>
       </c>
       <c r="N75" s="3" t="n">
-        <v>0</v>
+        <v>8972</v>
       </c>
       <c r="O75" s="3" t="n">
-        <v>0</v>
+        <v>21966</v>
       </c>
     </row>
     <row r="76">
@@ -4069,34 +4073,34 @@
       <c r="D76" s="3" t="inlineStr"/>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 14:14</t>
+          <t>2024-08-18 14:03</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr"/>
       <c r="G76" s="3" t="n">
-        <v>101439</v>
+        <v>96027</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>82211</v>
+        <v>80691</v>
       </c>
       <c r="I76" s="3" t="n">
-        <v>1938</v>
+        <v>1092</v>
       </c>
       <c r="J76" s="3" t="n">
-        <v>80273</v>
+        <v>79599</v>
       </c>
       <c r="K76" s="3" t="inlineStr"/>
       <c r="L76" s="3" t="n">
-        <v>24819</v>
+        <v>24203</v>
       </c>
       <c r="M76" s="3" t="n">
-        <v>9342</v>
+        <v>25314</v>
       </c>
       <c r="N76" s="3" t="n">
-        <v>23394</v>
+        <v>18875</v>
       </c>
       <c r="O76" s="3" t="n">
-        <v>18703</v>
+        <v>7226</v>
       </c>
     </row>
     <row r="77">
@@ -4116,36 +4120,34 @@
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr"/>
-      <c r="E77" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 09:23</t>
-        </is>
+      <c r="E77" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="n">
-        <v>324231</v>
+        <v>0</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>241218</v>
+        <v>0</v>
       </c>
       <c r="I77" s="3" t="n">
-        <v>4087</v>
+        <v>0</v>
       </c>
       <c r="J77" s="3" t="n">
-        <v>237131</v>
+        <v>0</v>
       </c>
       <c r="K77" s="3" t="inlineStr"/>
       <c r="L77" s="3" t="n">
-        <v>67942</v>
+        <v>0</v>
       </c>
       <c r="M77" s="3" t="n">
-        <v>63708</v>
+        <v>0</v>
       </c>
       <c r="N77" s="3" t="n">
-        <v>51045</v>
+        <v>0</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>42577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -4214,34 +4216,34 @@
       <c r="D79" s="3" t="inlineStr"/>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 20:06</t>
+          <t>2024-08-18 17:04</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr"/>
       <c r="G79" s="3" t="n">
-        <v>72626</v>
+        <v>76478</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>47994</v>
+        <v>56333</v>
       </c>
       <c r="I79" s="3" t="n">
-        <v>1050</v>
+        <v>1328</v>
       </c>
       <c r="J79" s="3" t="n">
-        <v>46944</v>
+        <v>55005</v>
       </c>
       <c r="K79" s="3" t="inlineStr"/>
       <c r="L79" s="3" t="n">
-        <v>15665</v>
+        <v>15663</v>
       </c>
       <c r="M79" s="3" t="n">
-        <v>10344</v>
+        <v>15084</v>
       </c>
       <c r="N79" s="3" t="n">
-        <v>11504</v>
+        <v>12703</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>7083</v>
+        <v>8803</v>
       </c>
     </row>
     <row r="80">
@@ -4261,34 +4263,36 @@
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr"/>
-      <c r="E80" s="3" t="n">
-        <v>0</v>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 09:39</t>
+        </is>
       </c>
       <c r="F80" s="3" t="inlineStr"/>
       <c r="G80" s="3" t="n">
-        <v>0</v>
+        <v>86149</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>0</v>
+        <v>75123</v>
       </c>
       <c r="I80" s="3" t="n">
-        <v>0</v>
+        <v>2044</v>
       </c>
       <c r="J80" s="3" t="n">
-        <v>0</v>
+        <v>73079</v>
       </c>
       <c r="K80" s="3" t="inlineStr"/>
       <c r="L80" s="3" t="n">
-        <v>0</v>
+        <v>21469</v>
       </c>
       <c r="M80" s="3" t="n">
-        <v>0</v>
+        <v>18450</v>
       </c>
       <c r="N80" s="3" t="n">
-        <v>0</v>
+        <v>15386</v>
       </c>
       <c r="O80" s="3" t="n">
-        <v>0</v>
+        <v>14118</v>
       </c>
     </row>
     <row r="81">
@@ -4308,34 +4312,36 @@
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr"/>
-      <c r="E81" s="3" t="n">
-        <v>0</v>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 08:36</t>
+        </is>
       </c>
       <c r="F81" s="3" t="inlineStr"/>
       <c r="G81" s="3" t="n">
-        <v>0</v>
+        <v>56873</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>0</v>
+        <v>43460</v>
       </c>
       <c r="I81" s="3" t="n">
-        <v>0</v>
+        <v>773</v>
       </c>
       <c r="J81" s="3" t="n">
-        <v>0</v>
+        <v>42687</v>
       </c>
       <c r="K81" s="3" t="inlineStr"/>
       <c r="L81" s="3" t="n">
-        <v>0</v>
+        <v>14122</v>
       </c>
       <c r="M81" s="3" t="n">
-        <v>0</v>
+        <v>9059</v>
       </c>
       <c r="N81" s="3" t="n">
-        <v>0</v>
+        <v>15223</v>
       </c>
       <c r="O81" s="3" t="n">
-        <v>0</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="82">
@@ -4355,36 +4361,34 @@
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr"/>
-      <c r="E82" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 09:08</t>
-        </is>
+      <c r="E82" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F82" s="3" t="inlineStr"/>
       <c r="G82" s="3" t="n">
-        <v>79964</v>
+        <v>0</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>49389</v>
+        <v>0</v>
       </c>
       <c r="I82" s="3" t="n">
-        <v>1111</v>
+        <v>0</v>
       </c>
       <c r="J82" s="3" t="n">
-        <v>48278</v>
+        <v>0</v>
       </c>
       <c r="K82" s="3" t="inlineStr"/>
       <c r="L82" s="3" t="n">
-        <v>16091</v>
+        <v>0</v>
       </c>
       <c r="M82" s="3" t="n">
-        <v>14261</v>
+        <v>0</v>
       </c>
       <c r="N82" s="3" t="n">
-        <v>9003</v>
+        <v>0</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>6507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -4404,34 +4408,36 @@
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr"/>
-      <c r="E83" s="3" t="n">
-        <v>0</v>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:16</t>
+        </is>
       </c>
       <c r="F83" s="3" t="inlineStr"/>
       <c r="G83" s="3" t="n">
-        <v>0</v>
+        <v>78582</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>0</v>
+        <v>49700</v>
       </c>
       <c r="I83" s="3" t="n">
-        <v>0</v>
+        <v>1090</v>
       </c>
       <c r="J83" s="3" t="n">
-        <v>0</v>
+        <v>48610</v>
       </c>
       <c r="K83" s="3" t="inlineStr"/>
       <c r="L83" s="3" t="n">
-        <v>0</v>
+        <v>28056</v>
       </c>
       <c r="M83" s="3" t="n">
-        <v>0</v>
+        <v>9090</v>
       </c>
       <c r="N83" s="3" t="n">
-        <v>0</v>
+        <v>5978</v>
       </c>
       <c r="O83" s="3" t="n">
-        <v>0</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="84">
@@ -4451,36 +4457,34 @@
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr"/>
-      <c r="E84" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 14:04</t>
-        </is>
+      <c r="E84" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F84" s="3" t="inlineStr"/>
       <c r="G84" s="3" t="n">
-        <v>98057</v>
+        <v>0</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>80596</v>
+        <v>0</v>
       </c>
       <c r="I84" s="3" t="n">
-        <v>864</v>
+        <v>0</v>
       </c>
       <c r="J84" s="3" t="n">
-        <v>79732</v>
+        <v>0</v>
       </c>
       <c r="K84" s="3" t="inlineStr"/>
       <c r="L84" s="3" t="n">
-        <v>29110</v>
+        <v>0</v>
       </c>
       <c r="M84" s="3" t="n">
-        <v>19896</v>
+        <v>0</v>
       </c>
       <c r="N84" s="3" t="n">
-        <v>13965</v>
+        <v>0</v>
       </c>
       <c r="O84" s="3" t="n">
-        <v>12772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4500,34 +4504,36 @@
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr"/>
-      <c r="E85" s="3" t="n">
-        <v>0</v>
+      <c r="E85" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:49</t>
+        </is>
       </c>
       <c r="F85" s="3" t="inlineStr"/>
       <c r="G85" s="3" t="n">
-        <v>0</v>
+        <v>102755</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>0</v>
+        <v>70383</v>
       </c>
       <c r="I85" s="3" t="n">
-        <v>0</v>
+        <v>1378</v>
       </c>
       <c r="J85" s="3" t="n">
-        <v>0</v>
+        <v>69005</v>
       </c>
       <c r="K85" s="3" t="inlineStr"/>
       <c r="L85" s="3" t="n">
-        <v>0</v>
+        <v>24462</v>
       </c>
       <c r="M85" s="3" t="n">
-        <v>0</v>
+        <v>25413</v>
       </c>
       <c r="N85" s="3" t="n">
-        <v>0</v>
+        <v>10744</v>
       </c>
       <c r="O85" s="3" t="n">
-        <v>0</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="86">
@@ -4547,36 +4553,34 @@
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr"/>
-      <c r="E86" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:02</t>
-        </is>
+      <c r="E86" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F86" s="3" t="inlineStr"/>
       <c r="G86" s="3" t="n">
-        <v>101947</v>
+        <v>0</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>77297</v>
+        <v>0</v>
       </c>
       <c r="I86" s="3" t="n">
-        <v>2254</v>
+        <v>0</v>
       </c>
       <c r="J86" s="3" t="n">
-        <v>75043</v>
+        <v>0</v>
       </c>
       <c r="K86" s="3" t="inlineStr"/>
       <c r="L86" s="3" t="n">
-        <v>20383</v>
+        <v>0</v>
       </c>
       <c r="M86" s="3" t="n">
-        <v>25233</v>
+        <v>0</v>
       </c>
       <c r="N86" s="3" t="n">
-        <v>18184</v>
+        <v>0</v>
       </c>
       <c r="O86" s="3" t="n">
-        <v>7489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -4643,34 +4647,36 @@
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr"/>
-      <c r="E88" s="3" t="n">
-        <v>0</v>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:46</t>
+        </is>
       </c>
       <c r="F88" s="3" t="inlineStr"/>
       <c r="G88" s="3" t="n">
-        <v>0</v>
+        <v>82037</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>0</v>
+        <v>50069</v>
       </c>
       <c r="I88" s="3" t="n">
-        <v>0</v>
+        <v>1262</v>
       </c>
       <c r="J88" s="3" t="n">
-        <v>0</v>
+        <v>48807</v>
       </c>
       <c r="K88" s="3" t="inlineStr"/>
       <c r="L88" s="3" t="n">
-        <v>0</v>
+        <v>23725</v>
       </c>
       <c r="M88" s="3" t="n">
-        <v>0</v>
+        <v>11184</v>
       </c>
       <c r="N88" s="3" t="n">
-        <v>0</v>
+        <v>7277</v>
       </c>
       <c r="O88" s="3" t="n">
-        <v>0</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="89">
@@ -4737,36 +4743,34 @@
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr"/>
-      <c r="E90" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:02</t>
-        </is>
+      <c r="E90" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F90" s="3" t="inlineStr"/>
       <c r="G90" s="3" t="n">
-        <v>84787</v>
+        <v>0</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>51486</v>
+        <v>0</v>
       </c>
       <c r="I90" s="3" t="n">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="J90" s="3" t="n">
-        <v>50716</v>
+        <v>0</v>
       </c>
       <c r="K90" s="3" t="inlineStr"/>
       <c r="L90" s="3" t="n">
-        <v>14826</v>
+        <v>0</v>
       </c>
       <c r="M90" s="3" t="n">
-        <v>9230</v>
+        <v>0</v>
       </c>
       <c r="N90" s="3" t="n">
-        <v>18157</v>
+        <v>0</v>
       </c>
       <c r="O90" s="3" t="n">
-        <v>5965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4786,36 +4790,34 @@
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr"/>
-      <c r="E91" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 11:23</t>
-        </is>
+      <c r="E91" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="inlineStr"/>
       <c r="G91" s="3" t="n">
-        <v>106220</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>78959</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="n">
-        <v>2309</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="n">
-        <v>76650</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="inlineStr"/>
       <c r="L91" s="3" t="n">
-        <v>27648</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="n">
-        <v>18924</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="n">
-        <v>12462</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="n">
-        <v>13781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4884,34 +4886,34 @@
       <c r="D93" s="3" t="inlineStr"/>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 09:34</t>
+          <t>2024-08-18 13:24</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr"/>
       <c r="G93" s="3" t="n">
-        <v>94614</v>
+        <v>103413</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>81596</v>
+        <v>62657</v>
       </c>
       <c r="I93" s="3" t="n">
-        <v>1057</v>
+        <v>1374</v>
       </c>
       <c r="J93" s="3" t="n">
-        <v>80539</v>
+        <v>61283</v>
       </c>
       <c r="K93" s="3" t="inlineStr"/>
       <c r="L93" s="3" t="n">
-        <v>24992</v>
+        <v>22393</v>
       </c>
       <c r="M93" s="3" t="n">
-        <v>10702</v>
+        <v>16460</v>
       </c>
       <c r="N93" s="3" t="n">
-        <v>24588</v>
+        <v>14783</v>
       </c>
       <c r="O93" s="3" t="n">
-        <v>16229</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="94">
@@ -4931,36 +4933,34 @@
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr"/>
-      <c r="E94" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:38</t>
-        </is>
+      <c r="E94" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="inlineStr"/>
       <c r="G94" s="3" t="n">
-        <v>83176</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>52441</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="n">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="n">
-        <v>51723</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="inlineStr"/>
       <c r="L94" s="3" t="n">
-        <v>22198</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="n">
-        <v>13395</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="n">
-        <v>10209</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="n">
-        <v>3333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4980,36 +4980,34 @@
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr"/>
-      <c r="E95" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 12:25</t>
-        </is>
+      <c r="E95" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F95" s="3" t="inlineStr"/>
       <c r="G95" s="3" t="n">
-        <v>78875</v>
+        <v>0</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>52941</v>
+        <v>0</v>
       </c>
       <c r="I95" s="3" t="n">
-        <v>1508</v>
+        <v>0</v>
       </c>
       <c r="J95" s="3" t="n">
-        <v>51433</v>
+        <v>0</v>
       </c>
       <c r="K95" s="3" t="inlineStr"/>
       <c r="L95" s="3" t="n">
-        <v>16966</v>
+        <v>0</v>
       </c>
       <c r="M95" s="3" t="n">
-        <v>11231</v>
+        <v>0</v>
       </c>
       <c r="N95" s="3" t="n">
-        <v>12869</v>
+        <v>0</v>
       </c>
       <c r="O95" s="3" t="n">
-        <v>7793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -5029,34 +5027,36 @@
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr"/>
-      <c r="E96" s="3" t="n">
-        <v>0</v>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:24</t>
+        </is>
       </c>
       <c r="F96" s="3" t="inlineStr"/>
       <c r="G96" s="3" t="n">
-        <v>0</v>
+        <v>92558</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>0</v>
+        <v>61015</v>
       </c>
       <c r="I96" s="3" t="n">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="J96" s="3" t="n">
-        <v>0</v>
+        <v>60386</v>
       </c>
       <c r="K96" s="3" t="inlineStr"/>
       <c r="L96" s="3" t="n">
-        <v>0</v>
+        <v>13931</v>
       </c>
       <c r="M96" s="3" t="n">
-        <v>0</v>
+        <v>14286</v>
       </c>
       <c r="N96" s="3" t="n">
-        <v>0</v>
+        <v>18061</v>
       </c>
       <c r="O96" s="3" t="n">
-        <v>0</v>
+        <v>11086</v>
       </c>
     </row>
     <row r="97">
@@ -5076,34 +5076,36 @@
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr"/>
-      <c r="E97" s="3" t="n">
-        <v>0</v>
+      <c r="E97" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 13:39</t>
+        </is>
       </c>
       <c r="F97" s="3" t="inlineStr"/>
       <c r="G97" s="3" t="n">
-        <v>0</v>
+        <v>101083</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>0</v>
+        <v>65970</v>
       </c>
       <c r="I97" s="3" t="n">
-        <v>0</v>
+        <v>1242</v>
       </c>
       <c r="J97" s="3" t="n">
-        <v>0</v>
+        <v>64728</v>
       </c>
       <c r="K97" s="3" t="inlineStr"/>
       <c r="L97" s="3" t="n">
-        <v>0</v>
+        <v>24335</v>
       </c>
       <c r="M97" s="3" t="n">
-        <v>0</v>
+        <v>16175</v>
       </c>
       <c r="N97" s="3" t="n">
-        <v>0</v>
+        <v>10932</v>
       </c>
       <c r="O97" s="3" t="n">
-        <v>0</v>
+        <v>10048</v>
       </c>
     </row>
     <row r="98">
@@ -5170,34 +5172,36 @@
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr"/>
-      <c r="E99" s="3" t="n">
-        <v>0</v>
+      <c r="E99" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:24</t>
+        </is>
       </c>
       <c r="F99" s="3" t="inlineStr"/>
       <c r="G99" s="3" t="n">
-        <v>0</v>
+        <v>82550</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>0</v>
+        <v>51864</v>
       </c>
       <c r="I99" s="3" t="n">
-        <v>0</v>
+        <v>699</v>
       </c>
       <c r="J99" s="3" t="n">
-        <v>0</v>
+        <v>51165</v>
       </c>
       <c r="K99" s="3" t="inlineStr"/>
       <c r="L99" s="3" t="n">
-        <v>0</v>
+        <v>16761</v>
       </c>
       <c r="M99" s="3" t="n">
-        <v>0</v>
+        <v>9433</v>
       </c>
       <c r="N99" s="3" t="n">
-        <v>0</v>
+        <v>10784</v>
       </c>
       <c r="O99" s="3" t="n">
-        <v>0</v>
+        <v>11627</v>
       </c>
     </row>
     <row r="100">
@@ -5311,36 +5315,34 @@
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr"/>
-      <c r="E102" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 15:27</t>
-        </is>
+      <c r="E102" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F102" s="3" t="inlineStr"/>
       <c r="G102" s="3" t="n">
-        <v>24595</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>21079</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="n">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="n">
-        <v>20494</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="inlineStr"/>
       <c r="L102" s="3" t="n">
-        <v>6619</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="n">
-        <v>4546</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="n">
-        <v>5251</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="n">
-        <v>3051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -5407,36 +5409,34 @@
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr"/>
-      <c r="E104" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 11:57</t>
-        </is>
+      <c r="E104" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F104" s="3" t="inlineStr"/>
       <c r="G104" s="3" t="n">
-        <v>67472</v>
+        <v>0</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>54636</v>
+        <v>0</v>
       </c>
       <c r="I104" s="3" t="n">
-        <v>1315</v>
+        <v>0</v>
       </c>
       <c r="J104" s="3" t="n">
-        <v>53321</v>
+        <v>0</v>
       </c>
       <c r="K104" s="3" t="inlineStr"/>
       <c r="L104" s="3" t="n">
-        <v>19303</v>
+        <v>0</v>
       </c>
       <c r="M104" s="3" t="n">
-        <v>9422</v>
+        <v>0</v>
       </c>
       <c r="N104" s="3" t="n">
-        <v>10364</v>
+        <v>0</v>
       </c>
       <c r="O104" s="3" t="n">
-        <v>11564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -5458,34 +5458,34 @@
       <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 08:24</t>
+          <t>2024-08-18 11:16</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr"/>
       <c r="G105" s="3" t="n">
-        <v>59232</v>
+        <v>57814</v>
       </c>
       <c r="H105" s="3" t="n">
-        <v>36584</v>
+        <v>34995</v>
       </c>
       <c r="I105" s="3" t="n">
-        <v>805</v>
+        <v>578</v>
       </c>
       <c r="J105" s="3" t="n">
-        <v>35779</v>
+        <v>34417</v>
       </c>
       <c r="K105" s="3" t="inlineStr"/>
       <c r="L105" s="3" t="n">
-        <v>11510</v>
+        <v>15778</v>
       </c>
       <c r="M105" s="3" t="n">
-        <v>5962</v>
+        <v>7044</v>
       </c>
       <c r="N105" s="3" t="n">
-        <v>9550</v>
+        <v>5506</v>
       </c>
       <c r="O105" s="3" t="n">
-        <v>6966</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="106">
@@ -5505,36 +5505,34 @@
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr"/>
-      <c r="E106" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 12:29</t>
-        </is>
+      <c r="E106" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F106" s="3" t="inlineStr"/>
       <c r="G106" s="3" t="n">
-        <v>61054</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>43388</v>
+        <v>0</v>
       </c>
       <c r="I106" s="3" t="n">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="J106" s="3" t="n">
-        <v>42663</v>
+        <v>0</v>
       </c>
       <c r="K106" s="3" t="inlineStr"/>
       <c r="L106" s="3" t="n">
-        <v>11324</v>
+        <v>0</v>
       </c>
       <c r="M106" s="3" t="n">
-        <v>6895</v>
+        <v>0</v>
       </c>
       <c r="N106" s="3" t="n">
-        <v>13695</v>
+        <v>0</v>
       </c>
       <c r="O106" s="3" t="n">
-        <v>8613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -5556,34 +5554,34 @@
       <c r="D107" s="3" t="inlineStr"/>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:01</t>
+          <t>2024-08-18 19:35</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr"/>
       <c r="G107" s="3" t="n">
-        <v>41284</v>
+        <v>40127</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>27866</v>
+        <v>24344</v>
       </c>
       <c r="I107" s="3" t="n">
-        <v>580</v>
+        <v>547</v>
       </c>
       <c r="J107" s="3" t="n">
-        <v>27286</v>
+        <v>23797</v>
       </c>
       <c r="K107" s="3" t="inlineStr"/>
       <c r="L107" s="3" t="n">
-        <v>7461</v>
+        <v>7309</v>
       </c>
       <c r="M107" s="3" t="n">
-        <v>6715</v>
+        <v>6752</v>
       </c>
       <c r="N107" s="3" t="n">
-        <v>4435</v>
+        <v>6047</v>
       </c>
       <c r="O107" s="3" t="n">
-        <v>7308</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="108">
@@ -5605,34 +5603,34 @@
       <c r="D108" s="3" t="inlineStr"/>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 20:06</t>
+          <t>2024-08-18 17:28</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr"/>
       <c r="G108" s="3" t="n">
-        <v>38382</v>
+        <v>40642</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>26322</v>
+        <v>25187</v>
       </c>
       <c r="I108" s="3" t="n">
-        <v>294</v>
+        <v>727</v>
       </c>
       <c r="J108" s="3" t="n">
-        <v>26028</v>
+        <v>24460</v>
       </c>
       <c r="K108" s="3" t="inlineStr"/>
       <c r="L108" s="3" t="n">
-        <v>5691</v>
+        <v>8179</v>
       </c>
       <c r="M108" s="3" t="n">
-        <v>8290</v>
+        <v>6244</v>
       </c>
       <c r="N108" s="3" t="n">
-        <v>6325</v>
+        <v>6058</v>
       </c>
       <c r="O108" s="3" t="n">
-        <v>4419</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="109">
@@ -5652,34 +5650,36 @@
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr"/>
-      <c r="E109" s="3" t="n">
-        <v>0</v>
+      <c r="E109" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 11:26</t>
+        </is>
       </c>
       <c r="F109" s="3" t="inlineStr"/>
       <c r="G109" s="3" t="n">
-        <v>0</v>
+        <v>55745</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>0</v>
+        <v>36104</v>
       </c>
       <c r="I109" s="3" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="J109" s="3" t="n">
-        <v>0</v>
+        <v>35734</v>
       </c>
       <c r="K109" s="3" t="inlineStr"/>
       <c r="L109" s="3" t="n">
-        <v>0</v>
+        <v>8487</v>
       </c>
       <c r="M109" s="3" t="n">
-        <v>0</v>
+        <v>10068</v>
       </c>
       <c r="N109" s="3" t="n">
-        <v>0</v>
+        <v>8827</v>
       </c>
       <c r="O109" s="3" t="n">
-        <v>0</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="110">
@@ -5748,34 +5748,34 @@
       <c r="D111" s="3" t="inlineStr"/>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 19:43</t>
+          <t>2024-08-18 10:39</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr"/>
       <c r="G111" s="3" t="n">
-        <v>35807</v>
+        <v>35391</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>31161</v>
+        <v>25687</v>
       </c>
       <c r="I111" s="3" t="n">
-        <v>365</v>
+        <v>470</v>
       </c>
       <c r="J111" s="3" t="n">
-        <v>30796</v>
+        <v>25217</v>
       </c>
       <c r="K111" s="3" t="inlineStr"/>
       <c r="L111" s="3" t="n">
-        <v>5637</v>
+        <v>8128</v>
       </c>
       <c r="M111" s="3" t="n">
-        <v>7169</v>
+        <v>6420</v>
       </c>
       <c r="N111" s="3" t="n">
-        <v>9273</v>
+        <v>3914</v>
       </c>
       <c r="O111" s="3" t="n">
-        <v>7175</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="112">
@@ -5795,34 +5795,36 @@
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr"/>
-      <c r="E112" s="3" t="n">
-        <v>0</v>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 11:24</t>
+        </is>
       </c>
       <c r="F112" s="3" t="inlineStr"/>
       <c r="G112" s="3" t="n">
-        <v>0</v>
+        <v>97197</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>0</v>
+        <v>61327</v>
       </c>
       <c r="I112" s="3" t="n">
-        <v>0</v>
+        <v>1148</v>
       </c>
       <c r="J112" s="3" t="n">
-        <v>0</v>
+        <v>60179</v>
       </c>
       <c r="K112" s="3" t="inlineStr"/>
       <c r="L112" s="3" t="n">
-        <v>0</v>
+        <v>18624</v>
       </c>
       <c r="M112" s="3" t="n">
-        <v>0</v>
+        <v>17212</v>
       </c>
       <c r="N112" s="3" t="n">
-        <v>0</v>
+        <v>16567</v>
       </c>
       <c r="O112" s="3" t="n">
-        <v>0</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="113">
@@ -5889,34 +5891,36 @@
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr"/>
-      <c r="E114" s="3" t="n">
-        <v>0</v>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 14:40</t>
+        </is>
       </c>
       <c r="F114" s="3" t="inlineStr"/>
       <c r="G114" s="3" t="n">
-        <v>0</v>
+        <v>125830</v>
       </c>
       <c r="H114" s="3" t="n">
-        <v>0</v>
+        <v>96700</v>
       </c>
       <c r="I114" s="3" t="n">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="J114" s="3" t="n">
-        <v>0</v>
+        <v>95080</v>
       </c>
       <c r="K114" s="3" t="inlineStr"/>
       <c r="L114" s="3" t="n">
-        <v>0</v>
+        <v>32759</v>
       </c>
       <c r="M114" s="3" t="n">
-        <v>0</v>
+        <v>12405</v>
       </c>
       <c r="N114" s="3" t="n">
-        <v>0</v>
+        <v>24010</v>
       </c>
       <c r="O114" s="3" t="n">
-        <v>0</v>
+        <v>21149</v>
       </c>
     </row>
     <row r="115">
@@ -5983,34 +5987,36 @@
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr"/>
-      <c r="E116" s="3" t="n">
-        <v>0</v>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:55</t>
+        </is>
       </c>
       <c r="F116" s="3" t="inlineStr"/>
       <c r="G116" s="3" t="n">
-        <v>0</v>
+        <v>118642</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>0</v>
+        <v>75225</v>
       </c>
       <c r="I116" s="3" t="n">
-        <v>0</v>
+        <v>1289</v>
       </c>
       <c r="J116" s="3" t="n">
-        <v>0</v>
+        <v>73936</v>
       </c>
       <c r="K116" s="3" t="inlineStr"/>
       <c r="L116" s="3" t="n">
-        <v>0</v>
+        <v>17685</v>
       </c>
       <c r="M116" s="3" t="n">
-        <v>0</v>
+        <v>13724</v>
       </c>
       <c r="N116" s="3" t="n">
-        <v>0</v>
+        <v>19711</v>
       </c>
       <c r="O116" s="3" t="n">
-        <v>0</v>
+        <v>19118</v>
       </c>
     </row>
     <row r="117">
@@ -6124,34 +6130,36 @@
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr"/>
-      <c r="E119" s="3" t="n">
-        <v>0</v>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 16:58</t>
+        </is>
       </c>
       <c r="F119" s="3" t="inlineStr"/>
       <c r="G119" s="3" t="n">
-        <v>0</v>
+        <v>166406</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>0</v>
+        <v>107572</v>
       </c>
       <c r="I119" s="3" t="n">
-        <v>0</v>
+        <v>3073</v>
       </c>
       <c r="J119" s="3" t="n">
-        <v>0</v>
+        <v>104499</v>
       </c>
       <c r="K119" s="3" t="inlineStr"/>
       <c r="L119" s="3" t="n">
-        <v>0</v>
+        <v>32747</v>
       </c>
       <c r="M119" s="3" t="n">
-        <v>0</v>
+        <v>20536</v>
       </c>
       <c r="N119" s="3" t="n">
-        <v>0</v>
+        <v>11817</v>
       </c>
       <c r="O119" s="3" t="n">
-        <v>0</v>
+        <v>34172</v>
       </c>
     </row>
     <row r="120">
@@ -6218,36 +6226,34 @@
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr"/>
-      <c r="E121" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:38</t>
-        </is>
+      <c r="E121" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F121" s="3" t="inlineStr"/>
       <c r="G121" s="3" t="n">
-        <v>79366</v>
+        <v>0</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>66472</v>
+        <v>0</v>
       </c>
       <c r="I121" s="3" t="n">
-        <v>1143</v>
+        <v>0</v>
       </c>
       <c r="J121" s="3" t="n">
-        <v>65329</v>
+        <v>0</v>
       </c>
       <c r="K121" s="3" t="inlineStr"/>
       <c r="L121" s="3" t="n">
-        <v>20855</v>
+        <v>0</v>
       </c>
       <c r="M121" s="3" t="n">
-        <v>16867</v>
+        <v>0</v>
       </c>
       <c r="N121" s="3" t="n">
-        <v>18819</v>
+        <v>0</v>
       </c>
       <c r="O121" s="3" t="n">
-        <v>5519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -6269,34 +6275,34 @@
       <c r="D122" s="3" t="inlineStr"/>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 18:19</t>
+          <t>2024-08-18 09:49</t>
         </is>
       </c>
       <c r="F122" s="3" t="inlineStr"/>
       <c r="G122" s="3" t="n">
-        <v>166328</v>
+        <v>166971</v>
       </c>
       <c r="H122" s="3" t="n">
-        <v>105782</v>
+        <v>110038</v>
       </c>
       <c r="I122" s="3" t="n">
-        <v>1292</v>
+        <v>1308</v>
       </c>
       <c r="J122" s="3" t="n">
-        <v>104490</v>
+        <v>108730</v>
       </c>
       <c r="K122" s="3" t="inlineStr"/>
       <c r="L122" s="3" t="n">
-        <v>43784</v>
+        <v>39318</v>
       </c>
       <c r="M122" s="3" t="n">
-        <v>15813</v>
+        <v>23135</v>
       </c>
       <c r="N122" s="3" t="n">
-        <v>21582</v>
+        <v>20118</v>
       </c>
       <c r="O122" s="3" t="n">
-        <v>18085</v>
+        <v>20720</v>
       </c>
     </row>
     <row r="123">
@@ -6316,36 +6322,34 @@
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr"/>
-      <c r="E123" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:57</t>
-        </is>
+      <c r="E123" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F123" s="3" t="inlineStr"/>
       <c r="G123" s="3" t="n">
-        <v>81084</v>
+        <v>0</v>
       </c>
       <c r="H123" s="3" t="n">
-        <v>69552</v>
+        <v>0</v>
       </c>
       <c r="I123" s="3" t="n">
-        <v>1918</v>
+        <v>0</v>
       </c>
       <c r="J123" s="3" t="n">
-        <v>67634</v>
+        <v>0</v>
       </c>
       <c r="K123" s="3" t="inlineStr"/>
       <c r="L123" s="3" t="n">
-        <v>23046</v>
+        <v>0</v>
       </c>
       <c r="M123" s="3" t="n">
-        <v>22542</v>
+        <v>0</v>
       </c>
       <c r="N123" s="3" t="n">
-        <v>14552</v>
+        <v>0</v>
       </c>
       <c r="O123" s="3" t="n">
-        <v>4111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -6412,36 +6416,34 @@
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr"/>
-      <c r="E125" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 11:10</t>
-        </is>
+      <c r="E125" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F125" s="3" t="inlineStr"/>
       <c r="G125" s="3" t="n">
-        <v>109228</v>
+        <v>0</v>
       </c>
       <c r="H125" s="3" t="n">
-        <v>91031</v>
+        <v>0</v>
       </c>
       <c r="I125" s="3" t="n">
-        <v>1757</v>
+        <v>0</v>
       </c>
       <c r="J125" s="3" t="n">
-        <v>89274</v>
+        <v>0</v>
       </c>
       <c r="K125" s="3" t="inlineStr"/>
       <c r="L125" s="3" t="n">
-        <v>19608</v>
+        <v>0</v>
       </c>
       <c r="M125" s="3" t="n">
-        <v>33755</v>
+        <v>0</v>
       </c>
       <c r="N125" s="3" t="n">
-        <v>15873</v>
+        <v>0</v>
       </c>
       <c r="O125" s="3" t="n">
-        <v>15572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -6461,34 +6463,36 @@
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr"/>
-      <c r="E126" s="3" t="n">
-        <v>0</v>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 10:01</t>
+        </is>
       </c>
       <c r="F126" s="3" t="inlineStr"/>
       <c r="G126" s="3" t="n">
-        <v>0</v>
+        <v>110848</v>
       </c>
       <c r="H126" s="3" t="n">
-        <v>0</v>
+        <v>95500</v>
       </c>
       <c r="I126" s="3" t="n">
-        <v>0</v>
+        <v>2767</v>
       </c>
       <c r="J126" s="3" t="n">
-        <v>0</v>
+        <v>92733</v>
       </c>
       <c r="K126" s="3" t="inlineStr"/>
       <c r="L126" s="3" t="n">
-        <v>0</v>
+        <v>28744</v>
       </c>
       <c r="M126" s="3" t="n">
-        <v>0</v>
+        <v>20594</v>
       </c>
       <c r="N126" s="3" t="n">
-        <v>0</v>
+        <v>21051</v>
       </c>
       <c r="O126" s="3" t="n">
-        <v>0</v>
+        <v>17705</v>
       </c>
     </row>
     <row r="127">
@@ -6510,34 +6514,34 @@
       <c r="D127" s="3" t="inlineStr"/>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 08:49</t>
+          <t>2024-08-18 08:33</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr"/>
       <c r="G127" s="3" t="n">
-        <v>102827</v>
+        <v>94710</v>
       </c>
       <c r="H127" s="3" t="n">
-        <v>76280</v>
+        <v>77483</v>
       </c>
       <c r="I127" s="3" t="n">
-        <v>1131</v>
+        <v>1565</v>
       </c>
       <c r="J127" s="3" t="n">
-        <v>75149</v>
+        <v>75918</v>
       </c>
       <c r="K127" s="3" t="inlineStr"/>
       <c r="L127" s="3" t="n">
-        <v>21563</v>
+        <v>16333</v>
       </c>
       <c r="M127" s="3" t="n">
-        <v>13507</v>
+        <v>19250</v>
       </c>
       <c r="N127" s="3" t="n">
-        <v>25024</v>
+        <v>19054</v>
       </c>
       <c r="O127" s="3" t="n">
-        <v>11296</v>
+        <v>17483</v>
       </c>
     </row>
     <row r="128">
@@ -6557,34 +6561,36 @@
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr"/>
-      <c r="E128" s="3" t="n">
-        <v>0</v>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:20</t>
+        </is>
       </c>
       <c r="F128" s="3" t="inlineStr"/>
       <c r="G128" s="3" t="n">
-        <v>0</v>
+        <v>112678</v>
       </c>
       <c r="H128" s="3" t="n">
-        <v>0</v>
+        <v>88299</v>
       </c>
       <c r="I128" s="3" t="n">
-        <v>0</v>
+        <v>2534</v>
       </c>
       <c r="J128" s="3" t="n">
-        <v>0</v>
+        <v>85765</v>
       </c>
       <c r="K128" s="3" t="inlineStr"/>
       <c r="L128" s="3" t="n">
-        <v>0</v>
+        <v>36016</v>
       </c>
       <c r="M128" s="3" t="n">
-        <v>0</v>
+        <v>13460</v>
       </c>
       <c r="N128" s="3" t="n">
-        <v>0</v>
+        <v>13892</v>
       </c>
       <c r="O128" s="3" t="n">
-        <v>0</v>
+        <v>18107</v>
       </c>
     </row>
     <row r="129">
@@ -6604,34 +6610,36 @@
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr"/>
-      <c r="E129" s="3" t="n">
-        <v>0</v>
+      <c r="E129" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 13:35</t>
+        </is>
       </c>
       <c r="F129" s="3" t="inlineStr"/>
       <c r="G129" s="3" t="n">
-        <v>0</v>
+        <v>103848</v>
       </c>
       <c r="H129" s="3" t="n">
-        <v>0</v>
+        <v>86864</v>
       </c>
       <c r="I129" s="3" t="n">
-        <v>0</v>
+        <v>1877</v>
       </c>
       <c r="J129" s="3" t="n">
-        <v>0</v>
+        <v>84987</v>
       </c>
       <c r="K129" s="3" t="inlineStr"/>
       <c r="L129" s="3" t="n">
-        <v>0</v>
+        <v>26329</v>
       </c>
       <c r="M129" s="3" t="n">
-        <v>0</v>
+        <v>21969</v>
       </c>
       <c r="N129" s="3" t="n">
-        <v>0</v>
+        <v>13595</v>
       </c>
       <c r="O129" s="3" t="n">
-        <v>0</v>
+        <v>18842</v>
       </c>
     </row>
     <row r="130">
@@ -6745,36 +6753,34 @@
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr"/>
-      <c r="E132" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 08:50</t>
-        </is>
+      <c r="E132" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F132" s="3" t="inlineStr"/>
       <c r="G132" s="3" t="n">
-        <v>95546</v>
+        <v>0</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>81158</v>
+        <v>0</v>
       </c>
       <c r="I132" s="3" t="n">
-        <v>1124</v>
+        <v>0</v>
       </c>
       <c r="J132" s="3" t="n">
-        <v>80034</v>
+        <v>0</v>
       </c>
       <c r="K132" s="3" t="inlineStr"/>
       <c r="L132" s="3" t="n">
-        <v>25174</v>
+        <v>0</v>
       </c>
       <c r="M132" s="3" t="n">
-        <v>23972</v>
+        <v>0</v>
       </c>
       <c r="N132" s="3" t="n">
-        <v>11156</v>
+        <v>0</v>
       </c>
       <c r="O132" s="3" t="n">
-        <v>15728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -6841,36 +6847,34 @@
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr"/>
-      <c r="E134" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 17:49</t>
-        </is>
+      <c r="E134" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F134" s="3" t="inlineStr"/>
       <c r="G134" s="3" t="n">
-        <v>107872</v>
+        <v>0</v>
       </c>
       <c r="H134" s="3" t="n">
-        <v>95547</v>
+        <v>0</v>
       </c>
       <c r="I134" s="3" t="n">
-        <v>2403</v>
+        <v>0</v>
       </c>
       <c r="J134" s="3" t="n">
-        <v>93144</v>
+        <v>0</v>
       </c>
       <c r="K134" s="3" t="inlineStr"/>
       <c r="L134" s="3" t="n">
-        <v>22427</v>
+        <v>0</v>
       </c>
       <c r="M134" s="3" t="n">
-        <v>19197</v>
+        <v>0</v>
       </c>
       <c r="N134" s="3" t="n">
-        <v>28511</v>
+        <v>0</v>
       </c>
       <c r="O134" s="3" t="n">
-        <v>18351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -6937,34 +6941,36 @@
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr"/>
-      <c r="E136" s="3" t="n">
-        <v>0</v>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 11:56</t>
+        </is>
       </c>
       <c r="F136" s="3" t="inlineStr"/>
       <c r="G136" s="3" t="n">
-        <v>0</v>
+        <v>82133</v>
       </c>
       <c r="H136" s="3" t="n">
-        <v>0</v>
+        <v>51963</v>
       </c>
       <c r="I136" s="3" t="n">
-        <v>0</v>
+        <v>1453</v>
       </c>
       <c r="J136" s="3" t="n">
-        <v>0</v>
+        <v>50510</v>
       </c>
       <c r="K136" s="3" t="inlineStr"/>
       <c r="L136" s="3" t="n">
-        <v>0</v>
+        <v>16653</v>
       </c>
       <c r="M136" s="3" t="n">
-        <v>0</v>
+        <v>9556</v>
       </c>
       <c r="N136" s="3" t="n">
-        <v>0</v>
+        <v>16577</v>
       </c>
       <c r="O136" s="3" t="n">
-        <v>0</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="137">
@@ -7078,36 +7084,34 @@
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr"/>
-      <c r="E139" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 14:48</t>
-        </is>
+      <c r="E139" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F139" s="3" t="inlineStr"/>
       <c r="G139" s="3" t="n">
-        <v>74757</v>
+        <v>0</v>
       </c>
       <c r="H139" s="3" t="n">
-        <v>62898</v>
+        <v>0</v>
       </c>
       <c r="I139" s="3" t="n">
-        <v>1459</v>
+        <v>0</v>
       </c>
       <c r="J139" s="3" t="n">
-        <v>61439</v>
+        <v>0</v>
       </c>
       <c r="K139" s="3" t="inlineStr"/>
       <c r="L139" s="3" t="n">
-        <v>23629</v>
+        <v>0</v>
       </c>
       <c r="M139" s="3" t="n">
-        <v>11321</v>
+        <v>0</v>
       </c>
       <c r="N139" s="3" t="n">
-        <v>11620</v>
+        <v>0</v>
       </c>
       <c r="O139" s="3" t="n">
-        <v>11795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -7127,34 +7131,36 @@
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr"/>
-      <c r="E140" s="3" t="n">
-        <v>0</v>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 18:17</t>
+        </is>
       </c>
       <c r="F140" s="3" t="inlineStr"/>
       <c r="G140" s="3" t="n">
-        <v>0</v>
+        <v>157613</v>
       </c>
       <c r="H140" s="3" t="n">
-        <v>0</v>
+        <v>136333</v>
       </c>
       <c r="I140" s="3" t="n">
-        <v>0</v>
+        <v>2801</v>
       </c>
       <c r="J140" s="3" t="n">
-        <v>0</v>
+        <v>133532</v>
       </c>
       <c r="K140" s="3" t="inlineStr"/>
       <c r="L140" s="3" t="n">
-        <v>0</v>
+        <v>35264</v>
       </c>
       <c r="M140" s="3" t="n">
-        <v>0</v>
+        <v>31314</v>
       </c>
       <c r="N140" s="3" t="n">
-        <v>0</v>
+        <v>37437</v>
       </c>
       <c r="O140" s="3" t="n">
-        <v>0</v>
+        <v>22839</v>
       </c>
     </row>
     <row r="141">
@@ -7362,34 +7368,36 @@
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr"/>
-      <c r="E145" s="3" t="n">
-        <v>0</v>
+      <c r="E145" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 11:11</t>
+        </is>
       </c>
       <c r="F145" s="3" t="inlineStr"/>
       <c r="G145" s="3" t="n">
-        <v>0</v>
+        <v>85419</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="I145" s="3" t="n">
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="J145" s="3" t="n">
-        <v>0</v>
+        <v>57347</v>
       </c>
       <c r="K145" s="3" t="inlineStr"/>
       <c r="L145" s="3" t="n">
-        <v>0</v>
+        <v>17676</v>
       </c>
       <c r="M145" s="3" t="n">
-        <v>0</v>
+        <v>9425</v>
       </c>
       <c r="N145" s="3" t="n">
-        <v>0</v>
+        <v>14541</v>
       </c>
       <c r="O145" s="3" t="n">
-        <v>0</v>
+        <v>12836</v>
       </c>
     </row>
     <row r="146">
@@ -7411,34 +7419,34 @@
       <c r="D146" s="3" t="inlineStr"/>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 12:46</t>
+          <t>2024-08-18 11:19</t>
         </is>
       </c>
       <c r="F146" s="3" t="inlineStr"/>
       <c r="G146" s="3" t="n">
-        <v>80223</v>
+        <v>87336</v>
       </c>
       <c r="H146" s="3" t="n">
-        <v>67897</v>
+        <v>59017</v>
       </c>
       <c r="I146" s="3" t="n">
-        <v>997</v>
+        <v>626</v>
       </c>
       <c r="J146" s="3" t="n">
-        <v>66900</v>
+        <v>58391</v>
       </c>
       <c r="K146" s="3" t="inlineStr"/>
       <c r="L146" s="3" t="n">
-        <v>17016</v>
+        <v>17247</v>
       </c>
       <c r="M146" s="3" t="n">
-        <v>16772</v>
+        <v>16735</v>
       </c>
       <c r="N146" s="3" t="n">
-        <v>15206</v>
+        <v>6202</v>
       </c>
       <c r="O146" s="3" t="n">
-        <v>14559</v>
+        <v>15286</v>
       </c>
     </row>
     <row r="147">
@@ -7458,36 +7466,34 @@
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr"/>
-      <c r="E147" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 14:13</t>
-        </is>
+      <c r="E147" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F147" s="3" t="inlineStr"/>
       <c r="G147" s="3" t="n">
-        <v>105832</v>
+        <v>0</v>
       </c>
       <c r="H147" s="3" t="n">
-        <v>73521</v>
+        <v>0</v>
       </c>
       <c r="I147" s="3" t="n">
-        <v>754</v>
+        <v>0</v>
       </c>
       <c r="J147" s="3" t="n">
-        <v>72767</v>
+        <v>0</v>
       </c>
       <c r="K147" s="3" t="inlineStr"/>
       <c r="L147" s="3" t="n">
-        <v>26048</v>
+        <v>0</v>
       </c>
       <c r="M147" s="3" t="n">
-        <v>14632</v>
+        <v>0</v>
       </c>
       <c r="N147" s="3" t="n">
-        <v>8173</v>
+        <v>0</v>
       </c>
       <c r="O147" s="3" t="n">
-        <v>20274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -7509,34 +7515,34 @@
       <c r="D148" s="3" t="inlineStr"/>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 10:23</t>
+          <t>2024-08-18 12:08</t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr"/>
       <c r="G148" s="3" t="n">
-        <v>105426</v>
+        <v>103787</v>
       </c>
       <c r="H148" s="3" t="n">
-        <v>67817</v>
+        <v>77520</v>
       </c>
       <c r="I148" s="3" t="n">
-        <v>1640</v>
+        <v>2066</v>
       </c>
       <c r="J148" s="3" t="n">
-        <v>66177</v>
+        <v>75454</v>
       </c>
       <c r="K148" s="3" t="inlineStr"/>
       <c r="L148" s="3" t="n">
-        <v>24563</v>
+        <v>27560</v>
       </c>
       <c r="M148" s="3" t="n">
-        <v>14194</v>
+        <v>19827</v>
       </c>
       <c r="N148" s="3" t="n">
-        <v>16494</v>
+        <v>12772</v>
       </c>
       <c r="O148" s="3" t="n">
-        <v>7615</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="149">
@@ -7556,36 +7562,34 @@
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr"/>
-      <c r="E149" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:29</t>
-        </is>
+      <c r="E149" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F149" s="3" t="inlineStr"/>
       <c r="G149" s="3" t="n">
-        <v>130575</v>
+        <v>0</v>
       </c>
       <c r="H149" s="3" t="n">
-        <v>103093</v>
+        <v>0</v>
       </c>
       <c r="I149" s="3" t="n">
-        <v>1055</v>
+        <v>0</v>
       </c>
       <c r="J149" s="3" t="n">
-        <v>102038</v>
+        <v>0</v>
       </c>
       <c r="K149" s="3" t="inlineStr"/>
       <c r="L149" s="3" t="n">
-        <v>28976</v>
+        <v>0</v>
       </c>
       <c r="M149" s="3" t="n">
-        <v>32846</v>
+        <v>0</v>
       </c>
       <c r="N149" s="3" t="n">
-        <v>25971</v>
+        <v>0</v>
       </c>
       <c r="O149" s="3" t="n">
-        <v>9141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -7605,36 +7609,34 @@
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr"/>
-      <c r="E150" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 10:34</t>
-        </is>
+      <c r="E150" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F150" s="3" t="inlineStr"/>
       <c r="G150" s="3" t="n">
-        <v>67244</v>
+        <v>0</v>
       </c>
       <c r="H150" s="3" t="n">
-        <v>47300</v>
+        <v>0</v>
       </c>
       <c r="I150" s="3" t="n">
-        <v>1066</v>
+        <v>0</v>
       </c>
       <c r="J150" s="3" t="n">
-        <v>46234</v>
+        <v>0</v>
       </c>
       <c r="K150" s="3" t="inlineStr"/>
       <c r="L150" s="3" t="n">
-        <v>17518</v>
+        <v>0</v>
       </c>
       <c r="M150" s="3" t="n">
-        <v>13234</v>
+        <v>0</v>
       </c>
       <c r="N150" s="3" t="n">
-        <v>11844</v>
+        <v>0</v>
       </c>
       <c r="O150" s="3" t="n">
-        <v>1325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -7795,34 +7797,36 @@
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr"/>
-      <c r="E154" s="3" t="n">
-        <v>0</v>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 11:55</t>
+        </is>
       </c>
       <c r="F154" s="3" t="inlineStr"/>
       <c r="G154" s="3" t="n">
-        <v>0</v>
+        <v>154723</v>
       </c>
       <c r="H154" s="3" t="n">
-        <v>0</v>
+        <v>137931</v>
       </c>
       <c r="I154" s="3" t="n">
-        <v>0</v>
+        <v>2791</v>
       </c>
       <c r="J154" s="3" t="n">
-        <v>0</v>
+        <v>135140</v>
       </c>
       <c r="K154" s="3" t="inlineStr"/>
       <c r="L154" s="3" t="n">
-        <v>0</v>
+        <v>38611</v>
       </c>
       <c r="M154" s="3" t="n">
-        <v>0</v>
+        <v>58695</v>
       </c>
       <c r="N154" s="3" t="n">
-        <v>0</v>
+        <v>26710</v>
       </c>
       <c r="O154" s="3" t="n">
-        <v>0</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="155">
@@ -8079,34 +8083,34 @@
       <c r="D160" s="3" t="inlineStr"/>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 10:16</t>
+          <t>2024-08-18 17:25</t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr"/>
       <c r="G160" s="3" t="n">
-        <v>64350</v>
+        <v>66577</v>
       </c>
       <c r="H160" s="3" t="n">
-        <v>49582</v>
+        <v>50463</v>
       </c>
       <c r="I160" s="3" t="n">
-        <v>765</v>
+        <v>1344</v>
       </c>
       <c r="J160" s="3" t="n">
-        <v>48817</v>
+        <v>49119</v>
       </c>
       <c r="K160" s="3" t="inlineStr"/>
       <c r="L160" s="3" t="n">
-        <v>15357</v>
+        <v>15503</v>
       </c>
       <c r="M160" s="3" t="n">
-        <v>8495</v>
+        <v>10300</v>
       </c>
       <c r="N160" s="3" t="n">
-        <v>7993</v>
+        <v>12508</v>
       </c>
       <c r="O160" s="3" t="n">
-        <v>14530</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="161">
@@ -8220,36 +8224,34 @@
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr"/>
-      <c r="E163" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 19:45</t>
-        </is>
+      <c r="E163" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F163" s="3" t="inlineStr"/>
       <c r="G163" s="3" t="n">
-        <v>69421</v>
+        <v>0</v>
       </c>
       <c r="H163" s="3" t="n">
-        <v>44240</v>
+        <v>0</v>
       </c>
       <c r="I163" s="3" t="n">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="J163" s="3" t="n">
-        <v>43692</v>
+        <v>0</v>
       </c>
       <c r="K163" s="3" t="inlineStr"/>
       <c r="L163" s="3" t="n">
-        <v>19102</v>
+        <v>0</v>
       </c>
       <c r="M163" s="3" t="n">
-        <v>11957</v>
+        <v>0</v>
       </c>
       <c r="N163" s="3" t="n">
-        <v>5922</v>
+        <v>0</v>
       </c>
       <c r="O163" s="3" t="n">
-        <v>4524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -8269,34 +8271,36 @@
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr"/>
-      <c r="E164" s="3" t="n">
-        <v>0</v>
+      <c r="E164" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 08:32</t>
+        </is>
       </c>
       <c r="F164" s="3" t="inlineStr"/>
       <c r="G164" s="3" t="n">
-        <v>0</v>
+        <v>83846</v>
       </c>
       <c r="H164" s="3" t="n">
-        <v>0</v>
+        <v>67643</v>
       </c>
       <c r="I164" s="3" t="n">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="J164" s="3" t="n">
-        <v>0</v>
+        <v>65648</v>
       </c>
       <c r="K164" s="3" t="inlineStr"/>
       <c r="L164" s="3" t="n">
-        <v>0</v>
+        <v>19957</v>
       </c>
       <c r="M164" s="3" t="n">
-        <v>0</v>
+        <v>18362</v>
       </c>
       <c r="N164" s="3" t="n">
-        <v>0</v>
+        <v>18714</v>
       </c>
       <c r="O164" s="3" t="n">
-        <v>0</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="165">
@@ -8459,34 +8463,34 @@
       <c r="D168" s="3" t="inlineStr"/>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 16:51</t>
+          <t>2024-08-18 16:17</t>
         </is>
       </c>
       <c r="F168" s="3" t="inlineStr"/>
       <c r="G168" s="3" t="n">
-        <v>129146</v>
+        <v>127551</v>
       </c>
       <c r="H168" s="3" t="n">
-        <v>115116</v>
+        <v>91269</v>
       </c>
       <c r="I168" s="3" t="n">
-        <v>1246</v>
+        <v>2380</v>
       </c>
       <c r="J168" s="3" t="n">
-        <v>113870</v>
+        <v>88889</v>
       </c>
       <c r="K168" s="3" t="inlineStr"/>
       <c r="L168" s="3" t="n">
-        <v>31763</v>
+        <v>30991</v>
       </c>
       <c r="M168" s="3" t="n">
-        <v>32736</v>
+        <v>14059</v>
       </c>
       <c r="N168" s="3" t="n">
-        <v>27606</v>
+        <v>20642</v>
       </c>
       <c r="O168" s="3" t="n">
-        <v>16070</v>
+        <v>18751</v>
       </c>
     </row>
     <row r="169">
@@ -8506,34 +8510,36 @@
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr"/>
-      <c r="E169" s="3" t="n">
-        <v>0</v>
+      <c r="E169" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:32</t>
+        </is>
       </c>
       <c r="F169" s="3" t="inlineStr"/>
       <c r="G169" s="3" t="n">
-        <v>0</v>
+        <v>94868</v>
       </c>
       <c r="H169" s="3" t="n">
-        <v>0</v>
+        <v>67170</v>
       </c>
       <c r="I169" s="3" t="n">
-        <v>0</v>
+        <v>1826</v>
       </c>
       <c r="J169" s="3" t="n">
-        <v>0</v>
+        <v>65344</v>
       </c>
       <c r="K169" s="3" t="inlineStr"/>
       <c r="L169" s="3" t="n">
-        <v>0</v>
+        <v>17833</v>
       </c>
       <c r="M169" s="3" t="n">
-        <v>0</v>
+        <v>18278</v>
       </c>
       <c r="N169" s="3" t="n">
-        <v>0</v>
+        <v>12592</v>
       </c>
       <c r="O169" s="3" t="n">
-        <v>0</v>
+        <v>13372</v>
       </c>
     </row>
     <row r="170">
@@ -8600,34 +8606,36 @@
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr"/>
-      <c r="E171" s="3" t="n">
-        <v>0</v>
+      <c r="E171" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 17:21</t>
+        </is>
       </c>
       <c r="F171" s="3" t="inlineStr"/>
       <c r="G171" s="3" t="n">
-        <v>0</v>
+        <v>110352</v>
       </c>
       <c r="H171" s="3" t="n">
-        <v>0</v>
+        <v>92542</v>
       </c>
       <c r="I171" s="3" t="n">
-        <v>0</v>
+        <v>1749</v>
       </c>
       <c r="J171" s="3" t="n">
-        <v>0</v>
+        <v>90793</v>
       </c>
       <c r="K171" s="3" t="inlineStr"/>
       <c r="L171" s="3" t="n">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="M171" s="3" t="n">
-        <v>0</v>
+        <v>24706</v>
       </c>
       <c r="N171" s="3" t="n">
-        <v>0</v>
+        <v>11053</v>
       </c>
       <c r="O171" s="3" t="n">
-        <v>0</v>
+        <v>19492</v>
       </c>
     </row>
     <row r="172">
@@ -8649,34 +8657,34 @@
       <c r="D172" s="3" t="inlineStr"/>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 11:51</t>
+          <t>2024-08-18 18:43</t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr"/>
       <c r="G172" s="3" t="n">
-        <v>110604</v>
+        <v>102657</v>
       </c>
       <c r="H172" s="3" t="n">
-        <v>86278</v>
+        <v>71770</v>
       </c>
       <c r="I172" s="3" t="n">
-        <v>1441</v>
+        <v>2131</v>
       </c>
       <c r="J172" s="3" t="n">
-        <v>84837</v>
+        <v>69639</v>
       </c>
       <c r="K172" s="3" t="inlineStr"/>
       <c r="L172" s="3" t="n">
-        <v>14963</v>
+        <v>18287</v>
       </c>
       <c r="M172" s="3" t="n">
-        <v>24054</v>
+        <v>27447</v>
       </c>
       <c r="N172" s="3" t="n">
-        <v>22068</v>
+        <v>10155</v>
       </c>
       <c r="O172" s="3" t="n">
-        <v>19507</v>
+        <v>10266</v>
       </c>
     </row>
     <row r="173">
@@ -8696,36 +8704,34 @@
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr"/>
-      <c r="E173" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 16:20</t>
-        </is>
+      <c r="E173" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F173" s="3" t="inlineStr"/>
       <c r="G173" s="3" t="n">
-        <v>70647</v>
+        <v>0</v>
       </c>
       <c r="H173" s="3" t="n">
-        <v>44757</v>
+        <v>0</v>
       </c>
       <c r="I173" s="3" t="n">
-        <v>889</v>
+        <v>0</v>
       </c>
       <c r="J173" s="3" t="n">
-        <v>43868</v>
+        <v>0</v>
       </c>
       <c r="K173" s="3" t="inlineStr"/>
       <c r="L173" s="3" t="n">
-        <v>15379</v>
+        <v>0</v>
       </c>
       <c r="M173" s="3" t="n">
-        <v>6667</v>
+        <v>0</v>
       </c>
       <c r="N173" s="3" t="n">
-        <v>8990</v>
+        <v>0</v>
       </c>
       <c r="O173" s="3" t="n">
-        <v>10636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -8745,34 +8751,36 @@
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr"/>
-      <c r="E174" s="3" t="n">
-        <v>0</v>
+      <c r="E174" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 10:14</t>
+        </is>
       </c>
       <c r="F174" s="3" t="inlineStr"/>
       <c r="G174" s="3" t="n">
-        <v>0</v>
+        <v>156797</v>
       </c>
       <c r="H174" s="3" t="n">
-        <v>0</v>
+        <v>114599</v>
       </c>
       <c r="I174" s="3" t="n">
-        <v>0</v>
+        <v>2853</v>
       </c>
       <c r="J174" s="3" t="n">
-        <v>0</v>
+        <v>111746</v>
       </c>
       <c r="K174" s="3" t="inlineStr"/>
       <c r="L174" s="3" t="n">
-        <v>0</v>
+        <v>46626</v>
       </c>
       <c r="M174" s="3" t="n">
-        <v>0</v>
+        <v>20625</v>
       </c>
       <c r="N174" s="3" t="n">
-        <v>0</v>
+        <v>28795</v>
       </c>
       <c r="O174" s="3" t="n">
-        <v>0</v>
+        <v>10111</v>
       </c>
     </row>
     <row r="175">
@@ -8839,36 +8847,34 @@
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr"/>
-      <c r="E176" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 11:46</t>
-        </is>
+      <c r="E176" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F176" s="3" t="inlineStr"/>
       <c r="G176" s="3" t="n">
-        <v>66201</v>
+        <v>0</v>
       </c>
       <c r="H176" s="3" t="n">
-        <v>59007</v>
+        <v>0</v>
       </c>
       <c r="I176" s="3" t="n">
-        <v>1532</v>
+        <v>0</v>
       </c>
       <c r="J176" s="3" t="n">
-        <v>57475</v>
+        <v>0</v>
       </c>
       <c r="K176" s="3" t="inlineStr"/>
       <c r="L176" s="3" t="n">
-        <v>15074</v>
+        <v>0</v>
       </c>
       <c r="M176" s="3" t="n">
-        <v>18378</v>
+        <v>0</v>
       </c>
       <c r="N176" s="3" t="n">
-        <v>9607</v>
+        <v>0</v>
       </c>
       <c r="O176" s="3" t="n">
-        <v>11540</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -8888,34 +8894,36 @@
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr"/>
-      <c r="E177" s="3" t="n">
-        <v>0</v>
+      <c r="E177" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 17:41</t>
+        </is>
       </c>
       <c r="F177" s="3" t="inlineStr"/>
       <c r="G177" s="3" t="n">
-        <v>0</v>
+        <v>73671</v>
       </c>
       <c r="H177" s="3" t="n">
-        <v>0</v>
+        <v>46730</v>
       </c>
       <c r="I177" s="3" t="n">
-        <v>0</v>
+        <v>1068</v>
       </c>
       <c r="J177" s="3" t="n">
-        <v>0</v>
+        <v>45662</v>
       </c>
       <c r="K177" s="3" t="inlineStr"/>
       <c r="L177" s="3" t="n">
-        <v>0</v>
+        <v>15240</v>
       </c>
       <c r="M177" s="3" t="n">
-        <v>0</v>
+        <v>19968</v>
       </c>
       <c r="N177" s="3" t="n">
-        <v>0</v>
+        <v>6416</v>
       </c>
       <c r="O177" s="3" t="n">
-        <v>0</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="178">
@@ -8935,34 +8943,36 @@
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr"/>
-      <c r="E178" s="3" t="n">
-        <v>0</v>
+      <c r="E178" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 13:42</t>
+        </is>
       </c>
       <c r="F178" s="3" t="inlineStr"/>
       <c r="G178" s="3" t="n">
-        <v>0</v>
+        <v>67679</v>
       </c>
       <c r="H178" s="3" t="n">
-        <v>0</v>
+        <v>45661</v>
       </c>
       <c r="I178" s="3" t="n">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="J178" s="3" t="n">
-        <v>0</v>
+        <v>44987</v>
       </c>
       <c r="K178" s="3" t="inlineStr"/>
       <c r="L178" s="3" t="n">
-        <v>0</v>
+        <v>11510</v>
       </c>
       <c r="M178" s="3" t="n">
-        <v>0</v>
+        <v>11698</v>
       </c>
       <c r="N178" s="3" t="n">
-        <v>0</v>
+        <v>9297</v>
       </c>
       <c r="O178" s="3" t="n">
-        <v>0</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="179">
@@ -8982,34 +8992,36 @@
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr"/>
-      <c r="E179" s="3" t="n">
-        <v>0</v>
+      <c r="E179" s="3" t="inlineStr">
+        <is>
+          <t>2024-08-18 12:32</t>
+        </is>
       </c>
       <c r="F179" s="3" t="inlineStr"/>
       <c r="G179" s="3" t="n">
-        <v>0</v>
+        <v>101043</v>
       </c>
       <c r="H179" s="3" t="n">
-        <v>0</v>
+        <v>86774</v>
       </c>
       <c r="I179" s="3" t="n">
-        <v>0</v>
+        <v>1519</v>
       </c>
       <c r="J179" s="3" t="n">
-        <v>0</v>
+        <v>85255</v>
       </c>
       <c r="K179" s="3" t="inlineStr"/>
       <c r="L179" s="3" t="n">
-        <v>0</v>
+        <v>23657</v>
       </c>
       <c r="M179" s="3" t="n">
-        <v>0</v>
+        <v>28707</v>
       </c>
       <c r="N179" s="3" t="n">
-        <v>0</v>
+        <v>23097</v>
       </c>
       <c r="O179" s="3" t="n">
-        <v>0</v>
+        <v>5529</v>
       </c>
     </row>
     <row r="180">
@@ -9029,36 +9041,34 @@
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr"/>
-      <c r="E180" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 18:54</t>
-        </is>
+      <c r="E180" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F180" s="3" t="inlineStr"/>
       <c r="G180" s="3" t="n">
-        <v>54984</v>
+        <v>0</v>
       </c>
       <c r="H180" s="3" t="n">
-        <v>42186</v>
+        <v>0</v>
       </c>
       <c r="I180" s="3" t="n">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="J180" s="3" t="n">
-        <v>41727</v>
+        <v>0</v>
       </c>
       <c r="K180" s="3" t="inlineStr"/>
       <c r="L180" s="3" t="n">
-        <v>13461</v>
+        <v>0</v>
       </c>
       <c r="M180" s="3" t="n">
-        <v>16694</v>
+        <v>0</v>
       </c>
       <c r="N180" s="3" t="n">
-        <v>7750</v>
+        <v>0</v>
       </c>
       <c r="O180" s="3" t="n">
-        <v>1733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -9080,34 +9090,34 @@
       <c r="D181" s="3" t="inlineStr"/>
       <c r="E181" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 10:35</t>
+          <t>2024-08-18 13:46</t>
         </is>
       </c>
       <c r="F181" s="3" t="inlineStr"/>
       <c r="G181" s="3" t="n">
-        <v>78721</v>
+        <v>76792</v>
       </c>
       <c r="H181" s="3" t="n">
-        <v>54318</v>
+        <v>51153</v>
       </c>
       <c r="I181" s="3" t="n">
-        <v>1442</v>
+        <v>964</v>
       </c>
       <c r="J181" s="3" t="n">
-        <v>52876</v>
+        <v>50189</v>
       </c>
       <c r="K181" s="3" t="inlineStr"/>
       <c r="L181" s="3" t="n">
-        <v>16842</v>
+        <v>18243</v>
       </c>
       <c r="M181" s="3" t="n">
-        <v>11650</v>
+        <v>10361</v>
       </c>
       <c r="N181" s="3" t="n">
-        <v>12594</v>
+        <v>14189</v>
       </c>
       <c r="O181" s="3" t="n">
-        <v>9144</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="182">
@@ -9127,36 +9137,34 @@
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr"/>
-      <c r="E182" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 09:52</t>
-        </is>
+      <c r="E182" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F182" s="3" t="inlineStr"/>
       <c r="G182" s="3" t="n">
-        <v>81099</v>
+        <v>0</v>
       </c>
       <c r="H182" s="3" t="n">
-        <v>69127</v>
+        <v>0</v>
       </c>
       <c r="I182" s="3" t="n">
-        <v>1732</v>
+        <v>0</v>
       </c>
       <c r="J182" s="3" t="n">
-        <v>67395</v>
+        <v>0</v>
       </c>
       <c r="K182" s="3" t="inlineStr"/>
       <c r="L182" s="3" t="n">
-        <v>21509</v>
+        <v>0</v>
       </c>
       <c r="M182" s="3" t="n">
-        <v>14943</v>
+        <v>0</v>
       </c>
       <c r="N182" s="3" t="n">
-        <v>22444</v>
+        <v>0</v>
       </c>
       <c r="O182" s="3" t="n">
-        <v>5127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -9176,36 +9184,34 @@
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr"/>
-      <c r="E183" s="3" t="inlineStr">
-        <is>
-          <t>2024-08-18 09:07</t>
-        </is>
+      <c r="E183" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F183" s="3" t="inlineStr"/>
       <c r="G183" s="3" t="n">
-        <v>74852</v>
+        <v>0</v>
       </c>
       <c r="H183" s="3" t="n">
-        <v>65294</v>
+        <v>0</v>
       </c>
       <c r="I183" s="3" t="n">
-        <v>947</v>
+        <v>0</v>
       </c>
       <c r="J183" s="3" t="n">
-        <v>64347</v>
+        <v>0</v>
       </c>
       <c r="K183" s="3" t="inlineStr"/>
       <c r="L183" s="3" t="n">
-        <v>22025</v>
+        <v>0</v>
       </c>
       <c r="M183" s="3" t="n">
-        <v>17460</v>
+        <v>0</v>
       </c>
       <c r="N183" s="3" t="n">
-        <v>7681</v>
+        <v>0</v>
       </c>
       <c r="O183" s="3" t="n">
-        <v>13962</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/prespollsl2024.xlsx
+++ b/data/prespollsl2024.xlsx
@@ -533,34 +533,36 @@
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr"/>
-      <c r="E2" s="3" t="n">
-        <v>0</v>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 16:40</t>
+        </is>
       </c>
       <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="n">
-        <v>0</v>
+        <v>38123</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>0</v>
+        <v>32488</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0</v>
+        <v>31704</v>
       </c>
       <c r="K2" s="3" t="inlineStr"/>
       <c r="L2" s="3" t="n">
-        <v>0</v>
+        <v>10693</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>0</v>
+        <v>7957</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>0</v>
+        <v>5890</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>0</v>
+        <v>5578</v>
       </c>
     </row>
     <row r="3">
@@ -580,34 +582,36 @@
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 14:57</t>
+        </is>
       </c>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="n">
-        <v>0</v>
+        <v>55100</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>0</v>
+        <v>37351</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0</v>
+        <v>36842</v>
       </c>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>11493</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>0</v>
+        <v>9448</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>0</v>
+        <v>4598</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>0</v>
+        <v>9458</v>
       </c>
     </row>
     <row r="4">
@@ -629,34 +633,34 @@
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 08:46</t>
+          <t>2024-09-10 16:25</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="n">
-        <v>41488</v>
+        <v>41308</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>30863</v>
+        <v>25923</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>30512</v>
+        <v>25523</v>
       </c>
       <c r="K4" s="3" t="inlineStr"/>
       <c r="L4" s="3" t="n">
-        <v>15715</v>
+        <v>8779</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>6009</v>
+        <v>6087</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>6021</v>
+        <v>5581</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>1239</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="5">
@@ -678,34 +682,34 @@
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 14:56</t>
+          <t>2024-09-10 17:17</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="n">
-        <v>58636</v>
+        <v>54283</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>46326</v>
+        <v>35117</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>897</v>
+        <v>929</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>45429</v>
+        <v>34188</v>
       </c>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="n">
-        <v>16802</v>
+        <v>14803</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>7009</v>
+        <v>8324</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>14235</v>
+        <v>3973</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>5109</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="6">
@@ -725,34 +729,36 @@
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr"/>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 16:55</t>
+        </is>
       </c>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="n">
-        <v>0</v>
+        <v>23955</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>0</v>
+        <v>20831</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0</v>
+        <v>20469</v>
       </c>
       <c r="K6" s="3" t="inlineStr"/>
       <c r="L6" s="3" t="n">
-        <v>0</v>
+        <v>4512</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>0</v>
+        <v>6950</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>0</v>
+        <v>2979</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>0</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="7">
@@ -774,34 +780,34 @@
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 14:50</t>
+          <t>2024-09-10 15:41</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="n">
-        <v>19743</v>
+        <v>20582</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>13802</v>
+        <v>16449</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>167</v>
+        <v>475</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>13635</v>
+        <v>15974</v>
       </c>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="n">
-        <v>4194</v>
+        <v>4972</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>4506</v>
+        <v>5111</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>1939</v>
+        <v>2149</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>2312</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="8">
@@ -823,34 +829,34 @@
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 16:29</t>
+          <t>2024-09-10 10:43</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="n">
-        <v>43181</v>
+        <v>42540</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>38778</v>
+        <v>31317</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>612</v>
+        <v>826</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>38166</v>
+        <v>30491</v>
       </c>
       <c r="K8" s="3" t="inlineStr"/>
       <c r="L8" s="3" t="n">
-        <v>10628</v>
+        <v>7405</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>9907</v>
+        <v>10356</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>14575</v>
+        <v>4451</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>1146</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="9">
@@ -872,34 +878,34 @@
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 14:29</t>
+          <t>2024-09-10 11:36</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="n">
-        <v>30649</v>
+        <v>29556</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>18601</v>
+        <v>26408</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>18325</v>
+        <v>26141</v>
       </c>
       <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="n">
-        <v>5950</v>
+        <v>8784</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>4211</v>
+        <v>7604</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>3321</v>
+        <v>6938</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>3925</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="10">
@@ -921,34 +927,34 @@
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:03</t>
+          <t>2024-09-10 13:38</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="n">
-        <v>20771</v>
+        <v>20757</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>13807</v>
+        <v>17463</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>391</v>
+        <v>509</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>13416</v>
+        <v>16954</v>
       </c>
       <c r="K10" s="3" t="inlineStr"/>
       <c r="L10" s="3" t="n">
-        <v>5003</v>
+        <v>4407</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>3734</v>
+        <v>6451</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>1985</v>
+        <v>4111</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>2021</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="11">
@@ -968,34 +974,36 @@
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr"/>
-      <c r="E11" s="3" t="n">
-        <v>0</v>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 15:54</t>
+        </is>
       </c>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="n">
-        <v>0</v>
+        <v>26435</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>0</v>
+        <v>20637</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>0</v>
+        <v>20273</v>
       </c>
       <c r="K11" s="3" t="inlineStr"/>
       <c r="L11" s="3" t="n">
-        <v>0</v>
+        <v>8581</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>0</v>
+        <v>4983</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>0</v>
+        <v>3943</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>0</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="12">
@@ -1015,34 +1023,36 @@
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr"/>
-      <c r="E12" s="3" t="n">
-        <v>0</v>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 14:46</t>
+        </is>
       </c>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="n">
-        <v>0</v>
+        <v>13085</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>0</v>
+        <v>10636</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0</v>
+        <v>10365</v>
       </c>
       <c r="K12" s="3" t="inlineStr"/>
       <c r="L12" s="3" t="n">
-        <v>0</v>
+        <v>2887</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>0</v>
+        <v>4214</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>0</v>
+        <v>2313</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13">
@@ -1062,34 +1072,36 @@
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr"/>
-      <c r="E13" s="3" t="n">
-        <v>0</v>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 18:12</t>
+        </is>
       </c>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="n">
-        <v>0</v>
+        <v>13689</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>0</v>
+        <v>10253</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>0</v>
+        <v>10064</v>
       </c>
       <c r="K13" s="3" t="inlineStr"/>
       <c r="L13" s="3" t="n">
-        <v>0</v>
+        <v>2819</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>0</v>
+        <v>2997</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>0</v>
+        <v>2742</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>0</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="14">
@@ -1109,34 +1121,36 @@
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="n">
-        <v>0</v>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 17:39</t>
+        </is>
       </c>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="n">
-        <v>0</v>
+        <v>28702</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>0</v>
+        <v>19090</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0</v>
+        <v>18899</v>
       </c>
       <c r="K14" s="3" t="inlineStr"/>
       <c r="L14" s="3" t="n">
-        <v>0</v>
+        <v>6453</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>0</v>
+        <v>4705</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>0</v>
+        <v>4697</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>0</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="15">
@@ -1156,34 +1170,36 @@
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr"/>
-      <c r="E15" s="3" t="n">
-        <v>0</v>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:22</t>
+        </is>
       </c>
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="n">
-        <v>0</v>
+        <v>15929</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>0</v>
+        <v>10532</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>0</v>
+        <v>10299</v>
       </c>
       <c r="K15" s="3" t="inlineStr"/>
       <c r="L15" s="3" t="n">
-        <v>0</v>
+        <v>3995</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>0</v>
+        <v>1820</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>0</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="16">
@@ -1203,34 +1219,36 @@
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr"/>
-      <c r="E16" s="3" t="n">
-        <v>0</v>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 16:26</t>
+        </is>
       </c>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="n">
-        <v>0</v>
+        <v>81274</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>0</v>
+        <v>68799</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0</v>
+        <v>1751</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0</v>
+        <v>67048</v>
       </c>
       <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="n">
-        <v>0</v>
+        <v>19656</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>0</v>
+        <v>21290</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v>0</v>
+        <v>15606</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>0</v>
+        <v>7143</v>
       </c>
     </row>
     <row r="17">
@@ -1252,34 +1270,34 @@
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:44</t>
+          <t>2024-09-10 12:57</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="n">
-        <v>14477</v>
+        <v>15010</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>12610</v>
+        <v>11987</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>12411</v>
+        <v>11782</v>
       </c>
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="n">
-        <v>3652</v>
+        <v>3078</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>3994</v>
+        <v>2512</v>
       </c>
       <c r="N17" s="3" t="n">
-        <v>1817</v>
+        <v>5178</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>2326</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18">
@@ -1301,34 +1319,34 @@
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 16:27</t>
+          <t>2024-09-10 19:16</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="n">
-        <v>57602</v>
+        <v>61613</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>44618</v>
+        <v>43582</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>712</v>
+        <v>898</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>43906</v>
+        <v>42684</v>
       </c>
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="n">
-        <v>18001</v>
+        <v>11412</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>15975</v>
+        <v>11221</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>5639</v>
+        <v>10255</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>2094</v>
+        <v>7660</v>
       </c>
     </row>
     <row r="19">
@@ -1348,34 +1366,36 @@
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="n">
-        <v>0</v>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 16:21</t>
+        </is>
       </c>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="n">
-        <v>0</v>
+        <v>21209</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>0</v>
+        <v>16486</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>0</v>
+        <v>16111</v>
       </c>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="n">
-        <v>0</v>
+        <v>6459</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>0</v>
+        <v>2484</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>0</v>
+        <v>4448</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>0</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="20">
@@ -1395,34 +1415,36 @@
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr"/>
-      <c r="E20" s="3" t="n">
-        <v>0</v>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:40</t>
+        </is>
       </c>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="n">
-        <v>0</v>
+        <v>46920</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>0</v>
+        <v>31281</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>0</v>
+        <v>30920</v>
       </c>
       <c r="K20" s="3" t="inlineStr"/>
       <c r="L20" s="3" t="n">
-        <v>0</v>
+        <v>12661</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>0</v>
+        <v>8840</v>
       </c>
       <c r="N20" s="3" t="n">
-        <v>0</v>
+        <v>6130</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>0</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="21">
@@ -1442,34 +1464,36 @@
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="n">
-        <v>0</v>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 15:19</t>
+        </is>
       </c>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="n">
-        <v>0</v>
+        <v>24487</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>0</v>
+        <v>18388</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>0</v>
+        <v>17840</v>
       </c>
       <c r="K21" s="3" t="inlineStr"/>
       <c r="L21" s="3" t="n">
-        <v>0</v>
+        <v>7240</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>0</v>
+        <v>5102</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>0</v>
+        <v>3046</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>0</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="22">
@@ -1489,34 +1513,36 @@
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="n">
-        <v>0</v>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 08:40</t>
+        </is>
       </c>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="n">
-        <v>0</v>
+        <v>32256</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>0</v>
+        <v>25427</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>0</v>
+        <v>24943</v>
       </c>
       <c r="K22" s="3" t="inlineStr"/>
       <c r="L22" s="3" t="n">
-        <v>0</v>
+        <v>7648</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>0</v>
+        <v>7936</v>
       </c>
       <c r="N22" s="3" t="n">
-        <v>0</v>
+        <v>4805</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>0</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="23">
@@ -1536,34 +1562,36 @@
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr"/>
-      <c r="E23" s="3" t="n">
-        <v>0</v>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 10:55</t>
+        </is>
       </c>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="n">
-        <v>0</v>
+        <v>36655</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>0</v>
+        <v>31615</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>0</v>
+        <v>30896</v>
       </c>
       <c r="K23" s="3" t="inlineStr"/>
       <c r="L23" s="3" t="n">
-        <v>0</v>
+        <v>11718</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>0</v>
+        <v>8168</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>0</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="24">
@@ -1585,34 +1613,34 @@
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 16:45</t>
+          <t>2024-09-10 16:51</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="n">
-        <v>97142</v>
+        <v>96691</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>64784</v>
+        <v>72134</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>1882</v>
+        <v>1908</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>62902</v>
+        <v>70226</v>
       </c>
       <c r="K24" s="3" t="inlineStr"/>
       <c r="L24" s="3" t="n">
-        <v>29980</v>
+        <v>18938</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>9691</v>
+        <v>14087</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>13977</v>
+        <v>18809</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>6107</v>
+        <v>14878</v>
       </c>
     </row>
     <row r="25">
@@ -1632,34 +1660,36 @@
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr"/>
-      <c r="E25" s="3" t="n">
-        <v>0</v>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 12:02</t>
+        </is>
       </c>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="n">
-        <v>0</v>
+        <v>136509</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>0</v>
+        <v>96577</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>0</v>
+        <v>95037</v>
       </c>
       <c r="K25" s="3" t="inlineStr"/>
       <c r="L25" s="3" t="n">
-        <v>0</v>
+        <v>33063</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>0</v>
+        <v>24798</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>0</v>
+        <v>12897</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>0</v>
+        <v>19525</v>
       </c>
     </row>
     <row r="26">
@@ -1681,34 +1711,34 @@
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:51</t>
+          <t>2024-09-10 15:50</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="n">
-        <v>67006</v>
+        <v>67858</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>45715</v>
+        <v>47262</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>794</v>
+        <v>1106</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>44921</v>
+        <v>46156</v>
       </c>
       <c r="K26" s="3" t="inlineStr"/>
       <c r="L26" s="3" t="n">
-        <v>21932</v>
+        <v>17864</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>7622</v>
+        <v>10295</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>4780</v>
+        <v>13387</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>8338</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="27">
@@ -1728,34 +1758,36 @@
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr"/>
-      <c r="E27" s="3" t="n">
-        <v>0</v>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:25</t>
+        </is>
       </c>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="n">
-        <v>0</v>
+        <v>71898</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>0</v>
+        <v>59475</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>0</v>
+        <v>1274</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>0</v>
+        <v>58201</v>
       </c>
       <c r="K27" s="3" t="inlineStr"/>
       <c r="L27" s="3" t="n">
-        <v>0</v>
+        <v>22426</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>0</v>
+        <v>15244</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>0</v>
+        <v>16205</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>0</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="28">
@@ -1775,34 +1807,36 @@
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr"/>
-      <c r="E28" s="3" t="n">
-        <v>0</v>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 18:03</t>
+        </is>
       </c>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="n">
-        <v>0</v>
+        <v>43433</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>0</v>
+        <v>32052</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>0</v>
+        <v>31405</v>
       </c>
       <c r="K28" s="3" t="inlineStr"/>
       <c r="L28" s="3" t="n">
-        <v>0</v>
+        <v>14062</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>0</v>
+        <v>7670</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>0</v>
+        <v>4599</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>0</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="29">
@@ -1822,34 +1856,36 @@
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr"/>
-      <c r="E29" s="3" t="n">
-        <v>0</v>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 18:57</t>
+        </is>
       </c>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="n">
-        <v>0</v>
+        <v>65189</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>0</v>
+        <v>57352</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>0</v>
+        <v>1617</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>0</v>
+        <v>55735</v>
       </c>
       <c r="K29" s="3" t="inlineStr"/>
       <c r="L29" s="3" t="n">
-        <v>0</v>
+        <v>16805</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>0</v>
+        <v>10677</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>0</v>
+        <v>14207</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>0</v>
+        <v>11257</v>
       </c>
     </row>
     <row r="30">
@@ -1869,34 +1905,36 @@
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr"/>
-      <c r="E30" s="3" t="n">
-        <v>0</v>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 10:55</t>
+        </is>
       </c>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="n">
-        <v>0</v>
+        <v>71629</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>0</v>
+        <v>53858</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>0</v>
+        <v>53295</v>
       </c>
       <c r="K30" s="3" t="inlineStr"/>
       <c r="L30" s="3" t="n">
-        <v>0</v>
+        <v>20750</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>0</v>
+        <v>14770</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>0</v>
+        <v>4885</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>0</v>
+        <v>10223</v>
       </c>
     </row>
     <row r="31">
@@ -1916,34 +1954,36 @@
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr"/>
-      <c r="E31" s="3" t="n">
-        <v>0</v>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 11:33</t>
+        </is>
       </c>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="n">
-        <v>0</v>
+        <v>141744</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>0</v>
+        <v>117785</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>0</v>
+        <v>3118</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>0</v>
+        <v>114667</v>
       </c>
       <c r="K31" s="3" t="inlineStr"/>
       <c r="L31" s="3" t="n">
-        <v>0</v>
+        <v>50326</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>0</v>
+        <v>24799</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>0</v>
+        <v>28048</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>0</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="32">
@@ -1963,34 +2003,36 @@
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr"/>
-      <c r="E32" s="3" t="n">
-        <v>0</v>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 15:34</t>
+        </is>
       </c>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="n">
-        <v>0</v>
+        <v>78653</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>0</v>
+        <v>64156</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>0</v>
+        <v>62616</v>
       </c>
       <c r="K32" s="3" t="inlineStr"/>
       <c r="L32" s="3" t="n">
-        <v>0</v>
+        <v>18805</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>0</v>
+        <v>11391</v>
       </c>
       <c r="N32" s="3" t="n">
-        <v>0</v>
+        <v>13731</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>0</v>
+        <v>15556</v>
       </c>
     </row>
     <row r="33">
@@ -2010,34 +2052,36 @@
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr"/>
-      <c r="E33" s="3" t="n">
-        <v>0</v>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 15:12</t>
+        </is>
       </c>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="n">
-        <v>0</v>
+        <v>206058</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>0</v>
+        <v>164317</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>0</v>
+        <v>3526</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>0</v>
+        <v>160791</v>
       </c>
       <c r="K33" s="3" t="inlineStr"/>
       <c r="L33" s="3" t="n">
-        <v>0</v>
+        <v>68583</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>0</v>
+        <v>22891</v>
       </c>
       <c r="N33" s="3" t="n">
-        <v>0</v>
+        <v>50519</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>0</v>
+        <v>10756</v>
       </c>
     </row>
     <row r="34">
@@ -2057,34 +2101,36 @@
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="3" t="n">
-        <v>0</v>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 12:08</t>
+        </is>
       </c>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="n">
-        <v>0</v>
+        <v>130822</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>0</v>
+        <v>80049</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>0</v>
+        <v>1436</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>0</v>
+        <v>78613</v>
       </c>
       <c r="K34" s="3" t="inlineStr"/>
       <c r="L34" s="3" t="n">
-        <v>0</v>
+        <v>35117</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>0</v>
+        <v>14943</v>
       </c>
       <c r="N34" s="3" t="n">
-        <v>0</v>
+        <v>18914</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>0</v>
+        <v>5707</v>
       </c>
     </row>
     <row r="35">
@@ -2104,34 +2150,36 @@
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr"/>
-      <c r="E35" s="3" t="n">
-        <v>0</v>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 18:11</t>
+        </is>
       </c>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="n">
-        <v>0</v>
+        <v>204427</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>0</v>
+        <v>134321</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>0</v>
+        <v>3040</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>0</v>
+        <v>131281</v>
       </c>
       <c r="K35" s="3" t="inlineStr"/>
       <c r="L35" s="3" t="n">
-        <v>0</v>
+        <v>40457</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>0</v>
+        <v>22275</v>
       </c>
       <c r="N35" s="3" t="n">
-        <v>0</v>
+        <v>50362</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>0</v>
+        <v>11620</v>
       </c>
     </row>
     <row r="36">
@@ -2151,34 +2199,36 @@
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr"/>
-      <c r="E36" s="3" t="n">
-        <v>0</v>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 19:39</t>
+        </is>
       </c>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="n">
-        <v>0</v>
+        <v>138879</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>0</v>
+        <v>88449</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>0</v>
+        <v>1529</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>0</v>
+        <v>86920</v>
       </c>
       <c r="K36" s="3" t="inlineStr"/>
       <c r="L36" s="3" t="n">
-        <v>0</v>
+        <v>32980</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>0</v>
+        <v>14696</v>
       </c>
       <c r="N36" s="3" t="n">
-        <v>0</v>
+        <v>23285</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>0</v>
+        <v>11610</v>
       </c>
     </row>
     <row r="37">
@@ -2200,34 +2250,34 @@
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 10:33</t>
+          <t>2024-09-10 08:14</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="n">
-        <v>192374</v>
+        <v>184071</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>163316</v>
+        <v>147508</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>1926</v>
+        <v>1624</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>161390</v>
+        <v>145884</v>
       </c>
       <c r="K37" s="3" t="inlineStr"/>
       <c r="L37" s="3" t="n">
-        <v>45507</v>
+        <v>63856</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>44885</v>
+        <v>25978</v>
       </c>
       <c r="N37" s="3" t="n">
-        <v>28921</v>
+        <v>29787</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>34004</v>
+        <v>18967</v>
       </c>
     </row>
     <row r="38">
@@ -2247,34 +2297,36 @@
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr"/>
-      <c r="E38" s="3" t="n">
-        <v>0</v>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 13:22</t>
+        </is>
       </c>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="n">
-        <v>0</v>
+        <v>130146</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>0</v>
+        <v>108194</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>0</v>
+        <v>1561</v>
       </c>
       <c r="J38" s="3" t="n">
-        <v>0</v>
+        <v>106633</v>
       </c>
       <c r="K38" s="3" t="inlineStr"/>
       <c r="L38" s="3" t="n">
-        <v>0</v>
+        <v>30697</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>0</v>
+        <v>35488</v>
       </c>
       <c r="N38" s="3" t="n">
-        <v>0</v>
+        <v>17285</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>0</v>
+        <v>17828</v>
       </c>
     </row>
     <row r="39">
@@ -2296,34 +2348,34 @@
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:58</t>
+          <t>2024-09-10 08:47</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="n">
-        <v>140033</v>
+        <v>135702</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>103274</v>
+        <v>105155</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>1701</v>
+        <v>2558</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>101573</v>
+        <v>102597</v>
       </c>
       <c r="K39" s="3" t="inlineStr"/>
       <c r="L39" s="3" t="n">
-        <v>43581</v>
+        <v>42452</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>30807</v>
+        <v>19809</v>
       </c>
       <c r="N39" s="3" t="n">
-        <v>19494</v>
+        <v>13342</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>2610</v>
+        <v>21862</v>
       </c>
     </row>
     <row r="40">
@@ -2343,34 +2395,36 @@
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr"/>
-      <c r="E40" s="3" t="n">
-        <v>0</v>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 08:51</t>
+        </is>
       </c>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="n">
-        <v>0</v>
+        <v>120501</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>0</v>
+        <v>77538</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>0</v>
+        <v>1474</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>0</v>
+        <v>76064</v>
       </c>
       <c r="K40" s="3" t="inlineStr"/>
       <c r="L40" s="3" t="n">
-        <v>0</v>
+        <v>31367</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>0</v>
+        <v>12269</v>
       </c>
       <c r="N40" s="3" t="n">
-        <v>0</v>
+        <v>19104</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>0</v>
+        <v>9519</v>
       </c>
     </row>
     <row r="41">
@@ -2392,34 +2446,34 @@
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 08:24</t>
+          <t>2024-09-10 08:47</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="n">
-        <v>171433</v>
+        <v>156598</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>132773</v>
+        <v>116878</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>1754</v>
+        <v>2310</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>131019</v>
+        <v>114568</v>
       </c>
       <c r="K41" s="3" t="inlineStr"/>
       <c r="L41" s="3" t="n">
-        <v>47656</v>
+        <v>40539</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>27680</v>
+        <v>31521</v>
       </c>
       <c r="N41" s="3" t="n">
-        <v>27617</v>
+        <v>18757</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>21513</v>
+        <v>18020</v>
       </c>
     </row>
     <row r="42">
@@ -2439,34 +2493,36 @@
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr"/>
-      <c r="E42" s="3" t="n">
-        <v>0</v>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 15:23</t>
+        </is>
       </c>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="n">
-        <v>0</v>
+        <v>121307</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>0</v>
+        <v>77379</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>0</v>
+        <v>1575</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>0</v>
+        <v>75804</v>
       </c>
       <c r="K42" s="3" t="inlineStr"/>
       <c r="L42" s="3" t="n">
-        <v>0</v>
+        <v>25835</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>0</v>
+        <v>23422</v>
       </c>
       <c r="N42" s="3" t="n">
-        <v>0</v>
+        <v>18148</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>0</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="43">
@@ -2486,34 +2542,36 @@
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr"/>
-      <c r="E43" s="3" t="n">
-        <v>0</v>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 13:28</t>
+        </is>
       </c>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="n">
-        <v>0</v>
+        <v>137317</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>0</v>
+        <v>88921</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>0</v>
+        <v>2451</v>
       </c>
       <c r="J43" s="3" t="n">
-        <v>0</v>
+        <v>86470</v>
       </c>
       <c r="K43" s="3" t="inlineStr"/>
       <c r="L43" s="3" t="n">
-        <v>0</v>
+        <v>24676</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>0</v>
+        <v>26439</v>
       </c>
       <c r="N43" s="3" t="n">
-        <v>0</v>
+        <v>14885</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>0</v>
+        <v>16144</v>
       </c>
     </row>
     <row r="44">
@@ -2535,34 +2593,34 @@
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 09:39</t>
+          <t>2024-09-10 15:05</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="n">
-        <v>140237</v>
+        <v>143956</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>103670</v>
+        <v>111477</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>1318</v>
+        <v>2600</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>102352</v>
+        <v>108877</v>
       </c>
       <c r="K44" s="3" t="inlineStr"/>
       <c r="L44" s="3" t="n">
-        <v>27375</v>
+        <v>33094</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>26076</v>
+        <v>35684</v>
       </c>
       <c r="N44" s="3" t="n">
-        <v>32526</v>
+        <v>15991</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>11256</v>
+        <v>18662</v>
       </c>
     </row>
     <row r="45">
@@ -2582,34 +2640,36 @@
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr"/>
-      <c r="E45" s="3" t="n">
-        <v>0</v>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 13:46</t>
+        </is>
       </c>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="n">
-        <v>0</v>
+        <v>138701</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>0</v>
+        <v>108872</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>0</v>
+        <v>2793</v>
       </c>
       <c r="J45" s="3" t="n">
-        <v>0</v>
+        <v>106079</v>
       </c>
       <c r="K45" s="3" t="inlineStr"/>
       <c r="L45" s="3" t="n">
-        <v>0</v>
+        <v>31740</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>0</v>
+        <v>24886</v>
       </c>
       <c r="N45" s="3" t="n">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>0</v>
+        <v>17147</v>
       </c>
     </row>
     <row r="46">
@@ -2631,34 +2691,34 @@
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:43</t>
+          <t>2024-09-10 16:47</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="n">
-        <v>164921</v>
+        <v>162370</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>123490</v>
+        <v>142978</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>2564</v>
+        <v>2433</v>
       </c>
       <c r="J46" s="3" t="n">
-        <v>120926</v>
+        <v>140545</v>
       </c>
       <c r="K46" s="3" t="inlineStr"/>
       <c r="L46" s="3" t="n">
-        <v>45728</v>
+        <v>37425</v>
       </c>
       <c r="M46" s="3" t="n">
-        <v>18499</v>
+        <v>55318</v>
       </c>
       <c r="N46" s="3" t="n">
-        <v>22173</v>
+        <v>32111</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>28478</v>
+        <v>8662</v>
       </c>
     </row>
     <row r="47">
@@ -2678,34 +2738,36 @@
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr"/>
-      <c r="E47" s="3" t="n">
-        <v>0</v>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:16</t>
+        </is>
       </c>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="n">
-        <v>0</v>
+        <v>171250</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>0</v>
+        <v>142533</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>0</v>
+        <v>3325</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>0</v>
+        <v>139208</v>
       </c>
       <c r="K47" s="3" t="inlineStr"/>
       <c r="L47" s="3" t="n">
-        <v>0</v>
+        <v>59722</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>0</v>
+        <v>32580</v>
       </c>
       <c r="N47" s="3" t="n">
-        <v>0</v>
+        <v>33742</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>0</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="48">
@@ -2725,34 +2787,36 @@
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr"/>
-      <c r="E48" s="3" t="n">
-        <v>0</v>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:34</t>
+        </is>
       </c>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="n">
-        <v>0</v>
+        <v>160624</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>0</v>
+        <v>111957</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>0</v>
+        <v>1233</v>
       </c>
       <c r="J48" s="3" t="n">
-        <v>0</v>
+        <v>110724</v>
       </c>
       <c r="K48" s="3" t="inlineStr"/>
       <c r="L48" s="3" t="n">
-        <v>0</v>
+        <v>27145</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>0</v>
+        <v>26671</v>
       </c>
       <c r="N48" s="3" t="n">
-        <v>0</v>
+        <v>29368</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>0</v>
+        <v>22002</v>
       </c>
     </row>
     <row r="49">
@@ -2772,34 +2836,36 @@
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr"/>
-      <c r="E49" s="3" t="n">
-        <v>0</v>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 18:55</t>
+        </is>
       </c>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="n">
-        <v>0</v>
+        <v>129016</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>0</v>
+        <v>94436</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>0</v>
+        <v>2338</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>0</v>
+        <v>92098</v>
       </c>
       <c r="K49" s="3" t="inlineStr"/>
       <c r="L49" s="3" t="n">
-        <v>0</v>
+        <v>17268</v>
       </c>
       <c r="M49" s="3" t="n">
-        <v>0</v>
+        <v>25149</v>
       </c>
       <c r="N49" s="3" t="n">
-        <v>0</v>
+        <v>28857</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>0</v>
+        <v>16217</v>
       </c>
     </row>
     <row r="50">
@@ -2819,34 +2885,36 @@
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr"/>
-      <c r="E50" s="3" t="n">
-        <v>0</v>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 10:35</t>
+        </is>
       </c>
       <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="n">
-        <v>0</v>
+        <v>137071</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>0</v>
+        <v>111911</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>0</v>
+        <v>1526</v>
       </c>
       <c r="J50" s="3" t="n">
-        <v>0</v>
+        <v>110385</v>
       </c>
       <c r="K50" s="3" t="inlineStr"/>
       <c r="L50" s="3" t="n">
-        <v>0</v>
+        <v>33572</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>0</v>
+        <v>28614</v>
       </c>
       <c r="N50" s="3" t="n">
-        <v>0</v>
+        <v>26139</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>0</v>
+        <v>16539</v>
       </c>
     </row>
     <row r="51">
@@ -2866,34 +2934,36 @@
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr"/>
-      <c r="E51" s="3" t="n">
-        <v>0</v>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 17:50</t>
+        </is>
       </c>
       <c r="F51" s="3" t="inlineStr"/>
       <c r="G51" s="3" t="n">
-        <v>0</v>
+        <v>100178</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>0</v>
+        <v>69445</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>0</v>
+        <v>796</v>
       </c>
       <c r="J51" s="3" t="n">
-        <v>0</v>
+        <v>68649</v>
       </c>
       <c r="K51" s="3" t="inlineStr"/>
       <c r="L51" s="3" t="n">
-        <v>0</v>
+        <v>22998</v>
       </c>
       <c r="M51" s="3" t="n">
-        <v>0</v>
+        <v>15271</v>
       </c>
       <c r="N51" s="3" t="n">
-        <v>0</v>
+        <v>9361</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>0</v>
+        <v>17585</v>
       </c>
     </row>
     <row r="52">
@@ -2915,34 +2985,34 @@
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 15:07</t>
+          <t>2024-09-10 15:10</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr"/>
       <c r="G52" s="3" t="n">
-        <v>131116</v>
+        <v>123134</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>100880</v>
+        <v>97054</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>2574</v>
+        <v>2257</v>
       </c>
       <c r="J52" s="3" t="n">
-        <v>98306</v>
+        <v>94797</v>
       </c>
       <c r="K52" s="3" t="inlineStr"/>
       <c r="L52" s="3" t="n">
-        <v>37030</v>
+        <v>28473</v>
       </c>
       <c r="M52" s="3" t="n">
-        <v>20424</v>
+        <v>26497</v>
       </c>
       <c r="N52" s="3" t="n">
-        <v>26908</v>
+        <v>25854</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>9028</v>
+        <v>9230</v>
       </c>
     </row>
     <row r="53">
@@ -2964,34 +3034,34 @@
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 14:25</t>
+          <t>2024-09-10 11:12</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="n">
-        <v>149907</v>
+        <v>150771</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>117913</v>
+        <v>113097</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>3031</v>
+        <v>2217</v>
       </c>
       <c r="J53" s="3" t="n">
-        <v>114882</v>
+        <v>110880</v>
       </c>
       <c r="K53" s="3" t="inlineStr"/>
       <c r="L53" s="3" t="n">
-        <v>39336</v>
+        <v>47371</v>
       </c>
       <c r="M53" s="3" t="n">
-        <v>23679</v>
+        <v>19148</v>
       </c>
       <c r="N53" s="3" t="n">
-        <v>39214</v>
+        <v>14887</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>6907</v>
+        <v>23928</v>
       </c>
     </row>
     <row r="54">
@@ -3013,34 +3083,34 @@
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 16:38</t>
+          <t>2024-09-10 19:29</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr"/>
       <c r="G54" s="3" t="n">
-        <v>136928</v>
+        <v>142893</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>119847</v>
+        <v>89692</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>2991</v>
+        <v>1032</v>
       </c>
       <c r="J54" s="3" t="n">
-        <v>116856</v>
+        <v>88660</v>
       </c>
       <c r="K54" s="3" t="inlineStr"/>
       <c r="L54" s="3" t="n">
-        <v>43525</v>
+        <v>29845</v>
       </c>
       <c r="M54" s="3" t="n">
-        <v>17515</v>
+        <v>21624</v>
       </c>
       <c r="N54" s="3" t="n">
-        <v>38898</v>
+        <v>20355</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>11073</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="55">
@@ -3060,34 +3130,36 @@
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr"/>
-      <c r="E55" s="3" t="n">
-        <v>0</v>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 10:13</t>
+        </is>
       </c>
       <c r="F55" s="3" t="inlineStr"/>
       <c r="G55" s="3" t="n">
-        <v>0</v>
+        <v>85185</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>0</v>
+        <v>58403</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>0</v>
+        <v>1572</v>
       </c>
       <c r="J55" s="3" t="n">
-        <v>0</v>
+        <v>56831</v>
       </c>
       <c r="K55" s="3" t="inlineStr"/>
       <c r="L55" s="3" t="n">
-        <v>0</v>
+        <v>23803</v>
       </c>
       <c r="M55" s="3" t="n">
-        <v>0</v>
+        <v>11964</v>
       </c>
       <c r="N55" s="3" t="n">
-        <v>0</v>
+        <v>10582</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>0</v>
+        <v>7638</v>
       </c>
     </row>
     <row r="56">
@@ -3107,34 +3179,36 @@
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr"/>
-      <c r="E56" s="3" t="n">
-        <v>0</v>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 16:15</t>
+        </is>
       </c>
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="n">
-        <v>0</v>
+        <v>119174</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>0</v>
+        <v>98816</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>0</v>
+        <v>1770</v>
       </c>
       <c r="J56" s="3" t="n">
-        <v>0</v>
+        <v>97046</v>
       </c>
       <c r="K56" s="3" t="inlineStr"/>
       <c r="L56" s="3" t="n">
-        <v>0</v>
+        <v>28655</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>0</v>
+        <v>25165</v>
       </c>
       <c r="N56" s="3" t="n">
-        <v>0</v>
+        <v>24563</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>0</v>
+        <v>13809</v>
       </c>
     </row>
     <row r="57">
@@ -3154,34 +3228,36 @@
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr"/>
-      <c r="E57" s="3" t="n">
-        <v>0</v>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 10:06</t>
+        </is>
       </c>
       <c r="F57" s="3" t="inlineStr"/>
       <c r="G57" s="3" t="n">
-        <v>0</v>
+        <v>124798</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>0</v>
+        <v>95814</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>0</v>
+        <v>1309</v>
       </c>
       <c r="J57" s="3" t="n">
-        <v>0</v>
+        <v>94505</v>
       </c>
       <c r="K57" s="3" t="inlineStr"/>
       <c r="L57" s="3" t="n">
-        <v>0</v>
+        <v>34557</v>
       </c>
       <c r="M57" s="3" t="n">
-        <v>0</v>
+        <v>21152</v>
       </c>
       <c r="N57" s="3" t="n">
-        <v>0</v>
+        <v>25215</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>0</v>
+        <v>8855</v>
       </c>
     </row>
     <row r="58">
@@ -3201,34 +3277,36 @@
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr"/>
-      <c r="E58" s="3" t="n">
-        <v>0</v>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:22</t>
+        </is>
       </c>
       <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="n">
-        <v>0</v>
+        <v>128120</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>0</v>
+        <v>111788</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>0</v>
+        <v>1589</v>
       </c>
       <c r="J58" s="3" t="n">
-        <v>0</v>
+        <v>110199</v>
       </c>
       <c r="K58" s="3" t="inlineStr"/>
       <c r="L58" s="3" t="n">
-        <v>0</v>
+        <v>43772</v>
       </c>
       <c r="M58" s="3" t="n">
-        <v>0</v>
+        <v>13727</v>
       </c>
       <c r="N58" s="3" t="n">
-        <v>0</v>
+        <v>20846</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>0</v>
+        <v>26343</v>
       </c>
     </row>
     <row r="59">
@@ -3250,34 +3328,34 @@
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19</t>
+          <t>2024-09-10 13:31</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr"/>
       <c r="G59" s="3" t="n">
-        <v>102911</v>
+        <v>105652</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>62620</v>
+        <v>84347</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>1293</v>
+        <v>1439</v>
       </c>
       <c r="J59" s="3" t="n">
-        <v>61327</v>
+        <v>82908</v>
       </c>
       <c r="K59" s="3" t="inlineStr"/>
       <c r="L59" s="3" t="n">
-        <v>22814</v>
+        <v>20124</v>
       </c>
       <c r="M59" s="3" t="n">
-        <v>19898</v>
+        <v>31615</v>
       </c>
       <c r="N59" s="3" t="n">
-        <v>12027</v>
+        <v>8425</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>3520</v>
+        <v>18597</v>
       </c>
     </row>
     <row r="60">
@@ -3297,34 +3375,36 @@
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr"/>
-      <c r="E60" s="3" t="n">
-        <v>0</v>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 11:42</t>
+        </is>
       </c>
       <c r="F60" s="3" t="inlineStr"/>
       <c r="G60" s="3" t="n">
-        <v>0</v>
+        <v>56312</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>0</v>
+        <v>41163</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="J60" s="3" t="n">
-        <v>0</v>
+        <v>40736</v>
       </c>
       <c r="K60" s="3" t="inlineStr"/>
       <c r="L60" s="3" t="n">
-        <v>0</v>
+        <v>11066</v>
       </c>
       <c r="M60" s="3" t="n">
-        <v>0</v>
+        <v>7346</v>
       </c>
       <c r="N60" s="3" t="n">
-        <v>0</v>
+        <v>12160</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>0</v>
+        <v>8124</v>
       </c>
     </row>
     <row r="61">
@@ -3346,34 +3426,34 @@
       <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 19:31</t>
+          <t>2024-09-10 12:47</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr"/>
       <c r="G61" s="3" t="n">
-        <v>164559</v>
+        <v>165754</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>102013</v>
+        <v>128105</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>1130</v>
+        <v>3553</v>
       </c>
       <c r="J61" s="3" t="n">
-        <v>100883</v>
+        <v>124552</v>
       </c>
       <c r="K61" s="3" t="inlineStr"/>
       <c r="L61" s="3" t="n">
-        <v>49537</v>
+        <v>38216</v>
       </c>
       <c r="M61" s="3" t="n">
-        <v>21344</v>
+        <v>21308</v>
       </c>
       <c r="N61" s="3" t="n">
-        <v>11766</v>
+        <v>32968</v>
       </c>
       <c r="O61" s="3" t="n">
-        <v>13189</v>
+        <v>25831</v>
       </c>
     </row>
     <row r="62">
@@ -3395,34 +3475,34 @@
       <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 14:38</t>
+          <t>2024-09-10 13:22</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr"/>
       <c r="G62" s="3" t="n">
-        <v>88541</v>
+        <v>91875</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>63759</v>
+        <v>70410</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>674</v>
+        <v>1581</v>
       </c>
       <c r="J62" s="3" t="n">
-        <v>63085</v>
+        <v>68829</v>
       </c>
       <c r="K62" s="3" t="inlineStr"/>
       <c r="L62" s="3" t="n">
-        <v>21246</v>
+        <v>22182</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>12889</v>
+        <v>16275</v>
       </c>
       <c r="N62" s="3" t="n">
-        <v>13349</v>
+        <v>24963</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>12445</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="63">
@@ -3442,34 +3522,36 @@
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr"/>
-      <c r="E63" s="3" t="n">
-        <v>0</v>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 08:58</t>
+        </is>
       </c>
       <c r="F63" s="3" t="inlineStr"/>
       <c r="G63" s="3" t="n">
-        <v>0</v>
+        <v>59404</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>0</v>
+        <v>47694</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>0</v>
+        <v>1123</v>
       </c>
       <c r="J63" s="3" t="n">
-        <v>0</v>
+        <v>46571</v>
       </c>
       <c r="K63" s="3" t="inlineStr"/>
       <c r="L63" s="3" t="n">
-        <v>0</v>
+        <v>18088</v>
       </c>
       <c r="M63" s="3" t="n">
-        <v>0</v>
+        <v>11620</v>
       </c>
       <c r="N63" s="3" t="n">
-        <v>0</v>
+        <v>11038</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>0</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="64">
@@ -3491,34 +3573,34 @@
       <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:56</t>
+          <t>2024-09-10 16:18</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr"/>
       <c r="G64" s="3" t="n">
-        <v>50514</v>
+        <v>52859</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>33010</v>
+        <v>38219</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>392</v>
+        <v>1063</v>
       </c>
       <c r="J64" s="3" t="n">
-        <v>32618</v>
+        <v>37156</v>
       </c>
       <c r="K64" s="3" t="inlineStr"/>
       <c r="L64" s="3" t="n">
-        <v>11375</v>
+        <v>12400</v>
       </c>
       <c r="M64" s="3" t="n">
-        <v>5237</v>
+        <v>14689</v>
       </c>
       <c r="N64" s="3" t="n">
-        <v>9202</v>
+        <v>4190</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>5171</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="65">
@@ -3538,34 +3620,36 @@
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr"/>
-      <c r="E65" s="3" t="n">
-        <v>0</v>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 17:05</t>
+        </is>
       </c>
       <c r="F65" s="3" t="inlineStr"/>
       <c r="G65" s="3" t="n">
-        <v>0</v>
+        <v>103317</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>0</v>
+        <v>78695</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>0</v>
+        <v>1289</v>
       </c>
       <c r="J65" s="3" t="n">
-        <v>0</v>
+        <v>77406</v>
       </c>
       <c r="K65" s="3" t="inlineStr"/>
       <c r="L65" s="3" t="n">
-        <v>0</v>
+        <v>28338</v>
       </c>
       <c r="M65" s="3" t="n">
-        <v>0</v>
+        <v>10814</v>
       </c>
       <c r="N65" s="3" t="n">
-        <v>0</v>
+        <v>18072</v>
       </c>
       <c r="O65" s="3" t="n">
-        <v>0</v>
+        <v>16310</v>
       </c>
     </row>
     <row r="66">
@@ -3587,34 +3671,34 @@
       <c r="D66" s="3" t="inlineStr"/>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 18:51</t>
+          <t>2024-09-10 10:01</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="n">
-        <v>76186</v>
+        <v>73359</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>66650</v>
+        <v>55918</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>1337</v>
+        <v>1398</v>
       </c>
       <c r="J66" s="3" t="n">
-        <v>65313</v>
+        <v>54520</v>
       </c>
       <c r="K66" s="3" t="inlineStr"/>
       <c r="L66" s="3" t="n">
-        <v>20176</v>
+        <v>14229</v>
       </c>
       <c r="M66" s="3" t="n">
-        <v>22540</v>
+        <v>18104</v>
       </c>
       <c r="N66" s="3" t="n">
-        <v>7630</v>
+        <v>13591</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>11699</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="67">
@@ -3634,34 +3718,36 @@
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr"/>
-      <c r="E67" s="3" t="n">
-        <v>0</v>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 17:31</t>
+        </is>
       </c>
       <c r="F67" s="3" t="inlineStr"/>
       <c r="G67" s="3" t="n">
-        <v>0</v>
+        <v>85781</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>0</v>
+        <v>66930</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="J67" s="3" t="n">
-        <v>0</v>
+        <v>66123</v>
       </c>
       <c r="K67" s="3" t="inlineStr"/>
       <c r="L67" s="3" t="n">
-        <v>0</v>
+        <v>21468</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>0</v>
+        <v>13467</v>
       </c>
       <c r="N67" s="3" t="n">
-        <v>0</v>
+        <v>25544</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>0</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="68">
@@ -3683,34 +3769,34 @@
       <c r="D68" s="3" t="inlineStr"/>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 18:42</t>
+          <t>2024-09-10 18:34</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr"/>
       <c r="G68" s="3" t="n">
-        <v>42829</v>
+        <v>40551</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>27511</v>
+        <v>28280</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>811</v>
+        <v>436</v>
       </c>
       <c r="J68" s="3" t="n">
-        <v>26700</v>
+        <v>27844</v>
       </c>
       <c r="K68" s="3" t="inlineStr"/>
       <c r="L68" s="3" t="n">
-        <v>6703</v>
+        <v>10837</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>8547</v>
+        <v>3803</v>
       </c>
       <c r="N68" s="3" t="n">
-        <v>3395</v>
+        <v>5027</v>
       </c>
       <c r="O68" s="3" t="n">
-        <v>6718</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="69">
@@ -3732,34 +3818,34 @@
       <c r="D69" s="3" t="inlineStr"/>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:20</t>
+          <t>2024-09-10 09:12</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr"/>
       <c r="G69" s="3" t="n">
-        <v>81812</v>
+        <v>88685</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>55562</v>
+        <v>63539</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>839</v>
+        <v>1594</v>
       </c>
       <c r="J69" s="3" t="n">
-        <v>54723</v>
+        <v>61945</v>
       </c>
       <c r="K69" s="3" t="inlineStr"/>
       <c r="L69" s="3" t="n">
-        <v>20705</v>
+        <v>18355</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>8609</v>
+        <v>11885</v>
       </c>
       <c r="N69" s="3" t="n">
-        <v>10718</v>
+        <v>13241</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>11953</v>
+        <v>15365</v>
       </c>
     </row>
     <row r="70">
@@ -3781,34 +3867,34 @@
       <c r="D70" s="3" t="inlineStr"/>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 08:31</t>
+          <t>2024-09-10 18:00</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr"/>
       <c r="G70" s="3" t="n">
-        <v>91672</v>
+        <v>92835</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>78948</v>
+        <v>78978</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>1636</v>
+        <v>2281</v>
       </c>
       <c r="J70" s="3" t="n">
-        <v>77312</v>
+        <v>76697</v>
       </c>
       <c r="K70" s="3" t="inlineStr"/>
       <c r="L70" s="3" t="n">
-        <v>23010</v>
+        <v>32587</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>19049</v>
+        <v>13907</v>
       </c>
       <c r="N70" s="3" t="n">
-        <v>19505</v>
+        <v>7869</v>
       </c>
       <c r="O70" s="3" t="n">
-        <v>11880</v>
+        <v>18497</v>
       </c>
     </row>
     <row r="71">
@@ -3830,34 +3916,34 @@
       <c r="D71" s="3" t="inlineStr"/>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:02</t>
+          <t>2024-09-10 17:53</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr"/>
       <c r="G71" s="3" t="n">
-        <v>108771</v>
+        <v>117853</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>77728</v>
+        <v>89313</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>851</v>
+        <v>1014</v>
       </c>
       <c r="J71" s="3" t="n">
-        <v>76877</v>
+        <v>88299</v>
       </c>
       <c r="K71" s="3" t="inlineStr"/>
       <c r="L71" s="3" t="n">
-        <v>19161</v>
+        <v>34495</v>
       </c>
       <c r="M71" s="3" t="n">
-        <v>19828</v>
+        <v>23185</v>
       </c>
       <c r="N71" s="3" t="n">
-        <v>20070</v>
+        <v>11188</v>
       </c>
       <c r="O71" s="3" t="n">
-        <v>13972</v>
+        <v>15013</v>
       </c>
     </row>
     <row r="72">
@@ -3877,34 +3963,36 @@
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr"/>
-      <c r="E72" s="3" t="n">
-        <v>0</v>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 18:54</t>
+        </is>
       </c>
       <c r="F72" s="3" t="inlineStr"/>
       <c r="G72" s="3" t="n">
-        <v>0</v>
+        <v>105418</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>0</v>
+        <v>81435</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>0</v>
+        <v>2159</v>
       </c>
       <c r="J72" s="3" t="n">
-        <v>0</v>
+        <v>79276</v>
       </c>
       <c r="K72" s="3" t="inlineStr"/>
       <c r="L72" s="3" t="n">
-        <v>0</v>
+        <v>19447</v>
       </c>
       <c r="M72" s="3" t="n">
-        <v>0</v>
+        <v>21255</v>
       </c>
       <c r="N72" s="3" t="n">
-        <v>0</v>
+        <v>17627</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>0</v>
+        <v>16982</v>
       </c>
     </row>
     <row r="73">
@@ -3926,34 +4014,34 @@
       <c r="D73" s="3" t="inlineStr"/>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 15:45</t>
+          <t>2024-09-10 19:01</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr"/>
       <c r="G73" s="3" t="n">
-        <v>137379</v>
+        <v>147350</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>88023</v>
+        <v>94407</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>1785</v>
+        <v>2635</v>
       </c>
       <c r="J73" s="3" t="n">
-        <v>86238</v>
+        <v>91772</v>
       </c>
       <c r="K73" s="3" t="inlineStr"/>
       <c r="L73" s="3" t="n">
-        <v>28025</v>
+        <v>31004</v>
       </c>
       <c r="M73" s="3" t="n">
-        <v>25455</v>
+        <v>31243</v>
       </c>
       <c r="N73" s="3" t="n">
-        <v>18929</v>
+        <v>11326</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>9515</v>
+        <v>13608</v>
       </c>
     </row>
     <row r="74">
@@ -3975,34 +4063,34 @@
       <c r="D74" s="3" t="inlineStr"/>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 08:35</t>
+          <t>2024-09-10 18:58</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr"/>
       <c r="G74" s="3" t="n">
-        <v>72580</v>
+        <v>71211</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>55655</v>
+        <v>46615</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>1156</v>
+        <v>1299</v>
       </c>
       <c r="J74" s="3" t="n">
-        <v>54499</v>
+        <v>45316</v>
       </c>
       <c r="K74" s="3" t="inlineStr"/>
       <c r="L74" s="3" t="n">
-        <v>16578</v>
+        <v>9701</v>
       </c>
       <c r="M74" s="3" t="n">
-        <v>9932</v>
+        <v>12817</v>
       </c>
       <c r="N74" s="3" t="n">
-        <v>14663</v>
+        <v>11415</v>
       </c>
       <c r="O74" s="3" t="n">
-        <v>10599</v>
+        <v>9115</v>
       </c>
     </row>
     <row r="75">
@@ -4024,34 +4112,34 @@
       <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 09:22</t>
+          <t>2024-09-10 13:58</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr"/>
       <c r="G75" s="3" t="n">
-        <v>87077</v>
+        <v>87314</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>66065</v>
+        <v>74447</v>
       </c>
       <c r="I75" s="3" t="n">
-        <v>1120</v>
+        <v>2065</v>
       </c>
       <c r="J75" s="3" t="n">
-        <v>64945</v>
+        <v>72382</v>
       </c>
       <c r="K75" s="3" t="inlineStr"/>
       <c r="L75" s="3" t="n">
-        <v>16723</v>
+        <v>20655</v>
       </c>
       <c r="M75" s="3" t="n">
-        <v>14035</v>
+        <v>16202</v>
       </c>
       <c r="N75" s="3" t="n">
-        <v>8972</v>
+        <v>20681</v>
       </c>
       <c r="O75" s="3" t="n">
-        <v>21966</v>
+        <v>11222</v>
       </c>
     </row>
     <row r="76">
@@ -4073,34 +4161,34 @@
       <c r="D76" s="3" t="inlineStr"/>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 14:03</t>
+          <t>2024-09-10 11:16</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr"/>
       <c r="G76" s="3" t="n">
-        <v>96027</v>
+        <v>98533</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>80691</v>
+        <v>62760</v>
       </c>
       <c r="I76" s="3" t="n">
-        <v>1092</v>
+        <v>1857</v>
       </c>
       <c r="J76" s="3" t="n">
-        <v>79599</v>
+        <v>60903</v>
       </c>
       <c r="K76" s="3" t="inlineStr"/>
       <c r="L76" s="3" t="n">
-        <v>24203</v>
+        <v>19965</v>
       </c>
       <c r="M76" s="3" t="n">
-        <v>25314</v>
+        <v>16251</v>
       </c>
       <c r="N76" s="3" t="n">
-        <v>18875</v>
+        <v>7409</v>
       </c>
       <c r="O76" s="3" t="n">
-        <v>7226</v>
+        <v>14231</v>
       </c>
     </row>
     <row r="77">
@@ -4120,34 +4208,36 @@
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr"/>
-      <c r="E77" s="3" t="n">
-        <v>0</v>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 15:44</t>
+        </is>
       </c>
       <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="n">
-        <v>0</v>
+        <v>335175</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>0</v>
+        <v>234700</v>
       </c>
       <c r="I77" s="3" t="n">
-        <v>0</v>
+        <v>4903</v>
       </c>
       <c r="J77" s="3" t="n">
-        <v>0</v>
+        <v>229797</v>
       </c>
       <c r="K77" s="3" t="inlineStr"/>
       <c r="L77" s="3" t="n">
-        <v>0</v>
+        <v>66746</v>
       </c>
       <c r="M77" s="3" t="n">
-        <v>0</v>
+        <v>70529</v>
       </c>
       <c r="N77" s="3" t="n">
-        <v>0</v>
+        <v>69431</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>0</v>
+        <v>11599</v>
       </c>
     </row>
     <row r="78">
@@ -4167,34 +4257,36 @@
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr"/>
-      <c r="E78" s="3" t="n">
-        <v>0</v>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 16:48</t>
+        </is>
       </c>
       <c r="F78" s="3" t="inlineStr"/>
       <c r="G78" s="3" t="n">
-        <v>0</v>
+        <v>82980</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>0</v>
+        <v>73748</v>
       </c>
       <c r="I78" s="3" t="n">
-        <v>0</v>
+        <v>2123</v>
       </c>
       <c r="J78" s="3" t="n">
-        <v>0</v>
+        <v>71625</v>
       </c>
       <c r="K78" s="3" t="inlineStr"/>
       <c r="L78" s="3" t="n">
-        <v>0</v>
+        <v>20450</v>
       </c>
       <c r="M78" s="3" t="n">
-        <v>0</v>
+        <v>25310</v>
       </c>
       <c r="N78" s="3" t="n">
-        <v>0</v>
+        <v>13668</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>0</v>
+        <v>8615</v>
       </c>
     </row>
     <row r="79">
@@ -4216,34 +4308,34 @@
       <c r="D79" s="3" t="inlineStr"/>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:04</t>
+          <t>2024-09-10 12:31</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr"/>
       <c r="G79" s="3" t="n">
-        <v>76478</v>
+        <v>74364</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>56333</v>
+        <v>63706</v>
       </c>
       <c r="I79" s="3" t="n">
-        <v>1328</v>
+        <v>657</v>
       </c>
       <c r="J79" s="3" t="n">
-        <v>55005</v>
+        <v>63049</v>
       </c>
       <c r="K79" s="3" t="inlineStr"/>
       <c r="L79" s="3" t="n">
-        <v>15663</v>
+        <v>20133</v>
       </c>
       <c r="M79" s="3" t="n">
-        <v>15084</v>
+        <v>17183</v>
       </c>
       <c r="N79" s="3" t="n">
-        <v>12703</v>
+        <v>12178</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>8803</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="80">
@@ -4265,34 +4357,34 @@
       <c r="D80" s="3" t="inlineStr"/>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 09:39</t>
+          <t>2024-09-10 10:32</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr"/>
       <c r="G80" s="3" t="n">
-        <v>86149</v>
+        <v>90726</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>75123</v>
+        <v>67373</v>
       </c>
       <c r="I80" s="3" t="n">
-        <v>2044</v>
+        <v>1614</v>
       </c>
       <c r="J80" s="3" t="n">
-        <v>73079</v>
+        <v>65759</v>
       </c>
       <c r="K80" s="3" t="inlineStr"/>
       <c r="L80" s="3" t="n">
-        <v>21469</v>
+        <v>22171</v>
       </c>
       <c r="M80" s="3" t="n">
-        <v>18450</v>
+        <v>19790</v>
       </c>
       <c r="N80" s="3" t="n">
-        <v>15386</v>
+        <v>7754</v>
       </c>
       <c r="O80" s="3" t="n">
-        <v>14118</v>
+        <v>12754</v>
       </c>
     </row>
     <row r="81">
@@ -4314,34 +4406,34 @@
       <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 08:36</t>
+          <t>2024-09-10 14:09</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr"/>
       <c r="G81" s="3" t="n">
-        <v>56873</v>
+        <v>56552</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>43460</v>
+        <v>34783</v>
       </c>
       <c r="I81" s="3" t="n">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="J81" s="3" t="n">
-        <v>42687</v>
+        <v>33994</v>
       </c>
       <c r="K81" s="3" t="inlineStr"/>
       <c r="L81" s="3" t="n">
-        <v>14122</v>
+        <v>9701</v>
       </c>
       <c r="M81" s="3" t="n">
-        <v>9059</v>
+        <v>9894</v>
       </c>
       <c r="N81" s="3" t="n">
-        <v>15223</v>
+        <v>5851</v>
       </c>
       <c r="O81" s="3" t="n">
-        <v>2146</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="82">
@@ -4361,34 +4453,36 @@
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr"/>
-      <c r="E82" s="3" t="n">
-        <v>0</v>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 18:40</t>
+        </is>
       </c>
       <c r="F82" s="3" t="inlineStr"/>
       <c r="G82" s="3" t="n">
-        <v>0</v>
+        <v>80679</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>0</v>
+        <v>57398</v>
       </c>
       <c r="I82" s="3" t="n">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="J82" s="3" t="n">
-        <v>0</v>
+        <v>56626</v>
       </c>
       <c r="K82" s="3" t="inlineStr"/>
       <c r="L82" s="3" t="n">
-        <v>0</v>
+        <v>18689</v>
       </c>
       <c r="M82" s="3" t="n">
-        <v>0</v>
+        <v>9869</v>
       </c>
       <c r="N82" s="3" t="n">
-        <v>0</v>
+        <v>13817</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>0</v>
+        <v>11418</v>
       </c>
     </row>
     <row r="83">
@@ -4410,34 +4504,34 @@
       <c r="D83" s="3" t="inlineStr"/>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 14:16</t>
+          <t>2024-09-10 12:23</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr"/>
       <c r="G83" s="3" t="n">
-        <v>78582</v>
+        <v>77101</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>49700</v>
+        <v>49674</v>
       </c>
       <c r="I83" s="3" t="n">
-        <v>1090</v>
+        <v>1437</v>
       </c>
       <c r="J83" s="3" t="n">
-        <v>48610</v>
+        <v>48237</v>
       </c>
       <c r="K83" s="3" t="inlineStr"/>
       <c r="L83" s="3" t="n">
-        <v>28056</v>
+        <v>18894</v>
       </c>
       <c r="M83" s="3" t="n">
-        <v>9090</v>
+        <v>9636</v>
       </c>
       <c r="N83" s="3" t="n">
-        <v>5978</v>
+        <v>10039</v>
       </c>
       <c r="O83" s="3" t="n">
-        <v>3053</v>
+        <v>7254</v>
       </c>
     </row>
     <row r="84">
@@ -4457,34 +4551,36 @@
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr"/>
-      <c r="E84" s="3" t="n">
-        <v>0</v>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 19:48</t>
+        </is>
       </c>
       <c r="F84" s="3" t="inlineStr"/>
       <c r="G84" s="3" t="n">
-        <v>0</v>
+        <v>94216</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>0</v>
+        <v>59759</v>
       </c>
       <c r="I84" s="3" t="n">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="J84" s="3" t="n">
-        <v>0</v>
+        <v>58984</v>
       </c>
       <c r="K84" s="3" t="inlineStr"/>
       <c r="L84" s="3" t="n">
-        <v>0</v>
+        <v>12863</v>
       </c>
       <c r="M84" s="3" t="n">
-        <v>0</v>
+        <v>18473</v>
       </c>
       <c r="N84" s="3" t="n">
-        <v>0</v>
+        <v>11123</v>
       </c>
       <c r="O84" s="3" t="n">
-        <v>0</v>
+        <v>13573</v>
       </c>
     </row>
     <row r="85">
@@ -4506,34 +4602,34 @@
       <c r="D85" s="3" t="inlineStr"/>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 19:49</t>
+          <t>2024-09-10 15:44</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr"/>
       <c r="G85" s="3" t="n">
-        <v>102755</v>
+        <v>108338</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>70383</v>
+        <v>87146</v>
       </c>
       <c r="I85" s="3" t="n">
-        <v>1378</v>
+        <v>2282</v>
       </c>
       <c r="J85" s="3" t="n">
-        <v>69005</v>
+        <v>84864</v>
       </c>
       <c r="K85" s="3" t="inlineStr"/>
       <c r="L85" s="3" t="n">
-        <v>24462</v>
+        <v>27073</v>
       </c>
       <c r="M85" s="3" t="n">
-        <v>25413</v>
+        <v>23702</v>
       </c>
       <c r="N85" s="3" t="n">
-        <v>10744</v>
+        <v>16834</v>
       </c>
       <c r="O85" s="3" t="n">
-        <v>4934</v>
+        <v>13009</v>
       </c>
     </row>
     <row r="86">
@@ -4553,34 +4649,36 @@
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr"/>
-      <c r="E86" s="3" t="n">
-        <v>0</v>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 08:33</t>
+        </is>
       </c>
       <c r="F86" s="3" t="inlineStr"/>
       <c r="G86" s="3" t="n">
-        <v>0</v>
+        <v>101738</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>0</v>
+        <v>71926</v>
       </c>
       <c r="I86" s="3" t="n">
-        <v>0</v>
+        <v>1551</v>
       </c>
       <c r="J86" s="3" t="n">
-        <v>0</v>
+        <v>70375</v>
       </c>
       <c r="K86" s="3" t="inlineStr"/>
       <c r="L86" s="3" t="n">
-        <v>0</v>
+        <v>20904</v>
       </c>
       <c r="M86" s="3" t="n">
-        <v>0</v>
+        <v>25185</v>
       </c>
       <c r="N86" s="3" t="n">
-        <v>0</v>
+        <v>18406</v>
       </c>
       <c r="O86" s="3" t="n">
-        <v>0</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="87">
@@ -4600,34 +4698,36 @@
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr"/>
-      <c r="E87" s="3" t="n">
-        <v>0</v>
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 13:23</t>
+        </is>
       </c>
       <c r="F87" s="3" t="inlineStr"/>
       <c r="G87" s="3" t="n">
-        <v>0</v>
+        <v>83908</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>0</v>
+        <v>72862</v>
       </c>
       <c r="I87" s="3" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="J87" s="3" t="n">
-        <v>0</v>
+        <v>71612</v>
       </c>
       <c r="K87" s="3" t="inlineStr"/>
       <c r="L87" s="3" t="n">
-        <v>0</v>
+        <v>24343</v>
       </c>
       <c r="M87" s="3" t="n">
-        <v>0</v>
+        <v>20303</v>
       </c>
       <c r="N87" s="3" t="n">
-        <v>0</v>
+        <v>8391</v>
       </c>
       <c r="O87" s="3" t="n">
-        <v>0</v>
+        <v>14993</v>
       </c>
     </row>
     <row r="88">
@@ -4649,34 +4749,34 @@
       <c r="D88" s="3" t="inlineStr"/>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 18:46</t>
+          <t>2024-09-10 16:04</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr"/>
       <c r="G88" s="3" t="n">
-        <v>82037</v>
+        <v>88185</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>50069</v>
+        <v>62386</v>
       </c>
       <c r="I88" s="3" t="n">
-        <v>1262</v>
+        <v>1364</v>
       </c>
       <c r="J88" s="3" t="n">
-        <v>48807</v>
+        <v>61022</v>
       </c>
       <c r="K88" s="3" t="inlineStr"/>
       <c r="L88" s="3" t="n">
-        <v>23725</v>
+        <v>19627</v>
       </c>
       <c r="M88" s="3" t="n">
-        <v>11184</v>
+        <v>12843</v>
       </c>
       <c r="N88" s="3" t="n">
-        <v>7277</v>
+        <v>12216</v>
       </c>
       <c r="O88" s="3" t="n">
-        <v>4178</v>
+        <v>13283</v>
       </c>
     </row>
     <row r="89">
@@ -4696,34 +4796,36 @@
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr"/>
-      <c r="E89" s="3" t="n">
-        <v>0</v>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:27</t>
+        </is>
       </c>
       <c r="F89" s="3" t="inlineStr"/>
       <c r="G89" s="3" t="n">
-        <v>0</v>
+        <v>99218</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>0</v>
+        <v>81537</v>
       </c>
       <c r="I89" s="3" t="n">
-        <v>0</v>
+        <v>1439</v>
       </c>
       <c r="J89" s="3" t="n">
-        <v>0</v>
+        <v>80098</v>
       </c>
       <c r="K89" s="3" t="inlineStr"/>
       <c r="L89" s="3" t="n">
-        <v>0</v>
+        <v>31512</v>
       </c>
       <c r="M89" s="3" t="n">
-        <v>0</v>
+        <v>14504</v>
       </c>
       <c r="N89" s="3" t="n">
-        <v>0</v>
+        <v>13328</v>
       </c>
       <c r="O89" s="3" t="n">
-        <v>0</v>
+        <v>16747</v>
       </c>
     </row>
     <row r="90">
@@ -4743,34 +4845,36 @@
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr"/>
-      <c r="E90" s="3" t="n">
-        <v>0</v>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 19:38</t>
+        </is>
       </c>
       <c r="F90" s="3" t="inlineStr"/>
       <c r="G90" s="3" t="n">
-        <v>0</v>
+        <v>83240</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>0</v>
+        <v>63584</v>
       </c>
       <c r="I90" s="3" t="n">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="J90" s="3" t="n">
-        <v>0</v>
+        <v>61736</v>
       </c>
       <c r="K90" s="3" t="inlineStr"/>
       <c r="L90" s="3" t="n">
-        <v>0</v>
+        <v>28503</v>
       </c>
       <c r="M90" s="3" t="n">
-        <v>0</v>
+        <v>12381</v>
       </c>
       <c r="N90" s="3" t="n">
-        <v>0</v>
+        <v>12814</v>
       </c>
       <c r="O90" s="3" t="n">
-        <v>0</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="91">
@@ -4790,34 +4894,36 @@
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr"/>
-      <c r="E91" s="3" t="n">
-        <v>0</v>
+      <c r="E91" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 14:22</t>
+        </is>
       </c>
       <c r="F91" s="3" t="inlineStr"/>
       <c r="G91" s="3" t="n">
-        <v>0</v>
+        <v>109753</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>0</v>
+        <v>66482</v>
       </c>
       <c r="I91" s="3" t="n">
-        <v>0</v>
+        <v>1399</v>
       </c>
       <c r="J91" s="3" t="n">
-        <v>0</v>
+        <v>65083</v>
       </c>
       <c r="K91" s="3" t="inlineStr"/>
       <c r="L91" s="3" t="n">
-        <v>0</v>
+        <v>28383</v>
       </c>
       <c r="M91" s="3" t="n">
-        <v>0</v>
+        <v>15742</v>
       </c>
       <c r="N91" s="3" t="n">
-        <v>0</v>
+        <v>12165</v>
       </c>
       <c r="O91" s="3" t="n">
-        <v>0</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="92">
@@ -4837,34 +4943,36 @@
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr"/>
-      <c r="E92" s="3" t="n">
-        <v>0</v>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 10:26</t>
+        </is>
       </c>
       <c r="F92" s="3" t="inlineStr"/>
       <c r="G92" s="3" t="n">
-        <v>0</v>
+        <v>93721</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>0</v>
+        <v>68484</v>
       </c>
       <c r="I92" s="3" t="n">
-        <v>0</v>
+        <v>1652</v>
       </c>
       <c r="J92" s="3" t="n">
-        <v>0</v>
+        <v>66832</v>
       </c>
       <c r="K92" s="3" t="inlineStr"/>
       <c r="L92" s="3" t="n">
-        <v>0</v>
+        <v>17960</v>
       </c>
       <c r="M92" s="3" t="n">
-        <v>0</v>
+        <v>15777</v>
       </c>
       <c r="N92" s="3" t="n">
-        <v>0</v>
+        <v>13865</v>
       </c>
       <c r="O92" s="3" t="n">
-        <v>0</v>
+        <v>15887</v>
       </c>
     </row>
     <row r="93">
@@ -4886,34 +4994,34 @@
       <c r="D93" s="3" t="inlineStr"/>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:24</t>
+          <t>2024-09-10 14:56</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr"/>
       <c r="G93" s="3" t="n">
-        <v>103413</v>
+        <v>99513</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>62657</v>
+        <v>74686</v>
       </c>
       <c r="I93" s="3" t="n">
-        <v>1374</v>
+        <v>2073</v>
       </c>
       <c r="J93" s="3" t="n">
-        <v>61283</v>
+        <v>72613</v>
       </c>
       <c r="K93" s="3" t="inlineStr"/>
       <c r="L93" s="3" t="n">
-        <v>22393</v>
+        <v>23618</v>
       </c>
       <c r="M93" s="3" t="n">
-        <v>16460</v>
+        <v>17204</v>
       </c>
       <c r="N93" s="3" t="n">
-        <v>14783</v>
+        <v>10006</v>
       </c>
       <c r="O93" s="3" t="n">
-        <v>4582</v>
+        <v>18152</v>
       </c>
     </row>
     <row r="94">
@@ -4933,34 +5041,36 @@
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr"/>
-      <c r="E94" s="3" t="n">
-        <v>0</v>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 14:23</t>
+        </is>
       </c>
       <c r="F94" s="3" t="inlineStr"/>
       <c r="G94" s="3" t="n">
-        <v>0</v>
+        <v>85645</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>0</v>
+        <v>64568</v>
       </c>
       <c r="I94" s="3" t="n">
-        <v>0</v>
+        <v>1444</v>
       </c>
       <c r="J94" s="3" t="n">
-        <v>0</v>
+        <v>63124</v>
       </c>
       <c r="K94" s="3" t="inlineStr"/>
       <c r="L94" s="3" t="n">
-        <v>0</v>
+        <v>19494</v>
       </c>
       <c r="M94" s="3" t="n">
-        <v>0</v>
+        <v>21588</v>
       </c>
       <c r="N94" s="3" t="n">
-        <v>0</v>
+        <v>9093</v>
       </c>
       <c r="O94" s="3" t="n">
-        <v>0</v>
+        <v>9790</v>
       </c>
     </row>
     <row r="95">
@@ -4980,34 +5090,36 @@
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr"/>
-      <c r="E95" s="3" t="n">
-        <v>0</v>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 10:54</t>
+        </is>
       </c>
       <c r="F95" s="3" t="inlineStr"/>
       <c r="G95" s="3" t="n">
-        <v>0</v>
+        <v>78969</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>0</v>
+        <v>70850</v>
       </c>
       <c r="I95" s="3" t="n">
-        <v>0</v>
+        <v>1744</v>
       </c>
       <c r="J95" s="3" t="n">
-        <v>0</v>
+        <v>69106</v>
       </c>
       <c r="K95" s="3" t="inlineStr"/>
       <c r="L95" s="3" t="n">
-        <v>0</v>
+        <v>24152</v>
       </c>
       <c r="M95" s="3" t="n">
-        <v>0</v>
+        <v>21144</v>
       </c>
       <c r="N95" s="3" t="n">
-        <v>0</v>
+        <v>12166</v>
       </c>
       <c r="O95" s="3" t="n">
-        <v>0</v>
+        <v>8187</v>
       </c>
     </row>
     <row r="96">
@@ -5029,34 +5141,34 @@
       <c r="D96" s="3" t="inlineStr"/>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 18:24</t>
+          <t>2024-09-10 15:04</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr"/>
       <c r="G96" s="3" t="n">
-        <v>92558</v>
+        <v>88770</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>61015</v>
+        <v>58926</v>
       </c>
       <c r="I96" s="3" t="n">
-        <v>629</v>
+        <v>775</v>
       </c>
       <c r="J96" s="3" t="n">
-        <v>60386</v>
+        <v>58151</v>
       </c>
       <c r="K96" s="3" t="inlineStr"/>
       <c r="L96" s="3" t="n">
-        <v>13931</v>
+        <v>18338</v>
       </c>
       <c r="M96" s="3" t="n">
-        <v>14286</v>
+        <v>19071</v>
       </c>
       <c r="N96" s="3" t="n">
-        <v>18061</v>
+        <v>14538</v>
       </c>
       <c r="O96" s="3" t="n">
-        <v>11086</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="97">
@@ -5078,34 +5190,34 @@
       <c r="D97" s="3" t="inlineStr"/>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:39</t>
+          <t>2024-09-10 08:31</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr"/>
       <c r="G97" s="3" t="n">
-        <v>101083</v>
+        <v>96815</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>65970</v>
+        <v>73026</v>
       </c>
       <c r="I97" s="3" t="n">
-        <v>1242</v>
+        <v>1583</v>
       </c>
       <c r="J97" s="3" t="n">
-        <v>64728</v>
+        <v>71443</v>
       </c>
       <c r="K97" s="3" t="inlineStr"/>
       <c r="L97" s="3" t="n">
-        <v>24335</v>
+        <v>23045</v>
       </c>
       <c r="M97" s="3" t="n">
-        <v>16175</v>
+        <v>26462</v>
       </c>
       <c r="N97" s="3" t="n">
-        <v>10932</v>
+        <v>10867</v>
       </c>
       <c r="O97" s="3" t="n">
-        <v>10048</v>
+        <v>7495</v>
       </c>
     </row>
     <row r="98">
@@ -5125,34 +5237,36 @@
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr"/>
-      <c r="E98" s="3" t="n">
-        <v>0</v>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 17:05</t>
+        </is>
       </c>
       <c r="F98" s="3" t="inlineStr"/>
       <c r="G98" s="3" t="n">
-        <v>0</v>
+        <v>106702</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>0</v>
+        <v>75575</v>
       </c>
       <c r="I98" s="3" t="n">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="J98" s="3" t="n">
-        <v>0</v>
+        <v>74711</v>
       </c>
       <c r="K98" s="3" t="inlineStr"/>
       <c r="L98" s="3" t="n">
-        <v>0</v>
+        <v>20152</v>
       </c>
       <c r="M98" s="3" t="n">
-        <v>0</v>
+        <v>15851</v>
       </c>
       <c r="N98" s="3" t="n">
-        <v>0</v>
+        <v>12185</v>
       </c>
       <c r="O98" s="3" t="n">
-        <v>0</v>
+        <v>22786</v>
       </c>
     </row>
     <row r="99">
@@ -5174,34 +5288,34 @@
       <c r="D99" s="3" t="inlineStr"/>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 18:24</t>
+          <t>2024-09-10 12:42</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr"/>
       <c r="G99" s="3" t="n">
-        <v>82550</v>
+        <v>82970</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>51864</v>
+        <v>52446</v>
       </c>
       <c r="I99" s="3" t="n">
-        <v>699</v>
+        <v>727</v>
       </c>
       <c r="J99" s="3" t="n">
-        <v>51165</v>
+        <v>51719</v>
       </c>
       <c r="K99" s="3" t="inlineStr"/>
       <c r="L99" s="3" t="n">
-        <v>16761</v>
+        <v>11896</v>
       </c>
       <c r="M99" s="3" t="n">
-        <v>9433</v>
+        <v>17713</v>
       </c>
       <c r="N99" s="3" t="n">
-        <v>10784</v>
+        <v>15214</v>
       </c>
       <c r="O99" s="3" t="n">
-        <v>11627</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="100">
@@ -5221,34 +5335,36 @@
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr"/>
-      <c r="E100" s="3" t="n">
-        <v>0</v>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 11:17</t>
+        </is>
       </c>
       <c r="F100" s="3" t="inlineStr"/>
       <c r="G100" s="3" t="n">
-        <v>0</v>
+        <v>129124</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>0</v>
+        <v>91017</v>
       </c>
       <c r="I100" s="3" t="n">
-        <v>0</v>
+        <v>2141</v>
       </c>
       <c r="J100" s="3" t="n">
-        <v>0</v>
+        <v>88876</v>
       </c>
       <c r="K100" s="3" t="inlineStr"/>
       <c r="L100" s="3" t="n">
-        <v>0</v>
+        <v>37292</v>
       </c>
       <c r="M100" s="3" t="n">
-        <v>0</v>
+        <v>17654</v>
       </c>
       <c r="N100" s="3" t="n">
-        <v>0</v>
+        <v>24805</v>
       </c>
       <c r="O100" s="3" t="n">
-        <v>0</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="101">
@@ -5268,34 +5384,36 @@
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr"/>
-      <c r="E101" s="3" t="n">
-        <v>0</v>
+      <c r="E101" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:47</t>
+        </is>
       </c>
       <c r="F101" s="3" t="inlineStr"/>
       <c r="G101" s="3" t="n">
-        <v>0</v>
+        <v>179098</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>0</v>
+        <v>128719</v>
       </c>
       <c r="I101" s="3" t="n">
-        <v>0</v>
+        <v>3729</v>
       </c>
       <c r="J101" s="3" t="n">
-        <v>0</v>
+        <v>124990</v>
       </c>
       <c r="K101" s="3" t="inlineStr"/>
       <c r="L101" s="3" t="n">
-        <v>0</v>
+        <v>27897</v>
       </c>
       <c r="M101" s="3" t="n">
-        <v>0</v>
+        <v>31102</v>
       </c>
       <c r="N101" s="3" t="n">
-        <v>0</v>
+        <v>27099</v>
       </c>
       <c r="O101" s="3" t="n">
-        <v>0</v>
+        <v>32640</v>
       </c>
     </row>
     <row r="102">
@@ -5315,34 +5433,36 @@
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr"/>
-      <c r="E102" s="3" t="n">
-        <v>0</v>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 12:36</t>
+        </is>
       </c>
       <c r="F102" s="3" t="inlineStr"/>
       <c r="G102" s="3" t="n">
-        <v>0</v>
+        <v>23780</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>0</v>
+        <v>18214</v>
       </c>
       <c r="I102" s="3" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J102" s="3" t="n">
-        <v>0</v>
+        <v>17674</v>
       </c>
       <c r="K102" s="3" t="inlineStr"/>
       <c r="L102" s="3" t="n">
-        <v>0</v>
+        <v>5816</v>
       </c>
       <c r="M102" s="3" t="n">
-        <v>0</v>
+        <v>4102</v>
       </c>
       <c r="N102" s="3" t="n">
-        <v>0</v>
+        <v>5005</v>
       </c>
       <c r="O102" s="3" t="n">
-        <v>0</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="103">
@@ -5362,34 +5482,36 @@
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr"/>
-      <c r="E103" s="3" t="n">
-        <v>0</v>
+      <c r="E103" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 15:57</t>
+        </is>
       </c>
       <c r="F103" s="3" t="inlineStr"/>
       <c r="G103" s="3" t="n">
-        <v>0</v>
+        <v>50146</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>0</v>
+        <v>42992</v>
       </c>
       <c r="I103" s="3" t="n">
-        <v>0</v>
+        <v>1276</v>
       </c>
       <c r="J103" s="3" t="n">
-        <v>0</v>
+        <v>41716</v>
       </c>
       <c r="K103" s="3" t="inlineStr"/>
       <c r="L103" s="3" t="n">
-        <v>0</v>
+        <v>9811</v>
       </c>
       <c r="M103" s="3" t="n">
-        <v>0</v>
+        <v>10867</v>
       </c>
       <c r="N103" s="3" t="n">
-        <v>0</v>
+        <v>9063</v>
       </c>
       <c r="O103" s="3" t="n">
-        <v>0</v>
+        <v>9887</v>
       </c>
     </row>
     <row r="104">
@@ -5409,34 +5531,36 @@
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr"/>
-      <c r="E104" s="3" t="n">
-        <v>0</v>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 12:34</t>
+        </is>
       </c>
       <c r="F104" s="3" t="inlineStr"/>
       <c r="G104" s="3" t="n">
-        <v>0</v>
+        <v>65059</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>0</v>
+        <v>48912</v>
       </c>
       <c r="I104" s="3" t="n">
-        <v>0</v>
+        <v>1248</v>
       </c>
       <c r="J104" s="3" t="n">
-        <v>0</v>
+        <v>47664</v>
       </c>
       <c r="K104" s="3" t="inlineStr"/>
       <c r="L104" s="3" t="n">
-        <v>0</v>
+        <v>14748</v>
       </c>
       <c r="M104" s="3" t="n">
-        <v>0</v>
+        <v>17848</v>
       </c>
       <c r="N104" s="3" t="n">
-        <v>0</v>
+        <v>7941</v>
       </c>
       <c r="O104" s="3" t="n">
-        <v>0</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="105">
@@ -5458,34 +5582,34 @@
       <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 11:16</t>
+          <t>2024-09-10 11:31</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr"/>
       <c r="G105" s="3" t="n">
-        <v>57814</v>
+        <v>60644</v>
       </c>
       <c r="H105" s="3" t="n">
-        <v>34995</v>
+        <v>45260</v>
       </c>
       <c r="I105" s="3" t="n">
-        <v>578</v>
+        <v>1017</v>
       </c>
       <c r="J105" s="3" t="n">
-        <v>34417</v>
+        <v>44243</v>
       </c>
       <c r="K105" s="3" t="inlineStr"/>
       <c r="L105" s="3" t="n">
-        <v>15778</v>
+        <v>15626</v>
       </c>
       <c r="M105" s="3" t="n">
-        <v>7044</v>
+        <v>8882</v>
       </c>
       <c r="N105" s="3" t="n">
-        <v>5506</v>
+        <v>7234</v>
       </c>
       <c r="O105" s="3" t="n">
-        <v>4366</v>
+        <v>10287</v>
       </c>
     </row>
     <row r="106">
@@ -5505,34 +5629,36 @@
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr"/>
-      <c r="E106" s="3" t="n">
-        <v>0</v>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:34</t>
+        </is>
       </c>
       <c r="F106" s="3" t="inlineStr"/>
       <c r="G106" s="3" t="n">
-        <v>0</v>
+        <v>62786</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>0</v>
+        <v>38501</v>
       </c>
       <c r="I106" s="3" t="n">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="J106" s="3" t="n">
-        <v>0</v>
+        <v>37786</v>
       </c>
       <c r="K106" s="3" t="inlineStr"/>
       <c r="L106" s="3" t="n">
-        <v>0</v>
+        <v>10324</v>
       </c>
       <c r="M106" s="3" t="n">
-        <v>0</v>
+        <v>12470</v>
       </c>
       <c r="N106" s="3" t="n">
-        <v>0</v>
+        <v>9216</v>
       </c>
       <c r="O106" s="3" t="n">
-        <v>0</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="107">
@@ -5554,34 +5680,34 @@
       <c r="D107" s="3" t="inlineStr"/>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 19:35</t>
+          <t>2024-09-10 16:49</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr"/>
       <c r="G107" s="3" t="n">
-        <v>40127</v>
+        <v>40158</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>24344</v>
+        <v>25742</v>
       </c>
       <c r="I107" s="3" t="n">
-        <v>547</v>
+        <v>260</v>
       </c>
       <c r="J107" s="3" t="n">
-        <v>23797</v>
+        <v>25482</v>
       </c>
       <c r="K107" s="3" t="inlineStr"/>
       <c r="L107" s="3" t="n">
-        <v>7309</v>
+        <v>8968</v>
       </c>
       <c r="M107" s="3" t="n">
-        <v>6752</v>
+        <v>5364</v>
       </c>
       <c r="N107" s="3" t="n">
-        <v>6047</v>
+        <v>4217</v>
       </c>
       <c r="O107" s="3" t="n">
-        <v>2497</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="108">
@@ -5603,34 +5729,34 @@
       <c r="D108" s="3" t="inlineStr"/>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:28</t>
+          <t>2024-09-10 11:19</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr"/>
       <c r="G108" s="3" t="n">
-        <v>40642</v>
+        <v>37569</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>25187</v>
+        <v>26182</v>
       </c>
       <c r="I108" s="3" t="n">
-        <v>727</v>
+        <v>531</v>
       </c>
       <c r="J108" s="3" t="n">
-        <v>24460</v>
+        <v>25651</v>
       </c>
       <c r="K108" s="3" t="inlineStr"/>
       <c r="L108" s="3" t="n">
-        <v>8179</v>
+        <v>6801</v>
       </c>
       <c r="M108" s="3" t="n">
-        <v>6244</v>
+        <v>5296</v>
       </c>
       <c r="N108" s="3" t="n">
-        <v>6058</v>
+        <v>6166</v>
       </c>
       <c r="O108" s="3" t="n">
-        <v>2753</v>
+        <v>6103</v>
       </c>
     </row>
     <row r="109">
@@ -5652,34 +5778,34 @@
       <c r="D109" s="3" t="inlineStr"/>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 11:26</t>
+          <t>2024-09-10 15:12</t>
         </is>
       </c>
       <c r="F109" s="3" t="inlineStr"/>
       <c r="G109" s="3" t="n">
-        <v>55745</v>
+        <v>55015</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>36104</v>
+        <v>38781</v>
       </c>
       <c r="I109" s="3" t="n">
-        <v>370</v>
+        <v>960</v>
       </c>
       <c r="J109" s="3" t="n">
-        <v>35734</v>
+        <v>37821</v>
       </c>
       <c r="K109" s="3" t="inlineStr"/>
       <c r="L109" s="3" t="n">
-        <v>8487</v>
+        <v>9045</v>
       </c>
       <c r="M109" s="3" t="n">
-        <v>10068</v>
+        <v>13235</v>
       </c>
       <c r="N109" s="3" t="n">
-        <v>8827</v>
+        <v>5339</v>
       </c>
       <c r="O109" s="3" t="n">
-        <v>6564</v>
+        <v>8309</v>
       </c>
     </row>
     <row r="110">
@@ -5699,34 +5825,36 @@
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr"/>
-      <c r="E110" s="3" t="n">
-        <v>0</v>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 17:07</t>
+        </is>
       </c>
       <c r="F110" s="3" t="inlineStr"/>
       <c r="G110" s="3" t="n">
-        <v>0</v>
+        <v>48724</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>0</v>
+        <v>41337</v>
       </c>
       <c r="I110" s="3" t="n">
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="J110" s="3" t="n">
-        <v>0</v>
+        <v>40294</v>
       </c>
       <c r="K110" s="3" t="inlineStr"/>
       <c r="L110" s="3" t="n">
-        <v>0</v>
+        <v>8041</v>
       </c>
       <c r="M110" s="3" t="n">
-        <v>0</v>
+        <v>12079</v>
       </c>
       <c r="N110" s="3" t="n">
-        <v>0</v>
+        <v>9776</v>
       </c>
       <c r="O110" s="3" t="n">
-        <v>0</v>
+        <v>8381</v>
       </c>
     </row>
     <row r="111">
@@ -5748,34 +5876,34 @@
       <c r="D111" s="3" t="inlineStr"/>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 10:39</t>
+          <t>2024-09-10 12:04</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr"/>
       <c r="G111" s="3" t="n">
-        <v>35391</v>
+        <v>35871</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>25687</v>
+        <v>30201</v>
       </c>
       <c r="I111" s="3" t="n">
-        <v>470</v>
+        <v>629</v>
       </c>
       <c r="J111" s="3" t="n">
-        <v>25217</v>
+        <v>29572</v>
       </c>
       <c r="K111" s="3" t="inlineStr"/>
       <c r="L111" s="3" t="n">
-        <v>8128</v>
+        <v>10061</v>
       </c>
       <c r="M111" s="3" t="n">
-        <v>6420</v>
+        <v>5282</v>
       </c>
       <c r="N111" s="3" t="n">
-        <v>3914</v>
+        <v>8988</v>
       </c>
       <c r="O111" s="3" t="n">
-        <v>5492</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="112">
@@ -5797,34 +5925,34 @@
       <c r="D112" s="3" t="inlineStr"/>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 11:24</t>
+          <t>2024-09-10 20:01</t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr"/>
       <c r="G112" s="3" t="n">
-        <v>97197</v>
+        <v>88693</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>61327</v>
+        <v>73658</v>
       </c>
       <c r="I112" s="3" t="n">
-        <v>1148</v>
+        <v>1216</v>
       </c>
       <c r="J112" s="3" t="n">
-        <v>60179</v>
+        <v>72442</v>
       </c>
       <c r="K112" s="3" t="inlineStr"/>
       <c r="L112" s="3" t="n">
-        <v>18624</v>
+        <v>29542</v>
       </c>
       <c r="M112" s="3" t="n">
-        <v>17212</v>
+        <v>17440</v>
       </c>
       <c r="N112" s="3" t="n">
-        <v>16567</v>
+        <v>9779</v>
       </c>
       <c r="O112" s="3" t="n">
-        <v>4764</v>
+        <v>12057</v>
       </c>
     </row>
     <row r="113">
@@ -5844,34 +5972,36 @@
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr"/>
-      <c r="E113" s="3" t="n">
-        <v>0</v>
+      <c r="E113" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 13:51</t>
+        </is>
       </c>
       <c r="F113" s="3" t="inlineStr"/>
       <c r="G113" s="3" t="n">
-        <v>0</v>
+        <v>79683</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>0</v>
+        <v>64454</v>
       </c>
       <c r="I113" s="3" t="n">
-        <v>0</v>
+        <v>1814</v>
       </c>
       <c r="J113" s="3" t="n">
-        <v>0</v>
+        <v>62640</v>
       </c>
       <c r="K113" s="3" t="inlineStr"/>
       <c r="L113" s="3" t="n">
-        <v>0</v>
+        <v>16440</v>
       </c>
       <c r="M113" s="3" t="n">
-        <v>0</v>
+        <v>18004</v>
       </c>
       <c r="N113" s="3" t="n">
-        <v>0</v>
+        <v>12313</v>
       </c>
       <c r="O113" s="3" t="n">
-        <v>0</v>
+        <v>12750</v>
       </c>
     </row>
     <row r="114">
@@ -5893,34 +6023,34 @@
       <c r="D114" s="3" t="inlineStr"/>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 14:40</t>
+          <t>2024-09-10 17:26</t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr"/>
       <c r="G114" s="3" t="n">
-        <v>125830</v>
+        <v>117965</v>
       </c>
       <c r="H114" s="3" t="n">
-        <v>96700</v>
+        <v>95830</v>
       </c>
       <c r="I114" s="3" t="n">
-        <v>1620</v>
+        <v>1458</v>
       </c>
       <c r="J114" s="3" t="n">
-        <v>95080</v>
+        <v>94372</v>
       </c>
       <c r="K114" s="3" t="inlineStr"/>
       <c r="L114" s="3" t="n">
-        <v>32759</v>
+        <v>26972</v>
       </c>
       <c r="M114" s="3" t="n">
-        <v>12405</v>
+        <v>13280</v>
       </c>
       <c r="N114" s="3" t="n">
-        <v>24010</v>
+        <v>28614</v>
       </c>
       <c r="O114" s="3" t="n">
-        <v>21149</v>
+        <v>20786</v>
       </c>
     </row>
     <row r="115">
@@ -5940,34 +6070,36 @@
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr"/>
-      <c r="E115" s="3" t="n">
-        <v>0</v>
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 11:19</t>
+        </is>
       </c>
       <c r="F115" s="3" t="inlineStr"/>
       <c r="G115" s="3" t="n">
-        <v>0</v>
+        <v>81509</v>
       </c>
       <c r="H115" s="3" t="n">
-        <v>0</v>
+        <v>49630</v>
       </c>
       <c r="I115" s="3" t="n">
-        <v>0</v>
+        <v>1057</v>
       </c>
       <c r="J115" s="3" t="n">
-        <v>0</v>
+        <v>48573</v>
       </c>
       <c r="K115" s="3" t="inlineStr"/>
       <c r="L115" s="3" t="n">
-        <v>0</v>
+        <v>11594</v>
       </c>
       <c r="M115" s="3" t="n">
-        <v>0</v>
+        <v>16662</v>
       </c>
       <c r="N115" s="3" t="n">
-        <v>0</v>
+        <v>5226</v>
       </c>
       <c r="O115" s="3" t="n">
-        <v>0</v>
+        <v>12660</v>
       </c>
     </row>
     <row r="116">
@@ -5989,34 +6121,34 @@
       <c r="D116" s="3" t="inlineStr"/>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 19:55</t>
+          <t>2024-09-10 14:20</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr"/>
       <c r="G116" s="3" t="n">
-        <v>118642</v>
+        <v>120097</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>75225</v>
+        <v>107168</v>
       </c>
       <c r="I116" s="3" t="n">
-        <v>1289</v>
+        <v>2533</v>
       </c>
       <c r="J116" s="3" t="n">
-        <v>73936</v>
+        <v>104635</v>
       </c>
       <c r="K116" s="3" t="inlineStr"/>
       <c r="L116" s="3" t="n">
-        <v>17685</v>
+        <v>26252</v>
       </c>
       <c r="M116" s="3" t="n">
-        <v>13724</v>
+        <v>36205</v>
       </c>
       <c r="N116" s="3" t="n">
-        <v>19711</v>
+        <v>12798</v>
       </c>
       <c r="O116" s="3" t="n">
-        <v>19118</v>
+        <v>24146</v>
       </c>
     </row>
     <row r="117">
@@ -6036,34 +6168,36 @@
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr"/>
-      <c r="E117" s="3" t="n">
-        <v>0</v>
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:39</t>
+        </is>
       </c>
       <c r="F117" s="3" t="inlineStr"/>
       <c r="G117" s="3" t="n">
-        <v>0</v>
+        <v>190308</v>
       </c>
       <c r="H117" s="3" t="n">
-        <v>0</v>
+        <v>155026</v>
       </c>
       <c r="I117" s="3" t="n">
-        <v>0</v>
+        <v>2839</v>
       </c>
       <c r="J117" s="3" t="n">
-        <v>0</v>
+        <v>152187</v>
       </c>
       <c r="K117" s="3" t="inlineStr"/>
       <c r="L117" s="3" t="n">
-        <v>0</v>
+        <v>46860</v>
       </c>
       <c r="M117" s="3" t="n">
-        <v>0</v>
+        <v>23417</v>
       </c>
       <c r="N117" s="3" t="n">
-        <v>0</v>
+        <v>47458</v>
       </c>
       <c r="O117" s="3" t="n">
-        <v>0</v>
+        <v>26841</v>
       </c>
     </row>
     <row r="118">
@@ -6083,34 +6217,36 @@
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr"/>
-      <c r="E118" s="3" t="n">
-        <v>0</v>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:13</t>
+        </is>
       </c>
       <c r="F118" s="3" t="inlineStr"/>
       <c r="G118" s="3" t="n">
-        <v>0</v>
+        <v>97000</v>
       </c>
       <c r="H118" s="3" t="n">
-        <v>0</v>
+        <v>66446</v>
       </c>
       <c r="I118" s="3" t="n">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="J118" s="3" t="n">
-        <v>0</v>
+        <v>65714</v>
       </c>
       <c r="K118" s="3" t="inlineStr"/>
       <c r="L118" s="3" t="n">
-        <v>0</v>
+        <v>18726</v>
       </c>
       <c r="M118" s="3" t="n">
-        <v>0</v>
+        <v>19076</v>
       </c>
       <c r="N118" s="3" t="n">
-        <v>0</v>
+        <v>15885</v>
       </c>
       <c r="O118" s="3" t="n">
-        <v>0</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="119">
@@ -6132,34 +6268,34 @@
       <c r="D119" s="3" t="inlineStr"/>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 16:58</t>
+          <t>2024-09-10 09:32</t>
         </is>
       </c>
       <c r="F119" s="3" t="inlineStr"/>
       <c r="G119" s="3" t="n">
-        <v>166406</v>
+        <v>174099</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>107572</v>
+        <v>106772</v>
       </c>
       <c r="I119" s="3" t="n">
-        <v>3073</v>
+        <v>1311</v>
       </c>
       <c r="J119" s="3" t="n">
-        <v>104499</v>
+        <v>105461</v>
       </c>
       <c r="K119" s="3" t="inlineStr"/>
       <c r="L119" s="3" t="n">
-        <v>32747</v>
+        <v>27301</v>
       </c>
       <c r="M119" s="3" t="n">
-        <v>20536</v>
+        <v>32478</v>
       </c>
       <c r="N119" s="3" t="n">
-        <v>11817</v>
+        <v>23263</v>
       </c>
       <c r="O119" s="3" t="n">
-        <v>34172</v>
+        <v>17144</v>
       </c>
     </row>
     <row r="120">
@@ -6179,34 +6315,36 @@
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr"/>
-      <c r="E120" s="3" t="n">
-        <v>0</v>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:46</t>
+        </is>
       </c>
       <c r="F120" s="3" t="inlineStr"/>
       <c r="G120" s="3" t="n">
-        <v>0</v>
+        <v>93665</v>
       </c>
       <c r="H120" s="3" t="n">
-        <v>0</v>
+        <v>62811</v>
       </c>
       <c r="I120" s="3" t="n">
-        <v>0</v>
+        <v>1323</v>
       </c>
       <c r="J120" s="3" t="n">
-        <v>0</v>
+        <v>61488</v>
       </c>
       <c r="K120" s="3" t="inlineStr"/>
       <c r="L120" s="3" t="n">
-        <v>0</v>
+        <v>26394</v>
       </c>
       <c r="M120" s="3" t="n">
-        <v>0</v>
+        <v>9902</v>
       </c>
       <c r="N120" s="3" t="n">
-        <v>0</v>
+        <v>18437</v>
       </c>
       <c r="O120" s="3" t="n">
-        <v>0</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="121">
@@ -6226,34 +6364,36 @@
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr"/>
-      <c r="E121" s="3" t="n">
-        <v>0</v>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 12:03</t>
+        </is>
       </c>
       <c r="F121" s="3" t="inlineStr"/>
       <c r="G121" s="3" t="n">
-        <v>0</v>
+        <v>79445</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>0</v>
+        <v>58635</v>
       </c>
       <c r="I121" s="3" t="n">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="J121" s="3" t="n">
-        <v>0</v>
+        <v>57608</v>
       </c>
       <c r="K121" s="3" t="inlineStr"/>
       <c r="L121" s="3" t="n">
-        <v>0</v>
+        <v>19910</v>
       </c>
       <c r="M121" s="3" t="n">
-        <v>0</v>
+        <v>14917</v>
       </c>
       <c r="N121" s="3" t="n">
-        <v>0</v>
+        <v>14460</v>
       </c>
       <c r="O121" s="3" t="n">
-        <v>0</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="122">
@@ -6275,34 +6415,34 @@
       <c r="D122" s="3" t="inlineStr"/>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 09:49</t>
+          <t>2024-09-10 19:30</t>
         </is>
       </c>
       <c r="F122" s="3" t="inlineStr"/>
       <c r="G122" s="3" t="n">
-        <v>166971</v>
+        <v>174752</v>
       </c>
       <c r="H122" s="3" t="n">
-        <v>110038</v>
+        <v>151881</v>
       </c>
       <c r="I122" s="3" t="n">
-        <v>1308</v>
+        <v>4405</v>
       </c>
       <c r="J122" s="3" t="n">
-        <v>108730</v>
+        <v>147476</v>
       </c>
       <c r="K122" s="3" t="inlineStr"/>
       <c r="L122" s="3" t="n">
-        <v>39318</v>
+        <v>45923</v>
       </c>
       <c r="M122" s="3" t="n">
-        <v>23135</v>
+        <v>46096</v>
       </c>
       <c r="N122" s="3" t="n">
-        <v>20118</v>
+        <v>24205</v>
       </c>
       <c r="O122" s="3" t="n">
-        <v>20720</v>
+        <v>23876</v>
       </c>
     </row>
     <row r="123">
@@ -6322,34 +6462,36 @@
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr"/>
-      <c r="E123" s="3" t="n">
-        <v>0</v>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 14:08</t>
+        </is>
       </c>
       <c r="F123" s="3" t="inlineStr"/>
       <c r="G123" s="3" t="n">
-        <v>0</v>
+        <v>77349</v>
       </c>
       <c r="H123" s="3" t="n">
-        <v>0</v>
+        <v>47355</v>
       </c>
       <c r="I123" s="3" t="n">
-        <v>0</v>
+        <v>1140</v>
       </c>
       <c r="J123" s="3" t="n">
-        <v>0</v>
+        <v>46215</v>
       </c>
       <c r="K123" s="3" t="inlineStr"/>
       <c r="L123" s="3" t="n">
-        <v>0</v>
+        <v>14173</v>
       </c>
       <c r="M123" s="3" t="n">
-        <v>0</v>
+        <v>8522</v>
       </c>
       <c r="N123" s="3" t="n">
-        <v>0</v>
+        <v>17668</v>
       </c>
       <c r="O123" s="3" t="n">
-        <v>0</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="124">
@@ -6369,34 +6511,36 @@
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr"/>
-      <c r="E124" s="3" t="n">
-        <v>0</v>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 12:16</t>
+        </is>
       </c>
       <c r="F124" s="3" t="inlineStr"/>
       <c r="G124" s="3" t="n">
-        <v>0</v>
+        <v>101816</v>
       </c>
       <c r="H124" s="3" t="n">
-        <v>0</v>
+        <v>77426</v>
       </c>
       <c r="I124" s="3" t="n">
-        <v>0</v>
+        <v>1715</v>
       </c>
       <c r="J124" s="3" t="n">
-        <v>0</v>
+        <v>75711</v>
       </c>
       <c r="K124" s="3" t="inlineStr"/>
       <c r="L124" s="3" t="n">
-        <v>0</v>
+        <v>28123</v>
       </c>
       <c r="M124" s="3" t="n">
-        <v>0</v>
+        <v>18415</v>
       </c>
       <c r="N124" s="3" t="n">
-        <v>0</v>
+        <v>23161</v>
       </c>
       <c r="O124" s="3" t="n">
-        <v>0</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="125">
@@ -6416,34 +6560,36 @@
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr"/>
-      <c r="E125" s="3" t="n">
-        <v>0</v>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 12:56</t>
+        </is>
       </c>
       <c r="F125" s="3" t="inlineStr"/>
       <c r="G125" s="3" t="n">
-        <v>0</v>
+        <v>116483</v>
       </c>
       <c r="H125" s="3" t="n">
-        <v>0</v>
+        <v>76242</v>
       </c>
       <c r="I125" s="3" t="n">
-        <v>0</v>
+        <v>1744</v>
       </c>
       <c r="J125" s="3" t="n">
-        <v>0</v>
+        <v>74498</v>
       </c>
       <c r="K125" s="3" t="inlineStr"/>
       <c r="L125" s="3" t="n">
-        <v>0</v>
+        <v>17952</v>
       </c>
       <c r="M125" s="3" t="n">
-        <v>0</v>
+        <v>10839</v>
       </c>
       <c r="N125" s="3" t="n">
-        <v>0</v>
+        <v>23676</v>
       </c>
       <c r="O125" s="3" t="n">
-        <v>0</v>
+        <v>18305</v>
       </c>
     </row>
     <row r="126">
@@ -6465,34 +6611,34 @@
       <c r="D126" s="3" t="inlineStr"/>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 10:01</t>
+          <t>2024-09-10 18:40</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr"/>
       <c r="G126" s="3" t="n">
-        <v>110848</v>
+        <v>110794</v>
       </c>
       <c r="H126" s="3" t="n">
-        <v>95500</v>
+        <v>72442</v>
       </c>
       <c r="I126" s="3" t="n">
-        <v>2767</v>
+        <v>1321</v>
       </c>
       <c r="J126" s="3" t="n">
-        <v>92733</v>
+        <v>71121</v>
       </c>
       <c r="K126" s="3" t="inlineStr"/>
       <c r="L126" s="3" t="n">
-        <v>28744</v>
+        <v>34176</v>
       </c>
       <c r="M126" s="3" t="n">
-        <v>20594</v>
+        <v>20840</v>
       </c>
       <c r="N126" s="3" t="n">
-        <v>21051</v>
+        <v>8185</v>
       </c>
       <c r="O126" s="3" t="n">
-        <v>17705</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="127">
@@ -6514,34 +6660,34 @@
       <c r="D127" s="3" t="inlineStr"/>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 08:33</t>
+          <t>2024-09-10 11:59</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr"/>
       <c r="G127" s="3" t="n">
-        <v>94710</v>
+        <v>104004</v>
       </c>
       <c r="H127" s="3" t="n">
-        <v>77483</v>
+        <v>81315</v>
       </c>
       <c r="I127" s="3" t="n">
-        <v>1565</v>
+        <v>2019</v>
       </c>
       <c r="J127" s="3" t="n">
-        <v>75918</v>
+        <v>79296</v>
       </c>
       <c r="K127" s="3" t="inlineStr"/>
       <c r="L127" s="3" t="n">
-        <v>16333</v>
+        <v>32874</v>
       </c>
       <c r="M127" s="3" t="n">
-        <v>19250</v>
+        <v>26617</v>
       </c>
       <c r="N127" s="3" t="n">
-        <v>19054</v>
+        <v>10164</v>
       </c>
       <c r="O127" s="3" t="n">
-        <v>17483</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="128">
@@ -6563,34 +6709,34 @@
       <c r="D128" s="3" t="inlineStr"/>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 18:20</t>
+          <t>2024-09-10 11:46</t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr"/>
       <c r="G128" s="3" t="n">
-        <v>112678</v>
+        <v>116862</v>
       </c>
       <c r="H128" s="3" t="n">
-        <v>88299</v>
+        <v>71565</v>
       </c>
       <c r="I128" s="3" t="n">
-        <v>2534</v>
+        <v>1778</v>
       </c>
       <c r="J128" s="3" t="n">
-        <v>85765</v>
+        <v>69787</v>
       </c>
       <c r="K128" s="3" t="inlineStr"/>
       <c r="L128" s="3" t="n">
-        <v>36016</v>
+        <v>28555</v>
       </c>
       <c r="M128" s="3" t="n">
-        <v>13460</v>
+        <v>12458</v>
       </c>
       <c r="N128" s="3" t="n">
-        <v>13892</v>
+        <v>10801</v>
       </c>
       <c r="O128" s="3" t="n">
-        <v>18107</v>
+        <v>14481</v>
       </c>
     </row>
     <row r="129">
@@ -6612,34 +6758,34 @@
       <c r="D129" s="3" t="inlineStr"/>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:35</t>
+          <t>2024-09-10 15:28</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr"/>
       <c r="G129" s="3" t="n">
-        <v>103848</v>
+        <v>105786</v>
       </c>
       <c r="H129" s="3" t="n">
-        <v>86864</v>
+        <v>92450</v>
       </c>
       <c r="I129" s="3" t="n">
-        <v>1877</v>
+        <v>2057</v>
       </c>
       <c r="J129" s="3" t="n">
-        <v>84987</v>
+        <v>90393</v>
       </c>
       <c r="K129" s="3" t="inlineStr"/>
       <c r="L129" s="3" t="n">
-        <v>26329</v>
+        <v>32989</v>
       </c>
       <c r="M129" s="3" t="n">
-        <v>21969</v>
+        <v>19276</v>
       </c>
       <c r="N129" s="3" t="n">
-        <v>13595</v>
+        <v>21276</v>
       </c>
       <c r="O129" s="3" t="n">
-        <v>18842</v>
+        <v>12331</v>
       </c>
     </row>
     <row r="130">
@@ -6659,34 +6805,36 @@
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr"/>
-      <c r="E130" s="3" t="n">
-        <v>0</v>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 19:56</t>
+        </is>
       </c>
       <c r="F130" s="3" t="inlineStr"/>
       <c r="G130" s="3" t="n">
-        <v>0</v>
+        <v>83322</v>
       </c>
       <c r="H130" s="3" t="n">
-        <v>0</v>
+        <v>69258</v>
       </c>
       <c r="I130" s="3" t="n">
-        <v>0</v>
+        <v>1837</v>
       </c>
       <c r="J130" s="3" t="n">
-        <v>0</v>
+        <v>67421</v>
       </c>
       <c r="K130" s="3" t="inlineStr"/>
       <c r="L130" s="3" t="n">
-        <v>0</v>
+        <v>21421</v>
       </c>
       <c r="M130" s="3" t="n">
-        <v>0</v>
+        <v>21324</v>
       </c>
       <c r="N130" s="3" t="n">
-        <v>0</v>
+        <v>14163</v>
       </c>
       <c r="O130" s="3" t="n">
-        <v>0</v>
+        <v>7141</v>
       </c>
     </row>
     <row r="131">
@@ -6706,34 +6854,36 @@
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr"/>
-      <c r="E131" s="3" t="n">
-        <v>0</v>
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 19:45</t>
+        </is>
       </c>
       <c r="F131" s="3" t="inlineStr"/>
       <c r="G131" s="3" t="n">
-        <v>0</v>
+        <v>76812</v>
       </c>
       <c r="H131" s="3" t="n">
-        <v>0</v>
+        <v>61089</v>
       </c>
       <c r="I131" s="3" t="n">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="J131" s="3" t="n">
-        <v>0</v>
+        <v>60429</v>
       </c>
       <c r="K131" s="3" t="inlineStr"/>
       <c r="L131" s="3" t="n">
-        <v>0</v>
+        <v>21667</v>
       </c>
       <c r="M131" s="3" t="n">
-        <v>0</v>
+        <v>20030</v>
       </c>
       <c r="N131" s="3" t="n">
-        <v>0</v>
+        <v>10327</v>
       </c>
       <c r="O131" s="3" t="n">
-        <v>0</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="132">
@@ -6753,34 +6903,36 @@
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr"/>
-      <c r="E132" s="3" t="n">
-        <v>0</v>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:59</t>
+        </is>
       </c>
       <c r="F132" s="3" t="inlineStr"/>
       <c r="G132" s="3" t="n">
-        <v>0</v>
+        <v>93498</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>0</v>
+        <v>70591</v>
       </c>
       <c r="I132" s="3" t="n">
-        <v>0</v>
+        <v>927</v>
       </c>
       <c r="J132" s="3" t="n">
-        <v>0</v>
+        <v>69664</v>
       </c>
       <c r="K132" s="3" t="inlineStr"/>
       <c r="L132" s="3" t="n">
-        <v>0</v>
+        <v>26040</v>
       </c>
       <c r="M132" s="3" t="n">
-        <v>0</v>
+        <v>10351</v>
       </c>
       <c r="N132" s="3" t="n">
-        <v>0</v>
+        <v>15447</v>
       </c>
       <c r="O132" s="3" t="n">
-        <v>0</v>
+        <v>14341</v>
       </c>
     </row>
     <row r="133">
@@ -6800,34 +6952,36 @@
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr"/>
-      <c r="E133" s="3" t="n">
-        <v>0</v>
+      <c r="E133" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:47</t>
+        </is>
       </c>
       <c r="F133" s="3" t="inlineStr"/>
       <c r="G133" s="3" t="n">
-        <v>0</v>
+        <v>102758</v>
       </c>
       <c r="H133" s="3" t="n">
-        <v>0</v>
+        <v>64255</v>
       </c>
       <c r="I133" s="3" t="n">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="J133" s="3" t="n">
-        <v>0</v>
+        <v>63409</v>
       </c>
       <c r="K133" s="3" t="inlineStr"/>
       <c r="L133" s="3" t="n">
-        <v>0</v>
+        <v>11809</v>
       </c>
       <c r="M133" s="3" t="n">
-        <v>0</v>
+        <v>16994</v>
       </c>
       <c r="N133" s="3" t="n">
-        <v>0</v>
+        <v>17583</v>
       </c>
       <c r="O133" s="3" t="n">
-        <v>0</v>
+        <v>13850</v>
       </c>
     </row>
     <row r="134">
@@ -6847,34 +7001,36 @@
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr"/>
-      <c r="E134" s="3" t="n">
-        <v>0</v>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 11:23</t>
+        </is>
       </c>
       <c r="F134" s="3" t="inlineStr"/>
       <c r="G134" s="3" t="n">
-        <v>0</v>
+        <v>103645</v>
       </c>
       <c r="H134" s="3" t="n">
-        <v>0</v>
+        <v>62320</v>
       </c>
       <c r="I134" s="3" t="n">
-        <v>0</v>
+        <v>1372</v>
       </c>
       <c r="J134" s="3" t="n">
-        <v>0</v>
+        <v>60948</v>
       </c>
       <c r="K134" s="3" t="inlineStr"/>
       <c r="L134" s="3" t="n">
-        <v>0</v>
+        <v>21794</v>
       </c>
       <c r="M134" s="3" t="n">
-        <v>0</v>
+        <v>8871</v>
       </c>
       <c r="N134" s="3" t="n">
-        <v>0</v>
+        <v>15574</v>
       </c>
       <c r="O134" s="3" t="n">
-        <v>0</v>
+        <v>11660</v>
       </c>
     </row>
     <row r="135">
@@ -6894,34 +7050,36 @@
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr"/>
-      <c r="E135" s="3" t="n">
-        <v>0</v>
+      <c r="E135" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 12:00</t>
+        </is>
       </c>
       <c r="F135" s="3" t="inlineStr"/>
       <c r="G135" s="3" t="n">
-        <v>0</v>
+        <v>95891</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>0</v>
+        <v>85202</v>
       </c>
       <c r="I135" s="3" t="n">
-        <v>0</v>
+        <v>1749</v>
       </c>
       <c r="J135" s="3" t="n">
-        <v>0</v>
+        <v>83453</v>
       </c>
       <c r="K135" s="3" t="inlineStr"/>
       <c r="L135" s="3" t="n">
-        <v>0</v>
+        <v>22628</v>
       </c>
       <c r="M135" s="3" t="n">
-        <v>0</v>
+        <v>27021</v>
       </c>
       <c r="N135" s="3" t="n">
-        <v>0</v>
+        <v>11241</v>
       </c>
       <c r="O135" s="3" t="n">
-        <v>0</v>
+        <v>18389</v>
       </c>
     </row>
     <row r="136">
@@ -6943,34 +7101,34 @@
       <c r="D136" s="3" t="inlineStr"/>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 11:56</t>
+          <t>2024-09-10 20:09</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr"/>
       <c r="G136" s="3" t="n">
-        <v>82133</v>
+        <v>81403</v>
       </c>
       <c r="H136" s="3" t="n">
-        <v>51963</v>
+        <v>50547</v>
       </c>
       <c r="I136" s="3" t="n">
-        <v>1453</v>
+        <v>1415</v>
       </c>
       <c r="J136" s="3" t="n">
-        <v>50510</v>
+        <v>49132</v>
       </c>
       <c r="K136" s="3" t="inlineStr"/>
       <c r="L136" s="3" t="n">
-        <v>16653</v>
+        <v>15911</v>
       </c>
       <c r="M136" s="3" t="n">
-        <v>9556</v>
+        <v>15136</v>
       </c>
       <c r="N136" s="3" t="n">
-        <v>16577</v>
+        <v>10536</v>
       </c>
       <c r="O136" s="3" t="n">
-        <v>5198</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="137">
@@ -6990,34 +7148,36 @@
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr"/>
-      <c r="E137" s="3" t="n">
-        <v>0</v>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 18:57</t>
+        </is>
       </c>
       <c r="F137" s="3" t="inlineStr"/>
       <c r="G137" s="3" t="n">
-        <v>0</v>
+        <v>94644</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>0</v>
+        <v>69695</v>
       </c>
       <c r="I137" s="3" t="n">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="J137" s="3" t="n">
-        <v>0</v>
+        <v>67655</v>
       </c>
       <c r="K137" s="3" t="inlineStr"/>
       <c r="L137" s="3" t="n">
-        <v>0</v>
+        <v>21140</v>
       </c>
       <c r="M137" s="3" t="n">
-        <v>0</v>
+        <v>11489</v>
       </c>
       <c r="N137" s="3" t="n">
-        <v>0</v>
+        <v>14682</v>
       </c>
       <c r="O137" s="3" t="n">
-        <v>0</v>
+        <v>16960</v>
       </c>
     </row>
     <row r="138">
@@ -7037,34 +7197,36 @@
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr"/>
-      <c r="E138" s="3" t="n">
-        <v>0</v>
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 19:06</t>
+        </is>
       </c>
       <c r="F138" s="3" t="inlineStr"/>
       <c r="G138" s="3" t="n">
-        <v>0</v>
+        <v>99307</v>
       </c>
       <c r="H138" s="3" t="n">
-        <v>0</v>
+        <v>67745</v>
       </c>
       <c r="I138" s="3" t="n">
-        <v>0</v>
+        <v>1247</v>
       </c>
       <c r="J138" s="3" t="n">
-        <v>0</v>
+        <v>66498</v>
       </c>
       <c r="K138" s="3" t="inlineStr"/>
       <c r="L138" s="3" t="n">
-        <v>0</v>
+        <v>26691</v>
       </c>
       <c r="M138" s="3" t="n">
-        <v>0</v>
+        <v>16401</v>
       </c>
       <c r="N138" s="3" t="n">
-        <v>0</v>
+        <v>12108</v>
       </c>
       <c r="O138" s="3" t="n">
-        <v>0</v>
+        <v>7972</v>
       </c>
     </row>
     <row r="139">
@@ -7084,34 +7246,36 @@
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr"/>
-      <c r="E139" s="3" t="n">
-        <v>0</v>
+      <c r="E139" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 13:10</t>
+        </is>
       </c>
       <c r="F139" s="3" t="inlineStr"/>
       <c r="G139" s="3" t="n">
-        <v>0</v>
+        <v>73844</v>
       </c>
       <c r="H139" s="3" t="n">
-        <v>0</v>
+        <v>57788</v>
       </c>
       <c r="I139" s="3" t="n">
-        <v>0</v>
+        <v>1583</v>
       </c>
       <c r="J139" s="3" t="n">
-        <v>0</v>
+        <v>56205</v>
       </c>
       <c r="K139" s="3" t="inlineStr"/>
       <c r="L139" s="3" t="n">
-        <v>0</v>
+        <v>23347</v>
       </c>
       <c r="M139" s="3" t="n">
-        <v>0</v>
+        <v>12970</v>
       </c>
       <c r="N139" s="3" t="n">
-        <v>0</v>
+        <v>9495</v>
       </c>
       <c r="O139" s="3" t="n">
-        <v>0</v>
+        <v>7581</v>
       </c>
     </row>
     <row r="140">
@@ -7133,34 +7297,34 @@
       <c r="D140" s="3" t="inlineStr"/>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 18:17</t>
+          <t>2024-09-10 12:43</t>
         </is>
       </c>
       <c r="F140" s="3" t="inlineStr"/>
       <c r="G140" s="3" t="n">
-        <v>157613</v>
+        <v>156156</v>
       </c>
       <c r="H140" s="3" t="n">
-        <v>136333</v>
+        <v>134956</v>
       </c>
       <c r="I140" s="3" t="n">
-        <v>2801</v>
+        <v>1360</v>
       </c>
       <c r="J140" s="3" t="n">
-        <v>133532</v>
+        <v>133596</v>
       </c>
       <c r="K140" s="3" t="inlineStr"/>
       <c r="L140" s="3" t="n">
-        <v>35264</v>
+        <v>45868</v>
       </c>
       <c r="M140" s="3" t="n">
-        <v>31314</v>
+        <v>29601</v>
       </c>
       <c r="N140" s="3" t="n">
-        <v>37437</v>
+        <v>28427</v>
       </c>
       <c r="O140" s="3" t="n">
-        <v>22839</v>
+        <v>23019</v>
       </c>
     </row>
     <row r="141">
@@ -7180,34 +7344,36 @@
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr"/>
-      <c r="E141" s="3" t="n">
-        <v>0</v>
+      <c r="E141" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 17:11</t>
+        </is>
       </c>
       <c r="F141" s="3" t="inlineStr"/>
       <c r="G141" s="3" t="n">
-        <v>0</v>
+        <v>129115</v>
       </c>
       <c r="H141" s="3" t="n">
-        <v>0</v>
+        <v>103479</v>
       </c>
       <c r="I141" s="3" t="n">
-        <v>0</v>
+        <v>1063</v>
       </c>
       <c r="J141" s="3" t="n">
-        <v>0</v>
+        <v>102416</v>
       </c>
       <c r="K141" s="3" t="inlineStr"/>
       <c r="L141" s="3" t="n">
-        <v>0</v>
+        <v>36718</v>
       </c>
       <c r="M141" s="3" t="n">
-        <v>0</v>
+        <v>23832</v>
       </c>
       <c r="N141" s="3" t="n">
-        <v>0</v>
+        <v>26097</v>
       </c>
       <c r="O141" s="3" t="n">
-        <v>0</v>
+        <v>10646</v>
       </c>
     </row>
     <row r="142">
@@ -7227,34 +7393,36 @@
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr"/>
-      <c r="E142" s="3" t="n">
-        <v>0</v>
+      <c r="E142" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 08:46</t>
+        </is>
       </c>
       <c r="F142" s="3" t="inlineStr"/>
       <c r="G142" s="3" t="n">
-        <v>0</v>
+        <v>133834</v>
       </c>
       <c r="H142" s="3" t="n">
-        <v>0</v>
+        <v>112393</v>
       </c>
       <c r="I142" s="3" t="n">
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="J142" s="3" t="n">
-        <v>0</v>
+        <v>111001</v>
       </c>
       <c r="K142" s="3" t="inlineStr"/>
       <c r="L142" s="3" t="n">
-        <v>0</v>
+        <v>45691</v>
       </c>
       <c r="M142" s="3" t="n">
-        <v>0</v>
+        <v>32026</v>
       </c>
       <c r="N142" s="3" t="n">
-        <v>0</v>
+        <v>13395</v>
       </c>
       <c r="O142" s="3" t="n">
-        <v>0</v>
+        <v>14337</v>
       </c>
     </row>
     <row r="143">
@@ -7274,34 +7442,36 @@
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr"/>
-      <c r="E143" s="3" t="n">
-        <v>0</v>
+      <c r="E143" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 17:34</t>
+        </is>
       </c>
       <c r="F143" s="3" t="inlineStr"/>
       <c r="G143" s="3" t="n">
-        <v>0</v>
+        <v>98398</v>
       </c>
       <c r="H143" s="3" t="n">
-        <v>0</v>
+        <v>82456</v>
       </c>
       <c r="I143" s="3" t="n">
-        <v>0</v>
+        <v>2467</v>
       </c>
       <c r="J143" s="3" t="n">
-        <v>0</v>
+        <v>79989</v>
       </c>
       <c r="K143" s="3" t="inlineStr"/>
       <c r="L143" s="3" t="n">
-        <v>0</v>
+        <v>23559</v>
       </c>
       <c r="M143" s="3" t="n">
-        <v>0</v>
+        <v>13521</v>
       </c>
       <c r="N143" s="3" t="n">
-        <v>0</v>
+        <v>23141</v>
       </c>
       <c r="O143" s="3" t="n">
-        <v>0</v>
+        <v>15766</v>
       </c>
     </row>
     <row r="144">
@@ -7321,34 +7491,36 @@
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr"/>
-      <c r="E144" s="3" t="n">
-        <v>0</v>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 11:40</t>
+        </is>
       </c>
       <c r="F144" s="3" t="inlineStr"/>
       <c r="G144" s="3" t="n">
-        <v>0</v>
+        <v>120529</v>
       </c>
       <c r="H144" s="3" t="n">
-        <v>0</v>
+        <v>94164</v>
       </c>
       <c r="I144" s="3" t="n">
-        <v>0</v>
+        <v>2369</v>
       </c>
       <c r="J144" s="3" t="n">
-        <v>0</v>
+        <v>91795</v>
       </c>
       <c r="K144" s="3" t="inlineStr"/>
       <c r="L144" s="3" t="n">
-        <v>0</v>
+        <v>34283</v>
       </c>
       <c r="M144" s="3" t="n">
-        <v>0</v>
+        <v>21473</v>
       </c>
       <c r="N144" s="3" t="n">
-        <v>0</v>
+        <v>14160</v>
       </c>
       <c r="O144" s="3" t="n">
-        <v>0</v>
+        <v>17286</v>
       </c>
     </row>
     <row r="145">
@@ -7370,34 +7542,34 @@
       <c r="D145" s="3" t="inlineStr"/>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 11:11</t>
+          <t>2024-09-10 12:18</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr"/>
       <c r="G145" s="3" t="n">
-        <v>85419</v>
+        <v>88999</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>58805</v>
+        <v>78552</v>
       </c>
       <c r="I145" s="3" t="n">
-        <v>1458</v>
+        <v>1299</v>
       </c>
       <c r="J145" s="3" t="n">
-        <v>57347</v>
+        <v>77253</v>
       </c>
       <c r="K145" s="3" t="inlineStr"/>
       <c r="L145" s="3" t="n">
-        <v>17676</v>
+        <v>17424</v>
       </c>
       <c r="M145" s="3" t="n">
-        <v>9425</v>
+        <v>23067</v>
       </c>
       <c r="N145" s="3" t="n">
-        <v>14541</v>
+        <v>16624</v>
       </c>
       <c r="O145" s="3" t="n">
-        <v>12836</v>
+        <v>16273</v>
       </c>
     </row>
     <row r="146">
@@ -7419,34 +7591,34 @@
       <c r="D146" s="3" t="inlineStr"/>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 11:19</t>
+          <t>2024-09-10 09:08</t>
         </is>
       </c>
       <c r="F146" s="3" t="inlineStr"/>
       <c r="G146" s="3" t="n">
-        <v>87336</v>
+        <v>86893</v>
       </c>
       <c r="H146" s="3" t="n">
-        <v>59017</v>
+        <v>59915</v>
       </c>
       <c r="I146" s="3" t="n">
-        <v>626</v>
+        <v>1222</v>
       </c>
       <c r="J146" s="3" t="n">
-        <v>58391</v>
+        <v>58693</v>
       </c>
       <c r="K146" s="3" t="inlineStr"/>
       <c r="L146" s="3" t="n">
-        <v>17247</v>
+        <v>12939</v>
       </c>
       <c r="M146" s="3" t="n">
-        <v>16735</v>
+        <v>12026</v>
       </c>
       <c r="N146" s="3" t="n">
-        <v>6202</v>
+        <v>17280</v>
       </c>
       <c r="O146" s="3" t="n">
-        <v>15286</v>
+        <v>13511</v>
       </c>
     </row>
     <row r="147">
@@ -7466,34 +7638,36 @@
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr"/>
-      <c r="E147" s="3" t="n">
-        <v>0</v>
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 13:17</t>
+        </is>
       </c>
       <c r="F147" s="3" t="inlineStr"/>
       <c r="G147" s="3" t="n">
-        <v>0</v>
+        <v>100594</v>
       </c>
       <c r="H147" s="3" t="n">
-        <v>0</v>
+        <v>87653</v>
       </c>
       <c r="I147" s="3" t="n">
-        <v>0</v>
+        <v>2519</v>
       </c>
       <c r="J147" s="3" t="n">
-        <v>0</v>
+        <v>85134</v>
       </c>
       <c r="K147" s="3" t="inlineStr"/>
       <c r="L147" s="3" t="n">
-        <v>0</v>
+        <v>18119</v>
       </c>
       <c r="M147" s="3" t="n">
-        <v>0</v>
+        <v>33588</v>
       </c>
       <c r="N147" s="3" t="n">
-        <v>0</v>
+        <v>25554</v>
       </c>
       <c r="O147" s="3" t="n">
-        <v>0</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="148">
@@ -7515,34 +7689,34 @@
       <c r="D148" s="3" t="inlineStr"/>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 12:08</t>
+          <t>2024-09-10 10:36</t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr"/>
       <c r="G148" s="3" t="n">
-        <v>103787</v>
+        <v>112580</v>
       </c>
       <c r="H148" s="3" t="n">
-        <v>77520</v>
+        <v>81208</v>
       </c>
       <c r="I148" s="3" t="n">
-        <v>2066</v>
+        <v>1940</v>
       </c>
       <c r="J148" s="3" t="n">
-        <v>75454</v>
+        <v>79268</v>
       </c>
       <c r="K148" s="3" t="inlineStr"/>
       <c r="L148" s="3" t="n">
-        <v>27560</v>
+        <v>18848</v>
       </c>
       <c r="M148" s="3" t="n">
-        <v>19827</v>
+        <v>25215</v>
       </c>
       <c r="N148" s="3" t="n">
-        <v>12772</v>
+        <v>25101</v>
       </c>
       <c r="O148" s="3" t="n">
-        <v>11520</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="149">
@@ -7562,34 +7736,36 @@
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr"/>
-      <c r="E149" s="3" t="n">
-        <v>0</v>
+      <c r="E149" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 13:24</t>
+        </is>
       </c>
       <c r="F149" s="3" t="inlineStr"/>
       <c r="G149" s="3" t="n">
-        <v>0</v>
+        <v>124864</v>
       </c>
       <c r="H149" s="3" t="n">
-        <v>0</v>
+        <v>102821</v>
       </c>
       <c r="I149" s="3" t="n">
-        <v>0</v>
+        <v>2777</v>
       </c>
       <c r="J149" s="3" t="n">
-        <v>0</v>
+        <v>100044</v>
       </c>
       <c r="K149" s="3" t="inlineStr"/>
       <c r="L149" s="3" t="n">
-        <v>0</v>
+        <v>23386</v>
       </c>
       <c r="M149" s="3" t="n">
-        <v>0</v>
+        <v>35451</v>
       </c>
       <c r="N149" s="3" t="n">
-        <v>0</v>
+        <v>30631</v>
       </c>
       <c r="O149" s="3" t="n">
-        <v>0</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="150">
@@ -7609,34 +7785,36 @@
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr"/>
-      <c r="E150" s="3" t="n">
-        <v>0</v>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 12:57</t>
+        </is>
       </c>
       <c r="F150" s="3" t="inlineStr"/>
       <c r="G150" s="3" t="n">
-        <v>0</v>
+        <v>70200</v>
       </c>
       <c r="H150" s="3" t="n">
-        <v>0</v>
+        <v>54279</v>
       </c>
       <c r="I150" s="3" t="n">
-        <v>0</v>
+        <v>1503</v>
       </c>
       <c r="J150" s="3" t="n">
-        <v>0</v>
+        <v>52776</v>
       </c>
       <c r="K150" s="3" t="inlineStr"/>
       <c r="L150" s="3" t="n">
-        <v>0</v>
+        <v>17508</v>
       </c>
       <c r="M150" s="3" t="n">
-        <v>0</v>
+        <v>11713</v>
       </c>
       <c r="N150" s="3" t="n">
-        <v>0</v>
+        <v>14367</v>
       </c>
       <c r="O150" s="3" t="n">
-        <v>0</v>
+        <v>6547</v>
       </c>
     </row>
     <row r="151">
@@ -7656,34 +7834,36 @@
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr"/>
-      <c r="E151" s="3" t="n">
-        <v>0</v>
+      <c r="E151" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 15:01</t>
+        </is>
       </c>
       <c r="F151" s="3" t="inlineStr"/>
       <c r="G151" s="3" t="n">
-        <v>0</v>
+        <v>88627</v>
       </c>
       <c r="H151" s="3" t="n">
-        <v>0</v>
+        <v>76912</v>
       </c>
       <c r="I151" s="3" t="n">
-        <v>0</v>
+        <v>949</v>
       </c>
       <c r="J151" s="3" t="n">
-        <v>0</v>
+        <v>75963</v>
       </c>
       <c r="K151" s="3" t="inlineStr"/>
       <c r="L151" s="3" t="n">
-        <v>0</v>
+        <v>23519</v>
       </c>
       <c r="M151" s="3" t="n">
-        <v>0</v>
+        <v>12555</v>
       </c>
       <c r="N151" s="3" t="n">
-        <v>0</v>
+        <v>17132</v>
       </c>
       <c r="O151" s="3" t="n">
-        <v>0</v>
+        <v>18957</v>
       </c>
     </row>
     <row r="152">
@@ -7703,34 +7883,36 @@
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr"/>
-      <c r="E152" s="3" t="n">
-        <v>0</v>
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:28</t>
+        </is>
       </c>
       <c r="F152" s="3" t="inlineStr"/>
       <c r="G152" s="3" t="n">
-        <v>0</v>
+        <v>91773</v>
       </c>
       <c r="H152" s="3" t="n">
-        <v>0</v>
+        <v>57158</v>
       </c>
       <c r="I152" s="3" t="n">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="J152" s="3" t="n">
-        <v>0</v>
+        <v>55971</v>
       </c>
       <c r="K152" s="3" t="inlineStr"/>
       <c r="L152" s="3" t="n">
-        <v>0</v>
+        <v>16136</v>
       </c>
       <c r="M152" s="3" t="n">
-        <v>0</v>
+        <v>11642</v>
       </c>
       <c r="N152" s="3" t="n">
-        <v>0</v>
+        <v>16071</v>
       </c>
       <c r="O152" s="3" t="n">
-        <v>0</v>
+        <v>9321</v>
       </c>
     </row>
     <row r="153">
@@ -7750,34 +7932,36 @@
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr"/>
-      <c r="E153" s="3" t="n">
-        <v>0</v>
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 14:47</t>
+        </is>
       </c>
       <c r="F153" s="3" t="inlineStr"/>
       <c r="G153" s="3" t="n">
-        <v>0</v>
+        <v>79662</v>
       </c>
       <c r="H153" s="3" t="n">
-        <v>0</v>
+        <v>58850</v>
       </c>
       <c r="I153" s="3" t="n">
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="J153" s="3" t="n">
-        <v>0</v>
+        <v>57470</v>
       </c>
       <c r="K153" s="3" t="inlineStr"/>
       <c r="L153" s="3" t="n">
-        <v>0</v>
+        <v>18939</v>
       </c>
       <c r="M153" s="3" t="n">
-        <v>0</v>
+        <v>10589</v>
       </c>
       <c r="N153" s="3" t="n">
-        <v>0</v>
+        <v>20950</v>
       </c>
       <c r="O153" s="3" t="n">
-        <v>0</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="154">
@@ -7799,34 +7983,34 @@
       <c r="D154" s="3" t="inlineStr"/>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 11:55</t>
+          <t>2024-09-10 15:18</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr"/>
       <c r="G154" s="3" t="n">
-        <v>154723</v>
+        <v>161640</v>
       </c>
       <c r="H154" s="3" t="n">
-        <v>137931</v>
+        <v>107467</v>
       </c>
       <c r="I154" s="3" t="n">
-        <v>2791</v>
+        <v>3082</v>
       </c>
       <c r="J154" s="3" t="n">
-        <v>135140</v>
+        <v>104385</v>
       </c>
       <c r="K154" s="3" t="inlineStr"/>
       <c r="L154" s="3" t="n">
-        <v>38611</v>
+        <v>36758</v>
       </c>
       <c r="M154" s="3" t="n">
-        <v>58695</v>
+        <v>34393</v>
       </c>
       <c r="N154" s="3" t="n">
-        <v>26710</v>
+        <v>19517</v>
       </c>
       <c r="O154" s="3" t="n">
-        <v>4365</v>
+        <v>8495</v>
       </c>
     </row>
     <row r="155">
@@ -7846,34 +8030,36 @@
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr"/>
-      <c r="E155" s="3" t="n">
-        <v>0</v>
+      <c r="E155" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 11:16</t>
+        </is>
       </c>
       <c r="F155" s="3" t="inlineStr"/>
       <c r="G155" s="3" t="n">
-        <v>0</v>
+        <v>107775</v>
       </c>
       <c r="H155" s="3" t="n">
-        <v>0</v>
+        <v>79954</v>
       </c>
       <c r="I155" s="3" t="n">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="J155" s="3" t="n">
-        <v>0</v>
+        <v>79086</v>
       </c>
       <c r="K155" s="3" t="inlineStr"/>
       <c r="L155" s="3" t="n">
-        <v>0</v>
+        <v>23545</v>
       </c>
       <c r="M155" s="3" t="n">
-        <v>0</v>
+        <v>14579</v>
       </c>
       <c r="N155" s="3" t="n">
-        <v>0</v>
+        <v>13343</v>
       </c>
       <c r="O155" s="3" t="n">
-        <v>0</v>
+        <v>23662</v>
       </c>
     </row>
     <row r="156">
@@ -7893,34 +8079,36 @@
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr"/>
-      <c r="E156" s="3" t="n">
-        <v>0</v>
+      <c r="E156" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 12:39</t>
+        </is>
       </c>
       <c r="F156" s="3" t="inlineStr"/>
       <c r="G156" s="3" t="n">
-        <v>0</v>
+        <v>54194</v>
       </c>
       <c r="H156" s="3" t="n">
-        <v>0</v>
+        <v>44833</v>
       </c>
       <c r="I156" s="3" t="n">
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="J156" s="3" t="n">
-        <v>0</v>
+        <v>43763</v>
       </c>
       <c r="K156" s="3" t="inlineStr"/>
       <c r="L156" s="3" t="n">
-        <v>0</v>
+        <v>13208</v>
       </c>
       <c r="M156" s="3" t="n">
-        <v>0</v>
+        <v>10396</v>
       </c>
       <c r="N156" s="3" t="n">
-        <v>0</v>
+        <v>14996</v>
       </c>
       <c r="O156" s="3" t="n">
-        <v>0</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="157">
@@ -7940,34 +8128,36 @@
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr"/>
-      <c r="E157" s="3" t="n">
-        <v>0</v>
+      <c r="E157" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 10:23</t>
+        </is>
       </c>
       <c r="F157" s="3" t="inlineStr"/>
       <c r="G157" s="3" t="n">
-        <v>0</v>
+        <v>66968</v>
       </c>
       <c r="H157" s="3" t="n">
-        <v>0</v>
+        <v>55523</v>
       </c>
       <c r="I157" s="3" t="n">
-        <v>0</v>
+        <v>884</v>
       </c>
       <c r="J157" s="3" t="n">
-        <v>0</v>
+        <v>54639</v>
       </c>
       <c r="K157" s="3" t="inlineStr"/>
       <c r="L157" s="3" t="n">
-        <v>0</v>
+        <v>14147</v>
       </c>
       <c r="M157" s="3" t="n">
-        <v>0</v>
+        <v>17061</v>
       </c>
       <c r="N157" s="3" t="n">
-        <v>0</v>
+        <v>9614</v>
       </c>
       <c r="O157" s="3" t="n">
-        <v>0</v>
+        <v>11083</v>
       </c>
     </row>
     <row r="158">
@@ -7987,34 +8177,36 @@
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr"/>
-      <c r="E158" s="3" t="n">
-        <v>0</v>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 14:14</t>
+        </is>
       </c>
       <c r="F158" s="3" t="inlineStr"/>
       <c r="G158" s="3" t="n">
-        <v>0</v>
+        <v>54332</v>
       </c>
       <c r="H158" s="3" t="n">
-        <v>0</v>
+        <v>33695</v>
       </c>
       <c r="I158" s="3" t="n">
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="J158" s="3" t="n">
-        <v>0</v>
+        <v>32765</v>
       </c>
       <c r="K158" s="3" t="inlineStr"/>
       <c r="L158" s="3" t="n">
-        <v>0</v>
+        <v>12982</v>
       </c>
       <c r="M158" s="3" t="n">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="N158" s="3" t="n">
-        <v>0</v>
+        <v>6274</v>
       </c>
       <c r="O158" s="3" t="n">
-        <v>0</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="159">
@@ -8034,34 +8226,36 @@
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr"/>
-      <c r="E159" s="3" t="n">
-        <v>0</v>
+      <c r="E159" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 13:06</t>
+        </is>
       </c>
       <c r="F159" s="3" t="inlineStr"/>
       <c r="G159" s="3" t="n">
-        <v>0</v>
+        <v>73236</v>
       </c>
       <c r="H159" s="3" t="n">
-        <v>0</v>
+        <v>56173</v>
       </c>
       <c r="I159" s="3" t="n">
-        <v>0</v>
+        <v>797</v>
       </c>
       <c r="J159" s="3" t="n">
-        <v>0</v>
+        <v>55376</v>
       </c>
       <c r="K159" s="3" t="inlineStr"/>
       <c r="L159" s="3" t="n">
-        <v>0</v>
+        <v>12269</v>
       </c>
       <c r="M159" s="3" t="n">
-        <v>0</v>
+        <v>24176</v>
       </c>
       <c r="N159" s="3" t="n">
-        <v>0</v>
+        <v>6867</v>
       </c>
       <c r="O159" s="3" t="n">
-        <v>0</v>
+        <v>9294</v>
       </c>
     </row>
     <row r="160">
@@ -8083,34 +8277,34 @@
       <c r="D160" s="3" t="inlineStr"/>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:25</t>
+          <t>2024-09-10 09:04</t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr"/>
       <c r="G160" s="3" t="n">
-        <v>66577</v>
+        <v>62762</v>
       </c>
       <c r="H160" s="3" t="n">
-        <v>50463</v>
+        <v>41710</v>
       </c>
       <c r="I160" s="3" t="n">
-        <v>1344</v>
+        <v>444</v>
       </c>
       <c r="J160" s="3" t="n">
-        <v>49119</v>
+        <v>41266</v>
       </c>
       <c r="K160" s="3" t="inlineStr"/>
       <c r="L160" s="3" t="n">
-        <v>15503</v>
+        <v>10709</v>
       </c>
       <c r="M160" s="3" t="n">
-        <v>10300</v>
+        <v>12682</v>
       </c>
       <c r="N160" s="3" t="n">
-        <v>12508</v>
+        <v>12833</v>
       </c>
       <c r="O160" s="3" t="n">
-        <v>8350</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="161">
@@ -8130,34 +8324,36 @@
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr"/>
-      <c r="E161" s="3" t="n">
-        <v>0</v>
+      <c r="E161" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 19:02</t>
+        </is>
       </c>
       <c r="F161" s="3" t="inlineStr"/>
       <c r="G161" s="3" t="n">
-        <v>0</v>
+        <v>79932</v>
       </c>
       <c r="H161" s="3" t="n">
-        <v>0</v>
+        <v>62809</v>
       </c>
       <c r="I161" s="3" t="n">
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="J161" s="3" t="n">
-        <v>0</v>
+        <v>61650</v>
       </c>
       <c r="K161" s="3" t="inlineStr"/>
       <c r="L161" s="3" t="n">
-        <v>0</v>
+        <v>26905</v>
       </c>
       <c r="M161" s="3" t="n">
-        <v>0</v>
+        <v>15138</v>
       </c>
       <c r="N161" s="3" t="n">
-        <v>0</v>
+        <v>6567</v>
       </c>
       <c r="O161" s="3" t="n">
-        <v>0</v>
+        <v>9955</v>
       </c>
     </row>
     <row r="162">
@@ -8177,34 +8373,36 @@
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr"/>
-      <c r="E162" s="3" t="n">
-        <v>0</v>
+      <c r="E162" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 13:41</t>
+        </is>
       </c>
       <c r="F162" s="3" t="inlineStr"/>
       <c r="G162" s="3" t="n">
-        <v>0</v>
+        <v>89747</v>
       </c>
       <c r="H162" s="3" t="n">
-        <v>0</v>
+        <v>79421</v>
       </c>
       <c r="I162" s="3" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="J162" s="3" t="n">
-        <v>0</v>
+        <v>78571</v>
       </c>
       <c r="K162" s="3" t="inlineStr"/>
       <c r="L162" s="3" t="n">
-        <v>0</v>
+        <v>27018</v>
       </c>
       <c r="M162" s="3" t="n">
-        <v>0</v>
+        <v>24985</v>
       </c>
       <c r="N162" s="3" t="n">
-        <v>0</v>
+        <v>20822</v>
       </c>
       <c r="O162" s="3" t="n">
-        <v>0</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="163">
@@ -8224,34 +8422,36 @@
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr"/>
-      <c r="E163" s="3" t="n">
-        <v>0</v>
+      <c r="E163" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 18:24</t>
+        </is>
       </c>
       <c r="F163" s="3" t="inlineStr"/>
       <c r="G163" s="3" t="n">
-        <v>0</v>
+        <v>69551</v>
       </c>
       <c r="H163" s="3" t="n">
-        <v>0</v>
+        <v>62225</v>
       </c>
       <c r="I163" s="3" t="n">
-        <v>0</v>
+        <v>1613</v>
       </c>
       <c r="J163" s="3" t="n">
-        <v>0</v>
+        <v>60612</v>
       </c>
       <c r="K163" s="3" t="inlineStr"/>
       <c r="L163" s="3" t="n">
-        <v>0</v>
+        <v>20329</v>
       </c>
       <c r="M163" s="3" t="n">
-        <v>0</v>
+        <v>11736</v>
       </c>
       <c r="N163" s="3" t="n">
-        <v>0</v>
+        <v>19797</v>
       </c>
       <c r="O163" s="3" t="n">
-        <v>0</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="164">
@@ -8273,34 +8473,34 @@
       <c r="D164" s="3" t="inlineStr"/>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 08:32</t>
+          <t>2024-09-10 08:32</t>
         </is>
       </c>
       <c r="F164" s="3" t="inlineStr"/>
       <c r="G164" s="3" t="n">
-        <v>83846</v>
+        <v>87162</v>
       </c>
       <c r="H164" s="3" t="n">
-        <v>67643</v>
+        <v>52980</v>
       </c>
       <c r="I164" s="3" t="n">
-        <v>1995</v>
+        <v>1147</v>
       </c>
       <c r="J164" s="3" t="n">
-        <v>65648</v>
+        <v>51833</v>
       </c>
       <c r="K164" s="3" t="inlineStr"/>
       <c r="L164" s="3" t="n">
-        <v>19957</v>
+        <v>22090</v>
       </c>
       <c r="M164" s="3" t="n">
-        <v>18362</v>
+        <v>8043</v>
       </c>
       <c r="N164" s="3" t="n">
-        <v>18714</v>
+        <v>14241</v>
       </c>
       <c r="O164" s="3" t="n">
-        <v>5330</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="165">
@@ -8320,34 +8520,36 @@
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr"/>
-      <c r="E165" s="3" t="n">
-        <v>0</v>
+      <c r="E165" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 17:36</t>
+        </is>
       </c>
       <c r="F165" s="3" t="inlineStr"/>
       <c r="G165" s="3" t="n">
-        <v>0</v>
+        <v>117149</v>
       </c>
       <c r="H165" s="3" t="n">
-        <v>0</v>
+        <v>83460</v>
       </c>
       <c r="I165" s="3" t="n">
-        <v>0</v>
+        <v>2013</v>
       </c>
       <c r="J165" s="3" t="n">
-        <v>0</v>
+        <v>81447</v>
       </c>
       <c r="K165" s="3" t="inlineStr"/>
       <c r="L165" s="3" t="n">
-        <v>0</v>
+        <v>29931</v>
       </c>
       <c r="M165" s="3" t="n">
-        <v>0</v>
+        <v>21048</v>
       </c>
       <c r="N165" s="3" t="n">
-        <v>0</v>
+        <v>15280</v>
       </c>
       <c r="O165" s="3" t="n">
-        <v>0</v>
+        <v>11113</v>
       </c>
     </row>
     <row r="166">
@@ -8367,34 +8569,36 @@
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr"/>
-      <c r="E166" s="3" t="n">
-        <v>0</v>
+      <c r="E166" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 19:14</t>
+        </is>
       </c>
       <c r="F166" s="3" t="inlineStr"/>
       <c r="G166" s="3" t="n">
-        <v>0</v>
+        <v>169727</v>
       </c>
       <c r="H166" s="3" t="n">
-        <v>0</v>
+        <v>111921</v>
       </c>
       <c r="I166" s="3" t="n">
-        <v>0</v>
+        <v>1331</v>
       </c>
       <c r="J166" s="3" t="n">
-        <v>0</v>
+        <v>110590</v>
       </c>
       <c r="K166" s="3" t="inlineStr"/>
       <c r="L166" s="3" t="n">
-        <v>0</v>
+        <v>21778</v>
       </c>
       <c r="M166" s="3" t="n">
-        <v>0</v>
+        <v>22902</v>
       </c>
       <c r="N166" s="3" t="n">
-        <v>0</v>
+        <v>33025</v>
       </c>
       <c r="O166" s="3" t="n">
-        <v>0</v>
+        <v>27354</v>
       </c>
     </row>
     <row r="167">
@@ -8414,34 +8618,36 @@
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr"/>
-      <c r="E167" s="3" t="n">
-        <v>0</v>
+      <c r="E167" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 16:15</t>
+        </is>
       </c>
       <c r="F167" s="3" t="inlineStr"/>
       <c r="G167" s="3" t="n">
-        <v>0</v>
+        <v>106931</v>
       </c>
       <c r="H167" s="3" t="n">
-        <v>0</v>
+        <v>70351</v>
       </c>
       <c r="I167" s="3" t="n">
-        <v>0</v>
+        <v>1678</v>
       </c>
       <c r="J167" s="3" t="n">
-        <v>0</v>
+        <v>68673</v>
       </c>
       <c r="K167" s="3" t="inlineStr"/>
       <c r="L167" s="3" t="n">
-        <v>0</v>
+        <v>20745</v>
       </c>
       <c r="M167" s="3" t="n">
-        <v>0</v>
+        <v>11969</v>
       </c>
       <c r="N167" s="3" t="n">
-        <v>0</v>
+        <v>16577</v>
       </c>
       <c r="O167" s="3" t="n">
-        <v>0</v>
+        <v>15946</v>
       </c>
     </row>
     <row r="168">
@@ -8463,34 +8669,34 @@
       <c r="D168" s="3" t="inlineStr"/>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 16:17</t>
+          <t>2024-09-10 13:39</t>
         </is>
       </c>
       <c r="F168" s="3" t="inlineStr"/>
       <c r="G168" s="3" t="n">
-        <v>127551</v>
+        <v>128754</v>
       </c>
       <c r="H168" s="3" t="n">
-        <v>91269</v>
+        <v>82066</v>
       </c>
       <c r="I168" s="3" t="n">
-        <v>2380</v>
+        <v>1837</v>
       </c>
       <c r="J168" s="3" t="n">
-        <v>88889</v>
+        <v>80229</v>
       </c>
       <c r="K168" s="3" t="inlineStr"/>
       <c r="L168" s="3" t="n">
-        <v>30991</v>
+        <v>25400</v>
       </c>
       <c r="M168" s="3" t="n">
-        <v>14059</v>
+        <v>16229</v>
       </c>
       <c r="N168" s="3" t="n">
-        <v>20642</v>
+        <v>9682</v>
       </c>
       <c r="O168" s="3" t="n">
-        <v>18751</v>
+        <v>24905</v>
       </c>
     </row>
     <row r="169">
@@ -8512,34 +8718,34 @@
       <c r="D169" s="3" t="inlineStr"/>
       <c r="E169" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 19:32</t>
+          <t>2024-09-10 10:57</t>
         </is>
       </c>
       <c r="F169" s="3" t="inlineStr"/>
       <c r="G169" s="3" t="n">
-        <v>94868</v>
+        <v>98410</v>
       </c>
       <c r="H169" s="3" t="n">
-        <v>67170</v>
+        <v>68142</v>
       </c>
       <c r="I169" s="3" t="n">
-        <v>1826</v>
+        <v>1009</v>
       </c>
       <c r="J169" s="3" t="n">
-        <v>65344</v>
+        <v>67133</v>
       </c>
       <c r="K169" s="3" t="inlineStr"/>
       <c r="L169" s="3" t="n">
-        <v>17833</v>
+        <v>24753</v>
       </c>
       <c r="M169" s="3" t="n">
-        <v>18278</v>
+        <v>7979</v>
       </c>
       <c r="N169" s="3" t="n">
-        <v>12592</v>
+        <v>16351</v>
       </c>
       <c r="O169" s="3" t="n">
-        <v>13372</v>
+        <v>14691</v>
       </c>
     </row>
     <row r="170">
@@ -8559,34 +8765,36 @@
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr"/>
-      <c r="E170" s="3" t="n">
-        <v>0</v>
+      <c r="E170" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 11:48</t>
+        </is>
       </c>
       <c r="F170" s="3" t="inlineStr"/>
       <c r="G170" s="3" t="n">
-        <v>0</v>
+        <v>119854</v>
       </c>
       <c r="H170" s="3" t="n">
-        <v>0</v>
+        <v>75124</v>
       </c>
       <c r="I170" s="3" t="n">
-        <v>0</v>
+        <v>1963</v>
       </c>
       <c r="J170" s="3" t="n">
-        <v>0</v>
+        <v>73161</v>
       </c>
       <c r="K170" s="3" t="inlineStr"/>
       <c r="L170" s="3" t="n">
-        <v>0</v>
+        <v>29654</v>
       </c>
       <c r="M170" s="3" t="n">
-        <v>0</v>
+        <v>12479</v>
       </c>
       <c r="N170" s="3" t="n">
-        <v>0</v>
+        <v>10151</v>
       </c>
       <c r="O170" s="3" t="n">
-        <v>0</v>
+        <v>17216</v>
       </c>
     </row>
     <row r="171">
@@ -8608,34 +8816,34 @@
       <c r="D171" s="3" t="inlineStr"/>
       <c r="E171" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:21</t>
+          <t>2024-09-10 19:35</t>
         </is>
       </c>
       <c r="F171" s="3" t="inlineStr"/>
       <c r="G171" s="3" t="n">
-        <v>110352</v>
+        <v>113044</v>
       </c>
       <c r="H171" s="3" t="n">
-        <v>92542</v>
+        <v>79935</v>
       </c>
       <c r="I171" s="3" t="n">
-        <v>1749</v>
+        <v>997</v>
       </c>
       <c r="J171" s="3" t="n">
-        <v>90793</v>
+        <v>78938</v>
       </c>
       <c r="K171" s="3" t="inlineStr"/>
       <c r="L171" s="3" t="n">
-        <v>31000</v>
+        <v>28944</v>
       </c>
       <c r="M171" s="3" t="n">
-        <v>24706</v>
+        <v>24939</v>
       </c>
       <c r="N171" s="3" t="n">
-        <v>11053</v>
+        <v>11927</v>
       </c>
       <c r="O171" s="3" t="n">
-        <v>19492</v>
+        <v>9179</v>
       </c>
     </row>
     <row r="172">
@@ -8657,34 +8865,34 @@
       <c r="D172" s="3" t="inlineStr"/>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 18:43</t>
+          <t>2024-09-10 16:23</t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr"/>
       <c r="G172" s="3" t="n">
-        <v>102657</v>
+        <v>106115</v>
       </c>
       <c r="H172" s="3" t="n">
-        <v>71770</v>
+        <v>89215</v>
       </c>
       <c r="I172" s="3" t="n">
-        <v>2131</v>
+        <v>2222</v>
       </c>
       <c r="J172" s="3" t="n">
-        <v>69639</v>
+        <v>86993</v>
       </c>
       <c r="K172" s="3" t="inlineStr"/>
       <c r="L172" s="3" t="n">
-        <v>18287</v>
+        <v>30068</v>
       </c>
       <c r="M172" s="3" t="n">
-        <v>27447</v>
+        <v>11174</v>
       </c>
       <c r="N172" s="3" t="n">
-        <v>10155</v>
+        <v>25129</v>
       </c>
       <c r="O172" s="3" t="n">
-        <v>10266</v>
+        <v>16270</v>
       </c>
     </row>
     <row r="173">
@@ -8704,34 +8912,36 @@
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr"/>
-      <c r="E173" s="3" t="n">
-        <v>0</v>
+      <c r="E173" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 17:58</t>
+        </is>
       </c>
       <c r="F173" s="3" t="inlineStr"/>
       <c r="G173" s="3" t="n">
-        <v>0</v>
+        <v>72052</v>
       </c>
       <c r="H173" s="3" t="n">
-        <v>0</v>
+        <v>59824</v>
       </c>
       <c r="I173" s="3" t="n">
-        <v>0</v>
+        <v>1452</v>
       </c>
       <c r="J173" s="3" t="n">
-        <v>0</v>
+        <v>58372</v>
       </c>
       <c r="K173" s="3" t="inlineStr"/>
       <c r="L173" s="3" t="n">
-        <v>0</v>
+        <v>20596</v>
       </c>
       <c r="M173" s="3" t="n">
-        <v>0</v>
+        <v>8036</v>
       </c>
       <c r="N173" s="3" t="n">
-        <v>0</v>
+        <v>12963</v>
       </c>
       <c r="O173" s="3" t="n">
-        <v>0</v>
+        <v>13857</v>
       </c>
     </row>
     <row r="174">
@@ -8753,34 +8963,34 @@
       <c r="D174" s="3" t="inlineStr"/>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 10:14</t>
+          <t>2024-09-10 14:02</t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr"/>
       <c r="G174" s="3" t="n">
-        <v>156797</v>
+        <v>150156</v>
       </c>
       <c r="H174" s="3" t="n">
-        <v>114599</v>
+        <v>104478</v>
       </c>
       <c r="I174" s="3" t="n">
-        <v>2853</v>
+        <v>3039</v>
       </c>
       <c r="J174" s="3" t="n">
-        <v>111746</v>
+        <v>101439</v>
       </c>
       <c r="K174" s="3" t="inlineStr"/>
       <c r="L174" s="3" t="n">
-        <v>46626</v>
+        <v>49034</v>
       </c>
       <c r="M174" s="3" t="n">
-        <v>20625</v>
+        <v>17844</v>
       </c>
       <c r="N174" s="3" t="n">
-        <v>28795</v>
+        <v>12659</v>
       </c>
       <c r="O174" s="3" t="n">
-        <v>10111</v>
+        <v>16829</v>
       </c>
     </row>
     <row r="175">
@@ -8800,34 +9010,36 @@
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr"/>
-      <c r="E175" s="3" t="n">
-        <v>0</v>
+      <c r="E175" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 11:53</t>
+        </is>
       </c>
       <c r="F175" s="3" t="inlineStr"/>
       <c r="G175" s="3" t="n">
-        <v>0</v>
+        <v>95528</v>
       </c>
       <c r="H175" s="3" t="n">
-        <v>0</v>
+        <v>59828</v>
       </c>
       <c r="I175" s="3" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="J175" s="3" t="n">
-        <v>0</v>
+        <v>58478</v>
       </c>
       <c r="K175" s="3" t="inlineStr"/>
       <c r="L175" s="3" t="n">
-        <v>0</v>
+        <v>23075</v>
       </c>
       <c r="M175" s="3" t="n">
-        <v>0</v>
+        <v>21279</v>
       </c>
       <c r="N175" s="3" t="n">
-        <v>0</v>
+        <v>8986</v>
       </c>
       <c r="O175" s="3" t="n">
-        <v>0</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="176">
@@ -8847,34 +9059,36 @@
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr"/>
-      <c r="E176" s="3" t="n">
-        <v>0</v>
+      <c r="E176" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 17:23</t>
+        </is>
       </c>
       <c r="F176" s="3" t="inlineStr"/>
       <c r="G176" s="3" t="n">
-        <v>0</v>
+        <v>71858</v>
       </c>
       <c r="H176" s="3" t="n">
-        <v>0</v>
+        <v>52782</v>
       </c>
       <c r="I176" s="3" t="n">
-        <v>0</v>
+        <v>1168</v>
       </c>
       <c r="J176" s="3" t="n">
-        <v>0</v>
+        <v>51614</v>
       </c>
       <c r="K176" s="3" t="inlineStr"/>
       <c r="L176" s="3" t="n">
-        <v>0</v>
+        <v>23153</v>
       </c>
       <c r="M176" s="3" t="n">
-        <v>0</v>
+        <v>7540</v>
       </c>
       <c r="N176" s="3" t="n">
-        <v>0</v>
+        <v>11086</v>
       </c>
       <c r="O176" s="3" t="n">
-        <v>0</v>
+        <v>7252</v>
       </c>
     </row>
     <row r="177">
@@ -8896,34 +9110,34 @@
       <c r="D177" s="3" t="inlineStr"/>
       <c r="E177" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 17:41</t>
+          <t>2024-09-10 16:48</t>
         </is>
       </c>
       <c r="F177" s="3" t="inlineStr"/>
       <c r="G177" s="3" t="n">
-        <v>73671</v>
+        <v>75151</v>
       </c>
       <c r="H177" s="3" t="n">
-        <v>46730</v>
+        <v>66587</v>
       </c>
       <c r="I177" s="3" t="n">
-        <v>1068</v>
+        <v>1468</v>
       </c>
       <c r="J177" s="3" t="n">
-        <v>45662</v>
+        <v>65119</v>
       </c>
       <c r="K177" s="3" t="inlineStr"/>
       <c r="L177" s="3" t="n">
-        <v>15240</v>
+        <v>21681</v>
       </c>
       <c r="M177" s="3" t="n">
-        <v>19968</v>
+        <v>15019</v>
       </c>
       <c r="N177" s="3" t="n">
-        <v>6416</v>
+        <v>11132</v>
       </c>
       <c r="O177" s="3" t="n">
-        <v>1753</v>
+        <v>14029</v>
       </c>
     </row>
     <row r="178">
@@ -8945,34 +9159,34 @@
       <c r="D178" s="3" t="inlineStr"/>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:42</t>
+          <t>2024-09-10 16:07</t>
         </is>
       </c>
       <c r="F178" s="3" t="inlineStr"/>
       <c r="G178" s="3" t="n">
-        <v>67679</v>
+        <v>63935</v>
       </c>
       <c r="H178" s="3" t="n">
-        <v>45661</v>
+        <v>42396</v>
       </c>
       <c r="I178" s="3" t="n">
-        <v>674</v>
+        <v>1032</v>
       </c>
       <c r="J178" s="3" t="n">
-        <v>44987</v>
+        <v>41364</v>
       </c>
       <c r="K178" s="3" t="inlineStr"/>
       <c r="L178" s="3" t="n">
-        <v>11510</v>
+        <v>12941</v>
       </c>
       <c r="M178" s="3" t="n">
-        <v>11698</v>
+        <v>12214</v>
       </c>
       <c r="N178" s="3" t="n">
-        <v>9297</v>
+        <v>6803</v>
       </c>
       <c r="O178" s="3" t="n">
-        <v>10231</v>
+        <v>7335</v>
       </c>
     </row>
     <row r="179">
@@ -8994,34 +9208,34 @@
       <c r="D179" s="3" t="inlineStr"/>
       <c r="E179" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 12:32</t>
+          <t>2024-09-10 08:51</t>
         </is>
       </c>
       <c r="F179" s="3" t="inlineStr"/>
       <c r="G179" s="3" t="n">
-        <v>101043</v>
+        <v>93846</v>
       </c>
       <c r="H179" s="3" t="n">
-        <v>86774</v>
+        <v>68732</v>
       </c>
       <c r="I179" s="3" t="n">
-        <v>1519</v>
+        <v>1940</v>
       </c>
       <c r="J179" s="3" t="n">
-        <v>85255</v>
+        <v>66792</v>
       </c>
       <c r="K179" s="3" t="inlineStr"/>
       <c r="L179" s="3" t="n">
-        <v>23657</v>
+        <v>19175</v>
       </c>
       <c r="M179" s="3" t="n">
-        <v>28707</v>
+        <v>15767</v>
       </c>
       <c r="N179" s="3" t="n">
-        <v>23097</v>
+        <v>12498</v>
       </c>
       <c r="O179" s="3" t="n">
-        <v>5529</v>
+        <v>16011</v>
       </c>
     </row>
     <row r="180">
@@ -9041,34 +9255,36 @@
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr"/>
-      <c r="E180" s="3" t="n">
-        <v>0</v>
+      <c r="E180" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 14:46</t>
+        </is>
       </c>
       <c r="F180" s="3" t="inlineStr"/>
       <c r="G180" s="3" t="n">
-        <v>0</v>
+        <v>54078</v>
       </c>
       <c r="H180" s="3" t="n">
-        <v>0</v>
+        <v>43499</v>
       </c>
       <c r="I180" s="3" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="J180" s="3" t="n">
-        <v>0</v>
+        <v>43004</v>
       </c>
       <c r="K180" s="3" t="inlineStr"/>
       <c r="L180" s="3" t="n">
-        <v>0</v>
+        <v>10583</v>
       </c>
       <c r="M180" s="3" t="n">
-        <v>0</v>
+        <v>12044</v>
       </c>
       <c r="N180" s="3" t="n">
-        <v>0</v>
+        <v>7709</v>
       </c>
       <c r="O180" s="3" t="n">
-        <v>0</v>
+        <v>10516</v>
       </c>
     </row>
     <row r="181">
@@ -9090,34 +9306,34 @@
       <c r="D181" s="3" t="inlineStr"/>
       <c r="E181" s="3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:46</t>
+          <t>2024-09-10 13:56</t>
         </is>
       </c>
       <c r="F181" s="3" t="inlineStr"/>
       <c r="G181" s="3" t="n">
-        <v>76792</v>
+        <v>80777</v>
       </c>
       <c r="H181" s="3" t="n">
-        <v>51153</v>
+        <v>49735</v>
       </c>
       <c r="I181" s="3" t="n">
-        <v>964</v>
+        <v>685</v>
       </c>
       <c r="J181" s="3" t="n">
-        <v>50189</v>
+        <v>49050</v>
       </c>
       <c r="K181" s="3" t="inlineStr"/>
       <c r="L181" s="3" t="n">
-        <v>18243</v>
+        <v>16922</v>
       </c>
       <c r="M181" s="3" t="n">
-        <v>10361</v>
+        <v>14788</v>
       </c>
       <c r="N181" s="3" t="n">
-        <v>14189</v>
+        <v>13168</v>
       </c>
       <c r="O181" s="3" t="n">
-        <v>4884</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="182">
@@ -9137,34 +9353,36 @@
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr"/>
-      <c r="E182" s="3" t="n">
-        <v>0</v>
+      <c r="E182" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 10:52</t>
+        </is>
       </c>
       <c r="F182" s="3" t="inlineStr"/>
       <c r="G182" s="3" t="n">
-        <v>0</v>
+        <v>76503</v>
       </c>
       <c r="H182" s="3" t="n">
-        <v>0</v>
+        <v>60121</v>
       </c>
       <c r="I182" s="3" t="n">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="J182" s="3" t="n">
-        <v>0</v>
+        <v>59309</v>
       </c>
       <c r="K182" s="3" t="inlineStr"/>
       <c r="L182" s="3" t="n">
-        <v>0</v>
+        <v>13043</v>
       </c>
       <c r="M182" s="3" t="n">
-        <v>0</v>
+        <v>19575</v>
       </c>
       <c r="N182" s="3" t="n">
-        <v>0</v>
+        <v>10905</v>
       </c>
       <c r="O182" s="3" t="n">
-        <v>0</v>
+        <v>12819</v>
       </c>
     </row>
     <row r="183">
@@ -9184,34 +9402,36 @@
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr"/>
-      <c r="E183" s="3" t="n">
-        <v>0</v>
+      <c r="E183" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-10 15:32</t>
+        </is>
       </c>
       <c r="F183" s="3" t="inlineStr"/>
       <c r="G183" s="3" t="n">
-        <v>0</v>
+        <v>70852</v>
       </c>
       <c r="H183" s="3" t="n">
-        <v>0</v>
+        <v>50357</v>
       </c>
       <c r="I183" s="3" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="J183" s="3" t="n">
-        <v>0</v>
+        <v>49637</v>
       </c>
       <c r="K183" s="3" t="inlineStr"/>
       <c r="L183" s="3" t="n">
-        <v>0</v>
+        <v>19816</v>
       </c>
       <c r="M183" s="3" t="n">
-        <v>0</v>
+        <v>13960</v>
       </c>
       <c r="N183" s="3" t="n">
-        <v>0</v>
+        <v>7991</v>
       </c>
       <c r="O183" s="3" t="n">
-        <v>0</v>
+        <v>5387</v>
       </c>
     </row>
   </sheetData>

--- a/data/prespollsl2024.xlsx
+++ b/data/prespollsl2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O183"/>
+  <dimension ref="A1:P183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -449,6 +449,7 @@
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="8" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -497,22 +498,27 @@
       <c r="K1" s="2" t="inlineStr"/>
       <c r="L1" s="2" t="inlineStr">
         <is>
+          <t>NPP</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
           <t>SJB</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>NPP</t>
-        </is>
-      </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>UNP</t>
+          <t>IND-RW</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
     </row>
@@ -535,34 +541,37 @@
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 16:40</t>
+          <t>2024-09-16 08:54</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="n">
-        <v>38123</v>
+        <v>38296</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>32488</v>
+        <v>24306</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>784</v>
+        <v>615</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>31704</v>
+        <v>23691</v>
       </c>
       <c r="K2" s="3" t="inlineStr"/>
       <c r="L2" s="3" t="n">
-        <v>10693</v>
+        <v>6734</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>7957</v>
+        <v>5951</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>5890</v>
+        <v>2560</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>5578</v>
+        <v>5169</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>2090</v>
       </c>
     </row>
     <row r="3">
@@ -584,34 +593,37 @@
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 14:57</t>
+          <t>2024-09-16 18:33</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="n">
-        <v>55100</v>
+        <v>55620</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>37351</v>
+        <v>40715</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>509</v>
+        <v>940</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>36842</v>
+        <v>39775</v>
       </c>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="n">
-        <v>11493</v>
+        <v>10897</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>9448</v>
+        <v>6134</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>4598</v>
+        <v>9163</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>9458</v>
+        <v>4968</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>6622</v>
       </c>
     </row>
     <row r="4">
@@ -633,34 +645,37 @@
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 16:25</t>
+          <t>2024-09-16 14:44</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="n">
-        <v>41308</v>
+        <v>39107</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>25923</v>
+        <v>28164</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>400</v>
+        <v>657</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>25523</v>
+        <v>27507</v>
       </c>
       <c r="K4" s="3" t="inlineStr"/>
       <c r="L4" s="3" t="n">
-        <v>8779</v>
+        <v>5820</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>6087</v>
+        <v>7612</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>5581</v>
+        <v>4463</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>3797</v>
+        <v>3886</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>4349</v>
       </c>
     </row>
     <row r="5">
@@ -682,34 +697,37 @@
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 17:17</t>
+          <t>2024-09-16 16:15</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="n">
-        <v>54283</v>
+        <v>56205</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>35117</v>
+        <v>45147</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>929</v>
+        <v>1141</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>34188</v>
+        <v>44006</v>
       </c>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="n">
-        <v>14803</v>
+        <v>11224</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>8324</v>
+        <v>7083</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>3973</v>
+        <v>8548</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>5377</v>
+        <v>8036</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>6912</v>
       </c>
     </row>
     <row r="6">
@@ -731,34 +749,37 @@
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 16:55</t>
+          <t>2024-09-16 09:30</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="n">
-        <v>23955</v>
+        <v>23970</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>20831</v>
+        <v>15942</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>20469</v>
+        <v>15558</v>
       </c>
       <c r="K6" s="3" t="inlineStr"/>
       <c r="L6" s="3" t="n">
-        <v>4512</v>
+        <v>3021</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>6950</v>
+        <v>4684</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>2979</v>
+        <v>3435</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>5002</v>
+        <v>3355</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>283</v>
       </c>
     </row>
     <row r="7">
@@ -780,34 +801,37 @@
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:41</t>
+          <t>2024-09-16 08:12</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="n">
-        <v>20582</v>
+        <v>20759</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>16449</v>
+        <v>13605</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>475</v>
+        <v>183</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>15974</v>
+        <v>13422</v>
       </c>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="n">
-        <v>4972</v>
+        <v>2823</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>5111</v>
+        <v>2637</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>2149</v>
+        <v>3293</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>2941</v>
+        <v>2528</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>1467</v>
       </c>
     </row>
     <row r="8">
@@ -829,34 +853,37 @@
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 10:43</t>
+          <t>2024-09-16 14:17</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="n">
-        <v>42540</v>
+        <v>41673</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>31317</v>
+        <v>32464</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>826</v>
+        <v>911</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>30491</v>
+        <v>31553</v>
       </c>
       <c r="K8" s="3" t="inlineStr"/>
       <c r="L8" s="3" t="n">
-        <v>7405</v>
+        <v>7410</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>10356</v>
+        <v>7506</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>4451</v>
+        <v>4214</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>6753</v>
+        <v>6414</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>4429</v>
       </c>
     </row>
     <row r="9">
@@ -878,34 +905,37 @@
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 11:36</t>
+          <t>2024-09-16 16:53</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="n">
-        <v>29556</v>
+        <v>31844</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>26408</v>
+        <v>19732</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>26141</v>
+        <v>19505</v>
       </c>
       <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="n">
-        <v>8784</v>
+        <v>5828</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>7604</v>
+        <v>4027</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>6938</v>
+        <v>2516</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>1506</v>
+        <v>4514</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>1642</v>
       </c>
     </row>
     <row r="10">
@@ -927,34 +957,37 @@
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 13:38</t>
+          <t>2024-09-16 08:55</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="n">
-        <v>20757</v>
+        <v>22495</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>17463</v>
+        <v>13508</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>509</v>
+        <v>374</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>16954</v>
+        <v>13134</v>
       </c>
       <c r="K10" s="3" t="inlineStr"/>
       <c r="L10" s="3" t="n">
-        <v>4407</v>
+        <v>3513</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>6451</v>
+        <v>2855</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>4111</v>
+        <v>2261</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>1136</v>
+        <v>1312</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>2534</v>
       </c>
     </row>
     <row r="11">
@@ -976,34 +1009,37 @@
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:54</t>
+          <t>2024-09-16 15:12</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="n">
-        <v>26435</v>
+        <v>25436</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>20637</v>
+        <v>20136</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>364</v>
+        <v>600</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>20273</v>
+        <v>19536</v>
       </c>
       <c r="K11" s="3" t="inlineStr"/>
       <c r="L11" s="3" t="n">
-        <v>8581</v>
+        <v>2921</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>4983</v>
+        <v>4618</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>3943</v>
+        <v>5113</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>1751</v>
+        <v>3743</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>2162</v>
       </c>
     </row>
     <row r="12">
@@ -1025,34 +1061,37 @@
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 14:46</t>
+          <t>2024-09-16 11:04</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="n">
-        <v>13085</v>
+        <v>13902</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>10636</v>
+        <v>11393</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>271</v>
+        <v>144</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>10365</v>
+        <v>11249</v>
       </c>
       <c r="K12" s="3" t="inlineStr"/>
       <c r="L12" s="3" t="n">
-        <v>2887</v>
+        <v>1870</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>4214</v>
+        <v>2749</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>2313</v>
+        <v>1573</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>430</v>
+        <v>1824</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>2667</v>
       </c>
     </row>
     <row r="13">
@@ -1074,34 +1113,37 @@
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 18:12</t>
+          <t>2024-09-16 19:34</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="n">
-        <v>13689</v>
+        <v>13415</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>10253</v>
+        <v>10248</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>10064</v>
+        <v>9996</v>
       </c>
       <c r="K13" s="3" t="inlineStr"/>
       <c r="L13" s="3" t="n">
-        <v>2819</v>
+        <v>2107</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>2997</v>
+        <v>2915</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>2742</v>
+        <v>3189</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>1001</v>
+        <v>815</v>
+      </c>
+      <c r="P13" s="3" t="n">
+        <v>468</v>
       </c>
     </row>
     <row r="14">
@@ -1123,34 +1165,37 @@
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 17:39</t>
+          <t>2024-09-16 09:52</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="n">
-        <v>28702</v>
+        <v>28971</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>19090</v>
+        <v>24578</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>191</v>
+        <v>722</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>18899</v>
+        <v>23856</v>
       </c>
       <c r="K14" s="3" t="inlineStr"/>
       <c r="L14" s="3" t="n">
-        <v>6453</v>
+        <v>6207</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>4705</v>
+        <v>4227</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>4697</v>
+        <v>4551</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>2097</v>
+        <v>4123</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>3553</v>
       </c>
     </row>
     <row r="15">
@@ -1172,34 +1217,37 @@
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:22</t>
+          <t>2024-09-16 13:39</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="n">
-        <v>15929</v>
+        <v>16516</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>10532</v>
+        <v>12961</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>233</v>
+        <v>385</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>10299</v>
+        <v>12576</v>
       </c>
       <c r="K15" s="3" t="inlineStr"/>
       <c r="L15" s="3" t="n">
-        <v>3995</v>
+        <v>2118</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>1820</v>
+        <v>3297</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>2500</v>
+        <v>1857</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>1467</v>
+        <v>2362</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>2312</v>
       </c>
     </row>
     <row r="16">
@@ -1221,34 +1269,37 @@
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 16:26</t>
+          <t>2024-09-16 12:23</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="n">
-        <v>81274</v>
+        <v>74785</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>68799</v>
+        <v>56546</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>1751</v>
+        <v>1531</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>67048</v>
+        <v>55015</v>
       </c>
       <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="n">
-        <v>19656</v>
+        <v>7350</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>21290</v>
+        <v>15491</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v>15606</v>
+        <v>13306</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>7143</v>
+        <v>11504</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>4612</v>
       </c>
     </row>
     <row r="17">
@@ -1270,34 +1321,37 @@
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:57</t>
+          <t>2024-09-16 16:35</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="n">
-        <v>15010</v>
+        <v>15595</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>11987</v>
+        <v>14017</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>11782</v>
+        <v>13758</v>
       </c>
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="n">
-        <v>3078</v>
+        <v>3929</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>2512</v>
+        <v>1543</v>
       </c>
       <c r="N17" s="3" t="n">
-        <v>5178</v>
+        <v>2532</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>424</v>
+        <v>2727</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>2337</v>
       </c>
     </row>
     <row r="18">
@@ -1319,34 +1373,37 @@
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 19:16</t>
+          <t>2024-09-16 15:58</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="n">
-        <v>61613</v>
+        <v>58130</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>43582</v>
+        <v>37896</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>898</v>
+        <v>736</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>42684</v>
+        <v>37160</v>
       </c>
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="n">
-        <v>11412</v>
+        <v>9435</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>11221</v>
+        <v>10859</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>10255</v>
+        <v>5955</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>7660</v>
+        <v>5300</v>
+      </c>
+      <c r="P18" s="3" t="n">
+        <v>3751</v>
       </c>
     </row>
     <row r="19">
@@ -1368,34 +1425,37 @@
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 16:21</t>
+          <t>2024-09-16 12:35</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="n">
-        <v>21209</v>
+        <v>19558</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>16486</v>
+        <v>14821</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>375</v>
+        <v>199</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>16111</v>
+        <v>14622</v>
       </c>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="n">
-        <v>6459</v>
+        <v>2681</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>2484</v>
+        <v>3903</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>4448</v>
+        <v>3759</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>1913</v>
+        <v>3336</v>
+      </c>
+      <c r="P19" s="3" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="20">
@@ -1417,34 +1477,37 @@
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:40</t>
+          <t>2024-09-16 14:07</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="n">
-        <v>46920</v>
+        <v>46173</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>31281</v>
+        <v>39241</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>30920</v>
+        <v>38830</v>
       </c>
       <c r="K20" s="3" t="inlineStr"/>
       <c r="L20" s="3" t="n">
-        <v>12661</v>
+        <v>14047</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>8840</v>
+        <v>12423</v>
       </c>
       <c r="N20" s="3" t="n">
-        <v>6130</v>
+        <v>6413</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>1741</v>
+        <v>2566</v>
+      </c>
+      <c r="P20" s="3" t="n">
+        <v>1437</v>
       </c>
     </row>
     <row r="21">
@@ -1466,34 +1529,37 @@
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:19</t>
+          <t>2024-09-16 18:52</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="n">
-        <v>24487</v>
+        <v>25286</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>18388</v>
+        <v>16561</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>548</v>
+        <v>457</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>17840</v>
+        <v>16104</v>
       </c>
       <c r="K21" s="3" t="inlineStr"/>
       <c r="L21" s="3" t="n">
-        <v>7240</v>
+        <v>5328</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>5102</v>
+        <v>3550</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>3046</v>
+        <v>2841</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>1558</v>
+        <v>2478</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>1099</v>
       </c>
     </row>
     <row r="22">
@@ -1515,34 +1581,37 @@
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 08:40</t>
+          <t>2024-09-16 15:40</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="n">
-        <v>32256</v>
+        <v>34167</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>25427</v>
+        <v>24481</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>484</v>
+        <v>560</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>24943</v>
+        <v>23921</v>
       </c>
       <c r="K22" s="3" t="inlineStr"/>
       <c r="L22" s="3" t="n">
-        <v>7648</v>
+        <v>5904</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>7936</v>
+        <v>5849</v>
       </c>
       <c r="N22" s="3" t="n">
-        <v>4805</v>
+        <v>5974</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>3304</v>
+        <v>2856</v>
+      </c>
+      <c r="P22" s="3" t="n">
+        <v>2141</v>
       </c>
     </row>
     <row r="23">
@@ -1564,34 +1633,37 @@
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 10:55</t>
+          <t>2024-09-16 15:41</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="n">
-        <v>36655</v>
+        <v>35304</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>31615</v>
+        <v>28676</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>719</v>
+        <v>586</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>30896</v>
+        <v>28090</v>
       </c>
       <c r="K23" s="3" t="inlineStr"/>
       <c r="L23" s="3" t="n">
-        <v>11718</v>
+        <v>7967</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>8168</v>
+        <v>6750</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>4200</v>
+        <v>3852</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>5263</v>
+        <v>6786</v>
+      </c>
+      <c r="P23" s="3" t="n">
+        <v>1329</v>
       </c>
     </row>
     <row r="24">
@@ -1613,34 +1685,37 @@
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 16:51</t>
+          <t>2024-09-16 09:38</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="n">
-        <v>96691</v>
+        <v>102802</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>72134</v>
+        <v>69567</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>1908</v>
+        <v>2074</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>70226</v>
+        <v>67493</v>
       </c>
       <c r="K24" s="3" t="inlineStr"/>
       <c r="L24" s="3" t="n">
-        <v>18938</v>
+        <v>16869</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>14087</v>
+        <v>14022</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>18809</v>
+        <v>11618</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>14878</v>
+        <v>12708</v>
+      </c>
+      <c r="P24" s="3" t="n">
+        <v>8898</v>
       </c>
     </row>
     <row r="25">
@@ -1662,34 +1737,37 @@
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:02</t>
+          <t>2024-09-16 11:16</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="n">
-        <v>136509</v>
+        <v>126143</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>96577</v>
+        <v>107553</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>1540</v>
+        <v>1292</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>95037</v>
+        <v>106261</v>
       </c>
       <c r="K25" s="3" t="inlineStr"/>
       <c r="L25" s="3" t="n">
-        <v>33063</v>
+        <v>20048</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>24798</v>
+        <v>25195</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>12897</v>
+        <v>15557</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>19525</v>
+        <v>24774</v>
+      </c>
+      <c r="P25" s="3" t="n">
+        <v>15371</v>
       </c>
     </row>
     <row r="26">
@@ -1711,34 +1789,37 @@
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:50</t>
+          <t>2024-09-16 13:59</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="n">
-        <v>67858</v>
+        <v>67959</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>47262</v>
+        <v>58122</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>1106</v>
+        <v>674</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>46156</v>
+        <v>57448</v>
       </c>
       <c r="K26" s="3" t="inlineStr"/>
       <c r="L26" s="3" t="n">
-        <v>17864</v>
+        <v>15342</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>10295</v>
+        <v>16269</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>13387</v>
+        <v>14817</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>2300</v>
+        <v>3463</v>
+      </c>
+      <c r="P26" s="3" t="n">
+        <v>4682</v>
       </c>
     </row>
     <row r="27">
@@ -1760,34 +1841,37 @@
       <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:25</t>
+          <t>2024-09-16 15:09</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="n">
-        <v>71898</v>
+        <v>69014</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>59475</v>
+        <v>47873</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>1274</v>
+        <v>896</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>58201</v>
+        <v>46977</v>
       </c>
       <c r="K27" s="3" t="inlineStr"/>
       <c r="L27" s="3" t="n">
-        <v>22426</v>
+        <v>7738</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>15244</v>
+        <v>13122</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>16205</v>
+        <v>5970</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>1414</v>
+        <v>9093</v>
+      </c>
+      <c r="P27" s="3" t="n">
+        <v>8702</v>
       </c>
     </row>
     <row r="28">
@@ -1809,34 +1893,37 @@
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 18:03</t>
+          <t>2024-09-16 08:58</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="n">
-        <v>43433</v>
+        <v>45325</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>32052</v>
+        <v>29636</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>647</v>
+        <v>815</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>31405</v>
+        <v>28821</v>
       </c>
       <c r="K28" s="3" t="inlineStr"/>
       <c r="L28" s="3" t="n">
-        <v>14062</v>
+        <v>4053</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>7670</v>
+        <v>8599</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>4599</v>
+        <v>6178</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>3502</v>
+        <v>6445</v>
+      </c>
+      <c r="P28" s="3" t="n">
+        <v>2104</v>
       </c>
     </row>
     <row r="29">
@@ -1858,34 +1945,37 @@
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 18:57</t>
+          <t>2024-09-16 08:43</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="n">
-        <v>65189</v>
+        <v>63195</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>57352</v>
+        <v>53428</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>1617</v>
+        <v>1540</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>55735</v>
+        <v>51888</v>
       </c>
       <c r="K29" s="3" t="inlineStr"/>
       <c r="L29" s="3" t="n">
-        <v>16805</v>
+        <v>18531</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>10677</v>
+        <v>11083</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>14207</v>
+        <v>8422</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>11257</v>
+        <v>4349</v>
+      </c>
+      <c r="P29" s="3" t="n">
+        <v>6906</v>
       </c>
     </row>
     <row r="30">
@@ -1907,34 +1997,37 @@
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 10:55</t>
+          <t>2024-09-16 10:05</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="n">
-        <v>71629</v>
+        <v>72840</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>53858</v>
+        <v>64291</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>563</v>
+        <v>1609</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>53295</v>
+        <v>62682</v>
       </c>
       <c r="K30" s="3" t="inlineStr"/>
       <c r="L30" s="3" t="n">
-        <v>20750</v>
+        <v>18072</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>14770</v>
+        <v>20735</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>4885</v>
+        <v>6467</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>10223</v>
+        <v>2435</v>
+      </c>
+      <c r="P30" s="3" t="n">
+        <v>11836</v>
       </c>
     </row>
     <row r="31">
@@ -1956,34 +2049,37 @@
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 11:33</t>
+          <t>2024-09-16 13:55</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="n">
-        <v>141744</v>
+        <v>141707</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>117785</v>
+        <v>101890</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>3118</v>
+        <v>1294</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>114667</v>
+        <v>100596</v>
       </c>
       <c r="K31" s="3" t="inlineStr"/>
       <c r="L31" s="3" t="n">
-        <v>50326</v>
+        <v>23129</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>24799</v>
+        <v>29255</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>28048</v>
+        <v>28076</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>5759</v>
+        <v>11513</v>
+      </c>
+      <c r="P31" s="3" t="n">
+        <v>3591</v>
       </c>
     </row>
     <row r="32">
@@ -2005,34 +2101,37 @@
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:34</t>
+          <t>2024-09-16 08:46</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="n">
-        <v>78653</v>
+        <v>79625</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>64156</v>
+        <v>70379</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>1540</v>
+        <v>848</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>62616</v>
+        <v>69531</v>
       </c>
       <c r="K32" s="3" t="inlineStr"/>
       <c r="L32" s="3" t="n">
-        <v>18805</v>
+        <v>25220</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>11391</v>
+        <v>13888</v>
       </c>
       <c r="N32" s="3" t="n">
-        <v>13731</v>
+        <v>16982</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>15556</v>
+        <v>4635</v>
+      </c>
+      <c r="P32" s="3" t="n">
+        <v>5327</v>
       </c>
     </row>
     <row r="33">
@@ -2054,34 +2153,37 @@
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:12</t>
+          <t>2024-09-16 15:52</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="n">
-        <v>206058</v>
+        <v>202122</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>164317</v>
+        <v>143865</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>3526</v>
+        <v>4236</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>160791</v>
+        <v>139629</v>
       </c>
       <c r="K33" s="3" t="inlineStr"/>
       <c r="L33" s="3" t="n">
-        <v>68583</v>
+        <v>40646</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>22891</v>
+        <v>25604</v>
       </c>
       <c r="N33" s="3" t="n">
-        <v>50519</v>
+        <v>28318</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>10756</v>
+        <v>27055</v>
+      </c>
+      <c r="P33" s="3" t="n">
+        <v>11021</v>
       </c>
     </row>
     <row r="34">
@@ -2103,34 +2205,37 @@
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:08</t>
+          <t>2024-09-16 10:53</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="n">
-        <v>130822</v>
+        <v>130724</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>80049</v>
+        <v>96104</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>1436</v>
+        <v>1042</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>78613</v>
+        <v>95062</v>
       </c>
       <c r="K34" s="3" t="inlineStr"/>
       <c r="L34" s="3" t="n">
-        <v>35117</v>
+        <v>27405</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>14943</v>
+        <v>24793</v>
       </c>
       <c r="N34" s="3" t="n">
-        <v>18914</v>
+        <v>10825</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>5707</v>
+        <v>19252</v>
+      </c>
+      <c r="P34" s="3" t="n">
+        <v>8031</v>
       </c>
     </row>
     <row r="35">
@@ -2152,34 +2257,37 @@
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 18:11</t>
+          <t>2024-09-16 09:25</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="n">
-        <v>204427</v>
+        <v>196807</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>134321</v>
+        <v>176695</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>3040</v>
+        <v>2847</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>131281</v>
+        <v>173848</v>
       </c>
       <c r="K35" s="3" t="inlineStr"/>
       <c r="L35" s="3" t="n">
-        <v>40457</v>
+        <v>37567</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>22275</v>
+        <v>45115</v>
       </c>
       <c r="N35" s="3" t="n">
-        <v>50362</v>
+        <v>30511</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>11620</v>
+        <v>33517</v>
+      </c>
+      <c r="P35" s="3" t="n">
+        <v>18444</v>
       </c>
     </row>
     <row r="36">
@@ -2201,34 +2309,37 @@
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 19:39</t>
+          <t>2024-09-16 11:39</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="n">
-        <v>138879</v>
+        <v>149829</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>88449</v>
+        <v>132146</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>1529</v>
+        <v>1779</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>86920</v>
+        <v>130367</v>
       </c>
       <c r="K36" s="3" t="inlineStr"/>
       <c r="L36" s="3" t="n">
-        <v>32980</v>
+        <v>37495</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>14696</v>
+        <v>36297</v>
       </c>
       <c r="N36" s="3" t="n">
-        <v>23285</v>
+        <v>29632</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>11610</v>
+        <v>11830</v>
+      </c>
+      <c r="P36" s="3" t="n">
+        <v>8592</v>
       </c>
     </row>
     <row r="37">
@@ -2250,34 +2361,37 @@
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 08:14</t>
+          <t>2024-09-16 18:06</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="n">
-        <v>184071</v>
+        <v>191533</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>147508</v>
+        <v>143686</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>1624</v>
+        <v>3639</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>145884</v>
+        <v>140047</v>
       </c>
       <c r="K37" s="3" t="inlineStr"/>
       <c r="L37" s="3" t="n">
-        <v>63856</v>
+        <v>44915</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>25978</v>
+        <v>29463</v>
       </c>
       <c r="N37" s="3" t="n">
-        <v>29787</v>
+        <v>21518</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>18967</v>
+        <v>7924</v>
+      </c>
+      <c r="P37" s="3" t="n">
+        <v>29222</v>
       </c>
     </row>
     <row r="38">
@@ -2299,34 +2413,37 @@
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 13:22</t>
+          <t>2024-09-16 08:34</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="n">
-        <v>130146</v>
+        <v>124636</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>108194</v>
+        <v>81793</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>1561</v>
+        <v>2337</v>
       </c>
       <c r="J38" s="3" t="n">
-        <v>106633</v>
+        <v>79456</v>
       </c>
       <c r="K38" s="3" t="inlineStr"/>
       <c r="L38" s="3" t="n">
-        <v>30697</v>
+        <v>23840</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>35488</v>
+        <v>12242</v>
       </c>
       <c r="N38" s="3" t="n">
-        <v>17285</v>
+        <v>20917</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>17828</v>
+        <v>14372</v>
+      </c>
+      <c r="P38" s="3" t="n">
+        <v>4109</v>
       </c>
     </row>
     <row r="39">
@@ -2348,34 +2465,37 @@
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 08:47</t>
+          <t>2024-09-16 10:17</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="n">
-        <v>135702</v>
+        <v>141484</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>105155</v>
+        <v>107266</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>2558</v>
+        <v>1492</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>102597</v>
+        <v>105774</v>
       </c>
       <c r="K39" s="3" t="inlineStr"/>
       <c r="L39" s="3" t="n">
-        <v>42452</v>
+        <v>30957</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>19809</v>
+        <v>15879</v>
       </c>
       <c r="N39" s="3" t="n">
-        <v>13342</v>
+        <v>20905</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>21862</v>
+        <v>22613</v>
+      </c>
+      <c r="P39" s="3" t="n">
+        <v>10129</v>
       </c>
     </row>
     <row r="40">
@@ -2397,34 +2517,37 @@
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 08:51</t>
+          <t>2024-09-16 18:47</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="n">
-        <v>120501</v>
+        <v>122254</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>77538</v>
+        <v>102294</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>1474</v>
+        <v>1926</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>76064</v>
+        <v>100368</v>
       </c>
       <c r="K40" s="3" t="inlineStr"/>
       <c r="L40" s="3" t="n">
-        <v>31367</v>
+        <v>23371</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>12269</v>
+        <v>27229</v>
       </c>
       <c r="N40" s="3" t="n">
-        <v>19104</v>
+        <v>16409</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>9519</v>
+        <v>15770</v>
+      </c>
+      <c r="P40" s="3" t="n">
+        <v>12568</v>
       </c>
     </row>
     <row r="41">
@@ -2446,34 +2569,37 @@
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 08:47</t>
+          <t>2024-09-16 13:16</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="n">
-        <v>156598</v>
+        <v>159365</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>116878</v>
+        <v>102474</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>2310</v>
+        <v>2003</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>114568</v>
+        <v>100471</v>
       </c>
       <c r="K41" s="3" t="inlineStr"/>
       <c r="L41" s="3" t="n">
-        <v>40539</v>
+        <v>17361</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>31521</v>
+        <v>19716</v>
       </c>
       <c r="N41" s="3" t="n">
-        <v>18757</v>
+        <v>33305</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>18020</v>
+        <v>11590</v>
+      </c>
+      <c r="P41" s="3" t="n">
+        <v>13472</v>
       </c>
     </row>
     <row r="42">
@@ -2495,34 +2621,37 @@
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:23</t>
+          <t>2024-09-16 19:32</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="n">
-        <v>121307</v>
+        <v>118594</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>77379</v>
+        <v>76854</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>1575</v>
+        <v>1727</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>75804</v>
+        <v>75127</v>
       </c>
       <c r="K42" s="3" t="inlineStr"/>
       <c r="L42" s="3" t="n">
-        <v>25835</v>
+        <v>20148</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>23422</v>
+        <v>17178</v>
       </c>
       <c r="N42" s="3" t="n">
-        <v>18148</v>
+        <v>21550</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>4607</v>
+        <v>9216</v>
+      </c>
+      <c r="P42" s="3" t="n">
+        <v>3277</v>
       </c>
     </row>
     <row r="43">
@@ -2544,34 +2673,37 @@
       <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 13:28</t>
+          <t>2024-09-16 16:56</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="n">
-        <v>137317</v>
+        <v>128800</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>88921</v>
+        <v>102720</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>2451</v>
+        <v>1355</v>
       </c>
       <c r="J43" s="3" t="n">
-        <v>86470</v>
+        <v>101365</v>
       </c>
       <c r="K43" s="3" t="inlineStr"/>
       <c r="L43" s="3" t="n">
-        <v>24676</v>
+        <v>27549</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>26439</v>
+        <v>26148</v>
       </c>
       <c r="N43" s="3" t="n">
-        <v>14885</v>
+        <v>14633</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>16144</v>
+        <v>14770</v>
+      </c>
+      <c r="P43" s="3" t="n">
+        <v>13195</v>
       </c>
     </row>
     <row r="44">
@@ -2593,34 +2725,37 @@
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:05</t>
+          <t>2024-09-16 10:10</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="n">
-        <v>143956</v>
+        <v>141539</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>111477</v>
+        <v>91734</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>2600</v>
+        <v>2486</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>108877</v>
+        <v>89248</v>
       </c>
       <c r="K44" s="3" t="inlineStr"/>
       <c r="L44" s="3" t="n">
-        <v>33094</v>
+        <v>22273</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>35684</v>
+        <v>26417</v>
       </c>
       <c r="N44" s="3" t="n">
-        <v>15991</v>
+        <v>19537</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>18662</v>
+        <v>8334</v>
+      </c>
+      <c r="P44" s="3" t="n">
+        <v>8222</v>
       </c>
     </row>
     <row r="45">
@@ -2642,34 +2777,37 @@
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 13:46</t>
+          <t>2024-09-16 20:03</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="n">
-        <v>138701</v>
+        <v>147724</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>108872</v>
+        <v>101447</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>2793</v>
+        <v>1293</v>
       </c>
       <c r="J45" s="3" t="n">
-        <v>106079</v>
+        <v>100154</v>
       </c>
       <c r="K45" s="3" t="inlineStr"/>
       <c r="L45" s="3" t="n">
-        <v>31740</v>
+        <v>18848</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>24886</v>
+        <v>29489</v>
       </c>
       <c r="N45" s="3" t="n">
-        <v>27000</v>
+        <v>18657</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>17147</v>
+        <v>9345</v>
+      </c>
+      <c r="P45" s="3" t="n">
+        <v>18805</v>
       </c>
     </row>
     <row r="46">
@@ -2691,34 +2829,37 @@
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 16:47</t>
+          <t>2024-09-16 19:57</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="n">
-        <v>162370</v>
+        <v>167178</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>142978</v>
+        <v>109170</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>2433</v>
+        <v>1435</v>
       </c>
       <c r="J46" s="3" t="n">
-        <v>140545</v>
+        <v>107735</v>
       </c>
       <c r="K46" s="3" t="inlineStr"/>
       <c r="L46" s="3" t="n">
-        <v>37425</v>
+        <v>39393</v>
       </c>
       <c r="M46" s="3" t="n">
-        <v>55318</v>
+        <v>32887</v>
       </c>
       <c r="N46" s="3" t="n">
-        <v>32111</v>
+        <v>15256</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>8662</v>
+        <v>9877</v>
+      </c>
+      <c r="P46" s="3" t="n">
+        <v>4932</v>
       </c>
     </row>
     <row r="47">
@@ -2740,34 +2881,37 @@
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:16</t>
+          <t>2024-09-16 17:14</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="n">
-        <v>171250</v>
+        <v>165735</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>142533</v>
+        <v>115715</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>3325</v>
+        <v>2958</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>139208</v>
+        <v>112757</v>
       </c>
       <c r="K47" s="3" t="inlineStr"/>
       <c r="L47" s="3" t="n">
-        <v>59722</v>
+        <v>23917</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>32580</v>
+        <v>30245</v>
       </c>
       <c r="N47" s="3" t="n">
-        <v>33742</v>
+        <v>17075</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>6202</v>
+        <v>18259</v>
+      </c>
+      <c r="P47" s="3" t="n">
+        <v>17621</v>
       </c>
     </row>
     <row r="48">
@@ -2789,34 +2933,37 @@
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:34</t>
+          <t>2024-09-16 11:13</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="n">
-        <v>160624</v>
+        <v>171792</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>111957</v>
+        <v>147473</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>1233</v>
+        <v>3587</v>
       </c>
       <c r="J48" s="3" t="n">
-        <v>110724</v>
+        <v>143886</v>
       </c>
       <c r="K48" s="3" t="inlineStr"/>
       <c r="L48" s="3" t="n">
-        <v>27145</v>
+        <v>46427</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>26671</v>
+        <v>38160</v>
       </c>
       <c r="N48" s="3" t="n">
-        <v>29368</v>
+        <v>23146</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>22002</v>
+        <v>25348</v>
+      </c>
+      <c r="P48" s="3" t="n">
+        <v>3607</v>
       </c>
     </row>
     <row r="49">
@@ -2838,34 +2985,37 @@
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 18:55</t>
+          <t>2024-09-16 14:32</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="n">
-        <v>129016</v>
+        <v>125287</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>94436</v>
+        <v>79363</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>2338</v>
+        <v>1037</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>92098</v>
+        <v>78326</v>
       </c>
       <c r="K49" s="3" t="inlineStr"/>
       <c r="L49" s="3" t="n">
-        <v>17268</v>
+        <v>23563</v>
       </c>
       <c r="M49" s="3" t="n">
-        <v>25149</v>
+        <v>10903</v>
       </c>
       <c r="N49" s="3" t="n">
-        <v>28857</v>
+        <v>19056</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>16217</v>
+        <v>17079</v>
+      </c>
+      <c r="P49" s="3" t="n">
+        <v>3807</v>
       </c>
     </row>
     <row r="50">
@@ -2887,34 +3037,37 @@
       <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 10:35</t>
+          <t>2024-09-16 19:58</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="n">
-        <v>137071</v>
+        <v>131166</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>111911</v>
+        <v>97068</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>1526</v>
+        <v>1723</v>
       </c>
       <c r="J50" s="3" t="n">
-        <v>110385</v>
+        <v>95345</v>
       </c>
       <c r="K50" s="3" t="inlineStr"/>
       <c r="L50" s="3" t="n">
-        <v>33572</v>
+        <v>19202</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>28614</v>
+        <v>18626</v>
       </c>
       <c r="N50" s="3" t="n">
-        <v>26139</v>
+        <v>23387</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>16539</v>
+        <v>19507</v>
+      </c>
+      <c r="P50" s="3" t="n">
+        <v>9854</v>
       </c>
     </row>
     <row r="51">
@@ -2936,34 +3089,37 @@
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 17:50</t>
+          <t>2024-09-16 10:03</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr"/>
       <c r="G51" s="3" t="n">
-        <v>100178</v>
+        <v>101327</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>69445</v>
+        <v>90005</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>796</v>
+        <v>2537</v>
       </c>
       <c r="J51" s="3" t="n">
-        <v>68649</v>
+        <v>87468</v>
       </c>
       <c r="K51" s="3" t="inlineStr"/>
       <c r="L51" s="3" t="n">
-        <v>22998</v>
+        <v>30167</v>
       </c>
       <c r="M51" s="3" t="n">
-        <v>15271</v>
+        <v>14637</v>
       </c>
       <c r="N51" s="3" t="n">
-        <v>9361</v>
+        <v>11817</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>17585</v>
+        <v>17438</v>
+      </c>
+      <c r="P51" s="3" t="n">
+        <v>9033</v>
       </c>
     </row>
     <row r="52">
@@ -2985,34 +3141,37 @@
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:10</t>
+          <t>2024-09-16 16:15</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr"/>
       <c r="G52" s="3" t="n">
-        <v>123134</v>
+        <v>128209</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>97054</v>
+        <v>98621</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>2257</v>
+        <v>2476</v>
       </c>
       <c r="J52" s="3" t="n">
-        <v>94797</v>
+        <v>96145</v>
       </c>
       <c r="K52" s="3" t="inlineStr"/>
       <c r="L52" s="3" t="n">
-        <v>28473</v>
+        <v>20462</v>
       </c>
       <c r="M52" s="3" t="n">
-        <v>26497</v>
+        <v>24977</v>
       </c>
       <c r="N52" s="3" t="n">
-        <v>25854</v>
+        <v>21481</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>9230</v>
+        <v>14381</v>
+      </c>
+      <c r="P52" s="3" t="n">
+        <v>10035</v>
       </c>
     </row>
     <row r="53">
@@ -3034,34 +3193,37 @@
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 11:12</t>
+          <t>2024-09-16 13:15</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="n">
-        <v>150771</v>
+        <v>149565</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>113097</v>
+        <v>100211</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>2217</v>
+        <v>2863</v>
       </c>
       <c r="J53" s="3" t="n">
-        <v>110880</v>
+        <v>97348</v>
       </c>
       <c r="K53" s="3" t="inlineStr"/>
       <c r="L53" s="3" t="n">
-        <v>47371</v>
+        <v>24863</v>
       </c>
       <c r="M53" s="3" t="n">
-        <v>19148</v>
+        <v>16919</v>
       </c>
       <c r="N53" s="3" t="n">
-        <v>14887</v>
+        <v>22462</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>23928</v>
+        <v>26137</v>
+      </c>
+      <c r="P53" s="3" t="n">
+        <v>2096</v>
       </c>
     </row>
     <row r="54">
@@ -3083,34 +3245,37 @@
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 19:29</t>
+          <t>2024-09-16 09:16</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr"/>
       <c r="G54" s="3" t="n">
-        <v>142893</v>
+        <v>138850</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>89692</v>
+        <v>122892</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>1032</v>
+        <v>2091</v>
       </c>
       <c r="J54" s="3" t="n">
-        <v>88660</v>
+        <v>120801</v>
       </c>
       <c r="K54" s="3" t="inlineStr"/>
       <c r="L54" s="3" t="n">
-        <v>29845</v>
+        <v>39588</v>
       </c>
       <c r="M54" s="3" t="n">
-        <v>21624</v>
+        <v>21036</v>
       </c>
       <c r="N54" s="3" t="n">
-        <v>20355</v>
+        <v>16609</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>12400</v>
+        <v>6494</v>
+      </c>
+      <c r="P54" s="3" t="n">
+        <v>31032</v>
       </c>
     </row>
     <row r="55">
@@ -3132,34 +3297,37 @@
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 10:13</t>
+          <t>2024-09-16 18:09</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr"/>
       <c r="G55" s="3" t="n">
-        <v>85185</v>
+        <v>88566</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>58403</v>
+        <v>79357</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>1572</v>
+        <v>1071</v>
       </c>
       <c r="J55" s="3" t="n">
-        <v>56831</v>
+        <v>78286</v>
       </c>
       <c r="K55" s="3" t="inlineStr"/>
       <c r="L55" s="3" t="n">
-        <v>23803</v>
+        <v>22960</v>
       </c>
       <c r="M55" s="3" t="n">
-        <v>11964</v>
+        <v>14061</v>
       </c>
       <c r="N55" s="3" t="n">
-        <v>10582</v>
+        <v>27246</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>7638</v>
+        <v>3649</v>
+      </c>
+      <c r="P55" s="3" t="n">
+        <v>6453</v>
       </c>
     </row>
     <row r="56">
@@ -3181,34 +3349,37 @@
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 16:15</t>
+          <t>2024-09-16 11:45</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="n">
-        <v>119174</v>
+        <v>120834</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>98816</v>
+        <v>83668</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>1770</v>
+        <v>1040</v>
       </c>
       <c r="J56" s="3" t="n">
-        <v>97046</v>
+        <v>82628</v>
       </c>
       <c r="K56" s="3" t="inlineStr"/>
       <c r="L56" s="3" t="n">
-        <v>28655</v>
+        <v>18769</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>25165</v>
+        <v>29496</v>
       </c>
       <c r="N56" s="3" t="n">
-        <v>24563</v>
+        <v>10098</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>13809</v>
+        <v>17916</v>
+      </c>
+      <c r="P56" s="3" t="n">
+        <v>2214</v>
       </c>
     </row>
     <row r="57">
@@ -3230,34 +3401,37 @@
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 10:06</t>
+          <t>2024-09-16 09:10</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr"/>
       <c r="G57" s="3" t="n">
-        <v>124798</v>
+        <v>128301</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>95814</v>
+        <v>97893</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>1309</v>
+        <v>2518</v>
       </c>
       <c r="J57" s="3" t="n">
-        <v>94505</v>
+        <v>95375</v>
       </c>
       <c r="K57" s="3" t="inlineStr"/>
       <c r="L57" s="3" t="n">
-        <v>34557</v>
+        <v>27090</v>
       </c>
       <c r="M57" s="3" t="n">
-        <v>21152</v>
+        <v>28546</v>
       </c>
       <c r="N57" s="3" t="n">
-        <v>25215</v>
+        <v>18403</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>8855</v>
+        <v>14360</v>
+      </c>
+      <c r="P57" s="3" t="n">
+        <v>2204</v>
       </c>
     </row>
     <row r="58">
@@ -3279,34 +3453,37 @@
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:22</t>
+          <t>2024-09-16 16:48</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="n">
-        <v>128120</v>
+        <v>134729</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>111788</v>
+        <v>97774</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>1589</v>
+        <v>2775</v>
       </c>
       <c r="J58" s="3" t="n">
-        <v>110199</v>
+        <v>94999</v>
       </c>
       <c r="K58" s="3" t="inlineStr"/>
       <c r="L58" s="3" t="n">
-        <v>43772</v>
+        <v>22054</v>
       </c>
       <c r="M58" s="3" t="n">
-        <v>13727</v>
+        <v>23274</v>
       </c>
       <c r="N58" s="3" t="n">
-        <v>20846</v>
+        <v>21407</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>26343</v>
+        <v>6900</v>
+      </c>
+      <c r="P58" s="3" t="n">
+        <v>16612</v>
       </c>
     </row>
     <row r="59">
@@ -3328,34 +3505,37 @@
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 13:31</t>
+          <t>2024-09-16 08:55</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr"/>
       <c r="G59" s="3" t="n">
-        <v>105652</v>
+        <v>103410</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>84347</v>
+        <v>84177</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>1439</v>
+        <v>1182</v>
       </c>
       <c r="J59" s="3" t="n">
-        <v>82908</v>
+        <v>82995</v>
       </c>
       <c r="K59" s="3" t="inlineStr"/>
       <c r="L59" s="3" t="n">
-        <v>20124</v>
+        <v>9942</v>
       </c>
       <c r="M59" s="3" t="n">
-        <v>31615</v>
+        <v>24713</v>
       </c>
       <c r="N59" s="3" t="n">
-        <v>8425</v>
+        <v>16835</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>18597</v>
+        <v>13052</v>
+      </c>
+      <c r="P59" s="3" t="n">
+        <v>14301</v>
       </c>
     </row>
     <row r="60">
@@ -3377,34 +3557,37 @@
       <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 11:42</t>
+          <t>2024-09-16 15:58</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr"/>
       <c r="G60" s="3" t="n">
-        <v>56312</v>
+        <v>54271</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>41163</v>
+        <v>45775</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>427</v>
+        <v>643</v>
       </c>
       <c r="J60" s="3" t="n">
-        <v>40736</v>
+        <v>45132</v>
       </c>
       <c r="K60" s="3" t="inlineStr"/>
       <c r="L60" s="3" t="n">
-        <v>11066</v>
+        <v>14969</v>
       </c>
       <c r="M60" s="3" t="n">
-        <v>7346</v>
+        <v>13189</v>
       </c>
       <c r="N60" s="3" t="n">
-        <v>12160</v>
+        <v>5615</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>8124</v>
+        <v>7411</v>
+      </c>
+      <c r="P60" s="3" t="n">
+        <v>1688</v>
       </c>
     </row>
     <row r="61">
@@ -3426,34 +3609,37 @@
       <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:47</t>
+          <t>2024-09-16 19:38</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr"/>
       <c r="G61" s="3" t="n">
-        <v>165754</v>
+        <v>168845</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>128105</v>
+        <v>148736</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>3553</v>
+        <v>4460</v>
       </c>
       <c r="J61" s="3" t="n">
-        <v>124552</v>
+        <v>144276</v>
       </c>
       <c r="K61" s="3" t="inlineStr"/>
       <c r="L61" s="3" t="n">
-        <v>38216</v>
+        <v>36094</v>
       </c>
       <c r="M61" s="3" t="n">
-        <v>21308</v>
+        <v>44699</v>
       </c>
       <c r="N61" s="3" t="n">
-        <v>32968</v>
+        <v>40110</v>
       </c>
       <c r="O61" s="3" t="n">
-        <v>25831</v>
+        <v>5813</v>
+      </c>
+      <c r="P61" s="3" t="n">
+        <v>10344</v>
       </c>
     </row>
     <row r="62">
@@ -3475,34 +3661,37 @@
       <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 13:22</t>
+          <t>2024-09-16 12:38</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr"/>
       <c r="G62" s="3" t="n">
-        <v>91875</v>
+        <v>93573</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>70410</v>
+        <v>74772</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>1581</v>
+        <v>1693</v>
       </c>
       <c r="J62" s="3" t="n">
-        <v>68829</v>
+        <v>73079</v>
       </c>
       <c r="K62" s="3" t="inlineStr"/>
       <c r="L62" s="3" t="n">
-        <v>22182</v>
+        <v>12066</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>16275</v>
+        <v>15520</v>
       </c>
       <c r="N62" s="3" t="n">
-        <v>24963</v>
+        <v>21669</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>1965</v>
+        <v>13032</v>
+      </c>
+      <c r="P62" s="3" t="n">
+        <v>7136</v>
       </c>
     </row>
     <row r="63">
@@ -3524,34 +3713,37 @@
       <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 08:58</t>
+          <t>2024-09-16 19:39</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr"/>
       <c r="G63" s="3" t="n">
-        <v>59404</v>
+        <v>62538</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>47694</v>
+        <v>50925</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>1123</v>
+        <v>1341</v>
       </c>
       <c r="J63" s="3" t="n">
-        <v>46571</v>
+        <v>49584</v>
       </c>
       <c r="K63" s="3" t="inlineStr"/>
       <c r="L63" s="3" t="n">
-        <v>18088</v>
+        <v>9470</v>
       </c>
       <c r="M63" s="3" t="n">
-        <v>11620</v>
+        <v>18245</v>
       </c>
       <c r="N63" s="3" t="n">
-        <v>11038</v>
+        <v>13477</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>3495</v>
+        <v>4988</v>
+      </c>
+      <c r="P63" s="3" t="n">
+        <v>922</v>
       </c>
     </row>
     <row r="64">
@@ -3573,34 +3765,37 @@
       <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 16:18</t>
+          <t>2024-09-16 17:54</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr"/>
       <c r="G64" s="3" t="n">
-        <v>52859</v>
+        <v>52591</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>38219</v>
+        <v>32429</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>1063</v>
+        <v>589</v>
       </c>
       <c r="J64" s="3" t="n">
-        <v>37156</v>
+        <v>31840</v>
       </c>
       <c r="K64" s="3" t="inlineStr"/>
       <c r="L64" s="3" t="n">
-        <v>12400</v>
+        <v>6431</v>
       </c>
       <c r="M64" s="3" t="n">
-        <v>14689</v>
+        <v>6636</v>
       </c>
       <c r="N64" s="3" t="n">
-        <v>4190</v>
+        <v>6665</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>4018</v>
+        <v>3902</v>
+      </c>
+      <c r="P64" s="3" t="n">
+        <v>6611</v>
       </c>
     </row>
     <row r="65">
@@ -3622,34 +3817,37 @@
       <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 17:05</t>
+          <t>2024-09-16 17:56</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr"/>
       <c r="G65" s="3" t="n">
-        <v>103317</v>
+        <v>100762</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>78695</v>
+        <v>63687</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>1289</v>
+        <v>1058</v>
       </c>
       <c r="J65" s="3" t="n">
-        <v>77406</v>
+        <v>62629</v>
       </c>
       <c r="K65" s="3" t="inlineStr"/>
       <c r="L65" s="3" t="n">
-        <v>28338</v>
+        <v>11859</v>
       </c>
       <c r="M65" s="3" t="n">
-        <v>10814</v>
+        <v>18401</v>
       </c>
       <c r="N65" s="3" t="n">
-        <v>18072</v>
+        <v>21341</v>
       </c>
       <c r="O65" s="3" t="n">
-        <v>16310</v>
+        <v>5270</v>
+      </c>
+      <c r="P65" s="3" t="n">
+        <v>2624</v>
       </c>
     </row>
     <row r="66">
@@ -3671,34 +3869,37 @@
       <c r="D66" s="3" t="inlineStr"/>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 10:01</t>
+          <t>2024-09-16 12:52</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="n">
-        <v>73359</v>
+        <v>74293</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>55918</v>
+        <v>46621</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>1398</v>
+        <v>1242</v>
       </c>
       <c r="J66" s="3" t="n">
-        <v>54520</v>
+        <v>45379</v>
       </c>
       <c r="K66" s="3" t="inlineStr"/>
       <c r="L66" s="3" t="n">
-        <v>14229</v>
+        <v>11183</v>
       </c>
       <c r="M66" s="3" t="n">
-        <v>18104</v>
+        <v>8448</v>
       </c>
       <c r="N66" s="3" t="n">
-        <v>13591</v>
+        <v>6315</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>5867</v>
+        <v>7983</v>
+      </c>
+      <c r="P66" s="3" t="n">
+        <v>9179</v>
       </c>
     </row>
     <row r="67">
@@ -3720,34 +3921,37 @@
       <c r="D67" s="3" t="inlineStr"/>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 17:31</t>
+          <t>2024-09-16 10:00</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr"/>
       <c r="G67" s="3" t="n">
-        <v>85781</v>
+        <v>84184</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>66930</v>
+        <v>72615</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>807</v>
+        <v>846</v>
       </c>
       <c r="J67" s="3" t="n">
-        <v>66123</v>
+        <v>71769</v>
       </c>
       <c r="K67" s="3" t="inlineStr"/>
       <c r="L67" s="3" t="n">
-        <v>21468</v>
+        <v>15713</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>13467</v>
+        <v>17977</v>
       </c>
       <c r="N67" s="3" t="n">
-        <v>25544</v>
+        <v>9962</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>2335</v>
+        <v>10748</v>
+      </c>
+      <c r="P67" s="3" t="n">
+        <v>13778</v>
       </c>
     </row>
     <row r="68">
@@ -3769,34 +3973,37 @@
       <c r="D68" s="3" t="inlineStr"/>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 18:34</t>
+          <t>2024-09-16 15:31</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr"/>
       <c r="G68" s="3" t="n">
-        <v>40551</v>
+        <v>42943</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>28280</v>
+        <v>31077</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>436</v>
+        <v>766</v>
       </c>
       <c r="J68" s="3" t="n">
-        <v>27844</v>
+        <v>30311</v>
       </c>
       <c r="K68" s="3" t="inlineStr"/>
       <c r="L68" s="3" t="n">
-        <v>10837</v>
+        <v>8250</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>3803</v>
+        <v>7267</v>
       </c>
       <c r="N68" s="3" t="n">
-        <v>5027</v>
+        <v>6274</v>
       </c>
       <c r="O68" s="3" t="n">
-        <v>6783</v>
+        <v>5018</v>
+      </c>
+      <c r="P68" s="3" t="n">
+        <v>1984</v>
       </c>
     </row>
     <row r="69">
@@ -3818,34 +4025,37 @@
       <c r="D69" s="3" t="inlineStr"/>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:12</t>
+          <t>2024-09-16 14:47</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr"/>
       <c r="G69" s="3" t="n">
-        <v>88685</v>
+        <v>82665</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>63539</v>
+        <v>71823</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>1594</v>
+        <v>1724</v>
       </c>
       <c r="J69" s="3" t="n">
-        <v>61945</v>
+        <v>70099</v>
       </c>
       <c r="K69" s="3" t="inlineStr"/>
       <c r="L69" s="3" t="n">
-        <v>18355</v>
+        <v>17127</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>11885</v>
+        <v>14629</v>
       </c>
       <c r="N69" s="3" t="n">
-        <v>13241</v>
+        <v>15102</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>15365</v>
+        <v>6941</v>
+      </c>
+      <c r="P69" s="3" t="n">
+        <v>12792</v>
       </c>
     </row>
     <row r="70">
@@ -3867,34 +4077,37 @@
       <c r="D70" s="3" t="inlineStr"/>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 18:00</t>
+          <t>2024-09-16 16:48</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr"/>
       <c r="G70" s="3" t="n">
-        <v>92835</v>
+        <v>92852</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>78978</v>
+        <v>73714</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>2281</v>
+        <v>1475</v>
       </c>
       <c r="J70" s="3" t="n">
-        <v>76697</v>
+        <v>72239</v>
       </c>
       <c r="K70" s="3" t="inlineStr"/>
       <c r="L70" s="3" t="n">
-        <v>32587</v>
+        <v>20788</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>13907</v>
+        <v>19342</v>
       </c>
       <c r="N70" s="3" t="n">
-        <v>7869</v>
+        <v>12933</v>
       </c>
       <c r="O70" s="3" t="n">
-        <v>18497</v>
+        <v>11526</v>
+      </c>
+      <c r="P70" s="3" t="n">
+        <v>4036</v>
       </c>
     </row>
     <row r="71">
@@ -3916,34 +4129,37 @@
       <c r="D71" s="3" t="inlineStr"/>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 17:53</t>
+          <t>2024-09-16 19:20</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr"/>
       <c r="G71" s="3" t="n">
-        <v>117853</v>
+        <v>111581</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>89313</v>
+        <v>76365</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>1014</v>
+        <v>1957</v>
       </c>
       <c r="J71" s="3" t="n">
-        <v>88299</v>
+        <v>74408</v>
       </c>
       <c r="K71" s="3" t="inlineStr"/>
       <c r="L71" s="3" t="n">
-        <v>34495</v>
+        <v>18083</v>
       </c>
       <c r="M71" s="3" t="n">
-        <v>23185</v>
+        <v>22068</v>
       </c>
       <c r="N71" s="3" t="n">
-        <v>11188</v>
+        <v>14833</v>
       </c>
       <c r="O71" s="3" t="n">
-        <v>15013</v>
+        <v>2640</v>
+      </c>
+      <c r="P71" s="3" t="n">
+        <v>13061</v>
       </c>
     </row>
     <row r="72">
@@ -3965,34 +4181,37 @@
       <c r="D72" s="3" t="inlineStr"/>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 18:54</t>
+          <t>2024-09-16 17:15</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr"/>
       <c r="G72" s="3" t="n">
-        <v>105418</v>
+        <v>106226</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>81435</v>
+        <v>89567</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>2159</v>
+        <v>2563</v>
       </c>
       <c r="J72" s="3" t="n">
-        <v>79276</v>
+        <v>87004</v>
       </c>
       <c r="K72" s="3" t="inlineStr"/>
       <c r="L72" s="3" t="n">
-        <v>19447</v>
+        <v>26028</v>
       </c>
       <c r="M72" s="3" t="n">
-        <v>21255</v>
+        <v>27179</v>
       </c>
       <c r="N72" s="3" t="n">
-        <v>17627</v>
+        <v>8910</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>16982</v>
+        <v>9595</v>
+      </c>
+      <c r="P72" s="3" t="n">
+        <v>10940</v>
       </c>
     </row>
     <row r="73">
@@ -4014,34 +4233,37 @@
       <c r="D73" s="3" t="inlineStr"/>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 19:01</t>
+          <t>2024-09-16 14:31</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr"/>
       <c r="G73" s="3" t="n">
-        <v>147350</v>
+        <v>143944</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>94407</v>
+        <v>116719</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>2635</v>
+        <v>3491</v>
       </c>
       <c r="J73" s="3" t="n">
-        <v>91772</v>
+        <v>113228</v>
       </c>
       <c r="K73" s="3" t="inlineStr"/>
       <c r="L73" s="3" t="n">
-        <v>31004</v>
+        <v>25818</v>
       </c>
       <c r="M73" s="3" t="n">
-        <v>31243</v>
+        <v>28984</v>
       </c>
       <c r="N73" s="3" t="n">
-        <v>11326</v>
+        <v>24402</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>13608</v>
+        <v>24849</v>
+      </c>
+      <c r="P73" s="3" t="n">
+        <v>3512</v>
       </c>
     </row>
     <row r="74">
@@ -4063,34 +4285,37 @@
       <c r="D74" s="3" t="inlineStr"/>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 18:58</t>
+          <t>2024-09-16 16:21</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr"/>
       <c r="G74" s="3" t="n">
-        <v>71211</v>
+        <v>72871</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>46615</v>
+        <v>44911</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>1299</v>
+        <v>629</v>
       </c>
       <c r="J74" s="3" t="n">
-        <v>45316</v>
+        <v>44282</v>
       </c>
       <c r="K74" s="3" t="inlineStr"/>
       <c r="L74" s="3" t="n">
-        <v>9701</v>
+        <v>11047</v>
       </c>
       <c r="M74" s="3" t="n">
-        <v>12817</v>
+        <v>8370</v>
       </c>
       <c r="N74" s="3" t="n">
-        <v>11415</v>
+        <v>11041</v>
       </c>
       <c r="O74" s="3" t="n">
-        <v>9115</v>
+        <v>5064</v>
+      </c>
+      <c r="P74" s="3" t="n">
+        <v>6543</v>
       </c>
     </row>
     <row r="75">
@@ -4112,34 +4337,37 @@
       <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 13:58</t>
+          <t>2024-09-16 16:37</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr"/>
       <c r="G75" s="3" t="n">
-        <v>87314</v>
+        <v>88364</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>74447</v>
+        <v>70470</v>
       </c>
       <c r="I75" s="3" t="n">
-        <v>2065</v>
+        <v>1332</v>
       </c>
       <c r="J75" s="3" t="n">
-        <v>72382</v>
+        <v>69138</v>
       </c>
       <c r="K75" s="3" t="inlineStr"/>
       <c r="L75" s="3" t="n">
-        <v>20655</v>
+        <v>13977</v>
       </c>
       <c r="M75" s="3" t="n">
-        <v>16202</v>
+        <v>12474</v>
       </c>
       <c r="N75" s="3" t="n">
-        <v>20681</v>
+        <v>17498</v>
       </c>
       <c r="O75" s="3" t="n">
-        <v>11222</v>
+        <v>14701</v>
+      </c>
+      <c r="P75" s="3" t="n">
+        <v>7028</v>
       </c>
     </row>
     <row r="76">
@@ -4161,34 +4389,37 @@
       <c r="D76" s="3" t="inlineStr"/>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 11:16</t>
+          <t>2024-09-16 17:07</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr"/>
       <c r="G76" s="3" t="n">
-        <v>98533</v>
+        <v>96562</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>62760</v>
+        <v>72935</v>
       </c>
       <c r="I76" s="3" t="n">
-        <v>1857</v>
+        <v>1880</v>
       </c>
       <c r="J76" s="3" t="n">
-        <v>60903</v>
+        <v>71055</v>
       </c>
       <c r="K76" s="3" t="inlineStr"/>
       <c r="L76" s="3" t="n">
-        <v>19965</v>
+        <v>24097</v>
       </c>
       <c r="M76" s="3" t="n">
-        <v>16251</v>
+        <v>7987</v>
       </c>
       <c r="N76" s="3" t="n">
-        <v>7409</v>
+        <v>12381</v>
       </c>
       <c r="O76" s="3" t="n">
-        <v>14231</v>
+        <v>17218</v>
+      </c>
+      <c r="P76" s="3" t="n">
+        <v>5817</v>
       </c>
     </row>
     <row r="77">
@@ -4210,34 +4441,37 @@
       <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:44</t>
+          <t>2024-09-16 14:07</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="n">
-        <v>335175</v>
+        <v>326500</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>234700</v>
+        <v>292998</v>
       </c>
       <c r="I77" s="3" t="n">
-        <v>4903</v>
+        <v>8157</v>
       </c>
       <c r="J77" s="3" t="n">
-        <v>229797</v>
+        <v>284841</v>
       </c>
       <c r="K77" s="3" t="inlineStr"/>
       <c r="L77" s="3" t="n">
-        <v>66746</v>
+        <v>125053</v>
       </c>
       <c r="M77" s="3" t="n">
-        <v>70529</v>
+        <v>43118</v>
       </c>
       <c r="N77" s="3" t="n">
-        <v>69431</v>
+        <v>39132</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>11599</v>
+        <v>25692</v>
+      </c>
+      <c r="P77" s="3" t="n">
+        <v>37602</v>
       </c>
     </row>
     <row r="78">
@@ -4259,34 +4493,37 @@
       <c r="D78" s="3" t="inlineStr"/>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 16:48</t>
+          <t>2024-09-16 15:14</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr"/>
       <c r="G78" s="3" t="n">
-        <v>82980</v>
+        <v>81833</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>73748</v>
+        <v>51603</v>
       </c>
       <c r="I78" s="3" t="n">
-        <v>2123</v>
+        <v>1033</v>
       </c>
       <c r="J78" s="3" t="n">
-        <v>71625</v>
+        <v>50570</v>
       </c>
       <c r="K78" s="3" t="inlineStr"/>
       <c r="L78" s="3" t="n">
-        <v>20450</v>
+        <v>11996</v>
       </c>
       <c r="M78" s="3" t="n">
-        <v>25310</v>
+        <v>10598</v>
       </c>
       <c r="N78" s="3" t="n">
-        <v>13668</v>
+        <v>6471</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>8615</v>
+        <v>9140</v>
+      </c>
+      <c r="P78" s="3" t="n">
+        <v>9834</v>
       </c>
     </row>
     <row r="79">
@@ -4308,34 +4545,37 @@
       <c r="D79" s="3" t="inlineStr"/>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:31</t>
+          <t>2024-09-16 16:49</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr"/>
       <c r="G79" s="3" t="n">
-        <v>74364</v>
+        <v>76116</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>63706</v>
+        <v>61835</v>
       </c>
       <c r="I79" s="3" t="n">
-        <v>657</v>
+        <v>1750</v>
       </c>
       <c r="J79" s="3" t="n">
-        <v>63049</v>
+        <v>60085</v>
       </c>
       <c r="K79" s="3" t="inlineStr"/>
       <c r="L79" s="3" t="n">
-        <v>20133</v>
+        <v>15793</v>
       </c>
       <c r="M79" s="3" t="n">
-        <v>17183</v>
+        <v>11337</v>
       </c>
       <c r="N79" s="3" t="n">
-        <v>12178</v>
+        <v>12729</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>10400</v>
+        <v>6334</v>
+      </c>
+      <c r="P79" s="3" t="n">
+        <v>10886</v>
       </c>
     </row>
     <row r="80">
@@ -4357,34 +4597,37 @@
       <c r="D80" s="3" t="inlineStr"/>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 10:32</t>
+          <t>2024-09-16 14:35</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr"/>
       <c r="G80" s="3" t="n">
-        <v>90726</v>
+        <v>84987</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>67373</v>
+        <v>57876</v>
       </c>
       <c r="I80" s="3" t="n">
-        <v>1614</v>
+        <v>1712</v>
       </c>
       <c r="J80" s="3" t="n">
-        <v>65759</v>
+        <v>56164</v>
       </c>
       <c r="K80" s="3" t="inlineStr"/>
       <c r="L80" s="3" t="n">
-        <v>22171</v>
+        <v>13015</v>
       </c>
       <c r="M80" s="3" t="n">
-        <v>19790</v>
+        <v>26296</v>
       </c>
       <c r="N80" s="3" t="n">
-        <v>7754</v>
+        <v>9304</v>
       </c>
       <c r="O80" s="3" t="n">
-        <v>12754</v>
+        <v>2789</v>
+      </c>
+      <c r="P80" s="3" t="n">
+        <v>1948</v>
       </c>
     </row>
     <row r="81">
@@ -4406,34 +4649,37 @@
       <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 14:09</t>
+          <t>2024-09-16 17:11</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr"/>
       <c r="G81" s="3" t="n">
-        <v>56552</v>
+        <v>55927</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>34783</v>
+        <v>46121</v>
       </c>
       <c r="I81" s="3" t="n">
-        <v>789</v>
+        <v>513</v>
       </c>
       <c r="J81" s="3" t="n">
-        <v>33994</v>
+        <v>45608</v>
       </c>
       <c r="K81" s="3" t="inlineStr"/>
       <c r="L81" s="3" t="n">
-        <v>9701</v>
+        <v>10071</v>
       </c>
       <c r="M81" s="3" t="n">
-        <v>9894</v>
+        <v>13113</v>
       </c>
       <c r="N81" s="3" t="n">
-        <v>5851</v>
+        <v>11634</v>
       </c>
       <c r="O81" s="3" t="n">
-        <v>6846</v>
+        <v>4518</v>
+      </c>
+      <c r="P81" s="3" t="n">
+        <v>3989</v>
       </c>
     </row>
     <row r="82">
@@ -4455,34 +4701,37 @@
       <c r="D82" s="3" t="inlineStr"/>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 18:40</t>
+          <t>2024-09-16 10:05</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr"/>
       <c r="G82" s="3" t="n">
-        <v>80679</v>
+        <v>81723</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>57398</v>
+        <v>53960</v>
       </c>
       <c r="I82" s="3" t="n">
-        <v>772</v>
+        <v>1528</v>
       </c>
       <c r="J82" s="3" t="n">
-        <v>56626</v>
+        <v>52432</v>
       </c>
       <c r="K82" s="3" t="inlineStr"/>
       <c r="L82" s="3" t="n">
-        <v>18689</v>
+        <v>11504</v>
       </c>
       <c r="M82" s="3" t="n">
-        <v>9869</v>
+        <v>19823</v>
       </c>
       <c r="N82" s="3" t="n">
-        <v>13817</v>
+        <v>9732</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>11418</v>
+        <v>7389</v>
+      </c>
+      <c r="P82" s="3" t="n">
+        <v>1360</v>
       </c>
     </row>
     <row r="83">
@@ -4504,34 +4753,37 @@
       <c r="D83" s="3" t="inlineStr"/>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:23</t>
+          <t>2024-09-16 09:26</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr"/>
       <c r="G83" s="3" t="n">
-        <v>77101</v>
+        <v>75746</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>49674</v>
+        <v>45878</v>
       </c>
       <c r="I83" s="3" t="n">
-        <v>1437</v>
+        <v>1187</v>
       </c>
       <c r="J83" s="3" t="n">
-        <v>48237</v>
+        <v>44691</v>
       </c>
       <c r="K83" s="3" t="inlineStr"/>
       <c r="L83" s="3" t="n">
-        <v>18894</v>
+        <v>8219</v>
       </c>
       <c r="M83" s="3" t="n">
-        <v>9636</v>
+        <v>8771</v>
       </c>
       <c r="N83" s="3" t="n">
-        <v>10039</v>
+        <v>14301</v>
       </c>
       <c r="O83" s="3" t="n">
-        <v>7254</v>
+        <v>8634</v>
+      </c>
+      <c r="P83" s="3" t="n">
+        <v>2530</v>
       </c>
     </row>
     <row r="84">
@@ -4553,34 +4805,37 @@
       <c r="D84" s="3" t="inlineStr"/>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 19:48</t>
+          <t>2024-09-16 11:55</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr"/>
       <c r="G84" s="3" t="n">
-        <v>94216</v>
+        <v>89464</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>59759</v>
+        <v>76533</v>
       </c>
       <c r="I84" s="3" t="n">
-        <v>775</v>
+        <v>2286</v>
       </c>
       <c r="J84" s="3" t="n">
-        <v>58984</v>
+        <v>74247</v>
       </c>
       <c r="K84" s="3" t="inlineStr"/>
       <c r="L84" s="3" t="n">
-        <v>12863</v>
+        <v>13021</v>
       </c>
       <c r="M84" s="3" t="n">
-        <v>18473</v>
+        <v>20364</v>
       </c>
       <c r="N84" s="3" t="n">
-        <v>11123</v>
+        <v>17019</v>
       </c>
       <c r="O84" s="3" t="n">
-        <v>13573</v>
+        <v>10337</v>
+      </c>
+      <c r="P84" s="3" t="n">
+        <v>9791</v>
       </c>
     </row>
     <row r="85">
@@ -4602,34 +4857,37 @@
       <c r="D85" s="3" t="inlineStr"/>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:44</t>
+          <t>2024-09-16 18:28</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr"/>
       <c r="G85" s="3" t="n">
-        <v>108338</v>
+        <v>101162</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>87146</v>
+        <v>85650</v>
       </c>
       <c r="I85" s="3" t="n">
-        <v>2282</v>
+        <v>1214</v>
       </c>
       <c r="J85" s="3" t="n">
-        <v>84864</v>
+        <v>84436</v>
       </c>
       <c r="K85" s="3" t="inlineStr"/>
       <c r="L85" s="3" t="n">
-        <v>27073</v>
+        <v>29151</v>
       </c>
       <c r="M85" s="3" t="n">
-        <v>23702</v>
+        <v>19724</v>
       </c>
       <c r="N85" s="3" t="n">
-        <v>16834</v>
+        <v>14500</v>
       </c>
       <c r="O85" s="3" t="n">
-        <v>13009</v>
+        <v>5714</v>
+      </c>
+      <c r="P85" s="3" t="n">
+        <v>11122</v>
       </c>
     </row>
     <row r="86">
@@ -4651,34 +4909,37 @@
       <c r="D86" s="3" t="inlineStr"/>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 08:33</t>
+          <t>2024-09-16 16:54</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr"/>
       <c r="G86" s="3" t="n">
-        <v>101738</v>
+        <v>96534</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>71926</v>
+        <v>82844</v>
       </c>
       <c r="I86" s="3" t="n">
-        <v>1551</v>
+        <v>889</v>
       </c>
       <c r="J86" s="3" t="n">
-        <v>70375</v>
+        <v>81955</v>
       </c>
       <c r="K86" s="3" t="inlineStr"/>
       <c r="L86" s="3" t="n">
-        <v>20904</v>
+        <v>19176</v>
       </c>
       <c r="M86" s="3" t="n">
-        <v>25185</v>
+        <v>24388</v>
       </c>
       <c r="N86" s="3" t="n">
-        <v>18406</v>
+        <v>24777</v>
       </c>
       <c r="O86" s="3" t="n">
-        <v>2359</v>
+        <v>8355</v>
+      </c>
+      <c r="P86" s="3" t="n">
+        <v>1159</v>
       </c>
     </row>
     <row r="87">
@@ -4700,34 +4961,37 @@
       <c r="D87" s="3" t="inlineStr"/>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 13:23</t>
+          <t>2024-09-16 08:35</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr"/>
       <c r="G87" s="3" t="n">
-        <v>83908</v>
+        <v>81884</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>72862</v>
+        <v>50118</v>
       </c>
       <c r="I87" s="3" t="n">
-        <v>1250</v>
+        <v>679</v>
       </c>
       <c r="J87" s="3" t="n">
-        <v>71612</v>
+        <v>49439</v>
       </c>
       <c r="K87" s="3" t="inlineStr"/>
       <c r="L87" s="3" t="n">
-        <v>24343</v>
+        <v>8771</v>
       </c>
       <c r="M87" s="3" t="n">
-        <v>20303</v>
+        <v>9567</v>
       </c>
       <c r="N87" s="3" t="n">
-        <v>8391</v>
+        <v>12990</v>
       </c>
       <c r="O87" s="3" t="n">
-        <v>14993</v>
+        <v>7643</v>
+      </c>
+      <c r="P87" s="3" t="n">
+        <v>7994</v>
       </c>
     </row>
     <row r="88">
@@ -4749,34 +5013,37 @@
       <c r="D88" s="3" t="inlineStr"/>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 16:04</t>
+          <t>2024-09-16 13:14</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr"/>
       <c r="G88" s="3" t="n">
-        <v>88185</v>
+        <v>84209</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>62386</v>
+        <v>74157</v>
       </c>
       <c r="I88" s="3" t="n">
-        <v>1364</v>
+        <v>1119</v>
       </c>
       <c r="J88" s="3" t="n">
-        <v>61022</v>
+        <v>73038</v>
       </c>
       <c r="K88" s="3" t="inlineStr"/>
       <c r="L88" s="3" t="n">
-        <v>19627</v>
+        <v>21375</v>
       </c>
       <c r="M88" s="3" t="n">
-        <v>12843</v>
+        <v>13820</v>
       </c>
       <c r="N88" s="3" t="n">
-        <v>12216</v>
+        <v>19660</v>
       </c>
       <c r="O88" s="3" t="n">
-        <v>13283</v>
+        <v>7932</v>
+      </c>
+      <c r="P88" s="3" t="n">
+        <v>6596</v>
       </c>
     </row>
     <row r="89">
@@ -4798,34 +5065,37 @@
       <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:27</t>
+          <t>2024-09-16 19:58</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr"/>
       <c r="G89" s="3" t="n">
-        <v>99218</v>
+        <v>99790</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>81537</v>
+        <v>87259</v>
       </c>
       <c r="I89" s="3" t="n">
-        <v>1439</v>
+        <v>1596</v>
       </c>
       <c r="J89" s="3" t="n">
-        <v>80098</v>
+        <v>85663</v>
       </c>
       <c r="K89" s="3" t="inlineStr"/>
       <c r="L89" s="3" t="n">
-        <v>31512</v>
+        <v>35828</v>
       </c>
       <c r="M89" s="3" t="n">
-        <v>14504</v>
+        <v>15033</v>
       </c>
       <c r="N89" s="3" t="n">
-        <v>13328</v>
+        <v>20856</v>
       </c>
       <c r="O89" s="3" t="n">
-        <v>16747</v>
+        <v>5375</v>
+      </c>
+      <c r="P89" s="3" t="n">
+        <v>4285</v>
       </c>
     </row>
     <row r="90">
@@ -4847,34 +5117,37 @@
       <c r="D90" s="3" t="inlineStr"/>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 19:38</t>
+          <t>2024-09-16 16:04</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr"/>
       <c r="G90" s="3" t="n">
-        <v>83240</v>
+        <v>85036</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>63584</v>
+        <v>75845</v>
       </c>
       <c r="I90" s="3" t="n">
-        <v>1848</v>
+        <v>1646</v>
       </c>
       <c r="J90" s="3" t="n">
-        <v>61736</v>
+        <v>74199</v>
       </c>
       <c r="K90" s="3" t="inlineStr"/>
       <c r="L90" s="3" t="n">
-        <v>28503</v>
+        <v>22874</v>
       </c>
       <c r="M90" s="3" t="n">
-        <v>12381</v>
+        <v>16281</v>
       </c>
       <c r="N90" s="3" t="n">
-        <v>12814</v>
+        <v>21168</v>
       </c>
       <c r="O90" s="3" t="n">
-        <v>4949</v>
+        <v>7743</v>
+      </c>
+      <c r="P90" s="3" t="n">
+        <v>2420</v>
       </c>
     </row>
     <row r="91">
@@ -4896,34 +5169,37 @@
       <c r="D91" s="3" t="inlineStr"/>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 14:22</t>
+          <t>2024-09-16 10:00</t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr"/>
       <c r="G91" s="3" t="n">
-        <v>109753</v>
+        <v>102004</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>66482</v>
+        <v>75866</v>
       </c>
       <c r="I91" s="3" t="n">
-        <v>1399</v>
+        <v>2126</v>
       </c>
       <c r="J91" s="3" t="n">
-        <v>65083</v>
+        <v>73740</v>
       </c>
       <c r="K91" s="3" t="inlineStr"/>
       <c r="L91" s="3" t="n">
-        <v>28383</v>
+        <v>21091</v>
       </c>
       <c r="M91" s="3" t="n">
-        <v>15742</v>
+        <v>8632</v>
       </c>
       <c r="N91" s="3" t="n">
-        <v>12165</v>
+        <v>14132</v>
       </c>
       <c r="O91" s="3" t="n">
-        <v>5537</v>
+        <v>11444</v>
+      </c>
+      <c r="P91" s="3" t="n">
+        <v>14752</v>
       </c>
     </row>
     <row r="92">
@@ -4945,34 +5221,37 @@
       <c r="D92" s="3" t="inlineStr"/>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 10:26</t>
+          <t>2024-09-16 08:26</t>
         </is>
       </c>
       <c r="F92" s="3" t="inlineStr"/>
       <c r="G92" s="3" t="n">
-        <v>93721</v>
+        <v>95782</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>68484</v>
+        <v>85834</v>
       </c>
       <c r="I92" s="3" t="n">
-        <v>1652</v>
+        <v>1856</v>
       </c>
       <c r="J92" s="3" t="n">
-        <v>66832</v>
+        <v>83978</v>
       </c>
       <c r="K92" s="3" t="inlineStr"/>
       <c r="L92" s="3" t="n">
-        <v>17960</v>
+        <v>12566</v>
       </c>
       <c r="M92" s="3" t="n">
-        <v>15777</v>
+        <v>17765</v>
       </c>
       <c r="N92" s="3" t="n">
-        <v>13865</v>
+        <v>15498</v>
       </c>
       <c r="O92" s="3" t="n">
-        <v>15887</v>
+        <v>18655</v>
+      </c>
+      <c r="P92" s="3" t="n">
+        <v>15293</v>
       </c>
     </row>
     <row r="93">
@@ -4994,34 +5273,37 @@
       <c r="D93" s="3" t="inlineStr"/>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 14:56</t>
+          <t>2024-09-16 09:23</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr"/>
       <c r="G93" s="3" t="n">
-        <v>99513</v>
+        <v>101760</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>74686</v>
+        <v>82061</v>
       </c>
       <c r="I93" s="3" t="n">
-        <v>2073</v>
+        <v>1052</v>
       </c>
       <c r="J93" s="3" t="n">
-        <v>72613</v>
+        <v>81009</v>
       </c>
       <c r="K93" s="3" t="inlineStr"/>
       <c r="L93" s="3" t="n">
-        <v>23618</v>
+        <v>22100</v>
       </c>
       <c r="M93" s="3" t="n">
-        <v>17204</v>
+        <v>15077</v>
       </c>
       <c r="N93" s="3" t="n">
-        <v>10006</v>
+        <v>19064</v>
       </c>
       <c r="O93" s="3" t="n">
-        <v>18152</v>
+        <v>15012</v>
+      </c>
+      <c r="P93" s="3" t="n">
+        <v>5702</v>
       </c>
     </row>
     <row r="94">
@@ -5043,34 +5325,37 @@
       <c r="D94" s="3" t="inlineStr"/>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 14:23</t>
+          <t>2024-09-16 19:58</t>
         </is>
       </c>
       <c r="F94" s="3" t="inlineStr"/>
       <c r="G94" s="3" t="n">
-        <v>85645</v>
+        <v>87456</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>64568</v>
+        <v>68149</v>
       </c>
       <c r="I94" s="3" t="n">
-        <v>1444</v>
+        <v>1548</v>
       </c>
       <c r="J94" s="3" t="n">
-        <v>63124</v>
+        <v>66601</v>
       </c>
       <c r="K94" s="3" t="inlineStr"/>
       <c r="L94" s="3" t="n">
-        <v>19494</v>
+        <v>18059</v>
       </c>
       <c r="M94" s="3" t="n">
-        <v>21588</v>
+        <v>17744</v>
       </c>
       <c r="N94" s="3" t="n">
-        <v>9093</v>
+        <v>10316</v>
       </c>
       <c r="O94" s="3" t="n">
-        <v>9790</v>
+        <v>13704</v>
+      </c>
+      <c r="P94" s="3" t="n">
+        <v>3445</v>
       </c>
     </row>
     <row r="95">
@@ -5092,34 +5377,37 @@
       <c r="D95" s="3" t="inlineStr"/>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 10:54</t>
+          <t>2024-09-16 09:30</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr"/>
       <c r="G95" s="3" t="n">
-        <v>78969</v>
+        <v>79605</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>70850</v>
+        <v>70682</v>
       </c>
       <c r="I95" s="3" t="n">
-        <v>1744</v>
+        <v>1254</v>
       </c>
       <c r="J95" s="3" t="n">
-        <v>69106</v>
+        <v>69428</v>
       </c>
       <c r="K95" s="3" t="inlineStr"/>
       <c r="L95" s="3" t="n">
-        <v>24152</v>
+        <v>21615</v>
       </c>
       <c r="M95" s="3" t="n">
-        <v>21144</v>
+        <v>24122</v>
       </c>
       <c r="N95" s="3" t="n">
-        <v>12166</v>
+        <v>7520</v>
       </c>
       <c r="O95" s="3" t="n">
-        <v>8187</v>
+        <v>2229</v>
+      </c>
+      <c r="P95" s="3" t="n">
+        <v>10468</v>
       </c>
     </row>
     <row r="96">
@@ -5141,34 +5429,37 @@
       <c r="D96" s="3" t="inlineStr"/>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:04</t>
+          <t>2024-09-16 11:40</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr"/>
       <c r="G96" s="3" t="n">
-        <v>88770</v>
+        <v>96865</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>58926</v>
+        <v>68804</v>
       </c>
       <c r="I96" s="3" t="n">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="J96" s="3" t="n">
-        <v>58151</v>
+        <v>68049</v>
       </c>
       <c r="K96" s="3" t="inlineStr"/>
       <c r="L96" s="3" t="n">
-        <v>18338</v>
+        <v>20325</v>
       </c>
       <c r="M96" s="3" t="n">
-        <v>19071</v>
+        <v>17079</v>
       </c>
       <c r="N96" s="3" t="n">
-        <v>14538</v>
+        <v>8616</v>
       </c>
       <c r="O96" s="3" t="n">
-        <v>3295</v>
+        <v>12178</v>
+      </c>
+      <c r="P96" s="3" t="n">
+        <v>6445</v>
       </c>
     </row>
     <row r="97">
@@ -5190,34 +5481,37 @@
       <c r="D97" s="3" t="inlineStr"/>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 08:31</t>
+          <t>2024-09-16 08:20</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr"/>
       <c r="G97" s="3" t="n">
-        <v>96815</v>
+        <v>99859</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>73026</v>
+        <v>80400</v>
       </c>
       <c r="I97" s="3" t="n">
-        <v>1583</v>
+        <v>1432</v>
       </c>
       <c r="J97" s="3" t="n">
-        <v>71443</v>
+        <v>78968</v>
       </c>
       <c r="K97" s="3" t="inlineStr"/>
       <c r="L97" s="3" t="n">
-        <v>23045</v>
+        <v>23028</v>
       </c>
       <c r="M97" s="3" t="n">
-        <v>26462</v>
+        <v>20218</v>
       </c>
       <c r="N97" s="3" t="n">
-        <v>10867</v>
+        <v>17722</v>
       </c>
       <c r="O97" s="3" t="n">
-        <v>7495</v>
+        <v>7988</v>
+      </c>
+      <c r="P97" s="3" t="n">
+        <v>6060</v>
       </c>
     </row>
     <row r="98">
@@ -5239,34 +5533,37 @@
       <c r="D98" s="3" t="inlineStr"/>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 17:05</t>
+          <t>2024-09-16 13:28</t>
         </is>
       </c>
       <c r="F98" s="3" t="inlineStr"/>
       <c r="G98" s="3" t="n">
-        <v>106702</v>
+        <v>110036</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>75575</v>
+        <v>78908</v>
       </c>
       <c r="I98" s="3" t="n">
-        <v>864</v>
+        <v>1530</v>
       </c>
       <c r="J98" s="3" t="n">
-        <v>74711</v>
+        <v>77378</v>
       </c>
       <c r="K98" s="3" t="inlineStr"/>
       <c r="L98" s="3" t="n">
-        <v>20152</v>
+        <v>26878</v>
       </c>
       <c r="M98" s="3" t="n">
-        <v>15851</v>
+        <v>9351</v>
       </c>
       <c r="N98" s="3" t="n">
-        <v>12185</v>
+        <v>8010</v>
       </c>
       <c r="O98" s="3" t="n">
-        <v>22786</v>
+        <v>17706</v>
+      </c>
+      <c r="P98" s="3" t="n">
+        <v>11562</v>
       </c>
     </row>
     <row r="99">
@@ -5288,34 +5585,37 @@
       <c r="D99" s="3" t="inlineStr"/>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:42</t>
+          <t>2024-09-16 09:26</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr"/>
       <c r="G99" s="3" t="n">
-        <v>82970</v>
+        <v>81080</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>52446</v>
+        <v>70453</v>
       </c>
       <c r="I99" s="3" t="n">
-        <v>727</v>
+        <v>1517</v>
       </c>
       <c r="J99" s="3" t="n">
-        <v>51719</v>
+        <v>68936</v>
       </c>
       <c r="K99" s="3" t="inlineStr"/>
       <c r="L99" s="3" t="n">
-        <v>11896</v>
+        <v>13902</v>
       </c>
       <c r="M99" s="3" t="n">
-        <v>17713</v>
+        <v>16568</v>
       </c>
       <c r="N99" s="3" t="n">
-        <v>15214</v>
+        <v>16673</v>
       </c>
       <c r="O99" s="3" t="n">
-        <v>4308</v>
+        <v>10190</v>
+      </c>
+      <c r="P99" s="3" t="n">
+        <v>8155</v>
       </c>
     </row>
     <row r="100">
@@ -5337,34 +5637,37 @@
       <c r="D100" s="3" t="inlineStr"/>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 11:17</t>
+          <t>2024-09-16 12:11</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr"/>
       <c r="G100" s="3" t="n">
-        <v>129124</v>
+        <v>130889</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>91017</v>
+        <v>81463</v>
       </c>
       <c r="I100" s="3" t="n">
-        <v>2141</v>
+        <v>994</v>
       </c>
       <c r="J100" s="3" t="n">
-        <v>88876</v>
+        <v>80469</v>
       </c>
       <c r="K100" s="3" t="inlineStr"/>
       <c r="L100" s="3" t="n">
-        <v>37292</v>
+        <v>23736</v>
       </c>
       <c r="M100" s="3" t="n">
-        <v>17654</v>
+        <v>21106</v>
       </c>
       <c r="N100" s="3" t="n">
-        <v>24805</v>
+        <v>12168</v>
       </c>
       <c r="O100" s="3" t="n">
-        <v>4678</v>
+        <v>6443</v>
+      </c>
+      <c r="P100" s="3" t="n">
+        <v>12989</v>
       </c>
     </row>
     <row r="101">
@@ -5386,34 +5689,37 @@
       <c r="D101" s="3" t="inlineStr"/>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:47</t>
+          <t>2024-09-16 12:17</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr"/>
       <c r="G101" s="3" t="n">
-        <v>179098</v>
+        <v>182388</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>128719</v>
+        <v>139399</v>
       </c>
       <c r="I101" s="3" t="n">
-        <v>3729</v>
+        <v>2780</v>
       </c>
       <c r="J101" s="3" t="n">
-        <v>124990</v>
+        <v>136619</v>
       </c>
       <c r="K101" s="3" t="inlineStr"/>
       <c r="L101" s="3" t="n">
-        <v>27897</v>
+        <v>22510</v>
       </c>
       <c r="M101" s="3" t="n">
-        <v>31102</v>
+        <v>35066</v>
       </c>
       <c r="N101" s="3" t="n">
-        <v>27099</v>
+        <v>40102</v>
       </c>
       <c r="O101" s="3" t="n">
-        <v>32640</v>
+        <v>8947</v>
+      </c>
+      <c r="P101" s="3" t="n">
+        <v>23160</v>
       </c>
     </row>
     <row r="102">
@@ -5435,34 +5741,37 @@
       <c r="D102" s="3" t="inlineStr"/>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:36</t>
+          <t>2024-09-16 09:39</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr"/>
       <c r="G102" s="3" t="n">
-        <v>23780</v>
+        <v>23483</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>18214</v>
+        <v>15080</v>
       </c>
       <c r="I102" s="3" t="n">
-        <v>540</v>
+        <v>418</v>
       </c>
       <c r="J102" s="3" t="n">
-        <v>17674</v>
+        <v>14662</v>
       </c>
       <c r="K102" s="3" t="inlineStr"/>
       <c r="L102" s="3" t="n">
-        <v>5816</v>
+        <v>2706</v>
       </c>
       <c r="M102" s="3" t="n">
-        <v>4102</v>
+        <v>3628</v>
       </c>
       <c r="N102" s="3" t="n">
-        <v>5005</v>
+        <v>3622</v>
       </c>
       <c r="O102" s="3" t="n">
-        <v>1866</v>
+        <v>2991</v>
+      </c>
+      <c r="P102" s="3" t="n">
+        <v>979</v>
       </c>
     </row>
     <row r="103">
@@ -5484,34 +5793,37 @@
       <c r="D103" s="3" t="inlineStr"/>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:57</t>
+          <t>2024-09-16 10:23</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr"/>
       <c r="G103" s="3" t="n">
-        <v>50146</v>
+        <v>52810</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>42992</v>
+        <v>43762</v>
       </c>
       <c r="I103" s="3" t="n">
-        <v>1276</v>
+        <v>909</v>
       </c>
       <c r="J103" s="3" t="n">
-        <v>41716</v>
+        <v>42853</v>
       </c>
       <c r="K103" s="3" t="inlineStr"/>
       <c r="L103" s="3" t="n">
-        <v>9811</v>
+        <v>10238</v>
       </c>
       <c r="M103" s="3" t="n">
-        <v>10867</v>
+        <v>9319</v>
       </c>
       <c r="N103" s="3" t="n">
-        <v>9063</v>
+        <v>5924</v>
       </c>
       <c r="O103" s="3" t="n">
-        <v>9887</v>
+        <v>8227</v>
+      </c>
+      <c r="P103" s="3" t="n">
+        <v>6999</v>
       </c>
     </row>
     <row r="104">
@@ -5533,34 +5845,37 @@
       <c r="D104" s="3" t="inlineStr"/>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:34</t>
+          <t>2024-09-16 16:02</t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr"/>
       <c r="G104" s="3" t="n">
-        <v>65059</v>
+        <v>67572</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>48912</v>
+        <v>47956</v>
       </c>
       <c r="I104" s="3" t="n">
-        <v>1248</v>
+        <v>1032</v>
       </c>
       <c r="J104" s="3" t="n">
-        <v>47664</v>
+        <v>46924</v>
       </c>
       <c r="K104" s="3" t="inlineStr"/>
       <c r="L104" s="3" t="n">
-        <v>14748</v>
+        <v>10578</v>
       </c>
       <c r="M104" s="3" t="n">
-        <v>17848</v>
+        <v>9442</v>
       </c>
       <c r="N104" s="3" t="n">
-        <v>7941</v>
+        <v>10399</v>
       </c>
       <c r="O104" s="3" t="n">
-        <v>4742</v>
+        <v>2793</v>
+      </c>
+      <c r="P104" s="3" t="n">
+        <v>11362</v>
       </c>
     </row>
     <row r="105">
@@ -5582,34 +5897,37 @@
       <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 11:31</t>
+          <t>2024-09-16 16:39</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr"/>
       <c r="G105" s="3" t="n">
-        <v>60644</v>
+        <v>60070</v>
       </c>
       <c r="H105" s="3" t="n">
-        <v>45260</v>
+        <v>53703</v>
       </c>
       <c r="I105" s="3" t="n">
-        <v>1017</v>
+        <v>1088</v>
       </c>
       <c r="J105" s="3" t="n">
-        <v>44243</v>
+        <v>52615</v>
       </c>
       <c r="K105" s="3" t="inlineStr"/>
       <c r="L105" s="3" t="n">
-        <v>15626</v>
+        <v>10096</v>
       </c>
       <c r="M105" s="3" t="n">
-        <v>8882</v>
+        <v>16657</v>
       </c>
       <c r="N105" s="3" t="n">
-        <v>7234</v>
+        <v>6660</v>
       </c>
       <c r="O105" s="3" t="n">
-        <v>10287</v>
+        <v>5499</v>
+      </c>
+      <c r="P105" s="3" t="n">
+        <v>11070</v>
       </c>
     </row>
     <row r="106">
@@ -5631,34 +5949,37 @@
       <c r="D106" s="3" t="inlineStr"/>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:34</t>
+          <t>2024-09-16 11:59</t>
         </is>
       </c>
       <c r="F106" s="3" t="inlineStr"/>
       <c r="G106" s="3" t="n">
-        <v>62786</v>
+        <v>62469</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>38501</v>
+        <v>42404</v>
       </c>
       <c r="I106" s="3" t="n">
-        <v>715</v>
+        <v>459</v>
       </c>
       <c r="J106" s="3" t="n">
-        <v>37786</v>
+        <v>41945</v>
       </c>
       <c r="K106" s="3" t="inlineStr"/>
       <c r="L106" s="3" t="n">
-        <v>10324</v>
+        <v>16181</v>
       </c>
       <c r="M106" s="3" t="n">
-        <v>12470</v>
+        <v>7980</v>
       </c>
       <c r="N106" s="3" t="n">
-        <v>9216</v>
+        <v>10917</v>
       </c>
       <c r="O106" s="3" t="n">
-        <v>3885</v>
+        <v>3343</v>
+      </c>
+      <c r="P106" s="3" t="n">
+        <v>1425</v>
       </c>
     </row>
     <row r="107">
@@ -5680,34 +6001,37 @@
       <c r="D107" s="3" t="inlineStr"/>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 16:49</t>
+          <t>2024-09-16 10:28</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr"/>
       <c r="G107" s="3" t="n">
-        <v>40158</v>
+        <v>42101</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>25742</v>
+        <v>26123</v>
       </c>
       <c r="I107" s="3" t="n">
-        <v>260</v>
+        <v>356</v>
       </c>
       <c r="J107" s="3" t="n">
-        <v>25482</v>
+        <v>25767</v>
       </c>
       <c r="K107" s="3" t="inlineStr"/>
       <c r="L107" s="3" t="n">
-        <v>8968</v>
+        <v>5749</v>
       </c>
       <c r="M107" s="3" t="n">
-        <v>5364</v>
+        <v>3595</v>
       </c>
       <c r="N107" s="3" t="n">
-        <v>4217</v>
+        <v>7554</v>
       </c>
       <c r="O107" s="3" t="n">
-        <v>5657</v>
+        <v>2626</v>
+      </c>
+      <c r="P107" s="3" t="n">
+        <v>4952</v>
       </c>
     </row>
     <row r="108">
@@ -5729,34 +6053,37 @@
       <c r="D108" s="3" t="inlineStr"/>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 11:19</t>
+          <t>2024-09-16 15:01</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr"/>
       <c r="G108" s="3" t="n">
-        <v>37569</v>
+        <v>39619</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>26182</v>
+        <v>29064</v>
       </c>
       <c r="I108" s="3" t="n">
-        <v>531</v>
+        <v>325</v>
       </c>
       <c r="J108" s="3" t="n">
-        <v>25651</v>
+        <v>28739</v>
       </c>
       <c r="K108" s="3" t="inlineStr"/>
       <c r="L108" s="3" t="n">
-        <v>6801</v>
+        <v>8263</v>
       </c>
       <c r="M108" s="3" t="n">
-        <v>5296</v>
+        <v>8139</v>
       </c>
       <c r="N108" s="3" t="n">
-        <v>6166</v>
+        <v>5352</v>
       </c>
       <c r="O108" s="3" t="n">
-        <v>6103</v>
+        <v>2027</v>
+      </c>
+      <c r="P108" s="3" t="n">
+        <v>3519</v>
       </c>
     </row>
     <row r="109">
@@ -5778,34 +6105,37 @@
       <c r="D109" s="3" t="inlineStr"/>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:12</t>
+          <t>2024-09-16 19:12</t>
         </is>
       </c>
       <c r="F109" s="3" t="inlineStr"/>
       <c r="G109" s="3" t="n">
-        <v>55015</v>
+        <v>55854</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>38781</v>
+        <v>41282</v>
       </c>
       <c r="I109" s="3" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="J109" s="3" t="n">
-        <v>37821</v>
+        <v>40321</v>
       </c>
       <c r="K109" s="3" t="inlineStr"/>
       <c r="L109" s="3" t="n">
-        <v>9045</v>
+        <v>10576</v>
       </c>
       <c r="M109" s="3" t="n">
-        <v>13235</v>
+        <v>9617</v>
       </c>
       <c r="N109" s="3" t="n">
-        <v>5339</v>
+        <v>7941</v>
       </c>
       <c r="O109" s="3" t="n">
-        <v>8309</v>
+        <v>9409</v>
+      </c>
+      <c r="P109" s="3" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="110">
@@ -5827,34 +6157,37 @@
       <c r="D110" s="3" t="inlineStr"/>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 17:07</t>
+          <t>2024-09-16 10:46</t>
         </is>
       </c>
       <c r="F110" s="3" t="inlineStr"/>
       <c r="G110" s="3" t="n">
-        <v>48724</v>
+        <v>50746</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>41337</v>
+        <v>33180</v>
       </c>
       <c r="I110" s="3" t="n">
-        <v>1043</v>
+        <v>792</v>
       </c>
       <c r="J110" s="3" t="n">
-        <v>40294</v>
+        <v>32388</v>
       </c>
       <c r="K110" s="3" t="inlineStr"/>
       <c r="L110" s="3" t="n">
-        <v>8041</v>
+        <v>15056</v>
       </c>
       <c r="M110" s="3" t="n">
-        <v>12079</v>
+        <v>7855</v>
       </c>
       <c r="N110" s="3" t="n">
-        <v>9776</v>
+        <v>5315</v>
       </c>
       <c r="O110" s="3" t="n">
-        <v>8381</v>
+        <v>1957</v>
+      </c>
+      <c r="P110" s="3" t="n">
+        <v>583</v>
       </c>
     </row>
     <row r="111">
@@ -5876,34 +6209,37 @@
       <c r="D111" s="3" t="inlineStr"/>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:04</t>
+          <t>2024-09-16 19:11</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr"/>
       <c r="G111" s="3" t="n">
-        <v>35871</v>
+        <v>35532</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>30201</v>
+        <v>23188</v>
       </c>
       <c r="I111" s="3" t="n">
-        <v>629</v>
+        <v>283</v>
       </c>
       <c r="J111" s="3" t="n">
-        <v>29572</v>
+        <v>22905</v>
       </c>
       <c r="K111" s="3" t="inlineStr"/>
       <c r="L111" s="3" t="n">
-        <v>10061</v>
+        <v>5272</v>
       </c>
       <c r="M111" s="3" t="n">
-        <v>5282</v>
+        <v>3267</v>
       </c>
       <c r="N111" s="3" t="n">
-        <v>8988</v>
+        <v>3153</v>
       </c>
       <c r="O111" s="3" t="n">
-        <v>3761</v>
+        <v>5788</v>
+      </c>
+      <c r="P111" s="3" t="n">
+        <v>4277</v>
       </c>
     </row>
     <row r="112">
@@ -5925,34 +6261,37 @@
       <c r="D112" s="3" t="inlineStr"/>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 20:01</t>
+          <t>2024-09-16 20:09</t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr"/>
       <c r="G112" s="3" t="n">
-        <v>88693</v>
+        <v>89277</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>73658</v>
+        <v>74833</v>
       </c>
       <c r="I112" s="3" t="n">
-        <v>1216</v>
+        <v>1970</v>
       </c>
       <c r="J112" s="3" t="n">
-        <v>72442</v>
+        <v>72863</v>
       </c>
       <c r="K112" s="3" t="inlineStr"/>
       <c r="L112" s="3" t="n">
-        <v>29542</v>
+        <v>17481</v>
       </c>
       <c r="M112" s="3" t="n">
-        <v>17440</v>
+        <v>13803</v>
       </c>
       <c r="N112" s="3" t="n">
-        <v>9779</v>
+        <v>11906</v>
       </c>
       <c r="O112" s="3" t="n">
-        <v>12057</v>
+        <v>16331</v>
+      </c>
+      <c r="P112" s="3" t="n">
+        <v>9698</v>
       </c>
     </row>
     <row r="113">
@@ -5974,34 +6313,37 @@
       <c r="D113" s="3" t="inlineStr"/>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 13:51</t>
+          <t>2024-09-16 09:25</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr"/>
       <c r="G113" s="3" t="n">
-        <v>79683</v>
+        <v>83864</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>64454</v>
+        <v>69795</v>
       </c>
       <c r="I113" s="3" t="n">
-        <v>1814</v>
+        <v>1275</v>
       </c>
       <c r="J113" s="3" t="n">
-        <v>62640</v>
+        <v>68520</v>
       </c>
       <c r="K113" s="3" t="inlineStr"/>
       <c r="L113" s="3" t="n">
-        <v>16440</v>
+        <v>10629</v>
       </c>
       <c r="M113" s="3" t="n">
-        <v>18004</v>
+        <v>17635</v>
       </c>
       <c r="N113" s="3" t="n">
-        <v>12313</v>
+        <v>8377</v>
       </c>
       <c r="O113" s="3" t="n">
-        <v>12750</v>
+        <v>14294</v>
+      </c>
+      <c r="P113" s="3" t="n">
+        <v>14157</v>
       </c>
     </row>
     <row r="114">
@@ -6023,34 +6365,37 @@
       <c r="D114" s="3" t="inlineStr"/>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 17:26</t>
+          <t>2024-09-16 12:52</t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr"/>
       <c r="G114" s="3" t="n">
-        <v>117965</v>
+        <v>123851</v>
       </c>
       <c r="H114" s="3" t="n">
-        <v>95830</v>
+        <v>82190</v>
       </c>
       <c r="I114" s="3" t="n">
-        <v>1458</v>
+        <v>2209</v>
       </c>
       <c r="J114" s="3" t="n">
-        <v>94372</v>
+        <v>79981</v>
       </c>
       <c r="K114" s="3" t="inlineStr"/>
       <c r="L114" s="3" t="n">
-        <v>26972</v>
+        <v>16190</v>
       </c>
       <c r="M114" s="3" t="n">
-        <v>13280</v>
+        <v>16782</v>
       </c>
       <c r="N114" s="3" t="n">
-        <v>28614</v>
+        <v>13774</v>
       </c>
       <c r="O114" s="3" t="n">
-        <v>20786</v>
+        <v>8461</v>
+      </c>
+      <c r="P114" s="3" t="n">
+        <v>20772</v>
       </c>
     </row>
     <row r="115">
@@ -6072,34 +6417,37 @@
       <c r="D115" s="3" t="inlineStr"/>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 11:19</t>
+          <t>2024-09-16 11:16</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr"/>
       <c r="G115" s="3" t="n">
-        <v>81509</v>
+        <v>81060</v>
       </c>
       <c r="H115" s="3" t="n">
-        <v>49630</v>
+        <v>53118</v>
       </c>
       <c r="I115" s="3" t="n">
-        <v>1057</v>
+        <v>1568</v>
       </c>
       <c r="J115" s="3" t="n">
-        <v>48573</v>
+        <v>51550</v>
       </c>
       <c r="K115" s="3" t="inlineStr"/>
       <c r="L115" s="3" t="n">
-        <v>11594</v>
+        <v>8850</v>
       </c>
       <c r="M115" s="3" t="n">
-        <v>16662</v>
+        <v>8111</v>
       </c>
       <c r="N115" s="3" t="n">
-        <v>5226</v>
+        <v>11549</v>
       </c>
       <c r="O115" s="3" t="n">
-        <v>12660</v>
+        <v>6548</v>
+      </c>
+      <c r="P115" s="3" t="n">
+        <v>13912</v>
       </c>
     </row>
     <row r="116">
@@ -6121,34 +6469,37 @@
       <c r="D116" s="3" t="inlineStr"/>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 14:20</t>
+          <t>2024-09-16 14:53</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr"/>
       <c r="G116" s="3" t="n">
-        <v>120097</v>
+        <v>127300</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>107168</v>
+        <v>113795</v>
       </c>
       <c r="I116" s="3" t="n">
-        <v>2533</v>
+        <v>2065</v>
       </c>
       <c r="J116" s="3" t="n">
-        <v>104635</v>
+        <v>111730</v>
       </c>
       <c r="K116" s="3" t="inlineStr"/>
       <c r="L116" s="3" t="n">
-        <v>26252</v>
+        <v>27861</v>
       </c>
       <c r="M116" s="3" t="n">
-        <v>36205</v>
+        <v>20739</v>
       </c>
       <c r="N116" s="3" t="n">
-        <v>12798</v>
+        <v>36017</v>
       </c>
       <c r="O116" s="3" t="n">
-        <v>24146</v>
+        <v>12066</v>
+      </c>
+      <c r="P116" s="3" t="n">
+        <v>9458</v>
       </c>
     </row>
     <row r="117">
@@ -6170,34 +6521,37 @@
       <c r="D117" s="3" t="inlineStr"/>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:39</t>
+          <t>2024-09-16 10:50</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr"/>
       <c r="G117" s="3" t="n">
-        <v>190308</v>
+        <v>195958</v>
       </c>
       <c r="H117" s="3" t="n">
-        <v>155026</v>
+        <v>128175</v>
       </c>
       <c r="I117" s="3" t="n">
-        <v>2839</v>
+        <v>1331</v>
       </c>
       <c r="J117" s="3" t="n">
-        <v>152187</v>
+        <v>126844</v>
       </c>
       <c r="K117" s="3" t="inlineStr"/>
       <c r="L117" s="3" t="n">
-        <v>46860</v>
+        <v>42456</v>
       </c>
       <c r="M117" s="3" t="n">
-        <v>23417</v>
+        <v>42292</v>
       </c>
       <c r="N117" s="3" t="n">
-        <v>47458</v>
+        <v>26838</v>
       </c>
       <c r="O117" s="3" t="n">
-        <v>26841</v>
+        <v>4801</v>
+      </c>
+      <c r="P117" s="3" t="n">
+        <v>4112</v>
       </c>
     </row>
     <row r="118">
@@ -6219,34 +6573,37 @@
       <c r="D118" s="3" t="inlineStr"/>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:13</t>
+          <t>2024-09-16 15:22</t>
         </is>
       </c>
       <c r="F118" s="3" t="inlineStr"/>
       <c r="G118" s="3" t="n">
-        <v>97000</v>
+        <v>96720</v>
       </c>
       <c r="H118" s="3" t="n">
-        <v>66446</v>
+        <v>60740</v>
       </c>
       <c r="I118" s="3" t="n">
-        <v>732</v>
+        <v>955</v>
       </c>
       <c r="J118" s="3" t="n">
-        <v>65714</v>
+        <v>59785</v>
       </c>
       <c r="K118" s="3" t="inlineStr"/>
       <c r="L118" s="3" t="n">
-        <v>18726</v>
+        <v>14081</v>
       </c>
       <c r="M118" s="3" t="n">
-        <v>19076</v>
+        <v>15530</v>
       </c>
       <c r="N118" s="3" t="n">
-        <v>15885</v>
+        <v>7197</v>
       </c>
       <c r="O118" s="3" t="n">
-        <v>8740</v>
+        <v>10863</v>
+      </c>
+      <c r="P118" s="3" t="n">
+        <v>9122</v>
       </c>
     </row>
     <row r="119">
@@ -6268,34 +6625,37 @@
       <c r="D119" s="3" t="inlineStr"/>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:32</t>
+          <t>2024-09-16 13:44</t>
         </is>
       </c>
       <c r="F119" s="3" t="inlineStr"/>
       <c r="G119" s="3" t="n">
-        <v>174099</v>
+        <v>165744</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>106772</v>
+        <v>111069</v>
       </c>
       <c r="I119" s="3" t="n">
-        <v>1311</v>
+        <v>1624</v>
       </c>
       <c r="J119" s="3" t="n">
-        <v>105461</v>
+        <v>109445</v>
       </c>
       <c r="K119" s="3" t="inlineStr"/>
       <c r="L119" s="3" t="n">
-        <v>27301</v>
+        <v>19012</v>
       </c>
       <c r="M119" s="3" t="n">
-        <v>32478</v>
+        <v>37802</v>
       </c>
       <c r="N119" s="3" t="n">
-        <v>23263</v>
+        <v>14825</v>
       </c>
       <c r="O119" s="3" t="n">
-        <v>17144</v>
+        <v>25551</v>
+      </c>
+      <c r="P119" s="3" t="n">
+        <v>6780</v>
       </c>
     </row>
     <row r="120">
@@ -6317,34 +6677,37 @@
       <c r="D120" s="3" t="inlineStr"/>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:46</t>
+          <t>2024-09-16 19:18</t>
         </is>
       </c>
       <c r="F120" s="3" t="inlineStr"/>
       <c r="G120" s="3" t="n">
-        <v>93665</v>
+        <v>90983</v>
       </c>
       <c r="H120" s="3" t="n">
-        <v>62811</v>
+        <v>68840</v>
       </c>
       <c r="I120" s="3" t="n">
-        <v>1323</v>
+        <v>1801</v>
       </c>
       <c r="J120" s="3" t="n">
-        <v>61488</v>
+        <v>67039</v>
       </c>
       <c r="K120" s="3" t="inlineStr"/>
       <c r="L120" s="3" t="n">
-        <v>26394</v>
+        <v>10097</v>
       </c>
       <c r="M120" s="3" t="n">
-        <v>9902</v>
+        <v>20969</v>
       </c>
       <c r="N120" s="3" t="n">
-        <v>18437</v>
+        <v>19659</v>
       </c>
       <c r="O120" s="3" t="n">
-        <v>3678</v>
+        <v>7058</v>
+      </c>
+      <c r="P120" s="3" t="n">
+        <v>5902</v>
       </c>
     </row>
     <row r="121">
@@ -6366,34 +6729,37 @@
       <c r="D121" s="3" t="inlineStr"/>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:03</t>
+          <t>2024-09-16 19:36</t>
         </is>
       </c>
       <c r="F121" s="3" t="inlineStr"/>
       <c r="G121" s="3" t="n">
-        <v>79445</v>
+        <v>76504</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>58635</v>
+        <v>67241</v>
       </c>
       <c r="I121" s="3" t="n">
-        <v>1027</v>
+        <v>1615</v>
       </c>
       <c r="J121" s="3" t="n">
-        <v>57608</v>
+        <v>65626</v>
       </c>
       <c r="K121" s="3" t="inlineStr"/>
       <c r="L121" s="3" t="n">
-        <v>19910</v>
+        <v>16028</v>
       </c>
       <c r="M121" s="3" t="n">
-        <v>14917</v>
+        <v>19160</v>
       </c>
       <c r="N121" s="3" t="n">
-        <v>14460</v>
+        <v>8836</v>
       </c>
       <c r="O121" s="3" t="n">
-        <v>5438</v>
+        <v>13042</v>
+      </c>
+      <c r="P121" s="3" t="n">
+        <v>5276</v>
       </c>
     </row>
     <row r="122">
@@ -6415,34 +6781,37 @@
       <c r="D122" s="3" t="inlineStr"/>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 19:30</t>
+          <t>2024-09-16 10:40</t>
         </is>
       </c>
       <c r="F122" s="3" t="inlineStr"/>
       <c r="G122" s="3" t="n">
-        <v>174752</v>
+        <v>166765</v>
       </c>
       <c r="H122" s="3" t="n">
-        <v>151881</v>
+        <v>129847</v>
       </c>
       <c r="I122" s="3" t="n">
-        <v>4405</v>
+        <v>2051</v>
       </c>
       <c r="J122" s="3" t="n">
-        <v>147476</v>
+        <v>127796</v>
       </c>
       <c r="K122" s="3" t="inlineStr"/>
       <c r="L122" s="3" t="n">
-        <v>45923</v>
+        <v>27211</v>
       </c>
       <c r="M122" s="3" t="n">
-        <v>46096</v>
+        <v>33223</v>
       </c>
       <c r="N122" s="3" t="n">
-        <v>24205</v>
+        <v>25366</v>
       </c>
       <c r="O122" s="3" t="n">
-        <v>23876</v>
+        <v>20801</v>
+      </c>
+      <c r="P122" s="3" t="n">
+        <v>14803</v>
       </c>
     </row>
     <row r="123">
@@ -6464,34 +6833,37 @@
       <c r="D123" s="3" t="inlineStr"/>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 14:08</t>
+          <t>2024-09-16 17:48</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr"/>
       <c r="G123" s="3" t="n">
-        <v>77349</v>
+        <v>73920</v>
       </c>
       <c r="H123" s="3" t="n">
-        <v>47355</v>
+        <v>56780</v>
       </c>
       <c r="I123" s="3" t="n">
-        <v>1140</v>
+        <v>1232</v>
       </c>
       <c r="J123" s="3" t="n">
-        <v>46215</v>
+        <v>55548</v>
       </c>
       <c r="K123" s="3" t="inlineStr"/>
       <c r="L123" s="3" t="n">
-        <v>14173</v>
+        <v>9649</v>
       </c>
       <c r="M123" s="3" t="n">
-        <v>8522</v>
+        <v>15577</v>
       </c>
       <c r="N123" s="3" t="n">
-        <v>17668</v>
+        <v>16555</v>
       </c>
       <c r="O123" s="3" t="n">
-        <v>3539</v>
+        <v>10312</v>
+      </c>
+      <c r="P123" s="3" t="n">
+        <v>674</v>
       </c>
     </row>
     <row r="124">
@@ -6513,34 +6885,37 @@
       <c r="D124" s="3" t="inlineStr"/>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:16</t>
+          <t>2024-09-16 14:35</t>
         </is>
       </c>
       <c r="F124" s="3" t="inlineStr"/>
       <c r="G124" s="3" t="n">
-        <v>101816</v>
+        <v>97742</v>
       </c>
       <c r="H124" s="3" t="n">
-        <v>77426</v>
+        <v>87117</v>
       </c>
       <c r="I124" s="3" t="n">
-        <v>1715</v>
+        <v>1287</v>
       </c>
       <c r="J124" s="3" t="n">
-        <v>75711</v>
+        <v>85830</v>
       </c>
       <c r="K124" s="3" t="inlineStr"/>
       <c r="L124" s="3" t="n">
-        <v>28123</v>
+        <v>24981</v>
       </c>
       <c r="M124" s="3" t="n">
-        <v>18415</v>
+        <v>18669</v>
       </c>
       <c r="N124" s="3" t="n">
-        <v>23161</v>
+        <v>10786</v>
       </c>
       <c r="O124" s="3" t="n">
-        <v>2225</v>
+        <v>21022</v>
+      </c>
+      <c r="P124" s="3" t="n">
+        <v>6078</v>
       </c>
     </row>
     <row r="125">
@@ -6562,34 +6937,37 @@
       <c r="D125" s="3" t="inlineStr"/>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:56</t>
+          <t>2024-09-16 18:24</t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr"/>
       <c r="G125" s="3" t="n">
-        <v>116483</v>
+        <v>110343</v>
       </c>
       <c r="H125" s="3" t="n">
-        <v>76242</v>
+        <v>89313</v>
       </c>
       <c r="I125" s="3" t="n">
-        <v>1744</v>
+        <v>1034</v>
       </c>
       <c r="J125" s="3" t="n">
-        <v>74498</v>
+        <v>88279</v>
       </c>
       <c r="K125" s="3" t="inlineStr"/>
       <c r="L125" s="3" t="n">
-        <v>17952</v>
+        <v>21272</v>
       </c>
       <c r="M125" s="3" t="n">
-        <v>10839</v>
+        <v>16031</v>
       </c>
       <c r="N125" s="3" t="n">
-        <v>23676</v>
+        <v>29114</v>
       </c>
       <c r="O125" s="3" t="n">
-        <v>18305</v>
+        <v>8978</v>
+      </c>
+      <c r="P125" s="3" t="n">
+        <v>8468</v>
       </c>
     </row>
     <row r="126">
@@ -6611,34 +6989,37 @@
       <c r="D126" s="3" t="inlineStr"/>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 18:40</t>
+          <t>2024-09-16 13:48</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr"/>
       <c r="G126" s="3" t="n">
-        <v>110794</v>
+        <v>107327</v>
       </c>
       <c r="H126" s="3" t="n">
-        <v>72442</v>
+        <v>89169</v>
       </c>
       <c r="I126" s="3" t="n">
-        <v>1321</v>
+        <v>1275</v>
       </c>
       <c r="J126" s="3" t="n">
-        <v>71121</v>
+        <v>87894</v>
       </c>
       <c r="K126" s="3" t="inlineStr"/>
       <c r="L126" s="3" t="n">
-        <v>34176</v>
+        <v>21346</v>
       </c>
       <c r="M126" s="3" t="n">
-        <v>20840</v>
+        <v>21903</v>
       </c>
       <c r="N126" s="3" t="n">
-        <v>8185</v>
+        <v>18814</v>
       </c>
       <c r="O126" s="3" t="n">
-        <v>4362</v>
+        <v>9172</v>
+      </c>
+      <c r="P126" s="3" t="n">
+        <v>12262</v>
       </c>
     </row>
     <row r="127">
@@ -6660,34 +7041,37 @@
       <c r="D127" s="3" t="inlineStr"/>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 11:59</t>
+          <t>2024-09-16 19:12</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr"/>
       <c r="G127" s="3" t="n">
-        <v>104004</v>
+        <v>98409</v>
       </c>
       <c r="H127" s="3" t="n">
-        <v>81315</v>
+        <v>78222</v>
       </c>
       <c r="I127" s="3" t="n">
-        <v>2019</v>
+        <v>1827</v>
       </c>
       <c r="J127" s="3" t="n">
-        <v>79296</v>
+        <v>76395</v>
       </c>
       <c r="K127" s="3" t="inlineStr"/>
       <c r="L127" s="3" t="n">
-        <v>32874</v>
+        <v>21662</v>
       </c>
       <c r="M127" s="3" t="n">
-        <v>26617</v>
+        <v>21172</v>
       </c>
       <c r="N127" s="3" t="n">
-        <v>10164</v>
+        <v>13571</v>
       </c>
       <c r="O127" s="3" t="n">
-        <v>5675</v>
+        <v>15063</v>
+      </c>
+      <c r="P127" s="3" t="n">
+        <v>1104</v>
       </c>
     </row>
     <row r="128">
@@ -6709,34 +7093,37 @@
       <c r="D128" s="3" t="inlineStr"/>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 11:46</t>
+          <t>2024-09-16 10:36</t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr"/>
       <c r="G128" s="3" t="n">
-        <v>116862</v>
+        <v>121305</v>
       </c>
       <c r="H128" s="3" t="n">
-        <v>71565</v>
+        <v>95544</v>
       </c>
       <c r="I128" s="3" t="n">
-        <v>1778</v>
+        <v>2566</v>
       </c>
       <c r="J128" s="3" t="n">
-        <v>69787</v>
+        <v>92978</v>
       </c>
       <c r="K128" s="3" t="inlineStr"/>
       <c r="L128" s="3" t="n">
-        <v>28555</v>
+        <v>20567</v>
       </c>
       <c r="M128" s="3" t="n">
-        <v>12458</v>
+        <v>18530</v>
       </c>
       <c r="N128" s="3" t="n">
-        <v>10801</v>
+        <v>17264</v>
       </c>
       <c r="O128" s="3" t="n">
-        <v>14481</v>
+        <v>15072</v>
+      </c>
+      <c r="P128" s="3" t="n">
+        <v>16893</v>
       </c>
     </row>
     <row r="129">
@@ -6758,34 +7145,37 @@
       <c r="D129" s="3" t="inlineStr"/>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:28</t>
+          <t>2024-09-16 17:38</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr"/>
       <c r="G129" s="3" t="n">
-        <v>105786</v>
+        <v>100338</v>
       </c>
       <c r="H129" s="3" t="n">
-        <v>92450</v>
+        <v>60375</v>
       </c>
       <c r="I129" s="3" t="n">
-        <v>2057</v>
+        <v>634</v>
       </c>
       <c r="J129" s="3" t="n">
-        <v>90393</v>
+        <v>59741</v>
       </c>
       <c r="K129" s="3" t="inlineStr"/>
       <c r="L129" s="3" t="n">
-        <v>32989</v>
+        <v>21245</v>
       </c>
       <c r="M129" s="3" t="n">
-        <v>19276</v>
+        <v>17665</v>
       </c>
       <c r="N129" s="3" t="n">
-        <v>21276</v>
+        <v>11508</v>
       </c>
       <c r="O129" s="3" t="n">
-        <v>12331</v>
+        <v>2587</v>
+      </c>
+      <c r="P129" s="3" t="n">
+        <v>3747</v>
       </c>
     </row>
     <row r="130">
@@ -6807,34 +7197,37 @@
       <c r="D130" s="3" t="inlineStr"/>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 19:56</t>
+          <t>2024-09-16 16:02</t>
         </is>
       </c>
       <c r="F130" s="3" t="inlineStr"/>
       <c r="G130" s="3" t="n">
-        <v>83322</v>
+        <v>77476</v>
       </c>
       <c r="H130" s="3" t="n">
-        <v>69258</v>
+        <v>65637</v>
       </c>
       <c r="I130" s="3" t="n">
-        <v>1837</v>
+        <v>1295</v>
       </c>
       <c r="J130" s="3" t="n">
-        <v>67421</v>
+        <v>64342</v>
       </c>
       <c r="K130" s="3" t="inlineStr"/>
       <c r="L130" s="3" t="n">
-        <v>21421</v>
+        <v>12163</v>
       </c>
       <c r="M130" s="3" t="n">
-        <v>21324</v>
+        <v>15360</v>
       </c>
       <c r="N130" s="3" t="n">
-        <v>14163</v>
+        <v>9118</v>
       </c>
       <c r="O130" s="3" t="n">
-        <v>7141</v>
+        <v>12819</v>
+      </c>
+      <c r="P130" s="3" t="n">
+        <v>11662</v>
       </c>
     </row>
     <row r="131">
@@ -6856,34 +7249,37 @@
       <c r="D131" s="3" t="inlineStr"/>
       <c r="E131" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 19:45</t>
+          <t>2024-09-16 08:16</t>
         </is>
       </c>
       <c r="F131" s="3" t="inlineStr"/>
       <c r="G131" s="3" t="n">
-        <v>76812</v>
+        <v>81275</v>
       </c>
       <c r="H131" s="3" t="n">
-        <v>61089</v>
+        <v>61479</v>
       </c>
       <c r="I131" s="3" t="n">
-        <v>660</v>
+        <v>1696</v>
       </c>
       <c r="J131" s="3" t="n">
-        <v>60429</v>
+        <v>59783</v>
       </c>
       <c r="K131" s="3" t="inlineStr"/>
       <c r="L131" s="3" t="n">
-        <v>21667</v>
+        <v>18805</v>
       </c>
       <c r="M131" s="3" t="n">
-        <v>20030</v>
+        <v>9073</v>
       </c>
       <c r="N131" s="3" t="n">
-        <v>10327</v>
+        <v>18012</v>
       </c>
       <c r="O131" s="3" t="n">
-        <v>5381</v>
+        <v>10133</v>
+      </c>
+      <c r="P131" s="3" t="n">
+        <v>768</v>
       </c>
     </row>
     <row r="132">
@@ -6905,34 +7301,37 @@
       <c r="D132" s="3" t="inlineStr"/>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:59</t>
+          <t>2024-09-16 14:23</t>
         </is>
       </c>
       <c r="F132" s="3" t="inlineStr"/>
       <c r="G132" s="3" t="n">
-        <v>93498</v>
+        <v>94093</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>70591</v>
+        <v>56865</v>
       </c>
       <c r="I132" s="3" t="n">
-        <v>927</v>
+        <v>1445</v>
       </c>
       <c r="J132" s="3" t="n">
-        <v>69664</v>
+        <v>55420</v>
       </c>
       <c r="K132" s="3" t="inlineStr"/>
       <c r="L132" s="3" t="n">
-        <v>26040</v>
+        <v>7776</v>
       </c>
       <c r="M132" s="3" t="n">
-        <v>10351</v>
+        <v>12905</v>
       </c>
       <c r="N132" s="3" t="n">
-        <v>15447</v>
+        <v>12651</v>
       </c>
       <c r="O132" s="3" t="n">
-        <v>14341</v>
+        <v>9266</v>
+      </c>
+      <c r="P132" s="3" t="n">
+        <v>10048</v>
       </c>
     </row>
     <row r="133">
@@ -6954,34 +7353,37 @@
       <c r="D133" s="3" t="inlineStr"/>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:47</t>
+          <t>2024-09-16 14:57</t>
         </is>
       </c>
       <c r="F133" s="3" t="inlineStr"/>
       <c r="G133" s="3" t="n">
-        <v>102758</v>
+        <v>99755</v>
       </c>
       <c r="H133" s="3" t="n">
-        <v>64255</v>
+        <v>86726</v>
       </c>
       <c r="I133" s="3" t="n">
-        <v>846</v>
+        <v>2333</v>
       </c>
       <c r="J133" s="3" t="n">
-        <v>63409</v>
+        <v>84393</v>
       </c>
       <c r="K133" s="3" t="inlineStr"/>
       <c r="L133" s="3" t="n">
-        <v>11809</v>
+        <v>25415</v>
       </c>
       <c r="M133" s="3" t="n">
-        <v>16994</v>
+        <v>21480</v>
       </c>
       <c r="N133" s="3" t="n">
-        <v>17583</v>
+        <v>14880</v>
       </c>
       <c r="O133" s="3" t="n">
-        <v>13850</v>
+        <v>9595</v>
+      </c>
+      <c r="P133" s="3" t="n">
+        <v>8801</v>
       </c>
     </row>
     <row r="134">
@@ -7003,34 +7405,37 @@
       <c r="D134" s="3" t="inlineStr"/>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 11:23</t>
+          <t>2024-09-16 11:48</t>
         </is>
       </c>
       <c r="F134" s="3" t="inlineStr"/>
       <c r="G134" s="3" t="n">
-        <v>103645</v>
+        <v>110649</v>
       </c>
       <c r="H134" s="3" t="n">
-        <v>62320</v>
+        <v>75236</v>
       </c>
       <c r="I134" s="3" t="n">
-        <v>1372</v>
+        <v>871</v>
       </c>
       <c r="J134" s="3" t="n">
-        <v>60948</v>
+        <v>74365</v>
       </c>
       <c r="K134" s="3" t="inlineStr"/>
       <c r="L134" s="3" t="n">
-        <v>21794</v>
+        <v>9545</v>
       </c>
       <c r="M134" s="3" t="n">
-        <v>8871</v>
+        <v>17254</v>
       </c>
       <c r="N134" s="3" t="n">
-        <v>15574</v>
+        <v>15816</v>
       </c>
       <c r="O134" s="3" t="n">
-        <v>11660</v>
+        <v>15552</v>
+      </c>
+      <c r="P134" s="3" t="n">
+        <v>12477</v>
       </c>
     </row>
     <row r="135">
@@ -7052,34 +7457,37 @@
       <c r="D135" s="3" t="inlineStr"/>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:00</t>
+          <t>2024-09-16 12:26</t>
         </is>
       </c>
       <c r="F135" s="3" t="inlineStr"/>
       <c r="G135" s="3" t="n">
-        <v>95891</v>
+        <v>94725</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>85202</v>
+        <v>64904</v>
       </c>
       <c r="I135" s="3" t="n">
-        <v>1749</v>
+        <v>1176</v>
       </c>
       <c r="J135" s="3" t="n">
-        <v>83453</v>
+        <v>63728</v>
       </c>
       <c r="K135" s="3" t="inlineStr"/>
       <c r="L135" s="3" t="n">
-        <v>22628</v>
+        <v>20600</v>
       </c>
       <c r="M135" s="3" t="n">
-        <v>27021</v>
+        <v>9517</v>
       </c>
       <c r="N135" s="3" t="n">
-        <v>11241</v>
+        <v>21389</v>
       </c>
       <c r="O135" s="3" t="n">
-        <v>18389</v>
+        <v>5599</v>
+      </c>
+      <c r="P135" s="3" t="n">
+        <v>3433</v>
       </c>
     </row>
     <row r="136">
@@ -7101,34 +7509,37 @@
       <c r="D136" s="3" t="inlineStr"/>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 20:09</t>
+          <t>2024-09-16 19:47</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr"/>
       <c r="G136" s="3" t="n">
-        <v>81403</v>
+        <v>78004</v>
       </c>
       <c r="H136" s="3" t="n">
-        <v>50547</v>
+        <v>53141</v>
       </c>
       <c r="I136" s="3" t="n">
-        <v>1415</v>
+        <v>959</v>
       </c>
       <c r="J136" s="3" t="n">
-        <v>49132</v>
+        <v>52182</v>
       </c>
       <c r="K136" s="3" t="inlineStr"/>
       <c r="L136" s="3" t="n">
-        <v>15911</v>
+        <v>16357</v>
       </c>
       <c r="M136" s="3" t="n">
-        <v>15136</v>
+        <v>9655</v>
       </c>
       <c r="N136" s="3" t="n">
-        <v>10536</v>
+        <v>10363</v>
       </c>
       <c r="O136" s="3" t="n">
-        <v>5091</v>
+        <v>12114</v>
+      </c>
+      <c r="P136" s="3" t="n">
+        <v>1081</v>
       </c>
     </row>
     <row r="137">
@@ -7150,34 +7561,37 @@
       <c r="D137" s="3" t="inlineStr"/>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 18:57</t>
+          <t>2024-09-16 10:32</t>
         </is>
       </c>
       <c r="F137" s="3" t="inlineStr"/>
       <c r="G137" s="3" t="n">
-        <v>94644</v>
+        <v>95091</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>69695</v>
+        <v>81423</v>
       </c>
       <c r="I137" s="3" t="n">
-        <v>2040</v>
+        <v>1232</v>
       </c>
       <c r="J137" s="3" t="n">
-        <v>67655</v>
+        <v>80191</v>
       </c>
       <c r="K137" s="3" t="inlineStr"/>
       <c r="L137" s="3" t="n">
-        <v>21140</v>
+        <v>30865</v>
       </c>
       <c r="M137" s="3" t="n">
-        <v>11489</v>
+        <v>17464</v>
       </c>
       <c r="N137" s="3" t="n">
-        <v>14682</v>
+        <v>15078</v>
       </c>
       <c r="O137" s="3" t="n">
-        <v>16960</v>
+        <v>6534</v>
+      </c>
+      <c r="P137" s="3" t="n">
+        <v>6238</v>
       </c>
     </row>
     <row r="138">
@@ -7199,34 +7613,37 @@
       <c r="D138" s="3" t="inlineStr"/>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 19:06</t>
+          <t>2024-09-16 14:58</t>
         </is>
       </c>
       <c r="F138" s="3" t="inlineStr"/>
       <c r="G138" s="3" t="n">
-        <v>99307</v>
+        <v>97717</v>
       </c>
       <c r="H138" s="3" t="n">
-        <v>67745</v>
+        <v>67335</v>
       </c>
       <c r="I138" s="3" t="n">
-        <v>1247</v>
+        <v>1209</v>
       </c>
       <c r="J138" s="3" t="n">
-        <v>66498</v>
+        <v>66126</v>
       </c>
       <c r="K138" s="3" t="inlineStr"/>
       <c r="L138" s="3" t="n">
-        <v>26691</v>
+        <v>13990</v>
       </c>
       <c r="M138" s="3" t="n">
-        <v>16401</v>
+        <v>18343</v>
       </c>
       <c r="N138" s="3" t="n">
-        <v>12108</v>
+        <v>15655</v>
       </c>
       <c r="O138" s="3" t="n">
-        <v>7972</v>
+        <v>9696</v>
+      </c>
+      <c r="P138" s="3" t="n">
+        <v>5133</v>
       </c>
     </row>
     <row r="139">
@@ -7248,34 +7665,37 @@
       <c r="D139" s="3" t="inlineStr"/>
       <c r="E139" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 13:10</t>
+          <t>2024-09-16 09:33</t>
         </is>
       </c>
       <c r="F139" s="3" t="inlineStr"/>
       <c r="G139" s="3" t="n">
-        <v>73844</v>
+        <v>75950</v>
       </c>
       <c r="H139" s="3" t="n">
-        <v>57788</v>
+        <v>60116</v>
       </c>
       <c r="I139" s="3" t="n">
-        <v>1583</v>
+        <v>815</v>
       </c>
       <c r="J139" s="3" t="n">
-        <v>56205</v>
+        <v>59301</v>
       </c>
       <c r="K139" s="3" t="inlineStr"/>
       <c r="L139" s="3" t="n">
-        <v>23347</v>
+        <v>15461</v>
       </c>
       <c r="M139" s="3" t="n">
-        <v>12970</v>
+        <v>14229</v>
       </c>
       <c r="N139" s="3" t="n">
-        <v>9495</v>
+        <v>7256</v>
       </c>
       <c r="O139" s="3" t="n">
-        <v>7581</v>
+        <v>9667</v>
+      </c>
+      <c r="P139" s="3" t="n">
+        <v>9720</v>
       </c>
     </row>
     <row r="140">
@@ -7297,34 +7717,37 @@
       <c r="D140" s="3" t="inlineStr"/>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:43</t>
+          <t>2024-09-16 11:43</t>
         </is>
       </c>
       <c r="F140" s="3" t="inlineStr"/>
       <c r="G140" s="3" t="n">
-        <v>156156</v>
+        <v>154923</v>
       </c>
       <c r="H140" s="3" t="n">
-        <v>134956</v>
+        <v>96655</v>
       </c>
       <c r="I140" s="3" t="n">
-        <v>1360</v>
+        <v>1578</v>
       </c>
       <c r="J140" s="3" t="n">
-        <v>133596</v>
+        <v>95077</v>
       </c>
       <c r="K140" s="3" t="inlineStr"/>
       <c r="L140" s="3" t="n">
-        <v>45868</v>
+        <v>20326</v>
       </c>
       <c r="M140" s="3" t="n">
-        <v>29601</v>
+        <v>12976</v>
       </c>
       <c r="N140" s="3" t="n">
-        <v>28427</v>
+        <v>29143</v>
       </c>
       <c r="O140" s="3" t="n">
-        <v>23019</v>
+        <v>12554</v>
+      </c>
+      <c r="P140" s="3" t="n">
+        <v>15321</v>
       </c>
     </row>
     <row r="141">
@@ -7346,34 +7769,37 @@
       <c r="D141" s="3" t="inlineStr"/>
       <c r="E141" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 17:11</t>
+          <t>2024-09-16 18:56</t>
         </is>
       </c>
       <c r="F141" s="3" t="inlineStr"/>
       <c r="G141" s="3" t="n">
-        <v>129115</v>
+        <v>129906</v>
       </c>
       <c r="H141" s="3" t="n">
-        <v>103479</v>
+        <v>88325</v>
       </c>
       <c r="I141" s="3" t="n">
-        <v>1063</v>
+        <v>2174</v>
       </c>
       <c r="J141" s="3" t="n">
-        <v>102416</v>
+        <v>86151</v>
       </c>
       <c r="K141" s="3" t="inlineStr"/>
       <c r="L141" s="3" t="n">
-        <v>36718</v>
+        <v>27139</v>
       </c>
       <c r="M141" s="3" t="n">
-        <v>23832</v>
+        <v>13650</v>
       </c>
       <c r="N141" s="3" t="n">
-        <v>26097</v>
+        <v>20873</v>
       </c>
       <c r="O141" s="3" t="n">
-        <v>10646</v>
+        <v>12344</v>
+      </c>
+      <c r="P141" s="3" t="n">
+        <v>7836</v>
       </c>
     </row>
     <row r="142">
@@ -7395,34 +7821,37 @@
       <c r="D142" s="3" t="inlineStr"/>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 08:46</t>
+          <t>2024-09-16 08:47</t>
         </is>
       </c>
       <c r="F142" s="3" t="inlineStr"/>
       <c r="G142" s="3" t="n">
-        <v>133834</v>
+        <v>134559</v>
       </c>
       <c r="H142" s="3" t="n">
-        <v>112393</v>
+        <v>90732</v>
       </c>
       <c r="I142" s="3" t="n">
-        <v>1392</v>
+        <v>1805</v>
       </c>
       <c r="J142" s="3" t="n">
-        <v>111001</v>
+        <v>88927</v>
       </c>
       <c r="K142" s="3" t="inlineStr"/>
       <c r="L142" s="3" t="n">
-        <v>45691</v>
+        <v>27126</v>
       </c>
       <c r="M142" s="3" t="n">
-        <v>32026</v>
+        <v>26833</v>
       </c>
       <c r="N142" s="3" t="n">
-        <v>13395</v>
+        <v>9855</v>
       </c>
       <c r="O142" s="3" t="n">
-        <v>14337</v>
+        <v>14568</v>
+      </c>
+      <c r="P142" s="3" t="n">
+        <v>6097</v>
       </c>
     </row>
     <row r="143">
@@ -7444,34 +7873,37 @@
       <c r="D143" s="3" t="inlineStr"/>
       <c r="E143" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 17:34</t>
+          <t>2024-09-16 12:35</t>
         </is>
       </c>
       <c r="F143" s="3" t="inlineStr"/>
       <c r="G143" s="3" t="n">
-        <v>98398</v>
+        <v>101483</v>
       </c>
       <c r="H143" s="3" t="n">
-        <v>82456</v>
+        <v>70582</v>
       </c>
       <c r="I143" s="3" t="n">
-        <v>2467</v>
+        <v>1396</v>
       </c>
       <c r="J143" s="3" t="n">
-        <v>79989</v>
+        <v>69186</v>
       </c>
       <c r="K143" s="3" t="inlineStr"/>
       <c r="L143" s="3" t="n">
-        <v>23559</v>
+        <v>25081</v>
       </c>
       <c r="M143" s="3" t="n">
-        <v>13521</v>
+        <v>9244</v>
       </c>
       <c r="N143" s="3" t="n">
-        <v>23141</v>
+        <v>13536</v>
       </c>
       <c r="O143" s="3" t="n">
-        <v>15766</v>
+        <v>13962</v>
+      </c>
+      <c r="P143" s="3" t="n">
+        <v>3900</v>
       </c>
     </row>
     <row r="144">
@@ -7493,34 +7925,37 @@
       <c r="D144" s="3" t="inlineStr"/>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 11:40</t>
+          <t>2024-09-16 18:58</t>
         </is>
       </c>
       <c r="F144" s="3" t="inlineStr"/>
       <c r="G144" s="3" t="n">
-        <v>120529</v>
+        <v>118755</v>
       </c>
       <c r="H144" s="3" t="n">
-        <v>94164</v>
+        <v>100517</v>
       </c>
       <c r="I144" s="3" t="n">
-        <v>2369</v>
+        <v>2145</v>
       </c>
       <c r="J144" s="3" t="n">
-        <v>91795</v>
+        <v>98372</v>
       </c>
       <c r="K144" s="3" t="inlineStr"/>
       <c r="L144" s="3" t="n">
-        <v>34283</v>
+        <v>22542</v>
       </c>
       <c r="M144" s="3" t="n">
-        <v>21473</v>
+        <v>22900</v>
       </c>
       <c r="N144" s="3" t="n">
-        <v>14160</v>
+        <v>19050</v>
       </c>
       <c r="O144" s="3" t="n">
-        <v>17286</v>
+        <v>14026</v>
+      </c>
+      <c r="P144" s="3" t="n">
+        <v>14933</v>
       </c>
     </row>
     <row r="145">
@@ -7542,34 +7977,37 @@
       <c r="D145" s="3" t="inlineStr"/>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:18</t>
+          <t>2024-09-16 11:15</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr"/>
       <c r="G145" s="3" t="n">
-        <v>88999</v>
+        <v>89572</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>78552</v>
+        <v>68334</v>
       </c>
       <c r="I145" s="3" t="n">
-        <v>1299</v>
+        <v>827</v>
       </c>
       <c r="J145" s="3" t="n">
-        <v>77253</v>
+        <v>67507</v>
       </c>
       <c r="K145" s="3" t="inlineStr"/>
       <c r="L145" s="3" t="n">
-        <v>17424</v>
+        <v>10590</v>
       </c>
       <c r="M145" s="3" t="n">
-        <v>23067</v>
+        <v>20966</v>
       </c>
       <c r="N145" s="3" t="n">
-        <v>16624</v>
+        <v>8099</v>
       </c>
       <c r="O145" s="3" t="n">
-        <v>16273</v>
+        <v>7763</v>
+      </c>
+      <c r="P145" s="3" t="n">
+        <v>16711</v>
       </c>
     </row>
     <row r="146">
@@ -7591,34 +8029,37 @@
       <c r="D146" s="3" t="inlineStr"/>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:08</t>
+          <t>2024-09-16 13:01</t>
         </is>
       </c>
       <c r="F146" s="3" t="inlineStr"/>
       <c r="G146" s="3" t="n">
-        <v>86893</v>
+        <v>81156</v>
       </c>
       <c r="H146" s="3" t="n">
-        <v>59915</v>
+        <v>65614</v>
       </c>
       <c r="I146" s="3" t="n">
-        <v>1222</v>
+        <v>925</v>
       </c>
       <c r="J146" s="3" t="n">
-        <v>58693</v>
+        <v>64689</v>
       </c>
       <c r="K146" s="3" t="inlineStr"/>
       <c r="L146" s="3" t="n">
-        <v>12939</v>
+        <v>19637</v>
       </c>
       <c r="M146" s="3" t="n">
-        <v>12026</v>
+        <v>17464</v>
       </c>
       <c r="N146" s="3" t="n">
-        <v>17280</v>
+        <v>9374</v>
       </c>
       <c r="O146" s="3" t="n">
-        <v>13511</v>
+        <v>5155</v>
+      </c>
+      <c r="P146" s="3" t="n">
+        <v>9822</v>
       </c>
     </row>
     <row r="147">
@@ -7640,34 +8081,37 @@
       <c r="D147" s="3" t="inlineStr"/>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 13:17</t>
+          <t>2024-09-16 15:25</t>
         </is>
       </c>
       <c r="F147" s="3" t="inlineStr"/>
       <c r="G147" s="3" t="n">
-        <v>100594</v>
+        <v>104724</v>
       </c>
       <c r="H147" s="3" t="n">
-        <v>87653</v>
+        <v>73134</v>
       </c>
       <c r="I147" s="3" t="n">
-        <v>2519</v>
+        <v>1430</v>
       </c>
       <c r="J147" s="3" t="n">
-        <v>85134</v>
+        <v>71704</v>
       </c>
       <c r="K147" s="3" t="inlineStr"/>
       <c r="L147" s="3" t="n">
-        <v>18119</v>
+        <v>24439</v>
       </c>
       <c r="M147" s="3" t="n">
-        <v>33588</v>
+        <v>24491</v>
       </c>
       <c r="N147" s="3" t="n">
-        <v>25554</v>
+        <v>8926</v>
       </c>
       <c r="O147" s="3" t="n">
-        <v>3614</v>
+        <v>3127</v>
+      </c>
+      <c r="P147" s="3" t="n">
+        <v>7133</v>
       </c>
     </row>
     <row r="148">
@@ -7689,34 +8133,37 @@
       <c r="D148" s="3" t="inlineStr"/>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 10:36</t>
+          <t>2024-09-16 16:25</t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr"/>
       <c r="G148" s="3" t="n">
-        <v>112580</v>
+        <v>112949</v>
       </c>
       <c r="H148" s="3" t="n">
-        <v>81208</v>
+        <v>78967</v>
       </c>
       <c r="I148" s="3" t="n">
-        <v>1940</v>
+        <v>1919</v>
       </c>
       <c r="J148" s="3" t="n">
-        <v>79268</v>
+        <v>77048</v>
       </c>
       <c r="K148" s="3" t="inlineStr"/>
       <c r="L148" s="3" t="n">
-        <v>18848</v>
+        <v>28820</v>
       </c>
       <c r="M148" s="3" t="n">
-        <v>25215</v>
+        <v>13712</v>
       </c>
       <c r="N148" s="3" t="n">
-        <v>25101</v>
+        <v>17233</v>
       </c>
       <c r="O148" s="3" t="n">
-        <v>6139</v>
+        <v>10519</v>
+      </c>
+      <c r="P148" s="3" t="n">
+        <v>2908</v>
       </c>
     </row>
     <row r="149">
@@ -7738,34 +8185,37 @@
       <c r="D149" s="3" t="inlineStr"/>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 13:24</t>
+          <t>2024-09-16 19:27</t>
         </is>
       </c>
       <c r="F149" s="3" t="inlineStr"/>
       <c r="G149" s="3" t="n">
-        <v>124864</v>
+        <v>126897</v>
       </c>
       <c r="H149" s="3" t="n">
-        <v>102821</v>
+        <v>88683</v>
       </c>
       <c r="I149" s="3" t="n">
-        <v>2777</v>
+        <v>1598</v>
       </c>
       <c r="J149" s="3" t="n">
-        <v>100044</v>
+        <v>87085</v>
       </c>
       <c r="K149" s="3" t="inlineStr"/>
       <c r="L149" s="3" t="n">
-        <v>23386</v>
+        <v>25690</v>
       </c>
       <c r="M149" s="3" t="n">
-        <v>35451</v>
+        <v>14953</v>
       </c>
       <c r="N149" s="3" t="n">
-        <v>30631</v>
+        <v>14648</v>
       </c>
       <c r="O149" s="3" t="n">
-        <v>5571</v>
+        <v>10372</v>
+      </c>
+      <c r="P149" s="3" t="n">
+        <v>17064</v>
       </c>
     </row>
     <row r="150">
@@ -7787,34 +8237,37 @@
       <c r="D150" s="3" t="inlineStr"/>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:57</t>
+          <t>2024-09-16 19:24</t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr"/>
       <c r="G150" s="3" t="n">
-        <v>70200</v>
+        <v>69739</v>
       </c>
       <c r="H150" s="3" t="n">
-        <v>54279</v>
+        <v>61875</v>
       </c>
       <c r="I150" s="3" t="n">
-        <v>1503</v>
+        <v>1408</v>
       </c>
       <c r="J150" s="3" t="n">
-        <v>52776</v>
+        <v>60467</v>
       </c>
       <c r="K150" s="3" t="inlineStr"/>
       <c r="L150" s="3" t="n">
-        <v>17508</v>
+        <v>21624</v>
       </c>
       <c r="M150" s="3" t="n">
-        <v>11713</v>
+        <v>16209</v>
       </c>
       <c r="N150" s="3" t="n">
-        <v>14367</v>
+        <v>11878</v>
       </c>
       <c r="O150" s="3" t="n">
-        <v>6547</v>
+        <v>3757</v>
+      </c>
+      <c r="P150" s="3" t="n">
+        <v>3973</v>
       </c>
     </row>
     <row r="151">
@@ -7836,34 +8289,37 @@
       <c r="D151" s="3" t="inlineStr"/>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:01</t>
+          <t>2024-09-16 15:22</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr"/>
       <c r="G151" s="3" t="n">
-        <v>88627</v>
+        <v>91329</v>
       </c>
       <c r="H151" s="3" t="n">
-        <v>76912</v>
+        <v>82076</v>
       </c>
       <c r="I151" s="3" t="n">
-        <v>949</v>
+        <v>2414</v>
       </c>
       <c r="J151" s="3" t="n">
-        <v>75963</v>
+        <v>79662</v>
       </c>
       <c r="K151" s="3" t="inlineStr"/>
       <c r="L151" s="3" t="n">
-        <v>23519</v>
+        <v>21913</v>
       </c>
       <c r="M151" s="3" t="n">
-        <v>12555</v>
+        <v>19846</v>
       </c>
       <c r="N151" s="3" t="n">
-        <v>17132</v>
+        <v>15815</v>
       </c>
       <c r="O151" s="3" t="n">
-        <v>18957</v>
+        <v>16132</v>
+      </c>
+      <c r="P151" s="3" t="n">
+        <v>1970</v>
       </c>
     </row>
     <row r="152">
@@ -7885,34 +8341,37 @@
       <c r="D152" s="3" t="inlineStr"/>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:28</t>
+          <t>2024-09-16 09:50</t>
         </is>
       </c>
       <c r="F152" s="3" t="inlineStr"/>
       <c r="G152" s="3" t="n">
-        <v>91773</v>
+        <v>89246</v>
       </c>
       <c r="H152" s="3" t="n">
-        <v>57158</v>
+        <v>55554</v>
       </c>
       <c r="I152" s="3" t="n">
-        <v>1187</v>
+        <v>1110</v>
       </c>
       <c r="J152" s="3" t="n">
-        <v>55971</v>
+        <v>54444</v>
       </c>
       <c r="K152" s="3" t="inlineStr"/>
       <c r="L152" s="3" t="n">
-        <v>16136</v>
+        <v>13011</v>
       </c>
       <c r="M152" s="3" t="n">
-        <v>11642</v>
+        <v>14073</v>
       </c>
       <c r="N152" s="3" t="n">
-        <v>16071</v>
+        <v>9181</v>
       </c>
       <c r="O152" s="3" t="n">
-        <v>9321</v>
+        <v>8882</v>
+      </c>
+      <c r="P152" s="3" t="n">
+        <v>6573</v>
       </c>
     </row>
     <row r="153">
@@ -7934,34 +8393,37 @@
       <c r="D153" s="3" t="inlineStr"/>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 14:47</t>
+          <t>2024-09-16 16:54</t>
         </is>
       </c>
       <c r="F153" s="3" t="inlineStr"/>
       <c r="G153" s="3" t="n">
-        <v>79662</v>
+        <v>83777</v>
       </c>
       <c r="H153" s="3" t="n">
-        <v>58850</v>
+        <v>59565</v>
       </c>
       <c r="I153" s="3" t="n">
-        <v>1380</v>
+        <v>1401</v>
       </c>
       <c r="J153" s="3" t="n">
-        <v>57470</v>
+        <v>58164</v>
       </c>
       <c r="K153" s="3" t="inlineStr"/>
       <c r="L153" s="3" t="n">
-        <v>18939</v>
+        <v>19686</v>
       </c>
       <c r="M153" s="3" t="n">
-        <v>10589</v>
+        <v>9562</v>
       </c>
       <c r="N153" s="3" t="n">
-        <v>20950</v>
+        <v>6360</v>
       </c>
       <c r="O153" s="3" t="n">
-        <v>4117</v>
+        <v>15446</v>
+      </c>
+      <c r="P153" s="3" t="n">
+        <v>4200</v>
       </c>
     </row>
     <row r="154">
@@ -7983,34 +8445,37 @@
       <c r="D154" s="3" t="inlineStr"/>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:18</t>
+          <t>2024-09-16 09:14</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr"/>
       <c r="G154" s="3" t="n">
-        <v>161640</v>
+        <v>157087</v>
       </c>
       <c r="H154" s="3" t="n">
-        <v>107467</v>
+        <v>136156</v>
       </c>
       <c r="I154" s="3" t="n">
-        <v>3082</v>
+        <v>3239</v>
       </c>
       <c r="J154" s="3" t="n">
-        <v>104385</v>
+        <v>132917</v>
       </c>
       <c r="K154" s="3" t="inlineStr"/>
       <c r="L154" s="3" t="n">
-        <v>36758</v>
+        <v>40422</v>
       </c>
       <c r="M154" s="3" t="n">
-        <v>34393</v>
+        <v>40001</v>
       </c>
       <c r="N154" s="3" t="n">
-        <v>19517</v>
+        <v>34307</v>
       </c>
       <c r="O154" s="3" t="n">
-        <v>8495</v>
+        <v>9979</v>
+      </c>
+      <c r="P154" s="3" t="n">
+        <v>1559</v>
       </c>
     </row>
     <row r="155">
@@ -8032,34 +8497,37 @@
       <c r="D155" s="3" t="inlineStr"/>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 11:16</t>
+          <t>2024-09-16 08:46</t>
         </is>
       </c>
       <c r="F155" s="3" t="inlineStr"/>
       <c r="G155" s="3" t="n">
-        <v>107775</v>
+        <v>103364</v>
       </c>
       <c r="H155" s="3" t="n">
-        <v>79954</v>
+        <v>63009</v>
       </c>
       <c r="I155" s="3" t="n">
-        <v>868</v>
+        <v>760</v>
       </c>
       <c r="J155" s="3" t="n">
-        <v>79086</v>
+        <v>62249</v>
       </c>
       <c r="K155" s="3" t="inlineStr"/>
       <c r="L155" s="3" t="n">
-        <v>23545</v>
+        <v>17035</v>
       </c>
       <c r="M155" s="3" t="n">
-        <v>14579</v>
+        <v>11160</v>
       </c>
       <c r="N155" s="3" t="n">
-        <v>13343</v>
+        <v>7745</v>
       </c>
       <c r="O155" s="3" t="n">
-        <v>23662</v>
+        <v>8034</v>
+      </c>
+      <c r="P155" s="3" t="n">
+        <v>15160</v>
       </c>
     </row>
     <row r="156">
@@ -8081,34 +8549,37 @@
       <c r="D156" s="3" t="inlineStr"/>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 12:39</t>
+          <t>2024-09-16 12:38</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr"/>
       <c r="G156" s="3" t="n">
-        <v>54194</v>
+        <v>52448</v>
       </c>
       <c r="H156" s="3" t="n">
-        <v>44833</v>
+        <v>33792</v>
       </c>
       <c r="I156" s="3" t="n">
-        <v>1070</v>
+        <v>687</v>
       </c>
       <c r="J156" s="3" t="n">
-        <v>43763</v>
+        <v>33105</v>
       </c>
       <c r="K156" s="3" t="inlineStr"/>
       <c r="L156" s="3" t="n">
-        <v>13208</v>
+        <v>5973</v>
       </c>
       <c r="M156" s="3" t="n">
-        <v>10396</v>
+        <v>7779</v>
       </c>
       <c r="N156" s="3" t="n">
-        <v>14996</v>
+        <v>9636</v>
       </c>
       <c r="O156" s="3" t="n">
-        <v>2972</v>
+        <v>7696</v>
+      </c>
+      <c r="P156" s="3" t="n">
+        <v>364</v>
       </c>
     </row>
     <row r="157">
@@ -8130,34 +8601,37 @@
       <c r="D157" s="3" t="inlineStr"/>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 10:23</t>
+          <t>2024-09-16 17:01</t>
         </is>
       </c>
       <c r="F157" s="3" t="inlineStr"/>
       <c r="G157" s="3" t="n">
-        <v>66968</v>
+        <v>65610</v>
       </c>
       <c r="H157" s="3" t="n">
-        <v>55523</v>
+        <v>56576</v>
       </c>
       <c r="I157" s="3" t="n">
-        <v>884</v>
+        <v>1284</v>
       </c>
       <c r="J157" s="3" t="n">
-        <v>54639</v>
+        <v>55292</v>
       </c>
       <c r="K157" s="3" t="inlineStr"/>
       <c r="L157" s="3" t="n">
-        <v>14147</v>
+        <v>13085</v>
       </c>
       <c r="M157" s="3" t="n">
-        <v>17061</v>
+        <v>16916</v>
       </c>
       <c r="N157" s="3" t="n">
-        <v>9614</v>
+        <v>6153</v>
       </c>
       <c r="O157" s="3" t="n">
-        <v>11083</v>
+        <v>6410</v>
+      </c>
+      <c r="P157" s="3" t="n">
+        <v>9961</v>
       </c>
     </row>
     <row r="158">
@@ -8179,34 +8653,37 @@
       <c r="D158" s="3" t="inlineStr"/>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 14:14</t>
+          <t>2024-09-16 09:35</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr"/>
       <c r="G158" s="3" t="n">
-        <v>54332</v>
+        <v>59013</v>
       </c>
       <c r="H158" s="3" t="n">
-        <v>33695</v>
+        <v>37496</v>
       </c>
       <c r="I158" s="3" t="n">
-        <v>930</v>
+        <v>513</v>
       </c>
       <c r="J158" s="3" t="n">
-        <v>32765</v>
+        <v>36983</v>
       </c>
       <c r="K158" s="3" t="inlineStr"/>
       <c r="L158" s="3" t="n">
-        <v>12982</v>
+        <v>8257</v>
       </c>
       <c r="M158" s="3" t="n">
-        <v>6800</v>
+        <v>4778</v>
       </c>
       <c r="N158" s="3" t="n">
-        <v>6274</v>
+        <v>8884</v>
       </c>
       <c r="O158" s="3" t="n">
-        <v>5068</v>
+        <v>6920</v>
+      </c>
+      <c r="P158" s="3" t="n">
+        <v>6292</v>
       </c>
     </row>
     <row r="159">
@@ -8228,34 +8705,37 @@
       <c r="D159" s="3" t="inlineStr"/>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 13:06</t>
+          <t>2024-09-16 13:57</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr"/>
       <c r="G159" s="3" t="n">
-        <v>73236</v>
+        <v>74180</v>
       </c>
       <c r="H159" s="3" t="n">
-        <v>56173</v>
+        <v>54676</v>
       </c>
       <c r="I159" s="3" t="n">
-        <v>797</v>
+        <v>658</v>
       </c>
       <c r="J159" s="3" t="n">
-        <v>55376</v>
+        <v>54018</v>
       </c>
       <c r="K159" s="3" t="inlineStr"/>
       <c r="L159" s="3" t="n">
-        <v>12269</v>
+        <v>17291</v>
       </c>
       <c r="M159" s="3" t="n">
-        <v>24176</v>
+        <v>10353</v>
       </c>
       <c r="N159" s="3" t="n">
-        <v>6867</v>
+        <v>12335</v>
       </c>
       <c r="O159" s="3" t="n">
-        <v>9294</v>
+        <v>3925</v>
+      </c>
+      <c r="P159" s="3" t="n">
+        <v>7412</v>
       </c>
     </row>
     <row r="160">
@@ -8277,34 +8757,37 @@
       <c r="D160" s="3" t="inlineStr"/>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 09:04</t>
+          <t>2024-09-16 11:01</t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr"/>
       <c r="G160" s="3" t="n">
-        <v>62762</v>
+        <v>63289</v>
       </c>
       <c r="H160" s="3" t="n">
-        <v>41710</v>
+        <v>38026</v>
       </c>
       <c r="I160" s="3" t="n">
-        <v>444</v>
+        <v>583</v>
       </c>
       <c r="J160" s="3" t="n">
-        <v>41266</v>
+        <v>37443</v>
       </c>
       <c r="K160" s="3" t="inlineStr"/>
       <c r="L160" s="3" t="n">
-        <v>10709</v>
+        <v>8294</v>
       </c>
       <c r="M160" s="3" t="n">
-        <v>12682</v>
+        <v>8068</v>
       </c>
       <c r="N160" s="3" t="n">
-        <v>12833</v>
+        <v>4791</v>
       </c>
       <c r="O160" s="3" t="n">
-        <v>2978</v>
+        <v>7281</v>
+      </c>
+      <c r="P160" s="3" t="n">
+        <v>7135</v>
       </c>
     </row>
     <row r="161">
@@ -8326,34 +8809,37 @@
       <c r="D161" s="3" t="inlineStr"/>
       <c r="E161" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 19:02</t>
+          <t>2024-09-16 15:00</t>
         </is>
       </c>
       <c r="F161" s="3" t="inlineStr"/>
       <c r="G161" s="3" t="n">
-        <v>79932</v>
+        <v>77224</v>
       </c>
       <c r="H161" s="3" t="n">
-        <v>62809</v>
+        <v>67294</v>
       </c>
       <c r="I161" s="3" t="n">
-        <v>1159</v>
+        <v>1981</v>
       </c>
       <c r="J161" s="3" t="n">
-        <v>61650</v>
+        <v>65313</v>
       </c>
       <c r="K161" s="3" t="inlineStr"/>
       <c r="L161" s="3" t="n">
-        <v>26905</v>
+        <v>12437</v>
       </c>
       <c r="M161" s="3" t="n">
-        <v>15138</v>
+        <v>15955</v>
       </c>
       <c r="N161" s="3" t="n">
-        <v>6567</v>
+        <v>10790</v>
       </c>
       <c r="O161" s="3" t="n">
-        <v>9955</v>
+        <v>9095</v>
+      </c>
+      <c r="P161" s="3" t="n">
+        <v>13768</v>
       </c>
     </row>
     <row r="162">
@@ -8375,34 +8861,37 @@
       <c r="D162" s="3" t="inlineStr"/>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 13:41</t>
+          <t>2024-09-16 12:59</t>
         </is>
       </c>
       <c r="F162" s="3" t="inlineStr"/>
       <c r="G162" s="3" t="n">
-        <v>89747</v>
+        <v>86645</v>
       </c>
       <c r="H162" s="3" t="n">
-        <v>79421</v>
+        <v>59383</v>
       </c>
       <c r="I162" s="3" t="n">
-        <v>850</v>
+        <v>1149</v>
       </c>
       <c r="J162" s="3" t="n">
-        <v>78571</v>
+        <v>58234</v>
       </c>
       <c r="K162" s="3" t="inlineStr"/>
       <c r="L162" s="3" t="n">
-        <v>27018</v>
+        <v>13715</v>
       </c>
       <c r="M162" s="3" t="n">
-        <v>24985</v>
+        <v>20409</v>
       </c>
       <c r="N162" s="3" t="n">
-        <v>20822</v>
+        <v>10108</v>
       </c>
       <c r="O162" s="3" t="n">
-        <v>1816</v>
+        <v>7367</v>
+      </c>
+      <c r="P162" s="3" t="n">
+        <v>3721</v>
       </c>
     </row>
     <row r="163">
@@ -8424,34 +8913,37 @@
       <c r="D163" s="3" t="inlineStr"/>
       <c r="E163" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 18:24</t>
+          <t>2024-09-16 16:56</t>
         </is>
       </c>
       <c r="F163" s="3" t="inlineStr"/>
       <c r="G163" s="3" t="n">
-        <v>69551</v>
+        <v>71208</v>
       </c>
       <c r="H163" s="3" t="n">
-        <v>62225</v>
+        <v>58993</v>
       </c>
       <c r="I163" s="3" t="n">
-        <v>1613</v>
+        <v>631</v>
       </c>
       <c r="J163" s="3" t="n">
-        <v>60612</v>
+        <v>58362</v>
       </c>
       <c r="K163" s="3" t="inlineStr"/>
       <c r="L163" s="3" t="n">
-        <v>20329</v>
+        <v>14872</v>
       </c>
       <c r="M163" s="3" t="n">
-        <v>11736</v>
+        <v>8559</v>
       </c>
       <c r="N163" s="3" t="n">
-        <v>19797</v>
+        <v>15224</v>
       </c>
       <c r="O163" s="3" t="n">
-        <v>5716</v>
+        <v>3136</v>
+      </c>
+      <c r="P163" s="3" t="n">
+        <v>13650</v>
       </c>
     </row>
     <row r="164">
@@ -8473,34 +8965,37 @@
       <c r="D164" s="3" t="inlineStr"/>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 08:32</t>
+          <t>2024-09-16 17:30</t>
         </is>
       </c>
       <c r="F164" s="3" t="inlineStr"/>
       <c r="G164" s="3" t="n">
-        <v>87162</v>
+        <v>87127</v>
       </c>
       <c r="H164" s="3" t="n">
-        <v>52980</v>
+        <v>77062</v>
       </c>
       <c r="I164" s="3" t="n">
-        <v>1147</v>
+        <v>1793</v>
       </c>
       <c r="J164" s="3" t="n">
-        <v>51833</v>
+        <v>75269</v>
       </c>
       <c r="K164" s="3" t="inlineStr"/>
       <c r="L164" s="3" t="n">
-        <v>22090</v>
+        <v>20748</v>
       </c>
       <c r="M164" s="3" t="n">
-        <v>8043</v>
+        <v>20227</v>
       </c>
       <c r="N164" s="3" t="n">
-        <v>14241</v>
+        <v>18913</v>
       </c>
       <c r="O164" s="3" t="n">
-        <v>4866</v>
+        <v>5318</v>
+      </c>
+      <c r="P164" s="3" t="n">
+        <v>6297</v>
       </c>
     </row>
     <row r="165">
@@ -8522,34 +9017,37 @@
       <c r="D165" s="3" t="inlineStr"/>
       <c r="E165" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 17:36</t>
+          <t>2024-09-16 10:44</t>
         </is>
       </c>
       <c r="F165" s="3" t="inlineStr"/>
       <c r="G165" s="3" t="n">
-        <v>117149</v>
+        <v>116061</v>
       </c>
       <c r="H165" s="3" t="n">
-        <v>83460</v>
+        <v>77873</v>
       </c>
       <c r="I165" s="3" t="n">
-        <v>2013</v>
+        <v>1979</v>
       </c>
       <c r="J165" s="3" t="n">
-        <v>81447</v>
+        <v>75894</v>
       </c>
       <c r="K165" s="3" t="inlineStr"/>
       <c r="L165" s="3" t="n">
-        <v>29931</v>
+        <v>24344</v>
       </c>
       <c r="M165" s="3" t="n">
-        <v>21048</v>
+        <v>18335</v>
       </c>
       <c r="N165" s="3" t="n">
-        <v>15280</v>
+        <v>10136</v>
       </c>
       <c r="O165" s="3" t="n">
-        <v>11113</v>
+        <v>12824</v>
+      </c>
+      <c r="P165" s="3" t="n">
+        <v>6458</v>
       </c>
     </row>
     <row r="166">
@@ -8571,34 +9069,37 @@
       <c r="D166" s="3" t="inlineStr"/>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 19:14</t>
+          <t>2024-09-16 16:32</t>
         </is>
       </c>
       <c r="F166" s="3" t="inlineStr"/>
       <c r="G166" s="3" t="n">
-        <v>169727</v>
+        <v>157601</v>
       </c>
       <c r="H166" s="3" t="n">
-        <v>111921</v>
+        <v>137553</v>
       </c>
       <c r="I166" s="3" t="n">
-        <v>1331</v>
+        <v>3602</v>
       </c>
       <c r="J166" s="3" t="n">
-        <v>110590</v>
+        <v>133951</v>
       </c>
       <c r="K166" s="3" t="inlineStr"/>
       <c r="L166" s="3" t="n">
-        <v>21778</v>
+        <v>30552</v>
       </c>
       <c r="M166" s="3" t="n">
-        <v>22902</v>
+        <v>37896</v>
       </c>
       <c r="N166" s="3" t="n">
-        <v>33025</v>
+        <v>32416</v>
       </c>
       <c r="O166" s="3" t="n">
-        <v>27354</v>
+        <v>19907</v>
+      </c>
+      <c r="P166" s="3" t="n">
+        <v>6479</v>
       </c>
     </row>
     <row r="167">
@@ -8620,34 +9121,37 @@
       <c r="D167" s="3" t="inlineStr"/>
       <c r="E167" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 16:15</t>
+          <t>2024-09-16 15:06</t>
         </is>
       </c>
       <c r="F167" s="3" t="inlineStr"/>
       <c r="G167" s="3" t="n">
-        <v>106931</v>
+        <v>106517</v>
       </c>
       <c r="H167" s="3" t="n">
-        <v>70351</v>
+        <v>76697</v>
       </c>
       <c r="I167" s="3" t="n">
-        <v>1678</v>
+        <v>1969</v>
       </c>
       <c r="J167" s="3" t="n">
-        <v>68673</v>
+        <v>74728</v>
       </c>
       <c r="K167" s="3" t="inlineStr"/>
       <c r="L167" s="3" t="n">
-        <v>20745</v>
+        <v>16043</v>
       </c>
       <c r="M167" s="3" t="n">
-        <v>11969</v>
+        <v>25572</v>
       </c>
       <c r="N167" s="3" t="n">
-        <v>16577</v>
+        <v>22616</v>
       </c>
       <c r="O167" s="3" t="n">
-        <v>15946</v>
+        <v>3085</v>
+      </c>
+      <c r="P167" s="3" t="n">
+        <v>3673</v>
       </c>
     </row>
     <row r="168">
@@ -8669,34 +9173,37 @@
       <c r="D168" s="3" t="inlineStr"/>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 13:39</t>
+          <t>2024-09-16 15:16</t>
         </is>
       </c>
       <c r="F168" s="3" t="inlineStr"/>
       <c r="G168" s="3" t="n">
-        <v>128754</v>
+        <v>128756</v>
       </c>
       <c r="H168" s="3" t="n">
-        <v>82066</v>
+        <v>90212</v>
       </c>
       <c r="I168" s="3" t="n">
-        <v>1837</v>
+        <v>2280</v>
       </c>
       <c r="J168" s="3" t="n">
-        <v>80229</v>
+        <v>87932</v>
       </c>
       <c r="K168" s="3" t="inlineStr"/>
       <c r="L168" s="3" t="n">
-        <v>25400</v>
+        <v>12221</v>
       </c>
       <c r="M168" s="3" t="n">
-        <v>16229</v>
+        <v>19783</v>
       </c>
       <c r="N168" s="3" t="n">
-        <v>9682</v>
+        <v>27082</v>
       </c>
       <c r="O168" s="3" t="n">
-        <v>24905</v>
+        <v>21542</v>
+      </c>
+      <c r="P168" s="3" t="n">
+        <v>2905</v>
       </c>
     </row>
     <row r="169">
@@ -8718,34 +9225,37 @@
       <c r="D169" s="3" t="inlineStr"/>
       <c r="E169" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 10:57</t>
+          <t>2024-09-16 10:29</t>
         </is>
       </c>
       <c r="F169" s="3" t="inlineStr"/>
       <c r="G169" s="3" t="n">
-        <v>98410</v>
+        <v>91486</v>
       </c>
       <c r="H169" s="3" t="n">
-        <v>68142</v>
+        <v>73234</v>
       </c>
       <c r="I169" s="3" t="n">
-        <v>1009</v>
+        <v>1462</v>
       </c>
       <c r="J169" s="3" t="n">
-        <v>67133</v>
+        <v>71772</v>
       </c>
       <c r="K169" s="3" t="inlineStr"/>
       <c r="L169" s="3" t="n">
-        <v>24753</v>
+        <v>17306</v>
       </c>
       <c r="M169" s="3" t="n">
-        <v>7979</v>
+        <v>18249</v>
       </c>
       <c r="N169" s="3" t="n">
-        <v>16351</v>
+        <v>17293</v>
       </c>
       <c r="O169" s="3" t="n">
-        <v>14691</v>
+        <v>5406</v>
+      </c>
+      <c r="P169" s="3" t="n">
+        <v>9926</v>
       </c>
     </row>
     <row r="170">
@@ -8767,34 +9277,37 @@
       <c r="D170" s="3" t="inlineStr"/>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 11:48</t>
+          <t>2024-09-16 13:14</t>
         </is>
       </c>
       <c r="F170" s="3" t="inlineStr"/>
       <c r="G170" s="3" t="n">
-        <v>119854</v>
+        <v>119943</v>
       </c>
       <c r="H170" s="3" t="n">
-        <v>75124</v>
+        <v>73387</v>
       </c>
       <c r="I170" s="3" t="n">
-        <v>1963</v>
+        <v>822</v>
       </c>
       <c r="J170" s="3" t="n">
-        <v>73161</v>
+        <v>72565</v>
       </c>
       <c r="K170" s="3" t="inlineStr"/>
       <c r="L170" s="3" t="n">
-        <v>29654</v>
+        <v>21546</v>
       </c>
       <c r="M170" s="3" t="n">
-        <v>12479</v>
+        <v>19426</v>
       </c>
       <c r="N170" s="3" t="n">
-        <v>10151</v>
+        <v>10438</v>
       </c>
       <c r="O170" s="3" t="n">
-        <v>17216</v>
+        <v>4000</v>
+      </c>
+      <c r="P170" s="3" t="n">
+        <v>13523</v>
       </c>
     </row>
     <row r="171">
@@ -8816,34 +9329,37 @@
       <c r="D171" s="3" t="inlineStr"/>
       <c r="E171" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 19:35</t>
+          <t>2024-09-16 19:03</t>
         </is>
       </c>
       <c r="F171" s="3" t="inlineStr"/>
       <c r="G171" s="3" t="n">
-        <v>113044</v>
+        <v>108855</v>
       </c>
       <c r="H171" s="3" t="n">
-        <v>79935</v>
+        <v>86771</v>
       </c>
       <c r="I171" s="3" t="n">
-        <v>997</v>
+        <v>1608</v>
       </c>
       <c r="J171" s="3" t="n">
-        <v>78938</v>
+        <v>85163</v>
       </c>
       <c r="K171" s="3" t="inlineStr"/>
       <c r="L171" s="3" t="n">
-        <v>28944</v>
+        <v>16126</v>
       </c>
       <c r="M171" s="3" t="n">
-        <v>24939</v>
+        <v>13053</v>
       </c>
       <c r="N171" s="3" t="n">
-        <v>11927</v>
+        <v>23144</v>
       </c>
       <c r="O171" s="3" t="n">
-        <v>9179</v>
+        <v>16253</v>
+      </c>
+      <c r="P171" s="3" t="n">
+        <v>12327</v>
       </c>
     </row>
     <row r="172">
@@ -8865,34 +9381,37 @@
       <c r="D172" s="3" t="inlineStr"/>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 16:23</t>
+          <t>2024-09-16 13:08</t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr"/>
       <c r="G172" s="3" t="n">
-        <v>106115</v>
+        <v>105635</v>
       </c>
       <c r="H172" s="3" t="n">
-        <v>89215</v>
+        <v>78747</v>
       </c>
       <c r="I172" s="3" t="n">
-        <v>2222</v>
+        <v>1028</v>
       </c>
       <c r="J172" s="3" t="n">
-        <v>86993</v>
+        <v>77719</v>
       </c>
       <c r="K172" s="3" t="inlineStr"/>
       <c r="L172" s="3" t="n">
-        <v>30068</v>
+        <v>20452</v>
       </c>
       <c r="M172" s="3" t="n">
-        <v>11174</v>
+        <v>20793</v>
       </c>
       <c r="N172" s="3" t="n">
-        <v>25129</v>
+        <v>9124</v>
       </c>
       <c r="O172" s="3" t="n">
-        <v>16270</v>
+        <v>21419</v>
+      </c>
+      <c r="P172" s="3" t="n">
+        <v>2042</v>
       </c>
     </row>
     <row r="173">
@@ -8914,34 +9433,37 @@
       <c r="D173" s="3" t="inlineStr"/>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 17:58</t>
+          <t>2024-09-16 19:03</t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr"/>
       <c r="G173" s="3" t="n">
-        <v>72052</v>
+        <v>72581</v>
       </c>
       <c r="H173" s="3" t="n">
-        <v>59824</v>
+        <v>52869</v>
       </c>
       <c r="I173" s="3" t="n">
-        <v>1452</v>
+        <v>1086</v>
       </c>
       <c r="J173" s="3" t="n">
-        <v>58372</v>
+        <v>51783</v>
       </c>
       <c r="K173" s="3" t="inlineStr"/>
       <c r="L173" s="3" t="n">
-        <v>20596</v>
+        <v>11987</v>
       </c>
       <c r="M173" s="3" t="n">
-        <v>8036</v>
+        <v>10615</v>
       </c>
       <c r="N173" s="3" t="n">
-        <v>12963</v>
+        <v>11729</v>
       </c>
       <c r="O173" s="3" t="n">
-        <v>13857</v>
+        <v>5944</v>
+      </c>
+      <c r="P173" s="3" t="n">
+        <v>8916</v>
       </c>
     </row>
     <row r="174">
@@ -8963,34 +9485,37 @@
       <c r="D174" s="3" t="inlineStr"/>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 14:02</t>
+          <t>2024-09-16 19:32</t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr"/>
       <c r="G174" s="3" t="n">
-        <v>150156</v>
+        <v>153720</v>
       </c>
       <c r="H174" s="3" t="n">
-        <v>104478</v>
+        <v>135103</v>
       </c>
       <c r="I174" s="3" t="n">
-        <v>3039</v>
+        <v>2685</v>
       </c>
       <c r="J174" s="3" t="n">
-        <v>101439</v>
+        <v>132418</v>
       </c>
       <c r="K174" s="3" t="inlineStr"/>
       <c r="L174" s="3" t="n">
-        <v>49034</v>
+        <v>30973</v>
       </c>
       <c r="M174" s="3" t="n">
-        <v>17844</v>
+        <v>32460</v>
       </c>
       <c r="N174" s="3" t="n">
-        <v>12659</v>
+        <v>32497</v>
       </c>
       <c r="O174" s="3" t="n">
-        <v>16829</v>
+        <v>20108</v>
+      </c>
+      <c r="P174" s="3" t="n">
+        <v>9757</v>
       </c>
     </row>
     <row r="175">
@@ -9012,34 +9537,37 @@
       <c r="D175" s="3" t="inlineStr"/>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 11:53</t>
+          <t>2024-09-16 10:50</t>
         </is>
       </c>
       <c r="F175" s="3" t="inlineStr"/>
       <c r="G175" s="3" t="n">
-        <v>95528</v>
+        <v>93210</v>
       </c>
       <c r="H175" s="3" t="n">
-        <v>59828</v>
+        <v>73930</v>
       </c>
       <c r="I175" s="3" t="n">
-        <v>1350</v>
+        <v>1925</v>
       </c>
       <c r="J175" s="3" t="n">
-        <v>58478</v>
+        <v>72005</v>
       </c>
       <c r="K175" s="3" t="inlineStr"/>
       <c r="L175" s="3" t="n">
-        <v>23075</v>
+        <v>15863</v>
       </c>
       <c r="M175" s="3" t="n">
-        <v>21279</v>
+        <v>20207</v>
       </c>
       <c r="N175" s="3" t="n">
-        <v>8986</v>
+        <v>6847</v>
       </c>
       <c r="O175" s="3" t="n">
-        <v>2213</v>
+        <v>9945</v>
+      </c>
+      <c r="P175" s="3" t="n">
+        <v>15541</v>
       </c>
     </row>
     <row r="176">
@@ -9061,34 +9589,37 @@
       <c r="D176" s="3" t="inlineStr"/>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 17:23</t>
+          <t>2024-09-16 20:09</t>
         </is>
       </c>
       <c r="F176" s="3" t="inlineStr"/>
       <c r="G176" s="3" t="n">
-        <v>71858</v>
+        <v>69125</v>
       </c>
       <c r="H176" s="3" t="n">
-        <v>52782</v>
+        <v>54781</v>
       </c>
       <c r="I176" s="3" t="n">
-        <v>1168</v>
+        <v>1054</v>
       </c>
       <c r="J176" s="3" t="n">
-        <v>51614</v>
+        <v>53727</v>
       </c>
       <c r="K176" s="3" t="inlineStr"/>
       <c r="L176" s="3" t="n">
-        <v>23153</v>
+        <v>12157</v>
       </c>
       <c r="M176" s="3" t="n">
-        <v>7540</v>
+        <v>12196</v>
       </c>
       <c r="N176" s="3" t="n">
-        <v>11086</v>
+        <v>11831</v>
       </c>
       <c r="O176" s="3" t="n">
-        <v>7252</v>
+        <v>3583</v>
+      </c>
+      <c r="P176" s="3" t="n">
+        <v>11271</v>
       </c>
     </row>
     <row r="177">
@@ -9110,34 +9641,37 @@
       <c r="D177" s="3" t="inlineStr"/>
       <c r="E177" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 16:48</t>
+          <t>2024-09-16 15:56</t>
         </is>
       </c>
       <c r="F177" s="3" t="inlineStr"/>
       <c r="G177" s="3" t="n">
-        <v>75151</v>
+        <v>70222</v>
       </c>
       <c r="H177" s="3" t="n">
-        <v>66587</v>
+        <v>45757</v>
       </c>
       <c r="I177" s="3" t="n">
-        <v>1468</v>
+        <v>725</v>
       </c>
       <c r="J177" s="3" t="n">
-        <v>65119</v>
+        <v>45032</v>
       </c>
       <c r="K177" s="3" t="inlineStr"/>
       <c r="L177" s="3" t="n">
-        <v>21681</v>
+        <v>7013</v>
       </c>
       <c r="M177" s="3" t="n">
-        <v>15019</v>
+        <v>10920</v>
       </c>
       <c r="N177" s="3" t="n">
-        <v>11132</v>
+        <v>10129</v>
       </c>
       <c r="O177" s="3" t="n">
-        <v>14029</v>
+        <v>7519</v>
+      </c>
+      <c r="P177" s="3" t="n">
+        <v>7197</v>
       </c>
     </row>
     <row r="178">
@@ -9159,34 +9693,37 @@
       <c r="D178" s="3" t="inlineStr"/>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 16:07</t>
+          <t>2024-09-16 08:30</t>
         </is>
       </c>
       <c r="F178" s="3" t="inlineStr"/>
       <c r="G178" s="3" t="n">
-        <v>63935</v>
+        <v>64263</v>
       </c>
       <c r="H178" s="3" t="n">
-        <v>42396</v>
+        <v>52884</v>
       </c>
       <c r="I178" s="3" t="n">
-        <v>1032</v>
+        <v>1258</v>
       </c>
       <c r="J178" s="3" t="n">
-        <v>41364</v>
+        <v>51626</v>
       </c>
       <c r="K178" s="3" t="inlineStr"/>
       <c r="L178" s="3" t="n">
-        <v>12941</v>
+        <v>19466</v>
       </c>
       <c r="M178" s="3" t="n">
-        <v>12214</v>
+        <v>11675</v>
       </c>
       <c r="N178" s="3" t="n">
-        <v>6803</v>
+        <v>9299</v>
       </c>
       <c r="O178" s="3" t="n">
-        <v>7335</v>
+        <v>6092</v>
+      </c>
+      <c r="P178" s="3" t="n">
+        <v>2512</v>
       </c>
     </row>
     <row r="179">
@@ -9208,34 +9745,37 @@
       <c r="D179" s="3" t="inlineStr"/>
       <c r="E179" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 08:51</t>
+          <t>2024-09-16 17:33</t>
         </is>
       </c>
       <c r="F179" s="3" t="inlineStr"/>
       <c r="G179" s="3" t="n">
-        <v>93846</v>
+        <v>97172</v>
       </c>
       <c r="H179" s="3" t="n">
-        <v>68732</v>
+        <v>64592</v>
       </c>
       <c r="I179" s="3" t="n">
-        <v>1940</v>
+        <v>1879</v>
       </c>
       <c r="J179" s="3" t="n">
-        <v>66792</v>
+        <v>62713</v>
       </c>
       <c r="K179" s="3" t="inlineStr"/>
       <c r="L179" s="3" t="n">
-        <v>19175</v>
+        <v>24284</v>
       </c>
       <c r="M179" s="3" t="n">
-        <v>15767</v>
+        <v>21927</v>
       </c>
       <c r="N179" s="3" t="n">
-        <v>12498</v>
+        <v>7458</v>
       </c>
       <c r="O179" s="3" t="n">
-        <v>16011</v>
+        <v>3176</v>
+      </c>
+      <c r="P179" s="3" t="n">
+        <v>2730</v>
       </c>
     </row>
     <row r="180">
@@ -9257,34 +9797,37 @@
       <c r="D180" s="3" t="inlineStr"/>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 14:46</t>
+          <t>2024-09-16 17:09</t>
         </is>
       </c>
       <c r="F180" s="3" t="inlineStr"/>
       <c r="G180" s="3" t="n">
-        <v>54078</v>
+        <v>51197</v>
       </c>
       <c r="H180" s="3" t="n">
-        <v>43499</v>
+        <v>44059</v>
       </c>
       <c r="I180" s="3" t="n">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="J180" s="3" t="n">
-        <v>43004</v>
+        <v>43545</v>
       </c>
       <c r="K180" s="3" t="inlineStr"/>
       <c r="L180" s="3" t="n">
-        <v>10583</v>
+        <v>8806</v>
       </c>
       <c r="M180" s="3" t="n">
-        <v>12044</v>
+        <v>10281</v>
       </c>
       <c r="N180" s="3" t="n">
-        <v>7709</v>
+        <v>13446</v>
       </c>
       <c r="O180" s="3" t="n">
-        <v>10516</v>
+        <v>4166</v>
+      </c>
+      <c r="P180" s="3" t="n">
+        <v>4666</v>
       </c>
     </row>
     <row r="181">
@@ -9306,34 +9849,37 @@
       <c r="D181" s="3" t="inlineStr"/>
       <c r="E181" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 13:56</t>
+          <t>2024-09-16 10:42</t>
         </is>
       </c>
       <c r="F181" s="3" t="inlineStr"/>
       <c r="G181" s="3" t="n">
-        <v>80777</v>
+        <v>76802</v>
       </c>
       <c r="H181" s="3" t="n">
-        <v>49735</v>
+        <v>47505</v>
       </c>
       <c r="I181" s="3" t="n">
-        <v>685</v>
+        <v>1336</v>
       </c>
       <c r="J181" s="3" t="n">
-        <v>49050</v>
+        <v>46169</v>
       </c>
       <c r="K181" s="3" t="inlineStr"/>
       <c r="L181" s="3" t="n">
-        <v>16922</v>
+        <v>10660</v>
       </c>
       <c r="M181" s="3" t="n">
-        <v>14788</v>
+        <v>10398</v>
       </c>
       <c r="N181" s="3" t="n">
-        <v>13168</v>
+        <v>10880</v>
       </c>
       <c r="O181" s="3" t="n">
-        <v>1717</v>
+        <v>7751</v>
+      </c>
+      <c r="P181" s="3" t="n">
+        <v>4169</v>
       </c>
     </row>
     <row r="182">
@@ -9355,34 +9901,37 @@
       <c r="D182" s="3" t="inlineStr"/>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 10:52</t>
+          <t>2024-09-16 16:10</t>
         </is>
       </c>
       <c r="F182" s="3" t="inlineStr"/>
       <c r="G182" s="3" t="n">
-        <v>76503</v>
+        <v>78883</v>
       </c>
       <c r="H182" s="3" t="n">
-        <v>60121</v>
+        <v>47426</v>
       </c>
       <c r="I182" s="3" t="n">
-        <v>812</v>
+        <v>1025</v>
       </c>
       <c r="J182" s="3" t="n">
-        <v>59309</v>
+        <v>46401</v>
       </c>
       <c r="K182" s="3" t="inlineStr"/>
       <c r="L182" s="3" t="n">
-        <v>13043</v>
+        <v>6766</v>
       </c>
       <c r="M182" s="3" t="n">
-        <v>19575</v>
+        <v>10016</v>
       </c>
       <c r="N182" s="3" t="n">
-        <v>10905</v>
+        <v>10120</v>
       </c>
       <c r="O182" s="3" t="n">
-        <v>12819</v>
+        <v>9449</v>
+      </c>
+      <c r="P182" s="3" t="n">
+        <v>7728</v>
       </c>
     </row>
     <row r="183">
@@ -9404,34 +9953,37 @@
       <c r="D183" s="3" t="inlineStr"/>
       <c r="E183" s="3" t="inlineStr">
         <is>
-          <t>2024-09-10 15:32</t>
+          <t>2024-09-16 19:43</t>
         </is>
       </c>
       <c r="F183" s="3" t="inlineStr"/>
       <c r="G183" s="3" t="n">
-        <v>70852</v>
+        <v>71639</v>
       </c>
       <c r="H183" s="3" t="n">
-        <v>50357</v>
+        <v>47276</v>
       </c>
       <c r="I183" s="3" t="n">
-        <v>720</v>
+        <v>1395</v>
       </c>
       <c r="J183" s="3" t="n">
-        <v>49637</v>
+        <v>45881</v>
       </c>
       <c r="K183" s="3" t="inlineStr"/>
       <c r="L183" s="3" t="n">
-        <v>19816</v>
+        <v>14555</v>
       </c>
       <c r="M183" s="3" t="n">
-        <v>13960</v>
+        <v>7984</v>
       </c>
       <c r="N183" s="3" t="n">
-        <v>7991</v>
+        <v>9060</v>
       </c>
       <c r="O183" s="3" t="n">
-        <v>5387</v>
+        <v>9306</v>
+      </c>
+      <c r="P183" s="3" t="n">
+        <v>2679</v>
       </c>
     </row>
   </sheetData>

--- a/data/prespollsl2024.xlsx
+++ b/data/prespollsl2024.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>IND-RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>NR</t>
+          <t>SLPP</t>
         </is>
       </c>
     </row>
@@ -541,37 +541,37 @@
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:54</t>
+          <t>2024-09-16 11:53</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="n">
-        <v>38296</v>
+        <v>38594</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>24306</v>
+        <v>28706</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>615</v>
+        <v>343</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>23691</v>
+        <v>28363</v>
       </c>
       <c r="K2" s="3" t="inlineStr"/>
       <c r="L2" s="3" t="n">
-        <v>6734</v>
+        <v>9450</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>5951</v>
+        <v>9477</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>2560</v>
+        <v>3389</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>5169</v>
+        <v>4253</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>2090</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3">
@@ -593,37 +593,37 @@
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:33</t>
+          <t>2024-09-16 19:24</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="n">
-        <v>55620</v>
+        <v>59314</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>40715</v>
+        <v>40871</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>940</v>
+        <v>711</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>39775</v>
+        <v>40160</v>
       </c>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="n">
-        <v>10897</v>
+        <v>8212</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>6134</v>
+        <v>8918</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>9163</v>
+        <v>12340</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>4968</v>
+        <v>3614</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>6622</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="4">
@@ -645,37 +645,37 @@
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:44</t>
+          <t>2024-09-16 11:33</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="n">
-        <v>39107</v>
+        <v>38763</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>28164</v>
+        <v>26424</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>657</v>
+        <v>402</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>27507</v>
+        <v>26022</v>
       </c>
       <c r="K4" s="3" t="inlineStr"/>
       <c r="L4" s="3" t="n">
-        <v>5820</v>
+        <v>7195</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>7612</v>
+        <v>7218</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>4463</v>
+        <v>6387</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>3886</v>
+        <v>990</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>4349</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="5">
@@ -697,37 +697,37 @@
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:15</t>
+          <t>2024-09-16 10:47</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="n">
-        <v>56205</v>
+        <v>54106</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>45147</v>
+        <v>42170</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>1141</v>
+        <v>1052</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>44006</v>
+        <v>41118</v>
       </c>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="n">
-        <v>11224</v>
+        <v>11011</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>7083</v>
+        <v>5264</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>8548</v>
+        <v>12868</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>8036</v>
+        <v>5121</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>6912</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="6">
@@ -749,37 +749,37 @@
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:30</t>
+          <t>2024-09-16 10:20</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="n">
-        <v>23970</v>
+        <v>23995</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>15942</v>
+        <v>19608</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>384</v>
+        <v>293</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>15558</v>
+        <v>19315</v>
       </c>
       <c r="K6" s="3" t="inlineStr"/>
       <c r="L6" s="3" t="n">
-        <v>3021</v>
+        <v>4455</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>4684</v>
+        <v>4825</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>3435</v>
+        <v>4319</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>3355</v>
+        <v>3239</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>283</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="7">
@@ -801,37 +801,37 @@
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:12</t>
+          <t>2024-09-16 11:56</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="n">
-        <v>20759</v>
+        <v>20309</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>13605</v>
+        <v>14759</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>183</v>
+        <v>355</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>13422</v>
+        <v>14404</v>
       </c>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="n">
-        <v>2823</v>
+        <v>4393</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>2637</v>
+        <v>2299</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>3293</v>
+        <v>3967</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>2528</v>
+        <v>1740</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>1467</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="8">
@@ -853,37 +853,37 @@
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:17</t>
+          <t>2024-09-16 15:50</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="n">
-        <v>41673</v>
+        <v>43697</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>32464</v>
+        <v>27291</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>911</v>
+        <v>594</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>31553</v>
+        <v>26697</v>
       </c>
       <c r="K8" s="3" t="inlineStr"/>
       <c r="L8" s="3" t="n">
-        <v>7410</v>
+        <v>6055</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>7506</v>
+        <v>6278</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>4214</v>
+        <v>7075</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>6414</v>
+        <v>2647</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>4429</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="9">
@@ -905,37 +905,37 @@
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:53</t>
+          <t>2024-09-16 09:48</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="n">
-        <v>31844</v>
+        <v>29469</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>19732</v>
+        <v>24509</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>227</v>
+        <v>700</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>19505</v>
+        <v>23809</v>
       </c>
       <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="n">
-        <v>5828</v>
+        <v>7093</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>4027</v>
+        <v>3588</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>2516</v>
+        <v>2539</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>4514</v>
+        <v>4933</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>1642</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="10">
@@ -957,37 +957,37 @@
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:55</t>
+          <t>2024-09-16 15:21</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="n">
-        <v>22495</v>
+        <v>20762</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>13508</v>
+        <v>15072</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>13134</v>
+        <v>14702</v>
       </c>
       <c r="K10" s="3" t="inlineStr"/>
       <c r="L10" s="3" t="n">
-        <v>3513</v>
+        <v>4692</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>2855</v>
+        <v>3180</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>2261</v>
+        <v>3676</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>1312</v>
+        <v>862</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>2534</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="11">
@@ -1009,37 +1009,37 @@
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:12</t>
+          <t>2024-09-16 10:52</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="n">
-        <v>25436</v>
+        <v>24897</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>20136</v>
+        <v>16703</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>600</v>
+        <v>349</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>19536</v>
+        <v>16354</v>
       </c>
       <c r="K11" s="3" t="inlineStr"/>
       <c r="L11" s="3" t="n">
-        <v>2921</v>
+        <v>3209</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>4618</v>
+        <v>2862</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>5113</v>
+        <v>5983</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>3743</v>
+        <v>1672</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>2162</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="12">
@@ -1061,37 +1061,37 @@
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:04</t>
+          <t>2024-09-16 15:53</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="n">
-        <v>13902</v>
+        <v>13861</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>11393</v>
+        <v>8915</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>11249</v>
+        <v>8778</v>
       </c>
       <c r="K12" s="3" t="inlineStr"/>
       <c r="L12" s="3" t="n">
-        <v>1870</v>
+        <v>2010</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>2749</v>
+        <v>1995</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>1573</v>
+        <v>1394</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>1824</v>
+        <v>2213</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>2667</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13">
@@ -1113,37 +1113,37 @@
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:34</t>
+          <t>2024-09-16 14:18</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="n">
-        <v>13415</v>
+        <v>13936</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>10248</v>
+        <v>8508</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>9996</v>
+        <v>8278</v>
       </c>
       <c r="K13" s="3" t="inlineStr"/>
       <c r="L13" s="3" t="n">
-        <v>2107</v>
+        <v>1496</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>2915</v>
+        <v>2630</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>3189</v>
+        <v>1560</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>815</v>
+        <v>337</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>468</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="14">
@@ -1165,37 +1165,37 @@
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:52</t>
+          <t>2024-09-16 08:44</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="n">
-        <v>28971</v>
+        <v>29687</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>24578</v>
+        <v>22054</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>722</v>
+        <v>233</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>23856</v>
+        <v>21821</v>
       </c>
       <c r="K14" s="3" t="inlineStr"/>
       <c r="L14" s="3" t="n">
-        <v>6207</v>
+        <v>3908</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>4227</v>
+        <v>2884</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>4551</v>
+        <v>5642</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>4123</v>
+        <v>4086</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>3553</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="15">
@@ -1217,37 +1217,37 @@
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:39</t>
+          <t>2024-09-16 08:15</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="n">
-        <v>16516</v>
+        <v>15902</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>12961</v>
+        <v>12520</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>385</v>
+        <v>222</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>12576</v>
+        <v>12298</v>
       </c>
       <c r="K15" s="3" t="inlineStr"/>
       <c r="L15" s="3" t="n">
-        <v>2118</v>
+        <v>1628</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>3297</v>
+        <v>3489</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>1857</v>
+        <v>2673</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>2362</v>
+        <v>1502</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>2312</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:23</t>
+          <t>2024-09-16 15:44</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="n">
-        <v>74785</v>
+        <v>78139</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>56546</v>
+        <v>58309</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>1531</v>
+        <v>1281</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>55015</v>
+        <v>57028</v>
       </c>
       <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="n">
-        <v>7350</v>
+        <v>9221</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>15491</v>
+        <v>16519</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v>13306</v>
+        <v>12916</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>11504</v>
+        <v>6367</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>4612</v>
+        <v>9151</v>
       </c>
     </row>
     <row r="17">
@@ -1321,37 +1321,37 @@
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:35</t>
+          <t>2024-09-16 10:55</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="n">
-        <v>15595</v>
+        <v>14428</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>14017</v>
+        <v>11015</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>13758</v>
+        <v>10792</v>
       </c>
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="n">
-        <v>3929</v>
+        <v>2521</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>1543</v>
+        <v>2646</v>
       </c>
       <c r="N17" s="3" t="n">
-        <v>2532</v>
+        <v>2280</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>2727</v>
+        <v>1945</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>2337</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18">
@@ -1373,37 +1373,37 @@
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:58</t>
+          <t>2024-09-16 20:04</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="n">
-        <v>58130</v>
+        <v>59218</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>37896</v>
+        <v>45502</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>736</v>
+        <v>583</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>37160</v>
+        <v>44919</v>
       </c>
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="n">
-        <v>9435</v>
+        <v>15468</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>10859</v>
+        <v>8647</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>5955</v>
+        <v>9653</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>5300</v>
+        <v>5932</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>3751</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="19">
@@ -1425,37 +1425,37 @@
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:35</t>
+          <t>2024-09-16 18:56</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="n">
-        <v>19558</v>
+        <v>20805</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>14821</v>
+        <v>17906</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>14622</v>
+        <v>17677</v>
       </c>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="n">
-        <v>2681</v>
+        <v>4013</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>3903</v>
+        <v>4025</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>3759</v>
+        <v>3349</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>3336</v>
+        <v>2812</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>209</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="20">
@@ -1477,37 +1477,37 @@
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:07</t>
+          <t>2024-09-16 10:32</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="n">
-        <v>46173</v>
+        <v>46813</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>39241</v>
+        <v>30127</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>411</v>
+        <v>577</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>38830</v>
+        <v>29550</v>
       </c>
       <c r="K20" s="3" t="inlineStr"/>
       <c r="L20" s="3" t="n">
-        <v>14047</v>
+        <v>6607</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>12423</v>
+        <v>7260</v>
       </c>
       <c r="N20" s="3" t="n">
-        <v>6413</v>
+        <v>6106</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>2566</v>
+        <v>4547</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>1437</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="21">
@@ -1529,37 +1529,37 @@
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:52</t>
+          <t>2024-09-16 11:45</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="n">
-        <v>25286</v>
+        <v>23500</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>16561</v>
+        <v>16696</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>16104</v>
+        <v>16233</v>
       </c>
       <c r="K21" s="3" t="inlineStr"/>
       <c r="L21" s="3" t="n">
-        <v>5328</v>
+        <v>2858</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>3550</v>
+        <v>3079</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>2841</v>
+        <v>2707</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>2478</v>
+        <v>3816</v>
       </c>
       <c r="P21" s="3" t="n">
-        <v>1099</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="22">
@@ -1581,37 +1581,37 @@
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:40</t>
+          <t>2024-09-16 18:52</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="n">
-        <v>34167</v>
+        <v>34152</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>24481</v>
+        <v>27898</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>560</v>
+        <v>690</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>23921</v>
+        <v>27208</v>
       </c>
       <c r="K22" s="3" t="inlineStr"/>
       <c r="L22" s="3" t="n">
-        <v>5904</v>
+        <v>8865</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>5849</v>
+        <v>4936</v>
       </c>
       <c r="N22" s="3" t="n">
-        <v>5974</v>
+        <v>5356</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>2856</v>
+        <v>3147</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>2141</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="23">
@@ -1633,37 +1633,37 @@
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:41</t>
+          <t>2024-09-16 09:08</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="n">
-        <v>35304</v>
+        <v>36188</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>28676</v>
+        <v>26133</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>586</v>
+        <v>503</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>28090</v>
+        <v>25630</v>
       </c>
       <c r="K23" s="3" t="inlineStr"/>
       <c r="L23" s="3" t="n">
-        <v>7967</v>
+        <v>6119</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>6750</v>
+        <v>7866</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>3852</v>
+        <v>2882</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>6786</v>
+        <v>3018</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>1329</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="24">
@@ -1685,37 +1685,37 @@
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:38</t>
+          <t>2024-09-16 13:27</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="n">
-        <v>102802</v>
+        <v>94443</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>69567</v>
+        <v>82811</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>2074</v>
+        <v>2006</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>67493</v>
+        <v>80805</v>
       </c>
       <c r="K24" s="3" t="inlineStr"/>
       <c r="L24" s="3" t="n">
-        <v>16869</v>
+        <v>21748</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>14022</v>
+        <v>23040</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>11618</v>
+        <v>21356</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>12708</v>
+        <v>5921</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>8898</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="25">
@@ -1737,37 +1737,37 @@
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:16</t>
+          <t>2024-09-16 19:00</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="n">
-        <v>126143</v>
+        <v>129707</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>107553</v>
+        <v>100905</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>1292</v>
+        <v>1140</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>106261</v>
+        <v>99765</v>
       </c>
       <c r="K25" s="3" t="inlineStr"/>
       <c r="L25" s="3" t="n">
-        <v>20048</v>
+        <v>20980</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>25195</v>
+        <v>17664</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>15557</v>
+        <v>21306</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>24774</v>
+        <v>30832</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>15371</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="26">
@@ -1789,37 +1789,37 @@
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:59</t>
+          <t>2024-09-16 10:01</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="n">
-        <v>67959</v>
+        <v>66362</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>58122</v>
+        <v>54229</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>674</v>
+        <v>715</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>57448</v>
+        <v>53514</v>
       </c>
       <c r="K26" s="3" t="inlineStr"/>
       <c r="L26" s="3" t="n">
-        <v>15342</v>
+        <v>17629</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>16269</v>
+        <v>11466</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>14817</v>
+        <v>12860</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>3463</v>
+        <v>5260</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>4682</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="27">
@@ -1841,37 +1841,37 @@
       <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:09</t>
+          <t>2024-09-16 09:18</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="n">
-        <v>69014</v>
+        <v>68477</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>47873</v>
+        <v>59212</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>896</v>
+        <v>790</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>46977</v>
+        <v>58422</v>
       </c>
       <c r="K27" s="3" t="inlineStr"/>
       <c r="L27" s="3" t="n">
-        <v>7738</v>
+        <v>15110</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>13122</v>
+        <v>9512</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>5970</v>
+        <v>13184</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>9093</v>
+        <v>11960</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>8702</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="28">
@@ -1893,37 +1893,37 @@
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:58</t>
+          <t>2024-09-16 18:50</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="n">
-        <v>45325</v>
+        <v>41859</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>29636</v>
+        <v>37312</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>815</v>
+        <v>975</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>28821</v>
+        <v>36337</v>
       </c>
       <c r="K28" s="3" t="inlineStr"/>
       <c r="L28" s="3" t="n">
-        <v>4053</v>
+        <v>11305</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>8599</v>
+        <v>9460</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>6178</v>
+        <v>9569</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>6445</v>
+        <v>2343</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>2104</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="29">
@@ -1945,37 +1945,37 @@
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:43</t>
+          <t>2024-09-16 19:32</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="n">
-        <v>63195</v>
+        <v>65847</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>53428</v>
+        <v>51258</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>1540</v>
+        <v>1289</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>51888</v>
+        <v>49969</v>
       </c>
       <c r="K29" s="3" t="inlineStr"/>
       <c r="L29" s="3" t="n">
-        <v>18531</v>
+        <v>14300</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>11083</v>
+        <v>7782</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>8422</v>
+        <v>9846</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>4349</v>
+        <v>10196</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>6906</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="30">
@@ -1997,37 +1997,37 @@
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:05</t>
+          <t>2024-09-16 13:48</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="n">
-        <v>72840</v>
+        <v>74385</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>64291</v>
+        <v>46873</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>1609</v>
+        <v>743</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>62682</v>
+        <v>46130</v>
       </c>
       <c r="K30" s="3" t="inlineStr"/>
       <c r="L30" s="3" t="n">
-        <v>18072</v>
+        <v>14497</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>20735</v>
+        <v>7995</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>6467</v>
+        <v>12641</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>2435</v>
+        <v>8172</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>11836</v>
+        <v>516</v>
       </c>
     </row>
     <row r="31">
@@ -2049,37 +2049,37 @@
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:55</t>
+          <t>2024-09-16 11:11</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="n">
-        <v>141707</v>
+        <v>142671</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>101890</v>
+        <v>96901</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>1294</v>
+        <v>995</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>100596</v>
+        <v>95906</v>
       </c>
       <c r="K31" s="3" t="inlineStr"/>
       <c r="L31" s="3" t="n">
-        <v>23129</v>
+        <v>23450</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>29255</v>
+        <v>22489</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>28076</v>
+        <v>13254</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>11513</v>
+        <v>23495</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>3591</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="32">
@@ -2101,37 +2101,37 @@
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:46</t>
+          <t>2024-09-16 16:27</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="n">
-        <v>79625</v>
+        <v>81634</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>70379</v>
+        <v>67685</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>848</v>
+        <v>1820</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>69531</v>
+        <v>65865</v>
       </c>
       <c r="K32" s="3" t="inlineStr"/>
       <c r="L32" s="3" t="n">
-        <v>25220</v>
+        <v>29178</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>13888</v>
+        <v>14793</v>
       </c>
       <c r="N32" s="3" t="n">
-        <v>16982</v>
+        <v>13112</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>4635</v>
+        <v>3955</v>
       </c>
       <c r="P32" s="3" t="n">
-        <v>5327</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="33">
@@ -2153,37 +2153,37 @@
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:52</t>
+          <t>2024-09-16 10:35</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="n">
-        <v>202122</v>
+        <v>202962</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>143865</v>
+        <v>153007</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>4236</v>
+        <v>2684</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>139629</v>
+        <v>150323</v>
       </c>
       <c r="K33" s="3" t="inlineStr"/>
       <c r="L33" s="3" t="n">
-        <v>40646</v>
+        <v>26775</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>25604</v>
+        <v>23665</v>
       </c>
       <c r="N33" s="3" t="n">
-        <v>28318</v>
+        <v>38274</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>27055</v>
+        <v>33669</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>11021</v>
+        <v>20422</v>
       </c>
     </row>
     <row r="34">
@@ -2205,37 +2205,37 @@
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:53</t>
+          <t>2024-09-16 09:12</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="n">
-        <v>130724</v>
+        <v>128206</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>96104</v>
+        <v>79437</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>1042</v>
+        <v>1205</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>95062</v>
+        <v>78232</v>
       </c>
       <c r="K34" s="3" t="inlineStr"/>
       <c r="L34" s="3" t="n">
-        <v>27405</v>
+        <v>15328</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>24793</v>
+        <v>22604</v>
       </c>
       <c r="N34" s="3" t="n">
-        <v>10825</v>
+        <v>25582</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>19252</v>
+        <v>6556</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>8031</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="35">
@@ -2257,37 +2257,37 @@
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:25</t>
+          <t>2024-09-16 12:34</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="n">
-        <v>196807</v>
+        <v>210234</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>176695</v>
+        <v>166314</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>2847</v>
+        <v>1858</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>173848</v>
+        <v>164456</v>
       </c>
       <c r="K35" s="3" t="inlineStr"/>
       <c r="L35" s="3" t="n">
-        <v>37567</v>
+        <v>54960</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>45115</v>
+        <v>30119</v>
       </c>
       <c r="N35" s="3" t="n">
-        <v>30511</v>
+        <v>43940</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>33517</v>
+        <v>7129</v>
       </c>
       <c r="P35" s="3" t="n">
-        <v>18444</v>
+        <v>20083</v>
       </c>
     </row>
     <row r="36">
@@ -2309,37 +2309,37 @@
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:39</t>
+          <t>2024-09-16 19:05</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="n">
-        <v>149829</v>
+        <v>144944</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>132146</v>
+        <v>101029</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>1779</v>
+        <v>1825</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>130367</v>
+        <v>99204</v>
       </c>
       <c r="K36" s="3" t="inlineStr"/>
       <c r="L36" s="3" t="n">
-        <v>37495</v>
+        <v>18632</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>36297</v>
+        <v>26299</v>
       </c>
       <c r="N36" s="3" t="n">
-        <v>29632</v>
+        <v>21327</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>11830</v>
+        <v>19875</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>8592</v>
+        <v>8107</v>
       </c>
     </row>
     <row r="37">
@@ -2361,37 +2361,37 @@
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:06</t>
+          <t>2024-09-16 08:43</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="n">
-        <v>191533</v>
+        <v>180443</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>143686</v>
+        <v>116678</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>3639</v>
+        <v>2591</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>140047</v>
+        <v>114087</v>
       </c>
       <c r="K37" s="3" t="inlineStr"/>
       <c r="L37" s="3" t="n">
-        <v>44915</v>
+        <v>20616</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>29463</v>
+        <v>27260</v>
       </c>
       <c r="N37" s="3" t="n">
-        <v>21518</v>
+        <v>21903</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>7924</v>
+        <v>20506</v>
       </c>
       <c r="P37" s="3" t="n">
-        <v>29222</v>
+        <v>18096</v>
       </c>
     </row>
     <row r="38">
@@ -2413,37 +2413,37 @@
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:34</t>
+          <t>2024-09-16 13:44</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="n">
-        <v>124636</v>
+        <v>131283</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>81793</v>
+        <v>92164</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>2337</v>
+        <v>1519</v>
       </c>
       <c r="J38" s="3" t="n">
-        <v>79456</v>
+        <v>90645</v>
       </c>
       <c r="K38" s="3" t="inlineStr"/>
       <c r="L38" s="3" t="n">
-        <v>23840</v>
+        <v>27020</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>12242</v>
+        <v>21691</v>
       </c>
       <c r="N38" s="3" t="n">
-        <v>20917</v>
+        <v>11717</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>14372</v>
+        <v>16748</v>
       </c>
       <c r="P38" s="3" t="n">
-        <v>4109</v>
+        <v>8934</v>
       </c>
     </row>
     <row r="39">
@@ -2465,37 +2465,37 @@
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:17</t>
+          <t>2024-09-16 12:15</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="n">
-        <v>141484</v>
+        <v>138257</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>107266</v>
+        <v>102033</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>1492</v>
+        <v>1127</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>105774</v>
+        <v>100906</v>
       </c>
       <c r="K39" s="3" t="inlineStr"/>
       <c r="L39" s="3" t="n">
-        <v>30957</v>
+        <v>28360</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>15879</v>
+        <v>26047</v>
       </c>
       <c r="N39" s="3" t="n">
-        <v>20905</v>
+        <v>10383</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>22613</v>
+        <v>10454</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>10129</v>
+        <v>20614</v>
       </c>
     </row>
     <row r="40">
@@ -2517,37 +2517,37 @@
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:47</t>
+          <t>2024-09-16 14:21</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="n">
-        <v>122254</v>
+        <v>117756</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>102294</v>
+        <v>87505</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>1926</v>
+        <v>2037</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>100368</v>
+        <v>85468</v>
       </c>
       <c r="K40" s="3" t="inlineStr"/>
       <c r="L40" s="3" t="n">
-        <v>23371</v>
+        <v>25404</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>27229</v>
+        <v>20941</v>
       </c>
       <c r="N40" s="3" t="n">
-        <v>16409</v>
+        <v>13132</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>15770</v>
+        <v>7858</v>
       </c>
       <c r="P40" s="3" t="n">
-        <v>12568</v>
+        <v>13858</v>
       </c>
     </row>
     <row r="41">
@@ -2569,37 +2569,37 @@
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:16</t>
+          <t>2024-09-16 10:56</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="n">
-        <v>159365</v>
+        <v>169864</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>102474</v>
+        <v>104527</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>2003</v>
+        <v>1220</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>100471</v>
+        <v>103307</v>
       </c>
       <c r="K41" s="3" t="inlineStr"/>
       <c r="L41" s="3" t="n">
-        <v>17361</v>
+        <v>28889</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>19716</v>
+        <v>27937</v>
       </c>
       <c r="N41" s="3" t="n">
-        <v>33305</v>
+        <v>10049</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>11590</v>
+        <v>9555</v>
       </c>
       <c r="P41" s="3" t="n">
-        <v>13472</v>
+        <v>21709</v>
       </c>
     </row>
     <row r="42">
@@ -2621,37 +2621,37 @@
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:32</t>
+          <t>2024-09-16 09:42</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="n">
-        <v>118594</v>
+        <v>114202</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>76854</v>
+        <v>69019</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>1727</v>
+        <v>1863</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>75127</v>
+        <v>67156</v>
       </c>
       <c r="K42" s="3" t="inlineStr"/>
       <c r="L42" s="3" t="n">
-        <v>20148</v>
+        <v>15941</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>17178</v>
+        <v>23670</v>
       </c>
       <c r="N42" s="3" t="n">
-        <v>21550</v>
+        <v>8004</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>9216</v>
+        <v>5953</v>
       </c>
       <c r="P42" s="3" t="n">
-        <v>3277</v>
+        <v>10227</v>
       </c>
     </row>
     <row r="43">
@@ -2673,37 +2673,37 @@
       <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:56</t>
+          <t>2024-09-16 18:10</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="n">
-        <v>128800</v>
+        <v>135329</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>102720</v>
+        <v>84434</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>1355</v>
+        <v>1849</v>
       </c>
       <c r="J43" s="3" t="n">
-        <v>101365</v>
+        <v>82585</v>
       </c>
       <c r="K43" s="3" t="inlineStr"/>
       <c r="L43" s="3" t="n">
-        <v>27549</v>
+        <v>16317</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>26148</v>
+        <v>28178</v>
       </c>
       <c r="N43" s="3" t="n">
-        <v>14633</v>
+        <v>9988</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>14770</v>
+        <v>7078</v>
       </c>
       <c r="P43" s="3" t="n">
-        <v>13195</v>
+        <v>16893</v>
       </c>
     </row>
     <row r="44">
@@ -2725,37 +2725,37 @@
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:10</t>
+          <t>2024-09-16 12:34</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="n">
-        <v>141539</v>
+        <v>145036</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>91734</v>
+        <v>107202</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>2486</v>
+        <v>1765</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>89248</v>
+        <v>105437</v>
       </c>
       <c r="K44" s="3" t="inlineStr"/>
       <c r="L44" s="3" t="n">
-        <v>22273</v>
+        <v>27655</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>26417</v>
+        <v>21381</v>
       </c>
       <c r="N44" s="3" t="n">
-        <v>19537</v>
+        <v>24943</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>8334</v>
+        <v>11329</v>
       </c>
       <c r="P44" s="3" t="n">
-        <v>8222</v>
+        <v>14855</v>
       </c>
     </row>
     <row r="45">
@@ -2777,37 +2777,37 @@
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 20:03</t>
+          <t>2024-09-16 14:30</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="n">
-        <v>147724</v>
+        <v>144393</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>101447</v>
+        <v>100886</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>1293</v>
+        <v>1519</v>
       </c>
       <c r="J45" s="3" t="n">
-        <v>100154</v>
+        <v>99367</v>
       </c>
       <c r="K45" s="3" t="inlineStr"/>
       <c r="L45" s="3" t="n">
-        <v>18848</v>
+        <v>22077</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>29489</v>
+        <v>12107</v>
       </c>
       <c r="N45" s="3" t="n">
-        <v>18657</v>
+        <v>14458</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>9345</v>
+        <v>26166</v>
       </c>
       <c r="P45" s="3" t="n">
-        <v>18805</v>
+        <v>19588</v>
       </c>
     </row>
     <row r="46">
@@ -2829,37 +2829,37 @@
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:57</t>
+          <t>2024-09-16 19:55</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="n">
-        <v>167178</v>
+        <v>154007</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>109170</v>
+        <v>136551</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>1435</v>
+        <v>1766</v>
       </c>
       <c r="J46" s="3" t="n">
-        <v>107735</v>
+        <v>134785</v>
       </c>
       <c r="K46" s="3" t="inlineStr"/>
       <c r="L46" s="3" t="n">
-        <v>39393</v>
+        <v>35246</v>
       </c>
       <c r="M46" s="3" t="n">
-        <v>32887</v>
+        <v>20101</v>
       </c>
       <c r="N46" s="3" t="n">
-        <v>15256</v>
+        <v>37879</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>9877</v>
+        <v>20533</v>
       </c>
       <c r="P46" s="3" t="n">
-        <v>4932</v>
+        <v>14286</v>
       </c>
     </row>
     <row r="47">
@@ -2881,37 +2881,37 @@
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:14</t>
+          <t>2024-09-16 11:41</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="n">
-        <v>165735</v>
+        <v>167863</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>115715</v>
+        <v>142296</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>2958</v>
+        <v>3798</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>112757</v>
+        <v>138498</v>
       </c>
       <c r="K47" s="3" t="inlineStr"/>
       <c r="L47" s="3" t="n">
-        <v>23917</v>
+        <v>30565</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>30245</v>
+        <v>44673</v>
       </c>
       <c r="N47" s="3" t="n">
-        <v>17075</v>
+        <v>34357</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>18259</v>
+        <v>11186</v>
       </c>
       <c r="P47" s="3" t="n">
-        <v>17621</v>
+        <v>10790</v>
       </c>
     </row>
     <row r="48">
@@ -2933,37 +2933,37 @@
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:13</t>
+          <t>2024-09-16 15:42</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="n">
-        <v>171792</v>
+        <v>165666</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>147473</v>
+        <v>134436</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>3587</v>
+        <v>4021</v>
       </c>
       <c r="J48" s="3" t="n">
-        <v>143886</v>
+        <v>130415</v>
       </c>
       <c r="K48" s="3" t="inlineStr"/>
       <c r="L48" s="3" t="n">
-        <v>46427</v>
+        <v>40416</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>38160</v>
+        <v>16905</v>
       </c>
       <c r="N48" s="3" t="n">
-        <v>23146</v>
+        <v>24914</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>25348</v>
+        <v>27390</v>
       </c>
       <c r="P48" s="3" t="n">
-        <v>3607</v>
+        <v>14266</v>
       </c>
     </row>
     <row r="49">
@@ -2985,37 +2985,37 @@
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:32</t>
+          <t>2024-09-16 16:51</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="n">
-        <v>125287</v>
+        <v>125400</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>79363</v>
+        <v>87045</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>1037</v>
+        <v>1244</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>78326</v>
+        <v>85801</v>
       </c>
       <c r="K49" s="3" t="inlineStr"/>
       <c r="L49" s="3" t="n">
-        <v>23563</v>
+        <v>24015</v>
       </c>
       <c r="M49" s="3" t="n">
-        <v>10903</v>
+        <v>28156</v>
       </c>
       <c r="N49" s="3" t="n">
-        <v>19056</v>
+        <v>15784</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>17079</v>
+        <v>8885</v>
       </c>
       <c r="P49" s="3" t="n">
-        <v>3807</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="50">
@@ -3037,37 +3037,37 @@
       <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:58</t>
+          <t>2024-09-16 19:19</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="n">
-        <v>131166</v>
+        <v>134253</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>97068</v>
+        <v>105762</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>1723</v>
+        <v>1332</v>
       </c>
       <c r="J50" s="3" t="n">
-        <v>95345</v>
+        <v>104430</v>
       </c>
       <c r="K50" s="3" t="inlineStr"/>
       <c r="L50" s="3" t="n">
-        <v>19202</v>
+        <v>29529</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>18626</v>
+        <v>29532</v>
       </c>
       <c r="N50" s="3" t="n">
-        <v>23387</v>
+        <v>25444</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>19507</v>
+        <v>3857</v>
       </c>
       <c r="P50" s="3" t="n">
-        <v>9854</v>
+        <v>10844</v>
       </c>
     </row>
     <row r="51">
@@ -3089,37 +3089,37 @@
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:03</t>
+          <t>2024-09-16 14:17</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr"/>
       <c r="G51" s="3" t="n">
-        <v>101327</v>
+        <v>103086</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>90005</v>
+        <v>73771</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>2537</v>
+        <v>1957</v>
       </c>
       <c r="J51" s="3" t="n">
-        <v>87468</v>
+        <v>71814</v>
       </c>
       <c r="K51" s="3" t="inlineStr"/>
       <c r="L51" s="3" t="n">
-        <v>30167</v>
+        <v>19353</v>
       </c>
       <c r="M51" s="3" t="n">
-        <v>14637</v>
+        <v>22225</v>
       </c>
       <c r="N51" s="3" t="n">
-        <v>11817</v>
+        <v>15503</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>17438</v>
+        <v>7962</v>
       </c>
       <c r="P51" s="3" t="n">
-        <v>9033</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="52">
@@ -3141,37 +3141,37 @@
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:15</t>
+          <t>2024-09-16 15:45</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr"/>
       <c r="G52" s="3" t="n">
-        <v>128209</v>
+        <v>128731</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>98621</v>
+        <v>97413</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>2476</v>
+        <v>2209</v>
       </c>
       <c r="J52" s="3" t="n">
-        <v>96145</v>
+        <v>95204</v>
       </c>
       <c r="K52" s="3" t="inlineStr"/>
       <c r="L52" s="3" t="n">
-        <v>20462</v>
+        <v>22505</v>
       </c>
       <c r="M52" s="3" t="n">
-        <v>24977</v>
+        <v>32121</v>
       </c>
       <c r="N52" s="3" t="n">
-        <v>21481</v>
+        <v>12754</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>14381</v>
+        <v>13541</v>
       </c>
       <c r="P52" s="3" t="n">
-        <v>10035</v>
+        <v>9520</v>
       </c>
     </row>
     <row r="53">
@@ -3193,37 +3193,37 @@
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:15</t>
+          <t>2024-09-16 16:38</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="n">
-        <v>149565</v>
+        <v>150121</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>100211</v>
+        <v>132597</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>2863</v>
+        <v>1554</v>
       </c>
       <c r="J53" s="3" t="n">
-        <v>97348</v>
+        <v>131043</v>
       </c>
       <c r="K53" s="3" t="inlineStr"/>
       <c r="L53" s="3" t="n">
-        <v>24863</v>
+        <v>32492</v>
       </c>
       <c r="M53" s="3" t="n">
-        <v>16919</v>
+        <v>42393</v>
       </c>
       <c r="N53" s="3" t="n">
-        <v>22462</v>
+        <v>32851</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>26137</v>
+        <v>8340</v>
       </c>
       <c r="P53" s="3" t="n">
-        <v>2096</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="54">
@@ -3245,37 +3245,37 @@
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:16</t>
+          <t>2024-09-16 13:39</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr"/>
       <c r="G54" s="3" t="n">
-        <v>138850</v>
+        <v>137727</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>122892</v>
+        <v>94279</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>2091</v>
+        <v>1270</v>
       </c>
       <c r="J54" s="3" t="n">
-        <v>120801</v>
+        <v>93009</v>
       </c>
       <c r="K54" s="3" t="inlineStr"/>
       <c r="L54" s="3" t="n">
-        <v>39588</v>
+        <v>13110</v>
       </c>
       <c r="M54" s="3" t="n">
-        <v>21036</v>
+        <v>29487</v>
       </c>
       <c r="N54" s="3" t="n">
-        <v>16609</v>
+        <v>29404</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>6494</v>
+        <v>14560</v>
       </c>
       <c r="P54" s="3" t="n">
-        <v>31032</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="55">
@@ -3297,37 +3297,37 @@
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:09</t>
+          <t>2024-09-16 16:57</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr"/>
       <c r="G55" s="3" t="n">
-        <v>88566</v>
+        <v>87351</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>79357</v>
+        <v>59689</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>1071</v>
+        <v>803</v>
       </c>
       <c r="J55" s="3" t="n">
-        <v>78286</v>
+        <v>58886</v>
       </c>
       <c r="K55" s="3" t="inlineStr"/>
       <c r="L55" s="3" t="n">
-        <v>22960</v>
+        <v>17561</v>
       </c>
       <c r="M55" s="3" t="n">
-        <v>14061</v>
+        <v>16573</v>
       </c>
       <c r="N55" s="3" t="n">
-        <v>27246</v>
+        <v>11098</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>3649</v>
+        <v>4415</v>
       </c>
       <c r="P55" s="3" t="n">
-        <v>6453</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="56">
@@ -3349,37 +3349,37 @@
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:45</t>
+          <t>2024-09-16 11:32</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="n">
-        <v>120834</v>
+        <v>114647</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>83668</v>
+        <v>86603</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>1040</v>
+        <v>1334</v>
       </c>
       <c r="J56" s="3" t="n">
-        <v>82628</v>
+        <v>85269</v>
       </c>
       <c r="K56" s="3" t="inlineStr"/>
       <c r="L56" s="3" t="n">
-        <v>18769</v>
+        <v>15670</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>29496</v>
+        <v>25061</v>
       </c>
       <c r="N56" s="3" t="n">
-        <v>10098</v>
+        <v>21900</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>17916</v>
+        <v>13402</v>
       </c>
       <c r="P56" s="3" t="n">
-        <v>2214</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="57">
@@ -3401,37 +3401,37 @@
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:10</t>
+          <t>2024-09-16 12:14</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr"/>
       <c r="G57" s="3" t="n">
-        <v>128301</v>
+        <v>132614</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>97893</v>
+        <v>81436</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>2518</v>
+        <v>1504</v>
       </c>
       <c r="J57" s="3" t="n">
-        <v>95375</v>
+        <v>79932</v>
       </c>
       <c r="K57" s="3" t="inlineStr"/>
       <c r="L57" s="3" t="n">
-        <v>27090</v>
+        <v>19731</v>
       </c>
       <c r="M57" s="3" t="n">
-        <v>28546</v>
+        <v>16198</v>
       </c>
       <c r="N57" s="3" t="n">
-        <v>18403</v>
+        <v>23558</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>14360</v>
+        <v>11539</v>
       </c>
       <c r="P57" s="3" t="n">
-        <v>2204</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="58">
@@ -3453,37 +3453,37 @@
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:48</t>
+          <t>2024-09-16 13:57</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="n">
-        <v>134729</v>
+        <v>128602</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>97774</v>
+        <v>109975</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>2775</v>
+        <v>3269</v>
       </c>
       <c r="J58" s="3" t="n">
-        <v>94999</v>
+        <v>106706</v>
       </c>
       <c r="K58" s="3" t="inlineStr"/>
       <c r="L58" s="3" t="n">
-        <v>22054</v>
+        <v>25417</v>
       </c>
       <c r="M58" s="3" t="n">
-        <v>23274</v>
+        <v>29525</v>
       </c>
       <c r="N58" s="3" t="n">
-        <v>21407</v>
+        <v>14870</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>6900</v>
+        <v>17232</v>
       </c>
       <c r="P58" s="3" t="n">
-        <v>16612</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="59">
@@ -3505,37 +3505,37 @@
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:55</t>
+          <t>2024-09-16 15:55</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr"/>
       <c r="G59" s="3" t="n">
-        <v>103410</v>
+        <v>102626</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>84177</v>
+        <v>70611</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>1182</v>
+        <v>1206</v>
       </c>
       <c r="J59" s="3" t="n">
-        <v>82995</v>
+        <v>69405</v>
       </c>
       <c r="K59" s="3" t="inlineStr"/>
       <c r="L59" s="3" t="n">
-        <v>9942</v>
+        <v>16405</v>
       </c>
       <c r="M59" s="3" t="n">
-        <v>24713</v>
+        <v>15359</v>
       </c>
       <c r="N59" s="3" t="n">
-        <v>16835</v>
+        <v>11037</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>13052</v>
+        <v>9356</v>
       </c>
       <c r="P59" s="3" t="n">
-        <v>14301</v>
+        <v>13775</v>
       </c>
     </row>
     <row r="60">
@@ -3557,37 +3557,37 @@
       <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:58</t>
+          <t>2024-09-16 17:53</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr"/>
       <c r="G60" s="3" t="n">
-        <v>54271</v>
+        <v>56357</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>45775</v>
+        <v>40603</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>643</v>
+        <v>940</v>
       </c>
       <c r="J60" s="3" t="n">
-        <v>45132</v>
+        <v>39663</v>
       </c>
       <c r="K60" s="3" t="inlineStr"/>
       <c r="L60" s="3" t="n">
-        <v>14969</v>
+        <v>5707</v>
       </c>
       <c r="M60" s="3" t="n">
-        <v>13189</v>
+        <v>8935</v>
       </c>
       <c r="N60" s="3" t="n">
-        <v>5615</v>
+        <v>6633</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>7411</v>
+        <v>9955</v>
       </c>
       <c r="P60" s="3" t="n">
-        <v>1688</v>
+        <v>6448</v>
       </c>
     </row>
     <row r="61">
@@ -3609,37 +3609,37 @@
       <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:38</t>
+          <t>2024-09-16 12:06</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr"/>
       <c r="G61" s="3" t="n">
-        <v>168845</v>
+        <v>171876</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>148736</v>
+        <v>107982</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>4460</v>
+        <v>3037</v>
       </c>
       <c r="J61" s="3" t="n">
-        <v>144276</v>
+        <v>104945</v>
       </c>
       <c r="K61" s="3" t="inlineStr"/>
       <c r="L61" s="3" t="n">
-        <v>36094</v>
+        <v>25138</v>
       </c>
       <c r="M61" s="3" t="n">
-        <v>44699</v>
+        <v>20609</v>
       </c>
       <c r="N61" s="3" t="n">
-        <v>40110</v>
+        <v>19921</v>
       </c>
       <c r="O61" s="3" t="n">
-        <v>5813</v>
+        <v>21871</v>
       </c>
       <c r="P61" s="3" t="n">
-        <v>10344</v>
+        <v>12157</v>
       </c>
     </row>
     <row r="62">
@@ -3661,7 +3661,7 @@
       <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:38</t>
+          <t>2024-09-16 17:21</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr"/>
@@ -3669,29 +3669,29 @@
         <v>93573</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>74772</v>
+        <v>70604</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>1693</v>
+        <v>732</v>
       </c>
       <c r="J62" s="3" t="n">
-        <v>73079</v>
+        <v>69872</v>
       </c>
       <c r="K62" s="3" t="inlineStr"/>
       <c r="L62" s="3" t="n">
-        <v>12066</v>
+        <v>14748</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>15520</v>
+        <v>16522</v>
       </c>
       <c r="N62" s="3" t="n">
-        <v>21669</v>
+        <v>14751</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>13032</v>
+        <v>11493</v>
       </c>
       <c r="P62" s="3" t="n">
-        <v>7136</v>
+        <v>8863</v>
       </c>
     </row>
     <row r="63">
@@ -3713,37 +3713,37 @@
       <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:39</t>
+          <t>2024-09-16 19:10</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr"/>
       <c r="G63" s="3" t="n">
-        <v>62538</v>
+        <v>59141</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>50925</v>
+        <v>43115</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>1341</v>
+        <v>448</v>
       </c>
       <c r="J63" s="3" t="n">
-        <v>49584</v>
+        <v>42667</v>
       </c>
       <c r="K63" s="3" t="inlineStr"/>
       <c r="L63" s="3" t="n">
-        <v>9470</v>
+        <v>13968</v>
       </c>
       <c r="M63" s="3" t="n">
-        <v>18245</v>
+        <v>8106</v>
       </c>
       <c r="N63" s="3" t="n">
-        <v>13477</v>
+        <v>7323</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>4988</v>
+        <v>2774</v>
       </c>
       <c r="P63" s="3" t="n">
-        <v>922</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="64">
@@ -3765,37 +3765,37 @@
       <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:54</t>
+          <t>2024-09-16 08:48</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr"/>
       <c r="G64" s="3" t="n">
-        <v>52591</v>
+        <v>52344</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>32429</v>
+        <v>38746</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>589</v>
+        <v>1137</v>
       </c>
       <c r="J64" s="3" t="n">
-        <v>31840</v>
+        <v>37609</v>
       </c>
       <c r="K64" s="3" t="inlineStr"/>
       <c r="L64" s="3" t="n">
-        <v>6431</v>
+        <v>13621</v>
       </c>
       <c r="M64" s="3" t="n">
-        <v>6636</v>
+        <v>8681</v>
       </c>
       <c r="N64" s="3" t="n">
-        <v>6665</v>
+        <v>6619</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>3902</v>
+        <v>4549</v>
       </c>
       <c r="P64" s="3" t="n">
-        <v>6611</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="65">
@@ -3817,37 +3817,37 @@
       <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:56</t>
+          <t>2024-09-16 13:28</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr"/>
       <c r="G65" s="3" t="n">
-        <v>100762</v>
+        <v>100130</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>63687</v>
+        <v>84135</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>1058</v>
+        <v>1482</v>
       </c>
       <c r="J65" s="3" t="n">
-        <v>62629</v>
+        <v>82653</v>
       </c>
       <c r="K65" s="3" t="inlineStr"/>
       <c r="L65" s="3" t="n">
-        <v>11859</v>
+        <v>21191</v>
       </c>
       <c r="M65" s="3" t="n">
-        <v>18401</v>
+        <v>20375</v>
       </c>
       <c r="N65" s="3" t="n">
-        <v>21341</v>
+        <v>12403</v>
       </c>
       <c r="O65" s="3" t="n">
-        <v>5270</v>
+        <v>9693</v>
       </c>
       <c r="P65" s="3" t="n">
-        <v>2624</v>
+        <v>14856</v>
       </c>
     </row>
     <row r="66">
@@ -3869,37 +3869,37 @@
       <c r="D66" s="3" t="inlineStr"/>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:52</t>
+          <t>2024-09-16 08:25</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="n">
-        <v>74293</v>
+        <v>75492</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>46621</v>
+        <v>67736</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>1242</v>
+        <v>1172</v>
       </c>
       <c r="J66" s="3" t="n">
-        <v>45379</v>
+        <v>66564</v>
       </c>
       <c r="K66" s="3" t="inlineStr"/>
       <c r="L66" s="3" t="n">
-        <v>11183</v>
+        <v>20582</v>
       </c>
       <c r="M66" s="3" t="n">
-        <v>8448</v>
+        <v>17370</v>
       </c>
       <c r="N66" s="3" t="n">
-        <v>6315</v>
+        <v>9708</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>7983</v>
+        <v>3767</v>
       </c>
       <c r="P66" s="3" t="n">
-        <v>9179</v>
+        <v>11806</v>
       </c>
     </row>
     <row r="67">
@@ -3921,37 +3921,37 @@
       <c r="D67" s="3" t="inlineStr"/>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:00</t>
+          <t>2024-09-16 08:56</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr"/>
       <c r="G67" s="3" t="n">
-        <v>84184</v>
+        <v>85850</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>72615</v>
+        <v>70438</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>846</v>
+        <v>958</v>
       </c>
       <c r="J67" s="3" t="n">
-        <v>71769</v>
+        <v>69480</v>
       </c>
       <c r="K67" s="3" t="inlineStr"/>
       <c r="L67" s="3" t="n">
-        <v>15713</v>
+        <v>17700</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>17977</v>
+        <v>12268</v>
       </c>
       <c r="N67" s="3" t="n">
-        <v>9962</v>
+        <v>15426</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>10748</v>
+        <v>16902</v>
       </c>
       <c r="P67" s="3" t="n">
-        <v>13778</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="68">
@@ -3973,37 +3973,37 @@
       <c r="D68" s="3" t="inlineStr"/>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:31</t>
+          <t>2024-09-16 13:42</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr"/>
       <c r="G68" s="3" t="n">
-        <v>42943</v>
+        <v>40599</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>31077</v>
+        <v>35702</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>766</v>
+        <v>530</v>
       </c>
       <c r="J68" s="3" t="n">
-        <v>30311</v>
+        <v>35172</v>
       </c>
       <c r="K68" s="3" t="inlineStr"/>
       <c r="L68" s="3" t="n">
-        <v>8250</v>
+        <v>7410</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>7267</v>
+        <v>6042</v>
       </c>
       <c r="N68" s="3" t="n">
-        <v>6274</v>
+        <v>6888</v>
       </c>
       <c r="O68" s="3" t="n">
-        <v>5018</v>
+        <v>3974</v>
       </c>
       <c r="P68" s="3" t="n">
-        <v>1984</v>
+        <v>9097</v>
       </c>
     </row>
     <row r="69">
@@ -4025,37 +4025,37 @@
       <c r="D69" s="3" t="inlineStr"/>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:47</t>
+          <t>2024-09-16 15:26</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr"/>
       <c r="G69" s="3" t="n">
-        <v>82665</v>
+        <v>85522</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>71823</v>
+        <v>64691</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>1724</v>
+        <v>653</v>
       </c>
       <c r="J69" s="3" t="n">
-        <v>70099</v>
+        <v>64038</v>
       </c>
       <c r="K69" s="3" t="inlineStr"/>
       <c r="L69" s="3" t="n">
-        <v>17127</v>
+        <v>16807</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>14629</v>
+        <v>13240</v>
       </c>
       <c r="N69" s="3" t="n">
-        <v>15102</v>
+        <v>14334</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>6941</v>
+        <v>5015</v>
       </c>
       <c r="P69" s="3" t="n">
-        <v>12792</v>
+        <v>11436</v>
       </c>
     </row>
     <row r="70">
@@ -4077,37 +4077,37 @@
       <c r="D70" s="3" t="inlineStr"/>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:48</t>
+          <t>2024-09-16 12:49</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr"/>
       <c r="G70" s="3" t="n">
-        <v>92852</v>
+        <v>91039</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>73714</v>
+        <v>67030</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>1475</v>
+        <v>1481</v>
       </c>
       <c r="J70" s="3" t="n">
-        <v>72239</v>
+        <v>65549</v>
       </c>
       <c r="K70" s="3" t="inlineStr"/>
       <c r="L70" s="3" t="n">
-        <v>20788</v>
+        <v>20450</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>19342</v>
+        <v>19749</v>
       </c>
       <c r="N70" s="3" t="n">
-        <v>12933</v>
+        <v>10143</v>
       </c>
       <c r="O70" s="3" t="n">
-        <v>11526</v>
+        <v>8347</v>
       </c>
       <c r="P70" s="3" t="n">
-        <v>4036</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="71">
@@ -4129,37 +4129,37 @@
       <c r="D71" s="3" t="inlineStr"/>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:20</t>
+          <t>2024-09-16 10:32</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr"/>
       <c r="G71" s="3" t="n">
-        <v>111581</v>
+        <v>109585</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>76365</v>
+        <v>94513</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>1957</v>
+        <v>1944</v>
       </c>
       <c r="J71" s="3" t="n">
-        <v>74408</v>
+        <v>92569</v>
       </c>
       <c r="K71" s="3" t="inlineStr"/>
       <c r="L71" s="3" t="n">
-        <v>18083</v>
+        <v>33953</v>
       </c>
       <c r="M71" s="3" t="n">
-        <v>22068</v>
+        <v>19195</v>
       </c>
       <c r="N71" s="3" t="n">
-        <v>14833</v>
+        <v>17238</v>
       </c>
       <c r="O71" s="3" t="n">
-        <v>2640</v>
+        <v>13347</v>
       </c>
       <c r="P71" s="3" t="n">
-        <v>13061</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="72">
@@ -4181,37 +4181,37 @@
       <c r="D72" s="3" t="inlineStr"/>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:15</t>
+          <t>2024-09-16 13:44</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr"/>
       <c r="G72" s="3" t="n">
-        <v>106226</v>
+        <v>104431</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>89567</v>
+        <v>79027</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>2563</v>
+        <v>950</v>
       </c>
       <c r="J72" s="3" t="n">
-        <v>87004</v>
+        <v>78077</v>
       </c>
       <c r="K72" s="3" t="inlineStr"/>
       <c r="L72" s="3" t="n">
-        <v>26028</v>
+        <v>25084</v>
       </c>
       <c r="M72" s="3" t="n">
-        <v>27179</v>
+        <v>9249</v>
       </c>
       <c r="N72" s="3" t="n">
-        <v>8910</v>
+        <v>13931</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>9595</v>
+        <v>10708</v>
       </c>
       <c r="P72" s="3" t="n">
-        <v>10940</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="73">
@@ -4233,37 +4233,37 @@
       <c r="D73" s="3" t="inlineStr"/>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:31</t>
+          <t>2024-09-16 15:26</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr"/>
       <c r="G73" s="3" t="n">
-        <v>143944</v>
+        <v>147099</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>116719</v>
+        <v>90163</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>3491</v>
+        <v>2092</v>
       </c>
       <c r="J73" s="3" t="n">
-        <v>113228</v>
+        <v>88071</v>
       </c>
       <c r="K73" s="3" t="inlineStr"/>
       <c r="L73" s="3" t="n">
-        <v>25818</v>
+        <v>26757</v>
       </c>
       <c r="M73" s="3" t="n">
-        <v>28984</v>
+        <v>21409</v>
       </c>
       <c r="N73" s="3" t="n">
-        <v>24402</v>
+        <v>13249</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>24849</v>
+        <v>5380</v>
       </c>
       <c r="P73" s="3" t="n">
-        <v>3512</v>
+        <v>16870</v>
       </c>
     </row>
     <row r="74">
@@ -4285,37 +4285,37 @@
       <c r="D74" s="3" t="inlineStr"/>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:21</t>
+          <t>2024-09-16 10:35</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr"/>
       <c r="G74" s="3" t="n">
-        <v>72871</v>
+        <v>73626</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>44911</v>
+        <v>44667</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>629</v>
+        <v>539</v>
       </c>
       <c r="J74" s="3" t="n">
-        <v>44282</v>
+        <v>44128</v>
       </c>
       <c r="K74" s="3" t="inlineStr"/>
       <c r="L74" s="3" t="n">
-        <v>11047</v>
+        <v>11332</v>
       </c>
       <c r="M74" s="3" t="n">
-        <v>8370</v>
+        <v>7072</v>
       </c>
       <c r="N74" s="3" t="n">
-        <v>11041</v>
+        <v>9294</v>
       </c>
       <c r="O74" s="3" t="n">
-        <v>5064</v>
+        <v>6862</v>
       </c>
       <c r="P74" s="3" t="n">
-        <v>6543</v>
+        <v>7358</v>
       </c>
     </row>
     <row r="75">
@@ -4337,37 +4337,37 @@
       <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:37</t>
+          <t>2024-09-16 10:34</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr"/>
       <c r="G75" s="3" t="n">
-        <v>88364</v>
+        <v>93248</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>70470</v>
+        <v>59294</v>
       </c>
       <c r="I75" s="3" t="n">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="J75" s="3" t="n">
-        <v>69138</v>
+        <v>57960</v>
       </c>
       <c r="K75" s="3" t="inlineStr"/>
       <c r="L75" s="3" t="n">
-        <v>13977</v>
+        <v>10565</v>
       </c>
       <c r="M75" s="3" t="n">
-        <v>12474</v>
+        <v>15935</v>
       </c>
       <c r="N75" s="3" t="n">
-        <v>17498</v>
+        <v>13429</v>
       </c>
       <c r="O75" s="3" t="n">
-        <v>14701</v>
+        <v>5607</v>
       </c>
       <c r="P75" s="3" t="n">
-        <v>7028</v>
+        <v>9524</v>
       </c>
     </row>
     <row r="76">
@@ -4389,37 +4389,37 @@
       <c r="D76" s="3" t="inlineStr"/>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:07</t>
+          <t>2024-09-16 11:08</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr"/>
       <c r="G76" s="3" t="n">
-        <v>96562</v>
+        <v>97534</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>72935</v>
+        <v>58607</v>
       </c>
       <c r="I76" s="3" t="n">
-        <v>1880</v>
+        <v>1443</v>
       </c>
       <c r="J76" s="3" t="n">
-        <v>71055</v>
+        <v>57164</v>
       </c>
       <c r="K76" s="3" t="inlineStr"/>
       <c r="L76" s="3" t="n">
-        <v>24097</v>
+        <v>18242</v>
       </c>
       <c r="M76" s="3" t="n">
-        <v>7987</v>
+        <v>7275</v>
       </c>
       <c r="N76" s="3" t="n">
-        <v>12381</v>
+        <v>14945</v>
       </c>
       <c r="O76" s="3" t="n">
-        <v>17218</v>
+        <v>6744</v>
       </c>
       <c r="P76" s="3" t="n">
-        <v>5817</v>
+        <v>7097</v>
       </c>
     </row>
     <row r="77">
@@ -4441,37 +4441,37 @@
       <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:07</t>
+          <t>2024-09-16 08:26</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="n">
-        <v>326500</v>
+        <v>332287</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>292998</v>
+        <v>205549</v>
       </c>
       <c r="I77" s="3" t="n">
-        <v>8157</v>
+        <v>3997</v>
       </c>
       <c r="J77" s="3" t="n">
-        <v>284841</v>
+        <v>201552</v>
       </c>
       <c r="K77" s="3" t="inlineStr"/>
       <c r="L77" s="3" t="n">
-        <v>125053</v>
+        <v>72802</v>
       </c>
       <c r="M77" s="3" t="n">
-        <v>43118</v>
+        <v>37505</v>
       </c>
       <c r="N77" s="3" t="n">
-        <v>39132</v>
+        <v>34491</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>25692</v>
+        <v>26864</v>
       </c>
       <c r="P77" s="3" t="n">
-        <v>37602</v>
+        <v>19809</v>
       </c>
     </row>
     <row r="78">
@@ -4493,37 +4493,37 @@
       <c r="D78" s="3" t="inlineStr"/>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:14</t>
+          <t>2024-09-16 10:22</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr"/>
       <c r="G78" s="3" t="n">
-        <v>81833</v>
+        <v>82717</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>51603</v>
+        <v>74344</v>
       </c>
       <c r="I78" s="3" t="n">
-        <v>1033</v>
+        <v>1067</v>
       </c>
       <c r="J78" s="3" t="n">
-        <v>50570</v>
+        <v>73277</v>
       </c>
       <c r="K78" s="3" t="inlineStr"/>
       <c r="L78" s="3" t="n">
-        <v>11996</v>
+        <v>20143</v>
       </c>
       <c r="M78" s="3" t="n">
-        <v>10598</v>
+        <v>8855</v>
       </c>
       <c r="N78" s="3" t="n">
-        <v>6471</v>
+        <v>22033</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>9140</v>
+        <v>12784</v>
       </c>
       <c r="P78" s="3" t="n">
-        <v>9834</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="79">
@@ -4545,37 +4545,37 @@
       <c r="D79" s="3" t="inlineStr"/>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:49</t>
+          <t>2024-09-16 20:11</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr"/>
       <c r="G79" s="3" t="n">
-        <v>76116</v>
+        <v>73822</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>61835</v>
+        <v>56576</v>
       </c>
       <c r="I79" s="3" t="n">
-        <v>1750</v>
+        <v>1390</v>
       </c>
       <c r="J79" s="3" t="n">
-        <v>60085</v>
+        <v>55186</v>
       </c>
       <c r="K79" s="3" t="inlineStr"/>
       <c r="L79" s="3" t="n">
-        <v>15793</v>
+        <v>19744</v>
       </c>
       <c r="M79" s="3" t="n">
-        <v>11337</v>
+        <v>15074</v>
       </c>
       <c r="N79" s="3" t="n">
-        <v>12729</v>
+        <v>7417</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>6334</v>
+        <v>2523</v>
       </c>
       <c r="P79" s="3" t="n">
-        <v>10886</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="80">
@@ -4597,37 +4597,37 @@
       <c r="D80" s="3" t="inlineStr"/>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:35</t>
+          <t>2024-09-16 16:21</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr"/>
       <c r="G80" s="3" t="n">
-        <v>84987</v>
+        <v>86356</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>57876</v>
+        <v>74027</v>
       </c>
       <c r="I80" s="3" t="n">
-        <v>1712</v>
+        <v>1085</v>
       </c>
       <c r="J80" s="3" t="n">
-        <v>56164</v>
+        <v>72942</v>
       </c>
       <c r="K80" s="3" t="inlineStr"/>
       <c r="L80" s="3" t="n">
-        <v>13015</v>
+        <v>12249</v>
       </c>
       <c r="M80" s="3" t="n">
-        <v>26296</v>
+        <v>11624</v>
       </c>
       <c r="N80" s="3" t="n">
-        <v>9304</v>
+        <v>21615</v>
       </c>
       <c r="O80" s="3" t="n">
-        <v>2789</v>
+        <v>7083</v>
       </c>
       <c r="P80" s="3" t="n">
-        <v>1948</v>
+        <v>16721</v>
       </c>
     </row>
     <row r="81">
@@ -4649,37 +4649,37 @@
       <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:11</t>
+          <t>2024-09-16 16:00</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr"/>
       <c r="G81" s="3" t="n">
-        <v>55927</v>
+        <v>57397</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>46121</v>
+        <v>40763</v>
       </c>
       <c r="I81" s="3" t="n">
-        <v>513</v>
+        <v>988</v>
       </c>
       <c r="J81" s="3" t="n">
-        <v>45608</v>
+        <v>39775</v>
       </c>
       <c r="K81" s="3" t="inlineStr"/>
       <c r="L81" s="3" t="n">
-        <v>10071</v>
+        <v>6845</v>
       </c>
       <c r="M81" s="3" t="n">
-        <v>13113</v>
+        <v>9837</v>
       </c>
       <c r="N81" s="3" t="n">
-        <v>11634</v>
+        <v>14344</v>
       </c>
       <c r="O81" s="3" t="n">
-        <v>4518</v>
+        <v>5131</v>
       </c>
       <c r="P81" s="3" t="n">
-        <v>3989</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="82">
@@ -4701,37 +4701,37 @@
       <c r="D82" s="3" t="inlineStr"/>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:05</t>
+          <t>2024-09-16 19:08</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr"/>
       <c r="G82" s="3" t="n">
-        <v>81723</v>
+        <v>81336</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>53960</v>
+        <v>72309</v>
       </c>
       <c r="I82" s="3" t="n">
-        <v>1528</v>
+        <v>1079</v>
       </c>
       <c r="J82" s="3" t="n">
-        <v>52432</v>
+        <v>71230</v>
       </c>
       <c r="K82" s="3" t="inlineStr"/>
       <c r="L82" s="3" t="n">
-        <v>11504</v>
+        <v>22050</v>
       </c>
       <c r="M82" s="3" t="n">
-        <v>19823</v>
+        <v>12827</v>
       </c>
       <c r="N82" s="3" t="n">
-        <v>9732</v>
+        <v>20481</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>7389</v>
+        <v>9059</v>
       </c>
       <c r="P82" s="3" t="n">
-        <v>1360</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="83">
@@ -4753,37 +4753,37 @@
       <c r="D83" s="3" t="inlineStr"/>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:26</t>
+          <t>2024-09-16 19:25</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr"/>
       <c r="G83" s="3" t="n">
-        <v>75746</v>
+        <v>79753</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>45878</v>
+        <v>51617</v>
       </c>
       <c r="I83" s="3" t="n">
-        <v>1187</v>
+        <v>1484</v>
       </c>
       <c r="J83" s="3" t="n">
-        <v>44691</v>
+        <v>50133</v>
       </c>
       <c r="K83" s="3" t="inlineStr"/>
       <c r="L83" s="3" t="n">
-        <v>8219</v>
+        <v>11182</v>
       </c>
       <c r="M83" s="3" t="n">
-        <v>8771</v>
+        <v>11314</v>
       </c>
       <c r="N83" s="3" t="n">
-        <v>14301</v>
+        <v>11843</v>
       </c>
       <c r="O83" s="3" t="n">
-        <v>8634</v>
+        <v>7967</v>
       </c>
       <c r="P83" s="3" t="n">
-        <v>2530</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="84">
@@ -4805,37 +4805,37 @@
       <c r="D84" s="3" t="inlineStr"/>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:55</t>
+          <t>2024-09-16 17:52</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr"/>
       <c r="G84" s="3" t="n">
-        <v>89464</v>
+        <v>98073</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>76533</v>
+        <v>82976</v>
       </c>
       <c r="I84" s="3" t="n">
-        <v>2286</v>
+        <v>2298</v>
       </c>
       <c r="J84" s="3" t="n">
-        <v>74247</v>
+        <v>80678</v>
       </c>
       <c r="K84" s="3" t="inlineStr"/>
       <c r="L84" s="3" t="n">
-        <v>13021</v>
+        <v>20734</v>
       </c>
       <c r="M84" s="3" t="n">
-        <v>20364</v>
+        <v>19488</v>
       </c>
       <c r="N84" s="3" t="n">
-        <v>17019</v>
+        <v>20868</v>
       </c>
       <c r="O84" s="3" t="n">
-        <v>10337</v>
+        <v>6639</v>
       </c>
       <c r="P84" s="3" t="n">
-        <v>9791</v>
+        <v>8912</v>
       </c>
     </row>
     <row r="85">
@@ -4857,37 +4857,37 @@
       <c r="D85" s="3" t="inlineStr"/>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:28</t>
+          <t>2024-09-16 13:46</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr"/>
       <c r="G85" s="3" t="n">
-        <v>101162</v>
+        <v>102696</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>85650</v>
+        <v>62209</v>
       </c>
       <c r="I85" s="3" t="n">
-        <v>1214</v>
+        <v>1311</v>
       </c>
       <c r="J85" s="3" t="n">
-        <v>84436</v>
+        <v>60898</v>
       </c>
       <c r="K85" s="3" t="inlineStr"/>
       <c r="L85" s="3" t="n">
-        <v>29151</v>
+        <v>16486</v>
       </c>
       <c r="M85" s="3" t="n">
-        <v>19724</v>
+        <v>8865</v>
       </c>
       <c r="N85" s="3" t="n">
-        <v>14500</v>
+        <v>14375</v>
       </c>
       <c r="O85" s="3" t="n">
-        <v>5714</v>
+        <v>9025</v>
       </c>
       <c r="P85" s="3" t="n">
-        <v>11122</v>
+        <v>9099</v>
       </c>
     </row>
     <row r="86">
@@ -4909,37 +4909,37 @@
       <c r="D86" s="3" t="inlineStr"/>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:54</t>
+          <t>2024-09-16 18:03</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr"/>
       <c r="G86" s="3" t="n">
-        <v>96534</v>
+        <v>98627</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>82844</v>
+        <v>78184</v>
       </c>
       <c r="I86" s="3" t="n">
-        <v>889</v>
+        <v>2084</v>
       </c>
       <c r="J86" s="3" t="n">
-        <v>81955</v>
+        <v>76100</v>
       </c>
       <c r="K86" s="3" t="inlineStr"/>
       <c r="L86" s="3" t="n">
-        <v>19176</v>
+        <v>16832</v>
       </c>
       <c r="M86" s="3" t="n">
-        <v>24388</v>
+        <v>14300</v>
       </c>
       <c r="N86" s="3" t="n">
-        <v>24777</v>
+        <v>15204</v>
       </c>
       <c r="O86" s="3" t="n">
-        <v>8355</v>
+        <v>15332</v>
       </c>
       <c r="P86" s="3" t="n">
-        <v>1159</v>
+        <v>10624</v>
       </c>
     </row>
     <row r="87">
@@ -4961,37 +4961,37 @@
       <c r="D87" s="3" t="inlineStr"/>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:35</t>
+          <t>2024-09-16 09:31</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr"/>
       <c r="G87" s="3" t="n">
-        <v>81884</v>
+        <v>82927</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>50118</v>
+        <v>61325</v>
       </c>
       <c r="I87" s="3" t="n">
-        <v>679</v>
+        <v>953</v>
       </c>
       <c r="J87" s="3" t="n">
-        <v>49439</v>
+        <v>60372</v>
       </c>
       <c r="K87" s="3" t="inlineStr"/>
       <c r="L87" s="3" t="n">
-        <v>8771</v>
+        <v>20548</v>
       </c>
       <c r="M87" s="3" t="n">
-        <v>9567</v>
+        <v>8482</v>
       </c>
       <c r="N87" s="3" t="n">
-        <v>12990</v>
+        <v>16378</v>
       </c>
       <c r="O87" s="3" t="n">
-        <v>7643</v>
+        <v>9717</v>
       </c>
       <c r="P87" s="3" t="n">
-        <v>7994</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="88">
@@ -5013,37 +5013,37 @@
       <c r="D88" s="3" t="inlineStr"/>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:14</t>
+          <t>2024-09-16 19:30</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr"/>
       <c r="G88" s="3" t="n">
-        <v>84209</v>
+        <v>83525</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>74157</v>
+        <v>66362</v>
       </c>
       <c r="I88" s="3" t="n">
-        <v>1119</v>
+        <v>1212</v>
       </c>
       <c r="J88" s="3" t="n">
-        <v>73038</v>
+        <v>65150</v>
       </c>
       <c r="K88" s="3" t="inlineStr"/>
       <c r="L88" s="3" t="n">
-        <v>21375</v>
+        <v>21502</v>
       </c>
       <c r="M88" s="3" t="n">
-        <v>13820</v>
+        <v>11156</v>
       </c>
       <c r="N88" s="3" t="n">
-        <v>19660</v>
+        <v>12094</v>
       </c>
       <c r="O88" s="3" t="n">
-        <v>7932</v>
+        <v>12998</v>
       </c>
       <c r="P88" s="3" t="n">
-        <v>6596</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="89">
@@ -5065,37 +5065,37 @@
       <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:58</t>
+          <t>2024-09-16 19:14</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr"/>
       <c r="G89" s="3" t="n">
-        <v>99790</v>
+        <v>105433</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>87259</v>
+        <v>87816</v>
       </c>
       <c r="I89" s="3" t="n">
-        <v>1596</v>
+        <v>2188</v>
       </c>
       <c r="J89" s="3" t="n">
-        <v>85663</v>
+        <v>85628</v>
       </c>
       <c r="K89" s="3" t="inlineStr"/>
       <c r="L89" s="3" t="n">
-        <v>35828</v>
+        <v>29385</v>
       </c>
       <c r="M89" s="3" t="n">
-        <v>15033</v>
+        <v>9916</v>
       </c>
       <c r="N89" s="3" t="n">
-        <v>20856</v>
+        <v>26329</v>
       </c>
       <c r="O89" s="3" t="n">
-        <v>5375</v>
+        <v>4722</v>
       </c>
       <c r="P89" s="3" t="n">
-        <v>4285</v>
+        <v>10992</v>
       </c>
     </row>
     <row r="90">
@@ -5117,37 +5117,37 @@
       <c r="D90" s="3" t="inlineStr"/>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:04</t>
+          <t>2024-09-16 19:30</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr"/>
       <c r="G90" s="3" t="n">
-        <v>85036</v>
+        <v>84193</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>75845</v>
+        <v>57390</v>
       </c>
       <c r="I90" s="3" t="n">
-        <v>1646</v>
+        <v>694</v>
       </c>
       <c r="J90" s="3" t="n">
-        <v>74199</v>
+        <v>56696</v>
       </c>
       <c r="K90" s="3" t="inlineStr"/>
       <c r="L90" s="3" t="n">
-        <v>22874</v>
+        <v>12794</v>
       </c>
       <c r="M90" s="3" t="n">
-        <v>16281</v>
+        <v>11975</v>
       </c>
       <c r="N90" s="3" t="n">
-        <v>21168</v>
+        <v>13991</v>
       </c>
       <c r="O90" s="3" t="n">
-        <v>7743</v>
+        <v>5002</v>
       </c>
       <c r="P90" s="3" t="n">
-        <v>2420</v>
+        <v>10095</v>
       </c>
     </row>
     <row r="91">
@@ -5169,37 +5169,37 @@
       <c r="D91" s="3" t="inlineStr"/>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:00</t>
+          <t>2024-09-16 16:07</t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr"/>
       <c r="G91" s="3" t="n">
-        <v>102004</v>
+        <v>105452</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>75866</v>
+        <v>88040</v>
       </c>
       <c r="I91" s="3" t="n">
-        <v>2126</v>
+        <v>1650</v>
       </c>
       <c r="J91" s="3" t="n">
-        <v>73740</v>
+        <v>86390</v>
       </c>
       <c r="K91" s="3" t="inlineStr"/>
       <c r="L91" s="3" t="n">
-        <v>21091</v>
+        <v>25864</v>
       </c>
       <c r="M91" s="3" t="n">
-        <v>8632</v>
+        <v>25161</v>
       </c>
       <c r="N91" s="3" t="n">
-        <v>14132</v>
+        <v>11099</v>
       </c>
       <c r="O91" s="3" t="n">
-        <v>11444</v>
+        <v>6280</v>
       </c>
       <c r="P91" s="3" t="n">
-        <v>14752</v>
+        <v>13663</v>
       </c>
     </row>
     <row r="92">
@@ -5221,37 +5221,37 @@
       <c r="D92" s="3" t="inlineStr"/>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:26</t>
+          <t>2024-09-16 13:04</t>
         </is>
       </c>
       <c r="F92" s="3" t="inlineStr"/>
       <c r="G92" s="3" t="n">
-        <v>95782</v>
+        <v>92823</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>85834</v>
+        <v>82015</v>
       </c>
       <c r="I92" s="3" t="n">
-        <v>1856</v>
+        <v>1096</v>
       </c>
       <c r="J92" s="3" t="n">
-        <v>83978</v>
+        <v>80919</v>
       </c>
       <c r="K92" s="3" t="inlineStr"/>
       <c r="L92" s="3" t="n">
-        <v>12566</v>
+        <v>11571</v>
       </c>
       <c r="M92" s="3" t="n">
-        <v>17765</v>
+        <v>18509</v>
       </c>
       <c r="N92" s="3" t="n">
-        <v>15498</v>
+        <v>14129</v>
       </c>
       <c r="O92" s="3" t="n">
-        <v>18655</v>
+        <v>20698</v>
       </c>
       <c r="P92" s="3" t="n">
-        <v>15293</v>
+        <v>11965</v>
       </c>
     </row>
     <row r="93">
@@ -5273,37 +5273,37 @@
       <c r="D93" s="3" t="inlineStr"/>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:23</t>
+          <t>2024-09-16 14:42</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr"/>
       <c r="G93" s="3" t="n">
-        <v>101760</v>
+        <v>102180</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>82061</v>
+        <v>83723</v>
       </c>
       <c r="I93" s="3" t="n">
-        <v>1052</v>
+        <v>2504</v>
       </c>
       <c r="J93" s="3" t="n">
-        <v>81009</v>
+        <v>81219</v>
       </c>
       <c r="K93" s="3" t="inlineStr"/>
       <c r="L93" s="3" t="n">
-        <v>22100</v>
+        <v>21620</v>
       </c>
       <c r="M93" s="3" t="n">
-        <v>15077</v>
+        <v>12453</v>
       </c>
       <c r="N93" s="3" t="n">
-        <v>19064</v>
+        <v>25309</v>
       </c>
       <c r="O93" s="3" t="n">
-        <v>15012</v>
+        <v>16867</v>
       </c>
       <c r="P93" s="3" t="n">
-        <v>5702</v>
+        <v>906</v>
       </c>
     </row>
     <row r="94">
@@ -5325,37 +5325,37 @@
       <c r="D94" s="3" t="inlineStr"/>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:58</t>
+          <t>2024-09-16 14:51</t>
         </is>
       </c>
       <c r="F94" s="3" t="inlineStr"/>
       <c r="G94" s="3" t="n">
-        <v>87456</v>
+        <v>87706</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>68149</v>
+        <v>64787</v>
       </c>
       <c r="I94" s="3" t="n">
-        <v>1548</v>
+        <v>1747</v>
       </c>
       <c r="J94" s="3" t="n">
-        <v>66601</v>
+        <v>63040</v>
       </c>
       <c r="K94" s="3" t="inlineStr"/>
       <c r="L94" s="3" t="n">
-        <v>18059</v>
+        <v>11583</v>
       </c>
       <c r="M94" s="3" t="n">
-        <v>17744</v>
+        <v>16136</v>
       </c>
       <c r="N94" s="3" t="n">
-        <v>10316</v>
+        <v>15726</v>
       </c>
       <c r="O94" s="3" t="n">
-        <v>13704</v>
+        <v>4926</v>
       </c>
       <c r="P94" s="3" t="n">
-        <v>3445</v>
+        <v>11514</v>
       </c>
     </row>
     <row r="95">
@@ -5377,37 +5377,37 @@
       <c r="D95" s="3" t="inlineStr"/>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:30</t>
+          <t>2024-09-16 20:09</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr"/>
       <c r="G95" s="3" t="n">
-        <v>79605</v>
+        <v>82569</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>70682</v>
+        <v>53403</v>
       </c>
       <c r="I95" s="3" t="n">
-        <v>1254</v>
+        <v>1073</v>
       </c>
       <c r="J95" s="3" t="n">
-        <v>69428</v>
+        <v>52330</v>
       </c>
       <c r="K95" s="3" t="inlineStr"/>
       <c r="L95" s="3" t="n">
-        <v>21615</v>
+        <v>15700</v>
       </c>
       <c r="M95" s="3" t="n">
-        <v>24122</v>
+        <v>9925</v>
       </c>
       <c r="N95" s="3" t="n">
-        <v>7520</v>
+        <v>10748</v>
       </c>
       <c r="O95" s="3" t="n">
-        <v>2229</v>
+        <v>4457</v>
       </c>
       <c r="P95" s="3" t="n">
-        <v>10468</v>
+        <v>8881</v>
       </c>
     </row>
     <row r="96">
@@ -5429,37 +5429,37 @@
       <c r="D96" s="3" t="inlineStr"/>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:40</t>
+          <t>2024-09-16 14:26</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr"/>
       <c r="G96" s="3" t="n">
-        <v>96865</v>
+        <v>88151</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>68804</v>
+        <v>57625</v>
       </c>
       <c r="I96" s="3" t="n">
-        <v>755</v>
+        <v>1063</v>
       </c>
       <c r="J96" s="3" t="n">
-        <v>68049</v>
+        <v>56562</v>
       </c>
       <c r="K96" s="3" t="inlineStr"/>
       <c r="L96" s="3" t="n">
-        <v>20325</v>
+        <v>17957</v>
       </c>
       <c r="M96" s="3" t="n">
-        <v>17079</v>
+        <v>15986</v>
       </c>
       <c r="N96" s="3" t="n">
-        <v>8616</v>
+        <v>6301</v>
       </c>
       <c r="O96" s="3" t="n">
-        <v>12178</v>
+        <v>8828</v>
       </c>
       <c r="P96" s="3" t="n">
-        <v>6445</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="97">
@@ -5481,37 +5481,37 @@
       <c r="D97" s="3" t="inlineStr"/>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:20</t>
+          <t>2024-09-16 19:36</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr"/>
       <c r="G97" s="3" t="n">
-        <v>99859</v>
+        <v>95853</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>80400</v>
+        <v>80845</v>
       </c>
       <c r="I97" s="3" t="n">
-        <v>1432</v>
+        <v>2299</v>
       </c>
       <c r="J97" s="3" t="n">
-        <v>78968</v>
+        <v>78546</v>
       </c>
       <c r="K97" s="3" t="inlineStr"/>
       <c r="L97" s="3" t="n">
-        <v>23028</v>
+        <v>17024</v>
       </c>
       <c r="M97" s="3" t="n">
-        <v>20218</v>
+        <v>14267</v>
       </c>
       <c r="N97" s="3" t="n">
-        <v>17722</v>
+        <v>16968</v>
       </c>
       <c r="O97" s="3" t="n">
-        <v>7988</v>
+        <v>15313</v>
       </c>
       <c r="P97" s="3" t="n">
-        <v>6060</v>
+        <v>11044</v>
       </c>
     </row>
     <row r="98">
@@ -5533,37 +5533,37 @@
       <c r="D98" s="3" t="inlineStr"/>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:28</t>
+          <t>2024-09-16 08:41</t>
         </is>
       </c>
       <c r="F98" s="3" t="inlineStr"/>
       <c r="G98" s="3" t="n">
-        <v>110036</v>
+        <v>102328</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>78908</v>
+        <v>64626</v>
       </c>
       <c r="I98" s="3" t="n">
-        <v>1530</v>
+        <v>1189</v>
       </c>
       <c r="J98" s="3" t="n">
-        <v>77378</v>
+        <v>63437</v>
       </c>
       <c r="K98" s="3" t="inlineStr"/>
       <c r="L98" s="3" t="n">
-        <v>26878</v>
+        <v>11467</v>
       </c>
       <c r="M98" s="3" t="n">
-        <v>9351</v>
+        <v>16116</v>
       </c>
       <c r="N98" s="3" t="n">
-        <v>8010</v>
+        <v>17439</v>
       </c>
       <c r="O98" s="3" t="n">
-        <v>17706</v>
+        <v>6162</v>
       </c>
       <c r="P98" s="3" t="n">
-        <v>11562</v>
+        <v>9079</v>
       </c>
     </row>
     <row r="99">
@@ -5585,37 +5585,37 @@
       <c r="D99" s="3" t="inlineStr"/>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:26</t>
+          <t>2024-09-16 09:14</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr"/>
       <c r="G99" s="3" t="n">
-        <v>81080</v>
+        <v>76955</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>70453</v>
+        <v>50626</v>
       </c>
       <c r="I99" s="3" t="n">
-        <v>1517</v>
+        <v>1201</v>
       </c>
       <c r="J99" s="3" t="n">
-        <v>68936</v>
+        <v>49425</v>
       </c>
       <c r="K99" s="3" t="inlineStr"/>
       <c r="L99" s="3" t="n">
-        <v>13902</v>
+        <v>15745</v>
       </c>
       <c r="M99" s="3" t="n">
-        <v>16568</v>
+        <v>9910</v>
       </c>
       <c r="N99" s="3" t="n">
-        <v>16673</v>
+        <v>10136</v>
       </c>
       <c r="O99" s="3" t="n">
-        <v>10190</v>
+        <v>6583</v>
       </c>
       <c r="P99" s="3" t="n">
-        <v>8155</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="100">
@@ -5637,37 +5637,37 @@
       <c r="D100" s="3" t="inlineStr"/>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:11</t>
+          <t>2024-09-16 20:09</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr"/>
       <c r="G100" s="3" t="n">
-        <v>130889</v>
+        <v>123404</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>81463</v>
+        <v>75615</v>
       </c>
       <c r="I100" s="3" t="n">
-        <v>994</v>
+        <v>1971</v>
       </c>
       <c r="J100" s="3" t="n">
-        <v>80469</v>
+        <v>73644</v>
       </c>
       <c r="K100" s="3" t="inlineStr"/>
       <c r="L100" s="3" t="n">
-        <v>23736</v>
+        <v>17801</v>
       </c>
       <c r="M100" s="3" t="n">
-        <v>21106</v>
+        <v>18849</v>
       </c>
       <c r="N100" s="3" t="n">
-        <v>12168</v>
+        <v>15039</v>
       </c>
       <c r="O100" s="3" t="n">
-        <v>6443</v>
+        <v>4576</v>
       </c>
       <c r="P100" s="3" t="n">
-        <v>12989</v>
+        <v>13694</v>
       </c>
     </row>
     <row r="101">
@@ -5689,37 +5689,37 @@
       <c r="D101" s="3" t="inlineStr"/>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:17</t>
+          <t>2024-09-16 17:36</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr"/>
       <c r="G101" s="3" t="n">
-        <v>182388</v>
+        <v>179520</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>139399</v>
+        <v>137137</v>
       </c>
       <c r="I101" s="3" t="n">
-        <v>2780</v>
+        <v>2587</v>
       </c>
       <c r="J101" s="3" t="n">
-        <v>136619</v>
+        <v>134550</v>
       </c>
       <c r="K101" s="3" t="inlineStr"/>
       <c r="L101" s="3" t="n">
-        <v>22510</v>
+        <v>29204</v>
       </c>
       <c r="M101" s="3" t="n">
-        <v>35066</v>
+        <v>34709</v>
       </c>
       <c r="N101" s="3" t="n">
-        <v>40102</v>
+        <v>17827</v>
       </c>
       <c r="O101" s="3" t="n">
-        <v>8947</v>
+        <v>32745</v>
       </c>
       <c r="P101" s="3" t="n">
-        <v>23160</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="102">
@@ -5741,37 +5741,37 @@
       <c r="D102" s="3" t="inlineStr"/>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:39</t>
+          <t>2024-09-16 14:31</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr"/>
       <c r="G102" s="3" t="n">
-        <v>23483</v>
+        <v>24147</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>15080</v>
+        <v>17893</v>
       </c>
       <c r="I102" s="3" t="n">
-        <v>418</v>
+        <v>272</v>
       </c>
       <c r="J102" s="3" t="n">
-        <v>14662</v>
+        <v>17621</v>
       </c>
       <c r="K102" s="3" t="inlineStr"/>
       <c r="L102" s="3" t="n">
-        <v>2706</v>
+        <v>3865</v>
       </c>
       <c r="M102" s="3" t="n">
-        <v>3628</v>
+        <v>2958</v>
       </c>
       <c r="N102" s="3" t="n">
-        <v>3622</v>
+        <v>4298</v>
       </c>
       <c r="O102" s="3" t="n">
-        <v>2991</v>
+        <v>2927</v>
       </c>
       <c r="P102" s="3" t="n">
-        <v>979</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="103">
@@ -5793,37 +5793,37 @@
       <c r="D103" s="3" t="inlineStr"/>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:23</t>
+          <t>2024-09-16 09:05</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr"/>
       <c r="G103" s="3" t="n">
-        <v>52810</v>
+        <v>51739</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>43762</v>
+        <v>45061</v>
       </c>
       <c r="I103" s="3" t="n">
-        <v>909</v>
+        <v>583</v>
       </c>
       <c r="J103" s="3" t="n">
-        <v>42853</v>
+        <v>44478</v>
       </c>
       <c r="K103" s="3" t="inlineStr"/>
       <c r="L103" s="3" t="n">
-        <v>10238</v>
+        <v>16027</v>
       </c>
       <c r="M103" s="3" t="n">
-        <v>9319</v>
+        <v>9805</v>
       </c>
       <c r="N103" s="3" t="n">
-        <v>5924</v>
+        <v>11186</v>
       </c>
       <c r="O103" s="3" t="n">
-        <v>8227</v>
+        <v>3191</v>
       </c>
       <c r="P103" s="3" t="n">
-        <v>6999</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="104">
@@ -5845,37 +5845,37 @@
       <c r="D104" s="3" t="inlineStr"/>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:02</t>
+          <t>2024-09-16 15:38</t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr"/>
       <c r="G104" s="3" t="n">
-        <v>67572</v>
+        <v>61803</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>47956</v>
+        <v>48989</v>
       </c>
       <c r="I104" s="3" t="n">
-        <v>1032</v>
+        <v>1189</v>
       </c>
       <c r="J104" s="3" t="n">
-        <v>46924</v>
+        <v>47800</v>
       </c>
       <c r="K104" s="3" t="inlineStr"/>
       <c r="L104" s="3" t="n">
-        <v>10578</v>
+        <v>14167</v>
       </c>
       <c r="M104" s="3" t="n">
-        <v>9442</v>
+        <v>5356</v>
       </c>
       <c r="N104" s="3" t="n">
-        <v>10399</v>
+        <v>11448</v>
       </c>
       <c r="O104" s="3" t="n">
-        <v>2793</v>
+        <v>5366</v>
       </c>
       <c r="P104" s="3" t="n">
-        <v>11362</v>
+        <v>9071</v>
       </c>
     </row>
     <row r="105">
@@ -5897,37 +5897,37 @@
       <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:39</t>
+          <t>2024-09-16 19:16</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr"/>
       <c r="G105" s="3" t="n">
-        <v>60070</v>
+        <v>58328</v>
       </c>
       <c r="H105" s="3" t="n">
-        <v>53703</v>
+        <v>49859</v>
       </c>
       <c r="I105" s="3" t="n">
-        <v>1088</v>
+        <v>781</v>
       </c>
       <c r="J105" s="3" t="n">
-        <v>52615</v>
+        <v>49078</v>
       </c>
       <c r="K105" s="3" t="inlineStr"/>
       <c r="L105" s="3" t="n">
-        <v>10096</v>
+        <v>9500</v>
       </c>
       <c r="M105" s="3" t="n">
-        <v>16657</v>
+        <v>17410</v>
       </c>
       <c r="N105" s="3" t="n">
-        <v>6660</v>
+        <v>8849</v>
       </c>
       <c r="O105" s="3" t="n">
-        <v>5499</v>
+        <v>8498</v>
       </c>
       <c r="P105" s="3" t="n">
-        <v>11070</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="106">
@@ -5949,37 +5949,37 @@
       <c r="D106" s="3" t="inlineStr"/>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:59</t>
+          <t>2024-09-16 17:40</t>
         </is>
       </c>
       <c r="F106" s="3" t="inlineStr"/>
       <c r="G106" s="3" t="n">
-        <v>62469</v>
+        <v>63152</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>42404</v>
+        <v>45838</v>
       </c>
       <c r="I106" s="3" t="n">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="J106" s="3" t="n">
-        <v>41945</v>
+        <v>45339</v>
       </c>
       <c r="K106" s="3" t="inlineStr"/>
       <c r="L106" s="3" t="n">
-        <v>16181</v>
+        <v>8239</v>
       </c>
       <c r="M106" s="3" t="n">
-        <v>7980</v>
+        <v>10109</v>
       </c>
       <c r="N106" s="3" t="n">
-        <v>10917</v>
+        <v>17046</v>
       </c>
       <c r="O106" s="3" t="n">
-        <v>3343</v>
+        <v>7107</v>
       </c>
       <c r="P106" s="3" t="n">
-        <v>1425</v>
+        <v>569</v>
       </c>
     </row>
     <row r="107">
@@ -6001,37 +6001,37 @@
       <c r="D107" s="3" t="inlineStr"/>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:28</t>
+          <t>2024-09-16 16:33</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr"/>
       <c r="G107" s="3" t="n">
-        <v>42101</v>
+        <v>39991</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>26123</v>
+        <v>25298</v>
       </c>
       <c r="I107" s="3" t="n">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="J107" s="3" t="n">
-        <v>25767</v>
+        <v>24987</v>
       </c>
       <c r="K107" s="3" t="inlineStr"/>
       <c r="L107" s="3" t="n">
-        <v>5749</v>
+        <v>7182</v>
       </c>
       <c r="M107" s="3" t="n">
-        <v>3595</v>
+        <v>4685</v>
       </c>
       <c r="N107" s="3" t="n">
-        <v>7554</v>
+        <v>7263</v>
       </c>
       <c r="O107" s="3" t="n">
-        <v>2626</v>
+        <v>3113</v>
       </c>
       <c r="P107" s="3" t="n">
-        <v>4952</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="108">
@@ -6053,37 +6053,37 @@
       <c r="D108" s="3" t="inlineStr"/>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:01</t>
+          <t>2024-09-16 13:56</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr"/>
       <c r="G108" s="3" t="n">
-        <v>39619</v>
+        <v>38861</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>29064</v>
+        <v>32474</v>
       </c>
       <c r="I108" s="3" t="n">
-        <v>325</v>
+        <v>863</v>
       </c>
       <c r="J108" s="3" t="n">
-        <v>28739</v>
+        <v>31611</v>
       </c>
       <c r="K108" s="3" t="inlineStr"/>
       <c r="L108" s="3" t="n">
-        <v>8263</v>
+        <v>6612</v>
       </c>
       <c r="M108" s="3" t="n">
-        <v>8139</v>
+        <v>4646</v>
       </c>
       <c r="N108" s="3" t="n">
-        <v>5352</v>
+        <v>8984</v>
       </c>
       <c r="O108" s="3" t="n">
-        <v>2027</v>
+        <v>6692</v>
       </c>
       <c r="P108" s="3" t="n">
-        <v>3519</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="109">
@@ -6105,37 +6105,37 @@
       <c r="D109" s="3" t="inlineStr"/>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:12</t>
+          <t>2024-09-16 16:39</t>
         </is>
       </c>
       <c r="F109" s="3" t="inlineStr"/>
       <c r="G109" s="3" t="n">
-        <v>55854</v>
+        <v>54977</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>41282</v>
+        <v>40793</v>
       </c>
       <c r="I109" s="3" t="n">
-        <v>961</v>
+        <v>582</v>
       </c>
       <c r="J109" s="3" t="n">
-        <v>40321</v>
+        <v>40211</v>
       </c>
       <c r="K109" s="3" t="inlineStr"/>
       <c r="L109" s="3" t="n">
-        <v>10576</v>
+        <v>11871</v>
       </c>
       <c r="M109" s="3" t="n">
-        <v>9617</v>
+        <v>6589</v>
       </c>
       <c r="N109" s="3" t="n">
-        <v>7941</v>
+        <v>7350</v>
       </c>
       <c r="O109" s="3" t="n">
-        <v>9409</v>
+        <v>4204</v>
       </c>
       <c r="P109" s="3" t="n">
-        <v>760</v>
+        <v>8184</v>
       </c>
     </row>
     <row r="110">
@@ -6157,37 +6157,37 @@
       <c r="D110" s="3" t="inlineStr"/>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:46</t>
+          <t>2024-09-16 09:35</t>
         </is>
       </c>
       <c r="F110" s="3" t="inlineStr"/>
       <c r="G110" s="3" t="n">
-        <v>50746</v>
+        <v>51813</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>33180</v>
+        <v>34713</v>
       </c>
       <c r="I110" s="3" t="n">
-        <v>792</v>
+        <v>910</v>
       </c>
       <c r="J110" s="3" t="n">
-        <v>32388</v>
+        <v>33803</v>
       </c>
       <c r="K110" s="3" t="inlineStr"/>
       <c r="L110" s="3" t="n">
-        <v>15056</v>
+        <v>11766</v>
       </c>
       <c r="M110" s="3" t="n">
-        <v>7855</v>
+        <v>9574</v>
       </c>
       <c r="N110" s="3" t="n">
-        <v>5315</v>
+        <v>4043</v>
       </c>
       <c r="O110" s="3" t="n">
-        <v>1957</v>
+        <v>2359</v>
       </c>
       <c r="P110" s="3" t="n">
-        <v>583</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="111">
@@ -6209,37 +6209,37 @@
       <c r="D111" s="3" t="inlineStr"/>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:11</t>
+          <t>2024-09-16 10:00</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr"/>
       <c r="G111" s="3" t="n">
-        <v>35532</v>
+        <v>34367</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>23188</v>
+        <v>21591</v>
       </c>
       <c r="I111" s="3" t="n">
-        <v>283</v>
+        <v>381</v>
       </c>
       <c r="J111" s="3" t="n">
-        <v>22905</v>
+        <v>21210</v>
       </c>
       <c r="K111" s="3" t="inlineStr"/>
       <c r="L111" s="3" t="n">
-        <v>5272</v>
+        <v>7840</v>
       </c>
       <c r="M111" s="3" t="n">
-        <v>3267</v>
+        <v>3403</v>
       </c>
       <c r="N111" s="3" t="n">
-        <v>3153</v>
+        <v>2915</v>
       </c>
       <c r="O111" s="3" t="n">
-        <v>5788</v>
+        <v>1630</v>
       </c>
       <c r="P111" s="3" t="n">
-        <v>4277</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="112">
@@ -6261,37 +6261,37 @@
       <c r="D112" s="3" t="inlineStr"/>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 20:09</t>
+          <t>2024-09-16 13:20</t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr"/>
       <c r="G112" s="3" t="n">
-        <v>89277</v>
+        <v>94396</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>74833</v>
+        <v>61509</v>
       </c>
       <c r="I112" s="3" t="n">
-        <v>1970</v>
+        <v>1781</v>
       </c>
       <c r="J112" s="3" t="n">
-        <v>72863</v>
+        <v>59728</v>
       </c>
       <c r="K112" s="3" t="inlineStr"/>
       <c r="L112" s="3" t="n">
-        <v>17481</v>
+        <v>13167</v>
       </c>
       <c r="M112" s="3" t="n">
-        <v>13803</v>
+        <v>7926</v>
       </c>
       <c r="N112" s="3" t="n">
-        <v>11906</v>
+        <v>11538</v>
       </c>
       <c r="O112" s="3" t="n">
-        <v>16331</v>
+        <v>14566</v>
       </c>
       <c r="P112" s="3" t="n">
-        <v>9698</v>
+        <v>9543</v>
       </c>
     </row>
     <row r="113">
@@ -6313,37 +6313,37 @@
       <c r="D113" s="3" t="inlineStr"/>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:25</t>
+          <t>2024-09-16 17:08</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr"/>
       <c r="G113" s="3" t="n">
-        <v>83864</v>
+        <v>79700</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>69795</v>
+        <v>49572</v>
       </c>
       <c r="I113" s="3" t="n">
-        <v>1275</v>
+        <v>1346</v>
       </c>
       <c r="J113" s="3" t="n">
-        <v>68520</v>
+        <v>48226</v>
       </c>
       <c r="K113" s="3" t="inlineStr"/>
       <c r="L113" s="3" t="n">
-        <v>10629</v>
+        <v>12823</v>
       </c>
       <c r="M113" s="3" t="n">
-        <v>17635</v>
+        <v>14994</v>
       </c>
       <c r="N113" s="3" t="n">
-        <v>8377</v>
+        <v>6056</v>
       </c>
       <c r="O113" s="3" t="n">
-        <v>14294</v>
+        <v>2448</v>
       </c>
       <c r="P113" s="3" t="n">
-        <v>14157</v>
+        <v>9492</v>
       </c>
     </row>
     <row r="114">
@@ -6365,37 +6365,37 @@
       <c r="D114" s="3" t="inlineStr"/>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:52</t>
+          <t>2024-09-16 16:02</t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr"/>
       <c r="G114" s="3" t="n">
-        <v>123851</v>
+        <v>120908</v>
       </c>
       <c r="H114" s="3" t="n">
-        <v>82190</v>
+        <v>95178</v>
       </c>
       <c r="I114" s="3" t="n">
-        <v>2209</v>
+        <v>1537</v>
       </c>
       <c r="J114" s="3" t="n">
-        <v>79981</v>
+        <v>93641</v>
       </c>
       <c r="K114" s="3" t="inlineStr"/>
       <c r="L114" s="3" t="n">
-        <v>16190</v>
+        <v>27303</v>
       </c>
       <c r="M114" s="3" t="n">
-        <v>16782</v>
+        <v>26845</v>
       </c>
       <c r="N114" s="3" t="n">
-        <v>13774</v>
+        <v>20529</v>
       </c>
       <c r="O114" s="3" t="n">
-        <v>8461</v>
+        <v>10089</v>
       </c>
       <c r="P114" s="3" t="n">
-        <v>20772</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="115">
@@ -6417,37 +6417,37 @@
       <c r="D115" s="3" t="inlineStr"/>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:16</t>
+          <t>2024-09-16 11:05</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr"/>
       <c r="G115" s="3" t="n">
-        <v>81060</v>
+        <v>79735</v>
       </c>
       <c r="H115" s="3" t="n">
-        <v>53118</v>
+        <v>50383</v>
       </c>
       <c r="I115" s="3" t="n">
-        <v>1568</v>
+        <v>913</v>
       </c>
       <c r="J115" s="3" t="n">
-        <v>51550</v>
+        <v>49470</v>
       </c>
       <c r="K115" s="3" t="inlineStr"/>
       <c r="L115" s="3" t="n">
-        <v>8850</v>
+        <v>10467</v>
       </c>
       <c r="M115" s="3" t="n">
-        <v>8111</v>
+        <v>9522</v>
       </c>
       <c r="N115" s="3" t="n">
-        <v>11549</v>
+        <v>7429</v>
       </c>
       <c r="O115" s="3" t="n">
-        <v>6548</v>
+        <v>12728</v>
       </c>
       <c r="P115" s="3" t="n">
-        <v>13912</v>
+        <v>6848</v>
       </c>
     </row>
     <row r="116">
@@ -6469,37 +6469,37 @@
       <c r="D116" s="3" t="inlineStr"/>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:53</t>
+          <t>2024-09-16 19:26</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr"/>
       <c r="G116" s="3" t="n">
-        <v>127300</v>
+        <v>121272</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>113795</v>
+        <v>106414</v>
       </c>
       <c r="I116" s="3" t="n">
-        <v>2065</v>
+        <v>1386</v>
       </c>
       <c r="J116" s="3" t="n">
-        <v>111730</v>
+        <v>105028</v>
       </c>
       <c r="K116" s="3" t="inlineStr"/>
       <c r="L116" s="3" t="n">
-        <v>27861</v>
+        <v>21696</v>
       </c>
       <c r="M116" s="3" t="n">
-        <v>20739</v>
+        <v>22415</v>
       </c>
       <c r="N116" s="3" t="n">
-        <v>36017</v>
+        <v>13578</v>
       </c>
       <c r="O116" s="3" t="n">
-        <v>12066</v>
+        <v>23775</v>
       </c>
       <c r="P116" s="3" t="n">
-        <v>9458</v>
+        <v>18310</v>
       </c>
     </row>
     <row r="117">
@@ -6521,37 +6521,37 @@
       <c r="D117" s="3" t="inlineStr"/>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:50</t>
+          <t>2024-09-16 12:38</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr"/>
       <c r="G117" s="3" t="n">
-        <v>195958</v>
+        <v>199731</v>
       </c>
       <c r="H117" s="3" t="n">
-        <v>128175</v>
+        <v>177054</v>
       </c>
       <c r="I117" s="3" t="n">
-        <v>1331</v>
+        <v>4604</v>
       </c>
       <c r="J117" s="3" t="n">
-        <v>126844</v>
+        <v>172450</v>
       </c>
       <c r="K117" s="3" t="inlineStr"/>
       <c r="L117" s="3" t="n">
-        <v>42456</v>
+        <v>44183</v>
       </c>
       <c r="M117" s="3" t="n">
-        <v>42292</v>
+        <v>40919</v>
       </c>
       <c r="N117" s="3" t="n">
-        <v>26838</v>
+        <v>27071</v>
       </c>
       <c r="O117" s="3" t="n">
-        <v>4801</v>
+        <v>17057</v>
       </c>
       <c r="P117" s="3" t="n">
-        <v>4112</v>
+        <v>34595</v>
       </c>
     </row>
     <row r="118">
@@ -6573,37 +6573,37 @@
       <c r="D118" s="3" t="inlineStr"/>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:22</t>
+          <t>2024-09-16 17:34</t>
         </is>
       </c>
       <c r="F118" s="3" t="inlineStr"/>
       <c r="G118" s="3" t="n">
-        <v>96720</v>
+        <v>99030</v>
       </c>
       <c r="H118" s="3" t="n">
-        <v>60740</v>
+        <v>71123</v>
       </c>
       <c r="I118" s="3" t="n">
-        <v>955</v>
+        <v>817</v>
       </c>
       <c r="J118" s="3" t="n">
-        <v>59785</v>
+        <v>70306</v>
       </c>
       <c r="K118" s="3" t="inlineStr"/>
       <c r="L118" s="3" t="n">
-        <v>14081</v>
+        <v>11781</v>
       </c>
       <c r="M118" s="3" t="n">
-        <v>15530</v>
+        <v>16041</v>
       </c>
       <c r="N118" s="3" t="n">
-        <v>7197</v>
+        <v>11360</v>
       </c>
       <c r="O118" s="3" t="n">
-        <v>10863</v>
+        <v>18468</v>
       </c>
       <c r="P118" s="3" t="n">
-        <v>9122</v>
+        <v>9138</v>
       </c>
     </row>
     <row r="119">
@@ -6625,37 +6625,37 @@
       <c r="D119" s="3" t="inlineStr"/>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:44</t>
+          <t>2024-09-16 09:22</t>
         </is>
       </c>
       <c r="F119" s="3" t="inlineStr"/>
       <c r="G119" s="3" t="n">
-        <v>165744</v>
+        <v>167679</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>111069</v>
+        <v>110471</v>
       </c>
       <c r="I119" s="3" t="n">
-        <v>1624</v>
+        <v>1647</v>
       </c>
       <c r="J119" s="3" t="n">
-        <v>109445</v>
+        <v>108824</v>
       </c>
       <c r="K119" s="3" t="inlineStr"/>
       <c r="L119" s="3" t="n">
-        <v>19012</v>
+        <v>32008</v>
       </c>
       <c r="M119" s="3" t="n">
-        <v>37802</v>
+        <v>22849</v>
       </c>
       <c r="N119" s="3" t="n">
-        <v>14825</v>
+        <v>24209</v>
       </c>
       <c r="O119" s="3" t="n">
-        <v>25551</v>
+        <v>18336</v>
       </c>
       <c r="P119" s="3" t="n">
-        <v>6780</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="120">
@@ -6677,37 +6677,37 @@
       <c r="D120" s="3" t="inlineStr"/>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:18</t>
+          <t>2024-09-16 12:19</t>
         </is>
       </c>
       <c r="F120" s="3" t="inlineStr"/>
       <c r="G120" s="3" t="n">
-        <v>90983</v>
+        <v>89898</v>
       </c>
       <c r="H120" s="3" t="n">
-        <v>68840</v>
+        <v>60784</v>
       </c>
       <c r="I120" s="3" t="n">
-        <v>1801</v>
+        <v>979</v>
       </c>
       <c r="J120" s="3" t="n">
-        <v>67039</v>
+        <v>59805</v>
       </c>
       <c r="K120" s="3" t="inlineStr"/>
       <c r="L120" s="3" t="n">
-        <v>10097</v>
+        <v>10511</v>
       </c>
       <c r="M120" s="3" t="n">
-        <v>20969</v>
+        <v>15547</v>
       </c>
       <c r="N120" s="3" t="n">
-        <v>19659</v>
+        <v>13336</v>
       </c>
       <c r="O120" s="3" t="n">
-        <v>7058</v>
+        <v>16377</v>
       </c>
       <c r="P120" s="3" t="n">
-        <v>5902</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="121">
@@ -6729,37 +6729,37 @@
       <c r="D121" s="3" t="inlineStr"/>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:36</t>
+          <t>2024-09-16 08:42</t>
         </is>
       </c>
       <c r="F121" s="3" t="inlineStr"/>
       <c r="G121" s="3" t="n">
-        <v>76504</v>
+        <v>81121</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>67241</v>
+        <v>52056</v>
       </c>
       <c r="I121" s="3" t="n">
-        <v>1615</v>
+        <v>1387</v>
       </c>
       <c r="J121" s="3" t="n">
-        <v>65626</v>
+        <v>50669</v>
       </c>
       <c r="K121" s="3" t="inlineStr"/>
       <c r="L121" s="3" t="n">
-        <v>16028</v>
+        <v>12543</v>
       </c>
       <c r="M121" s="3" t="n">
-        <v>19160</v>
+        <v>5450</v>
       </c>
       <c r="N121" s="3" t="n">
-        <v>8836</v>
+        <v>13518</v>
       </c>
       <c r="O121" s="3" t="n">
-        <v>13042</v>
+        <v>9537</v>
       </c>
       <c r="P121" s="3" t="n">
-        <v>5276</v>
+        <v>7086</v>
       </c>
     </row>
     <row r="122">
@@ -6781,37 +6781,37 @@
       <c r="D122" s="3" t="inlineStr"/>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:40</t>
+          <t>2024-09-16 16:35</t>
         </is>
       </c>
       <c r="F122" s="3" t="inlineStr"/>
       <c r="G122" s="3" t="n">
-        <v>166765</v>
+        <v>167938</v>
       </c>
       <c r="H122" s="3" t="n">
-        <v>129847</v>
+        <v>102032</v>
       </c>
       <c r="I122" s="3" t="n">
-        <v>2051</v>
+        <v>2401</v>
       </c>
       <c r="J122" s="3" t="n">
-        <v>127796</v>
+        <v>99631</v>
       </c>
       <c r="K122" s="3" t="inlineStr"/>
       <c r="L122" s="3" t="n">
-        <v>27211</v>
+        <v>15241</v>
       </c>
       <c r="M122" s="3" t="n">
-        <v>33223</v>
+        <v>16718</v>
       </c>
       <c r="N122" s="3" t="n">
-        <v>25366</v>
+        <v>28442</v>
       </c>
       <c r="O122" s="3" t="n">
-        <v>20801</v>
+        <v>11664</v>
       </c>
       <c r="P122" s="3" t="n">
-        <v>14803</v>
+        <v>22582</v>
       </c>
     </row>
     <row r="123">
@@ -6833,37 +6833,37 @@
       <c r="D123" s="3" t="inlineStr"/>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:48</t>
+          <t>2024-09-16 19:40</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr"/>
       <c r="G123" s="3" t="n">
-        <v>73920</v>
+        <v>75423</v>
       </c>
       <c r="H123" s="3" t="n">
-        <v>56780</v>
+        <v>52361</v>
       </c>
       <c r="I123" s="3" t="n">
-        <v>1232</v>
+        <v>1384</v>
       </c>
       <c r="J123" s="3" t="n">
-        <v>55548</v>
+        <v>50977</v>
       </c>
       <c r="K123" s="3" t="inlineStr"/>
       <c r="L123" s="3" t="n">
-        <v>9649</v>
+        <v>11158</v>
       </c>
       <c r="M123" s="3" t="n">
-        <v>15577</v>
+        <v>9841</v>
       </c>
       <c r="N123" s="3" t="n">
-        <v>16555</v>
+        <v>8195</v>
       </c>
       <c r="O123" s="3" t="n">
-        <v>10312</v>
+        <v>10338</v>
       </c>
       <c r="P123" s="3" t="n">
-        <v>674</v>
+        <v>8892</v>
       </c>
     </row>
     <row r="124">
@@ -6885,37 +6885,37 @@
       <c r="D124" s="3" t="inlineStr"/>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:35</t>
+          <t>2024-09-16 17:03</t>
         </is>
       </c>
       <c r="F124" s="3" t="inlineStr"/>
       <c r="G124" s="3" t="n">
-        <v>97742</v>
+        <v>97560</v>
       </c>
       <c r="H124" s="3" t="n">
-        <v>87117</v>
+        <v>70746</v>
       </c>
       <c r="I124" s="3" t="n">
-        <v>1287</v>
+        <v>744</v>
       </c>
       <c r="J124" s="3" t="n">
-        <v>85830</v>
+        <v>70002</v>
       </c>
       <c r="K124" s="3" t="inlineStr"/>
       <c r="L124" s="3" t="n">
-        <v>24981</v>
+        <v>21809</v>
       </c>
       <c r="M124" s="3" t="n">
-        <v>18669</v>
+        <v>18482</v>
       </c>
       <c r="N124" s="3" t="n">
-        <v>10786</v>
+        <v>11263</v>
       </c>
       <c r="O124" s="3" t="n">
-        <v>21022</v>
+        <v>6234</v>
       </c>
       <c r="P124" s="3" t="n">
-        <v>6078</v>
+        <v>8712</v>
       </c>
     </row>
     <row r="125">
@@ -6937,37 +6937,37 @@
       <c r="D125" s="3" t="inlineStr"/>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:24</t>
+          <t>2024-09-16 10:56</t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr"/>
       <c r="G125" s="3" t="n">
-        <v>110343</v>
+        <v>111498</v>
       </c>
       <c r="H125" s="3" t="n">
-        <v>89313</v>
+        <v>95981</v>
       </c>
       <c r="I125" s="3" t="n">
-        <v>1034</v>
+        <v>2771</v>
       </c>
       <c r="J125" s="3" t="n">
-        <v>88279</v>
+        <v>93210</v>
       </c>
       <c r="K125" s="3" t="inlineStr"/>
       <c r="L125" s="3" t="n">
-        <v>21272</v>
+        <v>25327</v>
       </c>
       <c r="M125" s="3" t="n">
-        <v>16031</v>
+        <v>25120</v>
       </c>
       <c r="N125" s="3" t="n">
-        <v>29114</v>
+        <v>10018</v>
       </c>
       <c r="O125" s="3" t="n">
-        <v>8978</v>
+        <v>9263</v>
       </c>
       <c r="P125" s="3" t="n">
-        <v>8468</v>
+        <v>18819</v>
       </c>
     </row>
     <row r="126">
@@ -6989,37 +6989,37 @@
       <c r="D126" s="3" t="inlineStr"/>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:48</t>
+          <t>2024-09-16 08:34</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr"/>
       <c r="G126" s="3" t="n">
-        <v>107327</v>
+        <v>110335</v>
       </c>
       <c r="H126" s="3" t="n">
-        <v>89169</v>
+        <v>94896</v>
       </c>
       <c r="I126" s="3" t="n">
-        <v>1275</v>
+        <v>2607</v>
       </c>
       <c r="J126" s="3" t="n">
-        <v>87894</v>
+        <v>92289</v>
       </c>
       <c r="K126" s="3" t="inlineStr"/>
       <c r="L126" s="3" t="n">
-        <v>21346</v>
+        <v>15255</v>
       </c>
       <c r="M126" s="3" t="n">
-        <v>21903</v>
+        <v>24298</v>
       </c>
       <c r="N126" s="3" t="n">
-        <v>18814</v>
+        <v>14110</v>
       </c>
       <c r="O126" s="3" t="n">
-        <v>9172</v>
+        <v>13685</v>
       </c>
       <c r="P126" s="3" t="n">
-        <v>12262</v>
+        <v>20323</v>
       </c>
     </row>
     <row r="127">
@@ -7041,37 +7041,37 @@
       <c r="D127" s="3" t="inlineStr"/>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:12</t>
+          <t>2024-09-16 16:07</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr"/>
       <c r="G127" s="3" t="n">
-        <v>98409</v>
+        <v>97467</v>
       </c>
       <c r="H127" s="3" t="n">
-        <v>78222</v>
+        <v>81232</v>
       </c>
       <c r="I127" s="3" t="n">
-        <v>1827</v>
+        <v>1068</v>
       </c>
       <c r="J127" s="3" t="n">
-        <v>76395</v>
+        <v>80164</v>
       </c>
       <c r="K127" s="3" t="inlineStr"/>
       <c r="L127" s="3" t="n">
-        <v>21662</v>
+        <v>10495</v>
       </c>
       <c r="M127" s="3" t="n">
-        <v>21172</v>
+        <v>20849</v>
       </c>
       <c r="N127" s="3" t="n">
-        <v>13571</v>
+        <v>22935</v>
       </c>
       <c r="O127" s="3" t="n">
-        <v>15063</v>
+        <v>7608</v>
       </c>
       <c r="P127" s="3" t="n">
-        <v>1104</v>
+        <v>14267</v>
       </c>
     </row>
     <row r="128">
@@ -7093,37 +7093,37 @@
       <c r="D128" s="3" t="inlineStr"/>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:36</t>
+          <t>2024-09-16 14:50</t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr"/>
       <c r="G128" s="3" t="n">
-        <v>121305</v>
+        <v>123165</v>
       </c>
       <c r="H128" s="3" t="n">
-        <v>95544</v>
+        <v>76195</v>
       </c>
       <c r="I128" s="3" t="n">
-        <v>2566</v>
+        <v>1948</v>
       </c>
       <c r="J128" s="3" t="n">
-        <v>92978</v>
+        <v>74247</v>
       </c>
       <c r="K128" s="3" t="inlineStr"/>
       <c r="L128" s="3" t="n">
-        <v>20567</v>
+        <v>21551</v>
       </c>
       <c r="M128" s="3" t="n">
-        <v>18530</v>
+        <v>18354</v>
       </c>
       <c r="N128" s="3" t="n">
-        <v>17264</v>
+        <v>21281</v>
       </c>
       <c r="O128" s="3" t="n">
-        <v>15072</v>
+        <v>4931</v>
       </c>
       <c r="P128" s="3" t="n">
-        <v>16893</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="129">
@@ -7145,37 +7145,37 @@
       <c r="D129" s="3" t="inlineStr"/>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:38</t>
+          <t>2024-09-16 18:47</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr"/>
       <c r="G129" s="3" t="n">
-        <v>100338</v>
+        <v>108480</v>
       </c>
       <c r="H129" s="3" t="n">
-        <v>60375</v>
+        <v>96921</v>
       </c>
       <c r="I129" s="3" t="n">
-        <v>634</v>
+        <v>1063</v>
       </c>
       <c r="J129" s="3" t="n">
-        <v>59741</v>
+        <v>95858</v>
       </c>
       <c r="K129" s="3" t="inlineStr"/>
       <c r="L129" s="3" t="n">
-        <v>21245</v>
+        <v>31059</v>
       </c>
       <c r="M129" s="3" t="n">
-        <v>17665</v>
+        <v>33671</v>
       </c>
       <c r="N129" s="3" t="n">
-        <v>11508</v>
+        <v>18519</v>
       </c>
       <c r="O129" s="3" t="n">
-        <v>2587</v>
+        <v>5089</v>
       </c>
       <c r="P129" s="3" t="n">
-        <v>3747</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="130">
@@ -7197,37 +7197,37 @@
       <c r="D130" s="3" t="inlineStr"/>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:02</t>
+          <t>2024-09-16 14:48</t>
         </is>
       </c>
       <c r="F130" s="3" t="inlineStr"/>
       <c r="G130" s="3" t="n">
-        <v>77476</v>
+        <v>81568</v>
       </c>
       <c r="H130" s="3" t="n">
-        <v>65637</v>
+        <v>67109</v>
       </c>
       <c r="I130" s="3" t="n">
-        <v>1295</v>
+        <v>1379</v>
       </c>
       <c r="J130" s="3" t="n">
-        <v>64342</v>
+        <v>65730</v>
       </c>
       <c r="K130" s="3" t="inlineStr"/>
       <c r="L130" s="3" t="n">
-        <v>12163</v>
+        <v>10849</v>
       </c>
       <c r="M130" s="3" t="n">
-        <v>15360</v>
+        <v>12897</v>
       </c>
       <c r="N130" s="3" t="n">
-        <v>9118</v>
+        <v>23529</v>
       </c>
       <c r="O130" s="3" t="n">
-        <v>12819</v>
+        <v>13715</v>
       </c>
       <c r="P130" s="3" t="n">
-        <v>11662</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="131">
@@ -7249,37 +7249,37 @@
       <c r="D131" s="3" t="inlineStr"/>
       <c r="E131" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:16</t>
+          <t>2024-09-16 19:22</t>
         </is>
       </c>
       <c r="F131" s="3" t="inlineStr"/>
       <c r="G131" s="3" t="n">
-        <v>81275</v>
+        <v>77271</v>
       </c>
       <c r="H131" s="3" t="n">
-        <v>61479</v>
+        <v>59777</v>
       </c>
       <c r="I131" s="3" t="n">
-        <v>1696</v>
+        <v>1290</v>
       </c>
       <c r="J131" s="3" t="n">
-        <v>59783</v>
+        <v>58487</v>
       </c>
       <c r="K131" s="3" t="inlineStr"/>
       <c r="L131" s="3" t="n">
-        <v>18805</v>
+        <v>16386</v>
       </c>
       <c r="M131" s="3" t="n">
-        <v>9073</v>
+        <v>11831</v>
       </c>
       <c r="N131" s="3" t="n">
-        <v>18012</v>
+        <v>9132</v>
       </c>
       <c r="O131" s="3" t="n">
-        <v>10133</v>
+        <v>11224</v>
       </c>
       <c r="P131" s="3" t="n">
-        <v>768</v>
+        <v>6987</v>
       </c>
     </row>
     <row r="132">
@@ -7301,37 +7301,37 @@
       <c r="D132" s="3" t="inlineStr"/>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:23</t>
+          <t>2024-09-16 08:59</t>
         </is>
       </c>
       <c r="F132" s="3" t="inlineStr"/>
       <c r="G132" s="3" t="n">
-        <v>94093</v>
+        <v>92363</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>56865</v>
+        <v>75531</v>
       </c>
       <c r="I132" s="3" t="n">
-        <v>1445</v>
+        <v>937</v>
       </c>
       <c r="J132" s="3" t="n">
-        <v>55420</v>
+        <v>74594</v>
       </c>
       <c r="K132" s="3" t="inlineStr"/>
       <c r="L132" s="3" t="n">
-        <v>7776</v>
+        <v>14980</v>
       </c>
       <c r="M132" s="3" t="n">
-        <v>12905</v>
+        <v>23252</v>
       </c>
       <c r="N132" s="3" t="n">
-        <v>12651</v>
+        <v>23619</v>
       </c>
       <c r="O132" s="3" t="n">
-        <v>9266</v>
+        <v>6248</v>
       </c>
       <c r="P132" s="3" t="n">
-        <v>10048</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="133">
@@ -7353,37 +7353,37 @@
       <c r="D133" s="3" t="inlineStr"/>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:57</t>
+          <t>2024-09-16 08:23</t>
         </is>
       </c>
       <c r="F133" s="3" t="inlineStr"/>
       <c r="G133" s="3" t="n">
-        <v>99755</v>
+        <v>99738</v>
       </c>
       <c r="H133" s="3" t="n">
-        <v>86726</v>
+        <v>79784</v>
       </c>
       <c r="I133" s="3" t="n">
-        <v>2333</v>
+        <v>1927</v>
       </c>
       <c r="J133" s="3" t="n">
-        <v>84393</v>
+        <v>77857</v>
       </c>
       <c r="K133" s="3" t="inlineStr"/>
       <c r="L133" s="3" t="n">
-        <v>25415</v>
+        <v>23576</v>
       </c>
       <c r="M133" s="3" t="n">
-        <v>21480</v>
+        <v>14319</v>
       </c>
       <c r="N133" s="3" t="n">
-        <v>14880</v>
+        <v>12801</v>
       </c>
       <c r="O133" s="3" t="n">
-        <v>9595</v>
+        <v>9670</v>
       </c>
       <c r="P133" s="3" t="n">
-        <v>8801</v>
+        <v>13596</v>
       </c>
     </row>
     <row r="134">
@@ -7405,37 +7405,37 @@
       <c r="D134" s="3" t="inlineStr"/>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:48</t>
+          <t>2024-09-16 15:26</t>
         </is>
       </c>
       <c r="F134" s="3" t="inlineStr"/>
       <c r="G134" s="3" t="n">
-        <v>110649</v>
+        <v>104044</v>
       </c>
       <c r="H134" s="3" t="n">
-        <v>75236</v>
+        <v>66051</v>
       </c>
       <c r="I134" s="3" t="n">
-        <v>871</v>
+        <v>1099</v>
       </c>
       <c r="J134" s="3" t="n">
-        <v>74365</v>
+        <v>64952</v>
       </c>
       <c r="K134" s="3" t="inlineStr"/>
       <c r="L134" s="3" t="n">
-        <v>9545</v>
+        <v>22885</v>
       </c>
       <c r="M134" s="3" t="n">
-        <v>17254</v>
+        <v>8364</v>
       </c>
       <c r="N134" s="3" t="n">
-        <v>15816</v>
+        <v>13342</v>
       </c>
       <c r="O134" s="3" t="n">
-        <v>15552</v>
+        <v>6729</v>
       </c>
       <c r="P134" s="3" t="n">
-        <v>12477</v>
+        <v>10381</v>
       </c>
     </row>
     <row r="135">
@@ -7457,37 +7457,37 @@
       <c r="D135" s="3" t="inlineStr"/>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:26</t>
+          <t>2024-09-16 12:30</t>
         </is>
       </c>
       <c r="F135" s="3" t="inlineStr"/>
       <c r="G135" s="3" t="n">
-        <v>94725</v>
+        <v>99531</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>64904</v>
+        <v>73714</v>
       </c>
       <c r="I135" s="3" t="n">
-        <v>1176</v>
+        <v>1630</v>
       </c>
       <c r="J135" s="3" t="n">
-        <v>63728</v>
+        <v>72084</v>
       </c>
       <c r="K135" s="3" t="inlineStr"/>
       <c r="L135" s="3" t="n">
-        <v>20600</v>
+        <v>19926</v>
       </c>
       <c r="M135" s="3" t="n">
-        <v>9517</v>
+        <v>18034</v>
       </c>
       <c r="N135" s="3" t="n">
-        <v>21389</v>
+        <v>5943</v>
       </c>
       <c r="O135" s="3" t="n">
-        <v>5599</v>
+        <v>14157</v>
       </c>
       <c r="P135" s="3" t="n">
-        <v>3433</v>
+        <v>10418</v>
       </c>
     </row>
     <row r="136">
@@ -7509,37 +7509,37 @@
       <c r="D136" s="3" t="inlineStr"/>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:47</t>
+          <t>2024-09-16 09:33</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr"/>
       <c r="G136" s="3" t="n">
-        <v>78004</v>
+        <v>78708</v>
       </c>
       <c r="H136" s="3" t="n">
-        <v>53141</v>
+        <v>54562</v>
       </c>
       <c r="I136" s="3" t="n">
-        <v>959</v>
+        <v>1529</v>
       </c>
       <c r="J136" s="3" t="n">
-        <v>52182</v>
+        <v>53033</v>
       </c>
       <c r="K136" s="3" t="inlineStr"/>
       <c r="L136" s="3" t="n">
-        <v>16357</v>
+        <v>13979</v>
       </c>
       <c r="M136" s="3" t="n">
-        <v>9655</v>
+        <v>12487</v>
       </c>
       <c r="N136" s="3" t="n">
-        <v>10363</v>
+        <v>7935</v>
       </c>
       <c r="O136" s="3" t="n">
-        <v>12114</v>
+        <v>10780</v>
       </c>
       <c r="P136" s="3" t="n">
-        <v>1081</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="137">
@@ -7561,37 +7561,37 @@
       <c r="D137" s="3" t="inlineStr"/>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:32</t>
+          <t>2024-09-16 15:32</t>
         </is>
       </c>
       <c r="F137" s="3" t="inlineStr"/>
       <c r="G137" s="3" t="n">
-        <v>95091</v>
+        <v>99968</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>81423</v>
+        <v>75019</v>
       </c>
       <c r="I137" s="3" t="n">
-        <v>1232</v>
+        <v>1980</v>
       </c>
       <c r="J137" s="3" t="n">
-        <v>80191</v>
+        <v>73039</v>
       </c>
       <c r="K137" s="3" t="inlineStr"/>
       <c r="L137" s="3" t="n">
-        <v>30865</v>
+        <v>17489</v>
       </c>
       <c r="M137" s="3" t="n">
-        <v>17464</v>
+        <v>19953</v>
       </c>
       <c r="N137" s="3" t="n">
-        <v>15078</v>
+        <v>11341</v>
       </c>
       <c r="O137" s="3" t="n">
-        <v>6534</v>
+        <v>15368</v>
       </c>
       <c r="P137" s="3" t="n">
-        <v>6238</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="138">
@@ -7613,37 +7613,37 @@
       <c r="D138" s="3" t="inlineStr"/>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:58</t>
+          <t>2024-09-16 17:03</t>
         </is>
       </c>
       <c r="F138" s="3" t="inlineStr"/>
       <c r="G138" s="3" t="n">
-        <v>97717</v>
+        <v>96758</v>
       </c>
       <c r="H138" s="3" t="n">
-        <v>67335</v>
+        <v>70468</v>
       </c>
       <c r="I138" s="3" t="n">
-        <v>1209</v>
+        <v>1260</v>
       </c>
       <c r="J138" s="3" t="n">
-        <v>66126</v>
+        <v>69208</v>
       </c>
       <c r="K138" s="3" t="inlineStr"/>
       <c r="L138" s="3" t="n">
-        <v>13990</v>
+        <v>21707</v>
       </c>
       <c r="M138" s="3" t="n">
-        <v>18343</v>
+        <v>15091</v>
       </c>
       <c r="N138" s="3" t="n">
-        <v>15655</v>
+        <v>13443</v>
       </c>
       <c r="O138" s="3" t="n">
-        <v>9696</v>
+        <v>4120</v>
       </c>
       <c r="P138" s="3" t="n">
-        <v>5133</v>
+        <v>11384</v>
       </c>
     </row>
     <row r="139">
@@ -7665,37 +7665,37 @@
       <c r="D139" s="3" t="inlineStr"/>
       <c r="E139" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:33</t>
+          <t>2024-09-16 16:24</t>
         </is>
       </c>
       <c r="F139" s="3" t="inlineStr"/>
       <c r="G139" s="3" t="n">
-        <v>75950</v>
+        <v>77258</v>
       </c>
       <c r="H139" s="3" t="n">
-        <v>60116</v>
+        <v>50376</v>
       </c>
       <c r="I139" s="3" t="n">
-        <v>815</v>
+        <v>839</v>
       </c>
       <c r="J139" s="3" t="n">
-        <v>59301</v>
+        <v>49537</v>
       </c>
       <c r="K139" s="3" t="inlineStr"/>
       <c r="L139" s="3" t="n">
-        <v>15461</v>
+        <v>18494</v>
       </c>
       <c r="M139" s="3" t="n">
-        <v>14229</v>
+        <v>14095</v>
       </c>
       <c r="N139" s="3" t="n">
-        <v>7256</v>
+        <v>10442</v>
       </c>
       <c r="O139" s="3" t="n">
-        <v>9667</v>
+        <v>3579</v>
       </c>
       <c r="P139" s="3" t="n">
-        <v>9720</v>
+        <v>447</v>
       </c>
     </row>
     <row r="140">
@@ -7717,37 +7717,37 @@
       <c r="D140" s="3" t="inlineStr"/>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:43</t>
+          <t>2024-09-16 12:53</t>
         </is>
       </c>
       <c r="F140" s="3" t="inlineStr"/>
       <c r="G140" s="3" t="n">
-        <v>154923</v>
+        <v>159604</v>
       </c>
       <c r="H140" s="3" t="n">
-        <v>96655</v>
+        <v>105253</v>
       </c>
       <c r="I140" s="3" t="n">
-        <v>1578</v>
+        <v>2873</v>
       </c>
       <c r="J140" s="3" t="n">
-        <v>95077</v>
+        <v>102380</v>
       </c>
       <c r="K140" s="3" t="inlineStr"/>
       <c r="L140" s="3" t="n">
-        <v>20326</v>
+        <v>19687</v>
       </c>
       <c r="M140" s="3" t="n">
-        <v>12976</v>
+        <v>33847</v>
       </c>
       <c r="N140" s="3" t="n">
-        <v>29143</v>
+        <v>10387</v>
       </c>
       <c r="O140" s="3" t="n">
-        <v>12554</v>
+        <v>23898</v>
       </c>
       <c r="P140" s="3" t="n">
-        <v>15321</v>
+        <v>9439</v>
       </c>
     </row>
     <row r="141">
@@ -7769,37 +7769,37 @@
       <c r="D141" s="3" t="inlineStr"/>
       <c r="E141" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:56</t>
+          <t>2024-09-16 18:37</t>
         </is>
       </c>
       <c r="F141" s="3" t="inlineStr"/>
       <c r="G141" s="3" t="n">
-        <v>129906</v>
+        <v>125085</v>
       </c>
       <c r="H141" s="3" t="n">
-        <v>88325</v>
+        <v>101996</v>
       </c>
       <c r="I141" s="3" t="n">
-        <v>2174</v>
+        <v>1159</v>
       </c>
       <c r="J141" s="3" t="n">
-        <v>86151</v>
+        <v>100837</v>
       </c>
       <c r="K141" s="3" t="inlineStr"/>
       <c r="L141" s="3" t="n">
-        <v>27139</v>
+        <v>16685</v>
       </c>
       <c r="M141" s="3" t="n">
-        <v>13650</v>
+        <v>18343</v>
       </c>
       <c r="N141" s="3" t="n">
-        <v>20873</v>
+        <v>23454</v>
       </c>
       <c r="O141" s="3" t="n">
-        <v>12344</v>
+        <v>19264</v>
       </c>
       <c r="P141" s="3" t="n">
-        <v>7836</v>
+        <v>18046</v>
       </c>
     </row>
     <row r="142">
@@ -7821,37 +7821,37 @@
       <c r="D142" s="3" t="inlineStr"/>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:47</t>
+          <t>2024-09-16 11:25</t>
         </is>
       </c>
       <c r="F142" s="3" t="inlineStr"/>
       <c r="G142" s="3" t="n">
-        <v>134559</v>
+        <v>127865</v>
       </c>
       <c r="H142" s="3" t="n">
-        <v>90732</v>
+        <v>83914</v>
       </c>
       <c r="I142" s="3" t="n">
-        <v>1805</v>
+        <v>993</v>
       </c>
       <c r="J142" s="3" t="n">
-        <v>88927</v>
+        <v>82921</v>
       </c>
       <c r="K142" s="3" t="inlineStr"/>
       <c r="L142" s="3" t="n">
-        <v>27126</v>
+        <v>21146</v>
       </c>
       <c r="M142" s="3" t="n">
-        <v>26833</v>
+        <v>18504</v>
       </c>
       <c r="N142" s="3" t="n">
-        <v>9855</v>
+        <v>16776</v>
       </c>
       <c r="O142" s="3" t="n">
-        <v>14568</v>
+        <v>14328</v>
       </c>
       <c r="P142" s="3" t="n">
-        <v>6097</v>
+        <v>8019</v>
       </c>
     </row>
     <row r="143">
@@ -7873,37 +7873,37 @@
       <c r="D143" s="3" t="inlineStr"/>
       <c r="E143" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:35</t>
+          <t>2024-09-16 08:41</t>
         </is>
       </c>
       <c r="F143" s="3" t="inlineStr"/>
       <c r="G143" s="3" t="n">
-        <v>101483</v>
+        <v>99391</v>
       </c>
       <c r="H143" s="3" t="n">
-        <v>70582</v>
+        <v>68468</v>
       </c>
       <c r="I143" s="3" t="n">
-        <v>1396</v>
+        <v>1303</v>
       </c>
       <c r="J143" s="3" t="n">
-        <v>69186</v>
+        <v>67165</v>
       </c>
       <c r="K143" s="3" t="inlineStr"/>
       <c r="L143" s="3" t="n">
-        <v>25081</v>
+        <v>20394</v>
       </c>
       <c r="M143" s="3" t="n">
-        <v>9244</v>
+        <v>11776</v>
       </c>
       <c r="N143" s="3" t="n">
-        <v>13536</v>
+        <v>18611</v>
       </c>
       <c r="O143" s="3" t="n">
-        <v>13962</v>
+        <v>8472</v>
       </c>
       <c r="P143" s="3" t="n">
-        <v>3900</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="144">
@@ -7925,37 +7925,37 @@
       <c r="D144" s="3" t="inlineStr"/>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:58</t>
+          <t>2024-09-16 10:02</t>
         </is>
       </c>
       <c r="F144" s="3" t="inlineStr"/>
       <c r="G144" s="3" t="n">
-        <v>118755</v>
+        <v>113988</v>
       </c>
       <c r="H144" s="3" t="n">
-        <v>100517</v>
+        <v>85971</v>
       </c>
       <c r="I144" s="3" t="n">
-        <v>2145</v>
+        <v>1212</v>
       </c>
       <c r="J144" s="3" t="n">
-        <v>98372</v>
+        <v>84759</v>
       </c>
       <c r="K144" s="3" t="inlineStr"/>
       <c r="L144" s="3" t="n">
-        <v>22542</v>
+        <v>14679</v>
       </c>
       <c r="M144" s="3" t="n">
-        <v>22900</v>
+        <v>16853</v>
       </c>
       <c r="N144" s="3" t="n">
-        <v>19050</v>
+        <v>14417</v>
       </c>
       <c r="O144" s="3" t="n">
-        <v>14026</v>
+        <v>21438</v>
       </c>
       <c r="P144" s="3" t="n">
-        <v>14933</v>
+        <v>13132</v>
       </c>
     </row>
     <row r="145">
@@ -7977,37 +7977,37 @@
       <c r="D145" s="3" t="inlineStr"/>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:15</t>
+          <t>2024-09-16 13:01</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr"/>
       <c r="G145" s="3" t="n">
-        <v>89572</v>
+        <v>88432</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>68334</v>
+        <v>77621</v>
       </c>
       <c r="I145" s="3" t="n">
-        <v>827</v>
+        <v>891</v>
       </c>
       <c r="J145" s="3" t="n">
-        <v>67507</v>
+        <v>76730</v>
       </c>
       <c r="K145" s="3" t="inlineStr"/>
       <c r="L145" s="3" t="n">
-        <v>10590</v>
+        <v>18649</v>
       </c>
       <c r="M145" s="3" t="n">
-        <v>20966</v>
+        <v>25316</v>
       </c>
       <c r="N145" s="3" t="n">
-        <v>8099</v>
+        <v>14995</v>
       </c>
       <c r="O145" s="3" t="n">
-        <v>7763</v>
+        <v>5644</v>
       </c>
       <c r="P145" s="3" t="n">
-        <v>16711</v>
+        <v>8287</v>
       </c>
     </row>
     <row r="146">
@@ -8029,37 +8029,37 @@
       <c r="D146" s="3" t="inlineStr"/>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:01</t>
+          <t>2024-09-16 17:37</t>
         </is>
       </c>
       <c r="F146" s="3" t="inlineStr"/>
       <c r="G146" s="3" t="n">
-        <v>81156</v>
+        <v>80613</v>
       </c>
       <c r="H146" s="3" t="n">
-        <v>65614</v>
+        <v>57587</v>
       </c>
       <c r="I146" s="3" t="n">
-        <v>925</v>
+        <v>953</v>
       </c>
       <c r="J146" s="3" t="n">
-        <v>64689</v>
+        <v>56634</v>
       </c>
       <c r="K146" s="3" t="inlineStr"/>
       <c r="L146" s="3" t="n">
-        <v>19637</v>
+        <v>15446</v>
       </c>
       <c r="M146" s="3" t="n">
-        <v>17464</v>
+        <v>16142</v>
       </c>
       <c r="N146" s="3" t="n">
-        <v>9374</v>
+        <v>10912</v>
       </c>
       <c r="O146" s="3" t="n">
-        <v>5155</v>
+        <v>7276</v>
       </c>
       <c r="P146" s="3" t="n">
-        <v>9822</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="147">
@@ -8081,37 +8081,37 @@
       <c r="D147" s="3" t="inlineStr"/>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:25</t>
+          <t>2024-09-16 08:54</t>
         </is>
       </c>
       <c r="F147" s="3" t="inlineStr"/>
       <c r="G147" s="3" t="n">
-        <v>104724</v>
+        <v>102786</v>
       </c>
       <c r="H147" s="3" t="n">
-        <v>73134</v>
+        <v>71881</v>
       </c>
       <c r="I147" s="3" t="n">
-        <v>1430</v>
+        <v>1914</v>
       </c>
       <c r="J147" s="3" t="n">
-        <v>71704</v>
+        <v>69967</v>
       </c>
       <c r="K147" s="3" t="inlineStr"/>
       <c r="L147" s="3" t="n">
-        <v>24439</v>
+        <v>20160</v>
       </c>
       <c r="M147" s="3" t="n">
-        <v>24491</v>
+        <v>17319</v>
       </c>
       <c r="N147" s="3" t="n">
-        <v>8926</v>
+        <v>12263</v>
       </c>
       <c r="O147" s="3" t="n">
-        <v>3127</v>
+        <v>7197</v>
       </c>
       <c r="P147" s="3" t="n">
-        <v>7133</v>
+        <v>9528</v>
       </c>
     </row>
     <row r="148">
@@ -8133,37 +8133,37 @@
       <c r="D148" s="3" t="inlineStr"/>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:25</t>
+          <t>2024-09-16 20:12</t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr"/>
       <c r="G148" s="3" t="n">
-        <v>112949</v>
+        <v>106484</v>
       </c>
       <c r="H148" s="3" t="n">
-        <v>78967</v>
+        <v>80796</v>
       </c>
       <c r="I148" s="3" t="n">
-        <v>1919</v>
+        <v>2096</v>
       </c>
       <c r="J148" s="3" t="n">
-        <v>77048</v>
+        <v>78700</v>
       </c>
       <c r="K148" s="3" t="inlineStr"/>
       <c r="L148" s="3" t="n">
-        <v>28820</v>
+        <v>19927</v>
       </c>
       <c r="M148" s="3" t="n">
-        <v>13712</v>
+        <v>20648</v>
       </c>
       <c r="N148" s="3" t="n">
-        <v>17233</v>
+        <v>16420</v>
       </c>
       <c r="O148" s="3" t="n">
-        <v>10519</v>
+        <v>2340</v>
       </c>
       <c r="P148" s="3" t="n">
-        <v>2908</v>
+        <v>15429</v>
       </c>
     </row>
     <row r="149">
@@ -8185,37 +8185,37 @@
       <c r="D149" s="3" t="inlineStr"/>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:27</t>
+          <t>2024-09-16 14:38</t>
         </is>
       </c>
       <c r="F149" s="3" t="inlineStr"/>
       <c r="G149" s="3" t="n">
-        <v>126897</v>
+        <v>130079</v>
       </c>
       <c r="H149" s="3" t="n">
-        <v>88683</v>
+        <v>103707</v>
       </c>
       <c r="I149" s="3" t="n">
-        <v>1598</v>
+        <v>1922</v>
       </c>
       <c r="J149" s="3" t="n">
-        <v>87085</v>
+        <v>101785</v>
       </c>
       <c r="K149" s="3" t="inlineStr"/>
       <c r="L149" s="3" t="n">
-        <v>25690</v>
+        <v>19721</v>
       </c>
       <c r="M149" s="3" t="n">
-        <v>14953</v>
+        <v>15611</v>
       </c>
       <c r="N149" s="3" t="n">
-        <v>14648</v>
+        <v>18580</v>
       </c>
       <c r="O149" s="3" t="n">
-        <v>10372</v>
+        <v>17650</v>
       </c>
       <c r="P149" s="3" t="n">
-        <v>17064</v>
+        <v>25131</v>
       </c>
     </row>
     <row r="150">
@@ -8237,37 +8237,37 @@
       <c r="D150" s="3" t="inlineStr"/>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:24</t>
+          <t>2024-09-16 14:28</t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr"/>
       <c r="G150" s="3" t="n">
-        <v>69739</v>
+        <v>65487</v>
       </c>
       <c r="H150" s="3" t="n">
-        <v>61875</v>
+        <v>51366</v>
       </c>
       <c r="I150" s="3" t="n">
-        <v>1408</v>
+        <v>1503</v>
       </c>
       <c r="J150" s="3" t="n">
-        <v>60467</v>
+        <v>49863</v>
       </c>
       <c r="K150" s="3" t="inlineStr"/>
       <c r="L150" s="3" t="n">
-        <v>21624</v>
+        <v>15003</v>
       </c>
       <c r="M150" s="3" t="n">
-        <v>16209</v>
+        <v>8582</v>
       </c>
       <c r="N150" s="3" t="n">
-        <v>11878</v>
+        <v>10860</v>
       </c>
       <c r="O150" s="3" t="n">
-        <v>3757</v>
+        <v>10048</v>
       </c>
       <c r="P150" s="3" t="n">
-        <v>3973</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="151">
@@ -8289,37 +8289,37 @@
       <c r="D151" s="3" t="inlineStr"/>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:22</t>
+          <t>2024-09-16 17:52</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr"/>
       <c r="G151" s="3" t="n">
-        <v>91329</v>
+        <v>91179</v>
       </c>
       <c r="H151" s="3" t="n">
-        <v>82076</v>
+        <v>77170</v>
       </c>
       <c r="I151" s="3" t="n">
-        <v>2414</v>
+        <v>937</v>
       </c>
       <c r="J151" s="3" t="n">
-        <v>79662</v>
+        <v>76233</v>
       </c>
       <c r="K151" s="3" t="inlineStr"/>
       <c r="L151" s="3" t="n">
-        <v>21913</v>
+        <v>26025</v>
       </c>
       <c r="M151" s="3" t="n">
-        <v>19846</v>
+        <v>16397</v>
       </c>
       <c r="N151" s="3" t="n">
-        <v>15815</v>
+        <v>12984</v>
       </c>
       <c r="O151" s="3" t="n">
-        <v>16132</v>
+        <v>15969</v>
       </c>
       <c r="P151" s="3" t="n">
-        <v>1970</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="152">
@@ -8341,37 +8341,37 @@
       <c r="D152" s="3" t="inlineStr"/>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:50</t>
+          <t>2024-09-16 08:52</t>
         </is>
       </c>
       <c r="F152" s="3" t="inlineStr"/>
       <c r="G152" s="3" t="n">
-        <v>89246</v>
+        <v>86528</v>
       </c>
       <c r="H152" s="3" t="n">
-        <v>55554</v>
+        <v>63338</v>
       </c>
       <c r="I152" s="3" t="n">
-        <v>1110</v>
+        <v>1234</v>
       </c>
       <c r="J152" s="3" t="n">
-        <v>54444</v>
+        <v>62104</v>
       </c>
       <c r="K152" s="3" t="inlineStr"/>
       <c r="L152" s="3" t="n">
-        <v>13011</v>
+        <v>15493</v>
       </c>
       <c r="M152" s="3" t="n">
-        <v>14073</v>
+        <v>15586</v>
       </c>
       <c r="N152" s="3" t="n">
-        <v>9181</v>
+        <v>12787</v>
       </c>
       <c r="O152" s="3" t="n">
-        <v>8882</v>
+        <v>10268</v>
       </c>
       <c r="P152" s="3" t="n">
-        <v>6573</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="153">
@@ -8393,37 +8393,37 @@
       <c r="D153" s="3" t="inlineStr"/>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:54</t>
+          <t>2024-09-16 11:40</t>
         </is>
       </c>
       <c r="F153" s="3" t="inlineStr"/>
       <c r="G153" s="3" t="n">
-        <v>83777</v>
+        <v>78316</v>
       </c>
       <c r="H153" s="3" t="n">
-        <v>59565</v>
+        <v>58953</v>
       </c>
       <c r="I153" s="3" t="n">
-        <v>1401</v>
+        <v>1608</v>
       </c>
       <c r="J153" s="3" t="n">
-        <v>58164</v>
+        <v>57345</v>
       </c>
       <c r="K153" s="3" t="inlineStr"/>
       <c r="L153" s="3" t="n">
-        <v>19686</v>
+        <v>12599</v>
       </c>
       <c r="M153" s="3" t="n">
-        <v>9562</v>
+        <v>18286</v>
       </c>
       <c r="N153" s="3" t="n">
-        <v>6360</v>
+        <v>15782</v>
       </c>
       <c r="O153" s="3" t="n">
-        <v>15446</v>
+        <v>4406</v>
       </c>
       <c r="P153" s="3" t="n">
-        <v>4200</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="154">
@@ -8445,37 +8445,37 @@
       <c r="D154" s="3" t="inlineStr"/>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:14</t>
+          <t>2024-09-16 12:29</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr"/>
       <c r="G154" s="3" t="n">
-        <v>157087</v>
+        <v>157917</v>
       </c>
       <c r="H154" s="3" t="n">
-        <v>136156</v>
+        <v>120908</v>
       </c>
       <c r="I154" s="3" t="n">
-        <v>3239</v>
+        <v>2132</v>
       </c>
       <c r="J154" s="3" t="n">
-        <v>132917</v>
+        <v>118776</v>
       </c>
       <c r="K154" s="3" t="inlineStr"/>
       <c r="L154" s="3" t="n">
-        <v>40422</v>
+        <v>29097</v>
       </c>
       <c r="M154" s="3" t="n">
-        <v>40001</v>
+        <v>44549</v>
       </c>
       <c r="N154" s="3" t="n">
-        <v>34307</v>
+        <v>13356</v>
       </c>
       <c r="O154" s="3" t="n">
-        <v>9979</v>
+        <v>17208</v>
       </c>
       <c r="P154" s="3" t="n">
-        <v>1559</v>
+        <v>8624</v>
       </c>
     </row>
     <row r="155">
@@ -8497,37 +8497,37 @@
       <c r="D155" s="3" t="inlineStr"/>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:46</t>
+          <t>2024-09-16 17:56</t>
         </is>
       </c>
       <c r="F155" s="3" t="inlineStr"/>
       <c r="G155" s="3" t="n">
-        <v>103364</v>
+        <v>99876</v>
       </c>
       <c r="H155" s="3" t="n">
-        <v>63009</v>
+        <v>73181</v>
       </c>
       <c r="I155" s="3" t="n">
-        <v>760</v>
+        <v>1581</v>
       </c>
       <c r="J155" s="3" t="n">
-        <v>62249</v>
+        <v>71600</v>
       </c>
       <c r="K155" s="3" t="inlineStr"/>
       <c r="L155" s="3" t="n">
-        <v>17035</v>
+        <v>18856</v>
       </c>
       <c r="M155" s="3" t="n">
-        <v>11160</v>
+        <v>16947</v>
       </c>
       <c r="N155" s="3" t="n">
-        <v>7745</v>
+        <v>12957</v>
       </c>
       <c r="O155" s="3" t="n">
-        <v>8034</v>
+        <v>12634</v>
       </c>
       <c r="P155" s="3" t="n">
-        <v>15160</v>
+        <v>6622</v>
       </c>
     </row>
     <row r="156">
@@ -8549,37 +8549,37 @@
       <c r="D156" s="3" t="inlineStr"/>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:38</t>
+          <t>2024-09-16 16:13</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr"/>
       <c r="G156" s="3" t="n">
-        <v>52448</v>
+        <v>55324</v>
       </c>
       <c r="H156" s="3" t="n">
-        <v>33792</v>
+        <v>33213</v>
       </c>
       <c r="I156" s="3" t="n">
-        <v>687</v>
+        <v>373</v>
       </c>
       <c r="J156" s="3" t="n">
-        <v>33105</v>
+        <v>32840</v>
       </c>
       <c r="K156" s="3" t="inlineStr"/>
       <c r="L156" s="3" t="n">
-        <v>5973</v>
+        <v>9053</v>
       </c>
       <c r="M156" s="3" t="n">
-        <v>7779</v>
+        <v>8418</v>
       </c>
       <c r="N156" s="3" t="n">
-        <v>9636</v>
+        <v>8253</v>
       </c>
       <c r="O156" s="3" t="n">
-        <v>7696</v>
+        <v>2430</v>
       </c>
       <c r="P156" s="3" t="n">
-        <v>364</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="157">
@@ -8601,37 +8601,37 @@
       <c r="D157" s="3" t="inlineStr"/>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:01</t>
+          <t>2024-09-16 17:16</t>
         </is>
       </c>
       <c r="F157" s="3" t="inlineStr"/>
       <c r="G157" s="3" t="n">
-        <v>65610</v>
+        <v>68176</v>
       </c>
       <c r="H157" s="3" t="n">
-        <v>56576</v>
+        <v>60223</v>
       </c>
       <c r="I157" s="3" t="n">
-        <v>1284</v>
+        <v>745</v>
       </c>
       <c r="J157" s="3" t="n">
-        <v>55292</v>
+        <v>59478</v>
       </c>
       <c r="K157" s="3" t="inlineStr"/>
       <c r="L157" s="3" t="n">
-        <v>13085</v>
+        <v>11283</v>
       </c>
       <c r="M157" s="3" t="n">
-        <v>16916</v>
+        <v>12930</v>
       </c>
       <c r="N157" s="3" t="n">
-        <v>6153</v>
+        <v>18416</v>
       </c>
       <c r="O157" s="3" t="n">
-        <v>6410</v>
+        <v>4004</v>
       </c>
       <c r="P157" s="3" t="n">
-        <v>9961</v>
+        <v>9869</v>
       </c>
     </row>
     <row r="158">
@@ -8653,37 +8653,37 @@
       <c r="D158" s="3" t="inlineStr"/>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:35</t>
+          <t>2024-09-16 14:50</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr"/>
       <c r="G158" s="3" t="n">
-        <v>59013</v>
+        <v>57184</v>
       </c>
       <c r="H158" s="3" t="n">
-        <v>37496</v>
+        <v>38777</v>
       </c>
       <c r="I158" s="3" t="n">
-        <v>513</v>
+        <v>580</v>
       </c>
       <c r="J158" s="3" t="n">
-        <v>36983</v>
+        <v>38197</v>
       </c>
       <c r="K158" s="3" t="inlineStr"/>
       <c r="L158" s="3" t="n">
-        <v>8257</v>
+        <v>11674</v>
       </c>
       <c r="M158" s="3" t="n">
-        <v>4778</v>
+        <v>9688</v>
       </c>
       <c r="N158" s="3" t="n">
-        <v>8884</v>
+        <v>7345</v>
       </c>
       <c r="O158" s="3" t="n">
-        <v>6920</v>
+        <v>2813</v>
       </c>
       <c r="P158" s="3" t="n">
-        <v>6292</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="159">
@@ -8705,37 +8705,37 @@
       <c r="D159" s="3" t="inlineStr"/>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:57</t>
+          <t>2024-09-16 14:19</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr"/>
       <c r="G159" s="3" t="n">
-        <v>74180</v>
+        <v>76487</v>
       </c>
       <c r="H159" s="3" t="n">
-        <v>54676</v>
+        <v>50922</v>
       </c>
       <c r="I159" s="3" t="n">
-        <v>658</v>
+        <v>932</v>
       </c>
       <c r="J159" s="3" t="n">
-        <v>54018</v>
+        <v>49990</v>
       </c>
       <c r="K159" s="3" t="inlineStr"/>
       <c r="L159" s="3" t="n">
-        <v>17291</v>
+        <v>8122</v>
       </c>
       <c r="M159" s="3" t="n">
-        <v>10353</v>
+        <v>16576</v>
       </c>
       <c r="N159" s="3" t="n">
-        <v>12335</v>
+        <v>10484</v>
       </c>
       <c r="O159" s="3" t="n">
-        <v>3925</v>
+        <v>4494</v>
       </c>
       <c r="P159" s="3" t="n">
-        <v>7412</v>
+        <v>7811</v>
       </c>
     </row>
     <row r="160">
@@ -8757,37 +8757,37 @@
       <c r="D160" s="3" t="inlineStr"/>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:01</t>
+          <t>2024-09-16 15:47</t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr"/>
       <c r="G160" s="3" t="n">
-        <v>63289</v>
+        <v>67948</v>
       </c>
       <c r="H160" s="3" t="n">
-        <v>38026</v>
+        <v>44097</v>
       </c>
       <c r="I160" s="3" t="n">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="J160" s="3" t="n">
-        <v>37443</v>
+        <v>43496</v>
       </c>
       <c r="K160" s="3" t="inlineStr"/>
       <c r="L160" s="3" t="n">
-        <v>8294</v>
+        <v>10784</v>
       </c>
       <c r="M160" s="3" t="n">
-        <v>8068</v>
+        <v>8939</v>
       </c>
       <c r="N160" s="3" t="n">
-        <v>4791</v>
+        <v>10574</v>
       </c>
       <c r="O160" s="3" t="n">
-        <v>7281</v>
+        <v>4664</v>
       </c>
       <c r="P160" s="3" t="n">
-        <v>7135</v>
+        <v>6357</v>
       </c>
     </row>
     <row r="161">
@@ -8809,37 +8809,37 @@
       <c r="D161" s="3" t="inlineStr"/>
       <c r="E161" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:00</t>
+          <t>2024-09-16 09:46</t>
         </is>
       </c>
       <c r="F161" s="3" t="inlineStr"/>
       <c r="G161" s="3" t="n">
-        <v>77224</v>
+        <v>80637</v>
       </c>
       <c r="H161" s="3" t="n">
-        <v>67294</v>
+        <v>54166</v>
       </c>
       <c r="I161" s="3" t="n">
-        <v>1981</v>
+        <v>1050</v>
       </c>
       <c r="J161" s="3" t="n">
-        <v>65313</v>
+        <v>53116</v>
       </c>
       <c r="K161" s="3" t="inlineStr"/>
       <c r="L161" s="3" t="n">
-        <v>12437</v>
+        <v>12093</v>
       </c>
       <c r="M161" s="3" t="n">
-        <v>15955</v>
+        <v>8153</v>
       </c>
       <c r="N161" s="3" t="n">
-        <v>10790</v>
+        <v>10332</v>
       </c>
       <c r="O161" s="3" t="n">
-        <v>9095</v>
+        <v>14322</v>
       </c>
       <c r="P161" s="3" t="n">
-        <v>13768</v>
+        <v>5558</v>
       </c>
     </row>
     <row r="162">
@@ -8861,37 +8861,37 @@
       <c r="D162" s="3" t="inlineStr"/>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:59</t>
+          <t>2024-09-16 17:51</t>
         </is>
       </c>
       <c r="F162" s="3" t="inlineStr"/>
       <c r="G162" s="3" t="n">
-        <v>86645</v>
+        <v>88240</v>
       </c>
       <c r="H162" s="3" t="n">
-        <v>59383</v>
+        <v>76036</v>
       </c>
       <c r="I162" s="3" t="n">
-        <v>1149</v>
+        <v>893</v>
       </c>
       <c r="J162" s="3" t="n">
-        <v>58234</v>
+        <v>75143</v>
       </c>
       <c r="K162" s="3" t="inlineStr"/>
       <c r="L162" s="3" t="n">
-        <v>13715</v>
+        <v>17672</v>
       </c>
       <c r="M162" s="3" t="n">
-        <v>20409</v>
+        <v>15042</v>
       </c>
       <c r="N162" s="3" t="n">
-        <v>10108</v>
+        <v>13014</v>
       </c>
       <c r="O162" s="3" t="n">
-        <v>7367</v>
+        <v>19564</v>
       </c>
       <c r="P162" s="3" t="n">
-        <v>3721</v>
+        <v>6091</v>
       </c>
     </row>
     <row r="163">
@@ -8913,37 +8913,37 @@
       <c r="D163" s="3" t="inlineStr"/>
       <c r="E163" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:56</t>
+          <t>2024-09-16 08:26</t>
         </is>
       </c>
       <c r="F163" s="3" t="inlineStr"/>
       <c r="G163" s="3" t="n">
-        <v>71208</v>
+        <v>70137</v>
       </c>
       <c r="H163" s="3" t="n">
-        <v>58993</v>
+        <v>42636</v>
       </c>
       <c r="I163" s="3" t="n">
-        <v>631</v>
+        <v>448</v>
       </c>
       <c r="J163" s="3" t="n">
-        <v>58362</v>
+        <v>42188</v>
       </c>
       <c r="K163" s="3" t="inlineStr"/>
       <c r="L163" s="3" t="n">
-        <v>14872</v>
+        <v>6374</v>
       </c>
       <c r="M163" s="3" t="n">
-        <v>8559</v>
+        <v>10498</v>
       </c>
       <c r="N163" s="3" t="n">
-        <v>15224</v>
+        <v>10880</v>
       </c>
       <c r="O163" s="3" t="n">
-        <v>3136</v>
+        <v>2865</v>
       </c>
       <c r="P163" s="3" t="n">
-        <v>13650</v>
+        <v>9459</v>
       </c>
     </row>
     <row r="164">
@@ -8965,37 +8965,37 @@
       <c r="D164" s="3" t="inlineStr"/>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:30</t>
+          <t>2024-09-16 16:14</t>
         </is>
       </c>
       <c r="F164" s="3" t="inlineStr"/>
       <c r="G164" s="3" t="n">
-        <v>87127</v>
+        <v>83839</v>
       </c>
       <c r="H164" s="3" t="n">
-        <v>77062</v>
+        <v>61590</v>
       </c>
       <c r="I164" s="3" t="n">
-        <v>1793</v>
+        <v>1082</v>
       </c>
       <c r="J164" s="3" t="n">
-        <v>75269</v>
+        <v>60508</v>
       </c>
       <c r="K164" s="3" t="inlineStr"/>
       <c r="L164" s="3" t="n">
-        <v>20748</v>
+        <v>11541</v>
       </c>
       <c r="M164" s="3" t="n">
-        <v>20227</v>
+        <v>20977</v>
       </c>
       <c r="N164" s="3" t="n">
-        <v>18913</v>
+        <v>13624</v>
       </c>
       <c r="O164" s="3" t="n">
-        <v>5318</v>
+        <v>5749</v>
       </c>
       <c r="P164" s="3" t="n">
-        <v>6297</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="165">
@@ -9017,37 +9017,37 @@
       <c r="D165" s="3" t="inlineStr"/>
       <c r="E165" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:44</t>
+          <t>2024-09-16 13:18</t>
         </is>
       </c>
       <c r="F165" s="3" t="inlineStr"/>
       <c r="G165" s="3" t="n">
-        <v>116061</v>
+        <v>116948</v>
       </c>
       <c r="H165" s="3" t="n">
-        <v>77873</v>
+        <v>76032</v>
       </c>
       <c r="I165" s="3" t="n">
-        <v>1979</v>
+        <v>1199</v>
       </c>
       <c r="J165" s="3" t="n">
-        <v>75894</v>
+        <v>74833</v>
       </c>
       <c r="K165" s="3" t="inlineStr"/>
       <c r="L165" s="3" t="n">
-        <v>24344</v>
+        <v>16146</v>
       </c>
       <c r="M165" s="3" t="n">
-        <v>18335</v>
+        <v>20304</v>
       </c>
       <c r="N165" s="3" t="n">
-        <v>10136</v>
+        <v>17253</v>
       </c>
       <c r="O165" s="3" t="n">
-        <v>12824</v>
+        <v>10349</v>
       </c>
       <c r="P165" s="3" t="n">
-        <v>6458</v>
+        <v>7038</v>
       </c>
     </row>
     <row r="166">
@@ -9069,37 +9069,37 @@
       <c r="D166" s="3" t="inlineStr"/>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:32</t>
+          <t>2024-09-16 13:39</t>
         </is>
       </c>
       <c r="F166" s="3" t="inlineStr"/>
       <c r="G166" s="3" t="n">
-        <v>157601</v>
+        <v>171122</v>
       </c>
       <c r="H166" s="3" t="n">
-        <v>137553</v>
+        <v>153251</v>
       </c>
       <c r="I166" s="3" t="n">
-        <v>3602</v>
+        <v>4344</v>
       </c>
       <c r="J166" s="3" t="n">
-        <v>133951</v>
+        <v>148907</v>
       </c>
       <c r="K166" s="3" t="inlineStr"/>
       <c r="L166" s="3" t="n">
-        <v>30552</v>
+        <v>28576</v>
       </c>
       <c r="M166" s="3" t="n">
-        <v>37896</v>
+        <v>46852</v>
       </c>
       <c r="N166" s="3" t="n">
-        <v>32416</v>
+        <v>25765</v>
       </c>
       <c r="O166" s="3" t="n">
-        <v>19907</v>
+        <v>26953</v>
       </c>
       <c r="P166" s="3" t="n">
-        <v>6479</v>
+        <v>13314</v>
       </c>
     </row>
     <row r="167">
@@ -9121,37 +9121,37 @@
       <c r="D167" s="3" t="inlineStr"/>
       <c r="E167" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:06</t>
+          <t>2024-09-16 15:11</t>
         </is>
       </c>
       <c r="F167" s="3" t="inlineStr"/>
       <c r="G167" s="3" t="n">
-        <v>106517</v>
+        <v>102476</v>
       </c>
       <c r="H167" s="3" t="n">
-        <v>76697</v>
+        <v>90912</v>
       </c>
       <c r="I167" s="3" t="n">
-        <v>1969</v>
+        <v>2708</v>
       </c>
       <c r="J167" s="3" t="n">
-        <v>74728</v>
+        <v>88204</v>
       </c>
       <c r="K167" s="3" t="inlineStr"/>
       <c r="L167" s="3" t="n">
-        <v>16043</v>
+        <v>28797</v>
       </c>
       <c r="M167" s="3" t="n">
-        <v>25572</v>
+        <v>13178</v>
       </c>
       <c r="N167" s="3" t="n">
-        <v>22616</v>
+        <v>13728</v>
       </c>
       <c r="O167" s="3" t="n">
-        <v>3085</v>
+        <v>14686</v>
       </c>
       <c r="P167" s="3" t="n">
-        <v>3673</v>
+        <v>13401</v>
       </c>
     </row>
     <row r="168">
@@ -9173,37 +9173,37 @@
       <c r="D168" s="3" t="inlineStr"/>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:16</t>
+          <t>2024-09-16 16:44</t>
         </is>
       </c>
       <c r="F168" s="3" t="inlineStr"/>
       <c r="G168" s="3" t="n">
-        <v>128756</v>
+        <v>128760</v>
       </c>
       <c r="H168" s="3" t="n">
-        <v>90212</v>
+        <v>82810</v>
       </c>
       <c r="I168" s="3" t="n">
-        <v>2280</v>
+        <v>1803</v>
       </c>
       <c r="J168" s="3" t="n">
-        <v>87932</v>
+        <v>81007</v>
       </c>
       <c r="K168" s="3" t="inlineStr"/>
       <c r="L168" s="3" t="n">
-        <v>12221</v>
+        <v>18094</v>
       </c>
       <c r="M168" s="3" t="n">
-        <v>19783</v>
+        <v>17024</v>
       </c>
       <c r="N168" s="3" t="n">
-        <v>27082</v>
+        <v>17312</v>
       </c>
       <c r="O168" s="3" t="n">
-        <v>21542</v>
+        <v>19671</v>
       </c>
       <c r="P168" s="3" t="n">
-        <v>2905</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="169">
@@ -9225,37 +9225,37 @@
       <c r="D169" s="3" t="inlineStr"/>
       <c r="E169" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:29</t>
+          <t>2024-09-16 16:10</t>
         </is>
       </c>
       <c r="F169" s="3" t="inlineStr"/>
       <c r="G169" s="3" t="n">
-        <v>91486</v>
+        <v>89937</v>
       </c>
       <c r="H169" s="3" t="n">
-        <v>73234</v>
+        <v>58643</v>
       </c>
       <c r="I169" s="3" t="n">
-        <v>1462</v>
+        <v>1409</v>
       </c>
       <c r="J169" s="3" t="n">
-        <v>71772</v>
+        <v>57234</v>
       </c>
       <c r="K169" s="3" t="inlineStr"/>
       <c r="L169" s="3" t="n">
-        <v>17306</v>
+        <v>15916</v>
       </c>
       <c r="M169" s="3" t="n">
-        <v>18249</v>
+        <v>15911</v>
       </c>
       <c r="N169" s="3" t="n">
-        <v>17293</v>
+        <v>8053</v>
       </c>
       <c r="O169" s="3" t="n">
-        <v>5406</v>
+        <v>8308</v>
       </c>
       <c r="P169" s="3" t="n">
-        <v>9926</v>
+        <v>6182</v>
       </c>
     </row>
     <row r="170">
@@ -9277,37 +9277,37 @@
       <c r="D170" s="3" t="inlineStr"/>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:14</t>
+          <t>2024-09-16 18:50</t>
         </is>
       </c>
       <c r="F170" s="3" t="inlineStr"/>
       <c r="G170" s="3" t="n">
-        <v>119943</v>
+        <v>114208</v>
       </c>
       <c r="H170" s="3" t="n">
-        <v>73387</v>
+        <v>84265</v>
       </c>
       <c r="I170" s="3" t="n">
-        <v>822</v>
+        <v>1222</v>
       </c>
       <c r="J170" s="3" t="n">
-        <v>72565</v>
+        <v>83043</v>
       </c>
       <c r="K170" s="3" t="inlineStr"/>
       <c r="L170" s="3" t="n">
-        <v>21546</v>
+        <v>24927</v>
       </c>
       <c r="M170" s="3" t="n">
-        <v>19426</v>
+        <v>21366</v>
       </c>
       <c r="N170" s="3" t="n">
-        <v>10438</v>
+        <v>10852</v>
       </c>
       <c r="O170" s="3" t="n">
-        <v>4000</v>
+        <v>11558</v>
       </c>
       <c r="P170" s="3" t="n">
-        <v>13523</v>
+        <v>10185</v>
       </c>
     </row>
     <row r="171">
@@ -9329,37 +9329,37 @@
       <c r="D171" s="3" t="inlineStr"/>
       <c r="E171" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:03</t>
+          <t>2024-09-16 15:05</t>
         </is>
       </c>
       <c r="F171" s="3" t="inlineStr"/>
       <c r="G171" s="3" t="n">
-        <v>108855</v>
+        <v>114260</v>
       </c>
       <c r="H171" s="3" t="n">
-        <v>86771</v>
+        <v>89426</v>
       </c>
       <c r="I171" s="3" t="n">
-        <v>1608</v>
+        <v>2375</v>
       </c>
       <c r="J171" s="3" t="n">
-        <v>85163</v>
+        <v>87051</v>
       </c>
       <c r="K171" s="3" t="inlineStr"/>
       <c r="L171" s="3" t="n">
-        <v>16126</v>
+        <v>19281</v>
       </c>
       <c r="M171" s="3" t="n">
-        <v>13053</v>
+        <v>23080</v>
       </c>
       <c r="N171" s="3" t="n">
-        <v>23144</v>
+        <v>17603</v>
       </c>
       <c r="O171" s="3" t="n">
-        <v>16253</v>
+        <v>13573</v>
       </c>
       <c r="P171" s="3" t="n">
-        <v>12327</v>
+        <v>9159</v>
       </c>
     </row>
     <row r="172">
@@ -9381,37 +9381,37 @@
       <c r="D172" s="3" t="inlineStr"/>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:08</t>
+          <t>2024-09-16 09:09</t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr"/>
       <c r="G172" s="3" t="n">
-        <v>105635</v>
+        <v>102147</v>
       </c>
       <c r="H172" s="3" t="n">
-        <v>78747</v>
+        <v>71814</v>
       </c>
       <c r="I172" s="3" t="n">
-        <v>1028</v>
+        <v>1963</v>
       </c>
       <c r="J172" s="3" t="n">
-        <v>77719</v>
+        <v>69851</v>
       </c>
       <c r="K172" s="3" t="inlineStr"/>
       <c r="L172" s="3" t="n">
-        <v>20452</v>
+        <v>23431</v>
       </c>
       <c r="M172" s="3" t="n">
-        <v>20793</v>
+        <v>10575</v>
       </c>
       <c r="N172" s="3" t="n">
-        <v>9124</v>
+        <v>22655</v>
       </c>
       <c r="O172" s="3" t="n">
-        <v>21419</v>
+        <v>5635</v>
       </c>
       <c r="P172" s="3" t="n">
-        <v>2042</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="173">
@@ -9433,37 +9433,37 @@
       <c r="D173" s="3" t="inlineStr"/>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:03</t>
+          <t>2024-09-16 08:44</t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr"/>
       <c r="G173" s="3" t="n">
-        <v>72581</v>
+        <v>69308</v>
       </c>
       <c r="H173" s="3" t="n">
-        <v>52869</v>
+        <v>61116</v>
       </c>
       <c r="I173" s="3" t="n">
-        <v>1086</v>
+        <v>1150</v>
       </c>
       <c r="J173" s="3" t="n">
-        <v>51783</v>
+        <v>59966</v>
       </c>
       <c r="K173" s="3" t="inlineStr"/>
       <c r="L173" s="3" t="n">
-        <v>11987</v>
+        <v>10159</v>
       </c>
       <c r="M173" s="3" t="n">
-        <v>10615</v>
+        <v>14454</v>
       </c>
       <c r="N173" s="3" t="n">
-        <v>11729</v>
+        <v>12237</v>
       </c>
       <c r="O173" s="3" t="n">
-        <v>5944</v>
+        <v>14455</v>
       </c>
       <c r="P173" s="3" t="n">
-        <v>8916</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="174">
@@ -9485,37 +9485,37 @@
       <c r="D174" s="3" t="inlineStr"/>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:32</t>
+          <t>2024-09-16 11:50</t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr"/>
       <c r="G174" s="3" t="n">
-        <v>153720</v>
+        <v>160584</v>
       </c>
       <c r="H174" s="3" t="n">
-        <v>135103</v>
+        <v>135809</v>
       </c>
       <c r="I174" s="3" t="n">
-        <v>2685</v>
+        <v>3550</v>
       </c>
       <c r="J174" s="3" t="n">
-        <v>132418</v>
+        <v>132259</v>
       </c>
       <c r="K174" s="3" t="inlineStr"/>
       <c r="L174" s="3" t="n">
-        <v>30973</v>
+        <v>27098</v>
       </c>
       <c r="M174" s="3" t="n">
-        <v>32460</v>
+        <v>24291</v>
       </c>
       <c r="N174" s="3" t="n">
-        <v>32497</v>
+        <v>32764</v>
       </c>
       <c r="O174" s="3" t="n">
-        <v>20108</v>
+        <v>23744</v>
       </c>
       <c r="P174" s="3" t="n">
-        <v>9757</v>
+        <v>17747</v>
       </c>
     </row>
     <row r="175">
@@ -9537,37 +9537,37 @@
       <c r="D175" s="3" t="inlineStr"/>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:50</t>
+          <t>2024-09-16 13:43</t>
         </is>
       </c>
       <c r="F175" s="3" t="inlineStr"/>
       <c r="G175" s="3" t="n">
-        <v>93210</v>
+        <v>89054</v>
       </c>
       <c r="H175" s="3" t="n">
-        <v>73930</v>
+        <v>55533</v>
       </c>
       <c r="I175" s="3" t="n">
-        <v>1925</v>
+        <v>1305</v>
       </c>
       <c r="J175" s="3" t="n">
-        <v>72005</v>
+        <v>54228</v>
       </c>
       <c r="K175" s="3" t="inlineStr"/>
       <c r="L175" s="3" t="n">
-        <v>15863</v>
+        <v>14610</v>
       </c>
       <c r="M175" s="3" t="n">
-        <v>20207</v>
+        <v>14078</v>
       </c>
       <c r="N175" s="3" t="n">
-        <v>6847</v>
+        <v>15928</v>
       </c>
       <c r="O175" s="3" t="n">
-        <v>9945</v>
+        <v>3385</v>
       </c>
       <c r="P175" s="3" t="n">
-        <v>15541</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="176">
@@ -9589,37 +9589,37 @@
       <c r="D176" s="3" t="inlineStr"/>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 20:09</t>
+          <t>2024-09-16 13:56</t>
         </is>
       </c>
       <c r="F176" s="3" t="inlineStr"/>
       <c r="G176" s="3" t="n">
-        <v>69125</v>
+        <v>71501</v>
       </c>
       <c r="H176" s="3" t="n">
-        <v>54781</v>
+        <v>60496</v>
       </c>
       <c r="I176" s="3" t="n">
-        <v>1054</v>
+        <v>1510</v>
       </c>
       <c r="J176" s="3" t="n">
-        <v>53727</v>
+        <v>58986</v>
       </c>
       <c r="K176" s="3" t="inlineStr"/>
       <c r="L176" s="3" t="n">
-        <v>12157</v>
+        <v>17195</v>
       </c>
       <c r="M176" s="3" t="n">
-        <v>12196</v>
+        <v>17318</v>
       </c>
       <c r="N176" s="3" t="n">
-        <v>11831</v>
+        <v>7267</v>
       </c>
       <c r="O176" s="3" t="n">
-        <v>3583</v>
+        <v>10038</v>
       </c>
       <c r="P176" s="3" t="n">
-        <v>11271</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="177">
@@ -9641,37 +9641,37 @@
       <c r="D177" s="3" t="inlineStr"/>
       <c r="E177" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:56</t>
+          <t>2024-09-16 11:36</t>
         </is>
       </c>
       <c r="F177" s="3" t="inlineStr"/>
       <c r="G177" s="3" t="n">
-        <v>70222</v>
+        <v>75267</v>
       </c>
       <c r="H177" s="3" t="n">
-        <v>45757</v>
+        <v>54546</v>
       </c>
       <c r="I177" s="3" t="n">
-        <v>725</v>
+        <v>931</v>
       </c>
       <c r="J177" s="3" t="n">
-        <v>45032</v>
+        <v>53615</v>
       </c>
       <c r="K177" s="3" t="inlineStr"/>
       <c r="L177" s="3" t="n">
-        <v>7013</v>
+        <v>7380</v>
       </c>
       <c r="M177" s="3" t="n">
-        <v>10920</v>
+        <v>6425</v>
       </c>
       <c r="N177" s="3" t="n">
-        <v>10129</v>
+        <v>13418</v>
       </c>
       <c r="O177" s="3" t="n">
-        <v>7519</v>
+        <v>11897</v>
       </c>
       <c r="P177" s="3" t="n">
-        <v>7197</v>
+        <v>11811</v>
       </c>
     </row>
     <row r="178">
@@ -9693,37 +9693,37 @@
       <c r="D178" s="3" t="inlineStr"/>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:30</t>
+          <t>2024-09-16 17:05</t>
         </is>
       </c>
       <c r="F178" s="3" t="inlineStr"/>
       <c r="G178" s="3" t="n">
-        <v>64263</v>
+        <v>65624</v>
       </c>
       <c r="H178" s="3" t="n">
-        <v>52884</v>
+        <v>42301</v>
       </c>
       <c r="I178" s="3" t="n">
-        <v>1258</v>
+        <v>1234</v>
       </c>
       <c r="J178" s="3" t="n">
-        <v>51626</v>
+        <v>41067</v>
       </c>
       <c r="K178" s="3" t="inlineStr"/>
       <c r="L178" s="3" t="n">
-        <v>19466</v>
+        <v>10584</v>
       </c>
       <c r="M178" s="3" t="n">
-        <v>11675</v>
+        <v>9268</v>
       </c>
       <c r="N178" s="3" t="n">
-        <v>9299</v>
+        <v>14657</v>
       </c>
       <c r="O178" s="3" t="n">
-        <v>6092</v>
+        <v>2966</v>
       </c>
       <c r="P178" s="3" t="n">
-        <v>2512</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="179">
@@ -9745,37 +9745,37 @@
       <c r="D179" s="3" t="inlineStr"/>
       <c r="E179" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:33</t>
+          <t>2024-09-16 11:52</t>
         </is>
       </c>
       <c r="F179" s="3" t="inlineStr"/>
       <c r="G179" s="3" t="n">
-        <v>97172</v>
+        <v>98538</v>
       </c>
       <c r="H179" s="3" t="n">
-        <v>64592</v>
+        <v>78403</v>
       </c>
       <c r="I179" s="3" t="n">
-        <v>1879</v>
+        <v>2154</v>
       </c>
       <c r="J179" s="3" t="n">
-        <v>62713</v>
+        <v>76249</v>
       </c>
       <c r="K179" s="3" t="inlineStr"/>
       <c r="L179" s="3" t="n">
-        <v>24284</v>
+        <v>16804</v>
       </c>
       <c r="M179" s="3" t="n">
-        <v>21927</v>
+        <v>23739</v>
       </c>
       <c r="N179" s="3" t="n">
-        <v>7458</v>
+        <v>12307</v>
       </c>
       <c r="O179" s="3" t="n">
-        <v>3176</v>
+        <v>3124</v>
       </c>
       <c r="P179" s="3" t="n">
-        <v>2730</v>
+        <v>16459</v>
       </c>
     </row>
     <row r="180">
@@ -9797,37 +9797,37 @@
       <c r="D180" s="3" t="inlineStr"/>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:09</t>
+          <t>2024-09-16 15:27</t>
         </is>
       </c>
       <c r="F180" s="3" t="inlineStr"/>
       <c r="G180" s="3" t="n">
-        <v>51197</v>
+        <v>56211</v>
       </c>
       <c r="H180" s="3" t="n">
-        <v>44059</v>
+        <v>47752</v>
       </c>
       <c r="I180" s="3" t="n">
-        <v>514</v>
+        <v>1128</v>
       </c>
       <c r="J180" s="3" t="n">
-        <v>43545</v>
+        <v>46624</v>
       </c>
       <c r="K180" s="3" t="inlineStr"/>
       <c r="L180" s="3" t="n">
-        <v>8806</v>
+        <v>8146</v>
       </c>
       <c r="M180" s="3" t="n">
-        <v>10281</v>
+        <v>13091</v>
       </c>
       <c r="N180" s="3" t="n">
-        <v>13446</v>
+        <v>12940</v>
       </c>
       <c r="O180" s="3" t="n">
-        <v>4166</v>
+        <v>8263</v>
       </c>
       <c r="P180" s="3" t="n">
-        <v>4666</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="181">
@@ -9849,37 +9849,37 @@
       <c r="D181" s="3" t="inlineStr"/>
       <c r="E181" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:42</t>
+          <t>2024-09-16 10:41</t>
         </is>
       </c>
       <c r="F181" s="3" t="inlineStr"/>
       <c r="G181" s="3" t="n">
-        <v>76802</v>
+        <v>76607</v>
       </c>
       <c r="H181" s="3" t="n">
-        <v>47505</v>
+        <v>47571</v>
       </c>
       <c r="I181" s="3" t="n">
-        <v>1336</v>
+        <v>1191</v>
       </c>
       <c r="J181" s="3" t="n">
-        <v>46169</v>
+        <v>46380</v>
       </c>
       <c r="K181" s="3" t="inlineStr"/>
       <c r="L181" s="3" t="n">
-        <v>10660</v>
+        <v>11015</v>
       </c>
       <c r="M181" s="3" t="n">
-        <v>10398</v>
+        <v>11142</v>
       </c>
       <c r="N181" s="3" t="n">
-        <v>10880</v>
+        <v>7813</v>
       </c>
       <c r="O181" s="3" t="n">
-        <v>7751</v>
+        <v>7628</v>
       </c>
       <c r="P181" s="3" t="n">
-        <v>4169</v>
+        <v>6461</v>
       </c>
     </row>
     <row r="182">
@@ -9901,37 +9901,37 @@
       <c r="D182" s="3" t="inlineStr"/>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:10</t>
+          <t>2024-09-16 12:46</t>
         </is>
       </c>
       <c r="F182" s="3" t="inlineStr"/>
       <c r="G182" s="3" t="n">
-        <v>78883</v>
+        <v>76357</v>
       </c>
       <c r="H182" s="3" t="n">
-        <v>47426</v>
+        <v>46272</v>
       </c>
       <c r="I182" s="3" t="n">
-        <v>1025</v>
+        <v>550</v>
       </c>
       <c r="J182" s="3" t="n">
-        <v>46401</v>
+        <v>45722</v>
       </c>
       <c r="K182" s="3" t="inlineStr"/>
       <c r="L182" s="3" t="n">
-        <v>6766</v>
+        <v>10101</v>
       </c>
       <c r="M182" s="3" t="n">
-        <v>10016</v>
+        <v>7773</v>
       </c>
       <c r="N182" s="3" t="n">
-        <v>10120</v>
+        <v>10528</v>
       </c>
       <c r="O182" s="3" t="n">
-        <v>9449</v>
+        <v>8726</v>
       </c>
       <c r="P182" s="3" t="n">
-        <v>7728</v>
+        <v>6306</v>
       </c>
     </row>
     <row r="183">
@@ -9953,37 +9953,37 @@
       <c r="D183" s="3" t="inlineStr"/>
       <c r="E183" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:43</t>
+          <t>2024-09-16 14:04</t>
         </is>
       </c>
       <c r="F183" s="3" t="inlineStr"/>
       <c r="G183" s="3" t="n">
-        <v>71639</v>
+        <v>69856</v>
       </c>
       <c r="H183" s="3" t="n">
-        <v>47276</v>
+        <v>42319</v>
       </c>
       <c r="I183" s="3" t="n">
-        <v>1395</v>
+        <v>683</v>
       </c>
       <c r="J183" s="3" t="n">
-        <v>45881</v>
+        <v>41636</v>
       </c>
       <c r="K183" s="3" t="inlineStr"/>
       <c r="L183" s="3" t="n">
-        <v>14555</v>
+        <v>9410</v>
       </c>
       <c r="M183" s="3" t="n">
-        <v>7984</v>
+        <v>8026</v>
       </c>
       <c r="N183" s="3" t="n">
-        <v>9060</v>
+        <v>13047</v>
       </c>
       <c r="O183" s="3" t="n">
-        <v>9306</v>
+        <v>6859</v>
       </c>
       <c r="P183" s="3" t="n">
-        <v>2679</v>
+        <v>2209</v>
       </c>
     </row>
   </sheetData>

--- a/data/prespollsl2024.xlsx
+++ b/data/prespollsl2024.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>CPSL</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
@@ -541,37 +541,37 @@
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:53</t>
+          <t>2024-09-16 08:53</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="n">
-        <v>38594</v>
+        <v>37314</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>28706</v>
+        <v>23725</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>343</v>
+        <v>580</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>28363</v>
+        <v>23145</v>
       </c>
       <c r="K2" s="3" t="inlineStr"/>
       <c r="L2" s="3" t="n">
-        <v>9450</v>
+        <v>6741</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>9477</v>
+        <v>3222</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>3389</v>
+        <v>6362</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>4253</v>
+        <v>1618</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>375</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="3">
@@ -593,37 +593,37 @@
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:24</t>
+          <t>2024-09-16 17:00</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="n">
-        <v>59314</v>
+        <v>55849</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>40871</v>
+        <v>45042</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>711</v>
+        <v>549</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>40160</v>
+        <v>44493</v>
       </c>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="n">
-        <v>8212</v>
+        <v>11766</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>8918</v>
+        <v>7900</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>12340</v>
+        <v>8741</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>3614</v>
+        <v>6241</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>5065</v>
+        <v>7617</v>
       </c>
     </row>
     <row r="4">
@@ -645,37 +645,37 @@
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:33</t>
+          <t>2024-09-16 09:34</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="n">
-        <v>38763</v>
+        <v>40501</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>26424</v>
+        <v>25538</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>402</v>
+        <v>547</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>26022</v>
+        <v>24991</v>
       </c>
       <c r="K4" s="3" t="inlineStr"/>
       <c r="L4" s="3" t="n">
-        <v>7195</v>
+        <v>8523</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>7218</v>
+        <v>4930</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>6387</v>
+        <v>2995</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>990</v>
+        <v>2622</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>2928</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="5">
@@ -697,37 +697,37 @@
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:47</t>
+          <t>2024-09-16 17:35</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="n">
-        <v>54106</v>
+        <v>59328</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>42170</v>
+        <v>45576</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>1052</v>
+        <v>1217</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>41118</v>
+        <v>44359</v>
       </c>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="n">
-        <v>11011</v>
+        <v>14485</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>5264</v>
+        <v>8047</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>12868</v>
+        <v>6765</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>5121</v>
+        <v>5741</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>4796</v>
+        <v>7101</v>
       </c>
     </row>
     <row r="6">
@@ -749,37 +749,37 @@
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:20</t>
+          <t>2024-09-16 12:13</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="n">
-        <v>23995</v>
+        <v>23015</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>19608</v>
+        <v>18690</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>19315</v>
+        <v>18403</v>
       </c>
       <c r="K6" s="3" t="inlineStr"/>
       <c r="L6" s="3" t="n">
-        <v>4455</v>
+        <v>3091</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>4825</v>
+        <v>4373</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>4319</v>
+        <v>5608</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>3239</v>
+        <v>927</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>1510</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="7">
@@ -801,37 +801,37 @@
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:56</t>
+          <t>2024-09-16 18:39</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="n">
-        <v>20309</v>
+        <v>20507</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>14759</v>
+        <v>18102</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>355</v>
+        <v>263</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>14404</v>
+        <v>17839</v>
       </c>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="n">
-        <v>4393</v>
+        <v>4994</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>2299</v>
+        <v>4762</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>3967</v>
+        <v>3157</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>1740</v>
+        <v>1887</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>1281</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="8">
@@ -853,37 +853,37 @@
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:50</t>
+          <t>2024-09-16 17:24</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="n">
-        <v>43697</v>
+        <v>41701</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>27291</v>
+        <v>35965</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>594</v>
+        <v>1028</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>26697</v>
+        <v>34937</v>
       </c>
       <c r="K8" s="3" t="inlineStr"/>
       <c r="L8" s="3" t="n">
-        <v>6055</v>
+        <v>6193</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>6278</v>
+        <v>9754</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>7075</v>
+        <v>11660</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>2647</v>
+        <v>2168</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>3305</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="9">
@@ -905,37 +905,37 @@
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:48</t>
+          <t>2024-09-16 09:54</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="n">
-        <v>29469</v>
+        <v>30333</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>24509</v>
+        <v>23499</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>700</v>
+        <v>335</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>23809</v>
+        <v>23164</v>
       </c>
       <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="n">
-        <v>7093</v>
+        <v>5782</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>3588</v>
+        <v>7337</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>2539</v>
+        <v>6923</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>4933</v>
+        <v>1072</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>4464</v>
+        <v>889</v>
       </c>
     </row>
     <row r="10">
@@ -957,37 +957,37 @@
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:21</t>
+          <t>2024-09-16 19:57</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="n">
-        <v>20762</v>
+        <v>20560</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>15072</v>
+        <v>17422</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>14702</v>
+        <v>17128</v>
       </c>
       <c r="K10" s="3" t="inlineStr"/>
       <c r="L10" s="3" t="n">
-        <v>4692</v>
+        <v>3291</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>3180</v>
+        <v>3361</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>3676</v>
+        <v>3435</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>862</v>
+        <v>2226</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>1555</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="11">
@@ -1009,37 +1009,37 @@
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:52</t>
+          <t>2024-09-16 10:55</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="n">
-        <v>24897</v>
+        <v>25857</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>16703</v>
+        <v>23260</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>349</v>
+        <v>482</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>16354</v>
+        <v>22778</v>
       </c>
       <c r="K11" s="3" t="inlineStr"/>
       <c r="L11" s="3" t="n">
-        <v>3209</v>
+        <v>4173</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>2862</v>
+        <v>6903</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>5983</v>
+        <v>4459</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>1672</v>
+        <v>4266</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>1807</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="12">
@@ -1061,37 +1061,37 @@
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:53</t>
+          <t>2024-09-16 19:18</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="n">
-        <v>13861</v>
+        <v>13537</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>8915</v>
+        <v>11901</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>137</v>
+        <v>313</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>8778</v>
+        <v>11588</v>
       </c>
       <c r="K12" s="3" t="inlineStr"/>
       <c r="L12" s="3" t="n">
-        <v>2010</v>
+        <v>2854</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>1995</v>
+        <v>3239</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>1394</v>
+        <v>1158</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>2213</v>
+        <v>1395</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>724</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="13">
@@ -1113,37 +1113,37 @@
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:18</t>
+          <t>2024-09-16 17:07</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="n">
-        <v>13936</v>
+        <v>13699</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>8508</v>
+        <v>11003</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>8278</v>
+        <v>10682</v>
       </c>
       <c r="K13" s="3" t="inlineStr"/>
       <c r="L13" s="3" t="n">
-        <v>1496</v>
+        <v>2297</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>2630</v>
+        <v>2207</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>1560</v>
+        <v>2317</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>337</v>
+        <v>1591</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>1838</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="14">
@@ -1165,37 +1165,37 @@
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:44</t>
+          <t>2024-09-16 18:47</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="n">
-        <v>29687</v>
+        <v>28735</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>22054</v>
+        <v>20904</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>21821</v>
+        <v>20598</v>
       </c>
       <c r="K14" s="3" t="inlineStr"/>
       <c r="L14" s="3" t="n">
-        <v>3908</v>
+        <v>7549</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>2884</v>
+        <v>5054</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>5642</v>
+        <v>4043</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>4086</v>
+        <v>2260</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>4208</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15">
@@ -1217,37 +1217,37 @@
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:15</t>
+          <t>2024-09-16 16:16</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="n">
-        <v>15902</v>
+        <v>16536</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>12520</v>
+        <v>10469</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>12298</v>
+        <v>10236</v>
       </c>
       <c r="K15" s="3" t="inlineStr"/>
       <c r="L15" s="3" t="n">
-        <v>1628</v>
+        <v>2404</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>3489</v>
+        <v>1787</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>2673</v>
+        <v>1544</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>1502</v>
+        <v>1951</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>2388</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:44</t>
+          <t>2024-09-16 17:52</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="n">
-        <v>78139</v>
+        <v>79114</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>58309</v>
+        <v>57755</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>1281</v>
+        <v>789</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>57028</v>
+        <v>56966</v>
       </c>
       <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="n">
-        <v>9221</v>
+        <v>9797</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>16519</v>
+        <v>16024</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v>12916</v>
+        <v>15575</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>6367</v>
+        <v>11871</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>9151</v>
+        <v>848</v>
       </c>
     </row>
     <row r="17">
@@ -1321,37 +1321,37 @@
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:55</t>
+          <t>2024-09-16 09:06</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="n">
-        <v>14428</v>
+        <v>15448</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>11015</v>
+        <v>13017</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>223</v>
+        <v>382</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>10792</v>
+        <v>12635</v>
       </c>
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="n">
-        <v>2521</v>
+        <v>2412</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>2646</v>
+        <v>1839</v>
       </c>
       <c r="N17" s="3" t="n">
-        <v>2280</v>
+        <v>1690</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>1945</v>
+        <v>3915</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>857</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="18">
@@ -1373,37 +1373,37 @@
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 20:04</t>
+          <t>2024-09-16 11:32</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="n">
-        <v>59218</v>
+        <v>61656</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>45502</v>
+        <v>37980</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>583</v>
+        <v>522</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>44919</v>
+        <v>37458</v>
       </c>
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="n">
-        <v>15468</v>
+        <v>6914</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>8647</v>
+        <v>11231</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>9653</v>
+        <v>12495</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>5932</v>
+        <v>1519</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>2970</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="19">
@@ -1425,37 +1425,37 @@
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:56</t>
+          <t>2024-09-16 15:08</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="n">
-        <v>20805</v>
+        <v>19559</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>17906</v>
+        <v>11950</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>229</v>
+        <v>323</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>17677</v>
+        <v>11627</v>
       </c>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="n">
-        <v>4013</v>
+        <v>1801</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>4025</v>
+        <v>2765</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>3349</v>
+        <v>2905</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>2812</v>
+        <v>2496</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>2592</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="20">
@@ -1477,37 +1477,37 @@
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:32</t>
+          <t>2024-09-16 11:02</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="n">
-        <v>46813</v>
+        <v>43890</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>30127</v>
+        <v>28356</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>577</v>
+        <v>379</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>29550</v>
+        <v>27977</v>
       </c>
       <c r="K20" s="3" t="inlineStr"/>
       <c r="L20" s="3" t="n">
-        <v>6607</v>
+        <v>7369</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>7260</v>
+        <v>8842</v>
       </c>
       <c r="N20" s="3" t="n">
-        <v>6106</v>
+        <v>4367</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>4547</v>
+        <v>5018</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>3549</v>
+        <v>979</v>
       </c>
     </row>
     <row r="21">
@@ -1529,37 +1529,37 @@
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:45</t>
+          <t>2024-09-16 18:40</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="n">
-        <v>23500</v>
+        <v>23492</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>16696</v>
+        <v>16888</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>16233</v>
+        <v>16408</v>
       </c>
       <c r="K21" s="3" t="inlineStr"/>
       <c r="L21" s="3" t="n">
-        <v>2858</v>
+        <v>2211</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>3079</v>
+        <v>3303</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>2707</v>
+        <v>5240</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>3816</v>
+        <v>1359</v>
       </c>
       <c r="P21" s="3" t="n">
-        <v>2958</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="22">
@@ -1581,37 +1581,37 @@
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:52</t>
+          <t>2024-09-16 17:32</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="n">
-        <v>34152</v>
+        <v>34532</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>27898</v>
+        <v>29030</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>690</v>
+        <v>440</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>27208</v>
+        <v>28590</v>
       </c>
       <c r="K22" s="3" t="inlineStr"/>
       <c r="L22" s="3" t="n">
-        <v>8865</v>
+        <v>5194</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>4936</v>
+        <v>8001</v>
       </c>
       <c r="N22" s="3" t="n">
-        <v>5356</v>
+        <v>3701</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>3147</v>
+        <v>5833</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>3540</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="23">
@@ -1633,37 +1633,37 @@
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:08</t>
+          <t>2024-09-16 13:59</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="n">
-        <v>36188</v>
+        <v>35561</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>26133</v>
+        <v>29624</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>503</v>
+        <v>750</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>25630</v>
+        <v>28874</v>
       </c>
       <c r="K23" s="3" t="inlineStr"/>
       <c r="L23" s="3" t="n">
-        <v>6119</v>
+        <v>5576</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>7866</v>
+        <v>4864</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>2882</v>
+        <v>6946</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>3018</v>
+        <v>5134</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>4461</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="24">
@@ -1685,37 +1685,37 @@
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:27</t>
+          <t>2024-09-16 13:38</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="n">
-        <v>94443</v>
+        <v>97314</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>82811</v>
+        <v>61552</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>2006</v>
+        <v>1332</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>80805</v>
+        <v>60220</v>
       </c>
       <c r="K24" s="3" t="inlineStr"/>
       <c r="L24" s="3" t="n">
-        <v>21748</v>
+        <v>14242</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>23040</v>
+        <v>12907</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>21356</v>
+        <v>20591</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>5921</v>
+        <v>5152</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>4697</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="25">
@@ -1737,37 +1737,37 @@
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:00</t>
+          <t>2024-09-16 11:58</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="n">
-        <v>129707</v>
+        <v>137325</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>100905</v>
+        <v>107193</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>1140</v>
+        <v>1514</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>99765</v>
+        <v>105679</v>
       </c>
       <c r="K25" s="3" t="inlineStr"/>
       <c r="L25" s="3" t="n">
-        <v>20980</v>
+        <v>30608</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>17664</v>
+        <v>27911</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>21306</v>
+        <v>20789</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>30832</v>
+        <v>18426</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>3992</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="26">
@@ -1789,37 +1789,37 @@
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:01</t>
+          <t>2024-09-16 20:17</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="n">
-        <v>66362</v>
+        <v>63583</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>54229</v>
+        <v>56234</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>715</v>
+        <v>1454</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>53514</v>
+        <v>54780</v>
       </c>
       <c r="K26" s="3" t="inlineStr"/>
       <c r="L26" s="3" t="n">
-        <v>17629</v>
+        <v>13880</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>11466</v>
+        <v>12425</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>12860</v>
+        <v>6957</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>5260</v>
+        <v>8778</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>3620</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="27">
@@ -1841,37 +1841,37 @@
       <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:18</t>
+          <t>2024-09-16 12:36</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="n">
-        <v>68477</v>
+        <v>69104</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>59212</v>
+        <v>45279</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>790</v>
+        <v>1023</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>58422</v>
+        <v>44256</v>
       </c>
       <c r="K27" s="3" t="inlineStr"/>
       <c r="L27" s="3" t="n">
-        <v>15110</v>
+        <v>15193</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>9512</v>
+        <v>7201</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>13184</v>
+        <v>9874</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>11960</v>
+        <v>7610</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>5732</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="28">
@@ -1893,37 +1893,37 @@
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:50</t>
+          <t>2024-09-16 17:03</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="n">
-        <v>41859</v>
+        <v>42963</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>37312</v>
+        <v>36118</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>975</v>
+        <v>941</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>36337</v>
+        <v>35177</v>
       </c>
       <c r="K28" s="3" t="inlineStr"/>
       <c r="L28" s="3" t="n">
-        <v>11305</v>
+        <v>7643</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>9460</v>
+        <v>7092</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>9569</v>
+        <v>6118</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>2343</v>
+        <v>4688</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>1842</v>
+        <v>7875</v>
       </c>
     </row>
     <row r="29">
@@ -1945,37 +1945,37 @@
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:32</t>
+          <t>2024-09-16 15:14</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="n">
-        <v>65847</v>
+        <v>64513</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>51258</v>
+        <v>55243</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>1289</v>
+        <v>790</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>49969</v>
+        <v>54453</v>
       </c>
       <c r="K29" s="3" t="inlineStr"/>
       <c r="L29" s="3" t="n">
-        <v>14300</v>
+        <v>15500</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>7782</v>
+        <v>14553</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>9846</v>
+        <v>13008</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>10196</v>
+        <v>7283</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>5344</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="30">
@@ -1997,37 +1997,37 @@
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:48</t>
+          <t>2024-09-16 10:17</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="n">
-        <v>74385</v>
+        <v>71950</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>46873</v>
+        <v>49726</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>743</v>
+        <v>605</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>46130</v>
+        <v>49121</v>
       </c>
       <c r="K30" s="3" t="inlineStr"/>
       <c r="L30" s="3" t="n">
-        <v>14497</v>
+        <v>15435</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>7995</v>
+        <v>10221</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>12641</v>
+        <v>7368</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>8172</v>
+        <v>11884</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>516</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="31">
@@ -2049,37 +2049,37 @@
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:11</t>
+          <t>2024-09-16 13:56</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="n">
-        <v>142671</v>
+        <v>139932</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>96901</v>
+        <v>88820</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>995</v>
+        <v>2397</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>95906</v>
+        <v>86423</v>
       </c>
       <c r="K31" s="3" t="inlineStr"/>
       <c r="L31" s="3" t="n">
-        <v>23450</v>
+        <v>26294</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>22489</v>
+        <v>15225</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>13254</v>
+        <v>14297</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>23495</v>
+        <v>13307</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>8420</v>
+        <v>12976</v>
       </c>
     </row>
     <row r="32">
@@ -2101,37 +2101,37 @@
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:27</t>
+          <t>2024-09-16 15:22</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="n">
-        <v>81634</v>
+        <v>79558</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>67685</v>
+        <v>68341</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>1820</v>
+        <v>1668</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>65865</v>
+        <v>66673</v>
       </c>
       <c r="K32" s="3" t="inlineStr"/>
       <c r="L32" s="3" t="n">
-        <v>29178</v>
+        <v>12606</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>14793</v>
+        <v>7309</v>
       </c>
       <c r="N32" s="3" t="n">
-        <v>13112</v>
+        <v>19306</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>3955</v>
+        <v>10826</v>
       </c>
       <c r="P32" s="3" t="n">
-        <v>1532</v>
+        <v>13290</v>
       </c>
     </row>
     <row r="33">
@@ -2153,37 +2153,37 @@
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:35</t>
+          <t>2024-09-16 19:49</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="n">
-        <v>202962</v>
+        <v>191182</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>153007</v>
+        <v>145801</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>2684</v>
+        <v>4002</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>150323</v>
+        <v>141799</v>
       </c>
       <c r="K33" s="3" t="inlineStr"/>
       <c r="L33" s="3" t="n">
-        <v>26775</v>
+        <v>33885</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>23665</v>
+        <v>33453</v>
       </c>
       <c r="N33" s="3" t="n">
-        <v>38274</v>
+        <v>33833</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>33669</v>
+        <v>18215</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>20422</v>
+        <v>15320</v>
       </c>
     </row>
     <row r="34">
@@ -2205,37 +2205,37 @@
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:12</t>
+          <t>2024-09-16 20:06</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="n">
-        <v>128206</v>
+        <v>134126</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>79437</v>
+        <v>94198</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>1205</v>
+        <v>2560</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>78232</v>
+        <v>91638</v>
       </c>
       <c r="K34" s="3" t="inlineStr"/>
       <c r="L34" s="3" t="n">
-        <v>15328</v>
+        <v>18854</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>22604</v>
+        <v>22109</v>
       </c>
       <c r="N34" s="3" t="n">
-        <v>25582</v>
+        <v>12280</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>6556</v>
+        <v>17989</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>4247</v>
+        <v>15821</v>
       </c>
     </row>
     <row r="35">
@@ -2257,37 +2257,37 @@
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:34</t>
+          <t>2024-09-16 19:26</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="n">
-        <v>210234</v>
+        <v>197826</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>166314</v>
+        <v>150262</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>1858</v>
+        <v>3567</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>164456</v>
+        <v>146695</v>
       </c>
       <c r="K35" s="3" t="inlineStr"/>
       <c r="L35" s="3" t="n">
-        <v>54960</v>
+        <v>33356</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>30119</v>
+        <v>38244</v>
       </c>
       <c r="N35" s="3" t="n">
-        <v>43940</v>
+        <v>49619</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>7129</v>
+        <v>11660</v>
       </c>
       <c r="P35" s="3" t="n">
-        <v>20083</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="36">
@@ -2309,37 +2309,37 @@
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:05</t>
+          <t>2024-09-16 13:02</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="n">
-        <v>144944</v>
+        <v>149643</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>101029</v>
+        <v>92962</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>1825</v>
+        <v>1164</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>99204</v>
+        <v>91798</v>
       </c>
       <c r="K36" s="3" t="inlineStr"/>
       <c r="L36" s="3" t="n">
-        <v>18632</v>
+        <v>19086</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>26299</v>
+        <v>32708</v>
       </c>
       <c r="N36" s="3" t="n">
-        <v>21327</v>
+        <v>19884</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>19875</v>
+        <v>13619</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>8107</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="37">
@@ -2361,37 +2361,37 @@
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:43</t>
+          <t>2024-09-16 09:59</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="n">
-        <v>180443</v>
+        <v>183622</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>116678</v>
+        <v>111218</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>2591</v>
+        <v>2519</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>114087</v>
+        <v>108699</v>
       </c>
       <c r="K37" s="3" t="inlineStr"/>
       <c r="L37" s="3" t="n">
-        <v>20616</v>
+        <v>21078</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>27260</v>
+        <v>28512</v>
       </c>
       <c r="N37" s="3" t="n">
-        <v>21903</v>
+        <v>23210</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>20506</v>
+        <v>15917</v>
       </c>
       <c r="P37" s="3" t="n">
-        <v>18096</v>
+        <v>14545</v>
       </c>
     </row>
     <row r="38">
@@ -2413,37 +2413,37 @@
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:44</t>
+          <t>2024-09-16 18:08</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="n">
-        <v>131283</v>
+        <v>123456</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>92164</v>
+        <v>76383</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>1519</v>
+        <v>1930</v>
       </c>
       <c r="J38" s="3" t="n">
-        <v>90645</v>
+        <v>74453</v>
       </c>
       <c r="K38" s="3" t="inlineStr"/>
       <c r="L38" s="3" t="n">
-        <v>27020</v>
+        <v>14615</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>21691</v>
+        <v>12705</v>
       </c>
       <c r="N38" s="3" t="n">
-        <v>11717</v>
+        <v>16312</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>16748</v>
+        <v>20150</v>
       </c>
       <c r="P38" s="3" t="n">
-        <v>8934</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="39">
@@ -2465,37 +2465,37 @@
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:15</t>
+          <t>2024-09-16 09:53</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="n">
-        <v>138257</v>
+        <v>137591</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>102033</v>
+        <v>97441</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>1127</v>
+        <v>2266</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>100906</v>
+        <v>95175</v>
       </c>
       <c r="K39" s="3" t="inlineStr"/>
       <c r="L39" s="3" t="n">
-        <v>28360</v>
+        <v>21559</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>26047</v>
+        <v>15551</v>
       </c>
       <c r="N39" s="3" t="n">
-        <v>10383</v>
+        <v>26925</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>10454</v>
+        <v>8274</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>20614</v>
+        <v>18104</v>
       </c>
     </row>
     <row r="40">
@@ -2517,37 +2517,37 @@
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:21</t>
+          <t>2024-09-16 18:53</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="n">
-        <v>117756</v>
+        <v>113703</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>87505</v>
+        <v>69523</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>2037</v>
+        <v>1092</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>85468</v>
+        <v>68431</v>
       </c>
       <c r="K40" s="3" t="inlineStr"/>
       <c r="L40" s="3" t="n">
-        <v>25404</v>
+        <v>19486</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>20941</v>
+        <v>10449</v>
       </c>
       <c r="N40" s="3" t="n">
-        <v>13132</v>
+        <v>26013</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>7858</v>
+        <v>6722</v>
       </c>
       <c r="P40" s="3" t="n">
-        <v>13858</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="41">
@@ -2569,37 +2569,37 @@
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:56</t>
+          <t>2024-09-16 10:33</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="n">
-        <v>169864</v>
+        <v>169658</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>104527</v>
+        <v>136068</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>1220</v>
+        <v>3433</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>103307</v>
+        <v>132635</v>
       </c>
       <c r="K41" s="3" t="inlineStr"/>
       <c r="L41" s="3" t="n">
-        <v>28889</v>
+        <v>25303</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>27937</v>
+        <v>37173</v>
       </c>
       <c r="N41" s="3" t="n">
-        <v>10049</v>
+        <v>45430</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>9555</v>
+        <v>10130</v>
       </c>
       <c r="P41" s="3" t="n">
-        <v>21709</v>
+        <v>7965</v>
       </c>
     </row>
     <row r="42">
@@ -2621,37 +2621,37 @@
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:42</t>
+          <t>2024-09-16 19:21</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="n">
-        <v>114202</v>
+        <v>117607</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>69019</v>
+        <v>93583</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>1863</v>
+        <v>2399</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>67156</v>
+        <v>91184</v>
       </c>
       <c r="K42" s="3" t="inlineStr"/>
       <c r="L42" s="3" t="n">
-        <v>15941</v>
+        <v>31312</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>23670</v>
+        <v>20551</v>
       </c>
       <c r="N42" s="3" t="n">
-        <v>8004</v>
+        <v>11904</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>5953</v>
+        <v>4412</v>
       </c>
       <c r="P42" s="3" t="n">
-        <v>10227</v>
+        <v>18443</v>
       </c>
     </row>
     <row r="43">
@@ -2673,37 +2673,37 @@
       <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:10</t>
+          <t>2024-09-16 09:51</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="n">
-        <v>135329</v>
+        <v>137342</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>84434</v>
+        <v>115037</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>1849</v>
+        <v>2062</v>
       </c>
       <c r="J43" s="3" t="n">
-        <v>82585</v>
+        <v>112975</v>
       </c>
       <c r="K43" s="3" t="inlineStr"/>
       <c r="L43" s="3" t="n">
-        <v>16317</v>
+        <v>22600</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>28178</v>
+        <v>25166</v>
       </c>
       <c r="N43" s="3" t="n">
-        <v>9988</v>
+        <v>22483</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>7078</v>
+        <v>32055</v>
       </c>
       <c r="P43" s="3" t="n">
-        <v>16893</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="44">
@@ -2725,37 +2725,37 @@
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:34</t>
+          <t>2024-09-16 14:24</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="n">
-        <v>145036</v>
+        <v>139853</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>107202</v>
+        <v>104620</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>1765</v>
+        <v>3078</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>105437</v>
+        <v>101542</v>
       </c>
       <c r="K44" s="3" t="inlineStr"/>
       <c r="L44" s="3" t="n">
-        <v>27655</v>
+        <v>25378</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>21381</v>
+        <v>33686</v>
       </c>
       <c r="N44" s="3" t="n">
-        <v>24943</v>
+        <v>12506</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>11329</v>
+        <v>8703</v>
       </c>
       <c r="P44" s="3" t="n">
-        <v>14855</v>
+        <v>16190</v>
       </c>
     </row>
     <row r="45">
@@ -2777,37 +2777,37 @@
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:30</t>
+          <t>2024-09-16 10:38</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="n">
-        <v>144393</v>
+        <v>139241</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>100886</v>
+        <v>89940</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>1519</v>
+        <v>2103</v>
       </c>
       <c r="J45" s="3" t="n">
-        <v>99367</v>
+        <v>87837</v>
       </c>
       <c r="K45" s="3" t="inlineStr"/>
       <c r="L45" s="3" t="n">
-        <v>22077</v>
+        <v>22223</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>12107</v>
+        <v>16702</v>
       </c>
       <c r="N45" s="3" t="n">
-        <v>14458</v>
+        <v>22864</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>26166</v>
+        <v>9422</v>
       </c>
       <c r="P45" s="3" t="n">
-        <v>19588</v>
+        <v>12231</v>
       </c>
     </row>
     <row r="46">
@@ -2829,37 +2829,37 @@
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:55</t>
+          <t>2024-09-16 15:41</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="n">
-        <v>154007</v>
+        <v>166575</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>136551</v>
+        <v>139267</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>1766</v>
+        <v>2228</v>
       </c>
       <c r="J46" s="3" t="n">
-        <v>134785</v>
+        <v>137039</v>
       </c>
       <c r="K46" s="3" t="inlineStr"/>
       <c r="L46" s="3" t="n">
-        <v>35246</v>
+        <v>43456</v>
       </c>
       <c r="M46" s="3" t="n">
-        <v>20101</v>
+        <v>31127</v>
       </c>
       <c r="N46" s="3" t="n">
-        <v>37879</v>
+        <v>30831</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>20533</v>
+        <v>7726</v>
       </c>
       <c r="P46" s="3" t="n">
-        <v>14286</v>
+        <v>17044</v>
       </c>
     </row>
     <row r="47">
@@ -2881,37 +2881,37 @@
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:41</t>
+          <t>2024-09-16 09:19</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="n">
-        <v>167863</v>
+        <v>156291</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>142296</v>
+        <v>109258</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>3798</v>
+        <v>3201</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>138498</v>
+        <v>106057</v>
       </c>
       <c r="K47" s="3" t="inlineStr"/>
       <c r="L47" s="3" t="n">
-        <v>30565</v>
+        <v>34947</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>44673</v>
+        <v>15024</v>
       </c>
       <c r="N47" s="3" t="n">
-        <v>34357</v>
+        <v>25216</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>11186</v>
+        <v>23981</v>
       </c>
       <c r="P47" s="3" t="n">
-        <v>10790</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="48">
@@ -2933,37 +2933,37 @@
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:42</t>
+          <t>2024-09-16 11:12</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="n">
-        <v>165666</v>
+        <v>165709</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>134436</v>
+        <v>107871</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>4021</v>
+        <v>1940</v>
       </c>
       <c r="J48" s="3" t="n">
-        <v>130415</v>
+        <v>105931</v>
       </c>
       <c r="K48" s="3" t="inlineStr"/>
       <c r="L48" s="3" t="n">
-        <v>40416</v>
+        <v>28372</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>16905</v>
+        <v>23550</v>
       </c>
       <c r="N48" s="3" t="n">
-        <v>24914</v>
+        <v>24797</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>27390</v>
+        <v>17171</v>
       </c>
       <c r="P48" s="3" t="n">
-        <v>14266</v>
+        <v>6742</v>
       </c>
     </row>
     <row r="49">
@@ -2985,37 +2985,37 @@
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:51</t>
+          <t>2024-09-16 09:35</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="n">
-        <v>125400</v>
+        <v>126098</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>87045</v>
+        <v>85730</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>1244</v>
+        <v>1251</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>85801</v>
+        <v>84479</v>
       </c>
       <c r="K49" s="3" t="inlineStr"/>
       <c r="L49" s="3" t="n">
-        <v>24015</v>
+        <v>15615</v>
       </c>
       <c r="M49" s="3" t="n">
-        <v>28156</v>
+        <v>24760</v>
       </c>
       <c r="N49" s="3" t="n">
-        <v>15784</v>
+        <v>16348</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>8885</v>
+        <v>12323</v>
       </c>
       <c r="P49" s="3" t="n">
-        <v>4668</v>
+        <v>11206</v>
       </c>
     </row>
     <row r="50">
@@ -3037,37 +3037,37 @@
       <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:19</t>
+          <t>2024-09-16 18:08</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="n">
-        <v>134253</v>
+        <v>138082</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>105762</v>
+        <v>111239</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>1332</v>
+        <v>1411</v>
       </c>
       <c r="J50" s="3" t="n">
-        <v>104430</v>
+        <v>109828</v>
       </c>
       <c r="K50" s="3" t="inlineStr"/>
       <c r="L50" s="3" t="n">
-        <v>29529</v>
+        <v>28542</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>29532</v>
+        <v>26347</v>
       </c>
       <c r="N50" s="3" t="n">
-        <v>25444</v>
+        <v>25224</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>3857</v>
+        <v>17665</v>
       </c>
       <c r="P50" s="3" t="n">
-        <v>10844</v>
+        <v>6555</v>
       </c>
     </row>
     <row r="51">
@@ -3089,37 +3089,37 @@
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:17</t>
+          <t>2024-09-16 20:19</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr"/>
       <c r="G51" s="3" t="n">
-        <v>103086</v>
+        <v>101718</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>73771</v>
+        <v>79224</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>1957</v>
+        <v>1711</v>
       </c>
       <c r="J51" s="3" t="n">
-        <v>71814</v>
+        <v>77513</v>
       </c>
       <c r="K51" s="3" t="inlineStr"/>
       <c r="L51" s="3" t="n">
-        <v>19353</v>
+        <v>27026</v>
       </c>
       <c r="M51" s="3" t="n">
-        <v>22225</v>
+        <v>19000</v>
       </c>
       <c r="N51" s="3" t="n">
-        <v>15503</v>
+        <v>8687</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>7962</v>
+        <v>4782</v>
       </c>
       <c r="P51" s="3" t="n">
-        <v>3178</v>
+        <v>14141</v>
       </c>
     </row>
     <row r="52">
@@ -3141,37 +3141,37 @@
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:45</t>
+          <t>2024-09-16 12:58</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr"/>
       <c r="G52" s="3" t="n">
-        <v>128731</v>
+        <v>129167</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>97413</v>
+        <v>104743</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>2209</v>
+        <v>1719</v>
       </c>
       <c r="J52" s="3" t="n">
-        <v>95204</v>
+        <v>103024</v>
       </c>
       <c r="K52" s="3" t="inlineStr"/>
       <c r="L52" s="3" t="n">
-        <v>22505</v>
+        <v>24825</v>
       </c>
       <c r="M52" s="3" t="n">
-        <v>32121</v>
+        <v>40425</v>
       </c>
       <c r="N52" s="3" t="n">
-        <v>12754</v>
+        <v>13983</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>13541</v>
+        <v>10491</v>
       </c>
       <c r="P52" s="3" t="n">
-        <v>9520</v>
+        <v>8146</v>
       </c>
     </row>
     <row r="53">
@@ -3193,37 +3193,37 @@
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:38</t>
+          <t>2024-09-16 12:54</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="n">
-        <v>150121</v>
+        <v>151162</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>132597</v>
+        <v>116333</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>1554</v>
+        <v>3462</v>
       </c>
       <c r="J53" s="3" t="n">
-        <v>131043</v>
+        <v>112871</v>
       </c>
       <c r="K53" s="3" t="inlineStr"/>
       <c r="L53" s="3" t="n">
-        <v>32492</v>
+        <v>30339</v>
       </c>
       <c r="M53" s="3" t="n">
-        <v>42393</v>
+        <v>18750</v>
       </c>
       <c r="N53" s="3" t="n">
-        <v>32851</v>
+        <v>23067</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>8340</v>
+        <v>22232</v>
       </c>
       <c r="P53" s="3" t="n">
-        <v>8411</v>
+        <v>12837</v>
       </c>
     </row>
     <row r="54">
@@ -3245,37 +3245,37 @@
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:39</t>
+          <t>2024-09-16 13:36</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr"/>
       <c r="G54" s="3" t="n">
-        <v>137727</v>
+        <v>134410</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>94279</v>
+        <v>98087</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>1270</v>
+        <v>2086</v>
       </c>
       <c r="J54" s="3" t="n">
-        <v>93009</v>
+        <v>96001</v>
       </c>
       <c r="K54" s="3" t="inlineStr"/>
       <c r="L54" s="3" t="n">
-        <v>13110</v>
+        <v>18677</v>
       </c>
       <c r="M54" s="3" t="n">
-        <v>29487</v>
+        <v>14191</v>
       </c>
       <c r="N54" s="3" t="n">
-        <v>29404</v>
+        <v>24650</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>14560</v>
+        <v>18464</v>
       </c>
       <c r="P54" s="3" t="n">
-        <v>1796</v>
+        <v>15215</v>
       </c>
     </row>
     <row r="55">
@@ -3297,37 +3297,37 @@
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:57</t>
+          <t>2024-09-16 17:30</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr"/>
       <c r="G55" s="3" t="n">
-        <v>87351</v>
+        <v>85860</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>59689</v>
+        <v>69208</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>803</v>
+        <v>1091</v>
       </c>
       <c r="J55" s="3" t="n">
-        <v>58886</v>
+        <v>68117</v>
       </c>
       <c r="K55" s="3" t="inlineStr"/>
       <c r="L55" s="3" t="n">
-        <v>17561</v>
+        <v>15982</v>
       </c>
       <c r="M55" s="3" t="n">
-        <v>16573</v>
+        <v>18620</v>
       </c>
       <c r="N55" s="3" t="n">
-        <v>11098</v>
+        <v>10460</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>4415</v>
+        <v>12596</v>
       </c>
       <c r="P55" s="3" t="n">
-        <v>6293</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="56">
@@ -3349,37 +3349,37 @@
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:32</t>
+          <t>2024-09-16 17:28</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="n">
-        <v>114647</v>
+        <v>116324</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>86603</v>
+        <v>78180</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>1334</v>
+        <v>2258</v>
       </c>
       <c r="J56" s="3" t="n">
-        <v>85269</v>
+        <v>75922</v>
       </c>
       <c r="K56" s="3" t="inlineStr"/>
       <c r="L56" s="3" t="n">
-        <v>15670</v>
+        <v>12142</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>25061</v>
+        <v>27327</v>
       </c>
       <c r="N56" s="3" t="n">
-        <v>21900</v>
+        <v>16231</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>13402</v>
+        <v>2907</v>
       </c>
       <c r="P56" s="3" t="n">
-        <v>4969</v>
+        <v>13516</v>
       </c>
     </row>
     <row r="57">
@@ -3401,37 +3401,37 @@
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:14</t>
+          <t>2024-09-16 14:47</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr"/>
       <c r="G57" s="3" t="n">
-        <v>132614</v>
+        <v>123385</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>81436</v>
+        <v>77263</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>1504</v>
+        <v>902</v>
       </c>
       <c r="J57" s="3" t="n">
-        <v>79932</v>
+        <v>76361</v>
       </c>
       <c r="K57" s="3" t="inlineStr"/>
       <c r="L57" s="3" t="n">
-        <v>19731</v>
+        <v>19850</v>
       </c>
       <c r="M57" s="3" t="n">
-        <v>16198</v>
+        <v>13603</v>
       </c>
       <c r="N57" s="3" t="n">
-        <v>23558</v>
+        <v>10270</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>11539</v>
+        <v>23989</v>
       </c>
       <c r="P57" s="3" t="n">
-        <v>4907</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="58">
@@ -3453,37 +3453,37 @@
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:57</t>
+          <t>2024-09-16 09:33</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="n">
-        <v>128602</v>
+        <v>128709</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>109975</v>
+        <v>94765</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>3269</v>
+        <v>1165</v>
       </c>
       <c r="J58" s="3" t="n">
-        <v>106706</v>
+        <v>93600</v>
       </c>
       <c r="K58" s="3" t="inlineStr"/>
       <c r="L58" s="3" t="n">
-        <v>25417</v>
+        <v>23371</v>
       </c>
       <c r="M58" s="3" t="n">
-        <v>29525</v>
+        <v>30133</v>
       </c>
       <c r="N58" s="3" t="n">
-        <v>14870</v>
+        <v>13045</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>17232</v>
+        <v>11293</v>
       </c>
       <c r="P58" s="3" t="n">
-        <v>14325</v>
+        <v>11075</v>
       </c>
     </row>
     <row r="59">
@@ -3505,37 +3505,37 @@
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:55</t>
+          <t>2024-09-16 14:10</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr"/>
       <c r="G59" s="3" t="n">
-        <v>102626</v>
+        <v>107631</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>70611</v>
+        <v>86146</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>1206</v>
+        <v>2318</v>
       </c>
       <c r="J59" s="3" t="n">
-        <v>69405</v>
+        <v>83828</v>
       </c>
       <c r="K59" s="3" t="inlineStr"/>
       <c r="L59" s="3" t="n">
-        <v>16405</v>
+        <v>26413</v>
       </c>
       <c r="M59" s="3" t="n">
-        <v>15359</v>
+        <v>13527</v>
       </c>
       <c r="N59" s="3" t="n">
-        <v>11037</v>
+        <v>19777</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>9356</v>
+        <v>15070</v>
       </c>
       <c r="P59" s="3" t="n">
-        <v>13775</v>
+        <v>4847</v>
       </c>
     </row>
     <row r="60">
@@ -3557,37 +3557,37 @@
       <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:53</t>
+          <t>2024-09-16 11:19</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr"/>
       <c r="G60" s="3" t="n">
-        <v>56357</v>
+        <v>54149</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>40603</v>
+        <v>37648</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>940</v>
+        <v>843</v>
       </c>
       <c r="J60" s="3" t="n">
-        <v>39663</v>
+        <v>36805</v>
       </c>
       <c r="K60" s="3" t="inlineStr"/>
       <c r="L60" s="3" t="n">
-        <v>5707</v>
+        <v>7127</v>
       </c>
       <c r="M60" s="3" t="n">
-        <v>8935</v>
+        <v>11579</v>
       </c>
       <c r="N60" s="3" t="n">
-        <v>6633</v>
+        <v>8806</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>9955</v>
+        <v>5887</v>
       </c>
       <c r="P60" s="3" t="n">
-        <v>6448</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="61">
@@ -3609,37 +3609,37 @@
       <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:06</t>
+          <t>2024-09-16 09:33</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr"/>
       <c r="G61" s="3" t="n">
-        <v>171876</v>
+        <v>164244</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>107982</v>
+        <v>145203</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>3037</v>
+        <v>2132</v>
       </c>
       <c r="J61" s="3" t="n">
-        <v>104945</v>
+        <v>143071</v>
       </c>
       <c r="K61" s="3" t="inlineStr"/>
       <c r="L61" s="3" t="n">
-        <v>25138</v>
+        <v>47743</v>
       </c>
       <c r="M61" s="3" t="n">
-        <v>20609</v>
+        <v>28712</v>
       </c>
       <c r="N61" s="3" t="n">
-        <v>19921</v>
+        <v>23056</v>
       </c>
       <c r="O61" s="3" t="n">
-        <v>21871</v>
+        <v>12750</v>
       </c>
       <c r="P61" s="3" t="n">
-        <v>12157</v>
+        <v>23653</v>
       </c>
     </row>
     <row r="62">
@@ -3661,37 +3661,37 @@
       <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:21</t>
+          <t>2024-09-16 14:45</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr"/>
       <c r="G62" s="3" t="n">
-        <v>93573</v>
+        <v>94264</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>70604</v>
+        <v>61428</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>732</v>
+        <v>886</v>
       </c>
       <c r="J62" s="3" t="n">
-        <v>69872</v>
+        <v>60542</v>
       </c>
       <c r="K62" s="3" t="inlineStr"/>
       <c r="L62" s="3" t="n">
-        <v>14748</v>
+        <v>16276</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>16522</v>
+        <v>15785</v>
       </c>
       <c r="N62" s="3" t="n">
-        <v>14751</v>
+        <v>14966</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>11493</v>
+        <v>9413</v>
       </c>
       <c r="P62" s="3" t="n">
-        <v>8863</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="63">
@@ -3713,37 +3713,37 @@
       <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:10</t>
+          <t>2024-09-16 18:32</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr"/>
       <c r="G63" s="3" t="n">
-        <v>59141</v>
+        <v>62157</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>43115</v>
+        <v>51016</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>448</v>
+        <v>1132</v>
       </c>
       <c r="J63" s="3" t="n">
-        <v>42667</v>
+        <v>49884</v>
       </c>
       <c r="K63" s="3" t="inlineStr"/>
       <c r="L63" s="3" t="n">
-        <v>13968</v>
+        <v>8297</v>
       </c>
       <c r="M63" s="3" t="n">
-        <v>8106</v>
+        <v>11765</v>
       </c>
       <c r="N63" s="3" t="n">
-        <v>7323</v>
+        <v>14558</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>2774</v>
+        <v>3094</v>
       </c>
       <c r="P63" s="3" t="n">
-        <v>8360</v>
+        <v>9674</v>
       </c>
     </row>
     <row r="64">
@@ -3765,37 +3765,37 @@
       <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:48</t>
+          <t>2024-09-16 18:44</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr"/>
       <c r="G64" s="3" t="n">
-        <v>52344</v>
+        <v>50343</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>38746</v>
+        <v>40872</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>1137</v>
+        <v>1147</v>
       </c>
       <c r="J64" s="3" t="n">
-        <v>37609</v>
+        <v>39725</v>
       </c>
       <c r="K64" s="3" t="inlineStr"/>
       <c r="L64" s="3" t="n">
-        <v>13621</v>
+        <v>6538</v>
       </c>
       <c r="M64" s="3" t="n">
-        <v>8681</v>
+        <v>6748</v>
       </c>
       <c r="N64" s="3" t="n">
-        <v>6619</v>
+        <v>6206</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>4549</v>
+        <v>9943</v>
       </c>
       <c r="P64" s="3" t="n">
-        <v>2257</v>
+        <v>8301</v>
       </c>
     </row>
     <row r="65">
@@ -3817,37 +3817,37 @@
       <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:28</t>
+          <t>2024-09-16 09:02</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr"/>
       <c r="G65" s="3" t="n">
-        <v>100130</v>
+        <v>107254</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>84135</v>
+        <v>68594</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>1482</v>
+        <v>721</v>
       </c>
       <c r="J65" s="3" t="n">
-        <v>82653</v>
+        <v>67873</v>
       </c>
       <c r="K65" s="3" t="inlineStr"/>
       <c r="L65" s="3" t="n">
-        <v>21191</v>
+        <v>18005</v>
       </c>
       <c r="M65" s="3" t="n">
-        <v>20375</v>
+        <v>21475</v>
       </c>
       <c r="N65" s="3" t="n">
-        <v>12403</v>
+        <v>8238</v>
       </c>
       <c r="O65" s="3" t="n">
-        <v>9693</v>
+        <v>13474</v>
       </c>
       <c r="P65" s="3" t="n">
-        <v>14856</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="66">
@@ -3869,37 +3869,37 @@
       <c r="D66" s="3" t="inlineStr"/>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:25</t>
+          <t>2024-09-16 12:39</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="n">
-        <v>75492</v>
+        <v>76767</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>67736</v>
+        <v>61440</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>1172</v>
+        <v>1528</v>
       </c>
       <c r="J66" s="3" t="n">
-        <v>66564</v>
+        <v>59912</v>
       </c>
       <c r="K66" s="3" t="inlineStr"/>
       <c r="L66" s="3" t="n">
-        <v>20582</v>
+        <v>17314</v>
       </c>
       <c r="M66" s="3" t="n">
-        <v>17370</v>
+        <v>10815</v>
       </c>
       <c r="N66" s="3" t="n">
-        <v>9708</v>
+        <v>10024</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>3767</v>
+        <v>12406</v>
       </c>
       <c r="P66" s="3" t="n">
-        <v>11806</v>
+        <v>6356</v>
       </c>
     </row>
     <row r="67">
@@ -3921,37 +3921,37 @@
       <c r="D67" s="3" t="inlineStr"/>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:56</t>
+          <t>2024-09-16 10:44</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr"/>
       <c r="G67" s="3" t="n">
-        <v>85850</v>
+        <v>84095</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>70438</v>
+        <v>53679</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>958</v>
+        <v>671</v>
       </c>
       <c r="J67" s="3" t="n">
-        <v>69480</v>
+        <v>53008</v>
       </c>
       <c r="K67" s="3" t="inlineStr"/>
       <c r="L67" s="3" t="n">
-        <v>17700</v>
+        <v>16176</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>12268</v>
+        <v>11652</v>
       </c>
       <c r="N67" s="3" t="n">
-        <v>15426</v>
+        <v>9273</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>16902</v>
+        <v>10099</v>
       </c>
       <c r="P67" s="3" t="n">
-        <v>3707</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="68">
@@ -3973,37 +3973,37 @@
       <c r="D68" s="3" t="inlineStr"/>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:42</t>
+          <t>2024-09-16 09:57</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr"/>
       <c r="G68" s="3" t="n">
-        <v>40599</v>
+        <v>42978</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>35702</v>
+        <v>32724</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="J68" s="3" t="n">
-        <v>35172</v>
+        <v>32159</v>
       </c>
       <c r="K68" s="3" t="inlineStr"/>
       <c r="L68" s="3" t="n">
-        <v>7410</v>
+        <v>7229</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>6042</v>
+        <v>7754</v>
       </c>
       <c r="N68" s="3" t="n">
-        <v>6888</v>
+        <v>5230</v>
       </c>
       <c r="O68" s="3" t="n">
-        <v>3974</v>
+        <v>4231</v>
       </c>
       <c r="P68" s="3" t="n">
-        <v>9097</v>
+        <v>6104</v>
       </c>
     </row>
     <row r="69">
@@ -4025,37 +4025,37 @@
       <c r="D69" s="3" t="inlineStr"/>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:26</t>
+          <t>2024-09-16 17:31</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr"/>
       <c r="G69" s="3" t="n">
-        <v>85522</v>
+        <v>83138</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>64691</v>
+        <v>57969</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>653</v>
+        <v>1362</v>
       </c>
       <c r="J69" s="3" t="n">
-        <v>64038</v>
+        <v>56607</v>
       </c>
       <c r="K69" s="3" t="inlineStr"/>
       <c r="L69" s="3" t="n">
-        <v>16807</v>
+        <v>20066</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>13240</v>
+        <v>7361</v>
       </c>
       <c r="N69" s="3" t="n">
-        <v>14334</v>
+        <v>17980</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>5015</v>
+        <v>5630</v>
       </c>
       <c r="P69" s="3" t="n">
-        <v>11436</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="70">
@@ -4077,37 +4077,37 @@
       <c r="D70" s="3" t="inlineStr"/>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:49</t>
+          <t>2024-09-16 13:09</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr"/>
       <c r="G70" s="3" t="n">
-        <v>91039</v>
+        <v>85082</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>67030</v>
+        <v>75299</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>1481</v>
+        <v>1029</v>
       </c>
       <c r="J70" s="3" t="n">
-        <v>65549</v>
+        <v>74270</v>
       </c>
       <c r="K70" s="3" t="inlineStr"/>
       <c r="L70" s="3" t="n">
-        <v>20450</v>
+        <v>17000</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>19749</v>
+        <v>15808</v>
       </c>
       <c r="N70" s="3" t="n">
-        <v>10143</v>
+        <v>23943</v>
       </c>
       <c r="O70" s="3" t="n">
-        <v>8347</v>
+        <v>12557</v>
       </c>
       <c r="P70" s="3" t="n">
-        <v>3580</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="71">
@@ -4129,37 +4129,37 @@
       <c r="D71" s="3" t="inlineStr"/>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:32</t>
+          <t>2024-09-16 08:55</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr"/>
       <c r="G71" s="3" t="n">
-        <v>109585</v>
+        <v>113415</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>94513</v>
+        <v>85950</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>1944</v>
+        <v>1774</v>
       </c>
       <c r="J71" s="3" t="n">
-        <v>92569</v>
+        <v>84176</v>
       </c>
       <c r="K71" s="3" t="inlineStr"/>
       <c r="L71" s="3" t="n">
-        <v>33953</v>
+        <v>17434</v>
       </c>
       <c r="M71" s="3" t="n">
-        <v>19195</v>
+        <v>20326</v>
       </c>
       <c r="N71" s="3" t="n">
-        <v>17238</v>
+        <v>26422</v>
       </c>
       <c r="O71" s="3" t="n">
-        <v>13347</v>
+        <v>7235</v>
       </c>
       <c r="P71" s="3" t="n">
-        <v>4206</v>
+        <v>8547</v>
       </c>
     </row>
     <row r="72">
@@ -4181,37 +4181,37 @@
       <c r="D72" s="3" t="inlineStr"/>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:44</t>
+          <t>2024-09-16 14:05</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr"/>
       <c r="G72" s="3" t="n">
-        <v>104431</v>
+        <v>101672</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>79027</v>
+        <v>90763</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>950</v>
+        <v>2588</v>
       </c>
       <c r="J72" s="3" t="n">
-        <v>78077</v>
+        <v>88175</v>
       </c>
       <c r="K72" s="3" t="inlineStr"/>
       <c r="L72" s="3" t="n">
-        <v>25084</v>
+        <v>21089</v>
       </c>
       <c r="M72" s="3" t="n">
-        <v>9249</v>
+        <v>11522</v>
       </c>
       <c r="N72" s="3" t="n">
-        <v>13931</v>
+        <v>21487</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>10708</v>
+        <v>16858</v>
       </c>
       <c r="P72" s="3" t="n">
-        <v>15200</v>
+        <v>12808</v>
       </c>
     </row>
     <row r="73">
@@ -4233,37 +4233,37 @@
       <c r="D73" s="3" t="inlineStr"/>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:26</t>
+          <t>2024-09-16 15:59</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr"/>
       <c r="G73" s="3" t="n">
-        <v>147099</v>
+        <v>135994</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>90163</v>
+        <v>97867</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>2092</v>
+        <v>2919</v>
       </c>
       <c r="J73" s="3" t="n">
-        <v>88071</v>
+        <v>94948</v>
       </c>
       <c r="K73" s="3" t="inlineStr"/>
       <c r="L73" s="3" t="n">
-        <v>26757</v>
+        <v>20589</v>
       </c>
       <c r="M73" s="3" t="n">
-        <v>21409</v>
+        <v>15927</v>
       </c>
       <c r="N73" s="3" t="n">
-        <v>13249</v>
+        <v>18509</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>5380</v>
+        <v>15682</v>
       </c>
       <c r="P73" s="3" t="n">
-        <v>16870</v>
+        <v>19491</v>
       </c>
     </row>
     <row r="74">
@@ -4285,37 +4285,37 @@
       <c r="D74" s="3" t="inlineStr"/>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:35</t>
+          <t>2024-09-16 20:00</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr"/>
       <c r="G74" s="3" t="n">
-        <v>73626</v>
+        <v>70559</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>44667</v>
+        <v>47813</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>539</v>
+        <v>985</v>
       </c>
       <c r="J74" s="3" t="n">
-        <v>44128</v>
+        <v>46828</v>
       </c>
       <c r="K74" s="3" t="inlineStr"/>
       <c r="L74" s="3" t="n">
-        <v>11332</v>
+        <v>15824</v>
       </c>
       <c r="M74" s="3" t="n">
-        <v>7072</v>
+        <v>8357</v>
       </c>
       <c r="N74" s="3" t="n">
-        <v>9294</v>
+        <v>15070</v>
       </c>
       <c r="O74" s="3" t="n">
-        <v>6862</v>
+        <v>1907</v>
       </c>
       <c r="P74" s="3" t="n">
-        <v>7358</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="75">
@@ -4337,37 +4337,37 @@
       <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:34</t>
+          <t>2024-09-16 09:37</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr"/>
       <c r="G75" s="3" t="n">
-        <v>93248</v>
+        <v>90606</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>59294</v>
+        <v>58841</v>
       </c>
       <c r="I75" s="3" t="n">
-        <v>1334</v>
+        <v>1501</v>
       </c>
       <c r="J75" s="3" t="n">
-        <v>57960</v>
+        <v>57340</v>
       </c>
       <c r="K75" s="3" t="inlineStr"/>
       <c r="L75" s="3" t="n">
-        <v>10565</v>
+        <v>13048</v>
       </c>
       <c r="M75" s="3" t="n">
-        <v>15935</v>
+        <v>18228</v>
       </c>
       <c r="N75" s="3" t="n">
-        <v>13429</v>
+        <v>8395</v>
       </c>
       <c r="O75" s="3" t="n">
-        <v>5607</v>
+        <v>9511</v>
       </c>
       <c r="P75" s="3" t="n">
-        <v>9524</v>
+        <v>5289</v>
       </c>
     </row>
     <row r="76">
@@ -4389,37 +4389,37 @@
       <c r="D76" s="3" t="inlineStr"/>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:08</t>
+          <t>2024-09-16 16:30</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr"/>
       <c r="G76" s="3" t="n">
-        <v>97534</v>
+        <v>99134</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>58607</v>
+        <v>59572</v>
       </c>
       <c r="I76" s="3" t="n">
-        <v>1443</v>
+        <v>984</v>
       </c>
       <c r="J76" s="3" t="n">
-        <v>57164</v>
+        <v>58588</v>
       </c>
       <c r="K76" s="3" t="inlineStr"/>
       <c r="L76" s="3" t="n">
-        <v>18242</v>
+        <v>18269</v>
       </c>
       <c r="M76" s="3" t="n">
-        <v>7275</v>
+        <v>12642</v>
       </c>
       <c r="N76" s="3" t="n">
-        <v>14945</v>
+        <v>10786</v>
       </c>
       <c r="O76" s="3" t="n">
-        <v>6744</v>
+        <v>11829</v>
       </c>
       <c r="P76" s="3" t="n">
-        <v>7097</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="77">
@@ -4441,37 +4441,37 @@
       <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:26</t>
+          <t>2024-09-16 18:05</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="n">
-        <v>332287</v>
+        <v>334004</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>205549</v>
+        <v>274732</v>
       </c>
       <c r="I77" s="3" t="n">
-        <v>3997</v>
+        <v>6008</v>
       </c>
       <c r="J77" s="3" t="n">
-        <v>201552</v>
+        <v>268724</v>
       </c>
       <c r="K77" s="3" t="inlineStr"/>
       <c r="L77" s="3" t="n">
-        <v>72802</v>
+        <v>51715</v>
       </c>
       <c r="M77" s="3" t="n">
-        <v>37505</v>
+        <v>69038</v>
       </c>
       <c r="N77" s="3" t="n">
-        <v>34491</v>
+        <v>60397</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>26864</v>
+        <v>56530</v>
       </c>
       <c r="P77" s="3" t="n">
-        <v>19809</v>
+        <v>17605</v>
       </c>
     </row>
     <row r="78">
@@ -4493,37 +4493,37 @@
       <c r="D78" s="3" t="inlineStr"/>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:22</t>
+          <t>2024-09-16 19:15</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr"/>
       <c r="G78" s="3" t="n">
-        <v>82717</v>
+        <v>84041</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>74344</v>
+        <v>58368</v>
       </c>
       <c r="I78" s="3" t="n">
-        <v>1067</v>
+        <v>1666</v>
       </c>
       <c r="J78" s="3" t="n">
-        <v>73277</v>
+        <v>56702</v>
       </c>
       <c r="K78" s="3" t="inlineStr"/>
       <c r="L78" s="3" t="n">
-        <v>20143</v>
+        <v>15837</v>
       </c>
       <c r="M78" s="3" t="n">
-        <v>8855</v>
+        <v>16052</v>
       </c>
       <c r="N78" s="3" t="n">
-        <v>22033</v>
+        <v>7906</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>12784</v>
+        <v>10239</v>
       </c>
       <c r="P78" s="3" t="n">
-        <v>5796</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="79">
@@ -4545,37 +4545,37 @@
       <c r="D79" s="3" t="inlineStr"/>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 20:11</t>
+          <t>2024-09-16 10:31</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr"/>
       <c r="G79" s="3" t="n">
-        <v>73822</v>
+        <v>76687</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>56576</v>
+        <v>46789</v>
       </c>
       <c r="I79" s="3" t="n">
-        <v>1390</v>
+        <v>1173</v>
       </c>
       <c r="J79" s="3" t="n">
-        <v>55186</v>
+        <v>45616</v>
       </c>
       <c r="K79" s="3" t="inlineStr"/>
       <c r="L79" s="3" t="n">
-        <v>19744</v>
+        <v>10726</v>
       </c>
       <c r="M79" s="3" t="n">
-        <v>15074</v>
+        <v>10721</v>
       </c>
       <c r="N79" s="3" t="n">
-        <v>7417</v>
+        <v>11550</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>2523</v>
+        <v>5901</v>
       </c>
       <c r="P79" s="3" t="n">
-        <v>7666</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="80">
@@ -4597,37 +4597,37 @@
       <c r="D80" s="3" t="inlineStr"/>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:21</t>
+          <t>2024-09-16 14:31</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr"/>
       <c r="G80" s="3" t="n">
-        <v>86356</v>
+        <v>85070</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>74027</v>
+        <v>57821</v>
       </c>
       <c r="I80" s="3" t="n">
-        <v>1085</v>
+        <v>1037</v>
       </c>
       <c r="J80" s="3" t="n">
-        <v>72942</v>
+        <v>56784</v>
       </c>
       <c r="K80" s="3" t="inlineStr"/>
       <c r="L80" s="3" t="n">
-        <v>12249</v>
+        <v>13976</v>
       </c>
       <c r="M80" s="3" t="n">
-        <v>11624</v>
+        <v>22801</v>
       </c>
       <c r="N80" s="3" t="n">
-        <v>21615</v>
+        <v>10991</v>
       </c>
       <c r="O80" s="3" t="n">
-        <v>7083</v>
+        <v>4267</v>
       </c>
       <c r="P80" s="3" t="n">
-        <v>16721</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="81">
@@ -4649,37 +4649,37 @@
       <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:00</t>
+          <t>2024-09-16 19:54</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr"/>
       <c r="G81" s="3" t="n">
-        <v>57397</v>
+        <v>56448</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>40763</v>
+        <v>42919</v>
       </c>
       <c r="I81" s="3" t="n">
-        <v>988</v>
+        <v>751</v>
       </c>
       <c r="J81" s="3" t="n">
-        <v>39775</v>
+        <v>42168</v>
       </c>
       <c r="K81" s="3" t="inlineStr"/>
       <c r="L81" s="3" t="n">
-        <v>6845</v>
+        <v>9553</v>
       </c>
       <c r="M81" s="3" t="n">
-        <v>9837</v>
+        <v>10272</v>
       </c>
       <c r="N81" s="3" t="n">
-        <v>14344</v>
+        <v>10970</v>
       </c>
       <c r="O81" s="3" t="n">
-        <v>5131</v>
+        <v>6050</v>
       </c>
       <c r="P81" s="3" t="n">
-        <v>1628</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="82">
@@ -4701,37 +4701,37 @@
       <c r="D82" s="3" t="inlineStr"/>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:08</t>
+          <t>2024-09-16 11:01</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr"/>
       <c r="G82" s="3" t="n">
-        <v>81336</v>
+        <v>78634</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>72309</v>
+        <v>64392</v>
       </c>
       <c r="I82" s="3" t="n">
-        <v>1079</v>
+        <v>796</v>
       </c>
       <c r="J82" s="3" t="n">
-        <v>71230</v>
+        <v>63596</v>
       </c>
       <c r="K82" s="3" t="inlineStr"/>
       <c r="L82" s="3" t="n">
-        <v>22050</v>
+        <v>17263</v>
       </c>
       <c r="M82" s="3" t="n">
-        <v>12827</v>
+        <v>11492</v>
       </c>
       <c r="N82" s="3" t="n">
-        <v>20481</v>
+        <v>13755</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>9059</v>
+        <v>9526</v>
       </c>
       <c r="P82" s="3" t="n">
-        <v>3249</v>
+        <v>8378</v>
       </c>
     </row>
     <row r="83">
@@ -4753,37 +4753,37 @@
       <c r="D83" s="3" t="inlineStr"/>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:25</t>
+          <t>2024-09-16 09:36</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr"/>
       <c r="G83" s="3" t="n">
-        <v>79753</v>
+        <v>75663</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>51617</v>
+        <v>48367</v>
       </c>
       <c r="I83" s="3" t="n">
-        <v>1484</v>
+        <v>962</v>
       </c>
       <c r="J83" s="3" t="n">
-        <v>50133</v>
+        <v>47405</v>
       </c>
       <c r="K83" s="3" t="inlineStr"/>
       <c r="L83" s="3" t="n">
-        <v>11182</v>
+        <v>8557</v>
       </c>
       <c r="M83" s="3" t="n">
-        <v>11314</v>
+        <v>11330</v>
       </c>
       <c r="N83" s="3" t="n">
-        <v>11843</v>
+        <v>14491</v>
       </c>
       <c r="O83" s="3" t="n">
-        <v>7967</v>
+        <v>7207</v>
       </c>
       <c r="P83" s="3" t="n">
-        <v>5318</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="84">
@@ -4805,37 +4805,37 @@
       <c r="D84" s="3" t="inlineStr"/>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:52</t>
+          <t>2024-09-16 13:04</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr"/>
       <c r="G84" s="3" t="n">
-        <v>98073</v>
+        <v>90511</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>82976</v>
+        <v>63097</v>
       </c>
       <c r="I84" s="3" t="n">
-        <v>2298</v>
+        <v>715</v>
       </c>
       <c r="J84" s="3" t="n">
-        <v>80678</v>
+        <v>62382</v>
       </c>
       <c r="K84" s="3" t="inlineStr"/>
       <c r="L84" s="3" t="n">
-        <v>20734</v>
+        <v>14573</v>
       </c>
       <c r="M84" s="3" t="n">
-        <v>19488</v>
+        <v>10392</v>
       </c>
       <c r="N84" s="3" t="n">
-        <v>20868</v>
+        <v>18531</v>
       </c>
       <c r="O84" s="3" t="n">
-        <v>6639</v>
+        <v>9766</v>
       </c>
       <c r="P84" s="3" t="n">
-        <v>8912</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="85">
@@ -4857,37 +4857,37 @@
       <c r="D85" s="3" t="inlineStr"/>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:46</t>
+          <t>2024-09-16 20:12</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr"/>
       <c r="G85" s="3" t="n">
-        <v>102696</v>
+        <v>109940</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>62209</v>
+        <v>90995</v>
       </c>
       <c r="I85" s="3" t="n">
-        <v>1311</v>
+        <v>2561</v>
       </c>
       <c r="J85" s="3" t="n">
-        <v>60898</v>
+        <v>88434</v>
       </c>
       <c r="K85" s="3" t="inlineStr"/>
       <c r="L85" s="3" t="n">
-        <v>16486</v>
+        <v>21795</v>
       </c>
       <c r="M85" s="3" t="n">
-        <v>8865</v>
+        <v>11860</v>
       </c>
       <c r="N85" s="3" t="n">
-        <v>14375</v>
+        <v>16362</v>
       </c>
       <c r="O85" s="3" t="n">
-        <v>9025</v>
+        <v>18153</v>
       </c>
       <c r="P85" s="3" t="n">
-        <v>9099</v>
+        <v>15839</v>
       </c>
     </row>
     <row r="86">
@@ -4909,37 +4909,37 @@
       <c r="D86" s="3" t="inlineStr"/>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:03</t>
+          <t>2024-09-16 10:46</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr"/>
       <c r="G86" s="3" t="n">
-        <v>98627</v>
+        <v>104208</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>78184</v>
+        <v>74592</v>
       </c>
       <c r="I86" s="3" t="n">
-        <v>2084</v>
+        <v>1935</v>
       </c>
       <c r="J86" s="3" t="n">
-        <v>76100</v>
+        <v>72657</v>
       </c>
       <c r="K86" s="3" t="inlineStr"/>
       <c r="L86" s="3" t="n">
-        <v>16832</v>
+        <v>20146</v>
       </c>
       <c r="M86" s="3" t="n">
-        <v>14300</v>
+        <v>21760</v>
       </c>
       <c r="N86" s="3" t="n">
-        <v>15204</v>
+        <v>8226</v>
       </c>
       <c r="O86" s="3" t="n">
-        <v>15332</v>
+        <v>5972</v>
       </c>
       <c r="P86" s="3" t="n">
-        <v>10624</v>
+        <v>12917</v>
       </c>
     </row>
     <row r="87">
@@ -4961,37 +4961,37 @@
       <c r="D87" s="3" t="inlineStr"/>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:31</t>
+          <t>2024-09-16 13:15</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr"/>
       <c r="G87" s="3" t="n">
-        <v>82927</v>
+        <v>79535</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>61325</v>
+        <v>70968</v>
       </c>
       <c r="I87" s="3" t="n">
-        <v>953</v>
+        <v>1967</v>
       </c>
       <c r="J87" s="3" t="n">
-        <v>60372</v>
+        <v>69001</v>
       </c>
       <c r="K87" s="3" t="inlineStr"/>
       <c r="L87" s="3" t="n">
-        <v>20548</v>
+        <v>23158</v>
       </c>
       <c r="M87" s="3" t="n">
-        <v>8482</v>
+        <v>9911</v>
       </c>
       <c r="N87" s="3" t="n">
-        <v>16378</v>
+        <v>17650</v>
       </c>
       <c r="O87" s="3" t="n">
-        <v>9717</v>
+        <v>6929</v>
       </c>
       <c r="P87" s="3" t="n">
-        <v>2227</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="88">
@@ -5013,37 +5013,37 @@
       <c r="D88" s="3" t="inlineStr"/>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:30</t>
+          <t>2024-09-16 18:17</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr"/>
       <c r="G88" s="3" t="n">
-        <v>83525</v>
+        <v>83409</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>66362</v>
+        <v>58177</v>
       </c>
       <c r="I88" s="3" t="n">
-        <v>1212</v>
+        <v>594</v>
       </c>
       <c r="J88" s="3" t="n">
-        <v>65150</v>
+        <v>57583</v>
       </c>
       <c r="K88" s="3" t="inlineStr"/>
       <c r="L88" s="3" t="n">
-        <v>21502</v>
+        <v>18097</v>
       </c>
       <c r="M88" s="3" t="n">
-        <v>11156</v>
+        <v>13664</v>
       </c>
       <c r="N88" s="3" t="n">
-        <v>12094</v>
+        <v>12108</v>
       </c>
       <c r="O88" s="3" t="n">
-        <v>12998</v>
+        <v>3044</v>
       </c>
       <c r="P88" s="3" t="n">
-        <v>4139</v>
+        <v>7789</v>
       </c>
     </row>
     <row r="89">
@@ -5065,37 +5065,37 @@
       <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:14</t>
+          <t>2024-09-16 11:55</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr"/>
       <c r="G89" s="3" t="n">
-        <v>105433</v>
+        <v>98504</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>87816</v>
+        <v>60134</v>
       </c>
       <c r="I89" s="3" t="n">
-        <v>2188</v>
+        <v>1492</v>
       </c>
       <c r="J89" s="3" t="n">
-        <v>85628</v>
+        <v>58642</v>
       </c>
       <c r="K89" s="3" t="inlineStr"/>
       <c r="L89" s="3" t="n">
-        <v>29385</v>
+        <v>19846</v>
       </c>
       <c r="M89" s="3" t="n">
-        <v>9916</v>
+        <v>17286</v>
       </c>
       <c r="N89" s="3" t="n">
-        <v>26329</v>
+        <v>12602</v>
       </c>
       <c r="O89" s="3" t="n">
-        <v>4722</v>
+        <v>3267</v>
       </c>
       <c r="P89" s="3" t="n">
-        <v>10992</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="90">
@@ -5117,37 +5117,37 @@
       <c r="D90" s="3" t="inlineStr"/>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:30</t>
+          <t>2024-09-16 11:27</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr"/>
       <c r="G90" s="3" t="n">
-        <v>84193</v>
+        <v>83282</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>57390</v>
+        <v>72318</v>
       </c>
       <c r="I90" s="3" t="n">
-        <v>694</v>
+        <v>916</v>
       </c>
       <c r="J90" s="3" t="n">
-        <v>56696</v>
+        <v>71402</v>
       </c>
       <c r="K90" s="3" t="inlineStr"/>
       <c r="L90" s="3" t="n">
-        <v>12794</v>
+        <v>10202</v>
       </c>
       <c r="M90" s="3" t="n">
-        <v>11975</v>
+        <v>17757</v>
       </c>
       <c r="N90" s="3" t="n">
-        <v>13991</v>
+        <v>17107</v>
       </c>
       <c r="O90" s="3" t="n">
-        <v>5002</v>
+        <v>13561</v>
       </c>
       <c r="P90" s="3" t="n">
-        <v>10095</v>
+        <v>9203</v>
       </c>
     </row>
     <row r="91">
@@ -5169,37 +5169,37 @@
       <c r="D91" s="3" t="inlineStr"/>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:07</t>
+          <t>2024-09-16 11:28</t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr"/>
       <c r="G91" s="3" t="n">
-        <v>105452</v>
+        <v>110221</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>88040</v>
+        <v>96994</v>
       </c>
       <c r="I91" s="3" t="n">
-        <v>1650</v>
+        <v>1173</v>
       </c>
       <c r="J91" s="3" t="n">
-        <v>86390</v>
+        <v>95821</v>
       </c>
       <c r="K91" s="3" t="inlineStr"/>
       <c r="L91" s="3" t="n">
-        <v>25864</v>
+        <v>19977</v>
       </c>
       <c r="M91" s="3" t="n">
-        <v>25161</v>
+        <v>13200</v>
       </c>
       <c r="N91" s="3" t="n">
-        <v>11099</v>
+        <v>31698</v>
       </c>
       <c r="O91" s="3" t="n">
-        <v>6280</v>
+        <v>12081</v>
       </c>
       <c r="P91" s="3" t="n">
-        <v>13663</v>
+        <v>14071</v>
       </c>
     </row>
     <row r="92">
@@ -5221,37 +5221,37 @@
       <c r="D92" s="3" t="inlineStr"/>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:04</t>
+          <t>2024-09-16 16:54</t>
         </is>
       </c>
       <c r="F92" s="3" t="inlineStr"/>
       <c r="G92" s="3" t="n">
-        <v>92823</v>
+        <v>97713</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>82015</v>
+        <v>62792</v>
       </c>
       <c r="I92" s="3" t="n">
-        <v>1096</v>
+        <v>923</v>
       </c>
       <c r="J92" s="3" t="n">
-        <v>80919</v>
+        <v>61869</v>
       </c>
       <c r="K92" s="3" t="inlineStr"/>
       <c r="L92" s="3" t="n">
-        <v>11571</v>
+        <v>12942</v>
       </c>
       <c r="M92" s="3" t="n">
-        <v>18509</v>
+        <v>13206</v>
       </c>
       <c r="N92" s="3" t="n">
-        <v>14129</v>
+        <v>9379</v>
       </c>
       <c r="O92" s="3" t="n">
-        <v>20698</v>
+        <v>14393</v>
       </c>
       <c r="P92" s="3" t="n">
-        <v>11965</v>
+        <v>8853</v>
       </c>
     </row>
     <row r="93">
@@ -5273,37 +5273,37 @@
       <c r="D93" s="3" t="inlineStr"/>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:42</t>
+          <t>2024-09-16 09:40</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr"/>
       <c r="G93" s="3" t="n">
-        <v>102180</v>
+        <v>101147</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>83723</v>
+        <v>90694</v>
       </c>
       <c r="I93" s="3" t="n">
-        <v>2504</v>
+        <v>2696</v>
       </c>
       <c r="J93" s="3" t="n">
-        <v>81219</v>
+        <v>87998</v>
       </c>
       <c r="K93" s="3" t="inlineStr"/>
       <c r="L93" s="3" t="n">
-        <v>21620</v>
+        <v>27874</v>
       </c>
       <c r="M93" s="3" t="n">
-        <v>12453</v>
+        <v>26678</v>
       </c>
       <c r="N93" s="3" t="n">
-        <v>25309</v>
+        <v>9618</v>
       </c>
       <c r="O93" s="3" t="n">
-        <v>16867</v>
+        <v>8877</v>
       </c>
       <c r="P93" s="3" t="n">
-        <v>906</v>
+        <v>10548</v>
       </c>
     </row>
     <row r="94">
@@ -5325,37 +5325,37 @@
       <c r="D94" s="3" t="inlineStr"/>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:51</t>
+          <t>2024-09-16 14:06</t>
         </is>
       </c>
       <c r="F94" s="3" t="inlineStr"/>
       <c r="G94" s="3" t="n">
-        <v>87706</v>
+        <v>82375</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>64787</v>
+        <v>69728</v>
       </c>
       <c r="I94" s="3" t="n">
-        <v>1747</v>
+        <v>890</v>
       </c>
       <c r="J94" s="3" t="n">
-        <v>63040</v>
+        <v>68838</v>
       </c>
       <c r="K94" s="3" t="inlineStr"/>
       <c r="L94" s="3" t="n">
-        <v>11583</v>
+        <v>18242</v>
       </c>
       <c r="M94" s="3" t="n">
-        <v>16136</v>
+        <v>8397</v>
       </c>
       <c r="N94" s="3" t="n">
-        <v>15726</v>
+        <v>17785</v>
       </c>
       <c r="O94" s="3" t="n">
-        <v>4926</v>
+        <v>6943</v>
       </c>
       <c r="P94" s="3" t="n">
-        <v>11514</v>
+        <v>14027</v>
       </c>
     </row>
     <row r="95">
@@ -5377,37 +5377,37 @@
       <c r="D95" s="3" t="inlineStr"/>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 20:09</t>
+          <t>2024-09-16 19:14</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr"/>
       <c r="G95" s="3" t="n">
-        <v>82569</v>
+        <v>85403</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>53403</v>
+        <v>61173</v>
       </c>
       <c r="I95" s="3" t="n">
-        <v>1073</v>
+        <v>1741</v>
       </c>
       <c r="J95" s="3" t="n">
-        <v>52330</v>
+        <v>59432</v>
       </c>
       <c r="K95" s="3" t="inlineStr"/>
       <c r="L95" s="3" t="n">
-        <v>15700</v>
+        <v>17697</v>
       </c>
       <c r="M95" s="3" t="n">
-        <v>9925</v>
+        <v>17771</v>
       </c>
       <c r="N95" s="3" t="n">
-        <v>10748</v>
+        <v>9349</v>
       </c>
       <c r="O95" s="3" t="n">
-        <v>4457</v>
+        <v>9693</v>
       </c>
       <c r="P95" s="3" t="n">
-        <v>8881</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="96">
@@ -5429,37 +5429,37 @@
       <c r="D96" s="3" t="inlineStr"/>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:26</t>
+          <t>2024-09-16 12:09</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr"/>
       <c r="G96" s="3" t="n">
-        <v>88151</v>
+        <v>89300</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>57625</v>
+        <v>75031</v>
       </c>
       <c r="I96" s="3" t="n">
-        <v>1063</v>
+        <v>1905</v>
       </c>
       <c r="J96" s="3" t="n">
-        <v>56562</v>
+        <v>73126</v>
       </c>
       <c r="K96" s="3" t="inlineStr"/>
       <c r="L96" s="3" t="n">
-        <v>17957</v>
+        <v>20682</v>
       </c>
       <c r="M96" s="3" t="n">
-        <v>15986</v>
+        <v>13030</v>
       </c>
       <c r="N96" s="3" t="n">
-        <v>6301</v>
+        <v>22099</v>
       </c>
       <c r="O96" s="3" t="n">
-        <v>8828</v>
+        <v>6864</v>
       </c>
       <c r="P96" s="3" t="n">
-        <v>4660</v>
+        <v>6792</v>
       </c>
     </row>
     <row r="97">
@@ -5481,37 +5481,37 @@
       <c r="D97" s="3" t="inlineStr"/>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:36</t>
+          <t>2024-09-16 18:17</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr"/>
       <c r="G97" s="3" t="n">
-        <v>95853</v>
+        <v>98680</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>80845</v>
+        <v>84951</v>
       </c>
       <c r="I97" s="3" t="n">
-        <v>2299</v>
+        <v>1446</v>
       </c>
       <c r="J97" s="3" t="n">
-        <v>78546</v>
+        <v>83505</v>
       </c>
       <c r="K97" s="3" t="inlineStr"/>
       <c r="L97" s="3" t="n">
-        <v>17024</v>
+        <v>19650</v>
       </c>
       <c r="M97" s="3" t="n">
-        <v>14267</v>
+        <v>10958</v>
       </c>
       <c r="N97" s="3" t="n">
-        <v>16968</v>
+        <v>10277</v>
       </c>
       <c r="O97" s="3" t="n">
-        <v>15313</v>
+        <v>21668</v>
       </c>
       <c r="P97" s="3" t="n">
-        <v>11044</v>
+        <v>16774</v>
       </c>
     </row>
     <row r="98">
@@ -5533,37 +5533,37 @@
       <c r="D98" s="3" t="inlineStr"/>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:41</t>
+          <t>2024-09-16 12:01</t>
         </is>
       </c>
       <c r="F98" s="3" t="inlineStr"/>
       <c r="G98" s="3" t="n">
-        <v>102328</v>
+        <v>105531</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>64626</v>
+        <v>77839</v>
       </c>
       <c r="I98" s="3" t="n">
-        <v>1189</v>
+        <v>869</v>
       </c>
       <c r="J98" s="3" t="n">
-        <v>63437</v>
+        <v>76970</v>
       </c>
       <c r="K98" s="3" t="inlineStr"/>
       <c r="L98" s="3" t="n">
-        <v>11467</v>
+        <v>14055</v>
       </c>
       <c r="M98" s="3" t="n">
-        <v>16116</v>
+        <v>17920</v>
       </c>
       <c r="N98" s="3" t="n">
-        <v>17439</v>
+        <v>17878</v>
       </c>
       <c r="O98" s="3" t="n">
-        <v>6162</v>
+        <v>12050</v>
       </c>
       <c r="P98" s="3" t="n">
-        <v>9079</v>
+        <v>11216</v>
       </c>
     </row>
     <row r="99">
@@ -5585,37 +5585,37 @@
       <c r="D99" s="3" t="inlineStr"/>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:14</t>
+          <t>2024-09-16 13:29</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr"/>
       <c r="G99" s="3" t="n">
-        <v>76955</v>
+        <v>77835</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>50626</v>
+        <v>52185</v>
       </c>
       <c r="I99" s="3" t="n">
-        <v>1201</v>
+        <v>1257</v>
       </c>
       <c r="J99" s="3" t="n">
-        <v>49425</v>
+        <v>50928</v>
       </c>
       <c r="K99" s="3" t="inlineStr"/>
       <c r="L99" s="3" t="n">
-        <v>15745</v>
+        <v>11039</v>
       </c>
       <c r="M99" s="3" t="n">
-        <v>9910</v>
+        <v>5913</v>
       </c>
       <c r="N99" s="3" t="n">
-        <v>10136</v>
+        <v>12915</v>
       </c>
       <c r="O99" s="3" t="n">
-        <v>6583</v>
+        <v>11593</v>
       </c>
       <c r="P99" s="3" t="n">
-        <v>4578</v>
+        <v>6919</v>
       </c>
     </row>
     <row r="100">
@@ -5637,37 +5637,37 @@
       <c r="D100" s="3" t="inlineStr"/>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 20:09</t>
+          <t>2024-09-16 18:44</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr"/>
       <c r="G100" s="3" t="n">
-        <v>123404</v>
+        <v>127441</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>75615</v>
+        <v>83275</v>
       </c>
       <c r="I100" s="3" t="n">
-        <v>1971</v>
+        <v>1819</v>
       </c>
       <c r="J100" s="3" t="n">
-        <v>73644</v>
+        <v>81456</v>
       </c>
       <c r="K100" s="3" t="inlineStr"/>
       <c r="L100" s="3" t="n">
-        <v>17801</v>
+        <v>14171</v>
       </c>
       <c r="M100" s="3" t="n">
-        <v>18849</v>
+        <v>11457</v>
       </c>
       <c r="N100" s="3" t="n">
-        <v>15039</v>
+        <v>17059</v>
       </c>
       <c r="O100" s="3" t="n">
-        <v>4576</v>
+        <v>15120</v>
       </c>
       <c r="P100" s="3" t="n">
-        <v>13694</v>
+        <v>19574</v>
       </c>
     </row>
     <row r="101">
@@ -5689,37 +5689,37 @@
       <c r="D101" s="3" t="inlineStr"/>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:36</t>
+          <t>2024-09-16 15:38</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr"/>
       <c r="G101" s="3" t="n">
-        <v>179520</v>
+        <v>173587</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>137137</v>
+        <v>151174</v>
       </c>
       <c r="I101" s="3" t="n">
-        <v>2587</v>
+        <v>4394</v>
       </c>
       <c r="J101" s="3" t="n">
-        <v>134550</v>
+        <v>146780</v>
       </c>
       <c r="K101" s="3" t="inlineStr"/>
       <c r="L101" s="3" t="n">
-        <v>29204</v>
+        <v>34387</v>
       </c>
       <c r="M101" s="3" t="n">
-        <v>34709</v>
+        <v>40408</v>
       </c>
       <c r="N101" s="3" t="n">
-        <v>17827</v>
+        <v>16557</v>
       </c>
       <c r="O101" s="3" t="n">
-        <v>32745</v>
+        <v>41145</v>
       </c>
       <c r="P101" s="3" t="n">
-        <v>13335</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="102">
@@ -5741,37 +5741,37 @@
       <c r="D102" s="3" t="inlineStr"/>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:31</t>
+          <t>2024-09-16 18:27</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr"/>
       <c r="G102" s="3" t="n">
-        <v>24147</v>
+        <v>24919</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>17893</v>
+        <v>18037</v>
       </c>
       <c r="I102" s="3" t="n">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="J102" s="3" t="n">
-        <v>17621</v>
+        <v>17782</v>
       </c>
       <c r="K102" s="3" t="inlineStr"/>
       <c r="L102" s="3" t="n">
-        <v>3865</v>
+        <v>4971</v>
       </c>
       <c r="M102" s="3" t="n">
-        <v>2958</v>
+        <v>4819</v>
       </c>
       <c r="N102" s="3" t="n">
-        <v>4298</v>
+        <v>2817</v>
       </c>
       <c r="O102" s="3" t="n">
-        <v>2927</v>
+        <v>4122</v>
       </c>
       <c r="P102" s="3" t="n">
-        <v>2690</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
@@ -5793,37 +5793,37 @@
       <c r="D103" s="3" t="inlineStr"/>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:05</t>
+          <t>2024-09-16 10:18</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr"/>
       <c r="G103" s="3" t="n">
-        <v>51739</v>
+        <v>53332</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>45061</v>
+        <v>41196</v>
       </c>
       <c r="I103" s="3" t="n">
-        <v>583</v>
+        <v>1144</v>
       </c>
       <c r="J103" s="3" t="n">
-        <v>44478</v>
+        <v>40052</v>
       </c>
       <c r="K103" s="3" t="inlineStr"/>
       <c r="L103" s="3" t="n">
-        <v>16027</v>
+        <v>14681</v>
       </c>
       <c r="M103" s="3" t="n">
-        <v>9805</v>
+        <v>6485</v>
       </c>
       <c r="N103" s="3" t="n">
-        <v>11186</v>
+        <v>12005</v>
       </c>
       <c r="O103" s="3" t="n">
-        <v>3191</v>
+        <v>3595</v>
       </c>
       <c r="P103" s="3" t="n">
-        <v>2043</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="104">
@@ -5845,37 +5845,37 @@
       <c r="D104" s="3" t="inlineStr"/>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:38</t>
+          <t>2024-09-16 14:26</t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr"/>
       <c r="G104" s="3" t="n">
-        <v>61803</v>
+        <v>63848</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>48989</v>
+        <v>49188</v>
       </c>
       <c r="I104" s="3" t="n">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="J104" s="3" t="n">
-        <v>47800</v>
+        <v>48012</v>
       </c>
       <c r="K104" s="3" t="inlineStr"/>
       <c r="L104" s="3" t="n">
-        <v>14167</v>
+        <v>14095</v>
       </c>
       <c r="M104" s="3" t="n">
-        <v>5356</v>
+        <v>8516</v>
       </c>
       <c r="N104" s="3" t="n">
-        <v>11448</v>
+        <v>7432</v>
       </c>
       <c r="O104" s="3" t="n">
-        <v>5366</v>
+        <v>4228</v>
       </c>
       <c r="P104" s="3" t="n">
-        <v>9071</v>
+        <v>11338</v>
       </c>
     </row>
     <row r="105">
@@ -5897,37 +5897,37 @@
       <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:16</t>
+          <t>2024-09-16 13:02</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr"/>
       <c r="G105" s="3" t="n">
-        <v>58328</v>
+        <v>60923</v>
       </c>
       <c r="H105" s="3" t="n">
-        <v>49859</v>
+        <v>41261</v>
       </c>
       <c r="I105" s="3" t="n">
-        <v>781</v>
+        <v>543</v>
       </c>
       <c r="J105" s="3" t="n">
-        <v>49078</v>
+        <v>40718</v>
       </c>
       <c r="K105" s="3" t="inlineStr"/>
       <c r="L105" s="3" t="n">
-        <v>9500</v>
+        <v>9807</v>
       </c>
       <c r="M105" s="3" t="n">
-        <v>17410</v>
+        <v>12416</v>
       </c>
       <c r="N105" s="3" t="n">
-        <v>8849</v>
+        <v>6708</v>
       </c>
       <c r="O105" s="3" t="n">
-        <v>8498</v>
+        <v>7245</v>
       </c>
       <c r="P105" s="3" t="n">
-        <v>2365</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="106">
@@ -5949,37 +5949,37 @@
       <c r="D106" s="3" t="inlineStr"/>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:40</t>
+          <t>2024-09-16 11:31</t>
         </is>
       </c>
       <c r="F106" s="3" t="inlineStr"/>
       <c r="G106" s="3" t="n">
-        <v>63152</v>
+        <v>59987</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>45838</v>
+        <v>44772</v>
       </c>
       <c r="I106" s="3" t="n">
-        <v>499</v>
+        <v>843</v>
       </c>
       <c r="J106" s="3" t="n">
-        <v>45339</v>
+        <v>43929</v>
       </c>
       <c r="K106" s="3" t="inlineStr"/>
       <c r="L106" s="3" t="n">
-        <v>8239</v>
+        <v>8241</v>
       </c>
       <c r="M106" s="3" t="n">
-        <v>10109</v>
+        <v>8359</v>
       </c>
       <c r="N106" s="3" t="n">
-        <v>17046</v>
+        <v>5673</v>
       </c>
       <c r="O106" s="3" t="n">
-        <v>7107</v>
+        <v>10899</v>
       </c>
       <c r="P106" s="3" t="n">
-        <v>569</v>
+        <v>8558</v>
       </c>
     </row>
     <row r="107">
@@ -6001,37 +6001,37 @@
       <c r="D107" s="3" t="inlineStr"/>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:33</t>
+          <t>2024-09-16 08:47</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr"/>
       <c r="G107" s="3" t="n">
-        <v>39991</v>
+        <v>40294</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>25298</v>
+        <v>35317</v>
       </c>
       <c r="I107" s="3" t="n">
-        <v>311</v>
+        <v>592</v>
       </c>
       <c r="J107" s="3" t="n">
-        <v>24987</v>
+        <v>34725</v>
       </c>
       <c r="K107" s="3" t="inlineStr"/>
       <c r="L107" s="3" t="n">
-        <v>7182</v>
+        <v>6351</v>
       </c>
       <c r="M107" s="3" t="n">
-        <v>4685</v>
+        <v>5563</v>
       </c>
       <c r="N107" s="3" t="n">
-        <v>7263</v>
+        <v>9534</v>
       </c>
       <c r="O107" s="3" t="n">
-        <v>3113</v>
+        <v>4008</v>
       </c>
       <c r="P107" s="3" t="n">
-        <v>1492</v>
+        <v>7530</v>
       </c>
     </row>
     <row r="108">
@@ -6053,37 +6053,37 @@
       <c r="D108" s="3" t="inlineStr"/>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:56</t>
+          <t>2024-09-16 16:43</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr"/>
       <c r="G108" s="3" t="n">
-        <v>38861</v>
+        <v>38172</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>32474</v>
+        <v>25480</v>
       </c>
       <c r="I108" s="3" t="n">
-        <v>863</v>
+        <v>750</v>
       </c>
       <c r="J108" s="3" t="n">
-        <v>31611</v>
+        <v>24730</v>
       </c>
       <c r="K108" s="3" t="inlineStr"/>
       <c r="L108" s="3" t="n">
-        <v>6612</v>
+        <v>4878</v>
       </c>
       <c r="M108" s="3" t="n">
-        <v>4646</v>
+        <v>5818</v>
       </c>
       <c r="N108" s="3" t="n">
-        <v>8984</v>
+        <v>7330</v>
       </c>
       <c r="O108" s="3" t="n">
-        <v>6692</v>
+        <v>1973</v>
       </c>
       <c r="P108" s="3" t="n">
-        <v>3093</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="109">
@@ -6105,37 +6105,37 @@
       <c r="D109" s="3" t="inlineStr"/>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:39</t>
+          <t>2024-09-16 13:17</t>
         </is>
       </c>
       <c r="F109" s="3" t="inlineStr"/>
       <c r="G109" s="3" t="n">
-        <v>54977</v>
+        <v>53961</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>40793</v>
+        <v>42457</v>
       </c>
       <c r="I109" s="3" t="n">
-        <v>582</v>
+        <v>906</v>
       </c>
       <c r="J109" s="3" t="n">
-        <v>40211</v>
+        <v>41551</v>
       </c>
       <c r="K109" s="3" t="inlineStr"/>
       <c r="L109" s="3" t="n">
-        <v>11871</v>
+        <v>12102</v>
       </c>
       <c r="M109" s="3" t="n">
-        <v>6589</v>
+        <v>5219</v>
       </c>
       <c r="N109" s="3" t="n">
-        <v>7350</v>
+        <v>12864</v>
       </c>
       <c r="O109" s="3" t="n">
-        <v>4204</v>
+        <v>2322</v>
       </c>
       <c r="P109" s="3" t="n">
-        <v>8184</v>
+        <v>6965</v>
       </c>
     </row>
     <row r="110">
@@ -6157,37 +6157,37 @@
       <c r="D110" s="3" t="inlineStr"/>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:35</t>
+          <t>2024-09-16 11:40</t>
         </is>
       </c>
       <c r="F110" s="3" t="inlineStr"/>
       <c r="G110" s="3" t="n">
-        <v>51813</v>
+        <v>50926</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>34713</v>
+        <v>41182</v>
       </c>
       <c r="I110" s="3" t="n">
-        <v>910</v>
+        <v>604</v>
       </c>
       <c r="J110" s="3" t="n">
-        <v>33803</v>
+        <v>40578</v>
       </c>
       <c r="K110" s="3" t="inlineStr"/>
       <c r="L110" s="3" t="n">
-        <v>11766</v>
+        <v>9274</v>
       </c>
       <c r="M110" s="3" t="n">
-        <v>9574</v>
+        <v>9471</v>
       </c>
       <c r="N110" s="3" t="n">
-        <v>4043</v>
+        <v>10470</v>
       </c>
       <c r="O110" s="3" t="n">
-        <v>2359</v>
+        <v>2671</v>
       </c>
       <c r="P110" s="3" t="n">
-        <v>4369</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="111">
@@ -6209,37 +6209,37 @@
       <c r="D111" s="3" t="inlineStr"/>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:00</t>
+          <t>2024-09-16 11:12</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr"/>
       <c r="G111" s="3" t="n">
-        <v>34367</v>
+        <v>34164</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>21591</v>
+        <v>29124</v>
       </c>
       <c r="I111" s="3" t="n">
-        <v>381</v>
+        <v>765</v>
       </c>
       <c r="J111" s="3" t="n">
-        <v>21210</v>
+        <v>28359</v>
       </c>
       <c r="K111" s="3" t="inlineStr"/>
       <c r="L111" s="3" t="n">
-        <v>7840</v>
+        <v>10673</v>
       </c>
       <c r="M111" s="3" t="n">
-        <v>3403</v>
+        <v>5207</v>
       </c>
       <c r="N111" s="3" t="n">
-        <v>2915</v>
+        <v>4678</v>
       </c>
       <c r="O111" s="3" t="n">
-        <v>1630</v>
+        <v>1242</v>
       </c>
       <c r="P111" s="3" t="n">
-        <v>4360</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="112">
@@ -6261,37 +6261,37 @@
       <c r="D112" s="3" t="inlineStr"/>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:20</t>
+          <t>2024-09-16 13:42</t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr"/>
       <c r="G112" s="3" t="n">
-        <v>94396</v>
+        <v>93450</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>61509</v>
+        <v>61347</v>
       </c>
       <c r="I112" s="3" t="n">
-        <v>1781</v>
+        <v>1645</v>
       </c>
       <c r="J112" s="3" t="n">
-        <v>59728</v>
+        <v>59702</v>
       </c>
       <c r="K112" s="3" t="inlineStr"/>
       <c r="L112" s="3" t="n">
-        <v>13167</v>
+        <v>9878</v>
       </c>
       <c r="M112" s="3" t="n">
-        <v>7926</v>
+        <v>9778</v>
       </c>
       <c r="N112" s="3" t="n">
-        <v>11538</v>
+        <v>7101</v>
       </c>
       <c r="O112" s="3" t="n">
-        <v>14566</v>
+        <v>15913</v>
       </c>
       <c r="P112" s="3" t="n">
-        <v>9543</v>
+        <v>14045</v>
       </c>
     </row>
     <row r="113">
@@ -6313,37 +6313,37 @@
       <c r="D113" s="3" t="inlineStr"/>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:08</t>
+          <t>2024-09-16 11:13</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr"/>
       <c r="G113" s="3" t="n">
-        <v>79700</v>
+        <v>85192</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>49572</v>
+        <v>66727</v>
       </c>
       <c r="I113" s="3" t="n">
-        <v>1346</v>
+        <v>1326</v>
       </c>
       <c r="J113" s="3" t="n">
-        <v>48226</v>
+        <v>65401</v>
       </c>
       <c r="K113" s="3" t="inlineStr"/>
       <c r="L113" s="3" t="n">
-        <v>12823</v>
+        <v>18106</v>
       </c>
       <c r="M113" s="3" t="n">
-        <v>14994</v>
+        <v>17281</v>
       </c>
       <c r="N113" s="3" t="n">
-        <v>6056</v>
+        <v>8842</v>
       </c>
       <c r="O113" s="3" t="n">
-        <v>2448</v>
+        <v>8286</v>
       </c>
       <c r="P113" s="3" t="n">
-        <v>9492</v>
+        <v>9614</v>
       </c>
     </row>
     <row r="114">
@@ -6365,37 +6365,37 @@
       <c r="D114" s="3" t="inlineStr"/>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:02</t>
+          <t>2024-09-16 12:03</t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr"/>
       <c r="G114" s="3" t="n">
-        <v>120908</v>
+        <v>119783</v>
       </c>
       <c r="H114" s="3" t="n">
-        <v>95178</v>
+        <v>102782</v>
       </c>
       <c r="I114" s="3" t="n">
-        <v>1537</v>
+        <v>2219</v>
       </c>
       <c r="J114" s="3" t="n">
-        <v>93641</v>
+        <v>100563</v>
       </c>
       <c r="K114" s="3" t="inlineStr"/>
       <c r="L114" s="3" t="n">
-        <v>27303</v>
+        <v>32565</v>
       </c>
       <c r="M114" s="3" t="n">
-        <v>26845</v>
+        <v>15111</v>
       </c>
       <c r="N114" s="3" t="n">
-        <v>20529</v>
+        <v>21390</v>
       </c>
       <c r="O114" s="3" t="n">
-        <v>10089</v>
+        <v>16596</v>
       </c>
       <c r="P114" s="3" t="n">
-        <v>4190</v>
+        <v>9871</v>
       </c>
     </row>
     <row r="115">
@@ -6417,37 +6417,37 @@
       <c r="D115" s="3" t="inlineStr"/>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:05</t>
+          <t>2024-09-16 17:36</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr"/>
       <c r="G115" s="3" t="n">
-        <v>79735</v>
+        <v>81337</v>
       </c>
       <c r="H115" s="3" t="n">
-        <v>50383</v>
+        <v>70843</v>
       </c>
       <c r="I115" s="3" t="n">
-        <v>913</v>
+        <v>864</v>
       </c>
       <c r="J115" s="3" t="n">
-        <v>49470</v>
+        <v>69979</v>
       </c>
       <c r="K115" s="3" t="inlineStr"/>
       <c r="L115" s="3" t="n">
-        <v>10467</v>
+        <v>21444</v>
       </c>
       <c r="M115" s="3" t="n">
-        <v>9522</v>
+        <v>20002</v>
       </c>
       <c r="N115" s="3" t="n">
-        <v>7429</v>
+        <v>12481</v>
       </c>
       <c r="O115" s="3" t="n">
-        <v>12728</v>
+        <v>8522</v>
       </c>
       <c r="P115" s="3" t="n">
-        <v>6848</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="116">
@@ -6469,37 +6469,37 @@
       <c r="D116" s="3" t="inlineStr"/>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:26</t>
+          <t>2024-09-16 17:20</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr"/>
       <c r="G116" s="3" t="n">
-        <v>121272</v>
+        <v>119546</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>106414</v>
+        <v>106063</v>
       </c>
       <c r="I116" s="3" t="n">
-        <v>1386</v>
+        <v>1942</v>
       </c>
       <c r="J116" s="3" t="n">
-        <v>105028</v>
+        <v>104121</v>
       </c>
       <c r="K116" s="3" t="inlineStr"/>
       <c r="L116" s="3" t="n">
-        <v>21696</v>
+        <v>21614</v>
       </c>
       <c r="M116" s="3" t="n">
-        <v>22415</v>
+        <v>24418</v>
       </c>
       <c r="N116" s="3" t="n">
-        <v>13578</v>
+        <v>12916</v>
       </c>
       <c r="O116" s="3" t="n">
-        <v>23775</v>
+        <v>19346</v>
       </c>
       <c r="P116" s="3" t="n">
-        <v>18310</v>
+        <v>20618</v>
       </c>
     </row>
     <row r="117">
@@ -6521,37 +6521,37 @@
       <c r="D117" s="3" t="inlineStr"/>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:38</t>
+          <t>2024-09-16 17:28</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr"/>
       <c r="G117" s="3" t="n">
-        <v>199731</v>
+        <v>201789</v>
       </c>
       <c r="H117" s="3" t="n">
-        <v>177054</v>
+        <v>149106</v>
       </c>
       <c r="I117" s="3" t="n">
-        <v>4604</v>
+        <v>2830</v>
       </c>
       <c r="J117" s="3" t="n">
-        <v>172450</v>
+        <v>146276</v>
       </c>
       <c r="K117" s="3" t="inlineStr"/>
       <c r="L117" s="3" t="n">
-        <v>44183</v>
+        <v>34825</v>
       </c>
       <c r="M117" s="3" t="n">
-        <v>40919</v>
+        <v>21926</v>
       </c>
       <c r="N117" s="3" t="n">
-        <v>27071</v>
+        <v>36206</v>
       </c>
       <c r="O117" s="3" t="n">
-        <v>17057</v>
+        <v>24322</v>
       </c>
       <c r="P117" s="3" t="n">
-        <v>34595</v>
+        <v>21681</v>
       </c>
     </row>
     <row r="118">
@@ -6573,37 +6573,37 @@
       <c r="D118" s="3" t="inlineStr"/>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:34</t>
+          <t>2024-09-16 11:23</t>
         </is>
       </c>
       <c r="F118" s="3" t="inlineStr"/>
       <c r="G118" s="3" t="n">
-        <v>99030</v>
+        <v>102279</v>
       </c>
       <c r="H118" s="3" t="n">
-        <v>71123</v>
+        <v>90101</v>
       </c>
       <c r="I118" s="3" t="n">
-        <v>817</v>
+        <v>2519</v>
       </c>
       <c r="J118" s="3" t="n">
-        <v>70306</v>
+        <v>87582</v>
       </c>
       <c r="K118" s="3" t="inlineStr"/>
       <c r="L118" s="3" t="n">
-        <v>11781</v>
+        <v>17670</v>
       </c>
       <c r="M118" s="3" t="n">
-        <v>16041</v>
+        <v>22432</v>
       </c>
       <c r="N118" s="3" t="n">
-        <v>11360</v>
+        <v>26688</v>
       </c>
       <c r="O118" s="3" t="n">
-        <v>18468</v>
+        <v>5770</v>
       </c>
       <c r="P118" s="3" t="n">
-        <v>9138</v>
+        <v>10641</v>
       </c>
     </row>
     <row r="119">
@@ -6625,37 +6625,37 @@
       <c r="D119" s="3" t="inlineStr"/>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:22</t>
+          <t>2024-09-16 14:57</t>
         </is>
       </c>
       <c r="F119" s="3" t="inlineStr"/>
       <c r="G119" s="3" t="n">
-        <v>167679</v>
+        <v>166958</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>110471</v>
+        <v>120659</v>
       </c>
       <c r="I119" s="3" t="n">
-        <v>1647</v>
+        <v>2120</v>
       </c>
       <c r="J119" s="3" t="n">
-        <v>108824</v>
+        <v>118539</v>
       </c>
       <c r="K119" s="3" t="inlineStr"/>
       <c r="L119" s="3" t="n">
-        <v>32008</v>
+        <v>35765</v>
       </c>
       <c r="M119" s="3" t="n">
-        <v>22849</v>
+        <v>15164</v>
       </c>
       <c r="N119" s="3" t="n">
-        <v>24209</v>
+        <v>16222</v>
       </c>
       <c r="O119" s="3" t="n">
-        <v>18336</v>
+        <v>20315</v>
       </c>
       <c r="P119" s="3" t="n">
-        <v>5978</v>
+        <v>25144</v>
       </c>
     </row>
     <row r="120">
@@ -6677,37 +6677,37 @@
       <c r="D120" s="3" t="inlineStr"/>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:19</t>
+          <t>2024-09-16 13:31</t>
         </is>
       </c>
       <c r="F120" s="3" t="inlineStr"/>
       <c r="G120" s="3" t="n">
-        <v>89898</v>
+        <v>95783</v>
       </c>
       <c r="H120" s="3" t="n">
-        <v>60784</v>
+        <v>79997</v>
       </c>
       <c r="I120" s="3" t="n">
-        <v>979</v>
+        <v>1384</v>
       </c>
       <c r="J120" s="3" t="n">
-        <v>59805</v>
+        <v>78613</v>
       </c>
       <c r="K120" s="3" t="inlineStr"/>
       <c r="L120" s="3" t="n">
-        <v>10511</v>
+        <v>29875</v>
       </c>
       <c r="M120" s="3" t="n">
-        <v>15547</v>
+        <v>25314</v>
       </c>
       <c r="N120" s="3" t="n">
-        <v>13336</v>
+        <v>11744</v>
       </c>
       <c r="O120" s="3" t="n">
-        <v>16377</v>
+        <v>4260</v>
       </c>
       <c r="P120" s="3" t="n">
-        <v>1041</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="121">
@@ -6729,37 +6729,37 @@
       <c r="D121" s="3" t="inlineStr"/>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:42</t>
+          <t>2024-09-16 10:51</t>
         </is>
       </c>
       <c r="F121" s="3" t="inlineStr"/>
       <c r="G121" s="3" t="n">
-        <v>81121</v>
+        <v>78120</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>52056</v>
+        <v>48006</v>
       </c>
       <c r="I121" s="3" t="n">
-        <v>1387</v>
+        <v>761</v>
       </c>
       <c r="J121" s="3" t="n">
-        <v>50669</v>
+        <v>47245</v>
       </c>
       <c r="K121" s="3" t="inlineStr"/>
       <c r="L121" s="3" t="n">
-        <v>12543</v>
+        <v>13231</v>
       </c>
       <c r="M121" s="3" t="n">
-        <v>5450</v>
+        <v>7939</v>
       </c>
       <c r="N121" s="3" t="n">
-        <v>13518</v>
+        <v>7034</v>
       </c>
       <c r="O121" s="3" t="n">
-        <v>9537</v>
+        <v>6441</v>
       </c>
       <c r="P121" s="3" t="n">
-        <v>7086</v>
+        <v>10235</v>
       </c>
     </row>
     <row r="122">
@@ -6781,37 +6781,37 @@
       <c r="D122" s="3" t="inlineStr"/>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:35</t>
+          <t>2024-09-16 19:14</t>
         </is>
       </c>
       <c r="F122" s="3" t="inlineStr"/>
       <c r="G122" s="3" t="n">
-        <v>167938</v>
+        <v>163729</v>
       </c>
       <c r="H122" s="3" t="n">
-        <v>102032</v>
+        <v>123965</v>
       </c>
       <c r="I122" s="3" t="n">
-        <v>2401</v>
+        <v>2990</v>
       </c>
       <c r="J122" s="3" t="n">
-        <v>99631</v>
+        <v>120975</v>
       </c>
       <c r="K122" s="3" t="inlineStr"/>
       <c r="L122" s="3" t="n">
-        <v>15241</v>
+        <v>25712</v>
       </c>
       <c r="M122" s="3" t="n">
-        <v>16718</v>
+        <v>32070</v>
       </c>
       <c r="N122" s="3" t="n">
-        <v>28442</v>
+        <v>28030</v>
       </c>
       <c r="O122" s="3" t="n">
-        <v>11664</v>
+        <v>21223</v>
       </c>
       <c r="P122" s="3" t="n">
-        <v>22582</v>
+        <v>7888</v>
       </c>
     </row>
     <row r="123">
@@ -6833,37 +6833,37 @@
       <c r="D123" s="3" t="inlineStr"/>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:40</t>
+          <t>2024-09-16 09:13</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr"/>
       <c r="G123" s="3" t="n">
-        <v>75423</v>
+        <v>79759</v>
       </c>
       <c r="H123" s="3" t="n">
-        <v>52361</v>
+        <v>70737</v>
       </c>
       <c r="I123" s="3" t="n">
-        <v>1384</v>
+        <v>1558</v>
       </c>
       <c r="J123" s="3" t="n">
-        <v>50977</v>
+        <v>69179</v>
       </c>
       <c r="K123" s="3" t="inlineStr"/>
       <c r="L123" s="3" t="n">
-        <v>11158</v>
+        <v>9187</v>
       </c>
       <c r="M123" s="3" t="n">
-        <v>9841</v>
+        <v>22097</v>
       </c>
       <c r="N123" s="3" t="n">
-        <v>8195</v>
+        <v>21695</v>
       </c>
       <c r="O123" s="3" t="n">
-        <v>10338</v>
+        <v>7205</v>
       </c>
       <c r="P123" s="3" t="n">
-        <v>8892</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="124">
@@ -6885,37 +6885,37 @@
       <c r="D124" s="3" t="inlineStr"/>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:03</t>
+          <t>2024-09-16 13:42</t>
         </is>
       </c>
       <c r="F124" s="3" t="inlineStr"/>
       <c r="G124" s="3" t="n">
-        <v>97560</v>
+        <v>97327</v>
       </c>
       <c r="H124" s="3" t="n">
-        <v>70746</v>
+        <v>80038</v>
       </c>
       <c r="I124" s="3" t="n">
-        <v>744</v>
+        <v>1121</v>
       </c>
       <c r="J124" s="3" t="n">
-        <v>70002</v>
+        <v>78917</v>
       </c>
       <c r="K124" s="3" t="inlineStr"/>
       <c r="L124" s="3" t="n">
-        <v>21809</v>
+        <v>21357</v>
       </c>
       <c r="M124" s="3" t="n">
-        <v>18482</v>
+        <v>18656</v>
       </c>
       <c r="N124" s="3" t="n">
-        <v>11263</v>
+        <v>7938</v>
       </c>
       <c r="O124" s="3" t="n">
-        <v>6234</v>
+        <v>14115</v>
       </c>
       <c r="P124" s="3" t="n">
-        <v>8712</v>
+        <v>12902</v>
       </c>
     </row>
     <row r="125">
@@ -6937,37 +6937,37 @@
       <c r="D125" s="3" t="inlineStr"/>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:56</t>
+          <t>2024-09-16 16:01</t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr"/>
       <c r="G125" s="3" t="n">
-        <v>111498</v>
+        <v>110398</v>
       </c>
       <c r="H125" s="3" t="n">
-        <v>95981</v>
+        <v>97333</v>
       </c>
       <c r="I125" s="3" t="n">
-        <v>2771</v>
+        <v>1372</v>
       </c>
       <c r="J125" s="3" t="n">
-        <v>93210</v>
+        <v>95961</v>
       </c>
       <c r="K125" s="3" t="inlineStr"/>
       <c r="L125" s="3" t="n">
-        <v>25327</v>
+        <v>19659</v>
       </c>
       <c r="M125" s="3" t="n">
-        <v>25120</v>
+        <v>21099</v>
       </c>
       <c r="N125" s="3" t="n">
-        <v>10018</v>
+        <v>27832</v>
       </c>
       <c r="O125" s="3" t="n">
-        <v>9263</v>
+        <v>5670</v>
       </c>
       <c r="P125" s="3" t="n">
-        <v>18819</v>
+        <v>16901</v>
       </c>
     </row>
     <row r="126">
@@ -6989,37 +6989,37 @@
       <c r="D126" s="3" t="inlineStr"/>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:34</t>
+          <t>2024-09-16 15:46</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr"/>
       <c r="G126" s="3" t="n">
-        <v>110335</v>
+        <v>104501</v>
       </c>
       <c r="H126" s="3" t="n">
-        <v>94896</v>
+        <v>75398</v>
       </c>
       <c r="I126" s="3" t="n">
-        <v>2607</v>
+        <v>1183</v>
       </c>
       <c r="J126" s="3" t="n">
-        <v>92289</v>
+        <v>74215</v>
       </c>
       <c r="K126" s="3" t="inlineStr"/>
       <c r="L126" s="3" t="n">
-        <v>15255</v>
+        <v>19920</v>
       </c>
       <c r="M126" s="3" t="n">
-        <v>24298</v>
+        <v>16423</v>
       </c>
       <c r="N126" s="3" t="n">
-        <v>14110</v>
+        <v>15348</v>
       </c>
       <c r="O126" s="3" t="n">
-        <v>13685</v>
+        <v>7849</v>
       </c>
       <c r="P126" s="3" t="n">
-        <v>20323</v>
+        <v>10961</v>
       </c>
     </row>
     <row r="127">
@@ -7041,37 +7041,37 @@
       <c r="D127" s="3" t="inlineStr"/>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:07</t>
+          <t>2024-09-16 16:01</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr"/>
       <c r="G127" s="3" t="n">
-        <v>97467</v>
+        <v>95456</v>
       </c>
       <c r="H127" s="3" t="n">
-        <v>81232</v>
+        <v>81636</v>
       </c>
       <c r="I127" s="3" t="n">
-        <v>1068</v>
+        <v>1896</v>
       </c>
       <c r="J127" s="3" t="n">
-        <v>80164</v>
+        <v>79740</v>
       </c>
       <c r="K127" s="3" t="inlineStr"/>
       <c r="L127" s="3" t="n">
-        <v>10495</v>
+        <v>18771</v>
       </c>
       <c r="M127" s="3" t="n">
-        <v>20849</v>
+        <v>22050</v>
       </c>
       <c r="N127" s="3" t="n">
-        <v>22935</v>
+        <v>22824</v>
       </c>
       <c r="O127" s="3" t="n">
-        <v>7608</v>
+        <v>7126</v>
       </c>
       <c r="P127" s="3" t="n">
-        <v>14267</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="128">
@@ -7093,37 +7093,37 @@
       <c r="D128" s="3" t="inlineStr"/>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:50</t>
+          <t>2024-09-16 12:42</t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr"/>
       <c r="G128" s="3" t="n">
-        <v>123165</v>
+        <v>119700</v>
       </c>
       <c r="H128" s="3" t="n">
-        <v>76195</v>
+        <v>106129</v>
       </c>
       <c r="I128" s="3" t="n">
-        <v>1948</v>
+        <v>1332</v>
       </c>
       <c r="J128" s="3" t="n">
-        <v>74247</v>
+        <v>104797</v>
       </c>
       <c r="K128" s="3" t="inlineStr"/>
       <c r="L128" s="3" t="n">
-        <v>21551</v>
+        <v>35783</v>
       </c>
       <c r="M128" s="3" t="n">
-        <v>18354</v>
+        <v>26435</v>
       </c>
       <c r="N128" s="3" t="n">
-        <v>21281</v>
+        <v>24150</v>
       </c>
       <c r="O128" s="3" t="n">
-        <v>4931</v>
+        <v>5918</v>
       </c>
       <c r="P128" s="3" t="n">
-        <v>4416</v>
+        <v>7269</v>
       </c>
     </row>
     <row r="129">
@@ -7145,37 +7145,37 @@
       <c r="D129" s="3" t="inlineStr"/>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:47</t>
+          <t>2024-09-16 20:00</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr"/>
       <c r="G129" s="3" t="n">
-        <v>108480</v>
+        <v>103525</v>
       </c>
       <c r="H129" s="3" t="n">
-        <v>96921</v>
+        <v>82950</v>
       </c>
       <c r="I129" s="3" t="n">
-        <v>1063</v>
+        <v>2381</v>
       </c>
       <c r="J129" s="3" t="n">
-        <v>95858</v>
+        <v>80569</v>
       </c>
       <c r="K129" s="3" t="inlineStr"/>
       <c r="L129" s="3" t="n">
-        <v>31059</v>
+        <v>11715</v>
       </c>
       <c r="M129" s="3" t="n">
-        <v>33671</v>
+        <v>17879</v>
       </c>
       <c r="N129" s="3" t="n">
-        <v>18519</v>
+        <v>27136</v>
       </c>
       <c r="O129" s="3" t="n">
-        <v>5089</v>
+        <v>19085</v>
       </c>
       <c r="P129" s="3" t="n">
-        <v>2724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="130">
@@ -7197,37 +7197,37 @@
       <c r="D130" s="3" t="inlineStr"/>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:48</t>
+          <t>2024-09-16 10:54</t>
         </is>
       </c>
       <c r="F130" s="3" t="inlineStr"/>
       <c r="G130" s="3" t="n">
-        <v>81568</v>
+        <v>77209</v>
       </c>
       <c r="H130" s="3" t="n">
-        <v>67109</v>
+        <v>67066</v>
       </c>
       <c r="I130" s="3" t="n">
-        <v>1379</v>
+        <v>1542</v>
       </c>
       <c r="J130" s="3" t="n">
-        <v>65730</v>
+        <v>65524</v>
       </c>
       <c r="K130" s="3" t="inlineStr"/>
       <c r="L130" s="3" t="n">
-        <v>10849</v>
+        <v>16289</v>
       </c>
       <c r="M130" s="3" t="n">
-        <v>12897</v>
+        <v>13142</v>
       </c>
       <c r="N130" s="3" t="n">
-        <v>23529</v>
+        <v>18323</v>
       </c>
       <c r="O130" s="3" t="n">
-        <v>13715</v>
+        <v>13659</v>
       </c>
       <c r="P130" s="3" t="n">
-        <v>1451</v>
+        <v>832</v>
       </c>
     </row>
     <row r="131">
@@ -7249,37 +7249,37 @@
       <c r="D131" s="3" t="inlineStr"/>
       <c r="E131" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:22</t>
+          <t>2024-09-16 15:04</t>
         </is>
       </c>
       <c r="F131" s="3" t="inlineStr"/>
       <c r="G131" s="3" t="n">
-        <v>77271</v>
+        <v>75485</v>
       </c>
       <c r="H131" s="3" t="n">
-        <v>59777</v>
+        <v>66193</v>
       </c>
       <c r="I131" s="3" t="n">
-        <v>1290</v>
+        <v>1631</v>
       </c>
       <c r="J131" s="3" t="n">
-        <v>58487</v>
+        <v>64562</v>
       </c>
       <c r="K131" s="3" t="inlineStr"/>
       <c r="L131" s="3" t="n">
-        <v>16386</v>
+        <v>19254</v>
       </c>
       <c r="M131" s="3" t="n">
-        <v>11831</v>
+        <v>15043</v>
       </c>
       <c r="N131" s="3" t="n">
-        <v>9132</v>
+        <v>13133</v>
       </c>
       <c r="O131" s="3" t="n">
-        <v>11224</v>
+        <v>11751</v>
       </c>
       <c r="P131" s="3" t="n">
-        <v>6987</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="132">
@@ -7301,37 +7301,37 @@
       <c r="D132" s="3" t="inlineStr"/>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:59</t>
+          <t>2024-09-16 17:14</t>
         </is>
       </c>
       <c r="F132" s="3" t="inlineStr"/>
       <c r="G132" s="3" t="n">
-        <v>92363</v>
+        <v>93441</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>75531</v>
+        <v>65550</v>
       </c>
       <c r="I132" s="3" t="n">
-        <v>937</v>
+        <v>1500</v>
       </c>
       <c r="J132" s="3" t="n">
-        <v>74594</v>
+        <v>64050</v>
       </c>
       <c r="K132" s="3" t="inlineStr"/>
       <c r="L132" s="3" t="n">
-        <v>14980</v>
+        <v>18052</v>
       </c>
       <c r="M132" s="3" t="n">
-        <v>23252</v>
+        <v>8925</v>
       </c>
       <c r="N132" s="3" t="n">
-        <v>23619</v>
+        <v>14615</v>
       </c>
       <c r="O132" s="3" t="n">
-        <v>6248</v>
+        <v>7916</v>
       </c>
       <c r="P132" s="3" t="n">
-        <v>2763</v>
+        <v>11337</v>
       </c>
     </row>
     <row r="133">
@@ -7353,37 +7353,37 @@
       <c r="D133" s="3" t="inlineStr"/>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:23</t>
+          <t>2024-09-16 16:39</t>
         </is>
       </c>
       <c r="F133" s="3" t="inlineStr"/>
       <c r="G133" s="3" t="n">
-        <v>99738</v>
+        <v>103157</v>
       </c>
       <c r="H133" s="3" t="n">
-        <v>79784</v>
+        <v>63391</v>
       </c>
       <c r="I133" s="3" t="n">
-        <v>1927</v>
+        <v>1739</v>
       </c>
       <c r="J133" s="3" t="n">
-        <v>77857</v>
+        <v>61652</v>
       </c>
       <c r="K133" s="3" t="inlineStr"/>
       <c r="L133" s="3" t="n">
-        <v>23576</v>
+        <v>11650</v>
       </c>
       <c r="M133" s="3" t="n">
-        <v>14319</v>
+        <v>12916</v>
       </c>
       <c r="N133" s="3" t="n">
-        <v>12801</v>
+        <v>11982</v>
       </c>
       <c r="O133" s="3" t="n">
-        <v>9670</v>
+        <v>11671</v>
       </c>
       <c r="P133" s="3" t="n">
-        <v>13596</v>
+        <v>10349</v>
       </c>
     </row>
     <row r="134">
@@ -7405,37 +7405,37 @@
       <c r="D134" s="3" t="inlineStr"/>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:26</t>
+          <t>2024-09-16 12:36</t>
         </is>
       </c>
       <c r="F134" s="3" t="inlineStr"/>
       <c r="G134" s="3" t="n">
-        <v>104044</v>
+        <v>111119</v>
       </c>
       <c r="H134" s="3" t="n">
-        <v>66051</v>
+        <v>70501</v>
       </c>
       <c r="I134" s="3" t="n">
-        <v>1099</v>
+        <v>1571</v>
       </c>
       <c r="J134" s="3" t="n">
-        <v>64952</v>
+        <v>68930</v>
       </c>
       <c r="K134" s="3" t="inlineStr"/>
       <c r="L134" s="3" t="n">
-        <v>22885</v>
+        <v>14463</v>
       </c>
       <c r="M134" s="3" t="n">
-        <v>8364</v>
+        <v>18247</v>
       </c>
       <c r="N134" s="3" t="n">
-        <v>13342</v>
+        <v>17264</v>
       </c>
       <c r="O134" s="3" t="n">
-        <v>6729</v>
+        <v>6336</v>
       </c>
       <c r="P134" s="3" t="n">
-        <v>10381</v>
+        <v>9171</v>
       </c>
     </row>
     <row r="135">
@@ -7457,37 +7457,37 @@
       <c r="D135" s="3" t="inlineStr"/>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:30</t>
+          <t>2024-09-16 19:03</t>
         </is>
       </c>
       <c r="F135" s="3" t="inlineStr"/>
       <c r="G135" s="3" t="n">
-        <v>99531</v>
+        <v>95595</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>73714</v>
+        <v>57802</v>
       </c>
       <c r="I135" s="3" t="n">
-        <v>1630</v>
+        <v>1320</v>
       </c>
       <c r="J135" s="3" t="n">
-        <v>72084</v>
+        <v>56482</v>
       </c>
       <c r="K135" s="3" t="inlineStr"/>
       <c r="L135" s="3" t="n">
-        <v>19926</v>
+        <v>10457</v>
       </c>
       <c r="M135" s="3" t="n">
-        <v>18034</v>
+        <v>13381</v>
       </c>
       <c r="N135" s="3" t="n">
-        <v>5943</v>
+        <v>13521</v>
       </c>
       <c r="O135" s="3" t="n">
-        <v>14157</v>
+        <v>6985</v>
       </c>
       <c r="P135" s="3" t="n">
-        <v>10418</v>
+        <v>9312</v>
       </c>
     </row>
     <row r="136">
@@ -7509,37 +7509,37 @@
       <c r="D136" s="3" t="inlineStr"/>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:33</t>
+          <t>2024-09-16 15:31</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr"/>
       <c r="G136" s="3" t="n">
-        <v>78708</v>
+        <v>82052</v>
       </c>
       <c r="H136" s="3" t="n">
-        <v>54562</v>
+        <v>60571</v>
       </c>
       <c r="I136" s="3" t="n">
-        <v>1529</v>
+        <v>883</v>
       </c>
       <c r="J136" s="3" t="n">
-        <v>53033</v>
+        <v>59688</v>
       </c>
       <c r="K136" s="3" t="inlineStr"/>
       <c r="L136" s="3" t="n">
-        <v>13979</v>
+        <v>15189</v>
       </c>
       <c r="M136" s="3" t="n">
-        <v>12487</v>
+        <v>20257</v>
       </c>
       <c r="N136" s="3" t="n">
-        <v>7935</v>
+        <v>15791</v>
       </c>
       <c r="O136" s="3" t="n">
-        <v>10780</v>
+        <v>3445</v>
       </c>
       <c r="P136" s="3" t="n">
-        <v>5198</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="137">
@@ -7561,37 +7561,37 @@
       <c r="D137" s="3" t="inlineStr"/>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:32</t>
+          <t>2024-09-16 10:17</t>
         </is>
       </c>
       <c r="F137" s="3" t="inlineStr"/>
       <c r="G137" s="3" t="n">
-        <v>99968</v>
+        <v>92635</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>75019</v>
+        <v>63055</v>
       </c>
       <c r="I137" s="3" t="n">
-        <v>1980</v>
+        <v>1249</v>
       </c>
       <c r="J137" s="3" t="n">
-        <v>73039</v>
+        <v>61806</v>
       </c>
       <c r="K137" s="3" t="inlineStr"/>
       <c r="L137" s="3" t="n">
-        <v>17489</v>
+        <v>17895</v>
       </c>
       <c r="M137" s="3" t="n">
-        <v>19953</v>
+        <v>10403</v>
       </c>
       <c r="N137" s="3" t="n">
-        <v>11341</v>
+        <v>15151</v>
       </c>
       <c r="O137" s="3" t="n">
-        <v>15368</v>
+        <v>6054</v>
       </c>
       <c r="P137" s="3" t="n">
-        <v>5234</v>
+        <v>9210</v>
       </c>
     </row>
     <row r="138">
@@ -7613,37 +7613,37 @@
       <c r="D138" s="3" t="inlineStr"/>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:03</t>
+          <t>2024-09-16 09:00</t>
         </is>
       </c>
       <c r="F138" s="3" t="inlineStr"/>
       <c r="G138" s="3" t="n">
-        <v>96758</v>
+        <v>100003</v>
       </c>
       <c r="H138" s="3" t="n">
-        <v>70468</v>
+        <v>84871</v>
       </c>
       <c r="I138" s="3" t="n">
-        <v>1260</v>
+        <v>1106</v>
       </c>
       <c r="J138" s="3" t="n">
-        <v>69208</v>
+        <v>83765</v>
       </c>
       <c r="K138" s="3" t="inlineStr"/>
       <c r="L138" s="3" t="n">
-        <v>21707</v>
+        <v>21389</v>
       </c>
       <c r="M138" s="3" t="n">
-        <v>15091</v>
+        <v>29015</v>
       </c>
       <c r="N138" s="3" t="n">
-        <v>13443</v>
+        <v>18530</v>
       </c>
       <c r="O138" s="3" t="n">
-        <v>4120</v>
+        <v>5267</v>
       </c>
       <c r="P138" s="3" t="n">
-        <v>11384</v>
+        <v>5373</v>
       </c>
     </row>
     <row r="139">
@@ -7665,37 +7665,37 @@
       <c r="D139" s="3" t="inlineStr"/>
       <c r="E139" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:24</t>
+          <t>2024-09-16 20:05</t>
         </is>
       </c>
       <c r="F139" s="3" t="inlineStr"/>
       <c r="G139" s="3" t="n">
-        <v>77258</v>
+        <v>75328</v>
       </c>
       <c r="H139" s="3" t="n">
-        <v>50376</v>
+        <v>48994</v>
       </c>
       <c r="I139" s="3" t="n">
-        <v>839</v>
+        <v>897</v>
       </c>
       <c r="J139" s="3" t="n">
-        <v>49537</v>
+        <v>48097</v>
       </c>
       <c r="K139" s="3" t="inlineStr"/>
       <c r="L139" s="3" t="n">
-        <v>18494</v>
+        <v>12539</v>
       </c>
       <c r="M139" s="3" t="n">
-        <v>14095</v>
+        <v>8050</v>
       </c>
       <c r="N139" s="3" t="n">
-        <v>10442</v>
+        <v>8601</v>
       </c>
       <c r="O139" s="3" t="n">
-        <v>3579</v>
+        <v>6811</v>
       </c>
       <c r="P139" s="3" t="n">
-        <v>447</v>
+        <v>9689</v>
       </c>
     </row>
     <row r="140">
@@ -7717,37 +7717,37 @@
       <c r="D140" s="3" t="inlineStr"/>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:53</t>
+          <t>2024-09-16 13:41</t>
         </is>
       </c>
       <c r="F140" s="3" t="inlineStr"/>
       <c r="G140" s="3" t="n">
-        <v>159604</v>
+        <v>154048</v>
       </c>
       <c r="H140" s="3" t="n">
-        <v>105253</v>
+        <v>117571</v>
       </c>
       <c r="I140" s="3" t="n">
-        <v>2873</v>
+        <v>2314</v>
       </c>
       <c r="J140" s="3" t="n">
-        <v>102380</v>
+        <v>115257</v>
       </c>
       <c r="K140" s="3" t="inlineStr"/>
       <c r="L140" s="3" t="n">
-        <v>19687</v>
+        <v>21816</v>
       </c>
       <c r="M140" s="3" t="n">
-        <v>33847</v>
+        <v>30000</v>
       </c>
       <c r="N140" s="3" t="n">
-        <v>10387</v>
+        <v>34676</v>
       </c>
       <c r="O140" s="3" t="n">
-        <v>23898</v>
+        <v>20786</v>
       </c>
       <c r="P140" s="3" t="n">
-        <v>9439</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="141">
@@ -7769,37 +7769,37 @@
       <c r="D141" s="3" t="inlineStr"/>
       <c r="E141" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:37</t>
+          <t>2024-09-16 14:06</t>
         </is>
       </c>
       <c r="F141" s="3" t="inlineStr"/>
       <c r="G141" s="3" t="n">
-        <v>125085</v>
+        <v>119689</v>
       </c>
       <c r="H141" s="3" t="n">
-        <v>101996</v>
+        <v>86399</v>
       </c>
       <c r="I141" s="3" t="n">
-        <v>1159</v>
+        <v>2222</v>
       </c>
       <c r="J141" s="3" t="n">
-        <v>100837</v>
+        <v>84177</v>
       </c>
       <c r="K141" s="3" t="inlineStr"/>
       <c r="L141" s="3" t="n">
-        <v>16685</v>
+        <v>19813</v>
       </c>
       <c r="M141" s="3" t="n">
-        <v>18343</v>
+        <v>12249</v>
       </c>
       <c r="N141" s="3" t="n">
-        <v>23454</v>
+        <v>19555</v>
       </c>
       <c r="O141" s="3" t="n">
-        <v>19264</v>
+        <v>22194</v>
       </c>
       <c r="P141" s="3" t="n">
-        <v>18046</v>
+        <v>6154</v>
       </c>
     </row>
     <row r="142">
@@ -7821,37 +7821,37 @@
       <c r="D142" s="3" t="inlineStr"/>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:25</t>
+          <t>2024-09-16 17:28</t>
         </is>
       </c>
       <c r="F142" s="3" t="inlineStr"/>
       <c r="G142" s="3" t="n">
-        <v>127865</v>
+        <v>126489</v>
       </c>
       <c r="H142" s="3" t="n">
-        <v>83914</v>
+        <v>82923</v>
       </c>
       <c r="I142" s="3" t="n">
-        <v>993</v>
+        <v>2161</v>
       </c>
       <c r="J142" s="3" t="n">
-        <v>82921</v>
+        <v>80762</v>
       </c>
       <c r="K142" s="3" t="inlineStr"/>
       <c r="L142" s="3" t="n">
-        <v>21146</v>
+        <v>17645</v>
       </c>
       <c r="M142" s="3" t="n">
-        <v>18504</v>
+        <v>20539</v>
       </c>
       <c r="N142" s="3" t="n">
-        <v>16776</v>
+        <v>11193</v>
       </c>
       <c r="O142" s="3" t="n">
-        <v>14328</v>
+        <v>15101</v>
       </c>
       <c r="P142" s="3" t="n">
-        <v>8019</v>
+        <v>12244</v>
       </c>
     </row>
     <row r="143">
@@ -7873,37 +7873,37 @@
       <c r="D143" s="3" t="inlineStr"/>
       <c r="E143" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:41</t>
+          <t>2024-09-16 18:34</t>
         </is>
       </c>
       <c r="F143" s="3" t="inlineStr"/>
       <c r="G143" s="3" t="n">
-        <v>99391</v>
+        <v>97347</v>
       </c>
       <c r="H143" s="3" t="n">
-        <v>68468</v>
+        <v>85444</v>
       </c>
       <c r="I143" s="3" t="n">
-        <v>1303</v>
+        <v>1044</v>
       </c>
       <c r="J143" s="3" t="n">
-        <v>67165</v>
+        <v>84400</v>
       </c>
       <c r="K143" s="3" t="inlineStr"/>
       <c r="L143" s="3" t="n">
-        <v>20394</v>
+        <v>15021</v>
       </c>
       <c r="M143" s="3" t="n">
-        <v>11776</v>
+        <v>26263</v>
       </c>
       <c r="N143" s="3" t="n">
-        <v>18611</v>
+        <v>18365</v>
       </c>
       <c r="O143" s="3" t="n">
-        <v>8472</v>
+        <v>8675</v>
       </c>
       <c r="P143" s="3" t="n">
-        <v>4551</v>
+        <v>11854</v>
       </c>
     </row>
     <row r="144">
@@ -7925,37 +7925,37 @@
       <c r="D144" s="3" t="inlineStr"/>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:02</t>
+          <t>2024-09-16 11:05</t>
         </is>
       </c>
       <c r="F144" s="3" t="inlineStr"/>
       <c r="G144" s="3" t="n">
-        <v>113988</v>
+        <v>116358</v>
       </c>
       <c r="H144" s="3" t="n">
-        <v>85971</v>
+        <v>82968</v>
       </c>
       <c r="I144" s="3" t="n">
-        <v>1212</v>
+        <v>972</v>
       </c>
       <c r="J144" s="3" t="n">
-        <v>84759</v>
+        <v>81996</v>
       </c>
       <c r="K144" s="3" t="inlineStr"/>
       <c r="L144" s="3" t="n">
-        <v>14679</v>
+        <v>17928</v>
       </c>
       <c r="M144" s="3" t="n">
-        <v>16853</v>
+        <v>13940</v>
       </c>
       <c r="N144" s="3" t="n">
-        <v>14417</v>
+        <v>25914</v>
       </c>
       <c r="O144" s="3" t="n">
-        <v>21438</v>
+        <v>14274</v>
       </c>
       <c r="P144" s="3" t="n">
-        <v>13132</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="145">
@@ -7977,37 +7977,37 @@
       <c r="D145" s="3" t="inlineStr"/>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:01</t>
+          <t>2024-09-16 13:33</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr"/>
       <c r="G145" s="3" t="n">
-        <v>88432</v>
+        <v>90607</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>77621</v>
+        <v>73785</v>
       </c>
       <c r="I145" s="3" t="n">
-        <v>891</v>
+        <v>1924</v>
       </c>
       <c r="J145" s="3" t="n">
-        <v>76730</v>
+        <v>71861</v>
       </c>
       <c r="K145" s="3" t="inlineStr"/>
       <c r="L145" s="3" t="n">
-        <v>18649</v>
+        <v>22106</v>
       </c>
       <c r="M145" s="3" t="n">
-        <v>25316</v>
+        <v>21066</v>
       </c>
       <c r="N145" s="3" t="n">
-        <v>14995</v>
+        <v>11755</v>
       </c>
       <c r="O145" s="3" t="n">
-        <v>5644</v>
+        <v>3191</v>
       </c>
       <c r="P145" s="3" t="n">
-        <v>8287</v>
+        <v>10147</v>
       </c>
     </row>
     <row r="146">
@@ -8029,37 +8029,37 @@
       <c r="D146" s="3" t="inlineStr"/>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:37</t>
+          <t>2024-09-16 16:45</t>
         </is>
       </c>
       <c r="F146" s="3" t="inlineStr"/>
       <c r="G146" s="3" t="n">
-        <v>80613</v>
+        <v>84210</v>
       </c>
       <c r="H146" s="3" t="n">
-        <v>57587</v>
+        <v>52221</v>
       </c>
       <c r="I146" s="3" t="n">
-        <v>953</v>
+        <v>712</v>
       </c>
       <c r="J146" s="3" t="n">
-        <v>56634</v>
+        <v>51509</v>
       </c>
       <c r="K146" s="3" t="inlineStr"/>
       <c r="L146" s="3" t="n">
-        <v>15446</v>
+        <v>11855</v>
       </c>
       <c r="M146" s="3" t="n">
-        <v>16142</v>
+        <v>9300</v>
       </c>
       <c r="N146" s="3" t="n">
-        <v>10912</v>
+        <v>10640</v>
       </c>
       <c r="O146" s="3" t="n">
-        <v>7276</v>
+        <v>9380</v>
       </c>
       <c r="P146" s="3" t="n">
-        <v>4024</v>
+        <v>7756</v>
       </c>
     </row>
     <row r="147">
@@ -8081,37 +8081,37 @@
       <c r="D147" s="3" t="inlineStr"/>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:54</t>
+          <t>2024-09-16 12:03</t>
         </is>
       </c>
       <c r="F147" s="3" t="inlineStr"/>
       <c r="G147" s="3" t="n">
-        <v>102786</v>
+        <v>106663</v>
       </c>
       <c r="H147" s="3" t="n">
-        <v>71881</v>
+        <v>73238</v>
       </c>
       <c r="I147" s="3" t="n">
-        <v>1914</v>
+        <v>2058</v>
       </c>
       <c r="J147" s="3" t="n">
-        <v>69967</v>
+        <v>71180</v>
       </c>
       <c r="K147" s="3" t="inlineStr"/>
       <c r="L147" s="3" t="n">
-        <v>20160</v>
+        <v>10554</v>
       </c>
       <c r="M147" s="3" t="n">
-        <v>17319</v>
+        <v>19669</v>
       </c>
       <c r="N147" s="3" t="n">
-        <v>12263</v>
+        <v>14803</v>
       </c>
       <c r="O147" s="3" t="n">
-        <v>7197</v>
+        <v>12798</v>
       </c>
       <c r="P147" s="3" t="n">
-        <v>9528</v>
+        <v>9794</v>
       </c>
     </row>
     <row r="148">
@@ -8133,37 +8133,37 @@
       <c r="D148" s="3" t="inlineStr"/>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 20:12</t>
+          <t>2024-09-16 11:10</t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr"/>
       <c r="G148" s="3" t="n">
-        <v>106484</v>
+        <v>107145</v>
       </c>
       <c r="H148" s="3" t="n">
-        <v>80796</v>
+        <v>93733</v>
       </c>
       <c r="I148" s="3" t="n">
-        <v>2096</v>
+        <v>2498</v>
       </c>
       <c r="J148" s="3" t="n">
-        <v>78700</v>
+        <v>91235</v>
       </c>
       <c r="K148" s="3" t="inlineStr"/>
       <c r="L148" s="3" t="n">
-        <v>19927</v>
+        <v>22777</v>
       </c>
       <c r="M148" s="3" t="n">
-        <v>20648</v>
+        <v>37183</v>
       </c>
       <c r="N148" s="3" t="n">
-        <v>16420</v>
+        <v>12366</v>
       </c>
       <c r="O148" s="3" t="n">
-        <v>2340</v>
+        <v>10808</v>
       </c>
       <c r="P148" s="3" t="n">
-        <v>15429</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="149">
@@ -8185,37 +8185,37 @@
       <c r="D149" s="3" t="inlineStr"/>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:38</t>
+          <t>2024-09-16 11:31</t>
         </is>
       </c>
       <c r="F149" s="3" t="inlineStr"/>
       <c r="G149" s="3" t="n">
-        <v>130079</v>
+        <v>126549</v>
       </c>
       <c r="H149" s="3" t="n">
-        <v>103707</v>
+        <v>77980</v>
       </c>
       <c r="I149" s="3" t="n">
-        <v>1922</v>
+        <v>1905</v>
       </c>
       <c r="J149" s="3" t="n">
-        <v>101785</v>
+        <v>76075</v>
       </c>
       <c r="K149" s="3" t="inlineStr"/>
       <c r="L149" s="3" t="n">
-        <v>19721</v>
+        <v>19981</v>
       </c>
       <c r="M149" s="3" t="n">
-        <v>15611</v>
+        <v>23256</v>
       </c>
       <c r="N149" s="3" t="n">
-        <v>18580</v>
+        <v>11407</v>
       </c>
       <c r="O149" s="3" t="n">
-        <v>17650</v>
+        <v>3439</v>
       </c>
       <c r="P149" s="3" t="n">
-        <v>25131</v>
+        <v>14186</v>
       </c>
     </row>
     <row r="150">
@@ -8237,37 +8237,37 @@
       <c r="D150" s="3" t="inlineStr"/>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:28</t>
+          <t>2024-09-16 09:42</t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr"/>
       <c r="G150" s="3" t="n">
-        <v>65487</v>
+        <v>71751</v>
       </c>
       <c r="H150" s="3" t="n">
-        <v>51366</v>
+        <v>50929</v>
       </c>
       <c r="I150" s="3" t="n">
-        <v>1503</v>
+        <v>1280</v>
       </c>
       <c r="J150" s="3" t="n">
-        <v>49863</v>
+        <v>49649</v>
       </c>
       <c r="K150" s="3" t="inlineStr"/>
       <c r="L150" s="3" t="n">
-        <v>15003</v>
+        <v>12276</v>
       </c>
       <c r="M150" s="3" t="n">
-        <v>8582</v>
+        <v>10803</v>
       </c>
       <c r="N150" s="3" t="n">
-        <v>10860</v>
+        <v>11039</v>
       </c>
       <c r="O150" s="3" t="n">
-        <v>10048</v>
+        <v>8695</v>
       </c>
       <c r="P150" s="3" t="n">
-        <v>2874</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="151">
@@ -8289,37 +8289,37 @@
       <c r="D151" s="3" t="inlineStr"/>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:52</t>
+          <t>2024-09-16 09:45</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr"/>
       <c r="G151" s="3" t="n">
-        <v>91179</v>
+        <v>86986</v>
       </c>
       <c r="H151" s="3" t="n">
-        <v>77170</v>
+        <v>74123</v>
       </c>
       <c r="I151" s="3" t="n">
-        <v>937</v>
+        <v>811</v>
       </c>
       <c r="J151" s="3" t="n">
-        <v>76233</v>
+        <v>73312</v>
       </c>
       <c r="K151" s="3" t="inlineStr"/>
       <c r="L151" s="3" t="n">
-        <v>26025</v>
+        <v>19476</v>
       </c>
       <c r="M151" s="3" t="n">
-        <v>16397</v>
+        <v>25188</v>
       </c>
       <c r="N151" s="3" t="n">
-        <v>12984</v>
+        <v>20307</v>
       </c>
       <c r="O151" s="3" t="n">
-        <v>15969</v>
+        <v>3308</v>
       </c>
       <c r="P151" s="3" t="n">
-        <v>1044</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="152">
@@ -8341,37 +8341,37 @@
       <c r="D152" s="3" t="inlineStr"/>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:52</t>
+          <t>2024-09-16 13:57</t>
         </is>
       </c>
       <c r="F152" s="3" t="inlineStr"/>
       <c r="G152" s="3" t="n">
-        <v>86528</v>
+        <v>88299</v>
       </c>
       <c r="H152" s="3" t="n">
-        <v>63338</v>
+        <v>63196</v>
       </c>
       <c r="I152" s="3" t="n">
-        <v>1234</v>
+        <v>1077</v>
       </c>
       <c r="J152" s="3" t="n">
-        <v>62104</v>
+        <v>62119</v>
       </c>
       <c r="K152" s="3" t="inlineStr"/>
       <c r="L152" s="3" t="n">
-        <v>15493</v>
+        <v>17571</v>
       </c>
       <c r="M152" s="3" t="n">
-        <v>15586</v>
+        <v>17992</v>
       </c>
       <c r="N152" s="3" t="n">
-        <v>12787</v>
+        <v>6262</v>
       </c>
       <c r="O152" s="3" t="n">
-        <v>10268</v>
+        <v>8730</v>
       </c>
       <c r="P152" s="3" t="n">
-        <v>4862</v>
+        <v>8457</v>
       </c>
     </row>
     <row r="153">
@@ -8393,37 +8393,37 @@
       <c r="D153" s="3" t="inlineStr"/>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:40</t>
+          <t>2024-09-16 09:11</t>
         </is>
       </c>
       <c r="F153" s="3" t="inlineStr"/>
       <c r="G153" s="3" t="n">
-        <v>78316</v>
+        <v>83688</v>
       </c>
       <c r="H153" s="3" t="n">
-        <v>58953</v>
+        <v>59097</v>
       </c>
       <c r="I153" s="3" t="n">
-        <v>1608</v>
+        <v>1572</v>
       </c>
       <c r="J153" s="3" t="n">
-        <v>57345</v>
+        <v>57525</v>
       </c>
       <c r="K153" s="3" t="inlineStr"/>
       <c r="L153" s="3" t="n">
-        <v>12599</v>
+        <v>13433</v>
       </c>
       <c r="M153" s="3" t="n">
-        <v>18286</v>
+        <v>14590</v>
       </c>
       <c r="N153" s="3" t="n">
-        <v>15782</v>
+        <v>5446</v>
       </c>
       <c r="O153" s="3" t="n">
-        <v>4406</v>
+        <v>11245</v>
       </c>
       <c r="P153" s="3" t="n">
-        <v>3402</v>
+        <v>9932</v>
       </c>
     </row>
     <row r="154">
@@ -8445,37 +8445,37 @@
       <c r="D154" s="3" t="inlineStr"/>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:29</t>
+          <t>2024-09-16 09:02</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr"/>
       <c r="G154" s="3" t="n">
-        <v>157917</v>
+        <v>153968</v>
       </c>
       <c r="H154" s="3" t="n">
-        <v>120908</v>
+        <v>103147</v>
       </c>
       <c r="I154" s="3" t="n">
-        <v>2132</v>
+        <v>2912</v>
       </c>
       <c r="J154" s="3" t="n">
-        <v>118776</v>
+        <v>100235</v>
       </c>
       <c r="K154" s="3" t="inlineStr"/>
       <c r="L154" s="3" t="n">
-        <v>29097</v>
+        <v>13572</v>
       </c>
       <c r="M154" s="3" t="n">
-        <v>44549</v>
+        <v>18494</v>
       </c>
       <c r="N154" s="3" t="n">
-        <v>13356</v>
+        <v>28695</v>
       </c>
       <c r="O154" s="3" t="n">
-        <v>17208</v>
+        <v>22152</v>
       </c>
       <c r="P154" s="3" t="n">
-        <v>8624</v>
+        <v>12309</v>
       </c>
     </row>
     <row r="155">
@@ -8497,37 +8497,37 @@
       <c r="D155" s="3" t="inlineStr"/>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:56</t>
+          <t>2024-09-16 10:23</t>
         </is>
       </c>
       <c r="F155" s="3" t="inlineStr"/>
       <c r="G155" s="3" t="n">
-        <v>99876</v>
+        <v>105972</v>
       </c>
       <c r="H155" s="3" t="n">
-        <v>73181</v>
+        <v>80046</v>
       </c>
       <c r="I155" s="3" t="n">
-        <v>1581</v>
+        <v>1221</v>
       </c>
       <c r="J155" s="3" t="n">
-        <v>71600</v>
+        <v>78825</v>
       </c>
       <c r="K155" s="3" t="inlineStr"/>
       <c r="L155" s="3" t="n">
-        <v>18856</v>
+        <v>24910</v>
       </c>
       <c r="M155" s="3" t="n">
-        <v>16947</v>
+        <v>13458</v>
       </c>
       <c r="N155" s="3" t="n">
-        <v>12957</v>
+        <v>9670</v>
       </c>
       <c r="O155" s="3" t="n">
-        <v>12634</v>
+        <v>12309</v>
       </c>
       <c r="P155" s="3" t="n">
-        <v>6622</v>
+        <v>14533</v>
       </c>
     </row>
     <row r="156">
@@ -8549,37 +8549,37 @@
       <c r="D156" s="3" t="inlineStr"/>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:13</t>
+          <t>2024-09-16 14:23</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr"/>
       <c r="G156" s="3" t="n">
-        <v>55324</v>
+        <v>55640</v>
       </c>
       <c r="H156" s="3" t="n">
-        <v>33213</v>
+        <v>36773</v>
       </c>
       <c r="I156" s="3" t="n">
-        <v>373</v>
+        <v>511</v>
       </c>
       <c r="J156" s="3" t="n">
-        <v>32840</v>
+        <v>36262</v>
       </c>
       <c r="K156" s="3" t="inlineStr"/>
       <c r="L156" s="3" t="n">
-        <v>9053</v>
+        <v>10537</v>
       </c>
       <c r="M156" s="3" t="n">
-        <v>8418</v>
+        <v>6884</v>
       </c>
       <c r="N156" s="3" t="n">
-        <v>8253</v>
+        <v>5773</v>
       </c>
       <c r="O156" s="3" t="n">
-        <v>2430</v>
+        <v>3278</v>
       </c>
       <c r="P156" s="3" t="n">
-        <v>3041</v>
+        <v>7974</v>
       </c>
     </row>
     <row r="157">
@@ -8601,37 +8601,37 @@
       <c r="D157" s="3" t="inlineStr"/>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:16</t>
+          <t>2024-09-16 17:18</t>
         </is>
       </c>
       <c r="F157" s="3" t="inlineStr"/>
       <c r="G157" s="3" t="n">
-        <v>68176</v>
+        <v>65565</v>
       </c>
       <c r="H157" s="3" t="n">
-        <v>60223</v>
+        <v>42597</v>
       </c>
       <c r="I157" s="3" t="n">
-        <v>745</v>
+        <v>710</v>
       </c>
       <c r="J157" s="3" t="n">
-        <v>59478</v>
+        <v>41887</v>
       </c>
       <c r="K157" s="3" t="inlineStr"/>
       <c r="L157" s="3" t="n">
-        <v>11283</v>
+        <v>12331</v>
       </c>
       <c r="M157" s="3" t="n">
-        <v>12930</v>
+        <v>10371</v>
       </c>
       <c r="N157" s="3" t="n">
-        <v>18416</v>
+        <v>5139</v>
       </c>
       <c r="O157" s="3" t="n">
-        <v>4004</v>
+        <v>9188</v>
       </c>
       <c r="P157" s="3" t="n">
-        <v>9869</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="158">
@@ -8653,37 +8653,37 @@
       <c r="D158" s="3" t="inlineStr"/>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:50</t>
+          <t>2024-09-16 09:23</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr"/>
       <c r="G158" s="3" t="n">
-        <v>57184</v>
+        <v>54371</v>
       </c>
       <c r="H158" s="3" t="n">
-        <v>38777</v>
+        <v>47859</v>
       </c>
       <c r="I158" s="3" t="n">
-        <v>580</v>
+        <v>924</v>
       </c>
       <c r="J158" s="3" t="n">
-        <v>38197</v>
+        <v>46935</v>
       </c>
       <c r="K158" s="3" t="inlineStr"/>
       <c r="L158" s="3" t="n">
-        <v>11674</v>
+        <v>6413</v>
       </c>
       <c r="M158" s="3" t="n">
-        <v>9688</v>
+        <v>10523</v>
       </c>
       <c r="N158" s="3" t="n">
-        <v>7345</v>
+        <v>10522</v>
       </c>
       <c r="O158" s="3" t="n">
-        <v>2813</v>
+        <v>7787</v>
       </c>
       <c r="P158" s="3" t="n">
-        <v>4765</v>
+        <v>9341</v>
       </c>
     </row>
     <row r="159">
@@ -8705,37 +8705,37 @@
       <c r="D159" s="3" t="inlineStr"/>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:19</t>
+          <t>2024-09-16 17:52</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr"/>
       <c r="G159" s="3" t="n">
-        <v>76487</v>
+        <v>75155</v>
       </c>
       <c r="H159" s="3" t="n">
-        <v>50922</v>
+        <v>59323</v>
       </c>
       <c r="I159" s="3" t="n">
-        <v>932</v>
+        <v>1258</v>
       </c>
       <c r="J159" s="3" t="n">
-        <v>49990</v>
+        <v>58065</v>
       </c>
       <c r="K159" s="3" t="inlineStr"/>
       <c r="L159" s="3" t="n">
-        <v>8122</v>
+        <v>14483</v>
       </c>
       <c r="M159" s="3" t="n">
-        <v>16576</v>
+        <v>15383</v>
       </c>
       <c r="N159" s="3" t="n">
-        <v>10484</v>
+        <v>12662</v>
       </c>
       <c r="O159" s="3" t="n">
-        <v>4494</v>
+        <v>10609</v>
       </c>
       <c r="P159" s="3" t="n">
-        <v>7811</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="160">
@@ -8757,37 +8757,37 @@
       <c r="D160" s="3" t="inlineStr"/>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:47</t>
+          <t>2024-09-16 20:10</t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr"/>
       <c r="G160" s="3" t="n">
-        <v>67948</v>
+        <v>62559</v>
       </c>
       <c r="H160" s="3" t="n">
-        <v>44097</v>
+        <v>40678</v>
       </c>
       <c r="I160" s="3" t="n">
-        <v>601</v>
+        <v>1212</v>
       </c>
       <c r="J160" s="3" t="n">
-        <v>43496</v>
+        <v>39466</v>
       </c>
       <c r="K160" s="3" t="inlineStr"/>
       <c r="L160" s="3" t="n">
-        <v>10784</v>
+        <v>12425</v>
       </c>
       <c r="M160" s="3" t="n">
-        <v>8939</v>
+        <v>13369</v>
       </c>
       <c r="N160" s="3" t="n">
-        <v>10574</v>
+        <v>7672</v>
       </c>
       <c r="O160" s="3" t="n">
-        <v>4664</v>
+        <v>3137</v>
       </c>
       <c r="P160" s="3" t="n">
-        <v>6357</v>
+        <v>888</v>
       </c>
     </row>
     <row r="161">
@@ -8809,37 +8809,37 @@
       <c r="D161" s="3" t="inlineStr"/>
       <c r="E161" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:46</t>
+          <t>2024-09-16 10:26</t>
         </is>
       </c>
       <c r="F161" s="3" t="inlineStr"/>
       <c r="G161" s="3" t="n">
-        <v>80637</v>
+        <v>82043</v>
       </c>
       <c r="H161" s="3" t="n">
-        <v>54166</v>
+        <v>52213</v>
       </c>
       <c r="I161" s="3" t="n">
-        <v>1050</v>
+        <v>1373</v>
       </c>
       <c r="J161" s="3" t="n">
-        <v>53116</v>
+        <v>50840</v>
       </c>
       <c r="K161" s="3" t="inlineStr"/>
       <c r="L161" s="3" t="n">
-        <v>12093</v>
+        <v>11728</v>
       </c>
       <c r="M161" s="3" t="n">
-        <v>8153</v>
+        <v>10511</v>
       </c>
       <c r="N161" s="3" t="n">
-        <v>10332</v>
+        <v>8254</v>
       </c>
       <c r="O161" s="3" t="n">
-        <v>14322</v>
+        <v>9731</v>
       </c>
       <c r="P161" s="3" t="n">
-        <v>5558</v>
+        <v>8071</v>
       </c>
     </row>
     <row r="162">
@@ -8861,37 +8861,37 @@
       <c r="D162" s="3" t="inlineStr"/>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:51</t>
+          <t>2024-09-16 13:28</t>
         </is>
       </c>
       <c r="F162" s="3" t="inlineStr"/>
       <c r="G162" s="3" t="n">
-        <v>88240</v>
+        <v>87498</v>
       </c>
       <c r="H162" s="3" t="n">
-        <v>76036</v>
+        <v>77034</v>
       </c>
       <c r="I162" s="3" t="n">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="J162" s="3" t="n">
-        <v>75143</v>
+        <v>76131</v>
       </c>
       <c r="K162" s="3" t="inlineStr"/>
       <c r="L162" s="3" t="n">
-        <v>17672</v>
+        <v>20262</v>
       </c>
       <c r="M162" s="3" t="n">
-        <v>15042</v>
+        <v>13824</v>
       </c>
       <c r="N162" s="3" t="n">
-        <v>13014</v>
+        <v>22607</v>
       </c>
       <c r="O162" s="3" t="n">
-        <v>19564</v>
+        <v>13480</v>
       </c>
       <c r="P162" s="3" t="n">
-        <v>6091</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="163">
@@ -8913,37 +8913,37 @@
       <c r="D163" s="3" t="inlineStr"/>
       <c r="E163" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:26</t>
+          <t>2024-09-16 19:59</t>
         </is>
       </c>
       <c r="F163" s="3" t="inlineStr"/>
       <c r="G163" s="3" t="n">
-        <v>70137</v>
+        <v>71901</v>
       </c>
       <c r="H163" s="3" t="n">
-        <v>42636</v>
+        <v>56814</v>
       </c>
       <c r="I163" s="3" t="n">
-        <v>448</v>
+        <v>871</v>
       </c>
       <c r="J163" s="3" t="n">
-        <v>42188</v>
+        <v>55943</v>
       </c>
       <c r="K163" s="3" t="inlineStr"/>
       <c r="L163" s="3" t="n">
-        <v>6374</v>
+        <v>11670</v>
       </c>
       <c r="M163" s="3" t="n">
-        <v>10498</v>
+        <v>12756</v>
       </c>
       <c r="N163" s="3" t="n">
-        <v>10880</v>
+        <v>10788</v>
       </c>
       <c r="O163" s="3" t="n">
-        <v>2865</v>
+        <v>12752</v>
       </c>
       <c r="P163" s="3" t="n">
-        <v>9459</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="164">
@@ -8965,37 +8965,37 @@
       <c r="D164" s="3" t="inlineStr"/>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:14</t>
+          <t>2024-09-16 09:32</t>
         </is>
       </c>
       <c r="F164" s="3" t="inlineStr"/>
       <c r="G164" s="3" t="n">
-        <v>83839</v>
+        <v>86225</v>
       </c>
       <c r="H164" s="3" t="n">
-        <v>61590</v>
+        <v>54254</v>
       </c>
       <c r="I164" s="3" t="n">
-        <v>1082</v>
+        <v>1329</v>
       </c>
       <c r="J164" s="3" t="n">
-        <v>60508</v>
+        <v>52925</v>
       </c>
       <c r="K164" s="3" t="inlineStr"/>
       <c r="L164" s="3" t="n">
-        <v>11541</v>
+        <v>19899</v>
       </c>
       <c r="M164" s="3" t="n">
-        <v>20977</v>
+        <v>14139</v>
       </c>
       <c r="N164" s="3" t="n">
-        <v>13624</v>
+        <v>9592</v>
       </c>
       <c r="O164" s="3" t="n">
-        <v>5749</v>
+        <v>5984</v>
       </c>
       <c r="P164" s="3" t="n">
-        <v>5589</v>
+        <v>661</v>
       </c>
     </row>
     <row r="165">
@@ -9017,37 +9017,37 @@
       <c r="D165" s="3" t="inlineStr"/>
       <c r="E165" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:18</t>
+          <t>2024-09-16 18:47</t>
         </is>
       </c>
       <c r="F165" s="3" t="inlineStr"/>
       <c r="G165" s="3" t="n">
-        <v>116948</v>
+        <v>109702</v>
       </c>
       <c r="H165" s="3" t="n">
-        <v>76032</v>
+        <v>84059</v>
       </c>
       <c r="I165" s="3" t="n">
-        <v>1199</v>
+        <v>1705</v>
       </c>
       <c r="J165" s="3" t="n">
-        <v>74833</v>
+        <v>82354</v>
       </c>
       <c r="K165" s="3" t="inlineStr"/>
       <c r="L165" s="3" t="n">
-        <v>16146</v>
+        <v>18767</v>
       </c>
       <c r="M165" s="3" t="n">
-        <v>20304</v>
+        <v>20355</v>
       </c>
       <c r="N165" s="3" t="n">
-        <v>17253</v>
+        <v>27384</v>
       </c>
       <c r="O165" s="3" t="n">
-        <v>10349</v>
+        <v>4202</v>
       </c>
       <c r="P165" s="3" t="n">
-        <v>7038</v>
+        <v>7524</v>
       </c>
     </row>
     <row r="166">
@@ -9069,37 +9069,37 @@
       <c r="D166" s="3" t="inlineStr"/>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:39</t>
+          <t>2024-09-16 10:59</t>
         </is>
       </c>
       <c r="F166" s="3" t="inlineStr"/>
       <c r="G166" s="3" t="n">
-        <v>171122</v>
+        <v>167096</v>
       </c>
       <c r="H166" s="3" t="n">
-        <v>153251</v>
+        <v>138314</v>
       </c>
       <c r="I166" s="3" t="n">
-        <v>4344</v>
+        <v>3702</v>
       </c>
       <c r="J166" s="3" t="n">
-        <v>148907</v>
+        <v>134612</v>
       </c>
       <c r="K166" s="3" t="inlineStr"/>
       <c r="L166" s="3" t="n">
-        <v>28576</v>
+        <v>26994</v>
       </c>
       <c r="M166" s="3" t="n">
-        <v>46852</v>
+        <v>48653</v>
       </c>
       <c r="N166" s="3" t="n">
-        <v>25765</v>
+        <v>15272</v>
       </c>
       <c r="O166" s="3" t="n">
-        <v>26953</v>
+        <v>11126</v>
       </c>
       <c r="P166" s="3" t="n">
-        <v>13314</v>
+        <v>25833</v>
       </c>
     </row>
     <row r="167">
@@ -9121,37 +9121,37 @@
       <c r="D167" s="3" t="inlineStr"/>
       <c r="E167" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:11</t>
+          <t>2024-09-16 14:48</t>
         </is>
       </c>
       <c r="F167" s="3" t="inlineStr"/>
       <c r="G167" s="3" t="n">
-        <v>102476</v>
+        <v>99331</v>
       </c>
       <c r="H167" s="3" t="n">
-        <v>90912</v>
+        <v>75892</v>
       </c>
       <c r="I167" s="3" t="n">
-        <v>2708</v>
+        <v>902</v>
       </c>
       <c r="J167" s="3" t="n">
-        <v>88204</v>
+        <v>74990</v>
       </c>
       <c r="K167" s="3" t="inlineStr"/>
       <c r="L167" s="3" t="n">
-        <v>28797</v>
+        <v>21595</v>
       </c>
       <c r="M167" s="3" t="n">
-        <v>13178</v>
+        <v>13241</v>
       </c>
       <c r="N167" s="3" t="n">
-        <v>13728</v>
+        <v>12557</v>
       </c>
       <c r="O167" s="3" t="n">
-        <v>14686</v>
+        <v>12471</v>
       </c>
       <c r="P167" s="3" t="n">
-        <v>13401</v>
+        <v>11374</v>
       </c>
     </row>
     <row r="168">
@@ -9173,37 +9173,37 @@
       <c r="D168" s="3" t="inlineStr"/>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:44</t>
+          <t>2024-09-16 12:08</t>
         </is>
       </c>
       <c r="F168" s="3" t="inlineStr"/>
       <c r="G168" s="3" t="n">
-        <v>128760</v>
+        <v>131912</v>
       </c>
       <c r="H168" s="3" t="n">
-        <v>82810</v>
+        <v>82736</v>
       </c>
       <c r="I168" s="3" t="n">
-        <v>1803</v>
+        <v>1999</v>
       </c>
       <c r="J168" s="3" t="n">
-        <v>81007</v>
+        <v>80737</v>
       </c>
       <c r="K168" s="3" t="inlineStr"/>
       <c r="L168" s="3" t="n">
-        <v>18094</v>
+        <v>33126</v>
       </c>
       <c r="M168" s="3" t="n">
-        <v>17024</v>
+        <v>11111</v>
       </c>
       <c r="N168" s="3" t="n">
-        <v>17312</v>
+        <v>22688</v>
       </c>
       <c r="O168" s="3" t="n">
-        <v>19671</v>
+        <v>6690</v>
       </c>
       <c r="P168" s="3" t="n">
-        <v>4854</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="169">
@@ -9225,37 +9225,37 @@
       <c r="D169" s="3" t="inlineStr"/>
       <c r="E169" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:10</t>
+          <t>2024-09-16 19:25</t>
         </is>
       </c>
       <c r="F169" s="3" t="inlineStr"/>
       <c r="G169" s="3" t="n">
-        <v>89937</v>
+        <v>95956</v>
       </c>
       <c r="H169" s="3" t="n">
-        <v>58643</v>
+        <v>82060</v>
       </c>
       <c r="I169" s="3" t="n">
-        <v>1409</v>
+        <v>1890</v>
       </c>
       <c r="J169" s="3" t="n">
-        <v>57234</v>
+        <v>80170</v>
       </c>
       <c r="K169" s="3" t="inlineStr"/>
       <c r="L169" s="3" t="n">
-        <v>15916</v>
+        <v>24170</v>
       </c>
       <c r="M169" s="3" t="n">
-        <v>15911</v>
+        <v>18221</v>
       </c>
       <c r="N169" s="3" t="n">
-        <v>8053</v>
+        <v>13217</v>
       </c>
       <c r="O169" s="3" t="n">
-        <v>8308</v>
+        <v>4796</v>
       </c>
       <c r="P169" s="3" t="n">
-        <v>6182</v>
+        <v>15754</v>
       </c>
     </row>
     <row r="170">
@@ -9277,37 +9277,37 @@
       <c r="D170" s="3" t="inlineStr"/>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:50</t>
+          <t>2024-09-16 14:57</t>
         </is>
       </c>
       <c r="F170" s="3" t="inlineStr"/>
       <c r="G170" s="3" t="n">
-        <v>114208</v>
+        <v>114178</v>
       </c>
       <c r="H170" s="3" t="n">
-        <v>84265</v>
+        <v>89681</v>
       </c>
       <c r="I170" s="3" t="n">
-        <v>1222</v>
+        <v>1783</v>
       </c>
       <c r="J170" s="3" t="n">
-        <v>83043</v>
+        <v>87898</v>
       </c>
       <c r="K170" s="3" t="inlineStr"/>
       <c r="L170" s="3" t="n">
-        <v>24927</v>
+        <v>20054</v>
       </c>
       <c r="M170" s="3" t="n">
-        <v>21366</v>
+        <v>34936</v>
       </c>
       <c r="N170" s="3" t="n">
-        <v>10852</v>
+        <v>13752</v>
       </c>
       <c r="O170" s="3" t="n">
-        <v>11558</v>
+        <v>9449</v>
       </c>
       <c r="P170" s="3" t="n">
-        <v>10185</v>
+        <v>5309</v>
       </c>
     </row>
     <row r="171">
@@ -9329,37 +9329,37 @@
       <c r="D171" s="3" t="inlineStr"/>
       <c r="E171" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:05</t>
+          <t>2024-09-16 17:58</t>
         </is>
       </c>
       <c r="F171" s="3" t="inlineStr"/>
       <c r="G171" s="3" t="n">
-        <v>114260</v>
+        <v>112079</v>
       </c>
       <c r="H171" s="3" t="n">
-        <v>89426</v>
+        <v>79299</v>
       </c>
       <c r="I171" s="3" t="n">
-        <v>2375</v>
+        <v>1235</v>
       </c>
       <c r="J171" s="3" t="n">
-        <v>87051</v>
+        <v>78064</v>
       </c>
       <c r="K171" s="3" t="inlineStr"/>
       <c r="L171" s="3" t="n">
-        <v>19281</v>
+        <v>20153</v>
       </c>
       <c r="M171" s="3" t="n">
-        <v>23080</v>
+        <v>12441</v>
       </c>
       <c r="N171" s="3" t="n">
-        <v>17603</v>
+        <v>11852</v>
       </c>
       <c r="O171" s="3" t="n">
-        <v>13573</v>
+        <v>16067</v>
       </c>
       <c r="P171" s="3" t="n">
-        <v>9159</v>
+        <v>13646</v>
       </c>
     </row>
     <row r="172">
@@ -9381,37 +9381,37 @@
       <c r="D172" s="3" t="inlineStr"/>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:09</t>
+          <t>2024-09-16 11:24</t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr"/>
       <c r="G172" s="3" t="n">
-        <v>102147</v>
+        <v>103314</v>
       </c>
       <c r="H172" s="3" t="n">
-        <v>71814</v>
+        <v>84755</v>
       </c>
       <c r="I172" s="3" t="n">
-        <v>1963</v>
+        <v>2173</v>
       </c>
       <c r="J172" s="3" t="n">
-        <v>69851</v>
+        <v>82582</v>
       </c>
       <c r="K172" s="3" t="inlineStr"/>
       <c r="L172" s="3" t="n">
-        <v>23431</v>
+        <v>23304</v>
       </c>
       <c r="M172" s="3" t="n">
-        <v>10575</v>
+        <v>12671</v>
       </c>
       <c r="N172" s="3" t="n">
-        <v>22655</v>
+        <v>19090</v>
       </c>
       <c r="O172" s="3" t="n">
-        <v>5635</v>
+        <v>8668</v>
       </c>
       <c r="P172" s="3" t="n">
-        <v>4060</v>
+        <v>14717</v>
       </c>
     </row>
     <row r="173">
@@ -9433,37 +9433,37 @@
       <c r="D173" s="3" t="inlineStr"/>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:44</t>
+          <t>2024-09-16 12:12</t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr"/>
       <c r="G173" s="3" t="n">
-        <v>69308</v>
+        <v>70480</v>
       </c>
       <c r="H173" s="3" t="n">
-        <v>61116</v>
+        <v>56725</v>
       </c>
       <c r="I173" s="3" t="n">
-        <v>1150</v>
+        <v>860</v>
       </c>
       <c r="J173" s="3" t="n">
-        <v>59966</v>
+        <v>55865</v>
       </c>
       <c r="K173" s="3" t="inlineStr"/>
       <c r="L173" s="3" t="n">
-        <v>10159</v>
+        <v>14115</v>
       </c>
       <c r="M173" s="3" t="n">
-        <v>14454</v>
+        <v>12731</v>
       </c>
       <c r="N173" s="3" t="n">
-        <v>12237</v>
+        <v>7620</v>
       </c>
       <c r="O173" s="3" t="n">
-        <v>14455</v>
+        <v>6207</v>
       </c>
       <c r="P173" s="3" t="n">
-        <v>5660</v>
+        <v>12397</v>
       </c>
     </row>
     <row r="174">
@@ -9485,37 +9485,37 @@
       <c r="D174" s="3" t="inlineStr"/>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:50</t>
+          <t>2024-09-16 09:12</t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr"/>
       <c r="G174" s="3" t="n">
-        <v>160584</v>
+        <v>157101</v>
       </c>
       <c r="H174" s="3" t="n">
-        <v>135809</v>
+        <v>114765</v>
       </c>
       <c r="I174" s="3" t="n">
-        <v>3550</v>
+        <v>3115</v>
       </c>
       <c r="J174" s="3" t="n">
-        <v>132259</v>
+        <v>111650</v>
       </c>
       <c r="K174" s="3" t="inlineStr"/>
       <c r="L174" s="3" t="n">
-        <v>27098</v>
+        <v>21703</v>
       </c>
       <c r="M174" s="3" t="n">
-        <v>24291</v>
+        <v>34829</v>
       </c>
       <c r="N174" s="3" t="n">
-        <v>32764</v>
+        <v>22647</v>
       </c>
       <c r="O174" s="3" t="n">
-        <v>23744</v>
+        <v>18816</v>
       </c>
       <c r="P174" s="3" t="n">
-        <v>17747</v>
+        <v>8071</v>
       </c>
     </row>
     <row r="175">
@@ -9537,37 +9537,37 @@
       <c r="D175" s="3" t="inlineStr"/>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:43</t>
+          <t>2024-09-16 15:02</t>
         </is>
       </c>
       <c r="F175" s="3" t="inlineStr"/>
       <c r="G175" s="3" t="n">
-        <v>89054</v>
+        <v>88995</v>
       </c>
       <c r="H175" s="3" t="n">
-        <v>55533</v>
+        <v>64757</v>
       </c>
       <c r="I175" s="3" t="n">
-        <v>1305</v>
+        <v>1366</v>
       </c>
       <c r="J175" s="3" t="n">
-        <v>54228</v>
+        <v>63391</v>
       </c>
       <c r="K175" s="3" t="inlineStr"/>
       <c r="L175" s="3" t="n">
-        <v>14610</v>
+        <v>11332</v>
       </c>
       <c r="M175" s="3" t="n">
-        <v>14078</v>
+        <v>20039</v>
       </c>
       <c r="N175" s="3" t="n">
-        <v>15928</v>
+        <v>7258</v>
       </c>
       <c r="O175" s="3" t="n">
-        <v>3385</v>
+        <v>6265</v>
       </c>
       <c r="P175" s="3" t="n">
-        <v>3513</v>
+        <v>15324</v>
       </c>
     </row>
     <row r="176">
@@ -9589,37 +9589,37 @@
       <c r="D176" s="3" t="inlineStr"/>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:56</t>
+          <t>2024-09-16 12:47</t>
         </is>
       </c>
       <c r="F176" s="3" t="inlineStr"/>
       <c r="G176" s="3" t="n">
-        <v>71501</v>
+        <v>66513</v>
       </c>
       <c r="H176" s="3" t="n">
-        <v>60496</v>
+        <v>40303</v>
       </c>
       <c r="I176" s="3" t="n">
-        <v>1510</v>
+        <v>1057</v>
       </c>
       <c r="J176" s="3" t="n">
-        <v>58986</v>
+        <v>39246</v>
       </c>
       <c r="K176" s="3" t="inlineStr"/>
       <c r="L176" s="3" t="n">
-        <v>17195</v>
+        <v>8264</v>
       </c>
       <c r="M176" s="3" t="n">
-        <v>17318</v>
+        <v>11583</v>
       </c>
       <c r="N176" s="3" t="n">
-        <v>7267</v>
+        <v>4322</v>
       </c>
       <c r="O176" s="3" t="n">
-        <v>10038</v>
+        <v>7032</v>
       </c>
       <c r="P176" s="3" t="n">
-        <v>4216</v>
+        <v>6081</v>
       </c>
     </row>
     <row r="177">
@@ -9641,37 +9641,37 @@
       <c r="D177" s="3" t="inlineStr"/>
       <c r="E177" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:36</t>
+          <t>2024-09-16 10:06</t>
         </is>
       </c>
       <c r="F177" s="3" t="inlineStr"/>
       <c r="G177" s="3" t="n">
-        <v>75267</v>
+        <v>73167</v>
       </c>
       <c r="H177" s="3" t="n">
-        <v>54546</v>
+        <v>52934</v>
       </c>
       <c r="I177" s="3" t="n">
-        <v>931</v>
+        <v>732</v>
       </c>
       <c r="J177" s="3" t="n">
-        <v>53615</v>
+        <v>52202</v>
       </c>
       <c r="K177" s="3" t="inlineStr"/>
       <c r="L177" s="3" t="n">
-        <v>7380</v>
+        <v>14631</v>
       </c>
       <c r="M177" s="3" t="n">
-        <v>6425</v>
+        <v>7985</v>
       </c>
       <c r="N177" s="3" t="n">
-        <v>13418</v>
+        <v>8298</v>
       </c>
       <c r="O177" s="3" t="n">
-        <v>11897</v>
+        <v>7153</v>
       </c>
       <c r="P177" s="3" t="n">
-        <v>11811</v>
+        <v>11522</v>
       </c>
     </row>
     <row r="178">
@@ -9693,37 +9693,37 @@
       <c r="D178" s="3" t="inlineStr"/>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:05</t>
+          <t>2024-09-16 08:36</t>
         </is>
       </c>
       <c r="F178" s="3" t="inlineStr"/>
       <c r="G178" s="3" t="n">
-        <v>65624</v>
+        <v>68927</v>
       </c>
       <c r="H178" s="3" t="n">
-        <v>42301</v>
+        <v>58353</v>
       </c>
       <c r="I178" s="3" t="n">
-        <v>1234</v>
+        <v>1667</v>
       </c>
       <c r="J178" s="3" t="n">
-        <v>41067</v>
+        <v>56686</v>
       </c>
       <c r="K178" s="3" t="inlineStr"/>
       <c r="L178" s="3" t="n">
-        <v>10584</v>
+        <v>11943</v>
       </c>
       <c r="M178" s="3" t="n">
-        <v>9268</v>
+        <v>14930</v>
       </c>
       <c r="N178" s="3" t="n">
-        <v>14657</v>
+        <v>12255</v>
       </c>
       <c r="O178" s="3" t="n">
-        <v>2966</v>
+        <v>9893</v>
       </c>
       <c r="P178" s="3" t="n">
-        <v>1535</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="179">
@@ -9745,37 +9745,37 @@
       <c r="D179" s="3" t="inlineStr"/>
       <c r="E179" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:52</t>
+          <t>2024-09-16 19:39</t>
         </is>
       </c>
       <c r="F179" s="3" t="inlineStr"/>
       <c r="G179" s="3" t="n">
-        <v>98538</v>
+        <v>93683</v>
       </c>
       <c r="H179" s="3" t="n">
-        <v>78403</v>
+        <v>77751</v>
       </c>
       <c r="I179" s="3" t="n">
-        <v>2154</v>
+        <v>1452</v>
       </c>
       <c r="J179" s="3" t="n">
-        <v>76249</v>
+        <v>76299</v>
       </c>
       <c r="K179" s="3" t="inlineStr"/>
       <c r="L179" s="3" t="n">
-        <v>16804</v>
+        <v>26287</v>
       </c>
       <c r="M179" s="3" t="n">
-        <v>23739</v>
+        <v>18512</v>
       </c>
       <c r="N179" s="3" t="n">
-        <v>12307</v>
+        <v>13520</v>
       </c>
       <c r="O179" s="3" t="n">
-        <v>3124</v>
+        <v>10279</v>
       </c>
       <c r="P179" s="3" t="n">
-        <v>16459</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="180">
@@ -9797,37 +9797,37 @@
       <c r="D180" s="3" t="inlineStr"/>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:27</t>
+          <t>2024-09-16 14:39</t>
         </is>
       </c>
       <c r="F180" s="3" t="inlineStr"/>
       <c r="G180" s="3" t="n">
-        <v>56211</v>
+        <v>52405</v>
       </c>
       <c r="H180" s="3" t="n">
-        <v>47752</v>
+        <v>42325</v>
       </c>
       <c r="I180" s="3" t="n">
-        <v>1128</v>
+        <v>525</v>
       </c>
       <c r="J180" s="3" t="n">
-        <v>46624</v>
+        <v>41800</v>
       </c>
       <c r="K180" s="3" t="inlineStr"/>
       <c r="L180" s="3" t="n">
-        <v>8146</v>
+        <v>9432</v>
       </c>
       <c r="M180" s="3" t="n">
-        <v>13091</v>
+        <v>13637</v>
       </c>
       <c r="N180" s="3" t="n">
-        <v>12940</v>
+        <v>7258</v>
       </c>
       <c r="O180" s="3" t="n">
-        <v>8263</v>
+        <v>3812</v>
       </c>
       <c r="P180" s="3" t="n">
-        <v>1851</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="181">
@@ -9849,37 +9849,37 @@
       <c r="D181" s="3" t="inlineStr"/>
       <c r="E181" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:41</t>
+          <t>2024-09-16 11:12</t>
         </is>
       </c>
       <c r="F181" s="3" t="inlineStr"/>
       <c r="G181" s="3" t="n">
-        <v>76607</v>
+        <v>75847</v>
       </c>
       <c r="H181" s="3" t="n">
-        <v>47571</v>
+        <v>53877</v>
       </c>
       <c r="I181" s="3" t="n">
-        <v>1191</v>
+        <v>1493</v>
       </c>
       <c r="J181" s="3" t="n">
-        <v>46380</v>
+        <v>52384</v>
       </c>
       <c r="K181" s="3" t="inlineStr"/>
       <c r="L181" s="3" t="n">
-        <v>11015</v>
+        <v>9107</v>
       </c>
       <c r="M181" s="3" t="n">
-        <v>11142</v>
+        <v>14350</v>
       </c>
       <c r="N181" s="3" t="n">
-        <v>7813</v>
+        <v>12015</v>
       </c>
       <c r="O181" s="3" t="n">
-        <v>7628</v>
+        <v>6569</v>
       </c>
       <c r="P181" s="3" t="n">
-        <v>6461</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="182">
@@ -9901,37 +9901,37 @@
       <c r="D182" s="3" t="inlineStr"/>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:46</t>
+          <t>2024-09-16 14:10</t>
         </is>
       </c>
       <c r="F182" s="3" t="inlineStr"/>
       <c r="G182" s="3" t="n">
-        <v>76357</v>
+        <v>79934</v>
       </c>
       <c r="H182" s="3" t="n">
-        <v>46272</v>
+        <v>57285</v>
       </c>
       <c r="I182" s="3" t="n">
-        <v>550</v>
+        <v>1544</v>
       </c>
       <c r="J182" s="3" t="n">
-        <v>45722</v>
+        <v>55741</v>
       </c>
       <c r="K182" s="3" t="inlineStr"/>
       <c r="L182" s="3" t="n">
-        <v>10101</v>
+        <v>13192</v>
       </c>
       <c r="M182" s="3" t="n">
-        <v>7773</v>
+        <v>16087</v>
       </c>
       <c r="N182" s="3" t="n">
-        <v>10528</v>
+        <v>12317</v>
       </c>
       <c r="O182" s="3" t="n">
-        <v>8726</v>
+        <v>7945</v>
       </c>
       <c r="P182" s="3" t="n">
-        <v>6306</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="183">
@@ -9953,37 +9953,37 @@
       <c r="D183" s="3" t="inlineStr"/>
       <c r="E183" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:04</t>
+          <t>2024-09-16 15:52</t>
         </is>
       </c>
       <c r="F183" s="3" t="inlineStr"/>
       <c r="G183" s="3" t="n">
-        <v>69856</v>
+        <v>75490</v>
       </c>
       <c r="H183" s="3" t="n">
-        <v>42319</v>
+        <v>66027</v>
       </c>
       <c r="I183" s="3" t="n">
-        <v>683</v>
+        <v>1559</v>
       </c>
       <c r="J183" s="3" t="n">
-        <v>41636</v>
+        <v>64468</v>
       </c>
       <c r="K183" s="3" t="inlineStr"/>
       <c r="L183" s="3" t="n">
-        <v>9410</v>
+        <v>21490</v>
       </c>
       <c r="M183" s="3" t="n">
-        <v>8026</v>
+        <v>18913</v>
       </c>
       <c r="N183" s="3" t="n">
-        <v>13047</v>
+        <v>8203</v>
       </c>
       <c r="O183" s="3" t="n">
-        <v>6859</v>
+        <v>11604</v>
       </c>
       <c r="P183" s="3" t="n">
-        <v>2209</v>
+        <v>1032</v>
       </c>
     </row>
   </sheetData>

--- a/data/prespollsl2024.xlsx
+++ b/data/prespollsl2024.xlsx
@@ -541,37 +541,37 @@
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:53</t>
+          <t>2024-09-16 18:57</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="n">
-        <v>37314</v>
+        <v>37475</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>23725</v>
+        <v>33003</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>580</v>
+        <v>382</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>23145</v>
+        <v>32621</v>
       </c>
       <c r="K2" s="3" t="inlineStr"/>
       <c r="L2" s="3" t="n">
-        <v>6741</v>
+        <v>8920</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>3222</v>
+        <v>10678</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>6362</v>
+        <v>4925</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>1618</v>
+        <v>2977</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>4043</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="3">
@@ -591,39 +591,37 @@
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 17:00</t>
-        </is>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="n">
-        <v>55849</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>45042</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>44493</v>
+        <v>0</v>
       </c>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="n">
-        <v>11766</v>
+        <v>0</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>8741</v>
+        <v>0</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>6241</v>
+        <v>0</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>7617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -645,37 +643,37 @@
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:34</t>
+          <t>2024-09-16 16:23</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="n">
-        <v>40501</v>
+        <v>41531</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>25538</v>
+        <v>34955</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>547</v>
+        <v>698</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>24991</v>
+        <v>34257</v>
       </c>
       <c r="K4" s="3" t="inlineStr"/>
       <c r="L4" s="3" t="n">
-        <v>8523</v>
+        <v>9139</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>4930</v>
+        <v>8498</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>2995</v>
+        <v>5560</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>2622</v>
+        <v>5127</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>4668</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="5">
@@ -695,39 +693,37 @@
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 17:35</t>
-        </is>
+      <c r="E5" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="n">
-        <v>59328</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>45576</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>1217</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>44359</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="n">
-        <v>14485</v>
+        <v>0</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>8047</v>
+        <v>0</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>6765</v>
+        <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>5741</v>
+        <v>0</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>7101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -749,37 +745,37 @@
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:13</t>
+          <t>2024-09-16 15:39</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="n">
-        <v>23015</v>
+        <v>24053</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>18690</v>
+        <v>17727</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>287</v>
+        <v>516</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>18403</v>
+        <v>17211</v>
       </c>
       <c r="K6" s="3" t="inlineStr"/>
       <c r="L6" s="3" t="n">
-        <v>3091</v>
+        <v>2639</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>4373</v>
+        <v>3099</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>5608</v>
+        <v>4782</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>927</v>
+        <v>3380</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>3482</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="7">
@@ -801,37 +797,37 @@
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:39</t>
+          <t>2024-09-16 11:26</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="n">
-        <v>20507</v>
+        <v>21069</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>18102</v>
+        <v>14888</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>17839</v>
+        <v>14629</v>
       </c>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="n">
-        <v>4994</v>
+        <v>3506</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>4762</v>
+        <v>3720</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>3157</v>
+        <v>3094</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>1887</v>
+        <v>1519</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>2144</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="8">
@@ -851,39 +847,37 @@
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr"/>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 17:24</t>
-        </is>
+      <c r="E8" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="n">
-        <v>41701</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>35965</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>1028</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>34937</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="inlineStr"/>
       <c r="L8" s="3" t="n">
-        <v>6193</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>9754</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>11660</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>2168</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>3413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -903,39 +897,37 @@
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 09:54</t>
-        </is>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="n">
-        <v>30333</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>23499</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>23164</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="n">
-        <v>5782</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>7337</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>6923</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>1072</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -955,39 +947,37 @@
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr"/>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 19:57</t>
-        </is>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="n">
-        <v>20560</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>17422</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>17128</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="inlineStr"/>
       <c r="L10" s="3" t="n">
-        <v>3291</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>3361</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>3435</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>2226</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>3955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1007,39 +997,37 @@
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr"/>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 10:55</t>
-        </is>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="n">
-        <v>25857</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>23260</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>22778</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3" t="inlineStr"/>
       <c r="L11" s="3" t="n">
-        <v>4173</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>6903</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>4459</v>
+        <v>0</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>4266</v>
+        <v>0</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>1835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1059,39 +1047,37 @@
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr"/>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 19:18</t>
-        </is>
+      <c r="E12" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="n">
-        <v>13537</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>11901</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>11588</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="inlineStr"/>
       <c r="L12" s="3" t="n">
-        <v>2854</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>3239</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>1158</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>1395</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>2359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1111,39 +1097,37 @@
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr"/>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 17:07</t>
-        </is>
+      <c r="E13" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="n">
-        <v>13699</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>11003</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>10682</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3" t="inlineStr"/>
       <c r="L13" s="3" t="n">
-        <v>2297</v>
+        <v>0</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>2207</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>2317</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>1591</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>1734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1165,37 +1149,37 @@
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:47</t>
+          <t>2024-09-16 10:09</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="n">
-        <v>28735</v>
+        <v>29925</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>20904</v>
+        <v>19245</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>20598</v>
+        <v>18908</v>
       </c>
       <c r="K14" s="3" t="inlineStr"/>
       <c r="L14" s="3" t="n">
-        <v>7549</v>
+        <v>2485</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>5054</v>
+        <v>5390</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>4043</v>
+        <v>5433</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>2260</v>
+        <v>4307</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>661</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15">
@@ -1217,37 +1201,37 @@
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:16</t>
+          <t>2024-09-16 09:17</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="n">
-        <v>16536</v>
+        <v>16000</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>10469</v>
+        <v>14337</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>10236</v>
+        <v>14098</v>
       </c>
       <c r="K15" s="3" t="inlineStr"/>
       <c r="L15" s="3" t="n">
-        <v>2404</v>
+        <v>3086</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>1787</v>
+        <v>2152</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>1544</v>
+        <v>4825</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>1951</v>
+        <v>2376</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>2036</v>
+        <v>951</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1253,37 @@
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:52</t>
+          <t>2024-09-16 19:23</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="n">
-        <v>79114</v>
+        <v>77717</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>57755</v>
+        <v>50907</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>789</v>
+        <v>1430</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>56966</v>
+        <v>49477</v>
       </c>
       <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="n">
-        <v>9797</v>
+        <v>9923</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>16024</v>
+        <v>7496</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v>15575</v>
+        <v>8583</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>11871</v>
+        <v>11867</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>848</v>
+        <v>9131</v>
       </c>
     </row>
     <row r="17">
@@ -1321,37 +1305,37 @@
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:06</t>
+          <t>2024-09-16 19:57</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="n">
-        <v>15448</v>
+        <v>15034</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>13017</v>
+        <v>11627</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>382</v>
+        <v>265</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>12635</v>
+        <v>11362</v>
       </c>
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="n">
-        <v>2412</v>
+        <v>4039</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>1839</v>
+        <v>1952</v>
       </c>
       <c r="N17" s="3" t="n">
-        <v>1690</v>
+        <v>1885</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>3915</v>
+        <v>2357</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>2144</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18">
@@ -1373,37 +1357,37 @@
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:32</t>
+          <t>2024-09-16 14:58</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="n">
-        <v>61656</v>
+        <v>58504</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>37980</v>
+        <v>50645</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>522</v>
+        <v>1108</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>37458</v>
+        <v>49537</v>
       </c>
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="n">
-        <v>6914</v>
+        <v>8068</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>11231</v>
+        <v>11443</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>12495</v>
+        <v>9262</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>1519</v>
+        <v>9784</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>3423</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="19">
@@ -1423,39 +1407,37 @@
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 15:08</t>
-        </is>
+      <c r="E19" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="n">
-        <v>19559</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>11950</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>11627</v>
+        <v>0</v>
       </c>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="n">
-        <v>1801</v>
+        <v>0</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>2765</v>
+        <v>0</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>2905</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>2496</v>
+        <v>0</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>1077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1475,39 +1457,37 @@
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr"/>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 11:02</t>
-        </is>
+      <c r="E20" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="n">
-        <v>43890</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>28356</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>27977</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="inlineStr"/>
       <c r="L20" s="3" t="n">
-        <v>7369</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>8842</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="n">
-        <v>4367</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>5018</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1527,39 +1507,37 @@
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 18:40</t>
-        </is>
+      <c r="E21" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="n">
-        <v>23492</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>16888</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>16408</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="inlineStr"/>
       <c r="L21" s="3" t="n">
-        <v>2211</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>3303</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>5240</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>1359</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3" t="n">
-        <v>3472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1579,39 +1557,37 @@
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 17:32</t>
-        </is>
+      <c r="E22" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="n">
-        <v>34532</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>29030</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>28590</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="inlineStr"/>
       <c r="L22" s="3" t="n">
-        <v>5194</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>8001</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="n">
-        <v>3701</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>5833</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>4429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1631,39 +1607,37 @@
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr"/>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 13:59</t>
-        </is>
+      <c r="E23" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="n">
-        <v>35561</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>29624</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>28874</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="inlineStr"/>
       <c r="L23" s="3" t="n">
-        <v>5576</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>4864</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>6946</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>5134</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>4909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1683,39 +1657,37 @@
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 13:38</t>
-        </is>
+      <c r="E24" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="n">
-        <v>97314</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>61552</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>60220</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="inlineStr"/>
       <c r="L24" s="3" t="n">
-        <v>14242</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>12907</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>20591</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>5152</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>4315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1735,39 +1707,37 @@
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr"/>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 11:58</t>
-        </is>
+      <c r="E25" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="n">
-        <v>137325</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>107193</v>
+        <v>0</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>1514</v>
+        <v>0</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>105679</v>
+        <v>0</v>
       </c>
       <c r="K25" s="3" t="inlineStr"/>
       <c r="L25" s="3" t="n">
-        <v>30608</v>
+        <v>0</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>27911</v>
+        <v>0</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>20789</v>
+        <v>0</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>18426</v>
+        <v>0</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>2658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1789,37 +1759,37 @@
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 20:17</t>
+          <t>2024-09-16 12:49</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="n">
-        <v>63583</v>
+        <v>66959</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>56234</v>
+        <v>53698</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>1454</v>
+        <v>687</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>54780</v>
+        <v>53011</v>
       </c>
       <c r="K26" s="3" t="inlineStr"/>
       <c r="L26" s="3" t="n">
-        <v>13880</v>
+        <v>16606</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>12425</v>
+        <v>10713</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>6957</v>
+        <v>15998</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>8778</v>
+        <v>2090</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>9999</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="27">
@@ -1841,37 +1811,37 @@
       <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:36</t>
+          <t>2024-09-16 11:58</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="n">
-        <v>69104</v>
+        <v>71335</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>45279</v>
+        <v>46330</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>1023</v>
+        <v>731</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>44256</v>
+        <v>45599</v>
       </c>
       <c r="K27" s="3" t="inlineStr"/>
       <c r="L27" s="3" t="n">
-        <v>15193</v>
+        <v>8927</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>7201</v>
+        <v>6519</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>9874</v>
+        <v>12814</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>7610</v>
+        <v>7753</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>2163</v>
+        <v>7303</v>
       </c>
     </row>
     <row r="28">
@@ -1893,37 +1863,37 @@
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:03</t>
+          <t>2024-09-16 19:07</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="n">
-        <v>42963</v>
+        <v>45769</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>36118</v>
+        <v>31595</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>941</v>
+        <v>814</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>35177</v>
+        <v>30781</v>
       </c>
       <c r="K28" s="3" t="inlineStr"/>
       <c r="L28" s="3" t="n">
-        <v>7643</v>
+        <v>8608</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>7092</v>
+        <v>9021</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>6118</v>
+        <v>4083</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>4688</v>
+        <v>4369</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>7875</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="29">
@@ -1945,37 +1915,37 @@
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:14</t>
+          <t>2024-09-16 13:32</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="n">
-        <v>64513</v>
+        <v>65444</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>55243</v>
+        <v>39580</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>790</v>
+        <v>479</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>54453</v>
+        <v>39101</v>
       </c>
       <c r="K29" s="3" t="inlineStr"/>
       <c r="L29" s="3" t="n">
-        <v>15500</v>
+        <v>7255</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>14553</v>
+        <v>9114</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>13008</v>
+        <v>7400</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>7283</v>
+        <v>4600</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>1383</v>
+        <v>8775</v>
       </c>
     </row>
     <row r="30">
@@ -1995,39 +1965,37 @@
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr"/>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 10:17</t>
-        </is>
+      <c r="E30" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="n">
-        <v>71950</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>49726</v>
+        <v>0</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>49121</v>
+        <v>0</v>
       </c>
       <c r="K30" s="3" t="inlineStr"/>
       <c r="L30" s="3" t="n">
-        <v>15435</v>
+        <v>0</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>10221</v>
+        <v>0</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>7368</v>
+        <v>0</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>11884</v>
+        <v>0</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>1754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2047,39 +2015,37 @@
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr"/>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 13:56</t>
-        </is>
+      <c r="E31" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="n">
-        <v>139932</v>
+        <v>0</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>88820</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>2397</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>86423</v>
+        <v>0</v>
       </c>
       <c r="K31" s="3" t="inlineStr"/>
       <c r="L31" s="3" t="n">
-        <v>26294</v>
+        <v>0</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>15225</v>
+        <v>0</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>14297</v>
+        <v>0</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>13307</v>
+        <v>0</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>12976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2099,39 +2065,37 @@
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr"/>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 15:22</t>
-        </is>
+      <c r="E32" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="n">
-        <v>79558</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>68341</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>1668</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>66673</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="inlineStr"/>
       <c r="L32" s="3" t="n">
-        <v>12606</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>7309</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="n">
-        <v>19306</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>10826</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="n">
-        <v>13290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2151,39 +2115,37 @@
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr"/>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 19:49</t>
-        </is>
+      <c r="E33" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="n">
-        <v>191182</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>145801</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>4002</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>141799</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="inlineStr"/>
       <c r="L33" s="3" t="n">
-        <v>33885</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>33453</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="n">
-        <v>33833</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>18215</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>15320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2205,37 +2167,37 @@
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 20:06</t>
+          <t>2024-09-16 15:41</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="n">
-        <v>134126</v>
+        <v>127211</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>94198</v>
+        <v>100518</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>2560</v>
+        <v>1906</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>91638</v>
+        <v>98612</v>
       </c>
       <c r="K34" s="3" t="inlineStr"/>
       <c r="L34" s="3" t="n">
-        <v>18854</v>
+        <v>24239</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>22109</v>
+        <v>29013</v>
       </c>
       <c r="N34" s="3" t="n">
-        <v>12280</v>
+        <v>19851</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>17989</v>
+        <v>8502</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>15821</v>
+        <v>12074</v>
       </c>
     </row>
     <row r="35">
@@ -2257,37 +2219,37 @@
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:26</t>
+          <t>2024-09-16 19:18</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="n">
-        <v>197826</v>
+        <v>210521</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>150262</v>
+        <v>182020</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>3567</v>
+        <v>4722</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>146695</v>
+        <v>177298</v>
       </c>
       <c r="K35" s="3" t="inlineStr"/>
       <c r="L35" s="3" t="n">
-        <v>33356</v>
+        <v>64362</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>38244</v>
+        <v>45416</v>
       </c>
       <c r="N35" s="3" t="n">
-        <v>49619</v>
+        <v>37672</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>11660</v>
+        <v>9537</v>
       </c>
       <c r="P35" s="3" t="n">
-        <v>6478</v>
+        <v>11443</v>
       </c>
     </row>
     <row r="36">
@@ -2309,37 +2271,37 @@
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:02</t>
+          <t>2024-09-16 09:18</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="n">
-        <v>149643</v>
+        <v>146039</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>92962</v>
+        <v>103077</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>1164</v>
+        <v>2008</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>91798</v>
+        <v>101069</v>
       </c>
       <c r="K36" s="3" t="inlineStr"/>
       <c r="L36" s="3" t="n">
-        <v>19086</v>
+        <v>20472</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>32708</v>
+        <v>20217</v>
       </c>
       <c r="N36" s="3" t="n">
-        <v>19884</v>
+        <v>16498</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>13619</v>
+        <v>21032</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>1909</v>
+        <v>17794</v>
       </c>
     </row>
     <row r="37">
@@ -2361,37 +2323,37 @@
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:59</t>
+          <t>2024-09-16 19:47</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="n">
-        <v>183622</v>
+        <v>187777</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>111218</v>
+        <v>154247</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>2519</v>
+        <v>2609</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>108699</v>
+        <v>151638</v>
       </c>
       <c r="K37" s="3" t="inlineStr"/>
       <c r="L37" s="3" t="n">
-        <v>21078</v>
+        <v>46019</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>28512</v>
+        <v>38197</v>
       </c>
       <c r="N37" s="3" t="n">
-        <v>23210</v>
+        <v>46046</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>15917</v>
+        <v>10974</v>
       </c>
       <c r="P37" s="3" t="n">
-        <v>14545</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="38">
@@ -2413,37 +2375,37 @@
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:08</t>
+          <t>2024-09-16 15:20</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="n">
-        <v>123456</v>
+        <v>123607</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>76383</v>
+        <v>90467</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>1930</v>
+        <v>2273</v>
       </c>
       <c r="J38" s="3" t="n">
-        <v>74453</v>
+        <v>88194</v>
       </c>
       <c r="K38" s="3" t="inlineStr"/>
       <c r="L38" s="3" t="n">
-        <v>14615</v>
+        <v>19087</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>12705</v>
+        <v>18834</v>
       </c>
       <c r="N38" s="3" t="n">
-        <v>16312</v>
+        <v>17322</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>20150</v>
+        <v>16360</v>
       </c>
       <c r="P38" s="3" t="n">
-        <v>6946</v>
+        <v>12180</v>
       </c>
     </row>
     <row r="39">
@@ -2465,37 +2427,37 @@
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:53</t>
+          <t>2024-09-16 17:47</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="n">
-        <v>137591</v>
+        <v>139221</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>97441</v>
+        <v>111848</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>2266</v>
+        <v>1822</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>95175</v>
+        <v>110026</v>
       </c>
       <c r="K39" s="3" t="inlineStr"/>
       <c r="L39" s="3" t="n">
-        <v>21559</v>
+        <v>28671</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>15551</v>
+        <v>26505</v>
       </c>
       <c r="N39" s="3" t="n">
-        <v>26925</v>
+        <v>13045</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>8274</v>
+        <v>26093</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>18104</v>
+        <v>10208</v>
       </c>
     </row>
     <row r="40">
@@ -2515,39 +2477,37 @@
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr"/>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 18:53</t>
-        </is>
+      <c r="E40" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="n">
-        <v>113703</v>
+        <v>0</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>69523</v>
+        <v>0</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>1092</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>68431</v>
+        <v>0</v>
       </c>
       <c r="K40" s="3" t="inlineStr"/>
       <c r="L40" s="3" t="n">
-        <v>19486</v>
+        <v>0</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>10449</v>
+        <v>0</v>
       </c>
       <c r="N40" s="3" t="n">
-        <v>26013</v>
+        <v>0</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>6722</v>
+        <v>0</v>
       </c>
       <c r="P40" s="3" t="n">
-        <v>2337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2567,39 +2527,37 @@
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 10:33</t>
-        </is>
+      <c r="E41" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="n">
-        <v>169658</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>136068</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>3433</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>132635</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="inlineStr"/>
       <c r="L41" s="3" t="n">
-        <v>25303</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>37173</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="n">
-        <v>45430</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>10130</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="n">
-        <v>7965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2619,39 +2577,37 @@
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr"/>
-      <c r="E42" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 19:21</t>
-        </is>
+      <c r="E42" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="n">
-        <v>117607</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>93583</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>2399</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>91184</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="inlineStr"/>
       <c r="L42" s="3" t="n">
-        <v>31312</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>20551</v>
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="n">
-        <v>11904</v>
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>4412</v>
+        <v>0</v>
       </c>
       <c r="P42" s="3" t="n">
-        <v>18443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2673,37 +2629,37 @@
       <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:51</t>
+          <t>2024-09-16 18:21</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="n">
-        <v>137342</v>
+        <v>138191</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>115037</v>
+        <v>93355</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>2062</v>
+        <v>2523</v>
       </c>
       <c r="J43" s="3" t="n">
-        <v>112975</v>
+        <v>90832</v>
       </c>
       <c r="K43" s="3" t="inlineStr"/>
       <c r="L43" s="3" t="n">
-        <v>22600</v>
+        <v>17624</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>25166</v>
+        <v>20740</v>
       </c>
       <c r="N43" s="3" t="n">
-        <v>22483</v>
+        <v>20157</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>32055</v>
+        <v>16473</v>
       </c>
       <c r="P43" s="3" t="n">
-        <v>5019</v>
+        <v>11294</v>
       </c>
     </row>
     <row r="44">
@@ -2723,39 +2679,37 @@
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr"/>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 14:24</t>
-        </is>
+      <c r="E44" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="n">
-        <v>139853</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>104620</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>3078</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>101542</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="inlineStr"/>
       <c r="L44" s="3" t="n">
-        <v>25378</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>33686</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="n">
-        <v>12506</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>8703</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="n">
-        <v>16190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2777,37 +2731,37 @@
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:38</t>
+          <t>2024-09-16 18:45</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="n">
-        <v>139241</v>
+        <v>141376</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>89940</v>
+        <v>98479</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>2103</v>
+        <v>2335</v>
       </c>
       <c r="J45" s="3" t="n">
-        <v>87837</v>
+        <v>96144</v>
       </c>
       <c r="K45" s="3" t="inlineStr"/>
       <c r="L45" s="3" t="n">
-        <v>22223</v>
+        <v>27344</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>16702</v>
+        <v>16389</v>
       </c>
       <c r="N45" s="3" t="n">
-        <v>22864</v>
+        <v>36281</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>9422</v>
+        <v>10127</v>
       </c>
       <c r="P45" s="3" t="n">
-        <v>12231</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="46">
@@ -2829,37 +2783,37 @@
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:41</t>
+          <t>2024-09-16 16:40</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="n">
-        <v>166575</v>
+        <v>165468</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>139267</v>
+        <v>109720</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>2228</v>
+        <v>2152</v>
       </c>
       <c r="J46" s="3" t="n">
-        <v>137039</v>
+        <v>107568</v>
       </c>
       <c r="K46" s="3" t="inlineStr"/>
       <c r="L46" s="3" t="n">
-        <v>43456</v>
+        <v>19483</v>
       </c>
       <c r="M46" s="3" t="n">
-        <v>31127</v>
+        <v>17672</v>
       </c>
       <c r="N46" s="3" t="n">
-        <v>30831</v>
+        <v>23414</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>7726</v>
+        <v>15028</v>
       </c>
       <c r="P46" s="3" t="n">
-        <v>17044</v>
+        <v>26590</v>
       </c>
     </row>
     <row r="47">
@@ -2879,39 +2833,37 @@
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr"/>
-      <c r="E47" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 09:19</t>
-        </is>
+      <c r="E47" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="n">
-        <v>156291</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>109258</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>3201</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>106057</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="inlineStr"/>
       <c r="L47" s="3" t="n">
-        <v>34947</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>15024</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="n">
-        <v>25216</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>23981</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="n">
-        <v>1583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2931,39 +2883,37 @@
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr"/>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 11:12</t>
-        </is>
+      <c r="E48" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="n">
-        <v>165709</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>107871</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>1940</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="n">
-        <v>105931</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="inlineStr"/>
       <c r="L48" s="3" t="n">
-        <v>28372</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>23550</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="n">
-        <v>24797</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>17171</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="n">
-        <v>6742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2985,37 +2935,37 @@
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:35</t>
+          <t>2024-09-16 17:52</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="n">
-        <v>126098</v>
+        <v>128020</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>85730</v>
+        <v>112127</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>1251</v>
+        <v>1928</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>84479</v>
+        <v>110199</v>
       </c>
       <c r="K49" s="3" t="inlineStr"/>
       <c r="L49" s="3" t="n">
-        <v>15615</v>
+        <v>26131</v>
       </c>
       <c r="M49" s="3" t="n">
-        <v>24760</v>
+        <v>29848</v>
       </c>
       <c r="N49" s="3" t="n">
-        <v>16348</v>
+        <v>17841</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>12323</v>
+        <v>20565</v>
       </c>
       <c r="P49" s="3" t="n">
-        <v>11206</v>
+        <v>10302</v>
       </c>
     </row>
     <row r="50">
@@ -3035,39 +2985,37 @@
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr"/>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 18:08</t>
-        </is>
+      <c r="E50" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="n">
-        <v>138082</v>
+        <v>0</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>111239</v>
+        <v>0</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>1411</v>
+        <v>0</v>
       </c>
       <c r="J50" s="3" t="n">
-        <v>109828</v>
+        <v>0</v>
       </c>
       <c r="K50" s="3" t="inlineStr"/>
       <c r="L50" s="3" t="n">
-        <v>28542</v>
+        <v>0</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>26347</v>
+        <v>0</v>
       </c>
       <c r="N50" s="3" t="n">
-        <v>25224</v>
+        <v>0</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>17665</v>
+        <v>0</v>
       </c>
       <c r="P50" s="3" t="n">
-        <v>6555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3089,37 +3037,37 @@
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 20:19</t>
+          <t>2024-09-16 13:34</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr"/>
       <c r="G51" s="3" t="n">
-        <v>101718</v>
+        <v>103236</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>79224</v>
+        <v>75172</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>1711</v>
+        <v>1774</v>
       </c>
       <c r="J51" s="3" t="n">
-        <v>77513</v>
+        <v>73398</v>
       </c>
       <c r="K51" s="3" t="inlineStr"/>
       <c r="L51" s="3" t="n">
-        <v>27026</v>
+        <v>19119</v>
       </c>
       <c r="M51" s="3" t="n">
-        <v>19000</v>
+        <v>18151</v>
       </c>
       <c r="N51" s="3" t="n">
-        <v>8687</v>
+        <v>17956</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>4782</v>
+        <v>3339</v>
       </c>
       <c r="P51" s="3" t="n">
-        <v>14141</v>
+        <v>11161</v>
       </c>
     </row>
     <row r="52">
@@ -3139,39 +3087,37 @@
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr"/>
-      <c r="E52" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 12:58</t>
-        </is>
+      <c r="E52" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="inlineStr"/>
       <c r="G52" s="3" t="n">
-        <v>129167</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>104743</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>1719</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="n">
-        <v>103024</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="inlineStr"/>
       <c r="L52" s="3" t="n">
-        <v>24825</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="n">
-        <v>40425</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="n">
-        <v>13983</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>10491</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="n">
-        <v>8146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3193,37 +3139,37 @@
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:54</t>
+          <t>2024-09-16 10:25</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="n">
-        <v>151162</v>
+        <v>154549</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>116333</v>
+        <v>101141</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>3462</v>
+        <v>1681</v>
       </c>
       <c r="J53" s="3" t="n">
-        <v>112871</v>
+        <v>99460</v>
       </c>
       <c r="K53" s="3" t="inlineStr"/>
       <c r="L53" s="3" t="n">
-        <v>30339</v>
+        <v>22578</v>
       </c>
       <c r="M53" s="3" t="n">
-        <v>18750</v>
+        <v>21643</v>
       </c>
       <c r="N53" s="3" t="n">
-        <v>23067</v>
+        <v>15355</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>22232</v>
+        <v>21336</v>
       </c>
       <c r="P53" s="3" t="n">
-        <v>12837</v>
+        <v>13573</v>
       </c>
     </row>
     <row r="54">
@@ -3243,39 +3189,37 @@
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr"/>
-      <c r="E54" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 13:36</t>
-        </is>
+      <c r="E54" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F54" s="3" t="inlineStr"/>
       <c r="G54" s="3" t="n">
-        <v>134410</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>98087</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>2086</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3" t="n">
-        <v>96001</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3" t="inlineStr"/>
       <c r="L54" s="3" t="n">
-        <v>18677</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3" t="n">
-        <v>14191</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3" t="n">
-        <v>24650</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>18464</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3" t="n">
-        <v>15215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -3297,37 +3241,37 @@
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:30</t>
+          <t>2024-09-16 10:41</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr"/>
       <c r="G55" s="3" t="n">
-        <v>85860</v>
+        <v>85159</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>69208</v>
+        <v>61484</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>1091</v>
+        <v>656</v>
       </c>
       <c r="J55" s="3" t="n">
-        <v>68117</v>
+        <v>60828</v>
       </c>
       <c r="K55" s="3" t="inlineStr"/>
       <c r="L55" s="3" t="n">
-        <v>15982</v>
+        <v>12580</v>
       </c>
       <c r="M55" s="3" t="n">
-        <v>18620</v>
+        <v>24172</v>
       </c>
       <c r="N55" s="3" t="n">
-        <v>10460</v>
+        <v>10961</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>12596</v>
+        <v>7889</v>
       </c>
       <c r="P55" s="3" t="n">
-        <v>7050</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="56">
@@ -3349,37 +3293,37 @@
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:28</t>
+          <t>2024-09-16 10:15</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="n">
-        <v>116324</v>
+        <v>113299</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>78180</v>
+        <v>80424</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>2258</v>
+        <v>2203</v>
       </c>
       <c r="J56" s="3" t="n">
-        <v>75922</v>
+        <v>78221</v>
       </c>
       <c r="K56" s="3" t="inlineStr"/>
       <c r="L56" s="3" t="n">
-        <v>12142</v>
+        <v>24766</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>27327</v>
+        <v>9578</v>
       </c>
       <c r="N56" s="3" t="n">
-        <v>16231</v>
+        <v>20785</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>2907</v>
+        <v>5201</v>
       </c>
       <c r="P56" s="3" t="n">
-        <v>13516</v>
+        <v>13978</v>
       </c>
     </row>
     <row r="57">
@@ -3399,39 +3343,37 @@
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr"/>
-      <c r="E57" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 14:47</t>
-        </is>
+      <c r="E57" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="inlineStr"/>
       <c r="G57" s="3" t="n">
-        <v>123385</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>77263</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>902</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="n">
-        <v>76361</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="inlineStr"/>
       <c r="L57" s="3" t="n">
-        <v>19850</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="n">
-        <v>13603</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="n">
-        <v>10270</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>23989</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="n">
-        <v>4828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3453,37 +3395,37 @@
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:33</t>
+          <t>2024-09-16 15:20</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="n">
-        <v>128709</v>
+        <v>133418</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>94765</v>
+        <v>98745</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>1165</v>
+        <v>2745</v>
       </c>
       <c r="J58" s="3" t="n">
-        <v>93600</v>
+        <v>96000</v>
       </c>
       <c r="K58" s="3" t="inlineStr"/>
       <c r="L58" s="3" t="n">
-        <v>23371</v>
+        <v>20158</v>
       </c>
       <c r="M58" s="3" t="n">
-        <v>30133</v>
+        <v>21679</v>
       </c>
       <c r="N58" s="3" t="n">
-        <v>13045</v>
+        <v>24051</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>11293</v>
+        <v>4953</v>
       </c>
       <c r="P58" s="3" t="n">
-        <v>11075</v>
+        <v>20357</v>
       </c>
     </row>
     <row r="59">
@@ -3505,37 +3447,37 @@
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:10</t>
+          <t>2024-09-16 14:02</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr"/>
       <c r="G59" s="3" t="n">
-        <v>107631</v>
+        <v>109409</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>86146</v>
+        <v>75630</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>2318</v>
+        <v>902</v>
       </c>
       <c r="J59" s="3" t="n">
-        <v>83828</v>
+        <v>74728</v>
       </c>
       <c r="K59" s="3" t="inlineStr"/>
       <c r="L59" s="3" t="n">
-        <v>26413</v>
+        <v>20613</v>
       </c>
       <c r="M59" s="3" t="n">
-        <v>13527</v>
+        <v>13671</v>
       </c>
       <c r="N59" s="3" t="n">
-        <v>19777</v>
+        <v>18251</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>15070</v>
+        <v>9387</v>
       </c>
       <c r="P59" s="3" t="n">
-        <v>4847</v>
+        <v>9067</v>
       </c>
     </row>
     <row r="60">
@@ -3557,37 +3499,37 @@
       <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:19</t>
+          <t>2024-09-16 13:11</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr"/>
       <c r="G60" s="3" t="n">
-        <v>54149</v>
+        <v>54259</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>37648</v>
+        <v>37321</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>843</v>
+        <v>1082</v>
       </c>
       <c r="J60" s="3" t="n">
-        <v>36805</v>
+        <v>36239</v>
       </c>
       <c r="K60" s="3" t="inlineStr"/>
       <c r="L60" s="3" t="n">
-        <v>7127</v>
+        <v>10250</v>
       </c>
       <c r="M60" s="3" t="n">
-        <v>11579</v>
+        <v>5468</v>
       </c>
       <c r="N60" s="3" t="n">
-        <v>8806</v>
+        <v>6781</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>5887</v>
+        <v>4516</v>
       </c>
       <c r="P60" s="3" t="n">
-        <v>1564</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="61">
@@ -3607,39 +3549,37 @@
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr"/>
-      <c r="E61" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 09:33</t>
-        </is>
+      <c r="E61" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F61" s="3" t="inlineStr"/>
       <c r="G61" s="3" t="n">
-        <v>164244</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>145203</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>2132</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3" t="n">
-        <v>143071</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3" t="inlineStr"/>
       <c r="L61" s="3" t="n">
-        <v>47743</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3" t="n">
-        <v>28712</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3" t="n">
-        <v>23056</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3" t="n">
-        <v>12750</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3" t="n">
-        <v>23653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3659,39 +3599,37 @@
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr"/>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 14:45</t>
-        </is>
+      <c r="E62" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="inlineStr"/>
       <c r="G62" s="3" t="n">
-        <v>94264</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>61428</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="n">
-        <v>60542</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="inlineStr"/>
       <c r="L62" s="3" t="n">
-        <v>16276</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>15785</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="n">
-        <v>14966</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>9413</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="n">
-        <v>1072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3713,37 +3651,37 @@
       <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:32</t>
+          <t>2024-09-16 17:48</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr"/>
       <c r="G63" s="3" t="n">
-        <v>62157</v>
+        <v>63620</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>51016</v>
+        <v>47436</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="J63" s="3" t="n">
-        <v>49884</v>
+        <v>46319</v>
       </c>
       <c r="K63" s="3" t="inlineStr"/>
       <c r="L63" s="3" t="n">
-        <v>8297</v>
+        <v>14216</v>
       </c>
       <c r="M63" s="3" t="n">
-        <v>11765</v>
+        <v>13516</v>
       </c>
       <c r="N63" s="3" t="n">
-        <v>14558</v>
+        <v>8132</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>3094</v>
+        <v>2546</v>
       </c>
       <c r="P63" s="3" t="n">
-        <v>9674</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="64">
@@ -3763,39 +3701,37 @@
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr"/>
-      <c r="E64" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 18:44</t>
-        </is>
+      <c r="E64" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F64" s="3" t="inlineStr"/>
       <c r="G64" s="3" t="n">
-        <v>50343</v>
+        <v>0</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>40872</v>
+        <v>0</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>1147</v>
+        <v>0</v>
       </c>
       <c r="J64" s="3" t="n">
-        <v>39725</v>
+        <v>0</v>
       </c>
       <c r="K64" s="3" t="inlineStr"/>
       <c r="L64" s="3" t="n">
-        <v>6538</v>
+        <v>0</v>
       </c>
       <c r="M64" s="3" t="n">
-        <v>6748</v>
+        <v>0</v>
       </c>
       <c r="N64" s="3" t="n">
-        <v>6206</v>
+        <v>0</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>9943</v>
+        <v>0</v>
       </c>
       <c r="P64" s="3" t="n">
-        <v>8301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3815,39 +3751,37 @@
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr"/>
-      <c r="E65" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 09:02</t>
-        </is>
+      <c r="E65" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F65" s="3" t="inlineStr"/>
       <c r="G65" s="3" t="n">
-        <v>107254</v>
+        <v>0</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>68594</v>
+        <v>0</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="J65" s="3" t="n">
-        <v>67873</v>
+        <v>0</v>
       </c>
       <c r="K65" s="3" t="inlineStr"/>
       <c r="L65" s="3" t="n">
-        <v>18005</v>
+        <v>0</v>
       </c>
       <c r="M65" s="3" t="n">
-        <v>21475</v>
+        <v>0</v>
       </c>
       <c r="N65" s="3" t="n">
-        <v>8238</v>
+        <v>0</v>
       </c>
       <c r="O65" s="3" t="n">
-        <v>13474</v>
+        <v>0</v>
       </c>
       <c r="P65" s="3" t="n">
-        <v>3285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3867,39 +3801,37 @@
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr"/>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 12:39</t>
-        </is>
+      <c r="E66" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="n">
-        <v>76767</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>61440</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>1528</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3" t="n">
-        <v>59912</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="inlineStr"/>
       <c r="L66" s="3" t="n">
-        <v>17314</v>
+        <v>0</v>
       </c>
       <c r="M66" s="3" t="n">
-        <v>10815</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3" t="n">
-        <v>10024</v>
+        <v>0</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>12406</v>
+        <v>0</v>
       </c>
       <c r="P66" s="3" t="n">
-        <v>6356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3919,39 +3851,37 @@
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr"/>
-      <c r="E67" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 10:44</t>
-        </is>
+      <c r="E67" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F67" s="3" t="inlineStr"/>
       <c r="G67" s="3" t="n">
-        <v>84095</v>
+        <v>0</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>53679</v>
+        <v>0</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="J67" s="3" t="n">
-        <v>53008</v>
+        <v>0</v>
       </c>
       <c r="K67" s="3" t="inlineStr"/>
       <c r="L67" s="3" t="n">
-        <v>16176</v>
+        <v>0</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>11652</v>
+        <v>0</v>
       </c>
       <c r="N67" s="3" t="n">
-        <v>9273</v>
+        <v>0</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>10099</v>
+        <v>0</v>
       </c>
       <c r="P67" s="3" t="n">
-        <v>3156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3973,37 +3903,37 @@
       <c r="D68" s="3" t="inlineStr"/>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:57</t>
+          <t>2024-09-16 10:03</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr"/>
       <c r="G68" s="3" t="n">
-        <v>42978</v>
+        <v>43445</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>32724</v>
+        <v>26360</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>565</v>
+        <v>505</v>
       </c>
       <c r="J68" s="3" t="n">
-        <v>32159</v>
+        <v>25855</v>
       </c>
       <c r="K68" s="3" t="inlineStr"/>
       <c r="L68" s="3" t="n">
-        <v>7229</v>
+        <v>7738</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>7754</v>
+        <v>6780</v>
       </c>
       <c r="N68" s="3" t="n">
-        <v>5230</v>
+        <v>3524</v>
       </c>
       <c r="O68" s="3" t="n">
-        <v>4231</v>
+        <v>1436</v>
       </c>
       <c r="P68" s="3" t="n">
-        <v>6104</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="69">
@@ -4023,39 +3953,37 @@
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr"/>
-      <c r="E69" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 17:31</t>
-        </is>
+      <c r="E69" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F69" s="3" t="inlineStr"/>
       <c r="G69" s="3" t="n">
-        <v>83138</v>
+        <v>0</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>57969</v>
+        <v>0</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>1362</v>
+        <v>0</v>
       </c>
       <c r="J69" s="3" t="n">
-        <v>56607</v>
+        <v>0</v>
       </c>
       <c r="K69" s="3" t="inlineStr"/>
       <c r="L69" s="3" t="n">
-        <v>20066</v>
+        <v>0</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>7361</v>
+        <v>0</v>
       </c>
       <c r="N69" s="3" t="n">
-        <v>17980</v>
+        <v>0</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>5630</v>
+        <v>0</v>
       </c>
       <c r="P69" s="3" t="n">
-        <v>2738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4077,37 +4005,37 @@
       <c r="D70" s="3" t="inlineStr"/>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:09</t>
+          <t>2024-09-16 10:54</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr"/>
       <c r="G70" s="3" t="n">
-        <v>85082</v>
+        <v>92472</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>75299</v>
+        <v>58418</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>1029</v>
+        <v>1533</v>
       </c>
       <c r="J70" s="3" t="n">
-        <v>74270</v>
+        <v>56885</v>
       </c>
       <c r="K70" s="3" t="inlineStr"/>
       <c r="L70" s="3" t="n">
-        <v>17000</v>
+        <v>12944</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>15808</v>
+        <v>14766</v>
       </c>
       <c r="N70" s="3" t="n">
-        <v>23943</v>
+        <v>17339</v>
       </c>
       <c r="O70" s="3" t="n">
-        <v>12557</v>
+        <v>4280</v>
       </c>
       <c r="P70" s="3" t="n">
-        <v>1247</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="71">
@@ -4129,37 +4057,37 @@
       <c r="D71" s="3" t="inlineStr"/>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 08:55</t>
+          <t>2024-09-16 18:38</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr"/>
       <c r="G71" s="3" t="n">
-        <v>113415</v>
+        <v>116063</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>85950</v>
+        <v>95711</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>1774</v>
+        <v>2372</v>
       </c>
       <c r="J71" s="3" t="n">
-        <v>84176</v>
+        <v>93339</v>
       </c>
       <c r="K71" s="3" t="inlineStr"/>
       <c r="L71" s="3" t="n">
-        <v>17434</v>
+        <v>27893</v>
       </c>
       <c r="M71" s="3" t="n">
-        <v>20326</v>
+        <v>21053</v>
       </c>
       <c r="N71" s="3" t="n">
-        <v>26422</v>
+        <v>16903</v>
       </c>
       <c r="O71" s="3" t="n">
-        <v>7235</v>
+        <v>7472</v>
       </c>
       <c r="P71" s="3" t="n">
-        <v>8547</v>
+        <v>15349</v>
       </c>
     </row>
     <row r="72">
@@ -4181,37 +4109,37 @@
       <c r="D72" s="3" t="inlineStr"/>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:05</t>
+          <t>2024-09-16 14:04</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr"/>
       <c r="G72" s="3" t="n">
-        <v>101672</v>
+        <v>100076</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>90763</v>
+        <v>73600</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>2588</v>
+        <v>1719</v>
       </c>
       <c r="J72" s="3" t="n">
-        <v>88175</v>
+        <v>71881</v>
       </c>
       <c r="K72" s="3" t="inlineStr"/>
       <c r="L72" s="3" t="n">
-        <v>21089</v>
+        <v>16177</v>
       </c>
       <c r="M72" s="3" t="n">
-        <v>11522</v>
+        <v>16788</v>
       </c>
       <c r="N72" s="3" t="n">
-        <v>21487</v>
+        <v>18672</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>16858</v>
+        <v>7168</v>
       </c>
       <c r="P72" s="3" t="n">
-        <v>12808</v>
+        <v>9479</v>
       </c>
     </row>
     <row r="73">
@@ -4233,37 +4161,37 @@
       <c r="D73" s="3" t="inlineStr"/>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:59</t>
+          <t>2024-09-16 20:19</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr"/>
       <c r="G73" s="3" t="n">
-        <v>135994</v>
+        <v>147683</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>97867</v>
+        <v>131529</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>2919</v>
+        <v>1317</v>
       </c>
       <c r="J73" s="3" t="n">
-        <v>94948</v>
+        <v>130212</v>
       </c>
       <c r="K73" s="3" t="inlineStr"/>
       <c r="L73" s="3" t="n">
-        <v>20589</v>
+        <v>22270</v>
       </c>
       <c r="M73" s="3" t="n">
-        <v>15927</v>
+        <v>21450</v>
       </c>
       <c r="N73" s="3" t="n">
-        <v>18509</v>
+        <v>37854</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>15682</v>
+        <v>18551</v>
       </c>
       <c r="P73" s="3" t="n">
-        <v>19491</v>
+        <v>23574</v>
       </c>
     </row>
     <row r="74">
@@ -4283,39 +4211,37 @@
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr"/>
-      <c r="E74" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 20:00</t>
-        </is>
+      <c r="E74" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F74" s="3" t="inlineStr"/>
       <c r="G74" s="3" t="n">
-        <v>70559</v>
+        <v>0</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>47813</v>
+        <v>0</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>985</v>
+        <v>0</v>
       </c>
       <c r="J74" s="3" t="n">
-        <v>46828</v>
+        <v>0</v>
       </c>
       <c r="K74" s="3" t="inlineStr"/>
       <c r="L74" s="3" t="n">
-        <v>15824</v>
+        <v>0</v>
       </c>
       <c r="M74" s="3" t="n">
-        <v>8357</v>
+        <v>0</v>
       </c>
       <c r="N74" s="3" t="n">
-        <v>15070</v>
+        <v>0</v>
       </c>
       <c r="O74" s="3" t="n">
-        <v>1907</v>
+        <v>0</v>
       </c>
       <c r="P74" s="3" t="n">
-        <v>3326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4337,37 +4263,37 @@
       <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:37</t>
+          <t>2024-09-16 10:05</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr"/>
       <c r="G75" s="3" t="n">
-        <v>90606</v>
+        <v>90169</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>58841</v>
+        <v>54274</v>
       </c>
       <c r="I75" s="3" t="n">
-        <v>1501</v>
+        <v>1175</v>
       </c>
       <c r="J75" s="3" t="n">
-        <v>57340</v>
+        <v>53099</v>
       </c>
       <c r="K75" s="3" t="inlineStr"/>
       <c r="L75" s="3" t="n">
-        <v>13048</v>
+        <v>16222</v>
       </c>
       <c r="M75" s="3" t="n">
-        <v>18228</v>
+        <v>10384</v>
       </c>
       <c r="N75" s="3" t="n">
-        <v>8395</v>
+        <v>10974</v>
       </c>
       <c r="O75" s="3" t="n">
-        <v>9511</v>
+        <v>7519</v>
       </c>
       <c r="P75" s="3" t="n">
-        <v>5289</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="76">
@@ -4389,37 +4315,37 @@
       <c r="D76" s="3" t="inlineStr"/>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:30</t>
+          <t>2024-09-16 18:56</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr"/>
       <c r="G76" s="3" t="n">
-        <v>99134</v>
+        <v>102681</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>59572</v>
+        <v>66257</v>
       </c>
       <c r="I76" s="3" t="n">
-        <v>984</v>
+        <v>1756</v>
       </c>
       <c r="J76" s="3" t="n">
-        <v>58588</v>
+        <v>64501</v>
       </c>
       <c r="K76" s="3" t="inlineStr"/>
       <c r="L76" s="3" t="n">
-        <v>18269</v>
+        <v>16263</v>
       </c>
       <c r="M76" s="3" t="n">
-        <v>12642</v>
+        <v>14189</v>
       </c>
       <c r="N76" s="3" t="n">
-        <v>10786</v>
+        <v>13091</v>
       </c>
       <c r="O76" s="3" t="n">
-        <v>11829</v>
+        <v>11687</v>
       </c>
       <c r="P76" s="3" t="n">
-        <v>2129</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="77">
@@ -4441,37 +4367,37 @@
       <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:05</t>
+          <t>2024-09-16 20:09</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="n">
-        <v>334004</v>
+        <v>339630</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>274732</v>
+        <v>238845</v>
       </c>
       <c r="I77" s="3" t="n">
-        <v>6008</v>
+        <v>4007</v>
       </c>
       <c r="J77" s="3" t="n">
-        <v>268724</v>
+        <v>234838</v>
       </c>
       <c r="K77" s="3" t="inlineStr"/>
       <c r="L77" s="3" t="n">
-        <v>51715</v>
+        <v>74944</v>
       </c>
       <c r="M77" s="3" t="n">
-        <v>69038</v>
+        <v>29505</v>
       </c>
       <c r="N77" s="3" t="n">
-        <v>60397</v>
+        <v>56151</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>56530</v>
+        <v>54841</v>
       </c>
       <c r="P77" s="3" t="n">
-        <v>17605</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="78">
@@ -4491,39 +4417,37 @@
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr"/>
-      <c r="E78" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 19:15</t>
-        </is>
+      <c r="E78" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F78" s="3" t="inlineStr"/>
       <c r="G78" s="3" t="n">
-        <v>84041</v>
+        <v>0</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>58368</v>
+        <v>0</v>
       </c>
       <c r="I78" s="3" t="n">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="J78" s="3" t="n">
-        <v>56702</v>
+        <v>0</v>
       </c>
       <c r="K78" s="3" t="inlineStr"/>
       <c r="L78" s="3" t="n">
-        <v>15837</v>
+        <v>0</v>
       </c>
       <c r="M78" s="3" t="n">
-        <v>16052</v>
+        <v>0</v>
       </c>
       <c r="N78" s="3" t="n">
-        <v>7906</v>
+        <v>0</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>10239</v>
+        <v>0</v>
       </c>
       <c r="P78" s="3" t="n">
-        <v>3832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -4545,37 +4469,37 @@
       <c r="D79" s="3" t="inlineStr"/>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:31</t>
+          <t>2024-09-16 18:12</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr"/>
       <c r="G79" s="3" t="n">
-        <v>76687</v>
+        <v>76347</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>46789</v>
+        <v>59242</v>
       </c>
       <c r="I79" s="3" t="n">
-        <v>1173</v>
+        <v>701</v>
       </c>
       <c r="J79" s="3" t="n">
-        <v>45616</v>
+        <v>58541</v>
       </c>
       <c r="K79" s="3" t="inlineStr"/>
       <c r="L79" s="3" t="n">
-        <v>10726</v>
+        <v>12121</v>
       </c>
       <c r="M79" s="3" t="n">
-        <v>10721</v>
+        <v>7617</v>
       </c>
       <c r="N79" s="3" t="n">
-        <v>11550</v>
+        <v>16335</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>5901</v>
+        <v>15010</v>
       </c>
       <c r="P79" s="3" t="n">
-        <v>4435</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="80">
@@ -4597,37 +4521,37 @@
       <c r="D80" s="3" t="inlineStr"/>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:31</t>
+          <t>2024-09-16 12:50</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr"/>
       <c r="G80" s="3" t="n">
-        <v>85070</v>
+        <v>91502</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>57821</v>
+        <v>73147</v>
       </c>
       <c r="I80" s="3" t="n">
-        <v>1037</v>
+        <v>1790</v>
       </c>
       <c r="J80" s="3" t="n">
-        <v>56784</v>
+        <v>71357</v>
       </c>
       <c r="K80" s="3" t="inlineStr"/>
       <c r="L80" s="3" t="n">
-        <v>13976</v>
+        <v>20969</v>
       </c>
       <c r="M80" s="3" t="n">
-        <v>22801</v>
+        <v>14485</v>
       </c>
       <c r="N80" s="3" t="n">
-        <v>10991</v>
+        <v>16327</v>
       </c>
       <c r="O80" s="3" t="n">
-        <v>4267</v>
+        <v>9446</v>
       </c>
       <c r="P80" s="3" t="n">
-        <v>1908</v>
+        <v>6559</v>
       </c>
     </row>
     <row r="81">
@@ -4647,39 +4571,37 @@
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr"/>
-      <c r="E81" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 19:54</t>
-        </is>
+      <c r="E81" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F81" s="3" t="inlineStr"/>
       <c r="G81" s="3" t="n">
-        <v>56448</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>42919</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="n">
-        <v>751</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="n">
-        <v>42168</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="inlineStr"/>
       <c r="L81" s="3" t="n">
-        <v>9553</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="n">
-        <v>10272</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="n">
-        <v>10970</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="n">
-        <v>6050</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="n">
-        <v>3211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4699,39 +4621,37 @@
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr"/>
-      <c r="E82" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 11:01</t>
-        </is>
+      <c r="E82" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F82" s="3" t="inlineStr"/>
       <c r="G82" s="3" t="n">
-        <v>78634</v>
+        <v>0</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>64392</v>
+        <v>0</v>
       </c>
       <c r="I82" s="3" t="n">
-        <v>796</v>
+        <v>0</v>
       </c>
       <c r="J82" s="3" t="n">
-        <v>63596</v>
+        <v>0</v>
       </c>
       <c r="K82" s="3" t="inlineStr"/>
       <c r="L82" s="3" t="n">
-        <v>17263</v>
+        <v>0</v>
       </c>
       <c r="M82" s="3" t="n">
-        <v>11492</v>
+        <v>0</v>
       </c>
       <c r="N82" s="3" t="n">
-        <v>13755</v>
+        <v>0</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>9526</v>
+        <v>0</v>
       </c>
       <c r="P82" s="3" t="n">
-        <v>8378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -4751,39 +4671,37 @@
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr"/>
-      <c r="E83" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 09:36</t>
-        </is>
+      <c r="E83" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="inlineStr"/>
       <c r="G83" s="3" t="n">
-        <v>75663</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>48367</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="n">
-        <v>962</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="n">
-        <v>47405</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="inlineStr"/>
       <c r="L83" s="3" t="n">
-        <v>8557</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="n">
-        <v>11330</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="n">
-        <v>14491</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="n">
-        <v>7207</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="n">
-        <v>3447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -4803,39 +4721,37 @@
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr"/>
-      <c r="E84" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 13:04</t>
-        </is>
+      <c r="E84" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F84" s="3" t="inlineStr"/>
       <c r="G84" s="3" t="n">
-        <v>90511</v>
+        <v>0</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>63097</v>
+        <v>0</v>
       </c>
       <c r="I84" s="3" t="n">
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="J84" s="3" t="n">
-        <v>62382</v>
+        <v>0</v>
       </c>
       <c r="K84" s="3" t="inlineStr"/>
       <c r="L84" s="3" t="n">
-        <v>14573</v>
+        <v>0</v>
       </c>
       <c r="M84" s="3" t="n">
-        <v>10392</v>
+        <v>0</v>
       </c>
       <c r="N84" s="3" t="n">
-        <v>18531</v>
+        <v>0</v>
       </c>
       <c r="O84" s="3" t="n">
-        <v>9766</v>
+        <v>0</v>
       </c>
       <c r="P84" s="3" t="n">
-        <v>5999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4857,37 +4773,37 @@
       <c r="D85" s="3" t="inlineStr"/>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 20:12</t>
+          <t>2024-09-16 20:14</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr"/>
       <c r="G85" s="3" t="n">
-        <v>109940</v>
+        <v>105355</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>90995</v>
+        <v>87634</v>
       </c>
       <c r="I85" s="3" t="n">
-        <v>2561</v>
+        <v>2164</v>
       </c>
       <c r="J85" s="3" t="n">
-        <v>88434</v>
+        <v>85470</v>
       </c>
       <c r="K85" s="3" t="inlineStr"/>
       <c r="L85" s="3" t="n">
-        <v>21795</v>
+        <v>27995</v>
       </c>
       <c r="M85" s="3" t="n">
-        <v>11860</v>
+        <v>24321</v>
       </c>
       <c r="N85" s="3" t="n">
-        <v>16362</v>
+        <v>9228</v>
       </c>
       <c r="O85" s="3" t="n">
-        <v>18153</v>
+        <v>13569</v>
       </c>
       <c r="P85" s="3" t="n">
-        <v>15839</v>
+        <v>6082</v>
       </c>
     </row>
     <row r="86">
@@ -4909,37 +4825,37 @@
       <c r="D86" s="3" t="inlineStr"/>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 10:46</t>
+          <t>2024-09-16 11:53</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr"/>
       <c r="G86" s="3" t="n">
-        <v>104208</v>
+        <v>97457</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>74592</v>
+        <v>79738</v>
       </c>
       <c r="I86" s="3" t="n">
-        <v>1935</v>
+        <v>1205</v>
       </c>
       <c r="J86" s="3" t="n">
-        <v>72657</v>
+        <v>78533</v>
       </c>
       <c r="K86" s="3" t="inlineStr"/>
       <c r="L86" s="3" t="n">
-        <v>20146</v>
+        <v>24438</v>
       </c>
       <c r="M86" s="3" t="n">
-        <v>21760</v>
+        <v>16374</v>
       </c>
       <c r="N86" s="3" t="n">
-        <v>8226</v>
+        <v>21113</v>
       </c>
       <c r="O86" s="3" t="n">
-        <v>5972</v>
+        <v>4799</v>
       </c>
       <c r="P86" s="3" t="n">
-        <v>12917</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="87">
@@ -4961,37 +4877,37 @@
       <c r="D87" s="3" t="inlineStr"/>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:15</t>
+          <t>2024-09-16 12:41</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr"/>
       <c r="G87" s="3" t="n">
-        <v>79535</v>
+        <v>80035</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>70968</v>
+        <v>64680</v>
       </c>
       <c r="I87" s="3" t="n">
-        <v>1967</v>
+        <v>1482</v>
       </c>
       <c r="J87" s="3" t="n">
-        <v>69001</v>
+        <v>63198</v>
       </c>
       <c r="K87" s="3" t="inlineStr"/>
       <c r="L87" s="3" t="n">
-        <v>23158</v>
+        <v>15227</v>
       </c>
       <c r="M87" s="3" t="n">
-        <v>9911</v>
+        <v>11627</v>
       </c>
       <c r="N87" s="3" t="n">
-        <v>17650</v>
+        <v>14929</v>
       </c>
       <c r="O87" s="3" t="n">
-        <v>6929</v>
+        <v>5191</v>
       </c>
       <c r="P87" s="3" t="n">
-        <v>7900</v>
+        <v>13062</v>
       </c>
     </row>
     <row r="88">
@@ -5011,39 +4927,37 @@
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr"/>
-      <c r="E88" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 18:17</t>
-        </is>
+      <c r="E88" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F88" s="3" t="inlineStr"/>
       <c r="G88" s="3" t="n">
-        <v>83409</v>
+        <v>0</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>58177</v>
+        <v>0</v>
       </c>
       <c r="I88" s="3" t="n">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="J88" s="3" t="n">
-        <v>57583</v>
+        <v>0</v>
       </c>
       <c r="K88" s="3" t="inlineStr"/>
       <c r="L88" s="3" t="n">
-        <v>18097</v>
+        <v>0</v>
       </c>
       <c r="M88" s="3" t="n">
-        <v>13664</v>
+        <v>0</v>
       </c>
       <c r="N88" s="3" t="n">
-        <v>12108</v>
+        <v>0</v>
       </c>
       <c r="O88" s="3" t="n">
-        <v>3044</v>
+        <v>0</v>
       </c>
       <c r="P88" s="3" t="n">
-        <v>7789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -5065,37 +4979,37 @@
       <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:55</t>
+          <t>2024-09-16 17:53</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr"/>
       <c r="G89" s="3" t="n">
-        <v>98504</v>
+        <v>104831</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>60134</v>
+        <v>73533</v>
       </c>
       <c r="I89" s="3" t="n">
-        <v>1492</v>
+        <v>1475</v>
       </c>
       <c r="J89" s="3" t="n">
-        <v>58642</v>
+        <v>72058</v>
       </c>
       <c r="K89" s="3" t="inlineStr"/>
       <c r="L89" s="3" t="n">
-        <v>19846</v>
+        <v>23389</v>
       </c>
       <c r="M89" s="3" t="n">
-        <v>17286</v>
+        <v>14725</v>
       </c>
       <c r="N89" s="3" t="n">
-        <v>12602</v>
+        <v>13866</v>
       </c>
       <c r="O89" s="3" t="n">
-        <v>3267</v>
+        <v>4821</v>
       </c>
       <c r="P89" s="3" t="n">
-        <v>2707</v>
+        <v>11652</v>
       </c>
     </row>
     <row r="90">
@@ -5117,37 +5031,37 @@
       <c r="D90" s="3" t="inlineStr"/>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:27</t>
+          <t>2024-09-16 15:29</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr"/>
       <c r="G90" s="3" t="n">
-        <v>83282</v>
+        <v>84206</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>72318</v>
+        <v>55697</v>
       </c>
       <c r="I90" s="3" t="n">
-        <v>916</v>
+        <v>567</v>
       </c>
       <c r="J90" s="3" t="n">
-        <v>71402</v>
+        <v>55130</v>
       </c>
       <c r="K90" s="3" t="inlineStr"/>
       <c r="L90" s="3" t="n">
-        <v>10202</v>
+        <v>10607</v>
       </c>
       <c r="M90" s="3" t="n">
-        <v>17757</v>
+        <v>12262</v>
       </c>
       <c r="N90" s="3" t="n">
-        <v>17107</v>
+        <v>6977</v>
       </c>
       <c r="O90" s="3" t="n">
-        <v>13561</v>
+        <v>7495</v>
       </c>
       <c r="P90" s="3" t="n">
-        <v>9203</v>
+        <v>15030</v>
       </c>
     </row>
     <row r="91">
@@ -5167,39 +5081,37 @@
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr"/>
-      <c r="E91" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 11:28</t>
-        </is>
+      <c r="E91" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="inlineStr"/>
       <c r="G91" s="3" t="n">
-        <v>110221</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>96994</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="n">
-        <v>1173</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="n">
-        <v>95821</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="inlineStr"/>
       <c r="L91" s="3" t="n">
-        <v>19977</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="n">
-        <v>13200</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="n">
-        <v>31698</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="n">
-        <v>12081</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="n">
-        <v>14071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -5219,39 +5131,37 @@
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr"/>
-      <c r="E92" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 16:54</t>
-        </is>
+      <c r="E92" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F92" s="3" t="inlineStr"/>
       <c r="G92" s="3" t="n">
-        <v>97713</v>
+        <v>0</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>62792</v>
+        <v>0</v>
       </c>
       <c r="I92" s="3" t="n">
-        <v>923</v>
+        <v>0</v>
       </c>
       <c r="J92" s="3" t="n">
-        <v>61869</v>
+        <v>0</v>
       </c>
       <c r="K92" s="3" t="inlineStr"/>
       <c r="L92" s="3" t="n">
-        <v>12942</v>
+        <v>0</v>
       </c>
       <c r="M92" s="3" t="n">
-        <v>13206</v>
+        <v>0</v>
       </c>
       <c r="N92" s="3" t="n">
-        <v>9379</v>
+        <v>0</v>
       </c>
       <c r="O92" s="3" t="n">
-        <v>14393</v>
+        <v>0</v>
       </c>
       <c r="P92" s="3" t="n">
-        <v>8853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -5271,39 +5181,37 @@
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr"/>
-      <c r="E93" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 09:40</t>
-        </is>
+      <c r="E93" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F93" s="3" t="inlineStr"/>
       <c r="G93" s="3" t="n">
-        <v>101147</v>
+        <v>0</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>90694</v>
+        <v>0</v>
       </c>
       <c r="I93" s="3" t="n">
-        <v>2696</v>
+        <v>0</v>
       </c>
       <c r="J93" s="3" t="n">
-        <v>87998</v>
+        <v>0</v>
       </c>
       <c r="K93" s="3" t="inlineStr"/>
       <c r="L93" s="3" t="n">
-        <v>27874</v>
+        <v>0</v>
       </c>
       <c r="M93" s="3" t="n">
-        <v>26678</v>
+        <v>0</v>
       </c>
       <c r="N93" s="3" t="n">
-        <v>9618</v>
+        <v>0</v>
       </c>
       <c r="O93" s="3" t="n">
-        <v>8877</v>
+        <v>0</v>
       </c>
       <c r="P93" s="3" t="n">
-        <v>10548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -5323,39 +5231,37 @@
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr"/>
-      <c r="E94" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 14:06</t>
-        </is>
+      <c r="E94" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="inlineStr"/>
       <c r="G94" s="3" t="n">
-        <v>82375</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>69728</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="n">
-        <v>890</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="n">
-        <v>68838</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="inlineStr"/>
       <c r="L94" s="3" t="n">
-        <v>18242</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="n">
-        <v>8397</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="n">
-        <v>17785</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="n">
-        <v>6943</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="n">
-        <v>14027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -5375,39 +5281,37 @@
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr"/>
-      <c r="E95" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 19:14</t>
-        </is>
+      <c r="E95" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F95" s="3" t="inlineStr"/>
       <c r="G95" s="3" t="n">
-        <v>85403</v>
+        <v>0</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>61173</v>
+        <v>0</v>
       </c>
       <c r="I95" s="3" t="n">
-        <v>1741</v>
+        <v>0</v>
       </c>
       <c r="J95" s="3" t="n">
-        <v>59432</v>
+        <v>0</v>
       </c>
       <c r="K95" s="3" t="inlineStr"/>
       <c r="L95" s="3" t="n">
-        <v>17697</v>
+        <v>0</v>
       </c>
       <c r="M95" s="3" t="n">
-        <v>17771</v>
+        <v>0</v>
       </c>
       <c r="N95" s="3" t="n">
-        <v>9349</v>
+        <v>0</v>
       </c>
       <c r="O95" s="3" t="n">
-        <v>9693</v>
+        <v>0</v>
       </c>
       <c r="P95" s="3" t="n">
-        <v>1949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -5429,37 +5333,37 @@
       <c r="D96" s="3" t="inlineStr"/>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:09</t>
+          <t>2024-09-16 15:55</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr"/>
       <c r="G96" s="3" t="n">
-        <v>89300</v>
+        <v>91277</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>75031</v>
+        <v>78772</v>
       </c>
       <c r="I96" s="3" t="n">
-        <v>1905</v>
+        <v>1662</v>
       </c>
       <c r="J96" s="3" t="n">
-        <v>73126</v>
+        <v>77110</v>
       </c>
       <c r="K96" s="3" t="inlineStr"/>
       <c r="L96" s="3" t="n">
-        <v>20682</v>
+        <v>24868</v>
       </c>
       <c r="M96" s="3" t="n">
-        <v>13030</v>
+        <v>22642</v>
       </c>
       <c r="N96" s="3" t="n">
-        <v>22099</v>
+        <v>12326</v>
       </c>
       <c r="O96" s="3" t="n">
-        <v>6864</v>
+        <v>5719</v>
       </c>
       <c r="P96" s="3" t="n">
-        <v>6792</v>
+        <v>7697</v>
       </c>
     </row>
     <row r="97">
@@ -5481,37 +5385,37 @@
       <c r="D97" s="3" t="inlineStr"/>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:17</t>
+          <t>2024-09-16 19:35</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr"/>
       <c r="G97" s="3" t="n">
-        <v>98680</v>
+        <v>96114</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>84951</v>
+        <v>79131</v>
       </c>
       <c r="I97" s="3" t="n">
-        <v>1446</v>
+        <v>1218</v>
       </c>
       <c r="J97" s="3" t="n">
-        <v>83505</v>
+        <v>77913</v>
       </c>
       <c r="K97" s="3" t="inlineStr"/>
       <c r="L97" s="3" t="n">
-        <v>19650</v>
+        <v>32165</v>
       </c>
       <c r="M97" s="3" t="n">
-        <v>10958</v>
+        <v>14491</v>
       </c>
       <c r="N97" s="3" t="n">
-        <v>10277</v>
+        <v>14736</v>
       </c>
       <c r="O97" s="3" t="n">
-        <v>21668</v>
+        <v>9957</v>
       </c>
       <c r="P97" s="3" t="n">
-        <v>16774</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="98">
@@ -5531,39 +5435,37 @@
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr"/>
-      <c r="E98" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 12:01</t>
-        </is>
+      <c r="E98" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F98" s="3" t="inlineStr"/>
       <c r="G98" s="3" t="n">
-        <v>105531</v>
+        <v>0</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>77839</v>
+        <v>0</v>
       </c>
       <c r="I98" s="3" t="n">
-        <v>869</v>
+        <v>0</v>
       </c>
       <c r="J98" s="3" t="n">
-        <v>76970</v>
+        <v>0</v>
       </c>
       <c r="K98" s="3" t="inlineStr"/>
       <c r="L98" s="3" t="n">
-        <v>14055</v>
+        <v>0</v>
       </c>
       <c r="M98" s="3" t="n">
-        <v>17920</v>
+        <v>0</v>
       </c>
       <c r="N98" s="3" t="n">
-        <v>17878</v>
+        <v>0</v>
       </c>
       <c r="O98" s="3" t="n">
-        <v>12050</v>
+        <v>0</v>
       </c>
       <c r="P98" s="3" t="n">
-        <v>11216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -5585,37 +5487,37 @@
       <c r="D99" s="3" t="inlineStr"/>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:29</t>
+          <t>2024-09-16 12:21</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr"/>
       <c r="G99" s="3" t="n">
-        <v>77835</v>
+        <v>80134</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>52185</v>
+        <v>62421</v>
       </c>
       <c r="I99" s="3" t="n">
-        <v>1257</v>
+        <v>1673</v>
       </c>
       <c r="J99" s="3" t="n">
-        <v>50928</v>
+        <v>60748</v>
       </c>
       <c r="K99" s="3" t="inlineStr"/>
       <c r="L99" s="3" t="n">
-        <v>11039</v>
+        <v>9165</v>
       </c>
       <c r="M99" s="3" t="n">
-        <v>5913</v>
+        <v>15159</v>
       </c>
       <c r="N99" s="3" t="n">
-        <v>12915</v>
+        <v>18380</v>
       </c>
       <c r="O99" s="3" t="n">
-        <v>11593</v>
+        <v>7559</v>
       </c>
       <c r="P99" s="3" t="n">
-        <v>6919</v>
+        <v>7444</v>
       </c>
     </row>
     <row r="100">
@@ -5637,37 +5539,37 @@
       <c r="D100" s="3" t="inlineStr"/>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 18:44</t>
+          <t>2024-09-16 18:58</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr"/>
       <c r="G100" s="3" t="n">
-        <v>127441</v>
+        <v>134155</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>83275</v>
+        <v>106560</v>
       </c>
       <c r="I100" s="3" t="n">
-        <v>1819</v>
+        <v>1123</v>
       </c>
       <c r="J100" s="3" t="n">
-        <v>81456</v>
+        <v>105437</v>
       </c>
       <c r="K100" s="3" t="inlineStr"/>
       <c r="L100" s="3" t="n">
-        <v>14171</v>
+        <v>22258</v>
       </c>
       <c r="M100" s="3" t="n">
-        <v>11457</v>
+        <v>24318</v>
       </c>
       <c r="N100" s="3" t="n">
-        <v>17059</v>
+        <v>39786</v>
       </c>
       <c r="O100" s="3" t="n">
-        <v>15120</v>
+        <v>4805</v>
       </c>
       <c r="P100" s="3" t="n">
-        <v>19574</v>
+        <v>8995</v>
       </c>
     </row>
     <row r="101">
@@ -5687,39 +5589,37 @@
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr"/>
-      <c r="E101" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 15:38</t>
-        </is>
+      <c r="E101" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="inlineStr"/>
       <c r="G101" s="3" t="n">
-        <v>173587</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>151174</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="n">
-        <v>4394</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="n">
-        <v>146780</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="inlineStr"/>
       <c r="L101" s="3" t="n">
-        <v>34387</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="n">
-        <v>40408</v>
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="n">
-        <v>16557</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="n">
-        <v>41145</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="n">
-        <v>6942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -5739,39 +5639,37 @@
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr"/>
-      <c r="E102" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 18:27</t>
-        </is>
+      <c r="E102" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F102" s="3" t="inlineStr"/>
       <c r="G102" s="3" t="n">
-        <v>24919</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>18037</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="n">
-        <v>17782</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="inlineStr"/>
       <c r="L102" s="3" t="n">
-        <v>4971</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="n">
-        <v>4819</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="n">
-        <v>2817</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="n">
-        <v>4122</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -5791,39 +5689,37 @@
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr"/>
-      <c r="E103" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 10:18</t>
-        </is>
+      <c r="E103" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F103" s="3" t="inlineStr"/>
       <c r="G103" s="3" t="n">
-        <v>53332</v>
+        <v>0</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>41196</v>
+        <v>0</v>
       </c>
       <c r="I103" s="3" t="n">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="J103" s="3" t="n">
-        <v>40052</v>
+        <v>0</v>
       </c>
       <c r="K103" s="3" t="inlineStr"/>
       <c r="L103" s="3" t="n">
-        <v>14681</v>
+        <v>0</v>
       </c>
       <c r="M103" s="3" t="n">
-        <v>6485</v>
+        <v>0</v>
       </c>
       <c r="N103" s="3" t="n">
-        <v>12005</v>
+        <v>0</v>
       </c>
       <c r="O103" s="3" t="n">
-        <v>3595</v>
+        <v>0</v>
       </c>
       <c r="P103" s="3" t="n">
-        <v>1280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -5845,37 +5741,37 @@
       <c r="D104" s="3" t="inlineStr"/>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:26</t>
+          <t>2024-09-16 10:27</t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr"/>
       <c r="G104" s="3" t="n">
-        <v>63848</v>
+        <v>67368</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>49188</v>
+        <v>57054</v>
       </c>
       <c r="I104" s="3" t="n">
-        <v>1176</v>
+        <v>1291</v>
       </c>
       <c r="J104" s="3" t="n">
-        <v>48012</v>
+        <v>55763</v>
       </c>
       <c r="K104" s="3" t="inlineStr"/>
       <c r="L104" s="3" t="n">
-        <v>14095</v>
+        <v>16094</v>
       </c>
       <c r="M104" s="3" t="n">
-        <v>8516</v>
+        <v>12267</v>
       </c>
       <c r="N104" s="3" t="n">
-        <v>7432</v>
+        <v>7853</v>
       </c>
       <c r="O104" s="3" t="n">
-        <v>4228</v>
+        <v>10924</v>
       </c>
       <c r="P104" s="3" t="n">
-        <v>11338</v>
+        <v>5834</v>
       </c>
     </row>
     <row r="105">
@@ -5897,37 +5793,37 @@
       <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:02</t>
+          <t>2024-09-16 10:32</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr"/>
       <c r="G105" s="3" t="n">
-        <v>60923</v>
+        <v>58276</v>
       </c>
       <c r="H105" s="3" t="n">
-        <v>41261</v>
+        <v>48518</v>
       </c>
       <c r="I105" s="3" t="n">
-        <v>543</v>
+        <v>656</v>
       </c>
       <c r="J105" s="3" t="n">
-        <v>40718</v>
+        <v>47862</v>
       </c>
       <c r="K105" s="3" t="inlineStr"/>
       <c r="L105" s="3" t="n">
-        <v>9807</v>
+        <v>15312</v>
       </c>
       <c r="M105" s="3" t="n">
-        <v>12416</v>
+        <v>9508</v>
       </c>
       <c r="N105" s="3" t="n">
-        <v>6708</v>
+        <v>13817</v>
       </c>
       <c r="O105" s="3" t="n">
-        <v>7245</v>
+        <v>2947</v>
       </c>
       <c r="P105" s="3" t="n">
-        <v>2504</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="106">
@@ -5947,39 +5843,37 @@
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr"/>
-      <c r="E106" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 11:31</t>
-        </is>
+      <c r="E106" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F106" s="3" t="inlineStr"/>
       <c r="G106" s="3" t="n">
-        <v>59987</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>44772</v>
+        <v>0</v>
       </c>
       <c r="I106" s="3" t="n">
-        <v>843</v>
+        <v>0</v>
       </c>
       <c r="J106" s="3" t="n">
-        <v>43929</v>
+        <v>0</v>
       </c>
       <c r="K106" s="3" t="inlineStr"/>
       <c r="L106" s="3" t="n">
-        <v>8241</v>
+        <v>0</v>
       </c>
       <c r="M106" s="3" t="n">
-        <v>8359</v>
+        <v>0</v>
       </c>
       <c r="N106" s="3" t="n">
-        <v>5673</v>
+        <v>0</v>
       </c>
       <c r="O106" s="3" t="n">
-        <v>10899</v>
+        <v>0</v>
       </c>
       <c r="P106" s="3" t="n">
-        <v>8558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -5999,39 +5893,37 @@
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr"/>
-      <c r="E107" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 08:47</t>
-        </is>
+      <c r="E107" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F107" s="3" t="inlineStr"/>
       <c r="G107" s="3" t="n">
-        <v>40294</v>
+        <v>0</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>35317</v>
+        <v>0</v>
       </c>
       <c r="I107" s="3" t="n">
-        <v>592</v>
+        <v>0</v>
       </c>
       <c r="J107" s="3" t="n">
-        <v>34725</v>
+        <v>0</v>
       </c>
       <c r="K107" s="3" t="inlineStr"/>
       <c r="L107" s="3" t="n">
-        <v>6351</v>
+        <v>0</v>
       </c>
       <c r="M107" s="3" t="n">
-        <v>5563</v>
+        <v>0</v>
       </c>
       <c r="N107" s="3" t="n">
-        <v>9534</v>
+        <v>0</v>
       </c>
       <c r="O107" s="3" t="n">
-        <v>4008</v>
+        <v>0</v>
       </c>
       <c r="P107" s="3" t="n">
-        <v>7530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -6053,37 +5945,37 @@
       <c r="D108" s="3" t="inlineStr"/>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:43</t>
+          <t>2024-09-16 20:32</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr"/>
       <c r="G108" s="3" t="n">
-        <v>38172</v>
+        <v>38260</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>25480</v>
+        <v>28305</v>
       </c>
       <c r="I108" s="3" t="n">
-        <v>750</v>
+        <v>815</v>
       </c>
       <c r="J108" s="3" t="n">
-        <v>24730</v>
+        <v>27490</v>
       </c>
       <c r="K108" s="3" t="inlineStr"/>
       <c r="L108" s="3" t="n">
-        <v>4878</v>
+        <v>7463</v>
       </c>
       <c r="M108" s="3" t="n">
-        <v>5818</v>
+        <v>8390</v>
       </c>
       <c r="N108" s="3" t="n">
-        <v>7330</v>
+        <v>3869</v>
       </c>
       <c r="O108" s="3" t="n">
-        <v>1973</v>
+        <v>1062</v>
       </c>
       <c r="P108" s="3" t="n">
-        <v>3493</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="109">
@@ -6105,37 +5997,37 @@
       <c r="D109" s="3" t="inlineStr"/>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:17</t>
+          <t>2024-09-16 14:56</t>
         </is>
       </c>
       <c r="F109" s="3" t="inlineStr"/>
       <c r="G109" s="3" t="n">
-        <v>53961</v>
+        <v>56942</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>42457</v>
+        <v>49661</v>
       </c>
       <c r="I109" s="3" t="n">
-        <v>906</v>
+        <v>961</v>
       </c>
       <c r="J109" s="3" t="n">
-        <v>41551</v>
+        <v>48700</v>
       </c>
       <c r="K109" s="3" t="inlineStr"/>
       <c r="L109" s="3" t="n">
-        <v>12102</v>
+        <v>8834</v>
       </c>
       <c r="M109" s="3" t="n">
-        <v>5219</v>
+        <v>8326</v>
       </c>
       <c r="N109" s="3" t="n">
-        <v>12864</v>
+        <v>14938</v>
       </c>
       <c r="O109" s="3" t="n">
-        <v>2322</v>
+        <v>5315</v>
       </c>
       <c r="P109" s="3" t="n">
-        <v>6965</v>
+        <v>8849</v>
       </c>
     </row>
     <row r="110">
@@ -6155,39 +6047,37 @@
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr"/>
-      <c r="E110" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 11:40</t>
-        </is>
+      <c r="E110" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F110" s="3" t="inlineStr"/>
       <c r="G110" s="3" t="n">
-        <v>50926</v>
+        <v>0</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>41182</v>
+        <v>0</v>
       </c>
       <c r="I110" s="3" t="n">
-        <v>604</v>
+        <v>0</v>
       </c>
       <c r="J110" s="3" t="n">
-        <v>40578</v>
+        <v>0</v>
       </c>
       <c r="K110" s="3" t="inlineStr"/>
       <c r="L110" s="3" t="n">
-        <v>9274</v>
+        <v>0</v>
       </c>
       <c r="M110" s="3" t="n">
-        <v>9471</v>
+        <v>0</v>
       </c>
       <c r="N110" s="3" t="n">
-        <v>10470</v>
+        <v>0</v>
       </c>
       <c r="O110" s="3" t="n">
-        <v>2671</v>
+        <v>0</v>
       </c>
       <c r="P110" s="3" t="n">
-        <v>6660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -6209,37 +6099,37 @@
       <c r="D111" s="3" t="inlineStr"/>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:12</t>
+          <t>2024-09-16 15:42</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr"/>
       <c r="G111" s="3" t="n">
-        <v>34164</v>
+        <v>35418</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>29124</v>
+        <v>27350</v>
       </c>
       <c r="I111" s="3" t="n">
-        <v>765</v>
+        <v>343</v>
       </c>
       <c r="J111" s="3" t="n">
-        <v>28359</v>
+        <v>27007</v>
       </c>
       <c r="K111" s="3" t="inlineStr"/>
       <c r="L111" s="3" t="n">
-        <v>10673</v>
+        <v>5740</v>
       </c>
       <c r="M111" s="3" t="n">
-        <v>5207</v>
+        <v>5169</v>
       </c>
       <c r="N111" s="3" t="n">
-        <v>4678</v>
+        <v>6685</v>
       </c>
       <c r="O111" s="3" t="n">
-        <v>1242</v>
+        <v>3959</v>
       </c>
       <c r="P111" s="3" t="n">
-        <v>5139</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="112">
@@ -6259,39 +6149,37 @@
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr"/>
-      <c r="E112" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 13:42</t>
-        </is>
+      <c r="E112" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F112" s="3" t="inlineStr"/>
       <c r="G112" s="3" t="n">
-        <v>93450</v>
+        <v>0</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>61347</v>
+        <v>0</v>
       </c>
       <c r="I112" s="3" t="n">
-        <v>1645</v>
+        <v>0</v>
       </c>
       <c r="J112" s="3" t="n">
-        <v>59702</v>
+        <v>0</v>
       </c>
       <c r="K112" s="3" t="inlineStr"/>
       <c r="L112" s="3" t="n">
-        <v>9878</v>
+        <v>0</v>
       </c>
       <c r="M112" s="3" t="n">
-        <v>9778</v>
+        <v>0</v>
       </c>
       <c r="N112" s="3" t="n">
-        <v>7101</v>
+        <v>0</v>
       </c>
       <c r="O112" s="3" t="n">
-        <v>15913</v>
+        <v>0</v>
       </c>
       <c r="P112" s="3" t="n">
-        <v>14045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -6313,37 +6201,37 @@
       <c r="D113" s="3" t="inlineStr"/>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:13</t>
+          <t>2024-09-16 13:04</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr"/>
       <c r="G113" s="3" t="n">
-        <v>85192</v>
+        <v>82711</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>66727</v>
+        <v>66406</v>
       </c>
       <c r="I113" s="3" t="n">
-        <v>1326</v>
+        <v>1246</v>
       </c>
       <c r="J113" s="3" t="n">
-        <v>65401</v>
+        <v>65160</v>
       </c>
       <c r="K113" s="3" t="inlineStr"/>
       <c r="L113" s="3" t="n">
-        <v>18106</v>
+        <v>13451</v>
       </c>
       <c r="M113" s="3" t="n">
-        <v>17281</v>
+        <v>16768</v>
       </c>
       <c r="N113" s="3" t="n">
-        <v>8842</v>
+        <v>7408</v>
       </c>
       <c r="O113" s="3" t="n">
-        <v>8286</v>
+        <v>15055</v>
       </c>
       <c r="P113" s="3" t="n">
-        <v>9614</v>
+        <v>9217</v>
       </c>
     </row>
     <row r="114">
@@ -6363,39 +6251,37 @@
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr"/>
-      <c r="E114" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 12:03</t>
-        </is>
+      <c r="E114" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F114" s="3" t="inlineStr"/>
       <c r="G114" s="3" t="n">
-        <v>119783</v>
+        <v>0</v>
       </c>
       <c r="H114" s="3" t="n">
-        <v>102782</v>
+        <v>0</v>
       </c>
       <c r="I114" s="3" t="n">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="J114" s="3" t="n">
-        <v>100563</v>
+        <v>0</v>
       </c>
       <c r="K114" s="3" t="inlineStr"/>
       <c r="L114" s="3" t="n">
-        <v>32565</v>
+        <v>0</v>
       </c>
       <c r="M114" s="3" t="n">
-        <v>15111</v>
+        <v>0</v>
       </c>
       <c r="N114" s="3" t="n">
-        <v>21390</v>
+        <v>0</v>
       </c>
       <c r="O114" s="3" t="n">
-        <v>16596</v>
+        <v>0</v>
       </c>
       <c r="P114" s="3" t="n">
-        <v>9871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -6417,37 +6303,37 @@
       <c r="D115" s="3" t="inlineStr"/>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:36</t>
+          <t>2024-09-16 19:35</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr"/>
       <c r="G115" s="3" t="n">
-        <v>81337</v>
+        <v>74737</v>
       </c>
       <c r="H115" s="3" t="n">
-        <v>70843</v>
+        <v>64374</v>
       </c>
       <c r="I115" s="3" t="n">
-        <v>864</v>
+        <v>1273</v>
       </c>
       <c r="J115" s="3" t="n">
-        <v>69979</v>
+        <v>63101</v>
       </c>
       <c r="K115" s="3" t="inlineStr"/>
       <c r="L115" s="3" t="n">
-        <v>21444</v>
+        <v>12283</v>
       </c>
       <c r="M115" s="3" t="n">
-        <v>20002</v>
+        <v>8080</v>
       </c>
       <c r="N115" s="3" t="n">
-        <v>12481</v>
+        <v>14820</v>
       </c>
       <c r="O115" s="3" t="n">
-        <v>8522</v>
+        <v>16218</v>
       </c>
       <c r="P115" s="3" t="n">
-        <v>4028</v>
+        <v>8543</v>
       </c>
     </row>
     <row r="116">
@@ -6467,39 +6353,37 @@
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr"/>
-      <c r="E116" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 17:20</t>
-        </is>
+      <c r="E116" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F116" s="3" t="inlineStr"/>
       <c r="G116" s="3" t="n">
-        <v>119546</v>
+        <v>0</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>106063</v>
+        <v>0</v>
       </c>
       <c r="I116" s="3" t="n">
-        <v>1942</v>
+        <v>0</v>
       </c>
       <c r="J116" s="3" t="n">
-        <v>104121</v>
+        <v>0</v>
       </c>
       <c r="K116" s="3" t="inlineStr"/>
       <c r="L116" s="3" t="n">
-        <v>21614</v>
+        <v>0</v>
       </c>
       <c r="M116" s="3" t="n">
-        <v>24418</v>
+        <v>0</v>
       </c>
       <c r="N116" s="3" t="n">
-        <v>12916</v>
+        <v>0</v>
       </c>
       <c r="O116" s="3" t="n">
-        <v>19346</v>
+        <v>0</v>
       </c>
       <c r="P116" s="3" t="n">
-        <v>20618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -6519,39 +6403,37 @@
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr"/>
-      <c r="E117" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 17:28</t>
-        </is>
+      <c r="E117" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F117" s="3" t="inlineStr"/>
       <c r="G117" s="3" t="n">
-        <v>201789</v>
+        <v>0</v>
       </c>
       <c r="H117" s="3" t="n">
-        <v>149106</v>
+        <v>0</v>
       </c>
       <c r="I117" s="3" t="n">
-        <v>2830</v>
+        <v>0</v>
       </c>
       <c r="J117" s="3" t="n">
-        <v>146276</v>
+        <v>0</v>
       </c>
       <c r="K117" s="3" t="inlineStr"/>
       <c r="L117" s="3" t="n">
-        <v>34825</v>
+        <v>0</v>
       </c>
       <c r="M117" s="3" t="n">
-        <v>21926</v>
+        <v>0</v>
       </c>
       <c r="N117" s="3" t="n">
-        <v>36206</v>
+        <v>0</v>
       </c>
       <c r="O117" s="3" t="n">
-        <v>24322</v>
+        <v>0</v>
       </c>
       <c r="P117" s="3" t="n">
-        <v>21681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -6571,39 +6453,37 @@
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr"/>
-      <c r="E118" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 11:23</t>
-        </is>
+      <c r="E118" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F118" s="3" t="inlineStr"/>
       <c r="G118" s="3" t="n">
-        <v>102279</v>
+        <v>0</v>
       </c>
       <c r="H118" s="3" t="n">
-        <v>90101</v>
+        <v>0</v>
       </c>
       <c r="I118" s="3" t="n">
-        <v>2519</v>
+        <v>0</v>
       </c>
       <c r="J118" s="3" t="n">
-        <v>87582</v>
+        <v>0</v>
       </c>
       <c r="K118" s="3" t="inlineStr"/>
       <c r="L118" s="3" t="n">
-        <v>17670</v>
+        <v>0</v>
       </c>
       <c r="M118" s="3" t="n">
-        <v>22432</v>
+        <v>0</v>
       </c>
       <c r="N118" s="3" t="n">
-        <v>26688</v>
+        <v>0</v>
       </c>
       <c r="O118" s="3" t="n">
-        <v>5770</v>
+        <v>0</v>
       </c>
       <c r="P118" s="3" t="n">
-        <v>10641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -6623,39 +6503,37 @@
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr"/>
-      <c r="E119" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 14:57</t>
-        </is>
+      <c r="E119" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F119" s="3" t="inlineStr"/>
       <c r="G119" s="3" t="n">
-        <v>166958</v>
+        <v>0</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>120659</v>
+        <v>0</v>
       </c>
       <c r="I119" s="3" t="n">
-        <v>2120</v>
+        <v>0</v>
       </c>
       <c r="J119" s="3" t="n">
-        <v>118539</v>
+        <v>0</v>
       </c>
       <c r="K119" s="3" t="inlineStr"/>
       <c r="L119" s="3" t="n">
-        <v>35765</v>
+        <v>0</v>
       </c>
       <c r="M119" s="3" t="n">
-        <v>15164</v>
+        <v>0</v>
       </c>
       <c r="N119" s="3" t="n">
-        <v>16222</v>
+        <v>0</v>
       </c>
       <c r="O119" s="3" t="n">
-        <v>20315</v>
+        <v>0</v>
       </c>
       <c r="P119" s="3" t="n">
-        <v>25144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -6677,37 +6555,37 @@
       <c r="D120" s="3" t="inlineStr"/>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:31</t>
+          <t>2024-09-16 17:37</t>
         </is>
       </c>
       <c r="F120" s="3" t="inlineStr"/>
       <c r="G120" s="3" t="n">
-        <v>95783</v>
+        <v>90911</v>
       </c>
       <c r="H120" s="3" t="n">
-        <v>79997</v>
+        <v>57070</v>
       </c>
       <c r="I120" s="3" t="n">
-        <v>1384</v>
+        <v>1252</v>
       </c>
       <c r="J120" s="3" t="n">
-        <v>78613</v>
+        <v>55818</v>
       </c>
       <c r="K120" s="3" t="inlineStr"/>
       <c r="L120" s="3" t="n">
-        <v>29875</v>
+        <v>13297</v>
       </c>
       <c r="M120" s="3" t="n">
-        <v>25314</v>
+        <v>9814</v>
       </c>
       <c r="N120" s="3" t="n">
-        <v>11744</v>
+        <v>13233</v>
       </c>
       <c r="O120" s="3" t="n">
-        <v>4260</v>
+        <v>7980</v>
       </c>
       <c r="P120" s="3" t="n">
-        <v>3487</v>
+        <v>8701</v>
       </c>
     </row>
     <row r="121">
@@ -6727,39 +6605,37 @@
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr"/>
-      <c r="E121" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 10:51</t>
-        </is>
+      <c r="E121" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F121" s="3" t="inlineStr"/>
       <c r="G121" s="3" t="n">
-        <v>78120</v>
+        <v>0</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>48006</v>
+        <v>0</v>
       </c>
       <c r="I121" s="3" t="n">
-        <v>761</v>
+        <v>0</v>
       </c>
       <c r="J121" s="3" t="n">
-        <v>47245</v>
+        <v>0</v>
       </c>
       <c r="K121" s="3" t="inlineStr"/>
       <c r="L121" s="3" t="n">
-        <v>13231</v>
+        <v>0</v>
       </c>
       <c r="M121" s="3" t="n">
-        <v>7939</v>
+        <v>0</v>
       </c>
       <c r="N121" s="3" t="n">
-        <v>7034</v>
+        <v>0</v>
       </c>
       <c r="O121" s="3" t="n">
-        <v>6441</v>
+        <v>0</v>
       </c>
       <c r="P121" s="3" t="n">
-        <v>10235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -6779,39 +6655,37 @@
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr"/>
-      <c r="E122" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 19:14</t>
-        </is>
+      <c r="E122" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F122" s="3" t="inlineStr"/>
       <c r="G122" s="3" t="n">
-        <v>163729</v>
+        <v>0</v>
       </c>
       <c r="H122" s="3" t="n">
-        <v>123965</v>
+        <v>0</v>
       </c>
       <c r="I122" s="3" t="n">
-        <v>2990</v>
+        <v>0</v>
       </c>
       <c r="J122" s="3" t="n">
-        <v>120975</v>
+        <v>0</v>
       </c>
       <c r="K122" s="3" t="inlineStr"/>
       <c r="L122" s="3" t="n">
-        <v>25712</v>
+        <v>0</v>
       </c>
       <c r="M122" s="3" t="n">
-        <v>32070</v>
+        <v>0</v>
       </c>
       <c r="N122" s="3" t="n">
-        <v>28030</v>
+        <v>0</v>
       </c>
       <c r="O122" s="3" t="n">
-        <v>21223</v>
+        <v>0</v>
       </c>
       <c r="P122" s="3" t="n">
-        <v>7888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -6833,37 +6707,37 @@
       <c r="D123" s="3" t="inlineStr"/>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:13</t>
+          <t>2024-09-16 11:20</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr"/>
       <c r="G123" s="3" t="n">
-        <v>79759</v>
+        <v>78474</v>
       </c>
       <c r="H123" s="3" t="n">
-        <v>70737</v>
+        <v>62393</v>
       </c>
       <c r="I123" s="3" t="n">
-        <v>1558</v>
+        <v>1460</v>
       </c>
       <c r="J123" s="3" t="n">
-        <v>69179</v>
+        <v>60933</v>
       </c>
       <c r="K123" s="3" t="inlineStr"/>
       <c r="L123" s="3" t="n">
-        <v>9187</v>
+        <v>15437</v>
       </c>
       <c r="M123" s="3" t="n">
-        <v>22097</v>
+        <v>14369</v>
       </c>
       <c r="N123" s="3" t="n">
-        <v>21695</v>
+        <v>13083</v>
       </c>
       <c r="O123" s="3" t="n">
-        <v>7205</v>
+        <v>11668</v>
       </c>
       <c r="P123" s="3" t="n">
-        <v>5534</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="124">
@@ -6883,39 +6757,37 @@
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr"/>
-      <c r="E124" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 13:42</t>
-        </is>
+      <c r="E124" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F124" s="3" t="inlineStr"/>
       <c r="G124" s="3" t="n">
-        <v>97327</v>
+        <v>0</v>
       </c>
       <c r="H124" s="3" t="n">
-        <v>80038</v>
+        <v>0</v>
       </c>
       <c r="I124" s="3" t="n">
-        <v>1121</v>
+        <v>0</v>
       </c>
       <c r="J124" s="3" t="n">
-        <v>78917</v>
+        <v>0</v>
       </c>
       <c r="K124" s="3" t="inlineStr"/>
       <c r="L124" s="3" t="n">
-        <v>21357</v>
+        <v>0</v>
       </c>
       <c r="M124" s="3" t="n">
-        <v>18656</v>
+        <v>0</v>
       </c>
       <c r="N124" s="3" t="n">
-        <v>7938</v>
+        <v>0</v>
       </c>
       <c r="O124" s="3" t="n">
-        <v>14115</v>
+        <v>0</v>
       </c>
       <c r="P124" s="3" t="n">
-        <v>12902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -6935,39 +6807,37 @@
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr"/>
-      <c r="E125" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 16:01</t>
-        </is>
+      <c r="E125" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F125" s="3" t="inlineStr"/>
       <c r="G125" s="3" t="n">
-        <v>110398</v>
+        <v>0</v>
       </c>
       <c r="H125" s="3" t="n">
-        <v>97333</v>
+        <v>0</v>
       </c>
       <c r="I125" s="3" t="n">
-        <v>1372</v>
+        <v>0</v>
       </c>
       <c r="J125" s="3" t="n">
-        <v>95961</v>
+        <v>0</v>
       </c>
       <c r="K125" s="3" t="inlineStr"/>
       <c r="L125" s="3" t="n">
-        <v>19659</v>
+        <v>0</v>
       </c>
       <c r="M125" s="3" t="n">
-        <v>21099</v>
+        <v>0</v>
       </c>
       <c r="N125" s="3" t="n">
-        <v>27832</v>
+        <v>0</v>
       </c>
       <c r="O125" s="3" t="n">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="P125" s="3" t="n">
-        <v>16901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -6989,37 +6859,37 @@
       <c r="D126" s="3" t="inlineStr"/>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:46</t>
+          <t>2024-09-16 10:03</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr"/>
       <c r="G126" s="3" t="n">
-        <v>104501</v>
+        <v>101574</v>
       </c>
       <c r="H126" s="3" t="n">
-        <v>75398</v>
+        <v>80365</v>
       </c>
       <c r="I126" s="3" t="n">
-        <v>1183</v>
+        <v>1356</v>
       </c>
       <c r="J126" s="3" t="n">
-        <v>74215</v>
+        <v>79009</v>
       </c>
       <c r="K126" s="3" t="inlineStr"/>
       <c r="L126" s="3" t="n">
-        <v>19920</v>
+        <v>15274</v>
       </c>
       <c r="M126" s="3" t="n">
-        <v>16423</v>
+        <v>17592</v>
       </c>
       <c r="N126" s="3" t="n">
-        <v>15348</v>
+        <v>17370</v>
       </c>
       <c r="O126" s="3" t="n">
-        <v>7849</v>
+        <v>7143</v>
       </c>
       <c r="P126" s="3" t="n">
-        <v>10961</v>
+        <v>17677</v>
       </c>
     </row>
     <row r="127">
@@ -7039,39 +6909,37 @@
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr"/>
-      <c r="E127" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 16:01</t>
-        </is>
+      <c r="E127" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F127" s="3" t="inlineStr"/>
       <c r="G127" s="3" t="n">
-        <v>95456</v>
+        <v>0</v>
       </c>
       <c r="H127" s="3" t="n">
-        <v>81636</v>
+        <v>0</v>
       </c>
       <c r="I127" s="3" t="n">
-        <v>1896</v>
+        <v>0</v>
       </c>
       <c r="J127" s="3" t="n">
-        <v>79740</v>
+        <v>0</v>
       </c>
       <c r="K127" s="3" t="inlineStr"/>
       <c r="L127" s="3" t="n">
-        <v>18771</v>
+        <v>0</v>
       </c>
       <c r="M127" s="3" t="n">
-        <v>22050</v>
+        <v>0</v>
       </c>
       <c r="N127" s="3" t="n">
-        <v>22824</v>
+        <v>0</v>
       </c>
       <c r="O127" s="3" t="n">
-        <v>7126</v>
+        <v>0</v>
       </c>
       <c r="P127" s="3" t="n">
-        <v>4979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -7091,39 +6959,37 @@
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr"/>
-      <c r="E128" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 12:42</t>
-        </is>
+      <c r="E128" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F128" s="3" t="inlineStr"/>
       <c r="G128" s="3" t="n">
-        <v>119700</v>
+        <v>0</v>
       </c>
       <c r="H128" s="3" t="n">
-        <v>106129</v>
+        <v>0</v>
       </c>
       <c r="I128" s="3" t="n">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="J128" s="3" t="n">
-        <v>104797</v>
+        <v>0</v>
       </c>
       <c r="K128" s="3" t="inlineStr"/>
       <c r="L128" s="3" t="n">
-        <v>35783</v>
+        <v>0</v>
       </c>
       <c r="M128" s="3" t="n">
-        <v>26435</v>
+        <v>0</v>
       </c>
       <c r="N128" s="3" t="n">
-        <v>24150</v>
+        <v>0</v>
       </c>
       <c r="O128" s="3" t="n">
-        <v>5918</v>
+        <v>0</v>
       </c>
       <c r="P128" s="3" t="n">
-        <v>7269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -7143,39 +7009,37 @@
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr"/>
-      <c r="E129" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 20:00</t>
-        </is>
+      <c r="E129" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F129" s="3" t="inlineStr"/>
       <c r="G129" s="3" t="n">
-        <v>103525</v>
+        <v>0</v>
       </c>
       <c r="H129" s="3" t="n">
-        <v>82950</v>
+        <v>0</v>
       </c>
       <c r="I129" s="3" t="n">
-        <v>2381</v>
+        <v>0</v>
       </c>
       <c r="J129" s="3" t="n">
-        <v>80569</v>
+        <v>0</v>
       </c>
       <c r="K129" s="3" t="inlineStr"/>
       <c r="L129" s="3" t="n">
-        <v>11715</v>
+        <v>0</v>
       </c>
       <c r="M129" s="3" t="n">
-        <v>17879</v>
+        <v>0</v>
       </c>
       <c r="N129" s="3" t="n">
-        <v>27136</v>
+        <v>0</v>
       </c>
       <c r="O129" s="3" t="n">
-        <v>19085</v>
+        <v>0</v>
       </c>
       <c r="P129" s="3" t="n">
-        <v>723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -7195,39 +7059,37 @@
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr"/>
-      <c r="E130" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 10:54</t>
-        </is>
+      <c r="E130" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F130" s="3" t="inlineStr"/>
       <c r="G130" s="3" t="n">
-        <v>77209</v>
+        <v>0</v>
       </c>
       <c r="H130" s="3" t="n">
-        <v>67066</v>
+        <v>0</v>
       </c>
       <c r="I130" s="3" t="n">
-        <v>1542</v>
+        <v>0</v>
       </c>
       <c r="J130" s="3" t="n">
-        <v>65524</v>
+        <v>0</v>
       </c>
       <c r="K130" s="3" t="inlineStr"/>
       <c r="L130" s="3" t="n">
-        <v>16289</v>
+        <v>0</v>
       </c>
       <c r="M130" s="3" t="n">
-        <v>13142</v>
+        <v>0</v>
       </c>
       <c r="N130" s="3" t="n">
-        <v>18323</v>
+        <v>0</v>
       </c>
       <c r="O130" s="3" t="n">
-        <v>13659</v>
+        <v>0</v>
       </c>
       <c r="P130" s="3" t="n">
-        <v>832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -7247,39 +7109,37 @@
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr"/>
-      <c r="E131" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 15:04</t>
-        </is>
+      <c r="E131" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F131" s="3" t="inlineStr"/>
       <c r="G131" s="3" t="n">
-        <v>75485</v>
+        <v>0</v>
       </c>
       <c r="H131" s="3" t="n">
-        <v>66193</v>
+        <v>0</v>
       </c>
       <c r="I131" s="3" t="n">
-        <v>1631</v>
+        <v>0</v>
       </c>
       <c r="J131" s="3" t="n">
-        <v>64562</v>
+        <v>0</v>
       </c>
       <c r="K131" s="3" t="inlineStr"/>
       <c r="L131" s="3" t="n">
-        <v>19254</v>
+        <v>0</v>
       </c>
       <c r="M131" s="3" t="n">
-        <v>15043</v>
+        <v>0</v>
       </c>
       <c r="N131" s="3" t="n">
-        <v>13133</v>
+        <v>0</v>
       </c>
       <c r="O131" s="3" t="n">
-        <v>11751</v>
+        <v>0</v>
       </c>
       <c r="P131" s="3" t="n">
-        <v>2151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -7299,39 +7159,37 @@
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr"/>
-      <c r="E132" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 17:14</t>
-        </is>
+      <c r="E132" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F132" s="3" t="inlineStr"/>
       <c r="G132" s="3" t="n">
-        <v>93441</v>
+        <v>0</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>65550</v>
+        <v>0</v>
       </c>
       <c r="I132" s="3" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="J132" s="3" t="n">
-        <v>64050</v>
+        <v>0</v>
       </c>
       <c r="K132" s="3" t="inlineStr"/>
       <c r="L132" s="3" t="n">
-        <v>18052</v>
+        <v>0</v>
       </c>
       <c r="M132" s="3" t="n">
-        <v>8925</v>
+        <v>0</v>
       </c>
       <c r="N132" s="3" t="n">
-        <v>14615</v>
+        <v>0</v>
       </c>
       <c r="O132" s="3" t="n">
-        <v>7916</v>
+        <v>0</v>
       </c>
       <c r="P132" s="3" t="n">
-        <v>11337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -7353,37 +7211,37 @@
       <c r="D133" s="3" t="inlineStr"/>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 16:39</t>
+          <t>2024-09-16 12:42</t>
         </is>
       </c>
       <c r="F133" s="3" t="inlineStr"/>
       <c r="G133" s="3" t="n">
-        <v>103157</v>
+        <v>105684</v>
       </c>
       <c r="H133" s="3" t="n">
-        <v>63391</v>
+        <v>91222</v>
       </c>
       <c r="I133" s="3" t="n">
-        <v>1739</v>
+        <v>1219</v>
       </c>
       <c r="J133" s="3" t="n">
-        <v>61652</v>
+        <v>90003</v>
       </c>
       <c r="K133" s="3" t="inlineStr"/>
       <c r="L133" s="3" t="n">
-        <v>11650</v>
+        <v>24890</v>
       </c>
       <c r="M133" s="3" t="n">
-        <v>12916</v>
+        <v>17262</v>
       </c>
       <c r="N133" s="3" t="n">
-        <v>11982</v>
+        <v>16619</v>
       </c>
       <c r="O133" s="3" t="n">
-        <v>11671</v>
+        <v>15425</v>
       </c>
       <c r="P133" s="3" t="n">
-        <v>10349</v>
+        <v>11305</v>
       </c>
     </row>
     <row r="134">
@@ -7403,39 +7261,37 @@
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr"/>
-      <c r="E134" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 12:36</t>
-        </is>
+      <c r="E134" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F134" s="3" t="inlineStr"/>
       <c r="G134" s="3" t="n">
-        <v>111119</v>
+        <v>0</v>
       </c>
       <c r="H134" s="3" t="n">
-        <v>70501</v>
+        <v>0</v>
       </c>
       <c r="I134" s="3" t="n">
-        <v>1571</v>
+        <v>0</v>
       </c>
       <c r="J134" s="3" t="n">
-        <v>68930</v>
+        <v>0</v>
       </c>
       <c r="K134" s="3" t="inlineStr"/>
       <c r="L134" s="3" t="n">
-        <v>14463</v>
+        <v>0</v>
       </c>
       <c r="M134" s="3" t="n">
-        <v>18247</v>
+        <v>0</v>
       </c>
       <c r="N134" s="3" t="n">
-        <v>17264</v>
+        <v>0</v>
       </c>
       <c r="O134" s="3" t="n">
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="P134" s="3" t="n">
-        <v>9171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -7457,37 +7313,37 @@
       <c r="D135" s="3" t="inlineStr"/>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 19:03</t>
+          <t>2024-09-16 14:21</t>
         </is>
       </c>
       <c r="F135" s="3" t="inlineStr"/>
       <c r="G135" s="3" t="n">
-        <v>95595</v>
+        <v>98574</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>57802</v>
+        <v>86427</v>
       </c>
       <c r="I135" s="3" t="n">
-        <v>1320</v>
+        <v>1522</v>
       </c>
       <c r="J135" s="3" t="n">
-        <v>56482</v>
+        <v>84905</v>
       </c>
       <c r="K135" s="3" t="inlineStr"/>
       <c r="L135" s="3" t="n">
-        <v>10457</v>
+        <v>14710</v>
       </c>
       <c r="M135" s="3" t="n">
-        <v>13381</v>
+        <v>13293</v>
       </c>
       <c r="N135" s="3" t="n">
-        <v>13521</v>
+        <v>26587</v>
       </c>
       <c r="O135" s="3" t="n">
-        <v>6985</v>
+        <v>20613</v>
       </c>
       <c r="P135" s="3" t="n">
-        <v>9312</v>
+        <v>5454</v>
       </c>
     </row>
     <row r="136">
@@ -7509,37 +7365,37 @@
       <c r="D136" s="3" t="inlineStr"/>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 15:31</t>
+          <t>2024-09-16 17:37</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr"/>
       <c r="G136" s="3" t="n">
-        <v>82052</v>
+        <v>83583</v>
       </c>
       <c r="H136" s="3" t="n">
-        <v>60571</v>
+        <v>64895</v>
       </c>
       <c r="I136" s="3" t="n">
-        <v>883</v>
+        <v>1909</v>
       </c>
       <c r="J136" s="3" t="n">
-        <v>59688</v>
+        <v>62986</v>
       </c>
       <c r="K136" s="3" t="inlineStr"/>
       <c r="L136" s="3" t="n">
-        <v>15189</v>
+        <v>14727</v>
       </c>
       <c r="M136" s="3" t="n">
-        <v>20257</v>
+        <v>11429</v>
       </c>
       <c r="N136" s="3" t="n">
-        <v>15791</v>
+        <v>19124</v>
       </c>
       <c r="O136" s="3" t="n">
-        <v>3445</v>
+        <v>1983</v>
       </c>
       <c r="P136" s="3" t="n">
-        <v>2020</v>
+        <v>12571</v>
       </c>
     </row>
     <row r="137">
@@ -7559,39 +7415,37 @@
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr"/>
-      <c r="E137" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 10:17</t>
-        </is>
+      <c r="E137" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F137" s="3" t="inlineStr"/>
       <c r="G137" s="3" t="n">
-        <v>92635</v>
+        <v>0</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>63055</v>
+        <v>0</v>
       </c>
       <c r="I137" s="3" t="n">
-        <v>1249</v>
+        <v>0</v>
       </c>
       <c r="J137" s="3" t="n">
-        <v>61806</v>
+        <v>0</v>
       </c>
       <c r="K137" s="3" t="inlineStr"/>
       <c r="L137" s="3" t="n">
-        <v>17895</v>
+        <v>0</v>
       </c>
       <c r="M137" s="3" t="n">
-        <v>10403</v>
+        <v>0</v>
       </c>
       <c r="N137" s="3" t="n">
-        <v>15151</v>
+        <v>0</v>
       </c>
       <c r="O137" s="3" t="n">
-        <v>6054</v>
+        <v>0</v>
       </c>
       <c r="P137" s="3" t="n">
-        <v>9210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -7611,39 +7465,37 @@
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr"/>
-      <c r="E138" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 09:00</t>
-        </is>
+      <c r="E138" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F138" s="3" t="inlineStr"/>
       <c r="G138" s="3" t="n">
-        <v>100003</v>
+        <v>0</v>
       </c>
       <c r="H138" s="3" t="n">
-        <v>84871</v>
+        <v>0</v>
       </c>
       <c r="I138" s="3" t="n">
-        <v>1106</v>
+        <v>0</v>
       </c>
       <c r="J138" s="3" t="n">
-        <v>83765</v>
+        <v>0</v>
       </c>
       <c r="K138" s="3" t="inlineStr"/>
       <c r="L138" s="3" t="n">
-        <v>21389</v>
+        <v>0</v>
       </c>
       <c r="M138" s="3" t="n">
-        <v>29015</v>
+        <v>0</v>
       </c>
       <c r="N138" s="3" t="n">
-        <v>18530</v>
+        <v>0</v>
       </c>
       <c r="O138" s="3" t="n">
-        <v>5267</v>
+        <v>0</v>
       </c>
       <c r="P138" s="3" t="n">
-        <v>5373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -7663,39 +7515,37 @@
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr"/>
-      <c r="E139" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 20:05</t>
-        </is>
+      <c r="E139" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F139" s="3" t="inlineStr"/>
       <c r="G139" s="3" t="n">
-        <v>75328</v>
+        <v>0</v>
       </c>
       <c r="H139" s="3" t="n">
-        <v>48994</v>
+        <v>0</v>
       </c>
       <c r="I139" s="3" t="n">
-        <v>897</v>
+        <v>0</v>
       </c>
       <c r="J139" s="3" t="n">
-        <v>48097</v>
+        <v>0</v>
       </c>
       <c r="K139" s="3" t="inlineStr"/>
       <c r="L139" s="3" t="n">
-        <v>12539</v>
+        <v>0</v>
       </c>
       <c r="M139" s="3" t="n">
-        <v>8050</v>
+        <v>0</v>
       </c>
       <c r="N139" s="3" t="n">
-        <v>8601</v>
+        <v>0</v>
       </c>
       <c r="O139" s="3" t="n">
-        <v>6811</v>
+        <v>0</v>
       </c>
       <c r="P139" s="3" t="n">
-        <v>9689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -7717,37 +7567,37 @@
       <c r="D140" s="3" t="inlineStr"/>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 13:41</t>
+          <t>2024-09-16 15:30</t>
         </is>
       </c>
       <c r="F140" s="3" t="inlineStr"/>
       <c r="G140" s="3" t="n">
-        <v>154048</v>
+        <v>161710</v>
       </c>
       <c r="H140" s="3" t="n">
-        <v>117571</v>
+        <v>134691</v>
       </c>
       <c r="I140" s="3" t="n">
-        <v>2314</v>
+        <v>1960</v>
       </c>
       <c r="J140" s="3" t="n">
-        <v>115257</v>
+        <v>132731</v>
       </c>
       <c r="K140" s="3" t="inlineStr"/>
       <c r="L140" s="3" t="n">
-        <v>21816</v>
+        <v>45130</v>
       </c>
       <c r="M140" s="3" t="n">
-        <v>30000</v>
+        <v>22874</v>
       </c>
       <c r="N140" s="3" t="n">
-        <v>34676</v>
+        <v>42027</v>
       </c>
       <c r="O140" s="3" t="n">
-        <v>20786</v>
+        <v>12621</v>
       </c>
       <c r="P140" s="3" t="n">
-        <v>2213</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="141">
@@ -7769,37 +7619,37 @@
       <c r="D141" s="3" t="inlineStr"/>
       <c r="E141" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:06</t>
+          <t>2024-09-16 09:44</t>
         </is>
       </c>
       <c r="F141" s="3" t="inlineStr"/>
       <c r="G141" s="3" t="n">
-        <v>119689</v>
+        <v>122325</v>
       </c>
       <c r="H141" s="3" t="n">
-        <v>86399</v>
+        <v>87491</v>
       </c>
       <c r="I141" s="3" t="n">
-        <v>2222</v>
+        <v>1001</v>
       </c>
       <c r="J141" s="3" t="n">
-        <v>84177</v>
+        <v>86490</v>
       </c>
       <c r="K141" s="3" t="inlineStr"/>
       <c r="L141" s="3" t="n">
-        <v>19813</v>
+        <v>18903</v>
       </c>
       <c r="M141" s="3" t="n">
-        <v>12249</v>
+        <v>19096</v>
       </c>
       <c r="N141" s="3" t="n">
-        <v>19555</v>
+        <v>15807</v>
       </c>
       <c r="O141" s="3" t="n">
-        <v>22194</v>
+        <v>22166</v>
       </c>
       <c r="P141" s="3" t="n">
-        <v>6154</v>
+        <v>6191</v>
       </c>
     </row>
     <row r="142">
@@ -7821,37 +7671,37 @@
       <c r="D142" s="3" t="inlineStr"/>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:28</t>
+          <t>2024-09-16 16:12</t>
         </is>
       </c>
       <c r="F142" s="3" t="inlineStr"/>
       <c r="G142" s="3" t="n">
-        <v>126489</v>
+        <v>136283</v>
       </c>
       <c r="H142" s="3" t="n">
-        <v>82923</v>
+        <v>104175</v>
       </c>
       <c r="I142" s="3" t="n">
-        <v>2161</v>
+        <v>2518</v>
       </c>
       <c r="J142" s="3" t="n">
-        <v>80762</v>
+        <v>101657</v>
       </c>
       <c r="K142" s="3" t="inlineStr"/>
       <c r="L142" s="3" t="n">
-        <v>17645</v>
+        <v>25602</v>
       </c>
       <c r="M142" s="3" t="n">
-        <v>20539</v>
+        <v>28680</v>
       </c>
       <c r="N142" s="3" t="n">
-        <v>11193</v>
+        <v>21941</v>
       </c>
       <c r="O142" s="3" t="n">
-        <v>15101</v>
+        <v>12212</v>
       </c>
       <c r="P142" s="3" t="n">
-        <v>12244</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="143">
@@ -7871,39 +7721,37 @@
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr"/>
-      <c r="E143" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 18:34</t>
-        </is>
+      <c r="E143" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F143" s="3" t="inlineStr"/>
       <c r="G143" s="3" t="n">
-        <v>97347</v>
+        <v>0</v>
       </c>
       <c r="H143" s="3" t="n">
-        <v>85444</v>
+        <v>0</v>
       </c>
       <c r="I143" s="3" t="n">
-        <v>1044</v>
+        <v>0</v>
       </c>
       <c r="J143" s="3" t="n">
-        <v>84400</v>
+        <v>0</v>
       </c>
       <c r="K143" s="3" t="inlineStr"/>
       <c r="L143" s="3" t="n">
-        <v>15021</v>
+        <v>0</v>
       </c>
       <c r="M143" s="3" t="n">
-        <v>26263</v>
+        <v>0</v>
       </c>
       <c r="N143" s="3" t="n">
-        <v>18365</v>
+        <v>0</v>
       </c>
       <c r="O143" s="3" t="n">
-        <v>8675</v>
+        <v>0</v>
       </c>
       <c r="P143" s="3" t="n">
-        <v>11854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -7923,39 +7771,37 @@
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr"/>
-      <c r="E144" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 11:05</t>
-        </is>
+      <c r="E144" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F144" s="3" t="inlineStr"/>
       <c r="G144" s="3" t="n">
-        <v>116358</v>
+        <v>0</v>
       </c>
       <c r="H144" s="3" t="n">
-        <v>82968</v>
+        <v>0</v>
       </c>
       <c r="I144" s="3" t="n">
-        <v>972</v>
+        <v>0</v>
       </c>
       <c r="J144" s="3" t="n">
-        <v>81996</v>
+        <v>0</v>
       </c>
       <c r="K144" s="3" t="inlineStr"/>
       <c r="L144" s="3" t="n">
-        <v>17928</v>
+        <v>0</v>
       </c>
       <c r="M144" s="3" t="n">
-        <v>13940</v>
+        <v>0</v>
       </c>
       <c r="N144" s="3" t="n">
-        <v>25914</v>
+        <v>0</v>
       </c>
       <c r="O144" s="3" t="n">
-        <v>14274</v>
+        <v>0</v>
       </c>
       <c r="P144" s="3" t="n">
-        <v>5837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -7975,39 +7821,37 @@
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr"/>
-      <c r="E145" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 13:33</t>
-        </is>
+      <c r="E145" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F145" s="3" t="inlineStr"/>
       <c r="G145" s="3" t="n">
-        <v>90607</v>
+        <v>0</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>73785</v>
+        <v>0</v>
       </c>
       <c r="I145" s="3" t="n">
-        <v>1924</v>
+        <v>0</v>
       </c>
       <c r="J145" s="3" t="n">
-        <v>71861</v>
+        <v>0</v>
       </c>
       <c r="K145" s="3" t="inlineStr"/>
       <c r="L145" s="3" t="n">
-        <v>22106</v>
+        <v>0</v>
       </c>
       <c r="M145" s="3" t="n">
-        <v>21066</v>
+        <v>0</v>
       </c>
       <c r="N145" s="3" t="n">
-        <v>11755</v>
+        <v>0</v>
       </c>
       <c r="O145" s="3" t="n">
-        <v>3191</v>
+        <v>0</v>
       </c>
       <c r="P145" s="3" t="n">
-        <v>10147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -8027,39 +7871,37 @@
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr"/>
-      <c r="E146" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 16:45</t>
-        </is>
+      <c r="E146" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F146" s="3" t="inlineStr"/>
       <c r="G146" s="3" t="n">
-        <v>84210</v>
+        <v>0</v>
       </c>
       <c r="H146" s="3" t="n">
-        <v>52221</v>
+        <v>0</v>
       </c>
       <c r="I146" s="3" t="n">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="J146" s="3" t="n">
-        <v>51509</v>
+        <v>0</v>
       </c>
       <c r="K146" s="3" t="inlineStr"/>
       <c r="L146" s="3" t="n">
-        <v>11855</v>
+        <v>0</v>
       </c>
       <c r="M146" s="3" t="n">
-        <v>9300</v>
+        <v>0</v>
       </c>
       <c r="N146" s="3" t="n">
-        <v>10640</v>
+        <v>0</v>
       </c>
       <c r="O146" s="3" t="n">
-        <v>9380</v>
+        <v>0</v>
       </c>
       <c r="P146" s="3" t="n">
-        <v>7756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -8081,37 +7923,37 @@
       <c r="D147" s="3" t="inlineStr"/>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 12:03</t>
+          <t>2024-09-16 11:34</t>
         </is>
       </c>
       <c r="F147" s="3" t="inlineStr"/>
       <c r="G147" s="3" t="n">
-        <v>106663</v>
+        <v>102580</v>
       </c>
       <c r="H147" s="3" t="n">
-        <v>73238</v>
+        <v>74751</v>
       </c>
       <c r="I147" s="3" t="n">
-        <v>2058</v>
+        <v>1989</v>
       </c>
       <c r="J147" s="3" t="n">
-        <v>71180</v>
+        <v>72762</v>
       </c>
       <c r="K147" s="3" t="inlineStr"/>
       <c r="L147" s="3" t="n">
-        <v>10554</v>
+        <v>16002</v>
       </c>
       <c r="M147" s="3" t="n">
-        <v>19669</v>
+        <v>9906</v>
       </c>
       <c r="N147" s="3" t="n">
-        <v>14803</v>
+        <v>13785</v>
       </c>
       <c r="O147" s="3" t="n">
-        <v>12798</v>
+        <v>15653</v>
       </c>
       <c r="P147" s="3" t="n">
-        <v>9794</v>
+        <v>13775</v>
       </c>
     </row>
     <row r="148">
@@ -8133,37 +7975,37 @@
       <c r="D148" s="3" t="inlineStr"/>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 11:10</t>
+          <t>2024-09-16 14:00</t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr"/>
       <c r="G148" s="3" t="n">
-        <v>107145</v>
+        <v>111462</v>
       </c>
       <c r="H148" s="3" t="n">
-        <v>93733</v>
+        <v>73978</v>
       </c>
       <c r="I148" s="3" t="n">
-        <v>2498</v>
+        <v>1894</v>
       </c>
       <c r="J148" s="3" t="n">
-        <v>91235</v>
+        <v>72084</v>
       </c>
       <c r="K148" s="3" t="inlineStr"/>
       <c r="L148" s="3" t="n">
-        <v>22777</v>
+        <v>12477</v>
       </c>
       <c r="M148" s="3" t="n">
-        <v>37183</v>
+        <v>11128</v>
       </c>
       <c r="N148" s="3" t="n">
-        <v>12366</v>
+        <v>18760</v>
       </c>
       <c r="O148" s="3" t="n">
-        <v>10808</v>
+        <v>11141</v>
       </c>
       <c r="P148" s="3" t="n">
-        <v>3537</v>
+        <v>14972</v>
       </c>
     </row>
     <row r="149">
@@ -8183,39 +8025,37 @@
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr"/>
-      <c r="E149" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 11:31</t>
-        </is>
+      <c r="E149" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F149" s="3" t="inlineStr"/>
       <c r="G149" s="3" t="n">
-        <v>126549</v>
+        <v>0</v>
       </c>
       <c r="H149" s="3" t="n">
-        <v>77980</v>
+        <v>0</v>
       </c>
       <c r="I149" s="3" t="n">
-        <v>1905</v>
+        <v>0</v>
       </c>
       <c r="J149" s="3" t="n">
-        <v>76075</v>
+        <v>0</v>
       </c>
       <c r="K149" s="3" t="inlineStr"/>
       <c r="L149" s="3" t="n">
-        <v>19981</v>
+        <v>0</v>
       </c>
       <c r="M149" s="3" t="n">
-        <v>23256</v>
+        <v>0</v>
       </c>
       <c r="N149" s="3" t="n">
-        <v>11407</v>
+        <v>0</v>
       </c>
       <c r="O149" s="3" t="n">
-        <v>3439</v>
+        <v>0</v>
       </c>
       <c r="P149" s="3" t="n">
-        <v>14186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -8237,37 +8077,37 @@
       <c r="D150" s="3" t="inlineStr"/>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:42</t>
+          <t>2024-09-16 19:28</t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr"/>
       <c r="G150" s="3" t="n">
-        <v>71751</v>
+        <v>70919</v>
       </c>
       <c r="H150" s="3" t="n">
-        <v>50929</v>
+        <v>44064</v>
       </c>
       <c r="I150" s="3" t="n">
-        <v>1280</v>
+        <v>1238</v>
       </c>
       <c r="J150" s="3" t="n">
-        <v>49649</v>
+        <v>42826</v>
       </c>
       <c r="K150" s="3" t="inlineStr"/>
       <c r="L150" s="3" t="n">
-        <v>12276</v>
+        <v>14195</v>
       </c>
       <c r="M150" s="3" t="n">
-        <v>10803</v>
+        <v>7484</v>
       </c>
       <c r="N150" s="3" t="n">
-        <v>11039</v>
+        <v>10634</v>
       </c>
       <c r="O150" s="3" t="n">
-        <v>8695</v>
+        <v>3517</v>
       </c>
       <c r="P150" s="3" t="n">
-        <v>4352</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="151">
@@ -8289,37 +8129,37 @@
       <c r="D151" s="3" t="inlineStr"/>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:45</t>
+          <t>2024-09-16 16:15</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr"/>
       <c r="G151" s="3" t="n">
-        <v>86986</v>
+        <v>89429</v>
       </c>
       <c r="H151" s="3" t="n">
-        <v>74123</v>
+        <v>55237</v>
       </c>
       <c r="I151" s="3" t="n">
-        <v>811</v>
+        <v>1158</v>
       </c>
       <c r="J151" s="3" t="n">
-        <v>73312</v>
+        <v>54079</v>
       </c>
       <c r="K151" s="3" t="inlineStr"/>
       <c r="L151" s="3" t="n">
-        <v>19476</v>
+        <v>15210</v>
       </c>
       <c r="M151" s="3" t="n">
-        <v>25188</v>
+        <v>7155</v>
       </c>
       <c r="N151" s="3" t="n">
-        <v>20307</v>
+        <v>18021</v>
       </c>
       <c r="O151" s="3" t="n">
-        <v>3308</v>
+        <v>7801</v>
       </c>
       <c r="P151" s="3" t="n">
-        <v>1365</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="152">
@@ -8339,39 +8179,37 @@
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr"/>
-      <c r="E152" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 13:57</t>
-        </is>
+      <c r="E152" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F152" s="3" t="inlineStr"/>
       <c r="G152" s="3" t="n">
-        <v>88299</v>
+        <v>0</v>
       </c>
       <c r="H152" s="3" t="n">
-        <v>63196</v>
+        <v>0</v>
       </c>
       <c r="I152" s="3" t="n">
-        <v>1077</v>
+        <v>0</v>
       </c>
       <c r="J152" s="3" t="n">
-        <v>62119</v>
+        <v>0</v>
       </c>
       <c r="K152" s="3" t="inlineStr"/>
       <c r="L152" s="3" t="n">
-        <v>17571</v>
+        <v>0</v>
       </c>
       <c r="M152" s="3" t="n">
-        <v>17992</v>
+        <v>0</v>
       </c>
       <c r="N152" s="3" t="n">
-        <v>6262</v>
+        <v>0</v>
       </c>
       <c r="O152" s="3" t="n">
-        <v>8730</v>
+        <v>0</v>
       </c>
       <c r="P152" s="3" t="n">
-        <v>8457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -8391,39 +8229,37 @@
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr"/>
-      <c r="E153" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 09:11</t>
-        </is>
+      <c r="E153" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F153" s="3" t="inlineStr"/>
       <c r="G153" s="3" t="n">
-        <v>83688</v>
+        <v>0</v>
       </c>
       <c r="H153" s="3" t="n">
-        <v>59097</v>
+        <v>0</v>
       </c>
       <c r="I153" s="3" t="n">
-        <v>1572</v>
+        <v>0</v>
       </c>
       <c r="J153" s="3" t="n">
-        <v>57525</v>
+        <v>0</v>
       </c>
       <c r="K153" s="3" t="inlineStr"/>
       <c r="L153" s="3" t="n">
-        <v>13433</v>
+        <v>0</v>
       </c>
       <c r="M153" s="3" t="n">
-        <v>14590</v>
+        <v>0</v>
       </c>
       <c r="N153" s="3" t="n">
-        <v>5446</v>
+        <v>0</v>
       </c>
       <c r="O153" s="3" t="n">
-        <v>11245</v>
+        <v>0</v>
       </c>
       <c r="P153" s="3" t="n">
-        <v>9932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -8443,39 +8279,37 @@
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr"/>
-      <c r="E154" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 09:02</t>
-        </is>
+      <c r="E154" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F154" s="3" t="inlineStr"/>
       <c r="G154" s="3" t="n">
-        <v>153968</v>
+        <v>0</v>
       </c>
       <c r="H154" s="3" t="n">
-        <v>103147</v>
+        <v>0</v>
       </c>
       <c r="I154" s="3" t="n">
-        <v>2912</v>
+        <v>0</v>
       </c>
       <c r="J154" s="3" t="n">
-        <v>100235</v>
+        <v>0</v>
       </c>
       <c r="K154" s="3" t="inlineStr"/>
       <c r="L154" s="3" t="n">
-        <v>13572</v>
+        <v>0</v>
       </c>
       <c r="M154" s="3" t="n">
-        <v>18494</v>
+        <v>0</v>
       </c>
       <c r="N154" s="3" t="n">
-        <v>28695</v>
+        <v>0</v>
       </c>
       <c r="O154" s="3" t="n">
-        <v>22152</v>
+        <v>0</v>
       </c>
       <c r="P154" s="3" t="n">
-        <v>12309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -8495,39 +8329,37 @@
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr"/>
-      <c r="E155" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 10:23</t>
-        </is>
+      <c r="E155" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F155" s="3" t="inlineStr"/>
       <c r="G155" s="3" t="n">
-        <v>105972</v>
+        <v>0</v>
       </c>
       <c r="H155" s="3" t="n">
-        <v>80046</v>
+        <v>0</v>
       </c>
       <c r="I155" s="3" t="n">
-        <v>1221</v>
+        <v>0</v>
       </c>
       <c r="J155" s="3" t="n">
-        <v>78825</v>
+        <v>0</v>
       </c>
       <c r="K155" s="3" t="inlineStr"/>
       <c r="L155" s="3" t="n">
-        <v>24910</v>
+        <v>0</v>
       </c>
       <c r="M155" s="3" t="n">
-        <v>13458</v>
+        <v>0</v>
       </c>
       <c r="N155" s="3" t="n">
-        <v>9670</v>
+        <v>0</v>
       </c>
       <c r="O155" s="3" t="n">
-        <v>12309</v>
+        <v>0</v>
       </c>
       <c r="P155" s="3" t="n">
-        <v>14533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -8549,37 +8381,37 @@
       <c r="D156" s="3" t="inlineStr"/>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 14:23</t>
+          <t>2024-09-16 09:20</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr"/>
       <c r="G156" s="3" t="n">
-        <v>55640</v>
+        <v>52630</v>
       </c>
       <c r="H156" s="3" t="n">
-        <v>36773</v>
+        <v>46552</v>
       </c>
       <c r="I156" s="3" t="n">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="J156" s="3" t="n">
-        <v>36262</v>
+        <v>46083</v>
       </c>
       <c r="K156" s="3" t="inlineStr"/>
       <c r="L156" s="3" t="n">
-        <v>10537</v>
+        <v>12965</v>
       </c>
       <c r="M156" s="3" t="n">
-        <v>6884</v>
+        <v>13081</v>
       </c>
       <c r="N156" s="3" t="n">
-        <v>5773</v>
+        <v>10017</v>
       </c>
       <c r="O156" s="3" t="n">
-        <v>3278</v>
+        <v>6409</v>
       </c>
       <c r="P156" s="3" t="n">
-        <v>7974</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="157">
@@ -8601,37 +8433,37 @@
       <c r="D157" s="3" t="inlineStr"/>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 17:18</t>
+          <t>2024-09-16 11:05</t>
         </is>
       </c>
       <c r="F157" s="3" t="inlineStr"/>
       <c r="G157" s="3" t="n">
-        <v>65565</v>
+        <v>67733</v>
       </c>
       <c r="H157" s="3" t="n">
-        <v>42597</v>
+        <v>50077</v>
       </c>
       <c r="I157" s="3" t="n">
-        <v>710</v>
+        <v>917</v>
       </c>
       <c r="J157" s="3" t="n">
-        <v>41887</v>
+        <v>49160</v>
       </c>
       <c r="K157" s="3" t="inlineStr"/>
       <c r="L157" s="3" t="n">
-        <v>12331</v>
+        <v>12286</v>
       </c>
       <c r="M157" s="3" t="n">
-        <v>10371</v>
+        <v>7781</v>
       </c>
       <c r="N157" s="3" t="n">
-        <v>5139</v>
+        <v>9173</v>
       </c>
       <c r="O157" s="3" t="n">
-        <v>9188</v>
+        <v>9077</v>
       </c>
       <c r="P157" s="3" t="n">
-        <v>2762</v>
+        <v>8383</v>
       </c>
     </row>
     <row r="158">
@@ -8653,37 +8485,37 @@
       <c r="D158" s="3" t="inlineStr"/>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>2024-09-16 09:23</t>
+          <t>2024-09-16 14:55</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr"/>
       <c r="G158" s="3" t="n">
-        <v>54371</v>
+        <v>56619</v>
       </c>
       <c r="H158" s="3" t="n">
-        <v>47859</v>
+        <v>41327</v>
       </c>
       <c r="I158" s="3" t="n">
-        <v>924</v>
+        <v>1114</v>
       </c>
       <c r="J158" s="3" t="n">
-        <v>46935</v>
+        <v>40213</v>
       </c>
       <c r="K158" s="3" t="inlineStr"/>
       <c r="L158" s="3" t="n">
-        <v>6413</v>
+        <v>13875</v>
       </c>
       <c r="M158" s="3" t="n">
-        <v>10523</v>
+        <v>5234</v>
       </c>
       <c r="N158" s="3" t="n">
-        <v>10522</v>
+        <v>8167</v>
       </c>
       <c r="O158" s="3" t="n">
-        <v>7787</v>
+        <v>2277</v>
       </c>
       <c r="P158" s="3" t="n">
-        <v>9341</v>
+        <v>8647</v>
       </c>
     </row>
     <row r="159">
@@ -8703,39 +8535,37 @@
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr"/>
-      <c r="E159" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-16 17:52</t>
-        </is>
+      <c r="E159" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F159" s="3" t="inlineStr"/>
       <c r="G159" s="3" t="n">
-        <v>75155</v>
+        <v>0</v>
  